--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -64,7 +64,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"well" + 0.006*"needs" + 0.005*"effective" + 0.005*"Barnsley" + 0.005*"plans" + 0.005*"protection" + 0.005*"good" + 0.005*"benefit" + 0.005*"risk"', '0.013*"’" + 0.008*"well" + 0.005*"needs" + 0.005*"information" + 0.005*"Barnsley" + 0.005*"good" + 0.005*"means" + 0.004*"plans" + 0.004*"protection" + 0.004*"practice"', '0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.005*"benefit" + 0.005*"effective" + 0.005*"good" + 0.005*"quality" + 0.004*"protection" + 0.004*"means" + 0.004*"However"']</t>
+    <t>['0.013*"’" + 0.008*"well" + 0.007*"needs" + 0.005*"effective" + 0.005*"information" + 0.004*"timely" + 0.004*"practice" + 0.004*"quality" + 0.004*"risk" + 0.004*"clear"', '0.014*"’" + 0.011*"well" + 0.006*"benefit" + 0.005*"needs" + 0.005*"good" + 0.005*"means" + 0.005*"plans" + 0.005*"protection" + 0.005*"practice" + 0.004*"Barnsley"', '0.009*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"good" + 0.005*"effective" + 0.005*"Barnsley" + 0.005*"protection" + 0.005*"plans" + 0.004*"benefit" + 0.004*"education"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -109,7 +109,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.011*"well" + 0.006*"needs" + 0.006*"practice" + 0.006*"plans" + 0.005*"Bath" + 0.005*"leaders" + 0.005*"4" + 0.005*"impact" + 0.005*"effective"', '0.017*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"protection" + 0.005*"receive" + 0.005*"plans" + 0.005*"effective" + 0.004*"North" + 0.004*"leaders"', '0.011*"’" + 0.005*"well" + 0.005*"leaders" + 0.005*"clear" + 0.005*"needs" + 0.004*"plans" + 0.004*"practice" + 0.004*"impact" + 0.004*"East" + 0.004*"effective"']</t>
+    <t>['0.020*"’" + 0.010*"well" + 0.008*"needs" + 0.005*"Somerset" + 0.005*"practice" + 0.005*"protection" + 0.004*"East" + 0.004*"leaders" + 0.004*"4" + 0.004*"2022"', '0.021*"’" + 0.008*"well" + 0.005*"practice" + 0.005*"impact" + 0.005*"leaders" + 0.005*"plans" + 0.005*"‘" + 0.004*"28" + 0.004*"4" + 0.004*"Bath"', '0.013*"’" + 0.008*"well" + 0.006*"plans" + 0.006*"effective" + 0.006*"needs" + 0.006*"practice" + 0.005*"leaders" + 0.005*"receive" + 0.005*"clear" + 0.005*"North"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -151,7 +151,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"supported" + 0.004*"plans" + 0.004*"ensure" + 0.004*"good" + 0.004*"need" + 0.004*"information" + 0.004*"receive"', '0.020*"’" + 0.008*"needs" + 0.007*"ensure" + 0.006*"Bedford" + 0.006*"well" + 0.005*"plans" + 0.005*"family" + 0.005*"education" + 0.005*"good" + 0.005*"progress"', '0.021*"’" + 0.007*"ensure" + 0.005*"plans" + 0.005*"good" + 0.005*"Bedford" + 0.005*"well" + 0.005*"needs" + 0.005*"progress" + 0.004*"supported" + 0.004*"Borough"']</t>
+    <t>['0.019*"’" + 0.006*"needs" + 0.006*"good" + 0.006*"ensure" + 0.005*"Bedford" + 0.005*"plans" + 0.005*"education" + 0.005*"well" + 0.004*"need" + 0.004*"progress"', '0.019*"’" + 0.007*"needs" + 0.006*"ensure" + 0.005*"well" + 0.005*"supported" + 0.005*"education" + 0.005*"15" + 0.004*"Bedford" + 0.004*"progress" + 0.004*"relationships"', '0.019*"’" + 0.007*"ensure" + 0.007*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"Borough" + 0.005*"Bedford" + 0.005*"supported" + 0.005*"progress" + 0.005*"family"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -190,7 +190,7 @@
     <t>0.1947</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"needs" + 0.007*"well" + 0.007*"effective" + 0.006*"trust" + 0.006*"Birmingham" + 0.005*"progress" + 0.005*"risk" + 0.005*"3" + 0.005*"appropriate"', '0.013*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"Birmingham" + 0.005*"effective" + 0.005*"appropriate" + 0.005*"progress" + 0.005*"trust" + 0.005*"2023"', '0.015*"’" + 0.010*"needs" + 0.007*"effective" + 0.007*"plans" + 0.006*"progress" + 0.005*"Birmingham" + 0.005*"well" + 0.005*"3" + 0.005*"timely" + 0.005*"trust"']</t>
+    <t>['0.015*"’" + 0.009*"needs" + 0.006*"trust" + 0.006*"plans" + 0.006*"well" + 0.006*"Birmingham" + 0.005*"effective" + 0.005*"appropriate" + 0.005*"progress" + 0.004*"2023"', '0.017*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"effective" + 0.006*"plans" + 0.005*"Birmingham" + 0.005*"trust" + 0.005*"appropriate" + 0.005*"progress" + 0.005*"risk"', '0.015*"’" + 0.011*"needs" + 0.007*"effective" + 0.006*"well" + 0.006*"progress" + 0.006*"3" + 0.006*"plans" + 0.006*"Birmingham" + 0.005*"20" + 0.005*"response"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -232,7 +232,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"needs" + 0.007*"quality" + 0.006*"practice" + 0.006*"impact" + 0.006*"Darwen" + 0.005*"well" + 0.005*"result" + 0.005*"plans" + 0.004*"planning"', '0.015*"’" + 0.008*"needs" + 0.008*"Blackburn" + 0.007*"impact" + 0.006*"quality" + 0.006*"practice" + 0.006*"planning" + 0.006*"well" + 0.005*"plans" + 0.005*"means"', '0.012*"’" + 0.008*"practice" + 0.008*"Blackburn" + 0.007*"Darwen" + 0.007*"quality" + 0.007*"needs" + 0.007*"well" + 0.006*"4" + 0.006*"effective" + 0.005*"leaders"']</t>
+    <t>['0.016*"’" + 0.008*"practice" + 0.008*"quality" + 0.007*"Blackburn" + 0.007*"well" + 0.006*"needs" + 0.006*"impact" + 0.005*"means" + 0.005*"planning" + 0.005*"Darwen"', '0.010*"’" + 0.007*"needs" + 0.006*"quality" + 0.005*"practice" + 0.005*"Blackburn" + 0.005*"Darwen" + 0.005*"impact" + 0.005*"well" + 0.004*"planning" + 0.004*"24"', '0.014*"’" + 0.008*"needs" + 0.008*"Darwen" + 0.007*"practice" + 0.006*"impact" + 0.006*"quality" + 0.006*"Blackburn" + 0.006*"well" + 0.005*"means" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -268,7 +268,7 @@
     <t>0.138</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.013*"needs" + 0.009*"well" + 0.007*"Blackpool" + 0.005*"plans" + 0.005*"experiences" + 0.005*"practice" + 0.005*"effective" + 0.005*"progress" + 0.004*"supported"', '0.018*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"Blackpool" + 0.007*"effective" + 0.006*"carers" + 0.005*"supported" + 0.005*"plans" + 0.005*"practice" + 0.005*"response"', '0.017*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"Blackpool" + 0.005*"effective" + 0.005*"16" + 0.005*"5" + 0.005*"practice" + 0.005*"quality" + 0.004*"plans"']</t>
+    <t>['0.015*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"Blackpool" + 0.006*"effective" + 0.005*"experiences" + 0.005*"quality" + 0.005*"5" + 0.004*"plans" + 0.004*"understand"', '0.017*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"Blackpool" + 0.007*"effective" + 0.005*"practice" + 0.005*"16" + 0.005*"progress" + 0.005*"plans" + 0.004*"supported"', '0.017*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"Blackpool" + 0.006*"plans" + 0.006*"supported" + 0.006*"practice" + 0.005*"carers" + 0.005*"good" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>350</t>
@@ -295,7 +295,7 @@
     <t>0.2379</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"good" + 0.006*"needs" + 0.006*"well" + 0.005*"risk" + 0.005*"experiences" + 0.004*"ensure" + 0.004*"planning" + 0.004*"protection" + 0.004*"early"', '0.014*"’" + 0.010*"good" + 0.009*"needs" + 0.007*"well" + 0.006*"risk" + 0.005*"planning" + 0.005*"experiences" + 0.005*"early" + 0.005*"effective" + 0.005*"appropriate"', '0.010*"’" + 0.008*"good" + 0.008*"well" + 0.007*"appropriate" + 0.006*"needs" + 0.006*"effective" + 0.005*"ensure" + 0.005*"experiences" + 0.005*"protection" + 0.005*"practice"']</t>
+    <t>['0.014*"’" + 0.009*"good" + 0.007*"needs" + 0.006*"well" + 0.006*"experiences" + 0.005*"early" + 0.005*"protection" + 0.005*"ensure" + 0.005*"risk" + 0.005*"practice"', '0.012*"’" + 0.010*"good" + 0.007*"needs" + 0.006*"well" + 0.006*"appropriate" + 0.006*"experiences" + 0.005*"planning" + 0.005*"effective" + 0.005*"risk" + 0.005*"ensure"', '0.009*"’" + 0.008*"well" + 0.008*"good" + 0.007*"needs" + 0.006*"appropriate" + 0.005*"effective" + 0.004*"planning" + 0.004*"risk" + 0.004*"ensure" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -331,7 +331,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"practice" + 0.006*"quality" + 0.006*"17" + 0.005*"6" + 0.005*"Bournemouth" + 0.005*"However" + 0.005*"impact" + 0.005*"number" + 0.005*"Christchurch"', '0.013*"’" + 0.005*"practice" + 0.005*"progress" + 0.005*"risk" + 0.004*"quality" + 0.004*"Bournemouth" + 0.004*"time" + 0.004*"However" + 0.004*"Christchurch" + 0.003*"Poole"', '0.021*"’" + 0.006*"quality" + 0.006*"progress" + 0.005*"risk" + 0.005*"impact" + 0.005*"time" + 0.005*"practice" + 0.005*"Poole" + 0.005*"right" + 0.004*"Christchurch"']</t>
+    <t>['0.021*"’" + 0.007*"practice" + 0.007*"quality" + 0.005*"progress" + 0.005*"Poole" + 0.005*"Christchurch" + 0.005*"time" + 0.005*"17" + 0.005*"risk" + 0.005*"impact"', '0.017*"’" + 0.007*"quality" + 0.005*"progress" + 0.005*"Bournemouth" + 0.005*"6" + 0.005*"However" + 0.004*"impact" + 0.004*"Christchurch" + 0.004*"17" + 0.004*"time"', '0.014*"’" + 0.005*"practice" + 0.004*"quality" + 0.004*"progress" + 0.004*"risk" + 0.004*"number" + 0.004*"6" + 0.004*"17" + 0.004*"impact" + 0.004*"Bournemouth"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -373,7 +373,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.006*"good" + 0.006*"effective" + 0.005*"Forest" + 0.005*"plans" + 0.005*"risk" + 0.005*"Bracknell" + 0.005*"progress" + 0.005*"education" + 0.005*"quality"', '0.015*"’" + 0.007*"needs" + 0.006*"quality" + 0.006*"Bracknell" + 0.006*"Forest" + 0.006*"effective" + 0.005*"plans" + 0.005*"good" + 0.005*"leaders" + 0.005*"need"', '0.021*"’" + 0.008*"risk" + 0.008*"Bracknell" + 0.008*"Forest" + 0.007*"needs" + 0.006*"quality" + 0.006*"well" + 0.006*"good" + 0.006*"provided" + 0.006*"need"']</t>
+    <t>['0.015*"’" + 0.006*"needs" + 0.005*"Bracknell" + 0.005*"provided" + 0.005*"risk" + 0.005*"quality" + 0.005*"carers" + 0.005*"Forest" + 0.005*"good" + 0.005*"effective"', '0.018*"’" + 0.007*"risk" + 0.007*"Forest" + 0.007*"needs" + 0.006*"effective" + 0.006*"quality" + 0.006*"good" + 0.005*"plans" + 0.005*"well" + 0.005*"progress"', '0.016*"’" + 0.009*"Bracknell" + 0.007*"Forest" + 0.007*"needs" + 0.006*"good" + 0.006*"quality" + 0.006*"risk" + 0.006*"progress" + 0.005*"need" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>846</t>
@@ -409,7 +409,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.006*"needs" + 0.006*"’" + 0.005*"good" + 0.004*"leaders" + 0.004*"recording" + 0.004*"ensure" + 0.003*"strong" + 0.003*"well" + 0.003*"effective" + 0.003*"supported"', '0.007*"’" + 0.007*"needs" + 0.007*"good" + 0.005*"leaders" + 0.005*"recording" + 0.005*"Hove" + 0.004*"supported" + 0.004*"However" + 0.004*"need" + 0.004*"well"', '0.019*"’" + 0.011*"needs" + 0.010*"good" + 0.007*"recording" + 0.007*"well" + 0.006*"leaders" + 0.006*"plans" + 0.006*"need" + 0.005*"Brighton" + 0.005*"However"']</t>
+    <t>['0.011*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"leaders" + 0.005*"recording" + 0.004*"need" + 0.004*"good" + 0.004*"quality" + 0.004*"arrangements" + 0.004*"effective"', '0.017*"’" + 0.010*"needs" + 0.008*"good" + 0.006*"leaders" + 0.006*"recording" + 0.006*"plans" + 0.006*"need" + 0.005*"well" + 0.005*"supported" + 0.005*"effectively"', '0.013*"’" + 0.011*"good" + 0.009*"needs" + 0.006*"recording" + 0.006*"well" + 0.005*"quality" + 0.005*"However" + 0.005*"Hove" + 0.005*"response" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -445,7 +445,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"good" + 0.007*"Bristol" + 0.005*"16" + 0.005*"leaders" + 0.004*"ensure" + 0.004*"health" + 0.004*"receive"', '0.022*"’" + 0.009*"well" + 0.009*"Bristol" + 0.008*"good" + 0.007*"needs" + 0.005*"progress" + 0.005*"health" + 0.005*"always" + 0.005*"need" + 0.005*"plans"', '0.020*"’" + 0.008*"well" + 0.008*"needs" + 0.008*"good" + 0.006*"Bristol" + 0.006*"progress" + 0.005*"health" + 0.005*"plans" + 0.005*"leaders" + 0.004*"risk"']</t>
+    <t>['0.015*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Bristol" + 0.007*"good" + 0.005*"leaders" + 0.005*"progress" + 0.005*"health" + 0.005*"need" + 0.004*"27"', '0.018*"’" + 0.008*"Bristol" + 0.006*"well" + 0.006*"good" + 0.005*"needs" + 0.005*"progress" + 0.005*"health" + 0.005*"plans" + 0.004*"need" + 0.004*"risk"', '0.023*"’" + 0.010*"well" + 0.009*"good" + 0.009*"needs" + 0.007*"Bristol" + 0.005*"receive" + 0.005*"always" + 0.005*"health" + 0.005*"16" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -472,7 +472,7 @@
     <t>0.159</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"17" + 0.005*"plans" + 0.005*"many" + 0.005*"protection" + 0.004*"number" + 0.004*"6" + 0.004*"Buckinghamshire" + 0.004*"needs" + 0.004*"2021"', '0.018*"’" + 0.005*"number" + 0.005*"Buckinghamshire" + 0.005*"plans" + 0.004*"6" + 0.004*"practice" + 0.004*"17" + 0.004*"protection" + 0.004*"2021" + 0.004*"December"', '0.009*"’" + 0.005*"number" + 0.004*"plans" + 0.004*"Buckinghamshire" + 0.003*"December" + 0.003*"17" + 0.003*"progress" + 0.003*"practice" + 0.003*"2021" + 0.003*"teams"']</t>
+    <t>['0.011*"’" + 0.005*"plans" + 0.004*"many" + 0.004*"practice" + 0.004*"6" + 0.004*"number" + 0.004*"2021" + 0.004*"17" + 0.003*"protection" + 0.003*"Buckinghamshire"', '0.015*"’" + 0.005*"number" + 0.005*"Buckinghamshire" + 0.005*"17" + 0.005*"plans" + 0.005*"protection" + 0.004*"2021" + 0.004*"December" + 0.004*"needs" + 0.004*"6"', '0.013*"’" + 0.005*"plans" + 0.004*"number" + 0.004*"December" + 0.004*"6" + 0.004*"many" + 0.004*"practice" + 0.004*"Buckinghamshire" + 0.004*"17" + 0.003*"progress"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -508,7 +508,7 @@
     <t>0.1679</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"protection" + 0.006*"practice" + 0.006*"needs" + 0.006*"impact" + 0.006*"team" + 0.006*"2021" + 0.005*"need" + 0.004*"Bury" + 0.004*"always"', '0.012*"’" + 0.007*"2021" + 0.006*"protection" + 0.005*"team" + 0.005*"needs" + 0.005*"Bury" + 0.005*"practice" + 0.005*"risk" + 0.005*"quality" + 0.004*"progress"', '0.013*"’" + 0.007*"needs" + 0.007*"protection" + 0.006*"2021" + 0.006*"need" + 0.005*"team" + 0.005*"practice" + 0.005*"impact" + 0.005*"quality" + 0.005*"risk"']</t>
+    <t>['0.013*"’" + 0.007*"2021" + 0.006*"protection" + 0.006*"risk" + 0.005*"needs" + 0.005*"quality" + 0.005*"impact" + 0.004*"team" + 0.004*"new" + 0.004*"Bury"', '0.009*"’" + 0.007*"protection" + 0.006*"team" + 0.006*"practice" + 0.005*"needs" + 0.005*"need" + 0.005*"2021" + 0.005*"risk" + 0.005*"impact" + 0.005*"October"', '0.012*"’" + 0.008*"needs" + 0.007*"2021" + 0.006*"practice" + 0.006*"protection" + 0.006*"team" + 0.005*"Bury" + 0.005*"need" + 0.005*"impact" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -538,7 +538,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"well" + 0.005*"effective" + 0.005*"protection" + 0.005*"good" + 0.005*"Calderdale" + 0.005*"‘" + 0.004*"practice" + 0.004*"education" + 0.003*"meetings"', '0.014*"’" + 0.007*"well" + 0.006*"Calderdale" + 0.006*"practice" + 0.006*"good" + 0.005*"carers" + 0.004*"effective" + 0.004*"need" + 0.004*"protection" + 0.004*"‘"', '0.017*"’" + 0.008*"well" + 0.006*"practice" + 0.005*"good" + 0.004*"Calderdale" + 0.004*"protection" + 0.004*"effective" + 0.004*"need" + 0.004*"needs" + 0.004*"leaders"']</t>
+    <t>['0.013*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"effective" + 0.005*"‘" + 0.005*"protection" + 0.005*"good" + 0.004*"Calderdale" + 0.004*"need" + 0.004*"education"', '0.018*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"good" + 0.006*"Calderdale" + 0.005*"risk" + 0.005*"protection" + 0.004*"‘" + 0.004*"leaders" + 0.004*"needs"', '0.011*"’" + 0.008*"well" + 0.005*"Calderdale" + 0.005*"good" + 0.004*"carers" + 0.004*"practice" + 0.004*"effective" + 0.004*"inform" + 0.004*"protection" + 0.003*"education"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -574,7 +574,7 @@
     <t>0.175</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"good" + 0.006*"quality" + 0.006*"teams" + 0.006*"need" + 0.006*"effective" + 0.005*"impact" + 0.005*"plans"', '0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"good" + 0.007*"plans" + 0.007*"impact" + 0.007*"need" + 0.007*"teams" + 0.006*"quality" + 0.005*"However"', '0.014*"’" + 0.011*"well" + 0.010*"good" + 0.008*"need" + 0.007*"impact" + 0.007*"teams" + 0.007*"progress" + 0.007*"needs" + 0.007*"plans" + 0.006*"However"']</t>
+    <t>['0.015*"’" + 0.011*"well" + 0.010*"need" + 0.008*"good" + 0.008*"needs" + 0.008*"impact" + 0.007*"plans" + 0.007*"teams" + 0.007*"effective" + 0.006*"quality"', '0.011*"’" + 0.008*"good" + 0.007*"impact" + 0.007*"needs" + 0.006*"plans" + 0.006*"well" + 0.006*"teams" + 0.006*"need" + 0.005*"quality" + 0.005*"protection"', '0.015*"’" + 0.011*"well" + 0.010*"good" + 0.008*"needs" + 0.007*"teams" + 0.006*"progress" + 0.006*"However" + 0.006*"quality" + 0.006*"plans" + 0.006*"impact"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -604,7 +604,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"needs" + 0.008*"well" + 0.006*"carers" + 0.006*"good" + 0.006*"Bedfordshire" + 0.006*"progress" + 0.006*"need" + 0.005*"plans" + 0.005*"Central"', '0.017*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"need" + 0.006*"good" + 0.005*"plans" + 0.005*"carers" + 0.005*"information" + 0.004*"progress" + 0.004*"2022"', '0.014*"’" + 0.008*"well" + 0.007*"carers" + 0.006*"plans" + 0.006*"good" + 0.006*"progress" + 0.005*"need" + 0.005*"needs" + 0.005*"Central" + 0.005*"education"']</t>
+    <t>['0.023*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"carers" + 0.006*"Central" + 0.006*"need" + 0.006*"progress" + 0.005*"effective" + 0.005*"good"', '0.015*"’" + 0.007*"well" + 0.007*"good" + 0.006*"need" + 0.006*"needs" + 0.006*"progress" + 0.006*"carers" + 0.005*"plans" + 0.005*"supported" + 0.005*"number"', '0.009*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"need" + 0.006*"good" + 0.006*"carers" + 0.005*"Bedfordshire" + 0.005*"effective" + 0.005*"plans" + 0.004*"Central"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -640,7 +640,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"good" + 0.008*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"However" + 0.006*"always" + 0.005*"carers" + 0.005*"risk" + 0.005*"plans"', '0.018*"’" + 0.009*"needs" + 0.008*"good" + 0.008*"well" + 0.008*"plans" + 0.007*"supported" + 0.006*"practice" + 0.006*"need" + 0.006*"effective" + 0.006*"always"', '0.009*"’" + 0.008*"well" + 0.006*"plans" + 0.006*"ensure" + 0.005*"need" + 0.005*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"timely" + 0.004*"always"']</t>
+    <t>['0.011*"’" + 0.007*"good" + 0.007*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"plans" + 0.005*"need" + 0.005*"supported" + 0.005*"However" + 0.004*"quality"', '0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"good" + 0.007*"supported" + 0.006*"always" + 0.006*"plans" + 0.006*"ensure" + 0.006*"effective" + 0.005*"need"', '0.015*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"plans" + 0.007*"practice" + 0.006*"need" + 0.005*"However" + 0.005*"always" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -676,7 +676,7 @@
     <t>0.1816</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"learning" + 0.005*"order" + 0.005*"impact" + 0.004*"effective" + 0.004*"good" + 0.004*"information"', '0.021*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"effectively" + 0.004*"always" + 0.004*"practice" + 0.004*"impact" + 0.004*"early" + 0.004*"leaders"', '0.019*"’" + 0.006*"well" + 0.006*"needs" + 0.004*"always" + 0.004*"effectively" + 0.004*"effective" + 0.004*"risk" + 0.004*"plans" + 0.004*"including" + 0.004*"order"']</t>
+    <t>['0.026*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"practice" + 0.005*"order" + 0.005*"effectively" + 0.005*"receive" + 0.004*"plans" + 0.004*"always" + 0.004*"progress"', '0.011*"’" + 0.005*"well" + 0.004*"needs" + 0.003*"always" + 0.003*"intervention" + 0.003*"learning" + 0.003*"practice" + 0.003*"good" + 0.003*"information" + 0.003*"impact"', '0.020*"’" + 0.007*"well" + 0.007*"needs" + 0.004*"effective" + 0.004*"plans" + 0.004*"practice" + 0.004*"impact" + 0.004*"early" + 0.004*"leaders" + 0.004*"effectively"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -712,7 +712,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.005*"plans" + 0.005*"Bradford" + 0.005*"impact" + 0.005*"quality" + 0.005*"2" + 0.005*"Council" + 0.004*"City" + 0.004*"◼" + 0.004*"2022"', '0.022*"’" + 0.008*"plans" + 0.005*"Bradford" + 0.005*"needs" + 0.005*"need" + 0.005*"2" + 0.005*"risk" + 0.004*"senior" + 0.004*"lack" + 0.004*"progress"', '0.017*"’" + 0.007*"plans" + 0.005*"risk" + 0.004*"needs" + 0.004*"practice" + 0.004*"Council" + 0.004*"changes" + 0.004*"2022" + 0.004*"impact" + 0.004*"Borough"']</t>
+    <t>['0.023*"’" + 0.006*"plans" + 0.005*"Bradford" + 0.004*"November" + 0.004*"practice" + 0.004*"Borough" + 0.004*"worker" + 0.004*"planning" + 0.004*"◼" + 0.004*"City"', '0.021*"’" + 0.008*"plans" + 0.006*"needs" + 0.005*"Bradford" + 0.005*"2" + 0.005*"21" + 0.005*"2022" + 0.004*"need" + 0.004*"quality" + 0.004*"lack"', '0.018*"’" + 0.006*"plans" + 0.005*"2" + 0.005*"impact" + 0.005*"risk" + 0.005*"needs" + 0.005*"Bradford" + 0.004*"Council" + 0.004*"quality" + 0.004*"◼"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -745,7 +745,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.012*"needs" + 0.011*"’" + 0.011*"well" + 0.008*"ensure" + 0.007*"clear" + 0.006*"effective" + 0.006*"individual" + 0.006*"experiences" + 0.006*"good" + 0.005*"progress"', '0.012*"needs" + 0.012*"’" + 0.009*"well" + 0.008*"ensure" + 0.007*"effective" + 0.006*"progress" + 0.005*"within" + 0.005*"good" + 0.005*"plans" + 0.005*"practice"', '0.012*"’" + 0.009*"needs" + 0.009*"well" + 0.009*"ensure" + 0.006*"effective" + 0.006*"clear" + 0.006*"plans" + 0.006*"progress" + 0.005*"supported" + 0.005*"good"']</t>
+    <t>['0.016*"needs" + 0.012*"’" + 0.011*"ensure" + 0.011*"well" + 0.007*"effective" + 0.006*"clear" + 0.006*"good" + 0.005*"individual" + 0.005*"progress" + 0.005*"plans"', '0.012*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"effective" + 0.006*"progress" + 0.006*"clear" + 0.006*"ensure" + 0.004*"good" + 0.004*"clearly" + 0.004*"supported"', '0.011*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"ensure" + 0.007*"plans" + 0.006*"clear" + 0.006*"progress" + 0.006*"effective" + 0.006*"good" + 0.005*"within"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -781,7 +781,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"good" + 0.008*"well" + 0.007*"effective" + 0.007*"Wakefield" + 0.007*"leaders" + 0.006*"November" + 0.006*"plans" + 0.006*"quality" + 0.005*"practice"', '0.014*"’" + 0.009*"quality" + 0.008*"Wakefield" + 0.008*"November" + 0.007*"well" + 0.007*"leaders" + 0.006*"progress" + 0.006*"effective" + 0.006*"plans" + 0.006*"needs"', '0.018*"’" + 0.008*"Wakefield" + 0.007*"well" + 0.007*"leaders" + 0.007*"quality" + 0.007*"November" + 0.006*"effective" + 0.006*"good" + 0.006*"practice" + 0.005*"plans"']</t>
+    <t>['0.012*"’" + 0.008*"quality" + 0.008*"leaders" + 0.007*"Wakefield" + 0.007*"November" + 0.007*"well" + 0.007*"good" + 0.006*"plans" + 0.006*"effective" + 0.005*"progress"', '0.018*"’" + 0.008*"well" + 0.007*"November" + 0.007*"leaders" + 0.007*"effective" + 0.006*"Wakefield" + 0.006*"quality" + 0.006*"good" + 0.005*"plans" + 0.005*"ensure"', '0.019*"’" + 0.009*"Wakefield" + 0.007*"quality" + 0.007*"practice" + 0.007*"well" + 0.007*"November" + 0.007*"effective" + 0.007*"good" + 0.006*"plans" + 0.006*"leaders"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -808,7 +808,7 @@
     <t>04/05/22</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"March" + 0.006*"needs" + 0.005*"effective" + 0.005*"well" + 0.004*"quality" + 0.004*"supported" + 0.004*"However" + 0.004*"7" + 0.004*"plans"', '0.011*"’" + 0.008*"quality" + 0.007*"York" + 0.006*"March" + 0.006*"needs" + 0.006*"ensure" + 0.005*"need" + 0.005*"effective" + 0.005*"good" + 0.004*"appropriate"', '0.020*"’" + 0.009*"needs" + 0.008*"March" + 0.007*"effective" + 0.007*"quality" + 0.006*"However" + 0.006*"education" + 0.006*"plans" + 0.006*"ensure" + 0.005*"well"']</t>
+    <t>['0.017*"’" + 0.008*"quality" + 0.007*"March" + 0.007*"needs" + 0.006*"However" + 0.006*"effective" + 0.005*"plans" + 0.005*"7" + 0.005*"ensure" + 0.005*"training"', '0.013*"’" + 0.008*"needs" + 0.006*"ensure" + 0.006*"effective" + 0.006*"March" + 0.006*"York" + 0.006*"quality" + 0.005*"However" + 0.005*"need" + 0.005*"education"', '0.015*"’" + 0.008*"March" + 0.007*"needs" + 0.006*"quality" + 0.005*"practice" + 0.005*"effective" + 0.005*"well" + 0.005*"York" + 0.005*"good" + 0.005*"7"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -844,7 +844,7 @@
     <t>0.1729</t>
   </si>
   <si>
-    <t>['0.015*"well" + 0.012*"’" + 0.011*"quality" + 0.009*"effective" + 0.009*"leaders" + 0.007*"timely" + 0.006*"arrangements" + 0.006*"plans" + 0.006*"good" + 0.005*"highly"', '0.014*"well" + 0.009*"quality" + 0.009*"effective" + 0.008*"’" + 0.007*"leaders" + 0.006*"plans" + 0.004*"good" + 0.004*"targeted" + 0.004*"arrangements" + 0.004*"needs"', '0.015*"well" + 0.014*"’" + 0.008*"leaders" + 0.008*"quality" + 0.008*"effective" + 0.007*"good" + 0.006*"plans" + 0.005*"timely" + 0.005*"Senior" + 0.005*"highly"']</t>
+    <t>['0.014*"well" + 0.012*"’" + 0.009*"quality" + 0.009*"effective" + 0.007*"leaders" + 0.005*"timely" + 0.005*"plans" + 0.005*"good" + 0.005*"arrangements" + 0.004*"practice"', '0.016*"well" + 0.013*"’" + 0.011*"quality" + 0.010*"leaders" + 0.009*"effective" + 0.006*"plans" + 0.006*"good" + 0.006*"arrangements" + 0.006*"highly" + 0.005*"ensure"', '0.013*"well" + 0.011*"’" + 0.008*"quality" + 0.008*"effective" + 0.007*"leaders" + 0.006*"timely" + 0.006*"good" + 0.005*"plans" + 0.005*"arrangements" + 0.004*"strong"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -871,7 +871,7 @@
     <t>0.1647</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.005*"practice" + 0.005*"leaders" + 0.005*"Senior" + 0.004*"Scilly" + 0.004*"ensure" + 0.004*"example" + 0.004*"plans" + 0.004*"need"', '0.029*"’" + 0.009*"well" + 0.008*"practice" + 0.007*"leaders" + 0.007*"Senior" + 0.006*"plans" + 0.006*"Scilly" + 0.005*"‘" + 0.005*"quality" + 0.004*"needs"', '0.014*"’" + 0.010*"well" + 0.007*"need" + 0.007*"Senior" + 0.006*"‘" + 0.005*"leaders" + 0.005*"quality" + 0.005*"ensure" + 0.005*"practice" + 0.005*"plans"']</t>
+    <t>['0.024*"’" + 0.010*"well" + 0.008*"leaders" + 0.007*"Senior" + 0.006*"practice" + 0.006*"need" + 0.006*"‘" + 0.005*"Scilly" + 0.004*"plans" + 0.004*"workforce"', '0.020*"’" + 0.008*"well" + 0.006*"practice" + 0.005*"plans" + 0.005*"Senior" + 0.005*"Scilly" + 0.005*"quality" + 0.005*"ensure" + 0.004*"‘" + 0.004*"good"', '0.018*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"Senior" + 0.006*"leaders" + 0.005*"plans" + 0.005*"need" + 0.005*"‘" + 0.005*"Scilly" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -907,7 +907,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"well" + 0.006*"Coventry" + 0.005*"need" + 0.005*"supported" + 0.005*"strong" + 0.005*"needs" + 0.005*"family" + 0.004*"plans" + 0.004*"understand"', '0.015*"’" + 0.008*"Coventry" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"supported" + 0.005*"strong" + 0.005*"family" + 0.004*"need" + 0.004*"1"', '0.024*"’" + 0.009*"needs" + 0.009*"Coventry" + 0.008*"well" + 0.008*"supported" + 0.007*"plans" + 0.007*"family" + 0.006*"strong" + 0.005*"need" + 0.005*"2022"']</t>
+    <t>['0.016*"’" + 0.007*"well" + 0.007*"Coventry" + 0.007*"plans" + 0.007*"needs" + 0.006*"strong" + 0.006*"family" + 0.005*"need" + 0.005*"1" + 0.005*"supported"', '0.023*"’" + 0.009*"well" + 0.009*"needs" + 0.009*"supported" + 0.008*"Coventry" + 0.006*"family" + 0.006*"plans" + 0.005*"strong" + 0.005*"need" + 0.005*"ensure"', '0.016*"’" + 0.009*"Coventry" + 0.007*"well" + 0.005*"supported" + 0.005*"needs" + 0.005*"plans" + 0.005*"family" + 0.004*"strong" + 0.004*"1" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -943,7 +943,7 @@
     <t>0.1983</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"October" + 0.007*"well" + 0.006*"practice" + 0.006*"leaders" + 0.006*"Darlington" + 0.006*"needs" + 0.005*"education" + 0.004*"quality" + 0.004*"need"', '0.021*"’" + 0.007*"well" + 0.006*"Darlington" + 0.006*"October" + 0.006*"needs" + 0.005*"effective" + 0.005*"practice" + 0.005*"leaders" + 0.005*"supported" + 0.005*"quality"', '0.020*"’" + 0.009*"well" + 0.008*"leaders" + 0.008*"needs" + 0.006*"practice" + 0.006*"October" + 0.005*"Darlington" + 0.005*"effective" + 0.005*"quality" + 0.005*"supported"']</t>
+    <t>['0.024*"’" + 0.009*"well" + 0.007*"leaders" + 0.007*"October" + 0.006*"needs" + 0.006*"Darlington" + 0.006*"effective" + 0.005*"21" + 0.005*"practice" + 0.005*"quality"', '0.016*"’" + 0.009*"well" + 0.007*"practice" + 0.007*"leaders" + 0.007*"needs" + 0.006*"October" + 0.005*"supported" + 0.005*"10" + 0.005*"quality" + 0.004*"Darlington"', '0.013*"’" + 0.007*"needs" + 0.007*"Darlington" + 0.006*"practice" + 0.006*"October" + 0.006*"well" + 0.005*"leaders" + 0.005*"quality" + 0.005*"education" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -982,7 +982,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.010*"needs" + 0.007*"Derby" + 0.007*"quality" + 0.006*"receive" + 0.006*"appropriate" + 0.006*"plans" + 0.005*"well" + 0.005*"good" + 0.005*"comprehensive"', '0.020*"’" + 0.009*"needs" + 0.006*"quality" + 0.006*"good" + 0.006*"receive" + 0.005*"Derby" + 0.005*"need" + 0.005*"progress" + 0.005*"oversight" + 0.005*"plans"', '0.017*"’" + 0.010*"needs" + 0.009*"Derby" + 0.007*"leaders" + 0.007*"progress" + 0.006*"receive" + 0.006*"appropriate" + 0.006*"quality" + 0.006*"plans" + 0.006*"need"']</t>
+    <t>['0.011*"’" + 0.008*"needs" + 0.006*"Derby" + 0.005*"progress" + 0.005*"oversight" + 0.004*"well" + 0.004*"quality" + 0.004*"good" + 0.004*"leaders" + 0.004*"receive"', '0.025*"’" + 0.010*"needs" + 0.008*"Derby" + 0.007*"quality" + 0.006*"plans" + 0.006*"receive" + 0.006*"progress" + 0.005*"good" + 0.005*"appropriate" + 0.005*"need"', '0.023*"’" + 0.010*"needs" + 0.007*"receive" + 0.007*"Derby" + 0.007*"leaders" + 0.006*"quality" + 0.006*"appropriate" + 0.006*"need" + 0.006*"progress" + 0.005*"well"']</t>
   </si>
   <si>
     <t>830</t>
@@ -1009,7 +1009,7 @@
     <t>0.1648</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"quality" + 0.006*"practice" + 0.005*"oversight" + 0.005*"need" + 0.004*"good" + 0.004*"needs" + 0.004*"well" + 0.004*"early" + 0.004*"progress"', '0.010*"’" + 0.008*"quality" + 0.007*"oversight" + 0.006*"practice" + 0.005*"good" + 0.005*"protection" + 0.005*"leaders" + 0.005*"needs" + 0.005*"need" + 0.005*"well"', '0.015*"’" + 0.009*"quality" + 0.008*"needs" + 0.006*"practice" + 0.006*"oversight" + 0.005*"need" + 0.005*"early" + 0.004*"good" + 0.004*"risk" + 0.004*"progress"']</t>
+    <t>['0.014*"’" + 0.011*"quality" + 0.008*"oversight" + 0.007*"practice" + 0.006*"needs" + 0.006*"need" + 0.006*"good" + 0.005*"early" + 0.004*"protection" + 0.004*"well"', '0.009*"’" + 0.006*"quality" + 0.005*"needs" + 0.005*"practice" + 0.004*"oversight" + 0.004*"need" + 0.004*"plans" + 0.004*"good" + 0.003*"progress" + 0.003*"well"', '0.012*"’" + 0.008*"quality" + 0.006*"practice" + 0.005*"needs" + 0.005*"oversight" + 0.004*"good" + 0.004*"well" + 0.004*"leaders" + 0.004*"progress" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1039,7 +1039,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.005*"leaders" + 0.005*"well" + 0.005*"health" + 0.004*"risk" + 0.004*"Devon" + 0.004*"progress" + 0.004*"need" + 0.003*"plans" + 0.003*"protection"', '0.007*"’" + 0.005*"need" + 0.004*"risk" + 0.004*"well" + 0.004*"protection" + 0.004*"health" + 0.004*"progress" + 0.004*"Devon" + 0.004*"areas" + 0.003*"case"', '0.009*"’" + 0.007*"well" + 0.005*"risk" + 0.005*"progress" + 0.005*"leaders" + 0.005*"health" + 0.004*"case" + 0.004*"practice" + 0.004*"risks" + 0.004*"time"']</t>
+    <t>['0.008*"’" + 0.006*"well" + 0.006*"risk" + 0.006*"health" + 0.005*"leaders" + 0.004*"time" + 0.004*"areas" + 0.004*"progress" + 0.004*"needs" + 0.004*"living"', '0.011*"’" + 0.005*"progress" + 0.005*"well" + 0.004*"practice" + 0.004*"leaders" + 0.004*"case" + 0.004*"time" + 0.003*"early" + 0.003*"Devon" + 0.003*"risks"', '0.009*"’" + 0.006*"well" + 0.005*"leaders" + 0.005*"health" + 0.005*"protection" + 0.005*"Devon" + 0.005*"risk" + 0.004*"need" + 0.004*"progress" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1075,7 +1075,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.006*"well" + 0.005*"records" + 0.005*"Doncaster" + 0.004*"leaders" + 0.004*"many" + 0.004*"February" + 0.004*"information" + 0.003*"quality" + 0.003*"means"', '0.019*"’" + 0.007*"well" + 0.007*"Doncaster" + 0.006*"leaders" + 0.005*"progress" + 0.005*"plans" + 0.005*"records" + 0.005*"25" + 0.005*"14" + 0.005*"quality"', '0.023*"’" + 0.006*"well" + 0.006*"many" + 0.006*"Doncaster" + 0.005*"progress" + 0.005*"arrangements" + 0.005*"quality" + 0.004*"effective" + 0.004*"plans" + 0.004*"leaders"']</t>
+    <t>['0.012*"’" + 0.006*"well" + 0.006*"Doncaster" + 0.005*"records" + 0.005*"leaders" + 0.004*"oversight" + 0.004*"many" + 0.004*"arrangements" + 0.004*"plans" + 0.004*"Trust"', '0.021*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.005*"many" + 0.005*"25" + 0.004*"records" + 0.004*"leaders" + 0.004*"plans" + 0.004*"arrangements" + 0.004*"quality"', '0.025*"’" + 0.006*"progress" + 0.006*"well" + 0.006*"Doncaster" + 0.005*"quality" + 0.005*"leaders" + 0.005*"plans" + 0.005*"many" + 0.005*"information" + 0.005*"records"']</t>
   </si>
   <si>
     <t>838</t>
@@ -1102,7 +1102,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"Dorset" + 0.006*"well" + 0.006*"good" + 0.005*"need" + 0.005*"change" + 0.005*"2021" + 0.004*"October" + 0.004*"8" + 0.004*"arrangements"', '0.010*"’" + 0.007*"Dorset" + 0.007*"good" + 0.006*"well" + 0.005*"needs" + 0.004*"arrangements" + 0.004*"quality" + 0.004*"supported" + 0.004*"September" + 0.004*"options"', '0.015*"’" + 0.006*"Dorset" + 0.005*"good" + 0.005*"arrangements" + 0.005*"well" + 0.004*"8" + 0.004*"needs" + 0.004*"including" + 0.004*"health" + 0.004*"leaders"']</t>
+    <t>['0.016*"’" + 0.005*"Dorset" + 0.005*"good" + 0.005*"well" + 0.004*"needs" + 0.004*"8" + 0.004*"arrangements" + 0.004*"including" + 0.004*"pandemic" + 0.004*"protection"', '0.013*"’" + 0.009*"Dorset" + 0.006*"well" + 0.006*"good" + 0.004*"arrangements" + 0.004*"change" + 0.004*"including" + 0.004*"need" + 0.004*"impact" + 0.004*"8"', '0.012*"’" + 0.008*"Dorset" + 0.007*"good" + 0.006*"well" + 0.005*"needs" + 0.005*"quality" + 0.004*"arrangements" + 0.004*"October" + 0.004*"27" + 0.004*"September"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1129,7 +1129,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.011*"needs" + 0.008*"Dudley" + 0.006*"always" + 0.005*"well" + 0.005*"arrangements" + 0.005*"ensure" + 0.004*"plans" + 0.004*"quality" + 0.004*"oversight"', '0.015*"’" + 0.010*"needs" + 0.006*"Dudley" + 0.006*"plans" + 0.005*"well" + 0.005*"ensure" + 0.004*"arrangements" + 0.004*"However" + 0.004*"timely" + 0.004*"2022"', '0.018*"’" + 0.012*"needs" + 0.009*"Dudley" + 0.006*"arrangements" + 0.005*"oversight" + 0.005*"well" + 0.005*"always" + 0.005*"quality" + 0.005*"October" + 0.005*"plans"']</t>
+    <t>['0.013*"’" + 0.010*"Dudley" + 0.008*"needs" + 0.006*"well" + 0.006*"arrangements" + 0.005*"always" + 0.004*"progress" + 0.004*"oversight" + 0.004*"11" + 0.004*"31"', '0.018*"’" + 0.013*"needs" + 0.008*"Dudley" + 0.006*"plans" + 0.005*"arrangements" + 0.005*"ensure" + 0.005*"well" + 0.005*"always" + 0.005*"quality" + 0.005*"management"', '0.012*"’" + 0.010*"needs" + 0.006*"Dudley" + 0.005*"well" + 0.005*"oversight" + 0.005*"However" + 0.004*"plans" + 0.004*"always" + 0.004*"quality" + 0.004*"31"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1162,7 +1162,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"needs" + 0.008*"May" + 0.006*"ensure" + 0.006*"Durham" + 0.006*"practice" + 0.005*"well" + 0.005*"2022" + 0.004*"plans" + 0.004*"making"', '0.016*"’" + 0.013*"needs" + 0.008*"Durham" + 0.008*"plans" + 0.008*"well" + 0.008*"May" + 0.005*"practice" + 0.005*"ensure" + 0.005*"supported" + 0.005*"risks"', '0.011*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"ensure" + 0.005*"Durham" + 0.005*"plans" + 0.004*"leaders" + 0.004*"risks" + 0.004*"May" + 0.004*"progress"']</t>
+    <t>['0.011*"’" + 0.010*"needs" + 0.006*"Durham" + 0.006*"May" + 0.006*"risks" + 0.006*"well" + 0.005*"plans" + 0.005*"ensure" + 0.004*"20" + 0.004*"leaders"', '0.013*"’" + 0.011*"needs" + 0.007*"May" + 0.007*"well" + 0.007*"Durham" + 0.007*"plans" + 0.006*"ensure" + 0.004*"family" + 0.004*"2022" + 0.004*"meetings"', '0.019*"’" + 0.010*"needs" + 0.007*"May" + 0.007*"practice" + 0.007*"Durham" + 0.007*"well" + 0.007*"plans" + 0.006*"ensure" + 0.005*"carers" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1198,7 +1198,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"plans" + 0.008*"needs" + 0.008*"well" + 0.007*"progress" + 0.006*"Riding" + 0.006*"East" + 0.006*"30" + 0.005*"education" + 0.005*"10"', '0.020*"’" + 0.010*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"progress" + 0.006*"Riding" + 0.005*"East" + 0.005*"partners" + 0.005*"January" + 0.005*"good"', '0.013*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"plans" + 0.008*"progress" + 0.007*"East" + 0.007*"Riding" + 0.006*"10" + 0.005*"place" + 0.005*"February"']</t>
+    <t>['0.015*"’" + 0.008*"plans" + 0.008*"progress" + 0.007*"well" + 0.007*"needs" + 0.007*"East" + 0.006*"Riding" + 0.005*"February" + 0.005*"place" + 0.004*"January"', '0.022*"’" + 0.013*"needs" + 0.010*"well" + 0.009*"plans" + 0.007*"Riding" + 0.006*"progress" + 0.006*"East" + 0.005*"partners" + 0.005*"practice" + 0.005*"10"', '0.008*"’" + 0.007*"plans" + 0.006*"progress" + 0.006*"well" + 0.006*"needs" + 0.005*"10" + 0.005*"East" + 0.005*"Riding" + 0.005*"30" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1225,7 +1225,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"East" + 0.005*"need" + 0.004*"supported" + 0.004*"family" + 0.004*"plans" + 0.004*"receive"', '0.010*"’" + 0.006*"well" + 0.006*"practice" + 0.006*"needs" + 0.005*"Sussex" + 0.004*"need" + 0.004*"team" + 0.004*"carers" + 0.003*"senior" + 0.003*"plans"', '0.012*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"need" + 0.006*"practice" + 0.005*"Sussex" + 0.005*"‘" + 0.004*"senior" + 0.004*"plans" + 0.004*"specialist"']</t>
+    <t>['0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"Sussex" + 0.005*"plans" + 0.004*"specialist" + 0.004*"need" + 0.004*"supported" + 0.003*"receive"', '0.011*"’" + 0.007*"well" + 0.005*"practice" + 0.005*"senior" + 0.005*"needs" + 0.004*"receive" + 0.004*"East" + 0.004*"need" + 0.004*"supported" + 0.004*"Sussex"', '0.012*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"practice" + 0.007*"need" + 0.005*"‘" + 0.005*"Sussex" + 0.005*"East" + 0.004*"senior" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1258,7 +1258,7 @@
     <t>0.197</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"well" + 0.007*"plans" + 0.006*"Essex" + 0.006*"progress" + 0.005*"26" + 0.005*"family" + 0.005*"needs" + 0.005*"experiences" + 0.005*"supported"', '0.021*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"progress" + 0.006*"risk" + 0.006*"plans" + 0.006*"understand" + 0.005*"leaders" + 0.005*"helped" + 0.005*"advisers"', '0.014*"’" + 0.005*"family" + 0.005*"progress" + 0.005*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"practice" + 0.004*"new" + 0.004*"Essex" + 0.004*"impact"']</t>
+    <t>['0.015*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"understand" + 0.005*"plans" + 0.005*"leaders" + 0.005*"family" + 0.005*"Essex" + 0.005*"risk" + 0.005*"need"', '0.022*"’" + 0.008*"progress" + 0.007*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"‘" + 0.005*"experiences" + 0.005*"Essex" + 0.005*"parents" + 0.005*"risk"', '0.015*"’" + 0.006*"progress" + 0.006*"plans" + 0.006*"family" + 0.005*"well" + 0.005*"needs" + 0.005*"advisers" + 0.005*"supported" + 0.005*"impact" + 0.005*"understand"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1288,7 +1288,7 @@
     <t>0.1862</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"effective" + 0.008*"practice" + 0.007*"good" + 0.006*"needs" + 0.006*"well" + 0.006*"quality" + 0.005*"plans" + 0.005*"timely" + 0.004*"early"', '0.010*"’" + 0.007*"effective" + 0.007*"timely" + 0.007*"good" + 0.006*"needs" + 0.006*"well" + 0.005*"need" + 0.005*"practice" + 0.005*"quality" + 0.005*"early"', '0.015*"’" + 0.008*"effective" + 0.008*"quality" + 0.006*"good" + 0.006*"practice" + 0.006*"needs" + 0.005*"well" + 0.005*"improve" + 0.004*"progress" + 0.004*"plans"']</t>
+    <t>['0.016*"’" + 0.011*"effective" + 0.007*"quality" + 0.007*"good" + 0.007*"practice" + 0.007*"needs" + 0.007*"timely" + 0.006*"well" + 0.005*"need" + 0.005*"improve"', '0.013*"’" + 0.007*"effective" + 0.006*"good" + 0.006*"practice" + 0.006*"well" + 0.005*"quality" + 0.005*"progress" + 0.005*"plans" + 0.005*"needs" + 0.004*"focus"', '0.010*"’" + 0.006*"good" + 0.005*"effective" + 0.005*"practice" + 0.005*"needs" + 0.004*"quality" + 0.004*"early" + 0.004*"need" + 0.004*"well" + 0.004*"focus"']</t>
   </si>
   <si>
     <t>916</t>
@@ -1318,7 +1318,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"needs" + 0.006*"2022" + 0.006*"February" + 0.005*"well" + 0.005*"Gloucestershire" + 0.004*"timely" + 0.004*"plans" + 0.004*"progress" + 0.004*"good"', '0.017*"’" + 0.008*"needs" + 0.007*"2022" + 0.007*"plans" + 0.006*"February" + 0.006*"well" + 0.005*"timely" + 0.005*"protection" + 0.004*"leaders" + 0.004*"Gloucestershire"', '0.018*"’" + 0.009*"needs" + 0.008*"plans" + 0.008*"February" + 0.007*"2022" + 0.006*"progress" + 0.005*"Gloucestershire" + 0.005*"family" + 0.005*"experienced" + 0.005*"appropriate"']</t>
+    <t>['0.015*"’" + 0.008*"needs" + 0.007*"2022" + 0.006*"February" + 0.005*"plans" + 0.005*"Gloucestershire" + 0.005*"18" + 0.005*"well" + 0.005*"progress" + 0.004*"quality"', '0.018*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"2022" + 0.007*"February" + 0.006*"well" + 0.005*"experienced" + 0.005*"protection" + 0.005*"appropriate" + 0.005*"progress"', '0.019*"’" + 0.009*"needs" + 0.008*"February" + 0.006*"2022" + 0.006*"plans" + 0.005*"well" + 0.005*"Gloucestershire" + 0.005*"progress" + 0.005*"good" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1345,7 +1345,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"good" + 0.006*"practice" + 0.005*"needs" + 0.005*"risk" + 0.005*"always" + 0.004*"planning" + 0.004*"means"', '0.012*"well" + 0.011*"’" + 0.010*"needs" + 0.010*"practice" + 0.008*"plans" + 0.007*"good" + 0.007*"risk" + 0.006*"always" + 0.006*"need" + 0.006*"quality"', '0.014*"’" + 0.010*"well" + 0.008*"planning" + 0.008*"need" + 0.008*"practice" + 0.008*"needs" + 0.007*"plans" + 0.007*"risk" + 0.007*"effective" + 0.006*"always"']</t>
+    <t>['0.010*"well" + 0.010*"’" + 0.008*"practice" + 0.006*"risk" + 0.006*"need" + 0.006*"plans" + 0.006*"always" + 0.005*"good" + 0.005*"needs" + 0.005*"planning"', '0.012*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"practice" + 0.006*"plans" + 0.006*"planning" + 0.005*"cases" + 0.005*"risk" + 0.005*"quality" + 0.005*"effective"', '0.013*"’" + 0.010*"well" + 0.009*"needs" + 0.009*"plans" + 0.008*"practice" + 0.007*"need" + 0.007*"good" + 0.007*"risk" + 0.007*"planning" + 0.007*"effective"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1372,7 +1372,7 @@
     <t>0.187</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"needs" + 0.006*"plans" + 0.004*"strong" + 0.004*"well" + 0.004*"quality" + 0.004*"improve" + 0.004*"leaders" + 0.004*"home" + 0.004*"Hampshire"', '0.021*"’" + 0.008*"well" + 0.008*"needs" + 0.005*"quality" + 0.005*"plans" + 0.005*"leaders" + 0.004*"strong" + 0.004*"home" + 0.004*"progress" + 0.004*"highly"', '0.017*"’" + 0.007*"needs" + 0.006*"plans" + 0.004*"well" + 0.004*"health" + 0.004*"Hampshire" + 0.004*"leaders" + 0.004*"quality" + 0.004*"highly" + 0.004*"home"']</t>
+    <t>['0.023*"’" + 0.009*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"strong" + 0.005*"highly" + 0.005*"quality" + 0.004*"home" + 0.004*"Hampshire" + 0.004*"improve"', '0.018*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"quality" + 0.005*"leaders" + 0.004*"progress" + 0.004*"carers" + 0.004*"home" + 0.004*"strong"', '0.011*"’" + 0.005*"needs" + 0.005*"plans" + 0.004*"leaders" + 0.004*"well" + 0.003*"quality" + 0.003*"home" + 0.003*"strong" + 0.003*"Hampshire" + 0.003*"oversight"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1405,7 +1405,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"well" + 0.006*"plans" + 0.005*"quality" + 0.005*"progress" + 0.005*"education" + 0.005*"strong" + 0.005*"practice" + 0.005*"good" + 0.005*"early"', '0.018*"’" + 0.010*"well" + 0.008*"quality" + 0.005*"good" + 0.005*"strong" + 0.004*"Senior" + 0.004*"impact" + 0.004*"‘" + 0.004*"needs" + 0.004*"practice"', '0.014*"’" + 0.009*"well" + 0.007*"strong" + 0.006*"quality" + 0.004*"good" + 0.004*"early" + 0.004*"improve" + 0.004*"progress" + 0.004*"experiences" + 0.004*"timely"']</t>
+    <t>['0.014*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"strong" + 0.005*"practice" + 0.004*"health" + 0.004*"progress" + 0.004*"need" + 0.004*"timely" + 0.004*"risk"', '0.021*"’" + 0.010*"well" + 0.006*"quality" + 0.006*"strong" + 0.005*"impact" + 0.004*"good" + 0.004*"practice" + 0.004*"progress" + 0.004*"education" + 0.004*"needs"', '0.012*"’" + 0.008*"well" + 0.006*"good" + 0.006*"quality" + 0.005*"plans" + 0.005*"strong" + 0.005*"early" + 0.005*"progress" + 0.004*"education" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>884</t>
@@ -1432,7 +1432,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"practice" + 0.006*"Herefordshire" + 0.005*"lack" + 0.005*"carers" + 0.005*"many" + 0.005*"needs" + 0.004*"plans" + 0.004*"risk" + 0.004*"progress"', '0.017*"’" + 0.006*"practice" + 0.005*"impact" + 0.005*"2022" + 0.005*"lack" + 0.005*"Herefordshire" + 0.005*"quality" + 0.004*"18" + 0.004*"plans" + 0.004*"many"', '0.020*"’" + 0.005*"needs" + 0.005*"Herefordshire" + 0.005*"impact" + 0.005*"lack" + 0.004*"practice" + 0.004*"management" + 0.004*"many" + 0.004*"29" + 0.004*"oversight"']</t>
+    <t>['0.017*"’" + 0.005*"lack" + 0.005*"Herefordshire" + 0.005*"practice" + 0.004*"18" + 0.004*"impact" + 0.004*"progress" + 0.004*"plans" + 0.004*"29" + 0.004*"2022"', '0.013*"’" + 0.006*"needs" + 0.005*"Herefordshire" + 0.004*"impact" + 0.004*"July" + 0.004*"practice" + 0.004*"quality" + 0.004*"many" + 0.004*"lack" + 0.004*"risk"', '0.020*"’" + 0.007*"practice" + 0.006*"Herefordshire" + 0.005*"lack" + 0.005*"impact" + 0.005*"many" + 0.005*"plans" + 0.004*"progress" + 0.004*"carers" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>919</t>
@@ -1459,7 +1459,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.007*"Hertfordshire" + 0.007*"well" + 0.005*"need" + 0.005*"needs" + 0.005*"receive" + 0.004*"training" + 0.004*"27" + 0.004*"plans" + 0.004*"23"', '0.026*"’" + 0.007*"needs" + 0.007*"Hertfordshire" + 0.006*"well" + 0.006*"plans" + 0.005*"receive" + 0.004*"leaders" + 0.004*"January" + 0.004*"positive" + 0.004*"risk"', '0.019*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"Hertfordshire" + 0.005*"Leaders" + 0.004*"23" + 0.004*"receive" + 0.004*"effective" + 0.004*"2023" + 0.004*"positive"']</t>
+    <t>['0.022*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Hertfordshire" + 0.005*"receive" + 0.004*"plans" + 0.004*"positive" + 0.004*"know" + 0.004*"2023" + 0.004*"need"', '0.020*"’" + 0.007*"well" + 0.006*"Hertfordshire" + 0.006*"needs" + 0.005*"receive" + 0.004*"positive" + 0.004*"effective" + 0.004*"plans" + 0.004*"Leaders" + 0.004*"23"', '0.027*"’" + 0.007*"Hertfordshire" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.005*"receive" + 0.004*"leaders" + 0.004*"2023" + 0.004*"relationships" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1492,7 +1492,7 @@
     <t>0.1778</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"well" + 0.006*"leaders" + 0.006*"needs" + 0.005*"plans" + 0.005*"good" + 0.005*"information" + 0.005*"island" + 0.005*"effective" + 0.004*"always"', '0.014*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"good" + 0.005*"effective" + 0.005*"plans" + 0.005*"information" + 0.005*"island" + 0.005*"always" + 0.004*"experiences"', '0.015*"’" + 0.006*"progress" + 0.005*"carers" + 0.005*"needs" + 0.005*"plans" + 0.005*"leaders" + 0.005*"good" + 0.005*"effective" + 0.004*"island" + 0.004*"information"']</t>
+    <t>['0.010*"’" + 0.005*"needs" + 0.005*"information" + 0.005*"good" + 0.005*"well" + 0.005*"island" + 0.005*"plans" + 0.004*"leaders" + 0.004*"experiences" + 0.004*"always"', '0.017*"’" + 0.006*"needs" + 0.006*"well" + 0.006*"good" + 0.005*"effective" + 0.005*"island" + 0.005*"leaders" + 0.005*"plans" + 0.005*"information" + 0.004*"always"', '0.018*"’" + 0.006*"needs" + 0.006*"plans" + 0.005*"effective" + 0.005*"well" + 0.005*"carers" + 0.005*"progress" + 0.005*"always" + 0.005*"leaders" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1513,7 +1513,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.010*"Kent" + 0.008*"needs" + 0.007*"Council" + 0.007*"well" + 0.006*"progress" + 0.006*"County" + 0.006*"supported" + 0.005*"practice" + 0.005*"including"', '0.013*"’" + 0.009*"Kent" + 0.007*"needs" + 0.006*"supported" + 0.004*"Council" + 0.004*"well" + 0.004*"County" + 0.004*"practice" + 0.004*"leaders" + 0.004*"impact"', '0.014*"’" + 0.010*"Kent" + 0.006*"needs" + 0.006*"well" + 0.005*"Council" + 0.005*"supported" + 0.005*"County" + 0.004*"leaders" + 0.004*"council" + 0.004*"practice"']</t>
+    <t>['0.020*"’" + 0.007*"needs" + 0.005*"Kent" + 0.005*"well" + 0.005*"supported" + 0.004*"practice" + 0.004*"arrangements" + 0.004*"progress" + 0.004*"leaders" + 0.004*"impact"', '0.012*"’" + 0.012*"Kent" + 0.006*"needs" + 0.006*"supported" + 0.005*"Council" + 0.005*"County" + 0.005*"well" + 0.005*"progress" + 0.005*"practice" + 0.005*"leaders"', '0.021*"’" + 0.012*"Kent" + 0.008*"needs" + 0.007*"Council" + 0.007*"well" + 0.006*"County" + 0.006*"supported" + 0.004*"progress" + 0.004*"9" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1540,7 +1540,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"need" + 0.007*"protection" + 0.007*"practice" + 0.006*"risks" + 0.006*"planning" + 0.006*"number" + 0.006*"management" + 0.006*"oversight" + 0.006*"well"', '0.020*"’" + 0.008*"number" + 0.007*"planning" + 0.006*"well" + 0.005*"Hull" + 0.005*"needs" + 0.005*"progress" + 0.005*"management" + 0.005*"small" + 0.005*"practice"', '0.013*"’" + 0.006*"number" + 0.006*"well" + 0.006*"planning" + 0.005*"practice" + 0.005*"Hull" + 0.005*"protection" + 0.005*"teams" + 0.005*"14" + 0.005*"oversight"']</t>
+    <t>['0.014*"’" + 0.008*"planning" + 0.006*"number" + 0.006*"practice" + 0.006*"Hull" + 0.006*"need" + 0.005*"teams" + 0.005*"risks" + 0.005*"well" + 0.005*"small"', '0.020*"’" + 0.008*"number" + 0.007*"protection" + 0.007*"well" + 0.006*"planning" + 0.006*"practice" + 0.006*"management" + 0.006*"risks" + 0.006*"Hull" + 0.006*"need"', '0.010*"’" + 0.005*"number" + 0.005*"planning" + 0.004*"practice" + 0.004*"need" + 0.004*"Hull" + 0.004*"protection" + 0.004*"well" + 0.004*"right" + 0.004*"small"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1570,7 +1570,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"practice" + 0.005*"plans" + 0.005*"good" + 0.005*"permanence" + 0.005*"needs" + 0.005*"senior" + 0.005*"protection" + 0.005*"Senior" + 0.004*"identified"', '0.010*"’" + 0.008*"quality" + 0.006*"practice" + 0.005*"well" + 0.005*"training" + 0.005*"plans" + 0.005*"good" + 0.005*"Senior" + 0.004*"protection" + 0.004*"senior"', '0.014*"’" + 0.007*"quality" + 0.007*"good" + 0.007*"practice" + 0.006*"permanence" + 0.005*"needs" + 0.005*"well" + 0.005*"Senior" + 0.005*"protection" + 0.005*"training"']</t>
+    <t>['0.009*"’" + 0.007*"good" + 0.006*"needs" + 0.005*"quality" + 0.005*"protection" + 0.005*"well" + 0.005*"practice" + 0.005*"training" + 0.005*"plans" + 0.005*"need"', '0.014*"’" + 0.007*"practice" + 0.006*"quality" + 0.006*"permanence" + 0.005*"Senior" + 0.005*"senior" + 0.005*"protection" + 0.005*"plans" + 0.005*"good" + 0.005*"well"', '0.011*"’" + 0.007*"quality" + 0.006*"practice" + 0.006*"good" + 0.006*"training" + 0.005*"plans" + 0.005*"well" + 0.005*"Senior" + 0.005*"permanence" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1609,7 +1609,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"progress" + 0.008*"quality" + 0.008*"needs" + 0.006*"Knowsley" + 0.006*"plans" + 0.006*"2021" + 0.005*"11" + 0.005*"abuse" + 0.005*"experiences"', '0.013*"’" + 0.008*"plans" + 0.007*"progress" + 0.007*"needs" + 0.007*"Knowsley" + 0.007*"quality" + 0.006*"22" + 0.005*"2021" + 0.005*"need" + 0.005*"experiences"', '0.010*"’" + 0.007*"plans" + 0.007*"progress" + 0.006*"needs" + 0.006*"2021" + 0.005*"quality" + 0.005*"need" + 0.004*"good" + 0.004*"Knowsley" + 0.004*"experiences"']</t>
+    <t>['0.016*"’" + 0.007*"Knowsley" + 0.007*"plans" + 0.006*"progress" + 0.006*"2021" + 0.006*"needs" + 0.006*"impact" + 0.006*"quality" + 0.005*"experiences" + 0.005*"need"', '0.013*"’" + 0.009*"progress" + 0.009*"needs" + 0.007*"quality" + 0.007*"plans" + 0.006*"2021" + 0.006*"Knowsley" + 0.005*"good" + 0.005*"need" + 0.005*"11"', '0.013*"’" + 0.009*"progress" + 0.007*"plans" + 0.007*"quality" + 0.006*"needs" + 0.005*"abuse" + 0.005*"risk" + 0.005*"experiences" + 0.004*"need" + 0.004*"Knowsley"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1639,7 +1639,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"need" + 0.006*"supported" + 0.006*"Lancashire" + 0.006*"positive" + 0.005*"practice" + 0.005*"progress" + 0.005*"health"', '0.016*"’" + 0.008*"well" + 0.007*"Lancashire" + 0.006*"need" + 0.006*"needs" + 0.005*"plans" + 0.005*"9" + 0.005*"28" + 0.005*"practice" + 0.004*"parents"', '0.017*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"need" + 0.006*"plans" + 0.005*"Lancashire" + 0.005*"positive" + 0.005*"practice" + 0.005*"live" + 0.005*"parents"']</t>
+    <t>['0.016*"’" + 0.007*"Lancashire" + 0.007*"well" + 0.007*"needs" + 0.005*"need" + 0.005*"plans" + 0.005*"28" + 0.005*"practice" + 0.005*"9" + 0.005*"positive"', '0.017*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"need" + 0.007*"Lancashire" + 0.006*"live" + 0.006*"progress" + 0.006*"supported" + 0.005*"practice" + 0.005*"homes"', '0.016*"’" + 0.010*"well" + 0.008*"need" + 0.007*"needs" + 0.006*"plans" + 0.005*"health" + 0.005*"supported" + 0.005*"positive" + 0.005*"November" + 0.005*"number"']</t>
   </si>
   <si>
     <t>383</t>
@@ -1663,7 +1663,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"needs" + 0.006*"Leeds" + 0.005*"well" + 0.004*"plans" + 0.004*"protection" + 0.004*"risk" + 0.003*"practice" + 0.003*"supported" + 0.003*"2022"', '0.017*"’" + 0.008*"needs" + 0.007*"Leeds" + 0.007*"well" + 0.006*"risk" + 0.006*"practice" + 0.005*"supported" + 0.005*"protection" + 0.004*"ensure" + 0.004*"2022"', '0.018*"’" + 0.007*"Leeds" + 0.006*"needs" + 0.005*"4" + 0.005*"well" + 0.005*"risk" + 0.005*"plans" + 0.005*"ensure" + 0.004*"including" + 0.004*"practice"']</t>
+    <t>['0.018*"’" + 0.008*"needs" + 0.007*"Leeds" + 0.005*"risk" + 0.005*"well" + 0.005*"ensure" + 0.005*"4" + 0.005*"plans" + 0.004*"making" + 0.004*"March"', '0.012*"’" + 0.006*"needs" + 0.006*"Leeds" + 0.005*"well" + 0.005*"risk" + 0.005*"practice" + 0.004*"protection" + 0.004*"plans" + 0.004*"2022" + 0.004*"supported"', '0.017*"’" + 0.008*"Leeds" + 0.007*"well" + 0.006*"needs" + 0.005*"risk" + 0.005*"practice" + 0.005*"21" + 0.004*"protection" + 0.004*"including" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1696,7 +1696,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.010*"well" + 0.008*"Leicester" + 0.007*"2021" + 0.006*"good" + 0.005*"needs" + 0.005*"ensure" + 0.005*"number" + 0.005*"1" + 0.004*"circumstances"', '0.023*"’" + 0.009*"2021" + 0.009*"needs" + 0.008*"Leicester" + 0.008*"well" + 0.006*"good" + 0.006*"20" + 0.006*"number" + 0.005*"including" + 0.005*"ensure"', '0.015*"’" + 0.008*"2021" + 0.008*"well" + 0.007*"Leicester" + 0.006*"ensure" + 0.006*"good" + 0.005*"1" + 0.005*"September" + 0.005*"needs" + 0.005*"20"']</t>
+    <t>['0.017*"’" + 0.009*"2021" + 0.008*"Leicester" + 0.008*"well" + 0.006*"needs" + 0.006*"number" + 0.005*"good" + 0.005*"1" + 0.005*"20" + 0.005*"including"', '0.018*"’" + 0.010*"well" + 0.008*"2021" + 0.008*"Leicester" + 0.007*"needs" + 0.006*"ensure" + 0.005*"good" + 0.005*"20" + 0.005*"number" + 0.005*"October"', '0.024*"’" + 0.009*"well" + 0.008*"2021" + 0.007*"needs" + 0.007*"good" + 0.007*"Leicester" + 0.006*"ensure" + 0.006*"City" + 0.005*"number" + 0.005*"including"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1729,7 +1729,7 @@
     <t>0.1666</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.006*"effective" + 0.006*"quality" + 0.006*"good" + 0.006*"needs" + 0.005*"impact" + 0.005*"practice" + 0.005*"education" + 0.004*"risk"', '0.012*"’" + 0.009*"good" + 0.008*"well" + 0.007*"effective" + 0.006*"quality" + 0.006*"needs" + 0.005*"impact" + 0.004*"practice" + 0.004*"need" + 0.004*"education"', '0.009*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"effective" + 0.006*"well" + 0.006*"practice" + 0.005*"need" + 0.005*"quality" + 0.005*"risk" + 0.005*"leaders"']</t>
+    <t>['0.010*"’" + 0.008*"good" + 0.007*"well" + 0.006*"needs" + 0.006*"effective" + 0.006*"quality" + 0.005*"practice" + 0.005*"risk" + 0.005*"impact" + 0.004*"need"', '0.011*"’" + 0.008*"well" + 0.007*"effective" + 0.006*"needs" + 0.006*"good" + 0.006*"quality" + 0.005*"practice" + 0.005*"impact" + 0.005*"leaders" + 0.005*"education"', '0.012*"’" + 0.008*"good" + 0.008*"well" + 0.008*"needs" + 0.006*"quality" + 0.006*"effective" + 0.006*"practice" + 0.005*"education" + 0.005*"impact" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1759,7 +1759,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.030*"’" + 0.008*"Lincolnshire" + 0.007*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"progress" + 0.004*"2023" + 0.004*"28" + 0.004*"family" + 0.004*"effective"', '0.019*"’" + 0.007*"Lincolnshire" + 0.007*"needs" + 0.006*"well" + 0.005*"family" + 0.005*"24" + 0.005*"plans" + 0.005*"progress" + 0.005*"need" + 0.004*"number"', '0.013*"’" + 0.007*"Lincolnshire" + 0.006*"needs" + 0.005*"well" + 0.004*"family" + 0.004*"April" + 0.004*"plans" + 0.004*"education" + 0.004*"2023" + 0.004*"28"']</t>
+    <t>['0.015*"’" + 0.009*"Lincolnshire" + 0.007*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"progress" + 0.004*"28" + 0.004*"family" + 0.004*"education" + 0.004*"working"', '0.029*"’" + 0.007*"Lincolnshire" + 0.005*"well" + 0.005*"needs" + 0.005*"24" + 0.005*"plans" + 0.004*"need" + 0.004*"progress" + 0.004*"provide" + 0.004*"education"', '0.020*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"Lincolnshire" + 0.005*"family" + 0.004*"progress" + 0.004*"plans" + 0.004*"2023" + 0.004*"effective" + 0.004*"number"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1789,7 +1789,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.006*"needs" + 0.006*"quality" + 0.006*"Liverpool" + 0.006*"always" + 0.006*"practice" + 0.005*"need" + 0.005*"protection" + 0.005*"13" + 0.004*"supported"', '0.017*"’" + 0.008*"needs" + 0.006*"practice" + 0.005*"timely" + 0.005*"need" + 0.005*"Liverpool" + 0.005*"protection" + 0.005*"always" + 0.004*"quality" + 0.004*"PAs"', '0.022*"’" + 0.008*"practice" + 0.008*"need" + 0.008*"always" + 0.007*"needs" + 0.006*"Liverpool" + 0.005*"quality" + 0.004*"protection" + 0.004*"24" + 0.004*"harm"']</t>
+    <t>['0.017*"’" + 0.007*"always" + 0.006*"Liverpool" + 0.006*"needs" + 0.005*"practice" + 0.005*"response" + 0.004*"receive" + 0.004*"13" + 0.004*"quality" + 0.004*"need"', '0.022*"’" + 0.008*"need" + 0.008*"practice" + 0.007*"needs" + 0.006*"always" + 0.006*"quality" + 0.005*"Liverpool" + 0.005*"protection" + 0.005*"harm" + 0.005*"timely"', '0.017*"’" + 0.008*"needs" + 0.006*"quality" + 0.006*"always" + 0.006*"Liverpool" + 0.006*"need" + 0.006*"practice" + 0.005*"protection" + 0.004*"senior" + 0.004*"PAs"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -1825,7 +1825,7 @@
     <t>0.1811</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"well" + 0.005*"quality" + 0.005*"needs" + 0.005*"health" + 0.005*"effective" + 0.004*"management" + 0.004*"progress" + 0.004*"action" + 0.004*"plans"', '0.011*"’" + 0.006*"well" + 0.005*"health" + 0.005*"needs" + 0.004*"quality" + 0.004*"effective" + 0.004*"practice" + 0.004*"impact" + 0.004*"action" + 0.003*"progress"', '0.009*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"health" + 0.004*"effective" + 0.004*"action" + 0.004*"quality" + 0.004*"protection" + 0.004*"team" + 0.004*"risks"']</t>
+    <t>['0.010*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"quality" + 0.004*"team" + 0.004*"practice" + 0.004*"effective" + 0.004*"action" + 0.004*"health" + 0.004*"management"', '0.010*"’" + 0.008*"well" + 0.006*"health" + 0.006*"needs" + 0.005*"quality" + 0.005*"effective" + 0.004*"progress" + 0.004*"impact" + 0.004*"protection" + 0.004*"risks"', '0.011*"’" + 0.007*"well" + 0.005*"health" + 0.005*"action" + 0.004*"needs" + 0.004*"management" + 0.004*"effective" + 0.004*"quality" + 0.004*"practice" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -1861,7 +1861,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"good" + 0.008*"well" + 0.007*"needs" + 0.006*"need" + 0.006*"progress" + 0.005*"clear" + 0.005*"receive" + 0.005*"carers" + 0.005*"meetings"', '0.018*"’" + 0.010*"well" + 0.010*"good" + 0.010*"needs" + 0.008*"need" + 0.008*"plans" + 0.007*"progress" + 0.006*"quality" + 0.006*"risk" + 0.006*"ensure"', '0.012*"’" + 0.011*"needs" + 0.008*"good" + 0.008*"need" + 0.007*"ensure" + 0.006*"well" + 0.006*"clear" + 0.005*"progress" + 0.004*"appropriate" + 0.004*"timely"']</t>
+    <t>['0.019*"’" + 0.011*"good" + 0.011*"needs" + 0.009*"well" + 0.007*"need" + 0.007*"progress" + 0.006*"risk" + 0.006*"plans" + 0.006*"clear" + 0.006*"ensure"', '0.010*"’" + 0.010*"need" + 0.009*"well" + 0.008*"good" + 0.007*"needs" + 0.007*"progress" + 0.006*"plans" + 0.006*"clear" + 0.005*"carers" + 0.005*"quality"', '0.009*"’" + 0.008*"needs" + 0.008*"good" + 0.007*"ensure" + 0.006*"well" + 0.005*"need" + 0.004*"plans" + 0.004*"clear" + 0.004*"progress" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>303</t>
@@ -1879,7 +1879,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"well" + 0.006*"need" + 0.005*"needs" + 0.005*"plans" + 0.005*"oversight" + 0.005*"Bexley" + 0.005*"make" + 0.005*"6" + 0.004*"effective"', '0.018*"’" + 0.006*"effective" + 0.005*"Bexley" + 0.005*"needs" + 0.004*"including" + 0.004*"need" + 0.004*"plans" + 0.004*"well" + 0.004*"education" + 0.004*"2023"', '0.020*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"effective" + 0.006*"need" + 0.005*"10" + 0.005*"Bexley" + 0.005*"clear" + 0.004*"practice"']</t>
+    <t>['0.020*"’" + 0.006*"plans" + 0.006*"well" + 0.005*"need" + 0.005*"make" + 0.005*"Bexley" + 0.004*"progress" + 0.004*"effective" + 0.004*"including" + 0.004*"practice"', '0.023*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"effective" + 0.006*"10" + 0.005*"Bexley" + 0.005*"need" + 0.005*"plans" + 0.005*"6" + 0.005*"practice"', '0.014*"’" + 0.006*"effective" + 0.006*"well" + 0.006*"need" + 0.006*"needs" + 0.005*"Bexley" + 0.004*"oversight" + 0.004*"plans" + 0.004*"ensure" + 0.004*"including"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -1906,7 +1906,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.009*"well" + 0.008*"leaders" + 0.007*"progress" + 0.007*"plans" + 0.006*"good" + 0.006*"quality" + 0.006*"information" + 0.005*"number" + 0.005*"However"', '0.016*"’" + 0.007*"well" + 0.007*"plans" + 0.006*"progress" + 0.006*"leaders" + 0.006*"Brent" + 0.005*"practice" + 0.005*"number" + 0.005*"good" + 0.004*"quality"', '0.013*"’" + 0.009*"well" + 0.007*"leaders" + 0.006*"good" + 0.006*"plans" + 0.006*"number" + 0.006*"timely" + 0.005*"senior" + 0.005*"small" + 0.005*"quality"']</t>
+    <t>['0.016*"’" + 0.009*"well" + 0.007*"progress" + 0.006*"Brent" + 0.006*"number" + 0.006*"plans" + 0.006*"leaders" + 0.005*"senior" + 0.005*"good" + 0.005*"quality"', '0.019*"’" + 0.009*"well" + 0.008*"leaders" + 0.008*"plans" + 0.006*"progress" + 0.006*"good" + 0.006*"quality" + 0.005*"practice" + 0.005*"number" + 0.005*"However"', '0.017*"’" + 0.007*"leaders" + 0.007*"well" + 0.006*"senior" + 0.006*"plans" + 0.005*"practice" + 0.005*"good" + 0.005*"progress" + 0.005*"quality" + 0.005*"number"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -1930,7 +1930,7 @@
     <t>0.2143</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"need" + 0.005*"health" + 0.005*"plans" + 0.005*"range" + 0.005*"education" + 0.004*"good" + 0.004*"effective"', '0.015*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"need" + 0.005*"Bromley" + 0.005*"health" + 0.004*"access" + 0.004*"good" + 0.004*"receive"', '0.013*"’" + 0.007*"needs" + 0.005*"well" + 0.005*"need" + 0.005*"good" + 0.004*"planning" + 0.004*"health" + 0.004*"range" + 0.004*"progress" + 0.003*"timely"']</t>
+    <t>['0.014*"’" + 0.007*"needs" + 0.006*"need" + 0.005*"health" + 0.005*"well" + 0.005*"good" + 0.005*"plans" + 0.005*"education" + 0.004*"range" + 0.004*"risk"', '0.015*"’" + 0.009*"needs" + 0.009*"well" + 0.006*"need" + 0.005*"health" + 0.005*"plans" + 0.004*"Bromley" + 0.004*"good" + 0.004*"effective" + 0.004*"planning"', '0.014*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"need" + 0.005*"improve" + 0.004*"good" + 0.004*"range" + 0.004*"access" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -1960,7 +1960,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"Camden" + 0.006*"leaders" + 0.006*"practice" + 0.006*"protection" + 0.005*"needs" + 0.005*"25" + 0.005*"well" + 0.004*"response" + 0.004*"2022"', '0.014*"’" + 0.007*"Camden" + 0.006*"leaders" + 0.005*"protection" + 0.005*"practice" + 0.004*"well" + 0.004*"response" + 0.004*"needs" + 0.004*"meetings" + 0.004*"April"', '0.008*"’" + 0.007*"leaders" + 0.007*"Camden" + 0.007*"practice" + 0.006*"well" + 0.005*"needs" + 0.005*"appropriate" + 0.004*"response" + 0.004*"29" + 0.004*"protection"']</t>
+    <t>['0.011*"’" + 0.007*"practice" + 0.007*"leaders" + 0.007*"Camden" + 0.006*"well" + 0.005*"needs" + 0.005*"protection" + 0.005*"response" + 0.005*"29" + 0.004*"progress"', '0.009*"’" + 0.006*"Camden" + 0.005*"leaders" + 0.005*"practice" + 0.005*"needs" + 0.005*"protection" + 0.004*"appropriate" + 0.004*"29" + 0.004*"well" + 0.004*"meetings"', '0.012*"’" + 0.008*"Camden" + 0.006*"leaders" + 0.005*"well" + 0.005*"practice" + 0.005*"protection" + 0.005*"response" + 0.004*"appropriate" + 0.004*"needs" + 0.004*"25"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -1987,7 +1987,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"Senior" + 0.006*"need" + 0.006*"plans" + 0.006*"health" + 0.006*"effective" + 0.005*"Croydon" + 0.005*"good"', '0.009*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Croydon" + 0.006*"quality" + 0.005*"Senior" + 0.005*"good" + 0.005*"improved" + 0.005*"need" + 0.005*"ensure"', '0.010*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"ensure" + 0.005*"quality" + 0.004*"Croydon" + 0.004*"good" + 0.004*"risk" + 0.004*"However" + 0.004*"need"']</t>
+    <t>['0.008*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"quality" + 0.005*"ensure" + 0.005*"need" + 0.005*"health" + 0.005*"good" + 0.004*"Croydon" + 0.004*"plans"', '0.012*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"Senior" + 0.005*"improved" + 0.005*"good" + 0.005*"education" + 0.005*"Croydon" + 0.005*"health" + 0.005*"impact"', '0.014*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Croydon" + 0.006*"quality" + 0.006*"Senior" + 0.006*"effective" + 0.006*"need" + 0.005*"ensure" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2017,7 +2017,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.011*"quality" + 0.008*"good" + 0.007*"needs" + 0.005*"plans" + 0.005*"risk" + 0.004*"progress" + 0.004*"always" + 0.004*"management" + 0.004*"oversight"', '0.012*"’" + 0.009*"quality" + 0.007*"needs" + 0.006*"good" + 0.005*"progress" + 0.005*"experiences" + 0.005*"plans" + 0.005*"risk" + 0.005*"family" + 0.004*"Senior"', '0.009*"’" + 0.008*"quality" + 0.006*"needs" + 0.005*"progress" + 0.005*"well" + 0.005*"plans" + 0.004*"good" + 0.004*"oversight" + 0.004*"Ealing" + 0.004*"experiences"']</t>
+    <t>['0.009*"quality" + 0.009*"’" + 0.007*"good" + 0.006*"risk" + 0.005*"plans" + 0.005*"experiences" + 0.005*"needs" + 0.004*"progress" + 0.004*"well" + 0.004*"leaders"', '0.013*"’" + 0.009*"quality" + 0.008*"needs" + 0.006*"progress" + 0.006*"plans" + 0.006*"good" + 0.005*"well" + 0.005*"risk" + 0.004*"fully" + 0.004*"appropriately"', '0.010*"quality" + 0.010*"’" + 0.008*"needs" + 0.006*"good" + 0.004*"progress" + 0.004*"Ealing" + 0.004*"oversight" + 0.004*"experiences" + 0.004*"family" + 0.004*"management"']</t>
   </si>
   <si>
     <t>308</t>
@@ -2044,7 +2044,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"ensure" + 0.009*"practice" + 0.009*"good" + 0.009*"needs" + 0.007*"effective" + 0.006*"timely" + 0.006*"Enfield" + 0.006*"need" + 0.006*"improve"', '0.015*"’" + 0.009*"clear" + 0.007*"needs" + 0.007*"quality" + 0.007*"good" + 0.006*"practice" + 0.006*"ensure" + 0.006*"Enfield" + 0.005*"effective" + 0.005*"progress"', '0.011*"’" + 0.009*"needs" + 0.007*"leaders" + 0.007*"ensure" + 0.007*"practice" + 0.007*"effective" + 0.006*"Enfield" + 0.006*"arrangements" + 0.006*"quality" + 0.005*"clear"']</t>
+    <t>['0.016*"’" + 0.010*"good" + 0.009*"ensure" + 0.009*"practice" + 0.009*"needs" + 0.007*"effective" + 0.007*"quality" + 0.007*"clear" + 0.006*"timely" + 0.006*"leaders"', '0.014*"’" + 0.009*"needs" + 0.007*"Enfield" + 0.007*"clear" + 0.007*"ensure" + 0.006*"practice" + 0.006*"leaders" + 0.005*"effective" + 0.005*"well" + 0.005*"progress"', '0.007*"’" + 0.006*"needs" + 0.006*"effective" + 0.005*"practice" + 0.005*"Enfield" + 0.005*"timely" + 0.004*"ensure" + 0.004*"quality" + 0.004*"good" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2074,7 +2074,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"plans" + 0.008*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"range" + 0.006*"risk" + 0.006*"need" + 0.005*"progress" + 0.005*"risks"', '0.012*"’" + 0.009*"well" + 0.006*"good" + 0.006*"range" + 0.005*"plans" + 0.005*"needs" + 0.005*"need" + 0.004*"ensure" + 0.004*"progress" + 0.004*"information"', '0.013*"’" + 0.012*"well" + 0.009*"good" + 0.009*"needs" + 0.008*"plans" + 0.007*"need" + 0.006*"ensure" + 0.005*"progress" + 0.005*"quality" + 0.005*"information"']</t>
+    <t>['0.013*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"good" + 0.007*"plans" + 0.007*"range" + 0.006*"ensure" + 0.006*"need" + 0.005*"information" + 0.005*"quality"', '0.012*"well" + 0.011*"’" + 0.007*"plans" + 0.007*"good" + 0.006*"needs" + 0.006*"progress" + 0.005*"need" + 0.005*"range" + 0.005*"consistently" + 0.004*"quality"', '0.012*"’" + 0.009*"good" + 0.008*"well" + 0.008*"plans" + 0.006*"need" + 0.005*"risk" + 0.005*"effective" + 0.005*"information" + 0.004*"needs" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2110,7 +2110,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"practice" + 0.006*"needs" + 0.005*"number" + 0.005*"quality" + 0.005*"effective" + 0.005*"planning" + 0.005*"small" + 0.004*"However" + 0.004*"focused"', '0.012*"practice" + 0.011*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"within" + 0.005*"number" + 0.005*"quality" + 0.005*"small" + 0.005*"range" + 0.005*"carers"', '0.015*"’" + 0.009*"practice" + 0.007*"planning" + 0.007*"number" + 0.007*"leaders" + 0.007*"plans" + 0.006*"including" + 0.006*"within" + 0.006*"oversight" + 0.006*"effective"']</t>
+    <t>['0.009*"’" + 0.008*"practice" + 0.006*"quality" + 0.006*"planning" + 0.006*"number" + 0.006*"effective" + 0.006*"within" + 0.005*"small" + 0.005*"needs" + 0.005*"making"', '0.012*"’" + 0.012*"practice" + 0.006*"However" + 0.006*"number" + 0.006*"plans" + 0.006*"planning" + 0.006*"within" + 0.006*"effective" + 0.006*"need" + 0.005*"needs"', '0.018*"’" + 0.008*"practice" + 0.006*"number" + 0.006*"plans" + 0.006*"including" + 0.006*"needs" + 0.006*"planning" + 0.005*"small" + 0.005*"effective" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2140,7 +2140,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"well" + 0.007*"needs" + 0.007*"effective" + 0.007*"good" + 0.007*"appropriate" + 0.006*"timely" + 0.006*"shared" + 0.005*"However" + 0.005*"leaders"', '0.010*"’" + 0.006*"effective" + 0.006*"good" + 0.006*"arrangements" + 0.005*"needs" + 0.005*"appropriate" + 0.005*"improve" + 0.005*"ensure" + 0.005*"leaders" + 0.004*"well"', '0.014*"’" + 0.011*"needs" + 0.009*"effective" + 0.009*"well" + 0.006*"appropriate" + 0.006*"ensure" + 0.005*"arrangements" + 0.005*"good" + 0.005*"leaders" + 0.005*"quality"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.007*"ensure" + 0.006*"effective" + 0.006*"good" + 0.006*"appropriate" + 0.006*"arrangements" + 0.006*"well" + 0.005*"risk" + 0.005*"need"', '0.013*"’" + 0.009*"needs" + 0.009*"effective" + 0.006*"well" + 0.006*"appropriate" + 0.005*"good" + 0.005*"shared" + 0.005*"arrangements" + 0.005*"ensure" + 0.005*"leaders"', '0.010*"’" + 0.010*"well" + 0.008*"effective" + 0.008*"needs" + 0.007*"good" + 0.006*"appropriate" + 0.006*"leaders" + 0.005*"timely" + 0.005*"improve" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2167,7 +2167,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"Haringey" + 0.006*"well" + 0.005*"need" + 0.005*"good" + 0.005*"progress" + 0.005*"impact" + 0.005*"education"', '0.017*"’" + 0.010*"Haringey" + 0.008*"needs" + 0.007*"plans" + 0.006*"good" + 0.005*"progress" + 0.005*"need" + 0.005*"well" + 0.005*"risk" + 0.004*"24"', '0.014*"’" + 0.008*"Haringey" + 0.006*"needs" + 0.006*"plans" + 0.006*"well" + 0.004*"good" + 0.004*"education" + 0.004*"13" + 0.004*"leaders" + 0.004*"risk"']</t>
+    <t>['0.017*"’" + 0.008*"Haringey" + 0.007*"needs" + 0.007*"plans" + 0.006*"progress" + 0.005*"well" + 0.005*"good" + 0.005*"24" + 0.005*"education" + 0.004*"13"', '0.013*"’" + 0.010*"Haringey" + 0.007*"needs" + 0.006*"plans" + 0.005*"need" + 0.005*"well" + 0.005*"supported" + 0.005*"good" + 0.005*"leaders" + 0.005*"education"', '0.016*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"Haringey" + 0.007*"well" + 0.006*"need" + 0.005*"good" + 0.004*"practice" + 0.004*"impact" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2191,7 +2191,7 @@
     <t>0.2166</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.010*"good" + 0.009*"needs" + 0.007*"well" + 0.005*"need" + 0.005*"practice" + 0.005*"early" + 0.005*"protection" + 0.004*"experiences" + 0.004*"plans"', '0.009*"good" + 0.008*"well" + 0.008*"’" + 0.007*"needs" + 0.005*"impact" + 0.005*"plans" + 0.004*"experiences" + 0.004*"practice" + 0.004*"team" + 0.004*"protection"', '0.014*"’" + 0.012*"good" + 0.009*"well" + 0.008*"needs" + 0.007*"impact" + 0.006*"plans" + 0.005*"protection" + 0.005*"need" + 0.005*"practice" + 0.005*"early"']</t>
+    <t>['0.011*"’" + 0.010*"good" + 0.009*"well" + 0.009*"needs" + 0.006*"impact" + 0.006*"plans" + 0.005*"practice" + 0.005*"protection" + 0.005*"experiences" + 0.005*"need"', '0.010*"good" + 0.009*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"early" + 0.005*"impact" + 0.005*"protection" + 0.004*"need"', '0.014*"’" + 0.011*"good" + 0.008*"well" + 0.008*"needs" + 0.005*"need" + 0.005*"impact" + 0.005*"protection" + 0.005*"experiences" + 0.004*"team" + 0.004*"school"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2221,7 +2221,7 @@
     <t>0.2113</t>
   </si>
   <si>
-    <t>['0.007*"’" + 0.006*"quality" + 0.006*"good" + 0.005*"needs" + 0.004*"meetings" + 0.004*"plans" + 0.004*"practice" + 0.004*"appropriate" + 0.004*"need" + 0.003*"clear"', '0.010*"’" + 0.008*"need" + 0.007*"quality" + 0.007*"good" + 0.006*"needs" + 0.005*"meetings" + 0.005*"well" + 0.005*"clear" + 0.005*"appropriate" + 0.004*"consistently"', '0.012*"’" + 0.009*"needs" + 0.009*"good" + 0.009*"well" + 0.008*"need" + 0.008*"plans" + 0.007*"quality" + 0.007*"practice" + 0.006*"meetings" + 0.006*"consistently"']</t>
+    <t>['0.009*"’" + 0.009*"needs" + 0.007*"good" + 0.006*"well" + 0.005*"plans" + 0.005*"quality" + 0.005*"need" + 0.005*"consistently" + 0.005*"practice" + 0.005*"meetings"', '0.009*"good" + 0.008*"’" + 0.007*"quality" + 0.007*"need" + 0.007*"needs" + 0.006*"well" + 0.005*"meetings" + 0.005*"practice" + 0.005*"plans" + 0.004*"planning"', '0.012*"’" + 0.008*"need" + 0.008*"quality" + 0.008*"good" + 0.007*"plans" + 0.007*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"meetings" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>312</t>
@@ -2248,7 +2248,7 @@
     <t>0.2243</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.009*"good" + 0.006*"need" + 0.006*"needs" + 0.006*"plans" + 0.005*"quality" + 0.005*"education" + 0.005*"risks" + 0.005*"clear" + 0.005*"effective"', '0.014*"’" + 0.013*"good" + 0.009*"well" + 0.007*"needs" + 0.006*"risk" + 0.006*"plans" + 0.006*"receive" + 0.006*"quality" + 0.006*"need" + 0.005*"effective"', '0.011*"’" + 0.009*"good" + 0.007*"risk" + 0.006*"needs" + 0.006*"plans" + 0.006*"effective" + 0.006*"well" + 0.005*"need" + 0.005*"leaders" + 0.005*"education"']</t>
+    <t>['0.011*"’" + 0.009*"good" + 0.006*"needs" + 0.006*"effective" + 0.005*"progress" + 0.005*"receive" + 0.004*"education" + 0.004*"plans" + 0.004*"well" + 0.004*"quality"', '0.013*"’" + 0.012*"good" + 0.007*"plans" + 0.007*"well" + 0.007*"risk" + 0.007*"needs" + 0.006*"effective" + 0.006*"risks" + 0.006*"receive" + 0.005*"information"', '0.011*"’" + 0.010*"good" + 0.008*"well" + 0.008*"need" + 0.007*"risk" + 0.006*"needs" + 0.006*"quality" + 0.006*"plans" + 0.005*"education" + 0.005*"clear"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2278,7 +2278,7 @@
     <t>0.1754</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"leaders" + 0.008*"However" + 0.008*"needs" + 0.007*"need" + 0.007*"quality" + 0.007*"good" + 0.006*"plans" + 0.006*"improve" + 0.005*"appropriate"', '0.014*"’" + 0.010*"need" + 0.010*"good" + 0.009*"leaders" + 0.008*"needs" + 0.007*"quality" + 0.007*"plans" + 0.006*"However" + 0.006*"ensure" + 0.005*"effective"', '0.011*"needs" + 0.010*"’" + 0.010*"leaders" + 0.009*"good" + 0.008*"plans" + 0.008*"need" + 0.008*"well" + 0.007*"quality" + 0.006*"Senior" + 0.006*"However"']</t>
+    <t>['0.011*"’" + 0.007*"plans" + 0.007*"needs" + 0.007*"need" + 0.007*"good" + 0.006*"leaders" + 0.006*"well" + 0.005*"quality" + 0.005*"ensure" + 0.005*"However"', '0.014*"’" + 0.010*"leaders" + 0.009*"needs" + 0.009*"plans" + 0.008*"good" + 0.008*"need" + 0.007*"well" + 0.006*"However" + 0.006*"quality" + 0.006*"progress"', '0.012*"’" + 0.011*"needs" + 0.010*"leaders" + 0.010*"good" + 0.010*"quality" + 0.010*"need" + 0.008*"However" + 0.006*"plans" + 0.006*"ensure" + 0.006*"appropriate"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2308,7 +2308,7 @@
     <t>0.1842</t>
   </si>
   <si>
-    <t>['0.014*"well" + 0.012*"’" + 0.011*"needs" + 0.007*"plans" + 0.006*"good" + 0.006*"quality" + 0.006*"highly" + 0.005*"leaders" + 0.005*"Islington" + 0.005*"effective"', '0.011*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"quality" + 0.006*"good" + 0.006*"highly" + 0.005*"Islington" + 0.005*"practice" + 0.005*"leaders"', '0.015*"’" + 0.013*"needs" + 0.009*"well" + 0.006*"plans" + 0.006*"effective" + 0.005*"highly" + 0.005*"good" + 0.005*"leaders" + 0.005*"risk" + 0.005*"school"']</t>
+    <t>['0.017*"’" + 0.015*"needs" + 0.013*"well" + 0.007*"plans" + 0.007*"highly" + 0.007*"quality" + 0.006*"leaders" + 0.006*"effective" + 0.006*"good" + 0.006*"Islington"', '0.009*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"good" + 0.005*"quality" + 0.004*"Islington" + 0.004*"effective" + 0.004*"early" + 0.004*"practice"', '0.006*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"highly" + 0.004*"good" + 0.004*"plans" + 0.004*"Senior" + 0.004*"leaders" + 0.004*"effective" + 0.003*"risk"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2338,7 +2338,7 @@
     <t>16/12/22</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.010*"needs" + 0.007*"good" + 0.007*"well" + 0.007*"progress" + 0.006*"plans" + 0.006*"impact" + 0.005*"Lambeth" + 0.005*"4" + 0.005*"2022"', '0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"Lambeth" + 0.008*"plans" + 0.006*"good" + 0.005*"need" + 0.005*"progress" + 0.005*"4" + 0.005*"leaders"', '0.019*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"good" + 0.006*"need" + 0.005*"Lambeth" + 0.005*"impact" + 0.005*"progress" + 0.005*"leaders"']</t>
+    <t>['0.012*"’" + 0.008*"plans" + 0.008*"needs" + 0.006*"good" + 0.006*"Lambeth" + 0.006*"impact" + 0.005*"progress" + 0.005*"need" + 0.005*"24" + 0.005*"well"', '0.016*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"Lambeth" + 0.005*"need" + 0.005*"leaders" + 0.005*"carers" + 0.005*"information" + 0.005*"impact"', '0.016*"’" + 0.011*"well" + 0.010*"needs" + 0.008*"good" + 0.007*"plans" + 0.007*"progress" + 0.006*"Lambeth" + 0.006*"need" + 0.006*"4" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2365,7 +2365,7 @@
     <t>0.1538</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"well" + 0.006*"However" + 0.006*"quality" + 0.005*"impact" + 0.005*"timely" + 0.005*"appropriate" + 0.004*"changes" + 0.004*"education" + 0.004*"oversight"', '0.009*"’" + 0.007*"quality" + 0.006*"timely" + 0.006*"However" + 0.006*"appropriate" + 0.006*"well" + 0.005*"needs" + 0.005*"impact" + 0.005*"progress" + 0.004*"early"', '0.009*"’" + 0.006*"However" + 0.006*"well" + 0.006*"timely" + 0.005*"quality" + 0.005*"appropriate" + 0.004*"needs" + 0.004*"impact" + 0.004*"clear" + 0.004*"cases"']</t>
+    <t>['0.009*"’" + 0.007*"quality" + 0.007*"well" + 0.006*"appropriate" + 0.005*"However" + 0.005*"needs" + 0.005*"impact" + 0.005*"timely" + 0.004*"oversight" + 0.004*"plans"', '0.010*"’" + 0.007*"However" + 0.007*"well" + 0.006*"timely" + 0.006*"quality" + 0.005*"clear" + 0.005*"progress" + 0.004*"appropriate" + 0.004*"impact" + 0.004*"needs"', '0.009*"’" + 0.005*"However" + 0.005*"quality" + 0.005*"timely" + 0.005*"well" + 0.005*"impact" + 0.005*"appropriate" + 0.004*"needs" + 0.004*"progress" + 0.003*"effective"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2386,7 +2386,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"Merton" + 0.004*"progress" + 0.004*"plans" + 0.004*"Leaders" + 0.004*"family" + 0.004*"4" + 0.004*"education"', '0.014*"’" + 0.009*"well" + 0.007*"Merton" + 0.005*"needs" + 0.005*"plans" + 0.004*"access" + 0.004*"progress" + 0.004*"risk" + 0.004*"health" + 0.004*"leaders"', '0.016*"’" + 0.008*"well" + 0.007*"Merton" + 0.006*"needs" + 0.005*"family" + 0.005*"plans" + 0.005*"good" + 0.005*"ensure" + 0.005*"helping" + 0.005*"4"']</t>
+    <t>['0.014*"’" + 0.006*"Merton" + 0.006*"needs" + 0.005*"well" + 0.005*"early" + 0.004*"2022" + 0.004*"plans" + 0.004*"28" + 0.004*"education" + 0.004*"ensure"', '0.017*"’" + 0.010*"well" + 0.006*"needs" + 0.005*"Merton" + 0.005*"family" + 0.005*"progress" + 0.005*"risk" + 0.005*"4" + 0.005*"plans" + 0.004*"information"', '0.014*"’" + 0.008*"well" + 0.007*"Merton" + 0.005*"needs" + 0.005*"plans" + 0.004*"good" + 0.004*"early" + 0.004*"access" + 0.004*"progress" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2413,7 +2413,7 @@
     <t>0.186</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"needs" + 0.008*"Newham" + 0.006*"effective" + 0.006*"progress" + 0.006*"plans" + 0.005*"practice" + 0.005*"need" + 0.004*"good" + 0.004*"well"', '0.025*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"need" + 0.007*"Newham" + 0.006*"practice" + 0.006*"progress" + 0.006*"effective" + 0.006*"good" + 0.005*"risks"', '0.017*"’" + 0.006*"practice" + 0.006*"Newham" + 0.006*"progress" + 0.005*"effective" + 0.005*"needs" + 0.005*"Leaders" + 0.004*"receive" + 0.004*"good" + 0.004*"offer"']</t>
+    <t>['0.015*"’" + 0.008*"Newham" + 0.007*"needs" + 0.007*"practice" + 0.006*"plans" + 0.006*"progress" + 0.006*"need" + 0.005*"good" + 0.005*"effective" + 0.004*"18"', '0.020*"’" + 0.008*"needs" + 0.007*"effective" + 0.007*"Newham" + 0.006*"practice" + 0.006*"plans" + 0.006*"good" + 0.005*"progress" + 0.005*"need" + 0.005*"risks"', '0.022*"’" + 0.008*"needs" + 0.007*"progress" + 0.007*"need" + 0.006*"Newham" + 0.006*"plans" + 0.005*"effective" + 0.004*"practice" + 0.004*"team" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2440,7 +2440,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"practice" + 0.006*"well" + 0.006*"need" + 0.005*"strong" + 0.005*"risk" + 0.005*"Redbridge" + 0.005*"needs" + 0.005*"effective" + 0.004*"plans"', '0.007*"practice" + 0.006*"’" + 0.006*"well" + 0.005*"need" + 0.005*"needs" + 0.005*"strong" + 0.005*"effective" + 0.004*"including" + 0.004*"team" + 0.004*"Redbridge"', '0.008*"’" + 0.007*"needs" + 0.007*"practice" + 0.006*"well" + 0.006*"Redbridge" + 0.006*"need" + 0.005*"effective" + 0.005*"progress" + 0.005*"risk" + 0.005*"strong"']</t>
+    <t>['0.008*"practice" + 0.007*"’" + 0.007*"well" + 0.006*"Redbridge" + 0.006*"need" + 0.005*"effective" + 0.005*"strong" + 0.005*"supported" + 0.005*"team" + 0.005*"good"', '0.007*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"need" + 0.005*"strong" + 0.005*"effective" + 0.005*"risk" + 0.005*"practice" + 0.005*"including" + 0.005*"Redbridge"', '0.009*"’" + 0.007*"needs" + 0.007*"practice" + 0.006*"need" + 0.005*"well" + 0.005*"risk" + 0.005*"effective" + 0.005*"strong" + 0.005*"Redbridge" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2461,7 +2461,7 @@
     <t>31/01/2022</t>
   </si>
   <si>
-    <t>['0.012*"well" + 0.012*"’" + 0.008*"Richmond" + 0.007*"needs" + 0.006*"need" + 0.006*"supported" + 0.005*"good" + 0.005*"team" + 0.004*"strong" + 0.004*"ensure"', '0.011*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"Richmond" + 0.005*"good" + 0.004*"January" + 0.004*"team" + 0.004*"4" + 0.004*"need" + 0.004*"strong"', '0.020*"’" + 0.011*"well" + 0.009*"Richmond" + 0.008*"needs" + 0.007*"supported" + 0.007*"team" + 0.006*"good" + 0.006*"need" + 0.005*"additional" + 0.005*"4"']</t>
+    <t>['0.012*"’" + 0.009*"well" + 0.007*"Richmond" + 0.006*"good" + 0.005*"team" + 0.005*"supported" + 0.005*"needs" + 0.004*"need" + 0.004*"ensure" + 0.004*"strong"', '0.018*"’" + 0.012*"well" + 0.010*"Richmond" + 0.008*"needs" + 0.007*"good" + 0.007*"supported" + 0.006*"need" + 0.006*"team" + 0.005*"4" + 0.005*"strong"', '0.016*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"Richmond" + 0.005*"need" + 0.005*"supported" + 0.005*"additional" + 0.005*"team" + 0.005*"4" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2488,7 +2488,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.011*"Southwark" + 0.009*"well" + 0.008*"good" + 0.007*"progress" + 0.007*"needs" + 0.005*"need" + 0.005*"strong" + 0.005*"Leaders" + 0.005*"improve"', '0.015*"’" + 0.008*"Southwark" + 0.007*"needs" + 0.006*"well" + 0.006*"good" + 0.006*"strong" + 0.005*"effective" + 0.005*"receive" + 0.005*"Leaders" + 0.005*"plans"', '0.016*"’" + 0.009*"good" + 0.008*"Southwark" + 0.008*"needs" + 0.007*"plans" + 0.006*"well" + 0.006*"need" + 0.005*"progress" + 0.005*"ensure" + 0.005*"effective"']</t>
+    <t>['0.014*"’" + 0.008*"Southwark" + 0.008*"well" + 0.007*"progress" + 0.006*"needs" + 0.006*"good" + 0.005*"ensure" + 0.005*"Leaders" + 0.005*"plans" + 0.005*"need"', '0.021*"’" + 0.009*"good" + 0.008*"well" + 0.008*"Southwark" + 0.006*"need" + 0.006*"needs" + 0.006*"plans" + 0.006*"effective" + 0.005*"improve" + 0.005*"quality"', '0.018*"’" + 0.012*"Southwark" + 0.009*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"progress" + 0.006*"strong" + 0.006*"plans" + 0.006*"Leaders" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2515,7 +2515,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.006*"Sutton" + 0.005*"well" + 0.005*"receive" + 0.005*"needs" + 0.005*"good" + 0.005*"effective" + 0.004*"leaders" + 0.004*"need" + 0.004*"supported"', '0.014*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"Sutton" + 0.006*"progress" + 0.005*"good" + 0.004*"‘" + 0.004*"10" + 0.004*"receive" + 0.004*"effective"', '0.016*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"6" + 0.005*"effective" + 0.005*"progress" + 0.005*"Sutton" + 0.004*"receive" + 0.004*"home" + 0.004*"good"']</t>
+    <t>['0.018*"’" + 0.006*"well" + 0.006*"progress" + 0.006*"Sutton" + 0.005*"good" + 0.005*"needs" + 0.005*"receive" + 0.005*"effective" + 0.005*"need" + 0.005*"10"', '0.017*"’" + 0.007*"well" + 0.006*"Sutton" + 0.005*"needs" + 0.005*"effective" + 0.005*"good" + 0.005*"receive" + 0.005*"progress" + 0.004*"supported" + 0.004*"6"', '0.015*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"Sutton" + 0.005*"supported" + 0.005*"6" + 0.004*"progress" + 0.004*"‘" + 0.004*"leaders" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2542,7 +2542,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"good" + 0.007*"‘" + 0.007*"plans" + 0.007*"well" + 0.006*"effective" + 0.006*"need" + 0.005*"early" + 0.005*"practice" + 0.005*"carers"', '0.015*"’" + 0.006*"early" + 0.005*"practice" + 0.005*"good" + 0.005*"need" + 0.005*"plans" + 0.005*"progress" + 0.005*"effective" + 0.004*"well" + 0.004*"‘"', '0.017*"’" + 0.007*"effective" + 0.007*"good" + 0.006*"plans" + 0.006*"practice" + 0.005*"progress" + 0.005*"well" + 0.005*"including" + 0.005*"‘" + 0.004*"needs"']</t>
+    <t>['0.017*"’" + 0.007*"good" + 0.006*"practice" + 0.006*"‘" + 0.006*"plans" + 0.005*"early" + 0.005*"need" + 0.005*"effective" + 0.005*"progress" + 0.005*"risk"', '0.014*"’" + 0.006*"plans" + 0.005*"‘" + 0.005*"effective" + 0.005*"good" + 0.005*"well" + 0.004*"including" + 0.004*"needs" + 0.004*"practice" + 0.004*"progress"', '0.013*"’" + 0.007*"good" + 0.007*"effective" + 0.007*"well" + 0.006*"plans" + 0.005*"need" + 0.005*"practice" + 0.005*"‘" + 0.005*"progress" + 0.005*"early"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2569,7 +2569,7 @@
     <t>11/03/19</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"well" + 0.010*"good" + 0.010*"needs" + 0.008*"effective" + 0.005*"need" + 0.005*"plans" + 0.005*"education" + 0.005*"timely" + 0.004*"protection"', '0.017*"’" + 0.015*"well" + 0.010*"needs" + 0.007*"effective" + 0.007*"good" + 0.007*"need" + 0.006*"plans" + 0.005*"timely" + 0.005*"risk" + 0.004*"clear"', '0.010*"’" + 0.008*"well" + 0.007*"good" + 0.005*"needs" + 0.005*"effective" + 0.005*"need" + 0.005*"plans" + 0.004*"risk" + 0.004*"quality" + 0.004*"Waltham"']</t>
+    <t>['0.013*"well" + 0.012*"’" + 0.010*"good" + 0.010*"needs" + 0.007*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"timely" + 0.005*"information" + 0.004*"strong"', '0.012*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"good" + 0.005*"effective" + 0.005*"need" + 0.005*"plans" + 0.005*"timely" + 0.004*"ensure" + 0.004*"risks"', '0.018*"’" + 0.013*"well" + 0.009*"needs" + 0.009*"effective" + 0.008*"good" + 0.006*"need" + 0.005*"plans" + 0.005*"risk" + 0.004*"quality" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2593,7 +2593,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.005*"well" + 0.005*"needs" + 0.005*"progress" + 0.005*"good" + 0.005*"receive" + 0.004*"Senior" + 0.004*"protection" + 0.004*"quality" + 0.004*"ing"', '0.012*"’" + 0.006*"Wandsworth" + 0.006*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"progress" + 0.006*"protection" + 0.005*"ensure" + 0.005*"Senior" + 0.005*"supported"', '0.014*"’" + 0.008*"well" + 0.005*"practice" + 0.005*"progress" + 0.005*"needs" + 0.005*"Senior" + 0.005*"7" + 0.005*"effective" + 0.005*"protection" + 0.005*"quality"']</t>
+    <t>['0.010*"’" + 0.007*"well" + 0.006*"progress" + 0.006*"quality" + 0.005*"Senior" + 0.005*"effective" + 0.005*"supported" + 0.005*"needs" + 0.005*"practice" + 0.005*"protection"', '0.010*"’" + 0.006*"practice" + 0.006*"Wandsworth" + 0.005*"needs" + 0.005*"well" + 0.005*"progress" + 0.005*"ovember" + 0.005*"7" + 0.005*"protection" + 0.004*"Senior"', '0.014*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"protection" + 0.005*"ensure" + 0.005*"Wandsworth" + 0.005*"progress" + 0.005*"Senior" + 0.005*"7" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2614,7 +2614,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"practice" + 0.006*"highly" + 0.006*"needs" + 0.005*"well" + 0.005*"many" + 0.004*"across" + 0.004*"family" + 0.004*"direct" + 0.003*"experiences"', '0.014*"’" + 0.007*"needs" + 0.007*"practice" + 0.005*"highly" + 0.005*"well" + 0.004*"across" + 0.004*"skilled" + 0.003*"family" + 0.003*"Westminster" + 0.003*"direct"', '0.010*"’" + 0.005*"practice" + 0.005*"well" + 0.005*"needs" + 0.005*"highly" + 0.004*"number" + 0.003*"across" + 0.003*"high" + 0.003*"plans" + 0.003*"protection"']</t>
+    <t>['0.013*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"highly" + 0.005*"well" + 0.004*"across" + 0.004*"family" + 0.004*"many" + 0.003*"shared" + 0.003*"number"', '0.014*"’" + 0.007*"practice" + 0.006*"highly" + 0.006*"needs" + 0.006*"well" + 0.004*"many" + 0.004*"direct" + 0.004*"quality" + 0.003*"across" + 0.003*"high"', '0.011*"’" + 0.006*"practice" + 0.005*"needs" + 0.004*"highly" + 0.004*"across" + 0.004*"plans" + 0.003*"skilled" + 0.003*"experiences" + 0.003*"well" + 0.003*"family"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2644,7 +2644,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.007*"need" + 0.007*"plans" + 0.006*"effective" + 0.006*"Luton" + 0.005*"progress" + 0.005*"good" + 0.005*"ensure" + 0.005*"Leaders"', '0.020*"’" + 0.007*"need" + 0.006*"needs" + 0.006*"Luton" + 0.006*"good" + 0.006*"impact" + 0.005*"quality" + 0.005*"well" + 0.005*"ensure" + 0.005*"effective"', '0.016*"’" + 0.006*"plans" + 0.005*"effective" + 0.005*"need" + 0.005*"Luton" + 0.004*"receive" + 0.004*"impact" + 0.004*"needs" + 0.004*"11" + 0.004*"progress"']</t>
+    <t>['0.020*"’" + 0.007*"need" + 0.006*"Luton" + 0.006*"needs" + 0.006*"plans" + 0.006*"progress" + 0.005*"effective" + 0.005*"ensure" + 0.005*"impact" + 0.005*"good"', '0.016*"’" + 0.006*"plans" + 0.006*"needs" + 0.005*"good" + 0.005*"effective" + 0.005*"need" + 0.005*"impact" + 0.005*"progress" + 0.005*"Luton" + 0.005*"quality"', '0.014*"’" + 0.006*"needs" + 0.006*"need" + 0.005*"plans" + 0.005*"Luton" + 0.005*"effective" + 0.004*"good" + 0.004*"receive" + 0.004*"ensure" + 0.004*"Leaders"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2671,7 +2671,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"Manchester" + 0.009*"needs" + 0.007*"always" + 0.007*"well" + 0.005*"protection" + 0.005*"plans" + 0.005*"supported" + 0.005*"education" + 0.005*"effective"', '0.024*"’" + 0.012*"Manchester" + 0.010*"needs" + 0.008*"well" + 0.008*"supported" + 0.006*"always" + 0.006*"plans" + 0.006*"education" + 0.005*"family" + 0.005*"quality"', '0.019*"’" + 0.009*"needs" + 0.009*"Manchester" + 0.006*"always" + 0.006*"supported" + 0.006*"protection" + 0.005*"well" + 0.005*"effective" + 0.005*"plans" + 0.005*"1"']</t>
+    <t>['0.017*"’" + 0.013*"Manchester" + 0.009*"needs" + 0.007*"well" + 0.006*"always" + 0.006*"quality" + 0.005*"education" + 0.005*"supported" + 0.005*"However" + 0.005*"21"', '0.024*"’" + 0.010*"needs" + 0.010*"Manchester" + 0.007*"well" + 0.007*"always" + 0.006*"protection" + 0.006*"supported" + 0.006*"effective" + 0.005*"plans" + 0.005*"family"', '0.021*"’" + 0.009*"needs" + 0.008*"supported" + 0.008*"Manchester" + 0.006*"plans" + 0.006*"well" + 0.006*"always" + 0.005*"March" + 0.005*"education" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -2701,7 +2701,7 @@
     <t>0.111</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.005*"risk" + 0.005*"leaders" + 0.005*"many" + 0.005*"well" + 0.004*"long" + 0.004*"quality" + 0.004*"plans" + 0.004*"progress" + 0.004*"needs"', '0.018*"’" + 0.005*"risk" + 0.005*"leaders" + 0.004*"plans" + 0.004*"progress" + 0.004*"needs" + 0.004*"health" + 0.004*"education" + 0.004*"place" + 0.003*"practice"', '0.014*"’" + 0.006*"risk" + 0.005*"education" + 0.005*"plans" + 0.004*"good" + 0.004*"practice" + 0.004*"needs" + 0.004*"health" + 0.004*"leaders" + 0.004*"well"']</t>
+    <t>['0.016*"’" + 0.006*"leaders" + 0.006*"risk" + 0.005*"well" + 0.004*"practice" + 0.004*"quality" + 0.004*"education" + 0.004*"many" + 0.004*"needs" + 0.004*"plans"', '0.014*"’" + 0.005*"risk" + 0.005*"plans" + 0.005*"long" + 0.005*"health" + 0.005*"needs" + 0.004*"education" + 0.004*"quality" + 0.004*"progress" + 0.004*"many"', '0.015*"’" + 0.005*"risk" + 0.004*"leaders" + 0.004*"good" + 0.004*"plans" + 0.004*"needs" + 0.004*"education" + 0.003*"well" + 0.003*"early" + 0.003*"practice"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -2722,7 +2722,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"Middlesbrough" + 0.008*"plans" + 0.006*"well" + 0.006*"needs" + 0.006*"effective" + 0.006*"practice" + 0.005*"progress" + 0.005*"place" + 0.004*"good"', '0.009*"’" + 0.006*"plans" + 0.006*"needs" + 0.005*"progress" + 0.005*"Middlesbrough" + 0.005*"effective" + 0.004*"well" + 0.004*"2023" + 0.004*"24" + 0.004*"good"', '0.015*"’" + 0.009*"effective" + 0.007*"well" + 0.007*"plans" + 0.006*"Middlesbrough" + 0.006*"practice" + 0.006*"needs" + 0.005*"progress" + 0.005*"24" + 0.005*"13"']</t>
+    <t>['0.018*"’" + 0.008*"Middlesbrough" + 0.008*"plans" + 0.007*"needs" + 0.006*"practice" + 0.006*"effective" + 0.005*"place" + 0.005*"24" + 0.005*"progress" + 0.005*"well"', '0.013*"’" + 0.007*"effective" + 0.005*"plans" + 0.005*"needs" + 0.004*"well" + 0.004*"Middlesbrough" + 0.004*"impact" + 0.004*"practice" + 0.004*"risk" + 0.004*"progress"', '0.010*"’" + 0.008*"well" + 0.008*"effective" + 0.007*"plans" + 0.007*"Middlesbrough" + 0.006*"needs" + 0.006*"practice" + 0.006*"progress" + 0.005*"means" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -2746,7 +2746,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"Keynes" + 0.007*"need" + 0.006*"Milton" + 0.006*"well" + 0.005*"leaders" + 0.005*"plans" + 0.005*"practice" + 0.005*"good" + 0.005*"2021"', '0.013*"’" + 0.005*"practice" + 0.005*"October" + 0.005*"well" + 0.004*"Keynes" + 0.004*"plans" + 0.004*"Milton" + 0.004*"effective" + 0.004*"need" + 0.004*"25"', '0.012*"’" + 0.007*"Milton" + 0.005*"well" + 0.005*"Keynes" + 0.005*"25" + 0.005*"good" + 0.004*"education" + 0.004*"quality" + 0.004*"need" + 0.004*"team"']</t>
+    <t>['0.008*"’" + 0.006*"Keynes" + 0.005*"Milton" + 0.005*"need" + 0.005*"good" + 0.004*"5" + 0.004*"well" + 0.004*"practice" + 0.004*"leaders" + 0.004*"October"', '0.019*"’" + 0.007*"well" + 0.005*"Milton" + 0.005*"Keynes" + 0.005*"plans" + 0.005*"25" + 0.005*"need" + 0.005*"good" + 0.004*"2021" + 0.004*"education"', '0.015*"’" + 0.007*"Milton" + 0.007*"Keynes" + 0.006*"need" + 0.006*"practice" + 0.005*"well" + 0.005*"leaders" + 0.005*"25" + 0.004*"plans" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -2770,7 +2770,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"plans" + 0.009*"needs" + 0.007*"Newcastle" + 0.007*"protection" + 0.006*"well" + 0.006*"planning" + 0.006*"good" + 0.005*"response" + 0.005*"management"', '0.014*"’" + 0.011*"plans" + 0.007*"well" + 0.007*"Newcastle" + 0.007*"good" + 0.006*"needs" + 0.006*"progress" + 0.006*"ensure" + 0.005*"protection" + 0.005*"making"', '0.015*"’" + 0.010*"plans" + 0.008*"protection" + 0.008*"needs" + 0.007*"good" + 0.007*"Newcastle" + 0.006*"progress" + 0.006*"need" + 0.006*"making" + 0.006*"well"']</t>
+    <t>['0.013*"’" + 0.010*"plans" + 0.009*"needs" + 0.008*"well" + 0.006*"progress" + 0.006*"Newcastle" + 0.006*"good" + 0.006*"making" + 0.006*"protection" + 0.006*"need"', '0.017*"’" + 0.010*"plans" + 0.007*"good" + 0.007*"Newcastle" + 0.007*"needs" + 0.007*"protection" + 0.006*"making" + 0.006*"10" + 0.006*"well" + 0.005*"progress"', '0.018*"’" + 0.011*"plans" + 0.008*"Newcastle" + 0.007*"protection" + 0.007*"needs" + 0.007*"good" + 0.006*"ensure" + 0.006*"well" + 0.005*"progress" + 0.005*"29"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -2791,7 +2791,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"Norfolk" + 0.006*"carers" + 0.006*"well" + 0.006*"supported" + 0.005*"needs" + 0.005*"7" + 0.005*"plans" + 0.005*"practice" + 0.005*"effective"', '0.017*"’" + 0.009*"well" + 0.009*"Norfolk" + 0.007*"practice" + 0.007*"needs" + 0.005*"carers" + 0.005*"leaders" + 0.005*"supported" + 0.005*"including" + 0.004*"18"', '0.018*"’" + 0.009*"well" + 0.006*"Norfolk" + 0.006*"carers" + 0.005*"needs" + 0.005*"supported" + 0.005*"practice" + 0.005*"plans" + 0.004*"information" + 0.004*"including"']</t>
+    <t>['0.016*"’" + 0.008*"well" + 0.007*"Norfolk" + 0.007*"carers" + 0.006*"needs" + 0.005*"supported" + 0.005*"practice" + 0.005*"plans" + 0.004*"range" + 0.004*"progress"', '0.016*"’" + 0.009*"Norfolk" + 0.009*"well" + 0.007*"supported" + 0.005*"practice" + 0.005*"carers" + 0.005*"18" + 0.004*"leaders" + 0.004*"including" + 0.004*"needs"', '0.018*"’" + 0.007*"Norfolk" + 0.007*"well" + 0.006*"needs" + 0.006*"practice" + 0.006*"carers" + 0.005*"plans" + 0.004*"progress" + 0.004*"range" + 0.004*"7"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -2821,7 +2821,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"practice" + 0.007*"risk" + 0.007*"needs" + 0.007*"leaders" + 0.006*"planning" + 0.006*"plans" + 0.006*"need" + 0.005*"North" + 0.005*"Lincolnshire"', '0.011*"’" + 0.006*"leaders" + 0.006*"planning" + 0.005*"practice" + 0.005*"needs" + 0.005*"risk" + 0.005*"2021" + 0.004*"quality" + 0.004*"East" + 0.004*"many"', '0.012*"’" + 0.008*"practice" + 0.007*"risk" + 0.006*"leaders" + 0.006*"planning" + 0.005*"need" + 0.005*"needs" + 0.005*"October" + 0.004*"2021" + 0.004*"quality"']</t>
+    <t>['0.012*"’" + 0.007*"planning" + 0.006*"needs" + 0.006*"practice" + 0.006*"risk" + 0.005*"leaders" + 0.004*"need" + 0.004*"October" + 0.004*"East" + 0.004*"quality"', '0.015*"’" + 0.010*"practice" + 0.008*"risk" + 0.007*"leaders" + 0.007*"needs" + 0.006*"planning" + 0.005*"North" + 0.005*"many" + 0.005*"East" + 0.005*"need"', '0.015*"’" + 0.006*"leaders" + 0.006*"risk" + 0.006*"practice" + 0.006*"need" + 0.005*"plans" + 0.005*"many" + 0.005*"planning" + 0.005*"2021" + 0.005*"needs"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -2848,7 +2848,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.006*"‘" + 0.006*"North" + 0.005*"family" + 0.005*"Lincolnshire" + 0.005*"need" + 0.004*"approach" + 0.004*"leaders" + 0.004*"14" + 0.004*"10"', '0.016*"’" + 0.008*"‘" + 0.005*"approach" + 0.005*"Lincolnshire" + 0.005*"leaders" + 0.005*"family" + 0.005*"team" + 0.004*"well" + 0.004*"needs" + 0.004*"need"', '0.022*"’" + 0.007*"‘" + 0.007*"family" + 0.006*"well" + 0.006*"North" + 0.005*"Lincolnshire" + 0.005*"10" + 0.005*"leaders" + 0.005*"protection" + 0.005*"approach"']</t>
+    <t>['0.020*"’" + 0.006*"‘" + 0.006*"well" + 0.005*"Lincolnshire" + 0.005*"10" + 0.005*"approach" + 0.005*"leaders" + 0.005*"protection" + 0.005*"family" + 0.004*"North"', '0.015*"’" + 0.006*"‘" + 0.005*"Lincolnshire" + 0.005*"family" + 0.004*"council" + 0.004*"leaders" + 0.004*"10" + 0.004*"plans" + 0.004*"well" + 0.004*"protection"', '0.023*"’" + 0.008*"‘" + 0.007*"North" + 0.007*"family" + 0.006*"need" + 0.006*"approach" + 0.005*"leaders" + 0.005*"Lincolnshire" + 0.005*"14" + 0.005*"2022"']</t>
   </si>
   <si>
     <t>940</t>
@@ -2878,7 +2878,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"North" + 0.007*"Northamptonshire" + 0.006*"well" + 0.006*"quality" + 0.005*"Leaders" + 0.005*"NCT" + 0.005*"3" + 0.005*"2022" + 0.005*"impact"', '0.017*"’" + 0.009*"Northamptonshire" + 0.007*"well" + 0.006*"practice" + 0.006*"North" + 0.006*"quality" + 0.005*"needs" + 0.005*"e" + 0.005*"plans" + 0.005*"Leaders"', '0.009*"’" + 0.007*"Northamptonshire" + 0.005*"impact" + 0.005*"needs" + 0.005*"North" + 0.005*"quality" + 0.004*"practice" + 0.004*"well" + 0.004*"14" + 0.004*"plans"']</t>
+    <t>['0.013*"’" + 0.008*"North" + 0.008*"well" + 0.007*"Northamptonshire" + 0.005*"quality" + 0.005*"NCT" + 0.005*"need" + 0.005*"practice" + 0.004*"Leaders" + 0.004*"needs"', '0.022*"’" + 0.010*"Northamptonshire" + 0.006*"quality" + 0.006*"well" + 0.006*"impact" + 0.005*"plans" + 0.005*"North" + 0.005*"Leaders" + 0.005*"3" + 0.005*"needs"', '0.013*"’" + 0.006*"North" + 0.005*"practice" + 0.005*"Northamptonshire" + 0.004*"quality" + 0.004*"well" + 0.004*"needs" + 0.004*"NCT" + 0.004*"impact" + 0.004*"Leaders"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -2905,7 +2905,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"always" + 0.006*"needs" + 0.005*"quality" + 0.005*"Somerset" + 0.005*"number" + 0.005*"risk" + 0.005*"effective" + 0.005*"plans" + 0.004*"North"', '0.018*"’" + 0.009*"quality" + 0.008*"needs" + 0.006*"need" + 0.006*"practice" + 0.006*"always" + 0.006*"North" + 0.005*"Somerset" + 0.005*"number" + 0.005*"risk"', '0.018*"’" + 0.007*"quality" + 0.006*"North" + 0.006*"Somerset" + 0.006*"number" + 0.005*"needs" + 0.005*"always" + 0.005*"experienced" + 0.005*"well" + 0.005*"practice"']</t>
+    <t>['0.017*"’" + 0.008*"quality" + 0.007*"Somerset" + 0.006*"always" + 0.006*"needs" + 0.006*"practice" + 0.006*"progress" + 0.005*"risk" + 0.005*"well" + 0.005*"North"', '0.018*"’" + 0.008*"needs" + 0.007*"quality" + 0.007*"North" + 0.007*"always" + 0.006*"number" + 0.006*"plans" + 0.005*"Somerset" + 0.005*"need" + 0.005*"practice"', '0.014*"’" + 0.006*"quality" + 0.005*"number" + 0.004*"practice" + 0.004*"progress" + 0.004*"Somerset" + 0.004*"North" + 0.004*"needs" + 0.004*"need" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -2929,7 +2929,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.005*"well" + 0.005*"quality" + 0.005*"need" + 0.005*"needs" + 0.004*"make" + 0.004*"leaders" + 0.004*"understand" + 0.003*"impact" + 0.003*"protection"', '0.015*"’" + 0.006*"well" + 0.005*"make" + 0.005*"impact" + 0.005*"quality" + 0.005*"need" + 0.004*"leaders" + 0.004*"early" + 0.004*"foster" + 0.004*"needs"', '0.017*"’" + 0.008*"well" + 0.007*"leaders" + 0.006*"need" + 0.004*"needs" + 0.004*"make" + 0.004*"quality" + 0.004*"carers" + 0.004*"impact" + 0.004*"early"']</t>
+    <t>['0.017*"’" + 0.007*"leaders" + 0.006*"well" + 0.006*"impact" + 0.005*"need" + 0.005*"needs" + 0.005*"make" + 0.004*"quality" + 0.004*"early" + 0.004*"family"', '0.014*"’" + 0.006*"well" + 0.005*"need" + 0.005*"leaders" + 0.005*"protection" + 0.004*"make" + 0.004*"needs" + 0.004*"quality" + 0.003*"plans" + 0.003*"impact"', '0.016*"’" + 0.007*"well" + 0.005*"quality" + 0.005*"need" + 0.004*"leaders" + 0.004*"make" + 0.004*"clear" + 0.004*"good" + 0.004*"early" + 0.003*"progress"']</t>
   </si>
   <si>
     <t>815</t>
@@ -2956,7 +2956,7 @@
     <t>0.1939</t>
   </si>
   <si>
-    <t>['0.011*"needs" + 0.008*"well" + 0.007*"plans" + 0.007*"clear" + 0.006*"practice" + 0.006*"effective" + 0.006*"impact" + 0.006*"North" + 0.005*"’" + 0.004*"positive"', '0.012*"needs" + 0.011*"’" + 0.007*"clear" + 0.007*"effective" + 0.007*"practice" + 0.006*"well" + 0.006*"plans" + 0.005*"positive" + 0.005*"Yorkshire" + 0.005*"approach"', '0.009*"needs" + 0.008*"clear" + 0.007*"well" + 0.007*"’" + 0.007*"practice" + 0.006*"plans" + 0.005*"effective" + 0.005*"impact" + 0.004*"North" + 0.004*"family"']</t>
+    <t>['0.011*"needs" + 0.009*"’" + 0.009*"clear" + 0.008*"well" + 0.008*"practice" + 0.007*"effective" + 0.006*"plans" + 0.005*"positive" + 0.005*"North" + 0.005*"Yorkshire"', '0.009*"needs" + 0.008*"’" + 0.006*"plans" + 0.006*"clear" + 0.006*"well" + 0.005*"impact" + 0.005*"effective" + 0.005*"practice" + 0.005*"approach" + 0.004*"North"', '0.012*"needs" + 0.007*"clear" + 0.007*"plans" + 0.007*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"effective" + 0.005*"impact" + 0.004*"positive" + 0.004*"within"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -2980,7 +2980,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"needs" + 0.009*"well" + 0.009*"good" + 0.006*"need" + 0.006*"education" + 0.006*"quality" + 0.006*"impact" + 0.005*"practice" + 0.005*"leaders"', '0.024*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"good" + 0.006*"need" + 0.006*"experiences" + 0.005*"impact" + 0.005*"practice" + 0.005*"quality" + 0.004*"plans"', '0.026*"’" + 0.011*"needs" + 0.010*"well" + 0.006*"need" + 0.005*"good" + 0.005*"experiences" + 0.005*"practice" + 0.004*"supported" + 0.004*"impact" + 0.004*"education"']</t>
+    <t>['0.021*"’" + 0.012*"needs" + 0.009*"well" + 0.007*"good" + 0.006*"impact" + 0.006*"practice" + 0.006*"experiences" + 0.005*"education" + 0.005*"need" + 0.004*"senior"', '0.026*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"good" + 0.006*"need" + 0.005*"experiences" + 0.005*"education" + 0.005*"quality" + 0.004*"plans" + 0.004*"practice"', '0.018*"’" + 0.009*"needs" + 0.009*"well" + 0.008*"good" + 0.007*"need" + 0.005*"quality" + 0.005*"leaders" + 0.005*"experiences" + 0.005*"impact" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3007,7 +3007,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"needs" + 0.005*"plans" + 0.004*"oversight" + 0.004*"11" + 0.004*"effective" + 0.004*"good" + 0.004*"practice" + 0.004*"impact" + 0.003*"Nottingham"', '0.016*"’" + 0.007*"needs" + 0.005*"11" + 0.005*"effective" + 0.005*"Nottingham" + 0.005*"plans" + 0.005*"City" + 0.005*"oversight" + 0.004*"practice" + 0.004*"impact"', '0.012*"’" + 0.009*"needs" + 0.007*"Nottingham" + 0.006*"effective" + 0.006*"plans" + 0.006*"impact" + 0.005*"2022" + 0.005*"consistently" + 0.005*"However" + 0.005*"protection"']</t>
+    <t>['0.012*"’" + 0.008*"needs" + 0.006*"impact" + 0.006*"effective" + 0.005*"Nottingham" + 0.005*"11" + 0.005*"consistently" + 0.005*"plans" + 0.005*"need" + 0.005*"oversight"', '0.018*"’" + 0.009*"needs" + 0.006*"Nottingham" + 0.006*"effective" + 0.006*"plans" + 0.005*"11" + 0.005*"However" + 0.005*"oversight" + 0.005*"risk" + 0.004*"2022"', '0.011*"’" + 0.006*"needs" + 0.005*"plans" + 0.005*"Nottingham" + 0.005*"City" + 0.004*"2022" + 0.004*"practice" + 0.004*"effective" + 0.004*"significant" + 0.004*"oversight"']</t>
   </si>
   <si>
     <t>891</t>
@@ -3025,7 +3025,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"well" + 0.008*"practice" + 0.005*"plans" + 0.005*"progress" + 0.005*"made" + 0.004*"areas" + 0.004*"placements" + 0.004*"ensure" + 0.004*"needs"', '0.013*"’" + 0.009*"well" + 0.007*"practice" + 0.007*"needs" + 0.005*"number" + 0.005*"ensure" + 0.005*"receive" + 0.005*"progress" + 0.005*"made" + 0.005*"plans"', '0.012*"’" + 0.008*"practice" + 0.007*"receive" + 0.006*"needs" + 0.006*"carers" + 0.006*"well" + 0.006*"quality" + 0.006*"ensure" + 0.005*"areas" + 0.005*"plans"']</t>
+    <t>['0.016*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"receive" + 0.005*"plans" + 0.005*"progress" + 0.005*"made" + 0.005*"quality" + 0.005*"ensure"', '0.009*"practice" + 0.009*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"ensure" + 0.006*"quality" + 0.005*"carers" + 0.005*"areas" + 0.004*"number" + 0.004*"made"', '0.012*"’" + 0.007*"practice" + 0.007*"well" + 0.006*"receive" + 0.005*"areas" + 0.005*"plans" + 0.005*"ensure" + 0.005*"made" + 0.004*"e" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3058,7 +3058,7 @@
     <t>0.176</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"needs" + 0.008*"good" + 0.007*"effective" + 0.007*"practice" + 0.006*"progress" + 0.006*"well" + 0.005*"risk" + 0.005*"plans" + 0.005*"planning"', '0.011*"’" + 0.010*"practice" + 0.009*"good" + 0.009*"needs" + 0.009*"effective" + 0.007*"planning" + 0.007*"quality" + 0.006*"well" + 0.006*"progress" + 0.006*"plans"', '0.011*"good" + 0.010*"’" + 0.009*"needs" + 0.008*"practice" + 0.007*"quality" + 0.007*"effective" + 0.006*"progress" + 0.006*"well" + 0.006*"plans" + 0.005*"planning"']</t>
+    <t>['0.011*"effective" + 0.010*"’" + 0.009*"needs" + 0.009*"good" + 0.007*"practice" + 0.006*"progress" + 0.006*"planning" + 0.006*"plans" + 0.006*"quality" + 0.006*"well"', '0.012*"’" + 0.010*"needs" + 0.010*"practice" + 0.010*"good" + 0.007*"effective" + 0.007*"progress" + 0.007*"quality" + 0.006*"planning" + 0.005*"plans" + 0.005*"well"', '0.009*"’" + 0.009*"good" + 0.008*"practice" + 0.008*"well" + 0.007*"needs" + 0.006*"quality" + 0.006*"planning" + 0.006*"progress" + 0.005*"effective" + 0.005*"information"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3085,7 +3085,7 @@
     <t>0.1848</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.010*"needs" + 0.005*"number" + 0.005*"early" + 0.004*"protection" + 0.004*"effective" + 0.004*"good" + 0.004*"plans" + 0.004*"small" + 0.004*"response"', '0.012*"’" + 0.009*"needs" + 0.007*"number" + 0.006*"good" + 0.005*"early" + 0.005*"plans" + 0.004*"Oxfordshire" + 0.004*"live" + 0.004*"response" + 0.004*"effective"', '0.016*"’" + 0.009*"needs" + 0.008*"good" + 0.006*"number" + 0.006*"quality" + 0.005*"response" + 0.005*"protection" + 0.005*"early" + 0.005*"plans" + 0.005*"education"']</t>
+    <t>['0.014*"’" + 0.008*"needs" + 0.006*"good" + 0.006*"number" + 0.006*"response" + 0.005*"quality" + 0.005*"plans" + 0.005*"early" + 0.005*"effective" + 0.004*"Oxfordshire"', '0.016*"’" + 0.010*"needs" + 0.007*"good" + 0.006*"early" + 0.006*"number" + 0.006*"protection" + 0.004*"plans" + 0.004*"practice" + 0.004*"including" + 0.004*"education"', '0.009*"’" + 0.009*"needs" + 0.005*"number" + 0.005*"good" + 0.004*"Oxfordshire" + 0.004*"response" + 0.004*"education" + 0.004*"plans" + 0.004*"protection" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3109,7 +3109,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"practice" + 0.007*"well" + 0.006*"needs" + 0.006*"planning" + 0.006*"risk" + 0.005*"progress" + 0.005*"good" + 0.005*"quality" + 0.005*"need"', '0.013*"’" + 0.007*"risk" + 0.006*"good" + 0.006*"well" + 0.005*"planning" + 0.005*"needs" + 0.005*"number" + 0.005*"practice" + 0.005*"effective" + 0.005*"quality"', '0.013*"’" + 0.007*"well" + 0.007*"good" + 0.007*"practice" + 0.006*"needs" + 0.006*"risk" + 0.006*"effective" + 0.005*"progress" + 0.005*"planning" + 0.005*"including"']</t>
+    <t>['0.013*"’" + 0.007*"risk" + 0.007*"practice" + 0.006*"needs" + 0.006*"well" + 0.006*"good" + 0.005*"including" + 0.005*"effective" + 0.005*"planning" + 0.005*"quality"', '0.015*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"planning" + 0.006*"effective" + 0.006*"risk" + 0.006*"good" + 0.005*"needs" + 0.005*"progress" + 0.005*"quality"', '0.014*"’" + 0.007*"needs" + 0.007*"good" + 0.007*"practice" + 0.006*"progress" + 0.005*"risk" + 0.005*"well" + 0.005*"planning" + 0.005*"quality" + 0.005*"need"']</t>
   </si>
   <si>
     <t>879</t>
@@ -3133,7 +3133,7 @@
     <t>0.1594</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"good" + 0.008*"needs" + 0.008*"well" + 0.008*"quality" + 0.008*"However" + 0.006*"plans" + 0.006*"result" + 0.006*"number" + 0.005*"progress"', '0.014*"’" + 0.009*"good" + 0.008*"However" + 0.007*"needs" + 0.006*"timely" + 0.006*"progress" + 0.006*"well" + 0.005*"protection" + 0.005*"effective" + 0.005*"practice"', '0.016*"’" + 0.011*"well" + 0.010*"However" + 0.010*"quality" + 0.008*"needs" + 0.008*"good" + 0.007*"progress" + 0.006*"timely" + 0.006*"effective" + 0.005*"leaders"']</t>
+    <t>['0.012*"’" + 0.007*"However" + 0.007*"well" + 0.007*"needs" + 0.006*"good" + 0.006*"quality" + 0.006*"result" + 0.005*"timely" + 0.005*"progress" + 0.004*"plans"', '0.016*"’" + 0.011*"However" + 0.010*"well" + 0.009*"needs" + 0.009*"good" + 0.007*"quality" + 0.007*"progress" + 0.006*"leaders" + 0.006*"plans" + 0.006*"effective"', '0.015*"’" + 0.012*"good" + 0.010*"quality" + 0.008*"well" + 0.007*"progress" + 0.007*"However" + 0.007*"needs" + 0.006*"timely" + 0.005*"effective" + 0.005*"number"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3163,7 +3163,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"care-experienced" + 0.007*"well" + 0.006*"family" + 0.006*"Portsmouth" + 0.006*"needs" + 0.005*"health" + 0.005*"19" + 0.004*"leaders" + 0.004*"practice"', '0.018*"’" + 0.008*"care-experienced" + 0.008*"well" + 0.008*"Portsmouth" + 0.007*"needs" + 0.006*"plans" + 0.006*"health" + 0.005*"family" + 0.005*"risk" + 0.005*"receive"', '0.017*"’" + 0.008*"care-experienced" + 0.007*"needs" + 0.006*"well" + 0.005*"Portsmouth" + 0.005*"family" + 0.005*"need" + 0.005*"progress" + 0.004*"offer" + 0.004*"2023"']</t>
+    <t>['0.014*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"care-experienced" + 0.007*"Portsmouth" + 0.005*"plans" + 0.005*"family" + 0.004*"practice" + 0.004*"health" + 0.004*"early"', '0.015*"’" + 0.009*"care-experienced" + 0.008*"well" + 0.007*"Portsmouth" + 0.006*"needs" + 0.006*"family" + 0.006*"plans" + 0.006*"health" + 0.005*"practice" + 0.005*"leaders"', '0.022*"’" + 0.007*"care-experienced" + 0.006*"needs" + 0.006*"Portsmouth" + 0.006*"well" + 0.005*"family" + 0.005*"health" + 0.005*"15" + 0.005*"need" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3193,7 +3193,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"quality" + 0.007*"well" + 0.007*"number" + 0.006*"plans" + 0.006*"good" + 0.006*"need" + 0.005*"timely" + 0.005*"However" + 0.005*"needs"', '0.018*"’" + 0.007*"number" + 0.007*"well" + 0.007*"quality" + 0.006*"plans" + 0.005*"good" + 0.005*"effective" + 0.005*"always" + 0.005*"carers" + 0.004*"ensure"', '0.011*"’" + 0.007*"number" + 0.006*"effective" + 0.005*"quality" + 0.005*"practice" + 0.005*"plans" + 0.005*"need" + 0.004*"well" + 0.004*"However" + 0.004*"good"']</t>
+    <t>['0.013*"’" + 0.006*"quality" + 0.006*"number" + 0.005*"good" + 0.005*"well" + 0.005*"effective" + 0.005*"always" + 0.005*"needs" + 0.005*"plans" + 0.005*"practice"', '0.013*"’" + 0.006*"number" + 0.005*"plans" + 0.005*"quality" + 0.005*"need" + 0.005*"good" + 0.005*"well" + 0.004*"practice" + 0.004*"effective" + 0.004*"timely"', '0.020*"’" + 0.008*"number" + 0.008*"well" + 0.008*"quality" + 0.007*"plans" + 0.006*"good" + 0.006*"need" + 0.006*"effective" + 0.006*"timely" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3214,7 +3214,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"However" + 0.006*"leaders" + 0.006*"plans" + 0.006*"needs" + 0.006*"consistently" + 0.006*"practice" + 0.005*"20" + 0.005*"carers" + 0.005*"quality"', '0.019*"’" + 0.006*"plans" + 0.006*"leaders" + 0.006*"However" + 0.005*"needs" + 0.005*"consistently" + 0.005*"2022" + 0.005*"1" + 0.005*"Redcar" + 0.005*"risk"', '0.016*"’" + 0.006*"leaders" + 0.005*"needs" + 0.005*"consistently" + 0.005*"2022" + 0.005*"Cleveland" + 0.004*"20" + 0.004*"carers" + 0.004*"practice" + 0.004*"However"']</t>
+    <t>['0.015*"’" + 0.006*"However" + 0.006*"leaders" + 0.006*"plans" + 0.005*"20" + 0.005*"consistently" + 0.005*"2022" + 0.005*"risk" + 0.005*"needs" + 0.004*"practice"', '0.018*"’" + 0.006*"needs" + 0.006*"leaders" + 0.005*"Cleveland" + 0.005*"plans" + 0.005*"However" + 0.005*"consistently" + 0.005*"carers" + 0.005*"Redcar" + 0.005*"2022"', '0.018*"’" + 0.006*"leaders" + 0.006*"needs" + 0.006*"consistently" + 0.006*"plans" + 0.005*"However" + 0.005*"practice" + 0.005*"1" + 0.005*"July" + 0.005*"2022"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3244,7 +3244,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.011*"experienced" + 0.008*"practice" + 0.007*"needs" + 0.006*"quality" + 0.006*"Rochdale" + 0.006*"plans" + 0.005*"consistently" + 0.005*"February" + 0.005*"well"', '0.022*"’" + 0.008*"needs" + 0.007*"practice" + 0.007*"experienced" + 0.006*"response" + 0.006*"plans" + 0.005*"consistently" + 0.005*"quality" + 0.005*"good" + 0.005*"23"', '0.019*"’" + 0.010*"experienced" + 0.008*"needs" + 0.008*"practice" + 0.007*"response" + 0.006*"plans" + 0.006*"good" + 0.005*"consistently" + 0.005*"need" + 0.005*"3"']</t>
+    <t>['0.026*"’" + 0.009*"experienced" + 0.008*"needs" + 0.008*"practice" + 0.007*"plans" + 0.006*"good" + 0.006*"response" + 0.006*"consistently" + 0.006*"quality" + 0.005*"3"', '0.015*"’" + 0.010*"experienced" + 0.008*"needs" + 0.007*"practice" + 0.005*"response" + 0.005*"plans" + 0.005*"consistently" + 0.005*"Rochdale" + 0.004*"quality" + 0.004*"experiences"', '0.015*"’" + 0.009*"experienced" + 0.009*"practice" + 0.006*"response" + 0.006*"needs" + 0.005*"consistently" + 0.005*"quality" + 0.004*"well" + 0.004*"good" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3268,7 +3268,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"Rotherham" + 0.005*"ensure" + 0.005*"good" + 0.004*"Borough" + 0.004*"Metropolitan" + 0.004*"1" + 0.004*"plans" + 0.004*"well" + 0.004*"However"', '0.014*"’" + 0.010*"Rotherham" + 0.007*"needs" + 0.006*"well" + 0.005*"good" + 0.005*"plans" + 0.005*"Council" + 0.005*"However" + 0.005*"ensure" + 0.005*"clear"', '0.014*"’" + 0.008*"needs" + 0.006*"Rotherham" + 0.006*"well" + 0.005*"Council" + 0.005*"good" + 0.004*"However" + 0.004*"27" + 0.004*"Metropolitan" + 0.004*"ensure"']</t>
+    <t>['0.010*"’" + 0.008*"Rotherham" + 0.006*"needs" + 0.005*"well" + 0.005*"Council" + 0.005*"good" + 0.005*"protection" + 0.004*"1" + 0.004*"However" + 0.004*"Borough"', '0.018*"’" + 0.011*"Rotherham" + 0.007*"needs" + 0.005*"Council" + 0.005*"good" + 0.005*"ensure" + 0.005*"However" + 0.005*"well" + 0.005*"27" + 0.004*"plans"', '0.016*"’" + 0.006*"Rotherham" + 0.006*"well" + 0.006*"needs" + 0.005*"ensure" + 0.005*"plans" + 0.004*"good" + 0.004*"June" + 0.004*"However" + 0.004*"understand"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3292,7 +3292,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.012*"well" + 0.010*"practice" + 0.008*"highly" + 0.007*"strong" + 0.005*"effective" + 0.005*"high" + 0.005*"leaders" + 0.004*"needs" + 0.004*"progress"', '0.017*"well" + 0.013*"practice" + 0.009*"’" + 0.007*"strong" + 0.007*"highly" + 0.006*"needs" + 0.006*"effective" + 0.005*"leaders" + 0.005*"professionals" + 0.004*"improve"', '0.012*"’" + 0.011*"well" + 0.009*"practice" + 0.006*"highly" + 0.006*"needs" + 0.005*"leaders" + 0.005*"effective" + 0.005*"high" + 0.005*"strong" + 0.004*"professionals"']</t>
+    <t>['0.013*"practice" + 0.012*"well" + 0.011*"’" + 0.007*"highly" + 0.007*"strong" + 0.006*"needs" + 0.005*"effective" + 0.004*"leaders" + 0.004*"high" + 0.004*"progress"', '0.015*"well" + 0.013*"’" + 0.010*"practice" + 0.008*"highly" + 0.007*"strong" + 0.006*"needs" + 0.006*"leaders" + 0.005*"effective" + 0.005*"high" + 0.005*"professionals"', '0.011*"well" + 0.009*"practice" + 0.008*"’" + 0.005*"highly" + 0.004*"effective" + 0.004*"strong" + 0.004*"needs" + 0.004*"leaders" + 0.004*"high" + 0.004*"range"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3319,7 +3319,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"well" + 0.007*"plans" + 0.005*"needs" + 0.005*"good" + 0.004*"clear" + 0.004*"parents" + 0.004*"supported" + 0.004*"practice" + 0.004*"risk"', '0.010*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"needs" + 0.005*"practice" + 0.005*"good" + 0.004*"supported" + 0.004*"effective" + 0.004*"appropriate" + 0.004*"progress"', '0.016*"’" + 0.010*"well" + 0.009*"needs" + 0.009*"plans" + 0.006*"good" + 0.005*"clear" + 0.005*"effective" + 0.005*"need" + 0.004*"parents" + 0.004*"range"']</t>
+    <t>['0.014*"’" + 0.008*"plans" + 0.008*"well" + 0.008*"needs" + 0.005*"good" + 0.005*"need" + 0.005*"effective" + 0.004*"supported" + 0.004*"parents" + 0.004*"progress"', '0.012*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"needs" + 0.005*"good" + 0.005*"need" + 0.005*"clear" + 0.005*"practice" + 0.004*"effective" + 0.004*"risk"', '0.014*"’" + 0.009*"well" + 0.008*"plans" + 0.008*"needs" + 0.005*"practice" + 0.005*"good" + 0.004*"effective" + 0.004*"parents" + 0.004*"focus" + 0.004*"clear"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3346,7 +3346,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.004*"needs" + 0.004*"always" + 0.004*"actions" + 0.004*"information" + 0.003*"plans" + 0.003*"well" + 0.003*"health" + 0.003*"management" + 0.003*"case"', '0.014*"’" + 0.007*"well" + 0.005*"quality" + 0.005*"plans" + 0.005*"needs" + 0.005*"use" + 0.004*"effective" + 0.004*"However" + 0.004*"benefit" + 0.004*"need"', '0.011*"’" + 0.005*"quality" + 0.005*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"benefit" + 0.004*"case" + 0.004*"effective" + 0.004*"health" + 0.004*"use"']</t>
+    <t>['0.013*"’" + 0.006*"well" + 0.005*"quality" + 0.005*"plans" + 0.004*"use" + 0.004*"benefit" + 0.004*"informed" + 0.004*"needs" + 0.004*"effective" + 0.004*"However"', '0.012*"’" + 0.006*"well" + 0.005*"needs" + 0.004*"benefit" + 0.004*"information" + 0.004*"plans" + 0.004*"always" + 0.004*"effective" + 0.003*"health" + 0.003*"actions"', '0.010*"’" + 0.006*"needs" + 0.005*"quality" + 0.004*"plans" + 0.004*"well" + 0.004*"effective" + 0.004*"good" + 0.004*"information" + 0.004*"actions" + 0.004*"management"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3367,7 +3367,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"good" + 0.007*"enough" + 0.006*"team" + 0.006*"need" + 0.006*"practice" + 0.005*"plans" + 0.005*"protection"', '0.013*"well" + 0.011*"’" + 0.010*"needs" + 0.008*"good" + 0.007*"need" + 0.006*"plans" + 0.006*"ensure" + 0.006*"team" + 0.006*"practice" + 0.006*"effective"', '0.011*"’" + 0.009*"needs" + 0.007*"team" + 0.007*"well" + 0.007*"practice" + 0.006*"effective" + 0.006*"need" + 0.006*"good" + 0.005*"protection" + 0.005*"ensure"']</t>
+    <t>['0.016*"’" + 0.010*"well" + 0.008*"good" + 0.008*"needs" + 0.007*"enough" + 0.007*"need" + 0.007*"protection" + 0.006*"team" + 0.006*"plans" + 0.005*"practice"', '0.013*"’" + 0.011*"needs" + 0.011*"well" + 0.008*"practice" + 0.007*"effective" + 0.007*"need" + 0.007*"good" + 0.006*"ensure" + 0.006*"team" + 0.005*"plans"', '0.008*"well" + 0.007*"needs" + 0.007*"’" + 0.006*"good" + 0.006*"team" + 0.005*"ensure" + 0.004*"effective" + 0.004*"need" + 0.004*"protection" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3388,7 +3388,7 @@
     <t>0.1926</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"plans" + 0.007*"needs" + 0.007*"team" + 0.006*"practice" + 0.006*"quality" + 0.005*"effective" + 0.005*"early" + 0.005*"timely" + 0.005*"need"', '0.012*"’" + 0.007*"needs" + 0.007*"team" + 0.005*"good" + 0.005*"quality" + 0.005*"risk" + 0.005*"plans" + 0.005*"timely" + 0.005*"strong" + 0.005*"practice"', '0.016*"’" + 0.008*"plans" + 0.007*"team" + 0.006*"practice" + 0.006*"timely" + 0.006*"needs" + 0.005*"quality" + 0.005*"need" + 0.004*"leaders" + 0.004*"focused"']</t>
+    <t>['0.015*"’" + 0.008*"plans" + 0.007*"team" + 0.007*"needs" + 0.005*"practice" + 0.005*"quality" + 0.005*"leaders" + 0.004*"timely" + 0.004*"effective" + 0.004*"good"', '0.012*"’" + 0.006*"plans" + 0.006*"team" + 0.006*"practice" + 0.005*"good" + 0.005*"needs" + 0.005*"timely" + 0.005*"early" + 0.005*"quality" + 0.005*"need"', '0.016*"’" + 0.008*"needs" + 0.007*"team" + 0.006*"risk" + 0.006*"quality" + 0.006*"plans" + 0.006*"practice" + 0.006*"timely" + 0.005*"effective" + 0.005*"strong"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3409,7 +3409,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"Sandwell" + 0.007*"plans" + 0.007*"needs" + 0.006*"well" + 0.005*"number" + 0.005*"20" + 0.005*"quality" + 0.005*"Trust" + 0.005*"education"', '0.012*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"plans" + 0.006*"quality" + 0.006*"Sandwell" + 0.005*"number" + 0.004*"Trust" + 0.004*"2022" + 0.004*"progress"', '0.013*"’" + 0.008*"needs" + 0.007*"Sandwell" + 0.006*"well" + 0.006*"plans" + 0.005*"quality" + 0.005*"Trust" + 0.005*"education" + 0.004*"progress" + 0.004*"effective"']</t>
+    <t>['0.017*"’" + 0.008*"Sandwell" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"quality" + 0.005*"progress" + 0.005*"education" + 0.005*"Trust" + 0.004*"20"', '0.012*"’" + 0.009*"needs" + 0.009*"plans" + 0.007*"Sandwell" + 0.007*"well" + 0.006*"quality" + 0.005*"9" + 0.005*"20" + 0.005*"effective" + 0.005*"receive"', '0.013*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"Sandwell" + 0.005*"plans" + 0.005*"quality" + 0.005*"number" + 0.005*"changes" + 0.005*"Trust" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3430,7 +3430,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.012*"needs" + 0.007*"practice" + 0.007*"oversight" + 0.005*"◼" + 0.005*"protection" + 0.005*"management" + 0.005*"including" + 0.005*"lack" + 0.005*"need"', '0.018*"’" + 0.008*"needs" + 0.005*"lack" + 0.005*"oversight" + 0.005*"always" + 0.005*"protection" + 0.005*"including" + 0.005*"practice" + 0.004*"many" + 0.004*"timely"', '0.014*"’" + 0.006*"needs" + 0.005*"practice" + 0.005*"including" + 0.005*"protection" + 0.005*"many" + 0.004*"response" + 0.004*"plans" + 0.004*"lack" + 0.004*"management"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.005*"always" + 0.005*"practice" + 0.005*"management" + 0.004*"many" + 0.004*"oversight" + 0.004*"protection" + 0.004*"lack" + 0.004*"including"', '0.020*"’" + 0.012*"needs" + 0.007*"oversight" + 0.006*"practice" + 0.006*"◼" + 0.005*"timely" + 0.005*"lack" + 0.005*"management" + 0.005*"protection" + 0.005*"many"', '0.014*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"including" + 0.005*"protection" + 0.005*"4" + 0.005*"Sefton" + 0.005*"February" + 0.005*"lack" + 0.004*"oversight"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3451,7 +3451,7 @@
     <t>0.1872</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"practice" + 0.006*"good" + 0.006*"ensure" + 0.005*"plans" + 0.005*"needs" + 0.005*"well" + 0.005*"Senior" + 0.004*"quality" + 0.004*"impact"', '0.013*"’" + 0.007*"practice" + 0.007*"good" + 0.007*"needs" + 0.007*"plans" + 0.006*"Senior" + 0.005*"ensure" + 0.005*"effective" + 0.005*"views" + 0.004*"risk"', '0.013*"’" + 0.008*"needs" + 0.008*"practice" + 0.006*"good" + 0.006*"Senior" + 0.006*"plans" + 0.006*"well" + 0.005*"benefit" + 0.005*"effective" + 0.004*"ensure"']</t>
+    <t>['0.012*"’" + 0.008*"practice" + 0.008*"needs" + 0.007*"good" + 0.006*"ensure" + 0.005*"Senior" + 0.005*"plans" + 0.005*"benefit" + 0.005*"well" + 0.004*"management"', '0.012*"’" + 0.009*"practice" + 0.006*"Senior" + 0.006*"good" + 0.006*"plans" + 0.005*"ensure" + 0.005*"well" + 0.005*"needs" + 0.004*"benefit" + 0.004*"effective"', '0.013*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"good" + 0.006*"Senior" + 0.006*"practice" + 0.005*"well" + 0.005*"effective" + 0.005*"ensure" + 0.005*"views"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3478,7 +3478,7 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"needs" + 0.007*"Shropshire" + 0.006*"progress" + 0.006*"well" + 0.005*"plans" + 0.005*"2022" + 0.005*"practice" + 0.005*"training" + 0.004*"making"', '0.015*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"progress" + 0.006*"Shropshire" + 0.005*"plans" + 0.005*"11" + 0.005*"2022" + 0.005*"7" + 0.004*"making"', '0.021*"’" + 0.008*"needs" + 0.008*"Shropshire" + 0.007*"well" + 0.006*"making" + 0.005*"progress" + 0.005*"plans" + 0.005*"need" + 0.005*"arrangements" + 0.005*"2022"']</t>
+    <t>['0.019*"’" + 0.009*"Shropshire" + 0.008*"needs" + 0.007*"well" + 0.006*"2022" + 0.006*"progress" + 0.006*"making" + 0.005*"effectively" + 0.005*"11" + 0.005*"7"', '0.017*"’" + 0.007*"Shropshire" + 0.006*"needs" + 0.006*"well" + 0.006*"7" + 0.006*"plans" + 0.005*"progress" + 0.004*"2022" + 0.004*"11" + 0.004*"education"', '0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"practice" + 0.005*"progress" + 0.005*"training" + 0.005*"making" + 0.005*"Shropshire" + 0.005*"make"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3499,7 +3499,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"Slough" + 0.007*"plans" + 0.007*"practice" + 0.006*"needs" + 0.006*"quality" + 0.006*"impact" + 0.005*"leaders" + 0.005*"senior" + 0.005*"supported"', '0.008*"’" + 0.005*"quality" + 0.005*"Slough" + 0.005*"3" + 0.005*"needs" + 0.004*"practice" + 0.004*"need" + 0.004*"plans" + 0.004*"February" + 0.004*"supported"', '0.021*"’" + 0.007*"Slough" + 0.007*"needs" + 0.006*"quality" + 0.006*"plans" + 0.005*"However" + 0.005*"3" + 0.005*"practice" + 0.005*"leaders" + 0.005*"impact"']</t>
+    <t>['0.014*"’" + 0.008*"Slough" + 0.006*"practice" + 0.006*"quality" + 0.006*"needs" + 0.005*"plans" + 0.005*"planning" + 0.004*"leaders" + 0.004*"need" + 0.004*"progress"', '0.012*"’" + 0.006*"Slough" + 0.006*"needs" + 0.005*"plans" + 0.005*"quality" + 0.005*"impact" + 0.005*"senior" + 0.004*"However" + 0.004*"timely" + 0.004*"23"', '0.020*"’" + 0.008*"Slough" + 0.008*"plans" + 0.006*"needs" + 0.006*"quality" + 0.006*"practice" + 0.006*"3" + 0.005*"impact" + 0.005*"leaders" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3520,7 +3520,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"lack" + 0.007*"2022" + 0.006*"Solihull" + 0.006*"need" + 0.006*"significant" + 0.005*"risk" + 0.005*"effective" + 0.005*"means" + 0.005*"practice"', '0.016*"’" + 0.010*"2022" + 0.010*"lack" + 0.006*"Solihull" + 0.006*"quality" + 0.006*"risk" + 0.005*"need" + 0.005*"timely" + 0.005*"experiences" + 0.005*"practice"', '0.014*"’" + 0.013*"lack" + 0.007*"2022" + 0.007*"need" + 0.006*"risk" + 0.006*"Solihull" + 0.006*"practice" + 0.005*"quality" + 0.005*"effective" + 0.005*"experiences"']</t>
+    <t>['0.012*"’" + 0.009*"lack" + 0.008*"2022" + 0.006*"Solihull" + 0.006*"experiences" + 0.005*"significant" + 0.005*"practice" + 0.005*"effective" + 0.005*"worker" + 0.005*"delay"', '0.010*"’" + 0.008*"lack" + 0.007*"2022" + 0.005*"need" + 0.005*"risk" + 0.004*"progress" + 0.004*"Solihull" + 0.004*"significant" + 0.004*"quality" + 0.004*"timely"', '0.020*"’" + 0.013*"lack" + 0.009*"2022" + 0.007*"need" + 0.007*"risk" + 0.007*"Solihull" + 0.007*"quality" + 0.006*"practice" + 0.005*"effective" + 0.005*"means"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3541,7 +3541,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"Somerset" + 0.007*"plans" + 0.006*"progress" + 0.006*"supported" + 0.005*"good" + 0.005*"including" + 0.005*"number"', '0.014*"’" + 0.006*"well" + 0.006*"good" + 0.006*"Somerset" + 0.006*"needs" + 0.005*"need" + 0.005*"plans" + 0.005*"practice" + 0.004*"number" + 0.004*"positive"', '0.015*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"Somerset" + 0.006*"plans" + 0.006*"leaders" + 0.005*"good" + 0.005*"including" + 0.005*"supported" + 0.005*"family"']</t>
+    <t>['0.016*"’" + 0.009*"well" + 0.008*"Somerset" + 0.007*"needs" + 0.006*"plans" + 0.006*"supported" + 0.005*"leaders" + 0.005*"including" + 0.005*"good" + 0.005*"health"', '0.017*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"Somerset" + 0.006*"good" + 0.006*"number" + 0.006*"progress" + 0.005*"including" + 0.005*"practice" + 0.005*"need"', '0.017*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"good" + 0.006*"Somerset" + 0.005*"supported" + 0.005*"effective" + 0.005*"need" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3562,7 +3562,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.011*"well" + 0.011*"quality" + 0.009*"’" + 0.007*"leaders" + 0.007*"good" + 0.006*"needs" + 0.006*"timely" + 0.006*"progress" + 0.006*"plans" + 0.005*"always"', '0.012*"well" + 0.010*"quality" + 0.009*"leaders" + 0.008*"’" + 0.008*"plans" + 0.008*"good" + 0.007*"timely" + 0.005*"needs" + 0.005*"progress" + 0.005*"Gloucestershire"', '0.010*"well" + 0.010*"quality" + 0.009*"’" + 0.009*"plans" + 0.009*"leaders" + 0.006*"good" + 0.006*"needs" + 0.005*"progress" + 0.005*"Senior" + 0.005*"timeliness"']</t>
+    <t>['0.013*"quality" + 0.011*"well" + 0.009*"plans" + 0.008*"leaders" + 0.008*"’" + 0.007*"good" + 0.006*"timely" + 0.005*"needs" + 0.005*"practice" + 0.005*"progress"', '0.012*"well" + 0.011*"’" + 0.009*"leaders" + 0.009*"quality" + 0.008*"plans" + 0.007*"good" + 0.006*"timely" + 0.005*"progress" + 0.005*"needs" + 0.005*"always"', '0.009*"quality" + 0.009*"well" + 0.008*"’" + 0.007*"leaders" + 0.007*"needs" + 0.006*"plans" + 0.006*"progress" + 0.006*"good" + 0.005*"timely" + 0.005*"Senior"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -3592,7 +3592,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.008*"South" + 0.006*"needs" + 0.006*"Tyneside" + 0.005*"5" + 0.005*"However" + 0.005*"9" + 0.004*"carers" + 0.004*"effective" + 0.004*"management"', '0.020*"’" + 0.011*"needs" + 0.008*"South" + 0.006*"Tyneside" + 0.005*"effective" + 0.005*"oversight" + 0.005*"5" + 0.005*"leaders" + 0.005*"2023" + 0.005*"risk"', '0.028*"’" + 0.009*"Tyneside" + 0.008*"needs" + 0.006*"South" + 0.006*"carers" + 0.005*"oversight" + 0.005*"practice" + 0.005*"management" + 0.005*"However" + 0.005*"2022"']</t>
+    <t>['0.023*"’" + 0.011*"needs" + 0.009*"South" + 0.008*"Tyneside" + 0.006*"oversight" + 0.006*"management" + 0.005*"effective" + 0.005*"14" + 0.005*"9" + 0.005*"However"', '0.029*"’" + 0.008*"needs" + 0.007*"South" + 0.007*"Tyneside" + 0.006*"carers" + 0.005*"However" + 0.005*"5" + 0.005*"risk" + 0.005*"effective" + 0.005*"December"', '0.017*"’" + 0.008*"Tyneside" + 0.007*"needs" + 0.006*"South" + 0.005*"practice" + 0.004*"management" + 0.004*"effective" + 0.004*"oversight" + 0.004*"5" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -3622,7 +3622,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"Southampton" + 0.005*"progress" + 0.005*"plans" + 0.005*"5" + 0.005*"experiences" + 0.005*"including" + 0.005*"16" + 0.005*"improve" + 0.004*"timely"', '0.010*"’" + 0.005*"plans" + 0.005*"Southampton" + 0.004*"including" + 0.004*"needs" + 0.004*"progress" + 0.004*"5" + 0.004*"16" + 0.004*"improve" + 0.004*"experiences"', '0.019*"’" + 0.006*"plans" + 0.005*"Southampton" + 0.005*"improve" + 0.005*"provide" + 0.005*"needs" + 0.004*"June" + 0.004*"effective" + 0.004*"progress" + 0.004*"including"']</t>
+    <t>['0.019*"’" + 0.006*"Southampton" + 0.005*"plans" + 0.005*"progress" + 0.005*"improve" + 0.005*"16" + 0.004*"experiences" + 0.004*"5" + 0.004*"provide" + 0.004*"including"', '0.014*"’" + 0.007*"plans" + 0.005*"16" + 0.005*"2023" + 0.005*"June" + 0.005*"Southampton" + 0.004*"progress" + 0.004*"needs" + 0.004*"including" + 0.004*"good"', '0.016*"’" + 0.006*"Southampton" + 0.005*"improve" + 0.005*"plans" + 0.005*"5" + 0.005*"including" + 0.005*"needs" + 0.005*"progress" + 0.004*"well" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -3643,7 +3643,7 @@
     <t>to requires improvement</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.007*"planning" + 0.005*"quality" + 0.005*"leaders" + 0.005*"practice" + 0.004*"protection" + 0.004*"always" + 0.004*"carers" + 0.004*"However" + 0.004*"effective"', '0.011*"’" + 0.008*"planning" + 0.006*"leaders" + 0.006*"quality" + 0.006*"practice" + 0.005*"protection" + 0.005*"number" + 0.005*"risk" + 0.005*"need" + 0.005*"within"', '0.017*"’" + 0.008*"practice" + 0.008*"planning" + 0.007*"quality" + 0.006*"number" + 0.006*"leaders" + 0.006*"within" + 0.006*"effective" + 0.006*"always" + 0.006*"protection"']</t>
+    <t>['0.009*"’" + 0.007*"practice" + 0.006*"quality" + 0.005*"planning" + 0.005*"within" + 0.005*"carers" + 0.005*"always" + 0.004*"risk" + 0.004*"effective" + 0.004*"protection"', '0.016*"’" + 0.008*"planning" + 0.007*"leaders" + 0.007*"practice" + 0.006*"need" + 0.006*"quality" + 0.006*"effective" + 0.006*"number" + 0.006*"within" + 0.005*"Southend"', '0.013*"’" + 0.009*"planning" + 0.008*"quality" + 0.007*"practice" + 0.006*"protection" + 0.006*"number" + 0.005*"leaders" + 0.005*"plans" + 0.005*"always" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -3661,7 +3661,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50121476</t>
   </si>
   <si>
-    <t>['0.008*"permanence" + 0.008*"’" + 0.006*"plans" + 0.006*"need" + 0.006*"ensure" + 0.005*"practice" + 0.005*"quality" + 0.005*"new" + 0.005*"needs" + 0.005*"identified"', '0.009*"quality" + 0.008*"’" + 0.008*"practice" + 0.008*"ensure" + 0.007*"need" + 0.007*"new" + 0.007*"needs" + 0.006*"plans" + 0.006*"permanence" + 0.006*"timely"', '0.008*"ensure" + 0.007*"’" + 0.007*"quality" + 0.007*"permanence" + 0.005*"needs" + 0.005*"practice" + 0.005*"need" + 0.005*"new" + 0.005*"identified" + 0.004*"risk"']</t>
+    <t>['0.009*"’" + 0.008*"ensure" + 0.007*"permanence" + 0.007*"need" + 0.006*"place" + 0.006*"team" + 0.006*"quality" + 0.006*"practice" + 0.006*"needs" + 0.005*"yet"', '0.009*"quality" + 0.008*"permanence" + 0.008*"practice" + 0.008*"’" + 0.007*"ensure" + 0.007*"new" + 0.006*"plans" + 0.006*"need" + 0.006*"needs" + 0.005*"identified"', '0.008*"quality" + 0.007*"’" + 0.006*"ensure" + 0.006*"plans" + 0.006*"need" + 0.006*"practice" + 0.006*"needs" + 0.005*"new" + 0.005*"progress" + 0.005*"identified"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -3685,7 +3685,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"good" + 0.007*"needs" + 0.006*"risk" + 0.006*"effective" + 0.006*"quality" + 0.005*"well" + 0.005*"teams" + 0.005*"response" + 0.004*"home"', '0.013*"’" + 0.011*"good" + 0.010*"well" + 0.009*"needs" + 0.008*"risk" + 0.006*"effective" + 0.006*"range" + 0.006*"plans" + 0.005*"ensure" + 0.005*"quality"', '0.011*"’" + 0.007*"well" + 0.006*"risk" + 0.006*"effective" + 0.006*"home" + 0.006*"good" + 0.005*"needs" + 0.005*"plans" + 0.005*"quality" + 0.005*"response"']</t>
+    <t>['0.009*"’" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.005*"range" + 0.005*"effective" + 0.005*"response" + 0.005*"risk" + 0.005*"home" + 0.005*"teams"', '0.014*"’" + 0.010*"good" + 0.009*"risk" + 0.008*"well" + 0.008*"effective" + 0.007*"needs" + 0.006*"plans" + 0.006*"training" + 0.005*"ensure" + 0.005*"quality"', '0.010*"’" + 0.008*"good" + 0.008*"well" + 0.007*"needs" + 0.006*"risk" + 0.006*"quality" + 0.005*"education" + 0.005*"effective" + 0.005*"response" + 0.004*"home"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -3709,7 +3709,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.009*"well" + 0.009*"’" + 0.008*"practice" + 0.007*"Stockport" + 0.006*"needs" + 0.006*"risk" + 0.006*"28" + 0.005*"strong" + 0.005*"plans" + 0.004*"high"', '0.012*"’" + 0.009*"well" + 0.008*"practice" + 0.006*"Stockport" + 0.006*"needs" + 0.005*"plans" + 0.005*"strong" + 0.005*"ensure" + 0.005*"quality" + 0.004*"leaders"', '0.012*"’" + 0.007*"Stockport" + 0.006*"strong" + 0.005*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"well" + 0.004*"risk" + 0.004*"leaders" + 0.004*"ensure"']</t>
+    <t>['0.011*"’" + 0.008*"practice" + 0.007*"well" + 0.007*"needs" + 0.006*"Stockport" + 0.005*"plans" + 0.005*"quality" + 0.005*"strong" + 0.004*"risk" + 0.004*"good"', '0.012*"’" + 0.010*"well" + 0.007*"practice" + 0.007*"Stockport" + 0.006*"strong" + 0.006*"needs" + 0.006*"ensure" + 0.005*"risk" + 0.005*"plans" + 0.005*"28"', '0.010*"’" + 0.006*"practice" + 0.006*"Stockport" + 0.006*"well" + 0.005*"needs" + 0.005*"strong" + 0.005*"plans" + 0.004*"range" + 0.004*"risk" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -3742,7 +3742,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"plans" + 0.010*"leaders" + 0.007*"well" + 0.007*"Stockton" + 0.006*"needs" + 0.006*"on-Tees" + 0.006*"good" + 0.005*"senior" + 0.005*"quality"', '0.019*"’" + 0.007*"leaders" + 0.007*"quality" + 0.007*"plans" + 0.006*"needs" + 0.006*"on-Tees" + 0.005*"well" + 0.005*"senior" + 0.005*"Stockton" + 0.005*"carers"', '0.020*"’" + 0.008*"leaders" + 0.008*"plans" + 0.006*"needs" + 0.006*"well" + 0.006*"on-Tees" + 0.006*"good" + 0.005*"quality" + 0.005*"Stockton" + 0.005*"17"']</t>
+    <t>['0.018*"’" + 0.010*"leaders" + 0.008*"on-Tees" + 0.008*"plans" + 0.007*"needs" + 0.006*"well" + 0.006*"good" + 0.006*"Stockton" + 0.005*"quality" + 0.005*"6"', '0.014*"’" + 0.007*"leaders" + 0.007*"plans" + 0.006*"well" + 0.006*"senior" + 0.006*"Stockton" + 0.005*"needs" + 0.005*"quality" + 0.005*"on-Tees" + 0.005*"good"', '0.024*"’" + 0.010*"plans" + 0.008*"leaders" + 0.007*"quality" + 0.006*"well" + 0.006*"needs" + 0.006*"Stockton" + 0.006*"good" + 0.005*"2023" + 0.005*"carers"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -3760,7 +3760,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50200027</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.008*"Stoke" + 0.008*"on-Trent" + 0.006*"However" + 0.006*"plans" + 0.006*"well" + 0.006*"quality" + 0.005*"ensure" + 0.005*"protection"', '0.020*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"plans" + 0.007*"on-Trent" + 0.007*"However" + 0.006*"Stoke" + 0.006*"protection" + 0.006*"ensure" + 0.005*"3"', '0.012*"’" + 0.006*"However" + 0.006*"Stoke" + 0.005*"on-Trent" + 0.005*"well" + 0.005*"ensure" + 0.004*"plans" + 0.004*"protection" + 0.004*"needs" + 0.004*"leaders"']</t>
+    <t>['0.013*"’" + 0.007*"on-Trent" + 0.006*"well" + 0.006*"needs" + 0.006*"Stoke" + 0.005*"ensure" + 0.005*"plans" + 0.005*"However" + 0.005*"protection" + 0.004*"good"', '0.021*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"on-Trent" + 0.007*"Stoke" + 0.007*"However" + 0.006*"well" + 0.006*"progress" + 0.005*"ensure" + 0.005*"protection"', '0.016*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Stoke" + 0.007*"However" + 0.006*"protection" + 0.006*"on-Trent" + 0.005*"ensure" + 0.005*"14" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -3787,7 +3787,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.006*"progress" + 0.006*"leaders" + 0.005*"effective" + 0.004*"needs" + 0.004*"carers" + 0.004*"ensure" + 0.004*"practice" + 0.004*"good"', '0.010*"’" + 0.006*"progress" + 0.005*"well" + 0.004*"effective" + 0.004*"good" + 0.004*"leaders" + 0.004*"ensure" + 0.004*"carers" + 0.003*"Suffolk" + 0.003*"management"', '0.015*"’" + 0.006*"well" + 0.006*"progress" + 0.005*"good" + 0.005*"effective" + 0.005*"ensure" + 0.005*"practice" + 0.004*"leaders" + 0.004*"high" + 0.004*"Suffolk"']</t>
+    <t>['0.014*"’" + 0.007*"progress" + 0.006*"well" + 0.005*"effective" + 0.005*"good" + 0.005*"needs" + 0.005*"leaders" + 0.004*"practice" + 0.004*"high" + 0.004*"ensure"', '0.014*"’" + 0.008*"well" + 0.006*"progress" + 0.005*"ensure" + 0.005*"good" + 0.005*"leaders" + 0.005*"effective" + 0.005*"Suffolk" + 0.005*"carers" + 0.004*"practice"', '0.009*"’" + 0.004*"effective" + 0.004*"well" + 0.004*"leaders" + 0.003*"progress" + 0.003*"practice" + 0.003*"ensure" + 0.003*"need" + 0.003*"good" + 0.003*"supported"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -3817,7 +3817,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"well" + 0.008*"quality" + 0.006*"needs" + 0.006*"good" + 0.005*"Sunderland" + 0.005*"result" + 0.005*"robust" + 0.005*"parents" + 0.005*"protection"', '0.014*"’" + 0.007*"well" + 0.007*"needs" + 0.007*"Sunderland" + 0.006*"practice" + 0.006*"quality" + 0.005*"council" + 0.005*"experienced" + 0.004*"TfC" + 0.004*"parents"', '0.011*"’" + 0.006*"experienced" + 0.005*"needs" + 0.005*"Sunderland" + 0.005*"well" + 0.004*"quality" + 0.004*"protection" + 0.004*"TfC" + 0.004*"family" + 0.004*"training"']</t>
+    <t>['0.018*"’" + 0.006*"needs" + 0.006*"quality" + 0.005*"Sunderland" + 0.005*"well" + 0.005*"protection" + 0.004*"highly" + 0.004*"robust" + 0.004*"result" + 0.004*"experienced"', '0.014*"’" + 0.009*"well" + 0.007*"quality" + 0.007*"needs" + 0.005*"Sunderland" + 0.005*"practice" + 0.005*"council" + 0.005*"experienced" + 0.005*"parents" + 0.005*"risk"', '0.017*"’" + 0.007*"well" + 0.007*"quality" + 0.006*"Sunderland" + 0.005*"experienced" + 0.005*"needs" + 0.005*"practice" + 0.004*"good" + 0.004*"parents" + 0.004*"robust"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -3841,7 +3841,7 @@
     <t>09/03/22</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"well" + 0.009*"needs" + 0.007*"progress" + 0.007*"practice" + 0.006*"good" + 0.005*"effective" + 0.005*"However" + 0.005*"plans" + 0.005*"carers"', '0.013*"’" + 0.010*"needs" + 0.008*"well" + 0.006*"progress" + 0.006*"practice" + 0.006*"plans" + 0.006*"However" + 0.005*"carers" + 0.005*"quality" + 0.005*"17"', '0.013*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"practice" + 0.006*"progress" + 0.005*"effective" + 0.005*"quality" + 0.005*"17" + 0.005*"plans" + 0.005*"carers"']</t>
+    <t>['0.012*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"progress" + 0.007*"practice" + 0.005*"However" + 0.005*"plans" + 0.005*"Surrey" + 0.005*"carers" + 0.004*"ensure"', '0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"progress" + 0.007*"practice" + 0.006*"good" + 0.005*"plans" + 0.005*"17" + 0.005*"carers" + 0.004*"receive"', '0.016*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"practice" + 0.006*"quality" + 0.006*"effective" + 0.005*"plans" + 0.005*"17" + 0.005*"progress" + 0.005*"carers"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -3865,7 +3865,7 @@
     <t>12/08/19</t>
   </si>
   <si>
-    <t>['0.010*"well" + 0.008*"Swindon" + 0.008*"quality" + 0.008*"leaders" + 0.007*"’" + 0.006*"plans" + 0.006*"good" + 0.005*"progress" + 0.005*"timely" + 0.004*"ensure"', '0.012*"well" + 0.010*"leaders" + 0.009*"quality" + 0.009*"’" + 0.007*"plans" + 0.006*"Swindon" + 0.005*"timely" + 0.005*"ensure" + 0.004*"good" + 0.004*"progress"', '0.016*"well" + 0.014*"’" + 0.011*"Swindon" + 0.009*"quality" + 0.008*"plans" + 0.007*"leaders" + 0.006*"team" + 0.006*"timely" + 0.006*"good" + 0.006*"ensure"']</t>
+    <t>['0.014*"well" + 0.010*"Swindon" + 0.009*"quality" + 0.009*"’" + 0.008*"plans" + 0.008*"leaders" + 0.006*"timely" + 0.006*"team" + 0.005*"arrangements" + 0.005*"good"', '0.014*"well" + 0.012*"’" + 0.010*"leaders" + 0.009*"Swindon" + 0.007*"plans" + 0.007*"quality" + 0.006*"good" + 0.005*"ensure" + 0.005*"timely" + 0.005*"action"', '0.012*"well" + 0.011*"’" + 0.010*"quality" + 0.008*"Swindon" + 0.006*"plans" + 0.006*"leaders" + 0.006*"progress" + 0.006*"ensure" + 0.006*"timely" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -3886,7 +3886,7 @@
     <t>0.1619</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"plans" + 0.006*"impact" + 0.006*"progress" + 0.006*"good" + 0.005*"needs" + 0.005*"always" + 0.004*"new" + 0.004*"need" + 0.004*"practice"', '0.020*"’" + 0.006*"always" + 0.006*"well" + 0.006*"plans" + 0.006*"impact" + 0.006*"progress" + 0.005*"good" + 0.005*"practice" + 0.005*"need" + 0.004*"example"', '0.015*"’" + 0.007*"plans" + 0.007*"practice" + 0.007*"always" + 0.007*"impact" + 0.006*"well" + 0.006*"good" + 0.005*"progress" + 0.004*"needs" + 0.004*"example"']</t>
+    <t>['0.017*"’" + 0.007*"impact" + 0.007*"always" + 0.006*"plans" + 0.006*"practice" + 0.006*"progress" + 0.005*"well" + 0.005*"good" + 0.005*"needs" + 0.004*"example"', '0.017*"’" + 0.009*"plans" + 0.006*"well" + 0.006*"practice" + 0.006*"always" + 0.005*"progress" + 0.004*"However" + 0.004*"good" + 0.004*"impact" + 0.004*"need"', '0.013*"’" + 0.007*"impact" + 0.006*"good" + 0.006*"always" + 0.006*"progress" + 0.006*"plans" + 0.005*"new" + 0.005*"well" + 0.005*"practice" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -3907,7 +3907,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"plans" + 0.005*"family" + 0.005*"planning" + 0.005*"strong" + 0.005*"ensure" + 0.005*"effective" + 0.005*"practice"', '0.017*"’" + 0.011*"well" + 0.009*"effective" + 0.007*"needs" + 0.006*"need" + 0.005*"plans" + 0.005*"strong" + 0.005*"practice" + 0.005*"ensure" + 0.005*"timely"', '0.015*"’" + 0.012*"well" + 0.008*"needs" + 0.005*"need" + 0.005*"effective" + 0.005*"planning" + 0.005*"plans" + 0.005*"strong" + 0.005*"improve" + 0.004*"practice"']</t>
+    <t>['0.011*"’" + 0.010*"well" + 0.007*"effective" + 0.007*"needs" + 0.005*"plans" + 0.005*"need" + 0.005*"planning" + 0.004*"improve" + 0.004*"strong" + 0.004*"leaders"', '0.019*"’" + 0.011*"well" + 0.008*"needs" + 0.006*"effective" + 0.006*"strong" + 0.006*"practice" + 0.006*"ensure" + 0.005*"leaders" + 0.005*"need" + 0.005*"benefit"', '0.017*"’" + 0.012*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"plans" + 0.005*"planning" + 0.005*"need" + 0.005*"practice" + 0.004*"strong" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -3928,7 +3928,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"well" + 0.005*"need" + 0.005*"carers" + 0.004*"needs" + 0.004*"ensure" + 0.004*"Thurrock" + 0.003*"leaders" + 0.003*"practice" + 0.003*"impact"', '0.016*"’" + 0.008*"well" + 0.005*"practice" + 0.005*"needs" + 0.005*"need" + 0.005*"carers" + 0.004*"protection" + 0.004*"leaders" + 0.004*"effective" + 0.004*"plans"', '0.012*"’" + 0.008*"well" + 0.007*"carers" + 0.005*"need" + 0.005*"ensure" + 0.004*"effective" + 0.004*"needs" + 0.004*"Thurrock" + 0.004*"leaders" + 0.004*"impact"']</t>
+    <t>['0.015*"’" + 0.008*"well" + 0.006*"need" + 0.005*"carers" + 0.005*"ensure" + 0.005*"needs" + 0.004*"effective" + 0.004*"practice" + 0.004*"leaders" + 0.004*"Thurrock"', '0.013*"’" + 0.008*"well" + 0.007*"carers" + 0.005*"need" + 0.004*"practice" + 0.004*"needs" + 0.004*"ensure" + 0.004*"impact" + 0.004*"effective" + 0.004*"Thurrock"', '0.011*"’" + 0.009*"well" + 0.004*"carers" + 0.004*"need" + 0.004*"needs" + 0.004*"protect" + 0.004*"leaders" + 0.003*"practice" + 0.003*"Thurrock" + 0.003*"quality"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -3949,7 +3949,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"well" + 0.008*"Torbay" + 0.006*"needs" + 0.005*"effective" + 0.005*"team" + 0.004*"good" + 0.004*"plans" + 0.004*"21" + 0.004*"timely"', '0.017*"’" + 0.010*"well" + 0.007*"good" + 0.006*"needs" + 0.006*"Torbay" + 0.005*"effective" + 0.005*"21" + 0.004*"2022" + 0.004*"supported" + 0.004*"timely"', '0.014*"’" + 0.009*"Torbay" + 0.006*"well" + 0.006*"good" + 0.005*"needs" + 0.005*"progress" + 0.004*"plans" + 0.004*"timely" + 0.004*"effective" + 0.004*"team"']</t>
+    <t>['0.018*"’" + 0.009*"well" + 0.008*"Torbay" + 0.005*"good" + 0.005*"effective" + 0.005*"needs" + 0.005*"team" + 0.004*"2022" + 0.004*"agencies" + 0.004*"education"', '0.021*"’" + 0.009*"well" + 0.007*"Torbay" + 0.006*"needs" + 0.005*"good" + 0.005*"plans" + 0.005*"timely" + 0.005*"effective" + 0.005*"progress" + 0.005*"21"', '0.009*"’" + 0.009*"well" + 0.008*"Torbay" + 0.007*"good" + 0.006*"needs" + 0.005*"effective" + 0.004*"March" + 0.004*"2022" + 0.004*"21" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -3970,7 +3970,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"needs" + 0.007*"quality" + 0.007*"Trafford" + 0.007*"well" + 0.007*"practice" + 0.007*"plans" + 0.005*"leaders" + 0.005*"impact" + 0.005*"ensure"', '0.021*"’" + 0.012*"needs" + 0.008*"plans" + 0.008*"well" + 0.008*"Trafford" + 0.006*"quality" + 0.006*"placed" + 0.006*"leaders" + 0.005*"team" + 0.005*"2"', '0.012*"’" + 0.009*"Trafford" + 0.008*"needs" + 0.006*"quality" + 0.006*"leaders" + 0.005*"ensure" + 0.005*"plans" + 0.005*"well" + 0.005*"practice" + 0.004*"placed"']</t>
+    <t>['0.014*"’" + 0.009*"Trafford" + 0.009*"needs" + 0.006*"plans" + 0.006*"well" + 0.006*"quality" + 0.005*"leaders" + 0.005*"impact" + 0.005*"placed" + 0.005*"2"', '0.015*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"Trafford" + 0.006*"plans" + 0.006*"quality" + 0.006*"leaders" + 0.005*"21" + 0.005*"practice" + 0.005*"impact"', '0.020*"’" + 0.010*"needs" + 0.008*"Trafford" + 0.008*"plans" + 0.008*"well" + 0.007*"quality" + 0.006*"practice" + 0.005*"leaders" + 0.005*"team" + 0.005*"worker"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -3991,7 +3991,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"well" + 0.005*"leaders" + 0.005*"needs" + 0.004*"positive" + 0.004*"Walsall" + 0.004*"15" + 0.003*"4" + 0.003*"need" + 0.003*"practice"', '0.026*"’" + 0.007*"needs" + 0.007*"leaders" + 0.007*"Walsall" + 0.006*"well" + 0.005*"Senior" + 0.005*"information" + 0.005*"oversight" + 0.005*"good" + 0.004*"4"', '0.021*"’" + 0.009*"leaders" + 0.007*"needs" + 0.005*"4" + 0.005*"well" + 0.005*"information" + 0.005*"Walsall" + 0.004*"oversight" + 0.004*"2021" + 0.004*"positive"']</t>
+    <t>['0.015*"’" + 0.006*"leaders" + 0.006*"needs" + 0.006*"well" + 0.005*"4" + 0.005*"Senior" + 0.005*"Walsall" + 0.005*"good" + 0.004*"risks" + 0.004*"positive"', '0.025*"’" + 0.007*"leaders" + 0.007*"needs" + 0.006*"Walsall" + 0.006*"information" + 0.005*"well" + 0.005*"4" + 0.005*"oversight" + 0.005*"Senior" + 0.004*"15"', '0.021*"’" + 0.008*"leaders" + 0.006*"needs" + 0.006*"well" + 0.005*"Walsall" + 0.005*"2021" + 0.004*"good" + 0.004*"oversight" + 0.004*"records" + 0.004*"positive"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4009,7 +4009,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50101635</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"number" + 0.004*"Senior" + 0.004*"information" + 0.004*"plans" + 0.004*"progress" + 0.004*"need" + 0.004*"provided"', '0.014*"’" + 0.008*"well" + 0.007*"practice" + 0.005*"plans" + 0.004*"Senior" + 0.004*"good" + 0.004*"number" + 0.004*"progress" + 0.004*"needs" + 0.004*"carers"', '0.011*"’" + 0.006*"practice" + 0.004*"home" + 0.004*"plans" + 0.004*"Senior" + 0.004*"well" + 0.004*"progress" + 0.004*"need" + 0.004*"carers" + 0.004*"number"']</t>
+    <t>['0.011*"’" + 0.005*"well" + 0.004*"practice" + 0.004*"number" + 0.004*"needs" + 0.004*"progress" + 0.003*"plans" + 0.003*"information" + 0.003*"carers" + 0.003*"Senior"', '0.016*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"number" + 0.005*"Senior" + 0.005*"need" + 0.004*"plans" + 0.004*"home" + 0.004*"progress" + 0.004*"information"', '0.014*"’" + 0.008*"practice" + 0.006*"well" + 0.005*"carers" + 0.005*"plans" + 0.004*"Senior" + 0.004*"good" + 0.004*"provided" + 0.004*"progress" + 0.004*"number"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4036,7 +4036,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"needs" + 0.006*"Warwickshire" + 0.006*"plans" + 0.006*"well" + 0.005*"practice" + 0.005*"good" + 0.005*"effective" + 0.004*"clear" + 0.004*"carers"', '0.011*"’" + 0.006*"plans" + 0.006*"needs" + 0.006*"well" + 0.006*"Warwickshire" + 0.005*"practice" + 0.004*"3" + 0.004*"benefit" + 0.004*"progress" + 0.004*"information"', '0.011*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.005*"carers" + 0.005*"Warwickshire" + 0.005*"3" + 0.005*"good" + 0.004*"December" + 0.004*"practice"']</t>
+    <t>['0.010*"’" + 0.007*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"practice" + 0.005*"Warwickshire" + 0.005*"3" + 0.005*"carers" + 0.004*"information" + 0.004*"good"', '0.011*"’" + 0.006*"plans" + 0.006*"well" + 0.005*"needs" + 0.005*"Warwickshire" + 0.004*"good" + 0.004*"clear" + 0.004*"practice" + 0.004*"22" + 0.004*"carers"', '0.014*"’" + 0.007*"well" + 0.007*"needs" + 0.007*"plans" + 0.007*"Warwickshire" + 0.005*"practice" + 0.005*"carers" + 0.005*"Senior" + 0.005*"good" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4063,7 +4063,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"Berkshire" + 0.005*"West" + 0.005*"well" + 0.004*"needs" + 0.004*"plans" + 0.004*"need" + 0.004*"working" + 0.004*"practice" + 0.003*"early"', '0.015*"’" + 0.006*"West" + 0.006*"well" + 0.005*"Berkshire" + 0.004*"needs" + 0.004*"working" + 0.004*"plans" + 0.004*"March" + 0.004*"14" + 0.004*"strong"', '0.016*"’" + 0.007*"West" + 0.006*"well" + 0.006*"Berkshire" + 0.005*"14" + 0.005*"need" + 0.004*"agency" + 0.004*"18" + 0.004*"early" + 0.004*"plans"']</t>
+    <t>['0.016*"’" + 0.007*"Berkshire" + 0.007*"West" + 0.007*"well" + 0.005*"need" + 0.004*"plans" + 0.004*"needs" + 0.004*"14" + 0.004*"working" + 0.004*"agency"', '0.009*"’" + 0.006*"West" + 0.004*"need" + 0.004*"well" + 0.004*"practice" + 0.004*"education" + 0.004*"information" + 0.004*"March" + 0.004*"14" + 0.004*"progress"', '0.017*"’" + 0.007*"Berkshire" + 0.006*"well" + 0.006*"West" + 0.005*"needs" + 0.004*"plans" + 0.004*"18" + 0.004*"early" + 0.004*"working" + 0.004*"agency"']</t>
   </si>
   <si>
     <t>941</t>
@@ -4081,7 +4081,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.010*"Northamptonshire" + 0.006*"quality" + 0.006*"West" + 0.005*"well" + 0.005*"impact" + 0.005*"3" + 0.005*"practice" + 0.005*"needs" + 0.005*"NCT"', '0.013*"’" + 0.008*"Northamptonshire" + 0.006*"well" + 0.006*"quality" + 0.005*"practice" + 0.005*"West" + 0.005*"needs" + 0.004*"NCT" + 0.004*"Leaders" + 0.004*"protection"', '0.016*"’" + 0.008*"West" + 0.007*"quality" + 0.006*"well" + 0.006*"Northamptonshire" + 0.005*"practice" + 0.005*"needs" + 0.005*"plans" + 0.005*"NCT" + 0.004*"experiences"']</t>
+    <t>['0.019*"’" + 0.006*"Northamptonshire" + 0.006*"West" + 0.006*"quality" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.005*"3" + 0.004*"impact" + 0.004*"NCT"', '0.015*"’" + 0.008*"Northamptonshire" + 0.008*"quality" + 0.007*"well" + 0.007*"West" + 0.006*"practice" + 0.005*"NCT" + 0.005*"needs" + 0.005*"impact" + 0.004*"experiences"', '0.017*"’" + 0.009*"Northamptonshire" + 0.005*"West" + 0.005*"quality" + 0.005*"practice" + 0.005*"well" + 0.004*"14" + 0.004*"However" + 0.004*"3" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4102,7 +4102,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"plans" + 0.006*"well" + 0.005*"needs" + 0.005*"number" + 0.005*"education" + 0.005*"13" + 0.004*"supported" + 0.004*"Sussex" + 0.004*"24"', '0.015*"’" + 0.006*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"West" + 0.005*"Sussex" + 0.005*"health" + 0.004*"13" + 0.004*"supported" + 0.004*"quality"', '0.014*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"needs" + 0.005*"quality" + 0.005*"West" + 0.005*"Sussex" + 0.004*"13" + 0.004*"practice" + 0.004*"number"']</t>
+    <t>['0.017*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"Sussex" + 0.006*"needs" + 0.005*"West" + 0.005*"number" + 0.005*"practice" + 0.005*"supported" + 0.004*"quality"', '0.012*"’" + 0.006*"needs" + 0.006*"plans" + 0.005*"West" + 0.005*"13" + 0.004*"quality" + 0.004*"well" + 0.004*"24" + 0.004*"education" + 0.004*"March"', '0.013*"’" + 0.006*"well" + 0.006*"plans" + 0.005*"health" + 0.005*"13" + 0.005*"needs" + 0.005*"Sussex" + 0.004*"number" + 0.004*"quality" + 0.004*"24"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4123,7 +4123,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"Wigan" + 0.007*"May" + 0.007*"plans" + 0.006*"appropriate" + 0.005*"practice" + 0.005*"20" + 0.005*"timely" + 0.004*"needs" + 0.004*"9"', '0.012*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"May" + 0.006*"plans" + 0.005*"quality" + 0.004*"increased" + 0.004*"focused" + 0.004*"Wigan" + 0.004*"leaders"', '0.012*"’" + 0.008*"May" + 0.007*"quality" + 0.006*"practice" + 0.006*"plans" + 0.006*"needs" + 0.006*"Wigan" + 0.006*"leaders" + 0.005*"appropriate" + 0.005*"9"']</t>
+    <t>['0.013*"’" + 0.007*"May" + 0.006*"plans" + 0.006*"practice" + 0.005*"quality" + 0.005*"Wigan" + 0.005*"9" + 0.005*"timely" + 0.004*"needs" + 0.004*"appropriate"', '0.010*"’" + 0.007*"May" + 0.006*"needs" + 0.005*"plans" + 0.005*"appropriate" + 0.004*"20" + 0.004*"leaders" + 0.004*"2022" + 0.004*"Wigan" + 0.004*"practice"', '0.013*"’" + 0.008*"practice" + 0.007*"May" + 0.007*"Wigan" + 0.007*"plans" + 0.007*"needs" + 0.007*"quality" + 0.006*"appropriate" + 0.006*"leaders" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4153,7 +4153,7 @@
     <t>0.1927</t>
   </si>
   <si>
-    <t>['0.010*"well" + 0.009*"’" + 0.007*"leaders" + 0.007*"need" + 0.007*"needs" + 0.007*"good" + 0.006*"Senior" + 0.006*"Wiltshire" + 0.006*"effective" + 0.006*"quality"', '0.012*"’" + 0.011*"well" + 0.009*"good" + 0.008*"leaders" + 0.006*"needs" + 0.006*"ensure" + 0.006*"Wiltshire" + 0.005*"need" + 0.005*"timely" + 0.005*"progress"', '0.010*"well" + 0.009*"’" + 0.006*"leaders" + 0.006*"Wiltshire" + 0.005*"effective" + 0.005*"good" + 0.005*"quality" + 0.004*"needs" + 0.004*"need" + 0.004*"parents"']</t>
+    <t>['0.010*"’" + 0.009*"well" + 0.007*"leaders" + 0.006*"good" + 0.006*"quality" + 0.006*"Wiltshire" + 0.006*"needs" + 0.006*"need" + 0.005*"Senior" + 0.005*"However"', '0.015*"well" + 0.010*"’" + 0.008*"leaders" + 0.007*"good" + 0.006*"needs" + 0.006*"effective" + 0.006*"need" + 0.006*"Wiltshire" + 0.006*"quality" + 0.005*"plans"', '0.012*"’" + 0.008*"good" + 0.006*"well" + 0.006*"leaders" + 0.006*"Wiltshire" + 0.006*"needs" + 0.006*"need" + 0.006*"effective" + 0.005*"Senior" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4183,7 +4183,7 @@
     <t>0.1719</t>
   </si>
   <si>
-    <t>['0.011*"quality" + 0.010*"’" + 0.009*"good" + 0.009*"needs" + 0.008*"practice" + 0.008*"well" + 0.008*"need" + 0.006*"plans" + 0.006*"place" + 0.006*"ensure"', '0.009*"well" + 0.009*"progress" + 0.008*"quality" + 0.007*"plans" + 0.007*"practice" + 0.007*"’" + 0.006*"good" + 0.006*"planning" + 0.006*"need" + 0.006*"ensure"', '0.006*"good" + 0.006*"practice" + 0.006*"’" + 0.005*"place" + 0.005*"quality" + 0.005*"need" + 0.005*"well" + 0.005*"effective" + 0.005*"plans" + 0.004*"needs"']</t>
+    <t>['0.011*"quality" + 0.009*"’" + 0.009*"practice" + 0.008*"need" + 0.008*"well" + 0.007*"good" + 0.007*"plans" + 0.006*"progress" + 0.006*"needs" + 0.006*"planning"', '0.008*"quality" + 0.007*"good" + 0.007*"progress" + 0.007*"needs" + 0.007*"need" + 0.007*"plans" + 0.006*"place" + 0.006*"’" + 0.005*"practice" + 0.005*"well"', '0.010*"well" + 0.009*"’" + 0.009*"good" + 0.008*"needs" + 0.007*"practice" + 0.006*"ensure" + 0.006*"quality" + 0.006*"effective" + 0.006*"place" + 0.006*"progress"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4204,7 +4204,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.005*"plans" + 0.004*"effective" + 0.004*"protection" + 0.004*"experiences" + 0.004*"including" + 0.003*"provided" + 0.003*"quality" + 0.003*"well" + 0.003*"17"', '0.015*"’" + 0.008*"plans" + 0.007*"progress" + 0.007*"needs" + 0.007*"effective" + 0.006*"well" + 0.006*"provided" + 0.005*"good" + 0.005*"Wokingham" + 0.005*"appropriate"', '0.011*"’" + 0.006*"effective" + 0.006*"17" + 0.006*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"experiences" + 0.005*"progress" + 0.005*"6" + 0.004*"provided"']</t>
+    <t>['0.012*"’" + 0.008*"plans" + 0.006*"effective" + 0.006*"needs" + 0.005*"progress" + 0.005*"well" + 0.005*"experiences" + 0.005*"6" + 0.005*"quality" + 0.005*"17"', '0.011*"’" + 0.006*"effective" + 0.006*"plans" + 0.006*"needs" + 0.005*"provided" + 0.005*"17" + 0.005*"impact" + 0.004*"well" + 0.004*"progress" + 0.004*"appropriate"', '0.014*"’" + 0.007*"progress" + 0.006*"plans" + 0.006*"effective" + 0.006*"well" + 0.006*"needs" + 0.005*"provided" + 0.005*"experiences" + 0.005*"appropriate" + 0.004*"6"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4225,7 +4225,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"effective" + 0.005*"receive" + 0.005*"leaders" + 0.005*"Wolverhampton" + 0.004*"well" + 0.004*"risks" + 0.004*"risk"', '0.012*"’" + 0.005*"needs" + 0.005*"effective" + 0.005*"risks" + 0.005*"Wolverhampton" + 0.005*"strong" + 0.005*"quality" + 0.005*"supported" + 0.004*"leaders" + 0.004*"education"', '0.017*"’" + 0.008*"needs" + 0.006*"Wolverhampton" + 0.006*"effective" + 0.005*"risks" + 0.005*"quality" + 0.005*"receive" + 0.004*"supported" + 0.004*"plans" + 0.004*"leaders"']</t>
+    <t>['0.015*"’" + 0.008*"needs" + 0.006*"effective" + 0.005*"risks" + 0.005*"plans" + 0.005*"receive" + 0.005*"risk" + 0.004*"strong" + 0.004*"well" + 0.004*"quality"', '0.011*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"supported" + 0.005*"leaders" + 0.004*"receive" + 0.004*"risk" + 0.004*"Wolverhampton" + 0.004*"practice" + 0.004*"education"', '0.016*"’" + 0.009*"needs" + 0.007*"Wolverhampton" + 0.007*"effective" + 0.005*"quality" + 0.005*"risks" + 0.005*"leaders" + 0.005*"experiences" + 0.005*"education" + 0.005*"2022"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4252,7 +4252,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"well" + 0.007*"leaders" + 0.007*"Worcestershire" + 0.007*"progress" + 0.006*"plans" + 0.006*"appropriate" + 0.006*"ensure" + 0.005*"needs" + 0.005*"26"', '0.022*"’" + 0.010*"plans" + 0.009*"well" + 0.009*"needs" + 0.006*"leaders" + 0.006*"Worcestershire" + 0.006*"progress" + 0.006*"appropriate" + 0.006*"ensure" + 0.005*"making"', '0.020*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"Worcestershire" + 0.007*"progress" + 0.007*"plans" + 0.006*"leaders" + 0.006*"ensure" + 0.005*"living" + 0.005*"May"']</t>
+    <t>['0.020*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"Worcestershire" + 0.007*"plans" + 0.006*"ensure" + 0.006*"progress" + 0.006*"leaders" + 0.005*"However" + 0.005*"appropriate"', '0.014*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"well" + 0.007*"Worcestershire" + 0.006*"ensure" + 0.005*"leaders" + 0.005*"progress" + 0.005*"appropriate" + 0.004*"education"', '0.021*"’" + 0.009*"well" + 0.009*"plans" + 0.008*"leaders" + 0.008*"progress" + 0.007*"needs" + 0.007*"Worcestershire" + 0.006*"appropriate" + 0.005*"26" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>urn</t>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -67,7 +67,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.008*"Barnsley" + 0.007*"needs" + 0.006*"leaders" + 0.006*"practice" + 0.006*"within" + 0.005*"plans" + 0.005*"15" + 0.004*"understand" + 0.004*"experiences"', '0.016*"’" + 0.009*"leaders" + 0.009*"needs" + 0.007*"within" + 0.006*"practice" + 0.005*"senior" + 0.005*"Barnsley" + 0.005*"11" + 0.004*"response" + 0.004*"plans"', '0.017*"’" + 0.008*"needs" + 0.006*"leaders" + 0.006*"within" + 0.004*"September" + 0.004*"practice" + 0.004*"Barnsley" + 0.004*"11" + 0.004*"understand" + 0.004*"15"']</t>
+    <t>['0.022*"’" + 0.007*"needs" + 0.007*"within" + 0.006*"Barnsley" + 0.005*"leaders" + 0.005*"practice" + 0.005*"senior" + 0.005*"plans" + 0.005*"15" + 0.004*"experiences"', '0.013*"’" + 0.007*"leaders" + 0.006*"within" + 0.006*"needs" + 0.005*"Barnsley" + 0.005*"practice" + 0.004*"11" + 0.004*"September" + 0.004*"relationships" + 0.004*"2023"', '0.020*"’" + 0.010*"needs" + 0.009*"leaders" + 0.007*"practice" + 0.006*"Barnsley" + 0.005*"within" + 0.005*"response" + 0.005*"11" + 0.005*"plans" + 0.004*"understand"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -106,7 +106,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"well" + 0.005*"plans" + 0.005*"leaders" + 0.005*"practice" + 0.005*"effective" + 0.005*"needs" + 0.005*"receive" + 0.005*"North" + 0.004*"Bath"', '0.019*"’" + 0.010*"well" + 0.006*"needs" + 0.006*"leaders" + 0.005*"practice" + 0.004*"effective" + 0.004*"receive" + 0.004*"4" + 0.004*"Bath" + 0.004*"impact"', '0.018*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"plans" + 0.006*"practice" + 0.005*"clear" + 0.005*"Somerset" + 0.005*"East" + 0.004*"North" + 0.004*"effective"']</t>
+    <t>['0.020*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"leaders" + 0.005*"effective" + 0.005*"practice" + 0.005*"plans" + 0.005*"4" + 0.005*"Somerset" + 0.005*"protection"', '0.017*"’" + 0.009*"well" + 0.006*"practice" + 0.006*"needs" + 0.005*"North" + 0.005*"clear" + 0.004*"plans" + 0.004*"receive" + 0.004*"Bath" + 0.004*"impact"', '0.016*"’" + 0.010*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"receive" + 0.005*"East" + 0.005*"effective" + 0.005*"leaders" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -151,7 +151,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"needs" + 0.006*"good" + 0.005*"well" + 0.005*"ensure" + 0.005*"supported" + 0.005*"progress" + 0.004*"family" + 0.004*"education" + 0.004*"Borough"', '0.020*"’" + 0.007*"needs" + 0.007*"ensure" + 0.006*"plans" + 0.005*"well" + 0.005*"Bedford" + 0.005*"need" + 0.004*"family" + 0.004*"good" + 0.004*"receive"', '0.021*"’" + 0.007*"ensure" + 0.006*"needs" + 0.006*"well" + 0.006*"Bedford" + 0.006*"plans" + 0.005*"supported" + 0.005*"progress" + 0.005*"relationships" + 0.004*"Borough"']</t>
+    <t>['0.022*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"ensure" + 0.005*"supported" + 0.005*"well" + 0.005*"Bedford" + 0.005*"progress" + 0.005*"Borough" + 0.005*"good"', '0.011*"’" + 0.006*"ensure" + 0.005*"well" + 0.005*"good" + 0.004*"need" + 0.004*"needs" + 0.004*"progress" + 0.004*"supported" + 0.004*"2021" + 0.004*"education"', '0.020*"’" + 0.006*"ensure" + 0.006*"well" + 0.006*"Bedford" + 0.005*"relationships" + 0.005*"needs" + 0.005*"good" + 0.005*"supported" + 0.005*"plans" + 0.005*"family"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -193,7 +193,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.011*"needs" + 0.007*"effective" + 0.006*"well" + 0.006*"progress" + 0.006*"trust" + 0.006*"Birmingham" + 0.006*"plans" + 0.006*"3" + 0.005*"20"', '0.009*"’" + 0.008*"needs" + 0.005*"Birmingham" + 0.005*"risk" + 0.005*"progress" + 0.004*"well" + 0.004*"timely" + 0.004*"plans" + 0.004*"leaders" + 0.004*"effective"', '0.015*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"effective" + 0.007*"plans" + 0.005*"appropriate" + 0.005*"Birmingham" + 0.005*"trust" + 0.004*"risk" + 0.004*"progress"']</t>
+    <t>['0.015*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"effective" + 0.006*"trust" + 0.006*"Birmingham" + 0.006*"plans" + 0.006*"progress" + 0.005*"3" + 0.005*"20"', '0.014*"’" + 0.006*"plans" + 0.006*"needs" + 0.005*"Birmingham" + 0.004*"effective" + 0.004*"risk" + 0.004*"progress" + 0.004*"trust" + 0.004*"protection" + 0.004*"well"', '0.017*"’" + 0.012*"needs" + 0.007*"effective" + 0.007*"well" + 0.006*"appropriate" + 0.005*"progress" + 0.005*"plans" + 0.005*"Birmingham" + 0.005*"timely" + 0.005*"3"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -232,7 +232,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"needs" + 0.008*"quality" + 0.008*"Darwen" + 0.007*"Blackburn" + 0.007*"practice" + 0.007*"impact" + 0.007*"well" + 0.005*"means" + 0.005*"protection"', '0.015*"’" + 0.006*"Blackburn" + 0.006*"practice" + 0.006*"Darwen" + 0.006*"quality" + 0.005*"impact" + 0.005*"receive" + 0.005*"well" + 0.005*"needs" + 0.005*"planning"', '0.013*"’" + 0.008*"practice" + 0.006*"quality" + 0.006*"needs" + 0.005*"well" + 0.005*"impact" + 0.005*"Blackburn" + 0.005*"effective" + 0.005*"plans" + 0.005*"planning"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.007*"quality" + 0.007*"impact" + 0.007*"Darwen" + 0.007*"well" + 0.006*"Blackburn" + 0.006*"result" + 0.005*"means" + 0.005*"practice"', '0.012*"’" + 0.008*"practice" + 0.006*"needs" + 0.006*"Blackburn" + 0.006*"quality" + 0.006*"well" + 0.005*"planning" + 0.005*"impact" + 0.005*"plans" + 0.005*"Darwen"', '0.011*"’" + 0.008*"practice" + 0.007*"Blackburn" + 0.007*"Darwen" + 0.007*"quality" + 0.006*"needs" + 0.005*"well" + 0.005*"impact" + 0.005*"leaders" + 0.005*"planning"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -271,7 +271,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"needs" + 0.008*"well" + 0.006*"Blackpool" + 0.004*"timely" + 0.004*"supported" + 0.004*"16" + 0.004*"progress" + 0.004*"experiences" + 0.004*"leaders"', '0.018*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Blackpool" + 0.005*"effective" + 0.005*"supported" + 0.005*"5" + 0.005*"plans" + 0.005*"practice" + 0.004*"progress"', '0.019*"’" + 0.013*"needs" + 0.010*"well" + 0.008*"Blackpool" + 0.007*"effective" + 0.006*"practice" + 0.006*"plans" + 0.006*"16" + 0.005*"quality" + 0.005*"experiences"']</t>
+    <t>['0.019*"’" + 0.011*"needs" + 0.009*"well" + 0.007*"Blackpool" + 0.006*"practice" + 0.006*"plans" + 0.005*"supported" + 0.005*"5" + 0.005*"effective" + 0.005*"progress"', '0.016*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"Blackpool" + 0.006*"effective" + 0.005*"16" + 0.005*"progress" + 0.005*"supported" + 0.004*"plans" + 0.004*"quality"', '0.014*"’" + 0.009*"Blackpool" + 0.009*"needs" + 0.007*"well" + 0.005*"effective" + 0.004*"plans" + 0.004*"practice" + 0.004*"experiences" + 0.004*"homes" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>350</t>
@@ -295,7 +295,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"needs" + 0.007*"Bolton" + 0.006*"well" + 0.006*"plans" + 0.005*"need" + 0.005*"15" + 0.004*"response" + 0.004*"appropriate" + 0.004*"September"', '0.021*"’" + 0.009*"needs" + 0.008*"Bolton" + 0.008*"well" + 0.006*"plans" + 0.006*"supported" + 0.005*"good" + 0.005*"effective" + 0.005*"planning" + 0.005*"2023"', '0.019*"’" + 0.011*"needs" + 0.009*"plans" + 0.009*"well" + 0.008*"Bolton" + 0.006*"supported" + 0.006*"need" + 0.006*"planning" + 0.006*"11" + 0.005*"strong"']</t>
+    <t>['0.015*"’" + 0.009*"Bolton" + 0.009*"needs" + 0.007*"well" + 0.006*"11" + 0.006*"need" + 0.005*"plans" + 0.005*"planning" + 0.005*"strong" + 0.005*"15"', '0.022*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"Bolton" + 0.006*"plans" + 0.005*"supported" + 0.005*"11" + 0.005*"strong" + 0.005*"progress" + 0.005*"response"', '0.019*"’" + 0.010*"needs" + 0.010*"plans" + 0.008*"well" + 0.008*"Bolton" + 0.006*"supported" + 0.006*"need" + 0.006*"planning" + 0.005*"experiences" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -331,7 +331,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.006*"quality" + 0.005*"impact" + 0.005*"practice" + 0.005*"progress" + 0.004*"Christchurch" + 0.004*"risk" + 0.004*"17" + 0.004*"2021" + 0.004*"However"', '0.019*"’" + 0.006*"progress" + 0.006*"6" + 0.005*"practice" + 0.005*"Poole" + 0.005*"quality" + 0.005*"17" + 0.005*"time" + 0.004*"However" + 0.004*"Bournemouth"', '0.016*"’" + 0.007*"quality" + 0.006*"practice" + 0.005*"Bournemouth" + 0.005*"Christchurch" + 0.004*"time" + 0.004*"risk" + 0.004*"December" + 0.004*"many" + 0.004*"well"']</t>
+    <t>['0.016*"’" + 0.006*"practice" + 0.006*"quality" + 0.005*"progress" + 0.005*"Bournemouth" + 0.004*"17" + 0.004*"However" + 0.004*"December" + 0.004*"time" + 0.004*"Christchurch"', '0.019*"’" + 0.006*"quality" + 0.005*"progress" + 0.005*"risk" + 0.005*"time" + 0.005*"practice" + 0.005*"impact" + 0.005*"However" + 0.004*"Bournemouth" + 0.004*"well"', '0.018*"’" + 0.006*"practice" + 0.006*"quality" + 0.005*"17" + 0.005*"6" + 0.005*"Christchurch" + 0.005*"impact" + 0.005*"Poole" + 0.004*"progress" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -370,7 +370,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"Forest" + 0.006*"risk" + 0.006*"Bracknell" + 0.006*"quality" + 0.006*"needs" + 0.005*"effective" + 0.005*"well" + 0.005*"parents" + 0.005*"good"', '0.015*"’" + 0.008*"needs" + 0.007*"Bracknell" + 0.007*"good" + 0.007*"risk" + 0.007*"progress" + 0.006*"plans" + 0.006*"quality" + 0.006*"Forest" + 0.006*"impact"', '0.018*"’" + 0.007*"Forest" + 0.006*"Bracknell" + 0.006*"provided" + 0.005*"effective" + 0.005*"needs" + 0.005*"need" + 0.005*"good" + 0.005*"risk" + 0.005*"quality"']</t>
+    <t>['0.012*"’" + 0.007*"effective" + 0.006*"quality" + 0.006*"risk" + 0.006*"Bracknell" + 0.006*"plans" + 0.005*"needs" + 0.005*"provided" + 0.005*"progress" + 0.005*"need"', '0.017*"’" + 0.007*"Forest" + 0.007*"good" + 0.006*"quality" + 0.006*"positive" + 0.006*"Bracknell" + 0.006*"risk" + 0.005*"needs" + 0.005*"progress" + 0.005*"well"', '0.019*"’" + 0.008*"needs" + 0.008*"Bracknell" + 0.008*"Forest" + 0.007*"risk" + 0.006*"provided" + 0.006*"good" + 0.006*"well" + 0.006*"impact" + 0.005*"carers"']</t>
   </si>
   <si>
     <t>846</t>
@@ -406,7 +406,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.008*"good" + 0.006*"recording" + 0.005*"need" + 0.005*"plans" + 0.005*"well" + 0.005*"leaders" + 0.005*"However" + 0.005*"Senior"', '0.014*"’" + 0.010*"needs" + 0.009*"good" + 0.005*"well" + 0.005*"leaders" + 0.005*"recording" + 0.005*"need" + 0.004*"plans" + 0.004*"However" + 0.004*"always"', '0.010*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"leaders" + 0.006*"well" + 0.006*"recording" + 0.005*"response" + 0.005*"plans" + 0.005*"arrangements" + 0.004*"timely"']</t>
+    <t>['0.015*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"well" + 0.005*"leaders" + 0.005*"plans" + 0.005*"recording" + 0.005*"need" + 0.004*"improve" + 0.004*"quality"', '0.015*"’" + 0.011*"needs" + 0.009*"good" + 0.007*"recording" + 0.006*"leaders" + 0.005*"plans" + 0.005*"well" + 0.005*"However" + 0.005*"need" + 0.004*"timely"', '0.011*"’" + 0.009*"needs" + 0.008*"good" + 0.006*"recording" + 0.005*"well" + 0.005*"leaders" + 0.005*"arrangements" + 0.005*"need" + 0.004*"supported" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -436,7 +436,7 @@
     <t>10/03/23</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"Bristol" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.005*"progress" + 0.005*"health" + 0.005*"leaders" + 0.005*"receive" + 0.004*"living"', '0.019*"’" + 0.008*"good" + 0.008*"well" + 0.007*"Bristol" + 0.007*"needs" + 0.005*"plans" + 0.005*"health" + 0.005*"receive" + 0.005*"progress" + 0.004*"leaders"', '0.025*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"good" + 0.007*"Bristol" + 0.005*"need" + 0.005*"health" + 0.005*"ensure" + 0.005*"progress" + 0.005*"16"']</t>
+    <t>['0.018*"’" + 0.008*"good" + 0.008*"Bristol" + 0.008*"needs" + 0.007*"well" + 0.005*"health" + 0.005*"plans" + 0.005*"receive" + 0.005*"living" + 0.004*"ensure"', '0.021*"’" + 0.009*"well" + 0.009*"good" + 0.008*"needs" + 0.008*"Bristol" + 0.005*"need" + 0.005*"leaders" + 0.005*"health" + 0.005*"progress" + 0.005*"information"', '0.018*"’" + 0.010*"well" + 0.007*"Bristol" + 0.006*"needs" + 0.006*"progress" + 0.006*"good" + 0.005*"January" + 0.005*"16" + 0.004*"health" + 0.004*"always"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -463,7 +463,7 @@
     <t>0.159</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.005*"plans" + 0.005*"17" + 0.004*"number" + 0.004*"many" + 0.004*"Buckinghamshire" + 0.004*"2021" + 0.004*"protection" + 0.003*"well" + 0.003*"6"', '0.011*"’" + 0.005*"plans" + 0.005*"6" + 0.005*"protection" + 0.004*"Buckinghamshire" + 0.004*"number" + 0.004*"needs" + 0.004*"teams" + 0.003*"17" + 0.003*"practice"', '0.015*"’" + 0.005*"number" + 0.005*"17" + 0.005*"Buckinghamshire" + 0.005*"plans" + 0.005*"December" + 0.005*"practice" + 0.004*"many" + 0.004*"2021" + 0.004*"6"']</t>
+    <t>['0.010*"’" + 0.005*"plans" + 0.004*"17" + 0.004*"Buckinghamshire" + 0.004*"practice" + 0.004*"number" + 0.003*"many" + 0.003*"well" + 0.003*"2021" + 0.003*"teams"', '0.013*"’" + 0.006*"number" + 0.006*"plans" + 0.005*"Buckinghamshire" + 0.004*"protection" + 0.004*"17" + 0.004*"6" + 0.004*"many" + 0.004*"well" + 0.004*"small"', '0.016*"’" + 0.004*"17" + 0.004*"Buckinghamshire" + 0.004*"December" + 0.004*"plans" + 0.004*"6" + 0.004*"number" + 0.004*"2021" + 0.004*"many" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -499,7 +499,7 @@
     <t>0.1662</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"team" + 0.007*"2021" + 0.006*"protection" + 0.006*"impact" + 0.005*"need" + 0.005*"needs" + 0.005*"practice" + 0.005*"risk" + 0.005*"quality"', '0.007*"’" + 0.006*"needs" + 0.006*"2021" + 0.005*"practice" + 0.005*"protection" + 0.005*"team" + 0.004*"quality" + 0.004*"5" + 0.004*"impact" + 0.004*"Bury"', '0.014*"’" + 0.007*"needs" + 0.007*"protection" + 0.006*"2021" + 0.006*"practice" + 0.006*"need" + 0.005*"risk" + 0.005*"delay" + 0.005*"Bury" + 0.005*"quality"']</t>
+    <t>['0.012*"’" + 0.008*"2021" + 0.008*"needs" + 0.007*"protection" + 0.006*"team" + 0.006*"impact" + 0.005*"practice" + 0.005*"risk" + 0.005*"quality" + 0.005*"response"', '0.008*"’" + 0.006*"protection" + 0.005*"practice" + 0.004*"need" + 0.004*"team" + 0.004*"5" + 0.004*"impact" + 0.004*"2021" + 0.004*"needs" + 0.004*"new"', '0.012*"’" + 0.006*"needs" + 0.006*"need" + 0.006*"Bury" + 0.005*"practice" + 0.005*"protection" + 0.005*"team" + 0.005*"2021" + 0.005*"quality" + 0.005*"October"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -529,7 +529,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"Calderdale" + 0.005*"good" + 0.005*"‘" + 0.004*"protection" + 0.004*"effective" + 0.004*"carers" + 0.004*"education"', '0.014*"’" + 0.008*"well" + 0.006*"practice" + 0.005*"Calderdale" + 0.005*"good" + 0.005*"effective" + 0.005*"carers" + 0.004*"protection" + 0.004*"need" + 0.004*"‘"', '0.015*"’" + 0.006*"well" + 0.006*"good" + 0.005*"Calderdale" + 0.004*"practice" + 0.004*"inform" + 0.004*"protection" + 0.004*"making" + 0.004*"risk" + 0.004*"needs"']</t>
+    <t>['0.013*"’" + 0.007*"well" + 0.006*"Calderdale" + 0.005*"good" + 0.005*"practice" + 0.005*"protection" + 0.004*"effective" + 0.004*"leaders" + 0.004*"education" + 0.004*"carers"', '0.018*"’" + 0.008*"well" + 0.006*"good" + 0.006*"Calderdale" + 0.006*"practice" + 0.005*"‘" + 0.004*"need" + 0.004*"education" + 0.004*"needs" + 0.004*"protection"', '0.011*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"effective" + 0.004*"good" + 0.004*"protection" + 0.004*"Calderdale" + 0.004*"need" + 0.004*"carers" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -562,7 +562,7 @@
     <t>0.1882</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"well" + 0.009*"good" + 0.009*"needs" + 0.008*"impact" + 0.008*"plans" + 0.007*"need" + 0.007*"teams" + 0.007*"quality" + 0.006*"effective"', '0.017*"’" + 0.010*"well" + 0.008*"good" + 0.007*"teams" + 0.007*"need" + 0.007*"needs" + 0.006*"impact" + 0.006*"plans" + 0.006*"However" + 0.005*"progress"', '0.009*"’" + 0.008*"good" + 0.007*"need" + 0.007*"well" + 0.006*"needs" + 0.006*"impact" + 0.006*"teams" + 0.005*"However" + 0.005*"plans" + 0.005*"quality"']</t>
+    <t>['0.017*"’" + 0.011*"well" + 0.010*"good" + 0.010*"needs" + 0.008*"impact" + 0.008*"plans" + 0.008*"teams" + 0.008*"need" + 0.008*"quality" + 0.006*"effective"', '0.012*"’" + 0.009*"well" + 0.007*"good" + 0.007*"need" + 0.006*"teams" + 0.006*"However" + 0.006*"impact" + 0.005*"needs" + 0.005*"effective" + 0.005*"caseloads"', '0.011*"’" + 0.007*"well" + 0.007*"good" + 0.006*"plans" + 0.006*"need" + 0.006*"teams" + 0.005*"needs" + 0.005*"progress" + 0.005*"impact" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -592,7 +592,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.010*"well" + 0.007*"needs" + 0.006*"need" + 0.006*"progress" + 0.005*"good" + 0.005*"plans" + 0.005*"Central" + 0.005*"carers" + 0.004*"supported"', '0.021*"’" + 0.011*"well" + 0.009*"needs" + 0.007*"good" + 0.007*"need" + 0.007*"plans" + 0.006*"carers" + 0.006*"progress" + 0.005*"Bedfordshire" + 0.005*"effective"', '0.012*"’" + 0.007*"carers" + 0.005*"need" + 0.005*"education" + 0.005*"needs" + 0.005*"Bedfordshire" + 0.004*"effective" + 0.004*"good" + 0.004*"well" + 0.004*"plans"']</t>
+    <t>['0.019*"’" + 0.011*"well" + 0.008*"good" + 0.007*"needs" + 0.007*"need" + 0.006*"carers" + 0.005*"progress" + 0.005*"plans" + 0.005*"protection" + 0.004*"Bedfordshire"', '0.016*"’" + 0.009*"well" + 0.007*"plans" + 0.007*"needs" + 0.005*"progress" + 0.005*"carers" + 0.005*"good" + 0.005*"effective" + 0.005*"Bedfordshire" + 0.004*"need"', '0.013*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"need" + 0.007*"carers" + 0.005*"Central" + 0.005*"progress" + 0.005*"good" + 0.005*"Bedfordshire" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -628,7 +628,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"well" + 0.008*"good" + 0.007*"needs" + 0.007*"plans" + 0.006*"need" + 0.006*"practice" + 0.006*"always" + 0.006*"ensure" + 0.006*"supported"', '0.016*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"practice" + 0.006*"good" + 0.006*"always" + 0.005*"risk" + 0.005*"However" + 0.005*"carers"', '0.010*"’" + 0.008*"good" + 0.006*"well" + 0.006*"However" + 0.006*"needs" + 0.005*"supported" + 0.005*"plans" + 0.005*"practice" + 0.005*"quality" + 0.005*"need"']</t>
+    <t>['0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"practice" + 0.006*"good" + 0.006*"supported" + 0.006*"However" + 0.005*"need" + 0.005*"risk"', '0.017*"’" + 0.008*"good" + 0.008*"well" + 0.008*"needs" + 0.006*"always" + 0.006*"need" + 0.006*"practice" + 0.006*"ensure" + 0.006*"plans" + 0.005*"effective"', '0.010*"’" + 0.007*"good" + 0.006*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"supported" + 0.005*"always" + 0.005*"carers" + 0.005*"cases"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -664,7 +664,7 @@
     <t>0.1816</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"order" + 0.005*"plans" + 0.004*"impact" + 0.004*"always" + 0.004*"effectively" + 0.004*"risk" + 0.003*"supported"', '0.018*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"effective" + 0.005*"effectively" + 0.004*"impact" + 0.004*"always" + 0.004*"timely" + 0.004*"plans"', '0.024*"’" + 0.008*"needs" + 0.008*"well" + 0.006*"practice" + 0.005*"progress" + 0.004*"However" + 0.004*"receive" + 0.004*"information" + 0.004*"need" + 0.004*"learning"']</t>
+    <t>['0.021*"’" + 0.006*"needs" + 0.005*"well" + 0.004*"order" + 0.004*"effectively" + 0.004*"plans" + 0.004*"always" + 0.004*"effective" + 0.004*"practice" + 0.004*"information"', '0.021*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"practice" + 0.004*"always" + 0.004*"effectively" + 0.004*"plans" + 0.004*"receive" + 0.004*"early" + 0.004*"good"', '0.021*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"impact" + 0.005*"effective" + 0.005*"order" + 0.005*"timely" + 0.004*"practice" + 0.004*"leaders" + 0.004*"use"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -700,7 +700,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.007*"plans" + 0.005*"Bradford" + 0.005*"2022" + 0.005*"Metropolitan" + 0.005*"needs" + 0.005*"Borough" + 0.005*"impact" + 0.004*"quality" + 0.004*"need"', '0.017*"’" + 0.007*"plans" + 0.005*"quality" + 0.004*"Bradford" + 0.004*"However" + 0.004*"needs" + 0.004*"Council" + 0.004*"practice" + 0.004*"2" + 0.004*"need"', '0.018*"’" + 0.006*"plans" + 0.006*"risk" + 0.006*"2" + 0.005*"needs" + 0.005*"Council" + 0.005*"Bradford" + 0.004*"impact" + 0.004*"need" + 0.004*"◼"']</t>
+    <t>['0.018*"’" + 0.006*"plans" + 0.006*"needs" + 0.005*"need" + 0.005*"2" + 0.004*"Council" + 0.004*"progress" + 0.004*"quality" + 0.004*"However" + 0.004*"21"', '0.022*"’" + 0.008*"plans" + 0.007*"Bradford" + 0.005*"risk" + 0.005*"2022" + 0.005*"2" + 0.005*"lack" + 0.005*"practice" + 0.005*"many" + 0.004*"impact"', '0.021*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"November" + 0.004*"impact" + 0.004*"Borough" + 0.004*"need" + 0.004*"◼" + 0.004*"quality" + 0.004*"21"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -733,7 +733,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.012*"needs" + 0.011*"well" + 0.010*"’" + 0.008*"ensure" + 0.007*"clear" + 0.006*"plans" + 0.006*"effective" + 0.006*"progress" + 0.005*"good" + 0.004*"health"', '0.012*"needs" + 0.011*"’" + 0.008*"well" + 0.008*"ensure" + 0.006*"clear" + 0.005*"progress" + 0.005*"effective" + 0.005*"good" + 0.004*"supported" + 0.004*"practice"', '0.014*"’" + 0.010*"well" + 0.010*"needs" + 0.009*"ensure" + 0.008*"effective" + 0.006*"progress" + 0.006*"individual" + 0.006*"good" + 0.006*"practice" + 0.005*"clear"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.010*"ensure" + 0.009*"well" + 0.008*"effective" + 0.007*"clear" + 0.006*"progress" + 0.006*"good" + 0.006*"plans" + 0.005*"practice"', '0.014*"needs" + 0.009*"well" + 0.008*"’" + 0.006*"ensure" + 0.006*"clear" + 0.005*"effective" + 0.005*"plans" + 0.005*"progress" + 0.004*"practice" + 0.004*"clearly"', '0.012*"’" + 0.011*"well" + 0.010*"needs" + 0.008*"ensure" + 0.006*"progress" + 0.006*"effective" + 0.006*"good" + 0.005*"plans" + 0.005*"within" + 0.005*"clear"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -769,7 +769,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"Wakefield" + 0.009*"well" + 0.008*"November" + 0.008*"effective" + 0.008*"quality" + 0.008*"leaders" + 0.007*"good" + 0.006*"practice" + 0.006*"plans"', '0.017*"’" + 0.007*"November" + 0.006*"quality" + 0.006*"well" + 0.005*"leaders" + 0.005*"plans" + 0.005*"19" + 0.005*"effective" + 0.005*"progress" + 0.005*"needs"', '0.014*"’" + 0.008*"good" + 0.008*"Wakefield" + 0.008*"quality" + 0.008*"leaders" + 0.006*"plans" + 0.006*"well" + 0.005*"effective" + 0.005*"November" + 0.005*"needs"']</t>
+    <t>['0.015*"’" + 0.009*"quality" + 0.007*"Wakefield" + 0.007*"November" + 0.006*"effective" + 0.006*"good" + 0.005*"leaders" + 0.005*"practice" + 0.005*"well" + 0.004*"ensure"', '0.015*"’" + 0.009*"well" + 0.009*"leaders" + 0.008*"November" + 0.007*"quality" + 0.007*"effective" + 0.006*"plans" + 0.006*"receive" + 0.006*"Wakefield" + 0.006*"progress"', '0.019*"’" + 0.010*"Wakefield" + 0.008*"good" + 0.008*"well" + 0.007*"November" + 0.007*"leaders" + 0.006*"effective" + 0.006*"quality" + 0.006*"plans" + 0.006*"practice"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -799,7 +799,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"needs" + 0.007*"quality" + 0.007*"March" + 0.006*"plans" + 0.006*"ensure" + 0.006*"However" + 0.005*"effective" + 0.005*"well" + 0.005*"need"', '0.015*"’" + 0.008*"needs" + 0.007*"quality" + 0.006*"March" + 0.006*"effective" + 0.006*"education" + 0.006*"York" + 0.006*"However" + 0.005*"7" + 0.005*"good"', '0.016*"’" + 0.007*"March" + 0.006*"needs" + 0.006*"effective" + 0.006*"quality" + 0.005*"ensure" + 0.005*"well" + 0.005*"supported" + 0.005*"York" + 0.005*"7"']</t>
+    <t>['0.018*"’" + 0.008*"needs" + 0.008*"effective" + 0.007*"March" + 0.007*"quality" + 0.007*"ensure" + 0.007*"However" + 0.006*"York" + 0.005*"training" + 0.005*"well"', '0.013*"’" + 0.008*"March" + 0.007*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"education" + 0.005*"experiences" + 0.005*"plans" + 0.005*"7" + 0.004*"22"', '0.011*"’" + 0.007*"quality" + 0.007*"needs" + 0.006*"effective" + 0.006*"March" + 0.005*"good" + 0.005*"plans" + 0.005*"education" + 0.005*"supported" + 0.005*"York"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -835,7 +835,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.014*"well" + 0.011*"’" + 0.011*"effective" + 0.011*"quality" + 0.008*"leaders" + 0.007*"plans" + 0.006*"good" + 0.006*"timely" + 0.006*"arrangements" + 0.005*"highly"', '0.015*"well" + 0.013*"’" + 0.008*"quality" + 0.008*"leaders" + 0.007*"effective" + 0.006*"good" + 0.005*"Senior" + 0.005*"plans" + 0.005*"highly" + 0.005*"arrangements"', '0.014*"well" + 0.012*"’" + 0.009*"quality" + 0.008*"leaders" + 0.007*"effective" + 0.005*"plans" + 0.005*"timely" + 0.005*"arrangements" + 0.004*"senior" + 0.004*"good"']</t>
+    <t>['0.018*"well" + 0.014*"’" + 0.011*"quality" + 0.010*"effective" + 0.008*"leaders" + 0.006*"plans" + 0.006*"arrangements" + 0.006*"timely" + 0.005*"Senior" + 0.005*"highly"', '0.012*"well" + 0.012*"’" + 0.010*"leaders" + 0.009*"quality" + 0.009*"effective" + 0.007*"good" + 0.006*"timely" + 0.006*"plans" + 0.005*"arrangements" + 0.004*"practice"', '0.010*"well" + 0.009*"’" + 0.007*"quality" + 0.006*"effective" + 0.005*"leaders" + 0.005*"good" + 0.005*"highly" + 0.005*"plans" + 0.004*"arrangements" + 0.004*"Senior"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -865,7 +865,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.014*"Isles" + 0.013*"Scilly" + 0.009*"information" + 0.008*"need" + 0.007*"practice" + 0.007*"quality" + 0.006*"protection" + 0.006*"place" + 0.005*"needs"', '0.020*"’" + 0.012*"Scilly" + 0.009*"Isles" + 0.008*"information" + 0.008*"needs" + 0.007*"practice" + 0.007*"protection" + 0.006*"need" + 0.006*"quality" + 0.005*"2023"', '0.023*"’" + 0.012*"Isles" + 0.011*"Scilly" + 0.011*"practice" + 0.009*"need" + 0.009*"information" + 0.007*"needs" + 0.007*"place" + 0.007*"protection" + 0.005*"However"']</t>
+    <t>['0.022*"’" + 0.012*"Scilly" + 0.011*"Isles" + 0.009*"information" + 0.009*"practice" + 0.008*"needs" + 0.008*"need" + 0.007*"protection" + 0.006*"13" + 0.006*"quality"', '0.017*"’" + 0.012*"Scilly" + 0.009*"Isles" + 0.008*"information" + 0.007*"need" + 0.007*"practice" + 0.006*"place" + 0.006*"quality" + 0.006*"risks" + 0.005*"protection"', '0.022*"’" + 0.014*"Isles" + 0.011*"Scilly" + 0.009*"practice" + 0.009*"information" + 0.009*"need" + 0.007*"needs" + 0.007*"protection" + 0.006*"risks" + 0.006*"place"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -901,7 +901,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"needs" + 0.008*"Coventry" + 0.007*"well" + 0.006*"strong" + 0.006*"supported" + 0.006*"need" + 0.005*"plans" + 0.005*"family" + 0.005*"20"', '0.019*"’" + 0.008*"well" + 0.008*"Coventry" + 0.006*"supported" + 0.006*"plans" + 0.006*"family" + 0.006*"strong" + 0.005*"needs" + 0.005*"PAs" + 0.004*"June"', '0.018*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"Coventry" + 0.008*"supported" + 0.007*"plans" + 0.006*"family" + 0.005*"need" + 0.005*"2022" + 0.005*"strong"']</t>
+    <t>['0.015*"’" + 0.008*"plans" + 0.008*"Coventry" + 0.007*"needs" + 0.007*"well" + 0.006*"strong" + 0.005*"supported" + 0.005*"family" + 0.004*"2022" + 0.004*"1"', '0.016*"’" + 0.007*"well" + 0.007*"Coventry" + 0.007*"needs" + 0.006*"supported" + 0.005*"family" + 0.005*"plans" + 0.004*"PAs" + 0.004*"1" + 0.004*"2022"', '0.024*"’" + 0.009*"well" + 0.009*"Coventry" + 0.008*"supported" + 0.008*"needs" + 0.007*"family" + 0.007*"need" + 0.006*"strong" + 0.006*"plans" + 0.005*"20"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -937,7 +937,7 @@
     <t>0.1983</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.008*"well" + 0.007*"leaders" + 0.007*"Darlington" + 0.007*"needs" + 0.006*"practice" + 0.006*"effective" + 0.005*"quality" + 0.004*"10" + 0.004*"October"', '0.014*"’" + 0.009*"well" + 0.007*"October" + 0.007*"needs" + 0.006*"leaders" + 0.005*"practice" + 0.005*"plans" + 0.005*"quality" + 0.004*"education" + 0.004*"family"', '0.018*"’" + 0.008*"October" + 0.007*"practice" + 0.007*"well" + 0.006*"Darlington" + 0.006*"leaders" + 0.006*"needs" + 0.005*"supported" + 0.005*"family" + 0.005*"understand"']</t>
+    <t>['0.022*"’" + 0.009*"leaders" + 0.007*"well" + 0.007*"needs" + 0.007*"October" + 0.006*"practice" + 0.006*"Darlington" + 0.006*"effective" + 0.005*"quality" + 0.005*"supported"', '0.012*"’" + 0.005*"well" + 0.005*"needs" + 0.005*"October" + 0.005*"leaders" + 0.005*"Darlington" + 0.005*"practice" + 0.004*"supported" + 0.004*"education" + 0.004*"risk"', '0.018*"’" + 0.010*"well" + 0.007*"October" + 0.006*"needs" + 0.006*"practice" + 0.006*"Darlington" + 0.005*"quality" + 0.005*"leaders" + 0.005*"understand" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -973,7 +973,7 @@
     <t>0.2161</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.009*"needs" + 0.007*"Derby" + 0.007*"quality" + 0.007*"progress" + 0.006*"leaders" + 0.006*"plans" + 0.006*"receive" + 0.006*"well" + 0.006*"need"', '0.022*"’" + 0.010*"needs" + 0.008*"Derby" + 0.007*"receive" + 0.007*"quality" + 0.006*"good" + 0.005*"plans" + 0.005*"progress" + 0.005*"appropriate" + 0.005*"ensure"', '0.013*"’" + 0.009*"needs" + 0.006*"Derby" + 0.005*"well" + 0.005*"need" + 0.005*"quality" + 0.005*"appropriate" + 0.004*"leaders" + 0.004*"plans" + 0.004*"good"']</t>
+    <t>['0.022*"’" + 0.010*"needs" + 0.007*"need" + 0.007*"quality" + 0.006*"receive" + 0.006*"Derby" + 0.005*"plans" + 0.005*"well" + 0.005*"leaders" + 0.005*"views"', '0.015*"’" + 0.009*"needs" + 0.008*"Derby" + 0.006*"leaders" + 0.006*"quality" + 0.005*"appropriate" + 0.005*"receive" + 0.005*"good" + 0.005*"progress" + 0.005*"views"', '0.024*"’" + 0.009*"needs" + 0.007*"Derby" + 0.006*"quality" + 0.006*"plans" + 0.006*"progress" + 0.006*"receive" + 0.006*"appropriate" + 0.006*"good" + 0.005*"21"']</t>
   </si>
   <si>
     <t>830</t>
@@ -1000,7 +1000,7 @@
     <t>0.1648</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"quality" + 0.006*"oversight" + 0.005*"practice" + 0.005*"needs" + 0.005*"good" + 0.005*"need" + 0.004*"protection" + 0.004*"including" + 0.004*"well"', '0.012*"’" + 0.009*"quality" + 0.007*"oversight" + 0.006*"needs" + 0.006*"practice" + 0.005*"good" + 0.004*"early" + 0.004*"leaders" + 0.004*"well" + 0.004*"management"', '0.013*"’" + 0.008*"quality" + 0.007*"practice" + 0.006*"need" + 0.006*"oversight" + 0.005*"needs" + 0.005*"risk" + 0.004*"good" + 0.004*"well" + 0.004*"impact"']</t>
+    <t>['0.011*"’" + 0.007*"quality" + 0.007*"practice" + 0.006*"needs" + 0.005*"oversight" + 0.004*"need" + 0.004*"well" + 0.004*"including" + 0.004*"good" + 0.004*"plans"', '0.013*"’" + 0.007*"practice" + 0.007*"quality" + 0.006*"need" + 0.005*"oversight" + 0.005*"needs" + 0.005*"early" + 0.004*"progress" + 0.004*"risk" + 0.004*"well"', '0.013*"’" + 0.011*"quality" + 0.008*"oversight" + 0.006*"good" + 0.006*"needs" + 0.005*"practice" + 0.004*"protection" + 0.004*"impact" + 0.004*"progress" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1030,7 +1030,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"risk" + 0.004*"health" + 0.004*"protection" + 0.004*"case" + 0.004*"Devon" + 0.004*"practice" + 0.004*"leaders"', '0.010*"’" + 0.006*"well" + 0.005*"risk" + 0.005*"health" + 0.004*"areas" + 0.004*"leaders" + 0.004*"needs" + 0.004*"living" + 0.004*"protection" + 0.004*"risks"', '0.009*"’" + 0.006*"leaders" + 0.005*"well" + 0.005*"health" + 0.004*"Devon" + 0.004*"risk" + 0.004*"need" + 0.004*"time" + 0.004*"progress" + 0.004*"plans"']</t>
+    <t>['0.008*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"protection" + 0.005*"health" + 0.004*"Devon" + 0.004*"leaders" + 0.004*"living" + 0.004*"risk" + 0.004*"case"', '0.010*"’" + 0.006*"well" + 0.005*"risk" + 0.005*"leaders" + 0.004*"health" + 0.004*"case" + 0.004*"quality" + 0.004*"need" + 0.004*"progress" + 0.004*"use"', '0.009*"’" + 0.005*"well" + 0.005*"health" + 0.005*"risk" + 0.004*"plans" + 0.004*"leaders" + 0.004*"risks" + 0.004*"progress" + 0.004*"practice" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1063,7 +1063,7 @@
     <t>0.1512</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.006*"well" + 0.006*"progress" + 0.006*"Doncaster" + 0.005*"leaders" + 0.005*"many" + 0.004*"receive" + 0.004*"Trust" + 0.004*"protection" + 0.004*"plans"', '0.018*"’" + 0.007*"well" + 0.005*"leaders" + 0.005*"records" + 0.005*"many" + 0.005*"plans" + 0.005*"Doncaster" + 0.004*"progress" + 0.004*"information" + 0.004*"arrangements"', '0.022*"’" + 0.007*"Doncaster" + 0.006*"well" + 0.006*"quality" + 0.005*"information" + 0.005*"records" + 0.005*"25" + 0.005*"many" + 0.004*"14" + 0.004*"effective"']</t>
+    <t>['0.022*"’" + 0.007*"Doncaster" + 0.007*"well" + 0.005*"records" + 0.005*"information" + 0.005*"plans" + 0.005*"arrangements" + 0.005*"many" + 0.005*"quality" + 0.005*"Trust"', '0.019*"’" + 0.006*"well" + 0.006*"progress" + 0.005*"leaders" + 0.005*"records" + 0.005*"plans" + 0.005*"Doncaster" + 0.005*"quality" + 0.004*"many" + 0.004*"oversight"', '0.017*"’" + 0.005*"many" + 0.005*"well" + 0.005*"progress" + 0.005*"Doncaster" + 0.004*"leaders" + 0.004*"means" + 0.004*"25" + 0.004*"quality" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>838</t>
@@ -1090,7 +1090,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"Dorset" + 0.005*"good" + 0.005*"well" + 0.004*"September" + 0.004*"October" + 0.003*"home" + 0.003*"arrangements" + 0.003*"27" + 0.003*"8"', '0.017*"’" + 0.008*"Dorset" + 0.007*"good" + 0.006*"well" + 0.005*"arrangements" + 0.005*"including" + 0.005*"needs" + 0.004*"impact" + 0.004*"change" + 0.004*"home"', '0.011*"’" + 0.008*"Dorset" + 0.006*"well" + 0.006*"good" + 0.005*"needs" + 0.005*"8" + 0.005*"leaders" + 0.004*"partners" + 0.004*"quality" + 0.004*"change"']</t>
+    <t>['0.013*"’" + 0.006*"Dorset" + 0.006*"good" + 0.005*"well" + 0.004*"need" + 0.004*"arrangements" + 0.004*"8" + 0.004*"needs" + 0.004*"leaders" + 0.003*"pandemic"', '0.014*"’" + 0.008*"Dorset" + 0.006*"good" + 0.006*"well" + 0.005*"arrangements" + 0.005*"2021" + 0.004*"needs" + 0.004*"27" + 0.004*"8" + 0.004*"leaders"', '0.013*"’" + 0.008*"Dorset" + 0.006*"good" + 0.006*"well" + 0.005*"needs" + 0.004*"impact" + 0.004*"quality" + 0.004*"supported" + 0.004*"including" + 0.004*"arrangements"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1117,7 +1117,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"needs" + 0.009*"Dudley" + 0.005*"ensure" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"always" + 0.005*"well" + 0.005*"quality" + 0.004*"However"', '0.015*"’" + 0.011*"needs" + 0.008*"Dudley" + 0.006*"well" + 0.005*"plans" + 0.005*"arrangements" + 0.005*"oversight" + 0.005*"October" + 0.005*"ensure" + 0.005*"always"', '0.015*"’" + 0.013*"needs" + 0.007*"Dudley" + 0.006*"always" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"well" + 0.005*"quality" + 0.005*"However" + 0.004*"11"']</t>
+    <t>['0.014*"’" + 0.013*"needs" + 0.008*"Dudley" + 0.006*"well" + 0.005*"arrangements" + 0.005*"always" + 0.005*"plans" + 0.005*"quality" + 0.004*"October" + 0.004*"However"', '0.019*"’" + 0.012*"needs" + 0.008*"Dudley" + 0.005*"well" + 0.005*"oversight" + 0.005*"plans" + 0.005*"always" + 0.005*"ensure" + 0.005*"arrangements" + 0.004*"quality"', '0.011*"’" + 0.007*"Dudley" + 0.006*"needs" + 0.005*"arrangements" + 0.004*"well" + 0.004*"plans" + 0.004*"always" + 0.004*"quality" + 0.004*"ensure" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1153,7 +1153,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.011*"needs" + 0.007*"well" + 0.006*"Durham" + 0.005*"practice" + 0.005*"May" + 0.005*"plans" + 0.004*"ensure" + 0.004*"family" + 0.004*"risks"', '0.015*"’" + 0.010*"needs" + 0.009*"May" + 0.008*"plans" + 0.008*"Durham" + 0.007*"ensure" + 0.006*"well" + 0.005*"identified" + 0.005*"family" + 0.005*"practice"', '0.017*"’" + 0.011*"needs" + 0.007*"Durham" + 0.007*"well" + 0.006*"May" + 0.006*"plans" + 0.005*"practice" + 0.005*"ensure" + 0.004*"20" + 0.004*"leaders"']</t>
+    <t>['0.015*"’" + 0.014*"needs" + 0.007*"Durham" + 0.007*"ensure" + 0.007*"May" + 0.007*"well" + 0.006*"plans" + 0.005*"leaders" + 0.004*"practice" + 0.004*"family"', '0.014*"’" + 0.008*"needs" + 0.008*"May" + 0.008*"well" + 0.007*"Durham" + 0.005*"practice" + 0.005*"ensure" + 0.005*"plans" + 0.004*"leaders" + 0.004*"number"', '0.014*"’" + 0.009*"needs" + 0.008*"plans" + 0.006*"Durham" + 0.006*"May" + 0.006*"practice" + 0.005*"well" + 0.005*"identified" + 0.005*"ensure" + 0.004*"risks"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1189,7 +1189,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"plans" + 0.008*"progress" + 0.007*"needs" + 0.007*"East" + 0.007*"well" + 0.005*"Riding" + 0.005*"10" + 0.005*"partners" + 0.005*"place"', '0.015*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"Riding" + 0.006*"East" + 0.006*"progress" + 0.005*"30" + 0.004*"2023" + 0.004*"10"', '0.020*"’" + 0.011*"needs" + 0.010*"plans" + 0.006*"well" + 0.006*"progress" + 0.006*"Riding" + 0.005*"good" + 0.005*"East" + 0.005*"information" + 0.005*"10"']</t>
+    <t>['0.016*"’" + 0.007*"East" + 0.007*"well" + 0.006*"needs" + 0.006*"progress" + 0.006*"plans" + 0.005*"good" + 0.005*"10" + 0.005*"education" + 0.005*"supported"', '0.016*"’" + 0.011*"plans" + 0.010*"needs" + 0.010*"well" + 0.007*"Riding" + 0.006*"progress" + 0.005*"30" + 0.005*"10" + 0.005*"2023" + 0.005*"good"', '0.016*"’" + 0.011*"needs" + 0.008*"plans" + 0.008*"progress" + 0.008*"well" + 0.007*"East" + 0.007*"Riding" + 0.005*"information" + 0.005*"partners" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1216,7 +1216,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.007*"practice" + 0.005*"needs" + 0.005*"Sussex" + 0.004*"need" + 0.004*"plans" + 0.004*"specialist" + 0.004*"senior" + 0.004*"East"', '0.012*"’" + 0.010*"well" + 0.007*"needs" + 0.006*"need" + 0.006*"practice" + 0.005*"Sussex" + 0.005*"carers" + 0.004*"supported" + 0.004*"East" + 0.004*"senior"', '0.010*"’" + 0.007*"needs" + 0.006*"practice" + 0.006*"well" + 0.004*"‘" + 0.004*"need" + 0.003*"Sussex" + 0.003*"supported" + 0.003*"team" + 0.003*"time"']</t>
+    <t>['0.012*"’" + 0.008*"practice" + 0.006*"well" + 0.005*"needs" + 0.004*"receive" + 0.004*"Sussex" + 0.004*"specialist" + 0.004*"need" + 0.004*"plans" + 0.004*"East"', '0.009*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"practice" + 0.004*"supported" + 0.004*"need" + 0.004*"Sussex" + 0.004*"senior" + 0.004*"family" + 0.004*"‘"', '0.012*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"need" + 0.005*"practice" + 0.005*"East" + 0.005*"Sussex" + 0.004*"senior" + 0.004*"carers" + 0.004*"‘"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1252,7 +1252,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.008*"progress" + 0.006*"understand" + 0.005*"family" + 0.005*"needs" + 0.005*"plans" + 0.005*"high" + 0.005*"risk" + 0.005*"advisers"', '0.018*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"progress" + 0.005*"‘" + 0.004*"practice" + 0.004*"parents" + 0.004*"provide" + 0.004*"Essex"', '0.019*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"progress" + 0.006*"plans" + 0.005*"Essex" + 0.005*"need" + 0.005*"family" + 0.005*"experiences" + 0.005*"helped"']</t>
+    <t>['0.022*"’" + 0.008*"plans" + 0.007*"well" + 0.007*"needs" + 0.006*"progress" + 0.005*"risk" + 0.005*"helped" + 0.005*"Essex" + 0.005*"quality" + 0.005*"‘"', '0.014*"’" + 0.006*"progress" + 0.004*"experiences" + 0.004*"parents" + 0.004*"needs" + 0.004*"understand" + 0.004*"plans" + 0.004*"family" + 0.004*"need" + 0.004*"‘"', '0.015*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"progress" + 0.006*"family" + 0.005*"experiences" + 0.005*"Essex" + 0.005*"supported" + 0.005*"understand" + 0.005*"new"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1288,7 +1288,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"effective" + 0.006*"practice" + 0.006*"good" + 0.005*"well" + 0.005*"quality" + 0.004*"improve" + 0.004*"progress" + 0.004*"needs" + 0.004*"home"', '0.016*"’" + 0.010*"effective" + 0.007*"needs" + 0.007*"quality" + 0.007*"good" + 0.006*"well" + 0.006*"timely" + 0.006*"practice" + 0.006*"early" + 0.005*"need"', '0.010*"’" + 0.008*"effective" + 0.007*"practice" + 0.007*"good" + 0.006*"quality" + 0.005*"timely" + 0.005*"needs" + 0.005*"well" + 0.004*"protection" + 0.004*"team"']</t>
+    <t>['0.011*"’" + 0.006*"effective" + 0.006*"quality" + 0.005*"practice" + 0.004*"good" + 0.004*"improve" + 0.004*"need" + 0.004*"team" + 0.004*"home" + 0.004*"well"', '0.016*"’" + 0.009*"effective" + 0.008*"good" + 0.007*"needs" + 0.007*"timely" + 0.007*"well" + 0.006*"practice" + 0.006*"quality" + 0.005*"improve" + 0.005*"need"', '0.012*"’" + 0.009*"effective" + 0.007*"practice" + 0.006*"quality" + 0.006*"good" + 0.006*"needs" + 0.005*"well" + 0.005*"early" + 0.005*"plans" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>916</t>
@@ -1318,7 +1318,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"needs" + 0.008*"February" + 0.008*"2022" + 0.007*"plans" + 0.006*"well" + 0.005*"appropriate" + 0.005*"need" + 0.005*"experienced" + 0.005*"progress"', '0.013*"’" + 0.008*"needs" + 0.006*"2022" + 0.006*"plans" + 0.006*"Gloucestershire" + 0.006*"February" + 0.005*"leaders" + 0.005*"progress" + 0.004*"experienced" + 0.004*"well"', '0.021*"’" + 0.008*"needs" + 0.006*"plans" + 0.006*"February" + 0.006*"2022" + 0.006*"well" + 0.005*"progress" + 0.005*"good" + 0.005*"18" + 0.005*"timely"']</t>
+    <t>['0.018*"’" + 0.008*"needs" + 0.007*"2022" + 0.007*"Gloucestershire" + 0.006*"plans" + 0.005*"experienced" + 0.005*"protection" + 0.005*"leaders" + 0.005*"well" + 0.005*"February"', '0.018*"’" + 0.008*"February" + 0.008*"needs" + 0.006*"plans" + 0.006*"2022" + 0.006*"well" + 0.005*"family" + 0.004*"need" + 0.004*"timely" + 0.004*"quality"', '0.017*"’" + 0.009*"needs" + 0.007*"February" + 0.007*"plans" + 0.007*"2022" + 0.007*"progress" + 0.006*"well" + 0.005*"timely" + 0.005*"18" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1345,7 +1345,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"risk" + 0.007*"practice" + 0.006*"needs" + 0.006*"need" + 0.005*"planning" + 0.005*"number" + 0.004*"quality"', '0.011*"’" + 0.009*"needs" + 0.009*"well" + 0.008*"plans" + 0.007*"practice" + 0.007*"effective" + 0.007*"good" + 0.006*"always" + 0.006*"need" + 0.006*"planning"', '0.013*"’" + 0.011*"well" + 0.010*"practice" + 0.008*"needs" + 0.007*"need" + 0.007*"risk" + 0.006*"planning" + 0.006*"good" + 0.006*"plans" + 0.005*"always"']</t>
+    <t>['0.010*"well" + 0.010*"’" + 0.008*"needs" + 0.007*"risk" + 0.007*"practice" + 0.006*"plans" + 0.006*"effective" + 0.006*"always" + 0.005*"good" + 0.005*"planning"', '0.016*"’" + 0.011*"well" + 0.010*"practice" + 0.009*"needs" + 0.009*"plans" + 0.007*"need" + 0.007*"good" + 0.006*"risk" + 0.006*"planning" + 0.006*"always"', '0.008*"’" + 0.007*"well" + 0.007*"planning" + 0.006*"need" + 0.006*"needs" + 0.006*"risk" + 0.006*"practice" + 0.006*"effective" + 0.005*"quality" + 0.005*"always"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1372,7 +1372,7 @@
     <t>0.187</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.005*"plans" + 0.005*"well" + 0.004*"strong" + 0.004*"improve" + 0.004*"leaders" + 0.004*"need" + 0.004*"Hampshire" + 0.004*"highly"', '0.019*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"quality" + 0.005*"well" + 0.005*"strong" + 0.004*"leaders" + 0.004*"highly" + 0.004*"home" + 0.004*"progress"', '0.021*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"home" + 0.004*"leaders" + 0.004*"quality" + 0.004*"improve" + 0.004*"health" + 0.004*"oversight"']</t>
+    <t>['0.020*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"highly" + 0.005*"home" + 0.004*"quality" + 0.004*"strong" + 0.004*"need" + 0.004*"leaders"', '0.017*"’" + 0.005*"plans" + 0.005*"well" + 0.005*"needs" + 0.004*"quality" + 0.004*"strong" + 0.004*"home" + 0.003*"leaders" + 0.003*"improve" + 0.003*"Hampshire"', '0.019*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"leaders" + 0.005*"quality" + 0.005*"Hampshire" + 0.004*"strong" + 0.004*"carers" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1405,7 +1405,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"quality" + 0.007*"well" + 0.006*"strong" + 0.005*"good" + 0.004*"plans" + 0.004*"impact" + 0.004*"early" + 0.004*"need" + 0.004*"improve"', '0.019*"’" + 0.009*"well" + 0.006*"quality" + 0.005*"progress" + 0.005*"good" + 0.004*"impact" + 0.004*"agency" + 0.004*"education" + 0.004*"plans" + 0.004*"early"', '0.012*"’" + 0.010*"well" + 0.007*"strong" + 0.005*"quality" + 0.005*"good" + 0.004*"practice" + 0.004*"progress" + 0.004*"plans" + 0.004*"education" + 0.004*"timely"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.007*"quality" + 0.006*"strong" + 0.005*"plans" + 0.005*"good" + 0.004*"‘" + 0.004*"practice" + 0.004*"needs" + 0.004*"health"', '0.016*"’" + 0.009*"well" + 0.007*"quality" + 0.005*"strong" + 0.005*"progress" + 0.005*"early" + 0.005*"good" + 0.004*"plans" + 0.004*"effective" + 0.004*"timely"', '0.015*"’" + 0.008*"well" + 0.005*"quality" + 0.005*"good" + 0.005*"education" + 0.005*"strong" + 0.005*"impact" + 0.004*"timely" + 0.004*"agency" + 0.004*"improve"']</t>
   </si>
   <si>
     <t>884</t>
@@ -1432,7 +1432,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.006*"practice" + 0.006*"lack" + 0.005*"Herefordshire" + 0.004*"needs" + 0.004*"quality" + 0.004*"management" + 0.004*"impact" + 0.004*"plans" + 0.004*"many"', '0.014*"’" + 0.006*"practice" + 0.005*"impact" + 0.004*"Herefordshire" + 0.004*"needs" + 0.004*"18" + 0.004*"oversight" + 0.004*"lack" + 0.004*"many" + 0.004*"progress"', '0.016*"’" + 0.006*"Herefordshire" + 0.005*"many" + 0.005*"needs" + 0.005*"impact" + 0.005*"practice" + 0.004*"plans" + 0.004*"lack" + 0.004*"progress" + 0.004*"29"']</t>
+    <t>['0.016*"’" + 0.006*"Herefordshire" + 0.005*"practice" + 0.005*"plans" + 0.005*"impact" + 0.005*"lack" + 0.005*"18" + 0.005*"agency" + 0.004*"many" + 0.004*"identified"', '0.020*"’" + 0.007*"practice" + 0.005*"Herefordshire" + 0.005*"lack" + 0.005*"needs" + 0.005*"quality" + 0.005*"progress" + 0.004*"July" + 0.004*"2022" + 0.004*"management"', '0.015*"’" + 0.005*"needs" + 0.005*"impact" + 0.005*"many" + 0.005*"lack" + 0.004*"including" + 0.004*"plans" + 0.004*"Herefordshire" + 0.004*"carers" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>919</t>
@@ -1459,7 +1459,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.005*"well" + 0.004*"needs" + 0.004*"Hertfordshire" + 0.004*"23" + 0.004*"know" + 0.004*"leaders" + 0.004*"oversight" + 0.004*"January" + 0.004*"receive"', '0.029*"’" + 0.008*"well" + 0.008*"Hertfordshire" + 0.007*"needs" + 0.005*"receive" + 0.005*"need" + 0.005*"plans" + 0.005*"effective" + 0.005*"positive" + 0.005*"2023"', '0.020*"’" + 0.006*"Hertfordshire" + 0.005*"receive" + 0.005*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"‘" + 0.004*"risk" + 0.004*"27" + 0.004*"2023"']</t>
+    <t>['0.027*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"Hertfordshire" + 0.005*"plans" + 0.005*"receive" + 0.004*"risk" + 0.004*"27" + 0.004*"January" + 0.004*"2023"', '0.022*"’" + 0.007*"Hertfordshire" + 0.007*"needs" + 0.006*"well" + 0.005*"receive" + 0.005*"leaders" + 0.005*"need" + 0.005*"positive" + 0.005*"23" + 0.004*"risk"', '0.018*"’" + 0.006*"well" + 0.006*"Hertfordshire" + 0.005*"needs" + 0.004*"receive" + 0.004*"‘" + 0.004*"need" + 0.004*"plans" + 0.004*"27" + 0.004*"positive"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1489,7 +1489,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"leaders" + 0.006*"good" + 0.006*"3" + 0.006*"practice" + 0.005*"progress" + 0.005*"Isle" + 0.005*"well" + 0.005*"supported" + 0.005*"plans"', '0.019*"’" + 0.008*"leaders" + 0.007*"needs" + 0.007*"well" + 0.005*"Wight" + 0.005*"Senior" + 0.005*"progress" + 0.005*"plans" + 0.005*"PAs" + 0.005*"effective"', '0.015*"’" + 0.009*"leaders" + 0.006*"information" + 0.005*"needs" + 0.005*"Wight" + 0.005*"improve" + 0.005*"PAs" + 0.005*"Isle" + 0.005*"supported" + 0.005*"30"']</t>
+    <t>['0.012*"’" + 0.007*"leaders" + 0.005*"plans" + 0.005*"well" + 0.005*"protection" + 0.005*"supported" + 0.005*"Isle" + 0.005*"Senior" + 0.004*"PAs" + 0.004*"Wight"', '0.012*"’" + 0.006*"leaders" + 0.006*"needs" + 0.005*"progress" + 0.005*"PAs" + 0.005*"Wight" + 0.004*"supported" + 0.004*"good" + 0.004*"protection" + 0.004*"November"', '0.023*"’" + 0.010*"leaders" + 0.007*"well" + 0.006*"needs" + 0.006*"3" + 0.006*"Senior" + 0.006*"30" + 0.005*"Isle" + 0.005*"practice" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1510,7 +1510,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"Kent" + 0.007*"needs" + 0.005*"supported" + 0.005*"Council" + 0.005*"practice" + 0.005*"well" + 0.005*"progress" + 0.005*"County" + 0.004*"leaders"', '0.016*"’" + 0.011*"Kent" + 0.007*"needs" + 0.007*"well" + 0.006*"County" + 0.006*"Council" + 0.006*"supported" + 0.004*"need" + 0.004*"progress" + 0.004*"appropriate"', '0.023*"’" + 0.011*"Kent" + 0.007*"needs" + 0.006*"well" + 0.006*"Council" + 0.005*"supported" + 0.005*"progress" + 0.005*"leaders" + 0.004*"practice" + 0.004*"ensure"']</t>
+    <t>['0.015*"’" + 0.008*"Kent" + 0.005*"needs" + 0.005*"well" + 0.005*"Council" + 0.005*"supported" + 0.004*"County" + 0.004*"practice" + 0.004*"need" + 0.004*"progress"', '0.020*"’" + 0.012*"Kent" + 0.007*"needs" + 0.007*"Council" + 0.007*"well" + 0.006*"supported" + 0.006*"progress" + 0.006*"County" + 0.005*"practice" + 0.005*"leaders"', '0.017*"’" + 0.009*"needs" + 0.009*"Kent" + 0.006*"well" + 0.005*"Council" + 0.005*"supported" + 0.005*"County" + 0.005*"including" + 0.004*"leaders" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1537,7 +1537,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"practice" + 0.007*"number" + 0.006*"protection" + 0.006*"Hull" + 0.006*"planning" + 0.006*"management" + 0.006*"25" + 0.006*"well" + 0.005*"oversight"', '0.012*"’" + 0.006*"number" + 0.006*"planning" + 0.006*"Hull" + 0.005*"practice" + 0.005*"need" + 0.005*"well" + 0.005*"small" + 0.005*"management" + 0.005*"impact"', '0.015*"’" + 0.007*"planning" + 0.007*"number" + 0.006*"well" + 0.006*"protection" + 0.006*"need" + 0.006*"risks" + 0.005*"progress" + 0.005*"small" + 0.005*"practice"']</t>
+    <t>['0.014*"’" + 0.007*"planning" + 0.007*"number" + 0.006*"well" + 0.005*"Hull" + 0.005*"small" + 0.005*"25" + 0.004*"management" + 0.004*"protection" + 0.004*"teams"', '0.017*"’" + 0.008*"number" + 0.007*"protection" + 0.007*"planning" + 0.006*"practice" + 0.006*"need" + 0.006*"well" + 0.006*"Hull" + 0.006*"risks" + 0.006*"management"', '0.015*"’" + 0.006*"practice" + 0.006*"planning" + 0.006*"need" + 0.006*"oversight" + 0.006*"number" + 0.005*"well" + 0.005*"25" + 0.005*"risks" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1567,7 +1567,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.005*"quality" + 0.005*"practice" + 0.005*"protection" + 0.005*"permanence" + 0.004*"good" + 0.004*"needs" + 0.004*"well" + 0.004*"training" + 0.004*"senior"', '0.011*"’" + 0.006*"good" + 0.006*"quality" + 0.006*"practice" + 0.006*"protection" + 0.006*"need" + 0.006*"Senior" + 0.005*"training" + 0.005*"plans" + 0.005*"well"', '0.014*"’" + 0.008*"quality" + 0.007*"practice" + 0.006*"good" + 0.006*"permanence" + 0.006*"well" + 0.006*"plans" + 0.005*"needs" + 0.005*"Senior" + 0.005*"senior"']</t>
+    <t>['0.012*"’" + 0.007*"practice" + 0.006*"good" + 0.006*"quality" + 0.005*"permanence" + 0.005*"well" + 0.005*"training" + 0.005*"protection" + 0.005*"needs" + 0.005*"Senior"', '0.011*"’" + 0.005*"quality" + 0.005*"permanence" + 0.005*"good" + 0.005*"well" + 0.004*"plans" + 0.004*"training" + 0.004*"practice" + 0.004*"result" + 0.004*"needs"', '0.011*"’" + 0.007*"quality" + 0.006*"practice" + 0.006*"good" + 0.006*"plans" + 0.005*"Senior" + 0.005*"protection" + 0.005*"needs" + 0.005*"well" + 0.005*"senior"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1606,7 +1606,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"progress" + 0.007*"needs" + 0.006*"plans" + 0.006*"Knowsley" + 0.006*"quality" + 0.005*"11" + 0.005*"experiences" + 0.004*"2021" + 0.004*"abuse"', '0.013*"’" + 0.008*"progress" + 0.007*"plans" + 0.006*"experiences" + 0.006*"Knowsley" + 0.006*"2021" + 0.006*"needs" + 0.005*"need" + 0.005*"22" + 0.005*"quality"', '0.013*"’" + 0.008*"needs" + 0.008*"quality" + 0.008*"plans" + 0.007*"progress" + 0.007*"2021" + 0.006*"Knowsley" + 0.005*"good" + 0.005*"need" + 0.005*"risk"']</t>
+    <t>['0.017*"’" + 0.010*"progress" + 0.008*"plans" + 0.008*"needs" + 0.007*"Knowsley" + 0.006*"quality" + 0.006*"2021" + 0.005*"good" + 0.005*"experiences" + 0.005*"impact"', '0.013*"’" + 0.007*"progress" + 0.007*"quality" + 0.006*"needs" + 0.006*"plans" + 0.005*"Knowsley" + 0.005*"11" + 0.005*"experiences" + 0.005*"2021" + 0.005*"need"', '0.013*"’" + 0.007*"needs" + 0.007*"plans" + 0.007*"progress" + 0.007*"quality" + 0.006*"Knowsley" + 0.005*"2021" + 0.005*"good" + 0.005*"need" + 0.005*"22"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1636,7 +1636,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"Lancashire" + 0.006*"need" + 0.005*"progress" + 0.004*"good" + 0.004*"practice" + 0.004*"parents" + 0.004*"positive"', '0.015*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"need" + 0.005*"Lancashire" + 0.005*"plans" + 0.005*"practice" + 0.005*"progress" + 0.005*"homes" + 0.004*"health"', '0.019*"’" + 0.011*"well" + 0.009*"need" + 0.007*"needs" + 0.007*"supported" + 0.007*"Lancashire" + 0.006*"plans" + 0.006*"positive" + 0.005*"health" + 0.005*"live"']</t>
+    <t>['0.015*"’" + 0.008*"needs" + 0.007*"Lancashire" + 0.006*"well" + 0.006*"need" + 0.005*"practice" + 0.005*"positive" + 0.005*"health" + 0.005*"supported" + 0.005*"28"', '0.019*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"need" + 0.006*"Lancashire" + 0.005*"practice" + 0.005*"supported" + 0.005*"health" + 0.005*"progress" + 0.005*"homes"', '0.015*"’" + 0.009*"well" + 0.008*"need" + 0.006*"needs" + 0.006*"plans" + 0.006*"parents" + 0.005*"supported" + 0.005*"positive" + 0.005*"live" + 0.005*"Lancashire"']</t>
   </si>
   <si>
     <t>383</t>
@@ -1660,7 +1660,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"Leeds" + 0.007*"well" + 0.005*"risk" + 0.005*"practice" + 0.005*"needs" + 0.004*"making" + 0.004*"plans" + 0.004*"February" + 0.004*"strong"', '0.018*"’" + 0.008*"Leeds" + 0.008*"needs" + 0.005*"21" + 0.005*"risk" + 0.005*"ensure" + 0.004*"protection" + 0.004*"2022" + 0.004*"supported" + 0.004*"well"', '0.016*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"Leeds" + 0.005*"4" + 0.005*"risk" + 0.005*"protection" + 0.005*"practice" + 0.004*"plans" + 0.004*"benefit"']</t>
+    <t>['0.014*"’" + 0.006*"Leeds" + 0.006*"risk" + 0.006*"needs" + 0.005*"well" + 0.004*"4" + 0.004*"plans" + 0.004*"practice" + 0.004*"timely" + 0.004*"benefit"', '0.017*"’" + 0.009*"needs" + 0.009*"Leeds" + 0.007*"well" + 0.006*"practice" + 0.005*"risk" + 0.005*"protection" + 0.005*"plans" + 0.005*"including" + 0.004*"2022"', '0.017*"’" + 0.006*"Leeds" + 0.005*"needs" + 0.005*"ensure" + 0.005*"risk" + 0.004*"well" + 0.004*"4" + 0.004*"21" + 0.004*"protection" + 0.004*"making"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1693,7 +1693,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.009*"2021" + 0.009*"well" + 0.007*"good" + 0.006*"needs" + 0.006*"Leicester" + 0.006*"ensure" + 0.005*"number" + 0.005*"including" + 0.005*"Council"', '0.016*"’" + 0.010*"Leicester" + 0.009*"well" + 0.008*"2021" + 0.007*"needs" + 0.006*"1" + 0.006*"ensure" + 0.006*"good" + 0.005*"number" + 0.005*"20"', '0.018*"’" + 0.009*"well" + 0.008*"2021" + 0.007*"Leicester" + 0.006*"needs" + 0.006*"number" + 0.006*"20" + 0.005*"ensure" + 0.005*"September" + 0.005*"good"']</t>
+    <t>['0.024*"’" + 0.011*"2021" + 0.009*"well" + 0.007*"ensure" + 0.007*"Leicester" + 0.007*"needs" + 0.006*"good" + 0.006*"20" + 0.006*"number" + 0.005*"including"', '0.019*"’" + 0.010*"well" + 0.008*"Leicester" + 0.007*"needs" + 0.007*"good" + 0.007*"2021" + 0.005*"1" + 0.005*"number" + 0.005*"ensure" + 0.004*"consideration"', '0.013*"’" + 0.008*"Leicester" + 0.006*"well" + 0.006*"needs" + 0.006*"2021" + 0.004*"good" + 0.004*"including" + 0.004*"ensure" + 0.004*"1" + 0.004*"number"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1726,7 +1726,7 @@
     <t>0.1666</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.007*"good" + 0.007*"effective" + 0.007*"needs" + 0.006*"quality" + 0.006*"practice" + 0.005*"education" + 0.004*"need" + 0.004*"protection"', '0.009*"’" + 0.008*"needs" + 0.006*"good" + 0.006*"effective" + 0.006*"well" + 0.005*"impact" + 0.005*"quality" + 0.004*"practice" + 0.004*"need" + 0.004*"leaders"', '0.010*"’" + 0.009*"well" + 0.008*"good" + 0.007*"quality" + 0.006*"effective" + 0.005*"practice" + 0.005*"impact" + 0.005*"needs" + 0.005*"education" + 0.005*"risk"']</t>
+    <t>['0.010*"’" + 0.005*"good" + 0.005*"effective" + 0.005*"quality" + 0.005*"well" + 0.005*"needs" + 0.004*"impact" + 0.004*"practice" + 0.004*"leaders" + 0.004*"need"', '0.012*"’" + 0.009*"good" + 0.008*"well" + 0.007*"effective" + 0.007*"needs" + 0.006*"practice" + 0.005*"quality" + 0.005*"need" + 0.005*"impact" + 0.005*"risk"', '0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"quality" + 0.007*"effective" + 0.006*"education" + 0.006*"practice" + 0.005*"impact" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1756,7 +1756,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.009*"Lincolnshire" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"progress" + 0.005*"family" + 0.004*"number" + 0.004*"education" + 0.004*"24"', '0.014*"’" + 0.006*"needs" + 0.006*"Lincolnshire" + 0.004*"24" + 0.004*"well" + 0.004*"plans" + 0.004*"progress" + 0.004*"family" + 0.004*"28" + 0.003*"working"', '0.022*"’" + 0.007*"Lincolnshire" + 0.007*"needs" + 0.005*"well" + 0.004*"need" + 0.004*"24" + 0.004*"progress" + 0.004*"effective" + 0.004*"April" + 0.004*"family"']</t>
+    <t>['0.025*"’" + 0.008*"needs" + 0.007*"Lincolnshire" + 0.005*"well" + 0.005*"family" + 0.005*"plans" + 0.004*"28" + 0.004*"effective" + 0.004*"education" + 0.004*"progress"', '0.018*"’" + 0.008*"Lincolnshire" + 0.005*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"progress" + 0.004*"24" + 0.004*"number" + 0.004*"2023" + 0.003*"need"', '0.021*"’" + 0.007*"Lincolnshire" + 0.006*"needs" + 0.006*"well" + 0.005*"progress" + 0.005*"24" + 0.004*"plans" + 0.004*"family" + 0.004*"need" + 0.004*"working"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1786,7 +1786,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"need" + 0.007*"needs" + 0.006*"always" + 0.005*"quality" + 0.005*"practice" + 0.005*"Liverpool" + 0.005*"protection" + 0.004*"timely" + 0.004*"plans"', '0.024*"’" + 0.008*"needs" + 0.007*"always" + 0.007*"practice" + 0.006*"need" + 0.006*"quality" + 0.006*"Liverpool" + 0.005*"13" + 0.005*"harm" + 0.005*"24"', '0.012*"’" + 0.007*"practice" + 0.006*"Liverpool" + 0.005*"protection" + 0.005*"always" + 0.005*"needs" + 0.005*"need" + 0.005*"quality" + 0.004*"PAs" + 0.004*"response"']</t>
+    <t>['0.018*"’" + 0.008*"needs" + 0.007*"need" + 0.007*"practice" + 0.007*"Liverpool" + 0.006*"always" + 0.005*"quality" + 0.005*"PAs" + 0.005*"13" + 0.005*"protection"', '0.022*"’" + 0.007*"always" + 0.006*"Liverpool" + 0.006*"quality" + 0.005*"need" + 0.005*"protection" + 0.005*"needs" + 0.005*"met" + 0.005*"practice" + 0.004*"24"', '0.018*"’" + 0.008*"needs" + 0.007*"practice" + 0.006*"always" + 0.006*"need" + 0.005*"quality" + 0.005*"harm" + 0.005*"met" + 0.004*"Liverpool" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -1819,7 +1819,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.007*"needs" + 0.007*"good" + 0.005*"well" + 0.005*"plans" + 0.005*"planning" + 0.004*"information" + 0.004*"carers" + 0.004*"practice" + 0.004*"ensure"', '0.027*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"carers" + 0.005*"good" + 0.005*"practice" + 0.005*"London" + 0.005*"progress" + 0.005*"information" + 0.005*"well"', '0.015*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"good" + 0.004*"practice" + 0.004*"carers" + 0.004*"progress" + 0.004*"Borough" + 0.004*"21"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.005*"information" + 0.005*"good" + 0.005*"carers" + 0.004*"well" + 0.004*"Dagenham" + 0.004*"Barking" + 0.004*"leaders" + 0.004*"10"', '0.017*"’" + 0.009*"needs" + 0.006*"plans" + 0.005*"well" + 0.005*"carers" + 0.005*"practice" + 0.004*"good" + 0.004*"e" + 0.004*"information" + 0.004*"impact"', '0.028*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"good" + 0.006*"progress" + 0.005*"practice" + 0.005*"well" + 0.005*"carers" + 0.005*"ensure" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -1855,7 +1855,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.012*"needs" + 0.011*"good" + 0.009*"well" + 0.008*"need" + 0.007*"progress" + 0.006*"plans" + 0.006*"clear" + 0.006*"ensure" + 0.006*"carers"', '0.009*"well" + 0.009*"’" + 0.008*"good" + 0.007*"needs" + 0.006*"progress" + 0.006*"ensure" + 0.006*"need" + 0.005*"plans" + 0.005*"timely" + 0.005*"effective"', '0.009*"need" + 0.008*"’" + 0.007*"well" + 0.007*"good" + 0.006*"needs" + 0.005*"progress" + 0.005*"plans" + 0.005*"clear" + 0.004*"ensure" + 0.004*"risk"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.009*"well" + 0.009*"good" + 0.008*"need" + 0.007*"plans" + 0.007*"clear" + 0.006*"progress" + 0.006*"ensure" + 0.006*"risk"', '0.013*"’" + 0.010*"good" + 0.009*"needs" + 0.009*"well" + 0.007*"need" + 0.007*"progress" + 0.005*"ensure" + 0.005*"plans" + 0.005*"clear" + 0.005*"timely"', '0.012*"’" + 0.009*"needs" + 0.008*"good" + 0.007*"well" + 0.007*"need" + 0.005*"ensure" + 0.005*"progress" + 0.005*"quality" + 0.005*"plans" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>303</t>
@@ -1873,7 +1873,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Bexley" + 0.006*"effective" + 0.005*"need" + 0.004*"10" + 0.004*"including" + 0.004*"6" + 0.004*"February"', '0.013*"’" + 0.006*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"need" + 0.004*"clear" + 0.004*"Bexley" + 0.004*"practice" + 0.004*"2023" + 0.004*"10"', '0.021*"’" + 0.006*"well" + 0.006*"effective" + 0.006*"needs" + 0.006*"need" + 0.005*"plans" + 0.005*"Bexley" + 0.005*"6" + 0.005*"practice" + 0.005*"progress"']</t>
+    <t>['0.023*"’" + 0.006*"needs" + 0.006*"need" + 0.006*"well" + 0.005*"effective" + 0.005*"plans" + 0.005*"6" + 0.004*"2023" + 0.004*"progress" + 0.004*"make"', '0.011*"’" + 0.006*"well" + 0.006*"effective" + 0.006*"plans" + 0.006*"Bexley" + 0.005*"needs" + 0.005*"need" + 0.004*"practice" + 0.004*"10" + 0.003*"ensure"', '0.022*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"Bexley" + 0.005*"10" + 0.005*"need" + 0.005*"effective" + 0.005*"including" + 0.005*"plans" + 0.005*"make"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -1900,7 +1900,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.007*"progress" + 0.006*"good" + 0.006*"leaders" + 0.006*"Brent" + 0.006*"senior" + 0.005*"practice" + 0.005*"However" + 0.005*"timely"', '0.017*"’" + 0.009*"well" + 0.007*"leaders" + 0.007*"number" + 0.005*"plans" + 0.005*"quality" + 0.005*"progress" + 0.005*"information" + 0.005*"good" + 0.004*"small"', '0.020*"’" + 0.009*"well" + 0.009*"plans" + 0.008*"leaders" + 0.006*"progress" + 0.006*"quality" + 0.006*"Brent" + 0.006*"good" + 0.006*"senior" + 0.005*"practice"']</t>
+    <t>['0.015*"’" + 0.008*"well" + 0.006*"plans" + 0.005*"good" + 0.005*"Brent" + 0.005*"protection" + 0.005*"number" + 0.004*"However" + 0.004*"progress" + 0.004*"information"', '0.013*"’" + 0.007*"leaders" + 0.007*"well" + 0.007*"plans" + 0.006*"progress" + 0.005*"quality" + 0.005*"number" + 0.005*"practice" + 0.005*"However" + 0.004*"senior"', '0.021*"’" + 0.009*"well" + 0.008*"leaders" + 0.007*"progress" + 0.007*"plans" + 0.007*"good" + 0.006*"quality" + 0.006*"senior" + 0.006*"Brent" + 0.006*"number"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -1933,7 +1933,7 @@
     <t>0.2143</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"health" + 0.006*"plans" + 0.005*"need" + 0.005*"good" + 0.005*"education" + 0.004*"range" + 0.004*"timely"', '0.013*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"need" + 0.005*"range" + 0.004*"health" + 0.004*"receive" + 0.004*"good" + 0.004*"improve" + 0.004*"planning"', '0.016*"’" + 0.007*"needs" + 0.007*"well" + 0.005*"need" + 0.005*"plans" + 0.005*"education" + 0.004*"access" + 0.004*"planning" + 0.004*"good" + 0.004*"Bromley"']</t>
+    <t>['0.011*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"range" + 0.004*"health" + 0.004*"progress" + 0.004*"timely" + 0.004*"need" + 0.004*"‘"', '0.018*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"need" + 0.006*"good" + 0.005*"health" + 0.005*"plans" + 0.004*"access" + 0.004*"planning" + 0.004*"Bromley"', '0.013*"’" + 0.008*"needs" + 0.007*"well" + 0.005*"education" + 0.005*"need" + 0.005*"plans" + 0.005*"health" + 0.004*"range" + 0.004*"effective" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -1963,7 +1963,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"Camden" + 0.006*"leaders" + 0.005*"practice" + 0.005*"needs" + 0.004*"well" + 0.004*"25" + 0.004*"response" + 0.004*"29" + 0.004*"health"', '0.010*"’" + 0.008*"Camden" + 0.007*"practice" + 0.007*"well" + 0.005*"leaders" + 0.005*"response" + 0.005*"29" + 0.005*"appropriate" + 0.004*"needs" + 0.004*"protection"', '0.011*"’" + 0.008*"leaders" + 0.007*"protection" + 0.006*"Camden" + 0.005*"practice" + 0.005*"needs" + 0.004*"well" + 0.004*"25" + 0.004*"response" + 0.004*"meetings"']</t>
+    <t>['0.012*"’" + 0.007*"Camden" + 0.007*"leaders" + 0.006*"practice" + 0.006*"protection" + 0.006*"well" + 0.005*"response" + 0.004*"appropriate" + 0.004*"29" + 0.004*"needs"', '0.010*"’" + 0.008*"Camden" + 0.006*"needs" + 0.006*"practice" + 0.005*"leaders" + 0.005*"well" + 0.004*"25" + 0.004*"response" + 0.004*"meetings" + 0.004*"appropriate"', '0.009*"’" + 0.007*"leaders" + 0.006*"Camden" + 0.005*"practice" + 0.005*"well" + 0.004*"response" + 0.004*"needs" + 0.004*"protection" + 0.004*"29" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -1990,7 +1990,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"needs" + 0.007*"quality" + 0.006*"Croydon" + 0.005*"well" + 0.005*"Senior" + 0.005*"However" + 0.005*"health" + 0.005*"ensure" + 0.005*"good"', '0.010*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"need" + 0.006*"Croydon" + 0.006*"ensure" + 0.005*"plans" + 0.005*"Senior" + 0.005*"effective" + 0.005*"quality"', '0.013*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"good" + 0.005*"Senior" + 0.005*"need" + 0.005*"health" + 0.005*"Croydon" + 0.005*"improved" + 0.005*"education"']</t>
+    <t>['0.014*"’" + 0.007*"needs" + 0.007*"quality" + 0.006*"well" + 0.006*"Senior" + 0.006*"ensure" + 0.005*"arrangements" + 0.005*"Croydon" + 0.005*"need" + 0.005*"education"', '0.012*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"need" + 0.006*"health" + 0.006*"Croydon" + 0.006*"plans" + 0.005*"good" + 0.005*"Senior" + 0.005*"effective"', '0.009*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"Croydon" + 0.005*"good" + 0.005*"need" + 0.005*"ensure" + 0.005*"quality" + 0.005*"Senior" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2023,7 +2023,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.011*"quality" + 0.011*"’" + 0.007*"needs" + 0.006*"good" + 0.006*"progress" + 0.006*"plans" + 0.005*"risk" + 0.005*"experiences" + 0.004*"Ealing" + 0.004*"well"', '0.010*"’" + 0.009*"quality" + 0.007*"needs" + 0.006*"good" + 0.004*"progress" + 0.004*"well" + 0.004*"plans" + 0.004*"oversight" + 0.004*"fully" + 0.004*"leaders"', '0.011*"’" + 0.008*"quality" + 0.007*"needs" + 0.006*"good" + 0.005*"risk" + 0.005*"plans" + 0.005*"management" + 0.005*"progress" + 0.004*"always" + 0.004*"experiences"']</t>
+    <t>['0.010*"’" + 0.009*"quality" + 0.006*"needs" + 0.006*"good" + 0.006*"plans" + 0.005*"risk" + 0.005*"appropriately" + 0.004*"family" + 0.004*"progress" + 0.004*"oversight"', '0.012*"’" + 0.009*"quality" + 0.007*"good" + 0.007*"needs" + 0.005*"plans" + 0.005*"progress" + 0.004*"well" + 0.004*"risk" + 0.004*"experiences" + 0.004*"management"', '0.011*"’" + 0.010*"quality" + 0.007*"needs" + 0.006*"good" + 0.006*"progress" + 0.005*"experiences" + 0.005*"well" + 0.005*"risk" + 0.004*"fully" + 0.004*"management"']</t>
   </si>
   <si>
     <t>308</t>
@@ -2050,7 +2050,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.009*"needs" + 0.008*"good" + 0.007*"effective" + 0.007*"quality" + 0.007*"Enfield" + 0.006*"practice" + 0.006*"ensure" + 0.005*"appropriate" + 0.005*"leaders"', '0.012*"’" + 0.009*"ensure" + 0.009*"practice" + 0.008*"needs" + 0.007*"Enfield" + 0.007*"good" + 0.006*"effective" + 0.006*"clear" + 0.006*"leaders" + 0.006*"progress"', '0.019*"’" + 0.009*"needs" + 0.008*"clear" + 0.007*"practice" + 0.007*"ensure" + 0.007*"good" + 0.006*"effective" + 0.006*"timely" + 0.006*"well" + 0.005*"quality"']</t>
+    <t>['0.015*"’" + 0.008*"good" + 0.008*"practice" + 0.007*"ensure" + 0.007*"needs" + 0.006*"leaders" + 0.006*"quality" + 0.006*"Enfield" + 0.006*"timely" + 0.006*"clear"', '0.014*"’" + 0.012*"needs" + 0.009*"ensure" + 0.008*"practice" + 0.008*"good" + 0.008*"effective" + 0.007*"need" + 0.007*"clear" + 0.006*"Enfield" + 0.006*"quality"', '0.010*"’" + 0.006*"clear" + 0.006*"Enfield" + 0.005*"ensure" + 0.005*"practice" + 0.005*"effective" + 0.005*"leaders" + 0.004*"progress" + 0.004*"needs" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2080,7 +2080,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.007*"plans" + 0.007*"needs" + 0.006*"good" + 0.005*"ensure" + 0.005*"need" + 0.005*"range" + 0.005*"progress" + 0.005*"risks"', '0.008*"well" + 0.008*"’" + 0.007*"needs" + 0.007*"plans" + 0.006*"good" + 0.005*"quality" + 0.005*"need" + 0.004*"ensure" + 0.004*"information" + 0.004*"range"', '0.014*"’" + 0.011*"well" + 0.011*"good" + 0.008*"needs" + 0.008*"plans" + 0.007*"need" + 0.007*"range" + 0.006*"progress" + 0.005*"timely" + 0.005*"risk"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"good" + 0.006*"plans" + 0.005*"range" + 0.005*"ensure" + 0.004*"quality" + 0.004*"effective" + 0.004*"risk"', '0.011*"well" + 0.010*"’" + 0.008*"good" + 0.006*"needs" + 0.006*"plans" + 0.005*"range" + 0.005*"risk" + 0.005*"progress" + 0.005*"consistently" + 0.005*"risks"', '0.012*"’" + 0.009*"plans" + 0.009*"needs" + 0.009*"need" + 0.008*"good" + 0.008*"well" + 0.006*"range" + 0.006*"ensure" + 0.006*"progress" + 0.005*"risks"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2116,7 +2116,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"practice" + 0.007*"planning" + 0.006*"within" + 0.006*"small" + 0.006*"effective" + 0.005*"needs" + 0.005*"plans" + 0.005*"However" + 0.005*"number"', '0.013*"’" + 0.009*"practice" + 0.006*"number" + 0.006*"needs" + 0.006*"plans" + 0.006*"effective" + 0.006*"leaders" + 0.005*"planning" + 0.005*"progress" + 0.005*"within"', '0.016*"’" + 0.013*"practice" + 0.007*"number" + 0.006*"carers" + 0.005*"including" + 0.005*"quality" + 0.005*"need" + 0.005*"planning" + 0.005*"effective" + 0.005*"leaders"']</t>
+    <t>['0.010*"’" + 0.007*"practice" + 0.007*"plans" + 0.007*"planning" + 0.006*"number" + 0.006*"making" + 0.006*"effective" + 0.006*"small" + 0.005*"needs" + 0.005*"including"', '0.017*"’" + 0.013*"practice" + 0.007*"effective" + 0.006*"number" + 0.006*"quality" + 0.005*"leaders" + 0.005*"planning" + 0.005*"within" + 0.005*"However" + 0.005*"range"', '0.012*"’" + 0.008*"practice" + 0.007*"needs" + 0.006*"number" + 0.006*"within" + 0.006*"planning" + 0.006*"quality" + 0.005*"including" + 0.005*"However" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2146,7 +2146,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"effective" + 0.006*"good" + 0.006*"arrangements" + 0.005*"needs" + 0.005*"well" + 0.004*"appropriate" + 0.004*"shared" + 0.004*"education" + 0.004*"However"', '0.012*"’" + 0.010*"needs" + 0.009*"effective" + 0.008*"well" + 0.007*"good" + 0.006*"appropriate" + 0.006*"leaders" + 0.005*"ensure" + 0.005*"improve" + 0.005*"timely"', '0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"effective" + 0.007*"appropriate" + 0.006*"ensure" + 0.006*"risk" + 0.005*"health" + 0.005*"arrangements" + 0.005*"plans"']</t>
+    <t>['0.015*"’" + 0.009*"needs" + 0.009*"effective" + 0.008*"well" + 0.007*"ensure" + 0.006*"arrangements" + 0.006*"appropriate" + 0.005*"good" + 0.005*"timely" + 0.005*"leaders"', '0.011*"’" + 0.007*"good" + 0.007*"well" + 0.006*"appropriate" + 0.006*"effective" + 0.006*"needs" + 0.006*"education" + 0.005*"leaders" + 0.005*"risk" + 0.005*"arrangements"', '0.009*"’" + 0.009*"needs" + 0.008*"effective" + 0.007*"well" + 0.006*"appropriate" + 0.005*"good" + 0.005*"ensure" + 0.005*"arrangements" + 0.005*"quality" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2173,7 +2173,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"Haringey" + 0.006*"plans" + 0.005*"needs" + 0.005*"well" + 0.004*"impact" + 0.004*"good" + 0.004*"risk" + 0.004*"practice" + 0.004*"education"', '0.018*"’" + 0.009*"needs" + 0.009*"Haringey" + 0.007*"plans" + 0.006*"good" + 0.006*"need" + 0.005*"well" + 0.005*"progress" + 0.005*"risk" + 0.005*"leaders"', '0.015*"’" + 0.007*"well" + 0.007*"Haringey" + 0.007*"needs" + 0.006*"plans" + 0.006*"progress" + 0.005*"good" + 0.005*"need" + 0.004*"education" + 0.004*"training"']</t>
+    <t>['0.017*"’" + 0.010*"needs" + 0.007*"Haringey" + 0.006*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"impact" + 0.004*"progress" + 0.004*"need" + 0.004*"24"', '0.017*"’" + 0.009*"Haringey" + 0.008*"plans" + 0.006*"needs" + 0.006*"good" + 0.006*"well" + 0.005*"need" + 0.005*"progress" + 0.005*"education" + 0.005*"supported"', '0.011*"’" + 0.009*"Haringey" + 0.005*"plans" + 0.005*"needs" + 0.005*"need" + 0.005*"well" + 0.004*"progress" + 0.004*"good" + 0.004*"supported" + 0.004*"education"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2203,7 +2203,7 @@
     <t>0.2023</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"good" + 0.007*"well" + 0.007*"needs" + 0.005*"protection" + 0.005*"impact" + 0.005*"experiences" + 0.004*"school" + 0.004*"practice" + 0.004*"early"', '0.014*"good" + 0.013*"’" + 0.010*"well" + 0.009*"needs" + 0.006*"plans" + 0.006*"practice" + 0.005*"experiences" + 0.005*"impact" + 0.005*"protection" + 0.005*"team"', '0.010*"’" + 0.008*"good" + 0.007*"need" + 0.007*"needs" + 0.006*"well" + 0.006*"impact" + 0.005*"protection" + 0.005*"plans" + 0.005*"early" + 0.004*"Harrow"']</t>
+    <t>['0.014*"good" + 0.014*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"impact" + 0.005*"practice" + 0.005*"early" + 0.005*"experiences" + 0.005*"need" + 0.005*"protection"', '0.010*"well" + 0.010*"’" + 0.008*"good" + 0.007*"needs" + 0.005*"impact" + 0.005*"plans" + 0.005*"school" + 0.005*"need" + 0.005*"practice" + 0.004*"protection"', '0.011*"’" + 0.008*"good" + 0.008*"needs" + 0.008*"well" + 0.007*"plans" + 0.005*"protection" + 0.005*"need" + 0.005*"impact" + 0.005*"experiences" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2233,7 +2233,7 @@
     <t>0.2113</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"needs" + 0.008*"good" + 0.007*"quality" + 0.007*"well" + 0.006*"need" + 0.006*"meetings" + 0.006*"consistently" + 0.006*"practice" + 0.006*"plans"', '0.013*"’" + 0.008*"need" + 0.008*"good" + 0.008*"plans" + 0.008*"quality" + 0.007*"needs" + 0.006*"well" + 0.006*"practice" + 0.006*"meetings" + 0.005*"consistently"', '0.008*"’" + 0.007*"good" + 0.006*"need" + 0.006*"needs" + 0.006*"quality" + 0.005*"well" + 0.005*"ensure" + 0.004*"meetings" + 0.004*"clear" + 0.004*"appropriate"']</t>
+    <t>['0.011*"’" + 0.009*"needs" + 0.008*"good" + 0.006*"quality" + 0.006*"plans" + 0.006*"meetings" + 0.005*"need" + 0.005*"progress" + 0.005*"well" + 0.005*"appropriate"', '0.010*"’" + 0.009*"need" + 0.008*"quality" + 0.008*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"meetings" + 0.006*"good" + 0.005*"consistently" + 0.005*"practice"', '0.011*"’" + 0.008*"good" + 0.007*"quality" + 0.006*"well" + 0.006*"practice" + 0.006*"need" + 0.006*"needs" + 0.005*"plans" + 0.005*"consistently" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>312</t>
@@ -2266,7 +2266,7 @@
     <t>0.1861</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"needs" + 0.009*"plans" + 0.008*"well" + 0.008*"Hillingdon" + 0.005*"team" + 0.005*"6" + 0.004*"need" + 0.004*"2" + 0.004*"leaders"', '0.016*"’" + 0.009*"needs" + 0.008*"Hillingdon" + 0.008*"plans" + 0.007*"well" + 0.005*"2" + 0.004*"2023" + 0.004*"need" + 0.004*"6" + 0.004*"team"', '0.017*"’" + 0.008*"needs" + 0.006*"Hillingdon" + 0.006*"plans" + 0.006*"well" + 0.005*"need" + 0.004*"team" + 0.004*"leaders" + 0.004*"family" + 0.004*"experiences"']</t>
+    <t>['0.022*"’" + 0.009*"Hillingdon" + 0.009*"needs" + 0.007*"plans" + 0.007*"well" + 0.005*"6" + 0.005*"leaders" + 0.004*"team" + 0.004*"need" + 0.004*"experiences"', '0.018*"’" + 0.010*"needs" + 0.009*"plans" + 0.008*"well" + 0.008*"Hillingdon" + 0.005*"need" + 0.005*"team" + 0.005*"2" + 0.005*"October" + 0.004*"family"', '0.011*"’" + 0.010*"needs" + 0.008*"well" + 0.006*"plans" + 0.005*"Hillingdon" + 0.005*"team" + 0.004*"PAs" + 0.004*"2" + 0.004*"family" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2296,7 +2296,7 @@
     <t>0.1948</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.012*"needs" + 0.008*"well" + 0.007*"effective" + 0.007*"Hounslow" + 0.005*"timely" + 0.005*"progress" + 0.005*"plans" + 0.005*"oversight" + 0.005*"strong"', '0.016*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"effective" + 0.007*"timely" + 0.007*"Hounslow" + 0.006*"plans" + 0.004*"16" + 0.004*"education" + 0.004*"October"', '0.018*"’" + 0.013*"well" + 0.009*"needs" + 0.007*"Hounslow" + 0.007*"effective" + 0.006*"timely" + 0.005*"plans" + 0.005*"training" + 0.004*"senior" + 0.004*"experiences"']</t>
+    <t>['0.020*"’" + 0.010*"needs" + 0.010*"well" + 0.007*"effective" + 0.007*"Hounslow" + 0.006*"plans" + 0.005*"timely" + 0.005*"oversight" + 0.005*"training" + 0.005*"progress"', '0.021*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"effective" + 0.005*"Hounslow" + 0.005*"16" + 0.005*"progress" + 0.005*"plans" + 0.004*"experiences" + 0.004*"timely"', '0.019*"’" + 0.011*"needs" + 0.010*"well" + 0.009*"Hounslow" + 0.008*"timely" + 0.007*"effective" + 0.005*"plans" + 0.005*"strong" + 0.004*"oversight" + 0.004*"16"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2326,7 +2326,7 @@
     <t>0.1842</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"needs" + 0.008*"well" + 0.006*"highly" + 0.006*"good" + 0.005*"plans" + 0.005*"leaders" + 0.005*"Islington" + 0.005*"quality" + 0.004*"practice"', '0.014*"’" + 0.013*"needs" + 0.013*"well" + 0.008*"plans" + 0.007*"effective" + 0.006*"good" + 0.006*"quality" + 0.005*"risk" + 0.005*"highly" + 0.005*"leaders"', '0.010*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"highly" + 0.006*"plans" + 0.005*"good" + 0.005*"leaders" + 0.005*"Islington" + 0.005*"quality" + 0.005*"need"']</t>
+    <t>['0.013*"well" + 0.011*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"good" + 0.006*"effective" + 0.005*"practice" + 0.005*"quality" + 0.005*"leaders" + 0.005*"highly"', '0.012*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"highly" + 0.005*"plans" + 0.005*"good" + 0.005*"leaders" + 0.005*"effective" + 0.004*"Islington" + 0.004*"need"', '0.014*"’" + 0.014*"needs" + 0.011*"well" + 0.007*"plans" + 0.007*"quality" + 0.006*"highly" + 0.006*"good" + 0.005*"Islington" + 0.005*"risk" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2359,7 +2359,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.009*"plans" + 0.008*"well" + 0.007*"progress" + 0.007*"good" + 0.007*"Lambeth" + 0.006*"arrangements" + 0.006*"impact" + 0.005*"leaders"', '0.014*"’" + 0.008*"well" + 0.007*"good" + 0.006*"needs" + 0.005*"need" + 0.005*"plans" + 0.005*"Lambeth" + 0.004*"impact" + 0.004*"leaders" + 0.004*"progress"', '0.012*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"Lambeth" + 0.006*"plans" + 0.006*"good" + 0.006*"need" + 0.005*"impact" + 0.005*"2022" + 0.005*"4"']</t>
+    <t>['0.014*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"plans" + 0.007*"good" + 0.006*"need" + 0.006*"Lambeth" + 0.005*"2022" + 0.005*"progress" + 0.004*"impact"', '0.016*"’" + 0.010*"needs" + 0.009*"well" + 0.009*"plans" + 0.008*"good" + 0.008*"Lambeth" + 0.007*"progress" + 0.006*"leaders" + 0.006*"impact" + 0.006*"4"', '0.014*"’" + 0.009*"well" + 0.007*"needs" + 0.005*"plans" + 0.005*"need" + 0.005*"impact" + 0.005*"number" + 0.005*"progress" + 0.004*"good" + 0.004*"Lambeth"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2386,7 +2386,7 @@
     <t>0.1538</t>
   </si>
   <si>
-    <t>['0.006*"’" + 0.004*"changes" + 0.004*"However" + 0.004*"well" + 0.004*"appropriate" + 0.004*"impact" + 0.004*"timely" + 0.004*"quality" + 0.003*"progress" + 0.003*"needs"', '0.013*"’" + 0.008*"well" + 0.008*"However" + 0.007*"quality" + 0.007*"timely" + 0.005*"appropriate" + 0.005*"needs" + 0.005*"impact" + 0.005*"plans" + 0.004*"progress"', '0.005*"impact" + 0.005*"appropriate" + 0.005*"quality" + 0.005*"’" + 0.005*"well" + 0.004*"timely" + 0.004*"needs" + 0.004*"cases" + 0.004*"clear" + 0.003*"progress"']</t>
+    <t>['0.007*"’" + 0.006*"quality" + 0.006*"timely" + 0.006*"well" + 0.005*"appropriate" + 0.004*"However" + 0.004*"information" + 0.004*"progress" + 0.004*"impact" + 0.004*"practice"', '0.011*"’" + 0.008*"well" + 0.008*"However" + 0.006*"quality" + 0.005*"impact" + 0.005*"appropriate" + 0.005*"timely" + 0.005*"needs" + 0.005*"plans" + 0.005*"progress"', '0.009*"’" + 0.005*"quality" + 0.005*"However" + 0.005*"timely" + 0.004*"early" + 0.004*"impact" + 0.004*"needs" + 0.004*"clear" + 0.004*"well" + 0.004*"appropriate"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2407,7 +2407,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"Merton" + 0.005*"progress" + 0.005*"early" + 0.004*"ensure" + 0.004*"family" + 0.004*"good" + 0.004*"across"', '0.016*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"Merton" + 0.004*"plans" + 0.004*"family" + 0.004*"risk" + 0.004*"access" + 0.004*"quality" + 0.004*"2022"', '0.016*"’" + 0.008*"well" + 0.007*"Merton" + 0.005*"plans" + 0.005*"needs" + 0.005*"Leaders" + 0.004*"4" + 0.004*"information" + 0.004*"family" + 0.004*"helping"']</t>
+    <t>['0.015*"’" + 0.008*"well" + 0.006*"Merton" + 0.005*"leaders" + 0.005*"needs" + 0.005*"family" + 0.005*"4" + 0.005*"progress" + 0.004*"across" + 0.004*"plans"', '0.013*"’" + 0.007*"well" + 0.005*"Merton" + 0.005*"needs" + 0.005*"plans" + 0.004*"access" + 0.004*"ensure" + 0.004*"family" + 0.004*"good" + 0.004*"early"', '0.018*"’" + 0.009*"well" + 0.007*"Merton" + 0.007*"needs" + 0.005*"plans" + 0.005*"education" + 0.004*"helping" + 0.004*"progress" + 0.004*"health" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2425,7 +2425,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"Newham" + 0.006*"progress" + 0.005*"needs" + 0.004*"practice" + 0.004*"effective" + 0.004*"need" + 0.004*"plans" + 0.004*"good" + 0.004*"18"', '0.025*"’" + 0.008*"needs" + 0.007*"effective" + 0.007*"Newham" + 0.007*"plans" + 0.006*"need" + 0.006*"good" + 0.006*"progress" + 0.005*"practice" + 0.005*"risks"', '0.017*"’" + 0.010*"needs" + 0.008*"practice" + 0.007*"Newham" + 0.006*"plans" + 0.006*"progress" + 0.006*"need" + 0.005*"effective" + 0.005*"Leaders" + 0.005*"2022"']</t>
+    <t>['0.026*"’" + 0.008*"needs" + 0.007*"progress" + 0.007*"Newham" + 0.006*"plans" + 0.006*"need" + 0.006*"practice" + 0.005*"good" + 0.004*"effective" + 0.004*"risks"', '0.015*"’" + 0.009*"needs" + 0.008*"Newham" + 0.007*"effective" + 0.006*"progress" + 0.006*"practice" + 0.006*"plans" + 0.006*"need" + 0.005*"good" + 0.005*"risks"', '0.014*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"need" + 0.006*"plans" + 0.006*"effective" + 0.005*"Newham" + 0.005*"good" + 0.004*"progress" + 0.004*"18"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2452,7 +2452,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.007*"well" + 0.007*"need" + 0.006*"effective" + 0.006*"practice" + 0.006*"’" + 0.005*"strong" + 0.005*"team" + 0.005*"needs" + 0.004*"including" + 0.004*"ensure"', '0.010*"’" + 0.009*"practice" + 0.007*"Redbridge" + 0.007*"needs" + 0.006*"well" + 0.006*"risk" + 0.005*"effective" + 0.005*"strong" + 0.005*"need" + 0.005*"ensure"', '0.006*"needs" + 0.006*"’" + 0.005*"need" + 0.005*"well" + 0.004*"including" + 0.004*"practice" + 0.004*"strong" + 0.004*"good" + 0.004*"risk" + 0.004*"progress"']</t>
+    <t>['0.006*"’" + 0.006*"strong" + 0.006*"well" + 0.005*"practice" + 0.005*"needs" + 0.005*"need" + 0.005*"Redbridge" + 0.004*"ensure" + 0.004*"quality" + 0.004*"effective"', '0.008*"practice" + 0.008*"’" + 0.007*"well" + 0.006*"Redbridge" + 0.006*"need" + 0.005*"needs" + 0.005*"risk" + 0.005*"effective" + 0.005*"team" + 0.005*"good"', '0.008*"’" + 0.007*"needs" + 0.006*"including" + 0.006*"practice" + 0.006*"well" + 0.006*"effective" + 0.005*"need" + 0.005*"risk" + 0.005*"progress" + 0.005*"strong"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2476,7 +2476,7 @@
     <t>0.2056</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"Richmond" + 0.007*"well" + 0.007*"needs" + 0.006*"good" + 0.006*"supported" + 0.005*"team" + 0.004*"additional" + 0.004*"February" + 0.004*"Thames"', '0.017*"’" + 0.014*"well" + 0.008*"Richmond" + 0.008*"needs" + 0.007*"supported" + 0.007*"good" + 0.006*"team" + 0.006*"need" + 0.005*"upon" + 0.005*"ensure"', '0.014*"’" + 0.010*"well" + 0.006*"Richmond" + 0.006*"needs" + 0.006*"need" + 0.005*"strong" + 0.005*"additional" + 0.005*"2022" + 0.004*"team" + 0.004*"31"']</t>
+    <t>['0.015*"’" + 0.013*"well" + 0.009*"Richmond" + 0.008*"needs" + 0.006*"supported" + 0.006*"good" + 0.006*"need" + 0.005*"ensure" + 0.005*"4" + 0.005*"strong"', '0.012*"’" + 0.007*"well" + 0.007*"Richmond" + 0.006*"needs" + 0.005*"supported" + 0.005*"need" + 0.005*"team" + 0.005*"good" + 0.004*"upon" + 0.004*"ensure"', '0.018*"’" + 0.011*"well" + 0.008*"Richmond" + 0.007*"needs" + 0.007*"team" + 0.005*"supported" + 0.005*"good" + 0.005*"need" + 0.005*"2022" + 0.005*"additional"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2503,7 +2503,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"good" + 0.008*"needs" + 0.007*"Southwark" + 0.007*"well" + 0.006*"progress" + 0.005*"plans" + 0.005*"practice" + 0.005*"need" + 0.005*"receive"', '0.018*"’" + 0.010*"Southwark" + 0.008*"well" + 0.007*"good" + 0.007*"need" + 0.006*"needs" + 0.006*"effective" + 0.005*"Leaders" + 0.005*"strong" + 0.005*"plans"', '0.017*"’" + 0.010*"Southwark" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.007*"progress" + 0.006*"plans" + 0.005*"strong" + 0.005*"Leaders" + 0.005*"effective"']</t>
+    <t>['0.023*"’" + 0.009*"well" + 0.009*"Southwark" + 0.007*"good" + 0.007*"progress" + 0.006*"needs" + 0.006*"plans" + 0.006*"need" + 0.005*"experiences" + 0.005*"effective"', '0.016*"’" + 0.009*"Southwark" + 0.008*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"plans" + 0.006*"strong" + 0.006*"progress" + 0.005*"effective" + 0.005*"need"', '0.014*"’" + 0.011*"Southwark" + 0.009*"good" + 0.007*"needs" + 0.006*"well" + 0.005*"Leaders" + 0.005*"need" + 0.005*"receive" + 0.005*"leaders" + 0.005*"strong"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2530,7 +2530,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.007*"Sutton" + 0.007*"needs" + 0.006*"progress" + 0.005*"6" + 0.005*"effective" + 0.005*"good" + 0.005*"supported" + 0.005*"10"', '0.014*"’" + 0.006*"well" + 0.005*"Sutton" + 0.005*"needs" + 0.005*"receive" + 0.005*"understand" + 0.004*"progress" + 0.004*"good" + 0.004*"leaders" + 0.004*"need"', '0.016*"’" + 0.006*"well" + 0.005*"effective" + 0.005*"needs" + 0.005*"receive" + 0.005*"Sutton" + 0.004*"good" + 0.004*"progress" + 0.004*"leaders" + 0.004*"6"']</t>
+    <t>['0.015*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"receive" + 0.005*"effective" + 0.005*"good" + 0.005*"10" + 0.004*"Sutton" + 0.004*"progress" + 0.004*"6"', '0.016*"’" + 0.006*"Sutton" + 0.006*"well" + 0.005*"progress" + 0.005*"needs" + 0.005*"receive" + 0.004*"6" + 0.004*"effective" + 0.004*"good" + 0.004*"leaders"', '0.019*"’" + 0.008*"well" + 0.006*"Sutton" + 0.005*"need" + 0.005*"progress" + 0.005*"needs" + 0.005*"good" + 0.004*"effective" + 0.004*"home" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2557,7 +2557,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"effective" + 0.005*"plans" + 0.005*"well" + 0.005*"good" + 0.005*"‘" + 0.005*"practice" + 0.005*"early" + 0.004*"need" + 0.004*"including"', '0.014*"’" + 0.007*"plans" + 0.007*"effective" + 0.006*"good" + 0.006*"progress" + 0.005*"well" + 0.005*"early" + 0.005*"need" + 0.005*"practice" + 0.005*"‘"', '0.017*"’" + 0.009*"good" + 0.006*"‘" + 0.006*"well" + 0.006*"practice" + 0.005*"plans" + 0.005*"needs" + 0.005*"effective" + 0.005*"need" + 0.005*"including"']</t>
+    <t>['0.016*"’" + 0.008*"good" + 0.007*"plans" + 0.006*"well" + 0.006*"effective" + 0.005*"‘" + 0.005*"need" + 0.005*"needs" + 0.005*"carers" + 0.004*"early"', '0.015*"’" + 0.007*"practice" + 0.006*"effective" + 0.006*"plans" + 0.006*"‘" + 0.006*"early" + 0.006*"good" + 0.006*"well" + 0.005*"including" + 0.005*"risk"', '0.013*"’" + 0.006*"good" + 0.006*"effective" + 0.005*"plans" + 0.005*"‘" + 0.005*"progress" + 0.005*"need" + 0.004*"well" + 0.004*"practice" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2584,7 +2584,7 @@
     <t>11/03/19</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.014*"well" + 0.012*"needs" + 0.011*"good" + 0.008*"effective" + 0.006*"plans" + 0.005*"timely" + 0.005*"need" + 0.004*"information" + 0.004*"risk"', '0.013*"’" + 0.009*"well" + 0.007*"effective" + 0.006*"good" + 0.005*"needs" + 0.004*"plans" + 0.004*"risk" + 0.004*"need" + 0.004*"protection" + 0.004*"actions"', '0.014*"’" + 0.011*"well" + 0.008*"need" + 0.008*"needs" + 0.007*"good" + 0.006*"effective" + 0.005*"plans" + 0.005*"timely" + 0.004*"risk" + 0.004*"clear"']</t>
+    <t>['0.012*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"effective" + 0.007*"good" + 0.005*"plans" + 0.004*"clear" + 0.004*"need" + 0.004*"timely" + 0.004*"quality"', '0.015*"well" + 0.012*"’" + 0.010*"needs" + 0.009*"effective" + 0.008*"good" + 0.006*"need" + 0.005*"risk" + 0.004*"timely" + 0.004*"progress" + 0.004*"ensure"', '0.018*"’" + 0.010*"well" + 0.009*"good" + 0.008*"needs" + 0.007*"plans" + 0.007*"need" + 0.006*"effective" + 0.005*"timely" + 0.005*"risk" + 0.005*"information"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2608,7 +2608,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.006*"Senior" + 0.005*"progress" + 0.005*"protection" + 0.005*"team" + 0.004*"good" + 0.004*"needs" + 0.004*"quality" + 0.004*"Wandsworth"', '0.011*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"Wandsworth" + 0.006*"practice" + 0.005*"7" + 0.005*"progress" + 0.005*"effective" + 0.005*"quality" + 0.005*"supported"', '0.011*"’" + 0.006*"ensure" + 0.006*"progress" + 0.005*"effective" + 0.005*"practice" + 0.005*"protection" + 0.005*"improve" + 0.005*"supported" + 0.005*"well" + 0.005*"needs"']</t>
+    <t>['0.012*"’" + 0.008*"well" + 0.006*"Senior" + 0.006*"ensure" + 0.005*"protection" + 0.005*"Wandsworth" + 0.005*"quality" + 0.005*"practice" + 0.005*"effective" + 0.005*"progress"', '0.012*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"receive" + 0.005*"supported" + 0.005*"Senior" + 0.004*"quality" + 0.004*"Wandsworth" + 0.004*"progress" + 0.004*"good"', '0.012*"’" + 0.006*"progress" + 0.006*"protection" + 0.006*"well" + 0.006*"7" + 0.005*"needs" + 0.005*"practice" + 0.005*"supported" + 0.005*"18" + 0.005*"Wandsworth"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2629,7 +2629,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.006*"practice" + 0.005*"needs" + 0.004*"well" + 0.004*"highly" + 0.004*"protection" + 0.004*"across" + 0.003*"family" + 0.003*"quality" + 0.003*"many"', '0.014*"’" + 0.007*"practice" + 0.006*"highly" + 0.006*"needs" + 0.005*"well" + 0.005*"many" + 0.004*"across" + 0.004*"family" + 0.004*"skilled" + 0.003*"shared"', '0.014*"’" + 0.006*"practice" + 0.006*"needs" + 0.006*"highly" + 0.005*"well" + 0.004*"interventions" + 0.004*"high" + 0.003*"plans" + 0.003*"many" + 0.003*"family"']</t>
+    <t>['0.016*"’" + 0.008*"practice" + 0.007*"needs" + 0.007*"highly" + 0.006*"well" + 0.004*"high" + 0.004*"family" + 0.004*"shared" + 0.004*"many" + 0.004*"direct"', '0.011*"’" + 0.005*"needs" + 0.005*"practice" + 0.004*"highly" + 0.004*"well" + 0.004*"many" + 0.004*"across" + 0.003*"experiences" + 0.003*"family" + 0.003*"skilled"', '0.009*"’" + 0.006*"practice" + 0.005*"highly" + 0.005*"needs" + 0.004*"well" + 0.004*"across" + 0.004*"many" + 0.004*"skilled" + 0.003*"plans" + 0.003*"family"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2659,7 +2659,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"need" + 0.005*"plans" + 0.005*"effective" + 0.005*"good" + 0.005*"needs" + 0.005*"Luton" + 0.004*"quality" + 0.004*"progress" + 0.004*"ensure"', '0.018*"’" + 0.006*"plans" + 0.005*"effective" + 0.005*"Luton" + 0.005*"quality" + 0.005*"good" + 0.005*"impact" + 0.005*"needs" + 0.005*"including" + 0.005*"progress"', '0.019*"’" + 0.008*"needs" + 0.008*"need" + 0.006*"Luton" + 0.006*"plans" + 0.006*"effective" + 0.005*"impact" + 0.005*"receive" + 0.005*"good" + 0.005*"ensure"']</t>
+    <t>['0.014*"’" + 0.006*"needs" + 0.006*"progress" + 0.006*"impact" + 0.006*"Luton" + 0.005*"need" + 0.005*"plans" + 0.005*"effective" + 0.005*"well" + 0.004*"take"', '0.021*"’" + 0.007*"need" + 0.007*"plans" + 0.006*"effective" + 0.006*"needs" + 0.006*"ensure" + 0.006*"quality" + 0.006*"Luton" + 0.006*"good" + 0.005*"receive"', '0.014*"’" + 0.006*"needs" + 0.006*"need" + 0.006*"good" + 0.006*"Luton" + 0.005*"plans" + 0.005*"impact" + 0.005*"effective" + 0.004*"quality" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2686,7 +2686,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.013*"Manchester" + 0.011*"needs" + 0.008*"well" + 0.007*"always" + 0.006*"plans" + 0.005*"education" + 0.005*"family" + 0.005*"supported" + 0.005*"effective"', '0.017*"’" + 0.009*"Manchester" + 0.008*"needs" + 0.006*"supported" + 0.006*"effective" + 0.006*"always" + 0.006*"quality" + 0.005*"plans" + 0.005*"protection" + 0.005*"well"', '0.021*"’" + 0.009*"needs" + 0.008*"Manchester" + 0.008*"supported" + 0.007*"well" + 0.006*"always" + 0.006*"protection" + 0.005*"progress" + 0.005*"family" + 0.005*"plans"']</t>
+    <t>['0.016*"’" + 0.009*"Manchester" + 0.009*"needs" + 0.007*"always" + 0.006*"well" + 0.006*"supported" + 0.005*"plans" + 0.005*"quality" + 0.004*"disabled" + 0.004*"protection"', '0.023*"’" + 0.013*"Manchester" + 0.010*"needs" + 0.008*"supported" + 0.007*"well" + 0.007*"always" + 0.006*"family" + 0.006*"protection" + 0.006*"effective" + 0.005*"21"', '0.023*"’" + 0.009*"needs" + 0.008*"Manchester" + 0.006*"well" + 0.006*"plans" + 0.006*"supported" + 0.006*"education" + 0.005*"1" + 0.005*"always" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -2713,7 +2713,7 @@
     <t>11/09/23</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"Medway" + 0.008*"quality" + 0.007*"practice" + 0.007*"well" + 0.006*"leaders" + 0.006*"oversight" + 0.006*"risk" + 0.006*"experiences" + 0.006*"impact"', '0.011*"’" + 0.009*"well" + 0.009*"Medway" + 0.009*"practice" + 0.008*"quality" + 0.007*"needs" + 0.006*"oversight" + 0.006*"impact" + 0.006*"experiences" + 0.005*"clear"', '0.019*"’" + 0.009*"Medway" + 0.008*"practice" + 0.007*"leaders" + 0.007*"quality" + 0.006*"well" + 0.006*"needs" + 0.005*"oversight" + 0.005*"good" + 0.005*"clear"']</t>
+    <t>['0.013*"’" + 0.007*"practice" + 0.006*"experiences" + 0.005*"Medway" + 0.005*"quality" + 0.005*"well" + 0.005*"leaders" + 0.005*"oversight" + 0.004*"17" + 0.004*"improve"', '0.018*"’" + 0.010*"quality" + 0.010*"well" + 0.009*"Medway" + 0.008*"leaders" + 0.008*"practice" + 0.007*"oversight" + 0.007*"needs" + 0.006*"good" + 0.006*"experiences"', '0.016*"’" + 0.012*"Medway" + 0.008*"practice" + 0.007*"well" + 0.007*"needs" + 0.007*"quality" + 0.006*"impact" + 0.005*"28" + 0.005*"Senior" + 0.005*"oversight"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -2734,7 +2734,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"practice" + 0.006*"effective" + 0.005*"needs" + 0.005*"well" + 0.004*"impact" + 0.004*"progress" + 0.004*"Middlesbrough" + 0.004*"plans" + 0.004*"13"', '0.012*"’" + 0.007*"plans" + 0.006*"Middlesbrough" + 0.006*"needs" + 0.005*"effective" + 0.005*"progress" + 0.005*"well" + 0.005*"place" + 0.005*"2023" + 0.004*"education"', '0.015*"’" + 0.009*"effective" + 0.008*"plans" + 0.008*"Middlesbrough" + 0.008*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"24" + 0.005*"progress" + 0.005*"means"']</t>
+    <t>['0.014*"’" + 0.005*"plans" + 0.005*"Middlesbrough" + 0.005*"effective" + 0.004*"24" + 0.004*"progress" + 0.004*"well" + 0.004*"2023" + 0.004*"education" + 0.003*"place"', '0.014*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"practice" + 0.007*"effective" + 0.007*"Middlesbrough" + 0.007*"needs" + 0.006*"place" + 0.006*"progress" + 0.005*"impact"', '0.012*"’" + 0.008*"effective" + 0.008*"Middlesbrough" + 0.007*"plans" + 0.007*"needs" + 0.005*"24" + 0.005*"progress" + 0.005*"well" + 0.005*"13" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -2758,7 +2758,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"Milton" + 0.006*"well" + 0.006*"need" + 0.006*"leaders" + 0.005*"Keynes" + 0.005*"practice" + 0.005*"family" + 0.004*"plans" + 0.004*"October"', '0.015*"’" + 0.008*"Milton" + 0.006*"well" + 0.006*"Keynes" + 0.005*"need" + 0.005*"good" + 0.005*"5" + 0.005*"25" + 0.004*"practice" + 0.004*"October"', '0.016*"’" + 0.007*"Keynes" + 0.005*"plans" + 0.005*"25" + 0.005*"well" + 0.004*"need" + 0.004*"impact" + 0.004*"practice" + 0.004*"good" + 0.004*"quality"']</t>
+    <t>['0.014*"’" + 0.006*"Milton" + 0.006*"25" + 0.006*"practice" + 0.006*"well" + 0.005*"need" + 0.005*"Keynes" + 0.005*"needs" + 0.005*"leaders" + 0.005*"October"', '0.015*"’" + 0.006*"Keynes" + 0.005*"Milton" + 0.005*"need" + 0.004*"good" + 0.004*"5" + 0.004*"plans" + 0.004*"family" + 0.004*"effective" + 0.004*"October"', '0.015*"’" + 0.007*"well" + 0.006*"Keynes" + 0.006*"Milton" + 0.005*"need" + 0.005*"leaders" + 0.005*"good" + 0.005*"practice" + 0.005*"plans" + 0.004*"example"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -2782,7 +2782,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.011*"plans" + 0.009*"needs" + 0.008*"progress" + 0.007*"good" + 0.007*"Newcastle" + 0.006*"protection" + 0.006*"response" + 0.006*"well" + 0.005*"ensure"', '0.018*"’" + 0.010*"plans" + 0.007*"good" + 0.007*"protection" + 0.007*"well" + 0.007*"needs" + 0.006*"making" + 0.006*"Newcastle" + 0.005*"ensure" + 0.005*"management"', '0.013*"’" + 0.009*"plans" + 0.009*"Newcastle" + 0.006*"well" + 0.006*"protection" + 0.006*"needs" + 0.005*"planning" + 0.005*"good" + 0.005*"ensure" + 0.005*"need"']</t>
+    <t>['0.018*"’" + 0.010*"plans" + 0.009*"needs" + 0.007*"well" + 0.006*"protection" + 0.006*"good" + 0.006*"need" + 0.006*"management" + 0.005*"ensure" + 0.005*"planning"', '0.014*"’" + 0.012*"plans" + 0.010*"Newcastle" + 0.008*"protection" + 0.008*"good" + 0.008*"needs" + 0.007*"making" + 0.007*"well" + 0.006*"progress" + 0.006*"ensure"', '0.015*"’" + 0.008*"plans" + 0.006*"needs" + 0.006*"good" + 0.005*"well" + 0.005*"protection" + 0.005*"progress" + 0.005*"Newcastle" + 0.005*"response" + 0.005*"10"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -2803,7 +2803,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"Norfolk" + 0.007*"well" + 0.006*"carers" + 0.005*"practice" + 0.005*"needs" + 0.005*"supported" + 0.004*"leaders" + 0.004*"range" + 0.004*"plans"', '0.016*"’" + 0.009*"well" + 0.007*"Norfolk" + 0.006*"needs" + 0.006*"carers" + 0.006*"plans" + 0.005*"practice" + 0.005*"supported" + 0.005*"18" + 0.005*"effective"', '0.016*"’" + 0.009*"Norfolk" + 0.008*"well" + 0.006*"needs" + 0.006*"practice" + 0.006*"carers" + 0.005*"supported" + 0.005*"family" + 0.004*"range" + 0.004*"including"']</t>
+    <t>['0.012*"’" + 0.008*"Norfolk" + 0.008*"well" + 0.008*"carers" + 0.006*"needs" + 0.005*"range" + 0.005*"practice" + 0.005*"leaders" + 0.005*"supported" + 0.005*"including"', '0.023*"’" + 0.008*"Norfolk" + 0.008*"well" + 0.006*"supported" + 0.006*"practice" + 0.006*"needs" + 0.006*"carers" + 0.005*"progress" + 0.005*"plans" + 0.004*"18"', '0.014*"’" + 0.008*"well" + 0.006*"Norfolk" + 0.005*"needs" + 0.005*"practice" + 0.004*"carers" + 0.004*"18" + 0.004*"plans" + 0.004*"7" + 0.004*"including"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -2833,7 +2833,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"practice" + 0.006*"planning" + 0.006*"risk" + 0.006*"needs" + 0.006*"leaders" + 0.006*"many" + 0.005*"oversight" + 0.005*"senior" + 0.005*"North"', '0.015*"’" + 0.008*"practice" + 0.008*"needs" + 0.007*"leaders" + 0.006*"planning" + 0.006*"risk" + 0.005*"plans" + 0.005*"many" + 0.005*"need" + 0.005*"East"', '0.013*"’" + 0.008*"risk" + 0.007*"practice" + 0.006*"leaders" + 0.006*"planning" + 0.006*"need" + 0.005*"2021" + 0.005*"North" + 0.005*"plans" + 0.004*"October"']</t>
+    <t>['0.014*"’" + 0.008*"practice" + 0.007*"risk" + 0.006*"planning" + 0.005*"leaders" + 0.005*"needs" + 0.005*"plans" + 0.005*"October" + 0.005*"need" + 0.005*"quality"', '0.012*"’" + 0.006*"risk" + 0.006*"needs" + 0.006*"leaders" + 0.006*"planning" + 0.006*"many" + 0.005*"North" + 0.005*"practice" + 0.005*"need" + 0.005*"2021"', '0.016*"’" + 0.009*"practice" + 0.007*"leaders" + 0.007*"risk" + 0.006*"needs" + 0.006*"planning" + 0.005*"East" + 0.005*"need" + 0.005*"harm" + 0.004*"Lincolnshire"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -2860,7 +2860,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"‘" + 0.006*"approach" + 0.005*"Lincolnshire" + 0.005*"10" + 0.005*"leaders" + 0.005*"need" + 0.004*"well" + 0.004*"family" + 0.004*"practice"', '0.020*"’" + 0.007*"‘" + 0.007*"North" + 0.006*"family" + 0.005*"Lincolnshire" + 0.005*"needs" + 0.005*"2022" + 0.005*"10" + 0.005*"need" + 0.004*"leaders"', '0.021*"’" + 0.007*"family" + 0.007*"‘" + 0.006*"well" + 0.005*"Lincolnshire" + 0.005*"council" + 0.005*"leaders" + 0.005*"approach" + 0.004*"team" + 0.004*"2022"']</t>
+    <t>['0.011*"’" + 0.005*"‘" + 0.004*"family" + 0.004*"Lincolnshire" + 0.004*"North" + 0.004*"council" + 0.004*"need" + 0.004*"14" + 0.004*"leaders" + 0.004*"protection"', '0.021*"’" + 0.008*"‘" + 0.007*"Lincolnshire" + 0.006*"North" + 0.006*"10" + 0.006*"approach" + 0.005*"well" + 0.005*"family" + 0.005*"14" + 0.005*"need"', '0.025*"’" + 0.008*"‘" + 0.007*"family" + 0.006*"leaders" + 0.005*"well" + 0.005*"approach" + 0.005*"North" + 0.005*"need" + 0.005*"team" + 0.004*"council"']</t>
   </si>
   <si>
     <t>940</t>
@@ -2890,7 +2890,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"Northamptonshire" + 0.006*"North" + 0.005*"quality" + 0.005*"need" + 0.005*"well" + 0.005*"NCT" + 0.004*"needs" + 0.004*"practice" + 0.004*"October"', '0.018*"’" + 0.007*"North" + 0.007*"well" + 0.006*"Northamptonshire" + 0.006*"practice" + 0.005*"plans" + 0.005*"impact" + 0.005*"quality" + 0.005*"needs" + 0.005*"Leaders"', '0.016*"’" + 0.008*"Northamptonshire" + 0.007*"well" + 0.006*"North" + 0.006*"quality" + 0.005*"NCT" + 0.005*"e" + 0.005*"Leaders" + 0.005*"impact" + 0.005*"2022"']</t>
+    <t>['0.019*"’" + 0.009*"Northamptonshire" + 0.008*"North" + 0.006*"quality" + 0.006*"well" + 0.006*"impact" + 0.005*"plans" + 0.005*"NCT" + 0.005*"3" + 0.005*"needs"', '0.016*"’" + 0.007*"Northamptonshire" + 0.006*"well" + 0.006*"North" + 0.005*"quality" + 0.005*"Leaders" + 0.005*"plans" + 0.005*"need" + 0.004*"2022" + 0.004*"practice"', '0.014*"’" + 0.007*"Northamptonshire" + 0.006*"well" + 0.006*"practice" + 0.005*"North" + 0.005*"NCT" + 0.005*"Leaders" + 0.005*"needs" + 0.004*"quality" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -2914,7 +2914,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"quality" + 0.007*"needs" + 0.007*"always" + 0.007*"North" + 0.006*"need" + 0.006*"number" + 0.006*"plans" + 0.006*"Somerset" + 0.006*"risk"', '0.011*"’" + 0.008*"quality" + 0.007*"needs" + 0.005*"number" + 0.005*"practice" + 0.005*"Somerset" + 0.004*"experienced" + 0.004*"risk" + 0.004*"progress" + 0.004*"response"', '0.017*"’" + 0.006*"always" + 0.006*"quality" + 0.006*"needs" + 0.006*"Somerset" + 0.006*"experienced" + 0.005*"practice" + 0.005*"North" + 0.005*"progress" + 0.004*"impact"']</t>
+    <t>['0.016*"’" + 0.006*"North" + 0.005*"quality" + 0.005*"progress" + 0.005*"needs" + 0.005*"always" + 0.005*"well" + 0.005*"practice" + 0.005*"13" + 0.005*"experienced"', '0.017*"’" + 0.009*"needs" + 0.008*"quality" + 0.007*"always" + 0.006*"risk" + 0.006*"need" + 0.006*"North" + 0.005*"practice" + 0.005*"number" + 0.005*"Somerset"', '0.017*"’" + 0.008*"quality" + 0.007*"Somerset" + 0.006*"number" + 0.006*"plans" + 0.006*"practice" + 0.006*"always" + 0.005*"needs" + 0.005*"experienced" + 0.005*"North"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -2938,7 +2938,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"well" + 0.006*"leaders" + 0.005*"need" + 0.005*"quality" + 0.005*"make" + 0.004*"impact" + 0.004*"clear" + 0.004*"understand" + 0.004*"early"', '0.016*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"need" + 0.005*"make" + 0.005*"leaders" + 0.004*"quality" + 0.004*"clear" + 0.004*"protection" + 0.004*"impact"', '0.012*"’" + 0.005*"leaders" + 0.004*"well" + 0.004*"quality" + 0.004*"early" + 0.004*"need" + 0.004*"needs" + 0.004*"make" + 0.003*"impact" + 0.003*"good"']</t>
+    <t>['0.016*"’" + 0.007*"well" + 0.006*"leaders" + 0.005*"need" + 0.005*"make" + 0.005*"early" + 0.004*"quality" + 0.004*"impact" + 0.004*"needs" + 0.003*"way"', '0.018*"’" + 0.006*"well" + 0.005*"leaders" + 0.005*"needs" + 0.004*"make" + 0.004*"need" + 0.004*"quality" + 0.004*"impact" + 0.004*"early" + 0.004*"plans"', '0.013*"’" + 0.007*"well" + 0.006*"need" + 0.005*"quality" + 0.004*"make" + 0.004*"leaders" + 0.004*"family" + 0.004*"needs" + 0.004*"impact" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>815</t>
@@ -2962,7 +2962,7 @@
     <t>18/08/23</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"North" + 0.004*"Yorkshire" + 0.004*"family" + 0.004*"needs" + 0.004*"7" + 0.004*"supported" + 0.004*"3"', '0.020*"’" + 0.009*"well" + 0.008*"North" + 0.007*"Yorkshire" + 0.006*"practice" + 0.006*"‘" + 0.005*"needs" + 0.005*"family" + 0.005*"7" + 0.005*"3"', '0.024*"’" + 0.009*"well" + 0.007*"family" + 0.007*"needs" + 0.006*"practice" + 0.006*"Yorkshire" + 0.005*"North" + 0.004*"‘" + 0.004*"carers" + 0.004*"July"']</t>
+    <t>['0.023*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"family" + 0.006*"North" + 0.006*"Yorkshire" + 0.006*"practice" + 0.005*"supported" + 0.005*"‘" + 0.005*"3"', '0.019*"’" + 0.008*"well" + 0.007*"North" + 0.006*"Yorkshire" + 0.005*"practice" + 0.005*"‘" + 0.005*"needs" + 0.005*"family" + 0.005*"7" + 0.004*"planning"', '0.019*"’" + 0.007*"well" + 0.007*"practice" + 0.005*"Yorkshire" + 0.005*"North" + 0.005*"family" + 0.005*"2023" + 0.004*"carers" + 0.004*"needs" + 0.004*"‘"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -2986,7 +2986,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"good" + 0.006*"practice" + 0.006*"need" + 0.005*"experiences" + 0.005*"impact" + 0.004*"always" + 0.004*"quality"', '0.015*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"good" + 0.005*"experiences" + 0.005*"need" + 0.004*"education" + 0.004*"practice" + 0.004*"plans" + 0.004*"impact"', '0.029*"’" + 0.013*"needs" + 0.009*"well" + 0.009*"good" + 0.007*"need" + 0.006*"impact" + 0.006*"experiences" + 0.005*"quality" + 0.005*"leaders" + 0.005*"education"']</t>
+    <t>['0.022*"’" + 0.008*"well" + 0.007*"needs" + 0.005*"impact" + 0.005*"good" + 0.005*"experiences" + 0.004*"need" + 0.004*"always" + 0.004*"education" + 0.004*"quality"', '0.017*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"good" + 0.005*"practice" + 0.005*"experiences" + 0.005*"need" + 0.004*"quality" + 0.004*"effective" + 0.004*"education"', '0.024*"’" + 0.013*"needs" + 0.011*"well" + 0.009*"good" + 0.008*"need" + 0.006*"practice" + 0.006*"experiences" + 0.006*"impact" + 0.006*"education" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3013,7 +3013,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"needs" + 0.006*"plans" + 0.006*"Nottingham" + 0.005*"impact" + 0.005*"risk" + 0.005*"effective" + 0.005*"11" + 0.004*"City" + 0.004*"practice"', '0.007*"’" + 0.006*"needs" + 0.005*"Nottingham" + 0.005*"City" + 0.005*"11" + 0.005*"plans" + 0.004*"oversight" + 0.004*"impact" + 0.004*"effective" + 0.004*"protection"', '0.015*"’" + 0.009*"needs" + 0.007*"effective" + 0.006*"Nottingham" + 0.005*"oversight" + 0.005*"However" + 0.005*"practice" + 0.005*"plans" + 0.005*"impact" + 0.005*"2022"']</t>
+    <t>['0.011*"’" + 0.007*"needs" + 0.006*"Nottingham" + 0.006*"effective" + 0.005*"City" + 0.005*"July" + 0.005*"impact" + 0.004*"significant" + 0.004*"protection" + 0.004*"However"', '0.013*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"effective" + 0.005*"Nottingham" + 0.005*"11" + 0.004*"oversight" + 0.004*"risk" + 0.004*"good" + 0.004*"practice"', '0.016*"’" + 0.008*"needs" + 0.006*"impact" + 0.006*"plans" + 0.005*"Nottingham" + 0.005*"2022" + 0.005*"oversight" + 0.005*"However" + 0.005*"risk" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>891</t>
@@ -3031,7 +3031,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"plans" + 0.005*"progress" + 0.005*"quality" + 0.004*"carers" + 0.004*"needs" + 0.004*"receive" + 0.004*"e"', '0.016*"’" + 0.010*"practice" + 0.009*"well" + 0.006*"needs" + 0.006*"receive" + 0.006*"plans" + 0.006*"carers" + 0.006*"ensure" + 0.005*"made" + 0.005*"e"', '0.009*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"practice" + 0.005*"ensure" + 0.005*"receive" + 0.004*"made" + 0.004*"areas" + 0.004*"number" + 0.004*"progress"']</t>
+    <t>['0.014*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"progress" + 0.006*"needs" + 0.005*"quality" + 0.005*"carers" + 0.005*"ensure" + 0.005*"made" + 0.004*"receive"', '0.010*"’" + 0.008*"practice" + 0.007*"plans" + 0.007*"well" + 0.007*"needs" + 0.005*"ensure" + 0.005*"e" + 0.005*"made" + 0.005*"receive" + 0.005*"progress"', '0.013*"’" + 0.009*"practice" + 0.007*"well" + 0.006*"receive" + 0.006*"areas" + 0.005*"ensure" + 0.005*"needs" + 0.005*"quality" + 0.004*"carers" + 0.004*"made"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3064,7 +3064,7 @@
     <t>0.176</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"good" + 0.006*"progress" + 0.006*"practice" + 0.006*"needs" + 0.006*"effective" + 0.005*"planning" + 0.005*"quality" + 0.005*"plans" + 0.004*"months"', '0.012*"’" + 0.011*"needs" + 0.010*"good" + 0.008*"practice" + 0.008*"effective" + 0.007*"quality" + 0.007*"planning" + 0.007*"well" + 0.006*"progress" + 0.006*"impact"', '0.012*"practice" + 0.009*"effective" + 0.008*"good" + 0.008*"needs" + 0.008*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"progress" + 0.006*"quality" + 0.005*"planning"']</t>
+    <t>['0.010*"’" + 0.009*"needs" + 0.008*"practice" + 0.008*"good" + 0.007*"effective" + 0.006*"well" + 0.006*"planning" + 0.005*"progress" + 0.005*"quality" + 0.005*"many"', '0.010*"’" + 0.010*"good" + 0.010*"practice" + 0.009*"needs" + 0.007*"effective" + 0.007*"quality" + 0.006*"planning" + 0.006*"well" + 0.006*"progress" + 0.006*"plans"', '0.012*"’" + 0.010*"good" + 0.009*"effective" + 0.009*"needs" + 0.008*"practice" + 0.007*"progress" + 0.007*"quality" + 0.006*"well" + 0.006*"plans" + 0.006*"planning"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3094,7 +3094,7 @@
     <t>0.1848</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"needs" + 0.005*"number" + 0.005*"good" + 0.004*"plans" + 0.004*"early" + 0.004*"well" + 0.004*"quality" + 0.004*"effective" + 0.004*"protection"', '0.016*"’" + 0.010*"needs" + 0.006*"good" + 0.005*"early" + 0.005*"quality" + 0.005*"including" + 0.004*"plans" + 0.004*"response" + 0.004*"protection" + 0.004*"Oxfordshire"', '0.014*"’" + 0.010*"needs" + 0.008*"number" + 0.007*"good" + 0.005*"response" + 0.005*"early" + 0.005*"protection" + 0.005*"plans" + 0.005*"education" + 0.004*"Oxfordshire"']</t>
+    <t>['0.014*"’" + 0.010*"needs" + 0.006*"good" + 0.005*"early" + 0.005*"number" + 0.005*"practice" + 0.004*"protection" + 0.004*"education" + 0.004*"plans" + 0.004*"need"', '0.009*"’" + 0.007*"good" + 0.006*"needs" + 0.006*"number" + 0.005*"effective" + 0.004*"protection" + 0.004*"response" + 0.004*"education" + 0.004*"practice" + 0.004*"However"', '0.015*"’" + 0.010*"needs" + 0.006*"number" + 0.006*"good" + 0.006*"early" + 0.006*"plans" + 0.005*"quality" + 0.005*"response" + 0.005*"Oxfordshire" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3124,7 +3124,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"planning" + 0.005*"quality" + 0.005*"number" + 0.005*"good" + 0.005*"effective" + 0.005*"including"', '0.013*"’" + 0.007*"risk" + 0.007*"well" + 0.006*"good" + 0.006*"progress" + 0.006*"practice" + 0.006*"needs" + 0.005*"planning" + 0.005*"effective" + 0.005*"including"', '0.015*"’" + 0.007*"well" + 0.007*"good" + 0.006*"planning" + 0.006*"practice" + 0.006*"risk" + 0.006*"needs" + 0.006*"effective" + 0.005*"progress" + 0.005*"need"']</t>
+    <t>['0.012*"’" + 0.007*"well" + 0.007*"risk" + 0.007*"good" + 0.006*"practice" + 0.006*"progress" + 0.006*"effective" + 0.005*"needs" + 0.005*"planning" + 0.005*"including"', '0.015*"’" + 0.009*"practice" + 0.007*"well" + 0.007*"good" + 0.006*"planning" + 0.005*"progress" + 0.005*"effective" + 0.005*"needs" + 0.005*"need" + 0.004*"number"', '0.015*"’" + 0.008*"needs" + 0.007*"risk" + 0.006*"quality" + 0.005*"planning" + 0.005*"well" + 0.005*"within" + 0.005*"good" + 0.005*"practice" + 0.005*"need"']</t>
   </si>
   <si>
     <t>879</t>
@@ -3148,7 +3148,7 @@
     <t>0.1594</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.011*"good" + 0.009*"However" + 0.009*"quality" + 0.007*"needs" + 0.006*"progress" + 0.006*"well" + 0.005*"timely" + 0.005*"number" + 0.005*"effective"', '0.012*"’" + 0.008*"However" + 0.007*"good" + 0.007*"needs" + 0.006*"well" + 0.005*"quality" + 0.005*"effective" + 0.004*"timely" + 0.004*"need" + 0.004*"experiences"', '0.018*"’" + 0.012*"well" + 0.009*"However" + 0.009*"needs" + 0.008*"good" + 0.008*"quality" + 0.008*"progress" + 0.007*"timely" + 0.007*"plans" + 0.006*"result"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.009*"quality" + 0.007*"However" + 0.006*"well" + 0.006*"good" + 0.006*"timely" + 0.006*"protection" + 0.005*"progress" + 0.005*"plans"', '0.013*"’" + 0.010*"good" + 0.010*"well" + 0.009*"However" + 0.008*"needs" + 0.007*"quality" + 0.006*"progress" + 0.006*"leaders" + 0.006*"number" + 0.005*"timely"', '0.015*"’" + 0.010*"good" + 0.010*"However" + 0.010*"well" + 0.008*"quality" + 0.007*"needs" + 0.007*"progress" + 0.006*"plans" + 0.006*"timely" + 0.006*"result"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3178,7 +3178,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"care-experienced" + 0.007*"Portsmouth" + 0.007*"needs" + 0.007*"well" + 0.006*"family" + 0.006*"plans" + 0.005*"need" + 0.005*"health" + 0.005*"receive"', '0.013*"’" + 0.007*"care-experienced" + 0.007*"well" + 0.006*"needs" + 0.006*"Portsmouth" + 0.005*"health" + 0.005*"plans" + 0.005*"practice" + 0.004*"risk" + 0.004*"progress"', '0.015*"’" + 0.008*"care-experienced" + 0.007*"well" + 0.006*"needs" + 0.006*"Portsmouth" + 0.005*"health" + 0.005*"family" + 0.004*"19" + 0.004*"risk" + 0.004*"carers"']</t>
+    <t>['0.017*"’" + 0.007*"needs" + 0.006*"care-experienced" + 0.006*"well" + 0.006*"Portsmouth" + 0.005*"plans" + 0.005*"practice" + 0.005*"family" + 0.004*"health" + 0.004*"need"', '0.017*"’" + 0.007*"needs" + 0.006*"care-experienced" + 0.006*"well" + 0.006*"Portsmouth" + 0.005*"health" + 0.005*"plans" + 0.005*"leaders" + 0.005*"receive" + 0.004*"practice"', '0.016*"’" + 0.010*"care-experienced" + 0.009*"well" + 0.007*"Portsmouth" + 0.007*"family" + 0.006*"needs" + 0.006*"health" + 0.005*"plans" + 0.005*"progress" + 0.005*"19"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3211,7 +3211,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"number" + 0.006*"need" + 0.005*"practice" + 0.005*"quality" + 0.005*"plans" + 0.005*"effective" + 0.005*"well" + 0.004*"good" + 0.004*"ensure"', '0.020*"’" + 0.008*"quality" + 0.007*"number" + 0.007*"plans" + 0.007*"well" + 0.006*"good" + 0.006*"effective" + 0.005*"need" + 0.005*"carers" + 0.004*"timely"', '0.011*"’" + 0.007*"well" + 0.007*"number" + 0.007*"quality" + 0.006*"plans" + 0.006*"good" + 0.005*"needs" + 0.005*"However" + 0.005*"effective" + 0.005*"timely"']</t>
+    <t>['0.017*"’" + 0.007*"number" + 0.006*"quality" + 0.005*"well" + 0.005*"effective" + 0.005*"carers" + 0.005*"good" + 0.005*"plans" + 0.005*"need" + 0.004*"timely"', '0.014*"’" + 0.008*"quality" + 0.006*"plans" + 0.006*"well" + 0.005*"number" + 0.005*"However" + 0.005*"good" + 0.005*"need" + 0.005*"carers" + 0.005*"needs"', '0.017*"’" + 0.008*"number" + 0.008*"well" + 0.007*"plans" + 0.006*"quality" + 0.006*"good" + 0.006*"effective" + 0.005*"need" + 0.005*"practice" + 0.005*"always"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3232,7 +3232,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"However" + 0.006*"plans" + 0.006*"leaders" + 0.004*"carers" + 0.004*"needs" + 0.004*"July" + 0.004*"Cleveland" + 0.004*"risk" + 0.004*"Redcar"', '0.022*"’" + 0.008*"leaders" + 0.007*"plans" + 0.006*"consistently" + 0.006*"needs" + 0.006*"However" + 0.006*"20" + 0.006*"2022" + 0.006*"practice" + 0.005*"Redcar"', '0.013*"’" + 0.006*"Cleveland" + 0.006*"needs" + 0.005*"consistently" + 0.005*"However" + 0.004*"June" + 0.004*"response" + 0.004*"practice" + 0.004*"risk" + 0.004*"carers"']</t>
+    <t>['0.021*"’" + 0.007*"leaders" + 0.006*"However" + 0.006*"carers" + 0.005*"plans" + 0.005*"practice" + 0.005*"20" + 0.005*"consistently" + 0.005*"needs" + 0.005*"2022"', '0.015*"’" + 0.005*"consistently" + 0.005*"needs" + 0.005*"Redcar" + 0.005*"However" + 0.005*"carers" + 0.004*"plans" + 0.004*"leaders" + 0.004*"quality" + 0.004*"risk"', '0.016*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"2022" + 0.006*"leaders" + 0.006*"consistently" + 0.005*"However" + 0.005*"risk" + 0.005*"20" + 0.005*"Cleveland"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3259,7 +3259,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"experienced" + 0.009*"needs" + 0.009*"practice" + 0.006*"plans" + 0.006*"response" + 0.006*"consistently" + 0.005*"quality" + 0.005*"well" + 0.005*"Rochdale"', '0.024*"’" + 0.009*"experienced" + 0.009*"practice" + 0.007*"needs" + 0.006*"response" + 0.005*"good" + 0.005*"plans" + 0.005*"consistently" + 0.005*"3" + 0.005*"Rochdale"', '0.018*"’" + 0.010*"experienced" + 0.006*"needs" + 0.006*"practice" + 0.006*"plans" + 0.005*"quality" + 0.005*"good" + 0.005*"response" + 0.005*"consistently" + 0.005*"3"']</t>
+    <t>['0.022*"’" + 0.010*"experienced" + 0.007*"needs" + 0.007*"practice" + 0.007*"plans" + 0.006*"response" + 0.006*"consistently" + 0.006*"good" + 0.005*"quality" + 0.005*"2023"', '0.018*"’" + 0.011*"experienced" + 0.009*"practice" + 0.007*"response" + 0.007*"needs" + 0.006*"plans" + 0.005*"well" + 0.005*"Rochdale" + 0.005*"good" + 0.005*"consistently"', '0.021*"’" + 0.009*"needs" + 0.008*"practice" + 0.008*"experienced" + 0.006*"quality" + 0.005*"consistently" + 0.005*"3" + 0.005*"well" + 0.005*"plans" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3283,7 +3283,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"Rotherham" + 0.006*"needs" + 0.005*"well" + 0.005*"Council" + 0.005*"ensure" + 0.004*"good" + 0.004*"plans" + 0.004*"However" + 0.004*"1"', '0.015*"’" + 0.007*"needs" + 0.007*"Rotherham" + 0.006*"good" + 0.005*"ensure" + 0.005*"well" + 0.004*"clear" + 0.004*"Borough" + 0.004*"plans" + 0.004*"Council"', '0.013*"’" + 0.011*"Rotherham" + 0.006*"needs" + 0.005*"well" + 0.005*"Metropolitan" + 0.005*"good" + 0.005*"Council" + 0.005*"However" + 0.004*"ensure" + 0.004*"plans"']</t>
+    <t>['0.018*"’" + 0.008*"Rotherham" + 0.008*"needs" + 0.006*"well" + 0.005*"good" + 0.005*"However" + 0.005*"plans" + 0.004*"June" + 0.004*"July" + 0.004*"Council"', '0.011*"’" + 0.009*"Rotherham" + 0.005*"ensure" + 0.005*"needs" + 0.005*"well" + 0.004*"Council" + 0.004*"27" + 0.004*"Metropolitan" + 0.004*"good" + 0.004*"2022"', '0.013*"’" + 0.008*"Rotherham" + 0.005*"needs" + 0.005*"Council" + 0.005*"good" + 0.004*"ensure" + 0.004*"well" + 0.004*"clear" + 0.004*"plans" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3307,7 +3307,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.018*"well" + 0.012*"practice" + 0.010*"’" + 0.008*"highly" + 0.007*"strong" + 0.006*"high" + 0.005*"leaders" + 0.005*"needs" + 0.004*"need" + 0.004*"effective"', '0.012*"practice" + 0.009*"well" + 0.009*"’" + 0.006*"strong" + 0.006*"effective" + 0.005*"highly" + 0.005*"professionals" + 0.004*"leaders" + 0.004*"needs" + 0.004*"need"', '0.015*"’" + 0.012*"well" + 0.008*"practice" + 0.008*"highly" + 0.007*"needs" + 0.006*"effective" + 0.006*"strong" + 0.005*"leaders" + 0.004*"progress" + 0.004*"excellent"']</t>
+    <t>['0.013*"well" + 0.011*"’" + 0.009*"highly" + 0.007*"practice" + 0.005*"effective" + 0.005*"strong" + 0.004*"needs" + 0.004*"range" + 0.004*"high" + 0.004*"progress"', '0.015*"well" + 0.014*"practice" + 0.013*"’" + 0.008*"strong" + 0.007*"highly" + 0.006*"needs" + 0.006*"effective" + 0.005*"leaders" + 0.005*"improve" + 0.005*"high"', '0.012*"well" + 0.010*"practice" + 0.009*"’" + 0.006*"strong" + 0.006*"highly" + 0.006*"leaders" + 0.005*"needs" + 0.004*"professionals" + 0.004*"high" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3334,7 +3334,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"plans" + 0.005*"effective" + 0.005*"parents" + 0.004*"Kingston" + 0.004*"clear" + 0.004*"supported" + 0.004*"good"', '0.016*"’" + 0.010*"well" + 0.009*"plans" + 0.008*"needs" + 0.006*"good" + 0.005*"practice" + 0.005*"need" + 0.005*"clear" + 0.005*"effective" + 0.004*"risk"', '0.007*"plans" + 0.007*"’" + 0.006*"well" + 0.004*"needs" + 0.004*"good" + 0.003*"progress" + 0.003*"need" + 0.003*"supported" + 0.003*"parents" + 0.003*"risk"']</t>
+    <t>['0.015*"’" + 0.008*"well" + 0.007*"plans" + 0.006*"needs" + 0.005*"effective" + 0.005*"supported" + 0.004*"practice" + 0.004*"risk" + 0.004*"appropriate" + 0.004*"good"', '0.012*"’" + 0.009*"plans" + 0.008*"needs" + 0.005*"well" + 0.005*"good" + 0.005*"range" + 0.005*"parents" + 0.004*"clear" + 0.004*"effective" + 0.004*"risk"', '0.013*"’" + 0.012*"well" + 0.008*"needs" + 0.008*"plans" + 0.006*"good" + 0.005*"need" + 0.005*"clear" + 0.004*"effective" + 0.004*"information" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3361,7 +3361,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.005*"needs" + 0.005*"quality" + 0.005*"well" + 0.005*"plans" + 0.004*"effective" + 0.004*"management" + 0.004*"always" + 0.004*"benefit" + 0.004*"information"', '0.010*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"quality" + 0.004*"use" + 0.004*"information" + 0.004*"benefit" + 0.004*"‘" + 0.004*"education"', '0.013*"’" + 0.004*"well" + 0.004*"effective" + 0.004*"quality" + 0.004*"actions" + 0.004*"needs" + 0.004*"good" + 0.004*"use" + 0.004*"always" + 0.004*"information"']</t>
+    <t>['0.011*"’" + 0.006*"well" + 0.004*"quality" + 0.004*"needs" + 0.004*"However" + 0.004*"good" + 0.004*"use" + 0.004*"actions" + 0.004*"benefit" + 0.003*"health"', '0.013*"’" + 0.005*"plans" + 0.005*"effective" + 0.005*"needs" + 0.005*"quality" + 0.005*"information" + 0.004*"use" + 0.004*"well" + 0.004*"benefit" + 0.004*"early"', '0.010*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"quality" + 0.005*"plans" + 0.004*"always" + 0.004*"health" + 0.004*"benefit" + 0.004*"informed" + 0.003*"information"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3382,7 +3382,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"need" + 0.006*"practice" + 0.005*"effective" + 0.005*"team" + 0.005*"ensure" + 0.005*"enough"', '0.014*"’" + 0.009*"needs" + 0.009*"well" + 0.009*"good" + 0.007*"ensure" + 0.006*"plans" + 0.006*"practice" + 0.006*"team" + 0.005*"sufficiently" + 0.005*"need"', '0.013*"’" + 0.012*"well" + 0.009*"needs" + 0.008*"team" + 0.007*"need" + 0.007*"protection" + 0.006*"enough" + 0.006*"practice" + 0.006*"effective" + 0.006*"good"']</t>
+    <t>['0.014*"’" + 0.012*"well" + 0.008*"need" + 0.007*"needs" + 0.007*"team" + 0.006*"good" + 0.006*"ensure" + 0.006*"effective" + 0.006*"plans" + 0.005*"practice"', '0.012*"’" + 0.010*"well" + 0.009*"good" + 0.009*"needs" + 0.008*"practice" + 0.006*"protection" + 0.006*"team" + 0.005*"enough" + 0.005*"plans" + 0.005*"ensure"', '0.012*"’" + 0.012*"needs" + 0.007*"well" + 0.007*"need" + 0.006*"good" + 0.006*"effective" + 0.006*"enough" + 0.006*"team" + 0.006*"plans" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3412,7 +3412,7 @@
     <t>0.1926</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"plans" + 0.007*"team" + 0.006*"practice" + 0.006*"quality" + 0.005*"timely" + 0.005*"needs" + 0.005*"early" + 0.005*"good" + 0.004*"leaders"', '0.020*"’" + 0.007*"team" + 0.006*"needs" + 0.006*"plans" + 0.006*"quality" + 0.005*"practice" + 0.005*"timely" + 0.005*"strong" + 0.005*"good" + 0.005*"early"', '0.011*"’" + 0.008*"needs" + 0.008*"plans" + 0.006*"practice" + 0.006*"team" + 0.005*"quality" + 0.005*"timely" + 0.005*"risk" + 0.005*"plan" + 0.005*"effective"']</t>
+    <t>['0.018*"’" + 0.007*"team" + 0.007*"needs" + 0.006*"quality" + 0.006*"plans" + 0.006*"timely" + 0.005*"good" + 0.004*"protection" + 0.004*"practice" + 0.004*"need"', '0.011*"’" + 0.007*"plans" + 0.006*"needs" + 0.005*"practice" + 0.005*"team" + 0.004*"good" + 0.004*"effective" + 0.004*"timely" + 0.004*"risk" + 0.004*"strong"', '0.013*"’" + 0.008*"plans" + 0.007*"practice" + 0.007*"team" + 0.006*"needs" + 0.006*"quality" + 0.005*"risk" + 0.005*"timely" + 0.005*"need" + 0.005*"early"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3433,7 +3433,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"needs" + 0.007*"well" + 0.007*"Sandwell" + 0.007*"plans" + 0.005*"Trust" + 0.005*"education" + 0.005*"quality" + 0.005*"number" + 0.005*"changes"', '0.013*"’" + 0.006*"plans" + 0.006*"Sandwell" + 0.005*"needs" + 0.005*"well" + 0.004*"20" + 0.004*"quality" + 0.004*"9" + 0.004*"progress" + 0.004*"Trust"', '0.012*"’" + 0.008*"Sandwell" + 0.007*"quality" + 0.007*"plans" + 0.007*"needs" + 0.006*"well" + 0.005*"progress" + 0.005*"9" + 0.004*"number" + 0.004*"many"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"Sandwell" + 0.007*"plans" + 0.005*"quality" + 0.005*"Trust" + 0.005*"education" + 0.005*"number" + 0.005*"9"', '0.014*"’" + 0.008*"Sandwell" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"quality" + 0.005*"changes" + 0.005*"Trust" + 0.004*"number" + 0.004*"progress"', '0.015*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"Sandwell" + 0.006*"well" + 0.006*"quality" + 0.005*"education" + 0.005*"20" + 0.005*"progress" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3454,7 +3454,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"needs" + 0.006*"practice" + 0.006*"oversight" + 0.005*"many" + 0.005*"plans" + 0.004*"4" + 0.004*"management" + 0.004*"Sefton" + 0.004*"2022"', '0.018*"’" + 0.008*"needs" + 0.006*"practice" + 0.005*"including" + 0.005*"protection" + 0.005*"◼" + 0.005*"lack" + 0.005*"many" + 0.005*"4" + 0.004*"oversight"', '0.018*"’" + 0.011*"needs" + 0.007*"practice" + 0.006*"oversight" + 0.005*"lack" + 0.005*"protection" + 0.005*"management" + 0.005*"including" + 0.005*"response" + 0.005*"Sefton"']</t>
+    <t>['0.018*"’" + 0.012*"needs" + 0.006*"◼" + 0.006*"practice" + 0.006*"oversight" + 0.005*"management" + 0.005*"protection" + 0.005*"lack" + 0.005*"including" + 0.005*"plans"', '0.017*"’" + 0.007*"needs" + 0.005*"practice" + 0.005*"protection" + 0.005*"including" + 0.004*"4" + 0.004*"lack" + 0.004*"many" + 0.004*"plans" + 0.004*"◼"', '0.013*"’" + 0.009*"needs" + 0.007*"practice" + 0.006*"oversight" + 0.005*"always" + 0.005*"4" + 0.005*"many" + 0.005*"Sefton" + 0.005*"March" + 0.005*"lack"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3484,7 +3484,7 @@
     <t>0.2097</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.007*"well" + 0.006*"leaders" + 0.005*"health" + 0.005*"quality" + 0.004*"adviser" + 0.004*"experiences" + 0.004*"ensure"', '0.025*"’" + 0.012*"Sheffield" + 0.008*"needs" + 0.008*"well" + 0.007*"practice" + 0.006*"leaders" + 0.005*"health" + 0.005*"mental" + 0.005*"plans" + 0.005*"good"', '0.017*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.005*"practice" + 0.005*"health" + 0.005*"well" + 0.004*"leaders" + 0.004*"receive" + 0.004*"adviser" + 0.004*"ensure"']</t>
+    <t>['0.017*"’" + 0.010*"Sheffield" + 0.007*"needs" + 0.006*"leaders" + 0.005*"practice" + 0.005*"well" + 0.005*"health" + 0.004*"22" + 0.004*"good" + 0.004*"experiences"', '0.018*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.008*"well" + 0.005*"leaders" + 0.005*"health" + 0.004*"quality" + 0.004*"adviser" + 0.004*"practice" + 0.004*"right"', '0.024*"’" + 0.012*"Sheffield" + 0.009*"needs" + 0.007*"well" + 0.007*"practice" + 0.006*"health" + 0.005*"leaders" + 0.005*"plans" + 0.005*"quality" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3508,7 +3508,7 @@
     <t>25/03/22</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"progress" + 0.006*"Shropshire" + 0.005*"plans" + 0.005*"2022" + 0.005*"making" + 0.004*"training" + 0.004*"7"', '0.019*"’" + 0.008*"Shropshire" + 0.007*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"2022" + 0.005*"leaders" + 0.005*"making" + 0.005*"11"', '0.019*"’" + 0.009*"needs" + 0.006*"well" + 0.006*"Shropshire" + 0.006*"plans" + 0.005*"progress" + 0.005*"making" + 0.005*"7" + 0.005*"2022" + 0.004*"arrangements"']</t>
+    <t>['0.017*"’" + 0.008*"needs" + 0.006*"progress" + 0.006*"Shropshire" + 0.006*"well" + 0.005*"plans" + 0.005*"making" + 0.005*"effective" + 0.004*"leaders" + 0.004*"7"', '0.017*"’" + 0.009*"needs" + 0.009*"well" + 0.008*"Shropshire" + 0.005*"2022" + 0.005*"progress" + 0.005*"plans" + 0.004*"11" + 0.004*"training" + 0.004*"making"', '0.017*"’" + 0.008*"needs" + 0.007*"Shropshire" + 0.005*"well" + 0.005*"practice" + 0.005*"progress" + 0.005*"making" + 0.005*"7" + 0.005*"plans" + 0.005*"2022"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3529,7 +3529,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"quality" + 0.008*"Slough" + 0.007*"plans" + 0.006*"needs" + 0.005*"leaders" + 0.005*"practice" + 0.005*"timely" + 0.004*"supported" + 0.004*"need"', '0.015*"’" + 0.006*"Slough" + 0.006*"impact" + 0.005*"quality" + 0.005*"plans" + 0.004*"needs" + 0.004*"However" + 0.004*"3" + 0.004*"PAs" + 0.004*"supported"', '0.017*"’" + 0.009*"Slough" + 0.007*"practice" + 0.007*"needs" + 0.006*"plans" + 0.005*"need" + 0.005*"23" + 0.005*"3" + 0.005*"However" + 0.005*"impact"']</t>
+    <t>['0.016*"’" + 0.009*"Slough" + 0.006*"needs" + 0.006*"plans" + 0.005*"leaders" + 0.005*"3" + 0.005*"quality" + 0.005*"practice" + 0.005*"However" + 0.005*"impact"', '0.014*"’" + 0.007*"Slough" + 0.006*"needs" + 0.006*"quality" + 0.006*"plans" + 0.005*"practice" + 0.005*"need" + 0.005*"impact" + 0.004*"supported" + 0.004*"However"', '0.017*"’" + 0.008*"Slough" + 0.006*"plans" + 0.006*"practice" + 0.006*"quality" + 0.006*"needs" + 0.005*"3" + 0.005*"timely" + 0.005*"leaders" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3550,7 +3550,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.013*"lack" + 0.009*"2022" + 0.007*"need" + 0.007*"Solihull" + 0.006*"practice" + 0.006*"quality" + 0.006*"risk" + 0.006*"experiences" + 0.005*"significant"', '0.012*"’" + 0.009*"lack" + 0.007*"2022" + 0.007*"Solihull" + 0.005*"risk" + 0.005*"quality" + 0.005*"need" + 0.005*"delay" + 0.005*"effective" + 0.005*"significant"', '0.011*"’" + 0.007*"lack" + 0.007*"2022" + 0.005*"risk" + 0.005*"effective" + 0.004*"need" + 0.004*"progress" + 0.004*"experiences" + 0.004*"quality" + 0.004*"Solihull"']</t>
+    <t>['0.015*"’" + 0.011*"lack" + 0.007*"Solihull" + 0.006*"2022" + 0.006*"practice" + 0.006*"need" + 0.005*"effective" + 0.005*"risk" + 0.005*"experiences" + 0.005*"significant"', '0.017*"’" + 0.010*"lack" + 0.009*"2022" + 0.007*"quality" + 0.007*"risk" + 0.006*"need" + 0.005*"Solihull" + 0.005*"experiences" + 0.005*"means" + 0.005*"partners"', '0.014*"’" + 0.011*"lack" + 0.009*"2022" + 0.006*"Solihull" + 0.006*"need" + 0.005*"risk" + 0.005*"31" + 0.005*"delay" + 0.005*"significant" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3571,7 +3571,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"Somerset" + 0.007*"plans" + 0.006*"practice" + 0.006*"need" + 0.006*"including" + 0.006*"number" + 0.006*"supported"', '0.016*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"good" + 0.005*"plans" + 0.005*"leaders" + 0.005*"Somerset" + 0.005*"effective" + 0.005*"family" + 0.005*"practice"', '0.015*"’" + 0.008*"well" + 0.007*"good" + 0.006*"Somerset" + 0.006*"needs" + 0.005*"leaders" + 0.005*"supported" + 0.005*"plans" + 0.005*"progress" + 0.005*"understand"']</t>
+    <t>['0.014*"’" + 0.009*"well" + 0.005*"needs" + 0.005*"Somerset" + 0.005*"good" + 0.004*"plans" + 0.004*"practice" + 0.004*"effective" + 0.004*"health" + 0.004*"supported"', '0.016*"’" + 0.009*"well" + 0.008*"Somerset" + 0.006*"needs" + 0.006*"need" + 0.006*"plans" + 0.005*"progress" + 0.005*"good" + 0.005*"supported" + 0.005*"18"', '0.019*"’" + 0.011*"needs" + 0.008*"well" + 0.007*"plans" + 0.007*"Somerset" + 0.006*"good" + 0.006*"including" + 0.006*"leaders" + 0.006*"supported" + 0.006*"number"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3592,7 +3592,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.010*"well" + 0.009*"quality" + 0.009*"leaders" + 0.008*"plans" + 0.007*"’" + 0.006*"progress" + 0.006*"good" + 0.005*"needs" + 0.005*"always" + 0.005*"practice"', '0.013*"well" + 0.010*"quality" + 0.009*"leaders" + 0.009*"’" + 0.007*"plans" + 0.007*"timely" + 0.007*"good" + 0.006*"needs" + 0.005*"progress" + 0.005*"Senior"', '0.012*"quality" + 0.011*"’" + 0.008*"well" + 0.008*"plans" + 0.008*"good" + 0.007*"leaders" + 0.006*"timely" + 0.005*"needs" + 0.004*"timeliness" + 0.004*"always"']</t>
+    <t>['0.012*"well" + 0.010*"quality" + 0.009*"’" + 0.008*"leaders" + 0.007*"plans" + 0.006*"timely" + 0.006*"needs" + 0.006*"good" + 0.005*"South" + 0.005*"progress"', '0.012*"quality" + 0.012*"well" + 0.009*"plans" + 0.009*"leaders" + 0.008*"’" + 0.006*"good" + 0.005*"progress" + 0.005*"practice" + 0.005*"timely" + 0.005*"needs"', '0.009*"’" + 0.008*"leaders" + 0.008*"quality" + 0.008*"good" + 0.007*"well" + 0.006*"timely" + 0.006*"plans" + 0.006*"needs" + 0.005*"progress" + 0.005*"Senior"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -3622,7 +3622,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"South" + 0.006*"However" + 0.005*"needs" + 0.005*"oversight" + 0.005*"14" + 0.005*"Tyneside" + 0.004*"2022" + 0.004*"February" + 0.004*"plans"', '0.020*"’" + 0.007*"needs" + 0.007*"Tyneside" + 0.006*"South" + 0.006*"oversight" + 0.005*"carers" + 0.005*"However" + 0.005*"practice" + 0.005*"management" + 0.005*"February"', '0.031*"’" + 0.012*"needs" + 0.009*"Tyneside" + 0.008*"South" + 0.006*"effective" + 0.005*"9" + 0.005*"management" + 0.005*"leaders" + 0.005*"carers" + 0.005*"oversight"']</t>
+    <t>['0.018*"’" + 0.007*"needs" + 0.007*"South" + 0.006*"Tyneside" + 0.005*"oversight" + 0.005*"2022" + 0.005*"15" + 0.004*"5" + 0.004*"However" + 0.004*"management"', '0.022*"’" + 0.008*"South" + 0.008*"needs" + 0.007*"Tyneside" + 0.005*"oversight" + 0.005*"effective" + 0.005*"management" + 0.004*"February" + 0.004*"9" + 0.004*"practice"', '0.029*"’" + 0.011*"needs" + 0.009*"Tyneside" + 0.007*"South" + 0.006*"carers" + 0.006*"However" + 0.005*"effective" + 0.005*"management" + 0.005*"progress" + 0.005*"5"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -3649,7 +3649,7 @@
     <t>28/07/23</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.006*"plans" + 0.006*"improve" + 0.005*"provide" + 0.005*"progress" + 0.005*"Southampton" + 0.004*"June" + 0.004*"timely" + 0.004*"experiences" + 0.004*"leaders"', '0.015*"’" + 0.006*"Southampton" + 0.006*"plans" + 0.006*"5" + 0.005*"improve" + 0.005*"good" + 0.005*"progress" + 0.005*"including" + 0.005*"16" + 0.004*"needs"', '0.014*"’" + 0.006*"needs" + 0.005*"Southampton" + 0.005*"plans" + 0.004*"progress" + 0.004*"2023" + 0.004*"including" + 0.004*"experiences" + 0.004*"risks" + 0.004*"well"']</t>
+    <t>['0.021*"’" + 0.006*"plans" + 0.006*"Southampton" + 0.005*"improve" + 0.005*"including" + 0.005*"5" + 0.005*"experiences" + 0.005*"progress" + 0.005*"needs" + 0.004*"16"', '0.010*"’" + 0.005*"Southampton" + 0.005*"plans" + 0.005*"progress" + 0.005*"needs" + 0.004*"5" + 0.004*"improve" + 0.004*"2023" + 0.004*"provide" + 0.004*"need"', '0.015*"’" + 0.005*"plans" + 0.005*"Southampton" + 0.005*"including" + 0.004*"progress" + 0.004*"16" + 0.004*"good" + 0.004*"improve" + 0.004*"June" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -3679,7 +3679,7 @@
     <t>to requires improvement</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"planning" + 0.008*"practice" + 0.007*"leaders" + 0.007*"quality" + 0.006*"carers" + 0.006*"number" + 0.005*"needs" + 0.005*"always" + 0.005*"However"', '0.015*"’" + 0.008*"quality" + 0.006*"practice" + 0.006*"planning" + 0.006*"protection" + 0.006*"good" + 0.006*"risk" + 0.005*"leaders" + 0.005*"Southend" + 0.005*"effective"', '0.010*"’" + 0.007*"planning" + 0.006*"practice" + 0.005*"leaders" + 0.005*"number" + 0.005*"within" + 0.005*"well" + 0.004*"always" + 0.004*"needs" + 0.004*"protection"']</t>
+    <t>['0.010*"’" + 0.008*"planning" + 0.006*"quality" + 0.006*"practice" + 0.006*"leaders" + 0.005*"number" + 0.005*"always" + 0.005*"good" + 0.004*"within" + 0.004*"carers"', '0.013*"’" + 0.007*"leaders" + 0.006*"practice" + 0.006*"quality" + 0.005*"effective" + 0.005*"planning" + 0.005*"always" + 0.005*"number" + 0.005*"carers" + 0.005*"Southend"', '0.016*"’" + 0.009*"planning" + 0.008*"practice" + 0.007*"quality" + 0.007*"protection" + 0.006*"need" + 0.006*"within" + 0.005*"leaders" + 0.005*"number" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -3697,7 +3697,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"Helens" + 0.007*"needs" + 0.007*"need" + 0.007*"St" + 0.006*"progress" + 0.006*"well" + 0.005*"10" + 0.005*"21" + 0.005*"risk"', '0.017*"’" + 0.009*"St" + 0.007*"needs" + 0.007*"Helens" + 0.007*"well" + 0.007*"good" + 0.006*"receive" + 0.006*"progress" + 0.006*"10" + 0.006*"21"', '0.013*"’" + 0.006*"Helens" + 0.006*"St" + 0.006*"well" + 0.006*"needs" + 0.004*"progress" + 0.004*"Leaders" + 0.004*"effective" + 0.004*"good" + 0.004*"receive"']</t>
+    <t>['0.016*"’" + 0.009*"Helens" + 0.008*"St" + 0.008*"well" + 0.006*"needs" + 0.006*"progress" + 0.006*"July" + 0.005*"receive" + 0.005*"good" + 0.005*"21"', '0.015*"’" + 0.008*"needs" + 0.007*"Helens" + 0.006*"need" + 0.006*"St" + 0.006*"progress" + 0.005*"21" + 0.005*"well" + 0.005*"10" + 0.005*"good"', '0.016*"’" + 0.009*"St" + 0.007*"needs" + 0.007*"Helens" + 0.006*"well" + 0.006*"10" + 0.006*"progress" + 0.006*"risk" + 0.005*"good" + 0.005*"receive"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -3721,7 +3721,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.008*"well" + 0.008*"’" + 0.006*"good" + 0.006*"needs" + 0.006*"quality" + 0.006*"effective" + 0.006*"risk" + 0.005*"education" + 0.004*"teams" + 0.004*"home"', '0.012*"’" + 0.009*"good" + 0.007*"needs" + 0.006*"well" + 0.006*"risk" + 0.005*"quality" + 0.005*"effective" + 0.005*"ensure" + 0.005*"range" + 0.005*"response"', '0.013*"’" + 0.010*"good" + 0.009*"well" + 0.008*"risk" + 0.008*"needs" + 0.007*"effective" + 0.006*"plans" + 0.006*"response" + 0.005*"receive" + 0.005*"quality"']</t>
+    <t>['0.011*"’" + 0.009*"good" + 0.008*"well" + 0.007*"needs" + 0.007*"risk" + 0.005*"quality" + 0.005*"range" + 0.005*"response" + 0.005*"home" + 0.005*"teams"', '0.012*"’" + 0.009*"good" + 0.009*"needs" + 0.008*"well" + 0.007*"effective" + 0.006*"risk" + 0.005*"response" + 0.005*"ensure" + 0.005*"teams" + 0.005*"plans"', '0.010*"’" + 0.008*"risk" + 0.007*"well" + 0.007*"good" + 0.007*"effective" + 0.007*"quality" + 0.006*"needs" + 0.006*"plans" + 0.005*"ensure" + 0.005*"range"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -3745,7 +3745,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"well" + 0.007*"practice" + 0.007*"needs" + 0.007*"Stockport" + 0.006*"ensure" + 0.005*"risk" + 0.005*"strong" + 0.005*"1" + 0.005*"plans"', '0.010*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Stockport" + 0.006*"plans" + 0.005*"needs" + 0.005*"risk" + 0.005*"strong" + 0.004*"28" + 0.004*"1"', '0.011*"’" + 0.007*"practice" + 0.007*"well" + 0.006*"Stockport" + 0.006*"strong" + 0.005*"needs" + 0.005*"plans" + 0.005*"28" + 0.004*"quality" + 0.004*"leaders"']</t>
+    <t>['0.010*"’" + 0.007*"practice" + 0.006*"well" + 0.006*"strong" + 0.006*"Stockport" + 0.006*"plans" + 0.005*"needs" + 0.005*"team" + 0.005*"28" + 0.004*"ensure"', '0.010*"’" + 0.009*"well" + 0.008*"practice" + 0.008*"Stockport" + 0.007*"needs" + 0.006*"strong" + 0.006*"plans" + 0.005*"risk" + 0.005*"leaders" + 0.005*"quality"', '0.013*"’" + 0.009*"well" + 0.006*"practice" + 0.006*"Stockport" + 0.006*"needs" + 0.005*"risk" + 0.005*"1" + 0.004*"28" + 0.004*"ensure" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -3778,7 +3778,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.011*"plans" + 0.009*"needs" + 0.008*"leaders" + 0.007*"well" + 0.007*"quality" + 0.007*"Stockton" + 0.006*"on-Tees" + 0.006*"good" + 0.005*"carers"', '0.020*"’" + 0.008*"leaders" + 0.006*"plans" + 0.006*"well" + 0.006*"on-Tees" + 0.006*"Stockton" + 0.005*"good" + 0.005*"needs" + 0.005*"senior" + 0.005*"quality"', '0.016*"’" + 0.009*"leaders" + 0.007*"plans" + 0.006*"senior" + 0.005*"quality" + 0.005*"well" + 0.005*"good" + 0.005*"on-Tees" + 0.005*"6" + 0.005*"Stockton"']</t>
+    <t>['0.016*"’" + 0.008*"leaders" + 0.008*"needs" + 0.007*"on-Tees" + 0.006*"plans" + 0.006*"quality" + 0.006*"good" + 0.006*"well" + 0.005*"senior" + 0.004*"March"', '0.017*"’" + 0.011*"leaders" + 0.010*"plans" + 0.007*"well" + 0.006*"Stockton" + 0.006*"on-Tees" + 0.006*"needs" + 0.006*"quality" + 0.005*"17" + 0.005*"good"', '0.024*"’" + 0.008*"plans" + 0.006*"leaders" + 0.006*"Stockton" + 0.006*"needs" + 0.006*"well" + 0.006*"quality" + 0.005*"good" + 0.005*"on-Tees" + 0.005*"carers"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -3796,7 +3796,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50200027</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"Stoke" + 0.008*"needs" + 0.006*"on-Trent" + 0.006*"However" + 0.006*"well" + 0.006*"plans" + 0.006*"ensure" + 0.005*"quality" + 0.005*"protection"', '0.019*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"on-Trent" + 0.006*"However" + 0.005*"ensure" + 0.005*"plans" + 0.005*"protection" + 0.005*"Stoke" + 0.005*"3"', '0.017*"’" + 0.010*"needs" + 0.008*"plans" + 0.007*"on-Trent" + 0.007*"However" + 0.007*"Stoke" + 0.006*"protection" + 0.006*"well" + 0.005*"ensure" + 0.005*"information"']</t>
+    <t>['0.019*"’" + 0.009*"needs" + 0.006*"on-Trent" + 0.006*"However" + 0.006*"well" + 0.006*"plans" + 0.005*"Stoke" + 0.005*"progress" + 0.005*"ensure" + 0.005*"consistently"', '0.015*"’" + 0.009*"needs" + 0.008*"Stoke" + 0.008*"well" + 0.008*"However" + 0.007*"on-Trent" + 0.006*"protection" + 0.006*"ensure" + 0.005*"quality" + 0.005*"plans"', '0.018*"’" + 0.008*"plans" + 0.007*"needs" + 0.007*"Stoke" + 0.006*"on-Trent" + 0.006*"well" + 0.006*"3" + 0.005*"ensure" + 0.005*"However" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -3823,7 +3823,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.006*"good" + 0.006*"progress" + 0.005*"effective" + 0.004*"leaders" + 0.004*"carers" + 0.004*"ensure" + 0.004*"needs" + 0.004*"practice"', '0.013*"’" + 0.006*"progress" + 0.006*"well" + 0.005*"leaders" + 0.004*"effective" + 0.004*"practice" + 0.004*"ensure" + 0.004*"needs" + 0.004*"high" + 0.003*"good"', '0.011*"’" + 0.007*"progress" + 0.006*"well" + 0.005*"ensure" + 0.005*"effective" + 0.004*"leaders" + 0.004*"good" + 0.004*"practice" + 0.004*"Suffolk" + 0.003*"use"']</t>
+    <t>['0.012*"’" + 0.007*"progress" + 0.006*"well" + 0.005*"leaders" + 0.005*"good" + 0.005*"need" + 0.005*"needs" + 0.004*"ensure" + 0.004*"carers" + 0.004*"Suffolk"', '0.011*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"effective" + 0.004*"good" + 0.004*"ensure" + 0.004*"leaders" + 0.004*"practice" + 0.004*"Suffolk" + 0.004*"needs"', '0.016*"’" + 0.007*"well" + 0.006*"effective" + 0.006*"progress" + 0.005*"ensure" + 0.005*"good" + 0.004*"practice" + 0.004*"leaders" + 0.004*"high" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -3853,7 +3853,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.006*"Sunderland" + 0.006*"needs" + 0.005*"quality" + 0.004*"protection" + 0.004*"council" + 0.004*"need" + 0.004*"training" + 0.004*"good"', '0.013*"’" + 0.007*"well" + 0.006*"quality" + 0.006*"needs" + 0.005*"good" + 0.005*"experienced" + 0.005*"practice" + 0.005*"Sunderland" + 0.004*"protection" + 0.004*"result"', '0.019*"’" + 0.008*"quality" + 0.007*"well" + 0.007*"needs" + 0.006*"Sunderland" + 0.005*"experienced" + 0.005*"parents" + 0.005*"council" + 0.005*"practice" + 0.005*"TfC"']</t>
+    <t>['0.017*"’" + 0.008*"well" + 0.006*"experienced" + 0.006*"quality" + 0.005*"parents" + 0.005*"needs" + 0.005*"TfC" + 0.005*"good" + 0.005*"practice" + 0.004*"council"', '0.013*"’" + 0.008*"needs" + 0.007*"quality" + 0.006*"well" + 0.005*"Sunderland" + 0.005*"experienced" + 0.005*"protection" + 0.005*"training" + 0.005*"good" + 0.004*"council"', '0.018*"’" + 0.008*"Sunderland" + 0.008*"well" + 0.007*"quality" + 0.006*"needs" + 0.005*"practice" + 0.004*"result" + 0.004*"highly" + 0.004*"TfC" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -3880,7 +3880,7 @@
     <t>0.1782</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.013*"needs" + 0.009*"well" + 0.007*"practice" + 0.007*"progress" + 0.005*"good" + 0.005*"carers" + 0.005*"plans" + 0.005*"17" + 0.005*"However"', '0.013*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"practice" + 0.005*"good" + 0.005*"17" + 0.005*"progress" + 0.005*"carers" + 0.004*"ensure" + 0.004*"However"', '0.012*"’" + 0.008*"well" + 0.008*"progress" + 0.007*"needs" + 0.007*"practice" + 0.006*"plans" + 0.006*"quality" + 0.006*"effective" + 0.005*"carers" + 0.005*"17"']</t>
+    <t>['0.011*"’" + 0.007*"needs" + 0.007*"practice" + 0.007*"progress" + 0.007*"well" + 0.006*"plans" + 0.005*"17" + 0.005*"However" + 0.005*"effective" + 0.005*"good"', '0.011*"needs" + 0.009*"’" + 0.009*"well" + 0.007*"progress" + 0.007*"practice" + 0.005*"plans" + 0.005*"quality" + 0.005*"good" + 0.004*"28" + 0.004*"effective"', '0.018*"’" + 0.011*"well" + 0.010*"needs" + 0.007*"practice" + 0.006*"carers" + 0.006*"progress" + 0.005*"17" + 0.005*"Surrey" + 0.005*"effective" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -3901,7 +3901,7 @@
     <t>0.1489</t>
   </si>
   <si>
-    <t>['0.029*"’" + 0.012*"needs" + 0.010*"well" + 0.009*"Swindon" + 0.008*"need" + 0.006*"always" + 0.006*"Council" + 0.006*"plans" + 0.006*"health" + 0.005*"many"', '0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"need" + 0.005*"Swindon" + 0.005*"impact" + 0.005*"plans" + 0.004*"health" + 0.004*"always" + 0.004*"lack"', '0.019*"’" + 0.016*"needs" + 0.010*"Swindon" + 0.009*"need" + 0.008*"plans" + 0.007*"always" + 0.007*"impact" + 0.007*"well" + 0.006*"effective" + 0.006*"home"']</t>
+    <t>['0.024*"’" + 0.014*"needs" + 0.008*"need" + 0.008*"well" + 0.007*"Swindon" + 0.006*"plans" + 0.006*"always" + 0.006*"effective" + 0.005*"home" + 0.005*"lack"', '0.023*"’" + 0.013*"needs" + 0.011*"Swindon" + 0.008*"well" + 0.008*"need" + 0.007*"always" + 0.007*"plans" + 0.006*"health" + 0.006*"impact" + 0.005*"Council"', '0.019*"’" + 0.011*"needs" + 0.009*"need" + 0.007*"Swindon" + 0.007*"well" + 0.006*"plans" + 0.005*"always" + 0.005*"many" + 0.005*"impact" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -3922,7 +3922,7 @@
     <t>0.1619</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"plans" + 0.006*"always" + 0.006*"good" + 0.005*"practice" + 0.005*"impact" + 0.005*"example" + 0.005*"progress" + 0.004*"well" + 0.004*"need"', '0.020*"’" + 0.007*"impact" + 0.007*"progress" + 0.007*"plans" + 0.006*"well" + 0.006*"practice" + 0.006*"always" + 0.005*"good" + 0.005*"need" + 0.005*"new"', '0.012*"’" + 0.007*"plans" + 0.006*"always" + 0.005*"impact" + 0.005*"good" + 0.005*"well" + 0.005*"practice" + 0.004*"needs" + 0.004*"improving" + 0.004*"progress"']</t>
+    <t>['0.013*"’" + 0.008*"plans" + 0.006*"impact" + 0.006*"always" + 0.006*"practice" + 0.005*"good" + 0.005*"well" + 0.005*"progress" + 0.004*"need" + 0.004*"However"', '0.012*"’" + 0.006*"impact" + 0.006*"always" + 0.004*"plans" + 0.004*"need" + 0.004*"well" + 0.004*"good" + 0.004*"early" + 0.004*"needs" + 0.004*"progress"', '0.019*"’" + 0.007*"plans" + 0.007*"progress" + 0.007*"practice" + 0.006*"impact" + 0.006*"well" + 0.006*"good" + 0.006*"always" + 0.005*"needs" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -3943,7 +3943,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.008*"well" + 0.006*"effective" + 0.005*"practice" + 0.005*"plans" + 0.005*"planning" + 0.004*"strong" + 0.004*"improve" + 0.004*"need"', '0.018*"’" + 0.014*"well" + 0.008*"needs" + 0.008*"effective" + 0.006*"need" + 0.006*"plans" + 0.006*"strong" + 0.006*"ensure" + 0.005*"improve" + 0.005*"planning"', '0.011*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"effective" + 0.005*"practice" + 0.004*"leaders" + 0.004*"plans" + 0.004*"ensure" + 0.004*"planning" + 0.004*"timely"']</t>
+    <t>['0.016*"’" + 0.011*"well" + 0.008*"needs" + 0.008*"effective" + 0.006*"plans" + 0.005*"ensure" + 0.005*"practice" + 0.005*"strong" + 0.005*"need" + 0.004*"clear"', '0.015*"’" + 0.009*"well" + 0.006*"effective" + 0.006*"needs" + 0.006*"strong" + 0.005*"planning" + 0.004*"need" + 0.004*"ensure" + 0.004*"plans" + 0.004*"carers"', '0.017*"’" + 0.012*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"need" + 0.006*"effective" + 0.005*"practice" + 0.005*"leaders" + 0.005*"improve" + 0.005*"benefit"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -3964,7 +3964,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"well" + 0.007*"carers" + 0.005*"need" + 0.004*"practice" + 0.004*"effective" + 0.004*"leaders" + 0.004*"impact" + 0.004*"needs" + 0.004*"protect"', '0.009*"’" + 0.006*"well" + 0.004*"needs" + 0.003*"need" + 0.003*"ensure" + 0.003*"carers" + 0.003*"practice" + 0.003*"leaders" + 0.003*"protection" + 0.003*"vulnerable"', '0.013*"’" + 0.009*"well" + 0.006*"carers" + 0.005*"need" + 0.004*"needs" + 0.004*"ensure" + 0.004*"Thurrock" + 0.004*"good" + 0.004*"practice" + 0.004*"vulnerable"']</t>
+    <t>['0.014*"’" + 0.009*"well" + 0.006*"carers" + 0.005*"practice" + 0.005*"need" + 0.004*"needs" + 0.004*"ensure" + 0.004*"Thurrock" + 0.004*"leaders" + 0.003*"effective"', '0.014*"’" + 0.008*"well" + 0.006*"carers" + 0.005*"need" + 0.005*"needs" + 0.004*"leaders" + 0.004*"ensure" + 0.004*"parents" + 0.004*"effective" + 0.004*"protection"', '0.010*"’" + 0.008*"well" + 0.005*"carers" + 0.005*"need" + 0.003*"ensure" + 0.003*"effective" + 0.003*"strong" + 0.003*"understand" + 0.003*"Thurrock" + 0.003*"impact"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -3985,7 +3985,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.007*"Torbay" + 0.005*"team" + 0.005*"effective" + 0.005*"21" + 0.005*"needs" + 0.005*"good" + 0.004*"agencies" + 0.004*"progress"', '0.021*"’" + 0.009*"well" + 0.008*"Torbay" + 0.007*"good" + 0.005*"needs" + 0.005*"timely" + 0.005*"effective" + 0.005*"plans" + 0.004*"education" + 0.004*"progress"', '0.011*"’" + 0.009*"well" + 0.007*"Torbay" + 0.007*"needs" + 0.005*"good" + 0.004*"effective" + 0.004*"progress" + 0.004*"2022" + 0.004*"1" + 0.004*"quality"']</t>
+    <t>['0.018*"’" + 0.009*"well" + 0.006*"Torbay" + 0.006*"effective" + 0.006*"good" + 0.005*"21" + 0.005*"needs" + 0.005*"supported" + 0.005*"plans" + 0.005*"agencies"', '0.014*"’" + 0.009*"well" + 0.007*"Torbay" + 0.005*"good" + 0.005*"progress" + 0.005*"needs" + 0.005*"team" + 0.004*"timely" + 0.004*"21" + 0.004*"focus"', '0.017*"’" + 0.009*"well" + 0.008*"Torbay" + 0.007*"needs" + 0.006*"good" + 0.005*"effective" + 0.005*"education" + 0.005*"team" + 0.005*"timely" + 0.004*"1"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -4006,7 +4006,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"plans" + 0.007*"needs" + 0.005*"quality" + 0.005*"Trafford" + 0.005*"well" + 0.004*"leaders" + 0.004*"placed" + 0.004*"impact" + 0.004*"team"', '0.019*"’" + 0.009*"Trafford" + 0.009*"needs" + 0.008*"well" + 0.008*"plans" + 0.008*"quality" + 0.006*"practice" + 0.006*"leaders" + 0.005*"team" + 0.005*"impact"', '0.014*"’" + 0.011*"needs" + 0.007*"Trafford" + 0.007*"well" + 0.005*"leaders" + 0.005*"plans" + 0.005*"worker" + 0.005*"quality" + 0.005*"ensure" + 0.005*"practice"']</t>
+    <t>['0.014*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"quality" + 0.006*"Trafford" + 0.006*"well" + 0.005*"leaders" + 0.005*"2" + 0.005*"worker" + 0.004*"practice"', '0.013*"’" + 0.010*"Trafford" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"leaders" + 0.006*"quality" + 0.005*"impact" + 0.005*"placed" + 0.005*"team"', '0.020*"’" + 0.011*"needs" + 0.007*"plans" + 0.007*"well" + 0.007*"Trafford" + 0.007*"quality" + 0.006*"practice" + 0.006*"ensure" + 0.005*"leaders" + 0.005*"team"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -4024,7 +4024,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50172854</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"leaders" + 0.007*"needs" + 0.005*"Walsall" + 0.005*"well" + 0.005*"information" + 0.004*"good" + 0.004*"receive" + 0.004*"4" + 0.004*"Senior"', '0.023*"’" + 0.008*"leaders" + 0.006*"needs" + 0.006*"Walsall" + 0.006*"well" + 0.005*"oversight" + 0.005*"Senior" + 0.005*"4" + 0.005*"practice" + 0.004*"good"', '0.021*"’" + 0.006*"well" + 0.006*"leaders" + 0.005*"needs" + 0.005*"information" + 0.004*"4" + 0.004*"positive" + 0.004*"Walsall" + 0.004*"15" + 0.004*"progress"']</t>
+    <t>['0.017*"’" + 0.007*"leaders" + 0.005*"needs" + 0.004*"well" + 0.004*"Walsall" + 0.004*"4" + 0.004*"15" + 0.004*"Senior" + 0.004*"2021" + 0.004*"need"', '0.025*"’" + 0.007*"leaders" + 0.007*"well" + 0.007*"needs" + 0.006*"Walsall" + 0.005*"information" + 0.005*"4" + 0.005*"positive" + 0.005*"oversight" + 0.004*"receive"', '0.019*"’" + 0.008*"leaders" + 0.007*"needs" + 0.006*"Walsall" + 0.005*"well" + 0.005*"Senior" + 0.004*"oversight" + 0.004*"information" + 0.004*"plans" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4042,7 +4042,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50101635</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"well" + 0.007*"practice" + 0.004*"number" + 0.004*"receive" + 0.004*"progress" + 0.004*"need" + 0.004*"plans" + 0.004*"Senior" + 0.004*"senior"', '0.018*"’" + 0.006*"practice" + 0.006*"well" + 0.005*"Senior" + 0.004*"plans" + 0.004*"carers" + 0.004*"number" + 0.004*"progress" + 0.004*"information" + 0.004*"high"', '0.014*"’" + 0.006*"practice" + 0.006*"well" + 0.005*"plans" + 0.005*"home" + 0.005*"number" + 0.005*"information" + 0.004*"Senior" + 0.004*"good" + 0.004*"progress"']</t>
+    <t>['0.011*"’" + 0.007*"practice" + 0.005*"well" + 0.005*"Senior" + 0.005*"plans" + 0.004*"progress" + 0.004*"information" + 0.004*"good" + 0.004*"number" + 0.003*"provided"', '0.016*"’" + 0.007*"well" + 0.005*"practice" + 0.005*"number" + 0.005*"home" + 0.004*"plans" + 0.004*"progress" + 0.004*"carers" + 0.004*"parents" + 0.004*"senior"', '0.015*"’" + 0.007*"practice" + 0.007*"well" + 0.005*"Senior" + 0.004*"need" + 0.004*"plans" + 0.004*"carers" + 0.004*"good" + 0.004*"needs" + 0.004*"number"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4066,7 +4066,7 @@
     <t>03/12/2021</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"plans" + 0.007*"well" + 0.006*"Warwickshire" + 0.006*"carers" + 0.005*"needs" + 0.005*"practice" + 0.005*"progress" + 0.004*"Senior" + 0.004*"3"', '0.010*"’" + 0.008*"needs" + 0.007*"well" + 0.005*"Warwickshire" + 0.005*"information" + 0.004*"good" + 0.004*"plans" + 0.004*"practice" + 0.004*"effective" + 0.004*"2021"', '0.013*"’" + 0.006*"needs" + 0.006*"Warwickshire" + 0.006*"plans" + 0.006*"well" + 0.005*"practice" + 0.005*"clear" + 0.005*"3" + 0.005*"good" + 0.004*"supported"']</t>
+    <t>['0.011*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"practice" + 0.004*"good" + 0.004*"Warwickshire" + 0.004*"3" + 0.004*"carers" + 0.004*"effective"', '0.012*"’" + 0.007*"plans" + 0.007*"Warwickshire" + 0.006*"needs" + 0.006*"well" + 0.005*"practice" + 0.005*"carers" + 0.005*"3" + 0.005*"good" + 0.005*"clear"', '0.012*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"Warwickshire" + 0.005*"progress" + 0.005*"information" + 0.005*"clear" + 0.004*"22" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4093,7 +4093,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"Berkshire" + 0.007*"well" + 0.005*"West" + 0.004*"plans" + 0.004*"agency" + 0.004*"education" + 0.004*"early" + 0.004*"2022" + 0.004*"practice"', '0.014*"’" + 0.007*"West" + 0.006*"well" + 0.006*"Berkshire" + 0.004*"needs" + 0.004*"agency" + 0.004*"plans" + 0.004*"March" + 0.004*"practice" + 0.004*"ensure"', '0.016*"’" + 0.007*"West" + 0.005*"Berkshire" + 0.005*"need" + 0.004*"progress" + 0.004*"well" + 0.004*"14" + 0.004*"18" + 0.004*"needs" + 0.004*"working"']</t>
+    <t>['0.013*"’" + 0.007*"Berkshire" + 0.006*"well" + 0.004*"West" + 0.004*"need" + 0.004*"practice" + 0.004*"14" + 0.004*"needs" + 0.004*"early" + 0.004*"18"', '0.016*"’" + 0.006*"West" + 0.005*"plans" + 0.005*"Berkshire" + 0.005*"well" + 0.004*"working" + 0.004*"2022" + 0.004*"need" + 0.004*"14" + 0.004*"March"', '0.014*"’" + 0.008*"West" + 0.007*"well" + 0.006*"Berkshire" + 0.004*"needs" + 0.004*"agency" + 0.004*"need" + 0.004*"18" + 0.004*"early" + 0.004*"information"']</t>
   </si>
   <si>
     <t>941</t>
@@ -4111,7 +4111,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.009*"Northamptonshire" + 0.008*"quality" + 0.007*"well" + 0.006*"West" + 0.006*"NCT" + 0.006*"practice" + 0.005*"impact" + 0.005*"14" + 0.005*"Leaders"', '0.015*"’" + 0.007*"West" + 0.007*"Northamptonshire" + 0.005*"quality" + 0.005*"needs" + 0.005*"well" + 0.005*"practice" + 0.005*"3" + 0.004*"need" + 0.004*"2022"', '0.012*"’" + 0.007*"Northamptonshire" + 0.006*"well" + 0.006*"West" + 0.005*"plans" + 0.004*"needs" + 0.004*"practice" + 0.004*"quality" + 0.004*"3" + 0.004*"experiences"']</t>
+    <t>['0.021*"’" + 0.009*"Northamptonshire" + 0.008*"West" + 0.008*"well" + 0.007*"quality" + 0.006*"needs" + 0.006*"practice" + 0.005*"3" + 0.005*"14" + 0.005*"NCT"', '0.011*"’" + 0.008*"Northamptonshire" + 0.006*"quality" + 0.004*"needs" + 0.004*"impact" + 0.004*"well" + 0.004*"West" + 0.004*"plans" + 0.004*"practice" + 0.003*"NCT"', '0.016*"’" + 0.007*"Northamptonshire" + 0.007*"quality" + 0.006*"practice" + 0.005*"West" + 0.005*"plans" + 0.005*"well" + 0.005*"NCT" + 0.004*"3" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4132,7 +4132,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.006*"plans" + 0.005*"well" + 0.004*"needs" + 0.004*"Sussex" + 0.004*"education" + 0.004*"quality" + 0.004*"actively" + 0.003*"health" + 0.003*"number"', '0.016*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"well" + 0.006*"Sussex" + 0.006*"West" + 0.005*"health" + 0.005*"supported" + 0.005*"13" + 0.005*"quality"', '0.015*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"13" + 0.005*"plans" + 0.005*"West" + 0.005*"number" + 0.005*"quality" + 0.004*"practice" + 0.004*"Sussex"']</t>
+    <t>['0.016*"’" + 0.006*"well" + 0.005*"Sussex" + 0.005*"plans" + 0.005*"needs" + 0.005*"good" + 0.005*"13" + 0.005*"24" + 0.005*"West" + 0.005*"education"', '0.013*"’" + 0.007*"plans" + 0.007*"well" + 0.007*"needs" + 0.005*"number" + 0.005*"Sussex" + 0.005*"13" + 0.005*"supported" + 0.005*"West" + 0.004*"quality"', '0.012*"’" + 0.005*"well" + 0.005*"plans" + 0.005*"quality" + 0.005*"West" + 0.005*"needs" + 0.004*"practice" + 0.004*"clear" + 0.004*"health" + 0.004*"13"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4153,7 +4153,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"May" + 0.007*"Wigan" + 0.006*"appropriate" + 0.006*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"9" + 0.005*"timely" + 0.004*"quality"', '0.009*"’" + 0.008*"plans" + 0.007*"practice" + 0.007*"May" + 0.006*"quality" + 0.006*"needs" + 0.006*"Wigan" + 0.005*"2022" + 0.005*"9" + 0.005*"appropriate"', '0.013*"’" + 0.008*"May" + 0.006*"practice" + 0.006*"quality" + 0.006*"plans" + 0.005*"leaders" + 0.005*"needs" + 0.005*"Wigan" + 0.005*"timely" + 0.005*"20"']</t>
+    <t>['0.012*"’" + 0.008*"May" + 0.007*"practice" + 0.006*"plans" + 0.005*"needs" + 0.005*"appropriate" + 0.005*"quality" + 0.005*"Wigan" + 0.005*"leaders" + 0.004*"increased"', '0.013*"’" + 0.007*"plans" + 0.006*"practice" + 0.006*"May" + 0.006*"needs" + 0.006*"leaders" + 0.005*"quality" + 0.005*"appropriate" + 0.005*"9" + 0.005*"Wigan"', '0.013*"’" + 0.008*"May" + 0.008*"Wigan" + 0.006*"plans" + 0.006*"needs" + 0.006*"quality" + 0.006*"practice" + 0.005*"appropriate" + 0.004*"20" + 0.004*"9"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4180,7 +4180,7 @@
     <t>12/12/23</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"need" + 0.005*"parents" + 0.005*"Wiltshire" + 0.005*"risk" + 0.005*"supported" + 0.005*"including" + 0.005*"plans"', '0.019*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"progress" + 0.007*"Wiltshire" + 0.006*"ensure" + 0.006*"need" + 0.006*"parents" + 0.006*"quality" + 0.005*"including"', '0.015*"’" + 0.013*"well" + 0.007*"need" + 0.006*"risk" + 0.006*"needs" + 0.006*"including" + 0.006*"supported" + 0.005*"plans" + 0.005*"parents" + 0.005*"progress"']</t>
+    <t>['0.011*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"risk" + 0.004*"ensure" + 0.004*"need" + 0.004*"progress" + 0.004*"supported" + 0.004*"Wiltshire" + 0.004*"September"', '0.017*"’" + 0.013*"well" + 0.008*"needs" + 0.007*"need" + 0.007*"progress" + 0.007*"risk" + 0.006*"Wiltshire" + 0.006*"parents" + 0.005*"including" + 0.005*"ensure"', '0.015*"’" + 0.012*"well" + 0.007*"plans" + 0.007*"needs" + 0.006*"including" + 0.006*"need" + 0.006*"Wiltshire" + 0.006*"supported" + 0.006*"parents" + 0.006*"quality"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4210,7 +4210,7 @@
     <t>0.1719</t>
   </si>
   <si>
-    <t>['0.009*"quality" + 0.009*"’" + 0.008*"good" + 0.008*"needs" + 0.008*"well" + 0.007*"need" + 0.007*"place" + 0.007*"plans" + 0.007*"practice" + 0.006*"ensure"', '0.008*"’" + 0.007*"practice" + 0.007*"good" + 0.007*"well" + 0.007*"quality" + 0.007*"needs" + 0.006*"progress" + 0.006*"need" + 0.006*"plans" + 0.005*"planning"', '0.009*"quality" + 0.008*"well" + 0.008*"practice" + 0.008*"’" + 0.008*"good" + 0.008*"progress" + 0.006*"need" + 0.006*"plans" + 0.006*"ensure" + 0.006*"needs"']</t>
+    <t>['0.009*"’" + 0.009*"good" + 0.008*"quality" + 0.008*"well" + 0.008*"need" + 0.007*"plans" + 0.007*"needs" + 0.007*"progress" + 0.007*"practice" + 0.006*"ensure"', '0.010*"quality" + 0.009*"good" + 0.008*"’" + 0.007*"practice" + 0.007*"well" + 0.007*"plans" + 0.006*"needs" + 0.005*"progress" + 0.005*"need" + 0.005*"planning"', '0.009*"practice" + 0.008*"well" + 0.008*"quality" + 0.008*"’" + 0.008*"needs" + 0.007*"progress" + 0.006*"need" + 0.006*"good" + 0.006*"place" + 0.005*"planning"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4231,7 +4231,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"plans" + 0.006*"effective" + 0.005*"provided" + 0.005*"well" + 0.005*"needs" + 0.005*"progress" + 0.005*"good" + 0.004*"ensure" + 0.004*"experiences"', '0.015*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"provided" + 0.006*"progress" + 0.006*"experiences" + 0.006*"well" + 0.005*"oversight" + 0.005*"17" + 0.005*"effective"', '0.009*"’" + 0.008*"effective" + 0.007*"plans" + 0.006*"progress" + 0.005*"needs" + 0.005*"17" + 0.005*"quality" + 0.005*"6" + 0.005*"well" + 0.004*"impact"']</t>
+    <t>['0.015*"’" + 0.008*"plans" + 0.006*"needs" + 0.006*"effective" + 0.006*"well" + 0.006*"experiences" + 0.005*"progress" + 0.005*"17" + 0.005*"provided" + 0.005*"quality"', '0.011*"’" + 0.007*"effective" + 0.005*"needs" + 0.005*"6" + 0.005*"provided" + 0.005*"plans" + 0.005*"well" + 0.004*"progress" + 0.004*"experiences" + 0.004*"impact"', '0.011*"’" + 0.007*"plans" + 0.006*"progress" + 0.006*"needs" + 0.005*"effective" + 0.005*"protection" + 0.005*"well" + 0.005*"appropriate" + 0.005*"17" + 0.005*"provided"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4252,7 +4252,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"leaders" + 0.006*"plans" + 0.005*"Wolverhampton" + 0.005*"risks" + 0.004*"supported" + 0.004*"education" + 0.004*"receive"', '0.015*"’" + 0.008*"needs" + 0.005*"Wolverhampton" + 0.005*"effective" + 0.005*"quality" + 0.005*"risks" + 0.005*"receive" + 0.004*"plans" + 0.004*"risk" + 0.004*"practice"', '0.015*"’" + 0.008*"needs" + 0.006*"Wolverhampton" + 0.006*"effective" + 0.005*"supported" + 0.005*"strong" + 0.005*"education" + 0.005*"risks" + 0.005*"risk" + 0.004*"plans"']</t>
+    <t>['0.014*"’" + 0.007*"needs" + 0.007*"Wolverhampton" + 0.006*"plans" + 0.005*"risks" + 0.005*"effective" + 0.005*"receive" + 0.004*"strong" + 0.004*"risk" + 0.004*"28"', '0.013*"’" + 0.007*"needs" + 0.005*"effective" + 0.005*"education" + 0.005*"supported" + 0.005*"April" + 0.005*"leaders" + 0.004*"receive" + 0.004*"Wolverhampton" + 0.004*"quality"', '0.015*"’" + 0.008*"needs" + 0.007*"effective" + 0.006*"quality" + 0.006*"risks" + 0.005*"leaders" + 0.005*"Wolverhampton" + 0.005*"plans" + 0.005*"risk" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4279,7 +4279,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"leaders" + 0.008*"plans" + 0.007*"well" + 0.007*"needs" + 0.007*"progress" + 0.006*"appropriate" + 0.006*"ensure" + 0.006*"Worcestershire" + 0.005*"26"', '0.014*"’" + 0.008*"well" + 0.008*"Worcestershire" + 0.008*"needs" + 0.007*"plans" + 0.006*"appropriate" + 0.006*"leaders" + 0.005*"ensure" + 0.005*"progress" + 0.004*"2023"', '0.023*"’" + 0.009*"well" + 0.008*"plans" + 0.008*"needs" + 0.007*"progress" + 0.007*"Worcestershire" + 0.006*"Senior" + 0.006*"ensure" + 0.005*"leaders" + 0.005*"15"']</t>
+    <t>['0.018*"’" + 0.010*"needs" + 0.008*"plans" + 0.007*"progress" + 0.007*"leaders" + 0.006*"Worcestershire" + 0.006*"appropriate" + 0.005*"ensure" + 0.005*"well" + 0.005*"Senior"', '0.015*"’" + 0.007*"well" + 0.007*"progress" + 0.007*"plans" + 0.007*"needs" + 0.006*"Worcestershire" + 0.006*"leaders" + 0.005*"PAs" + 0.005*"living" + 0.005*"ensure"', '0.023*"’" + 0.012*"well" + 0.008*"Worcestershire" + 0.008*"plans" + 0.007*"leaders" + 0.007*"ensure" + 0.006*"appropriate" + 0.006*"needs" + 0.006*"progress" + 0.005*"15"']</t>
   </si>
   <si>
     <t>urn</t>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -67,7 +67,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"needs" + 0.007*"leaders" + 0.006*"practice" + 0.005*"within" + 0.005*"11" + 0.004*"plans" + 0.004*"senior" + 0.004*"15" + 0.004*"family"', '0.022*"’" + 0.008*"within" + 0.007*"leaders" + 0.007*"needs" + 0.007*"Barnsley" + 0.006*"practice" + 0.004*"2023" + 0.004*"response" + 0.004*"senior" + 0.004*"appropriate"', '0.019*"’" + 0.009*"needs" + 0.007*"leaders" + 0.006*"Barnsley" + 0.006*"practice" + 0.005*"within" + 0.005*"plans" + 0.004*"understand" + 0.004*"response" + 0.004*"September"']</t>
+    <t>['0.020*"’" + 0.007*"needs" + 0.007*"within" + 0.006*"Barnsley" + 0.006*"leaders" + 0.006*"response" + 0.005*"practice" + 0.005*"11" + 0.005*"plans" + 0.004*"15"', '0.017*"’" + 0.010*"leaders" + 0.009*"needs" + 0.006*"practice" + 0.005*"Barnsley" + 0.005*"within" + 0.005*"understand" + 0.004*"2023" + 0.004*"11" + 0.004*"plans"', '0.019*"’" + 0.007*"needs" + 0.007*"within" + 0.006*"leaders" + 0.006*"practice" + 0.005*"Barnsley" + 0.005*"quality" + 0.005*"2023" + 0.004*"plans" + 0.004*"senior"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -106,7 +106,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"well" + 0.006*"practice" + 0.005*"receive" + 0.005*"Bath" + 0.005*"leaders" + 0.005*"East" + 0.005*"‘" + 0.004*"effective" + 0.004*"needs"', '0.018*"’" + 0.008*"well" + 0.005*"needs" + 0.005*"clear" + 0.005*"practice" + 0.005*"plans" + 0.004*"receive" + 0.004*"4" + 0.004*"2022" + 0.004*"leaders"', '0.018*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"impact" + 0.005*"effective" + 0.005*"leaders" + 0.005*"Somerset" + 0.005*"practice" + 0.005*"North"']</t>
+    <t>['0.020*"’" + 0.010*"well" + 0.007*"practice" + 0.006*"needs" + 0.005*"4" + 0.005*"leaders" + 0.005*"plans" + 0.005*"impact" + 0.005*"clear" + 0.005*"Somerset"', '0.018*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"East" + 0.005*"protection" + 0.004*"leaders" + 0.004*"‘" + 0.004*"2022"', '0.014*"’" + 0.009*"well" + 0.006*"plans" + 0.005*"needs" + 0.005*"effective" + 0.005*"leaders" + 0.005*"receive" + 0.005*"Bath" + 0.004*"North" + 0.004*"education"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -151,7 +151,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.006*"needs" + 0.006*"ensure" + 0.006*"supported" + 0.006*"plans" + 0.005*"well" + 0.005*"good" + 0.004*"Bedford" + 0.004*"need" + 0.004*"progress"', '0.018*"’" + 0.008*"needs" + 0.005*"ensure" + 0.005*"Bedford" + 0.005*"progress" + 0.005*"relationships" + 0.004*"well" + 0.004*"plans" + 0.004*"made" + 0.004*"education"', '0.018*"’" + 0.007*"ensure" + 0.006*"well" + 0.006*"needs" + 0.006*"Bedford" + 0.005*"good" + 0.005*"family" + 0.005*"plans" + 0.005*"education" + 0.005*"Borough"']</t>
+    <t>['0.018*"’" + 0.007*"needs" + 0.006*"ensure" + 0.006*"Bedford" + 0.006*"well" + 0.005*"plans" + 0.005*"progress" + 0.005*"supported" + 0.005*"Borough" + 0.005*"family"', '0.015*"’" + 0.005*"needs" + 0.005*"well" + 0.005*"ensure" + 0.005*"good" + 0.005*"plans" + 0.004*"Bedford" + 0.004*"supported" + 0.004*"need" + 0.004*"education"', '0.022*"’" + 0.007*"needs" + 0.007*"ensure" + 0.006*"well" + 0.005*"plans" + 0.005*"supported" + 0.005*"good" + 0.005*"made" + 0.005*"relationships" + 0.005*"15"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -193,7 +193,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"needs" + 0.006*"Birmingham" + 0.006*"well" + 0.006*"plans" + 0.006*"trust" + 0.005*"progress" + 0.004*"effective" + 0.004*"risk" + 0.004*"leaders"', '0.014*"’" + 0.011*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"effective" + 0.006*"progress" + 0.006*"Birmingham" + 0.005*"3" + 0.005*"trust" + 0.005*"appropriate"', '0.016*"’" + 0.008*"effective" + 0.007*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"practice" + 0.005*"trust" + 0.005*"appropriate" + 0.005*"Birmingham" + 0.005*"3"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.008*"effective" + 0.006*"well" + 0.006*"Birmingham" + 0.006*"plans" + 0.005*"trust" + 0.005*"3" + 0.004*"leaders" + 0.004*"20"', '0.015*"’" + 0.009*"needs" + 0.007*"effective" + 0.007*"well" + 0.006*"plans" + 0.006*"appropriate" + 0.005*"3" + 0.005*"progress" + 0.005*"risk" + 0.005*"trust"', '0.017*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"Birmingham" + 0.006*"progress" + 0.006*"plans" + 0.006*"trust" + 0.005*"effective" + 0.005*"risk" + 0.005*"appropriate"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -232,7 +232,7 @@
     <t>0.1834</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"practice" + 0.007*"needs" + 0.007*"Darwen" + 0.006*"impact" + 0.006*"Blackburn" + 0.006*"quality" + 0.005*"well" + 0.005*"2022" + 0.005*"planning"', '0.017*"’" + 0.008*"needs" + 0.008*"quality" + 0.007*"practice" + 0.007*"well" + 0.007*"impact" + 0.006*"Darwen" + 0.006*"result" + 0.005*"planning" + 0.005*"Blackburn"', '0.011*"’" + 0.009*"Blackburn" + 0.007*"needs" + 0.007*"quality" + 0.006*"Darwen" + 0.005*"means" + 0.005*"practice" + 0.005*"well" + 0.005*"plans" + 0.005*"24"']</t>
+    <t>['0.009*"’" + 0.006*"practice" + 0.005*"quality" + 0.005*"needs" + 0.004*"impact" + 0.004*"well" + 0.004*"Blackburn" + 0.004*"plans" + 0.004*"Darwen" + 0.004*"means"', '0.011*"’" + 0.007*"practice" + 0.007*"well" + 0.007*"Darwen" + 0.007*"needs" + 0.006*"quality" + 0.006*"means" + 0.006*"Blackburn" + 0.005*"result" + 0.005*"impact"', '0.018*"’" + 0.009*"needs" + 0.008*"Blackburn" + 0.008*"quality" + 0.007*"practice" + 0.007*"impact" + 0.007*"Darwen" + 0.006*"well" + 0.006*"planning" + 0.006*"effective"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -271,7 +271,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.011*"well" + 0.009*"needs" + 0.006*"Blackpool" + 0.005*"supported" + 0.004*"2022" + 0.004*"effective" + 0.004*"practice" + 0.004*"16" + 0.004*"response"', '0.021*"’" + 0.009*"needs" + 0.008*"Blackpool" + 0.008*"well" + 0.006*"effective" + 0.006*"practice" + 0.005*"5" + 0.005*"plans" + 0.005*"16" + 0.005*"experiences"', '0.014*"’" + 0.013*"needs" + 0.009*"well" + 0.007*"Blackpool" + 0.006*"effective" + 0.005*"plans" + 0.005*"quality" + 0.005*"carers" + 0.005*"good" + 0.005*"supported"']</t>
+    <t>['0.015*"’" + 0.010*"needs" + 0.008*"well" + 0.006*"Blackpool" + 0.005*"plans" + 0.005*"effective" + 0.005*"quality" + 0.005*"practice" + 0.004*"16" + 0.004*"need"', '0.017*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"Blackpool" + 0.006*"effective" + 0.005*"plans" + 0.005*"16" + 0.005*"progress" + 0.004*"quality" + 0.004*"experiences"', '0.017*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"Blackpool" + 0.006*"supported" + 0.006*"practice" + 0.005*"experiences" + 0.005*"5" + 0.005*"16" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>350</t>
@@ -295,7 +295,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"Bolton" + 0.005*"supported" + 0.004*"planning" + 0.004*"2023" + 0.004*"strong" + 0.004*"11"', '0.017*"’" + 0.009*"well" + 0.009*"needs" + 0.006*"plans" + 0.006*"Bolton" + 0.005*"supported" + 0.005*"September" + 0.004*"11" + 0.004*"strong" + 0.004*"effective"', '0.023*"’" + 0.010*"Bolton" + 0.010*"needs" + 0.009*"plans" + 0.008*"well" + 0.007*"need" + 0.006*"supported" + 0.006*"planning" + 0.005*"response" + 0.005*"timely"']</t>
+    <t>['0.016*"’" + 0.008*"well" + 0.008*"Bolton" + 0.007*"plans" + 0.006*"needs" + 0.005*"planning" + 0.004*"need" + 0.004*"11" + 0.004*"risk" + 0.004*"strong"', '0.019*"’" + 0.011*"needs" + 0.008*"Bolton" + 0.007*"well" + 0.006*"plans" + 0.005*"effective" + 0.005*"11" + 0.005*"protection" + 0.005*"strong" + 0.005*"need"', '0.020*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"plans" + 0.008*"Bolton" + 0.007*"supported" + 0.006*"need" + 0.005*"planning" + 0.005*"response" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -331,7 +331,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"quality" + 0.005*"risk" + 0.005*"practice" + 0.005*"progress" + 0.005*"well" + 0.005*"Christchurch" + 0.005*"Bournemouth" + 0.004*"impact" + 0.004*"Poole"', '0.015*"’" + 0.007*"quality" + 0.005*"practice" + 0.005*"progress" + 0.004*"impact" + 0.004*"6" + 0.004*"17" + 0.004*"risk" + 0.004*"Poole" + 0.004*"Christchurch"', '0.021*"’" + 0.006*"practice" + 0.006*"17" + 0.005*"However" + 0.005*"progress" + 0.005*"time" + 0.005*"quality" + 0.005*"Poole" + 0.005*"6" + 0.004*"Bournemouth"']</t>
+    <t>['0.013*"’" + 0.005*"quality" + 0.004*"17" + 0.004*"well" + 0.004*"Poole" + 0.004*"6" + 0.004*"right" + 0.004*"practice" + 0.003*"However" + 0.003*"2021"', '0.014*"’" + 0.006*"quality" + 0.005*"practice" + 0.005*"Christchurch" + 0.005*"Bournemouth" + 0.005*"17" + 0.005*"progress" + 0.005*"many" + 0.005*"6" + 0.004*"Poole"', '0.023*"’" + 0.007*"practice" + 0.006*"progress" + 0.006*"quality" + 0.006*"time" + 0.005*"impact" + 0.005*"risk" + 0.005*"number" + 0.004*"However" + 0.004*"Bournemouth"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -370,7 +370,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"Bracknell" + 0.006*"good" + 0.005*"provided" + 0.005*"Forest" + 0.005*"needs" + 0.005*"risk" + 0.005*"impact" + 0.004*"effective" + 0.004*"plans"', '0.013*"’" + 0.008*"Forest" + 0.007*"risk" + 0.007*"quality" + 0.007*"well" + 0.006*"plans" + 0.006*"Bracknell" + 0.006*"needs" + 0.006*"good" + 0.005*"need"', '0.020*"’" + 0.008*"needs" + 0.007*"Bracknell" + 0.007*"effective" + 0.007*"progress" + 0.006*"Forest" + 0.006*"risk" + 0.006*"good" + 0.006*"quality" + 0.005*"need"']</t>
+    <t>['0.019*"’" + 0.008*"risk" + 0.006*"Forest" + 0.006*"Bracknell" + 0.005*"leaders" + 0.005*"quality" + 0.005*"plans" + 0.005*"impact" + 0.005*"provided" + 0.005*"progress"', '0.017*"’" + 0.008*"needs" + 0.007*"effective" + 0.007*"Forest" + 0.006*"good" + 0.006*"quality" + 0.006*"provided" + 0.006*"positive" + 0.006*"Bracknell" + 0.005*"progress"', '0.013*"’" + 0.008*"Bracknell" + 0.007*"risk" + 0.006*"needs" + 0.006*"Forest" + 0.006*"good" + 0.006*"quality" + 0.006*"well" + 0.005*"plans" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>846</t>
@@ -403,7 +403,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.008*"good" + 0.006*"well" + 0.006*"recording" + 0.005*"leaders" + 0.005*"need" + 0.005*"However" + 0.005*"plans" + 0.004*"ensure"', '0.014*"’" + 0.011*"needs" + 0.009*"good" + 0.006*"well" + 0.006*"leaders" + 0.005*"plans" + 0.005*"recording" + 0.005*"However" + 0.004*"need" + 0.004*"strong"', '0.014*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"recording" + 0.005*"leaders" + 0.005*"well" + 0.005*"need" + 0.005*"timely" + 0.005*"Hove" + 0.004*"improve"']</t>
+    <t>['0.015*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"leaders" + 0.005*"well" + 0.005*"need" + 0.005*"recording" + 0.004*"plans" + 0.004*"ensure" + 0.004*"improve"', '0.015*"’" + 0.010*"needs" + 0.007*"good" + 0.007*"recording" + 0.006*"well" + 0.005*"leaders" + 0.005*"need" + 0.005*"plans" + 0.005*"Hove" + 0.005*"arrangements"', '0.011*"’" + 0.009*"good" + 0.009*"needs" + 0.006*"recording" + 0.005*"plans" + 0.005*"well" + 0.005*"However" + 0.005*"leaders" + 0.004*"effectively" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -436,7 +436,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"well" + 0.007*"Bristol" + 0.007*"good" + 0.006*"needs" + 0.005*"health" + 0.005*"need" + 0.005*"progress" + 0.004*"leaders" + 0.004*"receive"', '0.019*"’" + 0.010*"well" + 0.008*"needs" + 0.008*"Bristol" + 0.006*"good" + 0.006*"plans" + 0.005*"always" + 0.005*"health" + 0.005*"16" + 0.005*"progress"', '0.020*"’" + 0.009*"good" + 0.009*"well" + 0.007*"needs" + 0.007*"Bristol" + 0.005*"progress" + 0.005*"need" + 0.005*"health" + 0.005*"receive" + 0.005*"leaders"']</t>
+    <t>['0.024*"’" + 0.009*"good" + 0.008*"well" + 0.007*"needs" + 0.007*"Bristol" + 0.005*"need" + 0.005*"plans" + 0.005*"16" + 0.005*"receive" + 0.005*"health"', '0.015*"’" + 0.008*"needs" + 0.008*"well" + 0.008*"Bristol" + 0.006*"health" + 0.005*"progress" + 0.005*"good" + 0.005*"leaders" + 0.004*"January" + 0.004*"plans"', '0.017*"’" + 0.010*"well" + 0.009*"good" + 0.008*"Bristol" + 0.007*"needs" + 0.005*"progress" + 0.005*"health" + 0.004*"need" + 0.004*"2023" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -463,7 +463,7 @@
     <t>0.159</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.005*"plans" + 0.005*"Buckinghamshire" + 0.004*"number" + 0.004*"6" + 0.004*"many" + 0.004*"December" + 0.004*"17" + 0.003*"2021" + 0.003*"protection"', '0.015*"’" + 0.005*"plans" + 0.004*"protection" + 0.004*"number" + 0.004*"17" + 0.004*"December" + 0.004*"6" + 0.004*"many" + 0.004*"2021" + 0.004*"Buckinghamshire"', '0.011*"’" + 0.005*"number" + 0.005*"17" + 0.005*"Buckinghamshire" + 0.004*"practice" + 0.004*"plans" + 0.004*"needs" + 0.004*"well" + 0.004*"many" + 0.004*"protection"']</t>
+    <t>['0.015*"’" + 0.005*"plans" + 0.005*"number" + 0.005*"Buckinghamshire" + 0.005*"17" + 0.004*"6" + 0.004*"2021" + 0.004*"many" + 0.004*"December" + 0.004*"well"', '0.012*"’" + 0.005*"plans" + 0.005*"number" + 0.004*"Buckinghamshire" + 0.004*"protection" + 0.004*"6" + 0.004*"practice" + 0.004*"17" + 0.003*"December" + 0.003*"2021"', '0.013*"’" + 0.005*"17" + 0.004*"many" + 0.004*"plans" + 0.004*"number" + 0.004*"needs" + 0.004*"protection" + 0.004*"practice" + 0.004*"Buckinghamshire" + 0.004*"teams"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -499,7 +499,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"needs" + 0.006*"protection" + 0.005*"2021" + 0.005*"impact" + 0.005*"practice" + 0.005*"need" + 0.004*"response" + 0.004*"Bury" + 0.004*"team"', '0.011*"’" + 0.008*"2021" + 0.007*"protection" + 0.007*"needs" + 0.006*"practice" + 0.005*"team" + 0.005*"delay" + 0.005*"impact" + 0.005*"November" + 0.005*"risk"', '0.012*"’" + 0.007*"team" + 0.006*"2021" + 0.005*"protection" + 0.005*"quality" + 0.005*"needs" + 0.005*"practice" + 0.005*"need" + 0.005*"risk" + 0.005*"October"']</t>
+    <t>['0.011*"’" + 0.007*"2021" + 0.007*"practice" + 0.006*"team" + 0.006*"protection" + 0.006*"needs" + 0.005*"need" + 0.005*"quality" + 0.005*"Bury" + 0.005*"impact"', '0.014*"’" + 0.007*"needs" + 0.007*"protection" + 0.006*"2021" + 0.006*"team" + 0.005*"risk" + 0.005*"need" + 0.005*"practice" + 0.005*"impact" + 0.005*"progress"', '0.009*"’" + 0.007*"needs" + 0.006*"protection" + 0.006*"2021" + 0.005*"impact" + 0.005*"new" + 0.005*"5" + 0.005*"drift" + 0.005*"timely" + 0.004*"team"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -529,7 +529,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"well" + 0.005*"good" + 0.005*"protection" + 0.004*"effective" + 0.004*"Calderdale" + 0.004*"‘" + 0.004*"inform" + 0.004*"need" + 0.004*"needs"', '0.016*"’" + 0.008*"well" + 0.005*"practice" + 0.005*"good" + 0.004*"Calderdale" + 0.004*"effective" + 0.004*"needs" + 0.004*"protection" + 0.003*"risk" + 0.003*"inform"', '0.014*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Calderdale" + 0.005*"good" + 0.005*"carers" + 0.005*"effective" + 0.005*"protection" + 0.005*"‘" + 0.004*"education"']</t>
+    <t>['0.013*"’" + 0.007*"well" + 0.005*"Calderdale" + 0.005*"effective" + 0.004*"protection" + 0.004*"need" + 0.004*"inform" + 0.004*"‘" + 0.004*"good" + 0.003*"practice"', '0.009*"’" + 0.007*"well" + 0.005*"good" + 0.005*"practice" + 0.005*"effective" + 0.004*"protection" + 0.004*"Calderdale" + 0.004*"carers" + 0.004*"education" + 0.004*"leaders"', '0.019*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"good" + 0.006*"Calderdale" + 0.004*"‘" + 0.004*"carers" + 0.004*"protection" + 0.004*"education" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -562,7 +562,7 @@
     <t>0.1882</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"good" + 0.006*"need" + 0.006*"teams" + 0.006*"progress" + 0.006*"impact" + 0.005*"quality" + 0.005*"However"', '0.010*"’" + 0.008*"impact" + 0.007*"good" + 0.007*"needs" + 0.007*"plans" + 0.006*"well" + 0.006*"effective" + 0.005*"need" + 0.005*"teams" + 0.005*"practice"', '0.017*"’" + 0.012*"well" + 0.010*"good" + 0.008*"need" + 0.008*"teams" + 0.007*"plans" + 0.007*"impact" + 0.007*"needs" + 0.007*"quality" + 0.006*"However"']</t>
+    <t>['0.015*"’" + 0.011*"well" + 0.010*"good" + 0.009*"need" + 0.008*"plans" + 0.007*"needs" + 0.007*"teams" + 0.006*"impact" + 0.006*"However" + 0.006*"quality"', '0.013*"’" + 0.010*"well" + 0.008*"needs" + 0.008*"teams" + 0.008*"good" + 0.008*"impact" + 0.006*"plans" + 0.006*"need" + 0.006*"quality" + 0.005*"effective"', '0.014*"’" + 0.008*"good" + 0.007*"well" + 0.006*"needs" + 0.006*"need" + 0.006*"impact" + 0.005*"progress" + 0.005*"quality" + 0.005*"plans" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -592,7 +592,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.011*"well" + 0.007*"good" + 0.007*"progress" + 0.007*"plans" + 0.006*"Central" + 0.006*"need" + 0.006*"needs" + 0.005*"carers" + 0.004*"Bedfordshire"', '0.016*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"need" + 0.007*"carers" + 0.006*"good" + 0.005*"effective" + 0.005*"plans" + 0.005*"progress" + 0.005*"Bedfordshire"', '0.013*"’" + 0.007*"carers" + 0.006*"needs" + 0.006*"well" + 0.005*"need" + 0.005*"information" + 0.005*"good" + 0.005*"Bedfordshire" + 0.005*"plans" + 0.005*"number"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"need" + 0.007*"good" + 0.006*"carers" + 0.006*"Central" + 0.006*"plans" + 0.006*"progress" + 0.005*"Bedfordshire"', '0.017*"’" + 0.011*"well" + 0.007*"needs" + 0.007*"carers" + 0.006*"need" + 0.006*"good" + 0.006*"progress" + 0.005*"number" + 0.005*"effective" + 0.005*"protection"', '0.012*"’" + 0.008*"well" + 0.007*"plans" + 0.005*"needs" + 0.005*"Bedfordshire" + 0.005*"need" + 0.004*"progress" + 0.004*"carers" + 0.004*"education" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -628,7 +628,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"good" + 0.007*"well" + 0.007*"needs" + 0.006*"plans" + 0.006*"need" + 0.006*"ensure" + 0.006*"However" + 0.006*"timely" + 0.005*"progress"', '0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"practice" + 0.007*"plans" + 0.006*"good" + 0.006*"supported" + 0.006*"always" + 0.005*"need" + 0.005*"accommodation"', '0.013*"’" + 0.007*"good" + 0.007*"well" + 0.007*"plans" + 0.006*"practice" + 0.006*"needs" + 0.006*"effective" + 0.005*"always" + 0.005*"carers" + 0.005*"supported"']</t>
+    <t>['0.016*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"good" + 0.006*"practice" + 0.006*"always" + 0.005*"accommodation" + 0.005*"ensure" + 0.005*"carers" + 0.005*"However"', '0.012*"’" + 0.008*"needs" + 0.008*"plans" + 0.008*"good" + 0.008*"well" + 0.007*"practice" + 0.006*"risk" + 0.006*"supported" + 0.006*"need" + 0.006*"However"', '0.011*"’" + 0.008*"well" + 0.007*"good" + 0.006*"plans" + 0.005*"needs" + 0.005*"supported" + 0.005*"need" + 0.005*"effective" + 0.005*"practice" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -664,7 +664,7 @@
     <t>0.1816</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.008*"needs" + 0.007*"well" + 0.005*"practice" + 0.005*"However" + 0.004*"learning" + 0.004*"receive" + 0.004*"effectively" + 0.004*"timely" + 0.004*"impact"', '0.022*"’" + 0.008*"well" + 0.007*"needs" + 0.004*"effective" + 0.004*"always" + 0.004*"information" + 0.004*"plans" + 0.004*"order" + 0.004*"impact" + 0.004*"learning"', '0.018*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"needs" + 0.005*"plans" + 0.004*"order" + 0.004*"impact" + 0.004*"effectively" + 0.004*"always" + 0.004*"progress"']</t>
+    <t>['0.024*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"order" + 0.005*"always" + 0.004*"timely" + 0.004*"effective" + 0.004*"learning" + 0.004*"impact"', '0.021*"’" + 0.007*"needs" + 0.007*"well" + 0.004*"impact" + 0.004*"effective" + 0.004*"effectively" + 0.004*"progress" + 0.004*"plans" + 0.004*"early" + 0.004*"including"', '0.019*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"practice" + 0.005*"receive" + 0.004*"plans" + 0.004*"always" + 0.004*"effectively" + 0.004*"small" + 0.004*"learning"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -700,7 +700,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.008*"plans" + 0.005*"need" + 0.005*"risk" + 0.005*"2" + 0.005*"needs" + 0.005*"impact" + 0.005*"Bradford" + 0.004*"quality" + 0.004*"lack"', '0.021*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"Bradford" + 0.005*"2" + 0.005*"quality" + 0.005*"November" + 0.004*"practice" + 0.004*"21" + 0.004*"risk"', '0.013*"’" + 0.005*"plans" + 0.004*"Bradford" + 0.004*"◼" + 0.004*"impact" + 0.004*"needs" + 0.004*"lack" + 0.004*"2022" + 0.004*"21" + 0.003*"2"']</t>
+    <t>['0.018*"’" + 0.007*"plans" + 0.005*"Bradford" + 0.005*"need" + 0.005*"needs" + 0.005*"practice" + 0.004*"quality" + 0.004*"risk" + 0.004*"Borough" + 0.004*"City"', '0.018*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"impact" + 0.005*"risk" + 0.004*"need" + 0.004*"lack" + 0.004*"◼" + 0.004*"Bradford" + 0.004*"November"', '0.024*"’" + 0.006*"plans" + 0.006*"2" + 0.005*"2022" + 0.005*"Bradford" + 0.005*"quality" + 0.004*"21" + 0.004*"needs" + 0.004*"Council" + 0.004*"many"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -733,7 +733,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.012*"needs" + 0.010*"well" + 0.007*"effective" + 0.007*"ensure" + 0.006*"plans" + 0.005*"clear" + 0.005*"good" + 0.005*"experiences" + 0.005*"progress"', '0.009*"needs" + 0.008*"ensure" + 0.008*"’" + 0.008*"well" + 0.007*"clear" + 0.006*"effective" + 0.005*"progress" + 0.005*"practice" + 0.004*"good" + 0.004*"timely"', '0.013*"’" + 0.013*"needs" + 0.011*"well" + 0.010*"ensure" + 0.007*"progress" + 0.006*"effective" + 0.006*"good" + 0.006*"clear" + 0.006*"plans" + 0.006*"within"']</t>
+    <t>['0.013*"well" + 0.012*"’" + 0.010*"ensure" + 0.010*"needs" + 0.008*"effective" + 0.007*"progress" + 0.007*"clear" + 0.006*"good" + 0.005*"experiences" + 0.005*"plans"', '0.011*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"ensure" + 0.006*"effective" + 0.005*"good" + 0.004*"plans" + 0.004*"clear" + 0.004*"individual" + 0.004*"progress"', '0.014*"needs" + 0.012*"’" + 0.008*"well" + 0.008*"ensure" + 0.007*"clear" + 0.006*"plans" + 0.006*"effective" + 0.006*"progress" + 0.005*"good" + 0.005*"within"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -769,7 +769,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"well" + 0.007*"November" + 0.006*"plans" + 0.006*"Wakefield" + 0.006*"quality" + 0.006*"receive" + 0.005*"practice" + 0.005*"leaders" + 0.005*"19"', '0.019*"’" + 0.009*"leaders" + 0.009*"quality" + 0.007*"well" + 0.007*"Wakefield" + 0.007*"effective" + 0.006*"November" + 0.006*"good" + 0.006*"needs" + 0.006*"receive"', '0.017*"’" + 0.009*"Wakefield" + 0.009*"good" + 0.008*"November" + 0.007*"well" + 0.007*"effective" + 0.007*"plans" + 0.007*"quality" + 0.006*"leaders" + 0.006*"practice"']</t>
+    <t>['0.016*"’" + 0.010*"November" + 0.008*"leaders" + 0.007*"well" + 0.006*"Wakefield" + 0.006*"effective" + 0.006*"plans" + 0.005*"practice" + 0.005*"progress" + 0.005*"quality"', '0.020*"’" + 0.008*"quality" + 0.008*"well" + 0.008*"effective" + 0.008*"Wakefield" + 0.007*"good" + 0.007*"leaders" + 0.006*"practice" + 0.006*"plans" + 0.006*"needs"', '0.012*"’" + 0.009*"Wakefield" + 0.008*"quality" + 0.007*"good" + 0.007*"leaders" + 0.007*"well" + 0.007*"November" + 0.005*"plans" + 0.005*"progress" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -799,7 +799,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"needs" + 0.006*"quality" + 0.006*"effective" + 0.005*"March" + 0.005*"However" + 0.005*"York" + 0.005*"plans" + 0.005*"education" + 0.005*"need"', '0.019*"’" + 0.008*"quality" + 0.008*"March" + 0.007*"needs" + 0.007*"effective" + 0.006*"ensure" + 0.006*"However" + 0.006*"York" + 0.005*"7" + 0.005*"well"', '0.009*"’" + 0.007*"March" + 0.006*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"good" + 0.005*"ensure" + 0.004*"well" + 0.004*"plans" + 0.004*"York"']</t>
+    <t>['0.014*"’" + 0.009*"quality" + 0.007*"needs" + 0.006*"March" + 0.006*"effective" + 0.006*"practice" + 0.006*"ensure" + 0.006*"York" + 0.006*"plans" + 0.005*"However"', '0.020*"’" + 0.007*"needs" + 0.007*"March" + 0.006*"effective" + 0.005*"quality" + 0.005*"ensure" + 0.005*"7" + 0.005*"However" + 0.005*"training" + 0.004*"well"', '0.010*"’" + 0.008*"March" + 0.008*"needs" + 0.005*"effective" + 0.005*"York" + 0.005*"However" + 0.005*"need" + 0.005*"well" + 0.005*"good" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -835,7 +835,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.012*"well" + 0.010*"’" + 0.009*"quality" + 0.008*"effective" + 0.008*"leaders" + 0.007*"good" + 0.006*"plans" + 0.005*"timely" + 0.005*"arrangements" + 0.004*"experiences"', '0.018*"well" + 0.014*"’" + 0.011*"effective" + 0.010*"quality" + 0.009*"leaders" + 0.006*"arrangements" + 0.006*"plans" + 0.006*"highly" + 0.005*"timely" + 0.005*"Senior"', '0.011*"well" + 0.011*"’" + 0.010*"quality" + 0.007*"leaders" + 0.006*"good" + 0.006*"timely" + 0.005*"plans" + 0.005*"effective" + 0.004*"arrangements" + 0.004*"senior"']</t>
+    <t>['0.016*"well" + 0.014*"’" + 0.011*"quality" + 0.010*"effective" + 0.010*"leaders" + 0.006*"plans" + 0.006*"good" + 0.006*"arrangements" + 0.005*"ensure" + 0.005*"timely"', '0.013*"well" + 0.011*"’" + 0.009*"quality" + 0.007*"effective" + 0.006*"leaders" + 0.006*"timely" + 0.006*"good" + 0.005*"plans" + 0.005*"high" + 0.004*"highly"', '0.014*"well" + 0.010*"’" + 0.008*"leaders" + 0.008*"effective" + 0.008*"quality" + 0.007*"arrangements" + 0.006*"timely" + 0.006*"plans" + 0.005*"highly" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -865,7 +865,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.015*"Scilly" + 0.015*"Isles" + 0.010*"practice" + 0.010*"information" + 0.008*"need" + 0.008*"protection" + 0.008*"needs" + 0.007*"quality" + 0.006*"11"', '0.021*"’" + 0.010*"Isles" + 0.010*"Scilly" + 0.009*"need" + 0.008*"information" + 0.008*"place" + 0.006*"practice" + 0.005*"risks" + 0.005*"protection" + 0.005*"13"', '0.015*"’" + 0.008*"Isles" + 0.007*"Scilly" + 0.007*"information" + 0.006*"practice" + 0.006*"needs" + 0.005*"need" + 0.005*"protection" + 0.004*"July" + 0.004*"strategic"']</t>
+    <t>['0.015*"’" + 0.010*"Scilly" + 0.008*"Isles" + 0.008*"information" + 0.007*"need" + 0.007*"protection" + 0.006*"practice" + 0.006*"place" + 0.005*"strategic" + 0.005*"needs"', '0.026*"’" + 0.015*"Isles" + 0.013*"Scilly" + 0.011*"practice" + 0.010*"information" + 0.008*"need" + 0.007*"needs" + 0.007*"quality" + 0.007*"protection" + 0.006*"risks"', '0.017*"’" + 0.012*"Scilly" + 0.009*"Isles" + 0.008*"need" + 0.007*"needs" + 0.007*"information" + 0.006*"place" + 0.006*"practice" + 0.006*"protection" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -901,7 +901,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"Coventry" + 0.007*"supported" + 0.006*"plans" + 0.005*"strong" + 0.005*"family" + 0.005*"need" + 0.004*"clear"', '0.017*"’" + 0.009*"Coventry" + 0.008*"well" + 0.007*"needs" + 0.006*"plans" + 0.006*"supported" + 0.006*"family" + 0.005*"strong" + 0.005*"need" + 0.005*"1"', '0.020*"’" + 0.007*"supported" + 0.007*"Coventry" + 0.007*"well" + 0.007*"family" + 0.006*"needs" + 0.005*"strong" + 0.005*"need" + 0.005*"plans" + 0.005*"20"']</t>
+    <t>['0.022*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"Coventry" + 0.007*"supported" + 0.006*"strong" + 0.006*"plans" + 0.005*"need" + 0.005*"family" + 0.004*"PAs"', '0.018*"’" + 0.009*"Coventry" + 0.008*"well" + 0.007*"needs" + 0.007*"supported" + 0.006*"family" + 0.006*"plans" + 0.006*"need" + 0.005*"use" + 0.005*"1"', '0.017*"’" + 0.006*"Coventry" + 0.006*"plans" + 0.006*"needs" + 0.006*"well" + 0.006*"strong" + 0.006*"supported" + 0.005*"family" + 0.004*"July" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -940,7 +940,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.008*"well" + 0.007*"Darlington" + 0.007*"practice" + 0.006*"October" + 0.006*"needs" + 0.006*"leaders" + 0.005*"supported" + 0.005*"plans" + 0.005*"effective"', '0.014*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"October" + 0.007*"practice" + 0.007*"leaders" + 0.005*"quality" + 0.005*"effective" + 0.005*"10" + 0.004*"21"', '0.013*"’" + 0.007*"leaders" + 0.006*"needs" + 0.006*"October" + 0.005*"well" + 0.005*"Darlington" + 0.004*"quality" + 0.004*"effective" + 0.004*"protection" + 0.004*"supported"']</t>
+    <t>['0.019*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"October" + 0.007*"Darlington" + 0.006*"leaders" + 0.005*"practice" + 0.005*"family" + 0.005*"quality" + 0.005*"effective"', '0.012*"’" + 0.006*"Darlington" + 0.006*"leaders" + 0.006*"effective" + 0.005*"practice" + 0.005*"needs" + 0.005*"well" + 0.005*"October" + 0.005*"quality" + 0.005*"10"', '0.022*"’" + 0.009*"well" + 0.008*"leaders" + 0.008*"practice" + 0.007*"October" + 0.007*"needs" + 0.005*"supported" + 0.005*"Darlington" + 0.005*"education" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -979,7 +979,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"needs" + 0.007*"Derby" + 0.006*"progress" + 0.006*"receive" + 0.006*"oversight" + 0.005*"leaders" + 0.005*"appropriate" + 0.005*"well" + 0.005*"need"', '0.021*"’" + 0.011*"needs" + 0.008*"Derby" + 0.006*"quality" + 0.006*"receive" + 0.006*"plans" + 0.005*"well" + 0.005*"need" + 0.005*"appropriate" + 0.005*"progress"', '0.022*"’" + 0.008*"needs" + 0.008*"quality" + 0.007*"Derby" + 0.006*"plans" + 0.006*"receive" + 0.006*"leaders" + 0.006*"good" + 0.005*"progress" + 0.005*"appropriate"']</t>
+    <t>['0.019*"’" + 0.009*"needs" + 0.007*"Derby" + 0.006*"receive" + 0.006*"quality" + 0.006*"appropriate" + 0.005*"leaders" + 0.005*"progress" + 0.005*"need" + 0.005*"plans"', '0.022*"’" + 0.011*"needs" + 0.006*"Derby" + 0.006*"plans" + 0.005*"leaders" + 0.005*"receive" + 0.005*"quality" + 0.005*"progress" + 0.005*"good" + 0.004*"well"', '0.022*"’" + 0.009*"needs" + 0.008*"Derby" + 0.007*"quality" + 0.006*"well" + 0.006*"receive" + 0.006*"progress" + 0.006*"need" + 0.006*"plans" + 0.006*"good"']</t>
   </si>
   <si>
     <t>830</t>
@@ -1006,7 +1006,7 @@
     <t>0.1913</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"well" + 0.006*"Derbyshire" + 0.005*"need" + 0.005*"needs" + 0.005*"plans" + 0.005*"10" + 0.005*"good" + 0.005*"practice" + 0.004*"November"', '0.013*"’" + 0.007*"Derbyshire" + 0.006*"well" + 0.005*"positive" + 0.005*"health" + 0.005*"number" + 0.005*"good" + 0.004*"plans" + 0.004*"education" + 0.004*"effective"', '0.016*"’" + 0.009*"well" + 0.007*"Derbyshire" + 0.005*"plans" + 0.005*"positive" + 0.005*"health" + 0.005*"needs" + 0.005*"leaders" + 0.005*"effective" + 0.004*"education"']</t>
+    <t>['0.010*"’" + 0.005*"well" + 0.005*"Derbyshire" + 0.005*"10" + 0.004*"education" + 0.004*"effective" + 0.004*"positive" + 0.004*"plans" + 0.004*"health" + 0.004*"number"', '0.015*"’" + 0.008*"well" + 0.006*"Derbyshire" + 0.005*"positive" + 0.005*"health" + 0.005*"need" + 0.005*"good" + 0.005*"effective" + 0.005*"leaders" + 0.004*"practice"', '0.015*"’" + 0.009*"well" + 0.008*"Derbyshire" + 0.006*"plans" + 0.006*"needs" + 0.005*"10" + 0.004*"good" + 0.004*"November" + 0.004*"leaders" + 0.004*"number"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1036,7 +1036,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.005*"well" + 0.005*"leaders" + 0.004*"areas" + 0.004*"health" + 0.004*"risk" + 0.004*"case" + 0.004*"protection" + 0.004*"progress" + 0.004*"quality"', '0.008*"’" + 0.005*"progress" + 0.005*"well" + 0.004*"Devon" + 0.004*"risk" + 0.004*"leaders" + 0.004*"health" + 0.004*"plans" + 0.004*"areas" + 0.004*"case"', '0.011*"’" + 0.007*"well" + 0.005*"health" + 0.005*"risk" + 0.004*"leaders" + 0.004*"risks" + 0.004*"need" + 0.004*"practice" + 0.004*"including" + 0.004*"progress"']</t>
+    <t>['0.008*"’" + 0.006*"leaders" + 0.006*"well" + 0.005*"risk" + 0.005*"health" + 0.004*"risks" + 0.004*"early" + 0.004*"time" + 0.004*"progress" + 0.004*"practice"', '0.011*"’" + 0.007*"well" + 0.005*"progress" + 0.005*"health" + 0.005*"Devon" + 0.005*"risk" + 0.004*"leaders" + 0.004*"living" + 0.004*"case" + 0.004*"areas"', '0.008*"’" + 0.004*"protection" + 0.004*"well" + 0.004*"leaders" + 0.004*"health" + 0.004*"risk" + 0.003*"areas" + 0.003*"case" + 0.003*"need" + 0.003*"risks"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1069,7 +1069,7 @@
     <t>0.1512</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.005*"well" + 0.005*"progress" + 0.005*"Doncaster" + 0.004*"Trust" + 0.004*"quality" + 0.004*"many" + 0.004*"information" + 0.004*"arrangements" + 0.004*"plans"', '0.024*"’" + 0.007*"well" + 0.007*"leaders" + 0.006*"Doncaster" + 0.005*"records" + 0.005*"quality" + 0.005*"protection" + 0.005*"progress" + 0.005*"February" + 0.004*"25"', '0.019*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.006*"many" + 0.005*"plans" + 0.005*"oversight" + 0.005*"arrangements" + 0.005*"records" + 0.005*"information" + 0.004*"effective"']</t>
+    <t>['0.022*"’" + 0.008*"well" + 0.007*"Doncaster" + 0.006*"records" + 0.006*"plans" + 0.005*"leaders" + 0.005*"quality" + 0.005*"protection" + 0.004*"information" + 0.004*"14"', '0.019*"’" + 0.006*"progress" + 0.006*"well" + 0.005*"Doncaster" + 0.005*"many" + 0.005*"oversight" + 0.004*"information" + 0.004*"quality" + 0.004*"February" + 0.004*"arrangements"', '0.019*"’" + 0.005*"well" + 0.005*"Doncaster" + 0.005*"progress" + 0.005*"many" + 0.005*"leaders" + 0.005*"oversight" + 0.004*"arrangements" + 0.004*"25" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>838</t>
@@ -1096,7 +1096,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.007*"’" + 0.005*"Dorset" + 0.005*"well" + 0.005*"arrangements" + 0.004*"good" + 0.004*"needs" + 0.004*"change" + 0.003*"October" + 0.003*"quality" + 0.003*"practice"', '0.012*"’" + 0.007*"Dorset" + 0.006*"good" + 0.005*"well" + 0.005*"needs" + 0.005*"including" + 0.004*"impact" + 0.004*"2021" + 0.004*"October" + 0.004*"Senior"', '0.019*"’" + 0.009*"Dorset" + 0.007*"good" + 0.006*"well" + 0.005*"8" + 0.005*"arrangements" + 0.004*"27" + 0.004*"need" + 0.004*"needs" + 0.004*"leaders"']</t>
+    <t>['0.013*"’" + 0.006*"Dorset" + 0.006*"good" + 0.005*"arrangements" + 0.005*"well" + 0.004*"8" + 0.004*"needs" + 0.004*"27" + 0.004*"leaders" + 0.004*"home"', '0.014*"’" + 0.008*"Dorset" + 0.006*"good" + 0.006*"well" + 0.005*"change" + 0.005*"October" + 0.005*"needs" + 0.004*"including" + 0.004*"arrangements" + 0.004*"impact"', '0.014*"’" + 0.008*"Dorset" + 0.006*"well" + 0.006*"good" + 0.004*"needs" + 0.004*"quality" + 0.004*"2021" + 0.004*"8" + 0.004*"impact" + 0.004*"arrangements"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1123,7 +1123,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.013*"needs" + 0.006*"well" + 0.006*"Dudley" + 0.006*"always" + 0.005*"plans" + 0.005*"However" + 0.005*"arrangements" + 0.005*"oversight" + 0.004*"31"', '0.015*"’" + 0.010*"Dudley" + 0.010*"needs" + 0.006*"arrangements" + 0.006*"quality" + 0.006*"plans" + 0.005*"ensure" + 0.005*"always" + 0.005*"oversight" + 0.005*"management"', '0.010*"needs" + 0.009*"’" + 0.007*"Dudley" + 0.006*"well" + 0.005*"ensure" + 0.004*"always" + 0.004*"plans" + 0.004*"enough" + 0.004*"November" + 0.004*"timely"']</t>
+    <t>['0.015*"’" + 0.014*"needs" + 0.010*"Dudley" + 0.006*"well" + 0.006*"plans" + 0.006*"always" + 0.005*"quality" + 0.005*"arrangements" + 0.005*"ensure" + 0.005*"management"', '0.017*"’" + 0.009*"needs" + 0.007*"Dudley" + 0.006*"well" + 0.006*"arrangements" + 0.006*"always" + 0.005*"plans" + 0.005*"oversight" + 0.005*"However" + 0.005*"October"', '0.011*"’" + 0.009*"needs" + 0.006*"Dudley" + 0.004*"enough" + 0.004*"well" + 0.004*"ensure" + 0.004*"arrangements" + 0.004*"11" + 0.003*"However" + 0.003*"plans"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1159,7 +1159,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"needs" + 0.007*"May" + 0.006*"well" + 0.005*"ensure" + 0.005*"Durham" + 0.005*"plans" + 0.004*"family" + 0.004*"number" + 0.004*"risks"', '0.014*"’" + 0.011*"needs" + 0.007*"plans" + 0.007*"Durham" + 0.007*"well" + 0.006*"May" + 0.006*"leaders" + 0.005*"practice" + 0.005*"ensure" + 0.005*"supported"', '0.014*"’" + 0.011*"needs" + 0.008*"Durham" + 0.007*"May" + 0.007*"well" + 0.007*"ensure" + 0.006*"practice" + 0.006*"plans" + 0.005*"risks" + 0.004*"carers"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.007*"Durham" + 0.006*"well" + 0.006*"plans" + 0.006*"May" + 0.006*"ensure" + 0.004*"20" + 0.004*"number" + 0.004*"meetings"', '0.014*"’" + 0.010*"needs" + 0.008*"May" + 0.008*"Durham" + 0.007*"plans" + 0.006*"practice" + 0.006*"well" + 0.006*"risks" + 0.005*"ensure" + 0.005*"family"', '0.015*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"May" + 0.006*"ensure" + 0.006*"Durham" + 0.006*"plans" + 0.005*"practice" + 0.004*"leaders" + 0.004*"appropriate"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1195,7 +1195,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.011*"needs" + 0.008*"well" + 0.007*"Riding" + 0.007*"plans" + 0.006*"progress" + 0.005*"East" + 0.005*"30" + 0.005*"education" + 0.005*"10"', '0.015*"’" + 0.011*"plans" + 0.009*"well" + 0.008*"progress" + 0.008*"needs" + 0.007*"East" + 0.005*"10" + 0.005*"partners" + 0.005*"Riding" + 0.005*"good"', '0.012*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"Riding" + 0.006*"East" + 0.005*"well" + 0.005*"progress" + 0.004*"January" + 0.004*"information" + 0.004*"February"']</t>
+    <t>['0.011*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"progress" + 0.006*"East" + 0.005*"plans" + 0.004*"10" + 0.004*"education" + 0.004*"experiences" + 0.004*"partners"', '0.019*"’" + 0.011*"needs" + 0.009*"plans" + 0.007*"well" + 0.007*"progress" + 0.006*"East" + 0.006*"Riding" + 0.005*"information" + 0.005*"10" + 0.005*"partners"', '0.016*"’" + 0.009*"plans" + 0.009*"well" + 0.008*"Riding" + 0.008*"needs" + 0.007*"progress" + 0.006*"East" + 0.005*"practice" + 0.005*"30" + 0.005*"training"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1222,7 +1222,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"need" + 0.005*"‘" + 0.004*"plans" + 0.004*"specialist" + 0.004*"family" + 0.004*"Sussex"', '0.010*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"practice" + 0.005*"Sussex" + 0.005*"need" + 0.004*"supported" + 0.004*"East" + 0.004*"plans" + 0.004*"senior"', '0.011*"’" + 0.010*"well" + 0.007*"practice" + 0.007*"needs" + 0.005*"need" + 0.005*"East" + 0.005*"senior" + 0.004*"Sussex" + 0.004*"‘" + 0.004*"quality"']</t>
+    <t>['0.014*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"Sussex" + 0.005*"need" + 0.005*"plans" + 0.004*"senior" + 0.004*"East" + 0.004*"‘"', '0.008*"well" + 0.008*"’" + 0.007*"needs" + 0.006*"practice" + 0.005*"need" + 0.004*"East" + 0.004*"carers" + 0.004*"plans" + 0.004*"senior" + 0.004*"receive"', '0.011*"’" + 0.006*"practice" + 0.006*"well" + 0.005*"needs" + 0.004*"‘" + 0.004*"need" + 0.004*"Sussex" + 0.004*"effective" + 0.003*"senior" + 0.003*"East"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1258,7 +1258,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"well" + 0.006*"progress" + 0.005*"plans" + 0.005*"supported" + 0.004*"needs" + 0.004*"risk" + 0.004*"Essex" + 0.004*"parents" + 0.004*"understand"', '0.011*"’" + 0.006*"needs" + 0.005*"need" + 0.005*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"risk" + 0.005*"understand" + 0.004*"‘" + 0.004*"family"', '0.020*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"progress" + 0.006*"plans" + 0.006*"family" + 0.005*"Essex" + 0.005*"leaders" + 0.005*"experiences" + 0.005*"advisers"']</t>
+    <t>['0.013*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"progress" + 0.005*"understand" + 0.005*"experiences" + 0.005*"parents" + 0.005*"plans" + 0.004*"quality" + 0.004*"Essex"', '0.022*"’" + 0.007*"progress" + 0.007*"plans" + 0.007*"well" + 0.006*"needs" + 0.006*"family" + 0.005*"Essex" + 0.005*"risk" + 0.005*"leaders" + 0.005*"understand"', '0.017*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"‘" + 0.005*"progress" + 0.005*"family" + 0.005*"experiences" + 0.005*"supported" + 0.004*"helped"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1294,7 +1294,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.010*"effective" + 0.009*"’" + 0.007*"good" + 0.007*"quality" + 0.006*"practice" + 0.006*"timely" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"improve"', '0.017*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"good" + 0.006*"practice" + 0.006*"quality" + 0.006*"well" + 0.005*"early" + 0.004*"home" + 0.004*"need"', '0.014*"’" + 0.008*"effective" + 0.007*"practice" + 0.007*"good" + 0.006*"needs" + 0.005*"quality" + 0.005*"timely" + 0.005*"well" + 0.004*"need" + 0.004*"focus"']</t>
+    <t>['0.013*"’" + 0.007*"effective" + 0.007*"quality" + 0.007*"good" + 0.006*"needs" + 0.006*"practice" + 0.005*"well" + 0.005*"progress" + 0.005*"timely" + 0.005*"need"', '0.016*"’" + 0.007*"effective" + 0.007*"practice" + 0.007*"good" + 0.007*"well" + 0.006*"quality" + 0.006*"needs" + 0.005*"timely" + 0.005*"early" + 0.005*"improve"', '0.012*"effective" + 0.010*"’" + 0.007*"good" + 0.007*"practice" + 0.006*"timely" + 0.005*"needs" + 0.005*"quality" + 0.005*"well" + 0.005*"plans" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>916</t>
@@ -1324,7 +1324,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"needs" + 0.008*"2022" + 0.007*"February" + 0.007*"well" + 0.006*"plans" + 0.005*"progress" + 0.005*"18" + 0.005*"appropriate" + 0.004*"effective"', '0.015*"’" + 0.008*"plans" + 0.007*"needs" + 0.006*"February" + 0.006*"2022" + 0.005*"Gloucestershire" + 0.004*"leaders" + 0.004*"progress" + 0.004*"accommodation" + 0.004*"need"', '0.017*"’" + 0.008*"needs" + 0.006*"February" + 0.006*"2022" + 0.006*"Gloucestershire" + 0.006*"well" + 0.005*"good" + 0.005*"plans" + 0.005*"appropriate" + 0.005*"experienced"']</t>
+    <t>['0.021*"’" + 0.009*"needs" + 0.008*"2022" + 0.008*"plans" + 0.007*"February" + 0.007*"well" + 0.006*"progress" + 0.006*"Gloucestershire" + 0.005*"timely" + 0.005*"good"', '0.013*"’" + 0.007*"needs" + 0.005*"February" + 0.004*"well" + 0.004*"appropriate" + 0.004*"2022" + 0.004*"plans" + 0.004*"protection" + 0.004*"need" + 0.004*"progress"', '0.016*"’" + 0.008*"needs" + 0.007*"2022" + 0.007*"February" + 0.006*"plans" + 0.005*"experienced" + 0.005*"appropriate" + 0.005*"18" + 0.005*"Gloucestershire" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1351,7 +1351,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"planning" + 0.006*"practice" + 0.006*"risk" + 0.006*"plans" + 0.006*"good" + 0.006*"progress" + 0.006*"need"', '0.010*"well" + 0.009*"needs" + 0.008*"’" + 0.008*"plans" + 0.008*"practice" + 0.007*"need" + 0.007*"good" + 0.007*"risk" + 0.006*"always" + 0.005*"cases"', '0.016*"’" + 0.011*"well" + 0.010*"practice" + 0.008*"needs" + 0.008*"plans" + 0.007*"always" + 0.006*"risk" + 0.006*"need" + 0.006*"planning" + 0.006*"quality"']</t>
+    <t>['0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"plans" + 0.007*"practice" + 0.006*"planning" + 0.006*"effective" + 0.006*"always" + 0.006*"risk" + 0.006*"need"', '0.010*"well" + 0.010*"practice" + 0.009*"’" + 0.009*"needs" + 0.008*"risk" + 0.007*"plans" + 0.006*"need" + 0.006*"good" + 0.006*"always" + 0.006*"planning"', '0.014*"’" + 0.010*"well" + 0.008*"practice" + 0.007*"need" + 0.007*"needs" + 0.007*"plans" + 0.007*"good" + 0.006*"planning" + 0.006*"effective" + 0.006*"oversight"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1378,7 +1378,7 @@
     <t>0.187</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.009*"needs" + 0.006*"well" + 0.005*"strong" + 0.005*"plans" + 0.005*"quality" + 0.004*"home" + 0.004*"Hampshire" + 0.004*"leaders" + 0.004*"progress"', '0.018*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"quality" + 0.004*"leaders" + 0.004*"improve" + 0.004*"home" + 0.004*"Hampshire" + 0.003*"health"', '0.011*"’" + 0.006*"needs" + 0.006*"plans" + 0.004*"leaders" + 0.004*"well" + 0.004*"highly" + 0.004*"strong" + 0.004*"quality" + 0.003*"carers" + 0.003*"health"']</t>
+    <t>['0.021*"’" + 0.008*"needs" + 0.007*"plans" + 0.005*"well" + 0.005*"quality" + 0.005*"highly" + 0.004*"leaders" + 0.004*"strong" + 0.004*"improve" + 0.004*"need"', '0.016*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"home" + 0.005*"Hampshire" + 0.004*"quality" + 0.004*"strong" + 0.004*"leaders" + 0.003*"‘"', '0.017*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"quality" + 0.004*"leaders" + 0.004*"strong" + 0.004*"home" + 0.004*"carers" + 0.004*"improve"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1411,7 +1411,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.006*"quality" + 0.005*"strong" + 0.004*"progress" + 0.004*"needs" + 0.004*"timely" + 0.004*"good" + 0.004*"plans" + 0.004*"Senior"', '0.016*"’" + 0.010*"well" + 0.007*"quality" + 0.005*"good" + 0.005*"plans" + 0.005*"strong" + 0.005*"team" + 0.005*"need" + 0.004*"early" + 0.004*"experiences"', '0.016*"’" + 0.009*"well" + 0.007*"quality" + 0.006*"strong" + 0.005*"impact" + 0.005*"good" + 0.005*"practice" + 0.005*"education" + 0.005*"progress" + 0.004*"early"']</t>
+    <t>['0.017*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"strong" + 0.004*"early" + 0.004*"education" + 0.004*"good" + 0.004*"need" + 0.004*"impact" + 0.004*"practice"', '0.015*"’" + 0.010*"well" + 0.007*"quality" + 0.006*"good" + 0.005*"plans" + 0.005*"education" + 0.004*"practice" + 0.004*"strong" + 0.004*"experiences" + 0.004*"impact"', '0.015*"’" + 0.008*"well" + 0.006*"progress" + 0.006*"strong" + 0.005*"quality" + 0.005*"good" + 0.005*"early" + 0.004*"plans" + 0.004*"impact" + 0.004*"improve"']</t>
   </si>
   <si>
     <t>884</t>
@@ -1438,7 +1438,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.005*"lack" + 0.004*"impact" + 0.004*"needs" + 0.004*"Herefordshire" + 0.004*"practice" + 0.004*"progress" + 0.004*"quality" + 0.004*"18" + 0.004*"many"', '0.015*"’" + 0.006*"practice" + 0.006*"needs" + 0.006*"plans" + 0.006*"Herefordshire" + 0.005*"impact" + 0.005*"lack" + 0.004*"oversight" + 0.004*"many" + 0.004*"progress"', '0.019*"’" + 0.006*"practice" + 0.006*"Herefordshire" + 0.005*"lack" + 0.005*"many" + 0.004*"impact" + 0.004*"18" + 0.004*"carers" + 0.004*"agency" + 0.004*"quality"']</t>
+    <t>['0.023*"’" + 0.006*"practice" + 0.006*"lack" + 0.006*"needs" + 0.006*"Herefordshire" + 0.006*"impact" + 0.004*"carers" + 0.004*"July" + 0.004*"risk" + 0.004*"18"', '0.015*"’" + 0.005*"many" + 0.005*"quality" + 0.005*"lack" + 0.005*"practice" + 0.004*"Herefordshire" + 0.004*"impact" + 0.004*"need" + 0.004*"plans" + 0.004*"progress"', '0.009*"’" + 0.005*"Herefordshire" + 0.005*"many" + 0.005*"practice" + 0.005*"needs" + 0.004*"plans" + 0.004*"including" + 0.004*"identified" + 0.004*"18" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>919</t>
@@ -1465,7 +1465,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.007*"Hertfordshire" + 0.006*"well" + 0.006*"receive" + 0.005*"needs" + 0.005*"plans" + 0.005*"need" + 0.004*"Leaders" + 0.004*"23" + 0.004*"2023"', '0.024*"’" + 0.007*"well" + 0.006*"Hertfordshire" + 0.006*"needs" + 0.005*"receive" + 0.005*"2023" + 0.005*"‘" + 0.004*"effective" + 0.004*"risk" + 0.004*"27"', '0.018*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Hertfordshire" + 0.004*"leaders" + 0.004*"positive" + 0.004*"plans" + 0.004*"27" + 0.004*"23" + 0.003*"need"']</t>
+    <t>['0.015*"’" + 0.005*"Hertfordshire" + 0.005*"well" + 0.005*"needs" + 0.003*"leaders" + 0.003*"receive" + 0.003*"working" + 0.003*"‘" + 0.003*"supported" + 0.003*"Leaders"', '0.024*"’" + 0.008*"Hertfordshire" + 0.007*"needs" + 0.007*"well" + 0.006*"receive" + 0.006*"plans" + 0.005*"positive" + 0.005*"need" + 0.005*"2023" + 0.004*"risk"', '0.026*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"27" + 0.005*"Hertfordshire" + 0.005*"receive" + 0.004*"family" + 0.004*"23" + 0.004*"leaders" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1492,7 +1492,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.010*"leaders" + 0.007*"needs" + 0.006*"well" + 0.006*"supported" + 0.006*"3" + 0.006*"progress" + 0.006*"protection" + 0.006*"plans" + 0.005*"good"', '0.015*"’" + 0.009*"leaders" + 0.005*"plans" + 0.005*"PAs" + 0.005*"needs" + 0.005*"Senior" + 0.004*"time" + 0.004*"practice" + 0.004*"good" + 0.004*"well"', '0.013*"’" + 0.005*"leaders" + 0.005*"well" + 0.005*"Isle" + 0.005*"Wight" + 0.004*"PAs" + 0.004*"improve" + 0.004*"Senior" + 0.004*"practice" + 0.004*"October"']</t>
+    <t>['0.017*"’" + 0.009*"leaders" + 0.005*"Senior" + 0.005*"Isle" + 0.005*"plans" + 0.005*"well" + 0.005*"Wight" + 0.005*"needs" + 0.005*"good" + 0.005*"improve"', '0.014*"’" + 0.008*"leaders" + 0.005*"needs" + 0.005*"practice" + 0.005*"supported" + 0.004*"Wight" + 0.004*"2023" + 0.004*"progress" + 0.004*"protection" + 0.004*"good"', '0.020*"’" + 0.008*"leaders" + 0.007*"well" + 0.006*"needs" + 0.006*"3" + 0.006*"PAs" + 0.006*"Isle" + 0.006*"progress" + 0.005*"Senior" + 0.005*"information"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1513,7 +1513,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.010*"Kent" + 0.006*"well" + 0.006*"needs" + 0.006*"supported" + 0.005*"progress" + 0.005*"Council" + 0.005*"council" + 0.004*"practice" + 0.004*"including"', '0.017*"’" + 0.009*"Kent" + 0.007*"needs" + 0.007*"Council" + 0.006*"well" + 0.006*"supported" + 0.005*"County" + 0.005*"practice" + 0.004*"progress" + 0.004*"need"', '0.013*"’" + 0.010*"Kent" + 0.009*"needs" + 0.006*"County" + 0.005*"well" + 0.005*"Council" + 0.005*"leaders" + 0.005*"supported" + 0.004*"progress" + 0.004*"impact"']</t>
+    <t>['0.018*"’" + 0.007*"Kent" + 0.006*"supported" + 0.005*"well" + 0.005*"progress" + 0.005*"needs" + 0.005*"Council" + 0.004*"practice" + 0.004*"9" + 0.003*"plans"', '0.012*"’" + 0.009*"Kent" + 0.007*"needs" + 0.006*"Council" + 0.006*"County" + 0.006*"well" + 0.005*"supported" + 0.005*"practice" + 0.004*"ensure" + 0.004*"progress"', '0.021*"’" + 0.012*"Kent" + 0.009*"needs" + 0.007*"well" + 0.007*"Council" + 0.006*"County" + 0.005*"supported" + 0.005*"progress" + 0.005*"leaders" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1540,7 +1540,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"number" + 0.007*"well" + 0.006*"planning" + 0.006*"need" + 0.006*"Hull" + 0.006*"protection" + 0.006*"practice" + 0.005*"oversight" + 0.005*"small"', '0.015*"’" + 0.007*"number" + 0.007*"protection" + 0.006*"planning" + 0.005*"well" + 0.005*"Hull" + 0.005*"need" + 0.005*"management" + 0.005*"progress" + 0.005*"practice"', '0.016*"’" + 0.007*"planning" + 0.007*"practice" + 0.007*"risks" + 0.006*"number" + 0.006*"well" + 0.005*"management" + 0.005*"teams" + 0.005*"oversight" + 0.005*"agency"']</t>
+    <t>['0.017*"’" + 0.008*"planning" + 0.008*"number" + 0.007*"need" + 0.007*"Hull" + 0.007*"protection" + 0.006*"well" + 0.006*"risks" + 0.006*"practice" + 0.005*"small"', '0.012*"’" + 0.006*"planning" + 0.006*"practice" + 0.006*"management" + 0.005*"small" + 0.005*"number" + 0.005*"protection" + 0.005*"November" + 0.005*"well" + 0.004*"Hull"', '0.017*"’" + 0.007*"number" + 0.006*"practice" + 0.006*"well" + 0.005*"planning" + 0.005*"protection" + 0.005*"oversight" + 0.005*"risks" + 0.005*"management" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1570,7 +1570,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"good" + 0.006*"quality" + 0.006*"practice" + 0.005*"permanence" + 0.005*"needs" + 0.005*"Senior" + 0.005*"training" + 0.005*"risk" + 0.004*"response"', '0.011*"’" + 0.007*"practice" + 0.006*"good" + 0.006*"well" + 0.006*"quality" + 0.006*"protection" + 0.006*"Senior" + 0.005*"needs" + 0.005*"permanence" + 0.005*"plans"', '0.013*"’" + 0.007*"quality" + 0.006*"plans" + 0.005*"practice" + 0.005*"permanence" + 0.005*"well" + 0.004*"good" + 0.004*"training" + 0.004*"senior" + 0.004*"need"']</t>
+    <t>['0.011*"’" + 0.007*"good" + 0.006*"practice" + 0.006*"quality" + 0.006*"plans" + 0.005*"permanence" + 0.005*"Senior" + 0.005*"training" + 0.005*"well" + 0.004*"needs"', '0.012*"’" + 0.006*"quality" + 0.006*"good" + 0.006*"practice" + 0.005*"permanence" + 0.005*"plans" + 0.005*"protection" + 0.005*"needs" + 0.005*"senior" + 0.004*"need"', '0.012*"’" + 0.007*"quality" + 0.007*"well" + 0.006*"practice" + 0.005*"protection" + 0.005*"training" + 0.005*"Senior" + 0.005*"needs" + 0.004*"good" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1609,7 +1609,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.007*"progress" + 0.006*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"experiences" + 0.004*"22" + 0.004*"2021" + 0.004*"often" + 0.004*"Knowsley"', '0.020*"’" + 0.010*"progress" + 0.008*"quality" + 0.007*"needs" + 0.007*"plans" + 0.006*"Knowsley" + 0.006*"2021" + 0.006*"impact" + 0.005*"good" + 0.005*"need"', '0.012*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"progress" + 0.006*"Knowsley" + 0.006*"2021" + 0.006*"experiences" + 0.005*"abuse" + 0.005*"quality" + 0.005*"need"']</t>
+    <t>['0.010*"’" + 0.007*"progress" + 0.007*"quality" + 0.005*"plans" + 0.005*"needs" + 0.004*"abuse" + 0.004*"Knowsley" + 0.004*"place" + 0.004*"October" + 0.004*"good"', '0.019*"’" + 0.010*"progress" + 0.008*"needs" + 0.008*"plans" + 0.007*"Knowsley" + 0.007*"quality" + 0.007*"2021" + 0.006*"good" + 0.006*"22" + 0.006*"experiences"', '0.012*"’" + 0.008*"plans" + 0.008*"needs" + 0.007*"quality" + 0.006*"progress" + 0.006*"Knowsley" + 0.005*"need" + 0.005*"2021" + 0.005*"education" + 0.005*"11"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1639,7 +1639,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.007*"Lancashire" + 0.007*"needs" + 0.006*"supported" + 0.006*"need" + 0.005*"live" + 0.005*"practice" + 0.005*"positive" + 0.005*"plans"', '0.017*"’" + 0.010*"well" + 0.007*"need" + 0.006*"needs" + 0.005*"parents" + 0.005*"practice" + 0.005*"positive" + 0.005*"plans" + 0.005*"supported" + 0.005*"28"', '0.016*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"need" + 0.006*"Lancashire" + 0.006*"health" + 0.006*"plans" + 0.006*"progress" + 0.005*"number" + 0.005*"positive"']</t>
+    <t>['0.019*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"need" + 0.005*"supported" + 0.005*"plans" + 0.005*"Lancashire" + 0.005*"oversight" + 0.005*"live" + 0.004*"practice"', '0.017*"’" + 0.008*"well" + 0.008*"need" + 0.007*"Lancashire" + 0.006*"needs" + 0.006*"9" + 0.005*"supported" + 0.005*"practice" + 0.005*"plans" + 0.005*"28"', '0.012*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"need" + 0.006*"Lancashire" + 0.005*"positive" + 0.005*"parents" + 0.005*"plans" + 0.005*"homes" + 0.005*"health"']</t>
   </si>
   <si>
     <t>383</t>
@@ -1663,7 +1663,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.010*"Leeds" + 0.008*"needs" + 0.007*"well" + 0.006*"risk" + 0.005*"protection" + 0.005*"ensure" + 0.005*"2022" + 0.005*"practice" + 0.005*"benefit"', '0.010*"’" + 0.006*"needs" + 0.005*"risk" + 0.005*"Leeds" + 0.004*"4" + 0.004*"practice" + 0.004*"well" + 0.004*"plans" + 0.004*"supported" + 0.003*"ensure"', '0.012*"’" + 0.006*"needs" + 0.005*"practice" + 0.004*"well" + 0.004*"Leeds" + 0.004*"plans" + 0.004*"risk" + 0.004*"ensure" + 0.004*"supported" + 0.004*"March"']</t>
+    <t>['0.013*"’" + 0.006*"needs" + 0.006*"Leeds" + 0.005*"well" + 0.005*"21" + 0.004*"practice" + 0.004*"plans" + 0.004*"including" + 0.004*"March" + 0.004*"2022"', '0.017*"’" + 0.009*"needs" + 0.008*"Leeds" + 0.007*"well" + 0.005*"ensure" + 0.005*"risk" + 0.005*"4" + 0.005*"protection" + 0.005*"practice" + 0.005*"making"', '0.016*"’" + 0.006*"risk" + 0.006*"Leeds" + 0.005*"well" + 0.004*"practice" + 0.004*"plans" + 0.004*"protection" + 0.004*"benefit" + 0.004*"supported" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1696,7 +1696,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.010*"well" + 0.009*"2021" + 0.009*"Leicester" + 0.008*"needs" + 0.007*"good" + 0.006*"number" + 0.006*"ensure" + 0.006*"20" + 0.006*"1"', '0.008*"’" + 0.005*"needs" + 0.005*"2021" + 0.005*"well" + 0.004*"Leicester" + 0.004*"September" + 0.004*"good" + 0.004*"number" + 0.003*"quality" + 0.003*"October"', '0.014*"’" + 0.008*"2021" + 0.008*"well" + 0.008*"Leicester" + 0.006*"ensure" + 0.006*"good" + 0.006*"needs" + 0.005*"City" + 0.005*"progress" + 0.005*"1"']</t>
+    <t>['0.023*"’" + 0.011*"well" + 0.009*"Leicester" + 0.009*"2021" + 0.008*"needs" + 0.008*"good" + 0.007*"ensure" + 0.006*"number" + 0.005*"1" + 0.005*"October"', '0.017*"’" + 0.009*"2021" + 0.007*"well" + 0.007*"needs" + 0.007*"Leicester" + 0.006*"including" + 0.005*"20" + 0.005*"1" + 0.005*"number" + 0.005*"good"', '0.018*"’" + 0.007*"well" + 0.007*"2021" + 0.007*"Leicester" + 0.005*"20" + 0.005*"including" + 0.004*"1" + 0.004*"high" + 0.004*"number" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1729,7 +1729,7 @@
     <t>0.1666</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.008*"well" + 0.008*"good" + 0.006*"quality" + 0.006*"effective" + 0.005*"practice" + 0.005*"needs" + 0.005*"need" + 0.004*"protection" + 0.004*"education"', '0.013*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"quality" + 0.006*"good" + 0.006*"effective" + 0.006*"impact" + 0.005*"need" + 0.005*"practice" + 0.005*"risk"', '0.011*"’" + 0.009*"good" + 0.008*"needs" + 0.008*"effective" + 0.006*"well" + 0.005*"practice" + 0.005*"quality" + 0.005*"impact" + 0.004*"education" + 0.004*"leaders"']</t>
+    <t>['0.011*"’" + 0.007*"good" + 0.007*"well" + 0.006*"practice" + 0.006*"quality" + 0.006*"impact" + 0.006*"need" + 0.006*"needs" + 0.005*"effective" + 0.005*"risk"', '0.013*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"effective" + 0.006*"quality" + 0.006*"good" + 0.004*"risk" + 0.004*"education" + 0.004*"practice" + 0.004*"impact"', '0.010*"’" + 0.009*"good" + 0.009*"well" + 0.007*"effective" + 0.006*"needs" + 0.005*"quality" + 0.005*"practice" + 0.004*"education" + 0.004*"need" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1759,7 +1759,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"Lincolnshire" + 0.005*"needs" + 0.005*"progress" + 0.004*"well" + 0.004*"24" + 0.003*"April" + 0.003*"plans" + 0.003*"carers" + 0.003*"family"', '0.027*"’" + 0.009*"Lincolnshire" + 0.008*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"family" + 0.005*"progress" + 0.004*"need" + 0.004*"28" + 0.004*"education"', '0.016*"’" + 0.006*"Lincolnshire" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"24" + 0.004*"family" + 0.004*"working" + 0.004*"progress" + 0.004*"need"']</t>
+    <t>['0.025*"’" + 0.009*"Lincolnshire" + 0.008*"needs" + 0.006*"well" + 0.005*"family" + 0.005*"need" + 0.005*"plans" + 0.005*"progress" + 0.004*"24" + 0.004*"April"', '0.017*"’" + 0.005*"well" + 0.005*"Lincolnshire" + 0.005*"plans" + 0.004*"needs" + 0.004*"24" + 0.004*"2023" + 0.003*"28" + 0.003*"effective" + 0.003*"family"', '0.020*"’" + 0.007*"Lincolnshire" + 0.006*"needs" + 0.005*"progress" + 0.005*"plans" + 0.005*"well" + 0.004*"28" + 0.004*"family" + 0.004*"24" + 0.003*"effective"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1789,7 +1789,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"practice" + 0.008*"needs" + 0.007*"need" + 0.006*"quality" + 0.006*"always" + 0.005*"Liverpool" + 0.005*"PAs" + 0.005*"protection" + 0.005*"24"', '0.019*"’" + 0.007*"needs" + 0.006*"Liverpool" + 0.006*"need" + 0.005*"always" + 0.005*"practice" + 0.005*"2023" + 0.005*"quality" + 0.004*"protection" + 0.004*"lack"', '0.018*"’" + 0.007*"always" + 0.006*"needs" + 0.006*"practice" + 0.005*"senior" + 0.005*"Liverpool" + 0.005*"quality" + 0.005*"need" + 0.005*"protection" + 0.005*"timely"']</t>
+    <t>['0.020*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"always" + 0.006*"quality" + 0.006*"Liverpool" + 0.005*"24" + 0.005*"need" + 0.005*"timely" + 0.005*"protection"', '0.019*"’" + 0.008*"needs" + 0.007*"need" + 0.007*"always" + 0.006*"Liverpool" + 0.006*"practice" + 0.005*"met" + 0.005*"quality" + 0.005*"protection" + 0.005*"PAs"', '0.019*"’" + 0.007*"practice" + 0.007*"need" + 0.006*"needs" + 0.006*"always" + 0.006*"Liverpool" + 0.005*"quality" + 0.005*"protection" + 0.005*"planning" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -1822,7 +1822,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.005*"plans" + 0.005*"good" + 0.005*"well" + 0.005*"planning" + 0.005*"carers" + 0.005*"information" + 0.004*"Dagenham" + 0.004*"Barking" + 0.004*"timely"', '0.023*"’" + 0.012*"needs" + 0.006*"carers" + 0.006*"well" + 0.005*"progress" + 0.005*"plans" + 0.005*"practice" + 0.004*"ensure" + 0.004*"good" + 0.004*"Dagenham"', '0.023*"’" + 0.007*"good" + 0.007*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"London" + 0.005*"July" + 0.005*"carers" + 0.005*"information" + 0.004*"well"']</t>
+    <t>['0.026*"’" + 0.009*"needs" + 0.007*"good" + 0.006*"carers" + 0.006*"plans" + 0.005*"practice" + 0.005*"well" + 0.005*"information" + 0.005*"Borough" + 0.005*"progress"', '0.020*"’" + 0.007*"needs" + 0.006*"plans" + 0.005*"good" + 0.005*"well" + 0.004*"information" + 0.004*"carers" + 0.004*"Barking" + 0.004*"progress" + 0.004*"10"', '0.019*"’" + 0.007*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"practice" + 0.005*"ensure" + 0.004*"2023" + 0.004*"progress" + 0.004*"21" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -1858,7 +1858,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"good" + 0.008*"needs" + 0.008*"well" + 0.008*"progress" + 0.007*"need" + 0.006*"ensure" + 0.006*"quality" + 0.006*"clear" + 0.005*"plans"', '0.014*"’" + 0.011*"needs" + 0.010*"need" + 0.009*"good" + 0.008*"well" + 0.006*"plans" + 0.006*"ensure" + 0.005*"clear" + 0.005*"risk" + 0.005*"progress"', '0.014*"’" + 0.009*"good" + 0.009*"well" + 0.009*"needs" + 0.006*"plans" + 0.006*"progress" + 0.006*"need" + 0.005*"clear" + 0.005*"risk" + 0.005*"meetings"']</t>
+    <t>['0.019*"’" + 0.012*"needs" + 0.010*"good" + 0.008*"well" + 0.008*"need" + 0.006*"ensure" + 0.006*"plans" + 0.006*"progress" + 0.005*"clear" + 0.005*"risk"', '0.012*"’" + 0.010*"well" + 0.010*"good" + 0.008*"needs" + 0.007*"progress" + 0.006*"plans" + 0.006*"need" + 0.006*"quality" + 0.006*"ensure" + 0.006*"clear"', '0.010*"’" + 0.009*"need" + 0.008*"needs" + 0.007*"good" + 0.006*"well" + 0.005*"progress" + 0.005*"clear" + 0.005*"plans" + 0.005*"effective" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>303</t>
@@ -1876,7 +1876,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"needs" + 0.006*"effective" + 0.006*"well" + 0.006*"Bexley" + 0.005*"need" + 0.005*"10" + 0.004*"plans" + 0.004*"practice" + 0.004*"including"', '0.023*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"need" + 0.005*"6" + 0.005*"effective" + 0.005*"Bexley" + 0.005*"10" + 0.004*"education"', '0.018*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"need" + 0.005*"Bexley" + 0.005*"plans" + 0.004*"including" + 0.004*"practice" + 0.004*"clear"']</t>
+    <t>['0.014*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"need" + 0.005*"Bexley" + 0.005*"plans" + 0.004*"clear" + 0.004*"10" + 0.004*"practice"', '0.026*"’" + 0.007*"well" + 0.006*"need" + 0.006*"needs" + 0.006*"effective" + 0.005*"Bexley" + 0.005*"plans" + 0.005*"6" + 0.004*"make" + 0.004*"oversight"', '0.015*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"effective" + 0.005*"10" + 0.005*"need" + 0.004*"including" + 0.004*"Bexley" + 0.004*"6"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -1903,7 +1903,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"well" + 0.008*"leaders" + 0.007*"progress" + 0.006*"practice" + 0.006*"good" + 0.006*"quality" + 0.006*"Brent" + 0.006*"plans" + 0.006*"information"', '0.018*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"leaders" + 0.006*"progress" + 0.006*"number" + 0.006*"senior" + 0.006*"needs" + 0.005*"quality" + 0.005*"Brent"', '0.011*"’" + 0.008*"well" + 0.006*"leaders" + 0.006*"good" + 0.005*"small" + 0.005*"plans" + 0.005*"However" + 0.005*"number" + 0.005*"Brent" + 0.004*"progress"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.007*"progress" + 0.006*"leaders" + 0.006*"number" + 0.006*"plans" + 0.005*"quality" + 0.005*"good" + 0.005*"practice" + 0.005*"timely"', '0.015*"’" + 0.010*"leaders" + 0.007*"plans" + 0.007*"good" + 0.006*"well" + 0.006*"quality" + 0.006*"number" + 0.006*"progress" + 0.005*"senior" + 0.005*"practice"', '0.019*"’" + 0.010*"well" + 0.007*"plans" + 0.006*"Brent" + 0.006*"progress" + 0.005*"leaders" + 0.005*"senior" + 0.005*"information" + 0.005*"good" + 0.005*"family"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -1936,7 +1936,7 @@
     <t>0.1941</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"Bromley" + 0.006*"well" + 0.005*"needs" + 0.004*"leaders" + 0.004*"practice" + 0.004*"plans" + 0.004*"strong" + 0.004*"helping" + 0.004*"YPAs"', '0.023*"’" + 0.009*"Bromley" + 0.008*"needs" + 0.008*"well" + 0.007*"plans" + 0.006*"leaders" + 0.006*"education" + 0.005*"health" + 0.005*"practice" + 0.005*"17"', '0.014*"’" + 0.008*"Bromley" + 0.006*"well" + 0.006*"needs" + 0.005*"practice" + 0.004*"plans" + 0.004*"leaders" + 0.004*"health" + 0.003*"November" + 0.003*"carers"']</t>
+    <t>['0.016*"’" + 0.009*"Bromley" + 0.008*"needs" + 0.007*"well" + 0.005*"plans" + 0.005*"practice" + 0.004*"education" + 0.004*"health" + 0.004*"progress" + 0.004*"leaders"', '0.017*"’" + 0.009*"Bromley" + 0.007*"well" + 0.006*"needs" + 0.006*"leaders" + 0.005*"plans" + 0.004*"access" + 0.004*"13" + 0.004*"practice" + 0.004*"17"', '0.025*"’" + 0.009*"Bromley" + 0.006*"plans" + 0.006*"well" + 0.006*"practice" + 0.006*"needs" + 0.005*"leaders" + 0.005*"health" + 0.005*"education" + 0.004*"17"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -1966,7 +1966,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.005*"’" + 0.005*"well" + 0.005*"Camden" + 0.004*"25" + 0.004*"practice" + 0.004*"leaders" + 0.004*"meetings" + 0.004*"appropriate" + 0.003*"health" + 0.003*"needs"', '0.012*"’" + 0.008*"Camden" + 0.006*"practice" + 0.006*"leaders" + 0.006*"needs" + 0.005*"response" + 0.005*"29" + 0.005*"appropriate" + 0.005*"protection" + 0.004*"well"', '0.012*"’" + 0.008*"leaders" + 0.007*"Camden" + 0.007*"practice" + 0.006*"well" + 0.006*"protection" + 0.005*"needs" + 0.004*"response" + 0.004*"progress" + 0.004*"good"']</t>
+    <t>['0.014*"’" + 0.008*"Camden" + 0.007*"practice" + 0.006*"leaders" + 0.006*"needs" + 0.005*"well" + 0.005*"appropriate" + 0.005*"response" + 0.005*"25" + 0.004*"protection"', '0.010*"’" + 0.007*"Camden" + 0.007*"leaders" + 0.005*"response" + 0.005*"practice" + 0.005*"protection" + 0.005*"well" + 0.004*"progress" + 0.004*"2022" + 0.004*"needs"', '0.006*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"leaders" + 0.005*"protection" + 0.005*"Camden" + 0.004*"meetings" + 0.004*"needs" + 0.004*"29" + 0.004*"appropriate"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -1993,7 +1993,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"Croydon" + 0.004*"plans" + 0.004*"ensure" + 0.004*"arrangements" + 0.004*"improved" + 0.004*"quality" + 0.004*"good"', '0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"health" + 0.006*"need" + 0.006*"Croydon" + 0.005*"quality" + 0.005*"Senior" + 0.005*"effective" + 0.005*"plans"', '0.012*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Senior" + 0.006*"quality" + 0.006*"Croydon" + 0.006*"need" + 0.006*"good" + 0.005*"ensure" + 0.005*"education"']</t>
+    <t>['0.008*"’" + 0.006*"needs" + 0.006*"Senior" + 0.005*"well" + 0.005*"ensure" + 0.004*"Croydon" + 0.004*"quality" + 0.004*"need" + 0.004*"education" + 0.004*"effective"', '0.015*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"need" + 0.006*"Croydon" + 0.006*"health" + 0.006*"plans" + 0.005*"effective" + 0.005*"risk" + 0.005*"quality"', '0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"good" + 0.006*"ensure" + 0.006*"quality" + 0.006*"Senior" + 0.006*"Croydon" + 0.005*"education" + 0.005*"improved"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2026,7 +2026,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"quality" + 0.007*"needs" + 0.005*"Ealing" + 0.005*"experiences" + 0.005*"risk" + 0.005*"progress" + 0.004*"good" + 0.004*"family" + 0.004*"management"', '0.010*"’" + 0.010*"quality" + 0.008*"good" + 0.007*"needs" + 0.005*"plans" + 0.005*"progress" + 0.005*"well" + 0.005*"experiences" + 0.004*"risk" + 0.004*"Ealing"', '0.012*"’" + 0.010*"quality" + 0.006*"needs" + 0.006*"good" + 0.006*"plans" + 0.005*"progress" + 0.005*"risk" + 0.005*"oversight" + 0.004*"need" + 0.004*"provide"']</t>
+    <t>['0.006*"’" + 0.005*"quality" + 0.005*"needs" + 0.005*"good" + 0.004*"risk" + 0.004*"oversight" + 0.004*"progress" + 0.003*"family" + 0.003*"experiences" + 0.003*"provide"', '0.013*"’" + 0.012*"quality" + 0.008*"needs" + 0.007*"good" + 0.006*"plans" + 0.005*"risk" + 0.005*"progress" + 0.005*"experiences" + 0.005*"well" + 0.004*"need"', '0.010*"’" + 0.009*"quality" + 0.007*"needs" + 0.005*"good" + 0.005*"management" + 0.005*"progress" + 0.005*"Ealing" + 0.005*"plans" + 0.004*"oversight" + 0.004*"family"']</t>
   </si>
   <si>
     <t>308</t>
@@ -2053,7 +2053,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"needs" + 0.007*"practice" + 0.007*"good" + 0.007*"ensure" + 0.006*"Enfield" + 0.006*"clear" + 0.005*"improve" + 0.005*"range" + 0.005*"quality"', '0.016*"’" + 0.008*"needs" + 0.008*"good" + 0.008*"ensure" + 0.007*"practice" + 0.007*"clear" + 0.006*"effective" + 0.006*"timely" + 0.006*"quality" + 0.006*"Enfield"', '0.013*"’" + 0.008*"effective" + 0.008*"practice" + 0.008*"leaders" + 0.008*"ensure" + 0.008*"needs" + 0.007*"quality" + 0.006*"Enfield" + 0.006*"good" + 0.006*"clear"']</t>
+    <t>['0.010*"’" + 0.008*"needs" + 0.008*"ensure" + 0.008*"good" + 0.008*"effective" + 0.007*"Enfield" + 0.007*"practice" + 0.007*"clear" + 0.006*"timely" + 0.006*"quality"', '0.015*"’" + 0.006*"ensure" + 0.006*"needs" + 0.006*"good" + 0.005*"Enfield" + 0.005*"timely" + 0.005*"practice" + 0.005*"arrangements" + 0.005*"clear" + 0.005*"leaders"', '0.016*"’" + 0.010*"needs" + 0.009*"practice" + 0.008*"ensure" + 0.007*"good" + 0.007*"effective" + 0.007*"quality" + 0.006*"clear" + 0.006*"leaders" + 0.006*"improve"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2083,7 +2083,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"well" + 0.010*"needs" + 0.008*"plans" + 0.007*"good" + 0.006*"information" + 0.006*"need" + 0.005*"range" + 0.005*"timely" + 0.005*"progress"', '0.010*"’" + 0.009*"well" + 0.007*"good" + 0.007*"range" + 0.006*"plans" + 0.006*"needs" + 0.006*"progress" + 0.006*"need" + 0.005*"effective" + 0.005*"quality"', '0.012*"’" + 0.009*"good" + 0.008*"plans" + 0.008*"well" + 0.007*"need" + 0.006*"ensure" + 0.006*"needs" + 0.005*"consistently" + 0.005*"range" + 0.005*"risk"']</t>
+    <t>['0.011*"’" + 0.011*"well" + 0.008*"plans" + 0.007*"needs" + 0.007*"need" + 0.006*"good" + 0.006*"ensure" + 0.006*"progress" + 0.006*"range" + 0.005*"risk"', '0.013*"’" + 0.008*"well" + 0.008*"good" + 0.008*"plans" + 0.008*"needs" + 0.007*"range" + 0.005*"need" + 0.005*"risk" + 0.005*"quality" + 0.004*"risks"', '0.012*"’" + 0.010*"well" + 0.009*"good" + 0.008*"needs" + 0.007*"plans" + 0.006*"need" + 0.005*"timely" + 0.005*"progress" + 0.005*"consistently" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2119,7 +2119,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"practice" + 0.007*"number" + 0.006*"within" + 0.006*"small" + 0.006*"quality" + 0.006*"needs" + 0.005*"plans" + 0.005*"planning" + 0.005*"However"', '0.013*"’" + 0.013*"practice" + 0.007*"effective" + 0.006*"planning" + 0.006*"including" + 0.006*"number" + 0.005*"leaders" + 0.005*"plans" + 0.005*"needs" + 0.005*"quality"', '0.014*"’" + 0.009*"practice" + 0.006*"planning" + 0.006*"number" + 0.006*"plans" + 0.005*"effective" + 0.005*"needs" + 0.005*"including" + 0.005*"within" + 0.005*"making"']</t>
+    <t>['0.017*"’" + 0.009*"practice" + 0.006*"within" + 0.006*"quality" + 0.006*"planning" + 0.005*"needs" + 0.005*"including" + 0.005*"number" + 0.005*"effective" + 0.005*"carers"', '0.011*"practice" + 0.009*"’" + 0.006*"within" + 0.006*"leaders" + 0.006*"planning" + 0.006*"plans" + 0.005*"number" + 0.005*"protection" + 0.005*"effective" + 0.005*"needs"', '0.013*"’" + 0.009*"practice" + 0.008*"number" + 0.007*"effective" + 0.006*"planning" + 0.006*"needs" + 0.006*"need" + 0.006*"plans" + 0.006*"including" + 0.006*"However"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2149,7 +2149,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"good" + 0.006*"shared" + 0.006*"arrangements" + 0.005*"effective" + 0.005*"improve" + 0.005*"appropriate" + 0.005*"ensure"', '0.010*"’" + 0.010*"needs" + 0.007*"effective" + 0.007*"well" + 0.006*"good" + 0.006*"arrangements" + 0.005*"appropriate" + 0.005*"ensure" + 0.005*"education" + 0.005*"leaders"', '0.013*"’" + 0.010*"effective" + 0.008*"needs" + 0.007*"well" + 0.007*"appropriate" + 0.006*"ensure" + 0.006*"good" + 0.006*"leaders" + 0.005*"risk" + 0.005*"improve"']</t>
+    <t>['0.011*"’" + 0.008*"effective" + 0.006*"needs" + 0.006*"well" + 0.006*"appropriate" + 0.006*"leaders" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"good" + 0.005*"risk"', '0.012*"’" + 0.009*"needs" + 0.008*"effective" + 0.008*"well" + 0.007*"appropriate" + 0.006*"ensure" + 0.006*"good" + 0.005*"family" + 0.005*"shared" + 0.005*"leaders"', '0.013*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"effective" + 0.007*"good" + 0.006*"arrangements" + 0.006*"ensure" + 0.005*"appropriate" + 0.005*"improve" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2173,7 +2173,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"Haringey" + 0.007*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"progress" + 0.005*"need" + 0.004*"needs" + 0.004*"education" + 0.004*"timely"', '0.016*"’" + 0.010*"needs" + 0.009*"Haringey" + 0.006*"plans" + 0.006*"good" + 0.005*"well" + 0.005*"risk" + 0.005*"need" + 0.004*"education" + 0.004*"Leaders"', '0.016*"’" + 0.007*"needs" + 0.007*"Haringey" + 0.007*"plans" + 0.006*"well" + 0.006*"progress" + 0.005*"need" + 0.005*"good" + 0.004*"training" + 0.004*"impact"']</t>
+    <t>['0.020*"’" + 0.010*"Haringey" + 0.010*"needs" + 0.009*"plans" + 0.007*"well" + 0.006*"good" + 0.005*"need" + 0.005*"education" + 0.004*"24" + 0.004*"progress"', '0.008*"’" + 0.006*"needs" + 0.005*"good" + 0.005*"Haringey" + 0.005*"plans" + 0.004*"well" + 0.004*"progress" + 0.003*"education" + 0.003*"risk" + 0.003*"need"', '0.014*"’" + 0.008*"Haringey" + 0.006*"need" + 0.005*"progress" + 0.005*"plans" + 0.005*"needs" + 0.005*"well" + 0.005*"risk" + 0.004*"impact" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2203,7 +2203,7 @@
     <t>0.2023</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"needs" + 0.006*"good" + 0.005*"well" + 0.004*"plans" + 0.004*"impact" + 0.004*"experiences" + 0.003*"protection" + 0.003*"team" + 0.003*"early"', '0.012*"good" + 0.012*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"impact" + 0.006*"practice" + 0.006*"protection" + 0.006*"need" + 0.005*"plans" + 0.005*"early"', '0.013*"’" + 0.012*"good" + 0.009*"well" + 0.006*"needs" + 0.006*"plans" + 0.005*"need" + 0.005*"protection" + 0.005*"early" + 0.005*"experiences" + 0.004*"practice"']</t>
+    <t>['0.015*"’" + 0.014*"good" + 0.011*"well" + 0.007*"needs" + 0.007*"plans" + 0.006*"early" + 0.006*"practice" + 0.006*"impact" + 0.005*"need" + 0.005*"school"', '0.009*"’" + 0.008*"good" + 0.007*"needs" + 0.005*"need" + 0.005*"experiences" + 0.005*"impact" + 0.005*"practice" + 0.005*"well" + 0.004*"protection" + 0.004*"team"', '0.009*"needs" + 0.009*"’" + 0.008*"good" + 0.008*"well" + 0.006*"protection" + 0.005*"impact" + 0.004*"experiences" + 0.004*"planning" + 0.004*"need" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2233,7 +2233,7 @@
     <t>0.2113</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"needs" + 0.008*"quality" + 0.008*"good" + 0.007*"need" + 0.006*"well" + 0.006*"plans" + 0.005*"meetings" + 0.005*"practice" + 0.005*"progress"', '0.008*"good" + 0.008*"need" + 0.007*"’" + 0.007*"well" + 0.006*"quality" + 0.006*"needs" + 0.006*"plans" + 0.006*"practice" + 0.005*"meetings" + 0.004*"consistently"', '0.011*"’" + 0.008*"needs" + 0.007*"good" + 0.007*"quality" + 0.006*"plans" + 0.006*"need" + 0.006*"well" + 0.006*"meetings" + 0.005*"number" + 0.005*"practice"']</t>
+    <t>['0.009*"needs" + 0.009*"’" + 0.008*"need" + 0.007*"quality" + 0.007*"plans" + 0.006*"good" + 0.006*"practice" + 0.006*"meetings" + 0.005*"well" + 0.005*"clear"', '0.010*"’" + 0.008*"good" + 0.007*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"quality" + 0.006*"need" + 0.005*"plans" + 0.005*"appropriate" + 0.005*"consistently"', '0.012*"’" + 0.009*"good" + 0.008*"quality" + 0.007*"need" + 0.007*"well" + 0.006*"needs" + 0.006*"meetings" + 0.006*"plans" + 0.005*"consistently" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>312</t>
@@ -2266,7 +2266,7 @@
     <t>0.1861</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"Hillingdon" + 0.006*"plans" + 0.005*"team" + 0.005*"6" + 0.005*"need" + 0.004*"leaders" + 0.004*"PAs"', '0.014*"’" + 0.009*"needs" + 0.008*"plans" + 0.006*"Hillingdon" + 0.005*"team" + 0.005*"need" + 0.004*"October" + 0.004*"well" + 0.004*"2" + 0.004*"carers"', '0.020*"’" + 0.010*"needs" + 0.010*"Hillingdon" + 0.009*"plans" + 0.009*"well" + 0.005*"2" + 0.004*"experiences" + 0.004*"6" + 0.004*"understand" + 0.004*"timely"']</t>
+    <t>['0.018*"’" + 0.008*"plans" + 0.007*"well" + 0.007*"Hillingdon" + 0.007*"needs" + 0.004*"team" + 0.004*"need" + 0.004*"PAs" + 0.004*"2023" + 0.003*"appropriate"', '0.016*"’" + 0.010*"needs" + 0.007*"plans" + 0.007*"Hillingdon" + 0.006*"well" + 0.005*"experiences" + 0.004*"October" + 0.004*"team" + 0.004*"6" + 0.004*"family"', '0.019*"’" + 0.011*"needs" + 0.009*"Hillingdon" + 0.008*"well" + 0.008*"plans" + 0.005*"need" + 0.005*"team" + 0.005*"2" + 0.005*"6" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2296,7 +2296,7 @@
     <t>0.1948</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"Hounslow" + 0.006*"plans" + 0.005*"timely" + 0.004*"experiences" + 0.004*"education" + 0.004*"16"', '0.012*"’" + 0.007*"needs" + 0.007*"Hounslow" + 0.006*"well" + 0.006*"effective" + 0.005*"timely" + 0.004*"October" + 0.004*"strong" + 0.003*"health" + 0.003*"plans"', '0.022*"’" + 0.014*"needs" + 0.012*"well" + 0.008*"effective" + 0.007*"timely" + 0.007*"Hounslow" + 0.006*"plans" + 0.005*"progress" + 0.005*"oversight" + 0.005*"experiences"']</t>
+    <t>['0.018*"’" + 0.010*"needs" + 0.008*"Hounslow" + 0.007*"well" + 0.007*"effective" + 0.006*"plans" + 0.006*"timely" + 0.004*"2023" + 0.004*"16" + 0.004*"leaders"', '0.026*"’" + 0.011*"well" + 0.010*"needs" + 0.008*"effective" + 0.006*"timely" + 0.006*"Hounslow" + 0.005*"progress" + 0.005*"plans" + 0.005*"20" + 0.005*"experiences"', '0.013*"’" + 0.012*"needs" + 0.011*"well" + 0.007*"Hounslow" + 0.007*"effective" + 0.006*"timely" + 0.005*"plans" + 0.005*"oversight" + 0.005*"strong" + 0.004*"16"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2326,7 +2326,7 @@
     <t>0.1842</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"needs" + 0.007*"well" + 0.005*"highly" + 0.005*"plans" + 0.005*"leaders" + 0.004*"quality" + 0.004*"Senior" + 0.004*"practice" + 0.004*"good"', '0.013*"needs" + 0.013*"’" + 0.010*"well" + 0.007*"plans" + 0.007*"good" + 0.007*"highly" + 0.006*"quality" + 0.005*"Islington" + 0.005*"practice" + 0.004*"need"', '0.014*"’" + 0.012*"well" + 0.010*"needs" + 0.007*"effective" + 0.007*"plans" + 0.006*"leaders" + 0.006*"good" + 0.006*"quality" + 0.005*"risk" + 0.005*"highly"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.009*"well" + 0.007*"highly" + 0.007*"plans" + 0.006*"school" + 0.005*"quality" + 0.005*"good" + 0.005*"Islington" + 0.005*"effective"', '0.010*"’" + 0.009*"needs" + 0.008*"well" + 0.006*"good" + 0.005*"plans" + 0.005*"effective" + 0.005*"highly" + 0.004*"Islington" + 0.004*"quality" + 0.003*"lives"', '0.013*"’" + 0.012*"well" + 0.012*"needs" + 0.007*"plans" + 0.007*"leaders" + 0.006*"quality" + 0.006*"good" + 0.006*"effective" + 0.005*"highly" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2359,7 +2359,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"well" + 0.010*"needs" + 0.006*"Lambeth" + 0.006*"plans" + 0.006*"good" + 0.006*"impact" + 0.005*"4" + 0.004*"Leaders" + 0.004*"progress"', '0.015*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"need" + 0.006*"progress" + 0.006*"plans" + 0.006*"Lambeth" + 0.005*"number" + 0.005*"4"', '0.015*"’" + 0.009*"plans" + 0.009*"needs" + 0.007*"good" + 0.006*"Lambeth" + 0.006*"well" + 0.006*"leaders" + 0.006*"progress" + 0.006*"impact" + 0.006*"need"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"good" + 0.006*"Lambeth" + 0.006*"need" + 0.005*"progress" + 0.005*"arrangements" + 0.004*"carers"', '0.014*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"Lambeth" + 0.007*"impact" + 0.006*"plans" + 0.006*"progress" + 0.005*"4" + 0.005*"need"', '0.014*"’" + 0.009*"needs" + 0.008*"plans" + 0.008*"well" + 0.006*"good" + 0.006*"need" + 0.006*"progress" + 0.006*"Lambeth" + 0.005*"impact" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2389,7 +2389,7 @@
     <t>0.1538</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"well" + 0.006*"However" + 0.006*"quality" + 0.005*"impact" + 0.005*"appropriate" + 0.005*"needs" + 0.005*"timely" + 0.004*"progress" + 0.004*"changes"', '0.007*"’" + 0.006*"However" + 0.006*"appropriate" + 0.006*"quality" + 0.006*"timely" + 0.005*"impact" + 0.005*"well" + 0.004*"clear" + 0.004*"effective" + 0.004*"practice"', '0.010*"’" + 0.006*"quality" + 0.006*"timely" + 0.006*"However" + 0.006*"well" + 0.004*"needs" + 0.004*"cases" + 0.004*"progress" + 0.004*"good" + 0.004*"oversight"']</t>
+    <t>['0.010*"’" + 0.007*"well" + 0.006*"However" + 0.006*"quality" + 0.005*"needs" + 0.005*"information" + 0.005*"appropriate" + 0.004*"early" + 0.004*"timely" + 0.004*"education"', '0.009*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"timely" + 0.006*"However" + 0.006*"impact" + 0.005*"appropriate" + 0.004*"needs" + 0.004*"oversight" + 0.004*"progress"', '0.008*"’" + 0.006*"However" + 0.006*"timely" + 0.005*"appropriate" + 0.005*"quality" + 0.005*"impact" + 0.004*"well" + 0.004*"progress" + 0.004*"needs" + 0.004*"changes"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2410,7 +2410,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"Merton" + 0.005*"good" + 0.005*"family" + 0.004*"impact" + 0.004*"across" + 0.004*"4" + 0.004*"ensure"', '0.017*"’" + 0.008*"well" + 0.007*"Merton" + 0.005*"plans" + 0.005*"information" + 0.004*"needs" + 0.004*"early" + 0.004*"2022" + 0.004*"leaders" + 0.004*"access"', '0.013*"’" + 0.008*"well" + 0.006*"Merton" + 0.006*"needs" + 0.006*"progress" + 0.005*"plans" + 0.004*"4" + 0.004*"across" + 0.004*"education" + 0.004*"information"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.007*"Merton" + 0.006*"needs" + 0.005*"plans" + 0.005*"progress" + 0.004*"good" + 0.004*"leaders" + 0.004*"education" + 0.004*"information"', '0.012*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"Merton" + 0.005*"family" + 0.005*"progress" + 0.004*"risk" + 0.004*"4" + 0.004*"practice" + 0.004*"2022"', '0.017*"’" + 0.007*"well" + 0.006*"Merton" + 0.005*"needs" + 0.005*"plans" + 0.005*"ensure" + 0.005*"family" + 0.004*"across" + 0.004*"4" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2428,7 +2428,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"needs" + 0.007*"Newham" + 0.007*"effective" + 0.006*"plans" + 0.005*"need" + 0.005*"progress" + 0.005*"practice" + 0.005*"good" + 0.005*"ensure"', '0.020*"’" + 0.008*"needs" + 0.007*"practice" + 0.006*"Newham" + 0.006*"progress" + 0.006*"need" + 0.006*"plans" + 0.005*"good" + 0.004*"effective" + 0.004*"planning"', '0.017*"’" + 0.008*"needs" + 0.007*"Newham" + 0.007*"progress" + 0.006*"need" + 0.006*"plans" + 0.006*"practice" + 0.005*"effective" + 0.005*"risks" + 0.005*"good"']</t>
+    <t>['0.021*"’" + 0.008*"needs" + 0.007*"Newham" + 0.006*"practice" + 0.006*"plans" + 0.006*"effective" + 0.006*"progress" + 0.006*"need" + 0.005*"early" + 0.004*"18"', '0.021*"’" + 0.008*"needs" + 0.007*"progress" + 0.007*"plans" + 0.006*"Newham" + 0.006*"effective" + 0.006*"good" + 0.006*"practice" + 0.006*"need" + 0.005*"risks"', '0.013*"’" + 0.008*"needs" + 0.007*"Newham" + 0.006*"practice" + 0.006*"need" + 0.005*"plans" + 0.005*"progress" + 0.005*"effective" + 0.004*"good" + 0.004*"Leaders"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2455,7 +2455,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.007*"’" + 0.007*"well" + 0.005*"need" + 0.005*"Redbridge" + 0.005*"including" + 0.005*"needs" + 0.005*"effective" + 0.005*"strong" + 0.004*"highly" + 0.004*"progress"', '0.009*"’" + 0.006*"practice" + 0.006*"well" + 0.005*"strong" + 0.005*"effective" + 0.005*"needs" + 0.005*"risk" + 0.005*"receive" + 0.004*"ensure" + 0.004*"need"', '0.009*"practice" + 0.007*"needs" + 0.007*"need" + 0.007*"’" + 0.006*"well" + 0.005*"risk" + 0.005*"Redbridge" + 0.005*"effective" + 0.005*"strong" + 0.005*"team"']</t>
+    <t>['0.005*"’" + 0.005*"well" + 0.005*"practice" + 0.005*"needs" + 0.005*"Redbridge" + 0.004*"need" + 0.004*"risk" + 0.004*"team" + 0.004*"ensure" + 0.004*"strong"', '0.009*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"strong" + 0.006*"need" + 0.005*"progress" + 0.005*"including" + 0.005*"risk" + 0.005*"Redbridge"', '0.007*"practice" + 0.007*"’" + 0.006*"needs" + 0.006*"effective" + 0.006*"need" + 0.005*"well" + 0.005*"Redbridge" + 0.005*"strong" + 0.005*"risk" + 0.004*"team"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2479,7 +2479,7 @@
     <t>0.2056</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.012*"well" + 0.008*"needs" + 0.007*"Richmond" + 0.006*"need" + 0.005*"team" + 0.005*"additional" + 0.005*"good" + 0.005*"31" + 0.005*"January"', '0.016*"’" + 0.011*"well" + 0.009*"Richmond" + 0.008*"supported" + 0.007*"needs" + 0.006*"good" + 0.005*"ensure" + 0.005*"need" + 0.005*"team" + 0.005*"4"', '0.016*"’" + 0.008*"well" + 0.007*"Richmond" + 0.007*"needs" + 0.006*"team" + 0.006*"need" + 0.005*"good" + 0.005*"supported" + 0.005*"upon" + 0.005*"Thames"']</t>
+    <t>['0.018*"’" + 0.013*"well" + 0.010*"Richmond" + 0.007*"needs" + 0.007*"supported" + 0.007*"team" + 0.006*"need" + 0.006*"good" + 0.005*"4" + 0.005*"additional"', '0.011*"’" + 0.007*"Richmond" + 0.007*"well" + 0.006*"needs" + 0.005*"supported" + 0.005*"strong" + 0.004*"team" + 0.004*"need" + 0.004*"upon" + 0.004*"range"', '0.016*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"Richmond" + 0.006*"good" + 0.005*"need" + 0.005*"supported" + 0.005*"31" + 0.005*"team" + 0.004*"strong"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2506,7 +2506,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"Southwark" + 0.006*"needs" + 0.006*"good" + 0.006*"well" + 0.005*"plans" + 0.005*"Leaders" + 0.005*"need" + 0.005*"progress" + 0.004*"strong"', '0.025*"’" + 0.010*"Southwark" + 0.009*"good" + 0.009*"well" + 0.008*"needs" + 0.006*"progress" + 0.006*"need" + 0.006*"strong" + 0.006*"effective" + 0.006*"leaders"', '0.011*"’" + 0.008*"Southwark" + 0.007*"good" + 0.007*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"plans" + 0.005*"progress" + 0.005*"need" + 0.004*"improve"']</t>
+    <t>['0.021*"’" + 0.009*"Southwark" + 0.009*"well" + 0.007*"good" + 0.007*"progress" + 0.007*"needs" + 0.006*"need" + 0.005*"leaders" + 0.005*"plans" + 0.005*"strong"', '0.015*"’" + 0.009*"good" + 0.008*"needs" + 0.008*"Southwark" + 0.007*"well" + 0.006*"receive" + 0.005*"Leaders" + 0.005*"practice" + 0.005*"plans" + 0.005*"progress"', '0.018*"’" + 0.011*"Southwark" + 0.008*"good" + 0.007*"well" + 0.006*"effective" + 0.006*"needs" + 0.006*"plans" + 0.006*"need" + 0.006*"strong" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2533,7 +2533,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.005*"progress" + 0.005*"effective" + 0.005*"Sutton" + 0.005*"receive" + 0.004*"‘" + 0.004*"good" + 0.004*"6" + 0.004*"10"', '0.016*"’" + 0.006*"needs" + 0.005*"Sutton" + 0.005*"well" + 0.004*"6" + 0.004*"good" + 0.004*"10" + 0.004*"leaders" + 0.004*"receive" + 0.003*"progress"', '0.018*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"Sutton" + 0.006*"progress" + 0.005*"effective" + 0.005*"receive" + 0.005*"good" + 0.005*"need" + 0.004*"understand"']</t>
+    <t>['0.011*"’" + 0.006*"well" + 0.005*"effective" + 0.005*"Sutton" + 0.004*"receive" + 0.004*"progress" + 0.004*"needs" + 0.004*"need" + 0.004*"good" + 0.004*"2021"', '0.017*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"good" + 0.005*"receive" + 0.004*"Sutton" + 0.004*"10" + 0.004*"2021" + 0.004*"effective" + 0.004*"leaders"', '0.020*"’" + 0.007*"Sutton" + 0.007*"progress" + 0.006*"well" + 0.006*"needs" + 0.006*"6" + 0.005*"effective" + 0.005*"supported" + 0.005*"receive" + 0.005*"‘"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2560,7 +2560,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"good" + 0.007*"practice" + 0.007*"effective" + 0.006*"plans" + 0.006*"‘" + 0.006*"progress" + 0.005*"early" + 0.005*"needs" + 0.005*"carers"', '0.011*"’" + 0.007*"good" + 0.006*"well" + 0.006*"plans" + 0.005*"‘" + 0.005*"effective" + 0.005*"including" + 0.005*"need" + 0.004*"early" + 0.004*"example"', '0.012*"’" + 0.006*"need" + 0.006*"well" + 0.006*"effective" + 0.005*"plans" + 0.005*"good" + 0.004*"‘" + 0.004*"education" + 0.004*"practice" + 0.004*"including"']</t>
+    <t>['0.018*"’" + 0.007*"good" + 0.007*"effective" + 0.005*"‘" + 0.005*"including" + 0.005*"early" + 0.005*"need" + 0.005*"plans" + 0.004*"carers" + 0.004*"well"', '0.016*"’" + 0.007*"plans" + 0.007*"well" + 0.006*"good" + 0.006*"progress" + 0.006*"practice" + 0.005*"effective" + 0.005*"‘" + 0.005*"need" + 0.005*"needs"', '0.010*"’" + 0.006*"‘" + 0.006*"plans" + 0.006*"good" + 0.005*"effective" + 0.005*"need" + 0.005*"practice" + 0.005*"well" + 0.005*"needs" + 0.005*"early"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2587,7 +2587,7 @@
     <t>11/03/19</t>
   </si>
   <si>
-    <t>['0.010*"well" + 0.010*"’" + 0.008*"needs" + 0.007*"good" + 0.006*"need" + 0.005*"effective" + 0.005*"plans" + 0.004*"timely" + 0.004*"protection" + 0.004*"clear"', '0.018*"’" + 0.009*"well" + 0.009*"effective" + 0.008*"needs" + 0.008*"good" + 0.006*"need" + 0.005*"plans" + 0.005*"timely" + 0.004*"information" + 0.004*"risk"', '0.016*"well" + 0.014*"’" + 0.009*"needs" + 0.009*"good" + 0.007*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"risk" + 0.005*"timely" + 0.005*"progress"']</t>
+    <t>['0.010*"’" + 0.010*"well" + 0.007*"effective" + 0.006*"need" + 0.005*"needs" + 0.005*"good" + 0.004*"timely" + 0.003*"plans" + 0.003*"actions" + 0.003*"information"', '0.018*"’" + 0.014*"well" + 0.010*"needs" + 0.010*"good" + 0.008*"effective" + 0.007*"need" + 0.006*"plans" + 0.006*"timely" + 0.005*"risk" + 0.005*"ensure"', '0.012*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"good" + 0.006*"effective" + 0.005*"plans" + 0.004*"risk" + 0.004*"practice" + 0.004*"timely" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2611,7 +2611,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"well" + 0.006*"Senior" + 0.006*"needs" + 0.006*"practice" + 0.005*"Wandsworth" + 0.005*"protection" + 0.005*"ensure" + 0.005*"quality" + 0.005*"effective"', '0.012*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"Wandsworth" + 0.005*"supported" + 0.005*"Senior" + 0.005*"7" + 0.005*"needs" + 0.005*"receive" + 0.005*"improve"', '0.011*"’" + 0.008*"well" + 0.006*"progress" + 0.005*"team" + 0.005*"needs" + 0.005*"protection" + 0.004*"practice" + 0.004*"However" + 0.004*"supported" + 0.004*"quality"']</t>
+    <t>['0.010*"’" + 0.006*"needs" + 0.005*"progress" + 0.005*"well" + 0.005*"18" + 0.005*"Wandsworth" + 0.005*"Senior" + 0.004*"supported" + 0.004*"timely" + 0.004*"practice"', '0.013*"’" + 0.007*"well" + 0.007*"protection" + 0.006*"effective" + 0.006*"good" + 0.005*"Senior" + 0.005*"progress" + 0.005*"needs" + 0.005*"quality" + 0.005*"supported"', '0.011*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"Wandsworth" + 0.005*"progress" + 0.005*"ensure" + 0.005*"quality" + 0.005*"7" + 0.005*"18"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2632,7 +2632,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"needs" + 0.005*"practice" + 0.005*"highly" + 0.004*"well" + 0.004*"many" + 0.004*"across" + 0.004*"direct" + 0.004*"interventions" + 0.003*"family"', '0.014*"’" + 0.008*"practice" + 0.005*"highly" + 0.005*"well" + 0.004*"needs" + 0.004*"across" + 0.004*"skilled" + 0.004*"high" + 0.004*"many" + 0.003*"plans"', '0.012*"’" + 0.007*"highly" + 0.006*"practice" + 0.006*"well" + 0.005*"needs" + 0.004*"many" + 0.004*"family" + 0.004*"shared" + 0.003*"across" + 0.003*"protection"']</t>
+    <t>['0.015*"’" + 0.007*"needs" + 0.007*"practice" + 0.007*"highly" + 0.005*"well" + 0.004*"many" + 0.004*"across" + 0.004*"skilled" + 0.004*"quality" + 0.004*"shared"', '0.011*"’" + 0.006*"needs" + 0.006*"practice" + 0.005*"highly" + 0.004*"well" + 0.003*"high" + 0.003*"family" + 0.003*"early" + 0.003*"direct" + 0.003*"across"', '0.010*"’" + 0.006*"practice" + 0.006*"well" + 0.005*"highly" + 0.004*"across" + 0.004*"many" + 0.004*"needs" + 0.004*"direct" + 0.004*"family" + 0.003*"shared"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2662,7 +2662,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"needs" + 0.007*"need" + 0.006*"effective" + 0.006*"Luton" + 0.006*"plans" + 0.005*"impact" + 0.005*"good" + 0.005*"progress" + 0.005*"leaders"', '0.016*"’" + 0.006*"good" + 0.006*"plans" + 0.005*"impact" + 0.005*"Luton" + 0.005*"effective" + 0.005*"quality" + 0.005*"need" + 0.005*"progress" + 0.005*"ensure"', '0.016*"’" + 0.007*"need" + 0.006*"needs" + 0.006*"plans" + 0.005*"Luton" + 0.005*"receive" + 0.005*"ensure" + 0.005*"progress" + 0.004*"effective" + 0.004*"well"']</t>
+    <t>['0.018*"’" + 0.006*"needs" + 0.005*"effective" + 0.005*"quality" + 0.005*"receive" + 0.005*"progress" + 0.005*"ensure" + 0.005*"need" + 0.005*"leaders" + 0.005*"impact"', '0.014*"’" + 0.007*"plans" + 0.005*"need" + 0.005*"effective" + 0.005*"progress" + 0.005*"Luton" + 0.005*"impact" + 0.005*"needs" + 0.004*"11" + 0.004*"well"', '0.019*"’" + 0.008*"need" + 0.007*"Luton" + 0.007*"needs" + 0.006*"good" + 0.006*"plans" + 0.005*"well" + 0.005*"effective" + 0.005*"impact" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2689,7 +2689,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"Manchester" + 0.007*"needs" + 0.006*"supported" + 0.006*"always" + 0.005*"plans" + 0.005*"effective" + 0.005*"disabled" + 0.004*"protection" + 0.004*"well"', '0.022*"’" + 0.011*"Manchester" + 0.009*"needs" + 0.008*"well" + 0.008*"always" + 0.006*"education" + 0.006*"supported" + 0.005*"plans" + 0.005*"protection" + 0.005*"progress"', '0.024*"’" + 0.011*"Manchester" + 0.011*"needs" + 0.007*"supported" + 0.007*"well" + 0.006*"always" + 0.006*"plans" + 0.005*"disabled" + 0.005*"protection" + 0.005*"effective"']</t>
+    <t>['0.015*"’" + 0.010*"Manchester" + 0.009*"needs" + 0.007*"well" + 0.007*"always" + 0.005*"education" + 0.005*"effective" + 0.005*"progress" + 0.005*"supported" + 0.005*"risk"', '0.014*"’" + 0.009*"Manchester" + 0.007*"supported" + 0.007*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"21" + 0.005*"information" + 0.005*"family" + 0.004*"protection"', '0.030*"’" + 0.011*"Manchester" + 0.011*"needs" + 0.007*"always" + 0.007*"supported" + 0.007*"well" + 0.006*"plans" + 0.006*"quality" + 0.005*"protection" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -2716,7 +2716,7 @@
     <t>11/09/23</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"practice" + 0.007*"quality" + 0.007*"Medway" + 0.007*"well" + 0.006*"leaders" + 0.005*"needs" + 0.005*"oversight" + 0.005*"impact" + 0.004*"progress"', '0.013*"’" + 0.009*"well" + 0.007*"Medway" + 0.007*"quality" + 0.007*"practice" + 0.006*"leaders" + 0.005*"risk" + 0.005*"needs" + 0.005*"Senior" + 0.004*"experiences"', '0.018*"’" + 0.011*"Medway" + 0.009*"practice" + 0.008*"quality" + 0.007*"oversight" + 0.007*"impact" + 0.007*"needs" + 0.007*"well" + 0.006*"leaders" + 0.006*"experiences"']</t>
+    <t>['0.015*"’" + 0.010*"Medway" + 0.007*"practice" + 0.006*"impact" + 0.005*"experiences" + 0.005*"quality" + 0.005*"well" + 0.005*"oversight" + 0.005*"needs" + 0.005*"Senior"', '0.010*"’" + 0.008*"Medway" + 0.008*"quality" + 0.007*"practice" + 0.007*"well" + 0.006*"needs" + 0.006*"oversight" + 0.006*"leaders" + 0.005*"Senior" + 0.005*"impact"', '0.020*"’" + 0.009*"well" + 0.009*"quality" + 0.009*"Medway" + 0.009*"practice" + 0.007*"leaders" + 0.007*"needs" + 0.006*"good" + 0.006*"oversight" + 0.006*"impact"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -2737,7 +2737,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"needs" + 0.006*"effective" + 0.006*"well" + 0.006*"Middlesbrough" + 0.006*"progress" + 0.005*"practice" + 0.005*"plans" + 0.005*"place" + 0.005*"impact"', '0.014*"’" + 0.008*"effective" + 0.007*"plans" + 0.007*"well" + 0.006*"needs" + 0.006*"practice" + 0.006*"place" + 0.006*"Middlesbrough" + 0.005*"24" + 0.005*"progress"', '0.013*"’" + 0.009*"plans" + 0.009*"Middlesbrough" + 0.006*"effective" + 0.006*"well" + 0.005*"needs" + 0.005*"progress" + 0.004*"March" + 0.004*"good" + 0.004*"practice"']</t>
+    <t>['0.011*"’" + 0.008*"Middlesbrough" + 0.007*"practice" + 0.007*"plans" + 0.006*"needs" + 0.005*"well" + 0.005*"effective" + 0.005*"good" + 0.005*"24" + 0.005*"progress"', '0.015*"’" + 0.008*"effective" + 0.008*"well" + 0.007*"needs" + 0.007*"plans" + 0.005*"progress" + 0.005*"13" + 0.005*"Middlesbrough" + 0.005*"place" + 0.005*"good"', '0.015*"’" + 0.007*"plans" + 0.007*"effective" + 0.006*"Middlesbrough" + 0.006*"well" + 0.005*"progress" + 0.005*"means" + 0.005*"practice" + 0.005*"needs" + 0.004*"24"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -2761,7 +2761,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"Keynes" + 0.006*"Milton" + 0.005*"practice" + 0.005*"good" + 0.005*"well" + 0.005*"leaders" + 0.004*"need" + 0.004*"quality" + 0.004*"effective"', '0.012*"’" + 0.006*"Keynes" + 0.006*"Milton" + 0.005*"well" + 0.005*"need" + 0.005*"5" + 0.005*"plans" + 0.005*"25" + 0.004*"practice" + 0.004*"leaders"', '0.018*"’" + 0.006*"need" + 0.006*"Milton" + 0.006*"well" + 0.006*"Keynes" + 0.005*"25" + 0.005*"October" + 0.005*"plans" + 0.005*"carers" + 0.004*"5"']</t>
+    <t>['0.014*"’" + 0.006*"Milton" + 0.006*"Keynes" + 0.005*"need" + 0.005*"practice" + 0.005*"well" + 0.005*"October" + 0.005*"needs" + 0.004*"25" + 0.004*"leaders"', '0.015*"’" + 0.007*"Keynes" + 0.006*"well" + 0.006*"Milton" + 0.006*"need" + 0.005*"impact" + 0.005*"November" + 0.005*"plans" + 0.005*"leaders" + 0.005*"team"', '0.017*"’" + 0.005*"well" + 0.005*"good" + 0.005*"Milton" + 0.005*"need" + 0.004*"25" + 0.004*"Keynes" + 0.004*"plans" + 0.004*"carers" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -2785,7 +2785,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"plans" + 0.007*"protection" + 0.007*"needs" + 0.006*"well" + 0.006*"good" + 0.006*"ensure" + 0.005*"response" + 0.005*"management" + 0.005*"Newcastle"', '0.017*"’" + 0.012*"plans" + 0.008*"needs" + 0.007*"good" + 0.006*"making" + 0.006*"protection" + 0.006*"Newcastle" + 0.006*"well" + 0.005*"progress" + 0.005*"planning"', '0.018*"’" + 0.011*"plans" + 0.009*"Newcastle" + 0.008*"needs" + 0.007*"good" + 0.007*"well" + 0.007*"progress" + 0.007*"protection" + 0.006*"need" + 0.006*"2021"']</t>
+    <t>['0.017*"’" + 0.010*"plans" + 0.008*"needs" + 0.007*"Newcastle" + 0.007*"well" + 0.006*"good" + 0.006*"progress" + 0.005*"ensure" + 0.005*"management" + 0.005*"need"', '0.017*"’" + 0.010*"plans" + 0.009*"needs" + 0.008*"good" + 0.008*"protection" + 0.007*"Newcastle" + 0.006*"progress" + 0.006*"management" + 0.006*"need" + 0.006*"planning"', '0.012*"’" + 0.011*"plans" + 0.007*"well" + 0.007*"protection" + 0.006*"making" + 0.006*"Newcastle" + 0.006*"needs" + 0.005*"progress" + 0.005*"10" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -2806,7 +2806,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"Norfolk" + 0.006*"needs" + 0.006*"well" + 0.005*"carers" + 0.005*"plans" + 0.005*"supported" + 0.004*"progress" + 0.004*"practice" + 0.004*"information"', '0.017*"’" + 0.008*"Norfolk" + 0.008*"well" + 0.007*"carers" + 0.006*"practice" + 0.005*"supported" + 0.005*"range" + 0.005*"effective" + 0.005*"needs" + 0.004*"plans"', '0.015*"’" + 0.010*"well" + 0.007*"Norfolk" + 0.007*"needs" + 0.006*"practice" + 0.006*"carers" + 0.005*"supported" + 0.005*"18" + 0.005*"leaders" + 0.004*"including"']</t>
+    <t>['0.015*"’" + 0.009*"Norfolk" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"supported" + 0.005*"carers" + 0.005*"including" + 0.005*"range" + 0.005*"18"', '0.013*"’" + 0.006*"well" + 0.006*"Norfolk" + 0.005*"carers" + 0.005*"supported" + 0.004*"plans" + 0.004*"leaders" + 0.004*"practice" + 0.004*"needs" + 0.004*"range"', '0.021*"’" + 0.009*"well" + 0.008*"Norfolk" + 0.007*"carers" + 0.006*"practice" + 0.006*"needs" + 0.005*"supported" + 0.005*"effective" + 0.005*"plans" + 0.005*"family"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -2836,7 +2836,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"leaders" + 0.007*"practice" + 0.007*"needs" + 0.006*"planning" + 0.006*"risk" + 0.005*"many" + 0.005*"2021" + 0.005*"plans" + 0.005*"oversight"', '0.007*"’" + 0.006*"practice" + 0.006*"planning" + 0.005*"risk" + 0.005*"needs" + 0.004*"leaders" + 0.004*"many" + 0.004*"East" + 0.004*"delay" + 0.004*"Council"', '0.017*"’" + 0.009*"practice" + 0.008*"risk" + 0.007*"need" + 0.006*"leaders" + 0.006*"needs" + 0.006*"planning" + 0.005*"North" + 0.005*"quality" + 0.005*"Lincolnshire"']</t>
+    <t>['0.015*"’" + 0.010*"practice" + 0.009*"risk" + 0.008*"leaders" + 0.007*"needs" + 0.007*"planning" + 0.006*"need" + 0.005*"North" + 0.005*"quality" + 0.005*"East"', '0.011*"’" + 0.005*"practice" + 0.005*"planning" + 0.005*"needs" + 0.005*"Lincolnshire" + 0.005*"leaders" + 0.004*"2021" + 0.004*"need" + 0.004*"risk" + 0.004*"senior"', '0.014*"’" + 0.006*"leaders" + 0.005*"plans" + 0.005*"practice" + 0.005*"planning" + 0.005*"many" + 0.005*"October" + 0.005*"needs" + 0.004*"risk" + 0.004*"oversight"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -2863,7 +2863,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.008*"‘" + 0.006*"North" + 0.006*"family" + 0.006*"well" + 0.005*"leaders" + 0.005*"10" + 0.005*"approach" + 0.005*"need" + 0.005*"protection"', '0.020*"’" + 0.006*"‘" + 0.006*"Lincolnshire" + 0.006*"North" + 0.005*"family" + 0.005*"approach" + 0.005*"need" + 0.004*"10" + 0.004*"team" + 0.004*"leaders"', '0.017*"’" + 0.006*"family" + 0.006*"‘" + 0.005*"Lincolnshire" + 0.005*"well" + 0.005*"leaders" + 0.005*"approach" + 0.004*"October" + 0.004*"2022" + 0.004*"need"']</t>
+    <t>['0.025*"’" + 0.008*"‘" + 0.006*"North" + 0.006*"Lincolnshire" + 0.006*"leaders" + 0.006*"approach" + 0.005*"family" + 0.005*"protection" + 0.005*"10" + 0.005*"need"', '0.016*"’" + 0.005*"‘" + 0.005*"well" + 0.005*"family" + 0.004*"North" + 0.004*"14" + 0.004*"leaders" + 0.004*"team" + 0.004*"approach" + 0.004*"Lincolnshire"', '0.017*"’" + 0.007*"family" + 0.007*"‘" + 0.005*"well" + 0.005*"need" + 0.005*"Lincolnshire" + 0.005*"10" + 0.005*"approach" + 0.005*"North" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>940</t>
@@ -2893,7 +2893,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"Northamptonshire" + 0.007*"North" + 0.006*"well" + 0.006*"quality" + 0.006*"needs" + 0.005*"practice" + 0.005*"Leaders" + 0.005*"impact" + 0.005*"NCT"', '0.013*"’" + 0.007*"well" + 0.007*"North" + 0.006*"quality" + 0.005*"need" + 0.005*"practice" + 0.005*"NCT" + 0.004*"plans" + 0.004*"impact" + 0.004*"Northamptonshire"', '0.015*"’" + 0.008*"Northamptonshire" + 0.006*"well" + 0.005*"Leaders" + 0.004*"North" + 0.004*"quality" + 0.004*"3" + 0.004*"impact" + 0.004*"plans" + 0.004*"needs"']</t>
+    <t>['0.010*"’" + 0.006*"well" + 0.005*"However" + 0.005*"quality" + 0.005*"practice" + 0.005*"Northamptonshire" + 0.004*"North" + 0.004*"impact" + 0.004*"needs" + 0.004*"2022"', '0.023*"’" + 0.008*"Northamptonshire" + 0.007*"North" + 0.006*"well" + 0.006*"quality" + 0.006*"impact" + 0.005*"needs" + 0.005*"Leaders" + 0.005*"NCT" + 0.005*"e"', '0.013*"’" + 0.010*"Northamptonshire" + 0.006*"North" + 0.006*"well" + 0.005*"practice" + 0.005*"quality" + 0.005*"need" + 0.005*"NCT" + 0.005*"3" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -2917,7 +2917,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"quality" + 0.005*"progress" + 0.005*"North" + 0.005*"always" + 0.005*"number" + 0.005*"well" + 0.004*"plans" + 0.004*"practice" + 0.004*"needs"', '0.018*"’" + 0.008*"needs" + 0.007*"quality" + 0.007*"always" + 0.006*"practice" + 0.006*"North" + 0.006*"need" + 0.006*"Somerset" + 0.006*"risk" + 0.006*"number"', '0.017*"’" + 0.008*"quality" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"number" + 0.005*"North" + 0.005*"always" + 0.005*"practice" + 0.005*"experienced" + 0.004*"progress"']</t>
+    <t>['0.020*"’" + 0.007*"always" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"progress" + 0.006*"need" + 0.006*"North" + 0.006*"quality" + 0.006*"practice" + 0.005*"number"', '0.013*"’" + 0.008*"quality" + 0.006*"always" + 0.006*"risk" + 0.006*"needs" + 0.005*"North" + 0.005*"practice" + 0.005*"experienced" + 0.005*"number" + 0.005*"need"', '0.016*"’" + 0.009*"quality" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"number" + 0.005*"North" + 0.005*"risk" + 0.005*"well" + 0.005*"practice" + 0.005*"oversight"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -2941,7 +2941,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.006*"leaders" + 0.006*"need" + 0.005*"quality" + 0.005*"needs" + 0.005*"make" + 0.005*"impact" + 0.004*"protection" + 0.004*"clear"', '0.017*"’" + 0.006*"well" + 0.005*"make" + 0.005*"leaders" + 0.005*"need" + 0.004*"needs" + 0.004*"quality" + 0.004*"experiences" + 0.004*"foster" + 0.004*"impact"', '0.013*"’" + 0.005*"leaders" + 0.005*"need" + 0.005*"progress" + 0.005*"well" + 0.004*"early" + 0.004*"quality" + 0.004*"impact" + 0.003*"make" + 0.003*"needs"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.006*"leaders" + 0.006*"need" + 0.005*"quality" + 0.005*"make" + 0.005*"needs" + 0.004*"impact" + 0.004*"clear" + 0.004*"early"', '0.014*"’" + 0.004*"leaders" + 0.004*"need" + 0.004*"quality" + 0.004*"needs" + 0.004*"well" + 0.003*"good" + 0.003*"impact" + 0.003*"make" + 0.003*"foster"', '0.013*"’" + 0.006*"well" + 0.005*"need" + 0.005*"leaders" + 0.005*"make" + 0.005*"understand" + 0.004*"needs" + 0.004*"impact" + 0.004*"early" + 0.004*"way"']</t>
   </si>
   <si>
     <t>815</t>
@@ -2965,7 +2965,7 @@
     <t>18/08/23</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"family" + 0.006*"Yorkshire" + 0.006*"needs" + 0.005*"‘" + 0.005*"North" + 0.004*"3" + 0.004*"7"', '0.020*"’" + 0.008*"well" + 0.007*"North" + 0.006*"needs" + 0.005*"Yorkshire" + 0.005*"practice" + 0.005*"family" + 0.004*"‘" + 0.004*"3" + 0.004*"supported"', '0.021*"’" + 0.009*"well" + 0.007*"North" + 0.007*"Yorkshire" + 0.006*"practice" + 0.005*"family" + 0.005*"needs" + 0.005*"‘" + 0.004*"3" + 0.004*"supported"']</t>
+    <t>['0.020*"’" + 0.008*"well" + 0.007*"North" + 0.006*"family" + 0.006*"Yorkshire" + 0.006*"practice" + 0.005*"needs" + 0.004*"3" + 0.004*"‘" + 0.004*"supported"', '0.021*"’" + 0.009*"well" + 0.007*"North" + 0.007*"practice" + 0.006*"Yorkshire" + 0.006*"family" + 0.005*"needs" + 0.005*"supported" + 0.005*"‘" + 0.004*"need"', '0.020*"’" + 0.007*"well" + 0.006*"Yorkshire" + 0.006*"practice" + 0.006*"needs" + 0.005*"North" + 0.005*"‘" + 0.004*"7" + 0.004*"2023" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -2989,7 +2989,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.010*"well" + 0.010*"needs" + 0.008*"good" + 0.007*"experiences" + 0.007*"need" + 0.006*"impact" + 0.005*"practice" + 0.005*"quality" + 0.005*"leaders"', '0.020*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"good" + 0.005*"need" + 0.005*"practice" + 0.005*"effective" + 0.005*"impact" + 0.005*"education" + 0.004*"always"', '0.020*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"good" + 0.006*"need" + 0.005*"experiences" + 0.005*"quality" + 0.004*"practice" + 0.004*"education" + 0.004*"always"']</t>
+    <t>['0.018*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"good" + 0.006*"impact" + 0.005*"need" + 0.004*"experiences" + 0.004*"quality" + 0.004*"education" + 0.004*"progress"', '0.028*"’" + 0.013*"needs" + 0.011*"well" + 0.008*"good" + 0.007*"need" + 0.006*"practice" + 0.006*"experiences" + 0.006*"education" + 0.005*"leaders" + 0.005*"impact"', '0.016*"’" + 0.008*"good" + 0.007*"well" + 0.006*"needs" + 0.006*"experiences" + 0.006*"quality" + 0.005*"need" + 0.005*"impact" + 0.004*"practice" + 0.004*"always"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3016,7 +3016,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"Nottingham" + 0.006*"effective" + 0.005*"impact" + 0.005*"However" + 0.005*"2022" + 0.004*"practice" + 0.004*"oversight"', '0.012*"’" + 0.006*"needs" + 0.005*"Nottingham" + 0.005*"oversight" + 0.005*"impact" + 0.005*"protection" + 0.005*"City" + 0.005*"effective" + 0.005*"risk" + 0.005*"plans"', '0.014*"’" + 0.009*"needs" + 0.005*"11" + 0.005*"Nottingham" + 0.005*"effective" + 0.005*"plans" + 0.005*"City" + 0.004*"impact" + 0.004*"consistently" + 0.004*"oversight"']</t>
+    <t>['0.016*"’" + 0.006*"effective" + 0.006*"needs" + 0.006*"Nottingham" + 0.005*"oversight" + 0.005*"practice" + 0.005*"City" + 0.005*"impact" + 0.005*"11" + 0.005*"plans"', '0.010*"’" + 0.007*"needs" + 0.004*"Nottingham" + 0.004*"11" + 0.004*"impact" + 0.004*"risk" + 0.004*"effective" + 0.004*"plans" + 0.004*"City" + 0.003*"However"', '0.014*"’" + 0.010*"needs" + 0.007*"plans" + 0.006*"Nottingham" + 0.005*"impact" + 0.005*"effective" + 0.005*"2022" + 0.004*"oversight" + 0.004*"July" + 0.004*"11"']</t>
   </si>
   <si>
     <t>891</t>
@@ -3034,7 +3034,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"well" + 0.006*"practice" + 0.005*"areas" + 0.005*"plans" + 0.005*"quality" + 0.005*"progress" + 0.005*"made" + 0.005*"ensure" + 0.004*"receive"', '0.014*"’" + 0.009*"well" + 0.007*"practice" + 0.007*"needs" + 0.006*"receive" + 0.005*"ensure" + 0.005*"carers" + 0.005*"progress" + 0.005*"plans" + 0.005*"e"', '0.011*"’" + 0.009*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"quality" + 0.005*"receive" + 0.005*"ensure" + 0.005*"plans" + 0.004*"carers" + 0.004*"made"']</t>
+    <t>['0.011*"’" + 0.009*"well" + 0.007*"practice" + 0.007*"e" + 0.006*"receive" + 0.006*"progress" + 0.005*"made" + 0.005*"quality" + 0.005*"needs" + 0.005*"ensure"', '0.012*"’" + 0.008*"well" + 0.008*"practice" + 0.007*"needs" + 0.006*"ensure" + 0.006*"plans" + 0.005*"receive" + 0.005*"areas" + 0.005*"carers" + 0.005*"made"', '0.013*"’" + 0.008*"practice" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.004*"progress" + 0.004*"quality" + 0.004*"made" + 0.004*"number" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3067,7 +3067,7 @@
     <t>0.176</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"good" + 0.008*"practice" + 0.007*"well" + 0.007*"quality" + 0.006*"effective" + 0.006*"progress" + 0.006*"needs" + 0.006*"planning" + 0.006*"plans"', '0.009*"good" + 0.008*"needs" + 0.008*"effective" + 0.008*"’" + 0.007*"practice" + 0.007*"progress" + 0.006*"well" + 0.006*"planning" + 0.005*"plans" + 0.005*"information"', '0.012*"’" + 0.011*"needs" + 0.010*"practice" + 0.009*"good" + 0.008*"effective" + 0.007*"quality" + 0.006*"planning" + 0.006*"plans" + 0.006*"progress" + 0.005*"well"']</t>
+    <t>['0.010*"needs" + 0.010*"practice" + 0.009*"’" + 0.009*"good" + 0.008*"progress" + 0.006*"effective" + 0.006*"planning" + 0.006*"quality" + 0.006*"plans" + 0.005*"well"', '0.008*"effective" + 0.008*"’" + 0.008*"good" + 0.007*"needs" + 0.007*"practice" + 0.006*"quality" + 0.006*"planning" + 0.006*"progress" + 0.005*"well" + 0.004*"place"', '0.013*"’" + 0.010*"good" + 0.009*"effective" + 0.009*"needs" + 0.008*"practice" + 0.008*"well" + 0.007*"plans" + 0.007*"quality" + 0.006*"planning" + 0.006*"risk"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3097,7 +3097,7 @@
     <t>0.1848</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.012*"needs" + 0.007*"good" + 0.006*"number" + 0.005*"early" + 0.005*"plans" + 0.005*"education" + 0.005*"effective" + 0.005*"response" + 0.004*"Oxfordshire"', '0.012*"’" + 0.006*"needs" + 0.006*"number" + 0.006*"good" + 0.005*"early" + 0.005*"response" + 0.004*"practice" + 0.004*"Oxfordshire" + 0.004*"quality" + 0.004*"plans"', '0.014*"’" + 0.008*"needs" + 0.006*"good" + 0.006*"number" + 0.006*"protection" + 0.005*"early" + 0.005*"plans" + 0.005*"quality" + 0.004*"response" + 0.004*"Oxfordshire"']</t>
+    <t>['0.012*"’" + 0.010*"needs" + 0.007*"number" + 0.006*"good" + 0.005*"early" + 0.005*"live" + 0.004*"education" + 0.004*"plans" + 0.004*"response" + 0.004*"quality"', '0.014*"’" + 0.008*"needs" + 0.006*"good" + 0.005*"number" + 0.005*"protection" + 0.005*"early" + 0.005*"response" + 0.004*"plans" + 0.004*"education" + 0.004*"practice"', '0.014*"’" + 0.009*"needs" + 0.007*"good" + 0.005*"protection" + 0.005*"early" + 0.005*"number" + 0.005*"plans" + 0.005*"response" + 0.005*"effective" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3127,7 +3127,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"practice" + 0.006*"planning" + 0.006*"needs" + 0.005*"well" + 0.005*"good" + 0.005*"need" + 0.005*"quality" + 0.005*"number" + 0.005*"risk"', '0.013*"’" + 0.008*"practice" + 0.007*"well" + 0.007*"good" + 0.007*"needs" + 0.006*"risk" + 0.006*"planning" + 0.005*"progress" + 0.005*"quality" + 0.005*"effective"', '0.016*"’" + 0.007*"well" + 0.007*"risk" + 0.006*"progress" + 0.006*"effective" + 0.006*"practice" + 0.006*"needs" + 0.005*"good" + 0.005*"quality" + 0.005*"including"']</t>
+    <t>['0.015*"’" + 0.008*"good" + 0.008*"practice" + 0.006*"well" + 0.006*"risk" + 0.006*"progress" + 0.006*"effective" + 0.005*"planning" + 0.005*"needs" + 0.004*"quality"', '0.013*"’" + 0.008*"needs" + 0.007*"practice" + 0.006*"well" + 0.006*"planning" + 0.006*"risk" + 0.005*"need" + 0.005*"effective" + 0.005*"progress" + 0.005*"including"', '0.014*"’" + 0.008*"well" + 0.007*"risk" + 0.006*"planning" + 0.006*"practice" + 0.006*"good" + 0.006*"needs" + 0.005*"quality" + 0.005*"need" + 0.005*"including"']</t>
   </si>
   <si>
     <t>879</t>
@@ -3154,7 +3154,7 @@
     <t>0.1594</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"well" + 0.008*"good" + 0.008*"However" + 0.006*"needs" + 0.006*"quality" + 0.005*"progress" + 0.005*"result" + 0.005*"number" + 0.004*"plans"', '0.016*"’" + 0.009*"well" + 0.008*"quality" + 0.008*"good" + 0.008*"However" + 0.007*"progress" + 0.007*"needs" + 0.006*"timely" + 0.006*"leaders" + 0.005*"effective"', '0.014*"’" + 0.010*"However" + 0.010*"good" + 0.010*"needs" + 0.009*"quality" + 0.008*"well" + 0.007*"timely" + 0.006*"progress" + 0.006*"plans" + 0.006*"effective"']</t>
+    <t>['0.013*"’" + 0.010*"However" + 0.009*"well" + 0.009*"good" + 0.009*"needs" + 0.009*"quality" + 0.007*"progress" + 0.006*"timely" + 0.006*"plans" + 0.006*"leaders"', '0.013*"’" + 0.008*"well" + 0.007*"good" + 0.006*"However" + 0.006*"quality" + 0.006*"result" + 0.005*"needs" + 0.005*"timely" + 0.005*"plans" + 0.004*"protection"', '0.017*"’" + 0.010*"However" + 0.009*"good" + 0.009*"well" + 0.008*"needs" + 0.008*"quality" + 0.007*"progress" + 0.006*"effective" + 0.006*"number" + 0.006*"timely"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3184,7 +3184,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"care-experienced" + 0.008*"well" + 0.007*"family" + 0.007*"Portsmouth" + 0.005*"needs" + 0.005*"practice" + 0.005*"19" + 0.005*"foster" + 0.005*"plans"', '0.015*"’" + 0.006*"well" + 0.006*"care-experienced" + 0.006*"Portsmouth" + 0.005*"needs" + 0.004*"plans" + 0.004*"need" + 0.004*"practice" + 0.004*"family" + 0.004*"leaders"', '0.019*"’" + 0.009*"needs" + 0.007*"care-experienced" + 0.007*"Portsmouth" + 0.007*"health" + 0.006*"well" + 0.006*"plans" + 0.005*"risk" + 0.005*"leaders" + 0.005*"15"']</t>
+    <t>['0.011*"’" + 0.008*"care-experienced" + 0.007*"well" + 0.005*"Portsmouth" + 0.005*"needs" + 0.005*"plans" + 0.004*"leaders" + 0.004*"health" + 0.004*"family" + 0.004*"practice"', '0.019*"’" + 0.007*"care-experienced" + 0.007*"needs" + 0.007*"Portsmouth" + 0.006*"well" + 0.005*"family" + 0.005*"plans" + 0.005*"health" + 0.005*"risk" + 0.005*"15"', '0.018*"’" + 0.009*"well" + 0.008*"care-experienced" + 0.007*"needs" + 0.007*"Portsmouth" + 0.006*"family" + 0.006*"health" + 0.005*"need" + 0.005*"plans" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3217,7 +3217,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"number" + 0.006*"quality" + 0.006*"plans" + 0.006*"good" + 0.005*"well" + 0.005*"However" + 0.005*"practice" + 0.005*"effective" + 0.005*"needs"', '0.019*"’" + 0.008*"well" + 0.006*"good" + 0.006*"quality" + 0.006*"need" + 0.006*"effective" + 0.006*"plans" + 0.005*"number" + 0.005*"timely" + 0.005*"always"', '0.014*"’" + 0.008*"number" + 0.007*"quality" + 0.006*"plans" + 0.005*"well" + 0.005*"timely" + 0.005*"practice" + 0.005*"need" + 0.004*"effective" + 0.004*"needs"']</t>
+    <t>['0.018*"’" + 0.008*"number" + 0.007*"quality" + 0.007*"plans" + 0.007*"good" + 0.007*"well" + 0.006*"need" + 0.006*"effective" + 0.005*"timely" + 0.005*"practice"', '0.014*"’" + 0.006*"quality" + 0.006*"plans" + 0.005*"effective" + 0.005*"well" + 0.005*"need" + 0.005*"number" + 0.005*"good" + 0.005*"practice" + 0.004*"always"', '0.015*"’" + 0.007*"well" + 0.007*"number" + 0.006*"quality" + 0.005*"However" + 0.005*"carers" + 0.005*"plans" + 0.005*"arrangements" + 0.005*"timely" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3238,7 +3238,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"plans" + 0.006*"leaders" + 0.005*"However" + 0.005*"consistently" + 0.005*"needs" + 0.004*"Cleveland" + 0.004*"2022" + 0.004*"practice" + 0.004*"July"', '0.016*"’" + 0.007*"However" + 0.006*"plans" + 0.006*"leaders" + 0.006*"needs" + 0.006*"2022" + 0.005*"consistently" + 0.005*"risk" + 0.005*"practice" + 0.005*"20"', '0.022*"’" + 0.007*"leaders" + 0.006*"needs" + 0.006*"carers" + 0.005*"Redcar" + 0.005*"consistently" + 0.005*"20" + 0.005*"plans" + 0.005*"risk" + 0.005*"practice"']</t>
+    <t>['0.019*"’" + 0.007*"leaders" + 0.005*"Cleveland" + 0.005*"20" + 0.005*"consistently" + 0.005*"plans" + 0.005*"2022" + 0.005*"risk" + 0.005*"Redcar" + 0.005*"However"', '0.014*"’" + 0.006*"However" + 0.006*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"Redcar" + 0.005*"consistently" + 0.005*"1" + 0.005*"carers" + 0.005*"2022"', '0.019*"’" + 0.006*"needs" + 0.006*"leaders" + 0.006*"However" + 0.005*"plans" + 0.005*"consistently" + 0.005*"practice" + 0.005*"20" + 0.004*"2022" + 0.004*"Cleveland"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3265,7 +3265,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"experienced" + 0.010*"practice" + 0.008*"needs" + 0.005*"plans" + 0.005*"response" + 0.004*"PAs" + 0.004*"consistently" + 0.004*"2023" + 0.004*"Rochdale"', '0.027*"’" + 0.009*"needs" + 0.008*"experienced" + 0.007*"practice" + 0.007*"plans" + 0.006*"response" + 0.006*"quality" + 0.006*"good" + 0.006*"consistently" + 0.006*"Rochdale"', '0.017*"’" + 0.010*"experienced" + 0.007*"practice" + 0.006*"response" + 0.006*"consistently" + 0.006*"good" + 0.005*"well" + 0.005*"3" + 0.005*"needs" + 0.005*"plans"']</t>
+    <t>['0.026*"’" + 0.011*"practice" + 0.011*"experienced" + 0.009*"needs" + 0.006*"response" + 0.006*"consistently" + 0.005*"plans" + 0.005*"quality" + 0.005*"good" + 0.004*"well"', '0.018*"’" + 0.009*"experienced" + 0.007*"plans" + 0.007*"response" + 0.006*"practice" + 0.006*"needs" + 0.006*"quality" + 0.005*"consistently" + 0.005*"Rochdale" + 0.005*"3"', '0.015*"’" + 0.008*"experienced" + 0.007*"needs" + 0.005*"practice" + 0.005*"good" + 0.005*"well" + 0.005*"plans" + 0.005*"PAs" + 0.005*"Rochdale" + 0.004*"23"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3289,7 +3289,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"Rotherham" + 0.006*"needs" + 0.005*"well" + 0.005*"clear" + 0.005*"good" + 0.004*"ensure" + 0.004*"Metropolitan" + 0.004*"Borough" + 0.004*"plans"', '0.017*"’" + 0.010*"Rotherham" + 0.007*"needs" + 0.006*"good" + 0.005*"However" + 0.005*"Council" + 0.005*"ensure" + 0.005*"well" + 0.004*"plans" + 0.004*"27"', '0.016*"’" + 0.006*"needs" + 0.006*"Rotherham" + 0.006*"well" + 0.005*"Council" + 0.005*"plans" + 0.004*"good" + 0.004*"ensure" + 0.004*"July" + 0.004*"Borough"']</t>
+    <t>['0.017*"’" + 0.009*"Rotherham" + 0.006*"needs" + 0.005*"good" + 0.005*"well" + 0.005*"ensure" + 0.005*"Council" + 0.005*"plans" + 0.004*"1" + 0.004*"However"', '0.014*"’" + 0.005*"Council" + 0.005*"Rotherham" + 0.005*"well" + 0.005*"needs" + 0.004*"plans" + 0.004*"July" + 0.004*"27" + 0.004*"However" + 0.004*"Metropolitan"', '0.014*"’" + 0.011*"Rotherham" + 0.007*"needs" + 0.006*"ensure" + 0.006*"good" + 0.005*"well" + 0.005*"However" + 0.004*"clear" + 0.004*"plans" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3313,7 +3313,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.010*"well" + 0.009*"’" + 0.007*"practice" + 0.006*"highly" + 0.005*"needs" + 0.005*"strong" + 0.004*"high" + 0.004*"leaders" + 0.004*"effective" + 0.004*"progress"', '0.017*"well" + 0.013*"practice" + 0.012*"’" + 0.007*"highly" + 0.006*"strong" + 0.006*"needs" + 0.005*"leaders" + 0.005*"effective" + 0.005*"high" + 0.004*"need"', '0.012*"’" + 0.012*"well" + 0.010*"practice" + 0.008*"highly" + 0.007*"strong" + 0.006*"effective" + 0.005*"needs" + 0.005*"professionals" + 0.005*"leaders" + 0.004*"range"']</t>
+    <t>['0.013*"’" + 0.011*"well" + 0.008*"practice" + 0.006*"highly" + 0.006*"strong" + 0.005*"progress" + 0.005*"timely" + 0.004*"leaders" + 0.004*"needs" + 0.004*"effective"', '0.017*"well" + 0.012*"practice" + 0.011*"’" + 0.007*"strong" + 0.007*"highly" + 0.006*"effective" + 0.005*"needs" + 0.005*"leaders" + 0.004*"high" + 0.004*"professionals"', '0.011*"practice" + 0.011*"’" + 0.011*"well" + 0.008*"highly" + 0.007*"needs" + 0.006*"strong" + 0.005*"leaders" + 0.005*"high" + 0.005*"effective" + 0.004*"professionals"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3340,7 +3340,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"needs" + 0.005*"good" + 0.005*"clear" + 0.005*"risk" + 0.005*"supported" + 0.005*"need" + 0.005*"appropriate"', '0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"plans" + 0.005*"good" + 0.004*"practice" + 0.004*"effective" + 0.004*"need" + 0.004*"Kingston" + 0.004*"risk"', '0.013*"’" + 0.009*"plans" + 0.008*"needs" + 0.008*"well" + 0.005*"effective" + 0.005*"good" + 0.004*"progress" + 0.004*"parents" + 0.004*"practice" + 0.004*"clear"']</t>
+    <t>['0.012*"’" + 0.009*"plans" + 0.008*"well" + 0.007*"needs" + 0.005*"good" + 0.005*"effective" + 0.005*"clear" + 0.005*"practice" + 0.004*"risk" + 0.004*"progress"', '0.013*"’" + 0.009*"plans" + 0.007*"needs" + 0.007*"well" + 0.005*"need" + 0.004*"good" + 0.004*"appropriate" + 0.004*"Kingston" + 0.004*"progress" + 0.004*"range"', '0.015*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"good" + 0.005*"practice" + 0.005*"effective" + 0.004*"clear" + 0.004*"supported" + 0.004*"parents"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3367,7 +3367,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.005*"quality" + 0.005*"well" + 0.004*"needs" + 0.004*"information" + 0.004*"use" + 0.004*"plans" + 0.004*"always" + 0.004*"benefit" + 0.003*"management"', '0.009*"’" + 0.006*"well" + 0.005*"plans" + 0.005*"quality" + 0.005*"needs" + 0.004*"However" + 0.004*"changes" + 0.003*"information" + 0.003*"actions" + 0.003*"always"', '0.012*"’" + 0.005*"well" + 0.005*"needs" + 0.005*"effective" + 0.005*"quality" + 0.005*"plans" + 0.005*"benefit" + 0.004*"use" + 0.004*"health" + 0.004*"information"']</t>
+    <t>['0.011*"’" + 0.006*"well" + 0.005*"quality" + 0.005*"information" + 0.004*"needs" + 0.004*"plans" + 0.004*"actions" + 0.004*"always" + 0.004*"effective" + 0.003*"use"', '0.009*"’" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"use" + 0.004*"benefit" + 0.004*"quality" + 0.004*"informed" + 0.004*"health" + 0.004*"effective"', '0.014*"’" + 0.005*"quality" + 0.005*"needs" + 0.005*"well" + 0.004*"plans" + 0.004*"benefit" + 0.004*"management" + 0.004*"However" + 0.004*"effective" + 0.004*"use"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3388,7 +3388,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.012*"well" + 0.012*"’" + 0.009*"needs" + 0.008*"good" + 0.007*"effective" + 0.006*"ensure" + 0.006*"need" + 0.006*"team" + 0.005*"practice" + 0.005*"protection"', '0.015*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"team" + 0.008*"good" + 0.008*"need" + 0.007*"enough" + 0.007*"practice" + 0.007*"protection" + 0.006*"plans"', '0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"good" + 0.006*"practice" + 0.005*"team" + 0.005*"need" + 0.005*"plans" + 0.004*"family" + 0.004*"ensure"']</t>
+    <t>['0.015*"’" + 0.011*"needs" + 0.011*"well" + 0.008*"need" + 0.007*"good" + 0.007*"practice" + 0.006*"effective" + 0.006*"ensure" + 0.006*"team" + 0.005*"family"', '0.011*"’" + 0.010*"well" + 0.010*"needs" + 0.008*"good" + 0.007*"team" + 0.006*"plans" + 0.006*"need" + 0.006*"practice" + 0.005*"protection" + 0.005*"enough"', '0.012*"’" + 0.008*"well" + 0.007*"good" + 0.007*"team" + 0.006*"enough" + 0.006*"protection" + 0.006*"needs" + 0.005*"plans" + 0.005*"practice" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3412,7 +3412,7 @@
     <t>0.2045</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"needs" + 0.007*"effective" + 0.006*"Salford" + 0.006*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"10" + 0.005*"6" + 0.004*"progress"', '0.014*"’" + 0.009*"plans" + 0.008*"needs" + 0.007*"well" + 0.005*"quality" + 0.005*"planning" + 0.005*"effective" + 0.005*"practice" + 0.005*"appropriate" + 0.004*"progress"', '0.015*"’" + 0.008*"well" + 0.008*"plans" + 0.008*"effective" + 0.007*"Salford" + 0.006*"needs" + 0.005*"planning" + 0.005*"leaders" + 0.005*"experiences" + 0.005*"practice"']</t>
+    <t>['0.012*"’" + 0.007*"needs" + 0.007*"effective" + 0.006*"plans" + 0.005*"well" + 0.005*"Salford" + 0.005*"10" + 0.004*"quality" + 0.004*"practice" + 0.004*"planning"', '0.014*"’" + 0.009*"plans" + 0.008*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"Salford" + 0.006*"planning" + 0.005*"progress" + 0.005*"leaders" + 0.005*"practice"', '0.014*"’" + 0.007*"plans" + 0.007*"well" + 0.006*"needs" + 0.006*"effective" + 0.005*"Salford" + 0.005*"experiences" + 0.005*"appropriate" + 0.005*"practice" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3433,7 +3433,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"plans" + 0.006*"needs" + 0.006*"Sandwell" + 0.005*"quality" + 0.005*"changes" + 0.004*"Trust" + 0.004*"well" + 0.004*"9" + 0.004*"education"', '0.016*"’" + 0.010*"needs" + 0.008*"Sandwell" + 0.008*"plans" + 0.007*"well" + 0.006*"education" + 0.005*"effective" + 0.005*"Trust" + 0.005*"quality" + 0.005*"progress"', '0.013*"’" + 0.008*"well" + 0.007*"Sandwell" + 0.007*"quality" + 0.006*"needs" + 0.006*"plans" + 0.005*"number" + 0.005*"20" + 0.004*"progress" + 0.004*"May"']</t>
+    <t>['0.011*"’" + 0.006*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"Sandwell" + 0.005*"quality" + 0.005*"education" + 0.004*"effective" + 0.004*"good" + 0.004*"changes"', '0.015*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Sandwell" + 0.005*"quality" + 0.005*"plans" + 0.005*"number" + 0.004*"progress" + 0.004*"many" + 0.004*"effective"', '0.015*"’" + 0.009*"needs" + 0.009*"plans" + 0.008*"Sandwell" + 0.006*"well" + 0.006*"quality" + 0.006*"Trust" + 0.006*"20" + 0.005*"9" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3454,7 +3454,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"needs" + 0.005*"protection" + 0.005*"practice" + 0.005*"planning" + 0.005*"plans" + 0.004*"management" + 0.004*"4" + 0.004*"including" + 0.004*"many"', '0.016*"’" + 0.009*"needs" + 0.007*"practice" + 0.005*"oversight" + 0.005*"lack" + 0.004*"including" + 0.004*"always" + 0.004*"◼" + 0.004*"response" + 0.004*"many"', '0.017*"’" + 0.011*"needs" + 0.007*"oversight" + 0.006*"practice" + 0.005*"including" + 0.005*"March" + 0.005*"protection" + 0.005*"management" + 0.005*"◼" + 0.005*"lack"']</t>
+    <t>['0.014*"’" + 0.010*"needs" + 0.006*"practice" + 0.005*"Sefton" + 0.005*"many" + 0.005*"protection" + 0.005*"including" + 0.005*"March" + 0.005*"◼" + 0.004*"21"', '0.015*"’" + 0.008*"needs" + 0.006*"practice" + 0.006*"oversight" + 0.005*"protection" + 0.005*"February" + 0.005*"4" + 0.005*"including" + 0.005*"lack" + 0.005*"need"', '0.019*"’" + 0.010*"needs" + 0.006*"oversight" + 0.006*"lack" + 0.006*"practice" + 0.005*"management" + 0.005*"many" + 0.005*"always" + 0.005*"timely" + 0.005*"including"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3484,7 +3484,7 @@
     <t>0.2097</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.012*"Sheffield" + 0.010*"needs" + 0.008*"well" + 0.006*"leaders" + 0.006*"health" + 0.006*"practice" + 0.005*"quality" + 0.005*"11" + 0.005*"adviser"', '0.013*"’" + 0.008*"Sheffield" + 0.007*"needs" + 0.006*"well" + 0.004*"health" + 0.004*"practice" + 0.004*"leaders" + 0.004*"experiences" + 0.004*"ensure" + 0.004*"effective"', '0.022*"’" + 0.011*"Sheffield" + 0.008*"needs" + 0.006*"practice" + 0.006*"leaders" + 0.005*"well" + 0.005*"good" + 0.005*"health" + 0.005*"mental" + 0.004*"quality"']</t>
+    <t>['0.022*"’" + 0.010*"Sheffield" + 0.009*"needs" + 0.006*"well" + 0.006*"practice" + 0.005*"leaders" + 0.005*"11" + 0.005*"adviser" + 0.004*"quality" + 0.004*"plans"', '0.017*"’" + 0.011*"Sheffield" + 0.009*"needs" + 0.007*"well" + 0.006*"health" + 0.006*"leaders" + 0.006*"practice" + 0.005*"quality" + 0.005*"experiences" + 0.004*"protection"', '0.022*"’" + 0.012*"Sheffield" + 0.007*"needs" + 0.007*"well" + 0.006*"leaders" + 0.005*"practice" + 0.005*"health" + 0.005*"good" + 0.004*"plans" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3511,7 +3511,7 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"needs" + 0.006*"Shropshire" + 0.006*"progress" + 0.006*"well" + 0.005*"plans" + 0.004*"need" + 0.004*"2022" + 0.004*"ensure" + 0.004*"making"', '0.018*"’" + 0.009*"needs" + 0.008*"Shropshire" + 0.008*"well" + 0.006*"making" + 0.006*"plans" + 0.006*"2022" + 0.006*"progress" + 0.005*"training" + 0.005*"7"', '0.018*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Shropshire" + 0.005*"progress" + 0.005*"7" + 0.005*"plans" + 0.004*"leaders" + 0.004*"2022" + 0.004*"making"']</t>
+    <t>['0.008*"’" + 0.007*"needs" + 0.006*"Shropshire" + 0.004*"progress" + 0.004*"making" + 0.004*"well" + 0.004*"2022" + 0.004*"plans" + 0.004*"leaders" + 0.004*"practice"', '0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Shropshire" + 0.006*"plans" + 0.006*"progress" + 0.006*"11" + 0.005*"2022" + 0.005*"making" + 0.005*"training"', '0.024*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"Shropshire" + 0.006*"progress" + 0.005*"7" + 0.005*"plans" + 0.005*"making" + 0.005*"2022" + 0.004*"education"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3532,7 +3532,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"Slough" + 0.007*"practice" + 0.007*"needs" + 0.007*"quality" + 0.005*"plans" + 0.005*"3" + 0.005*"leaders" + 0.005*"supported" + 0.005*"need"', '0.012*"’" + 0.006*"plans" + 0.006*"Slough" + 0.005*"needs" + 0.005*"quality" + 0.005*"impact" + 0.005*"need" + 0.004*"3" + 0.004*"However" + 0.004*"practice"', '0.018*"’" + 0.008*"Slough" + 0.007*"plans" + 0.006*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"impact" + 0.005*"leaders" + 0.004*"January" + 0.004*"supported"']</t>
+    <t>['0.014*"’" + 0.009*"Slough" + 0.007*"plans" + 0.007*"quality" + 0.006*"practice" + 0.006*"3" + 0.006*"needs" + 0.005*"leaders" + 0.005*"senior" + 0.005*"impact"', '0.007*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"quality" + 0.005*"practice" + 0.004*"Slough" + 0.004*"timely" + 0.004*"However" + 0.004*"impact" + 0.003*"23"', '0.021*"’" + 0.008*"Slough" + 0.007*"needs" + 0.005*"need" + 0.005*"quality" + 0.005*"practice" + 0.005*"impact" + 0.005*"plans" + 0.005*"supported" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3553,7 +3553,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.010*"lack" + 0.007*"2022" + 0.007*"Solihull" + 0.006*"need" + 0.006*"significant" + 0.005*"risk" + 0.005*"progress" + 0.004*"quality" + 0.004*"focus"', '0.018*"’" + 0.010*"lack" + 0.009*"2022" + 0.006*"risk" + 0.006*"need" + 0.006*"experiences" + 0.006*"Solihull" + 0.006*"practice" + 0.005*"quality" + 0.005*"significant"', '0.015*"’" + 0.011*"lack" + 0.009*"2022" + 0.006*"need" + 0.006*"quality" + 0.006*"practice" + 0.006*"Solihull" + 0.006*"risk" + 0.005*"effective" + 0.005*"means"']</t>
+    <t>['0.015*"’" + 0.007*"2022" + 0.007*"lack" + 0.006*"need" + 0.006*"effective" + 0.006*"experiences" + 0.005*"risk" + 0.005*"Solihull" + 0.005*"means" + 0.005*"practice"', '0.017*"’" + 0.011*"lack" + 0.008*"2022" + 0.006*"need" + 0.006*"quality" + 0.006*"Solihull" + 0.006*"practice" + 0.005*"risk" + 0.005*"experiences" + 0.005*"significant"', '0.014*"’" + 0.013*"lack" + 0.009*"2022" + 0.007*"Solihull" + 0.006*"risk" + 0.006*"need" + 0.006*"quality" + 0.005*"significant" + 0.005*"delay" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3574,7 +3574,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"well" + 0.007*"plans" + 0.007*"good" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"leaders" + 0.006*"supported" + 0.006*"including" + 0.005*"number"', '0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"progress" + 0.005*"plans" + 0.005*"leaders" + 0.004*"practice" + 0.004*"understand" + 0.004*"good"', '0.019*"’" + 0.010*"needs" + 0.010*"well" + 0.007*"Somerset" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.005*"plans" + 0.005*"regularly" + 0.005*"family"']</t>
+    <t>['0.014*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"needs" + 0.005*"need" + 0.005*"understand" + 0.005*"Somerset" + 0.005*"leaders" + 0.004*"practice" + 0.004*"supported"', '0.020*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"Somerset" + 0.007*"good" + 0.006*"progress" + 0.006*"plans" + 0.005*"including" + 0.005*"number" + 0.005*"positive"', '0.015*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"Somerset" + 0.007*"plans" + 0.006*"leaders" + 0.005*"supported" + 0.005*"practice" + 0.005*"family" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3595,7 +3595,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.011*"well" + 0.011*"quality" + 0.008*"’" + 0.008*"leaders" + 0.007*"plans" + 0.006*"progress" + 0.006*"needs" + 0.005*"timely" + 0.005*"good" + 0.005*"South"', '0.011*"quality" + 0.010*"well" + 0.008*"leaders" + 0.008*"’" + 0.007*"good" + 0.007*"plans" + 0.006*"timely" + 0.006*"needs" + 0.005*"Senior" + 0.005*"practice"', '0.011*"well" + 0.010*"’" + 0.009*"quality" + 0.009*"plans" + 0.008*"leaders" + 0.008*"good" + 0.006*"timely" + 0.005*"progress" + 0.005*"needs" + 0.005*"always"']</t>
+    <t>['0.012*"well" + 0.012*"quality" + 0.010*"leaders" + 0.009*"plans" + 0.009*"’" + 0.007*"good" + 0.006*"timely" + 0.005*"needs" + 0.005*"progress" + 0.005*"always"', '0.010*"quality" + 0.009*"well" + 0.008*"’" + 0.008*"leaders" + 0.007*"plans" + 0.007*"good" + 0.005*"needs" + 0.005*"timely" + 0.005*"practice" + 0.005*"Senior"', '0.010*"well" + 0.009*"’" + 0.008*"quality" + 0.007*"good" + 0.007*"timely" + 0.007*"leaders" + 0.006*"progress" + 0.006*"plans" + 0.006*"needs" + 0.005*"◼"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -3625,7 +3625,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"South" + 0.006*"Tyneside" + 0.005*"effective" + 0.005*"needs" + 0.005*"oversight" + 0.004*"However" + 0.004*"risk" + 0.004*"5" + 0.004*"14"', '0.031*"’" + 0.012*"needs" + 0.008*"Tyneside" + 0.008*"South" + 0.006*"carers" + 0.006*"9" + 0.006*"oversight" + 0.005*"management" + 0.005*"effective" + 0.005*"15"', '0.016*"’" + 0.007*"South" + 0.007*"needs" + 0.006*"Tyneside" + 0.005*"management" + 0.005*"However" + 0.005*"practice" + 0.004*"oversight" + 0.004*"leaders" + 0.004*"2023"']</t>
+    <t>['0.023*"’" + 0.009*"needs" + 0.008*"South" + 0.006*"However" + 0.006*"oversight" + 0.005*"effective" + 0.005*"Tyneside" + 0.005*"carers" + 0.005*"9" + 0.005*"February"', '0.026*"’" + 0.009*"Tyneside" + 0.008*"South" + 0.008*"needs" + 0.005*"management" + 0.005*"2022" + 0.005*"However" + 0.005*"effective" + 0.005*"homes" + 0.005*"2023"', '0.023*"’" + 0.010*"needs" + 0.007*"Tyneside" + 0.006*"South" + 0.006*"oversight" + 0.005*"14" + 0.005*"5" + 0.005*"carers" + 0.005*"risk" + 0.004*"9"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -3652,7 +3652,7 @@
     <t>28/07/23</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"plans" + 0.004*"experiences" + 0.004*"improve" + 0.004*"needs" + 0.004*"Southampton" + 0.004*"June" + 0.004*"including" + 0.004*"progress" + 0.004*"leaders"', '0.014*"’" + 0.005*"Southampton" + 0.005*"plans" + 0.004*"well" + 0.004*"progress" + 0.004*"timely" + 0.004*"including" + 0.004*"good" + 0.004*"needs" + 0.004*"make"', '0.019*"’" + 0.006*"Southampton" + 0.006*"plans" + 0.005*"progress" + 0.005*"5" + 0.005*"improve" + 0.005*"16" + 0.005*"including" + 0.005*"needs" + 0.004*"2023"']</t>
+    <t>['0.013*"’" + 0.006*"improve" + 0.006*"Southampton" + 0.005*"progress" + 0.005*"plans" + 0.005*"June" + 0.005*"5" + 0.004*"provide" + 0.004*"2023" + 0.004*"experiences"', '0.021*"’" + 0.006*"plans" + 0.005*"Southampton" + 0.005*"needs" + 0.005*"including" + 0.005*"16" + 0.004*"timely" + 0.004*"experiences" + 0.004*"well" + 0.004*"2023"', '0.013*"’" + 0.006*"plans" + 0.005*"progress" + 0.005*"5" + 0.005*"Southampton" + 0.004*"experiences" + 0.004*"improve" + 0.004*"timely" + 0.004*"including" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -3682,7 +3682,7 @@
     <t>to requires improvement</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"quality" + 0.006*"planning" + 0.005*"leaders" + 0.005*"number" + 0.005*"always" + 0.005*"However" + 0.005*"within" + 0.004*"Southend" + 0.004*"carers"', '0.012*"’" + 0.009*"planning" + 0.008*"quality" + 0.008*"practice" + 0.006*"leaders" + 0.006*"always" + 0.006*"need" + 0.005*"protection" + 0.005*"number" + 0.005*"risk"', '0.017*"’" + 0.008*"planning" + 0.008*"practice" + 0.006*"leaders" + 0.006*"effective" + 0.005*"protection" + 0.005*"quality" + 0.005*"needs" + 0.005*"progress" + 0.005*"number"']</t>
+    <t>['0.013*"’" + 0.008*"planning" + 0.007*"practice" + 0.006*"leaders" + 0.006*"number" + 0.006*"quality" + 0.005*"within" + 0.005*"effective" + 0.005*"carers" + 0.005*"protection"', '0.013*"’" + 0.009*"planning" + 0.006*"practice" + 0.006*"protection" + 0.006*"quality" + 0.006*"leaders" + 0.005*"within" + 0.005*"good" + 0.005*"always" + 0.005*"needs"', '0.014*"’" + 0.008*"quality" + 0.007*"planning" + 0.007*"practice" + 0.006*"need" + 0.006*"leaders" + 0.005*"always" + 0.005*"effective" + 0.005*"number" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -3700,7 +3700,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.008*"Helens" + 0.007*"well" + 0.007*"St" + 0.006*"progress" + 0.006*"10" + 0.006*"receive" + 0.006*"need" + 0.005*"2023"', '0.014*"’" + 0.009*"Helens" + 0.007*"well" + 0.006*"21" + 0.006*"St" + 0.005*"risk" + 0.005*"10" + 0.005*"needs" + 0.005*"progress" + 0.005*"receive"', '0.019*"’" + 0.010*"St" + 0.007*"good" + 0.007*"needs" + 0.006*"Helens" + 0.006*"progress" + 0.006*"need" + 0.005*"well" + 0.005*"21" + 0.005*"receive"']</t>
+    <t>['0.018*"’" + 0.010*"St" + 0.008*"Helens" + 0.008*"needs" + 0.007*"well" + 0.006*"good" + 0.006*"progress" + 0.005*"receive" + 0.005*"risk" + 0.005*"10"', '0.013*"’" + 0.008*"needs" + 0.007*"St" + 0.007*"Helens" + 0.006*"well" + 0.006*"need" + 0.006*"10" + 0.006*"progress" + 0.006*"21" + 0.005*"receive"', '0.016*"’" + 0.008*"Helens" + 0.006*"St" + 0.006*"well" + 0.005*"progress" + 0.005*"effective" + 0.005*"risk" + 0.005*"needs" + 0.005*"21" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -3721,7 +3721,7 @@
     <t>0.1688</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.013*"needs" + 0.007*"quality" + 0.007*"Staffordshire" + 0.006*"progress" + 0.006*"practice" + 0.006*"oversight" + 0.005*"ensure" + 0.005*"plans" + 0.005*"health"', '0.014*"’" + 0.007*"needs" + 0.005*"quality" + 0.005*"health" + 0.005*"oversight" + 0.004*"progress" + 0.004*"ensure" + 0.004*"Staffordshire" + 0.004*"plans" + 0.004*"practice"', '0.018*"’" + 0.012*"needs" + 0.006*"health" + 0.006*"ensure" + 0.006*"practice" + 0.006*"oversight" + 0.005*"progress" + 0.005*"plans" + 0.005*"quality" + 0.005*"impact"']</t>
+    <t>['0.021*"’" + 0.010*"needs" + 0.007*"progress" + 0.006*"practice" + 0.006*"ensure" + 0.005*"quality" + 0.005*"oversight" + 0.005*"health" + 0.005*"6" + 0.005*"2023"', '0.014*"’" + 0.012*"needs" + 0.006*"health" + 0.006*"quality" + 0.006*"practice" + 0.006*"Staffordshire" + 0.006*"oversight" + 0.005*"plans" + 0.005*"ensure" + 0.005*"progress"', '0.017*"’" + 0.012*"needs" + 0.006*"quality" + 0.006*"oversight" + 0.006*"Staffordshire" + 0.005*"ensure" + 0.005*"10" + 0.005*"impact" + 0.005*"progress" + 0.005*"health"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -3745,7 +3745,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.007*"well" + 0.007*"needs" + 0.007*"Stockport" + 0.006*"practice" + 0.005*"plans" + 0.005*"risk" + 0.005*"team" + 0.004*"ensure" + 0.004*"28"', '0.010*"’" + 0.009*"well" + 0.008*"practice" + 0.007*"strong" + 0.007*"Stockport" + 0.006*"plans" + 0.005*"needs" + 0.005*"ensure" + 0.005*"risk" + 0.004*"leaders"', '0.014*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Stockport" + 0.005*"needs" + 0.005*"risk" + 0.005*"strong" + 0.005*"leaders" + 0.005*"2022" + 0.004*"quality"']</t>
+    <t>['0.011*"’" + 0.007*"practice" + 0.007*"needs" + 0.007*"well" + 0.006*"Stockport" + 0.005*"strong" + 0.005*"risk" + 0.005*"quality" + 0.004*"ensure" + 0.004*"plans"', '0.010*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"risk" + 0.005*"Stockport" + 0.005*"needs" + 0.004*"team" + 0.004*"range" + 0.004*"ensure" + 0.004*"strong"', '0.012*"’" + 0.008*"well" + 0.008*"Stockport" + 0.007*"practice" + 0.007*"plans" + 0.006*"strong" + 0.006*"needs" + 0.005*"28" + 0.005*"ensure" + 0.005*"March"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -3778,7 +3778,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.008*"plans" + 0.007*"leaders" + 0.006*"good" + 0.006*"well" + 0.006*"on-Tees" + 0.005*"needs" + 0.005*"quality" + 0.005*"Stockton" + 0.005*"understand"', '0.016*"’" + 0.008*"leaders" + 0.008*"well" + 0.007*"quality" + 0.007*"plans" + 0.006*"Stockton" + 0.006*"senior" + 0.005*"needs" + 0.005*"good" + 0.005*"on-Tees"', '0.018*"’" + 0.010*"leaders" + 0.009*"plans" + 0.008*"needs" + 0.007*"on-Tees" + 0.007*"Stockton" + 0.005*"well" + 0.005*"good" + 0.005*"carers" + 0.005*"quality"']</t>
+    <t>['0.025*"’" + 0.010*"leaders" + 0.009*"plans" + 0.007*"well" + 0.007*"on-Tees" + 0.007*"needs" + 0.006*"Stockton" + 0.006*"quality" + 0.006*"17" + 0.005*"senior"', '0.012*"’" + 0.007*"leaders" + 0.006*"plans" + 0.006*"well" + 0.005*"needs" + 0.005*"Stockton" + 0.005*"good" + 0.005*"quality" + 0.004*"on-Tees" + 0.004*"progress"', '0.017*"’" + 0.008*"plans" + 0.007*"leaders" + 0.007*"needs" + 0.007*"quality" + 0.006*"Stockton" + 0.006*"good" + 0.006*"on-Tees" + 0.006*"well" + 0.005*"carers"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -3799,7 +3799,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"needs" + 0.007*"on-Trent" + 0.007*"ensure" + 0.006*"well" + 0.006*"However" + 0.006*"plans" + 0.005*"protection" + 0.005*"Stoke" + 0.005*"progress"', '0.014*"’" + 0.007*"However" + 0.007*"Stoke" + 0.006*"needs" + 0.006*"ensure" + 0.006*"plans" + 0.005*"on-Trent" + 0.005*"well" + 0.005*"effectively" + 0.004*"October"', '0.022*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"Stoke" + 0.007*"on-Trent" + 0.007*"plans" + 0.007*"protection" + 0.006*"However" + 0.005*"quality" + 0.005*"3"']</t>
+    <t>['0.018*"’" + 0.009*"needs" + 0.008*"on-Trent" + 0.008*"well" + 0.007*"plans" + 0.007*"However" + 0.007*"Stoke" + 0.006*"ensure" + 0.005*"protection" + 0.005*"quality"', '0.019*"’" + 0.007*"needs" + 0.007*"Stoke" + 0.007*"ensure" + 0.007*"However" + 0.007*"well" + 0.006*"on-Trent" + 0.006*"protection" + 0.006*"plans" + 0.005*"progress"', '0.013*"’" + 0.008*"needs" + 0.006*"Stoke" + 0.006*"on-Trent" + 0.006*"plans" + 0.005*"well" + 0.005*"quality" + 0.005*"protection" + 0.005*"However" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -3826,7 +3826,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"progress" + 0.005*"well" + 0.004*"good" + 0.004*"effective" + 0.004*"leaders" + 0.004*"Suffolk" + 0.004*"practice" + 0.003*"ensure" + 0.003*"needs"', '0.012*"’" + 0.005*"well" + 0.005*"progress" + 0.005*"ensure" + 0.004*"good" + 0.004*"practice" + 0.003*"new" + 0.003*"leaders" + 0.003*"needs" + 0.003*"experiences"', '0.014*"’" + 0.008*"well" + 0.007*"progress" + 0.006*"effective" + 0.006*"leaders" + 0.005*"good" + 0.005*"ensure" + 0.005*"practice" + 0.004*"carers" + 0.004*"need"']</t>
+    <t>['0.009*"’" + 0.007*"progress" + 0.007*"well" + 0.005*"effective" + 0.005*"good" + 0.005*"ensure" + 0.005*"leaders" + 0.004*"practice" + 0.004*"needs" + 0.004*"risk"', '0.017*"’" + 0.005*"effective" + 0.005*"leaders" + 0.005*"well" + 0.004*"ensure" + 0.004*"carers" + 0.004*"progress" + 0.004*"good" + 0.003*"high" + 0.003*"use"', '0.014*"’" + 0.007*"well" + 0.007*"progress" + 0.005*"good" + 0.005*"practice" + 0.004*"leaders" + 0.004*"ensure" + 0.004*"effective" + 0.004*"high" + 0.004*"Suffolk"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -3856,7 +3856,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"Sunderland" + 0.006*"needs" + 0.006*"well" + 0.006*"quality" + 0.006*"experienced" + 0.005*"robust" + 0.005*"cared" + 0.005*"family" + 0.004*"practice"', '0.013*"’" + 0.007*"well" + 0.006*"quality" + 0.005*"needs" + 0.005*"protection" + 0.004*"Sunderland" + 0.004*"TfC" + 0.004*"need" + 0.004*"experienced" + 0.004*"practice"', '0.018*"’" + 0.008*"well" + 0.008*"quality" + 0.007*"needs" + 0.005*"parents" + 0.005*"Sunderland" + 0.005*"practice" + 0.005*"good" + 0.005*"experienced" + 0.005*"protection"']</t>
+    <t>['0.015*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"quality" + 0.006*"Sunderland" + 0.005*"TfC" + 0.004*"experienced" + 0.004*"risk" + 0.004*"need" + 0.004*"council"', '0.015*"’" + 0.008*"well" + 0.006*"quality" + 0.006*"needs" + 0.005*"Sunderland" + 0.005*"highly" + 0.005*"practice" + 0.005*"robust" + 0.004*"experienced" + 0.004*"protection"', '0.019*"’" + 0.007*"quality" + 0.006*"needs" + 0.006*"experienced" + 0.005*"well" + 0.005*"Sunderland" + 0.005*"good" + 0.005*"practice" + 0.005*"council" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -3883,7 +3883,7 @@
     <t>0.1782</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.008*"practice" + 0.007*"well" + 0.007*"progress" + 0.005*"17" + 0.005*"good" + 0.005*"However" + 0.005*"carers" + 0.004*"quality"', '0.012*"’" + 0.010*"needs" + 0.008*"well" + 0.006*"practice" + 0.006*"plans" + 0.005*"carers" + 0.005*"However" + 0.005*"quality" + 0.004*"good" + 0.004*"17"', '0.014*"’" + 0.011*"well" + 0.009*"needs" + 0.008*"progress" + 0.007*"practice" + 0.006*"plans" + 0.006*"effective" + 0.005*"quality" + 0.005*"good" + 0.005*"17"']</t>
+    <t>['0.012*"’" + 0.012*"needs" + 0.010*"well" + 0.007*"practice" + 0.006*"progress" + 0.006*"17" + 0.005*"good" + 0.005*"quality" + 0.005*"plans" + 0.005*"carers"', '0.014*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"progress" + 0.006*"practice" + 0.005*"plans" + 0.005*"carers" + 0.005*"quality" + 0.005*"However" + 0.005*"effective"', '0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"practice" + 0.006*"progress" + 0.006*"effective" + 0.005*"plans" + 0.005*"17" + 0.004*"good" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -3904,7 +3904,7 @@
     <t>0.1489</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.014*"needs" + 0.008*"Swindon" + 0.007*"well" + 0.007*"need" + 0.006*"plans" + 0.006*"impact" + 0.006*"always" + 0.006*"Council" + 0.005*"health"', '0.026*"’" + 0.011*"needs" + 0.010*"Swindon" + 0.009*"well" + 0.008*"need" + 0.006*"always" + 0.006*"effective" + 0.006*"plans" + 0.005*"home" + 0.005*"Council"', '0.020*"’" + 0.014*"needs" + 0.009*"need" + 0.009*"Swindon" + 0.007*"always" + 0.007*"well" + 0.007*"plans" + 0.006*"impact" + 0.005*"many" + 0.005*"28"']</t>
+    <t>['0.026*"’" + 0.016*"needs" + 0.011*"Swindon" + 0.010*"well" + 0.009*"need" + 0.008*"plans" + 0.006*"always" + 0.006*"impact" + 0.006*"effective" + 0.005*"education"', '0.020*"’" + 0.010*"needs" + 0.008*"need" + 0.007*"Swindon" + 0.006*"health" + 0.006*"always" + 0.005*"well" + 0.005*"impact" + 0.005*"effective" + 0.005*"many"', '0.015*"’" + 0.008*"needs" + 0.008*"need" + 0.007*"always" + 0.006*"well" + 0.006*"Swindon" + 0.005*"clear" + 0.004*"home" + 0.004*"28" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -3925,7 +3925,7 @@
     <t>0.1619</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"always" + 0.007*"plans" + 0.006*"impact" + 0.006*"good" + 0.006*"practice" + 0.005*"well" + 0.005*"need" + 0.004*"progress" + 0.004*"example"', '0.016*"’" + 0.006*"plans" + 0.005*"practice" + 0.005*"well" + 0.005*"progress" + 0.005*"good" + 0.005*"impact" + 0.005*"needs" + 0.004*"new" + 0.004*"need"', '0.015*"’" + 0.008*"plans" + 0.007*"impact" + 0.007*"progress" + 0.006*"always" + 0.006*"well" + 0.005*"good" + 0.005*"practice" + 0.005*"needs" + 0.004*"example"']</t>
+    <t>['0.015*"’" + 0.007*"plans" + 0.006*"impact" + 0.006*"always" + 0.006*"practice" + 0.006*"progress" + 0.005*"good" + 0.005*"well" + 0.005*"example" + 0.005*"needs"', '0.014*"’" + 0.006*"plans" + 0.006*"well" + 0.006*"progress" + 0.006*"impact" + 0.006*"always" + 0.005*"practice" + 0.005*"good" + 0.005*"need" + 0.005*"new"', '0.016*"’" + 0.007*"impact" + 0.007*"plans" + 0.007*"always" + 0.006*"good" + 0.006*"practice" + 0.005*"well" + 0.005*"progress" + 0.005*"needs" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -3946,7 +3946,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.008*"effective" + 0.008*"needs" + 0.005*"ensure" + 0.005*"strong" + 0.005*"plans" + 0.005*"practice" + 0.005*"clear" + 0.004*"leaders"', '0.015*"’" + 0.011*"well" + 0.007*"needs" + 0.005*"strong" + 0.005*"plans" + 0.005*"effective" + 0.005*"planning" + 0.005*"ensure" + 0.005*"need" + 0.004*"practice"', '0.020*"’" + 0.013*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"need" + 0.005*"plans" + 0.005*"improve" + 0.005*"practice" + 0.005*"benefit" + 0.005*"strong"']</t>
+    <t>['0.020*"’" + 0.011*"well" + 0.009*"needs" + 0.007*"effective" + 0.005*"ensure" + 0.005*"need" + 0.005*"strong" + 0.005*"plans" + 0.005*"practice" + 0.005*"planning"', '0.012*"’" + 0.010*"well" + 0.007*"effective" + 0.006*"needs" + 0.005*"plans" + 0.005*"strong" + 0.005*"improve" + 0.005*"practice" + 0.004*"leaders" + 0.004*"planning"', '0.015*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"effective" + 0.006*"plans" + 0.005*"need" + 0.005*"ensure" + 0.005*"strong" + 0.004*"clear" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -3967,7 +3967,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"well" + 0.006*"carers" + 0.005*"need" + 0.005*"ensure" + 0.005*"practice" + 0.004*"needs" + 0.004*"parents" + 0.004*"leaders" + 0.004*"protect"', '0.014*"’" + 0.008*"well" + 0.006*"need" + 0.005*"carers" + 0.005*"needs" + 0.004*"effective" + 0.004*"Thurrock" + 0.004*"leaders" + 0.004*"practice" + 0.004*"vulnerable"', '0.010*"’" + 0.007*"well" + 0.004*"carers" + 0.004*"needs" + 0.003*"ensure" + 0.003*"need" + 0.003*"protection" + 0.003*"practice" + 0.003*"plans" + 0.003*"leaders"']</t>
+    <t>['0.013*"’" + 0.011*"well" + 0.005*"carers" + 0.004*"need" + 0.004*"plans" + 0.004*"ensure" + 0.004*"practice" + 0.004*"needs" + 0.004*"leaders" + 0.004*"Thurrock"', '0.015*"’" + 0.007*"well" + 0.005*"carers" + 0.005*"need" + 0.005*"needs" + 0.004*"effective" + 0.004*"ensure" + 0.004*"Thurrock" + 0.004*"practice" + 0.004*"leaders"', '0.011*"’" + 0.006*"well" + 0.006*"carers" + 0.005*"need" + 0.004*"needs" + 0.004*"protection" + 0.004*"practice" + 0.004*"ensure" + 0.004*"quality" + 0.004*"Thurrock"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -3988,7 +3988,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"well" + 0.004*"21" + 0.004*"needs" + 0.004*"Torbay" + 0.004*"timely" + 0.004*"2022" + 0.004*"good" + 0.004*"effective" + 0.004*"education"', '0.016*"’" + 0.007*"well" + 0.007*"Torbay" + 0.007*"effective" + 0.006*"good" + 0.006*"needs" + 0.005*"plans" + 0.005*"2022" + 0.005*"supported" + 0.004*"1"', '0.019*"’" + 0.012*"well" + 0.009*"Torbay" + 0.007*"needs" + 0.007*"good" + 0.005*"agencies" + 0.005*"progress" + 0.005*"team" + 0.005*"21" + 0.004*"timely"']</t>
+    <t>['0.015*"’" + 0.009*"well" + 0.009*"Torbay" + 0.007*"needs" + 0.006*"good" + 0.005*"effective" + 0.004*"team" + 0.004*"agencies" + 0.004*"supported" + 0.004*"21"', '0.020*"’" + 0.009*"well" + 0.007*"Torbay" + 0.006*"effective" + 0.006*"good" + 0.005*"needs" + 0.005*"team" + 0.005*"progress" + 0.005*"plans" + 0.004*"timely"', '0.013*"’" + 0.008*"well" + 0.005*"good" + 0.005*"needs" + 0.005*"Torbay" + 0.005*"timely" + 0.005*"21" + 0.004*"agencies" + 0.004*"quality" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -4009,7 +4009,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"Trafford" + 0.006*"quality" + 0.005*"well" + 0.005*"team" + 0.004*"2" + 0.004*"leaders" + 0.004*"2022"', '0.018*"’" + 0.012*"needs" + 0.009*"Trafford" + 0.007*"quality" + 0.007*"well" + 0.006*"plans" + 0.006*"practice" + 0.006*"leaders" + 0.005*"placed" + 0.005*"impact"', '0.017*"’" + 0.008*"well" + 0.008*"needs" + 0.008*"Trafford" + 0.007*"plans" + 0.006*"leaders" + 0.006*"quality" + 0.005*"practice" + 0.005*"ensure" + 0.005*"impact"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.009*"Trafford" + 0.009*"well" + 0.007*"plans" + 0.006*"quality" + 0.006*"leaders" + 0.006*"impact" + 0.005*"placed" + 0.005*"practice"', '0.017*"’" + 0.009*"needs" + 0.007*"Trafford" + 0.007*"quality" + 0.007*"plans" + 0.006*"practice" + 0.006*"leaders" + 0.005*"well" + 0.005*"worker" + 0.005*"impact"', '0.015*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Trafford" + 0.006*"plans" + 0.006*"quality" + 0.005*"leaders" + 0.005*"2" + 0.004*"21" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -4027,7 +4027,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50172854</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.005*"leaders" + 0.005*"well" + 0.005*"Walsall" + 0.005*"needs" + 0.004*"early" + 0.004*"4" + 0.003*"October" + 0.003*"need" + 0.003*"education"', '0.028*"’" + 0.007*"leaders" + 0.006*"needs" + 0.006*"well" + 0.006*"Walsall" + 0.005*"oversight" + 0.005*"4" + 0.005*"information" + 0.005*"Senior" + 0.004*"15"', '0.017*"’" + 0.008*"leaders" + 0.007*"needs" + 0.005*"information" + 0.005*"Walsall" + 0.005*"positive" + 0.005*"well" + 0.005*"good" + 0.004*"Senior" + 0.004*"2021"']</t>
+    <t>['0.018*"’" + 0.007*"leaders" + 0.006*"well" + 0.006*"needs" + 0.005*"oversight" + 0.005*"Senior" + 0.004*"4" + 0.004*"information" + 0.004*"Walsall" + 0.004*"15"', '0.020*"’" + 0.006*"needs" + 0.005*"leaders" + 0.005*"well" + 0.005*"Walsall" + 0.004*"4" + 0.004*"good" + 0.004*"2021" + 0.004*"positive" + 0.004*"information"', '0.024*"’" + 0.009*"leaders" + 0.007*"Walsall" + 0.006*"needs" + 0.005*"well" + 0.005*"information" + 0.005*"4" + 0.005*"progress" + 0.004*"good" + 0.004*"Senior"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4045,7 +4045,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50101635</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.005*"practice" + 0.005*"well" + 0.004*"plans" + 0.004*"number" + 0.004*"progress" + 0.004*"Senior" + 0.004*"small" + 0.004*"carers" + 0.004*"information"', '0.015*"’" + 0.009*"well" + 0.006*"practice" + 0.005*"Senior" + 0.005*"good" + 0.004*"plans" + 0.004*"carers" + 0.004*"number" + 0.004*"information" + 0.004*"senior"', '0.017*"’" + 0.007*"practice" + 0.005*"well" + 0.004*"number" + 0.004*"progress" + 0.004*"need" + 0.004*"plans" + 0.004*"Senior" + 0.004*"needs" + 0.004*"protection"']</t>
+    <t>['0.015*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"number" + 0.005*"plans" + 0.005*"Senior" + 0.005*"progress" + 0.004*"provided" + 0.004*"information" + 0.004*"need"', '0.011*"’" + 0.007*"practice" + 0.007*"well" + 0.004*"home" + 0.004*"senior" + 0.004*"plans" + 0.004*"good" + 0.004*"progress" + 0.004*"information" + 0.004*"carers"', '0.016*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"Senior" + 0.005*"good" + 0.004*"small" + 0.004*"number" + 0.004*"plans" + 0.003*"need" + 0.003*"needs"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4069,7 +4069,7 @@
     <t>03/12/2021</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"well" + 0.006*"Warwickshire" + 0.005*"plans" + 0.005*"practice" + 0.004*"clear" + 0.004*"needs" + 0.004*"Senior" + 0.004*"progress" + 0.004*"3"', '0.013*"’" + 0.007*"plans" + 0.007*"Warwickshire" + 0.007*"needs" + 0.006*"well" + 0.005*"good" + 0.005*"carers" + 0.005*"practice" + 0.005*"3" + 0.004*"progress"', '0.011*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"information" + 0.005*"practice" + 0.005*"Warwickshire" + 0.005*"good" + 0.004*"22" + 0.004*"clear"']</t>
+    <t>['0.015*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"practice" + 0.005*"Warwickshire" + 0.005*"plans" + 0.005*"carers" + 0.005*"22" + 0.004*"good" + 0.004*"3"', '0.011*"’" + 0.008*"plans" + 0.007*"Warwickshire" + 0.007*"well" + 0.006*"needs" + 0.005*"clear" + 0.004*"Senior" + 0.004*"information" + 0.004*"progress" + 0.004*"3"', '0.008*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"good" + 0.005*"carers" + 0.005*"supported" + 0.004*"progress" + 0.004*"Warwickshire"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4096,7 +4096,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"West" + 0.007*"Berkshire" + 0.006*"well" + 0.005*"working" + 0.004*"plans" + 0.004*"early" + 0.004*"need" + 0.004*"March" + 0.004*"agency"', '0.017*"’" + 0.007*"West" + 0.005*"well" + 0.005*"needs" + 0.005*"Berkshire" + 0.005*"need" + 0.004*"14" + 0.004*"18" + 0.004*"education" + 0.004*"progress"', '0.013*"’" + 0.007*"Berkshire" + 0.006*"well" + 0.005*"West" + 0.004*"plans" + 0.004*"agency" + 0.004*"early" + 0.004*"14" + 0.004*"18" + 0.004*"education"']</t>
+    <t>['0.013*"’" + 0.006*"Berkshire" + 0.005*"West" + 0.005*"well" + 0.005*"need" + 0.004*"18" + 0.004*"plans" + 0.003*"needs" + 0.003*"early" + 0.003*"14"', '0.013*"’" + 0.007*"West" + 0.006*"well" + 0.006*"Berkshire" + 0.005*"14" + 0.004*"needs" + 0.004*"working" + 0.004*"agency" + 0.004*"early" + 0.004*"plans"', '0.017*"’" + 0.007*"Berkshire" + 0.006*"West" + 0.006*"well" + 0.004*"plans" + 0.004*"needs" + 0.004*"practice" + 0.004*"working" + 0.004*"18" + 0.004*"agency"']</t>
   </si>
   <si>
     <t>941</t>
@@ -4114,7 +4114,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.010*"Northamptonshire" + 0.008*"quality" + 0.007*"well" + 0.007*"West" + 0.006*"practice" + 0.005*"needs" + 0.005*"plans" + 0.005*"3" + 0.005*"14"', '0.016*"’" + 0.006*"West" + 0.006*"quality" + 0.006*"Northamptonshire" + 0.006*"well" + 0.006*"practice" + 0.004*"needs" + 0.004*"experiences" + 0.004*"NCT" + 0.004*"However"', '0.012*"’" + 0.007*"Northamptonshire" + 0.006*"West" + 0.005*"NCT" + 0.005*"quality" + 0.005*"impact" + 0.004*"need" + 0.004*"needs" + 0.004*"3" + 0.004*"plans"']</t>
+    <t>['0.018*"’" + 0.007*"well" + 0.007*"Northamptonshire" + 0.006*"quality" + 0.006*"West" + 0.006*"needs" + 0.005*"NCT" + 0.005*"practice" + 0.004*"plans" + 0.004*"October"', '0.015*"’" + 0.007*"West" + 0.007*"Northamptonshire" + 0.006*"well" + 0.006*"quality" + 0.005*"practice" + 0.005*"NCT" + 0.004*"needs" + 0.004*"place" + 0.004*"experiences"', '0.019*"’" + 0.010*"Northamptonshire" + 0.007*"quality" + 0.006*"West" + 0.006*"practice" + 0.005*"impact" + 0.005*"3" + 0.005*"plans" + 0.005*"well" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4135,7 +4135,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"plans" + 0.007*"well" + 0.006*"West" + 0.006*"Sussex" + 0.005*"practice" + 0.005*"needs" + 0.005*"number" + 0.005*"supported" + 0.005*"quality"', '0.011*"’" + 0.006*"needs" + 0.006*"plans" + 0.005*"well" + 0.004*"13" + 0.004*"Sussex" + 0.004*"West" + 0.004*"health" + 0.004*"24" + 0.003*"strong"', '0.011*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"number" + 0.005*"13" + 0.005*"plans" + 0.005*"quality" + 0.004*"March" + 0.004*"24" + 0.004*"West"']</t>
+    <t>['0.013*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"13" + 0.005*"West" + 0.005*"Sussex" + 0.004*"number" + 0.004*"health"', '0.017*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"Sussex" + 0.005*"supported" + 0.005*"West" + 0.005*"quality" + 0.005*"number" + 0.004*"actively"', '0.011*"’" + 0.006*"plans" + 0.005*"well" + 0.005*"health" + 0.005*"West" + 0.005*"13" + 0.005*"needs" + 0.005*"Sussex" + 0.004*"March" + 0.004*"clear"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4153,7 +4153,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50187563</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"plans" + 0.007*"May" + 0.006*"needs" + 0.005*"quality" + 0.005*"Wigan" + 0.004*"practice" + 0.004*"leaders" + 0.004*"9" + 0.003*"good"', '0.013*"’" + 0.008*"practice" + 0.007*"Wigan" + 0.006*"May" + 0.006*"plans" + 0.006*"quality" + 0.006*"appropriate" + 0.005*"timely" + 0.005*"leaders" + 0.005*"needs"', '0.013*"’" + 0.009*"May" + 0.006*"needs" + 0.006*"practice" + 0.006*"plans" + 0.006*"appropriate" + 0.006*"Wigan" + 0.005*"quality" + 0.005*"increased" + 0.004*"leaders"']</t>
+    <t>['0.009*"’" + 0.005*"Wigan" + 0.005*"needs" + 0.005*"quality" + 0.005*"plans" + 0.005*"May" + 0.004*"leaders" + 0.004*"2022" + 0.004*"practice" + 0.004*"well"', '0.012*"’" + 0.008*"May" + 0.008*"practice" + 0.007*"plans" + 0.006*"needs" + 0.006*"Wigan" + 0.005*"appropriate" + 0.005*"quality" + 0.005*"timely" + 0.005*"20"', '0.015*"’" + 0.008*"May" + 0.007*"plans" + 0.007*"practice" + 0.006*"quality" + 0.006*"needs" + 0.006*"appropriate" + 0.006*"Wigan" + 0.005*"leaders" + 0.005*"9"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4180,7 +4180,7 @@
     <t>12/12/23</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"including" + 0.006*"progress" + 0.006*"need" + 0.006*"Wiltshire" + 0.006*"risk" + 0.006*"parents" + 0.005*"plans"', '0.014*"’" + 0.011*"well" + 0.007*"need" + 0.006*"needs" + 0.006*"plans" + 0.006*"progress" + 0.006*"quality" + 0.005*"Wiltshire" + 0.005*"supported" + 0.005*"parents"', '0.014*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"need" + 0.006*"Wiltshire" + 0.005*"risk" + 0.005*"supported" + 0.005*"parents" + 0.005*"make" + 0.005*"including"']</t>
+    <t>['0.012*"’" + 0.011*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"Wiltshire" + 0.006*"supported" + 0.005*"ensure" + 0.005*"parents" + 0.005*"risk" + 0.005*"progress"', '0.022*"’" + 0.011*"well" + 0.007*"need" + 0.007*"progress" + 0.006*"needs" + 0.006*"including" + 0.006*"risk" + 0.006*"plans" + 0.006*"ensure" + 0.006*"Wiltshire"', '0.012*"well" + 0.011*"’" + 0.008*"needs" + 0.006*"parents" + 0.006*"Wiltshire" + 0.005*"progress" + 0.005*"including" + 0.005*"plans" + 0.005*"supported" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4210,7 +4210,7 @@
     <t>0.1719</t>
   </si>
   <si>
-    <t>['0.007*"quality" + 0.006*"practice" + 0.006*"good" + 0.006*"needs" + 0.005*"well" + 0.004*"progress" + 0.004*"place" + 0.004*"clear" + 0.004*"plans" + 0.004*"need"', '0.010*"’" + 0.009*"well" + 0.008*"quality" + 0.008*"practice" + 0.008*"good" + 0.008*"need" + 0.008*"plans" + 0.007*"needs" + 0.006*"ensure" + 0.006*"effective"', '0.009*"quality" + 0.009*"’" + 0.008*"good" + 0.008*"well" + 0.008*"progress" + 0.007*"needs" + 0.007*"practice" + 0.007*"need" + 0.006*"place" + 0.006*"plans"']</t>
+    <t>['0.009*"practice" + 0.009*"well" + 0.009*"’" + 0.009*"good" + 0.007*"need" + 0.007*"quality" + 0.007*"progress" + 0.006*"place" + 0.006*"ensure" + 0.005*"needs"', '0.008*"needs" + 0.008*"good" + 0.007*"quality" + 0.007*"’" + 0.007*"well" + 0.007*"practice" + 0.007*"need" + 0.006*"effective" + 0.006*"progress" + 0.006*"plans"', '0.012*"quality" + 0.009*"’" + 0.008*"plans" + 0.007*"needs" + 0.007*"well" + 0.006*"progress" + 0.006*"practice" + 0.006*"good" + 0.006*"need" + 0.005*"place"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4231,7 +4231,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"effective" + 0.007*"plans" + 0.007*"needs" + 0.005*"provided" + 0.005*"quality" + 0.005*"progress" + 0.005*"experiences" + 0.004*"appropriate" + 0.004*"parents"', '0.012*"’" + 0.007*"progress" + 0.007*"plans" + 0.005*"well" + 0.005*"provided" + 0.005*"needs" + 0.005*"effective" + 0.005*"experiences" + 0.005*"impact" + 0.005*"6"', '0.013*"’" + 0.006*"plans" + 0.006*"well" + 0.006*"17" + 0.006*"needs" + 0.005*"effective" + 0.005*"Wokingham" + 0.004*"6" + 0.004*"good" + 0.004*"quality"']</t>
+    <t>['0.010*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"effective" + 0.004*"provided" + 0.004*"progress" + 0.004*"impact" + 0.004*"quality" + 0.004*"Wokingham"', '0.015*"’" + 0.008*"plans" + 0.007*"effective" + 0.007*"progress" + 0.006*"needs" + 0.005*"17" + 0.005*"quality" + 0.005*"experiences" + 0.005*"appropriate" + 0.005*"provided"', '0.011*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"effective" + 0.005*"provided" + 0.005*"6" + 0.005*"progress" + 0.005*"experiences" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4252,7 +4252,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"needs" + 0.005*"effective" + 0.005*"risks" + 0.004*"Wolverhampton" + 0.004*"risk" + 0.004*"quality" + 0.004*"supported" + 0.004*"leaders" + 0.004*"strong"', '0.014*"’" + 0.007*"needs" + 0.006*"risks" + 0.005*"effective" + 0.005*"plans" + 0.005*"Wolverhampton" + 0.005*"supported" + 0.005*"practice" + 0.004*"education" + 0.004*"City"', '0.016*"’" + 0.007*"needs" + 0.006*"Wolverhampton" + 0.006*"effective" + 0.006*"receive" + 0.005*"quality" + 0.005*"leaders" + 0.005*"plans" + 0.005*"risk" + 0.005*"strong"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.006*"Wolverhampton" + 0.005*"effective" + 0.005*"leaders" + 0.005*"strong" + 0.005*"risks" + 0.004*"well" + 0.004*"practice" + 0.004*"supported"', '0.016*"’" + 0.008*"needs" + 0.006*"quality" + 0.006*"Wolverhampton" + 0.006*"risks" + 0.005*"plans" + 0.005*"effective" + 0.005*"education" + 0.005*"receive" + 0.004*"leaders"', '0.013*"’" + 0.007*"effective" + 0.007*"needs" + 0.005*"plans" + 0.005*"Wolverhampton" + 0.005*"receive" + 0.004*"education" + 0.004*"risk" + 0.004*"City" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4279,7 +4279,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.010*"well" + 0.008*"progress" + 0.007*"plans" + 0.007*"needs" + 0.006*"Worcestershire" + 0.006*"leaders" + 0.006*"ensure" + 0.005*"appropriate" + 0.005*"living"', '0.017*"’" + 0.007*"plans" + 0.007*"Worcestershire" + 0.007*"needs" + 0.006*"ensure" + 0.006*"leaders" + 0.005*"improve" + 0.005*"appropriate" + 0.005*"experiences" + 0.005*"well"', '0.017*"’" + 0.009*"well" + 0.009*"needs" + 0.009*"plans" + 0.007*"Worcestershire" + 0.007*"leaders" + 0.007*"progress" + 0.006*"appropriate" + 0.005*"ensure" + 0.005*"2023"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.008*"well" + 0.008*"plans" + 0.007*"Worcestershire" + 0.006*"progress" + 0.006*"ensure" + 0.005*"leaders" + 0.005*"PAs" + 0.005*"improve"', '0.018*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"plans" + 0.006*"progress" + 0.006*"Worcestershire" + 0.006*"appropriate" + 0.006*"ensure" + 0.006*"leaders" + 0.005*"experiences"', '0.022*"’" + 0.008*"leaders" + 0.008*"plans" + 0.008*"well" + 0.007*"Worcestershire" + 0.007*"progress" + 0.006*"appropriate" + 0.006*"needs" + 0.005*"ensure" + 0.005*"improve"']</t>
   </si>
   <si>
     <t>urn</t>
@@ -10448,7 +10448,7 @@
         <v>859</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D84" t="s">
         <v>860</v>
@@ -10517,7 +10517,7 @@
         <v>867</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
         <v>868</v>
@@ -12299,7 +12299,7 @@
         <v>1093</v>
       </c>
       <c r="C111" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="D111" t="s">
         <v>1094</v>
@@ -12368,7 +12368,7 @@
         <v>1101</v>
       </c>
       <c r="C112" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="D112" t="s">
         <v>1102</v>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -67,7 +67,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"needs" + 0.007*"within" + 0.006*"Barnsley" + 0.006*"leaders" + 0.006*"response" + 0.005*"practice" + 0.005*"11" + 0.005*"plans" + 0.004*"15"', '0.017*"’" + 0.010*"leaders" + 0.009*"needs" + 0.006*"practice" + 0.005*"Barnsley" + 0.005*"within" + 0.005*"understand" + 0.004*"2023" + 0.004*"11" + 0.004*"plans"', '0.019*"’" + 0.007*"needs" + 0.007*"within" + 0.006*"leaders" + 0.006*"practice" + 0.005*"Barnsley" + 0.005*"quality" + 0.005*"2023" + 0.004*"plans" + 0.004*"senior"']</t>
+    <t>['0.023*"’" + 0.008*"needs" + 0.007*"within" + 0.007*"leaders" + 0.006*"Barnsley" + 0.006*"practice" + 0.005*"senior" + 0.005*"15" + 0.004*"plans" + 0.004*"response"', '0.014*"’" + 0.007*"needs" + 0.006*"leaders" + 0.005*"within" + 0.005*"Barnsley" + 0.005*"response" + 0.005*"practice" + 0.005*"plans" + 0.004*"2023" + 0.004*"11"', '0.018*"’" + 0.009*"needs" + 0.009*"leaders" + 0.006*"practice" + 0.006*"within" + 0.005*"Barnsley" + 0.005*"progress" + 0.005*"understand" + 0.005*"11" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -106,7 +106,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"well" + 0.007*"practice" + 0.006*"needs" + 0.005*"4" + 0.005*"leaders" + 0.005*"plans" + 0.005*"impact" + 0.005*"clear" + 0.005*"Somerset"', '0.018*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"East" + 0.005*"protection" + 0.004*"leaders" + 0.004*"‘" + 0.004*"2022"', '0.014*"’" + 0.009*"well" + 0.006*"plans" + 0.005*"needs" + 0.005*"effective" + 0.005*"leaders" + 0.005*"receive" + 0.005*"Bath" + 0.004*"North" + 0.004*"education"']</t>
+    <t>['0.019*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"4" + 0.005*"North" + 0.005*"practice" + 0.004*"receive" + 0.004*"clear" + 0.004*"East"', '0.017*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"leaders" + 0.005*"effective" + 0.005*"East" + 0.005*"impact" + 0.004*"plans" + 0.004*"clear"', '0.018*"’" + 0.009*"well" + 0.006*"needs" + 0.006*"plans" + 0.005*"Somerset" + 0.005*"impact" + 0.005*"Bath" + 0.005*"effective" + 0.005*"practice" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -151,7 +151,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"needs" + 0.006*"ensure" + 0.006*"Bedford" + 0.006*"well" + 0.005*"plans" + 0.005*"progress" + 0.005*"supported" + 0.005*"Borough" + 0.005*"family"', '0.015*"’" + 0.005*"needs" + 0.005*"well" + 0.005*"ensure" + 0.005*"good" + 0.005*"plans" + 0.004*"Bedford" + 0.004*"supported" + 0.004*"need" + 0.004*"education"', '0.022*"’" + 0.007*"needs" + 0.007*"ensure" + 0.006*"well" + 0.005*"plans" + 0.005*"supported" + 0.005*"good" + 0.005*"made" + 0.005*"relationships" + 0.005*"15"']</t>
+    <t>['0.015*"’" + 0.006*"Bedford" + 0.006*"well" + 0.005*"needs" + 0.005*"Borough" + 0.005*"ensure" + 0.005*"progress" + 0.005*"family" + 0.004*"2021" + 0.004*"relationships"', '0.025*"’" + 0.007*"needs" + 0.007*"ensure" + 0.006*"supported" + 0.005*"good" + 0.005*"progress" + 0.005*"well" + 0.005*"plans" + 0.005*"Bedford" + 0.005*"Borough"', '0.013*"’" + 0.008*"needs" + 0.006*"ensure" + 0.006*"well" + 0.006*"plans" + 0.005*"Bedford" + 0.005*"education" + 0.005*"good" + 0.005*"relationships" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -193,7 +193,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"needs" + 0.008*"effective" + 0.006*"well" + 0.006*"Birmingham" + 0.006*"plans" + 0.005*"trust" + 0.005*"3" + 0.004*"leaders" + 0.004*"20"', '0.015*"’" + 0.009*"needs" + 0.007*"effective" + 0.007*"well" + 0.006*"plans" + 0.006*"appropriate" + 0.005*"3" + 0.005*"progress" + 0.005*"risk" + 0.005*"trust"', '0.017*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"Birmingham" + 0.006*"progress" + 0.006*"plans" + 0.006*"trust" + 0.005*"effective" + 0.005*"risk" + 0.005*"appropriate"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"effective" + 0.005*"Birmingham" + 0.005*"plans" + 0.005*"progress" + 0.004*"trust" + 0.004*"leaders" + 0.004*"appropriate"', '0.017*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"effective" + 0.006*"progress" + 0.005*"Birmingham" + 0.005*"3" + 0.005*"trust" + 0.005*"plans" + 0.005*"February"', '0.015*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"trust" + 0.006*"Birmingham" + 0.006*"effective" + 0.005*"timely" + 0.005*"3" + 0.005*"appropriate" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -232,7 +232,7 @@
     <t>0.1834</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.006*"practice" + 0.005*"quality" + 0.005*"needs" + 0.004*"impact" + 0.004*"well" + 0.004*"Blackburn" + 0.004*"plans" + 0.004*"Darwen" + 0.004*"means"', '0.011*"’" + 0.007*"practice" + 0.007*"well" + 0.007*"Darwen" + 0.007*"needs" + 0.006*"quality" + 0.006*"means" + 0.006*"Blackburn" + 0.005*"result" + 0.005*"impact"', '0.018*"’" + 0.009*"needs" + 0.008*"Blackburn" + 0.008*"quality" + 0.007*"practice" + 0.007*"impact" + 0.007*"Darwen" + 0.006*"well" + 0.006*"planning" + 0.006*"effective"']</t>
+    <t>['0.012*"’" + 0.006*"Darwen" + 0.006*"needs" + 0.006*"impact" + 0.006*"quality" + 0.006*"Blackburn" + 0.006*"well" + 0.005*"practice" + 0.004*"result" + 0.004*"plans"', '0.010*"’" + 0.007*"quality" + 0.007*"Blackburn" + 0.006*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"planning" + 0.005*"receive" + 0.005*"Darwen" + 0.005*"impact"', '0.017*"’" + 0.009*"practice" + 0.009*"needs" + 0.007*"Darwen" + 0.007*"Blackburn" + 0.007*"quality" + 0.006*"impact" + 0.006*"well" + 0.005*"means" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -271,7 +271,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"needs" + 0.008*"well" + 0.006*"Blackpool" + 0.005*"plans" + 0.005*"effective" + 0.005*"quality" + 0.005*"practice" + 0.004*"16" + 0.004*"need"', '0.017*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"Blackpool" + 0.006*"effective" + 0.005*"plans" + 0.005*"16" + 0.005*"progress" + 0.004*"quality" + 0.004*"experiences"', '0.017*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"Blackpool" + 0.006*"supported" + 0.006*"practice" + 0.005*"experiences" + 0.005*"5" + 0.005*"16" + 0.005*"progress"']</t>
+    <t>['0.017*"’" + 0.010*"needs" + 0.009*"well" + 0.006*"Blackpool" + 0.006*"effective" + 0.005*"quality" + 0.005*"16" + 0.005*"practice" + 0.005*"carers" + 0.005*"team"', '0.015*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"Blackpool" + 0.006*"supported" + 0.005*"progress" + 0.005*"practice" + 0.005*"effective" + 0.005*"plans" + 0.005*"5"', '0.018*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"Blackpool" + 0.006*"plans" + 0.006*"effective" + 0.005*"16" + 0.005*"practice" + 0.005*"progress" + 0.005*"experiences"']</t>
   </si>
   <si>
     <t>350</t>
@@ -295,7 +295,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.008*"Bolton" + 0.007*"plans" + 0.006*"needs" + 0.005*"planning" + 0.004*"need" + 0.004*"11" + 0.004*"risk" + 0.004*"strong"', '0.019*"’" + 0.011*"needs" + 0.008*"Bolton" + 0.007*"well" + 0.006*"plans" + 0.005*"effective" + 0.005*"11" + 0.005*"protection" + 0.005*"strong" + 0.005*"need"', '0.020*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"plans" + 0.008*"Bolton" + 0.007*"supported" + 0.006*"need" + 0.005*"planning" + 0.005*"response" + 0.005*"effective"']</t>
+    <t>['0.018*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Bolton" + 0.006*"planning" + 0.006*"plans" + 0.005*"2023" + 0.005*"need" + 0.005*"supported" + 0.005*"experiences"', '0.016*"’" + 0.011*"Bolton" + 0.010*"needs" + 0.007*"plans" + 0.007*"well" + 0.006*"supported" + 0.005*"strong" + 0.005*"need" + 0.005*"11" + 0.005*"effective"', '0.023*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"plans" + 0.006*"Bolton" + 0.005*"need" + 0.005*"planning" + 0.005*"effective" + 0.005*"supported" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -304,42 +304,42 @@
     <t>839</t>
   </si>
   <si>
+    <t>E06000058</t>
+  </si>
+  <si>
+    <t>bournemouth, christchurch &amp; poole</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50177455</t>
+  </si>
+  <si>
+    <t>inadequate</t>
+  </si>
+  <si>
+    <t>06/12/2021</t>
+  </si>
+  <si>
+    <t>17/12/2021</t>
+  </si>
+  <si>
+    <t>11/02/22</t>
+  </si>
+  <si>
+    <t>0.153</t>
+  </si>
+  <si>
+    <t>['0.015*"’" + 0.005*"quality" + 0.005*"practice" + 0.005*"risk" + 0.005*"6" + 0.005*"impact" + 0.005*"right" + 0.004*"Poole" + 0.004*"2021" + 0.004*"progress"', '0.018*"’" + 0.005*"However" + 0.005*"quality" + 0.005*"Poole" + 0.005*"17" + 0.004*"practice" + 0.004*"progress" + 0.004*"number" + 0.004*"Bournemouth" + 0.004*"health"', '0.019*"’" + 0.007*"quality" + 0.007*"practice" + 0.006*"progress" + 0.005*"Christchurch" + 0.005*"Bournemouth" + 0.005*"well" + 0.005*"time" + 0.005*"impact" + 0.005*"risk"']</t>
+  </si>
+  <si>
+    <t>80436</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
     <t>SE</t>
   </si>
   <si>
-    <t>E06000058</t>
-  </si>
-  <si>
-    <t>bournemouth, christchurch &amp; poole</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50177455</t>
-  </si>
-  <si>
-    <t>inadequate</t>
-  </si>
-  <si>
-    <t>06/12/2021</t>
-  </si>
-  <si>
-    <t>17/12/2021</t>
-  </si>
-  <si>
-    <t>11/02/22</t>
-  </si>
-  <si>
-    <t>0.153</t>
-  </si>
-  <si>
-    <t>['0.013*"’" + 0.005*"quality" + 0.004*"17" + 0.004*"well" + 0.004*"Poole" + 0.004*"6" + 0.004*"right" + 0.004*"practice" + 0.003*"However" + 0.003*"2021"', '0.014*"’" + 0.006*"quality" + 0.005*"practice" + 0.005*"Christchurch" + 0.005*"Bournemouth" + 0.005*"17" + 0.005*"progress" + 0.005*"many" + 0.005*"6" + 0.004*"Poole"', '0.023*"’" + 0.007*"practice" + 0.006*"progress" + 0.006*"quality" + 0.006*"time" + 0.005*"impact" + 0.005*"risk" + 0.005*"number" + 0.004*"However" + 0.004*"Bournemouth"']</t>
-  </si>
-  <si>
-    <t>80436</t>
-  </si>
-  <si>
-    <t>867</t>
-  </si>
-  <si>
     <t>E06000036</t>
   </si>
   <si>
@@ -370,7 +370,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"risk" + 0.006*"Forest" + 0.006*"Bracknell" + 0.005*"leaders" + 0.005*"quality" + 0.005*"plans" + 0.005*"impact" + 0.005*"provided" + 0.005*"progress"', '0.017*"’" + 0.008*"needs" + 0.007*"effective" + 0.007*"Forest" + 0.006*"good" + 0.006*"quality" + 0.006*"provided" + 0.006*"positive" + 0.006*"Bracknell" + 0.005*"progress"', '0.013*"’" + 0.008*"Bracknell" + 0.007*"risk" + 0.006*"needs" + 0.006*"Forest" + 0.006*"good" + 0.006*"quality" + 0.006*"well" + 0.005*"plans" + 0.005*"progress"']</t>
+    <t>['0.015*"’" + 0.007*"Forest" + 0.007*"Bracknell" + 0.007*"need" + 0.007*"needs" + 0.006*"effective" + 0.006*"risk" + 0.006*"quality" + 0.005*"well" + 0.005*"leaders"', '0.012*"’" + 0.007*"good" + 0.006*"progress" + 0.005*"well" + 0.005*"risk" + 0.005*"quality" + 0.005*"Forest" + 0.005*"effective" + 0.005*"Bracknell" + 0.004*"need"', '0.020*"’" + 0.008*"needs" + 0.008*"Bracknell" + 0.007*"Forest" + 0.007*"risk" + 0.007*"quality" + 0.006*"plans" + 0.006*"provided" + 0.006*"good" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>846</t>
@@ -403,7 +403,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"leaders" + 0.005*"well" + 0.005*"need" + 0.005*"recording" + 0.004*"plans" + 0.004*"ensure" + 0.004*"improve"', '0.015*"’" + 0.010*"needs" + 0.007*"good" + 0.007*"recording" + 0.006*"well" + 0.005*"leaders" + 0.005*"need" + 0.005*"plans" + 0.005*"Hove" + 0.005*"arrangements"', '0.011*"’" + 0.009*"good" + 0.009*"needs" + 0.006*"recording" + 0.005*"plans" + 0.005*"well" + 0.005*"However" + 0.005*"leaders" + 0.004*"effectively" + 0.004*"need"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.007*"good" + 0.006*"recording" + 0.005*"well" + 0.005*"However" + 0.005*"leaders" + 0.005*"timely" + 0.005*"Brighton" + 0.005*"plans"', '0.012*"’" + 0.009*"good" + 0.008*"needs" + 0.006*"recording" + 0.006*"need" + 0.006*"leaders" + 0.005*"well" + 0.005*"Senior" + 0.005*"supported" + 0.004*"plans"', '0.013*"’" + 0.009*"needs" + 0.009*"good" + 0.006*"well" + 0.005*"leaders" + 0.005*"plans" + 0.004*"recording" + 0.004*"Hove" + 0.004*"quality" + 0.004*"strong"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -436,7 +436,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.009*"good" + 0.008*"well" + 0.007*"needs" + 0.007*"Bristol" + 0.005*"need" + 0.005*"plans" + 0.005*"16" + 0.005*"receive" + 0.005*"health"', '0.015*"’" + 0.008*"needs" + 0.008*"well" + 0.008*"Bristol" + 0.006*"health" + 0.005*"progress" + 0.005*"good" + 0.005*"leaders" + 0.004*"January" + 0.004*"plans"', '0.017*"’" + 0.010*"well" + 0.009*"good" + 0.008*"Bristol" + 0.007*"needs" + 0.005*"progress" + 0.005*"health" + 0.004*"need" + 0.004*"2023" + 0.004*"leaders"']</t>
+    <t>['0.018*"’" + 0.009*"well" + 0.008*"Bristol" + 0.007*"good" + 0.006*"needs" + 0.005*"health" + 0.005*"progress" + 0.005*"leaders" + 0.005*"16" + 0.005*"need"', '0.020*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"Bristol" + 0.006*"progress" + 0.005*"health" + 0.005*"need" + 0.005*"plans" + 0.005*"leaders"', '0.020*"’" + 0.008*"needs" + 0.008*"good" + 0.008*"well" + 0.007*"Bristol" + 0.005*"health" + 0.005*"16" + 0.005*"always" + 0.004*"progress" + 0.004*"27"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -463,7 +463,7 @@
     <t>0.159</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.005*"plans" + 0.005*"number" + 0.005*"Buckinghamshire" + 0.005*"17" + 0.004*"6" + 0.004*"2021" + 0.004*"many" + 0.004*"December" + 0.004*"well"', '0.012*"’" + 0.005*"plans" + 0.005*"number" + 0.004*"Buckinghamshire" + 0.004*"protection" + 0.004*"6" + 0.004*"practice" + 0.004*"17" + 0.003*"December" + 0.003*"2021"', '0.013*"’" + 0.005*"17" + 0.004*"many" + 0.004*"plans" + 0.004*"number" + 0.004*"needs" + 0.004*"protection" + 0.004*"practice" + 0.004*"Buckinghamshire" + 0.004*"teams"']</t>
+    <t>['0.013*"’" + 0.006*"plans" + 0.005*"6" + 0.004*"number" + 0.004*"protection" + 0.004*"Buckinghamshire" + 0.004*"many" + 0.004*"17" + 0.004*"December" + 0.004*"needs"', '0.014*"’" + 0.005*"number" + 0.004*"17" + 0.004*"many" + 0.004*"well" + 0.004*"2021" + 0.004*"protection" + 0.003*"needs" + 0.003*"impact" + 0.003*"December"', '0.013*"’" + 0.006*"Buckinghamshire" + 0.005*"plans" + 0.005*"17" + 0.005*"number" + 0.004*"2021" + 0.004*"practice" + 0.004*"6" + 0.004*"many" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -499,7 +499,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"2021" + 0.007*"practice" + 0.006*"team" + 0.006*"protection" + 0.006*"needs" + 0.005*"need" + 0.005*"quality" + 0.005*"Bury" + 0.005*"impact"', '0.014*"’" + 0.007*"needs" + 0.007*"protection" + 0.006*"2021" + 0.006*"team" + 0.005*"risk" + 0.005*"need" + 0.005*"practice" + 0.005*"impact" + 0.005*"progress"', '0.009*"’" + 0.007*"needs" + 0.006*"protection" + 0.006*"2021" + 0.005*"impact" + 0.005*"new" + 0.005*"5" + 0.005*"drift" + 0.005*"timely" + 0.004*"team"']</t>
+    <t>['0.012*"’" + 0.008*"2021" + 0.007*"needs" + 0.007*"protection" + 0.007*"team" + 0.006*"practice" + 0.006*"quality" + 0.005*"risk" + 0.005*"need" + 0.005*"impact"', '0.011*"’" + 0.006*"needs" + 0.006*"2021" + 0.005*"protection" + 0.005*"practice" + 0.005*"team" + 0.005*"Bury" + 0.005*"new" + 0.004*"need" + 0.004*"impact"', '0.010*"’" + 0.006*"protection" + 0.006*"needs" + 0.005*"impact" + 0.005*"need" + 0.005*"2021" + 0.004*"risk" + 0.004*"Bury" + 0.004*"practice" + 0.004*"team"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -529,7 +529,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"well" + 0.005*"Calderdale" + 0.005*"effective" + 0.004*"protection" + 0.004*"need" + 0.004*"inform" + 0.004*"‘" + 0.004*"good" + 0.003*"practice"', '0.009*"’" + 0.007*"well" + 0.005*"good" + 0.005*"practice" + 0.005*"effective" + 0.004*"protection" + 0.004*"Calderdale" + 0.004*"carers" + 0.004*"education" + 0.004*"leaders"', '0.019*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"good" + 0.006*"Calderdale" + 0.004*"‘" + 0.004*"carers" + 0.004*"protection" + 0.004*"education" + 0.004*"needs"']</t>
+    <t>['0.010*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"good" + 0.004*"Calderdale" + 0.004*"effective" + 0.004*"‘" + 0.004*"protection" + 0.003*"inform" + 0.003*"risk"', '0.017*"’" + 0.008*"well" + 0.005*"Calderdale" + 0.005*"protection" + 0.005*"good" + 0.005*"education" + 0.004*"practice" + 0.004*"need" + 0.004*"‘" + 0.004*"leaders"', '0.015*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"Calderdale" + 0.006*"good" + 0.005*"effective" + 0.005*"carers" + 0.004*"needs" + 0.004*"protection" + 0.004*"‘"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -562,7 +562,7 @@
     <t>0.1882</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"well" + 0.010*"good" + 0.009*"need" + 0.008*"plans" + 0.007*"needs" + 0.007*"teams" + 0.006*"impact" + 0.006*"However" + 0.006*"quality"', '0.013*"’" + 0.010*"well" + 0.008*"needs" + 0.008*"teams" + 0.008*"good" + 0.008*"impact" + 0.006*"plans" + 0.006*"need" + 0.006*"quality" + 0.005*"effective"', '0.014*"’" + 0.008*"good" + 0.007*"well" + 0.006*"needs" + 0.006*"need" + 0.006*"impact" + 0.005*"progress" + 0.005*"quality" + 0.005*"plans" + 0.005*"However"']</t>
+    <t>['0.016*"’" + 0.009*"well" + 0.009*"good" + 0.009*"impact" + 0.008*"needs" + 0.008*"need" + 0.007*"quality" + 0.006*"plans" + 0.006*"teams" + 0.005*"practice"', '0.013*"’" + 0.010*"well" + 0.008*"good" + 0.007*"teams" + 0.007*"needs" + 0.007*"plans" + 0.006*"need" + 0.006*"However" + 0.006*"effective" + 0.006*"progress"', '0.013*"’" + 0.009*"well" + 0.009*"good" + 0.008*"teams" + 0.007*"need" + 0.007*"needs" + 0.007*"plans" + 0.006*"impact" + 0.006*"However" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -592,7 +592,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"need" + 0.007*"good" + 0.006*"carers" + 0.006*"Central" + 0.006*"plans" + 0.006*"progress" + 0.005*"Bedfordshire"', '0.017*"’" + 0.011*"well" + 0.007*"needs" + 0.007*"carers" + 0.006*"need" + 0.006*"good" + 0.006*"progress" + 0.005*"number" + 0.005*"effective" + 0.005*"protection"', '0.012*"’" + 0.008*"well" + 0.007*"plans" + 0.005*"needs" + 0.005*"Bedfordshire" + 0.005*"need" + 0.004*"progress" + 0.004*"carers" + 0.004*"education" + 0.004*"supported"']</t>
+    <t>['0.014*"’" + 0.007*"well" + 0.007*"carers" + 0.006*"needs" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.004*"plans" + 0.004*"supported" + 0.004*"Bedfordshire"', '0.016*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"need" + 0.007*"plans" + 0.007*"good" + 0.006*"progress" + 0.006*"effective" + 0.006*"Central" + 0.005*"Bedfordshire"', '0.018*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"carers" + 0.005*"need" + 0.005*"good" + 0.005*"plans" + 0.004*"progress" + 0.004*"17" + 0.004*"Bedfordshire"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -628,7 +628,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"good" + 0.006*"practice" + 0.006*"always" + 0.005*"accommodation" + 0.005*"ensure" + 0.005*"carers" + 0.005*"However"', '0.012*"’" + 0.008*"needs" + 0.008*"plans" + 0.008*"good" + 0.008*"well" + 0.007*"practice" + 0.006*"risk" + 0.006*"supported" + 0.006*"need" + 0.006*"However"', '0.011*"’" + 0.008*"well" + 0.007*"good" + 0.006*"plans" + 0.005*"needs" + 0.005*"supported" + 0.005*"need" + 0.005*"effective" + 0.005*"practice" + 0.004*"timely"']</t>
+    <t>['0.012*"’" + 0.009*"well" + 0.007*"good" + 0.006*"always" + 0.006*"needs" + 0.006*"need" + 0.005*"practice" + 0.005*"plans" + 0.005*"However" + 0.005*"ensure"', '0.013*"’" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.007*"plans" + 0.007*"practice" + 0.006*"supported" + 0.006*"always" + 0.006*"carers" + 0.006*"need"', '0.014*"’" + 0.008*"needs" + 0.007*"good" + 0.007*"well" + 0.006*"plans" + 0.006*"practice" + 0.005*"quality" + 0.005*"effective" + 0.005*"ensure" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -664,7 +664,7 @@
     <t>0.1816</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"order" + 0.005*"always" + 0.004*"timely" + 0.004*"effective" + 0.004*"learning" + 0.004*"impact"', '0.021*"’" + 0.007*"needs" + 0.007*"well" + 0.004*"impact" + 0.004*"effective" + 0.004*"effectively" + 0.004*"progress" + 0.004*"plans" + 0.004*"early" + 0.004*"including"', '0.019*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"practice" + 0.005*"receive" + 0.004*"plans" + 0.004*"always" + 0.004*"effectively" + 0.004*"small" + 0.004*"learning"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"practice" + 0.005*"plans" + 0.004*"learning" + 0.004*"need" + 0.004*"early" + 0.004*"receive" + 0.004*"including"', '0.024*"’" + 0.007*"needs" + 0.007*"well" + 0.005*"effectively" + 0.005*"timely" + 0.005*"impact" + 0.004*"always" + 0.004*"order" + 0.004*"effective" + 0.004*"progress"', '0.021*"’" + 0.007*"well" + 0.005*"needs" + 0.004*"effective" + 0.004*"practice" + 0.004*"always" + 0.004*"order" + 0.004*"risk" + 0.004*"receive" + 0.004*"use"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -700,7 +700,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"plans" + 0.005*"Bradford" + 0.005*"need" + 0.005*"needs" + 0.005*"practice" + 0.004*"quality" + 0.004*"risk" + 0.004*"Borough" + 0.004*"City"', '0.018*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"impact" + 0.005*"risk" + 0.004*"need" + 0.004*"lack" + 0.004*"◼" + 0.004*"Bradford" + 0.004*"November"', '0.024*"’" + 0.006*"plans" + 0.006*"2" + 0.005*"2022" + 0.005*"Bradford" + 0.005*"quality" + 0.004*"21" + 0.004*"needs" + 0.004*"Council" + 0.004*"many"']</t>
+    <t>['0.017*"’" + 0.007*"plans" + 0.006*"Council" + 0.005*"risk" + 0.005*"needs" + 0.005*"2022" + 0.005*"City" + 0.005*"impact" + 0.004*"◼" + 0.004*"quality"', '0.015*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"2" + 0.004*"◼" + 0.004*"Bradford" + 0.004*"senior" + 0.004*"Borough" + 0.004*"quality" + 0.003*"risk"', '0.026*"’" + 0.006*"plans" + 0.006*"Bradford" + 0.005*"need" + 0.005*"2" + 0.005*"21" + 0.005*"practice" + 0.005*"impact" + 0.005*"quality" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -733,7 +733,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.013*"well" + 0.012*"’" + 0.010*"ensure" + 0.010*"needs" + 0.008*"effective" + 0.007*"progress" + 0.007*"clear" + 0.006*"good" + 0.005*"experiences" + 0.005*"plans"', '0.011*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"ensure" + 0.006*"effective" + 0.005*"good" + 0.004*"plans" + 0.004*"clear" + 0.004*"individual" + 0.004*"progress"', '0.014*"needs" + 0.012*"’" + 0.008*"well" + 0.008*"ensure" + 0.007*"clear" + 0.006*"plans" + 0.006*"effective" + 0.006*"progress" + 0.005*"good" + 0.005*"within"']</t>
+    <t>['0.015*"needs" + 0.013*"’" + 0.012*"well" + 0.010*"ensure" + 0.007*"plans" + 0.006*"effective" + 0.006*"progress" + 0.006*"clear" + 0.006*"within" + 0.005*"good"', '0.012*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"ensure" + 0.007*"effective" + 0.007*"clear" + 0.007*"progress" + 0.006*"good" + 0.006*"supported" + 0.005*"individual"', '0.009*"’" + 0.007*"needs" + 0.007*"ensure" + 0.007*"well" + 0.006*"effective" + 0.005*"clear" + 0.005*"good" + 0.005*"within" + 0.005*"clearly" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -769,7 +769,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"November" + 0.008*"leaders" + 0.007*"well" + 0.006*"Wakefield" + 0.006*"effective" + 0.006*"plans" + 0.005*"practice" + 0.005*"progress" + 0.005*"quality"', '0.020*"’" + 0.008*"quality" + 0.008*"well" + 0.008*"effective" + 0.008*"Wakefield" + 0.007*"good" + 0.007*"leaders" + 0.006*"practice" + 0.006*"plans" + 0.006*"needs"', '0.012*"’" + 0.009*"Wakefield" + 0.008*"quality" + 0.007*"good" + 0.007*"leaders" + 0.007*"well" + 0.007*"November" + 0.005*"plans" + 0.005*"progress" + 0.005*"effective"']</t>
+    <t>['0.014*"’" + 0.008*"quality" + 0.006*"effective" + 0.006*"good" + 0.006*"Wakefield" + 0.006*"leaders" + 0.005*"practice" + 0.005*"plans" + 0.005*"19" + 0.005*"well"', '0.018*"’" + 0.010*"well" + 0.009*"November" + 0.009*"Wakefield" + 0.009*"leaders" + 0.006*"effective" + 0.006*"receive" + 0.006*"quality" + 0.006*"needs" + 0.006*"plans"', '0.017*"’" + 0.008*"good" + 0.008*"quality" + 0.007*"Wakefield" + 0.007*"November" + 0.007*"effective" + 0.007*"plans" + 0.006*"well" + 0.006*"leaders" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -799,7 +799,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"quality" + 0.007*"needs" + 0.006*"March" + 0.006*"effective" + 0.006*"practice" + 0.006*"ensure" + 0.006*"York" + 0.006*"plans" + 0.005*"However"', '0.020*"’" + 0.007*"needs" + 0.007*"March" + 0.006*"effective" + 0.005*"quality" + 0.005*"ensure" + 0.005*"7" + 0.005*"However" + 0.005*"training" + 0.004*"well"', '0.010*"’" + 0.008*"March" + 0.008*"needs" + 0.005*"effective" + 0.005*"York" + 0.005*"However" + 0.005*"need" + 0.005*"well" + 0.005*"good" + 0.005*"quality"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.008*"March" + 0.007*"effective" + 0.006*"However" + 0.006*"quality" + 0.006*"supported" + 0.005*"York" + 0.005*"well" + 0.005*"plans"', '0.012*"’" + 0.008*"quality" + 0.005*"March" + 0.005*"ensure" + 0.005*"needs" + 0.005*"plans" + 0.005*"effective" + 0.004*"York" + 0.004*"However" + 0.004*"need"', '0.016*"’" + 0.008*"needs" + 0.007*"March" + 0.006*"quality" + 0.006*"effective" + 0.006*"well" + 0.006*"York" + 0.005*"ensure" + 0.005*"7" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -835,7 +835,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.016*"well" + 0.014*"’" + 0.011*"quality" + 0.010*"effective" + 0.010*"leaders" + 0.006*"plans" + 0.006*"good" + 0.006*"arrangements" + 0.005*"ensure" + 0.005*"timely"', '0.013*"well" + 0.011*"’" + 0.009*"quality" + 0.007*"effective" + 0.006*"leaders" + 0.006*"timely" + 0.006*"good" + 0.005*"plans" + 0.005*"high" + 0.004*"highly"', '0.014*"well" + 0.010*"’" + 0.008*"leaders" + 0.008*"effective" + 0.008*"quality" + 0.007*"arrangements" + 0.006*"timely" + 0.006*"plans" + 0.005*"highly" + 0.005*"good"']</t>
+    <t>['0.013*"well" + 0.011*"’" + 0.010*"effective" + 0.010*"quality" + 0.008*"leaders" + 0.005*"highly" + 0.005*"good" + 0.005*"arrangements" + 0.004*"plans" + 0.004*"timely"', '0.015*"well" + 0.012*"’" + 0.010*"quality" + 0.008*"leaders" + 0.007*"effective" + 0.005*"timely" + 0.005*"arrangements" + 0.005*"highly" + 0.005*"plans" + 0.005*"good"', '0.016*"well" + 0.013*"’" + 0.009*"leaders" + 0.009*"effective" + 0.008*"quality" + 0.007*"plans" + 0.007*"good" + 0.006*"timely" + 0.006*"arrangements" + 0.005*"Senior"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -865,7 +865,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"Scilly" + 0.008*"Isles" + 0.008*"information" + 0.007*"need" + 0.007*"protection" + 0.006*"practice" + 0.006*"place" + 0.005*"strategic" + 0.005*"needs"', '0.026*"’" + 0.015*"Isles" + 0.013*"Scilly" + 0.011*"practice" + 0.010*"information" + 0.008*"need" + 0.007*"needs" + 0.007*"quality" + 0.007*"protection" + 0.006*"risks"', '0.017*"’" + 0.012*"Scilly" + 0.009*"Isles" + 0.008*"need" + 0.007*"needs" + 0.007*"information" + 0.006*"place" + 0.006*"practice" + 0.006*"protection" + 0.005*"quality"']</t>
+    <t>['0.021*"’" + 0.012*"Scilly" + 0.011*"Isles" + 0.009*"practice" + 0.008*"information" + 0.008*"need" + 0.006*"quality" + 0.006*"place" + 0.006*"needs" + 0.005*"protection"', '0.021*"’" + 0.014*"Scilly" + 0.010*"Isles" + 0.009*"information" + 0.008*"protection" + 0.008*"needs" + 0.008*"practice" + 0.008*"need" + 0.007*"risks" + 0.006*"place"', '0.020*"’" + 0.015*"Isles" + 0.010*"Scilly" + 0.009*"information" + 0.008*"practice" + 0.008*"need" + 0.006*"protection" + 0.006*"needs" + 0.006*"quality" + 0.006*"13"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -901,7 +901,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"Coventry" + 0.007*"supported" + 0.006*"strong" + 0.006*"plans" + 0.005*"need" + 0.005*"family" + 0.004*"PAs"', '0.018*"’" + 0.009*"Coventry" + 0.008*"well" + 0.007*"needs" + 0.007*"supported" + 0.006*"family" + 0.006*"plans" + 0.006*"need" + 0.005*"use" + 0.005*"1"', '0.017*"’" + 0.006*"Coventry" + 0.006*"plans" + 0.006*"needs" + 0.006*"well" + 0.006*"strong" + 0.006*"supported" + 0.005*"family" + 0.004*"July" + 0.004*"health"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"Coventry" + 0.006*"needs" + 0.005*"strong" + 0.005*"family" + 0.004*"supported" + 0.004*"need" + 0.004*"PAs"', '0.017*"’" + 0.009*"well" + 0.009*"Coventry" + 0.007*"needs" + 0.007*"supported" + 0.006*"plans" + 0.005*"family" + 0.005*"need" + 0.005*"strong" + 0.005*"understand"', '0.022*"’" + 0.008*"Coventry" + 0.008*"needs" + 0.008*"supported" + 0.007*"family" + 0.006*"well" + 0.006*"strong" + 0.005*"need" + 0.005*"1" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -940,7 +940,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"October" + 0.007*"Darlington" + 0.006*"leaders" + 0.005*"practice" + 0.005*"family" + 0.005*"quality" + 0.005*"effective"', '0.012*"’" + 0.006*"Darlington" + 0.006*"leaders" + 0.006*"effective" + 0.005*"practice" + 0.005*"needs" + 0.005*"well" + 0.005*"October" + 0.005*"quality" + 0.005*"10"', '0.022*"’" + 0.009*"well" + 0.008*"leaders" + 0.008*"practice" + 0.007*"October" + 0.007*"needs" + 0.005*"supported" + 0.005*"Darlington" + 0.005*"education" + 0.005*"quality"']</t>
+    <t>['0.022*"’" + 0.007*"well" + 0.007*"October" + 0.007*"leaders" + 0.007*"Darlington" + 0.006*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"effective" + 0.005*"education"', '0.016*"’" + 0.008*"practice" + 0.007*"well" + 0.007*"needs" + 0.006*"October" + 0.006*"leaders" + 0.005*"Darlington" + 0.005*"10" + 0.005*"plans" + 0.004*"family"', '0.018*"’" + 0.009*"well" + 0.006*"leaders" + 0.006*"needs" + 0.005*"October" + 0.005*"supported" + 0.005*"effective" + 0.005*"practice" + 0.005*"quality" + 0.005*"Darlington"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -979,7 +979,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"needs" + 0.007*"Derby" + 0.006*"receive" + 0.006*"quality" + 0.006*"appropriate" + 0.005*"leaders" + 0.005*"progress" + 0.005*"need" + 0.005*"plans"', '0.022*"’" + 0.011*"needs" + 0.006*"Derby" + 0.006*"plans" + 0.005*"leaders" + 0.005*"receive" + 0.005*"quality" + 0.005*"progress" + 0.005*"good" + 0.004*"well"', '0.022*"’" + 0.009*"needs" + 0.008*"Derby" + 0.007*"quality" + 0.006*"well" + 0.006*"receive" + 0.006*"progress" + 0.006*"need" + 0.006*"plans" + 0.006*"good"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.007*"Derby" + 0.006*"receive" + 0.006*"leaders" + 0.005*"well" + 0.005*"progress" + 0.005*"need" + 0.005*"appropriate" + 0.005*"21"', '0.026*"’" + 0.009*"needs" + 0.008*"quality" + 0.007*"Derby" + 0.006*"plans" + 0.006*"receive" + 0.006*"appropriate" + 0.005*"progress" + 0.005*"good" + 0.005*"need"', '0.020*"’" + 0.009*"needs" + 0.007*"Derby" + 0.006*"plans" + 0.006*"quality" + 0.006*"progress" + 0.005*"leaders" + 0.005*"receive" + 0.005*"good" + 0.005*"need"']</t>
   </si>
   <si>
     <t>830</t>
@@ -1006,7 +1006,7 @@
     <t>0.1913</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.005*"well" + 0.005*"Derbyshire" + 0.005*"10" + 0.004*"education" + 0.004*"effective" + 0.004*"positive" + 0.004*"plans" + 0.004*"health" + 0.004*"number"', '0.015*"’" + 0.008*"well" + 0.006*"Derbyshire" + 0.005*"positive" + 0.005*"health" + 0.005*"need" + 0.005*"good" + 0.005*"effective" + 0.005*"leaders" + 0.004*"practice"', '0.015*"’" + 0.009*"well" + 0.008*"Derbyshire" + 0.006*"plans" + 0.006*"needs" + 0.005*"10" + 0.004*"good" + 0.004*"November" + 0.004*"leaders" + 0.004*"number"']</t>
+    <t>['0.012*"’" + 0.007*"well" + 0.007*"positive" + 0.006*"Derbyshire" + 0.005*"needs" + 0.005*"10" + 0.005*"need" + 0.005*"health" + 0.005*"number" + 0.005*"education"', '0.014*"’" + 0.007*"Derbyshire" + 0.007*"well" + 0.006*"plans" + 0.005*"leaders" + 0.005*"effective" + 0.005*"health" + 0.004*"2023" + 0.004*"progress" + 0.004*"risk"', '0.016*"’" + 0.010*"well" + 0.006*"Derbyshire" + 0.005*"effective" + 0.005*"need" + 0.004*"needs" + 0.004*"30" + 0.004*"education" + 0.004*"plans" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1036,7 +1036,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"leaders" + 0.006*"well" + 0.005*"risk" + 0.005*"health" + 0.004*"risks" + 0.004*"early" + 0.004*"time" + 0.004*"progress" + 0.004*"practice"', '0.011*"’" + 0.007*"well" + 0.005*"progress" + 0.005*"health" + 0.005*"Devon" + 0.005*"risk" + 0.004*"leaders" + 0.004*"living" + 0.004*"case" + 0.004*"areas"', '0.008*"’" + 0.004*"protection" + 0.004*"well" + 0.004*"leaders" + 0.004*"health" + 0.004*"risk" + 0.003*"areas" + 0.003*"case" + 0.003*"need" + 0.003*"risks"']</t>
+    <t>['0.008*"’" + 0.007*"well" + 0.005*"progress" + 0.005*"leaders" + 0.004*"risk" + 0.004*"case" + 0.004*"risks" + 0.004*"protection" + 0.004*"needs" + 0.004*"living"', '0.012*"’" + 0.006*"health" + 0.006*"well" + 0.006*"leaders" + 0.005*"risk" + 0.004*"Devon" + 0.004*"plans" + 0.004*"living" + 0.004*"quality" + 0.004*"time"', '0.007*"’" + 0.005*"well" + 0.004*"risk" + 0.004*"progress" + 0.004*"protection" + 0.004*"health" + 0.004*"Devon" + 0.004*"time" + 0.003*"practice" + 0.003*"early"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1069,7 +1069,7 @@
     <t>0.1512</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.008*"well" + 0.007*"Doncaster" + 0.006*"records" + 0.006*"plans" + 0.005*"leaders" + 0.005*"quality" + 0.005*"protection" + 0.004*"information" + 0.004*"14"', '0.019*"’" + 0.006*"progress" + 0.006*"well" + 0.005*"Doncaster" + 0.005*"many" + 0.005*"oversight" + 0.004*"information" + 0.004*"quality" + 0.004*"February" + 0.004*"arrangements"', '0.019*"’" + 0.005*"well" + 0.005*"Doncaster" + 0.005*"progress" + 0.005*"many" + 0.005*"leaders" + 0.005*"oversight" + 0.004*"arrangements" + 0.004*"25" + 0.004*"quality"']</t>
+    <t>['0.021*"’" + 0.007*"Doncaster" + 0.006*"well" + 0.006*"records" + 0.006*"arrangements" + 0.005*"quality" + 0.005*"protection" + 0.005*"progress" + 0.005*"oversight" + 0.005*"leaders"', '0.015*"’" + 0.006*"well" + 0.006*"many" + 0.005*"leaders" + 0.005*"Doncaster" + 0.004*"progress" + 0.004*"information" + 0.004*"2022" + 0.004*"oversight" + 0.004*"plans"', '0.023*"’" + 0.007*"well" + 0.005*"many" + 0.005*"progress" + 0.004*"information" + 0.004*"plans" + 0.004*"effective" + 0.004*"Doncaster" + 0.004*"quality" + 0.004*"council"']</t>
   </si>
   <si>
     <t>838</t>
@@ -1096,7 +1096,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"Dorset" + 0.006*"good" + 0.005*"arrangements" + 0.005*"well" + 0.004*"8" + 0.004*"needs" + 0.004*"27" + 0.004*"leaders" + 0.004*"home"', '0.014*"’" + 0.008*"Dorset" + 0.006*"good" + 0.006*"well" + 0.005*"change" + 0.005*"October" + 0.005*"needs" + 0.004*"including" + 0.004*"arrangements" + 0.004*"impact"', '0.014*"’" + 0.008*"Dorset" + 0.006*"well" + 0.006*"good" + 0.004*"needs" + 0.004*"quality" + 0.004*"2021" + 0.004*"8" + 0.004*"impact" + 0.004*"arrangements"']</t>
+    <t>['0.010*"’" + 0.008*"Dorset" + 0.006*"well" + 0.005*"good" + 0.005*"needs" + 0.004*"8" + 0.004*"need" + 0.004*"protection" + 0.004*"27" + 0.004*"2021"', '0.018*"’" + 0.007*"Dorset" + 0.007*"good" + 0.006*"well" + 0.005*"arrangements" + 0.005*"needs" + 0.005*"including" + 0.004*"quality" + 0.004*"impact" + 0.004*"October"', '0.012*"’" + 0.007*"Dorset" + 0.005*"good" + 0.005*"well" + 0.004*"arrangements" + 0.004*"October" + 0.004*"8" + 0.004*"change" + 0.004*"quality" + 0.003*"leaders"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1123,7 +1123,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.014*"needs" + 0.010*"Dudley" + 0.006*"well" + 0.006*"plans" + 0.006*"always" + 0.005*"quality" + 0.005*"arrangements" + 0.005*"ensure" + 0.005*"management"', '0.017*"’" + 0.009*"needs" + 0.007*"Dudley" + 0.006*"well" + 0.006*"arrangements" + 0.006*"always" + 0.005*"plans" + 0.005*"oversight" + 0.005*"However" + 0.005*"October"', '0.011*"’" + 0.009*"needs" + 0.006*"Dudley" + 0.004*"enough" + 0.004*"well" + 0.004*"ensure" + 0.004*"arrangements" + 0.004*"11" + 0.003*"However" + 0.003*"plans"']</t>
+    <t>['0.013*"needs" + 0.012*"’" + 0.006*"Dudley" + 0.006*"ensure" + 0.005*"plans" + 0.005*"always" + 0.004*"arrangements" + 0.004*"oversight" + 0.004*"31" + 0.004*"October"', '0.016*"’" + 0.010*"needs" + 0.009*"Dudley" + 0.006*"well" + 0.005*"arrangements" + 0.005*"always" + 0.005*"quality" + 0.005*"oversight" + 0.005*"plans" + 0.005*"However"', '0.017*"’" + 0.010*"needs" + 0.007*"Dudley" + 0.006*"well" + 0.005*"plans" + 0.005*"always" + 0.005*"arrangements" + 0.004*"quality" + 0.004*"receive" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1159,7 +1159,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"needs" + 0.007*"Durham" + 0.006*"well" + 0.006*"plans" + 0.006*"May" + 0.006*"ensure" + 0.004*"20" + 0.004*"number" + 0.004*"meetings"', '0.014*"’" + 0.010*"needs" + 0.008*"May" + 0.008*"Durham" + 0.007*"plans" + 0.006*"practice" + 0.006*"well" + 0.006*"risks" + 0.005*"ensure" + 0.005*"family"', '0.015*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"May" + 0.006*"ensure" + 0.006*"Durham" + 0.006*"plans" + 0.005*"practice" + 0.004*"leaders" + 0.004*"appropriate"']</t>
+    <t>['0.015*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"Durham" + 0.005*"ensure" + 0.005*"progress" + 0.005*"May" + 0.004*"family" + 0.004*"effective"', '0.016*"’" + 0.011*"needs" + 0.009*"May" + 0.007*"Durham" + 0.007*"well" + 0.006*"ensure" + 0.006*"plans" + 0.005*"practice" + 0.005*"risks" + 0.004*"making"', '0.012*"’" + 0.011*"needs" + 0.007*"Durham" + 0.007*"plans" + 0.006*"May" + 0.006*"well" + 0.006*"ensure" + 0.006*"practice" + 0.005*"protection" + 0.005*"10"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1195,7 +1195,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"progress" + 0.006*"East" + 0.005*"plans" + 0.004*"10" + 0.004*"education" + 0.004*"experiences" + 0.004*"partners"', '0.019*"’" + 0.011*"needs" + 0.009*"plans" + 0.007*"well" + 0.007*"progress" + 0.006*"East" + 0.006*"Riding" + 0.005*"information" + 0.005*"10" + 0.005*"partners"', '0.016*"’" + 0.009*"plans" + 0.009*"well" + 0.008*"Riding" + 0.008*"needs" + 0.007*"progress" + 0.006*"East" + 0.005*"practice" + 0.005*"30" + 0.005*"training"']</t>
+    <t>['0.020*"’" + 0.010*"needs" + 0.009*"plans" + 0.009*"well" + 0.007*"progress" + 0.007*"Riding" + 0.006*"East" + 0.005*"partners" + 0.005*"education" + 0.005*"10"', '0.015*"’" + 0.007*"East" + 0.007*"plans" + 0.007*"needs" + 0.007*"progress" + 0.007*"Riding" + 0.006*"well" + 0.005*"practice" + 0.005*"good" + 0.005*"place"', '0.012*"’" + 0.011*"needs" + 0.009*"plans" + 0.009*"well" + 0.006*"progress" + 0.005*"10" + 0.005*"East" + 0.005*"2023" + 0.005*"partners" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1222,7 +1222,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"Sussex" + 0.005*"need" + 0.005*"plans" + 0.004*"senior" + 0.004*"East" + 0.004*"‘"', '0.008*"well" + 0.008*"’" + 0.007*"needs" + 0.006*"practice" + 0.005*"need" + 0.004*"East" + 0.004*"carers" + 0.004*"plans" + 0.004*"senior" + 0.004*"receive"', '0.011*"’" + 0.006*"practice" + 0.006*"well" + 0.005*"needs" + 0.004*"‘" + 0.004*"need" + 0.004*"Sussex" + 0.004*"effective" + 0.003*"senior" + 0.003*"East"']</t>
+    <t>['0.010*"’" + 0.008*"practice" + 0.007*"well" + 0.006*"needs" + 0.005*"Sussex" + 0.005*"need" + 0.004*"East" + 0.004*"receive" + 0.004*"‘" + 0.003*"supported"', '0.011*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"practice" + 0.005*"need" + 0.005*"Sussex" + 0.004*"senior" + 0.004*"plans" + 0.004*"specialist" + 0.004*"‘"', '0.013*"’" + 0.010*"well" + 0.006*"needs" + 0.005*"need" + 0.004*"practice" + 0.004*"plans" + 0.004*"senior" + 0.004*"‘" + 0.004*"East" + 0.004*"specialist"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1258,7 +1258,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"progress" + 0.005*"understand" + 0.005*"experiences" + 0.005*"parents" + 0.005*"plans" + 0.004*"quality" + 0.004*"Essex"', '0.022*"’" + 0.007*"progress" + 0.007*"plans" + 0.007*"well" + 0.006*"needs" + 0.006*"family" + 0.005*"Essex" + 0.005*"risk" + 0.005*"leaders" + 0.005*"understand"', '0.017*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"‘" + 0.005*"progress" + 0.005*"family" + 0.005*"experiences" + 0.005*"supported" + 0.004*"helped"']</t>
+    <t>['0.017*"’" + 0.007*"well" + 0.006*"progress" + 0.006*"plans" + 0.005*"family" + 0.005*"needs" + 0.005*"parents" + 0.005*"leaders" + 0.005*"access" + 0.004*"‘"', '0.019*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"progress" + 0.005*"helped" + 0.005*"understand" + 0.005*"risk" + 0.005*"Essex" + 0.005*"family" + 0.005*"experiences"', '0.017*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"progress" + 0.006*"needs" + 0.005*"experiences" + 0.005*"family" + 0.005*"Essex" + 0.005*"need" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1294,7 +1294,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"effective" + 0.007*"quality" + 0.007*"good" + 0.006*"needs" + 0.006*"practice" + 0.005*"well" + 0.005*"progress" + 0.005*"timely" + 0.005*"need"', '0.016*"’" + 0.007*"effective" + 0.007*"practice" + 0.007*"good" + 0.007*"well" + 0.006*"quality" + 0.006*"needs" + 0.005*"timely" + 0.005*"early" + 0.005*"improve"', '0.012*"effective" + 0.010*"’" + 0.007*"good" + 0.007*"practice" + 0.006*"timely" + 0.005*"needs" + 0.005*"quality" + 0.005*"well" + 0.005*"plans" + 0.004*"protection"']</t>
+    <t>['0.007*"effective" + 0.006*"’" + 0.006*"needs" + 0.006*"good" + 0.006*"practice" + 0.005*"quality" + 0.005*"well" + 0.004*"focus" + 0.004*"improve" + 0.004*"early"', '0.011*"’" + 0.007*"practice" + 0.007*"good" + 0.006*"quality" + 0.006*"effective" + 0.006*"needs" + 0.005*"need" + 0.005*"well" + 0.005*"plans" + 0.005*"timely"', '0.019*"’" + 0.010*"effective" + 0.007*"good" + 0.006*"timely" + 0.006*"quality" + 0.006*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"early" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>916</t>
@@ -1324,7 +1324,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"needs" + 0.008*"2022" + 0.008*"plans" + 0.007*"February" + 0.007*"well" + 0.006*"progress" + 0.006*"Gloucestershire" + 0.005*"timely" + 0.005*"good"', '0.013*"’" + 0.007*"needs" + 0.005*"February" + 0.004*"well" + 0.004*"appropriate" + 0.004*"2022" + 0.004*"plans" + 0.004*"protection" + 0.004*"need" + 0.004*"progress"', '0.016*"’" + 0.008*"needs" + 0.007*"2022" + 0.007*"February" + 0.006*"plans" + 0.005*"experienced" + 0.005*"appropriate" + 0.005*"18" + 0.005*"Gloucestershire" + 0.005*"protection"']</t>
+    <t>['0.011*"’" + 0.009*"needs" + 0.007*"February" + 0.005*"plans" + 0.005*"2022" + 0.005*"good" + 0.005*"progress" + 0.004*"experienced" + 0.004*"well" + 0.004*"effective"', '0.011*"’" + 0.007*"2022" + 0.005*"February" + 0.005*"plans" + 0.005*"well" + 0.004*"family" + 0.004*"needs" + 0.004*"Gloucestershire" + 0.004*"leaders" + 0.004*"experienced"', '0.023*"’" + 0.010*"needs" + 0.008*"plans" + 0.008*"2022" + 0.007*"February" + 0.006*"well" + 0.006*"progress" + 0.006*"Gloucestershire" + 0.005*"protection" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1351,7 +1351,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"plans" + 0.007*"practice" + 0.006*"planning" + 0.006*"effective" + 0.006*"always" + 0.006*"risk" + 0.006*"need"', '0.010*"well" + 0.010*"practice" + 0.009*"’" + 0.009*"needs" + 0.008*"risk" + 0.007*"plans" + 0.006*"need" + 0.006*"good" + 0.006*"always" + 0.006*"planning"', '0.014*"’" + 0.010*"well" + 0.008*"practice" + 0.007*"need" + 0.007*"needs" + 0.007*"plans" + 0.007*"good" + 0.006*"planning" + 0.006*"effective" + 0.006*"oversight"']</t>
+    <t>['0.011*"’" + 0.009*"practice" + 0.009*"well" + 0.007*"plans" + 0.006*"needs" + 0.006*"effective" + 0.006*"response" + 0.006*"planning" + 0.006*"risk" + 0.006*"means"', '0.011*"well" + 0.009*"’" + 0.008*"always" + 0.007*"needs" + 0.007*"good" + 0.006*"effective" + 0.006*"need" + 0.006*"plans" + 0.006*"planning" + 0.006*"quality"', '0.014*"’" + 0.010*"well" + 0.010*"needs" + 0.009*"practice" + 0.009*"plans" + 0.008*"risk" + 0.007*"need" + 0.006*"good" + 0.006*"planning" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1378,7 +1378,7 @@
     <t>0.187</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"needs" + 0.007*"plans" + 0.005*"well" + 0.005*"quality" + 0.005*"highly" + 0.004*"leaders" + 0.004*"strong" + 0.004*"improve" + 0.004*"need"', '0.016*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"home" + 0.005*"Hampshire" + 0.004*"quality" + 0.004*"strong" + 0.004*"leaders" + 0.003*"‘"', '0.017*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"quality" + 0.004*"leaders" + 0.004*"strong" + 0.004*"home" + 0.004*"carers" + 0.004*"improve"']</t>
+    <t>['0.013*"’" + 0.006*"needs" + 0.005*"quality" + 0.005*"plans" + 0.004*"well" + 0.004*"leaders" + 0.004*"strong" + 0.004*"home" + 0.003*"progress" + 0.003*"health"', '0.019*"’" + 0.010*"needs" + 0.006*"well" + 0.006*"plans" + 0.004*"Hampshire" + 0.004*"home" + 0.004*"improve" + 0.004*"quality" + 0.004*"strong" + 0.004*"highly"', '0.022*"’" + 0.006*"well" + 0.006*"plans" + 0.006*"needs" + 0.005*"leaders" + 0.004*"strong" + 0.004*"quality" + 0.004*"need" + 0.004*"highly" + 0.004*"home"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1411,7 +1411,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"strong" + 0.004*"early" + 0.004*"education" + 0.004*"good" + 0.004*"need" + 0.004*"impact" + 0.004*"practice"', '0.015*"’" + 0.010*"well" + 0.007*"quality" + 0.006*"good" + 0.005*"plans" + 0.005*"education" + 0.004*"practice" + 0.004*"strong" + 0.004*"experiences" + 0.004*"impact"', '0.015*"’" + 0.008*"well" + 0.006*"progress" + 0.006*"strong" + 0.005*"quality" + 0.005*"good" + 0.005*"early" + 0.004*"plans" + 0.004*"impact" + 0.004*"improve"']</t>
+    <t>['0.018*"’" + 0.009*"well" + 0.005*"quality" + 0.005*"good" + 0.004*"education" + 0.004*"strong" + 0.004*"practice" + 0.004*"early" + 0.004*"team" + 0.004*"effective"', '0.015*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"strong" + 0.004*"needs" + 0.004*"plans" + 0.004*"‘" + 0.004*"good" + 0.004*"health" + 0.004*"practice"', '0.015*"’" + 0.009*"well" + 0.007*"quality" + 0.006*"strong" + 0.005*"progress" + 0.005*"good" + 0.005*"early" + 0.005*"impact" + 0.005*"plans" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>884</t>
@@ -1438,7 +1438,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.006*"practice" + 0.006*"lack" + 0.006*"needs" + 0.006*"Herefordshire" + 0.006*"impact" + 0.004*"carers" + 0.004*"July" + 0.004*"risk" + 0.004*"18"', '0.015*"’" + 0.005*"many" + 0.005*"quality" + 0.005*"lack" + 0.005*"practice" + 0.004*"Herefordshire" + 0.004*"impact" + 0.004*"need" + 0.004*"plans" + 0.004*"progress"', '0.009*"’" + 0.005*"Herefordshire" + 0.005*"many" + 0.005*"practice" + 0.005*"needs" + 0.004*"plans" + 0.004*"including" + 0.004*"identified" + 0.004*"18" + 0.004*"progress"']</t>
+    <t>['0.019*"’" + 0.007*"practice" + 0.005*"impact" + 0.005*"Herefordshire" + 0.004*"plans" + 0.004*"many" + 0.004*"lack" + 0.004*"quality" + 0.004*"18" + 0.004*"2022"', '0.019*"’" + 0.006*"Herefordshire" + 0.005*"lack" + 0.005*"needs" + 0.005*"practice" + 0.005*"many" + 0.004*"across" + 0.004*"impact" + 0.004*"need" + 0.004*"progress"', '0.012*"’" + 0.005*"lack" + 0.005*"needs" + 0.005*"Herefordshire" + 0.004*"impact" + 0.004*"carers" + 0.004*"practice" + 0.004*"many" + 0.004*"quality" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>919</t>
@@ -1465,7 +1465,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.005*"Hertfordshire" + 0.005*"well" + 0.005*"needs" + 0.003*"leaders" + 0.003*"receive" + 0.003*"working" + 0.003*"‘" + 0.003*"supported" + 0.003*"Leaders"', '0.024*"’" + 0.008*"Hertfordshire" + 0.007*"needs" + 0.007*"well" + 0.006*"receive" + 0.006*"plans" + 0.005*"positive" + 0.005*"need" + 0.005*"2023" + 0.004*"risk"', '0.026*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"27" + 0.005*"Hertfordshire" + 0.005*"receive" + 0.004*"family" + 0.004*"23" + 0.004*"leaders" + 0.004*"effective"']</t>
+    <t>['0.027*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Hertfordshire" + 0.006*"receive" + 0.005*"plans" + 0.005*"risk" + 0.005*"effective" + 0.004*"need" + 0.004*"23"', '0.019*"’" + 0.006*"Hertfordshire" + 0.006*"needs" + 0.005*"well" + 0.004*"receive" + 0.004*"leaders" + 0.004*"training" + 0.004*"working" + 0.004*"27" + 0.004*"‘"', '0.021*"’" + 0.006*"Hertfordshire" + 0.005*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"receive" + 0.004*"leaders" + 0.004*"positive" + 0.004*"Leaders" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1492,7 +1492,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"leaders" + 0.005*"Senior" + 0.005*"Isle" + 0.005*"plans" + 0.005*"well" + 0.005*"Wight" + 0.005*"needs" + 0.005*"good" + 0.005*"improve"', '0.014*"’" + 0.008*"leaders" + 0.005*"needs" + 0.005*"practice" + 0.005*"supported" + 0.004*"Wight" + 0.004*"2023" + 0.004*"progress" + 0.004*"protection" + 0.004*"good"', '0.020*"’" + 0.008*"leaders" + 0.007*"well" + 0.006*"needs" + 0.006*"3" + 0.006*"PAs" + 0.006*"Isle" + 0.006*"progress" + 0.005*"Senior" + 0.005*"information"']</t>
+    <t>['0.020*"’" + 0.010*"leaders" + 0.007*"well" + 0.006*"supported" + 0.005*"needs" + 0.005*"Isle" + 0.005*"Senior" + 0.005*"progress" + 0.005*"good" + 0.005*"practice"', '0.019*"’" + 0.008*"leaders" + 0.006*"needs" + 0.006*"plans" + 0.006*"3" + 0.006*"well" + 0.005*"Wight" + 0.005*"Isle" + 0.005*"progress" + 0.005*"information"', '0.012*"’" + 0.006*"leaders" + 0.004*"supported" + 0.004*"needs" + 0.004*"Wight" + 0.004*"progress" + 0.004*"3" + 0.004*"Senior" + 0.004*"improve" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1513,7 +1513,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"Kent" + 0.006*"supported" + 0.005*"well" + 0.005*"progress" + 0.005*"needs" + 0.005*"Council" + 0.004*"practice" + 0.004*"9" + 0.003*"plans"', '0.012*"’" + 0.009*"Kent" + 0.007*"needs" + 0.006*"Council" + 0.006*"County" + 0.006*"well" + 0.005*"supported" + 0.005*"practice" + 0.004*"ensure" + 0.004*"progress"', '0.021*"’" + 0.012*"Kent" + 0.009*"needs" + 0.007*"well" + 0.007*"Council" + 0.006*"County" + 0.005*"supported" + 0.005*"progress" + 0.005*"leaders" + 0.004*"impact"']</t>
+    <t>['0.018*"’" + 0.013*"Kent" + 0.007*"needs" + 0.006*"Council" + 0.006*"well" + 0.006*"supported" + 0.005*"practice" + 0.005*"County" + 0.004*"progress" + 0.004*"appropriate"', '0.019*"’" + 0.010*"Kent" + 0.006*"needs" + 0.006*"Council" + 0.005*"well" + 0.005*"supported" + 0.005*"leaders" + 0.005*"County" + 0.004*"progress" + 0.004*"impact"', '0.017*"’" + 0.008*"needs" + 0.007*"Kent" + 0.007*"well" + 0.006*"supported" + 0.005*"County" + 0.005*"Council" + 0.005*"progress" + 0.004*"including" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1540,7 +1540,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"planning" + 0.008*"number" + 0.007*"need" + 0.007*"Hull" + 0.007*"protection" + 0.006*"well" + 0.006*"risks" + 0.006*"practice" + 0.005*"small"', '0.012*"’" + 0.006*"planning" + 0.006*"practice" + 0.006*"management" + 0.005*"small" + 0.005*"number" + 0.005*"protection" + 0.005*"November" + 0.005*"well" + 0.004*"Hull"', '0.017*"’" + 0.007*"number" + 0.006*"practice" + 0.006*"well" + 0.005*"planning" + 0.005*"protection" + 0.005*"oversight" + 0.005*"risks" + 0.005*"management" + 0.005*"progress"']</t>
+    <t>['0.014*"’" + 0.006*"management" + 0.006*"planning" + 0.006*"number" + 0.006*"small" + 0.006*"well" + 0.005*"practice" + 0.005*"teams" + 0.005*"right" + 0.005*"need"', '0.018*"’" + 0.007*"protection" + 0.006*"number" + 0.006*"planning" + 0.006*"risks" + 0.006*"practice" + 0.006*"Hull" + 0.006*"agency" + 0.005*"well" + 0.005*"management"', '0.015*"’" + 0.008*"number" + 0.007*"planning" + 0.007*"need" + 0.006*"well" + 0.006*"protection" + 0.006*"practice" + 0.006*"Hull" + 0.005*"risks" + 0.005*"25"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1570,7 +1570,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"good" + 0.006*"practice" + 0.006*"quality" + 0.006*"plans" + 0.005*"permanence" + 0.005*"Senior" + 0.005*"training" + 0.005*"well" + 0.004*"needs"', '0.012*"’" + 0.006*"quality" + 0.006*"good" + 0.006*"practice" + 0.005*"permanence" + 0.005*"plans" + 0.005*"protection" + 0.005*"needs" + 0.005*"senior" + 0.004*"need"', '0.012*"’" + 0.007*"quality" + 0.007*"well" + 0.006*"practice" + 0.005*"protection" + 0.005*"training" + 0.005*"Senior" + 0.005*"needs" + 0.004*"good" + 0.004*"plans"']</t>
+    <t>['0.010*"’" + 0.006*"good" + 0.006*"quality" + 0.006*"Senior" + 0.006*"protection" + 0.006*"plans" + 0.005*"needs" + 0.005*"permanence" + 0.005*"practice" + 0.005*"training"', '0.009*"’" + 0.006*"quality" + 0.006*"practice" + 0.005*"plans" + 0.005*"permanence" + 0.005*"well" + 0.005*"good" + 0.005*"training" + 0.004*"last" + 0.004*"senior"', '0.015*"’" + 0.007*"practice" + 0.007*"quality" + 0.006*"good" + 0.006*"well" + 0.005*"needs" + 0.005*"need" + 0.005*"senior" + 0.005*"permanence" + 0.005*"Senior"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1609,7 +1609,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"progress" + 0.007*"quality" + 0.005*"plans" + 0.005*"needs" + 0.004*"abuse" + 0.004*"Knowsley" + 0.004*"place" + 0.004*"October" + 0.004*"good"', '0.019*"’" + 0.010*"progress" + 0.008*"needs" + 0.008*"plans" + 0.007*"Knowsley" + 0.007*"quality" + 0.007*"2021" + 0.006*"good" + 0.006*"22" + 0.006*"experiences"', '0.012*"’" + 0.008*"plans" + 0.008*"needs" + 0.007*"quality" + 0.006*"progress" + 0.006*"Knowsley" + 0.005*"need" + 0.005*"2021" + 0.005*"education" + 0.005*"11"']</t>
+    <t>['0.010*"’" + 0.007*"progress" + 0.005*"Knowsley" + 0.005*"quality" + 0.005*"needs" + 0.005*"11" + 0.004*"2021" + 0.004*"experiences" + 0.004*"October" + 0.004*"plans"', '0.013*"’" + 0.008*"progress" + 0.007*"plans" + 0.007*"quality" + 0.007*"2021" + 0.007*"needs" + 0.005*"need" + 0.005*"experiences" + 0.005*"Knowsley" + 0.005*"October"', '0.018*"’" + 0.009*"progress" + 0.008*"plans" + 0.008*"needs" + 0.007*"quality" + 0.007*"Knowsley" + 0.005*"good" + 0.005*"abuse" + 0.005*"22" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1639,7 +1639,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"need" + 0.005*"supported" + 0.005*"plans" + 0.005*"Lancashire" + 0.005*"oversight" + 0.005*"live" + 0.004*"practice"', '0.017*"’" + 0.008*"well" + 0.008*"need" + 0.007*"Lancashire" + 0.006*"needs" + 0.006*"9" + 0.005*"supported" + 0.005*"practice" + 0.005*"plans" + 0.005*"28"', '0.012*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"need" + 0.006*"Lancashire" + 0.005*"positive" + 0.005*"parents" + 0.005*"plans" + 0.005*"homes" + 0.005*"health"']</t>
+    <t>['0.015*"’" + 0.009*"well" + 0.007*"need" + 0.007*"needs" + 0.005*"supported" + 0.005*"Lancashire" + 0.005*"positive" + 0.005*"health" + 0.004*"plans" + 0.004*"homes"', '0.018*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"need" + 0.007*"Lancashire" + 0.006*"supported" + 0.006*"practice" + 0.006*"positive" + 0.005*"parents" + 0.005*"health"', '0.015*"’" + 0.007*"need" + 0.007*"well" + 0.006*"plans" + 0.006*"Lancashire" + 0.006*"needs" + 0.005*"9" + 0.005*"live" + 0.005*"homes" + 0.005*"number"']</t>
   </si>
   <si>
     <t>383</t>
@@ -1663,7 +1663,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"needs" + 0.006*"Leeds" + 0.005*"well" + 0.005*"21" + 0.004*"practice" + 0.004*"plans" + 0.004*"including" + 0.004*"March" + 0.004*"2022"', '0.017*"’" + 0.009*"needs" + 0.008*"Leeds" + 0.007*"well" + 0.005*"ensure" + 0.005*"risk" + 0.005*"4" + 0.005*"protection" + 0.005*"practice" + 0.005*"making"', '0.016*"’" + 0.006*"risk" + 0.006*"Leeds" + 0.005*"well" + 0.004*"practice" + 0.004*"plans" + 0.004*"protection" + 0.004*"benefit" + 0.004*"supported" + 0.004*"2022"']</t>
+    <t>['0.013*"’" + 0.007*"needs" + 0.006*"Leeds" + 0.005*"well" + 0.005*"risk" + 0.005*"protection" + 0.005*"4" + 0.004*"2022" + 0.004*"practice" + 0.004*"21"', '0.017*"’" + 0.007*"Leeds" + 0.007*"needs" + 0.006*"ensure" + 0.005*"risk" + 0.005*"practice" + 0.005*"well" + 0.004*"plans" + 0.004*"21" + 0.004*"benefit"', '0.017*"’" + 0.008*"Leeds" + 0.008*"needs" + 0.007*"well" + 0.005*"risk" + 0.004*"plans" + 0.004*"including" + 0.004*"practice" + 0.004*"2022" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1696,7 +1696,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.011*"well" + 0.009*"Leicester" + 0.009*"2021" + 0.008*"needs" + 0.008*"good" + 0.007*"ensure" + 0.006*"number" + 0.005*"1" + 0.005*"October"', '0.017*"’" + 0.009*"2021" + 0.007*"well" + 0.007*"needs" + 0.007*"Leicester" + 0.006*"including" + 0.005*"20" + 0.005*"1" + 0.005*"number" + 0.005*"good"', '0.018*"’" + 0.007*"well" + 0.007*"2021" + 0.007*"Leicester" + 0.005*"20" + 0.005*"including" + 0.004*"1" + 0.004*"high" + 0.004*"number" + 0.004*"good"']</t>
+    <t>['0.019*"’" + 0.009*"Leicester" + 0.009*"well" + 0.006*"2021" + 0.006*"needs" + 0.005*"1" + 0.005*"number" + 0.005*"Council" + 0.005*"ensure" + 0.005*"October"', '0.019*"’" + 0.011*"2021" + 0.008*"well" + 0.007*"good" + 0.006*"Leicester" + 0.006*"needs" + 0.006*"ensure" + 0.006*"number" + 0.005*"1" + 0.005*"including"', '0.022*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"Leicester" + 0.007*"2021" + 0.007*"good" + 0.006*"ensure" + 0.006*"20" + 0.005*"number" + 0.005*"circumstances"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1729,7 +1729,7 @@
     <t>0.1666</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"good" + 0.007*"well" + 0.006*"practice" + 0.006*"quality" + 0.006*"impact" + 0.006*"need" + 0.006*"needs" + 0.005*"effective" + 0.005*"risk"', '0.013*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"effective" + 0.006*"quality" + 0.006*"good" + 0.004*"risk" + 0.004*"education" + 0.004*"practice" + 0.004*"impact"', '0.010*"’" + 0.009*"good" + 0.009*"well" + 0.007*"effective" + 0.006*"needs" + 0.005*"quality" + 0.005*"practice" + 0.004*"education" + 0.004*"need" + 0.004*"progress"']</t>
+    <t>['0.010*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.006*"good" + 0.005*"practice" + 0.005*"education" + 0.005*"risk" + 0.004*"impact" + 0.004*"quality"', '0.010*"’" + 0.007*"well" + 0.006*"good" + 0.005*"quality" + 0.005*"needs" + 0.004*"leaders" + 0.004*"need" + 0.004*"effective" + 0.003*"progress" + 0.003*"practice"', '0.013*"’" + 0.009*"good" + 0.009*"well" + 0.008*"effective" + 0.007*"needs" + 0.007*"quality" + 0.007*"practice" + 0.006*"impact" + 0.005*"need" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1759,7 +1759,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.009*"Lincolnshire" + 0.008*"needs" + 0.006*"well" + 0.005*"family" + 0.005*"need" + 0.005*"plans" + 0.005*"progress" + 0.004*"24" + 0.004*"April"', '0.017*"’" + 0.005*"well" + 0.005*"Lincolnshire" + 0.005*"plans" + 0.004*"needs" + 0.004*"24" + 0.004*"2023" + 0.003*"28" + 0.003*"effective" + 0.003*"family"', '0.020*"’" + 0.007*"Lincolnshire" + 0.006*"needs" + 0.005*"progress" + 0.005*"plans" + 0.005*"well" + 0.004*"28" + 0.004*"family" + 0.004*"24" + 0.003*"effective"']</t>
+    <t>['0.022*"’" + 0.008*"Lincolnshire" + 0.007*"needs" + 0.007*"well" + 0.005*"plans" + 0.004*"need" + 0.004*"2023" + 0.004*"progress" + 0.004*"family" + 0.004*"education"', '0.023*"’" + 0.008*"Lincolnshire" + 0.006*"needs" + 0.006*"well" + 0.005*"progress" + 0.005*"plans" + 0.005*"24" + 0.004*"family" + 0.004*"28" + 0.004*"number"', '0.018*"’" + 0.006*"needs" + 0.005*"Lincolnshire" + 0.004*"family" + 0.004*"progress" + 0.004*"well" + 0.004*"offer" + 0.004*"need" + 0.004*"effective" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1789,7 +1789,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"always" + 0.006*"quality" + 0.006*"Liverpool" + 0.005*"24" + 0.005*"need" + 0.005*"timely" + 0.005*"protection"', '0.019*"’" + 0.008*"needs" + 0.007*"need" + 0.007*"always" + 0.006*"Liverpool" + 0.006*"practice" + 0.005*"met" + 0.005*"quality" + 0.005*"protection" + 0.005*"PAs"', '0.019*"’" + 0.007*"practice" + 0.007*"need" + 0.006*"needs" + 0.006*"always" + 0.006*"Liverpool" + 0.005*"quality" + 0.005*"protection" + 0.005*"planning" + 0.005*"well"']</t>
+    <t>['0.022*"’" + 0.008*"practice" + 0.008*"needs" + 0.007*"need" + 0.007*"Liverpool" + 0.006*"always" + 0.005*"quality" + 0.005*"protection" + 0.005*"harm" + 0.005*"13"', '0.020*"’" + 0.006*"need" + 0.006*"needs" + 0.006*"always" + 0.005*"practice" + 0.005*"quality" + 0.005*"PAs" + 0.004*"timely" + 0.004*"13" + 0.004*"met"', '0.013*"’" + 0.006*"needs" + 0.006*"always" + 0.006*"Liverpool" + 0.006*"quality" + 0.005*"practice" + 0.005*"protection" + 0.005*"need" + 0.004*"24" + 0.004*"response"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -1822,7 +1822,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.009*"needs" + 0.007*"good" + 0.006*"carers" + 0.006*"plans" + 0.005*"practice" + 0.005*"well" + 0.005*"information" + 0.005*"Borough" + 0.005*"progress"', '0.020*"’" + 0.007*"needs" + 0.006*"plans" + 0.005*"good" + 0.005*"well" + 0.004*"information" + 0.004*"carers" + 0.004*"Barking" + 0.004*"progress" + 0.004*"10"', '0.019*"’" + 0.007*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"practice" + 0.005*"ensure" + 0.004*"2023" + 0.004*"progress" + 0.004*"21" + 0.004*"carers"']</t>
+    <t>['0.023*"’" + 0.007*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"information" + 0.004*"good" + 0.004*"London" + 0.004*"practice" + 0.004*"planning" + 0.004*"carers"', '0.025*"’" + 0.010*"needs" + 0.007*"good" + 0.006*"carers" + 0.006*"progress" + 0.006*"plans" + 0.006*"practice" + 0.005*"well" + 0.005*"information" + 0.005*"timely"', '0.014*"’" + 0.006*"needs" + 0.005*"plans" + 0.004*"well" + 0.004*"planning" + 0.004*"ensure" + 0.004*"carers" + 0.004*"10" + 0.004*"practice" + 0.004*"Dagenham"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -1858,7 +1858,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.012*"needs" + 0.010*"good" + 0.008*"well" + 0.008*"need" + 0.006*"ensure" + 0.006*"plans" + 0.006*"progress" + 0.005*"clear" + 0.005*"risk"', '0.012*"’" + 0.010*"well" + 0.010*"good" + 0.008*"needs" + 0.007*"progress" + 0.006*"plans" + 0.006*"need" + 0.006*"quality" + 0.006*"ensure" + 0.006*"clear"', '0.010*"’" + 0.009*"need" + 0.008*"needs" + 0.007*"good" + 0.006*"well" + 0.005*"progress" + 0.005*"clear" + 0.005*"plans" + 0.005*"effective" + 0.005*"risk"']</t>
+    <t>['0.015*"’" + 0.010*"good" + 0.009*"needs" + 0.009*"well" + 0.007*"need" + 0.006*"effective" + 0.006*"progress" + 0.006*"ensure" + 0.006*"plans" + 0.005*"clear"', '0.013*"’" + 0.009*"needs" + 0.007*"good" + 0.007*"clear" + 0.006*"well" + 0.006*"need" + 0.005*"risk" + 0.005*"ensure" + 0.005*"progress" + 0.005*"plans"', '0.014*"’" + 0.010*"needs" + 0.010*"good" + 0.010*"well" + 0.009*"need" + 0.007*"progress" + 0.007*"plans" + 0.006*"quality" + 0.005*"clear" + 0.005*"carers"']</t>
   </si>
   <si>
     <t>303</t>
@@ -1876,7 +1876,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"need" + 0.005*"Bexley" + 0.005*"plans" + 0.004*"clear" + 0.004*"10" + 0.004*"practice"', '0.026*"’" + 0.007*"well" + 0.006*"need" + 0.006*"needs" + 0.006*"effective" + 0.005*"Bexley" + 0.005*"plans" + 0.005*"6" + 0.004*"make" + 0.004*"oversight"', '0.015*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"effective" + 0.005*"10" + 0.005*"need" + 0.004*"including" + 0.004*"Bexley" + 0.004*"6"']</t>
+    <t>['0.024*"’" + 0.008*"needs" + 0.008*"well" + 0.006*"need" + 0.006*"plans" + 0.005*"effective" + 0.005*"Bexley" + 0.005*"10" + 0.004*"make" + 0.004*"practice"', '0.019*"’" + 0.006*"effective" + 0.005*"needs" + 0.005*"Bexley" + 0.005*"well" + 0.005*"6" + 0.005*"February" + 0.005*"plans" + 0.004*"need" + 0.004*"including"', '0.014*"’" + 0.006*"well" + 0.005*"need" + 0.005*"Bexley" + 0.005*"needs" + 0.005*"plans" + 0.004*"clear" + 0.004*"including" + 0.004*"10" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -1903,7 +1903,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.007*"progress" + 0.006*"leaders" + 0.006*"number" + 0.006*"plans" + 0.005*"quality" + 0.005*"good" + 0.005*"practice" + 0.005*"timely"', '0.015*"’" + 0.010*"leaders" + 0.007*"plans" + 0.007*"good" + 0.006*"well" + 0.006*"quality" + 0.006*"number" + 0.006*"progress" + 0.005*"senior" + 0.005*"practice"', '0.019*"’" + 0.010*"well" + 0.007*"plans" + 0.006*"Brent" + 0.006*"progress" + 0.005*"leaders" + 0.005*"senior" + 0.005*"information" + 0.005*"good" + 0.005*"family"']</t>
+    <t>['0.014*"’" + 0.008*"well" + 0.006*"leaders" + 0.006*"progress" + 0.006*"practice" + 0.006*"good" + 0.005*"quality" + 0.005*"However" + 0.005*"plans" + 0.005*"number"', '0.023*"’" + 0.010*"well" + 0.008*"plans" + 0.008*"leaders" + 0.007*"good" + 0.007*"senior" + 0.006*"Brent" + 0.006*"progress" + 0.006*"quality" + 0.006*"number"', '0.012*"’" + 0.007*"leaders" + 0.007*"well" + 0.006*"progress" + 0.005*"needs" + 0.005*"number" + 0.005*"Brent" + 0.005*"plans" + 0.005*"20" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -1936,7 +1936,7 @@
     <t>0.1941</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"Bromley" + 0.008*"needs" + 0.007*"well" + 0.005*"plans" + 0.005*"practice" + 0.004*"education" + 0.004*"health" + 0.004*"progress" + 0.004*"leaders"', '0.017*"’" + 0.009*"Bromley" + 0.007*"well" + 0.006*"needs" + 0.006*"leaders" + 0.005*"plans" + 0.004*"access" + 0.004*"13" + 0.004*"practice" + 0.004*"17"', '0.025*"’" + 0.009*"Bromley" + 0.006*"plans" + 0.006*"well" + 0.006*"practice" + 0.006*"needs" + 0.005*"leaders" + 0.005*"health" + 0.005*"education" + 0.004*"17"']</t>
+    <t>['0.022*"’" + 0.011*"Bromley" + 0.009*"well" + 0.006*"plans" + 0.006*"needs" + 0.006*"practice" + 0.005*"leaders" + 0.005*"health" + 0.004*"17" + 0.004*"quality"', '0.018*"’" + 0.008*"Bromley" + 0.007*"needs" + 0.006*"plans" + 0.005*"health" + 0.005*"education" + 0.005*"leaders" + 0.005*"YPAs" + 0.004*"practice" + 0.004*"well"', '0.019*"’" + 0.008*"Bromley" + 0.007*"needs" + 0.006*"well" + 0.005*"leaders" + 0.004*"practice" + 0.004*"progress" + 0.004*"education" + 0.004*"November" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -1966,7 +1966,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"Camden" + 0.007*"practice" + 0.006*"leaders" + 0.006*"needs" + 0.005*"well" + 0.005*"appropriate" + 0.005*"response" + 0.005*"25" + 0.004*"protection"', '0.010*"’" + 0.007*"Camden" + 0.007*"leaders" + 0.005*"response" + 0.005*"practice" + 0.005*"protection" + 0.005*"well" + 0.004*"progress" + 0.004*"2022" + 0.004*"needs"', '0.006*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"leaders" + 0.005*"protection" + 0.005*"Camden" + 0.004*"meetings" + 0.004*"needs" + 0.004*"29" + 0.004*"appropriate"']</t>
+    <t>['0.010*"’" + 0.007*"Camden" + 0.006*"well" + 0.005*"practice" + 0.005*"25" + 0.005*"needs" + 0.005*"leaders" + 0.005*"29" + 0.004*"April" + 0.004*"response"', '0.010*"’" + 0.006*"leaders" + 0.006*"Camden" + 0.006*"practice" + 0.005*"protection" + 0.005*"response" + 0.004*"progress" + 0.004*"well" + 0.004*"needs" + 0.004*"2022"', '0.012*"’" + 0.007*"Camden" + 0.007*"leaders" + 0.006*"practice" + 0.006*"protection" + 0.005*"well" + 0.005*"needs" + 0.005*"appropriate" + 0.004*"response" + 0.004*"29"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -1993,7 +1993,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"needs" + 0.006*"Senior" + 0.005*"well" + 0.005*"ensure" + 0.004*"Croydon" + 0.004*"quality" + 0.004*"need" + 0.004*"education" + 0.004*"effective"', '0.015*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"need" + 0.006*"Croydon" + 0.006*"health" + 0.006*"plans" + 0.005*"effective" + 0.005*"risk" + 0.005*"quality"', '0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"good" + 0.006*"ensure" + 0.006*"quality" + 0.006*"Senior" + 0.006*"Croydon" + 0.005*"education" + 0.005*"improved"']</t>
+    <t>['0.011*"’" + 0.010*"well" + 0.006*"needs" + 0.005*"Senior" + 0.005*"Croydon" + 0.005*"effective" + 0.005*"quality" + 0.005*"need" + 0.005*"ensure" + 0.004*"plans"', '0.010*"’" + 0.006*"good" + 0.006*"needs" + 0.005*"health" + 0.005*"Senior" + 0.005*"Croydon" + 0.005*"quality" + 0.005*"well" + 0.004*"need" + 0.004*"arrangements"', '0.013*"’" + 0.009*"needs" + 0.006*"ensure" + 0.006*"well" + 0.006*"need" + 0.006*"Croydon" + 0.006*"quality" + 0.005*"health" + 0.005*"However" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2026,7 +2026,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.006*"’" + 0.005*"quality" + 0.005*"needs" + 0.005*"good" + 0.004*"risk" + 0.004*"oversight" + 0.004*"progress" + 0.003*"family" + 0.003*"experiences" + 0.003*"provide"', '0.013*"’" + 0.012*"quality" + 0.008*"needs" + 0.007*"good" + 0.006*"plans" + 0.005*"risk" + 0.005*"progress" + 0.005*"experiences" + 0.005*"well" + 0.004*"need"', '0.010*"’" + 0.009*"quality" + 0.007*"needs" + 0.005*"good" + 0.005*"management" + 0.005*"progress" + 0.005*"Ealing" + 0.005*"plans" + 0.004*"oversight" + 0.004*"family"']</t>
+    <t>['0.009*"’" + 0.007*"quality" + 0.005*"good" + 0.005*"risk" + 0.005*"needs" + 0.004*"plans" + 0.004*"need" + 0.004*"appropriately" + 0.004*"management" + 0.004*"family"', '0.011*"’" + 0.011*"quality" + 0.008*"needs" + 0.006*"progress" + 0.006*"plans" + 0.006*"good" + 0.006*"well" + 0.005*"risk" + 0.005*"experiences" + 0.005*"oversight"', '0.011*"’" + 0.010*"quality" + 0.007*"needs" + 0.007*"good" + 0.005*"Ealing" + 0.005*"management" + 0.004*"always" + 0.004*"leaders" + 0.004*"experiences" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>308</t>
@@ -2053,7 +2053,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"needs" + 0.008*"ensure" + 0.008*"good" + 0.008*"effective" + 0.007*"Enfield" + 0.007*"practice" + 0.007*"clear" + 0.006*"timely" + 0.006*"quality"', '0.015*"’" + 0.006*"ensure" + 0.006*"needs" + 0.006*"good" + 0.005*"Enfield" + 0.005*"timely" + 0.005*"practice" + 0.005*"arrangements" + 0.005*"clear" + 0.005*"leaders"', '0.016*"’" + 0.010*"needs" + 0.009*"practice" + 0.008*"ensure" + 0.007*"good" + 0.007*"effective" + 0.007*"quality" + 0.006*"clear" + 0.006*"leaders" + 0.006*"improve"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.007*"ensure" + 0.007*"good" + 0.007*"practice" + 0.007*"effective" + 0.007*"clear" + 0.006*"leaders" + 0.006*"Enfield" + 0.005*"improve"', '0.011*"’" + 0.010*"needs" + 0.008*"ensure" + 0.007*"good" + 0.007*"quality" + 0.007*"effective" + 0.007*"practice" + 0.006*"Enfield" + 0.006*"clear" + 0.006*"progress"', '0.017*"’" + 0.009*"practice" + 0.007*"Enfield" + 0.007*"good" + 0.006*"needs" + 0.006*"quality" + 0.006*"ensure" + 0.006*"timely" + 0.006*"effective" + 0.006*"clear"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2083,7 +2083,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.011*"well" + 0.008*"plans" + 0.007*"needs" + 0.007*"need" + 0.006*"good" + 0.006*"ensure" + 0.006*"progress" + 0.006*"range" + 0.005*"risk"', '0.013*"’" + 0.008*"well" + 0.008*"good" + 0.008*"plans" + 0.008*"needs" + 0.007*"range" + 0.005*"need" + 0.005*"risk" + 0.005*"quality" + 0.004*"risks"', '0.012*"’" + 0.010*"well" + 0.009*"good" + 0.008*"needs" + 0.007*"plans" + 0.006*"need" + 0.005*"timely" + 0.005*"progress" + 0.005*"consistently" + 0.005*"quality"']</t>
+    <t>['0.011*"’" + 0.009*"well" + 0.008*"good" + 0.007*"plans" + 0.006*"need" + 0.006*"needs" + 0.005*"range" + 0.005*"progress" + 0.004*"timely" + 0.004*"Senior"', '0.014*"’" + 0.010*"well" + 0.008*"good" + 0.008*"plans" + 0.008*"needs" + 0.006*"range" + 0.006*"need" + 0.006*"ensure" + 0.005*"progress" + 0.005*"information"', '0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"good" + 0.006*"plans" + 0.006*"need" + 0.006*"range" + 0.005*"quality" + 0.005*"progress" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2119,7 +2119,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"practice" + 0.006*"within" + 0.006*"quality" + 0.006*"planning" + 0.005*"needs" + 0.005*"including" + 0.005*"number" + 0.005*"effective" + 0.005*"carers"', '0.011*"practice" + 0.009*"’" + 0.006*"within" + 0.006*"leaders" + 0.006*"planning" + 0.006*"plans" + 0.005*"number" + 0.005*"protection" + 0.005*"effective" + 0.005*"needs"', '0.013*"’" + 0.009*"practice" + 0.008*"number" + 0.007*"effective" + 0.006*"planning" + 0.006*"needs" + 0.006*"need" + 0.006*"plans" + 0.006*"including" + 0.006*"However"']</t>
+    <t>['0.013*"’" + 0.011*"practice" + 0.007*"number" + 0.007*"effective" + 0.006*"planning" + 0.006*"needs" + 0.006*"quality" + 0.006*"plans" + 0.006*"However" + 0.005*"within"', '0.012*"’" + 0.009*"practice" + 0.006*"number" + 0.006*"including" + 0.005*"plans" + 0.005*"within" + 0.005*"needs" + 0.005*"However" + 0.005*"effective" + 0.005*"small"', '0.014*"’" + 0.008*"practice" + 0.007*"planning" + 0.006*"within" + 0.006*"need" + 0.006*"small" + 0.005*"including" + 0.005*"quality" + 0.005*"number" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2149,7 +2149,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"effective" + 0.006*"needs" + 0.006*"well" + 0.006*"appropriate" + 0.006*"leaders" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"good" + 0.005*"risk"', '0.012*"’" + 0.009*"needs" + 0.008*"effective" + 0.008*"well" + 0.007*"appropriate" + 0.006*"ensure" + 0.006*"good" + 0.005*"family" + 0.005*"shared" + 0.005*"leaders"', '0.013*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"effective" + 0.007*"good" + 0.006*"arrangements" + 0.006*"ensure" + 0.005*"appropriate" + 0.005*"improve" + 0.005*"timely"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.008*"effective" + 0.008*"well" + 0.006*"good" + 0.006*"shared" + 0.006*"plans" + 0.005*"appropriate" + 0.005*"ensure" + 0.005*"leaders"', '0.012*"’" + 0.008*"effective" + 0.008*"well" + 0.007*"needs" + 0.007*"appropriate" + 0.006*"good" + 0.006*"arrangements" + 0.005*"ensure" + 0.005*"risk" + 0.005*"improve"', '0.010*"’" + 0.007*"needs" + 0.007*"effective" + 0.007*"well" + 0.005*"good" + 0.005*"arrangements" + 0.005*"appropriate" + 0.005*"ensure" + 0.004*"leaders" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2173,7 +2173,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"Haringey" + 0.010*"needs" + 0.009*"plans" + 0.007*"well" + 0.006*"good" + 0.005*"need" + 0.005*"education" + 0.004*"24" + 0.004*"progress"', '0.008*"’" + 0.006*"needs" + 0.005*"good" + 0.005*"Haringey" + 0.005*"plans" + 0.004*"well" + 0.004*"progress" + 0.003*"education" + 0.003*"risk" + 0.003*"need"', '0.014*"’" + 0.008*"Haringey" + 0.006*"need" + 0.005*"progress" + 0.005*"plans" + 0.005*"needs" + 0.005*"well" + 0.005*"risk" + 0.004*"impact" + 0.004*"supported"']</t>
+    <t>['0.010*"’" + 0.007*"Haringey" + 0.007*"needs" + 0.006*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.004*"supported" + 0.004*"education"', '0.020*"’" + 0.009*"needs" + 0.008*"Haringey" + 0.008*"plans" + 0.006*"good" + 0.005*"need" + 0.005*"well" + 0.005*"24" + 0.004*"education" + 0.004*"progress"', '0.015*"’" + 0.009*"Haringey" + 0.007*"plans" + 0.007*"well" + 0.006*"needs" + 0.005*"good" + 0.005*"progress" + 0.004*"need" + 0.004*"risk" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2203,7 +2203,7 @@
     <t>0.2023</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.014*"good" + 0.011*"well" + 0.007*"needs" + 0.007*"plans" + 0.006*"early" + 0.006*"practice" + 0.006*"impact" + 0.005*"need" + 0.005*"school"', '0.009*"’" + 0.008*"good" + 0.007*"needs" + 0.005*"need" + 0.005*"experiences" + 0.005*"impact" + 0.005*"practice" + 0.005*"well" + 0.004*"protection" + 0.004*"team"', '0.009*"needs" + 0.009*"’" + 0.008*"good" + 0.008*"well" + 0.006*"protection" + 0.005*"impact" + 0.004*"experiences" + 0.004*"planning" + 0.004*"need" + 0.004*"plans"']</t>
+    <t>['0.015*"’" + 0.011*"good" + 0.009*"needs" + 0.008*"well" + 0.006*"plans" + 0.006*"impact" + 0.005*"protection" + 0.005*"practice" + 0.005*"school" + 0.005*"need"', '0.010*"good" + 0.009*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"experiences" + 0.006*"early" + 0.005*"impact" + 0.005*"plans" + 0.005*"practice" + 0.005*"need"', '0.010*"good" + 0.010*"’" + 0.009*"well" + 0.006*"needs" + 0.005*"need" + 0.004*"plans" + 0.004*"impact" + 0.004*"practice" + 0.004*"early" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2233,7 +2233,7 @@
     <t>0.2113</t>
   </si>
   <si>
-    <t>['0.009*"needs" + 0.009*"’" + 0.008*"need" + 0.007*"quality" + 0.007*"plans" + 0.006*"good" + 0.006*"practice" + 0.006*"meetings" + 0.005*"well" + 0.005*"clear"', '0.010*"’" + 0.008*"good" + 0.007*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"quality" + 0.006*"need" + 0.005*"plans" + 0.005*"appropriate" + 0.005*"consistently"', '0.012*"’" + 0.009*"good" + 0.008*"quality" + 0.007*"need" + 0.007*"well" + 0.006*"needs" + 0.006*"meetings" + 0.006*"plans" + 0.005*"consistently" + 0.005*"progress"']</t>
+    <t>['0.012*"’" + 0.009*"good" + 0.008*"quality" + 0.006*"needs" + 0.006*"meetings" + 0.006*"well" + 0.006*"plans" + 0.006*"need" + 0.005*"practice" + 0.004*"consistently"', '0.010*"’" + 0.007*"good" + 0.006*"need" + 0.006*"needs" + 0.006*"consistently" + 0.005*"well" + 0.005*"plans" + 0.005*"practice" + 0.005*"quality" + 0.005*"meetings"', '0.009*"needs" + 0.009*"need" + 0.009*"’" + 0.007*"well" + 0.007*"quality" + 0.007*"plans" + 0.007*"good" + 0.006*"practice" + 0.005*"meetings" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>312</t>
@@ -2266,7 +2266,7 @@
     <t>0.1861</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"plans" + 0.007*"well" + 0.007*"Hillingdon" + 0.007*"needs" + 0.004*"team" + 0.004*"need" + 0.004*"PAs" + 0.004*"2023" + 0.003*"appropriate"', '0.016*"’" + 0.010*"needs" + 0.007*"plans" + 0.007*"Hillingdon" + 0.006*"well" + 0.005*"experiences" + 0.004*"October" + 0.004*"team" + 0.004*"6" + 0.004*"family"', '0.019*"’" + 0.011*"needs" + 0.009*"Hillingdon" + 0.008*"well" + 0.008*"plans" + 0.005*"need" + 0.005*"team" + 0.005*"2" + 0.005*"6" + 0.004*"leaders"']</t>
+    <t>['0.023*"’" + 0.011*"needs" + 0.009*"Hillingdon" + 0.009*"well" + 0.007*"plans" + 0.005*"team" + 0.005*"6" + 0.005*"need" + 0.004*"practice" + 0.004*"leaders"', '0.011*"’" + 0.008*"Hillingdon" + 0.007*"plans" + 0.006*"needs" + 0.006*"well" + 0.004*"2" + 0.004*"team" + 0.004*"October" + 0.003*"improve" + 0.003*"2023"', '0.015*"’" + 0.009*"plans" + 0.009*"needs" + 0.007*"well" + 0.005*"Hillingdon" + 0.005*"need" + 0.005*"2" + 0.004*"carers" + 0.004*"team" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2296,7 +2296,7 @@
     <t>0.1948</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.008*"Hounslow" + 0.007*"well" + 0.007*"effective" + 0.006*"plans" + 0.006*"timely" + 0.004*"2023" + 0.004*"16" + 0.004*"leaders"', '0.026*"’" + 0.011*"well" + 0.010*"needs" + 0.008*"effective" + 0.006*"timely" + 0.006*"Hounslow" + 0.005*"progress" + 0.005*"plans" + 0.005*"20" + 0.005*"experiences"', '0.013*"’" + 0.012*"needs" + 0.011*"well" + 0.007*"Hounslow" + 0.007*"effective" + 0.006*"timely" + 0.005*"plans" + 0.005*"oversight" + 0.005*"strong" + 0.004*"16"']</t>
+    <t>['0.019*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"effective" + 0.007*"Hounslow" + 0.005*"plans" + 0.005*"oversight" + 0.005*"timely" + 0.004*"20" + 0.004*"training"', '0.019*"’" + 0.012*"needs" + 0.009*"well" + 0.007*"effective" + 0.007*"Hounslow" + 0.006*"timely" + 0.005*"plans" + 0.004*"strong" + 0.004*"progress" + 0.004*"training"', '0.021*"’" + 0.012*"well" + 0.011*"needs" + 0.007*"timely" + 0.007*"effective" + 0.007*"Hounslow" + 0.006*"plans" + 0.005*"experiences" + 0.005*"16" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2326,7 +2326,7 @@
     <t>0.1842</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"needs" + 0.009*"well" + 0.007*"highly" + 0.007*"plans" + 0.006*"school" + 0.005*"quality" + 0.005*"good" + 0.005*"Islington" + 0.005*"effective"', '0.010*"’" + 0.009*"needs" + 0.008*"well" + 0.006*"good" + 0.005*"plans" + 0.005*"effective" + 0.005*"highly" + 0.004*"Islington" + 0.004*"quality" + 0.003*"lives"', '0.013*"’" + 0.012*"well" + 0.012*"needs" + 0.007*"plans" + 0.007*"leaders" + 0.006*"quality" + 0.006*"good" + 0.006*"effective" + 0.005*"highly" + 0.005*"practice"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"highly" + 0.007*"plans" + 0.006*"leaders" + 0.006*"quality" + 0.005*"Islington" + 0.005*"practice" + 0.005*"good"', '0.012*"’" + 0.010*"needs" + 0.006*"well" + 0.005*"quality" + 0.005*"good" + 0.005*"plans" + 0.005*"leaders" + 0.004*"effective" + 0.004*"carers" + 0.004*"Islington"', '0.013*"well" + 0.011*"’" + 0.011*"needs" + 0.007*"good" + 0.007*"plans" + 0.006*"effective" + 0.006*"highly" + 0.005*"risk" + 0.005*"quality" + 0.005*"Islington"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2359,7 +2359,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"good" + 0.006*"Lambeth" + 0.006*"need" + 0.005*"progress" + 0.005*"arrangements" + 0.004*"carers"', '0.014*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"Lambeth" + 0.007*"impact" + 0.006*"plans" + 0.006*"progress" + 0.005*"4" + 0.005*"need"', '0.014*"’" + 0.009*"needs" + 0.008*"plans" + 0.008*"well" + 0.006*"good" + 0.006*"need" + 0.006*"progress" + 0.006*"Lambeth" + 0.005*"impact" + 0.005*"leaders"']</t>
+    <t>['0.019*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"good" + 0.008*"plans" + 0.006*"progress" + 0.006*"impact" + 0.006*"Lambeth" + 0.005*"leaders" + 0.005*"November"', '0.013*"’" + 0.011*"needs" + 0.007*"well" + 0.007*"plans" + 0.007*"Lambeth" + 0.006*"good" + 0.006*"need" + 0.005*"progress" + 0.005*"impact" + 0.005*"leaders"', '0.012*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"plans" + 0.007*"Lambeth" + 0.006*"need" + 0.005*"good" + 0.005*"Leaders" + 0.004*"progress" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2389,7 +2389,7 @@
     <t>0.1538</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"well" + 0.006*"However" + 0.006*"quality" + 0.005*"needs" + 0.005*"information" + 0.005*"appropriate" + 0.004*"early" + 0.004*"timely" + 0.004*"education"', '0.009*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"timely" + 0.006*"However" + 0.006*"impact" + 0.005*"appropriate" + 0.004*"needs" + 0.004*"oversight" + 0.004*"progress"', '0.008*"’" + 0.006*"However" + 0.006*"timely" + 0.005*"appropriate" + 0.005*"quality" + 0.005*"impact" + 0.004*"well" + 0.004*"progress" + 0.004*"needs" + 0.004*"changes"']</t>
+    <t>['0.007*"’" + 0.006*"well" + 0.005*"However" + 0.005*"quality" + 0.005*"timely" + 0.005*"appropriate" + 0.004*"needs" + 0.004*"impact" + 0.004*"information" + 0.004*"good"', '0.010*"’" + 0.007*"However" + 0.006*"quality" + 0.005*"appropriate" + 0.005*"impact" + 0.005*"well" + 0.005*"timely" + 0.004*"clear" + 0.004*"plans" + 0.004*"needs"', '0.010*"’" + 0.008*"well" + 0.006*"quality" + 0.006*"timely" + 0.005*"However" + 0.005*"appropriate" + 0.005*"needs" + 0.004*"impact" + 0.004*"progress" + 0.004*"oversight"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2410,7 +2410,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.007*"Merton" + 0.006*"needs" + 0.005*"plans" + 0.005*"progress" + 0.004*"good" + 0.004*"leaders" + 0.004*"education" + 0.004*"information"', '0.012*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"Merton" + 0.005*"family" + 0.005*"progress" + 0.004*"risk" + 0.004*"4" + 0.004*"practice" + 0.004*"2022"', '0.017*"’" + 0.007*"well" + 0.006*"Merton" + 0.005*"needs" + 0.005*"plans" + 0.005*"ensure" + 0.005*"family" + 0.004*"across" + 0.004*"4" + 0.004*"good"']</t>
+    <t>['0.016*"’" + 0.008*"Merton" + 0.007*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"family" + 0.005*"early" + 0.004*"progress" + 0.004*"4" + 0.004*"education"', '0.008*"’" + 0.005*"well" + 0.004*"Merton" + 0.004*"progress" + 0.003*"good" + 0.003*"ensure" + 0.003*"family" + 0.003*"Leaders" + 0.003*"plans" + 0.003*"across"', '0.020*"’" + 0.010*"well" + 0.006*"needs" + 0.005*"Merton" + 0.004*"progress" + 0.004*"2022" + 0.004*"family" + 0.004*"good" + 0.004*"plans" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2428,7 +2428,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"needs" + 0.007*"Newham" + 0.006*"practice" + 0.006*"plans" + 0.006*"effective" + 0.006*"progress" + 0.006*"need" + 0.005*"early" + 0.004*"18"', '0.021*"’" + 0.008*"needs" + 0.007*"progress" + 0.007*"plans" + 0.006*"Newham" + 0.006*"effective" + 0.006*"good" + 0.006*"practice" + 0.006*"need" + 0.005*"risks"', '0.013*"’" + 0.008*"needs" + 0.007*"Newham" + 0.006*"practice" + 0.006*"need" + 0.005*"plans" + 0.005*"progress" + 0.005*"effective" + 0.004*"good" + 0.004*"Leaders"']</t>
+    <t>['0.023*"’" + 0.010*"needs" + 0.007*"Newham" + 0.007*"effective" + 0.007*"progress" + 0.006*"plans" + 0.006*"practice" + 0.006*"need" + 0.005*"good" + 0.005*"Leaders"', '0.017*"’" + 0.007*"Newham" + 0.007*"needs" + 0.006*"need" + 0.006*"practice" + 0.006*"progress" + 0.006*"plans" + 0.005*"effective" + 0.005*"good" + 0.005*"18"', '0.014*"’" + 0.006*"Newham" + 0.005*"practice" + 0.005*"plans" + 0.005*"need" + 0.005*"needs" + 0.005*"progress" + 0.004*"effective" + 0.004*"good" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2455,7 +2455,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.005*"’" + 0.005*"well" + 0.005*"practice" + 0.005*"needs" + 0.005*"Redbridge" + 0.004*"need" + 0.004*"risk" + 0.004*"team" + 0.004*"ensure" + 0.004*"strong"', '0.009*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"strong" + 0.006*"need" + 0.005*"progress" + 0.005*"including" + 0.005*"risk" + 0.005*"Redbridge"', '0.007*"practice" + 0.007*"’" + 0.006*"needs" + 0.006*"effective" + 0.006*"need" + 0.005*"well" + 0.005*"Redbridge" + 0.005*"strong" + 0.005*"risk" + 0.004*"team"']</t>
+    <t>['0.007*"need" + 0.007*"’" + 0.007*"practice" + 0.005*"risk" + 0.005*"effective" + 0.005*"well" + 0.005*"strong" + 0.005*"progress" + 0.005*"Redbridge" + 0.005*"ensure"', '0.010*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"practice" + 0.006*"strong" + 0.005*"including" + 0.005*"effective" + 0.005*"need" + 0.005*"risk" + 0.004*"team"', '0.007*"practice" + 0.007*"needs" + 0.006*"well" + 0.006*"Redbridge" + 0.006*"’" + 0.005*"need" + 0.005*"effective" + 0.005*"including" + 0.004*"strong" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2479,7 +2479,7 @@
     <t>0.2056</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.013*"well" + 0.010*"Richmond" + 0.007*"needs" + 0.007*"supported" + 0.007*"team" + 0.006*"need" + 0.006*"good" + 0.005*"4" + 0.005*"additional"', '0.011*"’" + 0.007*"Richmond" + 0.007*"well" + 0.006*"needs" + 0.005*"supported" + 0.005*"strong" + 0.004*"team" + 0.004*"need" + 0.004*"upon" + 0.004*"range"', '0.016*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"Richmond" + 0.006*"good" + 0.005*"need" + 0.005*"supported" + 0.005*"31" + 0.005*"team" + 0.004*"strong"']</t>
+    <t>['0.017*"’" + 0.012*"well" + 0.011*"Richmond" + 0.007*"needs" + 0.007*"good" + 0.007*"supported" + 0.006*"team" + 0.006*"need" + 0.005*"ensure" + 0.005*"January"', '0.018*"’" + 0.012*"well" + 0.008*"needs" + 0.007*"Richmond" + 0.006*"supported" + 0.006*"team" + 0.006*"need" + 0.005*"4" + 0.005*"good" + 0.005*"31"', '0.010*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"Richmond" + 0.005*"need" + 0.004*"ensure" + 0.004*"additional" + 0.004*"supported" + 0.004*"good" + 0.004*"strong"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2506,7 +2506,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"Southwark" + 0.009*"well" + 0.007*"good" + 0.007*"progress" + 0.007*"needs" + 0.006*"need" + 0.005*"leaders" + 0.005*"plans" + 0.005*"strong"', '0.015*"’" + 0.009*"good" + 0.008*"needs" + 0.008*"Southwark" + 0.007*"well" + 0.006*"receive" + 0.005*"Leaders" + 0.005*"practice" + 0.005*"plans" + 0.005*"progress"', '0.018*"’" + 0.011*"Southwark" + 0.008*"good" + 0.007*"well" + 0.006*"effective" + 0.006*"needs" + 0.006*"plans" + 0.006*"need" + 0.006*"strong" + 0.005*"progress"']</t>
+    <t>['0.016*"’" + 0.008*"Southwark" + 0.007*"good" + 0.006*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"risks" + 0.004*"effective" + 0.004*"Leaders" + 0.004*"progress"', '0.022*"’" + 0.010*"Southwark" + 0.010*"well" + 0.009*"good" + 0.008*"needs" + 0.007*"need" + 0.007*"progress" + 0.006*"strong" + 0.006*"receive" + 0.006*"leaders"', '0.013*"’" + 0.008*"Southwark" + 0.007*"needs" + 0.007*"good" + 0.005*"Leaders" + 0.005*"progress" + 0.005*"plans" + 0.005*"effective" + 0.005*"well" + 0.005*"receive"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2533,7 +2533,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"well" + 0.005*"effective" + 0.005*"Sutton" + 0.004*"receive" + 0.004*"progress" + 0.004*"needs" + 0.004*"need" + 0.004*"good" + 0.004*"2021"', '0.017*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"good" + 0.005*"receive" + 0.004*"Sutton" + 0.004*"10" + 0.004*"2021" + 0.004*"effective" + 0.004*"leaders"', '0.020*"’" + 0.007*"Sutton" + 0.007*"progress" + 0.006*"well" + 0.006*"needs" + 0.006*"6" + 0.005*"effective" + 0.005*"supported" + 0.005*"receive" + 0.005*"‘"']</t>
+    <t>['0.010*"’" + 0.005*"well" + 0.004*"needs" + 0.004*"receive" + 0.004*"need" + 0.004*"progress" + 0.003*"Sutton" + 0.003*"home" + 0.003*"good" + 0.003*"6"', '0.019*"’" + 0.007*"well" + 0.006*"Sutton" + 0.006*"needs" + 0.005*"6" + 0.005*"progress" + 0.005*"10" + 0.005*"good" + 0.004*"effective" + 0.004*"understand"', '0.018*"’" + 0.008*"well" + 0.006*"Sutton" + 0.006*"needs" + 0.006*"effective" + 0.006*"progress" + 0.005*"receive" + 0.005*"good" + 0.004*"December" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2560,7 +2560,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"good" + 0.007*"effective" + 0.005*"‘" + 0.005*"including" + 0.005*"early" + 0.005*"need" + 0.005*"plans" + 0.004*"carers" + 0.004*"well"', '0.016*"’" + 0.007*"plans" + 0.007*"well" + 0.006*"good" + 0.006*"progress" + 0.006*"practice" + 0.005*"effective" + 0.005*"‘" + 0.005*"need" + 0.005*"needs"', '0.010*"’" + 0.006*"‘" + 0.006*"plans" + 0.006*"good" + 0.005*"effective" + 0.005*"need" + 0.005*"practice" + 0.005*"well" + 0.005*"needs" + 0.005*"early"']</t>
+    <t>['0.017*"’" + 0.008*"good" + 0.007*"effective" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.006*"need" + 0.005*"including" + 0.005*"‘" + 0.005*"progress"', '0.017*"’" + 0.006*"plans" + 0.006*"practice" + 0.006*"good" + 0.005*"well" + 0.005*"‘" + 0.005*"need" + 0.005*"progress" + 0.005*"effective" + 0.004*"education"', '0.009*"’" + 0.007*"‘" + 0.006*"effective" + 0.006*"good" + 0.005*"early" + 0.005*"well" + 0.005*"plans" + 0.005*"practice" + 0.004*"need" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2587,7 +2587,7 @@
     <t>11/03/19</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.010*"well" + 0.007*"effective" + 0.006*"need" + 0.005*"needs" + 0.005*"good" + 0.004*"timely" + 0.003*"plans" + 0.003*"actions" + 0.003*"information"', '0.018*"’" + 0.014*"well" + 0.010*"needs" + 0.010*"good" + 0.008*"effective" + 0.007*"need" + 0.006*"plans" + 0.006*"timely" + 0.005*"risk" + 0.005*"ensure"', '0.012*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"good" + 0.006*"effective" + 0.005*"plans" + 0.004*"risk" + 0.004*"practice" + 0.004*"timely" + 0.004*"need"']</t>
+    <t>['0.017*"’" + 0.014*"well" + 0.010*"needs" + 0.009*"good" + 0.007*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"timely" + 0.005*"risk" + 0.004*"protection"', '0.014*"’" + 0.011*"well" + 0.008*"needs" + 0.008*"effective" + 0.007*"good" + 0.005*"need" + 0.005*"plans" + 0.005*"ensure" + 0.004*"progress" + 0.004*"information"', '0.010*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"good" + 0.007*"effective" + 0.006*"need" + 0.005*"timely" + 0.004*"plans" + 0.004*"risk" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2611,7 +2611,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"needs" + 0.005*"progress" + 0.005*"well" + 0.005*"18" + 0.005*"Wandsworth" + 0.005*"Senior" + 0.004*"supported" + 0.004*"timely" + 0.004*"practice"', '0.013*"’" + 0.007*"well" + 0.007*"protection" + 0.006*"effective" + 0.006*"good" + 0.005*"Senior" + 0.005*"progress" + 0.005*"needs" + 0.005*"quality" + 0.005*"supported"', '0.011*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"Wandsworth" + 0.005*"progress" + 0.005*"ensure" + 0.005*"quality" + 0.005*"7" + 0.005*"18"']</t>
+    <t>['0.009*"’" + 0.006*"progress" + 0.006*"needs" + 0.006*"protection" + 0.005*"Senior" + 0.005*"Wandsworth" + 0.005*"effective" + 0.005*"practice" + 0.005*"supported" + 0.004*"7"', '0.012*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"progress" + 0.005*"supported" + 0.005*"Wandsworth" + 0.005*"quality" + 0.005*"Senior" + 0.005*"needs" + 0.005*"receive"', '0.014*"’" + 0.007*"well" + 0.006*"ensure" + 0.005*"team" + 0.005*"needs" + 0.005*"protection" + 0.005*"7" + 0.005*"effective" + 0.005*"Senior" + 0.005*"Wandsworth"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2632,7 +2632,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.007*"practice" + 0.007*"highly" + 0.005*"well" + 0.004*"many" + 0.004*"across" + 0.004*"skilled" + 0.004*"quality" + 0.004*"shared"', '0.011*"’" + 0.006*"needs" + 0.006*"practice" + 0.005*"highly" + 0.004*"well" + 0.003*"high" + 0.003*"family" + 0.003*"early" + 0.003*"direct" + 0.003*"across"', '0.010*"’" + 0.006*"practice" + 0.006*"well" + 0.005*"highly" + 0.004*"across" + 0.004*"many" + 0.004*"needs" + 0.004*"direct" + 0.004*"family" + 0.003*"shared"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.007*"highly" + 0.005*"well" + 0.005*"practice" + 0.004*"many" + 0.004*"interventions" + 0.003*"across" + 0.003*"plans" + 0.003*"family"', '0.010*"’" + 0.006*"practice" + 0.005*"needs" + 0.005*"well" + 0.005*"highly" + 0.004*"across" + 0.003*"shared" + 0.003*"direct" + 0.003*"plans" + 0.003*"many"', '0.014*"’" + 0.008*"practice" + 0.005*"highly" + 0.005*"well" + 0.005*"needs" + 0.004*"many" + 0.004*"family" + 0.004*"across" + 0.004*"skilled" + 0.004*"high"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2662,7 +2662,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.006*"needs" + 0.005*"effective" + 0.005*"quality" + 0.005*"receive" + 0.005*"progress" + 0.005*"ensure" + 0.005*"need" + 0.005*"leaders" + 0.005*"impact"', '0.014*"’" + 0.007*"plans" + 0.005*"need" + 0.005*"effective" + 0.005*"progress" + 0.005*"Luton" + 0.005*"impact" + 0.005*"needs" + 0.004*"11" + 0.004*"well"', '0.019*"’" + 0.008*"need" + 0.007*"Luton" + 0.007*"needs" + 0.006*"good" + 0.006*"plans" + 0.005*"well" + 0.005*"effective" + 0.005*"impact" + 0.005*"ensure"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.007*"need" + 0.006*"good" + 0.006*"quality" + 0.005*"Luton" + 0.005*"progress" + 0.005*"effective" + 0.005*"ensure" + 0.005*"plans"', '0.015*"’" + 0.006*"needs" + 0.006*"effective" + 0.006*"impact" + 0.006*"plans" + 0.005*"Luton" + 0.005*"need" + 0.005*"receive" + 0.005*"good" + 0.005*"2022"', '0.020*"’" + 0.007*"need" + 0.007*"plans" + 0.006*"Luton" + 0.005*"effective" + 0.005*"ensure" + 0.005*"well" + 0.005*"progress" + 0.004*"good" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2689,7 +2689,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"Manchester" + 0.009*"needs" + 0.007*"well" + 0.007*"always" + 0.005*"education" + 0.005*"effective" + 0.005*"progress" + 0.005*"supported" + 0.005*"risk"', '0.014*"’" + 0.009*"Manchester" + 0.007*"supported" + 0.007*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"21" + 0.005*"information" + 0.005*"family" + 0.004*"protection"', '0.030*"’" + 0.011*"Manchester" + 0.011*"needs" + 0.007*"always" + 0.007*"supported" + 0.007*"well" + 0.006*"plans" + 0.006*"quality" + 0.005*"protection" + 0.005*"education"']</t>
+    <t>['0.016*"’" + 0.012*"Manchester" + 0.008*"needs" + 0.007*"always" + 0.006*"well" + 0.006*"supported" + 0.006*"plans" + 0.005*"quality" + 0.005*"21" + 0.005*"family"', '0.026*"’" + 0.011*"Manchester" + 0.010*"needs" + 0.007*"well" + 0.007*"supported" + 0.006*"education" + 0.006*"plans" + 0.005*"1" + 0.005*"effective" + 0.005*"family"', '0.018*"’" + 0.010*"needs" + 0.008*"Manchester" + 0.008*"always" + 0.007*"well" + 0.006*"effective" + 0.006*"supported" + 0.006*"protection" + 0.006*"disabled" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -2716,7 +2716,7 @@
     <t>11/09/23</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"Medway" + 0.007*"practice" + 0.006*"impact" + 0.005*"experiences" + 0.005*"quality" + 0.005*"well" + 0.005*"oversight" + 0.005*"needs" + 0.005*"Senior"', '0.010*"’" + 0.008*"Medway" + 0.008*"quality" + 0.007*"practice" + 0.007*"well" + 0.006*"needs" + 0.006*"oversight" + 0.006*"leaders" + 0.005*"Senior" + 0.005*"impact"', '0.020*"’" + 0.009*"well" + 0.009*"quality" + 0.009*"Medway" + 0.009*"practice" + 0.007*"leaders" + 0.007*"needs" + 0.006*"good" + 0.006*"oversight" + 0.006*"impact"']</t>
+    <t>['0.015*"’" + 0.011*"Medway" + 0.009*"practice" + 0.007*"well" + 0.007*"leaders" + 0.007*"quality" + 0.006*"needs" + 0.006*"impact" + 0.006*"experiences" + 0.006*"good"', '0.011*"’" + 0.008*"Medway" + 0.007*"well" + 0.006*"leaders" + 0.005*"oversight" + 0.005*"quality" + 0.005*"practice" + 0.005*"impact" + 0.004*"improve" + 0.004*"experiences"', '0.020*"’" + 0.009*"quality" + 0.009*"practice" + 0.008*"well" + 0.008*"Medway" + 0.007*"needs" + 0.007*"oversight" + 0.006*"clear" + 0.006*"progress" + 0.006*"risk"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -2737,7 +2737,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"Middlesbrough" + 0.007*"practice" + 0.007*"plans" + 0.006*"needs" + 0.005*"well" + 0.005*"effective" + 0.005*"good" + 0.005*"24" + 0.005*"progress"', '0.015*"’" + 0.008*"effective" + 0.008*"well" + 0.007*"needs" + 0.007*"plans" + 0.005*"progress" + 0.005*"13" + 0.005*"Middlesbrough" + 0.005*"place" + 0.005*"good"', '0.015*"’" + 0.007*"plans" + 0.007*"effective" + 0.006*"Middlesbrough" + 0.006*"well" + 0.005*"progress" + 0.005*"means" + 0.005*"practice" + 0.005*"needs" + 0.004*"24"']</t>
+    <t>['0.015*"’" + 0.007*"plans" + 0.007*"needs" + 0.007*"Middlesbrough" + 0.007*"effective" + 0.006*"well" + 0.006*"progress" + 0.005*"practice" + 0.005*"24" + 0.005*"March"', '0.014*"’" + 0.008*"plans" + 0.007*"well" + 0.007*"effective" + 0.006*"Middlesbrough" + 0.005*"needs" + 0.005*"place" + 0.005*"progress" + 0.005*"risk" + 0.004*"practice"', '0.010*"’" + 0.007*"practice" + 0.007*"effective" + 0.006*"Middlesbrough" + 0.005*"well" + 0.005*"plans" + 0.005*"progress" + 0.004*"needs" + 0.004*"impact" + 0.004*"13"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -2761,7 +2761,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"Milton" + 0.006*"Keynes" + 0.005*"need" + 0.005*"practice" + 0.005*"well" + 0.005*"October" + 0.005*"needs" + 0.004*"25" + 0.004*"leaders"', '0.015*"’" + 0.007*"Keynes" + 0.006*"well" + 0.006*"Milton" + 0.006*"need" + 0.005*"impact" + 0.005*"November" + 0.005*"plans" + 0.005*"leaders" + 0.005*"team"', '0.017*"’" + 0.005*"well" + 0.005*"good" + 0.005*"Milton" + 0.005*"need" + 0.004*"25" + 0.004*"Keynes" + 0.004*"plans" + 0.004*"carers" + 0.004*"leaders"']</t>
+    <t>['0.015*"’" + 0.006*"Keynes" + 0.006*"practice" + 0.006*"well" + 0.005*"need" + 0.005*"5" + 0.005*"Milton" + 0.005*"effective" + 0.005*"plans" + 0.004*"25"', '0.014*"’" + 0.006*"well" + 0.006*"Milton" + 0.005*"need" + 0.005*"2021" + 0.004*"Keynes" + 0.004*"team" + 0.004*"good" + 0.004*"plans" + 0.004*"effective"', '0.016*"’" + 0.007*"Milton" + 0.006*"Keynes" + 0.005*"need" + 0.005*"well" + 0.005*"25" + 0.005*"leaders" + 0.005*"good" + 0.005*"October" + 0.005*"family"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -2785,7 +2785,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"plans" + 0.008*"needs" + 0.007*"Newcastle" + 0.007*"well" + 0.006*"good" + 0.006*"progress" + 0.005*"ensure" + 0.005*"management" + 0.005*"need"', '0.017*"’" + 0.010*"plans" + 0.009*"needs" + 0.008*"good" + 0.008*"protection" + 0.007*"Newcastle" + 0.006*"progress" + 0.006*"management" + 0.006*"need" + 0.006*"planning"', '0.012*"’" + 0.011*"plans" + 0.007*"well" + 0.007*"protection" + 0.006*"making" + 0.006*"Newcastle" + 0.006*"needs" + 0.005*"progress" + 0.005*"10" + 0.005*"ensure"']</t>
+    <t>['0.015*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"Newcastle" + 0.006*"well" + 0.006*"good" + 0.006*"progress" + 0.006*"protection" + 0.005*"making" + 0.005*"management"', '0.011*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"protection" + 0.006*"good" + 0.005*"Newcastle" + 0.005*"response" + 0.005*"need" + 0.005*"well" + 0.005*"planning"', '0.020*"’" + 0.014*"plans" + 0.008*"Newcastle" + 0.007*"well" + 0.007*"needs" + 0.007*"protection" + 0.007*"good" + 0.007*"progress" + 0.006*"ensure" + 0.006*"making"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -2806,7 +2806,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"Norfolk" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"supported" + 0.005*"carers" + 0.005*"including" + 0.005*"range" + 0.005*"18"', '0.013*"’" + 0.006*"well" + 0.006*"Norfolk" + 0.005*"carers" + 0.005*"supported" + 0.004*"plans" + 0.004*"leaders" + 0.004*"practice" + 0.004*"needs" + 0.004*"range"', '0.021*"’" + 0.009*"well" + 0.008*"Norfolk" + 0.007*"carers" + 0.006*"practice" + 0.006*"needs" + 0.005*"supported" + 0.005*"effective" + 0.005*"plans" + 0.005*"family"']</t>
+    <t>['0.011*"’" + 0.006*"practice" + 0.006*"well" + 0.005*"needs" + 0.005*"supported" + 0.004*"carers" + 0.004*"plans" + 0.004*"Norfolk" + 0.003*"including" + 0.003*"2022"', '0.015*"’" + 0.007*"Norfolk" + 0.007*"well" + 0.006*"needs" + 0.006*"practice" + 0.005*"supported" + 0.005*"carers" + 0.004*"7" + 0.004*"information" + 0.004*"18"', '0.021*"’" + 0.010*"Norfolk" + 0.010*"well" + 0.007*"carers" + 0.006*"needs" + 0.005*"supported" + 0.005*"plans" + 0.005*"practice" + 0.005*"range" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -2836,7 +2836,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"practice" + 0.009*"risk" + 0.008*"leaders" + 0.007*"needs" + 0.007*"planning" + 0.006*"need" + 0.005*"North" + 0.005*"quality" + 0.005*"East"', '0.011*"’" + 0.005*"practice" + 0.005*"planning" + 0.005*"needs" + 0.005*"Lincolnshire" + 0.005*"leaders" + 0.004*"2021" + 0.004*"need" + 0.004*"risk" + 0.004*"senior"', '0.014*"’" + 0.006*"leaders" + 0.005*"plans" + 0.005*"practice" + 0.005*"planning" + 0.005*"many" + 0.005*"October" + 0.005*"needs" + 0.004*"risk" + 0.004*"oversight"']</t>
+    <t>['0.012*"’" + 0.008*"practice" + 0.008*"risk" + 0.006*"leaders" + 0.006*"planning" + 0.005*"needs" + 0.005*"need" + 0.005*"October" + 0.004*"delay" + 0.004*"harm"', '0.016*"’" + 0.007*"planning" + 0.007*"practice" + 0.006*"risk" + 0.006*"needs" + 0.006*"leaders" + 0.005*"many" + 0.005*"need" + 0.005*"East" + 0.005*"oversight"', '0.014*"’" + 0.009*"practice" + 0.007*"leaders" + 0.006*"needs" + 0.006*"risk" + 0.005*"Lincolnshire" + 0.005*"planning" + 0.005*"need" + 0.005*"North" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -2863,7 +2863,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.008*"‘" + 0.006*"North" + 0.006*"Lincolnshire" + 0.006*"leaders" + 0.006*"approach" + 0.005*"family" + 0.005*"protection" + 0.005*"10" + 0.005*"need"', '0.016*"’" + 0.005*"‘" + 0.005*"well" + 0.005*"family" + 0.004*"North" + 0.004*"14" + 0.004*"leaders" + 0.004*"team" + 0.004*"approach" + 0.004*"Lincolnshire"', '0.017*"’" + 0.007*"family" + 0.007*"‘" + 0.005*"well" + 0.005*"need" + 0.005*"Lincolnshire" + 0.005*"10" + 0.005*"approach" + 0.005*"North" + 0.004*"leaders"']</t>
+    <t>['0.023*"’" + 0.008*"‘" + 0.006*"Lincolnshire" + 0.006*"family" + 0.005*"approach" + 0.005*"leaders" + 0.005*"well" + 0.005*"need" + 0.004*"North" + 0.004*"October"', '0.021*"’" + 0.006*"family" + 0.006*"North" + 0.006*"‘" + 0.005*"approach" + 0.005*"council" + 0.005*"plans" + 0.005*"need" + 0.005*"Lincolnshire" + 0.004*"needs"', '0.017*"’" + 0.006*"‘" + 0.006*"10" + 0.006*"leaders" + 0.006*"well" + 0.005*"family" + 0.005*"North" + 0.005*"Lincolnshire" + 0.005*"need" + 0.004*"approach"']</t>
   </si>
   <si>
     <t>940</t>
@@ -2893,7 +2893,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"well" + 0.005*"However" + 0.005*"quality" + 0.005*"practice" + 0.005*"Northamptonshire" + 0.004*"North" + 0.004*"impact" + 0.004*"needs" + 0.004*"2022"', '0.023*"’" + 0.008*"Northamptonshire" + 0.007*"North" + 0.006*"well" + 0.006*"quality" + 0.006*"impact" + 0.005*"needs" + 0.005*"Leaders" + 0.005*"NCT" + 0.005*"e"', '0.013*"’" + 0.010*"Northamptonshire" + 0.006*"North" + 0.006*"well" + 0.005*"practice" + 0.005*"quality" + 0.005*"need" + 0.005*"NCT" + 0.005*"3" + 0.004*"2022"']</t>
+    <t>['0.020*"’" + 0.010*"Northamptonshire" + 0.008*"North" + 0.006*"Leaders" + 0.006*"practice" + 0.005*"quality" + 0.005*"needs" + 0.005*"impact" + 0.005*"well" + 0.005*"NCT"', '0.019*"’" + 0.008*"Northamptonshire" + 0.007*"well" + 0.006*"quality" + 0.005*"3" + 0.005*"practice" + 0.005*"North" + 0.005*"impact" + 0.004*"NCT" + 0.004*"e"', '0.011*"’" + 0.007*"Northamptonshire" + 0.006*"North" + 0.006*"well" + 0.005*"quality" + 0.005*"need" + 0.005*"needs" + 0.005*"NCT" + 0.004*"plans" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -2917,7 +2917,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"always" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"progress" + 0.006*"need" + 0.006*"North" + 0.006*"quality" + 0.006*"practice" + 0.005*"number"', '0.013*"’" + 0.008*"quality" + 0.006*"always" + 0.006*"risk" + 0.006*"needs" + 0.005*"North" + 0.005*"practice" + 0.005*"experienced" + 0.005*"number" + 0.005*"need"', '0.016*"’" + 0.009*"quality" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"number" + 0.005*"North" + 0.005*"risk" + 0.005*"well" + 0.005*"practice" + 0.005*"oversight"']</t>
+    <t>['0.016*"’" + 0.007*"North" + 0.007*"Somerset" + 0.006*"quality" + 0.006*"needs" + 0.005*"number" + 0.005*"always" + 0.005*"plans" + 0.005*"risk" + 0.004*"need"', '0.014*"’" + 0.008*"quality" + 0.007*"needs" + 0.007*"always" + 0.006*"practice" + 0.006*"number" + 0.006*"risk" + 0.005*"well" + 0.005*"North" + 0.004*"24"', '0.019*"’" + 0.007*"quality" + 0.007*"Somerset" + 0.007*"needs" + 0.006*"progress" + 0.006*"need" + 0.006*"experienced" + 0.006*"always" + 0.006*"practice" + 0.005*"North"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -2941,7 +2941,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.006*"leaders" + 0.006*"need" + 0.005*"quality" + 0.005*"make" + 0.005*"needs" + 0.004*"impact" + 0.004*"clear" + 0.004*"early"', '0.014*"’" + 0.004*"leaders" + 0.004*"need" + 0.004*"quality" + 0.004*"needs" + 0.004*"well" + 0.003*"good" + 0.003*"impact" + 0.003*"make" + 0.003*"foster"', '0.013*"’" + 0.006*"well" + 0.005*"need" + 0.005*"leaders" + 0.005*"make" + 0.005*"understand" + 0.004*"needs" + 0.004*"impact" + 0.004*"early" + 0.004*"way"']</t>
+    <t>['0.017*"’" + 0.006*"well" + 0.006*"leaders" + 0.005*"needs" + 0.004*"quality" + 0.004*"impact" + 0.004*"working" + 0.004*"clear" + 0.004*"early" + 0.003*"need"', '0.014*"’" + 0.007*"well" + 0.006*"leaders" + 0.006*"make" + 0.005*"need" + 0.005*"quality" + 0.004*"early" + 0.004*"impact" + 0.004*"needs" + 0.004*"clear"', '0.016*"’" + 0.007*"well" + 0.007*"need" + 0.005*"quality" + 0.005*"make" + 0.004*"impact" + 0.004*"leaders" + 0.004*"protection" + 0.004*"needs" + 0.004*"early"']</t>
   </si>
   <si>
     <t>815</t>
@@ -2965,7 +2965,7 @@
     <t>18/08/23</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"well" + 0.007*"North" + 0.006*"family" + 0.006*"Yorkshire" + 0.006*"practice" + 0.005*"needs" + 0.004*"3" + 0.004*"‘" + 0.004*"supported"', '0.021*"’" + 0.009*"well" + 0.007*"North" + 0.007*"practice" + 0.006*"Yorkshire" + 0.006*"family" + 0.005*"needs" + 0.005*"supported" + 0.005*"‘" + 0.004*"need"', '0.020*"’" + 0.007*"well" + 0.006*"Yorkshire" + 0.006*"practice" + 0.006*"needs" + 0.005*"North" + 0.005*"‘" + 0.004*"7" + 0.004*"2023" + 0.004*"ensure"']</t>
+    <t>['0.015*"’" + 0.010*"well" + 0.008*"practice" + 0.007*"North" + 0.006*"Yorkshire" + 0.006*"‘" + 0.006*"needs" + 0.005*"family" + 0.005*"3" + 0.004*"2023"', '0.022*"’" + 0.005*"North" + 0.005*"Yorkshire" + 0.004*"well" + 0.004*"planning" + 0.004*"‘" + 0.004*"practice" + 0.004*"Leaders" + 0.004*"3" + 0.004*"effective"', '0.024*"’" + 0.008*"well" + 0.007*"family" + 0.007*"Yorkshire" + 0.007*"needs" + 0.007*"North" + 0.005*"practice" + 0.004*"‘" + 0.004*"7" + 0.004*"3"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -2989,7 +2989,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"good" + 0.006*"impact" + 0.005*"need" + 0.004*"experiences" + 0.004*"quality" + 0.004*"education" + 0.004*"progress"', '0.028*"’" + 0.013*"needs" + 0.011*"well" + 0.008*"good" + 0.007*"need" + 0.006*"practice" + 0.006*"experiences" + 0.006*"education" + 0.005*"leaders" + 0.005*"impact"', '0.016*"’" + 0.008*"good" + 0.007*"well" + 0.006*"needs" + 0.006*"experiences" + 0.006*"quality" + 0.005*"need" + 0.005*"impact" + 0.004*"practice" + 0.004*"always"']</t>
+    <t>['0.025*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"good" + 0.005*"need" + 0.005*"experiences" + 0.005*"practice" + 0.005*"plans" + 0.005*"impact" + 0.005*"leaders"', '0.018*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"good" + 0.006*"need" + 0.006*"experiences" + 0.006*"education" + 0.005*"impact" + 0.005*"practice" + 0.004*"always"', '0.022*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"good" + 0.007*"need" + 0.006*"quality" + 0.005*"practice" + 0.005*"experiences" + 0.005*"impact" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3016,7 +3016,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.006*"effective" + 0.006*"needs" + 0.006*"Nottingham" + 0.005*"oversight" + 0.005*"practice" + 0.005*"City" + 0.005*"impact" + 0.005*"11" + 0.005*"plans"', '0.010*"’" + 0.007*"needs" + 0.004*"Nottingham" + 0.004*"11" + 0.004*"impact" + 0.004*"risk" + 0.004*"effective" + 0.004*"plans" + 0.004*"City" + 0.003*"However"', '0.014*"’" + 0.010*"needs" + 0.007*"plans" + 0.006*"Nottingham" + 0.005*"impact" + 0.005*"effective" + 0.005*"2022" + 0.004*"oversight" + 0.004*"July" + 0.004*"11"']</t>
+    <t>['0.015*"’" + 0.009*"needs" + 0.006*"Nottingham" + 0.005*"plans" + 0.005*"effective" + 0.005*"impact" + 0.005*"City" + 0.005*"risk" + 0.005*"consistently" + 0.005*"oversight"', '0.013*"’" + 0.007*"needs" + 0.006*"11" + 0.005*"effective" + 0.005*"However" + 0.005*"plans" + 0.004*"impact" + 0.004*"Nottingham" + 0.004*"oversight" + 0.004*"practice"', '0.013*"’" + 0.007*"needs" + 0.006*"Nottingham" + 0.006*"plans" + 0.005*"effective" + 0.004*"impact" + 0.004*"City" + 0.004*"oversight" + 0.004*"2022" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>891</t>
@@ -3034,7 +3034,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"well" + 0.007*"practice" + 0.007*"e" + 0.006*"receive" + 0.006*"progress" + 0.005*"made" + 0.005*"quality" + 0.005*"needs" + 0.005*"ensure"', '0.012*"’" + 0.008*"well" + 0.008*"practice" + 0.007*"needs" + 0.006*"ensure" + 0.006*"plans" + 0.005*"receive" + 0.005*"areas" + 0.005*"carers" + 0.005*"made"', '0.013*"’" + 0.008*"practice" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.004*"progress" + 0.004*"quality" + 0.004*"made" + 0.004*"number" + 0.004*"receive"']</t>
+    <t>['0.013*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"well" + 0.006*"receive" + 0.005*"ensure" + 0.005*"plans" + 0.005*"made" + 0.005*"e" + 0.005*"progress"', '0.012*"’" + 0.008*"practice" + 0.008*"well" + 0.006*"plans" + 0.005*"receive" + 0.005*"needs" + 0.005*"quality" + 0.005*"e" + 0.005*"progress" + 0.005*"placements"', '0.012*"’" + 0.009*"well" + 0.008*"practice" + 0.006*"ensure" + 0.006*"needs" + 0.006*"carers" + 0.005*"made" + 0.005*"areas" + 0.005*"receive" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3067,7 +3067,7 @@
     <t>0.176</t>
   </si>
   <si>
-    <t>['0.010*"needs" + 0.010*"practice" + 0.009*"’" + 0.009*"good" + 0.008*"progress" + 0.006*"effective" + 0.006*"planning" + 0.006*"quality" + 0.006*"plans" + 0.005*"well"', '0.008*"effective" + 0.008*"’" + 0.008*"good" + 0.007*"needs" + 0.007*"practice" + 0.006*"quality" + 0.006*"planning" + 0.006*"progress" + 0.005*"well" + 0.004*"place"', '0.013*"’" + 0.010*"good" + 0.009*"effective" + 0.009*"needs" + 0.008*"practice" + 0.008*"well" + 0.007*"plans" + 0.007*"quality" + 0.006*"planning" + 0.006*"risk"']</t>
+    <t>['0.011*"needs" + 0.011*"’" + 0.010*"good" + 0.009*"effective" + 0.008*"practice" + 0.008*"quality" + 0.008*"planning" + 0.007*"progress" + 0.006*"well" + 0.006*"plans"', '0.009*"’" + 0.008*"good" + 0.007*"practice" + 0.006*"needs" + 0.005*"well" + 0.005*"effective" + 0.004*"plans" + 0.004*"progress" + 0.004*"risk" + 0.004*"information"', '0.012*"’" + 0.011*"practice" + 0.009*"good" + 0.008*"effective" + 0.007*"needs" + 0.007*"progress" + 0.007*"well" + 0.007*"quality" + 0.006*"plans" + 0.005*"planning"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3097,7 +3097,7 @@
     <t>0.1848</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.010*"needs" + 0.007*"number" + 0.006*"good" + 0.005*"early" + 0.005*"live" + 0.004*"education" + 0.004*"plans" + 0.004*"response" + 0.004*"quality"', '0.014*"’" + 0.008*"needs" + 0.006*"good" + 0.005*"number" + 0.005*"protection" + 0.005*"early" + 0.005*"response" + 0.004*"plans" + 0.004*"education" + 0.004*"practice"', '0.014*"’" + 0.009*"needs" + 0.007*"good" + 0.005*"protection" + 0.005*"early" + 0.005*"number" + 0.005*"plans" + 0.005*"response" + 0.005*"effective" + 0.005*"quality"']</t>
+    <t>['0.014*"’" + 0.010*"needs" + 0.007*"good" + 0.006*"number" + 0.006*"early" + 0.005*"Oxfordshire" + 0.005*"response" + 0.005*"protection" + 0.005*"quality" + 0.005*"plans"', '0.015*"’" + 0.009*"needs" + 0.006*"number" + 0.006*"good" + 0.006*"early" + 0.005*"response" + 0.004*"plans" + 0.004*"protection" + 0.004*"effective" + 0.004*"Oxfordshire"', '0.010*"’" + 0.008*"needs" + 0.005*"good" + 0.005*"number" + 0.004*"plans" + 0.004*"protection" + 0.004*"education" + 0.004*"effective" + 0.004*"practice" + 0.004*"including"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3127,7 +3127,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"good" + 0.008*"practice" + 0.006*"well" + 0.006*"risk" + 0.006*"progress" + 0.006*"effective" + 0.005*"planning" + 0.005*"needs" + 0.004*"quality"', '0.013*"’" + 0.008*"needs" + 0.007*"practice" + 0.006*"well" + 0.006*"planning" + 0.006*"risk" + 0.005*"need" + 0.005*"effective" + 0.005*"progress" + 0.005*"including"', '0.014*"’" + 0.008*"well" + 0.007*"risk" + 0.006*"planning" + 0.006*"practice" + 0.006*"good" + 0.006*"needs" + 0.005*"quality" + 0.005*"need" + 0.005*"including"']</t>
+    <t>['0.014*"’" + 0.008*"risk" + 0.006*"practice" + 0.006*"well" + 0.005*"progress" + 0.005*"needs" + 0.005*"planning" + 0.005*"need" + 0.004*"quality" + 0.004*"effective"', '0.016*"’" + 0.008*"well" + 0.008*"good" + 0.007*"needs" + 0.007*"effective" + 0.007*"practice" + 0.006*"planning" + 0.005*"progress" + 0.005*"need" + 0.005*"quality"', '0.010*"’" + 0.007*"practice" + 0.006*"needs" + 0.005*"good" + 0.005*"planning" + 0.005*"well" + 0.005*"risk" + 0.005*"including" + 0.004*"quality" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>879</t>
@@ -3154,7 +3154,7 @@
     <t>0.1594</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"However" + 0.009*"well" + 0.009*"good" + 0.009*"needs" + 0.009*"quality" + 0.007*"progress" + 0.006*"timely" + 0.006*"plans" + 0.006*"leaders"', '0.013*"’" + 0.008*"well" + 0.007*"good" + 0.006*"However" + 0.006*"quality" + 0.006*"result" + 0.005*"needs" + 0.005*"timely" + 0.005*"plans" + 0.004*"protection"', '0.017*"’" + 0.010*"However" + 0.009*"good" + 0.009*"well" + 0.008*"needs" + 0.008*"quality" + 0.007*"progress" + 0.006*"effective" + 0.006*"number" + 0.006*"timely"']</t>
+    <t>['0.012*"’" + 0.009*"good" + 0.009*"well" + 0.008*"quality" + 0.007*"However" + 0.007*"needs" + 0.007*"progress" + 0.006*"result" + 0.005*"identified" + 0.005*"leaders"', '0.018*"’" + 0.011*"However" + 0.009*"well" + 0.009*"quality" + 0.009*"good" + 0.008*"needs" + 0.007*"progress" + 0.006*"timely" + 0.006*"number" + 0.006*"plans"', '0.013*"’" + 0.008*"good" + 0.008*"needs" + 0.007*"well" + 0.007*"However" + 0.006*"timely" + 0.006*"result" + 0.005*"quality" + 0.005*"effective" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3184,7 +3184,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"care-experienced" + 0.007*"well" + 0.005*"Portsmouth" + 0.005*"needs" + 0.005*"plans" + 0.004*"leaders" + 0.004*"health" + 0.004*"family" + 0.004*"practice"', '0.019*"’" + 0.007*"care-experienced" + 0.007*"needs" + 0.007*"Portsmouth" + 0.006*"well" + 0.005*"family" + 0.005*"plans" + 0.005*"health" + 0.005*"risk" + 0.005*"15"', '0.018*"’" + 0.009*"well" + 0.008*"care-experienced" + 0.007*"needs" + 0.007*"Portsmouth" + 0.006*"family" + 0.006*"health" + 0.005*"need" + 0.005*"plans" + 0.005*"leaders"']</t>
+    <t>['0.018*"’" + 0.008*"care-experienced" + 0.007*"needs" + 0.007*"Portsmouth" + 0.007*"well" + 0.006*"plans" + 0.005*"health" + 0.005*"family" + 0.005*"need" + 0.004*"leaders"', '0.012*"’" + 0.007*"care-experienced" + 0.006*"Portsmouth" + 0.005*"needs" + 0.005*"well" + 0.005*"family" + 0.005*"receive" + 0.004*"progress" + 0.004*"health" + 0.004*"plans"', '0.019*"’" + 0.009*"well" + 0.009*"care-experienced" + 0.007*"needs" + 0.006*"Portsmouth" + 0.006*"family" + 0.006*"leaders" + 0.005*"health" + 0.005*"plans" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3217,7 +3217,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"number" + 0.007*"quality" + 0.007*"plans" + 0.007*"good" + 0.007*"well" + 0.006*"need" + 0.006*"effective" + 0.005*"timely" + 0.005*"practice"', '0.014*"’" + 0.006*"quality" + 0.006*"plans" + 0.005*"effective" + 0.005*"well" + 0.005*"need" + 0.005*"number" + 0.005*"good" + 0.005*"practice" + 0.004*"always"', '0.015*"’" + 0.007*"well" + 0.007*"number" + 0.006*"quality" + 0.005*"However" + 0.005*"carers" + 0.005*"plans" + 0.005*"arrangements" + 0.005*"timely" + 0.004*"health"']</t>
+    <t>['0.015*"’" + 0.007*"plans" + 0.007*"quality" + 0.006*"well" + 0.006*"practice" + 0.006*"number" + 0.005*"good" + 0.005*"timely" + 0.005*"However" + 0.005*"health"', '0.018*"’" + 0.007*"well" + 0.007*"number" + 0.006*"good" + 0.006*"plans" + 0.005*"effective" + 0.005*"quality" + 0.005*"needs" + 0.005*"carers" + 0.005*"always"', '0.015*"’" + 0.008*"number" + 0.008*"quality" + 0.006*"need" + 0.006*"well" + 0.005*"effective" + 0.005*"However" + 0.005*"timely" + 0.005*"good" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3238,7 +3238,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"leaders" + 0.005*"Cleveland" + 0.005*"20" + 0.005*"consistently" + 0.005*"plans" + 0.005*"2022" + 0.005*"risk" + 0.005*"Redcar" + 0.005*"However"', '0.014*"’" + 0.006*"However" + 0.006*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"Redcar" + 0.005*"consistently" + 0.005*"1" + 0.005*"carers" + 0.005*"2022"', '0.019*"’" + 0.006*"needs" + 0.006*"leaders" + 0.006*"However" + 0.005*"plans" + 0.005*"consistently" + 0.005*"practice" + 0.005*"20" + 0.004*"2022" + 0.004*"Cleveland"']</t>
+    <t>['0.018*"’" + 0.006*"leaders" + 0.006*"needs" + 0.005*"plans" + 0.005*"However" + 0.005*"practice" + 0.004*"consistently" + 0.004*"response" + 0.004*"Cleveland" + 0.004*"carers"', '0.019*"’" + 0.007*"However" + 0.007*"plans" + 0.006*"leaders" + 0.006*"2022" + 0.005*"needs" + 0.005*"consistently" + 0.005*"practice" + 0.005*"risk" + 0.004*"20"', '0.015*"’" + 0.007*"leaders" + 0.006*"consistently" + 0.006*"needs" + 0.005*"20" + 0.005*"Cleveland" + 0.005*"carers" + 0.005*"Redcar" + 0.005*"July" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3265,7 +3265,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.011*"practice" + 0.011*"experienced" + 0.009*"needs" + 0.006*"response" + 0.006*"consistently" + 0.005*"plans" + 0.005*"quality" + 0.005*"good" + 0.004*"well"', '0.018*"’" + 0.009*"experienced" + 0.007*"plans" + 0.007*"response" + 0.006*"practice" + 0.006*"needs" + 0.006*"quality" + 0.005*"consistently" + 0.005*"Rochdale" + 0.005*"3"', '0.015*"’" + 0.008*"experienced" + 0.007*"needs" + 0.005*"practice" + 0.005*"good" + 0.005*"well" + 0.005*"plans" + 0.005*"PAs" + 0.005*"Rochdale" + 0.004*"23"']</t>
+    <t>['0.023*"’" + 0.008*"experienced" + 0.006*"needs" + 0.006*"practice" + 0.006*"consistently" + 0.006*"response" + 0.005*"plans" + 0.005*"23" + 0.004*"leaders" + 0.004*"good"', '0.015*"’" + 0.008*"practice" + 0.007*"experienced" + 0.006*"plans" + 0.006*"needs" + 0.005*"progress" + 0.005*"Rochdale" + 0.004*"good" + 0.004*"3" + 0.004*"experiences"', '0.022*"’" + 0.012*"experienced" + 0.009*"needs" + 0.009*"practice" + 0.007*"response" + 0.006*"quality" + 0.006*"good" + 0.006*"plans" + 0.006*"consistently" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3289,7 +3289,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"Rotherham" + 0.006*"needs" + 0.005*"good" + 0.005*"well" + 0.005*"ensure" + 0.005*"Council" + 0.005*"plans" + 0.004*"1" + 0.004*"However"', '0.014*"’" + 0.005*"Council" + 0.005*"Rotherham" + 0.005*"well" + 0.005*"needs" + 0.004*"plans" + 0.004*"July" + 0.004*"27" + 0.004*"However" + 0.004*"Metropolitan"', '0.014*"’" + 0.011*"Rotherham" + 0.007*"needs" + 0.006*"ensure" + 0.006*"good" + 0.005*"well" + 0.005*"However" + 0.004*"clear" + 0.004*"plans" + 0.004*"quality"']</t>
+    <t>['0.012*"’" + 0.007*"Rotherham" + 0.006*"needs" + 0.005*"well" + 0.005*"ensure" + 0.004*"plans" + 0.004*"However" + 0.003*"good" + 0.003*"Borough" + 0.003*"Council"', '0.014*"’" + 0.009*"Rotherham" + 0.006*"needs" + 0.005*"good" + 0.005*"plans" + 0.005*"1" + 0.004*"27" + 0.004*"clear" + 0.004*"However" + 0.004*"June"', '0.018*"’" + 0.009*"Rotherham" + 0.007*"needs" + 0.006*"well" + 0.006*"Council" + 0.005*"ensure" + 0.005*"good" + 0.005*"However" + 0.004*"Metropolitan" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3313,7 +3313,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.011*"well" + 0.008*"practice" + 0.006*"highly" + 0.006*"strong" + 0.005*"progress" + 0.005*"timely" + 0.004*"leaders" + 0.004*"needs" + 0.004*"effective"', '0.017*"well" + 0.012*"practice" + 0.011*"’" + 0.007*"strong" + 0.007*"highly" + 0.006*"effective" + 0.005*"needs" + 0.005*"leaders" + 0.004*"high" + 0.004*"professionals"', '0.011*"practice" + 0.011*"’" + 0.011*"well" + 0.008*"highly" + 0.007*"needs" + 0.006*"strong" + 0.005*"leaders" + 0.005*"high" + 0.005*"effective" + 0.004*"professionals"']</t>
+    <t>['0.014*"well" + 0.012*"’" + 0.010*"practice" + 0.008*"highly" + 0.007*"strong" + 0.006*"leaders" + 0.006*"high" + 0.006*"effective" + 0.006*"needs" + 0.005*"professionals"', '0.012*"’" + 0.011*"practice" + 0.010*"well" + 0.007*"strong" + 0.006*"needs" + 0.005*"highly" + 0.004*"progress" + 0.004*"effective" + 0.004*"ensure" + 0.004*"range"', '0.016*"well" + 0.011*"practice" + 0.010*"’" + 0.008*"highly" + 0.006*"effective" + 0.005*"strong" + 0.005*"effectively" + 0.005*"leaders" + 0.005*"needs" + 0.004*"professionals"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3340,7 +3340,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"plans" + 0.008*"well" + 0.007*"needs" + 0.005*"good" + 0.005*"effective" + 0.005*"clear" + 0.005*"practice" + 0.004*"risk" + 0.004*"progress"', '0.013*"’" + 0.009*"plans" + 0.007*"needs" + 0.007*"well" + 0.005*"need" + 0.004*"good" + 0.004*"appropriate" + 0.004*"Kingston" + 0.004*"progress" + 0.004*"range"', '0.015*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"good" + 0.005*"practice" + 0.005*"effective" + 0.004*"clear" + 0.004*"supported" + 0.004*"parents"']</t>
+    <t>['0.011*"’" + 0.008*"well" + 0.006*"plans" + 0.006*"needs" + 0.004*"good" + 0.004*"parents" + 0.004*"progress" + 0.004*"effective" + 0.004*"practice" + 0.004*"supported"', '0.015*"’" + 0.009*"plans" + 0.008*"well" + 0.008*"needs" + 0.005*"effective" + 0.005*"good" + 0.005*"need" + 0.005*"practice" + 0.005*"risk" + 0.004*"appropriate"', '0.013*"’" + 0.010*"well" + 0.008*"plans" + 0.008*"needs" + 0.006*"good" + 0.005*"clear" + 0.004*"need" + 0.004*"risk" + 0.004*"effective" + 0.004*"parents"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3367,7 +3367,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"well" + 0.005*"quality" + 0.005*"information" + 0.004*"needs" + 0.004*"plans" + 0.004*"actions" + 0.004*"always" + 0.004*"effective" + 0.003*"use"', '0.009*"’" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"use" + 0.004*"benefit" + 0.004*"quality" + 0.004*"informed" + 0.004*"health" + 0.004*"effective"', '0.014*"’" + 0.005*"quality" + 0.005*"needs" + 0.005*"well" + 0.004*"plans" + 0.004*"benefit" + 0.004*"management" + 0.004*"However" + 0.004*"effective" + 0.004*"use"']</t>
+    <t>['0.010*"’" + 0.006*"well" + 0.005*"quality" + 0.004*"plans" + 0.004*"benefit" + 0.004*"needs" + 0.004*"effective" + 0.004*"use" + 0.004*"timely" + 0.004*"early"', '0.014*"’" + 0.005*"well" + 0.004*"plans" + 0.004*"needs" + 0.004*"information" + 0.004*"quality" + 0.004*"use" + 0.004*"However" + 0.004*"actions" + 0.004*"management"', '0.012*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"quality" + 0.004*"plans" + 0.004*"effective" + 0.004*"However" + 0.004*"information" + 0.004*"benefit" + 0.004*"informed"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3388,7 +3388,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"needs" + 0.011*"well" + 0.008*"need" + 0.007*"good" + 0.007*"practice" + 0.006*"effective" + 0.006*"ensure" + 0.006*"team" + 0.005*"family"', '0.011*"’" + 0.010*"well" + 0.010*"needs" + 0.008*"good" + 0.007*"team" + 0.006*"plans" + 0.006*"need" + 0.006*"practice" + 0.005*"protection" + 0.005*"enough"', '0.012*"’" + 0.008*"well" + 0.007*"good" + 0.007*"team" + 0.006*"enough" + 0.006*"protection" + 0.006*"needs" + 0.005*"plans" + 0.005*"practice" + 0.005*"effective"']</t>
+    <t>['0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"team" + 0.006*"practice" + 0.006*"need" + 0.005*"ensure" + 0.005*"plans" + 0.005*"enough"', '0.012*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"need" + 0.006*"effective" + 0.006*"good" + 0.006*"protection" + 0.006*"practice" + 0.005*"enough" + 0.005*"ensure"', '0.014*"’" + 0.012*"well" + 0.011*"needs" + 0.009*"good" + 0.007*"team" + 0.006*"plans" + 0.006*"need" + 0.006*"practice" + 0.006*"enough" + 0.006*"ensure"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3412,7 +3412,7 @@
     <t>0.2045</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"needs" + 0.007*"effective" + 0.006*"plans" + 0.005*"well" + 0.005*"Salford" + 0.005*"10" + 0.004*"quality" + 0.004*"practice" + 0.004*"planning"', '0.014*"’" + 0.009*"plans" + 0.008*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"Salford" + 0.006*"planning" + 0.005*"progress" + 0.005*"leaders" + 0.005*"practice"', '0.014*"’" + 0.007*"plans" + 0.007*"well" + 0.006*"needs" + 0.006*"effective" + 0.005*"Salford" + 0.005*"experiences" + 0.005*"appropriate" + 0.005*"practice" + 0.005*"leaders"']</t>
+    <t>['0.009*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"Salford" + 0.005*"practice" + 0.004*"leaders" + 0.004*"6" + 0.004*"experiences"', '0.011*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"Salford" + 0.005*"quality" + 0.005*"ensure" + 0.005*"practice" + 0.004*"experiences" + 0.004*"effective"', '0.018*"’" + 0.008*"plans" + 0.008*"effective" + 0.008*"well" + 0.007*"needs" + 0.007*"planning" + 0.006*"Salford" + 0.005*"progress" + 0.005*"6" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3433,7 +3433,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"Sandwell" + 0.005*"quality" + 0.005*"education" + 0.004*"effective" + 0.004*"good" + 0.004*"changes"', '0.015*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Sandwell" + 0.005*"quality" + 0.005*"plans" + 0.005*"number" + 0.004*"progress" + 0.004*"many" + 0.004*"effective"', '0.015*"’" + 0.009*"needs" + 0.009*"plans" + 0.008*"Sandwell" + 0.006*"well" + 0.006*"quality" + 0.006*"Trust" + 0.006*"20" + 0.005*"9" + 0.005*"progress"']</t>
+    <t>['0.012*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"Sandwell" + 0.005*"plans" + 0.005*"number" + 0.004*"progress" + 0.004*"quality" + 0.004*"changes" + 0.004*"9"', '0.017*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"Sandwell" + 0.007*"quality" + 0.006*"well" + 0.006*"Trust" + 0.005*"20" + 0.005*"education" + 0.004*"progress"', '0.013*"’" + 0.008*"needs" + 0.008*"Sandwell" + 0.008*"plans" + 0.007*"well" + 0.005*"quality" + 0.005*"9" + 0.005*"20" + 0.004*"many" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3454,7 +3454,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"needs" + 0.006*"practice" + 0.005*"Sefton" + 0.005*"many" + 0.005*"protection" + 0.005*"including" + 0.005*"March" + 0.005*"◼" + 0.004*"21"', '0.015*"’" + 0.008*"needs" + 0.006*"practice" + 0.006*"oversight" + 0.005*"protection" + 0.005*"February" + 0.005*"4" + 0.005*"including" + 0.005*"lack" + 0.005*"need"', '0.019*"’" + 0.010*"needs" + 0.006*"oversight" + 0.006*"lack" + 0.006*"practice" + 0.005*"management" + 0.005*"many" + 0.005*"always" + 0.005*"timely" + 0.005*"including"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.007*"practice" + 0.006*"oversight" + 0.005*"protection" + 0.005*"March" + 0.005*"◼" + 0.005*"plans" + 0.005*"always" + 0.005*"many"', '0.015*"’" + 0.008*"needs" + 0.006*"oversight" + 0.005*"need" + 0.005*"including" + 0.005*"l" + 0.005*"lack" + 0.005*"management" + 0.005*"Sefton" + 0.005*"4"', '0.017*"’" + 0.011*"needs" + 0.007*"practice" + 0.005*"including" + 0.005*"response" + 0.005*"lack" + 0.005*"management" + 0.005*"always" + 0.005*"oversight" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3484,7 +3484,7 @@
     <t>0.2097</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.010*"Sheffield" + 0.009*"needs" + 0.006*"well" + 0.006*"practice" + 0.005*"leaders" + 0.005*"11" + 0.005*"adviser" + 0.004*"quality" + 0.004*"plans"', '0.017*"’" + 0.011*"Sheffield" + 0.009*"needs" + 0.007*"well" + 0.006*"health" + 0.006*"leaders" + 0.006*"practice" + 0.005*"quality" + 0.005*"experiences" + 0.004*"protection"', '0.022*"’" + 0.012*"Sheffield" + 0.007*"needs" + 0.007*"well" + 0.006*"leaders" + 0.005*"practice" + 0.005*"health" + 0.005*"good" + 0.004*"plans" + 0.004*"effective"']</t>
+    <t>['0.027*"’" + 0.012*"Sheffield" + 0.011*"needs" + 0.007*"well" + 0.007*"health" + 0.006*"leaders" + 0.006*"practice" + 0.005*"quality" + 0.005*"22" + 0.005*"plans"', '0.011*"’" + 0.010*"Sheffield" + 0.007*"needs" + 0.006*"well" + 0.005*"leaders" + 0.005*"practice" + 0.004*"adviser" + 0.004*"receive" + 0.004*"effective" + 0.004*"experiences"', '0.019*"’" + 0.010*"Sheffield" + 0.007*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"leaders" + 0.005*"11" + 0.005*"health" + 0.005*"good" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3511,7 +3511,7 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.007*"needs" + 0.006*"Shropshire" + 0.004*"progress" + 0.004*"making" + 0.004*"well" + 0.004*"2022" + 0.004*"plans" + 0.004*"leaders" + 0.004*"practice"', '0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Shropshire" + 0.006*"plans" + 0.006*"progress" + 0.006*"11" + 0.005*"2022" + 0.005*"making" + 0.005*"training"', '0.024*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"Shropshire" + 0.006*"progress" + 0.005*"7" + 0.005*"plans" + 0.005*"making" + 0.005*"2022" + 0.004*"education"']</t>
+    <t>['0.019*"’" + 0.009*"needs" + 0.007*"Shropshire" + 0.006*"2022" + 0.006*"plans" + 0.005*"7" + 0.005*"well" + 0.005*"progress" + 0.005*"training" + 0.004*"practice"', '0.015*"’" + 0.008*"needs" + 0.007*"Shropshire" + 0.007*"well" + 0.006*"making" + 0.006*"progress" + 0.006*"plans" + 0.005*"11" + 0.005*"leaders" + 0.005*"effectively"', '0.018*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"Shropshire" + 0.006*"progress" + 0.005*"making" + 0.004*"plans" + 0.004*"2022" + 0.004*"effective" + 0.004*"7"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3532,7 +3532,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"Slough" + 0.007*"plans" + 0.007*"quality" + 0.006*"practice" + 0.006*"3" + 0.006*"needs" + 0.005*"leaders" + 0.005*"senior" + 0.005*"impact"', '0.007*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"quality" + 0.005*"practice" + 0.004*"Slough" + 0.004*"timely" + 0.004*"However" + 0.004*"impact" + 0.003*"23"', '0.021*"’" + 0.008*"Slough" + 0.007*"needs" + 0.005*"need" + 0.005*"quality" + 0.005*"practice" + 0.005*"impact" + 0.005*"plans" + 0.005*"supported" + 0.005*"leaders"']</t>
+    <t>['0.012*"’" + 0.008*"Slough" + 0.006*"plans" + 0.005*"practice" + 0.004*"impact" + 0.004*"However" + 0.004*"February" + 0.004*"need" + 0.004*"PAs" + 0.004*"2023"', '0.018*"’" + 0.008*"needs" + 0.008*"Slough" + 0.007*"plans" + 0.007*"quality" + 0.006*"practice" + 0.005*"3" + 0.005*"leaders" + 0.005*"However" + 0.005*"timely"', '0.016*"’" + 0.008*"Slough" + 0.006*"quality" + 0.006*"needs" + 0.005*"practice" + 0.005*"impact" + 0.005*"leaders" + 0.005*"supported" + 0.005*"plans" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3553,7 +3553,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"2022" + 0.007*"lack" + 0.006*"need" + 0.006*"effective" + 0.006*"experiences" + 0.005*"risk" + 0.005*"Solihull" + 0.005*"means" + 0.005*"practice"', '0.017*"’" + 0.011*"lack" + 0.008*"2022" + 0.006*"need" + 0.006*"quality" + 0.006*"Solihull" + 0.006*"practice" + 0.005*"risk" + 0.005*"experiences" + 0.005*"significant"', '0.014*"’" + 0.013*"lack" + 0.009*"2022" + 0.007*"Solihull" + 0.006*"risk" + 0.006*"need" + 0.006*"quality" + 0.005*"significant" + 0.005*"delay" + 0.005*"timely"']</t>
+    <t>['0.015*"’" + 0.010*"lack" + 0.006*"practice" + 0.006*"risk" + 0.005*"2022" + 0.005*"experiences" + 0.005*"need" + 0.005*"significant" + 0.005*"11" + 0.005*"means"', '0.015*"’" + 0.012*"lack" + 0.009*"2022" + 0.007*"need" + 0.006*"quality" + 0.006*"Solihull" + 0.005*"progress" + 0.005*"experiences" + 0.005*"risk" + 0.005*"delay"', '0.016*"’" + 0.010*"lack" + 0.009*"2022" + 0.008*"Solihull" + 0.006*"risk" + 0.006*"need" + 0.006*"effective" + 0.005*"quality" + 0.005*"practice" + 0.005*"significant"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3574,7 +3574,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"needs" + 0.005*"need" + 0.005*"understand" + 0.005*"Somerset" + 0.005*"leaders" + 0.004*"practice" + 0.004*"supported"', '0.020*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"Somerset" + 0.007*"good" + 0.006*"progress" + 0.006*"plans" + 0.005*"including" + 0.005*"number" + 0.005*"positive"', '0.015*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"Somerset" + 0.007*"plans" + 0.006*"leaders" + 0.005*"supported" + 0.005*"practice" + 0.005*"family" + 0.004*"good"']</t>
+    <t>['0.018*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"number" + 0.006*"plans" + 0.006*"Somerset" + 0.005*"effective" + 0.005*"good" + 0.005*"progress" + 0.005*"supported"', '0.016*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"Somerset" + 0.007*"good" + 0.006*"practice" + 0.006*"supported" + 0.006*"plans" + 0.005*"leaders" + 0.005*"progress"', '0.017*"’" + 0.010*"well" + 0.009*"needs" + 0.006*"Somerset" + 0.006*"plans" + 0.006*"need" + 0.006*"leaders" + 0.005*"good" + 0.005*"including" + 0.005*"understand"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3595,7 +3595,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.012*"well" + 0.012*"quality" + 0.010*"leaders" + 0.009*"plans" + 0.009*"’" + 0.007*"good" + 0.006*"timely" + 0.005*"needs" + 0.005*"progress" + 0.005*"always"', '0.010*"quality" + 0.009*"well" + 0.008*"’" + 0.008*"leaders" + 0.007*"plans" + 0.007*"good" + 0.005*"needs" + 0.005*"timely" + 0.005*"practice" + 0.005*"Senior"', '0.010*"well" + 0.009*"’" + 0.008*"quality" + 0.007*"good" + 0.007*"timely" + 0.007*"leaders" + 0.006*"progress" + 0.006*"plans" + 0.006*"needs" + 0.005*"◼"']</t>
+    <t>['0.012*"quality" + 0.012*"well" + 0.008*"’" + 0.008*"plans" + 0.008*"leaders" + 0.007*"timely" + 0.006*"progress" + 0.006*"needs" + 0.006*"good" + 0.005*"always"', '0.011*"well" + 0.011*"quality" + 0.010*"’" + 0.009*"leaders" + 0.008*"good" + 0.008*"plans" + 0.006*"needs" + 0.006*"timely" + 0.005*"progress" + 0.005*"◼"', '0.008*"well" + 0.007*"leaders" + 0.006*"’" + 0.006*"plans" + 0.005*"quality" + 0.005*"good" + 0.005*"practice" + 0.005*"timely" + 0.004*"needs" + 0.004*"timeliness"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -3625,7 +3625,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.009*"needs" + 0.008*"South" + 0.006*"However" + 0.006*"oversight" + 0.005*"effective" + 0.005*"Tyneside" + 0.005*"carers" + 0.005*"9" + 0.005*"February"', '0.026*"’" + 0.009*"Tyneside" + 0.008*"South" + 0.008*"needs" + 0.005*"management" + 0.005*"2022" + 0.005*"However" + 0.005*"effective" + 0.005*"homes" + 0.005*"2023"', '0.023*"’" + 0.010*"needs" + 0.007*"Tyneside" + 0.006*"South" + 0.006*"oversight" + 0.005*"14" + 0.005*"5" + 0.005*"carers" + 0.005*"risk" + 0.004*"9"']</t>
+    <t>['0.027*"’" + 0.010*"needs" + 0.008*"Tyneside" + 0.007*"South" + 0.006*"However" + 0.005*"5" + 0.005*"management" + 0.005*"carers" + 0.005*"oversight" + 0.005*"14"', '0.017*"’" + 0.006*"needs" + 0.006*"South" + 0.005*"Tyneside" + 0.005*"oversight" + 0.005*"management" + 0.005*"However" + 0.005*"effective" + 0.004*"2022" + 0.004*"practice"', '0.026*"’" + 0.010*"needs" + 0.008*"South" + 0.008*"Tyneside" + 0.006*"effective" + 0.005*"oversight" + 0.005*"carers" + 0.005*"9" + 0.005*"practice" + 0.005*"December"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -3652,7 +3652,7 @@
     <t>28/07/23</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"improve" + 0.006*"Southampton" + 0.005*"progress" + 0.005*"plans" + 0.005*"June" + 0.005*"5" + 0.004*"provide" + 0.004*"2023" + 0.004*"experiences"', '0.021*"’" + 0.006*"plans" + 0.005*"Southampton" + 0.005*"needs" + 0.005*"including" + 0.005*"16" + 0.004*"timely" + 0.004*"experiences" + 0.004*"well" + 0.004*"2023"', '0.013*"’" + 0.006*"plans" + 0.005*"progress" + 0.005*"5" + 0.005*"Southampton" + 0.004*"experiences" + 0.004*"improve" + 0.004*"timely" + 0.004*"including" + 0.004*"needs"']</t>
+    <t>['0.014*"’" + 0.005*"Southampton" + 0.005*"improve" + 0.005*"plans" + 0.004*"including" + 0.004*"experiences" + 0.004*"progress" + 0.004*"timely" + 0.004*"16" + 0.004*"make"', '0.014*"’" + 0.005*"progress" + 0.005*"plans" + 0.005*"Southampton" + 0.004*"experiences" + 0.004*"provide" + 0.004*"improve" + 0.004*"5" + 0.004*"good" + 0.004*"2023"', '0.019*"’" + 0.007*"plans" + 0.006*"Southampton" + 0.005*"needs" + 0.005*"5" + 0.005*"16" + 0.005*"including" + 0.005*"progress" + 0.004*"improve" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -3682,7 +3682,7 @@
     <t>to requires improvement</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"planning" + 0.007*"practice" + 0.006*"leaders" + 0.006*"number" + 0.006*"quality" + 0.005*"within" + 0.005*"effective" + 0.005*"carers" + 0.005*"protection"', '0.013*"’" + 0.009*"planning" + 0.006*"practice" + 0.006*"protection" + 0.006*"quality" + 0.006*"leaders" + 0.005*"within" + 0.005*"good" + 0.005*"always" + 0.005*"needs"', '0.014*"’" + 0.008*"quality" + 0.007*"planning" + 0.007*"practice" + 0.006*"need" + 0.006*"leaders" + 0.005*"always" + 0.005*"effective" + 0.005*"number" + 0.005*"risk"']</t>
+    <t>['0.014*"’" + 0.007*"planning" + 0.006*"quality" + 0.005*"practice" + 0.005*"number" + 0.005*"protection" + 0.005*"Southend" + 0.005*"always" + 0.005*"effective" + 0.005*"leaders"', '0.012*"’" + 0.010*"planning" + 0.008*"leaders" + 0.008*"quality" + 0.007*"practice" + 0.005*"within" + 0.005*"effective" + 0.005*"number" + 0.005*"carers" + 0.005*"needs"', '0.014*"’" + 0.007*"practice" + 0.007*"planning" + 0.006*"need" + 0.006*"always" + 0.006*"quality" + 0.006*"protection" + 0.005*"However" + 0.005*"well" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -3700,7 +3700,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"St" + 0.008*"Helens" + 0.008*"needs" + 0.007*"well" + 0.006*"good" + 0.006*"progress" + 0.005*"receive" + 0.005*"risk" + 0.005*"10"', '0.013*"’" + 0.008*"needs" + 0.007*"St" + 0.007*"Helens" + 0.006*"well" + 0.006*"need" + 0.006*"10" + 0.006*"progress" + 0.006*"21" + 0.005*"receive"', '0.016*"’" + 0.008*"Helens" + 0.006*"St" + 0.006*"well" + 0.005*"progress" + 0.005*"effective" + 0.005*"risk" + 0.005*"needs" + 0.005*"21" + 0.004*"receive"']</t>
+    <t>['0.010*"’" + 0.008*"Helens" + 0.007*"St" + 0.007*"well" + 0.007*"needs" + 0.005*"good" + 0.005*"need" + 0.005*"receive" + 0.005*"21" + 0.004*"10"', '0.017*"’" + 0.008*"needs" + 0.008*"St" + 0.007*"progress" + 0.007*"Helens" + 0.007*"well" + 0.006*"10" + 0.006*"risk" + 0.006*"good" + 0.005*"need"', '0.019*"’" + 0.008*"Helens" + 0.008*"St" + 0.005*"well" + 0.005*"21" + 0.005*"receive" + 0.005*"needs" + 0.005*"progress" + 0.005*"risk" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -3721,7 +3721,7 @@
     <t>0.1688</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.010*"needs" + 0.007*"progress" + 0.006*"practice" + 0.006*"ensure" + 0.005*"quality" + 0.005*"oversight" + 0.005*"health" + 0.005*"6" + 0.005*"2023"', '0.014*"’" + 0.012*"needs" + 0.006*"health" + 0.006*"quality" + 0.006*"practice" + 0.006*"Staffordshire" + 0.006*"oversight" + 0.005*"plans" + 0.005*"ensure" + 0.005*"progress"', '0.017*"’" + 0.012*"needs" + 0.006*"quality" + 0.006*"oversight" + 0.006*"Staffordshire" + 0.005*"ensure" + 0.005*"10" + 0.005*"impact" + 0.005*"progress" + 0.005*"health"']</t>
+    <t>['0.015*"’" + 0.013*"needs" + 0.006*"quality" + 0.006*"progress" + 0.006*"oversight" + 0.006*"health" + 0.005*"plans" + 0.005*"ensure" + 0.005*"10" + 0.005*"Council"', '0.013*"’" + 0.009*"needs" + 0.006*"quality" + 0.005*"ensure" + 0.005*"Staffordshire" + 0.005*"practice" + 0.005*"progress" + 0.004*"plans" + 0.004*"health" + 0.004*"oversight"', '0.021*"’" + 0.012*"needs" + 0.007*"practice" + 0.006*"oversight" + 0.006*"Staffordshire" + 0.006*"progress" + 0.006*"health" + 0.006*"ensure" + 0.006*"quality" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -3745,7 +3745,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"practice" + 0.007*"needs" + 0.007*"well" + 0.006*"Stockport" + 0.005*"strong" + 0.005*"risk" + 0.005*"quality" + 0.004*"ensure" + 0.004*"plans"', '0.010*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"risk" + 0.005*"Stockport" + 0.005*"needs" + 0.004*"team" + 0.004*"range" + 0.004*"ensure" + 0.004*"strong"', '0.012*"’" + 0.008*"well" + 0.008*"Stockport" + 0.007*"practice" + 0.007*"plans" + 0.006*"strong" + 0.006*"needs" + 0.005*"28" + 0.005*"ensure" + 0.005*"March"']</t>
+    <t>['0.009*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"Stockport" + 0.005*"needs" + 0.005*"leaders" + 0.005*"strong" + 0.004*"risk" + 0.004*"28" + 0.003*"response"', '0.013*"’" + 0.010*"well" + 0.008*"practice" + 0.008*"Stockport" + 0.006*"needs" + 0.006*"plans" + 0.005*"strong" + 0.005*"risk" + 0.005*"ensure" + 0.005*"28"', '0.010*"’" + 0.007*"well" + 0.007*"practice" + 0.007*"needs" + 0.006*"strong" + 0.006*"Stockport" + 0.006*"plans" + 0.005*"ensure" + 0.005*"risk" + 0.005*"range"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -3778,7 +3778,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.010*"leaders" + 0.009*"plans" + 0.007*"well" + 0.007*"on-Tees" + 0.007*"needs" + 0.006*"Stockton" + 0.006*"quality" + 0.006*"17" + 0.005*"senior"', '0.012*"’" + 0.007*"leaders" + 0.006*"plans" + 0.006*"well" + 0.005*"needs" + 0.005*"Stockton" + 0.005*"good" + 0.005*"quality" + 0.004*"on-Tees" + 0.004*"progress"', '0.017*"’" + 0.008*"plans" + 0.007*"leaders" + 0.007*"needs" + 0.007*"quality" + 0.006*"Stockton" + 0.006*"good" + 0.006*"on-Tees" + 0.006*"well" + 0.005*"carers"']</t>
+    <t>['0.021*"’" + 0.010*"leaders" + 0.007*"well" + 0.007*"plans" + 0.005*"on-Tees" + 0.005*"good" + 0.005*"needs" + 0.005*"Stockton" + 0.004*"senior" + 0.004*"quality"', '0.022*"’" + 0.009*"plans" + 0.008*"needs" + 0.008*"leaders" + 0.007*"well" + 0.007*"on-Tees" + 0.006*"good" + 0.006*"Stockton" + 0.006*"quality" + 0.006*"17"', '0.013*"’" + 0.008*"plans" + 0.008*"leaders" + 0.007*"quality" + 0.006*"Stockton" + 0.005*"needs" + 0.005*"on-Tees" + 0.004*"well" + 0.004*"senior" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -3799,7 +3799,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"needs" + 0.008*"on-Trent" + 0.008*"well" + 0.007*"plans" + 0.007*"However" + 0.007*"Stoke" + 0.006*"ensure" + 0.005*"protection" + 0.005*"quality"', '0.019*"’" + 0.007*"needs" + 0.007*"Stoke" + 0.007*"ensure" + 0.007*"However" + 0.007*"well" + 0.006*"on-Trent" + 0.006*"protection" + 0.006*"plans" + 0.005*"progress"', '0.013*"’" + 0.008*"needs" + 0.006*"Stoke" + 0.006*"on-Trent" + 0.006*"plans" + 0.005*"well" + 0.005*"quality" + 0.005*"protection" + 0.005*"However" + 0.004*"leaders"']</t>
+    <t>['0.021*"’" + 0.009*"needs" + 0.008*"However" + 0.008*"plans" + 0.007*"Stoke" + 0.007*"on-Trent" + 0.007*"well" + 0.006*"ensure" + 0.006*"protection" + 0.005*"quality"', '0.015*"’" + 0.008*"needs" + 0.007*"on-Trent" + 0.007*"well" + 0.006*"Stoke" + 0.006*"protection" + 0.005*"ensure" + 0.005*"effectively" + 0.005*"progress" + 0.005*"However"', '0.013*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"Stoke" + 0.006*"on-Trent" + 0.005*"However" + 0.005*"14" + 0.005*"progress" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -3826,7 +3826,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.007*"progress" + 0.007*"well" + 0.005*"effective" + 0.005*"good" + 0.005*"ensure" + 0.005*"leaders" + 0.004*"practice" + 0.004*"needs" + 0.004*"risk"', '0.017*"’" + 0.005*"effective" + 0.005*"leaders" + 0.005*"well" + 0.004*"ensure" + 0.004*"carers" + 0.004*"progress" + 0.004*"good" + 0.003*"high" + 0.003*"use"', '0.014*"’" + 0.007*"well" + 0.007*"progress" + 0.005*"good" + 0.005*"practice" + 0.004*"leaders" + 0.004*"ensure" + 0.004*"effective" + 0.004*"high" + 0.004*"Suffolk"']</t>
+    <t>['0.014*"’" + 0.007*"well" + 0.006*"progress" + 0.005*"leaders" + 0.005*"effective" + 0.005*"carers" + 0.005*"good" + 0.004*"need" + 0.004*"ensure" + 0.004*"needs"', '0.013*"’" + 0.006*"well" + 0.006*"progress" + 0.005*"effective" + 0.005*"ensure" + 0.004*"practice" + 0.004*"leaders" + 0.004*"good" + 0.004*"high" + 0.004*"Suffolk"', '0.012*"’" + 0.006*"well" + 0.006*"progress" + 0.005*"good" + 0.005*"effective" + 0.004*"practice" + 0.004*"ensure" + 0.004*"leaders" + 0.004*"needs" + 0.003*"risk"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -3856,7 +3856,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"quality" + 0.006*"Sunderland" + 0.005*"TfC" + 0.004*"experienced" + 0.004*"risk" + 0.004*"need" + 0.004*"council"', '0.015*"’" + 0.008*"well" + 0.006*"quality" + 0.006*"needs" + 0.005*"Sunderland" + 0.005*"highly" + 0.005*"practice" + 0.005*"robust" + 0.004*"experienced" + 0.004*"protection"', '0.019*"’" + 0.007*"quality" + 0.006*"needs" + 0.006*"experienced" + 0.005*"well" + 0.005*"Sunderland" + 0.005*"good" + 0.005*"practice" + 0.005*"council" + 0.005*"protection"']</t>
+    <t>['0.013*"’" + 0.008*"Sunderland" + 0.007*"well" + 0.006*"needs" + 0.006*"quality" + 0.005*"council" + 0.005*"TfC" + 0.004*"experienced" + 0.004*"highly" + 0.004*"training"', '0.020*"’" + 0.008*"quality" + 0.007*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"Sunderland" + 0.005*"protection" + 0.005*"council" + 0.005*"good" + 0.005*"experienced"', '0.014*"’" + 0.007*"needs" + 0.007*"well" + 0.005*"quality" + 0.005*"experienced" + 0.005*"Sunderland" + 0.005*"parents" + 0.005*"TfC" + 0.004*"result" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -3883,7 +3883,7 @@
     <t>0.1782</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.012*"needs" + 0.010*"well" + 0.007*"practice" + 0.006*"progress" + 0.006*"17" + 0.005*"good" + 0.005*"quality" + 0.005*"plans" + 0.005*"carers"', '0.014*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"progress" + 0.006*"practice" + 0.005*"plans" + 0.005*"carers" + 0.005*"quality" + 0.005*"However" + 0.005*"effective"', '0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"practice" + 0.006*"progress" + 0.006*"effective" + 0.005*"plans" + 0.005*"17" + 0.004*"good" + 0.004*"carers"']</t>
+    <t>['0.015*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"practice" + 0.006*"progress" + 0.006*"carers" + 0.005*"quality" + 0.005*"17" + 0.005*"good" + 0.005*"plans"', '0.015*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"practice" + 0.007*"progress" + 0.005*"quality" + 0.005*"effective" + 0.005*"plans" + 0.005*"carers" + 0.005*"17"', '0.011*"’" + 0.010*"needs" + 0.009*"well" + 0.006*"plans" + 0.006*"practice" + 0.006*"good" + 0.005*"progress" + 0.005*"effective" + 0.005*"However" + 0.005*"17"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -3904,7 +3904,7 @@
     <t>0.1489</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.016*"needs" + 0.011*"Swindon" + 0.010*"well" + 0.009*"need" + 0.008*"plans" + 0.006*"always" + 0.006*"impact" + 0.006*"effective" + 0.005*"education"', '0.020*"’" + 0.010*"needs" + 0.008*"need" + 0.007*"Swindon" + 0.006*"health" + 0.006*"always" + 0.005*"well" + 0.005*"impact" + 0.005*"effective" + 0.005*"many"', '0.015*"’" + 0.008*"needs" + 0.008*"need" + 0.007*"always" + 0.006*"well" + 0.006*"Swindon" + 0.005*"clear" + 0.004*"home" + 0.004*"28" + 0.004*"health"']</t>
+    <t>['0.018*"’" + 0.012*"needs" + 0.008*"Swindon" + 0.007*"need" + 0.007*"well" + 0.007*"plans" + 0.006*"always" + 0.006*"impact" + 0.005*"Council" + 0.005*"many"', '0.023*"’" + 0.012*"needs" + 0.009*"Swindon" + 0.008*"well" + 0.008*"need" + 0.007*"always" + 0.006*"plans" + 0.005*"education" + 0.005*"impact" + 0.005*"effective"', '0.024*"’" + 0.014*"needs" + 0.009*"Swindon" + 0.009*"need" + 0.008*"well" + 0.006*"always" + 0.006*"plans" + 0.006*"health" + 0.006*"However" + 0.005*"lack"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -3925,7 +3925,7 @@
     <t>0.1619</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"plans" + 0.006*"impact" + 0.006*"always" + 0.006*"practice" + 0.006*"progress" + 0.005*"good" + 0.005*"well" + 0.005*"example" + 0.005*"needs"', '0.014*"’" + 0.006*"plans" + 0.006*"well" + 0.006*"progress" + 0.006*"impact" + 0.006*"always" + 0.005*"practice" + 0.005*"good" + 0.005*"need" + 0.005*"new"', '0.016*"’" + 0.007*"impact" + 0.007*"plans" + 0.007*"always" + 0.006*"good" + 0.006*"practice" + 0.005*"well" + 0.005*"progress" + 0.005*"needs" + 0.004*"However"']</t>
+    <t>['0.018*"’" + 0.008*"plans" + 0.006*"progress" + 0.006*"well" + 0.006*"practice" + 0.006*"always" + 0.006*"impact" + 0.005*"good" + 0.005*"need" + 0.005*"risk"', '0.012*"’" + 0.006*"always" + 0.005*"impact" + 0.005*"plans" + 0.005*"good" + 0.005*"progress" + 0.004*"quality" + 0.004*"well" + 0.004*"practice" + 0.004*"consistently"', '0.015*"’" + 0.008*"impact" + 0.007*"plans" + 0.006*"always" + 0.006*"good" + 0.006*"practice" + 0.006*"well" + 0.005*"progress" + 0.005*"needs" + 0.004*"example"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -3946,7 +3946,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.011*"well" + 0.009*"needs" + 0.007*"effective" + 0.005*"ensure" + 0.005*"need" + 0.005*"strong" + 0.005*"plans" + 0.005*"practice" + 0.005*"planning"', '0.012*"’" + 0.010*"well" + 0.007*"effective" + 0.006*"needs" + 0.005*"plans" + 0.005*"strong" + 0.005*"improve" + 0.005*"practice" + 0.004*"leaders" + 0.004*"planning"', '0.015*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"effective" + 0.006*"plans" + 0.005*"need" + 0.005*"ensure" + 0.005*"strong" + 0.004*"clear" + 0.004*"practice"']</t>
+    <t>['0.013*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"effective" + 0.005*"need" + 0.005*"practice" + 0.005*"strong" + 0.004*"benefit" + 0.004*"plans" + 0.004*"improve"', '0.020*"’" + 0.011*"well" + 0.008*"needs" + 0.008*"effective" + 0.006*"ensure" + 0.006*"planning" + 0.006*"plans" + 0.005*"need" + 0.005*"strong" + 0.005*"timely"', '0.013*"’" + 0.011*"well" + 0.006*"plans" + 0.006*"needs" + 0.006*"effective" + 0.005*"strong" + 0.005*"clear" + 0.004*"practice" + 0.004*"highly" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -3967,7 +3967,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.011*"well" + 0.005*"carers" + 0.004*"need" + 0.004*"plans" + 0.004*"ensure" + 0.004*"practice" + 0.004*"needs" + 0.004*"leaders" + 0.004*"Thurrock"', '0.015*"’" + 0.007*"well" + 0.005*"carers" + 0.005*"need" + 0.005*"needs" + 0.004*"effective" + 0.004*"ensure" + 0.004*"Thurrock" + 0.004*"practice" + 0.004*"leaders"', '0.011*"’" + 0.006*"well" + 0.006*"carers" + 0.005*"need" + 0.004*"needs" + 0.004*"protection" + 0.004*"practice" + 0.004*"ensure" + 0.004*"quality" + 0.004*"Thurrock"']</t>
+    <t>['0.015*"’" + 0.007*"well" + 0.006*"carers" + 0.004*"need" + 0.004*"leaders" + 0.004*"Thurrock" + 0.004*"protection" + 0.004*"needs" + 0.003*"ensure" + 0.003*"effective"', '0.011*"’" + 0.008*"well" + 0.005*"carers" + 0.005*"need" + 0.005*"needs" + 0.004*"ensure" + 0.004*"leaders" + 0.004*"impact" + 0.004*"effective" + 0.004*"Thurrock"', '0.013*"’" + 0.009*"well" + 0.006*"carers" + 0.005*"practice" + 0.005*"need" + 0.004*"needs" + 0.004*"ensure" + 0.004*"effective" + 0.004*"parents" + 0.004*"vulnerable"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -3988,7 +3988,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"well" + 0.009*"Torbay" + 0.007*"needs" + 0.006*"good" + 0.005*"effective" + 0.004*"team" + 0.004*"agencies" + 0.004*"supported" + 0.004*"21"', '0.020*"’" + 0.009*"well" + 0.007*"Torbay" + 0.006*"effective" + 0.006*"good" + 0.005*"needs" + 0.005*"team" + 0.005*"progress" + 0.005*"plans" + 0.004*"timely"', '0.013*"’" + 0.008*"well" + 0.005*"good" + 0.005*"needs" + 0.005*"Torbay" + 0.005*"timely" + 0.005*"21" + 0.004*"agencies" + 0.004*"quality" + 0.004*"2022"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.007*"Torbay" + 0.006*"needs" + 0.006*"effective" + 0.005*"good" + 0.005*"21" + 0.004*"education" + 0.004*"agencies" + 0.004*"1"', '0.015*"’" + 0.008*"well" + 0.008*"Torbay" + 0.005*"good" + 0.005*"needs" + 0.004*"progress" + 0.004*"quality" + 0.004*"timely" + 0.004*"effective" + 0.004*"2022"', '0.018*"’" + 0.010*"well" + 0.007*"Torbay" + 0.007*"good" + 0.006*"needs" + 0.005*"plans" + 0.005*"effective" + 0.004*"team" + 0.004*"2022" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -4009,7 +4009,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"needs" + 0.009*"Trafford" + 0.009*"well" + 0.007*"plans" + 0.006*"quality" + 0.006*"leaders" + 0.006*"impact" + 0.005*"placed" + 0.005*"practice"', '0.017*"’" + 0.009*"needs" + 0.007*"Trafford" + 0.007*"quality" + 0.007*"plans" + 0.006*"practice" + 0.006*"leaders" + 0.005*"well" + 0.005*"worker" + 0.005*"impact"', '0.015*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Trafford" + 0.006*"plans" + 0.006*"quality" + 0.005*"leaders" + 0.005*"2" + 0.004*"21" + 0.004*"practice"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Trafford" + 0.007*"quality" + 0.006*"plans" + 0.006*"leaders" + 0.005*"placed" + 0.005*"practice" + 0.005*"impact"', '0.014*"’" + 0.009*"Trafford" + 0.009*"needs" + 0.007*"well" + 0.006*"quality" + 0.005*"impact" + 0.005*"worker" + 0.005*"plans" + 0.005*"leaders" + 0.004*"practice"', '0.018*"’" + 0.010*"needs" + 0.009*"plans" + 0.007*"Trafford" + 0.007*"well" + 0.006*"quality" + 0.006*"practice" + 0.006*"leaders" + 0.005*"team" + 0.005*"21"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -4027,7 +4027,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50172854</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"leaders" + 0.006*"well" + 0.006*"needs" + 0.005*"oversight" + 0.005*"Senior" + 0.004*"4" + 0.004*"information" + 0.004*"Walsall" + 0.004*"15"', '0.020*"’" + 0.006*"needs" + 0.005*"leaders" + 0.005*"well" + 0.005*"Walsall" + 0.004*"4" + 0.004*"good" + 0.004*"2021" + 0.004*"positive" + 0.004*"information"', '0.024*"’" + 0.009*"leaders" + 0.007*"Walsall" + 0.006*"needs" + 0.005*"well" + 0.005*"information" + 0.005*"4" + 0.005*"progress" + 0.004*"good" + 0.004*"Senior"']</t>
+    <t>['0.024*"’" + 0.008*"leaders" + 0.006*"Walsall" + 0.006*"needs" + 0.006*"well" + 0.005*"Senior" + 0.005*"4" + 0.005*"information" + 0.005*"oversight" + 0.005*"plans"', '0.018*"’" + 0.008*"needs" + 0.007*"leaders" + 0.006*"well" + 0.004*"Walsall" + 0.004*"4" + 0.004*"oversight" + 0.004*"good" + 0.004*"risk" + 0.004*"Senior"', '0.020*"’" + 0.006*"leaders" + 0.005*"needs" + 0.005*"Walsall" + 0.005*"well" + 0.005*"information" + 0.004*"4" + 0.004*"positive" + 0.004*"oversight" + 0.004*"Senior"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4045,7 +4045,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50101635</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"number" + 0.005*"plans" + 0.005*"Senior" + 0.005*"progress" + 0.004*"provided" + 0.004*"information" + 0.004*"need"', '0.011*"’" + 0.007*"practice" + 0.007*"well" + 0.004*"home" + 0.004*"senior" + 0.004*"plans" + 0.004*"good" + 0.004*"progress" + 0.004*"information" + 0.004*"carers"', '0.016*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"Senior" + 0.005*"good" + 0.004*"small" + 0.004*"number" + 0.004*"plans" + 0.003*"need" + 0.003*"needs"']</t>
+    <t>['0.016*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"Senior" + 0.004*"need" + 0.004*"plans" + 0.004*"home" + 0.004*"information" + 0.004*"number" + 0.004*"good"', '0.015*"’" + 0.008*"well" + 0.006*"practice" + 0.005*"number" + 0.004*"plans" + 0.004*"carers" + 0.004*"Senior" + 0.004*"progress" + 0.004*"good" + 0.004*"needs"', '0.011*"’" + 0.007*"practice" + 0.006*"well" + 0.004*"progress" + 0.004*"number" + 0.004*"plans" + 0.004*"Senior" + 0.004*"information" + 0.004*"needs" + 0.003*"carers"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4069,7 +4069,7 @@
     <t>03/12/2021</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"practice" + 0.005*"Warwickshire" + 0.005*"plans" + 0.005*"carers" + 0.005*"22" + 0.004*"good" + 0.004*"3"', '0.011*"’" + 0.008*"plans" + 0.007*"Warwickshire" + 0.007*"well" + 0.006*"needs" + 0.005*"clear" + 0.004*"Senior" + 0.004*"information" + 0.004*"progress" + 0.004*"3"', '0.008*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"good" + 0.005*"carers" + 0.005*"supported" + 0.004*"progress" + 0.004*"Warwickshire"']</t>
+    <t>['0.013*"’" + 0.007*"plans" + 0.007*"needs" + 0.007*"Warwickshire" + 0.006*"well" + 0.006*"good" + 0.005*"clear" + 0.005*"practice" + 0.004*"November" + 0.004*"3"', '0.010*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"carers" + 0.005*"benefit" + 0.005*"Warwickshire" + 0.004*"supported" + 0.004*"progress"', '0.011*"’" + 0.006*"needs" + 0.005*"Warwickshire" + 0.005*"well" + 0.005*"plans" + 0.004*"carers" + 0.004*"practice" + 0.004*"information" + 0.004*"effective" + 0.004*"December"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4096,7 +4096,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"Berkshire" + 0.005*"West" + 0.005*"well" + 0.005*"need" + 0.004*"18" + 0.004*"plans" + 0.003*"needs" + 0.003*"early" + 0.003*"14"', '0.013*"’" + 0.007*"West" + 0.006*"well" + 0.006*"Berkshire" + 0.005*"14" + 0.004*"needs" + 0.004*"working" + 0.004*"agency" + 0.004*"early" + 0.004*"plans"', '0.017*"’" + 0.007*"Berkshire" + 0.006*"West" + 0.006*"well" + 0.004*"plans" + 0.004*"needs" + 0.004*"practice" + 0.004*"working" + 0.004*"18" + 0.004*"agency"']</t>
+    <t>['0.012*"’" + 0.006*"well" + 0.005*"West" + 0.005*"plans" + 0.004*"18" + 0.004*"14" + 0.004*"Berkshire" + 0.004*"needs" + 0.003*"agency" + 0.003*"working"', '0.013*"’" + 0.008*"Berkshire" + 0.007*"West" + 0.007*"well" + 0.005*"need" + 0.005*"early" + 0.004*"needs" + 0.004*"education" + 0.004*"plans" + 0.004*"14"', '0.017*"’" + 0.006*"West" + 0.006*"Berkshire" + 0.005*"well" + 0.004*"agency" + 0.004*"March" + 0.004*"needs" + 0.004*"working" + 0.004*"need" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>941</t>
@@ -4114,7 +4114,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"well" + 0.007*"Northamptonshire" + 0.006*"quality" + 0.006*"West" + 0.006*"needs" + 0.005*"NCT" + 0.005*"practice" + 0.004*"plans" + 0.004*"October"', '0.015*"’" + 0.007*"West" + 0.007*"Northamptonshire" + 0.006*"well" + 0.006*"quality" + 0.005*"practice" + 0.005*"NCT" + 0.004*"needs" + 0.004*"place" + 0.004*"experiences"', '0.019*"’" + 0.010*"Northamptonshire" + 0.007*"quality" + 0.006*"West" + 0.006*"practice" + 0.005*"impact" + 0.005*"3" + 0.005*"plans" + 0.005*"well" + 0.004*"needs"']</t>
+    <t>['0.021*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.006*"practice" + 0.006*"West" + 0.006*"well" + 0.006*"needs" + 0.005*"impact" + 0.005*"3" + 0.005*"NCT"', '0.017*"’" + 0.007*"Northamptonshire" + 0.007*"well" + 0.007*"West" + 0.006*"quality" + 0.005*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"NCT" + 0.004*"need"', '0.013*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.007*"West" + 0.005*"well" + 0.004*"2022" + 0.004*"impact" + 0.004*"practice" + 0.004*"14" + 0.004*"NCT"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4135,7 +4135,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"13" + 0.005*"West" + 0.005*"Sussex" + 0.004*"number" + 0.004*"health"', '0.017*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"Sussex" + 0.005*"supported" + 0.005*"West" + 0.005*"quality" + 0.005*"number" + 0.004*"actively"', '0.011*"’" + 0.006*"plans" + 0.005*"well" + 0.005*"health" + 0.005*"West" + 0.005*"13" + 0.005*"needs" + 0.005*"Sussex" + 0.004*"March" + 0.004*"clear"']</t>
+    <t>['0.018*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"well" + 0.006*"West" + 0.005*"Sussex" + 0.005*"13" + 0.005*"supported" + 0.005*"number" + 0.005*"quality"', '0.010*"’" + 0.006*"well" + 0.005*"Sussex" + 0.005*"plans" + 0.005*"West" + 0.004*"13" + 0.004*"quality" + 0.004*"needs" + 0.004*"supported" + 0.004*"advis"', '0.012*"’" + 0.006*"plans" + 0.006*"well" + 0.005*"needs" + 0.005*"practice" + 0.004*"number" + 0.004*"impact" + 0.004*"good" + 0.004*"health" + 0.004*"planning"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4153,7 +4153,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50187563</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.005*"Wigan" + 0.005*"needs" + 0.005*"quality" + 0.005*"plans" + 0.005*"May" + 0.004*"leaders" + 0.004*"2022" + 0.004*"practice" + 0.004*"well"', '0.012*"’" + 0.008*"May" + 0.008*"practice" + 0.007*"plans" + 0.006*"needs" + 0.006*"Wigan" + 0.005*"appropriate" + 0.005*"quality" + 0.005*"timely" + 0.005*"20"', '0.015*"’" + 0.008*"May" + 0.007*"plans" + 0.007*"practice" + 0.006*"quality" + 0.006*"needs" + 0.006*"appropriate" + 0.006*"Wigan" + 0.005*"leaders" + 0.005*"9"']</t>
+    <t>['0.014*"’" + 0.008*"May" + 0.008*"practice" + 0.007*"plans" + 0.007*"Wigan" + 0.006*"needs" + 0.006*"quality" + 0.006*"timely" + 0.005*"2022" + 0.005*"20"', '0.010*"’" + 0.006*"May" + 0.006*"appropriate" + 0.005*"quality" + 0.005*"plans" + 0.005*"leaders" + 0.004*"Wigan" + 0.004*"needs" + 0.004*"practice" + 0.004*"good"', '0.011*"’" + 0.006*"needs" + 0.006*"May" + 0.006*"plans" + 0.006*"appropriate" + 0.006*"quality" + 0.005*"practice" + 0.005*"Wigan" + 0.004*"leaders" + 0.004*"9"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4180,7 +4180,7 @@
     <t>12/12/23</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.011*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"Wiltshire" + 0.006*"supported" + 0.005*"ensure" + 0.005*"parents" + 0.005*"risk" + 0.005*"progress"', '0.022*"’" + 0.011*"well" + 0.007*"need" + 0.007*"progress" + 0.006*"needs" + 0.006*"including" + 0.006*"risk" + 0.006*"plans" + 0.006*"ensure" + 0.006*"Wiltshire"', '0.012*"well" + 0.011*"’" + 0.008*"needs" + 0.006*"parents" + 0.006*"Wiltshire" + 0.005*"progress" + 0.005*"including" + 0.005*"plans" + 0.005*"supported" + 0.005*"risk"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.007*"progress" + 0.007*"risk" + 0.007*"Wiltshire" + 0.007*"need" + 0.007*"needs" + 0.006*"including" + 0.006*"parents" + 0.005*"ensure"', '0.015*"’" + 0.011*"well" + 0.006*"need" + 0.006*"needs" + 0.005*"Wiltshire" + 0.005*"quality" + 0.005*"parents" + 0.005*"plans" + 0.005*"supported" + 0.004*"risk"', '0.016*"’" + 0.013*"well" + 0.009*"needs" + 0.006*"need" + 0.006*"progress" + 0.005*"plans" + 0.005*"including" + 0.005*"supported" + 0.005*"quality" + 0.005*"parents"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4210,7 +4210,7 @@
     <t>0.1719</t>
   </si>
   <si>
-    <t>['0.009*"practice" + 0.009*"well" + 0.009*"’" + 0.009*"good" + 0.007*"need" + 0.007*"quality" + 0.007*"progress" + 0.006*"place" + 0.006*"ensure" + 0.005*"needs"', '0.008*"needs" + 0.008*"good" + 0.007*"quality" + 0.007*"’" + 0.007*"well" + 0.007*"practice" + 0.007*"need" + 0.006*"effective" + 0.006*"progress" + 0.006*"plans"', '0.012*"quality" + 0.009*"’" + 0.008*"plans" + 0.007*"needs" + 0.007*"well" + 0.006*"progress" + 0.006*"practice" + 0.006*"good" + 0.006*"need" + 0.005*"place"']</t>
+    <t>['0.009*"quality" + 0.008*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"good" + 0.006*"need" + 0.006*"progress" + 0.006*"practice" + 0.006*"plans" + 0.005*"ensure"', '0.009*"practice" + 0.009*"well" + 0.008*"good" + 0.008*"plans" + 0.008*"’" + 0.007*"quality" + 0.007*"place" + 0.007*"need" + 0.007*"needs" + 0.006*"progress"', '0.010*"quality" + 0.009*"’" + 0.008*"good" + 0.007*"progress" + 0.007*"well" + 0.007*"need" + 0.006*"practice" + 0.006*"needs" + 0.006*"effective" + 0.006*"ensure"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4231,7 +4231,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"effective" + 0.004*"provided" + 0.004*"progress" + 0.004*"impact" + 0.004*"quality" + 0.004*"Wokingham"', '0.015*"’" + 0.008*"plans" + 0.007*"effective" + 0.007*"progress" + 0.006*"needs" + 0.005*"17" + 0.005*"quality" + 0.005*"experiences" + 0.005*"appropriate" + 0.005*"provided"', '0.011*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"effective" + 0.005*"provided" + 0.005*"6" + 0.005*"progress" + 0.005*"experiences" + 0.004*"good"']</t>
+    <t>['0.013*"’" + 0.006*"needs" + 0.006*"progress" + 0.005*"plans" + 0.005*"provided" + 0.005*"6" + 0.005*"effective" + 0.005*"quality" + 0.005*"experiences" + 0.005*"well"', '0.012*"’" + 0.007*"plans" + 0.006*"effective" + 0.005*"needs" + 0.005*"provided" + 0.005*"well" + 0.005*"impact" + 0.005*"parents" + 0.005*"progress" + 0.004*"good"', '0.013*"’" + 0.008*"plans" + 0.007*"effective" + 0.006*"well" + 0.005*"needs" + 0.005*"progress" + 0.005*"17" + 0.004*"experiences" + 0.004*"quality" + 0.004*"provided"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4252,7 +4252,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"needs" + 0.006*"Wolverhampton" + 0.005*"effective" + 0.005*"leaders" + 0.005*"strong" + 0.005*"risks" + 0.004*"well" + 0.004*"practice" + 0.004*"supported"', '0.016*"’" + 0.008*"needs" + 0.006*"quality" + 0.006*"Wolverhampton" + 0.006*"risks" + 0.005*"plans" + 0.005*"effective" + 0.005*"education" + 0.005*"receive" + 0.004*"leaders"', '0.013*"’" + 0.007*"effective" + 0.007*"needs" + 0.005*"plans" + 0.005*"Wolverhampton" + 0.005*"receive" + 0.004*"education" + 0.004*"risk" + 0.004*"City" + 0.004*"supported"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.006*"effective" + 0.005*"risks" + 0.005*"leaders" + 0.005*"Wolverhampton" + 0.005*"practice" + 0.005*"receive" + 0.005*"supported" + 0.005*"plans"', '0.013*"’" + 0.006*"Wolverhampton" + 0.006*"needs" + 0.006*"effective" + 0.005*"strong" + 0.005*"leaders" + 0.005*"plans" + 0.004*"risks" + 0.004*"education" + 0.004*"receive"', '0.014*"’" + 0.008*"needs" + 0.006*"effective" + 0.005*"quality" + 0.005*"plans" + 0.005*"City" + 0.005*"Wolverhampton" + 0.005*"risk" + 0.005*"receive" + 0.005*"risks"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4279,7 +4279,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.008*"well" + 0.008*"plans" + 0.007*"Worcestershire" + 0.006*"progress" + 0.006*"ensure" + 0.005*"leaders" + 0.005*"PAs" + 0.005*"improve"', '0.018*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"plans" + 0.006*"progress" + 0.006*"Worcestershire" + 0.006*"appropriate" + 0.006*"ensure" + 0.006*"leaders" + 0.005*"experiences"', '0.022*"’" + 0.008*"leaders" + 0.008*"plans" + 0.008*"well" + 0.007*"Worcestershire" + 0.007*"progress" + 0.006*"appropriate" + 0.006*"needs" + 0.005*"ensure" + 0.005*"improve"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"appropriate" + 0.004*"ensure" + 0.004*"Worcestershire" + 0.004*"leaders" + 0.004*"progress" + 0.004*"good"', '0.020*"’" + 0.009*"well" + 0.008*"ensure" + 0.007*"Worcestershire" + 0.007*"plans" + 0.006*"leaders" + 0.006*"needs" + 0.006*"appropriate" + 0.006*"progress" + 0.005*"PAs"', '0.021*"’" + 0.010*"plans" + 0.008*"needs" + 0.008*"progress" + 0.008*"well" + 0.008*"leaders" + 0.008*"Worcestershire" + 0.005*"appropriate" + 0.005*"15" + 0.005*"living"']</t>
   </si>
   <si>
     <t>urn</t>
@@ -5273,19 +5273,19 @@
         <v>95</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>96</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>97</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" t="s">
         <v>99</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
@@ -5294,32 +5294,32 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
         <v>101</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>102</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
       </c>
       <c r="M9" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\2532287_bournemouth, christchurch &amp; poole", ".\export_data\inspection_reports\2532287_bournemouth, christchurch &amp; poole")</f>
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q9" t="s">
         <v>12</v>
       </c>
       <c r="R9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
         <v>28</v>
@@ -5331,18 +5331,18 @@
         <v>16</v>
       </c>
       <c r="V9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
         <v>106</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>107</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>108</v>
@@ -5411,7 +5411,7 @@
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
         <v>120</v>
@@ -5549,7 +5549,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
         <v>143</v>
@@ -5570,13 +5570,13 @@
         <v>146</v>
       </c>
       <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
         <v>101</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>102</v>
-      </c>
-      <c r="L13" t="s">
-        <v>103</v>
       </c>
       <c r="M13" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80442_buckinghamshire", ".\export_data\inspection_reports\80442_buckinghamshire")</f>
@@ -5630,7 +5630,7 @@
         <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
@@ -5652,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q14" t="s">
         <v>12</v>
@@ -6044,7 +6044,7 @@
         <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -6066,16 +6066,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R20" t="s">
         <v>226</v>
@@ -6389,7 +6389,7 @@
         <v>278</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P25" t="s">
         <v>12</v>
@@ -6734,7 +6734,7 @@
         <v>335</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" t="s">
         <v>37</v>
@@ -6756,16 +6756,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" t="s">
         <v>12</v>
       </c>
       <c r="P30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R30" t="s">
         <v>339</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" t="s">
         <v>12</v>
@@ -7136,7 +7136,7 @@
         <v>395</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
         <v>396</v>
@@ -7481,7 +7481,7 @@
         <v>447</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
         <v>448</v>
@@ -7631,7 +7631,7 @@
         <v>469</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
         <v>37</v>
@@ -7653,16 +7653,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R43" t="s">
         <v>473</v>
@@ -7757,7 +7757,7 @@
         <v>485</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>486</v>
@@ -7826,7 +7826,7 @@
         <v>494</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
         <v>495</v>
@@ -8459,7 +8459,7 @@
         <v>586</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H55" t="s">
         <v>37</v>
@@ -8481,13 +8481,13 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q55" t="s">
         <v>12</v>
@@ -10262,7 +10262,7 @@
         <v>725</v>
       </c>
       <c r="J81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K81" t="s">
         <v>836</v>
@@ -10586,7 +10586,7 @@
         <v>874</v>
       </c>
       <c r="C86" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
         <v>875</v>
@@ -10655,7 +10655,7 @@
         <v>884</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D87" t="s">
         <v>885</v>
@@ -10724,7 +10724,7 @@
         <v>893</v>
       </c>
       <c r="C88" t="s">
-        <v>298</v>
+        <v>529</v>
       </c>
       <c r="D88" t="s">
         <v>894</v>
@@ -10793,7 +10793,7 @@
         <v>902</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
         <v>903</v>
@@ -10862,7 +10862,7 @@
         <v>909</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D90" t="s">
         <v>910</v>
@@ -10931,7 +10931,7 @@
         <v>917</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="D91" t="s">
         <v>918</v>
@@ -11069,7 +11069,7 @@
         <v>932</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
         <v>933</v>
@@ -11081,7 +11081,7 @@
         <v>935</v>
       </c>
       <c r="G93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H93" t="s">
         <v>37</v>
@@ -11103,16 +11103,16 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R93" t="s">
         <v>939</v>
@@ -11138,7 +11138,7 @@
         <v>942</v>
       </c>
       <c r="C94" t="s">
-        <v>298</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
         <v>943</v>
@@ -11276,7 +11276,7 @@
         <v>961</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
         <v>962</v>
@@ -11345,7 +11345,7 @@
         <v>969</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D97" t="s">
         <v>970</v>
@@ -11483,7 +11483,7 @@
         <v>985</v>
       </c>
       <c r="C99" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D99" t="s">
         <v>986</v>
@@ -11552,7 +11552,7 @@
         <v>993</v>
       </c>
       <c r="C100" t="s">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="D100" t="s">
         <v>994</v>
@@ -11564,7 +11564,7 @@
         <v>996</v>
       </c>
       <c r="G100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H100" t="s">
         <v>524</v>
@@ -11583,10 +11583,10 @@
         <v>12</v>
       </c>
       <c r="O100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q100" t="s">
         <v>12</v>
@@ -11684,7 +11684,7 @@
         <v>1008</v>
       </c>
       <c r="C102" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D102" t="s">
         <v>1009</v>
@@ -11753,7 +11753,7 @@
         <v>1019</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D103" t="s">
         <v>1020</v>
@@ -11822,7 +11822,7 @@
         <v>1029</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
         <v>1030</v>
@@ -11960,7 +11960,7 @@
         <v>1048</v>
       </c>
       <c r="C106" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D106" t="s">
         <v>1049</v>
@@ -12029,7 +12029,7 @@
         <v>1058</v>
       </c>
       <c r="C107" t="s">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c r="D107" t="s">
         <v>1059</v>
@@ -12098,7 +12098,7 @@
         <v>1069</v>
       </c>
       <c r="C108" t="s">
-        <v>62</v>
+        <v>298</v>
       </c>
       <c r="D108" t="s">
         <v>1070</v>
@@ -12161,7 +12161,7 @@
         <v>1076</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D109" t="s">
         <v>1077</v>
@@ -12230,7 +12230,7 @@
         <v>1085</v>
       </c>
       <c r="C110" t="s">
-        <v>311</v>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
         <v>1086</v>
@@ -12437,7 +12437,7 @@
         <v>1110</v>
       </c>
       <c r="C113" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D113" t="s">
         <v>1111</v>
@@ -12506,7 +12506,7 @@
         <v>1119</v>
       </c>
       <c r="C114" t="s">
-        <v>2</v>
+        <v>311</v>
       </c>
       <c r="D114" t="s">
         <v>1120</v>
@@ -12575,7 +12575,7 @@
         <v>1126</v>
       </c>
       <c r="C115" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D115" t="s">
         <v>1127</v>
@@ -12644,7 +12644,7 @@
         <v>1134</v>
       </c>
       <c r="C116" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D116" t="s">
         <v>1135</v>
@@ -12713,7 +12713,7 @@
         <v>1141</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D117" t="s">
         <v>1142</v>
@@ -12725,7 +12725,7 @@
         <v>1144</v>
       </c>
       <c r="G117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H117" t="s">
         <v>37</v>
@@ -12747,16 +12747,16 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R117" t="s">
         <v>1145</v>
@@ -12782,7 +12782,7 @@
         <v>1148</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
         <v>1149</v>
@@ -12851,7 +12851,7 @@
         <v>1158</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D119" t="s">
         <v>1159</v>
@@ -12920,7 +12920,7 @@
         <v>1167</v>
       </c>
       <c r="C120" t="s">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c r="D120" t="s">
         <v>1168</v>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O120" t="s">
         <v>12</v>
@@ -12989,7 +12989,7 @@
         <v>1174</v>
       </c>
       <c r="C121" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D121" t="s">
         <v>1175</v>
@@ -13001,7 +13001,7 @@
         <v>1177</v>
       </c>
       <c r="G121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H121" t="s">
         <v>37</v>
@@ -13023,16 +13023,16 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R121" t="s">
         <v>1178</v>
@@ -13058,7 +13058,7 @@
         <v>1181</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
         <v>1182</v>
@@ -13127,7 +13127,7 @@
         <v>1188</v>
       </c>
       <c r="C123" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D123" t="s">
         <v>1189</v>
@@ -13196,7 +13196,7 @@
         <v>1195</v>
       </c>
       <c r="C124" t="s">
-        <v>48</v>
+        <v>298</v>
       </c>
       <c r="D124" t="s">
         <v>1196</v>
@@ -13208,7 +13208,7 @@
         <v>1198</v>
       </c>
       <c r="G124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H124" t="s">
         <v>7</v>
@@ -13230,16 +13230,16 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O124" t="s">
         <v>12</v>
       </c>
       <c r="P124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q124" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R124" t="s">
         <v>1201</v>
@@ -13265,7 +13265,7 @@
         <v>1205</v>
       </c>
       <c r="C125" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D125" t="s">
         <v>1206</v>
@@ -13334,7 +13334,7 @@
         <v>1214</v>
       </c>
       <c r="C126" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
         <v>1215</v>
@@ -13403,7 +13403,7 @@
         <v>1224</v>
       </c>
       <c r="C127" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D127" t="s">
         <v>1225</v>
@@ -13472,7 +13472,7 @@
         <v>1230</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D128" t="s">
         <v>1231</v>
@@ -13541,7 +13541,7 @@
         <v>1237</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c r="D129" t="s">
         <v>1238</v>
@@ -13610,7 +13610,7 @@
         <v>1245</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="D130" t="s">
         <v>1246</v>
@@ -13679,7 +13679,7 @@
         <v>1256</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D131" t="s">
         <v>1257</v>
@@ -13748,7 +13748,7 @@
         <v>1263</v>
       </c>
       <c r="C132" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
         <v>1264</v>
@@ -13817,7 +13817,7 @@
         <v>1272</v>
       </c>
       <c r="C133" t="s">
-        <v>48</v>
+        <v>298</v>
       </c>
       <c r="D133" t="s">
         <v>1273</v>
@@ -13886,7 +13886,7 @@
         <v>1282</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D134" t="s">
         <v>1283</v>
@@ -13967,7 +13967,7 @@
         <v>1294</v>
       </c>
       <c r="G135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H135" t="s">
         <v>37</v>
@@ -13989,16 +13989,16 @@
         <v>0</v>
       </c>
       <c r="N135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P135" t="s">
         <v>12</v>
       </c>
       <c r="Q135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R135" t="s">
         <v>1295</v>
@@ -14093,7 +14093,7 @@
         <v>1305</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D137" t="s">
         <v>1306</v>
@@ -14162,7 +14162,7 @@
         <v>1312</v>
       </c>
       <c r="C138" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D138" t="s">
         <v>1313</v>
@@ -14231,7 +14231,7 @@
         <v>1319</v>
       </c>
       <c r="C139" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>1320</v>
@@ -14300,7 +14300,7 @@
         <v>1326</v>
       </c>
       <c r="C140" t="s">
-        <v>529</v>
+        <v>62</v>
       </c>
       <c r="D140" t="s">
         <v>1327</v>
@@ -14438,7 +14438,7 @@
         <v>1339</v>
       </c>
       <c r="C142" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D142" t="s">
         <v>1340</v>
@@ -14507,7 +14507,7 @@
         <v>1345</v>
       </c>
       <c r="C143" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D143" t="s">
         <v>1346</v>
@@ -14576,7 +14576,7 @@
         <v>1353</v>
       </c>
       <c r="C144" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D144" t="s">
         <v>1354</v>
@@ -14714,7 +14714,7 @@
         <v>1368</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="D146" t="s">
         <v>1369</v>
@@ -14783,7 +14783,7 @@
         <v>1375</v>
       </c>
       <c r="C147" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D147" t="s">
         <v>1376</v>
@@ -14852,7 +14852,7 @@
         <v>1381</v>
       </c>
       <c r="C148" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
         <v>1382</v>
@@ -14921,7 +14921,7 @@
         <v>1390</v>
       </c>
       <c r="C149" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D149" t="s">
         <v>1391</v>
@@ -14990,7 +14990,7 @@
         <v>1400</v>
       </c>
       <c r="C150" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D150" t="s">
         <v>1401</v>
@@ -15128,7 +15128,7 @@
         <v>1414</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D152" t="s">
         <v>1415</v>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="1448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="1447">
   <si>
     <t>80426</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"needs" + 0.007*"within" + 0.007*"leaders" + 0.007*"Barnsley" + 0.006*"practice" + 0.005*"plans" + 0.005*"understand" + 0.005*"2023" + 0.004*"11"', '0.019*"’" + 0.008*"leaders" + 0.007*"needs" + 0.006*"Barnsley" + 0.006*"within" + 0.005*"practice" + 0.005*"response" + 0.004*"plans" + 0.004*"11" + 0.004*"family"', '0.016*"’" + 0.008*"needs" + 0.007*"leaders" + 0.006*"practice" + 0.006*"within" + 0.005*"senior" + 0.004*"progress" + 0.004*"response" + 0.004*"Barnsley" + 0.004*"plans"']</t>
+    <t>['0.023*"’" + 0.008*"needs" + 0.007*"leaders" + 0.007*"Barnsley" + 0.006*"practice" + 0.006*"within" + 0.004*"senior" + 0.004*"response" + 0.004*"family" + 0.004*"plans"', '0.016*"’" + 0.009*"needs" + 0.008*"leaders" + 0.006*"practice" + 0.006*"within" + 0.005*"Barnsley" + 0.005*"15" + 0.004*"plans" + 0.004*"11" + 0.004*"understand"', '0.017*"’" + 0.007*"within" + 0.007*"needs" + 0.007*"leaders" + 0.005*"11" + 0.005*"plans" + 0.004*"September" + 0.004*"practice" + 0.004*"2023" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -106,7 +106,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.007*"needs" + 0.005*"practice" + 0.005*"leaders" + 0.005*"4" + 0.004*"East" + 0.004*"Bath" + 0.004*"Somerset" + 0.004*"effective"', '0.019*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"practice" + 0.005*"leaders" + 0.005*"effective" + 0.005*"receive" + 0.005*"plans" + 0.005*"Bath" + 0.005*"2022"', '0.017*"’" + 0.011*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"needs" + 0.005*"clear" + 0.004*"effective" + 0.004*"impact" + 0.004*"North" + 0.004*"protection"']</t>
+    <t>['0.015*"’" + 0.005*"well" + 0.004*"plans" + 0.004*"needs" + 0.004*"Somerset" + 0.004*"‘" + 0.004*"March" + 0.003*"effective" + 0.003*"practice" + 0.003*"28"', '0.017*"’" + 0.010*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"plans" + 0.005*"leaders" + 0.005*"Somerset" + 0.004*"effective" + 0.004*"clear" + 0.004*"Bath"', '0.020*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"4" + 0.005*"leaders" + 0.005*"impact" + 0.005*"North" + 0.005*"receive" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -151,7 +151,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.007*"needs" + 0.006*"ensure" + 0.006*"Bedford" + 0.006*"plans" + 0.005*"relationships" + 0.005*"good" + 0.004*"education" + 0.004*"need" + 0.004*"family"', '0.016*"’" + 0.006*"needs" + 0.006*"well" + 0.006*"ensure" + 0.005*"Bedford" + 0.005*"plans" + 0.005*"Borough" + 0.004*"supported" + 0.004*"15" + 0.004*"progress"', '0.018*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"ensure" + 0.006*"supported" + 0.006*"good" + 0.005*"progress" + 0.005*"family" + 0.005*"Borough" + 0.005*"plans"']</t>
+    <t>['0.020*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"ensure" + 0.006*"family" + 0.006*"good" + 0.006*"well" + 0.005*"Borough" + 0.005*"progress" + 0.005*"need"', '0.013*"’" + 0.006*"needs" + 0.005*"supported" + 0.004*"Bedford" + 0.004*"ensure" + 0.004*"well" + 0.004*"progress" + 0.004*"plans" + 0.004*"education" + 0.003*"relationships"', '0.020*"’" + 0.007*"ensure" + 0.007*"needs" + 0.006*"well" + 0.006*"Bedford" + 0.005*"supported" + 0.005*"education" + 0.004*"plans" + 0.004*"good" + 0.004*"relationships"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -193,7 +193,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"effective" + 0.006*"plans" + 0.006*"Birmingham" + 0.005*"risk" + 0.005*"progress" + 0.005*"20" + 0.005*"leaders"', '0.017*"’" + 0.009*"needs" + 0.005*"effective" + 0.005*"trust" + 0.005*"well" + 0.005*"appropriate" + 0.005*"3" + 0.004*"Birmingham" + 0.004*"plans" + 0.004*"progress"', '0.018*"’" + 0.011*"needs" + 0.007*"well" + 0.007*"effective" + 0.007*"plans" + 0.006*"progress" + 0.006*"Birmingham" + 0.006*"trust" + 0.005*"March" + 0.005*"appropriate"']</t>
+    <t>['0.012*"’" + 0.010*"needs" + 0.007*"well" + 0.007*"effective" + 0.006*"Birmingham" + 0.005*"plans" + 0.005*"progress" + 0.004*"response" + 0.004*"risk" + 0.004*"trust"', '0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"progress" + 0.006*"trust" + 0.006*"effective" + 0.006*"plans" + 0.006*"Birmingham" + 0.005*"3" + 0.005*"20"', '0.018*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"effective" + 0.006*"appropriate" + 0.005*"ensure" + 0.005*"well" + 0.005*"risk" + 0.005*"trust" + 0.005*"Birmingham"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -232,7 +232,7 @@
     <t>0.1834</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"practice" + 0.007*"quality" + 0.007*"needs" + 0.006*"Blackburn" + 0.006*"well" + 0.006*"Darwen" + 0.005*"impact" + 0.005*"means" + 0.005*"2022"', '0.015*"’" + 0.007*"needs" + 0.006*"impact" + 0.005*"practice" + 0.005*"4" + 0.005*"quality" + 0.005*"leaders" + 0.004*"Darwen" + 0.004*"planning" + 0.004*"Blackburn"', '0.014*"’" + 0.008*"practice" + 0.008*"needs" + 0.008*"Blackburn" + 0.007*"Darwen" + 0.007*"quality" + 0.007*"well" + 0.006*"impact" + 0.005*"plans" + 0.005*"planning"']</t>
+    <t>['0.010*"’" + 0.007*"practice" + 0.006*"Blackburn" + 0.006*"quality" + 0.005*"needs" + 0.005*"impact" + 0.005*"well" + 0.004*"means" + 0.004*"leaders" + 0.004*"experiences"', '0.017*"’" + 0.008*"practice" + 0.008*"needs" + 0.008*"Blackburn" + 0.007*"impact" + 0.007*"Darwen" + 0.007*"well" + 0.007*"quality" + 0.006*"planning" + 0.005*"4"', '0.013*"’" + 0.009*"needs" + 0.008*"quality" + 0.007*"Darwen" + 0.006*"practice" + 0.005*"Blackburn" + 0.005*"well" + 0.005*"impact" + 0.005*"plans" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -271,7 +271,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"Blackpool" + 0.007*"effective" + 0.005*"16" + 0.004*"plans" + 0.004*"response" + 0.004*"supported" + 0.004*"good"', '0.022*"’" + 0.012*"needs" + 0.011*"well" + 0.008*"Blackpool" + 0.006*"plans" + 0.006*"effective" + 0.006*"supported" + 0.005*"progress" + 0.005*"practice" + 0.005*"16"', '0.014*"’" + 0.009*"needs" + 0.007*"Blackpool" + 0.006*"well" + 0.006*"practice" + 0.005*"experiences" + 0.005*"5" + 0.004*"homes" + 0.004*"plans" + 0.004*"good"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.007*"Blackpool" + 0.006*"well" + 0.005*"effective" + 0.005*"16" + 0.004*"progress" + 0.004*"plans" + 0.004*"carers" + 0.004*"timely"', '0.018*"’" + 0.012*"needs" + 0.009*"well" + 0.007*"effective" + 0.006*"Blackpool" + 0.006*"16" + 0.006*"experiences" + 0.005*"supported" + 0.005*"practice" + 0.005*"good"', '0.016*"’" + 0.011*"well" + 0.010*"needs" + 0.009*"Blackpool" + 0.006*"plans" + 0.005*"practice" + 0.005*"effective" + 0.005*"supported" + 0.005*"quality" + 0.004*"including"']</t>
   </si>
   <si>
     <t>350</t>
@@ -295,7 +295,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.011*"needs" + 0.010*"Bolton" + 0.008*"well" + 0.008*"plans" + 0.006*"need" + 0.005*"planning" + 0.005*"strong" + 0.005*"effective" + 0.004*"September"', '0.016*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"Bolton" + 0.007*"well" + 0.006*"supported" + 0.005*"planning" + 0.005*"11" + 0.005*"timely" + 0.005*"strong"', '0.020*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"Bolton" + 0.006*"supported" + 0.006*"plans" + 0.005*"effective" + 0.005*"need" + 0.005*"11" + 0.005*"15"']</t>
+    <t>['0.019*"’" + 0.011*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"Bolton" + 0.005*"response" + 0.005*"planning" + 0.005*"timely" + 0.004*"need" + 0.004*"supported"', '0.018*"’" + 0.008*"well" + 0.008*"plans" + 0.008*"Bolton" + 0.008*"needs" + 0.005*"11" + 0.005*"effective" + 0.005*"strong" + 0.005*"supported" + 0.005*"need"', '0.020*"’" + 0.009*"Bolton" + 0.009*"needs" + 0.009*"well" + 0.007*"supported" + 0.006*"planning" + 0.006*"need" + 0.005*"plans" + 0.005*"15" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -328,7 +328,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"quality" + 0.006*"practice" + 0.005*"risk" + 0.005*"progress" + 0.005*"impact" + 0.005*"However" + 0.005*"Bournemouth" + 0.005*"17" + 0.005*"well"', '0.021*"’" + 0.006*"quality" + 0.006*"practice" + 0.005*"time" + 0.005*"Christchurch" + 0.005*"6" + 0.005*"progress" + 0.004*"17" + 0.004*"December" + 0.004*"risk"', '0.015*"’" + 0.005*"progress" + 0.005*"Poole" + 0.005*"quality" + 0.005*"Christchurch" + 0.004*"practice" + 0.004*"impact" + 0.004*"time" + 0.004*"many" + 0.004*"6"']</t>
+    <t>['0.019*"’" + 0.008*"quality" + 0.006*"practice" + 0.005*"progress" + 0.005*"time" + 0.005*"Bournemouth" + 0.005*"6" + 0.004*"well" + 0.004*"17" + 0.004*"Poole"', '0.015*"’" + 0.006*"practice" + 0.005*"quality" + 0.005*"17" + 0.005*"well" + 0.004*"impact" + 0.004*"Poole" + 0.004*"risk" + 0.004*"many" + 0.004*"right"', '0.018*"’" + 0.006*"progress" + 0.005*"practice" + 0.005*"Christchurch" + 0.005*"6" + 0.004*"risk" + 0.004*"Poole" + 0.004*"time" + 0.004*"impact" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -370,7 +370,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"needs" + 0.006*"risk" + 0.006*"Bracknell" + 0.006*"progress" + 0.005*"Forest" + 0.005*"good" + 0.005*"effective" + 0.004*"leaders" + 0.004*"need"', '0.021*"’" + 0.008*"good" + 0.007*"Forest" + 0.007*"quality" + 0.007*"needs" + 0.006*"Bracknell" + 0.006*"effective" + 0.006*"risk" + 0.006*"plans" + 0.006*"provided"', '0.014*"’" + 0.008*"Bracknell" + 0.007*"Forest" + 0.006*"risk" + 0.006*"impact" + 0.006*"quality" + 0.006*"provided" + 0.005*"2022" + 0.005*"needs" + 0.005*"effective"']</t>
+    <t>['0.019*"’" + 0.008*"Bracknell" + 0.007*"quality" + 0.007*"Forest" + 0.007*"risk" + 0.006*"effective" + 0.006*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"impact"', '0.012*"’" + 0.006*"needs" + 0.006*"risk" + 0.006*"good" + 0.006*"Forest" + 0.005*"progress" + 0.005*"Bracknell" + 0.005*"need" + 0.005*"effective" + 0.005*"plans"', '0.017*"’" + 0.007*"needs" + 0.007*"Forest" + 0.007*"good" + 0.006*"Bracknell" + 0.006*"progress" + 0.005*"risk" + 0.005*"provided" + 0.005*"quality" + 0.005*"2022"']</t>
   </si>
   <si>
     <t>846</t>
@@ -403,7 +403,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"needs" + 0.007*"good" + 0.006*"recording" + 0.005*"well" + 0.005*"plans" + 0.005*"However" + 0.005*"response" + 0.004*"leaders" + 0.004*"improve"', '0.014*"’" + 0.013*"needs" + 0.009*"good" + 0.006*"need" + 0.006*"recording" + 0.006*"leaders" + 0.005*"well" + 0.005*"Senior" + 0.005*"Brighton" + 0.004*"ensure"', '0.013*"’" + 0.009*"good" + 0.007*"well" + 0.006*"needs" + 0.006*"leaders" + 0.006*"recording" + 0.005*"plans" + 0.005*"arrangements" + 0.004*"timely" + 0.004*"Senior"']</t>
+    <t>['0.013*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"recording" + 0.005*"need" + 0.005*"leaders" + 0.004*"However" + 0.004*"plans" + 0.004*"timely" + 0.004*"Hove"', '0.012*"’" + 0.007*"good" + 0.007*"needs" + 0.005*"leaders" + 0.004*"well" + 0.004*"improve" + 0.004*"strong" + 0.004*"Brighton" + 0.004*"recording" + 0.004*"ensure"', '0.015*"’" + 0.011*"needs" + 0.010*"good" + 0.007*"well" + 0.007*"recording" + 0.006*"leaders" + 0.006*"plans" + 0.005*"need" + 0.005*"Senior" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -436,7 +436,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"good" + 0.008*"well" + 0.008*"Bristol" + 0.007*"progress" + 0.007*"needs" + 0.005*"health" + 0.005*"16" + 0.004*"leaders" + 0.004*"receive"', '0.019*"’" + 0.009*"well" + 0.009*"good" + 0.008*"needs" + 0.007*"Bristol" + 0.005*"health" + 0.005*"need" + 0.005*"leaders" + 0.005*"plans" + 0.004*"receive"', '0.017*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"Bristol" + 0.006*"good" + 0.005*"need" + 0.005*"ensure" + 0.005*"plans" + 0.005*"health" + 0.004*"27"']</t>
+    <t>['0.018*"’" + 0.008*"Bristol" + 0.007*"well" + 0.006*"good" + 0.006*"needs" + 0.005*"plans" + 0.005*"health" + 0.004*"2023" + 0.004*"16" + 0.004*"risk"', '0.022*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"Bristol" + 0.007*"good" + 0.006*"progress" + 0.005*"health" + 0.005*"leaders" + 0.005*"need" + 0.005*"27"', '0.018*"’" + 0.009*"good" + 0.009*"needs" + 0.008*"well" + 0.007*"Bristol" + 0.005*"always" + 0.005*"health" + 0.005*"progress" + 0.005*"leaders" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -463,7 +463,7 @@
     <t>0.159</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"number" + 0.005*"plans" + 0.005*"Buckinghamshire" + 0.005*"17" + 0.004*"practice" + 0.004*"protection" + 0.004*"2021" + 0.004*"well" + 0.004*"6"', '0.010*"’" + 0.004*"Buckinghamshire" + 0.004*"plans" + 0.004*"protection" + 0.004*"December" + 0.003*"number" + 0.003*"progress" + 0.003*"6" + 0.003*"17" + 0.003*"impact"', '0.015*"’" + 0.005*"plans" + 0.005*"17" + 0.005*"many" + 0.005*"6" + 0.004*"2021" + 0.004*"Buckinghamshire" + 0.004*"number" + 0.004*"small" + 0.004*"protection"']</t>
+    <t>['0.016*"’" + 0.006*"plans" + 0.005*"number" + 0.005*"Buckinghamshire" + 0.005*"17" + 0.004*"many" + 0.004*"protection" + 0.004*"6" + 0.004*"December" + 0.004*"practice"', '0.009*"’" + 0.004*"Buckinghamshire" + 0.004*"number" + 0.004*"plans" + 0.003*"17" + 0.003*"needs" + 0.003*"protection" + 0.003*"6" + 0.003*"2021" + 0.003*"December"', '0.013*"’" + 0.005*"number" + 0.005*"17" + 0.005*"plans" + 0.004*"6" + 0.004*"2021" + 0.004*"Buckinghamshire" + 0.004*"many" + 0.004*"practice" + 0.004*"small"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -499,7 +499,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"practice" + 0.006*"2021" + 0.006*"team" + 0.006*"needs" + 0.005*"protection" + 0.005*"need" + 0.005*"impact" + 0.005*"risk" + 0.005*"delay"', '0.009*"’" + 0.008*"needs" + 0.007*"protection" + 0.007*"2021" + 0.006*"quality" + 0.005*"impact" + 0.005*"timely" + 0.005*"Bury" + 0.005*"practice" + 0.004*"team"', '0.007*"’" + 0.006*"protection" + 0.006*"team" + 0.005*"2021" + 0.005*"needs" + 0.005*"Bury" + 0.005*"need" + 0.005*"practice" + 0.004*"5" + 0.004*"new"']</t>
+    <t>['0.012*"’" + 0.007*"2021" + 0.006*"needs" + 0.006*"practice" + 0.006*"impact" + 0.005*"protection" + 0.005*"quality" + 0.005*"team" + 0.004*"need" + 0.004*"progress"', '0.010*"’" + 0.007*"needs" + 0.007*"protection" + 0.006*"2021" + 0.006*"team" + 0.005*"Bury" + 0.005*"delay" + 0.005*"practice" + 0.005*"October" + 0.005*"new"', '0.011*"’" + 0.006*"protection" + 0.006*"2021" + 0.006*"team" + 0.006*"need" + 0.005*"needs" + 0.005*"risk" + 0.005*"quality" + 0.005*"practice" + 0.004*"Bury"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -529,7 +529,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"well" + 0.007*"Calderdale" + 0.005*"good" + 0.005*"practice" + 0.005*"need" + 0.005*"protection" + 0.004*"effective" + 0.004*"education" + 0.004*"inform"', '0.015*"’" + 0.006*"practice" + 0.005*"‘" + 0.004*"effective" + 0.004*"protection" + 0.004*"well" + 0.004*"Calderdale" + 0.004*"education" + 0.003*"leaders" + 0.003*"carers"', '0.015*"’" + 0.008*"well" + 0.007*"good" + 0.005*"practice" + 0.004*"effective" + 0.004*"Calderdale" + 0.004*"carers" + 0.004*"protection" + 0.004*"need" + 0.003*"‘"']</t>
+    <t>['0.009*"’" + 0.008*"well" + 0.006*"protection" + 0.006*"practice" + 0.005*"Calderdale" + 0.004*"education" + 0.004*"good" + 0.004*"effective" + 0.004*"carers" + 0.004*"‘"', '0.012*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"good" + 0.004*"Calderdale" + 0.004*"leaders" + 0.004*"education" + 0.004*"effective" + 0.004*"inform" + 0.003*"‘"', '0.020*"’" + 0.008*"well" + 0.006*"good" + 0.006*"Calderdale" + 0.005*"practice" + 0.005*"effective" + 0.005*"‘" + 0.004*"need" + 0.004*"carers" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -562,7 +562,10 @@
     <t>0.1882</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"well" + 0.006*"good" + 0.006*"needs" + 0.005*"impact" + 0.005*"progress" + 0.005*"need" + 0.005*"effective" + 0.004*"plans" + 0.004*"However"', '0.019*"’" + 0.011*"well" + 0.010*"good" + 0.009*"needs" + 0.009*"need" + 0.008*"teams" + 0.008*"plans" + 0.008*"impact" + 0.007*"quality" + 0.007*"However"', '0.011*"’" + 0.009*"good" + 0.009*"well" + 0.007*"impact" + 0.007*"teams" + 0.006*"needs" + 0.006*"need" + 0.006*"plans" + 0.006*"effective" + 0.005*"progress"']</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>['0.017*"’" + 0.009*"need" + 0.008*"good" + 0.007*"well" + 0.007*"needs" + 0.007*"teams" + 0.007*"impact" + 0.007*"plans" + 0.007*"quality" + 0.007*"However"', '0.014*"’" + 0.012*"well" + 0.010*"good" + 0.009*"needs" + 0.007*"teams" + 0.007*"need" + 0.007*"impact" + 0.006*"effective" + 0.006*"plans" + 0.005*"quality"', '0.010*"’" + 0.008*"well" + 0.007*"good" + 0.006*"plans" + 0.006*"impact" + 0.006*"needs" + 0.005*"teams" + 0.005*"However" + 0.005*"need" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -592,7 +595,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.011*"well" + 0.008*"good" + 0.007*"needs" + 0.007*"carers" + 0.007*"plans" + 0.006*"need" + 0.005*"effective" + 0.005*"Bedfordshire" + 0.005*"supported"', '0.015*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"progress" + 0.007*"need" + 0.006*"Central" + 0.005*"carers" + 0.005*"plans" + 0.005*"good" + 0.005*"information"', '0.008*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"need" + 0.005*"carers" + 0.004*"plans" + 0.004*"good" + 0.004*"progress" + 0.004*"Bedfordshire" + 0.004*"protection"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"carers" + 0.006*"need" + 0.006*"good" + 0.005*"Bedfordshire" + 0.005*"Leaders" + 0.005*"effective"', '0.013*"’" + 0.010*"well" + 0.006*"needs" + 0.006*"carers" + 0.006*"good" + 0.005*"plans" + 0.005*"Bedfordshire" + 0.005*"need" + 0.005*"progress" + 0.005*"Central"', '0.016*"’" + 0.009*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"good" + 0.006*"progress" + 0.006*"carers" + 0.005*"Central" + 0.005*"supported" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -628,7 +631,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"always" + 0.006*"good" + 0.006*"ensure" + 0.006*"plans" + 0.006*"need" + 0.006*"practice" + 0.005*"supported"', '0.013*"’" + 0.008*"good" + 0.008*"needs" + 0.008*"well" + 0.007*"plans" + 0.007*"practice" + 0.006*"need" + 0.006*"supported" + 0.006*"always" + 0.005*"However"', '0.012*"’" + 0.007*"well" + 0.007*"good" + 0.007*"needs" + 0.007*"plans" + 0.006*"practice" + 0.005*"leaders" + 0.005*"supported" + 0.005*"cases" + 0.004*"risk"']</t>
+    <t>['0.011*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"always" + 0.006*"effective" + 0.006*"need" + 0.006*"ensure" + 0.005*"supported" + 0.005*"plans"', '0.014*"’" + 0.008*"well" + 0.008*"good" + 0.008*"plans" + 0.007*"needs" + 0.006*"practice" + 0.006*"need" + 0.006*"supported" + 0.005*"ensure" + 0.005*"However"', '0.014*"’" + 0.008*"good" + 0.008*"needs" + 0.008*"well" + 0.006*"plans" + 0.006*"However" + 0.005*"quality" + 0.005*"carers" + 0.005*"practice" + 0.005*"always"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -664,7 +667,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.007*"needs" + 0.004*"practice" + 0.004*"effective" + 0.004*"leaders" + 0.004*"always" + 0.004*"learning" + 0.004*"plans" + 0.004*"progress"', '0.025*"’" + 0.007*"well" + 0.007*"needs" + 0.004*"practice" + 0.004*"impact" + 0.004*"timely" + 0.004*"risk" + 0.004*"progress" + 0.004*"always" + 0.004*"information"', '0.022*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"order" + 0.005*"effectively" + 0.004*"effective" + 0.004*"always" + 0.004*"impact"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.007*"needs" + 0.004*"practice" + 0.004*"plans" + 0.004*"effective" + 0.004*"order" + 0.004*"information" + 0.004*"use" + 0.004*"timely"', '0.019*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"practice" + 0.004*"effective" + 0.004*"impact" + 0.004*"order" + 0.004*"leaders" + 0.004*"timely" + 0.004*"progress"', '0.025*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"always" + 0.005*"practice" + 0.005*"effectively" + 0.004*"impact" + 0.004*"early" + 0.004*"learning" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -700,7 +703,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.005*"plans" + 0.005*"2" + 0.005*"quality" + 0.005*"impact" + 0.005*"risk" + 0.005*"changes" + 0.005*"21" + 0.004*"December" + 0.004*"Bradford"', '0.021*"’" + 0.008*"plans" + 0.005*"Bradford" + 0.005*"2022" + 0.005*"need" + 0.004*"impact" + 0.004*"◼" + 0.004*"City" + 0.004*"risk" + 0.004*"2"', '0.021*"’" + 0.007*"plans" + 0.006*"needs" + 0.005*"practice" + 0.005*"Metropolitan" + 0.005*"However" + 0.004*"Bradford" + 0.004*"Borough" + 0.004*"many" + 0.004*"quality"']</t>
+    <t>['0.013*"’" + 0.007*"plans" + 0.005*"needs" + 0.005*"need" + 0.005*"changes" + 0.005*"2" + 0.004*"impact" + 0.004*"many" + 0.004*"quality" + 0.004*"Borough"', '0.028*"’" + 0.007*"plans" + 0.006*"Bradford" + 0.005*"needs" + 0.005*"◼" + 0.005*"2" + 0.005*"November" + 0.005*"need" + 0.005*"practice" + 0.005*"risk"', '0.013*"’" + 0.005*"plans" + 0.005*"2022" + 0.004*"impact" + 0.004*"risk" + 0.004*"quality" + 0.004*"Bradford" + 0.004*"senior" + 0.004*"21" + 0.004*"worker"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -733,7 +736,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.008*"needs" + 0.008*"ensure" + 0.007*"well" + 0.007*"’" + 0.006*"effective" + 0.004*"clear" + 0.004*"good" + 0.004*"progress" + 0.004*"supported" + 0.004*"plans"', '0.014*"needs" + 0.011*"’" + 0.010*"well" + 0.009*"ensure" + 0.006*"plans" + 0.006*"clear" + 0.006*"practice" + 0.006*"effective" + 0.006*"progress" + 0.005*"experiences"', '0.016*"’" + 0.012*"well" + 0.011*"needs" + 0.008*"ensure" + 0.008*"effective" + 0.007*"clear" + 0.007*"good" + 0.006*"progress" + 0.006*"within" + 0.005*"plans"']</t>
+    <t>['0.013*"’" + 0.011*"needs" + 0.011*"well" + 0.008*"ensure" + 0.006*"effective" + 0.006*"good" + 0.006*"progress" + 0.005*"clear" + 0.005*"within" + 0.005*"plans"', '0.009*"needs" + 0.009*"’" + 0.007*"ensure" + 0.006*"well" + 0.006*"clear" + 0.005*"supported" + 0.005*"progress" + 0.005*"effective" + 0.004*"practice" + 0.004*"within"', '0.013*"needs" + 0.013*"’" + 0.011*"well" + 0.009*"ensure" + 0.008*"effective" + 0.007*"clear" + 0.006*"plans" + 0.006*"progress" + 0.006*"good" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -769,7 +772,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"well" + 0.007*"leaders" + 0.007*"quality" + 0.007*"Wakefield" + 0.005*"practice" + 0.005*"good" + 0.005*"November" + 0.005*"receive" + 0.005*"effective"', '0.019*"’" + 0.009*"Wakefield" + 0.008*"quality" + 0.008*"leaders" + 0.008*"November" + 0.007*"well" + 0.007*"good" + 0.006*"effective" + 0.006*"progress" + 0.006*"19"', '0.017*"’" + 0.007*"November" + 0.007*"effective" + 0.007*"Wakefield" + 0.007*"plans" + 0.007*"well" + 0.007*"quality" + 0.007*"good" + 0.006*"leaders" + 0.005*"practice"']</t>
+    <t>['0.013*"’" + 0.007*"well" + 0.007*"good" + 0.007*"leaders" + 0.006*"Wakefield" + 0.006*"quality" + 0.006*"November" + 0.005*"effective" + 0.005*"plans" + 0.005*"practice"', '0.018*"’" + 0.008*"effective" + 0.008*"Wakefield" + 0.007*"leaders" + 0.007*"quality" + 0.007*"well" + 0.007*"plans" + 0.006*"November" + 0.006*"receive" + 0.006*"progress"', '0.017*"’" + 0.009*"quality" + 0.009*"November" + 0.008*"well" + 0.008*"Wakefield" + 0.007*"leaders" + 0.007*"good" + 0.006*"needs" + 0.006*"practice" + 0.006*"plans"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -799,7 +802,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"needs" + 0.007*"March" + 0.007*"effective" + 0.006*"quality" + 0.006*"ensure" + 0.005*"well" + 0.005*"need" + 0.005*"However" + 0.005*"plans"', '0.015*"’" + 0.007*"needs" + 0.007*"March" + 0.006*"quality" + 0.005*"effective" + 0.005*"York" + 0.005*"supported" + 0.005*"ensure" + 0.004*"access" + 0.004*"18"', '0.012*"’" + 0.008*"quality" + 0.007*"needs" + 0.007*"March" + 0.006*"However" + 0.006*"York" + 0.006*"education" + 0.005*"effective" + 0.005*"plans" + 0.005*"practice"']</t>
+    <t>['0.019*"’" + 0.009*"needs" + 0.007*"March" + 0.007*"quality" + 0.007*"effective" + 0.006*"ensure" + 0.006*"York" + 0.005*"However" + 0.005*"well" + 0.005*"experiences"', '0.012*"’" + 0.007*"March" + 0.006*"quality" + 0.006*"needs" + 0.005*"effective" + 0.005*"practice" + 0.005*"York" + 0.005*"plans" + 0.005*"However" + 0.005*"good"', '0.011*"’" + 0.007*"quality" + 0.007*"needs" + 0.006*"March" + 0.005*"However" + 0.005*"supported" + 0.004*"effective" + 0.004*"18" + 0.004*"good" + 0.004*"well"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -835,7 +838,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.013*"well" + 0.011*"’" + 0.009*"quality" + 0.009*"leaders" + 0.009*"effective" + 0.005*"timely" + 0.005*"good" + 0.005*"plans" + 0.004*"highly" + 0.004*"Senior"', '0.015*"well" + 0.012*"’" + 0.010*"quality" + 0.008*"leaders" + 0.007*"effective" + 0.007*"plans" + 0.006*"good" + 0.005*"Senior" + 0.005*"arrangements" + 0.005*"highly"', '0.015*"well" + 0.013*"’" + 0.010*"effective" + 0.010*"quality" + 0.008*"leaders" + 0.007*"arrangements" + 0.006*"good" + 0.006*"timely" + 0.005*"plans" + 0.005*"ensure"']</t>
+    <t>['0.015*"well" + 0.015*"’" + 0.009*"leaders" + 0.009*"quality" + 0.009*"effective" + 0.006*"timely" + 0.006*"arrangements" + 0.006*"good" + 0.005*"plans" + 0.005*"highly"', '0.013*"well" + 0.011*"’" + 0.007*"effective" + 0.007*"quality" + 0.007*"leaders" + 0.006*"plans" + 0.005*"Senior" + 0.005*"good" + 0.005*"arrangements" + 0.004*"timely"', '0.015*"well" + 0.011*"quality" + 0.010*"’" + 0.009*"effective" + 0.008*"leaders" + 0.006*"good" + 0.006*"plans" + 0.006*"timely" + 0.006*"arrangements" + 0.005*"accommodation"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -865,7 +868,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"Scilly" + 0.007*"Isles" + 0.007*"practice" + 0.007*"needs" + 0.007*"information" + 0.006*"need" + 0.005*"protection" + 0.005*"place" + 0.005*"quality"', '0.025*"’" + 0.016*"Isles" + 0.014*"Scilly" + 0.011*"information" + 0.010*"practice" + 0.009*"need" + 0.008*"protection" + 0.007*"needs" + 0.006*"quality" + 0.006*"place"', '0.020*"’" + 0.010*"Scilly" + 0.009*"Isles" + 0.007*"information" + 0.007*"practice" + 0.007*"need" + 0.006*"needs" + 0.006*"quality" + 0.005*"place" + 0.005*"July"']</t>
+    <t>['0.021*"’" + 0.014*"Isles" + 0.011*"Scilly" + 0.009*"practice" + 0.008*"information" + 0.007*"protection" + 0.007*"need" + 0.006*"place" + 0.006*"needs" + 0.005*"quality"', '0.020*"’" + 0.010*"need" + 0.010*"Scilly" + 0.009*"practice" + 0.009*"Isles" + 0.009*"information" + 0.007*"needs" + 0.006*"quality" + 0.006*"risks" + 0.006*"protection"', '0.021*"’" + 0.014*"Scilly" + 0.012*"Isles" + 0.009*"information" + 0.007*"needs" + 0.007*"need" + 0.007*"practice" + 0.007*"protection" + 0.006*"place" + 0.006*"quality"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -901,7 +904,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.008*"well" + 0.007*"family" + 0.007*"supported" + 0.007*"Coventry" + 0.006*"needs" + 0.006*"strong" + 0.005*"plans" + 0.005*"1" + 0.004*"training"', '0.016*"’" + 0.009*"Coventry" + 0.008*"needs" + 0.008*"well" + 0.008*"supported" + 0.006*"plans" + 0.006*"need" + 0.006*"strong" + 0.006*"family" + 0.005*"20"', '0.019*"’" + 0.009*"well" + 0.007*"Coventry" + 0.007*"needs" + 0.006*"plans" + 0.005*"need" + 0.004*"supported" + 0.004*"strong" + 0.004*"ensure" + 0.004*"training"']</t>
+    <t>['0.016*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Coventry" + 0.006*"supported" + 0.005*"strong" + 0.005*"plans" + 0.005*"need" + 0.005*"20" + 0.005*"PAs"', '0.023*"’" + 0.009*"Coventry" + 0.009*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"supported" + 0.006*"family" + 0.005*"need" + 0.005*"1" + 0.005*"strong"', '0.017*"’" + 0.009*"Coventry" + 0.009*"well" + 0.008*"supported" + 0.006*"family" + 0.006*"needs" + 0.006*"strong" + 0.005*"plans" + 0.005*"need" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -937,10 +940,7 @@
     <t>0.1983</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.008*"leaders" + 0.007*"practice" + 0.007*"needs" + 0.006*"October" + 0.006*"Darlington" + 0.005*"quality" + 0.005*"supported" + 0.005*"effective"', '0.018*"’" + 0.008*"well" + 0.006*"October" + 0.005*"need" + 0.005*"needs" + 0.005*"Darlington" + 0.005*"practice" + 0.005*"leaders" + 0.005*"understand" + 0.005*"10"', '0.018*"’" + 0.008*"needs" + 0.007*"leaders" + 0.007*"well" + 0.007*"October" + 0.006*"practice" + 0.006*"Darlington" + 0.005*"effective" + 0.005*"family" + 0.005*"education"']</t>
+    <t>['0.022*"’" + 0.008*"well" + 0.008*"October" + 0.007*"practice" + 0.006*"leaders" + 0.006*"needs" + 0.005*"Darlington" + 0.005*"supported" + 0.005*"effective" + 0.005*"quality"', '0.015*"’" + 0.008*"needs" + 0.007*"leaders" + 0.007*"Darlington" + 0.006*"well" + 0.005*"practice" + 0.005*"October" + 0.005*"effective" + 0.005*"family" + 0.004*"education"', '0.018*"’" + 0.010*"well" + 0.006*"October" + 0.006*"leaders" + 0.006*"needs" + 0.006*"practice" + 0.005*"Darlington" + 0.005*"quality" + 0.005*"appropriate" + 0.004*"21"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -979,7 +979,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"needs" + 0.006*"appropriate" + 0.005*"Derby" + 0.005*"plans" + 0.004*"progress" + 0.004*"quality" + 0.004*"good" + 0.004*"receive" + 0.004*"oversight"', '0.021*"’" + 0.010*"needs" + 0.008*"Derby" + 0.007*"receive" + 0.006*"quality" + 0.005*"appropriate" + 0.005*"leaders" + 0.005*"progress" + 0.005*"plans" + 0.005*"need"', '0.021*"’" + 0.010*"needs" + 0.008*"quality" + 0.007*"Derby" + 0.007*"receive" + 0.006*"well" + 0.006*"need" + 0.006*"progress" + 0.006*"plans" + 0.006*"leaders"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.006*"need" + 0.006*"quality" + 0.005*"receive" + 0.005*"leaders" + 0.005*"plans" + 0.005*"appropriate" + 0.005*"Derby" + 0.004*"progress"', '0.028*"’" + 0.009*"Derby" + 0.009*"needs" + 0.006*"receive" + 0.006*"well" + 0.006*"good" + 0.006*"leaders" + 0.005*"progress" + 0.005*"25" + 0.005*"plans"', '0.017*"’" + 0.010*"needs" + 0.008*"quality" + 0.007*"Derby" + 0.007*"receive" + 0.006*"progress" + 0.006*"appropriate" + 0.006*"plans" + 0.006*"need" + 0.005*"oversight"']</t>
   </si>
   <si>
     <t>830</t>
@@ -1006,7 +1006,7 @@
     <t>0.1913</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.007*"Derbyshire" + 0.006*"plans" + 0.005*"leaders" + 0.005*"needs" + 0.005*"positive" + 0.005*"good" + 0.004*"number" + 0.004*"10"', '0.015*"’" + 0.008*"well" + 0.007*"Derbyshire" + 0.005*"effective" + 0.005*"need" + 0.005*"health" + 0.005*"number" + 0.005*"positive" + 0.005*"October" + 0.004*"plans"', '0.009*"’" + 0.008*"well" + 0.005*"10" + 0.005*"Derbyshire" + 0.004*"needs" + 0.004*"good" + 0.004*"practice" + 0.004*"education" + 0.004*"plans" + 0.004*"30"']</t>
+    <t>['0.009*"’" + 0.005*"health" + 0.005*"Derbyshire" + 0.004*"needs" + 0.004*"well" + 0.004*"good" + 0.004*"plans" + 0.004*"30" + 0.004*"positive" + 0.004*"November"', '0.012*"’" + 0.010*"well" + 0.007*"Derbyshire" + 0.005*"positive" + 0.005*"effective" + 0.005*"needs" + 0.005*"plans" + 0.005*"need" + 0.005*"leaders" + 0.004*"education"', '0.018*"’" + 0.008*"well" + 0.007*"Derbyshire" + 0.006*"good" + 0.005*"plans" + 0.005*"10" + 0.005*"health" + 0.005*"education" + 0.005*"positive" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1036,7 +1036,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"well" + 0.005*"leaders" + 0.005*"risk" + 0.005*"health" + 0.005*"progress" + 0.004*"quality" + 0.004*"early" + 0.004*"time" + 0.004*"areas"', '0.010*"’" + 0.005*"case" + 0.005*"well" + 0.005*"Devon" + 0.004*"health" + 0.004*"areas" + 0.004*"progress" + 0.004*"quality" + 0.004*"risk" + 0.004*"leaders"', '0.009*"’" + 0.006*"well" + 0.005*"risk" + 0.005*"health" + 0.005*"protection" + 0.005*"leaders" + 0.005*"risks" + 0.004*"progress" + 0.004*"plans" + 0.004*"living"']</t>
+    <t>['0.010*"’" + 0.007*"well" + 0.005*"risk" + 0.005*"leaders" + 0.005*"progress" + 0.004*"health" + 0.004*"needs" + 0.004*"Devon" + 0.004*"plans" + 0.004*"practice"', '0.008*"’" + 0.005*"leaders" + 0.005*"well" + 0.005*"health" + 0.004*"risk" + 0.004*"progress" + 0.004*"areas" + 0.004*"Devon" + 0.004*"risks" + 0.004*"case"', '0.009*"’" + 0.006*"well" + 0.005*"health" + 0.004*"protection" + 0.004*"risk" + 0.004*"progress" + 0.004*"living" + 0.004*"leaders" + 0.004*"case" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1072,7 +1072,7 @@
     <t>0.1841</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"Doncaster" + 0.006*"well" + 0.006*"many" + 0.006*"records" + 0.005*"plans" + 0.005*"25" + 0.005*"leaders" + 0.005*"quality" + 0.005*"oversight"', '0.018*"’" + 0.007*"well" + 0.005*"Doncaster" + 0.005*"progress" + 0.005*"2022" + 0.005*"quality" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"many" + 0.005*"effective"', '0.023*"’" + 0.006*"leaders" + 0.006*"Doncaster" + 0.005*"well" + 0.005*"progress" + 0.004*"records" + 0.004*"oversight" + 0.004*"Trust" + 0.004*"made" + 0.004*"information"']</t>
+    <t>['0.020*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.006*"records" + 0.005*"leaders" + 0.005*"quality" + 0.005*"progress" + 0.004*"Trust" + 0.004*"many" + 0.004*"impact"', '0.025*"’" + 0.005*"well" + 0.005*"Doncaster" + 0.005*"plans" + 0.005*"experiences" + 0.005*"information" + 0.005*"records" + 0.004*"progress" + 0.004*"25" + 0.004*"many"', '0.015*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.006*"many" + 0.006*"leaders" + 0.005*"progress" + 0.005*"14" + 0.005*"receive" + 0.005*"plans" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>838</t>
@@ -1099,7 +1099,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"Dorset" + 0.007*"well" + 0.005*"good" + 0.005*"8" + 0.005*"needs" + 0.005*"arrangements" + 0.004*"27" + 0.004*"change" + 0.004*"need"', '0.016*"’" + 0.009*"Dorset" + 0.007*"good" + 0.005*"well" + 0.005*"needs" + 0.004*"partners" + 0.004*"leaders" + 0.004*"quality" + 0.004*"arrangements" + 0.004*"impact"', '0.011*"’" + 0.006*"good" + 0.006*"Dorset" + 0.005*"well" + 0.004*"arrangements" + 0.004*"October" + 0.004*"health" + 0.004*"September" + 0.004*"2021" + 0.004*"8"']</t>
+    <t>['0.009*"’" + 0.006*"good" + 0.006*"Dorset" + 0.005*"well" + 0.004*"8" + 0.004*"needs" + 0.004*"quality" + 0.003*"including" + 0.003*"leaders" + 0.003*"practice"', '0.017*"’" + 0.009*"Dorset" + 0.006*"well" + 0.006*"good" + 0.005*"needs" + 0.005*"27" + 0.005*"October" + 0.004*"Senior" + 0.004*"need" + 0.004*"including"', '0.013*"’" + 0.008*"Dorset" + 0.006*"good" + 0.005*"arrangements" + 0.005*"well" + 0.004*"change" + 0.004*"2021" + 0.004*"needs" + 0.004*"impact" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1126,7 +1126,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.012*"needs" + 0.008*"Dudley" + 0.006*"plans" + 0.006*"well" + 0.005*"quality" + 0.005*"always" + 0.005*"arrangements" + 0.005*"management" + 0.004*"31"', '0.016*"’" + 0.010*"needs" + 0.009*"Dudley" + 0.006*"arrangements" + 0.006*"well" + 0.005*"always" + 0.005*"ensure" + 0.005*"oversight" + 0.005*"October" + 0.005*"However"', '0.011*"needs" + 0.009*"’" + 0.006*"Dudley" + 0.005*"ensure" + 0.005*"well" + 0.004*"always" + 0.004*"oversight" + 0.004*"plans" + 0.004*"2022" + 0.004*"arrangements"']</t>
+    <t>['0.020*"’" + 0.014*"needs" + 0.009*"Dudley" + 0.006*"plans" + 0.006*"quality" + 0.005*"always" + 0.005*"ensure" + 0.004*"well" + 0.004*"progress" + 0.004*"October"', '0.013*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"arrangements" + 0.005*"Dudley" + 0.005*"always" + 0.004*"11" + 0.004*"plans" + 0.004*"quality" + 0.004*"oversight"', '0.011*"needs" + 0.010*"’" + 0.008*"Dudley" + 0.005*"arrangements" + 0.005*"ensure" + 0.005*"plans" + 0.005*"oversight" + 0.005*"31" + 0.005*"well" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1162,7 +1162,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"Durham" + 0.007*"plans" + 0.007*"May" + 0.006*"ensure" + 0.005*"practice" + 0.005*"20" + 0.004*"leaders"', '0.012*"’" + 0.012*"needs" + 0.009*"May" + 0.006*"well" + 0.006*"ensure" + 0.006*"plans" + 0.005*"Durham" + 0.005*"progress" + 0.005*"meetings" + 0.004*"risks"', '0.016*"’" + 0.011*"needs" + 0.008*"Durham" + 0.006*"well" + 0.006*"practice" + 0.006*"plans" + 0.006*"ensure" + 0.006*"May" + 0.005*"10" + 0.005*"family"']</t>
+    <t>['0.011*"’" + 0.009*"needs" + 0.006*"May" + 0.005*"well" + 0.005*"Durham" + 0.005*"plans" + 0.004*"practice" + 0.004*"10" + 0.004*"ensure" + 0.004*"identified"', '0.016*"’" + 0.011*"needs" + 0.008*"May" + 0.008*"well" + 0.008*"Durham" + 0.007*"plans" + 0.007*"ensure" + 0.006*"practice" + 0.005*"leaders" + 0.004*"supported"', '0.016*"’" + 0.011*"needs" + 0.008*"Durham" + 0.007*"well" + 0.006*"plans" + 0.006*"May" + 0.006*"ensure" + 0.005*"family" + 0.005*"practice" + 0.005*"number"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1198,7 +1198,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"plans" + 0.009*"well" + 0.009*"needs" + 0.008*"progress" + 0.007*"East" + 0.007*"Riding" + 0.006*"10" + 0.005*"good" + 0.005*"January"', '0.013*"’" + 0.009*"needs" + 0.007*"plans" + 0.007*"well" + 0.005*"progress" + 0.005*"East" + 0.005*"partners" + 0.005*"Riding" + 0.005*"education" + 0.004*"practice"', '0.014*"’" + 0.010*"needs" + 0.007*"plans" + 0.007*"well" + 0.006*"progress" + 0.005*"Riding" + 0.005*"30" + 0.005*"East" + 0.004*"2023" + 0.004*"education"']</t>
+    <t>['0.016*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"East" + 0.006*"Riding" + 0.005*"progress" + 0.004*"partners" + 0.004*"good" + 0.004*"10"', '0.014*"’" + 0.011*"needs" + 0.008*"plans" + 0.008*"well" + 0.008*"progress" + 0.005*"Riding" + 0.004*"East" + 0.004*"good" + 0.004*"education" + 0.004*"30"', '0.017*"’" + 0.010*"plans" + 0.010*"needs" + 0.009*"well" + 0.007*"East" + 0.007*"progress" + 0.007*"Riding" + 0.005*"10" + 0.005*"information" + 0.005*"partners"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1228,7 +1228,7 @@
     <t>0.1738</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.011*"well" + 0.010*"plans" + 0.009*"needs" + 0.007*"East" + 0.006*"including" + 0.006*"Sussex" + 0.005*"impact" + 0.005*"11" + 0.005*"provide"', '0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"East" + 0.005*"plans" + 0.005*"progress" + 0.005*"impact" + 0.005*"Sussex" + 0.004*"including" + 0.004*"effective"', '0.018*"’" + 0.009*"well" + 0.008*"progress" + 0.007*"plans" + 0.006*"Sussex" + 0.006*"needs" + 0.006*"effective" + 0.006*"East" + 0.005*"relationships" + 0.005*"impact"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"needs" + 0.007*"Sussex" + 0.007*"East" + 0.007*"impact" + 0.005*"progress" + 0.005*"including" + 0.005*"experiences"', '0.014*"’" + 0.008*"well" + 0.008*"plans" + 0.006*"East" + 0.006*"progress" + 0.006*"needs" + 0.005*"Sussex" + 0.005*"provide" + 0.005*"including" + 0.005*"effective"', '0.020*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"progress" + 0.007*"plans" + 0.006*"including" + 0.006*"East" + 0.005*"Sussex" + 0.005*"11" + 0.005*"experiences"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1264,7 +1264,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"progress" + 0.006*"well" + 0.005*"plans" + 0.005*"Essex" + 0.005*"understand" + 0.005*"need" + 0.004*"parents" + 0.004*"experiences" + 0.004*"quality"', '0.023*"’" + 0.007*"progress" + 0.007*"needs" + 0.007*"well" + 0.006*"Essex" + 0.006*"supported" + 0.005*"plans" + 0.005*"family" + 0.005*"‘" + 0.004*"new"', '0.014*"’" + 0.007*"well" + 0.007*"plans" + 0.006*"needs" + 0.006*"family" + 0.005*"understand" + 0.005*"progress" + 0.005*"leaders" + 0.005*"advisers" + 0.005*"risk"']</t>
+    <t>['0.021*"’" + 0.008*"well" + 0.007*"progress" + 0.006*"Essex" + 0.006*"needs" + 0.006*"family" + 0.005*"understand" + 0.005*"plans" + 0.005*"parents" + 0.005*"‘"', '0.018*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"well" + 0.006*"leaders" + 0.006*"progress" + 0.005*"family" + 0.005*"Essex" + 0.005*"understand" + 0.005*"advisers"', '0.012*"’" + 0.006*"progress" + 0.005*"risk" + 0.005*"plans" + 0.005*"well" + 0.005*"helped" + 0.004*"quality" + 0.004*"supported" + 0.004*"need" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1300,7 +1300,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"effective" + 0.006*"practice" + 0.006*"well" + 0.005*"quality" + 0.005*"timely" + 0.005*"needs" + 0.005*"good" + 0.004*"home" + 0.004*"need"', '0.013*"’" + 0.009*"effective" + 0.007*"good" + 0.006*"practice" + 0.006*"quality" + 0.006*"timely" + 0.006*"needs" + 0.006*"well" + 0.005*"early" + 0.005*"plans"', '0.016*"’" + 0.008*"effective" + 0.007*"good" + 0.006*"practice" + 0.006*"quality" + 0.006*"needs" + 0.005*"improve" + 0.005*"need" + 0.005*"well" + 0.005*"progress"']</t>
+    <t>['0.013*"’" + 0.007*"good" + 0.007*"practice" + 0.007*"quality" + 0.007*"effective" + 0.006*"well" + 0.005*"needs" + 0.005*"home" + 0.005*"plans" + 0.005*"need"', '0.014*"’" + 0.010*"effective" + 0.007*"good" + 0.006*"needs" + 0.006*"quality" + 0.006*"timely" + 0.006*"practice" + 0.005*"well" + 0.005*"improve" + 0.005*"need"', '0.014*"’" + 0.009*"effective" + 0.006*"practice" + 0.006*"needs" + 0.006*"good" + 0.005*"quality" + 0.005*"well" + 0.005*"early" + 0.005*"timely" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>916</t>
@@ -1330,7 +1330,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.006*"2022" + 0.005*"well" + 0.005*"February" + 0.005*"experienced" + 0.005*"plans" + 0.005*"timely" + 0.005*"family" + 0.004*"progress"', '0.020*"’" + 0.009*"February" + 0.009*"needs" + 0.009*"plans" + 0.006*"2022" + 0.006*"Gloucestershire" + 0.005*"well" + 0.005*"protection" + 0.005*"progress" + 0.005*"good"', '0.014*"’" + 0.008*"2022" + 0.008*"needs" + 0.005*"well" + 0.005*"progress" + 0.005*"appropriate" + 0.005*"plans" + 0.005*"Gloucestershire" + 0.004*"February" + 0.004*"good"']</t>
+    <t>['0.020*"’" + 0.010*"needs" + 0.008*"plans" + 0.007*"2022" + 0.006*"February" + 0.006*"well" + 0.006*"progress" + 0.005*"experienced" + 0.005*"appropriate" + 0.005*"leaders"', '0.010*"’" + 0.007*"needs" + 0.007*"2022" + 0.006*"February" + 0.005*"Gloucestershire" + 0.005*"plans" + 0.004*"well" + 0.004*"experienced" + 0.004*"progress" + 0.004*"18"', '0.019*"’" + 0.008*"February" + 0.007*"needs" + 0.007*"2022" + 0.006*"plans" + 0.005*"well" + 0.005*"Gloucestershire" + 0.005*"7" + 0.005*"good" + 0.005*"family"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1357,7 +1357,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"well" + 0.010*"practice" + 0.009*"needs" + 0.008*"risk" + 0.007*"planning" + 0.007*"need" + 0.007*"effective" + 0.007*"good" + 0.006*"plans"', '0.011*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"plans" + 0.007*"practice" + 0.006*"risk" + 0.006*"need" + 0.006*"planning" + 0.006*"good" + 0.005*"effective"', '0.011*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"practice" + 0.007*"needs" + 0.006*"always" + 0.006*"need" + 0.005*"good" + 0.005*"receive" + 0.005*"cases"']</t>
+    <t>['0.011*"’" + 0.008*"plans" + 0.007*"need" + 0.007*"needs" + 0.007*"practice" + 0.006*"well" + 0.006*"good" + 0.005*"risk" + 0.005*"always" + 0.004*"planning"', '0.013*"’" + 0.012*"well" + 0.007*"practice" + 0.007*"plans" + 0.007*"effective" + 0.007*"needs" + 0.006*"always" + 0.005*"risk" + 0.005*"good" + 0.005*"need"', '0.012*"’" + 0.011*"well" + 0.009*"needs" + 0.009*"practice" + 0.008*"risk" + 0.008*"planning" + 0.007*"need" + 0.007*"plans" + 0.006*"good" + 0.006*"quality"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1384,7 +1384,7 @@
     <t>0.187</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.006*"well" + 0.005*"plans" + 0.004*"highly" + 0.004*"leaders" + 0.004*"quality" + 0.004*"health" + 0.004*"practice" + 0.004*"Hampshire"', '0.019*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"leaders" + 0.005*"home" + 0.004*"strong" + 0.004*"quality" + 0.004*"Hampshire" + 0.004*"improve"', '0.021*"’" + 0.007*"needs" + 0.006*"plans" + 0.005*"quality" + 0.005*"well" + 0.005*"strong" + 0.004*"improve" + 0.004*"leaders" + 0.004*"home" + 0.003*"progress"']</t>
+    <t>['0.019*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.004*"home" + 0.004*"improve" + 0.004*"leaders" + 0.004*"Hampshire" + 0.004*"carers" + 0.004*"decisions"', '0.013*"’" + 0.006*"needs" + 0.004*"leaders" + 0.004*"strong" + 0.004*"improve" + 0.004*"well" + 0.004*"quality" + 0.004*"plans" + 0.004*"home" + 0.004*"health"', '0.022*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"well" + 0.006*"quality" + 0.005*"strong" + 0.004*"leaders" + 0.004*"highly" + 0.004*"home" + 0.004*"provide"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1417,7 +1417,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.006*"quality" + 0.006*"strong" + 0.005*"good" + 0.005*"plans" + 0.005*"progress" + 0.005*"early" + 0.005*"education" + 0.004*"need"', '0.015*"’" + 0.009*"well" + 0.007*"quality" + 0.005*"good" + 0.005*"strong" + 0.005*"impact" + 0.004*"timely" + 0.004*"practice" + 0.004*"health" + 0.004*"progress"', '0.016*"’" + 0.007*"well" + 0.006*"quality" + 0.005*"strong" + 0.005*"practice" + 0.004*"progress" + 0.004*"education" + 0.004*"needs" + 0.004*"good" + 0.004*"early"']</t>
+    <t>['0.010*"’" + 0.009*"well" + 0.007*"quality" + 0.005*"good" + 0.005*"strong" + 0.004*"timely" + 0.004*"experiences" + 0.004*"progress" + 0.004*"practice" + 0.004*"effective"', '0.021*"’" + 0.010*"well" + 0.006*"quality" + 0.006*"strong" + 0.005*"plans" + 0.005*"good" + 0.005*"needs" + 0.005*"progress" + 0.005*"impact" + 0.005*"education"', '0.014*"’" + 0.007*"well" + 0.006*"quality" + 0.006*"strong" + 0.005*"good" + 0.004*"early" + 0.004*"Senior" + 0.004*"health" + 0.004*"‘" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>884</t>
@@ -1444,7 +1444,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.006*"practice" + 0.005*"plans" + 0.005*"Herefordshire" + 0.005*"impact" + 0.005*"many" + 0.005*"quality" + 0.005*"needs" + 0.004*"lack" + 0.004*"carers"', '0.010*"’" + 0.005*"Herefordshire" + 0.005*"practice" + 0.004*"many" + 0.004*"impact" + 0.004*"needs" + 0.003*"18" + 0.003*"lack" + 0.003*"progress" + 0.003*"carers"', '0.019*"’" + 0.006*"lack" + 0.005*"practice" + 0.005*"needs" + 0.005*"Herefordshire" + 0.005*"impact" + 0.004*"oversight" + 0.004*"many" + 0.004*"need" + 0.004*"18"']</t>
+    <t>['0.019*"’" + 0.007*"Herefordshire" + 0.006*"needs" + 0.006*"practice" + 0.005*"lack" + 0.005*"plans" + 0.004*"many" + 0.004*"risk" + 0.004*"progress" + 0.004*"29"', '0.016*"’" + 0.005*"many" + 0.005*"practice" + 0.005*"lack" + 0.004*"impact" + 0.004*"ensure" + 0.004*"carers" + 0.004*"needs" + 0.004*"2022" + 0.004*"18"', '0.016*"’" + 0.006*"impact" + 0.005*"practice" + 0.005*"lack" + 0.005*"Herefordshire" + 0.005*"carers" + 0.004*"quality" + 0.004*"management" + 0.004*"oversight" + 0.004*"18"']</t>
   </si>
   <si>
     <t>919</t>
@@ -1471,7 +1471,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.007*"Hertfordshire" + 0.007*"needs" + 0.007*"well" + 0.005*"27" + 0.005*"receive" + 0.005*"positive" + 0.005*"family" + 0.004*"plans" + 0.004*"23"', '0.022*"’" + 0.006*"needs" + 0.005*"receive" + 0.005*"well" + 0.005*"Hertfordshire" + 0.005*"plans" + 0.004*"Leaders" + 0.004*"2023" + 0.004*"need" + 0.004*"positive"', '0.018*"’" + 0.007*"well" + 0.006*"Hertfordshire" + 0.005*"needs" + 0.005*"receive" + 0.004*"plans" + 0.004*"leaders" + 0.004*"Leaders" + 0.004*"risk" + 0.004*"need"']</t>
+    <t>['0.025*"’" + 0.008*"Hertfordshire" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"receive" + 0.005*"23" + 0.005*"2023" + 0.004*"need" + 0.004*"27"', '0.020*"’" + 0.006*"needs" + 0.006*"well" + 0.006*"Hertfordshire" + 0.005*"receive" + 0.004*"training" + 0.004*"risk" + 0.004*"positive" + 0.004*"working" + 0.004*"27"', '0.023*"’" + 0.006*"well" + 0.005*"positive" + 0.005*"Hertfordshire" + 0.004*"receive" + 0.004*"needs" + 0.004*"Leaders" + 0.003*"23" + 0.003*"leaders" + 0.003*"2023"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1498,7 +1498,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.009*"leaders" + 0.005*"well" + 0.005*"Isle" + 0.005*"plans" + 0.005*"needs" + 0.005*"Wight" + 0.005*"good" + 0.005*"progress" + 0.005*"time"', '0.019*"’" + 0.007*"leaders" + 0.007*"needs" + 0.006*"well" + 0.006*"Senior" + 0.005*"PAs" + 0.005*"improve" + 0.005*"supported" + 0.005*"progress" + 0.005*"3"', '0.014*"’" + 0.009*"leaders" + 0.005*"supported" + 0.005*"3" + 0.005*"well" + 0.005*"plans" + 0.005*"Senior" + 0.005*"improve" + 0.005*"Isle" + 0.004*"needs"']</t>
+    <t>['0.019*"’" + 0.007*"leaders" + 0.006*"well" + 0.006*"practice" + 0.006*"good" + 0.006*"Isle" + 0.005*"Wight" + 0.005*"3" + 0.005*"Senior" + 0.005*"plans"', '0.017*"’" + 0.011*"leaders" + 0.006*"needs" + 0.006*"well" + 0.005*"improve" + 0.005*"supported" + 0.005*"progress" + 0.005*"November" + 0.005*"Senior" + 0.005*"Wight"', '0.017*"’" + 0.006*"leaders" + 0.006*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"3" + 0.004*"practice" + 0.004*"effective" + 0.004*"Senior"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1519,7 +1519,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"Kent" + 0.007*"well" + 0.007*"needs" + 0.006*"Council" + 0.006*"supported" + 0.005*"County" + 0.005*"leaders" + 0.005*"progress" + 0.005*"practice"', '0.015*"’" + 0.010*"Kent" + 0.008*"needs" + 0.005*"well" + 0.005*"County" + 0.005*"progress" + 0.005*"Council" + 0.005*"supported" + 0.004*"arrangements" + 0.004*"leaders"', '0.020*"’" + 0.009*"Kent" + 0.007*"needs" + 0.006*"supported" + 0.006*"Council" + 0.005*"well" + 0.005*"County" + 0.004*"plans" + 0.004*"practice" + 0.004*"including"']</t>
+    <t>['0.012*"’" + 0.009*"Kent" + 0.006*"County" + 0.006*"well" + 0.006*"Council" + 0.005*"supported" + 0.005*"needs" + 0.004*"progress" + 0.004*"response" + 0.004*"leaders"', '0.016*"’" + 0.009*"Kent" + 0.007*"needs" + 0.005*"supported" + 0.005*"Council" + 0.005*"well" + 0.005*"leaders" + 0.004*"including" + 0.004*"2022" + 0.004*"progress"', '0.023*"’" + 0.011*"Kent" + 0.009*"needs" + 0.007*"well" + 0.006*"Council" + 0.006*"supported" + 0.005*"progress" + 0.005*"practice" + 0.005*"County" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1546,7 +1546,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"planning" + 0.007*"well" + 0.007*"number" + 0.006*"management" + 0.006*"needs" + 0.006*"practice" + 0.005*"Hull" + 0.005*"need" + 0.005*"protection"', '0.014*"’" + 0.007*"protection" + 0.007*"number" + 0.006*"planning" + 0.006*"need" + 0.006*"management" + 0.005*"risks" + 0.005*"agency" + 0.005*"Hull" + 0.005*"well"', '0.015*"’" + 0.007*"risks" + 0.006*"practice" + 0.006*"number" + 0.006*"planning" + 0.006*"Hull" + 0.005*"need" + 0.005*"protection" + 0.005*"well" + 0.005*"small"']</t>
+    <t>['0.014*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"protection" + 0.005*"number" + 0.005*"risks" + 0.005*"planning" + 0.005*"teams" + 0.005*"management" + 0.005*"25"', '0.020*"’" + 0.008*"number" + 0.006*"planning" + 0.006*"protection" + 0.006*"Hull" + 0.006*"practice" + 0.006*"well" + 0.006*"need" + 0.006*"management" + 0.006*"small"', '0.012*"’" + 0.008*"planning" + 0.006*"number" + 0.006*"need" + 0.005*"practice" + 0.005*"Hull" + 0.005*"protection" + 0.005*"oversight" + 0.005*"impact" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1576,7 +1576,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"good" + 0.006*"quality" + 0.006*"practice" + 0.005*"senior" + 0.005*"Senior" + 0.005*"well" + 0.004*"plans" + 0.004*"protection" + 0.004*"needs"', '0.013*"’" + 0.008*"quality" + 0.006*"practice" + 0.006*"training" + 0.006*"well" + 0.005*"permanence" + 0.005*"protection" + 0.005*"good" + 0.005*"Senior" + 0.005*"response"', '0.009*"’" + 0.006*"plans" + 0.006*"practice" + 0.006*"good" + 0.006*"needs" + 0.005*"permanence" + 0.005*"quality" + 0.005*"team" + 0.005*"protection" + 0.005*"well"']</t>
+    <t>['0.012*"’" + 0.007*"permanence" + 0.007*"quality" + 0.006*"practice" + 0.006*"well" + 0.005*"good" + 0.005*"training" + 0.005*"Senior" + 0.005*"plans" + 0.004*"protection"', '0.013*"’" + 0.007*"good" + 0.007*"practice" + 0.006*"quality" + 0.005*"well" + 0.005*"need" + 0.005*"permanence" + 0.005*"needs" + 0.005*"plans" + 0.005*"protection"', '0.009*"’" + 0.007*"quality" + 0.005*"plans" + 0.005*"needs" + 0.005*"protection" + 0.005*"senior" + 0.005*"good" + 0.005*"practice" + 0.004*"Senior" + 0.004*"training"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1615,7 +1615,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"progress" + 0.007*"quality" + 0.007*"plans" + 0.007*"Knowsley" + 0.006*"needs" + 0.005*"good" + 0.005*"2021" + 0.005*"11" + 0.005*"risk"', '0.014*"’" + 0.009*"progress" + 0.006*"needs" + 0.006*"plans" + 0.005*"Knowsley" + 0.005*"experiences" + 0.005*"impact" + 0.005*"2021" + 0.005*"abuse" + 0.004*"need"', '0.012*"’" + 0.009*"needs" + 0.008*"quality" + 0.008*"plans" + 0.006*"2021" + 0.006*"need" + 0.006*"progress" + 0.006*"Knowsley" + 0.005*"impact" + 0.005*"experiences"']</t>
+    <t>['0.014*"’" + 0.006*"progress" + 0.005*"plans" + 0.005*"quality" + 0.004*"Knowsley" + 0.004*"needs" + 0.004*"good" + 0.004*"experiences" + 0.004*"2021" + 0.004*"risk"', '0.015*"’" + 0.010*"progress" + 0.009*"plans" + 0.008*"needs" + 0.008*"quality" + 0.008*"Knowsley" + 0.006*"2021" + 0.005*"need" + 0.005*"experiences" + 0.005*"impact"', '0.013*"’" + 0.007*"needs" + 0.007*"progress" + 0.006*"quality" + 0.006*"2021" + 0.006*"11" + 0.006*"plans" + 0.005*"good" + 0.005*"need" + 0.005*"experiences"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1645,7 +1645,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"need" + 0.006*"plans" + 0.005*"live" + 0.005*"9" + 0.005*"supported" + 0.005*"progress" + 0.005*"Lancashire"', '0.017*"’" + 0.009*"need" + 0.009*"well" + 0.009*"needs" + 0.008*"Lancashire" + 0.006*"plans" + 0.005*"positive" + 0.005*"practice" + 0.005*"number" + 0.005*"homes"', '0.015*"’" + 0.009*"well" + 0.006*"need" + 0.006*"supported" + 0.005*"practice" + 0.005*"health" + 0.005*"Lancashire" + 0.005*"positive" + 0.005*"needs" + 0.005*"parents"']</t>
+    <t>['0.014*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"need" + 0.007*"Lancashire" + 0.005*"practice" + 0.005*"progress" + 0.005*"9" + 0.004*"parents" + 0.004*"health"', '0.016*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"need" + 0.005*"Lancashire" + 0.005*"good" + 0.004*"positive" + 0.004*"number" + 0.004*"plans" + 0.004*"health"', '0.018*"’" + 0.007*"supported" + 0.007*"need" + 0.007*"well" + 0.006*"Lancashire" + 0.006*"plans" + 0.006*"positive" + 0.006*"needs" + 0.005*"live" + 0.005*"parents"']</t>
   </si>
   <si>
     <t>383</t>
@@ -1669,7 +1669,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Leeds" + 0.005*"ensure" + 0.005*"risk" + 0.005*"practice" + 0.004*"making" + 0.004*"March" + 0.004*"21"', '0.013*"’" + 0.007*"Leeds" + 0.006*"needs" + 0.005*"plans" + 0.005*"protection" + 0.005*"supported" + 0.004*"4" + 0.004*"risk" + 0.004*"benefit" + 0.004*"education"', '0.017*"’" + 0.008*"Leeds" + 0.006*"risk" + 0.006*"well" + 0.005*"2022" + 0.005*"practice" + 0.005*"needs" + 0.005*"February" + 0.004*"4" + 0.004*"ensure"']</t>
+    <t>['0.018*"’" + 0.008*"Leeds" + 0.007*"well" + 0.007*"needs" + 0.006*"risk" + 0.006*"ensure" + 0.004*"supported" + 0.004*"4" + 0.004*"information" + 0.004*"protection"', '0.011*"’" + 0.007*"Leeds" + 0.006*"needs" + 0.004*"well" + 0.004*"protection" + 0.004*"practice" + 0.004*"4" + 0.004*"risk" + 0.004*"February" + 0.004*"21"', '0.016*"’" + 0.007*"needs" + 0.007*"Leeds" + 0.006*"practice" + 0.005*"risk" + 0.005*"plans" + 0.004*"well" + 0.004*"February" + 0.004*"21" + 0.004*"4"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1702,7 +1702,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.011*"well" + 0.009*"2021" + 0.008*"Leicester" + 0.006*"good" + 0.006*"needs" + 0.005*"number" + 0.005*"20" + 0.005*"ensure" + 0.005*"1"', '0.018*"’" + 0.008*"Leicester" + 0.007*"2021" + 0.007*"well" + 0.007*"needs" + 0.006*"ensure" + 0.006*"good" + 0.005*"number" + 0.005*"20" + 0.005*"Council"', '0.018*"’" + 0.009*"2021" + 0.007*"needs" + 0.007*"well" + 0.007*"Leicester" + 0.006*"good" + 0.005*"ensure" + 0.005*"number" + 0.005*"improve" + 0.005*"1"']</t>
+    <t>['0.024*"’" + 0.009*"2021" + 0.008*"well" + 0.007*"needs" + 0.006*"Leicester" + 0.005*"good" + 0.005*"Council" + 0.005*"September" + 0.005*"ensure" + 0.005*"circumstances"', '0.016*"’" + 0.011*"Leicester" + 0.008*"2021" + 0.008*"needs" + 0.008*"well" + 0.007*"good" + 0.007*"ensure" + 0.006*"number" + 0.005*"1" + 0.005*"20"', '0.020*"’" + 0.010*"well" + 0.008*"2021" + 0.006*"good" + 0.005*"Leicester" + 0.005*"20" + 0.005*"number" + 0.005*"needs" + 0.005*"ensure" + 0.005*"1"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1735,7 +1735,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"good" + 0.008*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"impact" + 0.005*"quality" + 0.005*"effective" + 0.004*"risk" + 0.004*"need"', '0.014*"’" + 0.009*"well" + 0.008*"good" + 0.008*"needs" + 0.007*"effective" + 0.006*"quality" + 0.006*"need" + 0.005*"education" + 0.005*"impact" + 0.005*"practice"', '0.008*"’" + 0.007*"effective" + 0.006*"quality" + 0.005*"good" + 0.005*"needs" + 0.005*"practice" + 0.004*"well" + 0.004*"impact" + 0.004*"education" + 0.004*"protection"']</t>
+    <t>['0.010*"’" + 0.010*"good" + 0.007*"well" + 0.006*"quality" + 0.006*"needs" + 0.006*"effective" + 0.005*"practice" + 0.004*"leaders" + 0.004*"plans" + 0.004*"impact"', '0.009*"’" + 0.005*"quality" + 0.005*"well" + 0.005*"impact" + 0.004*"effective" + 0.004*"needs" + 0.004*"practice" + 0.004*"good" + 0.003*"progress" + 0.003*"need"', '0.013*"’" + 0.010*"well" + 0.008*"needs" + 0.008*"good" + 0.008*"effective" + 0.006*"practice" + 0.006*"quality" + 0.006*"education" + 0.006*"need" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1765,7 +1765,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.006*"Lincolnshire" + 0.005*"needs" + 0.005*"well" + 0.004*"plans" + 0.004*"effective" + 0.004*"April" + 0.004*"progress" + 0.003*"quality" + 0.003*"education"', '0.020*"’" + 0.007*"Lincolnshire" + 0.007*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"family" + 0.004*"progress" + 0.004*"need" + 0.004*"team" + 0.004*"number"', '0.024*"’" + 0.008*"Lincolnshire" + 0.007*"needs" + 0.006*"well" + 0.005*"progress" + 0.005*"24" + 0.005*"plans" + 0.005*"family" + 0.004*"28" + 0.004*"need"']</t>
+    <t>['0.024*"’" + 0.008*"needs" + 0.006*"Lincolnshire" + 0.005*"progress" + 0.005*"well" + 0.005*"plans" + 0.004*"family" + 0.004*"24" + 0.004*"number" + 0.004*"April"', '0.017*"’" + 0.006*"Lincolnshire" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.004*"24" + 0.004*"need" + 0.004*"education" + 0.004*"provide" + 0.004*"April"', '0.022*"’" + 0.009*"Lincolnshire" + 0.007*"well" + 0.005*"needs" + 0.005*"progress" + 0.005*"family" + 0.005*"plans" + 0.004*"28" + 0.004*"2023" + 0.004*"offer"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1795,7 +1795,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.007*"needs" + 0.007*"always" + 0.006*"practice" + 0.006*"quality" + 0.006*"Liverpool" + 0.006*"need" + 0.005*"protection" + 0.005*"24" + 0.005*"timely"', '0.015*"’" + 0.007*"need" + 0.006*"needs" + 0.006*"quality" + 0.005*"Liverpool" + 0.005*"practice" + 0.004*"always" + 0.004*"24" + 0.004*"timely" + 0.004*"protection"', '0.018*"’" + 0.008*"practice" + 0.007*"needs" + 0.007*"always" + 0.007*"need" + 0.006*"Liverpool" + 0.005*"harm" + 0.005*"PAs" + 0.005*"quality" + 0.005*"13"']</t>
+    <t>['0.020*"’" + 0.008*"needs" + 0.007*"need" + 0.007*"Liverpool" + 0.006*"quality" + 0.006*"practice" + 0.005*"protection" + 0.005*"always" + 0.005*"13" + 0.004*"planning"', '0.021*"’" + 0.008*"always" + 0.007*"practice" + 0.006*"needs" + 0.005*"Liverpool" + 0.005*"need" + 0.005*"harm" + 0.005*"quality" + 0.005*"protection" + 0.005*"senior"', '0.015*"’" + 0.008*"needs" + 0.006*"practice" + 0.006*"always" + 0.006*"need" + 0.005*"quality" + 0.005*"Liverpool" + 0.005*"protection" + 0.005*"24" + 0.004*"13"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -1828,7 +1828,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.006*"needs" + 0.005*"good" + 0.005*"carers" + 0.005*"practice" + 0.005*"well" + 0.004*"10" + 0.004*"plans" + 0.004*"timely" + 0.004*"e"', '0.021*"’" + 0.008*"needs" + 0.006*"carers" + 0.006*"good" + 0.005*"well" + 0.005*"Barking" + 0.005*"practice" + 0.005*"information" + 0.004*"planning" + 0.004*"London"', '0.024*"’" + 0.009*"needs" + 0.008*"plans" + 0.006*"good" + 0.005*"well" + 0.005*"progress" + 0.005*"Dagenham" + 0.005*"practice" + 0.005*"information" + 0.004*"ensure"']</t>
+    <t>['0.025*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"good" + 0.005*"10" + 0.005*"ensure" + 0.005*"carers" + 0.005*"progress" + 0.004*"information"', '0.015*"’" + 0.006*"needs" + 0.005*"plans" + 0.004*"Barking" + 0.004*"practice" + 0.004*"21" + 0.004*"well" + 0.004*"good" + 0.004*"carers" + 0.004*"progress"', '0.023*"’" + 0.009*"needs" + 0.007*"good" + 0.006*"carers" + 0.006*"practice" + 0.006*"plans" + 0.005*"well" + 0.005*"information" + 0.005*"London" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -1861,736 +1861,730 @@
     <t>0.2347</t>
   </si>
   <si>
+    <t>0.2188</t>
+  </si>
+  <si>
+    <t>['0.017*"’" + 0.010*"need" + 0.009*"well" + 0.008*"needs" + 0.008*"good" + 0.007*"plans" + 0.006*"ensure" + 0.006*"clear" + 0.005*"progress" + 0.005*"appropriate"', '0.010*"’" + 0.008*"good" + 0.007*"well" + 0.007*"needs" + 0.005*"progress" + 0.005*"need" + 0.005*"plans" + 0.004*"clear" + 0.004*"ensure" + 0.004*"risk"', '0.013*"’" + 0.012*"needs" + 0.011*"good" + 0.009*"well" + 0.008*"progress" + 0.007*"need" + 0.006*"ensure" + 0.006*"clear" + 0.005*"risk" + 0.005*"quality"']</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>E09000004</t>
+  </si>
+  <si>
+    <t>bexley</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50212243</t>
+  </si>
+  <si>
+    <t>06/02/2023</t>
+  </si>
+  <si>
+    <t>['0.020*"’" + 0.006*"well" + 0.006*"effective" + 0.006*"need" + 0.005*"needs" + 0.005*"Bexley" + 0.005*"6" + 0.004*"February" + 0.004*"plans" + 0.004*"10"', '0.020*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"effective" + 0.005*"Bexley" + 0.005*"need" + 0.004*"10" + 0.004*"make" + 0.004*"oversight"', '0.018*"’" + 0.007*"needs" + 0.005*"need" + 0.005*"Bexley" + 0.005*"plans" + 0.005*"effective" + 0.004*"well" + 0.004*"10" + 0.004*"including" + 0.004*"oversight"']</t>
+  </si>
+  <si>
+    <t>80489</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>E09000005</t>
+  </si>
+  <si>
+    <t>brent</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50213625</t>
+  </si>
+  <si>
+    <t>24/02/2023</t>
+  </si>
+  <si>
+    <t>11/04/23</t>
+  </si>
+  <si>
+    <t>0.1959</t>
+  </si>
+  <si>
+    <t>['0.025*"’" + 0.009*"well" + 0.008*"leaders" + 0.007*"plans" + 0.006*"progress" + 0.006*"number" + 0.006*"good" + 0.006*"practice" + 0.005*"senior" + 0.005*"quality"', '0.011*"’" + 0.007*"well" + 0.006*"good" + 0.005*"Brent" + 0.005*"progress" + 0.005*"plans" + 0.005*"leaders" + 0.005*"needs" + 0.004*"practice" + 0.004*"quality"', '0.013*"’" + 0.009*"well" + 0.007*"leaders" + 0.007*"plans" + 0.007*"progress" + 0.006*"quality" + 0.006*"Brent" + 0.006*"number" + 0.005*"good" + 0.005*"However"']</t>
+  </si>
+  <si>
+    <t>80490</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>E09000006</t>
+  </si>
+  <si>
+    <t>bromley</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50237004</t>
+  </si>
+  <si>
+    <t>claire beckingham</t>
+  </si>
+  <si>
+    <t>13/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>0.2085</t>
+  </si>
+  <si>
+    <t>0.1797</t>
+  </si>
+  <si>
+    <t>['0.019*"’" + 0.008*"needs" + 0.007*"Bromley" + 0.006*"well" + 0.005*"leaders" + 0.004*"practice" + 0.004*"plans" + 0.004*"2023" + 0.004*"13" + 0.004*"November"', '0.020*"’" + 0.009*"Bromley" + 0.006*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"health" + 0.005*"practice" + 0.005*"leaders" + 0.005*"education" + 0.005*"17"', '0.020*"’" + 0.010*"Bromley" + 0.008*"well" + 0.007*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.005*"practice" + 0.005*"education" + 0.004*"health" + 0.004*"progress"']</t>
+  </si>
+  <si>
+    <t>80491</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>E09000007</t>
+  </si>
+  <si>
+    <t>camden</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50186251</t>
+  </si>
+  <si>
+    <t>25/04/2022</t>
+  </si>
+  <si>
+    <t>29/04/2022</t>
+  </si>
+  <si>
+    <t>21/06/22</t>
+  </si>
+  <si>
+    <t>0.1894</t>
+  </si>
+  <si>
+    <t>['0.010*"’" + 0.007*"practice" + 0.006*"leaders" + 0.005*"Camden" + 0.004*"response" + 0.004*"29" + 0.004*"2022" + 0.004*"April" + 0.004*"well" + 0.004*"protection"', '0.012*"’" + 0.008*"Camden" + 0.006*"well" + 0.006*"practice" + 0.006*"protection" + 0.006*"leaders" + 0.005*"appropriate" + 0.005*"needs" + 0.005*"meetings" + 0.004*"response"', '0.010*"’" + 0.007*"leaders" + 0.007*"Camden" + 0.006*"needs" + 0.005*"practice" + 0.005*"well" + 0.005*"25" + 0.004*"response" + 0.004*"protection" + 0.004*"2022"']</t>
+  </si>
+  <si>
+    <t>80492</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>E09000008</t>
+  </si>
+  <si>
+    <t>croydon</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50149056</t>
+  </si>
+  <si>
+    <t>03/02/2020</t>
+  </si>
+  <si>
+    <t>14/02/2020</t>
+  </si>
+  <si>
+    <t>16/03/20</t>
+  </si>
+  <si>
+    <t>['0.010*"’" + 0.007*"well" + 0.006*"need" + 0.006*"needs" + 0.006*"Senior" + 0.005*"good" + 0.005*"quality" + 0.005*"Croydon" + 0.005*"improved" + 0.005*"education"', '0.012*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"quality" + 0.005*"Croydon" + 0.005*"ensure" + 0.005*"However" + 0.004*"need" + 0.004*"arrangements" + 0.004*"risk"', '0.013*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"Croydon" + 0.006*"Senior" + 0.006*"effective" + 0.005*"ensure" + 0.005*"plans" + 0.005*"health" + 0.005*"good"']</t>
+  </si>
+  <si>
+    <t>80493</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>E09000009</t>
+  </si>
+  <si>
+    <t>ealing</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50135437</t>
+  </si>
+  <si>
+    <t>caroline walsh</t>
+  </si>
+  <si>
+    <t>04/11/2019</t>
+  </si>
+  <si>
+    <t>08/11/2019</t>
+  </si>
+  <si>
+    <t>19/12/19</t>
+  </si>
+  <si>
+    <t>0.1711</t>
+  </si>
+  <si>
+    <t>['0.011*"’" + 0.007*"quality" + 0.007*"needs" + 0.006*"progress" + 0.005*"plans" + 0.005*"experiences" + 0.005*"family" + 0.004*"Ealing" + 0.004*"appropriately" + 0.004*"well"', '0.011*"’" + 0.011*"quality" + 0.008*"needs" + 0.007*"good" + 0.005*"plans" + 0.005*"risk" + 0.005*"progress" + 0.005*"well" + 0.004*"experiences" + 0.004*"provide"', '0.010*"quality" + 0.010*"’" + 0.007*"good" + 0.006*"needs" + 0.005*"management" + 0.004*"risk" + 0.004*"plans" + 0.004*"progress" + 0.004*"Ealing" + 0.004*"well"']</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>E09000010</t>
+  </si>
+  <si>
+    <t>enfield</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50070309</t>
+  </si>
+  <si>
+    <t>04/03/2019</t>
+  </si>
+  <si>
+    <t>15/03/2019</t>
+  </si>
+  <si>
+    <t>15/04/19</t>
+  </si>
+  <si>
+    <t>0.2022</t>
+  </si>
+  <si>
+    <t>['0.011*"’" + 0.007*"practice" + 0.007*"good" + 0.006*"leaders" + 0.006*"clear" + 0.006*"ensure" + 0.006*"effective" + 0.006*"needs" + 0.005*"appropriate" + 0.005*"timely"', '0.014*"’" + 0.010*"needs" + 0.008*"ensure" + 0.007*"practice" + 0.007*"good" + 0.007*"Enfield" + 0.006*"effective" + 0.006*"quality" + 0.006*"timely" + 0.006*"progress"', '0.015*"’" + 0.009*"needs" + 0.009*"ensure" + 0.008*"practice" + 0.008*"good" + 0.007*"clear" + 0.007*"effective" + 0.007*"quality" + 0.006*"Enfield" + 0.006*"improve"']</t>
+  </si>
+  <si>
+    <t>80495</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>E09000011</t>
+  </si>
+  <si>
+    <t>greenwich</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50143727</t>
+  </si>
+  <si>
+    <t>09/12/2019</t>
+  </si>
+  <si>
+    <t>13/12/2019</t>
+  </si>
+  <si>
+    <t>27/01/20</t>
+  </si>
+  <si>
+    <t>0.2109</t>
+  </si>
+  <si>
+    <t>['0.010*"well" + 0.010*"’" + 0.008*"good" + 0.008*"needs" + 0.008*"plans" + 0.006*"ensure" + 0.005*"range" + 0.005*"risk" + 0.005*"need" + 0.005*"progress"', '0.013*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"good" + 0.006*"need" + 0.006*"range" + 0.005*"effective" + 0.005*"ensure" + 0.005*"progress"', '0.013*"’" + 0.008*"good" + 0.008*"well" + 0.007*"plans" + 0.006*"need" + 0.006*"needs" + 0.005*"progress" + 0.005*"range" + 0.005*"quality" + 0.005*"information"']</t>
+  </si>
+  <si>
+    <t>80496</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>E09000012</t>
+  </si>
+  <si>
+    <t>hackney</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50135828</t>
+  </si>
+  <si>
+    <t>brenda mcinerney</t>
+  </si>
+  <si>
+    <t>11/11/2019</t>
+  </si>
+  <si>
+    <t>22/11/2019</t>
+  </si>
+  <si>
+    <t>20/12/19</t>
+  </si>
+  <si>
+    <t>0.135</t>
+  </si>
+  <si>
+    <t>0.1417</t>
+  </si>
+  <si>
+    <t>['0.016*"’" + 0.010*"practice" + 0.007*"effective" + 0.006*"plans" + 0.006*"including" + 0.006*"needs" + 0.006*"planning" + 0.005*"leaders" + 0.005*"number" + 0.005*"quality"', '0.012*"practice" + 0.011*"’" + 0.008*"number" + 0.007*"planning" + 0.006*"within" + 0.006*"small" + 0.006*"making" + 0.006*"quality" + 0.006*"However" + 0.005*"effective"', '0.012*"’" + 0.007*"practice" + 0.006*"needs" + 0.005*"planning" + 0.005*"number" + 0.005*"plans" + 0.005*"including" + 0.004*"within" + 0.004*"quality" + 0.004*"effective"']</t>
+  </si>
+  <si>
+    <t>80497</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>E09000013</t>
+  </si>
+  <si>
+    <t>hammersmith and fulham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50116344</t>
+  </si>
+  <si>
+    <t>09/09/2019</t>
+  </si>
+  <si>
+    <t>13/09/2019</t>
+  </si>
+  <si>
+    <t>15/10/19</t>
+  </si>
+  <si>
+    <t>0.2054</t>
+  </si>
+  <si>
+    <t>['0.010*"’" + 0.008*"effective" + 0.007*"well" + 0.006*"appropriate" + 0.006*"needs" + 0.005*"leaders" + 0.005*"plans" + 0.005*"good" + 0.005*"arrangements" + 0.005*"timely"', '0.011*"’" + 0.007*"effective" + 0.007*"well" + 0.007*"needs" + 0.005*"appropriate" + 0.005*"good" + 0.005*"need" + 0.005*"risk" + 0.004*"arrangements" + 0.004*"experiences"', '0.014*"’" + 0.011*"needs" + 0.008*"well" + 0.008*"effective" + 0.007*"good" + 0.007*"ensure" + 0.006*"appropriate" + 0.006*"arrangements" + 0.005*"improve" + 0.005*"health"']</t>
+  </si>
+  <si>
+    <t>80498</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>E09000014</t>
+  </si>
+  <si>
+    <t>haringey</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50213624</t>
+  </si>
+  <si>
+    <t>13/02/2023</t>
+  </si>
+  <si>
+    <t>['0.013*"’" + 0.009*"needs" + 0.007*"Haringey" + 0.006*"plans" + 0.004*"supported" + 0.004*"progress" + 0.004*"need" + 0.004*"well" + 0.004*"risk" + 0.004*"good"', '0.013*"’" + 0.008*"needs" + 0.008*"Haringey" + 0.008*"plans" + 0.005*"need" + 0.005*"24" + 0.005*"good" + 0.005*"progress" + 0.005*"well" + 0.004*"impact"', '0.019*"’" + 0.009*"Haringey" + 0.008*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"good" + 0.005*"need" + 0.005*"education" + 0.005*"risk" + 0.005*"progress"']</t>
+  </si>
+  <si>
+    <t>80499</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>E09000015</t>
+  </si>
+  <si>
+    <t>harrow</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50149055</t>
+  </si>
+  <si>
+    <t>brenda mclaughlin</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
+  </si>
+  <si>
+    <t>0.2166</t>
+  </si>
+  <si>
+    <t>0.2023</t>
+  </si>
+  <si>
+    <t>['0.013*"’" + 0.010*"well" + 0.010*"good" + 0.008*"needs" + 0.005*"practice" + 0.005*"experiences" + 0.005*"impact" + 0.005*"need" + 0.004*"early" + 0.004*"protection"', '0.012*"good" + 0.011*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"impact" + 0.006*"practice" + 0.006*"plans" + 0.005*"protection" + 0.005*"need" + 0.005*"early"', '0.010*"’" + 0.009*"good" + 0.008*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"impact" + 0.005*"protection" + 0.005*"need" + 0.004*"experiences" + 0.004*"school"']</t>
+  </si>
+  <si>
+    <t>80500</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>E09000016</t>
+  </si>
+  <si>
+    <t>havering</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50239788</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>16/02/24</t>
+  </si>
+  <si>
+    <t>['0.016*"’" + 0.009*"quality" + 0.009*"Havering" + 0.005*"oversight" + 0.005*"plans" + 0.004*"22" + 0.004*"effective" + 0.004*"supported" + 0.004*"December" + 0.004*"needs"', '0.010*"Havering" + 0.010*"’" + 0.008*"plans" + 0.006*"quality" + 0.005*"oversight" + 0.005*"effective" + 0.004*"11" + 0.004*"needs" + 0.004*"many" + 0.004*"22"', '0.023*"’" + 0.013*"Havering" + 0.009*"quality" + 0.008*"plans" + 0.006*"effective" + 0.005*"needs" + 0.005*"oversight" + 0.005*"11" + 0.005*"practice" + 0.004*"2023"']</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>E09000017</t>
+  </si>
+  <si>
+    <t>hillingdon</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50233295</t>
+  </si>
+  <si>
+    <t>christine kennet</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>20/11/23</t>
+  </si>
+  <si>
+    <t>0.2119</t>
+  </si>
+  <si>
+    <t>0.1861</t>
+  </si>
+  <si>
+    <t>['0.019*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Hillingdon" + 0.007*"plans" + 0.005*"6" + 0.005*"2" + 0.005*"leaders" + 0.005*"team" + 0.004*"improve"', '0.018*"’" + 0.011*"needs" + 0.009*"plans" + 0.008*"Hillingdon" + 0.007*"well" + 0.005*"team" + 0.004*"need" + 0.004*"October" + 0.004*"2" + 0.004*"senior"', '0.016*"’" + 0.008*"needs" + 0.008*"Hillingdon" + 0.008*"well" + 0.007*"plans" + 0.006*"need" + 0.004*"team" + 0.004*"2023" + 0.004*"experiences" + 0.004*"6"']</t>
+  </si>
+  <si>
+    <t>80503</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>E09000018</t>
+  </si>
+  <si>
+    <t>hounslow</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50234334</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>01/12/23</t>
+  </si>
+  <si>
+    <t>0.1948</t>
+  </si>
+  <si>
+    <t>['0.018*"’" + 0.010*"needs" + 0.010*"well" + 0.007*"effective" + 0.006*"Hounslow" + 0.005*"strong" + 0.005*"plans" + 0.005*"October" + 0.004*"timely" + 0.004*"20"', '0.017*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"effective" + 0.007*"timely" + 0.005*"Hounslow" + 0.005*"experiences" + 0.005*"plans" + 0.004*"oversight" + 0.004*"progress"', '0.023*"’" + 0.013*"needs" + 0.011*"well" + 0.009*"Hounslow" + 0.008*"effective" + 0.007*"timely" + 0.006*"plans" + 0.005*"education" + 0.005*"16" + 0.004*"training"']</t>
+  </si>
+  <si>
+    <t>80505</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>E09000019</t>
+  </si>
+  <si>
+    <t>islington</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50150002</t>
+  </si>
+  <si>
+    <t>nicola bennett</t>
+  </si>
+  <si>
+    <t>09/03/2020</t>
+  </si>
+  <si>
+    <t>0.209</t>
+  </si>
+  <si>
+    <t>0.1842</t>
+  </si>
+  <si>
+    <t>['0.011*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"effective" + 0.005*"good" + 0.005*"highly" + 0.004*"leaders" + 0.004*"practice" + 0.004*"quality"', '0.013*"’" + 0.012*"needs" + 0.009*"well" + 0.007*"quality" + 0.007*"plans" + 0.006*"highly" + 0.006*"good" + 0.006*"risk" + 0.005*"Islington" + 0.005*"effective"', '0.013*"’" + 0.012*"needs" + 0.011*"well" + 0.007*"plans" + 0.006*"good" + 0.006*"highly" + 0.006*"leaders" + 0.005*"effective" + 0.005*"Islington" + 0.005*"early"']</t>
+  </si>
+  <si>
+    <t>80506</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>E09000022</t>
+  </si>
+  <si>
+    <t>lambeth</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50202402</t>
+  </si>
+  <si>
+    <t>russel breyer</t>
+  </si>
+  <si>
+    <t>24/10/2022</t>
+  </si>
+  <si>
+    <t>04/11/2022</t>
+  </si>
+  <si>
+    <t>16/12/22</t>
+  </si>
+  <si>
+    <t>['0.016*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"need" + 0.006*"good" + 0.005*"Lambeth" + 0.005*"leaders" + 0.005*"24" + 0.005*"progress"', '0.018*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"good" + 0.007*"Lambeth" + 0.007*"well" + 0.006*"progress" + 0.005*"Leaders" + 0.005*"supported" + 0.005*"carers"', '0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"need" + 0.006*"good" + 0.006*"impact" + 0.005*"Lambeth" + 0.005*"leaders" + 0.005*"progress"']</t>
+  </si>
+  <si>
+    <t>80508</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>E09000023</t>
+  </si>
+  <si>
+    <t>lewisham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50238709</t>
+  </si>
+  <si>
+    <t>nicki shaw</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>31/01/24</t>
+  </si>
+  <si>
+    <t>0.1851</t>
+  </si>
+  <si>
+    <t>['0.021*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"Lewisham" + 0.005*"good" + 0.004*"4" + 0.004*"family" + 0.004*"December" + 0.004*"15"', '0.020*"’" + 0.010*"well" + 0.008*"effective" + 0.007*"needs" + 0.007*"Lewisham" + 0.006*"plans" + 0.005*"progress" + 0.005*"response" + 0.004*"4" + 0.004*"arrangements"', '0.012*"’" + 0.010*"plans" + 0.008*"well" + 0.008*"needs" + 0.005*"progress" + 0.005*"effective" + 0.005*"leaders" + 0.005*"good" + 0.005*"Lewisham" + 0.005*"4"']</t>
+  </si>
+  <si>
+    <t>80510</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>E09000024</t>
+  </si>
+  <si>
+    <t>merton</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50182669</t>
+  </si>
+  <si>
+    <t>0.1982</t>
+  </si>
+  <si>
+    <t>['0.018*"’" + 0.009*"well" + 0.006*"needs" + 0.005*"Merton" + 0.005*"education" + 0.004*"progress" + 0.004*"across" + 0.004*"family" + 0.004*"2022" + 0.004*"plans"', '0.016*"’" + 0.007*"well" + 0.006*"Merton" + 0.005*"needs" + 0.005*"ensure" + 0.005*"plans" + 0.005*"4" + 0.005*"progress" + 0.004*"family" + 0.004*"health"', '0.012*"’" + 0.008*"Merton" + 0.008*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"good" + 0.004*"family" + 0.004*"risk" + 0.004*"leaders" + 0.004*"helping"']</t>
+  </si>
+  <si>
+    <t>80511</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>E09000025</t>
+  </si>
+  <si>
+    <t>newham</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
+  </si>
+  <si>
+    <t>['0.020*"’" + 0.008*"Newham" + 0.007*"needs" + 0.007*"need" + 0.006*"plans" + 0.005*"effective" + 0.005*"progress" + 0.005*"Leaders" + 0.004*"good" + 0.004*"practice"', '0.015*"’" + 0.007*"Newham" + 0.007*"needs" + 0.006*"progress" + 0.005*"good" + 0.005*"plans" + 0.005*"2022" + 0.005*"practice" + 0.005*"18" + 0.004*"need"', '0.021*"’" + 0.009*"needs" + 0.008*"practice" + 0.007*"effective" + 0.007*"plans" + 0.007*"progress" + 0.006*"need" + 0.005*"Newham" + 0.005*"risks" + 0.005*"good"']</t>
+  </si>
+  <si>
+    <t>80512</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>E09000026</t>
+  </si>
+  <si>
+    <t>redbridge</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50083969</t>
+  </si>
+  <si>
+    <t>louise hocking</t>
+  </si>
+  <si>
+    <t>0.2482</t>
+  </si>
+  <si>
+    <t>0.2269</t>
+  </si>
+  <si>
+    <t>['0.008*"’" + 0.006*"needs" + 0.005*"ensure" + 0.005*"practice" + 0.005*"progress" + 0.005*"need" + 0.005*"risk" + 0.005*"Redbridge" + 0.004*"good" + 0.004*"well"', '0.008*"well" + 0.007*"practice" + 0.007*"’" + 0.007*"strong" + 0.006*"need" + 0.006*"effective" + 0.006*"needs" + 0.005*"Redbridge" + 0.005*"risk" + 0.004*"provided"', '0.007*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"effective" + 0.006*"well" + 0.006*"including" + 0.006*"need" + 0.005*"Redbridge" + 0.005*"risk" + 0.005*"team"']</t>
+  </si>
+  <si>
+    <t>80513</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>E09000027</t>
+  </si>
+  <si>
+    <t>richmond upon thames</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50179543</t>
+  </si>
+  <si>
+    <t>31/01/2022</t>
+  </si>
+  <si>
+    <t>0.2056</t>
+  </si>
+  <si>
+    <t>['0.012*"’" + 0.008*"well" + 0.007*"Richmond" + 0.005*"needs" + 0.005*"good" + 0.004*"ensure" + 0.004*"need" + 0.004*"team" + 0.004*"supported" + 0.004*"February"', '0.016*"’" + 0.012*"well" + 0.008*"Richmond" + 0.007*"needs" + 0.006*"supported" + 0.006*"team" + 0.006*"need" + 0.006*"good" + 0.005*"4" + 0.005*"additional"', '0.017*"’" + 0.011*"well" + 0.009*"needs" + 0.008*"Richmond" + 0.006*"supported" + 0.006*"need" + 0.006*"team" + 0.005*"good" + 0.005*"upon" + 0.004*"2022"']</t>
+  </si>
+  <si>
+    <t>80514</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>E09000028</t>
+  </si>
+  <si>
+    <t>southwark</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50198438</t>
+  </si>
+  <si>
+    <t>26/09/2022</t>
+  </si>
+  <si>
+    <t>30/09/2022</t>
+  </si>
+  <si>
+    <t>11/11/22</t>
+  </si>
+  <si>
+    <t>['0.016*"’" + 0.007*"Southwark" + 0.006*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"good" + 0.005*"progress" + 0.005*"receive" + 0.005*"Leaders" + 0.005*"need"', '0.020*"’" + 0.010*"Southwark" + 0.010*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"need" + 0.006*"Leaders" + 0.006*"effective" + 0.006*"progress" + 0.006*"plans"', '0.017*"’" + 0.011*"good" + 0.010*"Southwark" + 0.007*"needs" + 0.006*"progress" + 0.006*"well" + 0.005*"strong" + 0.005*"leaders" + 0.005*"focus" + 0.005*"26"']</t>
+  </si>
+  <si>
+    <t>80515</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>E09000029</t>
+  </si>
+  <si>
+    <t>sutton</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50176759</t>
+  </si>
+  <si>
+    <t>10/12/2021</t>
+  </si>
+  <si>
+    <t>01/02/22</t>
+  </si>
+  <si>
+    <t>0.2064</t>
+  </si>
+  <si>
+    <t>['0.015*"’" + 0.006*"progress" + 0.006*"well" + 0.005*"Sutton" + 0.005*"needs" + 0.005*"good" + 0.005*"6" + 0.004*"effective" + 0.004*"receive" + 0.004*"home"', '0.019*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"Sutton" + 0.005*"receive" + 0.005*"effective" + 0.005*"10" + 0.005*"6" + 0.005*"good" + 0.005*"supported"', '0.016*"’" + 0.006*"well" + 0.006*"Sutton" + 0.005*"progress" + 0.005*"needs" + 0.005*"effective" + 0.005*"receive" + 0.004*"good" + 0.004*"protection" + 0.004*"leaders"']</t>
+  </si>
+  <si>
+    <t>80516</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>E09000030</t>
+  </si>
+  <si>
+    <t>tower hamlets</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50094564</t>
+  </si>
+  <si>
+    <t>marcie taylor</t>
+  </si>
+  <si>
+    <t>22/07/19</t>
+  </si>
+  <si>
+    <t>0.2155</t>
+  </si>
+  <si>
+    <t>['0.013*"’" + 0.007*"effective" + 0.007*"good" + 0.006*"plans" + 0.005*"need" + 0.005*"early" + 0.005*"progress" + 0.005*"practice" + 0.005*"carers" + 0.004*"‘"', '0.015*"’" + 0.006*"plans" + 0.006*"‘" + 0.006*"practice" + 0.006*"well" + 0.005*"good" + 0.005*"early" + 0.005*"progress" + 0.005*"needs" + 0.005*"effective"', '0.016*"’" + 0.008*"good" + 0.007*"well" + 0.006*"effective" + 0.006*"‘" + 0.006*"plans" + 0.006*"including" + 0.005*"risk" + 0.005*"practice" + 0.005*"need"']</t>
+  </si>
+  <si>
+    <t>80517</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>E09000031</t>
+  </si>
+  <si>
+    <t>waltham forest</t>
+  </si>
+  <si>
+    <t>https://files.ofsted.gov.uk/v1/file/50061232</t>
+  </si>
+  <si>
+    <t>28/01/2019</t>
+  </si>
+  <si>
+    <t>08/02/2019</t>
+  </si>
+  <si>
+    <t>11/03/19</t>
+  </si>
+  <si>
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"needs" + 0.009*"good" + 0.008*"well" + 0.007*"need" + 0.006*"ensure" + 0.006*"clear" + 0.005*"plans" + 0.005*"progress" + 0.005*"appropriate"', '0.015*"’" + 0.011*"good" + 0.009*"well" + 0.008*"needs" + 0.008*"need" + 0.007*"progress" + 0.006*"clear" + 0.006*"plans" + 0.006*"ensure" + 0.006*"risk"', '0.013*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"need" + 0.007*"good" + 0.006*"plans" + 0.005*"progress" + 0.005*"quality" + 0.005*"clear" + 0.005*"supported"']</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>E09000004</t>
-  </si>
-  <si>
-    <t>bexley</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50212243</t>
-  </si>
-  <si>
-    <t>06/02/2023</t>
-  </si>
-  <si>
-    <t>['0.015*"’" + 0.006*"well" + 0.006*"Bexley" + 0.006*"effective" + 0.006*"need" + 0.005*"plans" + 0.005*"needs" + 0.004*"make" + 0.004*"practice" + 0.004*"2023"', '0.023*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"need" + 0.005*"plans" + 0.005*"Bexley" + 0.005*"10" + 0.005*"effective" + 0.005*"oversight" + 0.004*"including"', '0.019*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"need" + 0.005*"plans" + 0.004*"10" + 0.004*"Bexley" + 0.004*"practice" + 0.004*"6"']</t>
-  </si>
-  <si>
-    <t>80489</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>E09000005</t>
-  </si>
-  <si>
-    <t>brent</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50213625</t>
-  </si>
-  <si>
-    <t>24/02/2023</t>
-  </si>
-  <si>
-    <t>11/04/23</t>
-  </si>
-  <si>
-    <t>0.1959</t>
-  </si>
-  <si>
-    <t>['0.018*"’" + 0.007*"good" + 0.006*"well" + 0.006*"leaders" + 0.005*"needs" + 0.005*"senior" + 0.005*"quality" + 0.005*"practice" + 0.005*"ensure" + 0.005*"plans"', '0.019*"’" + 0.010*"well" + 0.008*"progress" + 0.008*"leaders" + 0.007*"plans" + 0.006*"Brent" + 0.006*"quality" + 0.006*"number" + 0.006*"good" + 0.005*"small"', '0.015*"’" + 0.009*"well" + 0.007*"plans" + 0.007*"leaders" + 0.006*"senior" + 0.006*"number" + 0.006*"progress" + 0.005*"Brent" + 0.005*"practice" + 0.005*"quality"']</t>
-  </si>
-  <si>
-    <t>80490</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>E09000006</t>
-  </si>
-  <si>
-    <t>bromley</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50237004</t>
-  </si>
-  <si>
-    <t>claire beckingham</t>
-  </si>
-  <si>
-    <t>13/11/2023</t>
-  </si>
-  <si>
-    <t>17/11/2023</t>
-  </si>
-  <si>
-    <t>0.2085</t>
-  </si>
-  <si>
-    <t>0.1941</t>
-  </si>
-  <si>
-    <t>['0.019*"’" + 0.009*"needs" + 0.008*"Bromley" + 0.006*"education" + 0.006*"well" + 0.006*"practice" + 0.005*"plans" + 0.005*"health" + 0.005*"progress" + 0.004*"leaders"', '0.016*"’" + 0.009*"Bromley" + 0.006*"leaders" + 0.005*"well" + 0.005*"plans" + 0.004*"health" + 0.004*"strong" + 0.004*"needs" + 0.004*"17" + 0.004*"practice"', '0.023*"’" + 0.010*"Bromley" + 0.008*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.005*"13" + 0.005*"YPAs" + 0.005*"practice" + 0.005*"experiences"']</t>
-  </si>
-  <si>
-    <t>80491</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>E09000007</t>
-  </si>
-  <si>
-    <t>camden</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50186251</t>
-  </si>
-  <si>
-    <t>25/04/2022</t>
-  </si>
-  <si>
-    <t>29/04/2022</t>
-  </si>
-  <si>
-    <t>21/06/22</t>
-  </si>
-  <si>
-    <t>0.1894</t>
-  </si>
-  <si>
-    <t>['0.010*"’" + 0.006*"Camden" + 0.005*"well" + 0.005*"protection" + 0.005*"practice" + 0.005*"leaders" + 0.004*"25" + 0.004*"response" + 0.004*"appropriate" + 0.004*"health"', '0.012*"’" + 0.008*"Camden" + 0.007*"practice" + 0.007*"leaders" + 0.006*"needs" + 0.005*"protection" + 0.005*"response" + 0.005*"well" + 0.004*"April" + 0.004*"appropriate"', '0.010*"’" + 0.007*"Camden" + 0.007*"leaders" + 0.006*"well" + 0.005*"practice" + 0.005*"progress" + 0.004*"needs" + 0.004*"29" + 0.004*"meetings" + 0.004*"response"']</t>
-  </si>
-  <si>
-    <t>80492</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>E09000008</t>
-  </si>
-  <si>
-    <t>croydon</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50149056</t>
-  </si>
-  <si>
-    <t>03/02/2020</t>
-  </si>
-  <si>
-    <t>14/02/2020</t>
-  </si>
-  <si>
-    <t>16/03/20</t>
-  </si>
-  <si>
-    <t>['0.009*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"good" + 0.005*"Croydon" + 0.005*"quality" + 0.005*"Senior" + 0.004*"need" + 0.004*"ensure" + 0.004*"risk"', '0.011*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"health" + 0.005*"Senior" + 0.005*"improved" + 0.005*"Croydon" + 0.005*"need" + 0.005*"arrangements" + 0.005*"education"', '0.014*"’" + 0.008*"needs" + 0.007*"quality" + 0.006*"well" + 0.006*"Croydon" + 0.006*"plans" + 0.006*"need" + 0.006*"effective" + 0.006*"ensure" + 0.006*"Senior"']</t>
-  </si>
-  <si>
-    <t>80493</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>E09000009</t>
-  </si>
-  <si>
-    <t>ealing</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50135437</t>
-  </si>
-  <si>
-    <t>caroline walsh</t>
-  </si>
-  <si>
-    <t>04/11/2019</t>
-  </si>
-  <si>
-    <t>08/11/2019</t>
-  </si>
-  <si>
-    <t>19/12/19</t>
-  </si>
-  <si>
-    <t>0.1711</t>
-  </si>
-  <si>
-    <t>['0.011*"’" + 0.008*"quality" + 0.006*"needs" + 0.006*"risk" + 0.005*"well" + 0.005*"good" + 0.004*"family" + 0.004*"progress" + 0.004*"plans" + 0.004*"improve"', '0.010*"quality" + 0.010*"’" + 0.007*"needs" + 0.007*"good" + 0.006*"progress" + 0.005*"plans" + 0.005*"experiences" + 0.005*"fully" + 0.005*"management" + 0.005*"family"', '0.012*"’" + 0.011*"quality" + 0.007*"needs" + 0.007*"good" + 0.006*"plans" + 0.005*"oversight" + 0.004*"risk" + 0.004*"leaders" + 0.004*"provide" + 0.004*"well"']</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>E09000010</t>
-  </si>
-  <si>
-    <t>enfield</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50070309</t>
-  </si>
-  <si>
-    <t>04/03/2019</t>
-  </si>
-  <si>
-    <t>15/03/2019</t>
-  </si>
-  <si>
-    <t>15/04/19</t>
-  </si>
-  <si>
-    <t>0.2022</t>
-  </si>
-  <si>
-    <t>['0.016*"’" + 0.009*"ensure" + 0.008*"practice" + 0.007*"needs" + 0.007*"good" + 0.007*"quality" + 0.007*"effective" + 0.005*"timely" + 0.005*"range" + 0.005*"Enfield"', '0.012*"’" + 0.008*"needs" + 0.007*"Enfield" + 0.007*"good" + 0.007*"leaders" + 0.006*"practice" + 0.006*"improve" + 0.006*"effective" + 0.006*"clear" + 0.006*"timely"', '0.012*"’" + 0.010*"needs" + 0.008*"clear" + 0.008*"practice" + 0.008*"ensure" + 0.007*"good" + 0.007*"effective" + 0.006*"quality" + 0.006*"Enfield" + 0.006*"need"']</t>
-  </si>
-  <si>
-    <t>80495</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>E09000011</t>
-  </si>
-  <si>
-    <t>greenwich</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50143727</t>
-  </si>
-  <si>
-    <t>09/12/2019</t>
-  </si>
-  <si>
-    <t>13/12/2019</t>
-  </si>
-  <si>
-    <t>27/01/20</t>
-  </si>
-  <si>
-    <t>0.2109</t>
-  </si>
-  <si>
-    <t>['0.011*"’" + 0.010*"well" + 0.008*"good" + 0.008*"needs" + 0.006*"need" + 0.006*"plans" + 0.005*"information" + 0.005*"ensure" + 0.005*"range" + 0.005*"progress"', '0.013*"’" + 0.008*"well" + 0.007*"plans" + 0.007*"good" + 0.007*"needs" + 0.006*"range" + 0.006*"need" + 0.005*"timely" + 0.005*"progress" + 0.004*"effective"', '0.011*"’" + 0.010*"well" + 0.009*"plans" + 0.008*"good" + 0.008*"needs" + 0.006*"need" + 0.006*"range" + 0.005*"ensure" + 0.005*"progress" + 0.005*"quality"']</t>
-  </si>
-  <si>
-    <t>80496</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>E09000012</t>
-  </si>
-  <si>
-    <t>hackney</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50135828</t>
-  </si>
-  <si>
-    <t>brenda mcinerney</t>
-  </si>
-  <si>
-    <t>11/11/2019</t>
-  </si>
-  <si>
-    <t>22/11/2019</t>
-  </si>
-  <si>
-    <t>20/12/19</t>
-  </si>
-  <si>
-    <t>0.135</t>
-  </si>
-  <si>
-    <t>0.1417</t>
-  </si>
-  <si>
-    <t>['0.017*"’" + 0.011*"practice" + 0.007*"plans" + 0.007*"number" + 0.006*"within" + 0.006*"effective" + 0.006*"needs" + 0.006*"small" + 0.006*"leaders" + 0.006*"quality"', '0.010*"’" + 0.010*"practice" + 0.006*"planning" + 0.006*"quality" + 0.006*"number" + 0.005*"However" + 0.005*"including" + 0.004*"making" + 0.004*"carers" + 0.004*"cases"', '0.010*"’" + 0.007*"planning" + 0.007*"practice" + 0.006*"effective" + 0.006*"number" + 0.006*"oversight" + 0.006*"need" + 0.006*"needs" + 0.005*"protection" + 0.005*"However"']</t>
-  </si>
-  <si>
-    <t>80497</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>E09000013</t>
-  </si>
-  <si>
-    <t>hammersmith and fulham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50116344</t>
-  </si>
-  <si>
-    <t>09/09/2019</t>
-  </si>
-  <si>
-    <t>13/09/2019</t>
-  </si>
-  <si>
-    <t>15/10/19</t>
-  </si>
-  <si>
-    <t>0.2054</t>
-  </si>
-  <si>
-    <t>['0.010*"needs" + 0.009*"’" + 0.008*"effective" + 0.007*"well" + 0.006*"leaders" + 0.005*"good" + 0.005*"appropriate" + 0.005*"ensure" + 0.005*"arrangements" + 0.005*"family"', '0.014*"’" + 0.009*"well" + 0.008*"effective" + 0.007*"needs" + 0.006*"arrangements" + 0.006*"appropriate" + 0.006*"ensure" + 0.006*"good" + 0.005*"improve" + 0.004*"risk"', '0.012*"’" + 0.008*"effective" + 0.007*"needs" + 0.007*"good" + 0.007*"appropriate" + 0.006*"well" + 0.005*"education" + 0.005*"risk" + 0.005*"timely" + 0.005*"leaders"']</t>
-  </si>
-  <si>
-    <t>80498</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>E09000014</t>
-  </si>
-  <si>
-    <t>haringey</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50213624</t>
-  </si>
-  <si>
-    <t>13/02/2023</t>
-  </si>
-  <si>
-    <t>0.1797</t>
-  </si>
-  <si>
-    <t>['0.014*"’" + 0.008*"needs" + 0.007*"Haringey" + 0.006*"plans" + 0.005*"good" + 0.005*"well" + 0.005*"need" + 0.004*"education" + 0.004*"24" + 0.004*"leaders"', '0.017*"’" + 0.010*"Haringey" + 0.009*"needs" + 0.007*"plans" + 0.007*"well" + 0.006*"need" + 0.006*"progress" + 0.005*"risk" + 0.005*"supported" + 0.005*"good"', '0.016*"’" + 0.008*"Haringey" + 0.007*"plans" + 0.006*"good" + 0.005*"well" + 0.005*"needs" + 0.004*"13" + 0.004*"risk" + 0.004*"progress" + 0.004*"need"']</t>
-  </si>
-  <si>
-    <t>80499</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>E09000015</t>
-  </si>
-  <si>
-    <t>harrow</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50149055</t>
-  </si>
-  <si>
-    <t>brenda mclaughlin</t>
-  </si>
-  <si>
-    <t>10/02/2020</t>
-  </si>
-  <si>
-    <t>0.2166</t>
-  </si>
-  <si>
-    <t>0.2023</t>
-  </si>
-  <si>
-    <t>['0.012*"’" + 0.010*"good" + 0.009*"well" + 0.006*"impact" + 0.006*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"school" + 0.005*"protection" + 0.005*"experiences"', '0.012*"’" + 0.011*"good" + 0.010*"needs" + 0.008*"well" + 0.006*"early" + 0.006*"need" + 0.005*"plans" + 0.005*"protection" + 0.005*"impact" + 0.005*"Harrow"', '0.011*"’" + 0.011*"good" + 0.008*"well" + 0.007*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"protection" + 0.004*"need" + 0.004*"impact" + 0.004*"team"']</t>
-  </si>
-  <si>
-    <t>80500</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>E09000016</t>
-  </si>
-  <si>
-    <t>havering</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50006280</t>
-  </si>
-  <si>
-    <t>11/06/2018</t>
-  </si>
-  <si>
-    <t>22/06/2018</t>
-  </si>
-  <si>
-    <t>23/07/18</t>
-  </si>
-  <si>
-    <t>0.2113</t>
-  </si>
-  <si>
-    <t>['0.010*"’" + 0.008*"good" + 0.008*"need" + 0.008*"needs" + 0.007*"plans" + 0.007*"quality" + 0.007*"well" + 0.006*"practice" + 0.006*"meetings" + 0.005*"planning"', '0.008*"’" + 0.006*"need" + 0.005*"meetings" + 0.005*"quality" + 0.005*"plans" + 0.005*"needs" + 0.005*"well" + 0.005*"good" + 0.004*"consistently" + 0.004*"practice"', '0.013*"’" + 0.008*"needs" + 0.008*"good" + 0.008*"quality" + 0.007*"well" + 0.006*"need" + 0.006*"practice" + 0.006*"plans" + 0.005*"consistently" + 0.005*"meetings"']</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>E09000017</t>
-  </si>
-  <si>
-    <t>hillingdon</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50233295</t>
-  </si>
-  <si>
-    <t>christine kennet</t>
-  </si>
-  <si>
-    <t>02/10/2023</t>
-  </si>
-  <si>
-    <t>06/10/2023</t>
-  </si>
-  <si>
-    <t>20/11/23</t>
-  </si>
-  <si>
-    <t>0.2119</t>
-  </si>
-  <si>
-    <t>0.1861</t>
-  </si>
-  <si>
-    <t>['0.023*"’" + 0.009*"needs" + 0.009*"Hillingdon" + 0.008*"well" + 0.008*"plans" + 0.005*"2" + 0.005*"October" + 0.004*"team" + 0.004*"6" + 0.004*"receive"', '0.012*"’" + 0.010*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"Hillingdon" + 0.005*"need" + 0.004*"team" + 0.004*"leaders" + 0.004*"6" + 0.004*"good"', '0.015*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"Hillingdon" + 0.007*"well" + 0.005*"team" + 0.004*"need" + 0.004*"6" + 0.004*"2023" + 0.004*"carers"']</t>
-  </si>
-  <si>
-    <t>80503</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>E09000018</t>
-  </si>
-  <si>
-    <t>hounslow</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50234334</t>
-  </si>
-  <si>
-    <t>16/10/2023</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
-  </si>
-  <si>
-    <t>01/12/23</t>
-  </si>
-  <si>
-    <t>0.1948</t>
-  </si>
-  <si>
-    <t>['0.022*"’" + 0.011*"needs" + 0.011*"well" + 0.008*"Hounslow" + 0.008*"effective" + 0.007*"timely" + 0.006*"plans" + 0.005*"progress" + 0.005*"16" + 0.005*"oversight"', '0.022*"’" + 0.012*"needs" + 0.010*"well" + 0.007*"effective" + 0.007*"Hounslow" + 0.006*"plans" + 0.006*"timely" + 0.005*"16" + 0.005*"experiences" + 0.004*"strong"', '0.013*"’" + 0.008*"needs" + 0.008*"well" + 0.005*"effective" + 0.005*"timely" + 0.005*"Hounslow" + 0.004*"20" + 0.004*"experiences" + 0.004*"progress" + 0.004*"education"']</t>
-  </si>
-  <si>
-    <t>80505</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>E09000019</t>
-  </si>
-  <si>
-    <t>islington</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50150002</t>
-  </si>
-  <si>
-    <t>nicola bennett</t>
-  </si>
-  <si>
-    <t>09/03/2020</t>
-  </si>
-  <si>
-    <t>0.209</t>
-  </si>
-  <si>
-    <t>0.1842</t>
-  </si>
-  <si>
-    <t>['0.012*"well" + 0.010*"’" + 0.010*"needs" + 0.008*"plans" + 0.006*"Islington" + 0.006*"good" + 0.005*"highly" + 0.005*"practice" + 0.005*"quality" + 0.005*"leaders"', '0.013*"’" + 0.010*"well" + 0.010*"needs" + 0.007*"highly" + 0.006*"effective" + 0.006*"leaders" + 0.006*"good" + 0.006*"quality" + 0.005*"plans" + 0.005*"risk"', '0.014*"’" + 0.013*"needs" + 0.008*"well" + 0.006*"plans" + 0.006*"quality" + 0.006*"good" + 0.005*"Islington" + 0.005*"highly" + 0.005*"leaders" + 0.005*"effective"']</t>
-  </si>
-  <si>
-    <t>80506</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>E09000022</t>
-  </si>
-  <si>
-    <t>lambeth</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50202402</t>
-  </si>
-  <si>
-    <t>russel breyer</t>
-  </si>
-  <si>
-    <t>24/10/2022</t>
-  </si>
-  <si>
-    <t>04/11/2022</t>
-  </si>
-  <si>
-    <t>16/12/22</t>
-  </si>
-  <si>
-    <t>['0.013*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"Lambeth" + 0.006*"plans" + 0.005*"good" + 0.005*"need" + 0.005*"leaders" + 0.005*"impact" + 0.005*"2022"', '0.013*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"plans" + 0.006*"progress" + 0.005*"good" + 0.005*"Lambeth" + 0.005*"impact" + 0.005*"leaders" + 0.005*"4"', '0.017*"’" + 0.011*"needs" + 0.008*"plans" + 0.008*"well" + 0.008*"good" + 0.007*"Lambeth" + 0.007*"need" + 0.007*"progress" + 0.005*"impact" + 0.005*"carers"']</t>
-  </si>
-  <si>
-    <t>80508</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>E09000023</t>
-  </si>
-  <si>
-    <t>lewisham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50238709</t>
-  </si>
-  <si>
-    <t>nicki shaw</t>
-  </si>
-  <si>
-    <t>04/12/2023</t>
-  </si>
-  <si>
-    <t>31/01/24</t>
-  </si>
-  <si>
-    <t>0.1851</t>
-  </si>
-  <si>
-    <t>['0.019*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"effective" + 0.006*"Lewisham" + 0.005*"plans" + 0.005*"2023" + 0.005*"good" + 0.005*"need" + 0.005*"receive"', '0.017*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"4" + 0.005*"Lewisham" + 0.005*"needs" + 0.005*"effective" + 0.005*"progress" + 0.004*"arrangements" + 0.004*"benefit"', '0.016*"’" + 0.009*"plans" + 0.007*"needs" + 0.006*"progress" + 0.006*"well" + 0.006*"effective" + 0.006*"Lewisham" + 0.004*"arrangements" + 0.004*"15" + 0.004*"supported"']</t>
-  </si>
-  <si>
-    <t>80510</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>E09000024</t>
-  </si>
-  <si>
-    <t>merton</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50182669</t>
-  </si>
-  <si>
-    <t>0.1982</t>
-  </si>
-  <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.006*"Merton" + 0.006*"needs" + 0.005*"plans" + 0.004*"2022" + 0.004*"family" + 0.004*"health" + 0.004*"4" + 0.004*"ensure"', '0.017*"’" + 0.009*"well" + 0.007*"Merton" + 0.005*"needs" + 0.005*"plans" + 0.005*"progress" + 0.005*"family" + 0.004*"risk" + 0.004*"March" + 0.004*"ensure"', '0.014*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"Merton" + 0.004*"good" + 0.004*"February" + 0.004*"access" + 0.004*"4" + 0.004*"2022" + 0.004*"progress"']</t>
-  </si>
-  <si>
-    <t>80511</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>E09000025</t>
-  </si>
-  <si>
-    <t>newham</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
-  </si>
-  <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.006*"Newham" + 0.006*"plans" + 0.006*"effective" + 0.006*"need" + 0.006*"progress" + 0.005*"practice" + 0.005*"good" + 0.004*"receive"', '0.024*"’" + 0.007*"needs" + 0.007*"Newham" + 0.007*"effective" + 0.007*"practice" + 0.006*"plans" + 0.006*"progress" + 0.006*"good" + 0.006*"18" + 0.005*"need"', '0.015*"’" + 0.008*"needs" + 0.007*"Newham" + 0.006*"need" + 0.006*"progress" + 0.006*"practice" + 0.005*"plans" + 0.004*"Leaders" + 0.004*"effective" + 0.004*"ensure"']</t>
-  </si>
-  <si>
-    <t>80512</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>E09000026</t>
-  </si>
-  <si>
-    <t>redbridge</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50083969</t>
-  </si>
-  <si>
-    <t>louise hocking</t>
-  </si>
-  <si>
-    <t>0.2482</t>
-  </si>
-  <si>
-    <t>0.2269</t>
-  </si>
-  <si>
-    <t>['0.008*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"need" + 0.005*"Redbridge" + 0.005*"effective" + 0.005*"including" + 0.005*"progress" + 0.005*"risk"', '0.006*"practice" + 0.005*"Redbridge" + 0.005*"needs" + 0.005*"effective" + 0.005*"’" + 0.005*"need" + 0.005*"team" + 0.004*"well" + 0.004*"strong" + 0.004*"progress"', '0.009*"’" + 0.007*"practice" + 0.006*"well" + 0.006*"need" + 0.006*"strong" + 0.006*"needs" + 0.006*"risk" + 0.005*"ensure" + 0.005*"good" + 0.005*"receive"']</t>
-  </si>
-  <si>
-    <t>80513</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>E09000027</t>
-  </si>
-  <si>
-    <t>richmond upon thames</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50179543</t>
-  </si>
-  <si>
-    <t>31/01/2022</t>
-  </si>
-  <si>
-    <t>0.2056</t>
-  </si>
-  <si>
-    <t>['0.015*"’" + 0.011*"well" + 0.009*"needs" + 0.009*"Richmond" + 0.006*"good" + 0.006*"ensure" + 0.006*"team" + 0.005*"supported" + 0.005*"4" + 0.005*"need"', '0.012*"’" + 0.010*"well" + 0.006*"Richmond" + 0.006*"needs" + 0.006*"good" + 0.005*"team" + 0.005*"strong" + 0.005*"supported" + 0.004*"January" + 0.004*"31"', '0.018*"’" + 0.011*"well" + 0.008*"Richmond" + 0.007*"supported" + 0.007*"need" + 0.006*"needs" + 0.005*"team" + 0.005*"additional" + 0.005*"good" + 0.005*"2022"']</t>
-  </si>
-  <si>
-    <t>80514</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>E09000028</t>
-  </si>
-  <si>
-    <t>southwark</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50198438</t>
-  </si>
-  <si>
-    <t>26/09/2022</t>
-  </si>
-  <si>
-    <t>30/09/2022</t>
-  </si>
-  <si>
-    <t>11/11/22</t>
-  </si>
-  <si>
-    <t>['0.019*"’" + 0.008*"Southwark" + 0.008*"well" + 0.008*"good" + 0.008*"needs" + 0.005*"progress" + 0.005*"need" + 0.005*"Leaders" + 0.005*"receive" + 0.005*"2022"', '0.019*"’" + 0.010*"Southwark" + 0.007*"good" + 0.006*"needs" + 0.006*"well" + 0.006*"progress" + 0.006*"need" + 0.006*"leaders" + 0.006*"plans" + 0.005*"ensure"', '0.017*"’" + 0.010*"Southwark" + 0.008*"well" + 0.008*"good" + 0.007*"needs" + 0.006*"strong" + 0.006*"plans" + 0.006*"progress" + 0.005*"effective" + 0.005*"need"']</t>
-  </si>
-  <si>
-    <t>80515</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>E09000029</t>
-  </si>
-  <si>
-    <t>sutton</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50176759</t>
-  </si>
-  <si>
-    <t>10/12/2021</t>
-  </si>
-  <si>
-    <t>01/02/22</t>
-  </si>
-  <si>
-    <t>0.2064</t>
-  </si>
-  <si>
-    <t>['0.015*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"receive" + 0.005*"Sutton" + 0.005*"good" + 0.005*"progress" + 0.004*"need" + 0.004*"December" + 0.004*"effective"', '0.008*"’" + 0.006*"Sutton" + 0.005*"well" + 0.004*"needs" + 0.004*"receive" + 0.004*"effective" + 0.004*"6" + 0.004*"progress" + 0.003*"protection" + 0.003*"10"', '0.023*"’" + 0.008*"well" + 0.006*"Sutton" + 0.006*"needs" + 0.006*"progress" + 0.005*"good" + 0.005*"effective" + 0.005*"supported" + 0.005*"6" + 0.005*"leaders"']</t>
-  </si>
-  <si>
-    <t>80516</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>E09000030</t>
-  </si>
-  <si>
-    <t>tower hamlets</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50094564</t>
-  </si>
-  <si>
-    <t>marcie taylor</t>
-  </si>
-  <si>
-    <t>22/07/19</t>
-  </si>
-  <si>
-    <t>0.2155</t>
-  </si>
-  <si>
-    <t>['0.014*"’" + 0.006*"good" + 0.006*"practice" + 0.006*"‘" + 0.006*"well" + 0.006*"plans" + 0.005*"effective" + 0.005*"progress" + 0.005*"early" + 0.005*"including"', '0.014*"’" + 0.007*"good" + 0.007*"effective" + 0.007*"plans" + 0.006*"well" + 0.006*"‘" + 0.005*"need" + 0.005*"practice" + 0.005*"carers" + 0.004*"early"', '0.016*"’" + 0.006*"good" + 0.006*"effective" + 0.006*"plans" + 0.005*"need" + 0.005*"early" + 0.005*"needs" + 0.005*"‘" + 0.005*"progress" + 0.005*"well"']</t>
-  </si>
-  <si>
-    <t>80517</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>E09000031</t>
-  </si>
-  <si>
-    <t>waltham forest</t>
-  </si>
-  <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50061232</t>
-  </si>
-  <si>
-    <t>28/01/2019</t>
-  </si>
-  <si>
-    <t>08/02/2019</t>
-  </si>
-  <si>
-    <t>11/03/19</t>
-  </si>
-  <si>
-    <t>['0.013*"’" + 0.011*"well" + 0.009*"needs" + 0.008*"effective" + 0.007*"good" + 0.006*"plans" + 0.006*"need" + 0.005*"timely" + 0.004*"ensure" + 0.004*"risk"', '0.015*"’" + 0.011*"well" + 0.009*"good" + 0.008*"effective" + 0.007*"needs" + 0.006*"plans" + 0.005*"need" + 0.004*"risk" + 0.004*"timely" + 0.004*"progress"', '0.015*"’" + 0.012*"well" + 0.010*"needs" + 0.008*"good" + 0.006*"need" + 0.006*"effective" + 0.005*"timely" + 0.005*"risk" + 0.004*"practice" + 0.004*"plans"']</t>
+    <t>['0.016*"’" + 0.013*"well" + 0.010*"needs" + 0.008*"good" + 0.007*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"risk" + 0.005*"timely" + 0.004*"progress"', '0.015*"’" + 0.011*"well" + 0.009*"good" + 0.008*"needs" + 0.007*"effective" + 0.007*"need" + 0.005*"plans" + 0.005*"timely" + 0.005*"risk" + 0.004*"information"', '0.012*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"good" + 0.005*"need" + 0.005*"plans" + 0.004*"timely" + 0.004*"clear" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2614,7 +2608,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"needs" + 0.005*"quality" + 0.005*"protection" + 0.005*"7" + 0.005*"Wandsworth" + 0.005*"progress" + 0.005*"practice" + 0.005*"Senior" + 0.005*"supported"', '0.010*"’" + 0.007*"well" + 0.006*"practice" + 0.006*"progress" + 0.005*"needs" + 0.005*"Senior" + 0.005*"Wandsworth" + 0.005*"18" + 0.005*"supported" + 0.005*"team"', '0.014*"’" + 0.008*"well" + 0.005*"ensure" + 0.005*"progress" + 0.005*"protection" + 0.005*"receive" + 0.005*"Senior" + 0.005*"effective" + 0.005*"2022" + 0.005*"quality"']</t>
+    <t>['0.007*"’" + 0.006*"well" + 0.004*"receive" + 0.004*"good" + 0.004*"Senior" + 0.004*"effective" + 0.004*"7" + 0.004*"timely" + 0.004*"practice" + 0.003*"supported"', '0.011*"’" + 0.006*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"quality" + 0.005*"7" + 0.004*"18" + 0.004*"ensure" + 0.004*"Wandsworth" + 0.004*"protection"', '0.014*"’" + 0.007*"progress" + 0.007*"well" + 0.006*"protection" + 0.006*"needs" + 0.006*"Wandsworth" + 0.006*"Senior" + 0.006*"effective" + 0.006*"supported" + 0.006*"ensure"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2635,7 +2629,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"highly" + 0.005*"well" + 0.005*"needs" + 0.005*"practice" + 0.004*"many" + 0.004*"across" + 0.003*"high" + 0.003*"family" + 0.003*"direct"', '0.011*"’" + 0.007*"practice" + 0.005*"highly" + 0.005*"needs" + 0.004*"well" + 0.003*"skilled" + 0.003*"plans" + 0.003*"protection" + 0.003*"informed" + 0.003*"direct"', '0.012*"’" + 0.007*"practice" + 0.007*"needs" + 0.005*"well" + 0.005*"highly" + 0.004*"across" + 0.004*"many" + 0.004*"family" + 0.004*"shared" + 0.003*"skilled"']</t>
+    <t>['0.012*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"highly" + 0.005*"practice" + 0.004*"many" + 0.004*"family" + 0.004*"direct" + 0.003*"plans" + 0.003*"skilled"', '0.014*"’" + 0.009*"practice" + 0.007*"needs" + 0.007*"highly" + 0.005*"well" + 0.004*"across" + 0.004*"many" + 0.004*"family" + 0.004*"number" + 0.004*"Westminster"', '0.011*"’" + 0.005*"practice" + 0.004*"needs" + 0.004*"highly" + 0.004*"well" + 0.003*"protection" + 0.003*"many" + 0.003*"across" + 0.003*"informed" + 0.003*"direct"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2665,7 +2659,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"need" + 0.006*"good" + 0.006*"effective" + 0.006*"impact" + 0.006*"Luton" + 0.006*"progress" + 0.006*"needs" + 0.005*"quality" + 0.005*"receive"', '0.016*"’" + 0.008*"plans" + 0.006*"needs" + 0.005*"need" + 0.005*"Luton" + 0.005*"ensure" + 0.004*"take" + 0.004*"effective" + 0.004*"quality" + 0.004*"impact"', '0.015*"’" + 0.007*"needs" + 0.006*"need" + 0.006*"plans" + 0.006*"Luton" + 0.005*"effective" + 0.004*"good" + 0.004*"well" + 0.004*"progress" + 0.004*"ensure"']</t>
+    <t>['0.022*"’" + 0.007*"need" + 0.007*"plans" + 0.006*"effective" + 0.006*"Luton" + 0.006*"needs" + 0.005*"progress" + 0.005*"Leaders" + 0.005*"impact" + 0.005*"good"', '0.009*"’" + 0.005*"need" + 0.005*"needs" + 0.004*"Luton" + 0.004*"progress" + 0.004*"plans" + 0.004*"impact" + 0.004*"good" + 0.003*"quality" + 0.003*"leaders"', '0.015*"’" + 0.007*"needs" + 0.007*"need" + 0.006*"ensure" + 0.006*"plans" + 0.005*"Luton" + 0.005*"good" + 0.005*"effective" + 0.005*"well" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2689,7 +2683,7 @@
     <t>19/05/22</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"Manchester" + 0.006*"needs" + 0.005*"well" + 0.005*"always" + 0.004*"protection" + 0.004*"plans" + 0.004*"education" + 0.004*"disabled" + 0.004*"1"', '0.022*"’" + 0.011*"Manchester" + 0.010*"needs" + 0.008*"always" + 0.008*"well" + 0.007*"supported" + 0.006*"plans" + 0.006*"protection" + 0.006*"effective" + 0.005*"quality"', '0.023*"’" + 0.010*"needs" + 0.010*"Manchester" + 0.008*"supported" + 0.007*"well" + 0.006*"effective" + 0.005*"family" + 0.005*"education" + 0.005*"always" + 0.005*"plans"']</t>
+    <t>['0.018*"’" + 0.010*"Manchester" + 0.010*"needs" + 0.006*"always" + 0.006*"well" + 0.006*"However" + 0.005*"plans" + 0.005*"progress" + 0.005*"protection" + 0.005*"education"', '0.018*"’" + 0.009*"needs" + 0.009*"Manchester" + 0.006*"always" + 0.005*"supported" + 0.005*"well" + 0.005*"education" + 0.005*"effective" + 0.005*"protection" + 0.005*"plans"', '0.025*"’" + 0.011*"Manchester" + 0.009*"needs" + 0.008*"well" + 0.008*"supported" + 0.007*"always" + 0.006*"plans" + 0.005*"effective" + 0.005*"family" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -2716,7 +2710,7 @@
     <t>11/09/23</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"Medway" + 0.008*"quality" + 0.007*"well" + 0.007*"practice" + 0.007*"impact" + 0.007*"oversight" + 0.007*"leaders" + 0.006*"risk" + 0.005*"needs"', '0.015*"’" + 0.008*"practice" + 0.008*"Medway" + 0.007*"quality" + 0.007*"well" + 0.006*"needs" + 0.006*"experiences" + 0.006*"leaders" + 0.005*"oversight" + 0.005*"2023"', '0.018*"’" + 0.010*"Medway" + 0.009*"practice" + 0.008*"well" + 0.008*"quality" + 0.007*"needs" + 0.006*"leaders" + 0.006*"clear" + 0.005*"oversight" + 0.005*"Senior"']</t>
+    <t>['0.015*"’" + 0.009*"quality" + 0.008*"Medway" + 0.007*"practice" + 0.007*"well" + 0.007*"needs" + 0.006*"oversight" + 0.005*"Senior" + 0.005*"good" + 0.005*"leaders"', '0.016*"’" + 0.011*"Medway" + 0.009*"practice" + 0.009*"well" + 0.007*"leaders" + 0.007*"quality" + 0.007*"impact" + 0.007*"oversight" + 0.006*"needs" + 0.006*"progress"', '0.016*"’" + 0.008*"Medway" + 0.007*"quality" + 0.007*"practice" + 0.006*"well" + 0.006*"leaders" + 0.006*"risk" + 0.005*"needs" + 0.005*"experiences" + 0.005*"17"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -2737,7 +2731,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"plans" + 0.007*"Middlesbrough" + 0.007*"well" + 0.007*"effective" + 0.005*"progress" + 0.005*"needs" + 0.005*"practice" + 0.005*"means" + 0.004*"24"', '0.014*"’" + 0.007*"plans" + 0.006*"effective" + 0.006*"needs" + 0.005*"Middlesbrough" + 0.005*"well" + 0.005*"progress" + 0.005*"practice" + 0.004*"13" + 0.004*"means"', '0.015*"’" + 0.008*"effective" + 0.007*"Middlesbrough" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"practice" + 0.006*"place" + 0.006*"24" + 0.005*"good"']</t>
+    <t>['0.012*"’" + 0.008*"effective" + 0.007*"plans" + 0.006*"Middlesbrough" + 0.006*"practice" + 0.006*"needs" + 0.005*"well" + 0.005*"good" + 0.005*"place" + 0.005*"progress"', '0.015*"’" + 0.007*"Middlesbrough" + 0.007*"well" + 0.007*"plans" + 0.006*"effective" + 0.005*"needs" + 0.005*"13" + 0.005*"progress" + 0.005*"March" + 0.005*"place"', '0.013*"’" + 0.007*"needs" + 0.007*"plans" + 0.007*"effective" + 0.006*"well" + 0.006*"Middlesbrough" + 0.006*"practice" + 0.006*"progress" + 0.005*"impact" + 0.005*"13"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -2761,7 +2755,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"Milton" + 0.006*"well" + 0.005*"impact" + 0.004*"plans" + 0.004*"family" + 0.004*"leaders" + 0.004*"education" + 0.004*"Keynes" + 0.004*"25"', '0.011*"’" + 0.006*"Keynes" + 0.005*"leaders" + 0.004*"Milton" + 0.004*"2021" + 0.004*"practice" + 0.004*"well" + 0.004*"need" + 0.004*"October" + 0.004*"needs"', '0.019*"’" + 0.007*"need" + 0.007*"Milton" + 0.007*"Keynes" + 0.006*"well" + 0.006*"practice" + 0.005*"good" + 0.005*"effective" + 0.005*"October" + 0.005*"25"']</t>
+    <t>['0.016*"’" + 0.007*"Milton" + 0.006*"well" + 0.006*"Keynes" + 0.005*"need" + 0.005*"plans" + 0.005*"practice" + 0.005*"October" + 0.005*"quality" + 0.005*"5"', '0.010*"’" + 0.005*"team" + 0.005*"well" + 0.004*"practice" + 0.004*"Milton" + 0.004*"plans" + 0.004*"Keynes" + 0.004*"25" + 0.003*"need" + 0.003*"5"', '0.017*"’" + 0.008*"Keynes" + 0.006*"need" + 0.005*"Milton" + 0.005*"leaders" + 0.005*"good" + 0.005*"well" + 0.005*"impact" + 0.004*"25" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -2785,7 +2779,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.011*"plans" + 0.009*"needs" + 0.007*"Newcastle" + 0.007*"protection" + 0.007*"good" + 0.006*"well" + 0.006*"ensure" + 0.006*"making" + 0.006*"response"', '0.013*"’" + 0.010*"plans" + 0.007*"good" + 0.007*"needs" + 0.007*"well" + 0.007*"protection" + 0.007*"Newcastle" + 0.006*"progress" + 0.006*"management" + 0.005*"response"', '0.011*"’" + 0.009*"plans" + 0.007*"Newcastle" + 0.006*"protection" + 0.006*"ensure" + 0.005*"well" + 0.005*"progress" + 0.005*"good" + 0.005*"needs" + 0.005*"need"']</t>
+    <t>['0.019*"’" + 0.013*"plans" + 0.009*"good" + 0.008*"Newcastle" + 0.008*"needs" + 0.007*"protection" + 0.006*"progress" + 0.006*"well" + 0.006*"ensure" + 0.006*"response"', '0.012*"’" + 0.007*"plans" + 0.007*"needs" + 0.007*"well" + 0.005*"protection" + 0.005*"Newcastle" + 0.005*"making" + 0.005*"10" + 0.005*"management" + 0.005*"ensure"', '0.014*"’" + 0.009*"plans" + 0.007*"needs" + 0.007*"protection" + 0.006*"well" + 0.006*"Newcastle" + 0.006*"good" + 0.006*"progress" + 0.006*"management" + 0.006*"making"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -2806,7 +2800,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"Norfolk" + 0.008*"well" + 0.007*"carers" + 0.006*"practice" + 0.006*"needs" + 0.005*"progress" + 0.005*"supported" + 0.004*"18" + 0.004*"including"', '0.013*"’" + 0.009*"well" + 0.007*"Norfolk" + 0.006*"supported" + 0.005*"needs" + 0.005*"carers" + 0.005*"range" + 0.005*"7" + 0.004*"plans" + 0.004*"leaders"', '0.018*"’" + 0.007*"well" + 0.007*"Norfolk" + 0.006*"needs" + 0.006*"practice" + 0.005*"carers" + 0.005*"plans" + 0.004*"supported" + 0.004*"18" + 0.004*"including"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.007*"Norfolk" + 0.006*"carers" + 0.006*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"leaders" + 0.005*"supported" + 0.005*"family"', '0.016*"’" + 0.008*"well" + 0.006*"Norfolk" + 0.006*"practice" + 0.006*"carers" + 0.006*"supported" + 0.005*"18" + 0.005*"effective" + 0.004*"plans" + 0.004*"needs"', '0.017*"’" + 0.010*"Norfolk" + 0.007*"well" + 0.006*"needs" + 0.006*"carers" + 0.005*"supported" + 0.005*"practice" + 0.005*"range" + 0.005*"progress" + 0.005*"including"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -2836,7 +2830,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"risk" + 0.006*"practice" + 0.006*"leaders" + 0.005*"needs" + 0.005*"planning" + 0.005*"East" + 0.005*"quality" + 0.004*"making" + 0.004*"Council"', '0.019*"’" + 0.008*"practice" + 0.007*"risk" + 0.006*"leaders" + 0.006*"needs" + 0.006*"planning" + 0.005*"North" + 0.005*"oversight" + 0.005*"October" + 0.005*"need"', '0.013*"’" + 0.009*"practice" + 0.007*"planning" + 0.007*"needs" + 0.007*"leaders" + 0.006*"need" + 0.006*"risk" + 0.006*"many" + 0.005*"quality" + 0.005*"2021"']</t>
+    <t>['0.012*"’" + 0.007*"needs" + 0.007*"practice" + 0.007*"risk" + 0.007*"planning" + 0.005*"leaders" + 0.005*"many" + 0.005*"East" + 0.004*"experiences" + 0.004*"plans"', '0.015*"’" + 0.008*"practice" + 0.008*"leaders" + 0.007*"risk" + 0.006*"needs" + 0.006*"planning" + 0.005*"2021" + 0.005*"need" + 0.005*"quality" + 0.005*"Lincolnshire"', '0.015*"’" + 0.007*"practice" + 0.006*"leaders" + 0.006*"planning" + 0.006*"need" + 0.005*"risk" + 0.005*"needs" + 0.005*"senior" + 0.005*"East" + 0.005*"many"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -2863,7 +2857,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"‘" + 0.006*"Lincolnshire" + 0.006*"North" + 0.006*"approach" + 0.005*"protection" + 0.005*"10" + 0.005*"need" + 0.005*"well" + 0.005*"leaders"', '0.021*"’" + 0.008*"‘" + 0.006*"leaders" + 0.006*"family" + 0.005*"well" + 0.005*"Lincolnshire" + 0.004*"14" + 0.004*"approach" + 0.004*"practice" + 0.004*"need"', '0.019*"’" + 0.008*"family" + 0.006*"‘" + 0.006*"North" + 0.005*"10" + 0.005*"approach" + 0.005*"need" + 0.004*"well" + 0.004*"Lincolnshire" + 0.004*"council"']</t>
+    <t>['0.019*"’" + 0.008*"‘" + 0.006*"approach" + 0.006*"North" + 0.005*"well" + 0.005*"10" + 0.005*"leaders" + 0.005*"family" + 0.005*"need" + 0.005*"Lincolnshire"', '0.020*"’" + 0.007*"‘" + 0.007*"family" + 0.006*"Lincolnshire" + 0.005*"well" + 0.005*"need" + 0.005*"North" + 0.005*"10" + 0.005*"approach" + 0.004*"14"', '0.021*"’" + 0.006*"‘" + 0.006*"leaders" + 0.006*"family" + 0.005*"Lincolnshire" + 0.005*"2022" + 0.005*"North" + 0.005*"council" + 0.005*"October" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>940</t>
@@ -2893,7 +2887,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"North" + 0.006*"Northamptonshire" + 0.006*"well" + 0.006*"Leaders" + 0.006*"quality" + 0.006*"practice" + 0.006*"NCT" + 0.005*"plans" + 0.005*"needs"', '0.014*"’" + 0.007*"Northamptonshire" + 0.006*"well" + 0.006*"North" + 0.006*"quality" + 0.005*"practice" + 0.004*"needs" + 0.004*"need" + 0.004*"experiences" + 0.004*"3"', '0.017*"’" + 0.011*"Northamptonshire" + 0.006*"North" + 0.006*"well" + 0.005*"impact" + 0.005*"quality" + 0.005*"e" + 0.004*"needs" + 0.004*"3" + 0.004*"NCT"']</t>
+    <t>['0.017*"’" + 0.006*"Northamptonshire" + 0.006*"well" + 0.006*"North" + 0.005*"impact" + 0.004*"quality" + 0.004*"Leaders" + 0.004*"14" + 0.004*"plans" + 0.004*"experiences"', '0.019*"’" + 0.008*"North" + 0.007*"well" + 0.007*"Northamptonshire" + 0.006*"quality" + 0.006*"needs" + 0.005*"NCT" + 0.005*"Leaders" + 0.005*"3" + 0.005*"need"', '0.015*"’" + 0.011*"Northamptonshire" + 0.006*"practice" + 0.006*"North" + 0.006*"quality" + 0.005*"well" + 0.005*"needs" + 0.005*"2022" + 0.005*"e" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -2917,7 +2911,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"quality" + 0.007*"needs" + 0.006*"practice" + 0.006*"risk" + 0.006*"North" + 0.006*"need" + 0.006*"Somerset" + 0.005*"always" + 0.005*"13"', '0.018*"’" + 0.007*"quality" + 0.006*"Somerset" + 0.006*"needs" + 0.006*"always" + 0.006*"practice" + 0.005*"progress" + 0.005*"North" + 0.005*"number" + 0.005*"risk"', '0.016*"’" + 0.007*"quality" + 0.006*"always" + 0.006*"number" + 0.006*"needs" + 0.006*"North" + 0.005*"well" + 0.005*"Somerset" + 0.004*"timely" + 0.004*"practice"']</t>
+    <t>['0.012*"’" + 0.006*"quality" + 0.005*"needs" + 0.004*"number" + 0.004*"North" + 0.004*"progress" + 0.004*"Somerset" + 0.004*"always" + 0.004*"information" + 0.004*"March"', '0.016*"’" + 0.008*"North" + 0.007*"quality" + 0.007*"needs" + 0.005*"Somerset" + 0.005*"risk" + 0.005*"number" + 0.005*"always" + 0.005*"well" + 0.005*"progress"', '0.020*"’" + 0.008*"quality" + 0.007*"always" + 0.007*"needs" + 0.007*"practice" + 0.006*"Somerset" + 0.006*"need" + 0.006*"number" + 0.006*"experienced" + 0.006*"plans"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -2941,7 +2935,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.006*"leaders" + 0.006*"well" + 0.005*"needs" + 0.005*"quality" + 0.005*"need" + 0.005*"impact" + 0.005*"make" + 0.004*"early" + 0.004*"experiences"', '0.011*"’" + 0.006*"well" + 0.005*"leaders" + 0.005*"need" + 0.004*"impact" + 0.004*"needs" + 0.003*"quality" + 0.003*"clear" + 0.003*"make" + 0.003*"understand"', '0.016*"’" + 0.007*"well" + 0.006*"make" + 0.005*"need" + 0.005*"quality" + 0.004*"leaders" + 0.004*"needs" + 0.004*"good" + 0.004*"protection" + 0.004*"working"']</t>
+    <t>['0.017*"’" + 0.005*"well" + 0.005*"needs" + 0.004*"need" + 0.004*"leaders" + 0.004*"family" + 0.004*"early" + 0.004*"make" + 0.004*"foster" + 0.004*"quality"', '0.016*"’" + 0.007*"well" + 0.006*"leaders" + 0.005*"quality" + 0.005*"need" + 0.004*"make" + 0.004*"impact" + 0.004*"early" + 0.004*"clear" + 0.004*"experiences"', '0.015*"’" + 0.007*"well" + 0.006*"leaders" + 0.006*"make" + 0.005*"need" + 0.005*"needs" + 0.004*"impact" + 0.004*"quality" + 0.004*"progress" + 0.004*"understand"']</t>
   </si>
   <si>
     <t>815</t>
@@ -2965,7 +2959,7 @@
     <t>18/08/23</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"Yorkshire" + 0.006*"well" + 0.006*"North" + 0.006*"family" + 0.006*"practice" + 0.005*"needs" + 0.005*"‘" + 0.004*"3" + 0.004*"supported"', '0.024*"’" + 0.010*"well" + 0.007*"practice" + 0.006*"North" + 0.006*"Yorkshire" + 0.006*"family" + 0.005*"needs" + 0.005*"‘" + 0.005*"7" + 0.005*"3"', '0.017*"’" + 0.006*"North" + 0.006*"well" + 0.006*"needs" + 0.005*"Yorkshire" + 0.005*"family" + 0.004*"practice" + 0.004*"‘" + 0.004*"carers" + 0.004*"effective"']</t>
+    <t>['0.021*"’" + 0.008*"well" + 0.007*"Yorkshire" + 0.007*"needs" + 0.007*"North" + 0.006*"family" + 0.005*"practice" + 0.005*"‘" + 0.005*"3" + 0.005*"need"', '0.022*"’" + 0.007*"practice" + 0.006*"Yorkshire" + 0.006*"family" + 0.006*"well" + 0.005*"needs" + 0.005*"North" + 0.005*"7" + 0.005*"3" + 0.004*"supported"', '0.018*"’" + 0.010*"well" + 0.007*"North" + 0.006*"practice" + 0.005*"‘" + 0.005*"Yorkshire" + 0.005*"family" + 0.004*"7" + 0.004*"needs" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -2989,7 +2983,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"good" + 0.005*"experiences" + 0.004*"need" + 0.004*"plans" + 0.004*"practice" + 0.004*"impact" + 0.004*"education"', '0.012*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"good" + 0.004*"need" + 0.004*"impact" + 0.004*"plans" + 0.004*"experiences" + 0.004*"always" + 0.003*"effective"', '0.030*"’" + 0.013*"needs" + 0.011*"well" + 0.009*"good" + 0.008*"need" + 0.006*"practice" + 0.006*"experiences" + 0.006*"quality" + 0.006*"impact" + 0.006*"education"']</t>
+    <t>['0.026*"’" + 0.011*"well" + 0.010*"needs" + 0.007*"good" + 0.005*"experiences" + 0.005*"need" + 0.005*"leaders" + 0.004*"impact" + 0.004*"supported" + 0.004*"quality"', '0.017*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"need" + 0.006*"good" + 0.005*"quality" + 0.005*"education" + 0.004*"impact" + 0.004*"practice" + 0.004*"experiences"', '0.022*"’" + 0.011*"needs" + 0.010*"well" + 0.009*"good" + 0.007*"need" + 0.007*"practice" + 0.006*"experiences" + 0.006*"impact" + 0.005*"education" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3016,7 +3010,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"Nottingham" + 0.005*"City" + 0.005*"impact" + 0.005*"plans" + 0.005*"oversight" + 0.004*"risk" + 0.004*"However"', '0.012*"’" + 0.009*"needs" + 0.005*"plans" + 0.005*"2022" + 0.005*"effective" + 0.005*"oversight" + 0.005*"11" + 0.005*"Nottingham" + 0.004*"However" + 0.004*"July"', '0.018*"’" + 0.008*"needs" + 0.006*"Nottingham" + 0.006*"plans" + 0.005*"impact" + 0.005*"effective" + 0.005*"11" + 0.005*"practice" + 0.004*"City" + 0.004*"protection"']</t>
+    <t>['0.012*"’" + 0.006*"Nottingham" + 0.006*"needs" + 0.005*"plans" + 0.004*"However" + 0.004*"11" + 0.004*"City" + 0.004*"2022" + 0.004*"effective" + 0.004*"oversight"', '0.013*"’" + 0.009*"needs" + 0.005*"impact" + 0.005*"Nottingham" + 0.005*"11" + 0.005*"oversight" + 0.005*"effective" + 0.004*"plans" + 0.004*"risk" + 0.004*"significant"', '0.016*"’" + 0.008*"needs" + 0.007*"effective" + 0.006*"plans" + 0.006*"Nottingham" + 0.005*"City" + 0.005*"practice" + 0.005*"impact" + 0.005*"risk" + 0.005*"oversight"']</t>
   </si>
   <si>
     <t>891</t>
@@ -3034,7 +3028,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.007*"practice" + 0.005*"e" + 0.005*"needs" + 0.005*"receive" + 0.005*"made" + 0.005*"quality" + 0.004*"number" + 0.004*"plans"', '0.010*"’" + 0.010*"practice" + 0.007*"well" + 0.006*"needs" + 0.005*"receive" + 0.005*"progress" + 0.005*"ensure" + 0.005*"quality" + 0.005*"plans" + 0.005*"carers"', '0.012*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"plans" + 0.006*"needs" + 0.006*"ensure" + 0.006*"receive" + 0.005*"carers" + 0.005*"meetings" + 0.005*"made"']</t>
+    <t>['0.010*"’" + 0.009*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"receive" + 0.005*"quality" + 0.005*"ensure" + 0.005*"e" + 0.005*"effective" + 0.004*"plans"', '0.014*"’" + 0.009*"well" + 0.007*"practice" + 0.005*"needs" + 0.005*"progress" + 0.005*"plans" + 0.004*"receive" + 0.004*"made" + 0.004*"carers" + 0.004*"e"', '0.012*"’" + 0.008*"well" + 0.008*"practice" + 0.007*"needs" + 0.006*"receive" + 0.006*"ensure" + 0.006*"plans" + 0.006*"areas" + 0.005*"made" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3064,7 +3058,7 @@
     <t>04/03/19</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"practice" + 0.010*"needs" + 0.009*"good" + 0.007*"effective" + 0.007*"planning" + 0.007*"progress" + 0.007*"quality" + 0.006*"plans" + 0.006*"well"', '0.011*"’" + 0.010*"good" + 0.009*"needs" + 0.008*"practice" + 0.007*"effective" + 0.007*"well" + 0.007*"plans" + 0.007*"progress" + 0.007*"quality" + 0.006*"impact"', '0.009*"effective" + 0.008*"needs" + 0.008*"good" + 0.008*"practice" + 0.007*"’" + 0.007*"well" + 0.006*"planning" + 0.005*"quality" + 0.005*"progress" + 0.005*"risk"']</t>
+    <t>['0.012*"’" + 0.008*"good" + 0.008*"effective" + 0.008*"practice" + 0.007*"needs" + 0.005*"progress" + 0.005*"planning" + 0.005*"quality" + 0.005*"well" + 0.004*"plans"', '0.010*"’" + 0.008*"needs" + 0.008*"practice" + 0.007*"effective" + 0.007*"plans" + 0.007*"good" + 0.006*"progress" + 0.006*"quality" + 0.006*"planning" + 0.005*"information"', '0.011*"good" + 0.010*"’" + 0.010*"needs" + 0.010*"practice" + 0.008*"well" + 0.008*"effective" + 0.007*"quality" + 0.007*"progress" + 0.007*"planning" + 0.006*"impact"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3094,7 +3088,7 @@
     <t>0.1848</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"needs" + 0.005*"number" + 0.005*"good" + 0.004*"including" + 0.004*"plans" + 0.004*"effective" + 0.004*"practice" + 0.004*"early" + 0.004*"protection"', '0.016*"’" + 0.010*"needs" + 0.007*"response" + 0.006*"good" + 0.006*"protection" + 0.005*"plans" + 0.005*"quality" + 0.005*"number" + 0.005*"education" + 0.005*"early"', '0.012*"’" + 0.008*"needs" + 0.007*"number" + 0.007*"good" + 0.006*"early" + 0.005*"effective" + 0.004*"plans" + 0.004*"quality" + 0.004*"action" + 0.004*"protection"']</t>
+    <t>['0.010*"’" + 0.007*"needs" + 0.005*"number" + 0.005*"good" + 0.005*"protection" + 0.004*"response" + 0.004*"early" + 0.004*"plans" + 0.004*"including" + 0.003*"quality"', '0.013*"’" + 0.010*"needs" + 0.007*"good" + 0.006*"number" + 0.005*"early" + 0.005*"education" + 0.004*"plans" + 0.004*"Oxfordshire" + 0.004*"effective" + 0.004*"protection"', '0.016*"’" + 0.010*"needs" + 0.006*"number" + 0.006*"good" + 0.005*"early" + 0.005*"response" + 0.005*"plans" + 0.005*"protection" + 0.005*"quality" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3121,7 +3115,7 @@
     <t>30/01/24</t>
   </si>
   <si>
-    <t>['0.018*"needs" + 0.015*"’" + 0.008*"need" + 0.006*"Peterborough" + 0.006*"progress" + 0.005*"2023" + 0.005*"8" + 0.005*"plans" + 0.005*"well" + 0.005*"27"', '0.014*"’" + 0.012*"needs" + 0.008*"well" + 0.007*"Peterborough" + 0.007*"2023" + 0.006*"progress" + 0.006*"need" + 0.006*"plans" + 0.005*"supported" + 0.005*"27"', '0.014*"’" + 0.010*"needs" + 0.007*"need" + 0.007*"Peterborough" + 0.006*"2023" + 0.006*"well" + 0.005*"8" + 0.005*"supported" + 0.005*"good" + 0.005*"progress"']</t>
+    <t>['0.015*"needs" + 0.013*"’" + 0.007*"well" + 0.007*"Peterborough" + 0.006*"8" + 0.006*"progress" + 0.006*"need" + 0.005*"supported" + 0.005*"27" + 0.005*"2023"', '0.012*"needs" + 0.012*"’" + 0.007*"need" + 0.006*"2023" + 0.006*"supported" + 0.005*"Peterborough" + 0.005*"well" + 0.005*"progress" + 0.005*"27" + 0.004*"receive"', '0.018*"’" + 0.013*"needs" + 0.008*"Peterborough" + 0.008*"need" + 0.007*"2023" + 0.006*"progress" + 0.006*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"November"']</t>
   </si>
   <si>
     <t>879</t>
@@ -3148,7 +3142,7 @@
     <t>0.1594</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"However" + 0.009*"quality" + 0.009*"good" + 0.008*"well" + 0.008*"needs" + 0.007*"timely" + 0.006*"number" + 0.006*"result" + 0.006*"plans"', '0.013*"’" + 0.010*"well" + 0.010*"However" + 0.009*"good" + 0.007*"needs" + 0.006*"quality" + 0.006*"progress" + 0.005*"plans" + 0.005*"effective" + 0.005*"result"', '0.014*"’" + 0.009*"good" + 0.009*"needs" + 0.008*"well" + 0.008*"quality" + 0.007*"progress" + 0.007*"However" + 0.006*"leaders" + 0.005*"timely" + 0.005*"effective"']</t>
+    <t>['0.017*"’" + 0.009*"However" + 0.009*"good" + 0.008*"quality" + 0.008*"well" + 0.007*"needs" + 0.006*"leaders" + 0.006*"number" + 0.006*"result" + 0.006*"practice"', '0.014*"’" + 0.010*"well" + 0.010*"good" + 0.009*"However" + 0.009*"needs" + 0.008*"quality" + 0.008*"timely" + 0.006*"effective" + 0.006*"progress" + 0.006*"result"', '0.012*"’" + 0.008*"However" + 0.008*"good" + 0.008*"well" + 0.007*"needs" + 0.007*"progress" + 0.007*"quality" + 0.006*"plans" + 0.005*"timely" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3178,7 +3172,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"Portsmouth" + 0.005*"plans" + 0.005*"care-experienced" + 0.005*"family" + 0.005*"need" + 0.004*"health" + 0.004*"risk"', '0.018*"’" + 0.010*"care-experienced" + 0.007*"Portsmouth" + 0.006*"well" + 0.006*"needs" + 0.006*"family" + 0.006*"health" + 0.005*"leaders" + 0.005*"practice" + 0.005*"carers"', '0.016*"’" + 0.008*"care-experienced" + 0.008*"well" + 0.007*"Portsmouth" + 0.006*"needs" + 0.006*"plans" + 0.005*"health" + 0.005*"family" + 0.005*"progress" + 0.005*"foster"']</t>
+    <t>['0.015*"’" + 0.009*"well" + 0.008*"care-experienced" + 0.007*"Portsmouth" + 0.007*"needs" + 0.006*"plans" + 0.006*"family" + 0.005*"health" + 0.005*"need" + 0.004*"risk"', '0.011*"’" + 0.008*"care-experienced" + 0.005*"well" + 0.005*"needs" + 0.005*"family" + 0.005*"Portsmouth" + 0.004*"plans" + 0.004*"health" + 0.004*"2023" + 0.004*"practice"', '0.022*"’" + 0.008*"needs" + 0.008*"care-experienced" + 0.007*"Portsmouth" + 0.007*"well" + 0.005*"health" + 0.005*"leaders" + 0.005*"family" + 0.005*"receive" + 0.005*"15"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3211,7 +3205,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"quality" + 0.007*"well" + 0.006*"number" + 0.006*"plans" + 0.006*"need" + 0.005*"effective" + 0.005*"good" + 0.005*"always" + 0.004*"timely"', '0.015*"’" + 0.006*"number" + 0.006*"plans" + 0.006*"well" + 0.005*"effective" + 0.005*"quality" + 0.005*"needs" + 0.005*"ensure" + 0.005*"arrangements" + 0.004*"However"', '0.018*"’" + 0.008*"number" + 0.007*"good" + 0.007*"quality" + 0.006*"plans" + 0.006*"well" + 0.006*"need" + 0.006*"practice" + 0.005*"However" + 0.005*"effective"']</t>
+    <t>['0.014*"’" + 0.006*"effective" + 0.006*"quality" + 0.005*"number" + 0.005*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"good" + 0.004*"However" + 0.004*"leaders"', '0.018*"’" + 0.008*"number" + 0.008*"well" + 0.007*"plans" + 0.007*"quality" + 0.006*"good" + 0.006*"practice" + 0.006*"need" + 0.005*"timely" + 0.005*"carers"', '0.014*"’" + 0.007*"quality" + 0.006*"number" + 0.006*"well" + 0.005*"need" + 0.005*"plans" + 0.005*"good" + 0.005*"However" + 0.005*"always" + 0.004*"foster"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3232,7 +3226,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.006*"leaders" + 0.005*"plans" + 0.005*"consistently" + 0.005*"practice" + 0.005*"carers" + 0.005*"June" + 0.005*"Redcar" + 0.004*"20"', '0.020*"’" + 0.007*"However" + 0.006*"plans" + 0.005*"practice" + 0.005*"consistently" + 0.005*"needs" + 0.005*"20" + 0.005*"Redcar" + 0.005*"carers" + 0.005*"2022"', '0.017*"’" + 0.008*"leaders" + 0.006*"consistently" + 0.005*"plans" + 0.005*"However" + 0.005*"risk" + 0.005*"2022" + 0.005*"Cleveland" + 0.005*"needs" + 0.005*"20"']</t>
+    <t>['0.020*"’" + 0.006*"plans" + 0.006*"consistently" + 0.006*"needs" + 0.006*"practice" + 0.005*"However" + 0.005*"Cleveland" + 0.005*"20" + 0.005*"leaders" + 0.005*"Redcar"', '0.013*"’" + 0.006*"leaders" + 0.006*"However" + 0.005*"needs" + 0.005*"consistently" + 0.005*"plans" + 0.005*"2022" + 0.005*"risk" + 0.004*"carers" + 0.004*"20"', '0.019*"’" + 0.007*"leaders" + 0.006*"2022" + 0.005*"However" + 0.005*"needs" + 0.005*"Redcar" + 0.005*"plans" + 0.005*"20" + 0.005*"carers" + 0.005*"consistently"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3259,7 +3253,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"experienced" + 0.008*"needs" + 0.006*"consistently" + 0.006*"practice" + 0.006*"Rochdale" + 0.006*"response" + 0.006*"quality" + 0.005*"good" + 0.005*"January"', '0.015*"’" + 0.009*"experienced" + 0.008*"practice" + 0.007*"needs" + 0.006*"plans" + 0.006*"consistently" + 0.005*"response" + 0.005*"quality" + 0.005*"progress" + 0.005*"well"', '0.023*"’" + 0.011*"experienced" + 0.009*"practice" + 0.008*"needs" + 0.007*"plans" + 0.006*"response" + 0.005*"good" + 0.005*"3" + 0.004*"quality" + 0.004*"well"']</t>
+    <t>['0.016*"’" + 0.009*"practice" + 0.006*"needs" + 0.006*"experienced" + 0.005*"3" + 0.005*"consistently" + 0.005*"response" + 0.004*"good" + 0.004*"plans" + 0.004*"quality"', '0.022*"’" + 0.012*"experienced" + 0.009*"practice" + 0.009*"needs" + 0.008*"plans" + 0.007*"response" + 0.006*"consistently" + 0.006*"quality" + 0.006*"Rochdale" + 0.005*"good"', '0.021*"’" + 0.009*"experienced" + 0.007*"needs" + 0.005*"practice" + 0.005*"good" + 0.005*"well" + 0.005*"quality" + 0.005*"response" + 0.005*"consistently" + 0.004*"Rochdale"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3283,7 +3277,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"Rotherham" + 0.006*"well" + 0.006*"good" + 0.006*"needs" + 0.005*"However" + 0.004*"ensure" + 0.004*"2022" + 0.004*"Council" + 0.004*"Metropolitan"', '0.010*"’" + 0.009*"Rotherham" + 0.007*"needs" + 0.005*"well" + 0.004*"ensure" + 0.004*"Council" + 0.004*"plans" + 0.004*"clear" + 0.004*"However" + 0.004*"July"', '0.018*"’" + 0.009*"Rotherham" + 0.007*"needs" + 0.005*"plans" + 0.005*"good" + 0.005*"Council" + 0.005*"ensure" + 0.005*"27" + 0.005*"well" + 0.005*"However"']</t>
+    <t>['0.017*"’" + 0.008*"Rotherham" + 0.007*"needs" + 0.006*"well" + 0.005*"ensure" + 0.005*"plans" + 0.005*"However" + 0.005*"Council" + 0.004*"2022" + 0.004*"Borough"', '0.015*"’" + 0.009*"Rotherham" + 0.007*"needs" + 0.005*"well" + 0.005*"good" + 0.005*"However" + 0.004*"Council" + 0.004*"1" + 0.004*"protection" + 0.004*"clear"', '0.012*"’" + 0.009*"Rotherham" + 0.006*"good" + 0.005*"Council" + 0.005*"well" + 0.005*"needs" + 0.004*"ensure" + 0.004*"Metropolitan" + 0.004*"plans" + 0.004*"1"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3307,7 +3301,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.016*"well" + 0.010*"practice" + 0.009*"’" + 0.007*"strong" + 0.007*"highly" + 0.005*"needs" + 0.005*"effective" + 0.005*"professionals" + 0.005*"range" + 0.004*"leaders"', '0.015*"’" + 0.012*"well" + 0.011*"practice" + 0.007*"highly" + 0.007*"strong" + 0.006*"needs" + 0.005*"leaders" + 0.005*"effective" + 0.005*"high" + 0.004*"effectively"', '0.012*"well" + 0.011*"practice" + 0.009*"’" + 0.008*"highly" + 0.005*"effective" + 0.005*"strong" + 0.005*"leaders" + 0.005*"needs" + 0.004*"high" + 0.004*"progress"']</t>
+    <t>['0.017*"well" + 0.010*"practice" + 0.008*"’" + 0.007*"highly" + 0.005*"strong" + 0.005*"effective" + 0.005*"leaders" + 0.004*"professionals" + 0.004*"within" + 0.004*"need"', '0.012*"’" + 0.011*"well" + 0.011*"practice" + 0.008*"highly" + 0.007*"strong" + 0.006*"leaders" + 0.005*"needs" + 0.005*"effective" + 0.005*"range" + 0.005*"high"', '0.013*"’" + 0.013*"well" + 0.011*"practice" + 0.007*"needs" + 0.006*"highly" + 0.006*"strong" + 0.005*"effective" + 0.005*"high" + 0.004*"professionals" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3334,7 +3328,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.009*"plans" + 0.007*"needs" + 0.005*"effective" + 0.005*"good" + 0.004*"clear" + 0.004*"practice" + 0.004*"parents" + 0.004*"supported"', '0.008*"well" + 0.007*"’" + 0.007*"needs" + 0.006*"plans" + 0.005*"good" + 0.004*"need" + 0.004*"appropriate" + 0.004*"effective" + 0.004*"parents" + 0.004*"practice"', '0.017*"’" + 0.010*"well" + 0.008*"plans" + 0.008*"needs" + 0.005*"good" + 0.005*"clear" + 0.005*"risk" + 0.004*"practice" + 0.004*"effective" + 0.004*"supported"']</t>
+    <t>['0.011*"’" + 0.008*"well" + 0.008*"plans" + 0.005*"needs" + 0.004*"good" + 0.004*"clear" + 0.004*"effective" + 0.004*"parents" + 0.003*"progress" + 0.003*"need"', '0.015*"’" + 0.009*"plans" + 0.008*"well" + 0.008*"needs" + 0.006*"good" + 0.005*"risk" + 0.005*"practice" + 0.005*"clear" + 0.005*"need" + 0.004*"supported"', '0.013*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"plans" + 0.005*"effective" + 0.005*"good" + 0.005*"appropriate" + 0.004*"need" + 0.004*"practice" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3361,7 +3355,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.004*"quality" + 0.004*"well" + 0.004*"needs" + 0.004*"use" + 0.004*"benefit" + 0.004*"actions" + 0.003*"early" + 0.003*"timely" + 0.003*"need"', '0.009*"’" + 0.005*"well" + 0.005*"quality" + 0.004*"plans" + 0.004*"use" + 0.004*"benefit" + 0.004*"information" + 0.004*"health" + 0.004*"needs" + 0.004*"informed"', '0.015*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"quality" + 0.005*"plans" + 0.005*"effective" + 0.005*"always" + 0.004*"However" + 0.004*"information" + 0.004*"health"']</t>
+    <t>['0.012*"’" + 0.007*"quality" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"use" + 0.004*"information" + 0.004*"health" + 0.004*"timely" + 0.004*"always"', '0.008*"’" + 0.005*"well" + 0.004*"plans" + 0.004*"effective" + 0.004*"needs" + 0.004*"information" + 0.003*"case" + 0.003*"health" + 0.003*"quality" + 0.003*"benefit"', '0.014*"’" + 0.005*"needs" + 0.005*"well" + 0.004*"benefit" + 0.004*"plans" + 0.004*"use" + 0.004*"However" + 0.004*"effective" + 0.004*"quality" + 0.004*"management"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3382,7 +3376,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"well" + 0.008*"needs" + 0.006*"effective" + 0.006*"good" + 0.006*"enough" + 0.006*"ensure" + 0.006*"plans" + 0.006*"protection" + 0.006*"need"', '0.009*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"team" + 0.006*"good" + 0.005*"protection" + 0.005*"need" + 0.005*"enough" + 0.005*"practice" + 0.005*"plans"', '0.014*"’" + 0.011*"needs" + 0.010*"well" + 0.009*"good" + 0.008*"team" + 0.008*"practice" + 0.008*"need" + 0.006*"ensure" + 0.005*"plans" + 0.005*"effective"']</t>
+    <t>['0.015*"’" + 0.012*"well" + 0.009*"needs" + 0.007*"good" + 0.007*"team" + 0.007*"plans" + 0.007*"need" + 0.006*"practice" + 0.006*"enough" + 0.006*"effective"', '0.010*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"good" + 0.007*"need" + 0.005*"effective" + 0.005*"plans" + 0.005*"ensure" + 0.005*"team" + 0.005*"protection"', '0.013*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"good" + 0.007*"team" + 0.007*"practice" + 0.006*"need" + 0.006*"ensure" + 0.005*"protection" + 0.005*"sufficiently"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3406,7 +3400,7 @@
     <t>0.2045</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"plans" + 0.009*"well" + 0.007*"needs" + 0.007*"effective" + 0.007*"Salford" + 0.007*"planning" + 0.005*"practice" + 0.005*"6" + 0.005*"10"', '0.010*"’" + 0.006*"plans" + 0.006*"needs" + 0.005*"well" + 0.005*"practice" + 0.005*"effective" + 0.005*"appropriate" + 0.004*"leaders" + 0.004*"Salford" + 0.004*"quality"', '0.013*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"effective" + 0.006*"well" + 0.005*"Salford" + 0.005*"progress" + 0.005*"quality" + 0.005*"experiences" + 0.005*"leaders"']</t>
+    <t>['0.015*"’" + 0.008*"well" + 0.008*"Salford" + 0.007*"plans" + 0.007*"effective" + 0.007*"needs" + 0.006*"practice" + 0.005*"planning" + 0.005*"Council" + 0.005*"6"', '0.010*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"planning" + 0.005*"leaders" + 0.004*"experiences" + 0.004*"practice" + 0.004*"progress"', '0.014*"’" + 0.008*"plans" + 0.008*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"Salford" + 0.005*"leaders" + 0.005*"planning" + 0.004*"progress" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3427,7 +3421,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"Sandwell" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"Trust" + 0.005*"number" + 0.004*"quality" + 0.004*"9" + 0.004*"20"', '0.014*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"Sandwell" + 0.006*"quality" + 0.006*"well" + 0.005*"many" + 0.005*"progress" + 0.005*"9" + 0.004*"20"', '0.015*"’" + 0.007*"well" + 0.007*"plans" + 0.007*"needs" + 0.006*"Sandwell" + 0.006*"quality" + 0.005*"education" + 0.004*"May" + 0.004*"progress" + 0.004*"number"']</t>
+    <t>['0.018*"’" + 0.009*"Sandwell" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"quality" + 0.005*"20" + 0.005*"Trust" + 0.005*"education" + 0.005*"9"', '0.012*"’" + 0.009*"needs" + 0.008*"well" + 0.006*"plans" + 0.006*"quality" + 0.006*"Sandwell" + 0.005*"Trust" + 0.005*"number" + 0.004*"education" + 0.004*"progress"', '0.011*"’" + 0.010*"needs" + 0.007*"plans" + 0.007*"Sandwell" + 0.006*"well" + 0.005*"quality" + 0.005*"effective" + 0.004*"9" + 0.004*"number" + 0.004*"20"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3448,7 +3442,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.005*"oversight" + 0.005*"lack" + 0.005*"protection" + 0.005*"management" + 0.005*"timely" + 0.004*"practice" + 0.004*"senior" + 0.004*"response"', '0.014*"’" + 0.010*"needs" + 0.008*"practice" + 0.005*"including" + 0.005*"always" + 0.005*"oversight" + 0.005*"many" + 0.005*"Sefton" + 0.005*"timely" + 0.005*"March"', '0.017*"’" + 0.010*"needs" + 0.006*"oversight" + 0.006*"practice" + 0.006*"protection" + 0.005*"plans" + 0.005*"including" + 0.005*"lack" + 0.005*"◼" + 0.005*"management"']</t>
+    <t>['0.018*"’" + 0.010*"needs" + 0.006*"practice" + 0.006*"◼" + 0.005*"protection" + 0.005*"March" + 0.005*"including" + 0.005*"oversight" + 0.005*"always" + 0.005*"Sefton"', '0.011*"’" + 0.008*"needs" + 0.006*"oversight" + 0.005*"practice" + 0.005*"◼" + 0.005*"many" + 0.004*"lack" + 0.004*"March" + 0.004*"protection" + 0.004*"including"', '0.018*"’" + 0.009*"needs" + 0.006*"practice" + 0.005*"4" + 0.005*"lack" + 0.005*"oversight" + 0.005*"management" + 0.005*"including" + 0.005*"many" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3478,7 +3472,7 @@
     <t>0.2097</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.006*"practice" + 0.006*"well" + 0.006*"health" + 0.006*"leaders" + 0.004*"plans" + 0.004*"11" + 0.004*"mental"', '0.020*"’" + 0.013*"Sheffield" + 0.009*"needs" + 0.007*"well" + 0.006*"leaders" + 0.005*"practice" + 0.005*"health" + 0.005*"experiences" + 0.004*"good" + 0.004*"receive"', '0.021*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.007*"well" + 0.006*"quality" + 0.005*"adviser" + 0.005*"leaders" + 0.005*"practice" + 0.005*"health" + 0.004*"plans"']</t>
+    <t>['0.024*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.006*"well" + 0.005*"leaders" + 0.005*"quality" + 0.004*"receive" + 0.004*"health" + 0.004*"experiences" + 0.004*"practice"', '0.014*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.007*"practice" + 0.006*"well" + 0.005*"good" + 0.005*"leaders" + 0.005*"health" + 0.004*"plans" + 0.004*"quality"', '0.022*"’" + 0.013*"Sheffield" + 0.010*"needs" + 0.007*"well" + 0.006*"health" + 0.006*"leaders" + 0.006*"practice" + 0.005*"11" + 0.005*"22" + 0.004*"mental"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3505,7 +3499,7 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.008*"Shropshire" + 0.008*"needs" + 0.006*"2022" + 0.005*"plans" + 0.005*"progress" + 0.005*"training" + 0.005*"7" + 0.005*"making"', '0.016*"’" + 0.008*"needs" + 0.006*"Shropshire" + 0.005*"progress" + 0.005*"well" + 0.005*"plans" + 0.004*"11" + 0.004*"leaders" + 0.004*"2022" + 0.004*"7"', '0.019*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"progress" + 0.006*"Shropshire" + 0.005*"making" + 0.005*"plans" + 0.005*"11" + 0.004*"7" + 0.004*"2022"']</t>
+    <t>['0.018*"’" + 0.008*"needs" + 0.007*"Shropshire" + 0.007*"well" + 0.006*"plans" + 0.006*"2022" + 0.006*"progress" + 0.005*"7" + 0.005*"training" + 0.005*"leaders"', '0.015*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Shropshire" + 0.005*"progress" + 0.005*"making" + 0.005*"make" + 0.005*"plans" + 0.005*"February" + 0.004*"7"', '0.018*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Shropshire" + 0.006*"progress" + 0.005*"making" + 0.005*"practice" + 0.005*"2022" + 0.004*"plans" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3526,7 +3520,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"leaders" + 0.006*"quality" + 0.006*"plans" + 0.006*"needs" + 0.006*"Slough" + 0.005*"senior" + 0.005*"3" + 0.005*"practice" + 0.005*"impact"', '0.013*"’" + 0.007*"Slough" + 0.005*"needs" + 0.005*"quality" + 0.004*"practice" + 0.004*"plans" + 0.004*"need" + 0.004*"leaders" + 0.004*"well" + 0.004*"3"', '0.016*"’" + 0.010*"Slough" + 0.007*"plans" + 0.007*"needs" + 0.007*"practice" + 0.006*"quality" + 0.005*"However" + 0.005*"need" + 0.005*"impact" + 0.005*"supported"']</t>
+    <t>['0.015*"’" + 0.006*"plans" + 0.006*"Slough" + 0.005*"needs" + 0.005*"23" + 0.005*"practice" + 0.004*"leaders" + 0.004*"However" + 0.004*"need" + 0.004*"impact"', '0.014*"’" + 0.008*"Slough" + 0.007*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"supported" + 0.005*"need" + 0.005*"impact" + 0.005*"leaders" + 0.005*"practice"', '0.017*"’" + 0.009*"Slough" + 0.007*"needs" + 0.007*"quality" + 0.007*"practice" + 0.006*"3" + 0.005*"plans" + 0.005*"senior" + 0.005*"However" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3547,7 +3541,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"lack" + 0.009*"2022" + 0.006*"experiences" + 0.005*"Solihull" + 0.005*"practice" + 0.005*"risk" + 0.005*"31" + 0.004*"significant" + 0.004*"quality"', '0.016*"’" + 0.010*"lack" + 0.008*"2022" + 0.006*"risk" + 0.006*"Solihull" + 0.006*"need" + 0.006*"quality" + 0.005*"practice" + 0.005*"means" + 0.005*"improve"', '0.014*"’" + 0.011*"lack" + 0.008*"2022" + 0.008*"need" + 0.007*"Solihull" + 0.006*"risk" + 0.006*"quality" + 0.005*"significant" + 0.005*"effective" + 0.005*"experiences"']</t>
+    <t>['0.010*"’" + 0.008*"lack" + 0.007*"2022" + 0.006*"Solihull" + 0.005*"risk" + 0.005*"need" + 0.004*"quality" + 0.004*"experiences" + 0.004*"effective" + 0.004*"practice"', '0.017*"’" + 0.010*"lack" + 0.008*"2022" + 0.007*"need" + 0.007*"risk" + 0.007*"quality" + 0.006*"effective" + 0.006*"significant" + 0.005*"Solihull" + 0.005*"practice"', '0.017*"’" + 0.012*"lack" + 0.010*"2022" + 0.007*"Solihull" + 0.006*"need" + 0.005*"risk" + 0.005*"practice" + 0.005*"significant" + 0.005*"means" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3568,7 +3562,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"Somerset" + 0.006*"plans" + 0.006*"health" + 0.006*"practice" + 0.005*"progress" + 0.005*"leaders" + 0.005*"good"', '0.023*"’" + 0.010*"well" + 0.010*"needs" + 0.007*"Somerset" + 0.007*"plans" + 0.006*"including" + 0.006*"need" + 0.006*"supported" + 0.006*"good" + 0.006*"leaders"', '0.009*"’" + 0.006*"well" + 0.006*"good" + 0.006*"needs" + 0.005*"Somerset" + 0.005*"need" + 0.005*"progress" + 0.004*"2022" + 0.004*"plans" + 0.004*"regularly"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"Somerset" + 0.006*"leaders" + 0.006*"number" + 0.006*"plans" + 0.005*"regularly" + 0.005*"progress" + 0.005*"good"', '0.016*"’" + 0.009*"well" + 0.006*"needs" + 0.006*"Somerset" + 0.005*"supported" + 0.005*"including" + 0.005*"leaders" + 0.005*"good" + 0.005*"need" + 0.005*"plans"', '0.018*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"Somerset" + 0.007*"plans" + 0.007*"good" + 0.005*"including" + 0.005*"practice" + 0.005*"supported" + 0.005*"positive"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3589,7 +3583,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.012*"well" + 0.009*"quality" + 0.009*"leaders" + 0.008*"’" + 0.007*"plans" + 0.007*"good" + 0.007*"timely" + 0.006*"progress" + 0.006*"needs" + 0.005*"timeliness"', '0.011*"well" + 0.010*"quality" + 0.010*"’" + 0.008*"good" + 0.007*"plans" + 0.006*"leaders" + 0.006*"timely" + 0.005*"needs" + 0.005*"practice" + 0.005*"always"', '0.012*"quality" + 0.009*"leaders" + 0.009*"well" + 0.009*"’" + 0.008*"plans" + 0.006*"needs" + 0.005*"good" + 0.005*"progress" + 0.005*"timely" + 0.005*"Senior"']</t>
+    <t>['0.009*"well" + 0.008*"plans" + 0.007*"leaders" + 0.007*"’" + 0.007*"quality" + 0.006*"good" + 0.005*"progress" + 0.005*"needs" + 0.004*"timeliness" + 0.004*"always"', '0.012*"well" + 0.012*"’" + 0.011*"quality" + 0.010*"leaders" + 0.008*"good" + 0.007*"plans" + 0.007*"timely" + 0.006*"needs" + 0.006*"practice" + 0.005*"progress"', '0.012*"quality" + 0.010*"well" + 0.007*"plans" + 0.006*"leaders" + 0.006*"’" + 0.006*"timely" + 0.006*"good" + 0.005*"progress" + 0.005*"needs" + 0.005*"always"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -3619,7 +3613,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.011*"needs" + 0.008*"Tyneside" + 0.007*"South" + 0.006*"oversight" + 0.005*"management" + 0.005*"5" + 0.005*"However" + 0.005*"including" + 0.004*"9"', '0.027*"’" + 0.008*"South" + 0.008*"needs" + 0.008*"Tyneside" + 0.006*"carers" + 0.005*"risk" + 0.005*"effective" + 0.005*"oversight" + 0.005*"progress" + 0.005*"15"', '0.016*"’" + 0.007*"needs" + 0.005*"management" + 0.005*"effective" + 0.005*"South" + 0.005*"Tyneside" + 0.005*"9" + 0.004*"February" + 0.004*"practice" + 0.004*"However"']</t>
+    <t>['0.027*"’" + 0.010*"needs" + 0.008*"Tyneside" + 0.008*"South" + 0.006*"oversight" + 0.005*"December" + 0.005*"9" + 0.005*"15" + 0.005*"5" + 0.005*"management"', '0.023*"’" + 0.008*"needs" + 0.007*"South" + 0.006*"Tyneside" + 0.006*"effective" + 0.005*"management" + 0.005*"However" + 0.005*"oversight" + 0.005*"risk" + 0.004*"2023"', '0.022*"’" + 0.008*"needs" + 0.007*"Tyneside" + 0.007*"South" + 0.005*"carers" + 0.005*"practice" + 0.005*"5" + 0.005*"9" + 0.004*"protection" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -3646,7 +3640,7 @@
     <t>28/07/23</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.006*"plans" + 0.006*"improve" + 0.005*"including" + 0.005*"needs" + 0.005*"16" + 0.005*"June" + 0.004*"timely" + 0.004*"progress" + 0.004*"Southampton"', '0.017*"’" + 0.006*"plans" + 0.006*"Southampton" + 0.005*"5" + 0.005*"progress" + 0.005*"improve" + 0.004*"good" + 0.004*"provide" + 0.004*"16" + 0.004*"make"', '0.015*"’" + 0.006*"Southampton" + 0.005*"plans" + 0.005*"progress" + 0.005*"experiences" + 0.004*"needs" + 0.004*"including" + 0.004*"5" + 0.004*"timely" + 0.004*"2023"']</t>
+    <t>['0.013*"’" + 0.006*"plans" + 0.006*"Southampton" + 0.005*"experiences" + 0.005*"well" + 0.005*"16" + 0.005*"improve" + 0.004*"including" + 0.004*"timely" + 0.004*"5"', '0.018*"’" + 0.007*"plans" + 0.005*"progress" + 0.005*"Southampton" + 0.005*"including" + 0.005*"improve" + 0.005*"5" + 0.004*"needs" + 0.004*"effective" + 0.004*"June"', '0.017*"’" + 0.006*"Southampton" + 0.005*"progress" + 0.005*"plans" + 0.005*"needs" + 0.004*"improve" + 0.004*"timely" + 0.004*"5" + 0.004*"2023" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -3679,7 +3673,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"planning" + 0.004*"quality" + 0.004*"leaders" + 0.004*"practice" + 0.004*"always" + 0.004*"need" + 0.004*"number" + 0.004*"well" + 0.004*"Southend"', '0.016*"’" + 0.008*"practice" + 0.008*"planning" + 0.007*"quality" + 0.006*"protection" + 0.006*"effective" + 0.006*"leaders" + 0.006*"within" + 0.006*"risk" + 0.006*"good"', '0.014*"’" + 0.009*"planning" + 0.007*"quality" + 0.007*"practice" + 0.007*"leaders" + 0.006*"number" + 0.006*"always" + 0.005*"needs" + 0.005*"However" + 0.005*"protection"']</t>
+    <t>['0.014*"’" + 0.006*"leaders" + 0.005*"practice" + 0.005*"effective" + 0.005*"planning" + 0.005*"carers" + 0.005*"within" + 0.005*"quality" + 0.004*"number" + 0.004*"Southend"', '0.015*"’" + 0.008*"planning" + 0.007*"quality" + 0.007*"practice" + 0.006*"protection" + 0.006*"number" + 0.006*"always" + 0.006*"needs" + 0.005*"good" + 0.005*"leaders"', '0.011*"’" + 0.009*"planning" + 0.008*"practice" + 0.007*"quality" + 0.007*"leaders" + 0.005*"plans" + 0.005*"need" + 0.005*"within" + 0.005*"protection" + 0.005*"needs"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -3697,7 +3691,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"Helens" + 0.008*"well" + 0.007*"progress" + 0.007*"needs" + 0.007*"St" + 0.006*"receive" + 0.005*"need" + 0.005*"21" + 0.005*"good"', '0.014*"’" + 0.007*"Helens" + 0.006*"10" + 0.006*"good" + 0.005*"St" + 0.005*"well" + 0.005*"needs" + 0.004*"21" + 0.004*"need" + 0.004*"July"', '0.018*"’" + 0.009*"St" + 0.008*"needs" + 0.007*"Helens" + 0.006*"progress" + 0.006*"well" + 0.006*"risk" + 0.006*"21" + 0.006*"need" + 0.006*"receive"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.008*"St" + 0.006*"Helens" + 0.005*"good" + 0.005*"well" + 0.005*"10" + 0.005*"progress" + 0.005*"21" + 0.005*"need"', '0.015*"’" + 0.009*"Helens" + 0.008*"St" + 0.007*"well" + 0.006*"progress" + 0.006*"receive" + 0.006*"risk" + 0.006*"need" + 0.005*"needs" + 0.005*"10"', '0.016*"’" + 0.008*"Helens" + 0.007*"St" + 0.007*"needs" + 0.006*"well" + 0.006*"21" + 0.006*"progress" + 0.005*"receive" + 0.005*"need" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -3718,7 +3712,7 @@
     <t>0.1688</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.012*"needs" + 0.007*"health" + 0.007*"oversight" + 0.006*"quality" + 0.006*"Staffordshire" + 0.006*"ensure" + 0.005*"practice" + 0.005*"progress" + 0.005*"plans"', '0.016*"’" + 0.013*"needs" + 0.006*"progress" + 0.006*"quality" + 0.006*"practice" + 0.006*"Staffordshire" + 0.005*"ensure" + 0.005*"health" + 0.004*"10" + 0.004*"risk"', '0.015*"’" + 0.008*"needs" + 0.006*"oversight" + 0.005*"practice" + 0.005*"progress" + 0.005*"quality" + 0.005*"plans" + 0.004*"6" + 0.004*"ensure" + 0.004*"health"']</t>
+    <t>['0.021*"’" + 0.013*"needs" + 0.007*"quality" + 0.007*"oversight" + 0.006*"practice" + 0.006*"ensure" + 0.006*"progress" + 0.006*"health" + 0.005*"Staffordshire" + 0.005*"plans"', '0.017*"’" + 0.011*"needs" + 0.006*"Staffordshire" + 0.006*"progress" + 0.006*"plans" + 0.006*"practice" + 0.006*"health" + 0.005*"quality" + 0.005*"oversight" + 0.005*"ensure"', '0.008*"needs" + 0.008*"’" + 0.004*"health" + 0.004*"2023" + 0.004*"quality" + 0.003*"ensure" + 0.003*"oversight" + 0.003*"practice" + 0.003*"Staffordshire" + 0.003*"progress"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -3742,7 +3736,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.008*"well" + 0.008*"’" + 0.006*"Stockport" + 0.005*"practice" + 0.004*"needs" + 0.004*"leaders" + 0.004*"strong" + 0.004*"range" + 0.004*"team" + 0.004*"risk"', '0.013*"’" + 0.009*"practice" + 0.008*"Stockport" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"risk" + 0.005*"strong" + 0.005*"ensure" + 0.004*"management"', '0.011*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"strong" + 0.006*"needs" + 0.006*"Stockport" + 0.006*"plans" + 0.005*"ensure" + 0.005*"risk" + 0.005*"28"']</t>
+    <t>['0.013*"’" + 0.008*"well" + 0.006*"strong" + 0.006*"Stockport" + 0.006*"plans" + 0.005*"practice" + 0.005*"needs" + 0.005*"leaders" + 0.005*"28" + 0.005*"need"', '0.010*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Stockport" + 0.005*"needs" + 0.004*"risk" + 0.004*"strong" + 0.004*"good" + 0.004*"1" + 0.004*"plans"', '0.009*"’" + 0.009*"practice" + 0.008*"Stockport" + 0.008*"well" + 0.007*"needs" + 0.005*"strong" + 0.005*"risk" + 0.005*"plans" + 0.005*"ensure" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -3775,7 +3769,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.008*"leaders" + 0.008*"plans" + 0.007*"well" + 0.007*"needs" + 0.006*"Stockton" + 0.006*"quality" + 0.006*"on-Tees" + 0.005*"17" + 0.005*"good"', '0.019*"’" + 0.009*"plans" + 0.008*"leaders" + 0.006*"senior" + 0.005*"good" + 0.005*"Stockton" + 0.005*"quality" + 0.005*"on-Tees" + 0.005*"needs" + 0.004*"well"', '0.017*"’" + 0.010*"leaders" + 0.008*"plans" + 0.008*"needs" + 0.007*"well" + 0.006*"on-Tees" + 0.006*"good" + 0.006*"quality" + 0.006*"Stockton" + 0.005*"6"']</t>
+    <t>['0.021*"’" + 0.008*"leaders" + 0.008*"plans" + 0.007*"needs" + 0.007*"quality" + 0.007*"on-Tees" + 0.006*"good" + 0.006*"well" + 0.004*"6" + 0.004*"17"', '0.022*"’" + 0.010*"plans" + 0.008*"leaders" + 0.007*"Stockton" + 0.006*"well" + 0.006*"quality" + 0.005*"on-Tees" + 0.005*"senior" + 0.005*"good" + 0.005*"needs"', '0.014*"’" + 0.010*"leaders" + 0.007*"well" + 0.007*"needs" + 0.006*"Stockton" + 0.006*"plans" + 0.005*"on-Tees" + 0.005*"good" + 0.005*"senior" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -3796,7 +3790,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"needs" + 0.007*"on-Trent" + 0.006*"Stoke" + 0.006*"well" + 0.006*"ensure" + 0.005*"However" + 0.005*"progress" + 0.005*"protection" + 0.005*"3"', '0.018*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"on-Trent" + 0.006*"However" + 0.006*"Stoke" + 0.004*"made" + 0.004*"2022" + 0.004*"consistently"', '0.015*"’" + 0.007*"plans" + 0.007*"However" + 0.007*"needs" + 0.007*"Stoke" + 0.007*"on-Trent" + 0.007*"protection" + 0.007*"well" + 0.006*"ensure" + 0.006*"progress"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.008*"plans" + 0.008*"Stoke" + 0.007*"well" + 0.007*"on-Trent" + 0.006*"ensure" + 0.006*"However" + 0.006*"protection" + 0.005*"14"', '0.020*"’" + 0.007*"needs" + 0.007*"Stoke" + 0.007*"However" + 0.006*"on-Trent" + 0.006*"well" + 0.006*"ensure" + 0.006*"plans" + 0.006*"quality" + 0.005*"progress"', '0.014*"’" + 0.009*"needs" + 0.007*"However" + 0.007*"well" + 0.006*"on-Trent" + 0.006*"protection" + 0.005*"Stoke" + 0.005*"plans" + 0.005*"progress" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -3823,7 +3817,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"well" + 0.006*"ensure" + 0.005*"progress" + 0.004*"leaders" + 0.004*"good" + 0.004*"effective" + 0.004*"high" + 0.003*"use" + 0.003*"Suffolk"', '0.014*"’" + 0.007*"progress" + 0.006*"well" + 0.005*"good" + 0.005*"practice" + 0.005*"leaders" + 0.005*"effective" + 0.004*"need" + 0.004*"Suffolk" + 0.004*"ensure"', '0.011*"’" + 0.006*"progress" + 0.006*"effective" + 0.006*"well" + 0.005*"carers" + 0.005*"leaders" + 0.004*"needs" + 0.004*"good" + 0.004*"practice" + 0.004*"ensure"']</t>
+    <t>['0.013*"’" + 0.008*"well" + 0.005*"leaders" + 0.005*"effective" + 0.004*"progress" + 0.004*"good" + 0.004*"high" + 0.004*"practice" + 0.004*"carers" + 0.003*"impact"', '0.009*"’" + 0.006*"progress" + 0.005*"well" + 0.005*"ensure" + 0.004*"effective" + 0.004*"leaders" + 0.004*"high" + 0.004*"need" + 0.004*"practice" + 0.004*"good"', '0.016*"’" + 0.007*"progress" + 0.006*"well" + 0.005*"good" + 0.005*"effective" + 0.005*"ensure" + 0.004*"needs" + 0.004*"leaders" + 0.004*"practice" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -3853,7 +3847,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"well" + 0.007*"quality" + 0.006*"Sunderland" + 0.006*"council" + 0.005*"needs" + 0.005*"protection" + 0.005*"parents" + 0.005*"practice" + 0.005*"robust"', '0.014*"’" + 0.006*"needs" + 0.006*"well" + 0.006*"quality" + 0.006*"Sunderland" + 0.005*"experienced" + 0.004*"protection" + 0.004*"TfC" + 0.004*"parents" + 0.004*"high"', '0.015*"’" + 0.008*"needs" + 0.006*"quality" + 0.006*"well" + 0.005*"Sunderland" + 0.005*"experienced" + 0.005*"good" + 0.005*"practice" + 0.004*"training" + 0.004*"TfC"']</t>
+    <t>['0.018*"’" + 0.008*"quality" + 0.007*"well" + 0.007*"needs" + 0.006*"Sunderland" + 0.005*"highly" + 0.005*"high" + 0.005*"council" + 0.004*"practice" + 0.004*"protection"', '0.015*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"parents" + 0.005*"quality" + 0.005*"experienced" + 0.005*"TfC" + 0.004*"good" + 0.004*"practice" + 0.004*"protection"', '0.016*"’" + 0.007*"well" + 0.007*"quality" + 0.006*"Sunderland" + 0.006*"experienced" + 0.005*"needs" + 0.005*"training" + 0.005*"practice" + 0.004*"protection" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -3880,7 +3874,7 @@
     <t>0.1782</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.012*"needs" + 0.009*"well" + 0.008*"practice" + 0.006*"plans" + 0.006*"17" + 0.006*"effective" + 0.006*"quality" + 0.006*"good" + 0.005*"However"', '0.012*"’" + 0.009*"progress" + 0.009*"needs" + 0.009*"well" + 0.006*"practice" + 0.005*"carers" + 0.005*"effective" + 0.005*"good" + 0.005*"plans" + 0.005*"Surrey"', '0.011*"’" + 0.010*"well" + 0.007*"practice" + 0.007*"needs" + 0.006*"progress" + 0.005*"28" + 0.004*"Surrey" + 0.004*"17" + 0.004*"carers" + 0.004*"quality"']</t>
+    <t>['0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"practice" + 0.006*"progress" + 0.006*"plans" + 0.006*"quality" + 0.006*"carers" + 0.005*"effective" + 0.005*"good"', '0.012*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"practice" + 0.007*"progress" + 0.005*"quality" + 0.005*"17" + 0.005*"However" + 0.005*"good" + 0.005*"effective"', '0.013*"’" + 0.011*"needs" + 0.009*"well" + 0.006*"progress" + 0.006*"practice" + 0.005*"Surrey" + 0.005*"plans" + 0.004*"17" + 0.004*"carers" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -3901,7 +3895,7 @@
     <t>0.1489</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.013*"needs" + 0.008*"Swindon" + 0.008*"well" + 0.008*"need" + 0.006*"28" + 0.006*"always" + 0.005*"Council" + 0.005*"plans" + 0.005*"effective"', '0.020*"’" + 0.013*"needs" + 0.010*"Swindon" + 0.008*"well" + 0.007*"plans" + 0.007*"always" + 0.006*"impact" + 0.006*"health" + 0.006*"need" + 0.005*"Council"', '0.027*"’" + 0.013*"needs" + 0.011*"need" + 0.008*"Swindon" + 0.008*"well" + 0.006*"plans" + 0.006*"always" + 0.006*"effective" + 0.006*"many" + 0.005*"impact"']</t>
+    <t>['0.018*"’" + 0.011*"needs" + 0.007*"Swindon" + 0.006*"always" + 0.006*"need" + 0.006*"well" + 0.005*"plans" + 0.005*"Council" + 0.005*"many" + 0.005*"health"', '0.026*"’" + 0.012*"needs" + 0.010*"need" + 0.009*"well" + 0.008*"Swindon" + 0.008*"plans" + 0.006*"impact" + 0.006*"always" + 0.005*"health" + 0.005*"home"', '0.021*"’" + 0.015*"needs" + 0.011*"Swindon" + 0.009*"well" + 0.008*"need" + 0.007*"always" + 0.006*"effective" + 0.006*"lack" + 0.006*"plans" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -3916,13 +3910,16 @@
     <t>tameside</t>
   </si>
   <si>
-    <t>https://files.ofsted.gov.uk/v1/file/50088888</t>
-  </si>
-  <si>
-    <t>0.1619</t>
-  </si>
-  <si>
-    <t>['0.017*"’" + 0.007*"plans" + 0.006*"good" + 0.006*"impact" + 0.006*"always" + 0.006*"well" + 0.005*"needs" + 0.005*"progress" + 0.005*"practice" + 0.005*"However"', '0.016*"’" + 0.007*"always" + 0.006*"impact" + 0.006*"plans" + 0.006*"well" + 0.006*"progress" + 0.006*"good" + 0.005*"practice" + 0.004*"teams" + 0.004*"need"', '0.013*"’" + 0.007*"plans" + 0.006*"impact" + 0.006*"practice" + 0.006*"progress" + 0.006*"always" + 0.005*"well" + 0.005*"early" + 0.005*"good" + 0.005*"quality"']</t>
+    <t>https://files.ofsted.gov.uk/v1/file/50239562</t>
+  </si>
+  <si>
+    <t>13/02/24</t>
+  </si>
+  <si>
+    <t>0.1495</t>
+  </si>
+  <si>
+    <t>['0.018*"’" + 0.009*"needs" + 0.008*"impact" + 0.007*"risk" + 0.006*"quality" + 0.005*"practice" + 0.005*"experienced" + 0.005*"response" + 0.005*"effective" + 0.005*"understand"', '0.013*"’" + 0.007*"needs" + 0.005*"practice" + 0.005*"experienced" + 0.005*"quality" + 0.005*"risk" + 0.005*"progress" + 0.004*"impact" + 0.004*"4" + 0.004*"2023"', '0.016*"’" + 0.009*"needs" + 0.006*"Tameside" + 0.006*"response" + 0.006*"experiences" + 0.005*"4" + 0.005*"2023" + 0.005*"experienced" + 0.005*"risk" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -3943,7 +3940,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"effective" + 0.006*"need" + 0.005*"ensure" + 0.005*"plans" + 0.005*"leaders" + 0.005*"practice" + 0.005*"clear"', '0.015*"’" + 0.010*"well" + 0.008*"effective" + 0.008*"needs" + 0.006*"strong" + 0.005*"plans" + 0.005*"timely" + 0.005*"planning" + 0.005*"need" + 0.005*"practice"', '0.019*"’" + 0.011*"well" + 0.008*"needs" + 0.006*"effective" + 0.006*"plans" + 0.005*"practice" + 0.005*"ensure" + 0.005*"strong" + 0.005*"planning" + 0.005*"need"']</t>
+    <t>['0.017*"’" + 0.010*"well" + 0.008*"effective" + 0.006*"needs" + 0.006*"plans" + 0.005*"strong" + 0.005*"need" + 0.005*"practice" + 0.005*"ensure" + 0.005*"benefit"', '0.014*"’" + 0.012*"well" + 0.007*"needs" + 0.006*"effective" + 0.005*"need" + 0.005*"practice" + 0.005*"planning" + 0.005*"strong" + 0.005*"highly" + 0.005*"ensure"', '0.016*"’" + 0.011*"well" + 0.009*"needs" + 0.006*"plans" + 0.005*"effective" + 0.005*"improve" + 0.005*"strong" + 0.005*"ensure" + 0.005*"need" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -3964,7 +3961,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"well" + 0.005*"need" + 0.005*"carers" + 0.004*"needs" + 0.004*"practice" + 0.004*"effective" + 0.003*"protect" + 0.003*"Thurrock" + 0.003*"ensure"', '0.015*"’" + 0.008*"well" + 0.005*"carers" + 0.005*"needs" + 0.004*"ensure" + 0.004*"need" + 0.004*"Thurrock" + 0.003*"impact" + 0.003*"protection" + 0.003*"practice"', '0.014*"’" + 0.009*"well" + 0.007*"carers" + 0.005*"need" + 0.004*"practice" + 0.004*"leaders" + 0.004*"ensure" + 0.004*"needs" + 0.004*"effective" + 0.004*"Thurrock"']</t>
+    <t>['0.010*"’" + 0.009*"well" + 0.007*"carers" + 0.005*"need" + 0.004*"leaders" + 0.004*"practice" + 0.004*"needs" + 0.004*"Thurrock" + 0.004*"vulnerable" + 0.004*"effective"', '0.015*"’" + 0.008*"well" + 0.005*"need" + 0.005*"carers" + 0.005*"ensure" + 0.004*"practice" + 0.004*"effective" + 0.004*"needs" + 0.004*"Thurrock" + 0.003*"protect"', '0.014*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"carers" + 0.004*"impact" + 0.004*"ensure" + 0.004*"need" + 0.004*"protection" + 0.004*"protect" + 0.003*"Thurrock"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -3985,7 +3982,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.006*"Torbay" + 0.006*"good" + 0.005*"effective" + 0.005*"needs" + 0.005*"21" + 0.004*"team" + 0.004*"2022" + 0.004*"progress"', '0.018*"’" + 0.008*"well" + 0.008*"Torbay" + 0.007*"needs" + 0.006*"good" + 0.005*"timely" + 0.005*"education" + 0.005*"agencies" + 0.004*"21" + 0.004*"1"', '0.015*"’" + 0.010*"well" + 0.008*"Torbay" + 0.006*"good" + 0.006*"needs" + 0.005*"effective" + 0.005*"progress" + 0.004*"team" + 0.004*"2022" + 0.004*"1"']</t>
+    <t>['0.012*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"Torbay" + 0.005*"good" + 0.005*"progress" + 0.005*"effective" + 0.004*"agencies" + 0.004*"2022" + 0.004*"timely"', '0.020*"’" + 0.009*"well" + 0.009*"Torbay" + 0.006*"good" + 0.006*"needs" + 0.006*"plans" + 0.004*"supported" + 0.004*"effective" + 0.004*"team" + 0.004*"21"', '0.016*"’" + 0.009*"well" + 0.007*"Torbay" + 0.006*"good" + 0.006*"needs" + 0.005*"effective" + 0.005*"team" + 0.005*"1" + 0.005*"21" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -4006,7 +4003,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"needs" + 0.007*"leaders" + 0.007*"Trafford" + 0.006*"quality" + 0.005*"practice" + 0.005*"plans" + 0.005*"well" + 0.005*"ensure" + 0.004*"21"', '0.021*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"Trafford" + 0.006*"plans" + 0.006*"quality" + 0.005*"team" + 0.005*"practice" + 0.005*"impact" + 0.005*"2"', '0.013*"’" + 0.010*"plans" + 0.010*"needs" + 0.009*"Trafford" + 0.007*"well" + 0.007*"quality" + 0.005*"placed" + 0.005*"practice" + 0.005*"leaders" + 0.004*"impact"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.007*"Trafford" + 0.006*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.005*"practice" + 0.005*"impact" + 0.005*"placed" + 0.005*"quality"', '0.009*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"Trafford" + 0.005*"worker" + 0.005*"well" + 0.004*"leaders" + 0.004*"November" + 0.004*"quality" + 0.004*"team"', '0.018*"’" + 0.012*"needs" + 0.009*"Trafford" + 0.009*"quality" + 0.008*"plans" + 0.007*"well" + 0.006*"practice" + 0.006*"leaders" + 0.005*"ensure" + 0.005*"team"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -4024,7 +4021,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50172854</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.008*"needs" + 0.007*"leaders" + 0.007*"Walsall" + 0.006*"well" + 0.006*"4" + 0.005*"information" + 0.005*"oversight" + 0.004*"risks" + 0.004*"good"', '0.022*"’" + 0.008*"leaders" + 0.006*"needs" + 0.005*"well" + 0.004*"risk" + 0.004*"Senior" + 0.004*"information" + 0.004*"Walsall" + 0.004*"4" + 0.004*"good"', '0.015*"’" + 0.006*"leaders" + 0.006*"well" + 0.004*"Walsall" + 0.004*"Senior" + 0.004*"needs" + 0.004*"information" + 0.004*"oversight" + 0.003*"good" + 0.003*"supported"']</t>
+    <t>['0.028*"’" + 0.008*"leaders" + 0.007*"needs" + 0.007*"well" + 0.005*"Walsall" + 0.005*"information" + 0.005*"good" + 0.005*"oversight" + 0.004*"15" + 0.004*"2021"', '0.018*"’" + 0.007*"leaders" + 0.005*"4" + 0.005*"Walsall" + 0.005*"needs" + 0.004*"well" + 0.004*"information" + 0.004*"risk" + 0.004*"Senior" + 0.004*"plans"', '0.011*"’" + 0.006*"needs" + 0.006*"leaders" + 0.005*"Walsall" + 0.004*"Senior" + 0.004*"information" + 0.004*"4" + 0.004*"well" + 0.004*"oversight" + 0.003*"risks"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4051,7 +4048,7 @@
     <t>19/08/19</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"well" + 0.006*"practice" + 0.005*"plans" + 0.004*"Senior" + 0.004*"progress" + 0.004*"number" + 0.004*"good" + 0.004*"information" + 0.004*"placed"', '0.017*"’" + 0.006*"well" + 0.005*"practice" + 0.004*"plans" + 0.004*"need" + 0.004*"Senior" + 0.004*"home" + 0.004*"carers" + 0.004*"progress" + 0.004*"number"', '0.015*"’" + 0.007*"practice" + 0.007*"well" + 0.005*"number" + 0.004*"Senior" + 0.004*"home" + 0.004*"progress" + 0.004*"small" + 0.004*"carers" + 0.004*"learning"']</t>
+    <t>['0.013*"’" + 0.008*"practice" + 0.006*"well" + 0.005*"Senior" + 0.004*"number" + 0.004*"progress" + 0.004*"information" + 0.004*"plans" + 0.004*"senior" + 0.004*"need"', '0.016*"’" + 0.007*"well" + 0.005*"practice" + 0.005*"plans" + 0.004*"number" + 0.004*"good" + 0.004*"Senior" + 0.004*"parents" + 0.004*"home" + 0.004*"need"', '0.013*"’" + 0.006*"well" + 0.006*"practice" + 0.004*"progress" + 0.004*"plans" + 0.004*"information" + 0.004*"number" + 0.004*"carers" + 0.004*"home" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4078,7 +4075,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"well" + 0.008*"plans" + 0.007*"needs" + 0.007*"Warwickshire" + 0.006*"carers" + 0.005*"supported" + 0.005*"information" + 0.004*"progress" + 0.004*"good"', '0.014*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"practice" + 0.006*"plans" + 0.005*"good" + 0.005*"Warwickshire" + 0.005*"3" + 0.005*"clear" + 0.005*"ensure"', '0.010*"’" + 0.005*"needs" + 0.005*"Warwickshire" + 0.004*"plans" + 0.004*"practice" + 0.004*"progress" + 0.004*"clear" + 0.004*"well" + 0.004*"effective" + 0.004*"22"']</t>
+    <t>['0.010*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"good" + 0.005*"Warwickshire" + 0.005*"carers" + 0.004*"effective" + 0.004*"information"', '0.011*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.006*"Warwickshire" + 0.005*"3" + 0.004*"Senior" + 0.004*"progress" + 0.004*"supported" + 0.004*"clear"', '0.014*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"Warwickshire" + 0.006*"plans" + 0.005*"carers" + 0.005*"practice" + 0.005*"good" + 0.005*"benefit" + 0.005*"22"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4105,7 +4102,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"Berkshire" + 0.006*"West" + 0.006*"well" + 0.005*"14" + 0.005*"plans" + 0.004*"need" + 0.004*"needs" + 0.004*"working" + 0.004*"early"', '0.013*"’" + 0.007*"West" + 0.006*"Berkshire" + 0.006*"well" + 0.004*"needs" + 0.004*"need" + 0.004*"plans" + 0.004*"18" + 0.004*"practice" + 0.004*"strong"', '0.009*"’" + 0.006*"well" + 0.006*"West" + 0.005*"agency" + 0.004*"Berkshire" + 0.004*"education" + 0.003*"18" + 0.003*"progress" + 0.003*"early" + 0.003*"need"']</t>
+    <t>['0.017*"’" + 0.008*"West" + 0.007*"well" + 0.006*"Berkshire" + 0.005*"need" + 0.004*"early" + 0.004*"March" + 0.004*"needs" + 0.004*"agency" + 0.004*"14"', '0.012*"’" + 0.006*"Berkshire" + 0.005*"West" + 0.005*"well" + 0.004*"needs" + 0.004*"plans" + 0.004*"progress" + 0.003*"agency" + 0.003*"working" + 0.003*"14"', '0.013*"’" + 0.007*"Berkshire" + 0.005*"well" + 0.005*"West" + 0.004*"plans" + 0.004*"18" + 0.004*"working" + 0.004*"needs" + 0.003*"14" + 0.003*"ensure"']</t>
   </si>
   <si>
     <t>941</t>
@@ -4123,7 +4120,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"Northamptonshire" + 0.007*"well" + 0.006*"West" + 0.006*"quality" + 0.005*"NCT" + 0.005*"needs" + 0.005*"14" + 0.005*"plans" + 0.004*"need"', '0.017*"’" + 0.008*"Northamptonshire" + 0.007*"West" + 0.007*"quality" + 0.007*"practice" + 0.006*"3" + 0.006*"needs" + 0.005*"well" + 0.005*"experiences" + 0.005*"impact"', '0.014*"’" + 0.008*"Northamptonshire" + 0.006*"well" + 0.005*"quality" + 0.005*"West" + 0.004*"practice" + 0.004*"However" + 0.004*"NCT" + 0.004*"14" + 0.004*"3"']</t>
+    <t>['0.019*"’" + 0.007*"Northamptonshire" + 0.007*"West" + 0.006*"quality" + 0.006*"well" + 0.005*"needs" + 0.005*"NCT" + 0.004*"experiences" + 0.004*"practice" + 0.004*"plans"', '0.017*"’" + 0.009*"Northamptonshire" + 0.007*"West" + 0.006*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"14" + 0.005*"quality" + 0.005*"NCT" + 0.005*"experiences"', '0.016*"’" + 0.008*"quality" + 0.008*"Northamptonshire" + 0.006*"well" + 0.005*"West" + 0.005*"practice" + 0.005*"impact" + 0.004*"plans" + 0.004*"needs" + 0.004*"3"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4144,7 +4141,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"plans" + 0.006*"Sussex" + 0.006*"well" + 0.006*"West" + 0.005*"needs" + 0.004*"supported" + 0.004*"13" + 0.004*"practice" + 0.004*"health"', '0.014*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"13" + 0.004*"West" + 0.004*"number" + 0.004*"quality" + 0.004*"health" + 0.004*"strong"', '0.009*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"number" + 0.005*"quality" + 0.004*"West" + 0.004*"13" + 0.004*"Sussex" + 0.004*"practice"']</t>
+    <t>['0.010*"’" + 0.006*"plans" + 0.005*"well" + 0.004*"Sussex" + 0.004*"24" + 0.004*"needs" + 0.004*"practice" + 0.004*"actively" + 0.004*"quality" + 0.004*"2023"', '0.016*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"West" + 0.006*"plans" + 0.006*"Sussex" + 0.005*"13" + 0.005*"health" + 0.004*"quality" + 0.004*"supported"', '0.014*"’" + 0.006*"plans" + 0.006*"well" + 0.005*"needs" + 0.005*"number" + 0.004*"clear" + 0.004*"quality" + 0.004*"West" + 0.004*"13" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4162,7 +4159,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50187563</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"practice" + 0.007*"May" + 0.006*"needs" + 0.006*"plans" + 0.005*"Wigan" + 0.005*"quality" + 0.005*"leaders" + 0.005*"appropriate" + 0.004*"increased"', '0.011*"’" + 0.007*"needs" + 0.007*"Wigan" + 0.006*"practice" + 0.006*"May" + 0.006*"quality" + 0.005*"appropriate" + 0.005*"plans" + 0.005*"timely" + 0.005*"leaders"', '0.012*"’" + 0.009*"May" + 0.008*"plans" + 0.006*"practice" + 0.006*"quality" + 0.005*"appropriate" + 0.005*"Wigan" + 0.005*"9" + 0.004*"2022" + 0.004*"well"']</t>
+    <t>['0.014*"’" + 0.008*"May" + 0.007*"needs" + 0.006*"practice" + 0.005*"appropriate" + 0.005*"Wigan" + 0.005*"plans" + 0.005*"20" + 0.005*"quality" + 0.005*"leaders"', '0.010*"’" + 0.008*"plans" + 0.007*"quality" + 0.007*"May" + 0.006*"practice" + 0.006*"appropriate" + 0.006*"needs" + 0.005*"timely" + 0.005*"Wigan" + 0.005*"well"', '0.013*"’" + 0.007*"May" + 0.007*"Wigan" + 0.007*"practice" + 0.006*"plans" + 0.006*"leaders" + 0.005*"9" + 0.005*"needs" + 0.005*"focused" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4192,7 +4189,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.013*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"progress" + 0.006*"Wiltshire" + 0.006*"quality" + 0.006*"supported" + 0.006*"parents" + 0.005*"plans"', '0.015*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"risk" + 0.007*"progress" + 0.006*"need" + 0.006*"parents" + 0.006*"including" + 0.006*"Wiltshire" + 0.006*"ensure"', '0.010*"’" + 0.006*"well" + 0.005*"including" + 0.005*"Wiltshire" + 0.005*"supported" + 0.005*"plans" + 0.005*"needs" + 0.004*"progress" + 0.004*"ensure" + 0.004*"parents"']</t>
+    <t>['0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"progress" + 0.005*"parents" + 0.005*"Wiltshire" + 0.005*"need" + 0.005*"family" + 0.005*"risk" + 0.005*"including"', '0.018*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"quality" + 0.006*"need" + 0.006*"supported" + 0.006*"risk" + 0.006*"plans" + 0.006*"including" + 0.006*"Wiltshire"', '0.014*"’" + 0.013*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"Wiltshire" + 0.006*"including" + 0.005*"parents" + 0.005*"plans" + 0.005*"risk" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4222,7 +4219,7 @@
     <t>0.1655</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"ensure" + 0.007*"practice" + 0.006*"well" + 0.006*"Wirral" + 0.005*"number" + 0.005*"good" + 0.005*"18"', '0.012*"’" + 0.010*"needs" + 0.008*"ensure" + 0.006*"Wirral" + 0.006*"plans" + 0.006*"appropriate" + 0.005*"small" + 0.005*"practice" + 0.005*"29" + 0.005*"number"', '0.010*"needs" + 0.009*"Wirral" + 0.009*"’" + 0.006*"ensure" + 0.006*"practice" + 0.006*"plans" + 0.005*"well" + 0.005*"family" + 0.005*"response" + 0.005*"number"']</t>
+    <t>['0.009*"’" + 0.009*"needs" + 0.007*"ensure" + 0.006*"good" + 0.006*"well" + 0.006*"Wirral" + 0.006*"plans" + 0.006*"29" + 0.005*"practice" + 0.005*"number"', '0.010*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"Wirral" + 0.006*"ensure" + 0.006*"practice" + 0.006*"appropriate" + 0.006*"response" + 0.005*"29" + 0.005*"18"', '0.013*"’" + 0.011*"needs" + 0.009*"Wirral" + 0.008*"ensure" + 0.006*"practice" + 0.006*"plans" + 0.006*"well" + 0.005*"small" + 0.005*"number" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4243,7 +4240,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"plans" + 0.007*"needs" + 0.007*"effective" + 0.006*"progress" + 0.005*"appropriate" + 0.005*"provided" + 0.005*"impact" + 0.005*"well" + 0.005*"2023"', '0.009*"’" + 0.006*"plans" + 0.005*"well" + 0.005*"provided" + 0.005*"progress" + 0.004*"effective" + 0.004*"6" + 0.004*"experiences" + 0.004*"quality" + 0.004*"needs"', '0.014*"’" + 0.007*"effective" + 0.007*"plans" + 0.006*"progress" + 0.006*"needs" + 0.006*"well" + 0.005*"17" + 0.005*"experiences" + 0.005*"impact" + 0.005*"provided"']</t>
+    <t>['0.008*"’" + 0.007*"plans" + 0.006*"progress" + 0.005*"effective" + 0.005*"needs" + 0.004*"17" + 0.004*"experiences" + 0.004*"provided" + 0.004*"appropriate" + 0.004*"well"', '0.016*"’" + 0.007*"effective" + 0.006*"plans" + 0.006*"needs" + 0.006*"progress" + 0.006*"well" + 0.005*"17" + 0.005*"parents" + 0.005*"appropriate" + 0.004*"6"', '0.012*"’" + 0.007*"effective" + 0.007*"plans" + 0.006*"needs" + 0.006*"provided" + 0.005*"experiences" + 0.005*"well" + 0.005*"impact" + 0.005*"quality" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4264,7 +4261,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.005*"effective" + 0.005*"plans" + 0.004*"receive" + 0.004*"Wolverhampton" + 0.004*"quality" + 0.004*"education" + 0.004*"28" + 0.004*"risks"', '0.010*"’" + 0.007*"needs" + 0.005*"effective" + 0.005*"receive" + 0.004*"supported" + 0.004*"leaders" + 0.004*"risks" + 0.004*"quality" + 0.004*"practice" + 0.004*"education"', '0.015*"’" + 0.007*"Wolverhampton" + 0.007*"needs" + 0.007*"effective" + 0.006*"risks" + 0.006*"plans" + 0.005*"quality" + 0.005*"leaders" + 0.005*"strong" + 0.005*"supported"']</t>
+    <t>['0.012*"’" + 0.007*"needs" + 0.005*"effective" + 0.004*"Wolverhampton" + 0.004*"education" + 0.004*"well" + 0.004*"supported" + 0.004*"strong" + 0.004*"leaders" + 0.004*"risks"', '0.015*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"effective" + 0.005*"risks" + 0.005*"Wolverhampton" + 0.005*"practice" + 0.005*"supported" + 0.005*"leaders" + 0.005*"receive"', '0.015*"’" + 0.008*"needs" + 0.007*"Wolverhampton" + 0.006*"effective" + 0.005*"risks" + 0.005*"risk" + 0.005*"receive" + 0.005*"quality" + 0.005*"City" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4291,7 +4288,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"plans" + 0.007*"well" + 0.006*"needs" + 0.006*"leaders" + 0.006*"progress" + 0.006*"appropriate" + 0.005*"Worcestershire" + 0.005*"Senior" + 0.004*"PAs"', '0.022*"’" + 0.009*"well" + 0.008*"ensure" + 0.008*"needs" + 0.008*"leaders" + 0.008*"progress" + 0.007*"Worcestershire" + 0.007*"plans" + 0.005*"appropriate" + 0.005*"15"', '0.018*"’" + 0.008*"well" + 0.008*"needs" + 0.008*"plans" + 0.007*"Worcestershire" + 0.006*"progress" + 0.006*"leaders" + 0.005*"appropriate" + 0.005*"living" + 0.005*"26"']</t>
+    <t>['0.020*"’" + 0.008*"well" + 0.006*"plans" + 0.006*"Worcestershire" + 0.006*"progress" + 0.005*"needs" + 0.005*"May" + 0.005*"leaders" + 0.005*"26" + 0.004*"Senior"', '0.020*"’" + 0.008*"Worcestershire" + 0.008*"needs" + 0.008*"leaders" + 0.008*"plans" + 0.005*"appropriate" + 0.005*"ensure" + 0.005*"well" + 0.005*"progress" + 0.005*"living"', '0.018*"’" + 0.011*"well" + 0.009*"plans" + 0.008*"progress" + 0.008*"needs" + 0.007*"leaders" + 0.007*"ensure" + 0.006*"Worcestershire" + 0.006*"appropriate" + 0.005*"making"']</t>
   </si>
   <si>
     <t>urn</t>
@@ -4728,70 +4725,70 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>1446</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -5817,36 +5814,36 @@
         <v>181</v>
       </c>
       <c r="S16" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="T16" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="U16" t="s">
         <v>16</v>
       </c>
       <c r="V16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -5858,13 +5855,13 @@
         <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M17" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80446_central bedfordshire", ".\export_data\inspection_reports\80446_central bedfordshire")</f>
@@ -5883,7 +5880,7 @@
         <v>6</v>
       </c>
       <c r="R17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S17" t="s">
         <v>43</v>
@@ -5895,27 +5892,27 @@
         <v>16</v>
       </c>
       <c r="V17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -5924,16 +5921,16 @@
         <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80447_cheshire east", ".\export_data\inspection_reports\80447_cheshire east")</f>
@@ -5952,10 +5949,10 @@
         <v>12</v>
       </c>
       <c r="R18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T18" t="s">
         <v>15</v>
@@ -5964,27 +5961,27 @@
         <v>16</v>
       </c>
       <c r="V18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -5993,16 +5990,16 @@
         <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80448_cheshire west and chester", ".\export_data\inspection_reports\80448_cheshire west and chester")</f>
@@ -6021,10 +6018,10 @@
         <v>6</v>
       </c>
       <c r="R19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T19" t="s">
         <v>139</v>
@@ -6033,27 +6030,27 @@
         <v>16</v>
       </c>
       <c r="V19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
         <v>99</v>
@@ -6062,16 +6059,16 @@
         <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M20" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80449_bradford", ".\export_data\inspection_reports\80449_bradford")</f>
@@ -6090,10 +6087,10 @@
         <v>99</v>
       </c>
       <c r="R20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T20" t="s">
         <v>58</v>
@@ -6102,27 +6099,27 @@
         <v>16</v>
       </c>
       <c r="V20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
         <v>111</v>
@@ -6131,16 +6128,16 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80450_london corporation", ".\export_data\inspection_reports\80450_london corporation")</f>
@@ -6159,10 +6156,10 @@
         <v>111</v>
       </c>
       <c r="R21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T21" t="s">
         <v>58</v>
@@ -6171,27 +6168,27 @@
         <v>16</v>
       </c>
       <c r="V21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -6200,16 +6197,16 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M22" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80451_wakefield", ".\export_data\inspection_reports\80451_wakefield")</f>
@@ -6228,10 +6225,10 @@
         <v>6</v>
       </c>
       <c r="R22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T22" t="s">
         <v>15</v>
@@ -6240,27 +6237,27 @@
         <v>16</v>
       </c>
       <c r="V22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -6269,16 +6266,16 @@
         <v>37</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M23" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80453_york", ".\export_data\inspection_reports\80453_york")</f>
@@ -6297,10 +6294,10 @@
         <v>12</v>
       </c>
       <c r="R23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T23" t="s">
         <v>58</v>
@@ -6309,27 +6306,27 @@
         <v>16</v>
       </c>
       <c r="V23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G24" t="s">
         <v>111</v>
@@ -6338,16 +6335,16 @@
         <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M24" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80454_cornwall", ".\export_data\inspection_reports\80454_cornwall")</f>
@@ -6366,10 +6363,10 @@
         <v>111</v>
       </c>
       <c r="R24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T24" t="s">
         <v>15</v>
@@ -6378,27 +6375,27 @@
         <v>16</v>
       </c>
       <c r="V24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G25" t="s">
         <v>99</v>
@@ -6410,13 +6407,13 @@
         <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80455_isles of scilly", ".\export_data\inspection_reports\80455_isles of scilly")</f>
@@ -6435,7 +6432,7 @@
         <v>12</v>
       </c>
       <c r="R25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S25" t="s">
         <v>82</v>
@@ -6447,27 +6444,27 @@
         <v>16</v>
       </c>
       <c r="V25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -6476,16 +6473,16 @@
         <v>37</v>
       </c>
       <c r="I26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M26" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80456_coventry", ".\export_data\inspection_reports\80456_coventry")</f>
@@ -6504,10 +6501,10 @@
         <v>6</v>
       </c>
       <c r="R26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T26" t="s">
         <v>58</v>
@@ -6516,27 +6513,27 @@
         <v>16</v>
       </c>
       <c r="V26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -6545,16 +6542,16 @@
         <v>37</v>
       </c>
       <c r="I27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M27" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80458_darlington", ".\export_data\inspection_reports\80458_darlington")</f>
@@ -6573,13 +6570,13 @@
         <v>111</v>
       </c>
       <c r="R27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T27" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U27" t="s">
         <v>16</v>
@@ -7010,7 +7007,7 @@
         <v>372</v>
       </c>
       <c r="C34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D34" t="s">
         <v>373</v>
@@ -7286,7 +7283,7 @@
         <v>418</v>
       </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D38" t="s">
         <v>419</v>
@@ -7407,7 +7404,7 @@
         <v>437</v>
       </c>
       <c r="T39" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U39" t="s">
         <v>16</v>
@@ -7442,10 +7439,10 @@
         <v>37</v>
       </c>
       <c r="I40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K40" t="s">
         <v>444</v>
@@ -7473,7 +7470,7 @@
         <v>446</v>
       </c>
       <c r="S40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T40" t="s">
         <v>15</v>
@@ -7562,7 +7559,7 @@
         <v>458</v>
       </c>
       <c r="C42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D42" t="s">
         <v>459</v>
@@ -7614,7 +7611,7 @@
         <v>466</v>
       </c>
       <c r="T42" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U42" t="s">
         <v>16</v>
@@ -8373,7 +8370,7 @@
         <v>572</v>
       </c>
       <c r="T53" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U53" t="s">
         <v>16</v>
@@ -8528,7 +8525,7 @@
         <v>595</v>
       </c>
       <c r="C56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D56" t="s">
         <v>596</v>
@@ -8580,7 +8577,7 @@
         <v>603</v>
       </c>
       <c r="T56" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U56" t="s">
         <v>16</v>
@@ -8597,7 +8594,7 @@
         <v>606</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
         <v>607</v>
@@ -8649,7 +8646,7 @@
         <v>615</v>
       </c>
       <c r="T57" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="U57" t="s">
         <v>16</v>
@@ -8666,7 +8663,7 @@
         <v>617</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
         <v>618</v>
@@ -8735,7 +8732,7 @@
         <v>624</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
         <v>625</v>
@@ -8804,7 +8801,7 @@
         <v>633</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
         <v>634</v>
@@ -8856,7 +8853,7 @@
         <v>641</v>
       </c>
       <c r="T60" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="U60" t="s">
         <v>16</v>
@@ -8873,7 +8870,7 @@
         <v>644</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>645</v>
@@ -8942,7 +8939,7 @@
         <v>654</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D62" t="s">
         <v>655</v>
@@ -9011,7 +9008,7 @@
         <v>663</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D63" t="s">
         <v>664</v>
@@ -9063,7 +9060,7 @@
         <v>671</v>
       </c>
       <c r="T63" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U63" t="s">
         <v>16</v>
@@ -9080,7 +9077,7 @@
         <v>673</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D64" t="s">
         <v>674</v>
@@ -9149,7 +9146,7 @@
         <v>683</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D65" t="s">
         <v>684</v>
@@ -9201,7 +9198,7 @@
         <v>615</v>
       </c>
       <c r="T65" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="U65" t="s">
         <v>16</v>
@@ -9218,7 +9215,7 @@
         <v>693</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D66" t="s">
         <v>694</v>
@@ -9287,7 +9284,7 @@
         <v>705</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D67" t="s">
         <v>706</v>
@@ -9356,7 +9353,7 @@
         <v>715</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D68" t="s">
         <v>716</v>
@@ -9402,39 +9399,39 @@
         <v>12</v>
       </c>
       <c r="R68" t="s">
-        <v>720</v>
+        <v>641</v>
       </c>
       <c r="S68" t="s">
         <v>641</v>
       </c>
       <c r="T68" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="U68" t="s">
         <v>16</v>
       </c>
       <c r="V68" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" t="s">
+        <v>721</v>
+      </c>
+      <c r="B69" t="s">
         <v>722</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" t="s">
         <v>723</v>
       </c>
-      <c r="C69" t="s">
-        <v>231</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>724</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="G69" t="s">
         <v>6</v>
@@ -9443,10 +9440,10 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
+        <v>726</v>
+      </c>
+      <c r="J69" t="s">
         <v>727</v>
-      </c>
-      <c r="J69" t="s">
-        <v>728</v>
       </c>
       <c r="K69" t="s">
         <v>659</v>
@@ -9471,10 +9468,10 @@
         <v>6</v>
       </c>
       <c r="R69" t="s">
+        <v>728</v>
+      </c>
+      <c r="S69" t="s">
         <v>729</v>
-      </c>
-      <c r="S69" t="s">
-        <v>730</v>
       </c>
       <c r="T69" t="s">
         <v>58</v>
@@ -9483,96 +9480,96 @@
         <v>16</v>
       </c>
       <c r="V69" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" t="s">
+        <v>731</v>
+      </c>
+      <c r="B70" t="s">
         <v>732</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" t="s">
         <v>733</v>
       </c>
-      <c r="C70" t="s">
-        <v>231</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>734</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>736</v>
-      </c>
       <c r="G70" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="H70" t="s">
         <v>37</v>
       </c>
       <c r="I70" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="J70" t="s">
+        <v>400</v>
+      </c>
+      <c r="K70" t="s">
+        <v>736</v>
+      </c>
+      <c r="L70" t="s">
         <v>737</v>
-      </c>
-      <c r="K70" t="s">
-        <v>738</v>
-      </c>
-      <c r="L70" t="s">
-        <v>739</v>
       </c>
       <c r="M70" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80500_havering", ".\export_data\inspection_reports\80500_havering")</f>
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="O70" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="P70" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q70" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="R70" t="s">
-        <v>740</v>
+        <v>147</v>
       </c>
       <c r="S70" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="T70" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="U70" t="s">
         <v>16</v>
       </c>
       <c r="V70" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" t="s">
+        <v>739</v>
+      </c>
+      <c r="B71" t="s">
+        <v>739</v>
+      </c>
+      <c r="C71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" t="s">
+        <v>740</v>
+      </c>
+      <c r="E71" t="s">
+        <v>741</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="B71" t="s">
-        <v>742</v>
-      </c>
-      <c r="C71" t="s">
-        <v>231</v>
-      </c>
-      <c r="D71" t="s">
-        <v>743</v>
-      </c>
-      <c r="E71" t="s">
-        <v>744</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="G71" t="s">
         <v>111</v>
@@ -9581,16 +9578,16 @@
         <v>7</v>
       </c>
       <c r="I71" t="s">
+        <v>743</v>
+      </c>
+      <c r="J71" t="s">
+        <v>744</v>
+      </c>
+      <c r="K71" t="s">
+        <v>745</v>
+      </c>
+      <c r="L71" t="s">
         <v>746</v>
-      </c>
-      <c r="J71" t="s">
-        <v>747</v>
-      </c>
-      <c r="K71" t="s">
-        <v>748</v>
-      </c>
-      <c r="L71" t="s">
-        <v>749</v>
       </c>
       <c r="M71" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\312_hillingdon", ".\export_data\inspection_reports\312_hillingdon")</f>
@@ -9609,10 +9606,10 @@
         <v>111</v>
       </c>
       <c r="R71" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="S71" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="T71" t="s">
         <v>139</v>
@@ -9621,27 +9618,27 @@
         <v>16</v>
       </c>
       <c r="V71" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" t="s">
+        <v>750</v>
+      </c>
+      <c r="B72" t="s">
+        <v>751</v>
+      </c>
+      <c r="C72" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" t="s">
+        <v>752</v>
+      </c>
+      <c r="E72" t="s">
         <v>753</v>
       </c>
-      <c r="B72" t="s">
+      <c r="F72" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="C72" t="s">
-        <v>231</v>
-      </c>
-      <c r="D72" t="s">
-        <v>755</v>
-      </c>
-      <c r="E72" t="s">
-        <v>756</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="G72" t="s">
         <v>6</v>
@@ -9650,16 +9647,16 @@
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J72" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="K72" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="L72" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="M72" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80503_hounslow", ".\export_data\inspection_reports\80503_hounslow")</f>
@@ -9678,10 +9675,10 @@
         <v>6</v>
       </c>
       <c r="R72" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="S72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T72" t="s">
         <v>58</v>
@@ -9690,27 +9687,27 @@
         <v>16</v>
       </c>
       <c r="V72" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" t="s">
+        <v>760</v>
+      </c>
+      <c r="B73" t="s">
+        <v>761</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" t="s">
+        <v>762</v>
+      </c>
+      <c r="E73" t="s">
         <v>763</v>
       </c>
-      <c r="B73" t="s">
+      <c r="F73" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="C73" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73" t="s">
-        <v>765</v>
-      </c>
-      <c r="E73" t="s">
-        <v>766</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="G73" t="s">
         <v>111</v>
@@ -9719,10 +9716,10 @@
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="J73" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="K73" t="s">
         <v>444</v>
@@ -9747,10 +9744,10 @@
         <v>6</v>
       </c>
       <c r="R73" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="S73" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T73" t="s">
         <v>15</v>
@@ -9759,27 +9756,27 @@
         <v>16</v>
       </c>
       <c r="V73" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" t="s">
+        <v>770</v>
+      </c>
+      <c r="B74" t="s">
+        <v>771</v>
+      </c>
+      <c r="C74" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" t="s">
+        <v>772</v>
+      </c>
+      <c r="E74" t="s">
         <v>773</v>
       </c>
-      <c r="B74" t="s">
+      <c r="F74" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="C74" t="s">
-        <v>231</v>
-      </c>
-      <c r="D74" t="s">
-        <v>775</v>
-      </c>
-      <c r="E74" t="s">
-        <v>776</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -9788,16 +9785,16 @@
         <v>37</v>
       </c>
       <c r="I74" t="s">
+        <v>775</v>
+      </c>
+      <c r="J74" t="s">
+        <v>776</v>
+      </c>
+      <c r="K74" t="s">
+        <v>777</v>
+      </c>
+      <c r="L74" t="s">
         <v>778</v>
-      </c>
-      <c r="J74" t="s">
-        <v>779</v>
-      </c>
-      <c r="K74" t="s">
-        <v>780</v>
-      </c>
-      <c r="L74" t="s">
-        <v>781</v>
       </c>
       <c r="M74" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80506_lambeth", ".\export_data\inspection_reports\80506_lambeth")</f>
@@ -9816,7 +9813,7 @@
         <v>12</v>
       </c>
       <c r="R74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S74" t="s">
         <v>13</v>
@@ -9828,27 +9825,27 @@
         <v>16</v>
       </c>
       <c r="V74" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" t="s">
+        <v>780</v>
+      </c>
+      <c r="B75" t="s">
+        <v>781</v>
+      </c>
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" t="s">
+        <v>782</v>
+      </c>
+      <c r="E75" t="s">
         <v>783</v>
       </c>
-      <c r="B75" t="s">
+      <c r="F75" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="C75" t="s">
-        <v>231</v>
-      </c>
-      <c r="D75" t="s">
-        <v>785</v>
-      </c>
-      <c r="E75" t="s">
-        <v>786</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="G75" t="s">
         <v>6</v>
@@ -9857,16 +9854,16 @@
         <v>37</v>
       </c>
       <c r="I75" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="J75" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="K75" t="s">
         <v>401</v>
       </c>
       <c r="L75" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="M75" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80508_lewisham", ".\export_data\inspection_reports\80508_lewisham")</f>
@@ -9885,39 +9882,39 @@
         <v>6</v>
       </c>
       <c r="R75" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="S75" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="T75" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U75" t="s">
         <v>16</v>
       </c>
       <c r="V75" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" t="s">
+        <v>790</v>
+      </c>
+      <c r="B76" t="s">
+        <v>791</v>
+      </c>
+      <c r="C76" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" t="s">
+        <v>792</v>
+      </c>
+      <c r="E76" t="s">
         <v>793</v>
       </c>
-      <c r="B76" t="s">
+      <c r="F76" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="C76" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" t="s">
-        <v>795</v>
-      </c>
-      <c r="E76" t="s">
-        <v>796</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="G76" t="s">
         <v>111</v>
@@ -9926,7 +9923,7 @@
         <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J76" t="s">
         <v>25</v>
@@ -9954,10 +9951,10 @@
         <v>111</v>
       </c>
       <c r="R76" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="S76" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T76" t="s">
         <v>58</v>
@@ -9966,27 +9963,27 @@
         <v>16</v>
       </c>
       <c r="V76" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" t="s">
+        <v>797</v>
+      </c>
+      <c r="B77" t="s">
+        <v>798</v>
+      </c>
+      <c r="C77" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" t="s">
+        <v>799</v>
+      </c>
+      <c r="E77" t="s">
         <v>800</v>
       </c>
-      <c r="B77" t="s">
+      <c r="F77" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="C77" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" t="s">
-        <v>802</v>
-      </c>
-      <c r="E77" t="s">
-        <v>803</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="G77" t="s">
         <v>6</v>
@@ -9995,7 +9992,7 @@
         <v>37</v>
       </c>
       <c r="I77" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J77" t="s">
         <v>472</v>
@@ -10023,10 +10020,10 @@
         <v>6</v>
       </c>
       <c r="R77" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="S77" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="T77" t="s">
         <v>139</v>
@@ -10035,27 +10032,27 @@
         <v>16</v>
       </c>
       <c r="V77" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" t="s">
+        <v>803</v>
+      </c>
+      <c r="B78" t="s">
+        <v>804</v>
+      </c>
+      <c r="C78" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" t="s">
+        <v>805</v>
+      </c>
+      <c r="E78" t="s">
         <v>806</v>
       </c>
-      <c r="B78" t="s">
+      <c r="F78" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="C78" t="s">
-        <v>231</v>
-      </c>
-      <c r="D78" t="s">
-        <v>808</v>
-      </c>
-      <c r="E78" t="s">
-        <v>809</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="G78" t="s">
         <v>111</v>
@@ -10064,7 +10061,7 @@
         <v>7</v>
       </c>
       <c r="I78" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="J78" t="s">
         <v>423</v>
@@ -10092,10 +10089,10 @@
         <v>6</v>
       </c>
       <c r="R78" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="S78" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="T78" t="s">
         <v>15</v>
@@ -10104,27 +10101,27 @@
         <v>16</v>
       </c>
       <c r="V78" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" t="s">
+        <v>812</v>
+      </c>
+      <c r="B79" t="s">
+        <v>813</v>
+      </c>
+      <c r="C79" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" t="s">
+        <v>814</v>
+      </c>
+      <c r="E79" t="s">
         <v>815</v>
       </c>
-      <c r="B79" t="s">
+      <c r="F79" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="C79" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" t="s">
-        <v>817</v>
-      </c>
-      <c r="E79" t="s">
-        <v>818</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="G79" t="s">
         <v>6</v>
@@ -10133,10 +10130,10 @@
         <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="J79" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="K79" t="s">
         <v>68</v>
@@ -10161,10 +10158,10 @@
         <v>6</v>
       </c>
       <c r="R79" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="S79" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="T79" t="s">
         <v>15</v>
@@ -10173,27 +10170,27 @@
         <v>16</v>
       </c>
       <c r="V79" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" t="s">
+        <v>820</v>
+      </c>
+      <c r="B80" t="s">
+        <v>821</v>
+      </c>
+      <c r="C80" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" t="s">
+        <v>822</v>
+      </c>
+      <c r="E80" t="s">
         <v>823</v>
       </c>
-      <c r="B80" t="s">
+      <c r="F80" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="C80" t="s">
-        <v>231</v>
-      </c>
-      <c r="D80" t="s">
-        <v>825</v>
-      </c>
-      <c r="E80" t="s">
-        <v>826</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="G80" t="s">
         <v>6</v>
@@ -10205,13 +10202,13 @@
         <v>135</v>
       </c>
       <c r="J80" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K80" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="L80" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="M80" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80514_southwark", ".\export_data\inspection_reports\80514_southwark")</f>
@@ -10242,27 +10239,27 @@
         <v>16</v>
       </c>
       <c r="V80" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" t="s">
+        <v>829</v>
+      </c>
+      <c r="B81" t="s">
+        <v>830</v>
+      </c>
+      <c r="C81" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81" t="s">
+        <v>831</v>
+      </c>
+      <c r="E81" t="s">
         <v>832</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="C81" t="s">
-        <v>231</v>
-      </c>
-      <c r="D81" t="s">
-        <v>834</v>
-      </c>
-      <c r="E81" t="s">
-        <v>835</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="G81" t="s">
         <v>6</v>
@@ -10271,16 +10268,16 @@
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J81" t="s">
         <v>100</v>
       </c>
       <c r="K81" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="L81" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="M81" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80515_sutton", ".\export_data\inspection_reports\80515_sutton")</f>
@@ -10299,10 +10296,10 @@
         <v>6</v>
       </c>
       <c r="R81" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="S81" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T81" t="s">
         <v>58</v>
@@ -10311,27 +10308,27 @@
         <v>16</v>
       </c>
       <c r="V81" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" t="s">
+        <v>838</v>
+      </c>
+      <c r="B82" t="s">
+        <v>839</v>
+      </c>
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" t="s">
+        <v>840</v>
+      </c>
+      <c r="E82" t="s">
         <v>841</v>
       </c>
-      <c r="B82" t="s">
+      <c r="F82" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="C82" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" t="s">
-        <v>843</v>
-      </c>
-      <c r="E82" t="s">
-        <v>844</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="G82" t="s">
         <v>6</v>
@@ -10340,7 +10337,7 @@
         <v>37</v>
       </c>
       <c r="I82" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J82" t="s">
         <v>516</v>
@@ -10349,7 +10346,7 @@
         <v>517</v>
       </c>
       <c r="L82" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="M82" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80516_tower hamlets", ".\export_data\inspection_reports\80516_tower hamlets")</f>
@@ -10371,7 +10368,7 @@
         <v>500</v>
       </c>
       <c r="S82" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="T82" t="s">
         <v>15</v>
@@ -10380,27 +10377,27 @@
         <v>16</v>
       </c>
       <c r="V82" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" t="s">
+        <v>847</v>
+      </c>
+      <c r="B83" t="s">
+        <v>848</v>
+      </c>
+      <c r="C83" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" t="s">
+        <v>849</v>
+      </c>
+      <c r="E83" t="s">
         <v>850</v>
       </c>
-      <c r="B83" t="s">
+      <c r="F83" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="C83" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" t="s">
-        <v>852</v>
-      </c>
-      <c r="E83" t="s">
-        <v>853</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="G83" t="s">
         <v>6</v>
@@ -10412,13 +10409,13 @@
         <v>610</v>
       </c>
       <c r="J83" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="K83" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="L83" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="M83" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80517_waltham forest", ".\export_data\inspection_reports\80517_waltham forest")</f>
@@ -10437,39 +10434,39 @@
         <v>6</v>
       </c>
       <c r="R83" t="s">
-        <v>615</v>
+        <v>855</v>
       </c>
       <c r="S83" t="s">
         <v>615</v>
       </c>
       <c r="T83" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="U83" t="s">
         <v>16</v>
       </c>
       <c r="V83" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" t="s">
+        <v>857</v>
+      </c>
+      <c r="B84" t="s">
+        <v>858</v>
+      </c>
+      <c r="C84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" t="s">
         <v>859</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>860</v>
       </c>
-      <c r="C84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="F84" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="E84" t="s">
-        <v>862</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="G84" t="s">
         <v>6</v>
@@ -10481,10 +10478,10 @@
         <v>112</v>
       </c>
       <c r="J84" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K84" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="L84" t="s">
         <v>369</v>
@@ -10506,7 +10503,7 @@
         <v>6</v>
       </c>
       <c r="R84" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="S84" t="s">
         <v>117</v>
@@ -10518,27 +10515,27 @@
         <v>16</v>
       </c>
       <c r="V84" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" t="s">
+        <v>865</v>
+      </c>
+      <c r="B85" t="s">
+        <v>866</v>
+      </c>
+      <c r="C85" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" t="s">
         <v>867</v>
       </c>
-      <c r="B85" t="s">
+      <c r="E85" t="s">
         <v>868</v>
       </c>
-      <c r="C85" t="s">
-        <v>231</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F85" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="E85" t="s">
-        <v>870</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>871</v>
       </c>
       <c r="G85" t="s">
         <v>111</v>
@@ -10575,7 +10572,7 @@
         <v>111</v>
       </c>
       <c r="R85" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="S85" t="s">
         <v>148</v>
@@ -10587,27 +10584,27 @@
         <v>16</v>
       </c>
       <c r="V85" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B86" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C86" t="s">
         <v>33</v>
       </c>
       <c r="D86" t="s">
+        <v>874</v>
+      </c>
+      <c r="E86" t="s">
+        <v>875</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="E86" t="s">
-        <v>877</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>878</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
@@ -10619,13 +10616,13 @@
         <v>346</v>
       </c>
       <c r="J86" t="s">
+        <v>877</v>
+      </c>
+      <c r="K86" t="s">
+        <v>878</v>
+      </c>
+      <c r="L86" t="s">
         <v>879</v>
-      </c>
-      <c r="K86" t="s">
-        <v>880</v>
-      </c>
-      <c r="L86" t="s">
-        <v>881</v>
       </c>
       <c r="M86" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80520_luton", ".\export_data\inspection_reports\80520_luton")</f>
@@ -10644,7 +10641,7 @@
         <v>12</v>
       </c>
       <c r="R86" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="S86" t="s">
         <v>351</v>
@@ -10656,27 +10653,27 @@
         <v>16</v>
       </c>
       <c r="V86" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B87" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C87" t="s">
         <v>62</v>
       </c>
       <c r="D87" t="s">
+        <v>884</v>
+      </c>
+      <c r="E87" t="s">
+        <v>885</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="E87" t="s">
-        <v>887</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="G87" t="s">
         <v>6</v>
@@ -10685,16 +10682,16 @@
         <v>37</v>
       </c>
       <c r="I87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J87" t="s">
         <v>316</v>
       </c>
       <c r="K87" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L87" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="M87" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80521_manchester", ".\export_data\inspection_reports\80521_manchester")</f>
@@ -10713,10 +10710,10 @@
         <v>6</v>
       </c>
       <c r="R87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T87" t="s">
         <v>139</v>
@@ -10725,27 +10722,27 @@
         <v>16</v>
       </c>
       <c r="V87" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B88" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C88" t="s">
         <v>531</v>
       </c>
       <c r="D88" t="s">
+        <v>892</v>
+      </c>
+      <c r="E88" t="s">
+        <v>893</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="E88" t="s">
-        <v>895</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="G88" t="s">
         <v>6</v>
@@ -10757,13 +10754,13 @@
         <v>112</v>
       </c>
       <c r="J88" t="s">
+        <v>895</v>
+      </c>
+      <c r="K88" t="s">
+        <v>896</v>
+      </c>
+      <c r="L88" t="s">
         <v>897</v>
-      </c>
-      <c r="K88" t="s">
-        <v>898</v>
-      </c>
-      <c r="L88" t="s">
-        <v>899</v>
       </c>
       <c r="M88" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80522_medway", ".\export_data\inspection_reports\80522_medway")</f>
@@ -10794,27 +10791,27 @@
         <v>16</v>
       </c>
       <c r="V88" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" t="s">
+        <v>899</v>
+      </c>
+      <c r="B89" t="s">
+        <v>900</v>
+      </c>
+      <c r="C89" t="s">
+        <v>299</v>
+      </c>
+      <c r="D89" t="s">
         <v>901</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>902</v>
       </c>
-      <c r="C89" t="s">
-        <v>298</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="F89" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="E89" t="s">
-        <v>904</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>905</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -10851,7 +10848,7 @@
         <v>12</v>
       </c>
       <c r="R89" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="S89" t="s">
         <v>393</v>
@@ -10863,27 +10860,27 @@
         <v>16</v>
       </c>
       <c r="V89" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B90" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C90" t="s">
         <v>107</v>
       </c>
       <c r="D90" t="s">
+        <v>908</v>
+      </c>
+      <c r="E90" t="s">
+        <v>909</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="E90" t="s">
-        <v>911</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="G90" t="s">
         <v>12</v>
@@ -10892,7 +10889,7 @@
         <v>37</v>
       </c>
       <c r="I90" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J90" t="s">
         <v>156</v>
@@ -10920,10 +10917,10 @@
         <v>12</v>
       </c>
       <c r="R90" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="S90" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="T90" t="s">
         <v>139</v>
@@ -10932,27 +10929,27 @@
         <v>16</v>
       </c>
       <c r="V90" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" t="s">
+        <v>914</v>
+      </c>
+      <c r="B91" t="s">
+        <v>915</v>
+      </c>
+      <c r="C91" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" t="s">
         <v>916</v>
       </c>
-      <c r="B91" t="s">
+      <c r="E91" t="s">
         <v>917</v>
       </c>
-      <c r="C91" t="s">
-        <v>298</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="F91" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="E91" t="s">
-        <v>919</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="G91" t="s">
         <v>6</v>
@@ -10964,13 +10961,13 @@
         <v>376</v>
       </c>
       <c r="J91" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="K91" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="L91" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="M91" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80525_newcastle upon tyne", ".\export_data\inspection_reports\80525_newcastle upon tyne")</f>
@@ -10989,7 +10986,7 @@
         <v>6</v>
       </c>
       <c r="R91" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="S91" t="s">
         <v>381</v>
@@ -11001,27 +10998,27 @@
         <v>16</v>
       </c>
       <c r="V91" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B92" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C92" t="s">
         <v>33</v>
       </c>
       <c r="D92" t="s">
+        <v>924</v>
+      </c>
+      <c r="E92" t="s">
+        <v>925</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="E92" t="s">
-        <v>927</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="G92" t="s">
         <v>6</v>
@@ -11033,10 +11030,10 @@
         <v>38</v>
       </c>
       <c r="J92" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K92" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="L92" t="s">
         <v>369</v>
@@ -11058,7 +11055,7 @@
         <v>6</v>
       </c>
       <c r="R92" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="S92" t="s">
         <v>43</v>
@@ -11070,27 +11067,27 @@
         <v>16</v>
       </c>
       <c r="V92" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B93" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93" t="s">
+        <v>931</v>
+      </c>
+      <c r="E93" t="s">
+        <v>932</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="E93" t="s">
-        <v>934</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>935</v>
       </c>
       <c r="G93" t="s">
         <v>99</v>
@@ -11099,16 +11096,16 @@
         <v>37</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J93" t="s">
+        <v>934</v>
+      </c>
+      <c r="K93" t="s">
+        <v>935</v>
+      </c>
+      <c r="L93" t="s">
         <v>936</v>
-      </c>
-      <c r="K93" t="s">
-        <v>937</v>
-      </c>
-      <c r="L93" t="s">
-        <v>938</v>
       </c>
       <c r="M93" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80526_north east lincolnshire", ".\export_data\inspection_reports\80526_north east lincolnshire")</f>
@@ -11127,10 +11124,10 @@
         <v>99</v>
       </c>
       <c r="R93" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="S93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T93" t="s">
         <v>58</v>
@@ -11139,27 +11136,27 @@
         <v>16</v>
       </c>
       <c r="V93" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B94" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" t="s">
+        <v>941</v>
+      </c>
+      <c r="E94" t="s">
+        <v>942</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>943</v>
-      </c>
-      <c r="E94" t="s">
-        <v>944</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="G94" t="s">
         <v>111</v>
@@ -11171,13 +11168,13 @@
         <v>422</v>
       </c>
       <c r="J94" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K94" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L94" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="M94" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80527_north lincolnshire", ".\export_data\inspection_reports\80527_north lincolnshire")</f>
@@ -11196,7 +11193,7 @@
         <v>111</v>
       </c>
       <c r="R94" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="S94" t="s">
         <v>427</v>
@@ -11208,27 +11205,27 @@
         <v>16</v>
       </c>
       <c r="V94" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B95" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C95" t="s">
         <v>311</v>
       </c>
       <c r="D95" t="s">
+        <v>949</v>
+      </c>
+      <c r="E95" t="s">
+        <v>950</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="E95" t="s">
-        <v>952</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>953</v>
       </c>
       <c r="G95" t="s">
         <v>12</v>
@@ -11237,16 +11234,16 @@
         <v>37</v>
       </c>
       <c r="I95" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J95" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K95" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L95" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="M95" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\940_north northamptonshire", ".\export_data\inspection_reports\940_north northamptonshire")</f>
@@ -11265,39 +11262,39 @@
         <v>12</v>
       </c>
       <c r="R95" t="s">
+        <v>954</v>
+      </c>
+      <c r="S95" t="s">
+        <v>955</v>
+      </c>
+      <c r="T95" t="s">
         <v>956</v>
-      </c>
-      <c r="S95" t="s">
-        <v>957</v>
-      </c>
-      <c r="T95" t="s">
-        <v>958</v>
       </c>
       <c r="U95" t="s">
         <v>16</v>
       </c>
       <c r="V95" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B96" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
       <c r="D96" t="s">
+        <v>960</v>
+      </c>
+      <c r="E96" t="s">
+        <v>961</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="E96" t="s">
-        <v>963</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="G96" t="s">
         <v>12</v>
@@ -11315,7 +11312,7 @@
         <v>590</v>
       </c>
       <c r="L96" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="M96" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80528_north somerset", ".\export_data\inspection_reports\80528_north somerset")</f>
@@ -11334,7 +11331,7 @@
         <v>12</v>
       </c>
       <c r="R96" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="S96" t="s">
         <v>14</v>
@@ -11346,27 +11343,27 @@
         <v>16</v>
       </c>
       <c r="V96" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" t="s">
+        <v>966</v>
+      </c>
+      <c r="B97" t="s">
+        <v>967</v>
+      </c>
+      <c r="C97" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" t="s">
         <v>968</v>
       </c>
-      <c r="B97" t="s">
+      <c r="E97" t="s">
         <v>969</v>
       </c>
-      <c r="C97" t="s">
-        <v>298</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="F97" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="E97" t="s">
-        <v>971</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="G97" t="s">
         <v>111</v>
@@ -11375,10 +11372,10 @@
         <v>7</v>
       </c>
       <c r="I97" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J97" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="K97" t="s">
         <v>444</v>
@@ -11403,39 +11400,39 @@
         <v>6</v>
       </c>
       <c r="R97" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="S97" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="T97" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U97" t="s">
         <v>16</v>
       </c>
       <c r="V97" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B98" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
+        <v>975</v>
+      </c>
+      <c r="E98" t="s">
+        <v>976</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="E98" t="s">
-        <v>978</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>979</v>
       </c>
       <c r="G98" t="s">
         <v>111</v>
@@ -11447,13 +11444,13 @@
         <v>422</v>
       </c>
       <c r="J98" t="s">
+        <v>978</v>
+      </c>
+      <c r="K98" t="s">
+        <v>979</v>
+      </c>
+      <c r="L98" t="s">
         <v>980</v>
-      </c>
-      <c r="K98" t="s">
-        <v>981</v>
-      </c>
-      <c r="L98" t="s">
-        <v>982</v>
       </c>
       <c r="M98" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\815_north yorkshire", ".\export_data\inspection_reports\815_north yorkshire")</f>
@@ -11484,27 +11481,27 @@
         <v>16</v>
       </c>
       <c r="V98" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" t="s">
+        <v>982</v>
+      </c>
+      <c r="B99" t="s">
+        <v>983</v>
+      </c>
+      <c r="C99" t="s">
+        <v>299</v>
+      </c>
+      <c r="D99" t="s">
         <v>984</v>
       </c>
-      <c r="B99" t="s">
+      <c r="E99" t="s">
         <v>985</v>
       </c>
-      <c r="C99" t="s">
-        <v>298</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="F99" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="E99" t="s">
-        <v>987</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>988</v>
       </c>
       <c r="G99" t="s">
         <v>6</v>
@@ -11513,7 +11510,7 @@
         <v>37</v>
       </c>
       <c r="I99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J99" t="s">
         <v>336</v>
@@ -11522,7 +11519,7 @@
         <v>337</v>
       </c>
       <c r="L99" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M99" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80532_northumberland", ".\export_data\inspection_reports\80532_northumberland")</f>
@@ -11541,10 +11538,10 @@
         <v>6</v>
       </c>
       <c r="R99" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="S99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T99" t="s">
         <v>139</v>
@@ -11553,27 +11550,27 @@
         <v>16</v>
       </c>
       <c r="V99" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B100" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C100" t="s">
         <v>311</v>
       </c>
       <c r="D100" t="s">
+        <v>992</v>
+      </c>
+      <c r="E100" t="s">
+        <v>993</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="E100" t="s">
-        <v>995</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="G100" t="s">
         <v>99</v>
@@ -11582,10 +11579,10 @@
         <v>526</v>
       </c>
       <c r="I100" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="L100" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="M100" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80533_nottingham", ".\export_data\inspection_reports\80533_nottingham")</f>
@@ -11604,10 +11601,10 @@
         <v>12</v>
       </c>
       <c r="R100" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="S100" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="T100" t="s">
         <v>15</v>
@@ -11616,27 +11613,27 @@
         <v>16</v>
       </c>
       <c r="V100" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B101" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C101" t="s">
         <v>311</v>
       </c>
       <c r="D101" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="G101" t="s">
         <v>6</v>
@@ -11648,10 +11645,10 @@
         <v>38</v>
       </c>
       <c r="J101" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="K101" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L101" t="s">
         <v>670</v>
@@ -11673,7 +11670,7 @@
         <v>6</v>
       </c>
       <c r="R101" t="s">
-        <v>720</v>
+        <v>641</v>
       </c>
       <c r="S101" t="s">
         <v>43</v>
@@ -11685,27 +11682,27 @@
         <v>16</v>
       </c>
       <c r="V101" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B102" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C102" t="s">
         <v>62</v>
       </c>
       <c r="D102" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>1009</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>1011</v>
       </c>
       <c r="G102" t="s">
         <v>12</v>
@@ -11714,16 +11711,16 @@
         <v>37</v>
       </c>
       <c r="I102" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K102" t="s">
         <v>1012</v>
       </c>
-      <c r="J102" t="s">
+      <c r="L102" t="s">
         <v>1013</v>
-      </c>
-      <c r="K102" t="s">
-        <v>1014</v>
-      </c>
-      <c r="L102" t="s">
-        <v>1015</v>
       </c>
       <c r="M102" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80535_oldham", ".\export_data\inspection_reports\80535_oldham")</f>
@@ -11742,39 +11739,39 @@
         <v>12</v>
       </c>
       <c r="R102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="S102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T102" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U102" t="s">
         <v>16</v>
       </c>
       <c r="V102" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B103" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C103" t="s">
         <v>107</v>
       </c>
       <c r="D103" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>1019</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="G103" t="s">
         <v>6</v>
@@ -11786,13 +11783,13 @@
         <v>453</v>
       </c>
       <c r="J103" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L103" t="s">
         <v>1022</v>
-      </c>
-      <c r="K103" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L103" t="s">
-        <v>1024</v>
       </c>
       <c r="M103" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80536_oxfordshire", ".\export_data\inspection_reports\80536_oxfordshire")</f>
@@ -11811,7 +11808,7 @@
         <v>12</v>
       </c>
       <c r="R103" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="S103" t="s">
         <v>455</v>
@@ -11823,27 +11820,27 @@
         <v>16</v>
       </c>
       <c r="V103" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B104" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C104" t="s">
         <v>33</v>
       </c>
       <c r="D104" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="G104" t="s">
         <v>99</v>
@@ -11852,16 +11849,16 @@
         <v>37</v>
       </c>
       <c r="I104" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="J104" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L104" t="s">
         <v>1032</v>
-      </c>
-      <c r="K104" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L104" t="s">
-        <v>1034</v>
       </c>
       <c r="M104" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80537_peterborough", ".\export_data\inspection_reports\80537_peterborough")</f>
@@ -11892,27 +11889,27 @@
         <v>16</v>
       </c>
       <c r="V104" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B105" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
       </c>
       <c r="D105" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>1039</v>
       </c>
       <c r="G105" t="s">
         <v>12</v>
@@ -11921,16 +11918,16 @@
         <v>37</v>
       </c>
       <c r="I105" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="J105" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L105" t="s">
         <v>1040</v>
-      </c>
-      <c r="K105" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L105" t="s">
-        <v>1042</v>
       </c>
       <c r="M105" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\879_plymouth", ".\export_data\inspection_reports\879_plymouth")</f>
@@ -11949,10 +11946,10 @@
         <v>12</v>
       </c>
       <c r="R105" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="S105" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="T105" t="s">
         <v>15</v>
@@ -11961,27 +11958,27 @@
         <v>16</v>
       </c>
       <c r="V105" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B106" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>1049</v>
       </c>
       <c r="G106" t="s">
         <v>6</v>
@@ -11990,16 +11987,16 @@
         <v>7</v>
       </c>
       <c r="I106" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J106" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L106" t="s">
         <v>1050</v>
-      </c>
-      <c r="K106" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L106" t="s">
-        <v>1052</v>
       </c>
       <c r="M106" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80539_portsmouth", ".\export_data\inspection_reports\80539_portsmouth")</f>
@@ -12018,10 +12015,10 @@
         <v>6</v>
       </c>
       <c r="R106" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="S106" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="T106" t="s">
         <v>139</v>
@@ -12030,27 +12027,27 @@
         <v>16</v>
       </c>
       <c r="V106" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B107" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C107" t="s">
         <v>107</v>
       </c>
       <c r="D107" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>1059</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
@@ -12059,16 +12056,16 @@
         <v>37</v>
       </c>
       <c r="I107" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K107" t="s">
         <v>1060</v>
       </c>
-      <c r="J107" t="s">
+      <c r="L107" t="s">
         <v>1061</v>
-      </c>
-      <c r="K107" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L107" t="s">
-        <v>1063</v>
       </c>
       <c r="M107" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80540_reading", ".\export_data\inspection_reports\80540_reading")</f>
@@ -12087,39 +12084,39 @@
         <v>12</v>
       </c>
       <c r="R107" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="S107" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="T107" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U107" t="s">
         <v>16</v>
       </c>
       <c r="V107" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C108" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" t="s">
         <v>1066</v>
       </c>
-      <c r="B108" t="s">
+      <c r="E108" t="s">
         <v>1067</v>
       </c>
-      <c r="C108" t="s">
-        <v>298</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="F108" s="2" t="s">
         <v>1068</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>1070</v>
       </c>
       <c r="G108" t="s">
         <v>12</v>
@@ -12131,7 +12128,7 @@
         <v>422</v>
       </c>
       <c r="L108" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="M108" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80541_redcar and cleveland", ".\export_data\inspection_reports\80541_redcar and cleveland")</f>
@@ -12150,7 +12147,7 @@
         <v>12</v>
       </c>
       <c r="R108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S108" t="s">
         <v>427</v>
@@ -12162,27 +12159,27 @@
         <v>16</v>
       </c>
       <c r="V108" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B109" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C109" t="s">
         <v>62</v>
       </c>
       <c r="D109" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>1077</v>
       </c>
       <c r="G109" t="s">
         <v>12</v>
@@ -12197,10 +12194,10 @@
         <v>482</v>
       </c>
       <c r="K109" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="L109" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M109" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80542_rochdale", ".\export_data\inspection_reports\80542_rochdale")</f>
@@ -12219,7 +12216,7 @@
         <v>12</v>
       </c>
       <c r="R109" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="S109" t="s">
         <v>92</v>
@@ -12231,27 +12228,27 @@
         <v>16</v>
       </c>
       <c r="V109" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B110" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>1086</v>
       </c>
       <c r="G110" t="s">
         <v>6</v>
@@ -12263,13 +12260,13 @@
         <v>557</v>
       </c>
       <c r="J110" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="K110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M110" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80543_rotherham", ".\export_data\inspection_reports\80543_rotherham")</f>
@@ -12288,7 +12285,7 @@
         <v>6</v>
       </c>
       <c r="R110" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="S110" t="s">
         <v>561</v>
@@ -12300,27 +12297,27 @@
         <v>16</v>
       </c>
       <c r="V110" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C111" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" t="s">
         <v>1090</v>
       </c>
-      <c r="B111" t="s">
+      <c r="E111" t="s">
         <v>1091</v>
       </c>
-      <c r="C111" t="s">
-        <v>231</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="F111" s="2" t="s">
         <v>1092</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>1094</v>
       </c>
       <c r="G111" t="s">
         <v>111</v>
@@ -12329,7 +12326,7 @@
         <v>7</v>
       </c>
       <c r="I111" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="J111" t="s">
         <v>709</v>
@@ -12357,39 +12354,39 @@
         <v>111</v>
       </c>
       <c r="R111" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="S111" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="T111" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U111" t="s">
         <v>16</v>
       </c>
       <c r="V111" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" t="s">
         <v>1098</v>
       </c>
-      <c r="B112" t="s">
+      <c r="E112" t="s">
         <v>1099</v>
       </c>
-      <c r="C112" t="s">
-        <v>231</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="F112" s="2" t="s">
         <v>1100</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>1102</v>
       </c>
       <c r="G112" t="s">
         <v>111</v>
@@ -12398,13 +12395,13 @@
         <v>7</v>
       </c>
       <c r="I112" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="J112" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="K112" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L112" t="s">
         <v>670</v>
@@ -12426,10 +12423,10 @@
         <v>111</v>
       </c>
       <c r="R112" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="S112" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="T112" t="s">
         <v>15</v>
@@ -12438,27 +12435,27 @@
         <v>16</v>
       </c>
       <c r="V112" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B113" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C113" t="s">
         <v>107</v>
       </c>
       <c r="D113" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="G113" t="s">
         <v>6</v>
@@ -12467,16 +12464,16 @@
         <v>37</v>
       </c>
       <c r="I113" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J113" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L113" t="s">
         <v>1112</v>
-      </c>
-      <c r="K113" t="s">
-        <v>1113</v>
-      </c>
-      <c r="L113" t="s">
-        <v>1114</v>
       </c>
       <c r="M113" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80546_windsor &amp; maidenhead", ".\export_data\inspection_reports\80546_windsor &amp; maidenhead")</f>
@@ -12495,10 +12492,10 @@
         <v>12</v>
       </c>
       <c r="R113" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="S113" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="T113" t="s">
         <v>139</v>
@@ -12507,27 +12504,27 @@
         <v>16</v>
       </c>
       <c r="V113" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B114" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C114" t="s">
         <v>311</v>
       </c>
       <c r="D114" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>1118</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>1120</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
@@ -12536,10 +12533,10 @@
         <v>37</v>
       </c>
       <c r="I114" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K114" t="s">
         <v>444</v>
@@ -12564,39 +12561,39 @@
         <v>12</v>
       </c>
       <c r="R114" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="S114" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="T114" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="U114" t="s">
         <v>16</v>
       </c>
       <c r="V114" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B115" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C115" t="s">
         <v>62</v>
       </c>
       <c r="D115" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>1127</v>
       </c>
       <c r="G115" t="s">
         <v>6</v>
@@ -12608,7 +12605,7 @@
         <v>66</v>
       </c>
       <c r="J115" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="K115" t="s">
         <v>327</v>
@@ -12633,7 +12630,7 @@
         <v>6</v>
       </c>
       <c r="R115" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="S115" t="s">
         <v>71</v>
@@ -12645,27 +12642,27 @@
         <v>16</v>
       </c>
       <c r="V115" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B116" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C116" t="s">
         <v>48</v>
       </c>
       <c r="D116" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="G116" t="s">
         <v>12</v>
@@ -12674,7 +12671,7 @@
         <v>37</v>
       </c>
       <c r="I116" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J116" t="s">
         <v>377</v>
@@ -12702,39 +12699,39 @@
         <v>12</v>
       </c>
       <c r="R116" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="S116" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="T116" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="U116" t="s">
         <v>16</v>
       </c>
       <c r="V116" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B117" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C117" t="s">
         <v>62</v>
       </c>
       <c r="D117" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>1140</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="G117" t="s">
         <v>99</v>
@@ -12771,7 +12768,7 @@
         <v>99</v>
       </c>
       <c r="R117" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="S117" t="s">
         <v>83</v>
@@ -12783,27 +12780,27 @@
         <v>16</v>
       </c>
       <c r="V117" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B118" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
       </c>
       <c r="D118" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>1147</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="G118" t="s">
         <v>6</v>
@@ -12812,16 +12809,16 @@
         <v>37</v>
       </c>
       <c r="I118" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="J118" t="s">
         <v>9</v>
       </c>
       <c r="K118" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="L118" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="M118" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80551_sheffield", ".\export_data\inspection_reports\80551_sheffield")</f>
@@ -12840,39 +12837,39 @@
         <v>111</v>
       </c>
       <c r="R118" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="S118" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="T118" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U118" t="s">
         <v>16</v>
       </c>
       <c r="V118" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B119" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C119" t="s">
         <v>48</v>
       </c>
       <c r="D119" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>1157</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="G119" t="s">
         <v>6</v>
@@ -12887,10 +12884,10 @@
         <v>434</v>
       </c>
       <c r="K119" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="L119" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="M119" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80552_shropshire", ".\export_data\inspection_reports\80552_shropshire")</f>
@@ -12909,7 +12906,7 @@
         <v>6</v>
       </c>
       <c r="R119" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="S119" t="s">
         <v>57</v>
@@ -12921,27 +12918,27 @@
         <v>16</v>
       </c>
       <c r="V119" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B120" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C120" t="s">
         <v>107</v>
       </c>
       <c r="D120" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>1168</v>
       </c>
       <c r="G120" t="s">
         <v>12</v>
@@ -12956,10 +12953,10 @@
         <v>482</v>
       </c>
       <c r="K120" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="L120" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="M120" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80553_slough", ".\export_data\inspection_reports\80553_slough")</f>
@@ -12978,7 +12975,7 @@
         <v>12</v>
       </c>
       <c r="R120" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="S120" t="s">
         <v>117</v>
@@ -12990,27 +12987,27 @@
         <v>16</v>
       </c>
       <c r="V120" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B121" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C121" t="s">
         <v>48</v>
       </c>
       <c r="D121" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>1173</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>1175</v>
       </c>
       <c r="G121" t="s">
         <v>99</v>
@@ -13019,7 +13016,7 @@
         <v>37</v>
       </c>
       <c r="I121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J121" t="s">
         <v>367</v>
@@ -13047,10 +13044,10 @@
         <v>99</v>
       </c>
       <c r="R121" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="S121" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T121" t="s">
         <v>15</v>
@@ -13059,27 +13056,27 @@
         <v>16</v>
       </c>
       <c r="V121" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B122" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C122" t="s">
         <v>20</v>
       </c>
       <c r="D122" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>1182</v>
       </c>
       <c r="G122" t="s">
         <v>6</v>
@@ -13116,7 +13113,7 @@
         <v>6</v>
       </c>
       <c r="R122" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="S122" t="s">
         <v>415</v>
@@ -13128,27 +13125,27 @@
         <v>16</v>
       </c>
       <c r="V122" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B123" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C123" t="s">
         <v>20</v>
       </c>
       <c r="D123" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>1187</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>1189</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
@@ -13157,7 +13154,7 @@
         <v>37</v>
       </c>
       <c r="I123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J123" t="s">
         <v>677</v>
@@ -13166,7 +13163,7 @@
         <v>678</v>
       </c>
       <c r="L123" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M123" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80556_south gloucestershire", ".\export_data\inspection_reports\80556_south gloucestershire")</f>
@@ -13185,10 +13182,10 @@
         <v>12</v>
       </c>
       <c r="R123" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="S123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T123" t="s">
         <v>15</v>
@@ -13197,27 +13194,27 @@
         <v>16</v>
       </c>
       <c r="V123" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C124" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" t="s">
         <v>1192</v>
       </c>
-      <c r="B124" t="s">
+      <c r="E124" t="s">
         <v>1193</v>
       </c>
-      <c r="C124" t="s">
-        <v>298</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="F124" s="2" t="s">
         <v>1194</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>1196</v>
       </c>
       <c r="G124" t="s">
         <v>99</v>
@@ -13226,7 +13223,7 @@
         <v>7</v>
       </c>
       <c r="I124" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="J124" t="s">
         <v>79</v>
@@ -13235,7 +13232,7 @@
         <v>540</v>
       </c>
       <c r="L124" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="M124" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80557_south tyneside", ".\export_data\inspection_reports\80557_south tyneside")</f>
@@ -13254,10 +13251,10 @@
         <v>99</v>
       </c>
       <c r="R124" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="S124" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="T124" t="s">
         <v>15</v>
@@ -13266,27 +13263,27 @@
         <v>16</v>
       </c>
       <c r="V124" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B125" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C125" t="s">
         <v>107</v>
       </c>
       <c r="D125" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>1204</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>1206</v>
       </c>
       <c r="G125" t="s">
         <v>6</v>
@@ -13298,13 +13295,13 @@
         <v>346</v>
       </c>
       <c r="J125" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L125" t="s">
         <v>1207</v>
-      </c>
-      <c r="K125" t="s">
-        <v>1208</v>
-      </c>
-      <c r="L125" t="s">
-        <v>1209</v>
       </c>
       <c r="M125" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80558_southampton", ".\export_data\inspection_reports\80558_southampton")</f>
@@ -13335,27 +13332,27 @@
         <v>16</v>
       </c>
       <c r="V125" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B126" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C126" t="s">
         <v>33</v>
       </c>
       <c r="D126" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>1213</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>1215</v>
       </c>
       <c r="G126" t="s">
         <v>531</v>
@@ -13367,13 +13364,13 @@
         <v>697</v>
       </c>
       <c r="J126" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L126" t="s">
         <v>1216</v>
-      </c>
-      <c r="K126" t="s">
-        <v>1217</v>
-      </c>
-      <c r="L126" t="s">
-        <v>1218</v>
       </c>
       <c r="M126" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80559_southend-on-sea", ".\export_data\inspection_reports\80559_southend-on-sea")</f>
@@ -13383,16 +13380,16 @@
         <v>12</v>
       </c>
       <c r="O126" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="P126" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Q126" t="s">
         <v>12</v>
       </c>
       <c r="R126" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="S126" t="s">
         <v>702</v>
@@ -13404,27 +13401,27 @@
         <v>16</v>
       </c>
       <c r="V126" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="127" spans="1:22">
       <c r="A127" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B127" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C127" t="s">
         <v>62</v>
       </c>
       <c r="D127" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>1224</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>1226</v>
       </c>
       <c r="G127" t="s">
         <v>6</v>
@@ -13433,7 +13430,7 @@
         <v>37</v>
       </c>
       <c r="I127" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="J127" t="s">
         <v>600</v>
@@ -13461,7 +13458,7 @@
         <v>12</v>
       </c>
       <c r="R127" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S127" t="s">
         <v>13</v>
@@ -13473,27 +13470,27 @@
         <v>16</v>
       </c>
       <c r="V127" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="128" spans="1:22">
       <c r="A128" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B128" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C128" t="s">
         <v>48</v>
       </c>
       <c r="D128" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>1230</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>1232</v>
       </c>
       <c r="G128" t="s">
         <v>12</v>
@@ -13502,10 +13499,10 @@
         <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J128" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="K128" t="s">
         <v>327</v>
@@ -13530,39 +13527,39 @@
         <v>6</v>
       </c>
       <c r="R128" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="S128" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="T128" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="U128" t="s">
         <v>16</v>
       </c>
       <c r="V128" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="129" spans="1:22">
       <c r="A129" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B129" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C129" t="s">
         <v>62</v>
       </c>
       <c r="D129" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>1237</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>1239</v>
       </c>
       <c r="G129" t="s">
         <v>6</v>
@@ -13574,13 +13571,13 @@
         <v>155</v>
       </c>
       <c r="J129" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="K129" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L129" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="M129" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80562_stockport", ".\export_data\inspection_reports\80562_stockport")</f>
@@ -13611,27 +13608,27 @@
         <v>16</v>
       </c>
       <c r="V129" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C130" t="s">
+        <v>299</v>
+      </c>
+      <c r="D130" t="s">
         <v>1243</v>
       </c>
-      <c r="B130" t="s">
+      <c r="E130" t="s">
         <v>1244</v>
       </c>
-      <c r="C130" t="s">
-        <v>298</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="F130" s="2" t="s">
         <v>1245</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>1247</v>
       </c>
       <c r="G130" t="s">
         <v>12</v>
@@ -13640,16 +13637,16 @@
         <v>37</v>
       </c>
       <c r="I130" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K130" t="s">
         <v>1248</v>
       </c>
-      <c r="J130" t="s">
+      <c r="L130" t="s">
         <v>1249</v>
-      </c>
-      <c r="K130" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L130" t="s">
-        <v>1251</v>
       </c>
       <c r="M130" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80563_stockton-on-tees", ".\export_data\inspection_reports\80563_stockton-on-tees")</f>
@@ -13668,39 +13665,39 @@
         <v>12</v>
       </c>
       <c r="R130" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="S130" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="T130" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U130" t="s">
         <v>16</v>
       </c>
       <c r="V130" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="131" spans="1:22">
       <c r="A131" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B131" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C131" t="s">
         <v>48</v>
       </c>
       <c r="D131" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>1258</v>
       </c>
       <c r="G131" t="s">
         <v>12</v>
@@ -13712,13 +13709,13 @@
         <v>526</v>
       </c>
       <c r="J131" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K131" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L131" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="M131" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80564_stoke-on-trent", ".\export_data\inspection_reports\80564_stoke-on-trent")</f>
@@ -13737,7 +13734,7 @@
         <v>6</v>
       </c>
       <c r="R131" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="S131" t="s">
         <v>531</v>
@@ -13749,27 +13746,27 @@
         <v>16</v>
       </c>
       <c r="V131" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="132" spans="1:22">
       <c r="A132" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B132" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C132" t="s">
         <v>33</v>
       </c>
       <c r="D132" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>1263</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>1265</v>
       </c>
       <c r="G132" t="s">
         <v>111</v>
@@ -13781,13 +13778,13 @@
         <v>38</v>
       </c>
       <c r="J132" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L132" t="s">
         <v>1266</v>
-      </c>
-      <c r="K132" t="s">
-        <v>1267</v>
-      </c>
-      <c r="L132" t="s">
-        <v>1268</v>
       </c>
       <c r="M132" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80565_suffolk", ".\export_data\inspection_reports\80565_suffolk")</f>
@@ -13818,27 +13815,27 @@
         <v>16</v>
       </c>
       <c r="V132" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C133" t="s">
+        <v>299</v>
+      </c>
+      <c r="D133" t="s">
         <v>1270</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>1271</v>
       </c>
-      <c r="C133" t="s">
-        <v>298</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="F133" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>1274</v>
       </c>
       <c r="G133" t="s">
         <v>111</v>
@@ -13850,13 +13847,13 @@
         <v>557</v>
       </c>
       <c r="J133" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1274</v>
+      </c>
+      <c r="L133" t="s">
         <v>1275</v>
-      </c>
-      <c r="K133" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L133" t="s">
-        <v>1277</v>
       </c>
       <c r="M133" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80566_sunderland", ".\export_data\inspection_reports\80566_sunderland")</f>
@@ -13875,7 +13872,7 @@
         <v>111</v>
       </c>
       <c r="R133" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="S133" t="s">
         <v>561</v>
@@ -13887,27 +13884,27 @@
         <v>16</v>
       </c>
       <c r="V133" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="134" spans="1:22">
       <c r="A134" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B134" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C134" t="s">
         <v>107</v>
       </c>
       <c r="D134" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>1282</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>1284</v>
       </c>
       <c r="G134" t="s">
         <v>12</v>
@@ -13916,16 +13913,16 @@
         <v>37</v>
       </c>
       <c r="I134" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J134" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K134" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="L134" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="M134" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80567_surrey", ".\export_data\inspection_reports\80567_surrey")</f>
@@ -13944,39 +13941,39 @@
         <v>12</v>
       </c>
       <c r="R134" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="S134" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="T134" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="U134" t="s">
         <v>16</v>
       </c>
       <c r="V134" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B135" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C135" t="s">
         <v>20</v>
       </c>
       <c r="D135" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>1291</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>1293</v>
       </c>
       <c r="G135" t="s">
         <v>99</v>
@@ -13985,16 +13982,16 @@
         <v>37</v>
       </c>
       <c r="I135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J135" t="s">
+        <v>895</v>
+      </c>
+      <c r="K135" t="s">
+        <v>896</v>
+      </c>
+      <c r="L135" t="s">
         <v>897</v>
-      </c>
-      <c r="K135" t="s">
-        <v>898</v>
-      </c>
-      <c r="L135" t="s">
-        <v>899</v>
       </c>
       <c r="M135" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80568_swindon", ".\export_data\inspection_reports\80568_swindon")</f>
@@ -14013,10 +14010,10 @@
         <v>99</v>
       </c>
       <c r="R135" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="S135" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T135" t="s">
         <v>58</v>
@@ -14025,96 +14022,96 @@
         <v>16</v>
       </c>
       <c r="V135" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B136" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C136" t="s">
         <v>62</v>
       </c>
       <c r="D136" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="E136" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>1300</v>
-      </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="H136" t="s">
         <v>37</v>
       </c>
       <c r="I136" t="s">
-        <v>177</v>
+        <v>526</v>
       </c>
       <c r="J136" t="s">
-        <v>611</v>
+        <v>786</v>
       </c>
       <c r="K136" t="s">
-        <v>612</v>
+        <v>401</v>
       </c>
       <c r="L136" t="s">
-        <v>613</v>
+        <v>1299</v>
       </c>
       <c r="M136" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80569_tameside", ".\export_data\inspection_reports\80569_tameside")</f>
         <v>0</v>
       </c>
       <c r="N136" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="O136" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="P136" t="s">
         <v>12</v>
       </c>
       <c r="Q136" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="R136" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="S136" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
       <c r="T136" t="s">
-        <v>15</v>
+        <v>532</v>
       </c>
       <c r="U136" t="s">
         <v>16</v>
       </c>
       <c r="V136" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="137" spans="1:22">
       <c r="A137" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B137" t="s">
         <v>1303</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1304</v>
       </c>
       <c r="C137" t="s">
         <v>48</v>
       </c>
       <c r="D137" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E137" t="s">
         <v>1305</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" s="2" t="s">
         <v>1306</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>1307</v>
       </c>
       <c r="G137" t="s">
         <v>111</v>
@@ -14123,7 +14120,7 @@
         <v>37</v>
       </c>
       <c r="I137" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J137" t="s">
         <v>336</v>
@@ -14132,7 +14129,7 @@
         <v>337</v>
       </c>
       <c r="L137" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="M137" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80570_telford &amp; wrekin", ".\export_data\inspection_reports\80570_telford &amp; wrekin")</f>
@@ -14151,39 +14148,39 @@
         <v>111</v>
       </c>
       <c r="R137" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="S137" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="T137" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="U137" t="s">
         <v>16</v>
       </c>
       <c r="V137" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B138" t="s">
         <v>1310</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1311</v>
       </c>
       <c r="C138" t="s">
         <v>33</v>
       </c>
       <c r="D138" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E138" t="s">
         <v>1312</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>1314</v>
       </c>
       <c r="G138" t="s">
         <v>6</v>
@@ -14192,7 +14189,7 @@
         <v>37</v>
       </c>
       <c r="I138" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J138" t="s">
         <v>698</v>
@@ -14220,10 +14217,10 @@
         <v>6</v>
       </c>
       <c r="R138" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="S138" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T138" t="s">
         <v>58</v>
@@ -14232,27 +14229,27 @@
         <v>16</v>
       </c>
       <c r="V138" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="139" spans="1:22">
       <c r="A139" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B139" t="s">
         <v>1317</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1318</v>
       </c>
       <c r="C139" t="s">
         <v>20</v>
       </c>
       <c r="D139" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E139" t="s">
         <v>1319</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" s="2" t="s">
         <v>1320</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>1321</v>
       </c>
       <c r="G139" t="s">
         <v>6</v>
@@ -14267,10 +14264,10 @@
         <v>316</v>
       </c>
       <c r="K139" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L139" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="M139" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80572_torbay", ".\export_data\inspection_reports\80572_torbay")</f>
@@ -14289,39 +14286,39 @@
         <v>6</v>
       </c>
       <c r="R139" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="S139" t="s">
         <v>615</v>
       </c>
       <c r="T139" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="U139" t="s">
         <v>16</v>
       </c>
       <c r="V139" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="140" spans="1:22">
       <c r="A140" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B140" t="s">
         <v>1324</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1325</v>
       </c>
       <c r="C140" t="s">
         <v>62</v>
       </c>
       <c r="D140" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E140" t="s">
         <v>1326</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" s="2" t="s">
         <v>1327</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>1328</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
@@ -14330,16 +14327,16 @@
         <v>37</v>
       </c>
       <c r="I140" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J140" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K140" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L140" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M140" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80573_trafford", ".\export_data\inspection_reports\80573_trafford")</f>
@@ -14358,10 +14355,10 @@
         <v>12</v>
       </c>
       <c r="R140" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="S140" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T140" t="s">
         <v>58</v>
@@ -14370,27 +14367,27 @@
         <v>16</v>
       </c>
       <c r="V140" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="141" spans="1:22">
       <c r="A141" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B141" t="s">
         <v>1331</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1332</v>
       </c>
       <c r="C141" t="s">
         <v>48</v>
       </c>
       <c r="D141" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E141" t="s">
         <v>1333</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" s="2" t="s">
         <v>1334</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>1335</v>
       </c>
       <c r="G141" t="s">
         <v>6</v>
@@ -14402,13 +14399,13 @@
         <v>315</v>
       </c>
       <c r="J141" t="s">
+        <v>934</v>
+      </c>
+      <c r="K141" t="s">
+        <v>935</v>
+      </c>
+      <c r="L141" t="s">
         <v>936</v>
-      </c>
-      <c r="K141" t="s">
-        <v>937</v>
-      </c>
-      <c r="L141" t="s">
-        <v>938</v>
       </c>
       <c r="M141" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80574_walsall", ".\export_data\inspection_reports\80574_walsall")</f>
@@ -14439,27 +14436,27 @@
         <v>16</v>
       </c>
       <c r="V141" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B142" t="s">
         <v>1337</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1338</v>
       </c>
       <c r="C142" t="s">
         <v>62</v>
       </c>
       <c r="D142" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E142" t="s">
         <v>1339</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>1341</v>
       </c>
       <c r="G142" t="s">
         <v>6</v>
@@ -14471,13 +14468,13 @@
         <v>146</v>
       </c>
       <c r="J142" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K142" t="s">
         <v>1342</v>
       </c>
-      <c r="K142" t="s">
+      <c r="L142" t="s">
         <v>1343</v>
-      </c>
-      <c r="L142" t="s">
-        <v>1344</v>
       </c>
       <c r="M142" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80575_warrington", ".\export_data\inspection_reports\80575_warrington")</f>
@@ -14508,27 +14505,27 @@
         <v>16</v>
       </c>
       <c r="V142" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B143" t="s">
         <v>1346</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1347</v>
       </c>
       <c r="C143" t="s">
         <v>48</v>
       </c>
       <c r="D143" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E143" t="s">
         <v>1348</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" s="2" t="s">
         <v>1349</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>1350</v>
       </c>
       <c r="G143" t="s">
         <v>6</v>
@@ -14537,16 +14534,16 @@
         <v>37</v>
       </c>
       <c r="I143" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J143" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K143" t="s">
         <v>1351</v>
       </c>
-      <c r="K143" t="s">
-        <v>1352</v>
-      </c>
       <c r="L143" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="M143" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80576_warwickshire", ".\export_data\inspection_reports\80576_warwickshire")</f>
@@ -14565,39 +14562,39 @@
         <v>6</v>
       </c>
       <c r="R143" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="S143" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="T143" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="U143" t="s">
         <v>16</v>
       </c>
       <c r="V143" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="144" spans="1:22">
       <c r="A144" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B144" t="s">
         <v>1355</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1356</v>
       </c>
       <c r="C144" t="s">
         <v>107</v>
       </c>
       <c r="D144" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E144" t="s">
         <v>1357</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" s="2" t="s">
         <v>1358</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>1359</v>
       </c>
       <c r="G144" t="s">
         <v>6</v>
@@ -14606,16 +14603,16 @@
         <v>7</v>
       </c>
       <c r="I144" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J144" t="s">
         <v>1360</v>
       </c>
-      <c r="J144" t="s">
-        <v>1361</v>
-      </c>
       <c r="K144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M144" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80577_west berkshire", ".\export_data\inspection_reports\80577_west berkshire")</f>
@@ -14634,39 +14631,39 @@
         <v>6</v>
       </c>
       <c r="R144" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="S144" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="T144" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U144" t="s">
         <v>16</v>
       </c>
       <c r="V144" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="145" spans="1:22">
       <c r="A145" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B145" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C145" t="s">
         <v>311</v>
       </c>
       <c r="D145" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E145" t="s">
         <v>1365</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>1367</v>
       </c>
       <c r="G145" t="s">
         <v>12</v>
@@ -14675,16 +14672,16 @@
         <v>37</v>
       </c>
       <c r="I145" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J145" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K145" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="L145" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="M145" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\941_west northamptonshire", ".\export_data\inspection_reports\941_west northamptonshire")</f>
@@ -14703,39 +14700,39 @@
         <v>12</v>
       </c>
       <c r="R145" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="S145" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="T145" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="U145" t="s">
         <v>16</v>
       </c>
       <c r="V145" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B146" t="s">
         <v>1370</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1371</v>
       </c>
       <c r="C146" t="s">
         <v>107</v>
       </c>
       <c r="D146" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E146" t="s">
         <v>1372</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" s="2" t="s">
         <v>1373</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>1374</v>
       </c>
       <c r="G146" t="s">
         <v>12</v>
@@ -14744,7 +14741,7 @@
         <v>37</v>
       </c>
       <c r="I146" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J146" t="s">
         <v>589</v>
@@ -14753,7 +14750,7 @@
         <v>590</v>
       </c>
       <c r="L146" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="M146" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80578_west sussex", ".\export_data\inspection_reports\80578_west sussex")</f>
@@ -14772,10 +14769,10 @@
         <v>6</v>
       </c>
       <c r="R146" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="S146" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="T146" t="s">
         <v>139</v>
@@ -14784,27 +14781,27 @@
         <v>16</v>
       </c>
       <c r="V146" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B147" t="s">
         <v>1377</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1378</v>
       </c>
       <c r="C147" t="s">
         <v>62</v>
       </c>
       <c r="D147" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E147" t="s">
         <v>1379</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" s="2" t="s">
         <v>1380</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>1381</v>
       </c>
       <c r="G147" t="s">
         <v>12</v>
@@ -14853,27 +14850,27 @@
         <v>16</v>
       </c>
       <c r="V147" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B148" t="s">
         <v>1383</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1384</v>
       </c>
       <c r="C148" t="s">
         <v>20</v>
       </c>
       <c r="D148" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E148" t="s">
         <v>1385</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" s="2" t="s">
         <v>1386</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>1387</v>
       </c>
       <c r="G148" t="s">
         <v>111</v>
@@ -14885,13 +14882,13 @@
         <v>410</v>
       </c>
       <c r="J148" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K148" t="s">
         <v>1388</v>
       </c>
-      <c r="K148" t="s">
+      <c r="L148" t="s">
         <v>1389</v>
-      </c>
-      <c r="L148" t="s">
-        <v>1390</v>
       </c>
       <c r="M148" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80580_wiltshire", ".\export_data\inspection_reports\80580_wiltshire")</f>
@@ -14910,7 +14907,7 @@
         <v>111</v>
       </c>
       <c r="R148" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="S148" t="s">
         <v>415</v>
@@ -14922,27 +14919,27 @@
         <v>16</v>
       </c>
       <c r="V148" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B149" t="s">
         <v>1393</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1394</v>
       </c>
       <c r="C149" t="s">
         <v>62</v>
       </c>
       <c r="D149" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E149" t="s">
         <v>1395</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" s="2" t="s">
         <v>1396</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>1397</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
@@ -14951,16 +14948,16 @@
         <v>37</v>
       </c>
       <c r="I149" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J149" t="s">
         <v>1398</v>
       </c>
-      <c r="J149" t="s">
+      <c r="K149" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L149" t="s">
         <v>1399</v>
-      </c>
-      <c r="K149" t="s">
-        <v>1389</v>
-      </c>
-      <c r="L149" t="s">
-        <v>1400</v>
       </c>
       <c r="M149" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80581_wirral", ".\export_data\inspection_reports\80581_wirral")</f>
@@ -14979,39 +14976,39 @@
         <v>12</v>
       </c>
       <c r="R149" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="S149" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="T149" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="U149" t="s">
         <v>16</v>
       </c>
       <c r="V149" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B150" t="s">
         <v>1403</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1404</v>
       </c>
       <c r="C150" t="s">
         <v>107</v>
       </c>
       <c r="D150" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E150" t="s">
         <v>1405</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" s="2" t="s">
         <v>1406</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>1407</v>
       </c>
       <c r="G150" t="s">
         <v>12</v>
@@ -15023,13 +15020,13 @@
         <v>346</v>
       </c>
       <c r="J150" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L150" t="s">
         <v>1249</v>
-      </c>
-      <c r="K150" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L150" t="s">
-        <v>1251</v>
       </c>
       <c r="M150" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80582_wokingham", ".\export_data\inspection_reports\80582_wokingham")</f>
@@ -15048,7 +15045,7 @@
         <v>6</v>
       </c>
       <c r="R150" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="S150" t="s">
         <v>351</v>
@@ -15060,27 +15057,27 @@
         <v>16</v>
       </c>
       <c r="V150" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B151" t="s">
         <v>1410</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1411</v>
       </c>
       <c r="C151" t="s">
         <v>48</v>
       </c>
       <c r="D151" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E151" t="s">
         <v>1412</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" s="2" t="s">
         <v>1413</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>1414</v>
       </c>
       <c r="G151" t="s">
         <v>6</v>
@@ -15089,16 +15086,16 @@
         <v>7</v>
       </c>
       <c r="I151" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J151" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="K151" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L151" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="M151" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80583_wolverhampton", ".\export_data\inspection_reports\80583_wolverhampton")</f>
@@ -15117,10 +15114,10 @@
         <v>6</v>
       </c>
       <c r="R151" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="S151" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="T151" t="s">
         <v>15</v>
@@ -15129,27 +15126,27 @@
         <v>16</v>
       </c>
       <c r="V151" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="152" spans="1:22">
       <c r="A152" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B152" t="s">
         <v>1417</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1418</v>
       </c>
       <c r="C152" t="s">
         <v>48</v>
       </c>
       <c r="D152" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E152" t="s">
         <v>1419</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" s="2" t="s">
         <v>1420</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>1421</v>
       </c>
       <c r="G152" t="s">
         <v>6</v>
@@ -15158,16 +15155,16 @@
         <v>37</v>
       </c>
       <c r="I152" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="J152" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K152" t="s">
+        <v>1421</v>
+      </c>
+      <c r="L152" t="s">
         <v>1422</v>
-      </c>
-      <c r="L152" t="s">
-        <v>1423</v>
       </c>
       <c r="M152" s="3">
         <f>HYPERLINK(".\.\export_data\inspection_reports\80584_worcestershire", ".\export_data\inspection_reports\80584_worcestershire")</f>
@@ -15186,10 +15183,10 @@
         <v>12</v>
       </c>
       <c r="R152" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="S152" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="T152" t="s">
         <v>15</v>
@@ -15198,7 +15195,7 @@
         <v>16</v>
       </c>
       <c r="V152" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
   </sheetData>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -67,7 +67,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.008*"needs" + 0.007*"leaders" + 0.007*"Barnsley" + 0.006*"practice" + 0.006*"within" + 0.004*"senior" + 0.004*"response" + 0.004*"family" + 0.004*"plans"', '0.016*"’" + 0.009*"needs" + 0.008*"leaders" + 0.006*"practice" + 0.006*"within" + 0.005*"Barnsley" + 0.005*"15" + 0.004*"plans" + 0.004*"11" + 0.004*"understand"', '0.017*"’" + 0.007*"within" + 0.007*"needs" + 0.007*"leaders" + 0.005*"11" + 0.005*"plans" + 0.004*"September" + 0.004*"practice" + 0.004*"2023" + 0.004*"quality"']</t>
+    <t>['0.016*"’" + 0.006*"Barnsley" + 0.006*"needs" + 0.006*"leaders" + 0.005*"plans" + 0.004*"within" + 0.004*"practice" + 0.004*"11" + 0.004*"2023" + 0.004*"understand"', '0.019*"’" + 0.007*"needs" + 0.007*"leaders" + 0.006*"within" + 0.005*"practice" + 0.005*"Barnsley" + 0.004*"family" + 0.004*"senior" + 0.004*"response" + 0.004*"15"', '0.021*"’" + 0.010*"needs" + 0.008*"leaders" + 0.007*"within" + 0.007*"practice" + 0.006*"Barnsley" + 0.005*"plans" + 0.004*"response" + 0.004*"senior" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -106,7 +106,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.005*"well" + 0.004*"plans" + 0.004*"needs" + 0.004*"Somerset" + 0.004*"‘" + 0.004*"March" + 0.003*"effective" + 0.003*"practice" + 0.003*"28"', '0.017*"’" + 0.010*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"plans" + 0.005*"leaders" + 0.005*"Somerset" + 0.004*"effective" + 0.004*"clear" + 0.004*"Bath"', '0.020*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"4" + 0.005*"leaders" + 0.005*"impact" + 0.005*"North" + 0.005*"receive" + 0.005*"plans"']</t>
+    <t>['0.017*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"leaders" + 0.005*"plans" + 0.005*"receive" + 0.005*"Somerset" + 0.005*"effective" + 0.004*"‘"', '0.022*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"plans" + 0.005*"effective" + 0.005*"North" + 0.005*"impact" + 0.005*"East" + 0.005*"4"', '0.013*"’" + 0.010*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"leaders" + 0.004*"Bath" + 0.004*"4" + 0.004*"East" + 0.004*"protection" + 0.004*"Somerset"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -151,7 +151,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"ensure" + 0.006*"family" + 0.006*"good" + 0.006*"well" + 0.005*"Borough" + 0.005*"progress" + 0.005*"need"', '0.013*"’" + 0.006*"needs" + 0.005*"supported" + 0.004*"Bedford" + 0.004*"ensure" + 0.004*"well" + 0.004*"progress" + 0.004*"plans" + 0.004*"education" + 0.003*"relationships"', '0.020*"’" + 0.007*"ensure" + 0.007*"needs" + 0.006*"well" + 0.006*"Bedford" + 0.005*"supported" + 0.005*"education" + 0.004*"plans" + 0.004*"good" + 0.004*"relationships"']</t>
+    <t>['0.014*"’" + 0.006*"needs" + 0.005*"ensure" + 0.005*"relationships" + 0.005*"need" + 0.004*"Bedford" + 0.004*"well" + 0.004*"good" + 0.004*"plans" + 0.004*"education"', '0.013*"’" + 0.005*"needs" + 0.005*"ensure" + 0.005*"plans" + 0.005*"well" + 0.004*"progress" + 0.004*"education" + 0.004*"receive" + 0.004*"made" + 0.004*"Bedford"', '0.025*"’" + 0.008*"needs" + 0.007*"ensure" + 0.007*"well" + 0.006*"Bedford" + 0.006*"supported" + 0.006*"plans" + 0.006*"good" + 0.005*"Borough" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -193,7 +193,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.010*"needs" + 0.007*"well" + 0.007*"effective" + 0.006*"Birmingham" + 0.005*"plans" + 0.005*"progress" + 0.004*"response" + 0.004*"risk" + 0.004*"trust"', '0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"progress" + 0.006*"trust" + 0.006*"effective" + 0.006*"plans" + 0.006*"Birmingham" + 0.005*"3" + 0.005*"20"', '0.018*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"effective" + 0.006*"appropriate" + 0.005*"ensure" + 0.005*"well" + 0.005*"risk" + 0.005*"trust" + 0.005*"Birmingham"']</t>
+    <t>['0.020*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"plans" + 0.007*"effective" + 0.007*"progress" + 0.006*"trust" + 0.005*"risk" + 0.005*"Birmingham" + 0.005*"appropriate"', '0.013*"’" + 0.011*"needs" + 0.006*"effective" + 0.006*"Birmingham" + 0.006*"well" + 0.005*"3" + 0.005*"appropriate" + 0.004*"plans" + 0.004*"leaders" + 0.004*"good"', '0.010*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"plans" + 0.006*"Birmingham" + 0.005*"trust" + 0.004*"well" + 0.004*"progress" + 0.004*"ensure" + 0.004*"risks"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -232,7 +232,7 @@
     <t>0.1834</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"practice" + 0.006*"Blackburn" + 0.006*"quality" + 0.005*"needs" + 0.005*"impact" + 0.005*"well" + 0.004*"means" + 0.004*"leaders" + 0.004*"experiences"', '0.017*"’" + 0.008*"practice" + 0.008*"needs" + 0.008*"Blackburn" + 0.007*"impact" + 0.007*"Darwen" + 0.007*"well" + 0.007*"quality" + 0.006*"planning" + 0.005*"4"', '0.013*"’" + 0.009*"needs" + 0.008*"quality" + 0.007*"Darwen" + 0.006*"practice" + 0.005*"Blackburn" + 0.005*"well" + 0.005*"impact" + 0.005*"plans" + 0.005*"need"']</t>
+    <t>['0.020*"’" + 0.009*"needs" + 0.008*"practice" + 0.007*"Darwen" + 0.006*"impact" + 0.006*"Blackburn" + 0.006*"well" + 0.006*"quality" + 0.005*"result" + 0.005*"receive"', '0.011*"’" + 0.007*"quality" + 0.007*"Blackburn" + 0.006*"needs" + 0.006*"practice" + 0.005*"Darwen" + 0.005*"impact" + 0.005*"well" + 0.004*"4" + 0.004*"2022"', '0.009*"’" + 0.008*"quality" + 0.007*"practice" + 0.007*"Blackburn" + 0.007*"needs" + 0.006*"well" + 0.006*"planning" + 0.006*"Darwen" + 0.006*"impact" + 0.005*"4"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -271,7 +271,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.007*"Blackpool" + 0.006*"well" + 0.005*"effective" + 0.005*"16" + 0.004*"progress" + 0.004*"plans" + 0.004*"carers" + 0.004*"timely"', '0.018*"’" + 0.012*"needs" + 0.009*"well" + 0.007*"effective" + 0.006*"Blackpool" + 0.006*"16" + 0.006*"experiences" + 0.005*"supported" + 0.005*"practice" + 0.005*"good"', '0.016*"’" + 0.011*"well" + 0.010*"needs" + 0.009*"Blackpool" + 0.006*"plans" + 0.005*"practice" + 0.005*"effective" + 0.005*"supported" + 0.005*"quality" + 0.004*"including"']</t>
+    <t>['0.017*"’" + 0.011*"needs" + 0.008*"Blackpool" + 0.007*"well" + 0.006*"effective" + 0.006*"practice" + 0.006*"quality" + 0.005*"supported" + 0.005*"16" + 0.005*"plans"', '0.017*"’" + 0.011*"needs" + 0.009*"well" + 0.007*"Blackpool" + 0.007*"effective" + 0.006*"plans" + 0.005*"progress" + 0.005*"team" + 0.004*"experiences" + 0.004*"16"', '0.016*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"Blackpool" + 0.006*"experiences" + 0.005*"practice" + 0.005*"carers" + 0.005*"supported" + 0.005*"16" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>350</t>
@@ -295,7 +295,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.011*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"Bolton" + 0.005*"response" + 0.005*"planning" + 0.005*"timely" + 0.004*"need" + 0.004*"supported"', '0.018*"’" + 0.008*"well" + 0.008*"plans" + 0.008*"Bolton" + 0.008*"needs" + 0.005*"11" + 0.005*"effective" + 0.005*"strong" + 0.005*"supported" + 0.005*"need"', '0.020*"’" + 0.009*"Bolton" + 0.009*"needs" + 0.009*"well" + 0.007*"supported" + 0.006*"planning" + 0.006*"need" + 0.005*"plans" + 0.005*"15" + 0.005*"effective"']</t>
+    <t>['0.024*"’" + 0.012*"needs" + 0.008*"Bolton" + 0.007*"plans" + 0.007*"well" + 0.006*"planning" + 0.006*"15" + 0.005*"supported" + 0.005*"timely" + 0.005*"strong"', '0.013*"’" + 0.008*"well" + 0.007*"Bolton" + 0.006*"plans" + 0.006*"needs" + 0.005*"supported" + 0.005*"response" + 0.005*"need" + 0.004*"effective" + 0.004*"11"', '0.017*"’" + 0.009*"well" + 0.009*"needs" + 0.009*"Bolton" + 0.008*"plans" + 0.005*"11" + 0.005*"strong" + 0.005*"need" + 0.005*"supported" + 0.005*"response"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -328,7 +328,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"quality" + 0.006*"practice" + 0.005*"progress" + 0.005*"time" + 0.005*"Bournemouth" + 0.005*"6" + 0.004*"well" + 0.004*"17" + 0.004*"Poole"', '0.015*"’" + 0.006*"practice" + 0.005*"quality" + 0.005*"17" + 0.005*"well" + 0.004*"impact" + 0.004*"Poole" + 0.004*"risk" + 0.004*"many" + 0.004*"right"', '0.018*"’" + 0.006*"progress" + 0.005*"practice" + 0.005*"Christchurch" + 0.005*"6" + 0.004*"risk" + 0.004*"Poole" + 0.004*"time" + 0.004*"impact" + 0.004*"quality"']</t>
+    <t>['0.017*"’" + 0.006*"quality" + 0.006*"practice" + 0.005*"Bournemouth" + 0.005*"progress" + 0.005*"time" + 0.005*"Poole" + 0.005*"well" + 0.004*"Christchurch" + 0.004*"many"', '0.021*"’" + 0.006*"quality" + 0.006*"practice" + 0.005*"impact" + 0.005*"risk" + 0.005*"progress" + 0.005*"Christchurch" + 0.005*"6" + 0.005*"17" + 0.005*"Poole"', '0.013*"’" + 0.005*"practice" + 0.005*"progress" + 0.005*"quality" + 0.004*"17" + 0.004*"6" + 0.004*"2021" + 0.004*"Bournemouth" + 0.004*"time" + 0.003*"Poole"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -370,7 +370,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"Bracknell" + 0.007*"quality" + 0.007*"Forest" + 0.007*"risk" + 0.006*"effective" + 0.006*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"impact"', '0.012*"’" + 0.006*"needs" + 0.006*"risk" + 0.006*"good" + 0.006*"Forest" + 0.005*"progress" + 0.005*"Bracknell" + 0.005*"need" + 0.005*"effective" + 0.005*"plans"', '0.017*"’" + 0.007*"needs" + 0.007*"Forest" + 0.007*"good" + 0.006*"Bracknell" + 0.006*"progress" + 0.005*"risk" + 0.005*"provided" + 0.005*"quality" + 0.005*"2022"']</t>
+    <t>['0.018*"’" + 0.007*"Forest" + 0.007*"quality" + 0.007*"good" + 0.007*"needs" + 0.006*"risk" + 0.006*"effective" + 0.006*"plans" + 0.006*"well" + 0.005*"Bracknell"', '0.011*"’" + 0.005*"quality" + 0.005*"Bracknell" + 0.005*"provided" + 0.005*"Forest" + 0.005*"effective" + 0.005*"risk" + 0.005*"progress" + 0.005*"good" + 0.005*"carers"', '0.018*"’" + 0.009*"Bracknell" + 0.008*"needs" + 0.007*"Forest" + 0.007*"risk" + 0.005*"good" + 0.005*"progress" + 0.005*"well" + 0.005*"plans" + 0.005*"13"']</t>
   </si>
   <si>
     <t>846</t>
@@ -403,7 +403,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"recording" + 0.005*"need" + 0.005*"leaders" + 0.004*"However" + 0.004*"plans" + 0.004*"timely" + 0.004*"Hove"', '0.012*"’" + 0.007*"good" + 0.007*"needs" + 0.005*"leaders" + 0.004*"well" + 0.004*"improve" + 0.004*"strong" + 0.004*"Brighton" + 0.004*"recording" + 0.004*"ensure"', '0.015*"’" + 0.011*"needs" + 0.010*"good" + 0.007*"well" + 0.007*"recording" + 0.006*"leaders" + 0.006*"plans" + 0.005*"need" + 0.005*"Senior" + 0.005*"However"']</t>
+    <t>['0.014*"’" + 0.010*"needs" + 0.008*"good" + 0.007*"recording" + 0.005*"leaders" + 0.005*"Hove" + 0.005*"plans" + 0.004*"However" + 0.004*"quality" + 0.004*"need"', '0.016*"’" + 0.010*"good" + 0.010*"needs" + 0.007*"well" + 0.006*"leaders" + 0.006*"need" + 0.005*"recording" + 0.005*"However" + 0.005*"plans" + 0.005*"arrangements"', '0.008*"’" + 0.006*"needs" + 0.005*"recording" + 0.005*"good" + 0.005*"plans" + 0.004*"leaders" + 0.004*"well" + 0.003*"strong" + 0.003*"planning" + 0.003*"supported"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -436,7 +436,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"Bristol" + 0.007*"well" + 0.006*"good" + 0.006*"needs" + 0.005*"plans" + 0.005*"health" + 0.004*"2023" + 0.004*"16" + 0.004*"risk"', '0.022*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"Bristol" + 0.007*"good" + 0.006*"progress" + 0.005*"health" + 0.005*"leaders" + 0.005*"need" + 0.005*"27"', '0.018*"’" + 0.009*"good" + 0.009*"needs" + 0.008*"well" + 0.007*"Bristol" + 0.005*"always" + 0.005*"health" + 0.005*"progress" + 0.005*"leaders" + 0.005*"need"']</t>
+    <t>['0.020*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"good" + 0.007*"Bristol" + 0.006*"plans" + 0.005*"leaders" + 0.005*"timely" + 0.005*"27" + 0.005*"progress"', '0.022*"’" + 0.009*"well" + 0.009*"good" + 0.008*"Bristol" + 0.007*"needs" + 0.006*"progress" + 0.006*"health" + 0.005*"need" + 0.005*"always" + 0.005*"16"', '0.014*"’" + 0.006*"Bristol" + 0.006*"well" + 0.005*"needs" + 0.005*"good" + 0.004*"risk" + 0.004*"need" + 0.004*"always" + 0.004*"receive" + 0.004*"16"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -463,7 +463,7 @@
     <t>0.159</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.006*"plans" + 0.005*"number" + 0.005*"Buckinghamshire" + 0.005*"17" + 0.004*"many" + 0.004*"protection" + 0.004*"6" + 0.004*"December" + 0.004*"practice"', '0.009*"’" + 0.004*"Buckinghamshire" + 0.004*"number" + 0.004*"plans" + 0.003*"17" + 0.003*"needs" + 0.003*"protection" + 0.003*"6" + 0.003*"2021" + 0.003*"December"', '0.013*"’" + 0.005*"number" + 0.005*"17" + 0.005*"plans" + 0.004*"6" + 0.004*"2021" + 0.004*"Buckinghamshire" + 0.004*"many" + 0.004*"practice" + 0.004*"small"']</t>
+    <t>['0.011*"’" + 0.006*"17" + 0.005*"plans" + 0.005*"Buckinghamshire" + 0.005*"number" + 0.004*"protection" + 0.004*"many" + 0.004*"2021" + 0.003*"well" + 0.003*"6"', '0.017*"’" + 0.005*"number" + 0.005*"plans" + 0.005*"protection" + 0.004*"Buckinghamshire" + 0.004*"6" + 0.004*"17" + 0.004*"December" + 0.004*"practice" + 0.004*"teams"', '0.010*"’" + 0.004*"plans" + 0.004*"number" + 0.004*"many" + 0.004*"Buckinghamshire" + 0.004*"2021" + 0.003*"6" + 0.003*"teams" + 0.003*"practice" + 0.003*"17"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -499,7 +499,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"2021" + 0.006*"needs" + 0.006*"practice" + 0.006*"impact" + 0.005*"protection" + 0.005*"quality" + 0.005*"team" + 0.004*"need" + 0.004*"progress"', '0.010*"’" + 0.007*"needs" + 0.007*"protection" + 0.006*"2021" + 0.006*"team" + 0.005*"Bury" + 0.005*"delay" + 0.005*"practice" + 0.005*"October" + 0.005*"new"', '0.011*"’" + 0.006*"protection" + 0.006*"2021" + 0.006*"team" + 0.006*"need" + 0.005*"needs" + 0.005*"risk" + 0.005*"quality" + 0.005*"practice" + 0.004*"Bury"']</t>
+    <t>['0.012*"’" + 0.007*"practice" + 0.007*"protection" + 0.006*"2021" + 0.006*"need" + 0.006*"needs" + 0.006*"impact" + 0.005*"team" + 0.005*"quality" + 0.005*"new"', '0.011*"’" + 0.007*"needs" + 0.007*"team" + 0.006*"protection" + 0.006*"Bury" + 0.006*"2021" + 0.005*"quality" + 0.005*"impact" + 0.005*"risk" + 0.004*"October"', '0.010*"’" + 0.007*"2021" + 0.006*"protection" + 0.006*"practice" + 0.005*"needs" + 0.005*"risk" + 0.005*"delay" + 0.004*"5" + 0.004*"team" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -529,7 +529,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"well" + 0.006*"protection" + 0.006*"practice" + 0.005*"Calderdale" + 0.004*"education" + 0.004*"good" + 0.004*"effective" + 0.004*"carers" + 0.004*"‘"', '0.012*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"good" + 0.004*"Calderdale" + 0.004*"leaders" + 0.004*"education" + 0.004*"effective" + 0.004*"inform" + 0.003*"‘"', '0.020*"’" + 0.008*"well" + 0.006*"good" + 0.006*"Calderdale" + 0.005*"practice" + 0.005*"effective" + 0.005*"‘" + 0.004*"need" + 0.004*"carers" + 0.004*"risk"']</t>
+    <t>['0.013*"’" + 0.007*"well" + 0.005*"protection" + 0.005*"good" + 0.005*"practice" + 0.004*"Calderdale" + 0.004*"‘" + 0.004*"inform" + 0.004*"risk" + 0.003*"needs"', '0.014*"’" + 0.007*"well" + 0.005*"Calderdale" + 0.005*"good" + 0.004*"practice" + 0.004*"effective" + 0.004*"need" + 0.004*"‘" + 0.004*"education" + 0.004*"leaders"', '0.016*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Calderdale" + 0.006*"good" + 0.005*"protection" + 0.005*"effective" + 0.005*"carers" + 0.004*"education" + 0.004*"‘"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -565,7 +565,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"need" + 0.008*"good" + 0.007*"well" + 0.007*"needs" + 0.007*"teams" + 0.007*"impact" + 0.007*"plans" + 0.007*"quality" + 0.007*"However"', '0.014*"’" + 0.012*"well" + 0.010*"good" + 0.009*"needs" + 0.007*"teams" + 0.007*"need" + 0.007*"impact" + 0.006*"effective" + 0.006*"plans" + 0.005*"quality"', '0.010*"’" + 0.008*"well" + 0.007*"good" + 0.006*"plans" + 0.006*"impact" + 0.006*"needs" + 0.005*"teams" + 0.005*"However" + 0.005*"need" + 0.005*"progress"']</t>
+    <t>['0.009*"’" + 0.007*"well" + 0.007*"good" + 0.007*"plans" + 0.006*"teams" + 0.006*"need" + 0.005*"However" + 0.005*"impact" + 0.005*"progress" + 0.005*"needs"', '0.013*"’" + 0.009*"good" + 0.009*"needs" + 0.009*"well" + 0.008*"need" + 0.007*"plans" + 0.007*"teams" + 0.006*"impact" + 0.006*"quality" + 0.005*"practice"', '0.018*"’" + 0.011*"well" + 0.009*"good" + 0.009*"impact" + 0.008*"need" + 0.008*"needs" + 0.007*"quality" + 0.007*"teams" + 0.006*"effective" + 0.006*"However"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -595,7 +595,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"carers" + 0.006*"need" + 0.006*"good" + 0.005*"Bedfordshire" + 0.005*"Leaders" + 0.005*"effective"', '0.013*"’" + 0.010*"well" + 0.006*"needs" + 0.006*"carers" + 0.006*"good" + 0.005*"plans" + 0.005*"Bedfordshire" + 0.005*"need" + 0.005*"progress" + 0.005*"Central"', '0.016*"’" + 0.009*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"good" + 0.006*"progress" + 0.006*"carers" + 0.005*"Central" + 0.005*"supported" + 0.005*"plans"']</t>
+    <t>['0.015*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"plans" + 0.006*"good" + 0.005*"carers" + 0.004*"Bedfordshire" + 0.004*"education" + 0.004*"information" + 0.004*"effective"', '0.017*"’" + 0.009*"well" + 0.007*"carers" + 0.007*"need" + 0.007*"needs" + 0.006*"good" + 0.006*"progress" + 0.005*"plans" + 0.005*"supported" + 0.005*"Bedfordshire"', '0.016*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"need" + 0.006*"progress" + 0.005*"good" + 0.005*"Central" + 0.005*"plans" + 0.005*"carers" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -631,7 +631,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"always" + 0.006*"effective" + 0.006*"need" + 0.006*"ensure" + 0.005*"supported" + 0.005*"plans"', '0.014*"’" + 0.008*"well" + 0.008*"good" + 0.008*"plans" + 0.007*"needs" + 0.006*"practice" + 0.006*"need" + 0.006*"supported" + 0.005*"ensure" + 0.005*"However"', '0.014*"’" + 0.008*"good" + 0.008*"needs" + 0.008*"well" + 0.006*"plans" + 0.006*"However" + 0.005*"quality" + 0.005*"carers" + 0.005*"practice" + 0.005*"always"']</t>
+    <t>['0.010*"’" + 0.006*"needs" + 0.006*"good" + 0.006*"practice" + 0.006*"well" + 0.005*"plans" + 0.005*"need" + 0.004*"progress" + 0.004*"ensure" + 0.004*"carers"', '0.013*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"need" + 0.007*"good" + 0.006*"practice" + 0.006*"supported" + 0.006*"plans" + 0.006*"ensure" + 0.005*"risk"', '0.015*"’" + 0.009*"well" + 0.008*"good" + 0.008*"plans" + 0.007*"needs" + 0.006*"always" + 0.006*"practice" + 0.006*"However" + 0.006*"supported" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -667,7 +667,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.007*"needs" + 0.004*"practice" + 0.004*"plans" + 0.004*"effective" + 0.004*"order" + 0.004*"information" + 0.004*"use" + 0.004*"timely"', '0.019*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"practice" + 0.004*"effective" + 0.004*"impact" + 0.004*"order" + 0.004*"leaders" + 0.004*"timely" + 0.004*"progress"', '0.025*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"always" + 0.005*"practice" + 0.005*"effectively" + 0.004*"impact" + 0.004*"early" + 0.004*"learning" + 0.004*"receive"']</t>
+    <t>['0.019*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"learning" + 0.004*"practice" + 0.004*"impact" + 0.004*"good" + 0.004*"order" + 0.004*"receive" + 0.004*"effective"', '0.013*"’" + 0.009*"well" + 0.005*"practice" + 0.005*"needs" + 0.005*"timely" + 0.004*"always" + 0.004*"plans" + 0.004*"However" + 0.004*"small" + 0.004*"impact"', '0.028*"’" + 0.008*"needs" + 0.007*"well" + 0.005*"practice" + 0.005*"effectively" + 0.005*"order" + 0.004*"effective" + 0.004*"information" + 0.004*"plans" + 0.004*"always"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -703,7 +703,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"plans" + 0.005*"needs" + 0.005*"need" + 0.005*"changes" + 0.005*"2" + 0.004*"impact" + 0.004*"many" + 0.004*"quality" + 0.004*"Borough"', '0.028*"’" + 0.007*"plans" + 0.006*"Bradford" + 0.005*"needs" + 0.005*"◼" + 0.005*"2" + 0.005*"November" + 0.005*"need" + 0.005*"practice" + 0.005*"risk"', '0.013*"’" + 0.005*"plans" + 0.005*"2022" + 0.004*"impact" + 0.004*"risk" + 0.004*"quality" + 0.004*"Bradford" + 0.004*"senior" + 0.004*"21" + 0.004*"worker"']</t>
+    <t>['0.020*"’" + 0.007*"plans" + 0.005*"Bradford" + 0.005*"2022" + 0.004*"2" + 0.004*"◼" + 0.004*"practice" + 0.004*"lack" + 0.004*"However" + 0.004*"quality"', '0.016*"’" + 0.006*"plans" + 0.005*"21" + 0.004*"changes" + 0.004*"risk" + 0.004*"2022" + 0.004*"need" + 0.004*"December" + 0.004*"November" + 0.004*"needs"', '0.025*"’" + 0.006*"plans" + 0.006*"needs" + 0.005*"Bradford" + 0.005*"2" + 0.005*"impact" + 0.005*"risk" + 0.005*"quality" + 0.005*"◼" + 0.005*"Council"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -736,7 +736,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.011*"needs" + 0.011*"well" + 0.008*"ensure" + 0.006*"effective" + 0.006*"good" + 0.006*"progress" + 0.005*"clear" + 0.005*"within" + 0.005*"plans"', '0.009*"needs" + 0.009*"’" + 0.007*"ensure" + 0.006*"well" + 0.006*"clear" + 0.005*"supported" + 0.005*"progress" + 0.005*"effective" + 0.004*"practice" + 0.004*"within"', '0.013*"needs" + 0.013*"’" + 0.011*"well" + 0.009*"ensure" + 0.008*"effective" + 0.007*"clear" + 0.006*"plans" + 0.006*"progress" + 0.006*"good" + 0.005*"practice"']</t>
+    <t>['0.012*"’" + 0.011*"well" + 0.010*"needs" + 0.008*"ensure" + 0.006*"effective" + 0.006*"progress" + 0.006*"clear" + 0.005*"individual" + 0.005*"practice" + 0.005*"supported"', '0.013*"’" + 0.012*"needs" + 0.010*"well" + 0.009*"ensure" + 0.007*"effective" + 0.006*"clear" + 0.006*"good" + 0.005*"progress" + 0.005*"plans" + 0.005*"supported"', '0.012*"needs" + 0.010*"’" + 0.008*"ensure" + 0.008*"well" + 0.007*"plans" + 0.006*"effective" + 0.006*"clear" + 0.006*"progress" + 0.006*"practice" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -772,7 +772,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"well" + 0.007*"good" + 0.007*"leaders" + 0.006*"Wakefield" + 0.006*"quality" + 0.006*"November" + 0.005*"effective" + 0.005*"plans" + 0.005*"practice"', '0.018*"’" + 0.008*"effective" + 0.008*"Wakefield" + 0.007*"leaders" + 0.007*"quality" + 0.007*"well" + 0.007*"plans" + 0.006*"November" + 0.006*"receive" + 0.006*"progress"', '0.017*"’" + 0.009*"quality" + 0.009*"November" + 0.008*"well" + 0.008*"Wakefield" + 0.007*"leaders" + 0.007*"good" + 0.006*"needs" + 0.006*"practice" + 0.006*"plans"']</t>
+    <t>['0.019*"’" + 0.010*"well" + 0.008*"Wakefield" + 0.008*"quality" + 0.007*"leaders" + 0.007*"November" + 0.006*"plans" + 0.006*"practice" + 0.006*"progress" + 0.006*"effective"', '0.017*"’" + 0.009*"good" + 0.009*"Wakefield" + 0.008*"effective" + 0.008*"quality" + 0.008*"leaders" + 0.007*"November" + 0.006*"receive" + 0.005*"plans" + 0.005*"timely"', '0.013*"’" + 0.007*"well" + 0.007*"November" + 0.006*"leaders" + 0.005*"Wakefield" + 0.005*"effective" + 0.005*"good" + 0.005*"plans" + 0.005*"quality" + 0.005*"needs"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -802,7 +802,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"needs" + 0.007*"March" + 0.007*"quality" + 0.007*"effective" + 0.006*"ensure" + 0.006*"York" + 0.005*"However" + 0.005*"well" + 0.005*"experiences"', '0.012*"’" + 0.007*"March" + 0.006*"quality" + 0.006*"needs" + 0.005*"effective" + 0.005*"practice" + 0.005*"York" + 0.005*"plans" + 0.005*"However" + 0.005*"good"', '0.011*"’" + 0.007*"quality" + 0.007*"needs" + 0.006*"March" + 0.005*"However" + 0.005*"supported" + 0.004*"effective" + 0.004*"18" + 0.004*"good" + 0.004*"well"']</t>
+    <t>['0.011*"’" + 0.008*"needs" + 0.006*"March" + 0.005*"quality" + 0.005*"ensure" + 0.005*"effective" + 0.005*"practice" + 0.004*"supported" + 0.004*"18" + 0.004*"well"', '0.015*"’" + 0.007*"quality" + 0.007*"March" + 0.006*"needs" + 0.006*"plans" + 0.005*"well" + 0.005*"York" + 0.005*"ensure" + 0.005*"practice" + 0.005*"7"', '0.017*"’" + 0.008*"needs" + 0.008*"effective" + 0.007*"March" + 0.007*"quality" + 0.007*"However" + 0.006*"York" + 0.006*"need" + 0.005*"good" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -838,7 +838,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.015*"well" + 0.015*"’" + 0.009*"leaders" + 0.009*"quality" + 0.009*"effective" + 0.006*"timely" + 0.006*"arrangements" + 0.006*"good" + 0.005*"plans" + 0.005*"highly"', '0.013*"well" + 0.011*"’" + 0.007*"effective" + 0.007*"quality" + 0.007*"leaders" + 0.006*"plans" + 0.005*"Senior" + 0.005*"good" + 0.005*"arrangements" + 0.004*"timely"', '0.015*"well" + 0.011*"quality" + 0.010*"’" + 0.009*"effective" + 0.008*"leaders" + 0.006*"good" + 0.006*"plans" + 0.006*"timely" + 0.006*"arrangements" + 0.005*"accommodation"']</t>
+    <t>['0.014*"well" + 0.011*"quality" + 0.011*"’" + 0.009*"effective" + 0.007*"leaders" + 0.006*"plans" + 0.006*"good" + 0.005*"arrangements" + 0.005*"timely" + 0.004*"ensure"', '0.014*"well" + 0.010*"’" + 0.010*"effective" + 0.009*"leaders" + 0.007*"quality" + 0.006*"good" + 0.005*"plans" + 0.005*"arrangements" + 0.005*"highly" + 0.005*"Senior"', '0.016*"well" + 0.014*"’" + 0.010*"quality" + 0.009*"leaders" + 0.007*"effective" + 0.007*"timely" + 0.006*"plans" + 0.006*"arrangements" + 0.005*"good" + 0.005*"Senior"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -868,7 +868,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.014*"Isles" + 0.011*"Scilly" + 0.009*"practice" + 0.008*"information" + 0.007*"protection" + 0.007*"need" + 0.006*"place" + 0.006*"needs" + 0.005*"quality"', '0.020*"’" + 0.010*"need" + 0.010*"Scilly" + 0.009*"practice" + 0.009*"Isles" + 0.009*"information" + 0.007*"needs" + 0.006*"quality" + 0.006*"risks" + 0.006*"protection"', '0.021*"’" + 0.014*"Scilly" + 0.012*"Isles" + 0.009*"information" + 0.007*"needs" + 0.007*"need" + 0.007*"practice" + 0.007*"protection" + 0.006*"place" + 0.006*"quality"']</t>
+    <t>['0.024*"’" + 0.013*"Isles" + 0.012*"Scilly" + 0.011*"information" + 0.010*"practice" + 0.009*"need" + 0.009*"needs" + 0.008*"protection" + 0.007*"13" + 0.006*"place"', '0.013*"’" + 0.010*"Isles" + 0.010*"Scilly" + 0.007*"practice" + 0.007*"quality" + 0.006*"need" + 0.006*"information" + 0.006*"risks" + 0.005*"place" + 0.005*"protection"', '0.021*"’" + 0.013*"Scilly" + 0.011*"Isles" + 0.008*"information" + 0.007*"need" + 0.006*"quality" + 0.006*"needs" + 0.006*"practice" + 0.006*"ensure" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -904,7 +904,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Coventry" + 0.006*"supported" + 0.005*"strong" + 0.005*"plans" + 0.005*"need" + 0.005*"20" + 0.005*"PAs"', '0.023*"’" + 0.009*"Coventry" + 0.009*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"supported" + 0.006*"family" + 0.005*"need" + 0.005*"1" + 0.005*"strong"', '0.017*"’" + 0.009*"Coventry" + 0.009*"well" + 0.008*"supported" + 0.006*"family" + 0.006*"needs" + 0.006*"strong" + 0.005*"plans" + 0.005*"need" + 0.004*"ensure"']</t>
+    <t>['0.012*"’" + 0.007*"Coventry" + 0.006*"needs" + 0.006*"well" + 0.005*"supported" + 0.004*"family" + 0.004*"strong" + 0.004*"plans" + 0.004*"need" + 0.004*"July"', '0.020*"’" + 0.008*"needs" + 0.007*"supported" + 0.007*"well" + 0.007*"plans" + 0.006*"family" + 0.006*"Coventry" + 0.006*"strong" + 0.005*"need" + 0.005*"20"', '0.022*"’" + 0.010*"Coventry" + 0.010*"well" + 0.007*"needs" + 0.007*"supported" + 0.006*"plans" + 0.006*"family" + 0.006*"strong" + 0.005*"need" + 0.005*"range"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -940,7 +940,7 @@
     <t>0.1983</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.008*"well" + 0.008*"October" + 0.007*"practice" + 0.006*"leaders" + 0.006*"needs" + 0.005*"Darlington" + 0.005*"supported" + 0.005*"effective" + 0.005*"quality"', '0.015*"’" + 0.008*"needs" + 0.007*"leaders" + 0.007*"Darlington" + 0.006*"well" + 0.005*"practice" + 0.005*"October" + 0.005*"effective" + 0.005*"family" + 0.004*"education"', '0.018*"’" + 0.010*"well" + 0.006*"October" + 0.006*"leaders" + 0.006*"needs" + 0.006*"practice" + 0.005*"Darlington" + 0.005*"quality" + 0.005*"appropriate" + 0.004*"21"']</t>
+    <t>['0.018*"’" + 0.008*"well" + 0.007*"leaders" + 0.007*"needs" + 0.006*"October" + 0.006*"Darlington" + 0.006*"practice" + 0.004*"quality" + 0.004*"plans" + 0.004*"understand"', '0.022*"’" + 0.008*"October" + 0.007*"well" + 0.007*"needs" + 0.006*"leaders" + 0.005*"practice" + 0.005*"quality" + 0.005*"education" + 0.005*"effective" + 0.005*"Darlington"', '0.015*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Darlington" + 0.006*"leaders" + 0.006*"effective" + 0.006*"needs" + 0.005*"supported" + 0.005*"need" + 0.005*"October"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -979,7 +979,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.006*"need" + 0.006*"quality" + 0.005*"receive" + 0.005*"leaders" + 0.005*"plans" + 0.005*"appropriate" + 0.005*"Derby" + 0.004*"progress"', '0.028*"’" + 0.009*"Derby" + 0.009*"needs" + 0.006*"receive" + 0.006*"well" + 0.006*"good" + 0.006*"leaders" + 0.005*"progress" + 0.005*"25" + 0.005*"plans"', '0.017*"’" + 0.010*"needs" + 0.008*"quality" + 0.007*"Derby" + 0.007*"receive" + 0.006*"progress" + 0.006*"appropriate" + 0.006*"plans" + 0.006*"need" + 0.005*"oversight"']</t>
+    <t>['0.019*"’" + 0.007*"needs" + 0.006*"receive" + 0.006*"quality" + 0.005*"plans" + 0.005*"good" + 0.005*"oversight" + 0.004*"need" + 0.004*"Derby" + 0.004*"progress"', '0.012*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"Derby" + 0.005*"plans" + 0.005*"receive" + 0.005*"progress" + 0.005*"leaders" + 0.005*"good" + 0.004*"25"', '0.027*"’" + 0.012*"needs" + 0.009*"Derby" + 0.008*"quality" + 0.007*"receive" + 0.007*"progress" + 0.006*"leaders" + 0.006*"appropriate" + 0.006*"plans" + 0.006*"need"']</t>
   </si>
   <si>
     <t>830</t>
@@ -1006,7 +1006,7 @@
     <t>0.1913</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.005*"health" + 0.005*"Derbyshire" + 0.004*"needs" + 0.004*"well" + 0.004*"good" + 0.004*"plans" + 0.004*"30" + 0.004*"positive" + 0.004*"November"', '0.012*"’" + 0.010*"well" + 0.007*"Derbyshire" + 0.005*"positive" + 0.005*"effective" + 0.005*"needs" + 0.005*"plans" + 0.005*"need" + 0.005*"leaders" + 0.004*"education"', '0.018*"’" + 0.008*"well" + 0.007*"Derbyshire" + 0.006*"good" + 0.005*"plans" + 0.005*"10" + 0.005*"health" + 0.005*"education" + 0.005*"positive" + 0.004*"leaders"']</t>
+    <t>['0.010*"’" + 0.007*"well" + 0.005*"Derbyshire" + 0.004*"needs" + 0.004*"practice" + 0.004*"health" + 0.004*"plans" + 0.004*"positive" + 0.004*"need" + 0.004*"leaders"', '0.017*"’" + 0.008*"well" + 0.007*"Derbyshire" + 0.006*"plans" + 0.005*"good" + 0.005*"positive" + 0.005*"effective" + 0.005*"needs" + 0.005*"education" + 0.005*"number"', '0.012*"’" + 0.008*"well" + 0.007*"Derbyshire" + 0.005*"health" + 0.004*"10" + 0.004*"leaders" + 0.004*"plans" + 0.004*"needs" + 0.004*"need" + 0.004*"positive"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1036,7 +1036,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"well" + 0.005*"risk" + 0.005*"leaders" + 0.005*"progress" + 0.004*"health" + 0.004*"needs" + 0.004*"Devon" + 0.004*"plans" + 0.004*"practice"', '0.008*"’" + 0.005*"leaders" + 0.005*"well" + 0.005*"health" + 0.004*"risk" + 0.004*"progress" + 0.004*"areas" + 0.004*"Devon" + 0.004*"risks" + 0.004*"case"', '0.009*"’" + 0.006*"well" + 0.005*"health" + 0.004*"protection" + 0.004*"risk" + 0.004*"progress" + 0.004*"living" + 0.004*"leaders" + 0.004*"case" + 0.004*"need"']</t>
+    <t>['0.011*"’" + 0.008*"well" + 0.005*"risk" + 0.005*"leaders" + 0.004*"case" + 0.004*"progress" + 0.004*"protection" + 0.004*"health" + 0.004*"areas" + 0.004*"quality"', '0.008*"’" + 0.005*"health" + 0.004*"progress" + 0.004*"living" + 0.004*"leaders" + 0.004*"risk" + 0.004*"well" + 0.003*"case" + 0.003*"risks" + 0.003*"evidence"', '0.008*"’" + 0.005*"well" + 0.005*"health" + 0.005*"risk" + 0.005*"leaders" + 0.005*"Devon" + 0.004*"progress" + 0.004*"time" + 0.004*"plans" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1072,7 +1072,7 @@
     <t>0.1841</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.006*"records" + 0.005*"leaders" + 0.005*"quality" + 0.005*"progress" + 0.004*"Trust" + 0.004*"many" + 0.004*"impact"', '0.025*"’" + 0.005*"well" + 0.005*"Doncaster" + 0.005*"plans" + 0.005*"experiences" + 0.005*"information" + 0.005*"records" + 0.004*"progress" + 0.004*"25" + 0.004*"many"', '0.015*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.006*"many" + 0.006*"leaders" + 0.005*"progress" + 0.005*"14" + 0.005*"receive" + 0.005*"plans" + 0.005*"protection"']</t>
+    <t>['0.017*"’" + 0.007*"well" + 0.006*"records" + 0.006*"Doncaster" + 0.005*"leaders" + 0.005*"quality" + 0.005*"made" + 0.005*"14" + 0.004*"information" + 0.004*"plans"', '0.016*"’" + 0.006*"Doncaster" + 0.005*"well" + 0.005*"leaders" + 0.005*"records" + 0.005*"effective" + 0.005*"many" + 0.004*"plans" + 0.004*"progress" + 0.004*"25"', '0.025*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.006*"progress" + 0.005*"many" + 0.005*"quality" + 0.005*"Trust" + 0.005*"leaders" + 0.005*"oversight" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>838</t>
@@ -1099,7 +1099,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.006*"good" + 0.006*"Dorset" + 0.005*"well" + 0.004*"8" + 0.004*"needs" + 0.004*"quality" + 0.003*"including" + 0.003*"leaders" + 0.003*"practice"', '0.017*"’" + 0.009*"Dorset" + 0.006*"well" + 0.006*"good" + 0.005*"needs" + 0.005*"27" + 0.005*"October" + 0.004*"Senior" + 0.004*"need" + 0.004*"including"', '0.013*"’" + 0.008*"Dorset" + 0.006*"good" + 0.005*"arrangements" + 0.005*"well" + 0.004*"change" + 0.004*"2021" + 0.004*"needs" + 0.004*"impact" + 0.004*"leaders"']</t>
+    <t>['0.011*"’" + 0.009*"Dorset" + 0.007*"good" + 0.006*"well" + 0.004*"27" + 0.004*"2021" + 0.004*"October" + 0.004*"arrangements" + 0.004*"8" + 0.004*"live"', '0.013*"’" + 0.007*"Dorset" + 0.005*"good" + 0.005*"needs" + 0.005*"well" + 0.004*"need" + 0.004*"arrangements" + 0.004*"leaders" + 0.004*"Senior" + 0.004*"protection"', '0.017*"’" + 0.008*"Dorset" + 0.006*"good" + 0.006*"well" + 0.005*"arrangements" + 0.005*"quality" + 0.005*"impact" + 0.005*"8" + 0.004*"supported" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1126,7 +1126,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.014*"needs" + 0.009*"Dudley" + 0.006*"plans" + 0.006*"quality" + 0.005*"always" + 0.005*"ensure" + 0.004*"well" + 0.004*"progress" + 0.004*"October"', '0.013*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"arrangements" + 0.005*"Dudley" + 0.005*"always" + 0.004*"11" + 0.004*"plans" + 0.004*"quality" + 0.004*"oversight"', '0.011*"needs" + 0.010*"’" + 0.008*"Dudley" + 0.005*"arrangements" + 0.005*"ensure" + 0.005*"plans" + 0.005*"oversight" + 0.005*"31" + 0.005*"well" + 0.004*"However"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.007*"well" + 0.006*"Dudley" + 0.006*"plans" + 0.005*"arrangements" + 0.005*"oversight" + 0.005*"management" + 0.004*"always" + 0.004*"quality"', '0.015*"’" + 0.010*"needs" + 0.010*"Dudley" + 0.005*"11" + 0.005*"arrangements" + 0.005*"plans" + 0.004*"always" + 0.004*"However" + 0.004*"ensure" + 0.004*"well"', '0.016*"’" + 0.011*"needs" + 0.008*"Dudley" + 0.006*"always" + 0.006*"arrangements" + 0.005*"well" + 0.005*"quality" + 0.005*"ensure" + 0.005*"31" + 0.005*"oversight"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1162,7 +1162,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"needs" + 0.006*"May" + 0.005*"well" + 0.005*"Durham" + 0.005*"plans" + 0.004*"practice" + 0.004*"10" + 0.004*"ensure" + 0.004*"identified"', '0.016*"’" + 0.011*"needs" + 0.008*"May" + 0.008*"well" + 0.008*"Durham" + 0.007*"plans" + 0.007*"ensure" + 0.006*"practice" + 0.005*"leaders" + 0.004*"supported"', '0.016*"’" + 0.011*"needs" + 0.008*"Durham" + 0.007*"well" + 0.006*"plans" + 0.006*"May" + 0.006*"ensure" + 0.005*"family" + 0.005*"practice" + 0.005*"number"']</t>
+    <t>['0.015*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Durham" + 0.006*"May" + 0.005*"plans" + 0.005*"ensure" + 0.004*"appropriate" + 0.004*"practice" + 0.004*"number"', '0.012*"needs" + 0.010*"’" + 0.007*"Durham" + 0.007*"May" + 0.006*"plans" + 0.006*"well" + 0.005*"ensure" + 0.005*"practice" + 0.005*"risks" + 0.004*"team"', '0.017*"’" + 0.010*"needs" + 0.008*"May" + 0.007*"well" + 0.007*"Durham" + 0.007*"plans" + 0.006*"ensure" + 0.006*"practice" + 0.005*"family" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1198,7 +1198,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"East" + 0.006*"Riding" + 0.005*"progress" + 0.004*"partners" + 0.004*"good" + 0.004*"10"', '0.014*"’" + 0.011*"needs" + 0.008*"plans" + 0.008*"well" + 0.008*"progress" + 0.005*"Riding" + 0.004*"East" + 0.004*"good" + 0.004*"education" + 0.004*"30"', '0.017*"’" + 0.010*"plans" + 0.010*"needs" + 0.009*"well" + 0.007*"East" + 0.007*"progress" + 0.007*"Riding" + 0.005*"10" + 0.005*"information" + 0.005*"partners"']</t>
+    <t>['0.016*"’" + 0.009*"plans" + 0.009*"needs" + 0.008*"well" + 0.007*"progress" + 0.006*"East" + 0.006*"Riding" + 0.005*"10" + 0.005*"30" + 0.005*"good"', '0.013*"’" + 0.009*"needs" + 0.008*"East" + 0.007*"well" + 0.007*"plans" + 0.006*"progress" + 0.006*"Riding" + 0.005*"partners" + 0.004*"January" + 0.004*"good"', '0.019*"’" + 0.010*"needs" + 0.009*"plans" + 0.009*"well" + 0.007*"Riding" + 0.007*"progress" + 0.005*"2023" + 0.005*"education" + 0.005*"East" + 0.004*"10"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1228,7 +1228,7 @@
     <t>0.1738</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"needs" + 0.007*"Sussex" + 0.007*"East" + 0.007*"impact" + 0.005*"progress" + 0.005*"including" + 0.005*"experiences"', '0.014*"’" + 0.008*"well" + 0.008*"plans" + 0.006*"East" + 0.006*"progress" + 0.006*"needs" + 0.005*"Sussex" + 0.005*"provide" + 0.005*"including" + 0.005*"effective"', '0.020*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"progress" + 0.007*"plans" + 0.006*"including" + 0.006*"East" + 0.005*"Sussex" + 0.005*"11" + 0.005*"experiences"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"needs" + 0.007*"East" + 0.006*"including" + 0.006*"11" + 0.006*"effective" + 0.006*"Sussex" + 0.005*"impact"', '0.018*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"progress" + 0.007*"needs" + 0.006*"Sussex" + 0.006*"East" + 0.005*"including" + 0.005*"experiences" + 0.005*"impact"', '0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"progress" + 0.006*"East" + 0.006*"Sussex" + 0.005*"provide" + 0.005*"impact" + 0.005*"including"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1264,7 +1264,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"well" + 0.007*"progress" + 0.006*"Essex" + 0.006*"needs" + 0.006*"family" + 0.005*"understand" + 0.005*"plans" + 0.005*"parents" + 0.005*"‘"', '0.018*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"well" + 0.006*"leaders" + 0.006*"progress" + 0.005*"family" + 0.005*"Essex" + 0.005*"understand" + 0.005*"advisers"', '0.012*"’" + 0.006*"progress" + 0.005*"risk" + 0.005*"plans" + 0.005*"well" + 0.005*"helped" + 0.004*"quality" + 0.004*"supported" + 0.004*"need" + 0.004*"family"']</t>
+    <t>['0.012*"’" + 0.006*"progress" + 0.006*"well" + 0.005*"practice" + 0.005*"risk" + 0.005*"‘" + 0.005*"plans" + 0.005*"experiences" + 0.004*"understand" + 0.004*"needs"', '0.017*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"progress" + 0.005*"Essex" + 0.005*"family" + 0.005*"needs" + 0.005*"understand" + 0.005*"new" + 0.004*"health"', '0.021*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"progress" + 0.006*"plans" + 0.005*"family" + 0.005*"parents" + 0.005*"need" + 0.005*"helped" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1300,7 +1300,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"good" + 0.007*"practice" + 0.007*"quality" + 0.007*"effective" + 0.006*"well" + 0.005*"needs" + 0.005*"home" + 0.005*"plans" + 0.005*"need"', '0.014*"’" + 0.010*"effective" + 0.007*"good" + 0.006*"needs" + 0.006*"quality" + 0.006*"timely" + 0.006*"practice" + 0.005*"well" + 0.005*"improve" + 0.005*"need"', '0.014*"’" + 0.009*"effective" + 0.006*"practice" + 0.006*"needs" + 0.006*"good" + 0.005*"quality" + 0.005*"well" + 0.005*"early" + 0.005*"timely" + 0.004*"plans"']</t>
+    <t>['0.013*"’" + 0.009*"effective" + 0.006*"good" + 0.006*"timely" + 0.006*"quality" + 0.006*"needs" + 0.006*"well" + 0.006*"practice" + 0.004*"home" + 0.004*"plans"', '0.014*"’" + 0.010*"effective" + 0.007*"good" + 0.006*"needs" + 0.006*"quality" + 0.006*"timely" + 0.006*"practice" + 0.006*"improve" + 0.005*"well" + 0.005*"need"', '0.013*"’" + 0.008*"practice" + 0.006*"quality" + 0.006*"good" + 0.006*"well" + 0.006*"effective" + 0.005*"needs" + 0.005*"plans" + 0.005*"need" + 0.005*"early"']</t>
   </si>
   <si>
     <t>916</t>
@@ -1330,7 +1330,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"needs" + 0.008*"plans" + 0.007*"2022" + 0.006*"February" + 0.006*"well" + 0.006*"progress" + 0.005*"experienced" + 0.005*"appropriate" + 0.005*"leaders"', '0.010*"’" + 0.007*"needs" + 0.007*"2022" + 0.006*"February" + 0.005*"Gloucestershire" + 0.005*"plans" + 0.004*"well" + 0.004*"experienced" + 0.004*"progress" + 0.004*"18"', '0.019*"’" + 0.008*"February" + 0.007*"needs" + 0.007*"2022" + 0.006*"plans" + 0.005*"well" + 0.005*"Gloucestershire" + 0.005*"7" + 0.005*"good" + 0.005*"family"']</t>
+    <t>['0.017*"’" + 0.008*"needs" + 0.006*"plans" + 0.005*"2022" + 0.005*"February" + 0.005*"progress" + 0.005*"protection" + 0.005*"leaders" + 0.005*"well" + 0.005*"timely"', '0.020*"’" + 0.008*"plans" + 0.008*"needs" + 0.008*"February" + 0.008*"2022" + 0.006*"well" + 0.005*"appropriate" + 0.005*"protection" + 0.005*"timely" + 0.005*"progress"', '0.015*"’" + 0.009*"needs" + 0.006*"2022" + 0.006*"February" + 0.005*"Gloucestershire" + 0.005*"well" + 0.005*"need" + 0.005*"18" + 0.005*"family" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1357,7 +1357,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"plans" + 0.007*"need" + 0.007*"needs" + 0.007*"practice" + 0.006*"well" + 0.006*"good" + 0.005*"risk" + 0.005*"always" + 0.004*"planning"', '0.013*"’" + 0.012*"well" + 0.007*"practice" + 0.007*"plans" + 0.007*"effective" + 0.007*"needs" + 0.006*"always" + 0.005*"risk" + 0.005*"good" + 0.005*"need"', '0.012*"’" + 0.011*"well" + 0.009*"needs" + 0.009*"practice" + 0.008*"risk" + 0.008*"planning" + 0.007*"need" + 0.007*"plans" + 0.006*"good" + 0.006*"quality"']</t>
+    <t>['0.011*"well" + 0.010*"’" + 0.008*"practice" + 0.008*"plans" + 0.007*"needs" + 0.006*"good" + 0.006*"risk" + 0.006*"need" + 0.005*"planning" + 0.005*"always"', '0.015*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"practice" + 0.008*"need" + 0.007*"planning" + 0.007*"plans" + 0.007*"good" + 0.007*"effective" + 0.007*"risk"', '0.009*"’" + 0.009*"well" + 0.008*"practice" + 0.007*"needs" + 0.006*"risk" + 0.006*"plans" + 0.006*"effective" + 0.006*"quality" + 0.006*"need" + 0.005*"always"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1384,7 +1384,7 @@
     <t>0.187</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.004*"home" + 0.004*"improve" + 0.004*"leaders" + 0.004*"Hampshire" + 0.004*"carers" + 0.004*"decisions"', '0.013*"’" + 0.006*"needs" + 0.004*"leaders" + 0.004*"strong" + 0.004*"improve" + 0.004*"well" + 0.004*"quality" + 0.004*"plans" + 0.004*"home" + 0.004*"health"', '0.022*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"well" + 0.006*"quality" + 0.005*"strong" + 0.004*"leaders" + 0.004*"highly" + 0.004*"home" + 0.004*"provide"']</t>
+    <t>['0.017*"’" + 0.008*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"leaders" + 0.005*"quality" + 0.004*"carers" + 0.004*"highly" + 0.004*"need" + 0.004*"strong"', '0.022*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"quality" + 0.005*"strong" + 0.004*"improve" + 0.004*"highly" + 0.004*"leaders" + 0.004*"Hampshire"', '0.016*"’" + 0.007*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"home" + 0.004*"health" + 0.004*"leaders" + 0.004*"strong" + 0.004*"quality" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1417,7 +1417,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"well" + 0.007*"quality" + 0.005*"good" + 0.005*"strong" + 0.004*"timely" + 0.004*"experiences" + 0.004*"progress" + 0.004*"practice" + 0.004*"effective"', '0.021*"’" + 0.010*"well" + 0.006*"quality" + 0.006*"strong" + 0.005*"plans" + 0.005*"good" + 0.005*"needs" + 0.005*"progress" + 0.005*"impact" + 0.005*"education"', '0.014*"’" + 0.007*"well" + 0.006*"quality" + 0.006*"strong" + 0.005*"good" + 0.004*"early" + 0.004*"Senior" + 0.004*"health" + 0.004*"‘" + 0.004*"progress"']</t>
+    <t>['0.018*"’" + 0.008*"well" + 0.007*"quality" + 0.005*"early" + 0.005*"progress" + 0.005*"strong" + 0.005*"good" + 0.004*"practice" + 0.004*"Senior" + 0.004*"need"', '0.015*"’" + 0.010*"well" + 0.007*"quality" + 0.006*"strong" + 0.005*"plans" + 0.005*"good" + 0.005*"timely" + 0.004*"progress" + 0.004*"education" + 0.004*"impact"', '0.013*"’" + 0.009*"well" + 0.005*"quality" + 0.005*"strong" + 0.005*"impact" + 0.005*"good" + 0.004*"education" + 0.004*"plans" + 0.004*"early" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>884</t>
@@ -1444,7 +1444,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"Herefordshire" + 0.006*"needs" + 0.006*"practice" + 0.005*"lack" + 0.005*"plans" + 0.004*"many" + 0.004*"risk" + 0.004*"progress" + 0.004*"29"', '0.016*"’" + 0.005*"many" + 0.005*"practice" + 0.005*"lack" + 0.004*"impact" + 0.004*"ensure" + 0.004*"carers" + 0.004*"needs" + 0.004*"2022" + 0.004*"18"', '0.016*"’" + 0.006*"impact" + 0.005*"practice" + 0.005*"lack" + 0.005*"Herefordshire" + 0.005*"carers" + 0.004*"quality" + 0.004*"management" + 0.004*"oversight" + 0.004*"18"']</t>
+    <t>['0.012*"’" + 0.005*"lack" + 0.005*"impact" + 0.005*"needs" + 0.005*"18" + 0.005*"practice" + 0.004*"Herefordshire" + 0.004*"many" + 0.004*"quality" + 0.004*"need"', '0.018*"’" + 0.006*"practice" + 0.005*"lack" + 0.005*"impact" + 0.005*"many" + 0.005*"Herefordshire" + 0.004*"plans" + 0.004*"needs" + 0.004*"management" + 0.004*"carers"', '0.020*"’" + 0.006*"Herefordshire" + 0.006*"practice" + 0.005*"needs" + 0.005*"plans" + 0.004*"lack" + 0.004*"many" + 0.004*"impact" + 0.004*"carers" + 0.004*"across"']</t>
   </si>
   <si>
     <t>919</t>
@@ -1471,7 +1471,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.008*"Hertfordshire" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"receive" + 0.005*"23" + 0.005*"2023" + 0.004*"need" + 0.004*"27"', '0.020*"’" + 0.006*"needs" + 0.006*"well" + 0.006*"Hertfordshire" + 0.005*"receive" + 0.004*"training" + 0.004*"risk" + 0.004*"positive" + 0.004*"working" + 0.004*"27"', '0.023*"’" + 0.006*"well" + 0.005*"positive" + 0.005*"Hertfordshire" + 0.004*"receive" + 0.004*"needs" + 0.004*"Leaders" + 0.003*"23" + 0.003*"leaders" + 0.003*"2023"']</t>
+    <t>['0.016*"’" + 0.005*"well" + 0.005*"Hertfordshire" + 0.005*"receive" + 0.005*"needs" + 0.005*"plans" + 0.004*"need" + 0.004*"27" + 0.004*"education" + 0.004*"‘"', '0.017*"’" + 0.007*"needs" + 0.005*"Hertfordshire" + 0.005*"risk" + 0.004*"receive" + 0.004*"well" + 0.004*"2023" + 0.004*"plans" + 0.004*"27" + 0.004*"23"', '0.030*"’" + 0.008*"well" + 0.008*"Hertfordshire" + 0.006*"needs" + 0.005*"receive" + 0.005*"leaders" + 0.005*"positive" + 0.004*"plans" + 0.004*"January" + 0.004*"Leaders"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1498,7 +1498,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"leaders" + 0.006*"well" + 0.006*"practice" + 0.006*"good" + 0.006*"Isle" + 0.005*"Wight" + 0.005*"3" + 0.005*"Senior" + 0.005*"plans"', '0.017*"’" + 0.011*"leaders" + 0.006*"needs" + 0.006*"well" + 0.005*"improve" + 0.005*"supported" + 0.005*"progress" + 0.005*"November" + 0.005*"Senior" + 0.005*"Wight"', '0.017*"’" + 0.006*"leaders" + 0.006*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"3" + 0.004*"practice" + 0.004*"effective" + 0.004*"Senior"']</t>
+    <t>['0.018*"’" + 0.008*"leaders" + 0.006*"needs" + 0.006*"supported" + 0.006*"well" + 0.006*"3" + 0.005*"plans" + 0.005*"time" + 0.005*"improve" + 0.005*"good"', '0.016*"’" + 0.011*"leaders" + 0.006*"progress" + 0.005*"Isle" + 0.005*"needs" + 0.005*"plans" + 0.005*"supported" + 0.005*"Wight" + 0.005*"well" + 0.005*"information"', '0.019*"’" + 0.006*"leaders" + 0.006*"Senior" + 0.006*"well" + 0.005*"needs" + 0.005*"PAs" + 0.005*"Wight" + 0.005*"practice" + 0.005*"Isle" + 0.005*"3"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1519,7 +1519,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"Kent" + 0.006*"County" + 0.006*"well" + 0.006*"Council" + 0.005*"supported" + 0.005*"needs" + 0.004*"progress" + 0.004*"response" + 0.004*"leaders"', '0.016*"’" + 0.009*"Kent" + 0.007*"needs" + 0.005*"supported" + 0.005*"Council" + 0.005*"well" + 0.005*"leaders" + 0.004*"including" + 0.004*"2022" + 0.004*"progress"', '0.023*"’" + 0.011*"Kent" + 0.009*"needs" + 0.007*"well" + 0.006*"Council" + 0.006*"supported" + 0.005*"progress" + 0.005*"practice" + 0.005*"County" + 0.004*"impact"']</t>
+    <t>['0.011*"’" + 0.009*"Kent" + 0.007*"needs" + 0.005*"Council" + 0.005*"County" + 0.005*"supported" + 0.004*"progress" + 0.004*"practice" + 0.004*"plans" + 0.004*"leaders"', '0.019*"’" + 0.010*"Kent" + 0.007*"needs" + 0.005*"supported" + 0.005*"Council" + 0.005*"County" + 0.005*"well" + 0.005*"provide" + 0.004*"impact" + 0.004*"leaders"', '0.021*"’" + 0.010*"Kent" + 0.008*"well" + 0.008*"needs" + 0.006*"Council" + 0.006*"supported" + 0.005*"progress" + 0.005*"County" + 0.005*"practice" + 0.005*"including"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1546,7 +1546,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"protection" + 0.005*"number" + 0.005*"risks" + 0.005*"planning" + 0.005*"teams" + 0.005*"management" + 0.005*"25"', '0.020*"’" + 0.008*"number" + 0.006*"planning" + 0.006*"protection" + 0.006*"Hull" + 0.006*"practice" + 0.006*"well" + 0.006*"need" + 0.006*"management" + 0.006*"small"', '0.012*"’" + 0.008*"planning" + 0.006*"number" + 0.006*"need" + 0.005*"practice" + 0.005*"Hull" + 0.005*"protection" + 0.005*"oversight" + 0.005*"impact" + 0.005*"well"']</t>
+    <t>['0.016*"’" + 0.007*"planning" + 0.006*"practice" + 0.006*"number" + 0.006*"Hull" + 0.006*"need" + 0.006*"well" + 0.006*"protection" + 0.005*"impact" + 0.005*"risks"', '0.013*"’" + 0.007*"number" + 0.006*"well" + 0.006*"practice" + 0.006*"risks" + 0.006*"protection" + 0.005*"small" + 0.005*"planning" + 0.005*"need" + 0.005*"management"', '0.018*"’" + 0.007*"planning" + 0.007*"number" + 0.006*"protection" + 0.006*"Hull" + 0.006*"management" + 0.006*"well" + 0.005*"need" + 0.005*"practice" + 0.005*"teams"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1576,7 +1576,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"permanence" + 0.007*"quality" + 0.006*"practice" + 0.006*"well" + 0.005*"good" + 0.005*"training" + 0.005*"Senior" + 0.005*"plans" + 0.004*"protection"', '0.013*"’" + 0.007*"good" + 0.007*"practice" + 0.006*"quality" + 0.005*"well" + 0.005*"need" + 0.005*"permanence" + 0.005*"needs" + 0.005*"plans" + 0.005*"protection"', '0.009*"’" + 0.007*"quality" + 0.005*"plans" + 0.005*"needs" + 0.005*"protection" + 0.005*"senior" + 0.005*"good" + 0.005*"practice" + 0.004*"Senior" + 0.004*"training"']</t>
+    <t>['0.011*"’" + 0.007*"quality" + 0.006*"permanence" + 0.006*"well" + 0.006*"practice" + 0.005*"senior" + 0.005*"plans" + 0.005*"good" + 0.005*"need" + 0.005*"protection"', '0.011*"’" + 0.007*"good" + 0.007*"practice" + 0.005*"quality" + 0.005*"training" + 0.005*"Senior" + 0.005*"plans" + 0.005*"needs" + 0.005*"protection" + 0.005*"senior"', '0.013*"’" + 0.007*"quality" + 0.006*"practice" + 0.005*"good" + 0.005*"needs" + 0.005*"well" + 0.005*"training" + 0.005*"permanence" + 0.005*"Senior" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1615,7 +1615,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"progress" + 0.005*"plans" + 0.005*"quality" + 0.004*"Knowsley" + 0.004*"needs" + 0.004*"good" + 0.004*"experiences" + 0.004*"2021" + 0.004*"risk"', '0.015*"’" + 0.010*"progress" + 0.009*"plans" + 0.008*"needs" + 0.008*"quality" + 0.008*"Knowsley" + 0.006*"2021" + 0.005*"need" + 0.005*"experiences" + 0.005*"impact"', '0.013*"’" + 0.007*"needs" + 0.007*"progress" + 0.006*"quality" + 0.006*"2021" + 0.006*"11" + 0.006*"plans" + 0.005*"good" + 0.005*"need" + 0.005*"experiences"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.007*"quality" + 0.006*"progress" + 0.006*"Knowsley" + 0.005*"plans" + 0.005*"good" + 0.005*"experiences" + 0.004*"enough" + 0.004*"22"', '0.012*"’" + 0.007*"progress" + 0.006*"2021" + 0.006*"quality" + 0.005*"needs" + 0.005*"plans" + 0.005*"education" + 0.004*"good" + 0.004*"Knowsley" + 0.004*"experiences"', '0.017*"’" + 0.010*"progress" + 0.009*"plans" + 0.007*"Knowsley" + 0.007*"needs" + 0.007*"quality" + 0.006*"need" + 0.006*"2021" + 0.005*"11" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1645,7 +1645,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"need" + 0.007*"Lancashire" + 0.005*"practice" + 0.005*"progress" + 0.005*"9" + 0.004*"parents" + 0.004*"health"', '0.016*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"need" + 0.005*"Lancashire" + 0.005*"good" + 0.004*"positive" + 0.004*"number" + 0.004*"plans" + 0.004*"health"', '0.018*"’" + 0.007*"supported" + 0.007*"need" + 0.007*"well" + 0.006*"Lancashire" + 0.006*"plans" + 0.006*"positive" + 0.006*"needs" + 0.005*"live" + 0.005*"parents"']</t>
+    <t>['0.016*"’" + 0.010*"well" + 0.009*"need" + 0.007*"needs" + 0.006*"Lancashire" + 0.006*"supported" + 0.006*"information" + 0.005*"plans" + 0.005*"homes" + 0.005*"live"', '0.018*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"need" + 0.005*"practice" + 0.005*"supported" + 0.005*"positive" + 0.005*"Lancashire" + 0.005*"28"', '0.015*"’" + 0.007*"Lancashire" + 0.007*"well" + 0.007*"needs" + 0.006*"need" + 0.006*"progress" + 0.005*"practice" + 0.005*"parents" + 0.005*"positive" + 0.005*"health"']</t>
   </si>
   <si>
     <t>383</t>
@@ -1669,7 +1669,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"Leeds" + 0.007*"well" + 0.007*"needs" + 0.006*"risk" + 0.006*"ensure" + 0.004*"supported" + 0.004*"4" + 0.004*"information" + 0.004*"protection"', '0.011*"’" + 0.007*"Leeds" + 0.006*"needs" + 0.004*"well" + 0.004*"protection" + 0.004*"practice" + 0.004*"4" + 0.004*"risk" + 0.004*"February" + 0.004*"21"', '0.016*"’" + 0.007*"needs" + 0.007*"Leeds" + 0.006*"practice" + 0.005*"risk" + 0.005*"plans" + 0.004*"well" + 0.004*"February" + 0.004*"21" + 0.004*"4"']</t>
+    <t>['0.013*"’" + 0.006*"needs" + 0.005*"Leeds" + 0.005*"2022" + 0.004*"risk" + 0.004*"21" + 0.004*"February" + 0.004*"4" + 0.004*"well" + 0.004*"protection"', '0.018*"’" + 0.007*"Leeds" + 0.006*"needs" + 0.005*"risk" + 0.005*"well" + 0.004*"ensure" + 0.004*"practice" + 0.004*"making" + 0.004*"21" + 0.004*"leaders"', '0.016*"’" + 0.008*"Leeds" + 0.008*"needs" + 0.007*"well" + 0.006*"practice" + 0.005*"risk" + 0.005*"protection" + 0.005*"4" + 0.005*"plans" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1702,7 +1702,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.009*"2021" + 0.008*"well" + 0.007*"needs" + 0.006*"Leicester" + 0.005*"good" + 0.005*"Council" + 0.005*"September" + 0.005*"ensure" + 0.005*"circumstances"', '0.016*"’" + 0.011*"Leicester" + 0.008*"2021" + 0.008*"needs" + 0.008*"well" + 0.007*"good" + 0.007*"ensure" + 0.006*"number" + 0.005*"1" + 0.005*"20"', '0.020*"’" + 0.010*"well" + 0.008*"2021" + 0.006*"good" + 0.005*"Leicester" + 0.005*"20" + 0.005*"number" + 0.005*"needs" + 0.005*"ensure" + 0.005*"1"']</t>
+    <t>['0.015*"’" + 0.008*"2021" + 0.008*"Leicester" + 0.007*"needs" + 0.007*"well" + 0.005*"Council" + 0.005*"number" + 0.005*"ensure" + 0.005*"good" + 0.004*"City"', '0.014*"’" + 0.009*"well" + 0.006*"2021" + 0.006*"needs" + 0.006*"Leicester" + 0.005*"good" + 0.005*"ensure" + 0.005*"20" + 0.005*"number" + 0.004*"1"', '0.026*"’" + 0.010*"well" + 0.009*"2021" + 0.009*"Leicester" + 0.007*"good" + 0.007*"needs" + 0.006*"ensure" + 0.006*"number" + 0.006*"1" + 0.006*"20"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1735,7 +1735,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.010*"good" + 0.007*"well" + 0.006*"quality" + 0.006*"needs" + 0.006*"effective" + 0.005*"practice" + 0.004*"leaders" + 0.004*"plans" + 0.004*"impact"', '0.009*"’" + 0.005*"quality" + 0.005*"well" + 0.005*"impact" + 0.004*"effective" + 0.004*"needs" + 0.004*"practice" + 0.004*"good" + 0.003*"progress" + 0.003*"need"', '0.013*"’" + 0.010*"well" + 0.008*"needs" + 0.008*"good" + 0.008*"effective" + 0.006*"practice" + 0.006*"quality" + 0.006*"education" + 0.006*"need" + 0.005*"impact"']</t>
+    <t>['0.009*"’" + 0.007*"well" + 0.007*"good" + 0.006*"needs" + 0.006*"effective" + 0.006*"practice" + 0.005*"leaders" + 0.005*"impact" + 0.005*"education" + 0.004*"need"', '0.011*"’" + 0.008*"well" + 0.008*"needs" + 0.006*"effective" + 0.005*"good" + 0.005*"practice" + 0.005*"quality" + 0.005*"education" + 0.004*"impact" + 0.004*"oversight"', '0.013*"’" + 0.009*"good" + 0.008*"quality" + 0.007*"well" + 0.006*"effective" + 0.006*"needs" + 0.006*"need" + 0.006*"practice" + 0.005*"risk" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1765,7 +1765,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.008*"needs" + 0.006*"Lincolnshire" + 0.005*"progress" + 0.005*"well" + 0.005*"plans" + 0.004*"family" + 0.004*"24" + 0.004*"number" + 0.004*"April"', '0.017*"’" + 0.006*"Lincolnshire" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.004*"24" + 0.004*"need" + 0.004*"education" + 0.004*"provide" + 0.004*"April"', '0.022*"’" + 0.009*"Lincolnshire" + 0.007*"well" + 0.005*"needs" + 0.005*"progress" + 0.005*"family" + 0.005*"plans" + 0.004*"28" + 0.004*"2023" + 0.004*"offer"']</t>
+    <t>['0.026*"’" + 0.008*"Lincolnshire" + 0.007*"needs" + 0.006*"plans" + 0.005*"well" + 0.005*"family" + 0.005*"progress" + 0.004*"24" + 0.004*"number" + 0.004*"April"', '0.015*"’" + 0.007*"needs" + 0.006*"Lincolnshire" + 0.005*"well" + 0.004*"progress" + 0.004*"28" + 0.004*"plans" + 0.004*"24" + 0.004*"supported" + 0.004*"family"', '0.020*"’" + 0.007*"Lincolnshire" + 0.006*"well" + 0.006*"needs" + 0.004*"plans" + 0.004*"need" + 0.004*"effective" + 0.004*"progress" + 0.004*"working" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1795,7 +1795,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"needs" + 0.007*"need" + 0.007*"Liverpool" + 0.006*"quality" + 0.006*"practice" + 0.005*"protection" + 0.005*"always" + 0.005*"13" + 0.004*"planning"', '0.021*"’" + 0.008*"always" + 0.007*"practice" + 0.006*"needs" + 0.005*"Liverpool" + 0.005*"need" + 0.005*"harm" + 0.005*"quality" + 0.005*"protection" + 0.005*"senior"', '0.015*"’" + 0.008*"needs" + 0.006*"practice" + 0.006*"always" + 0.006*"need" + 0.005*"quality" + 0.005*"Liverpool" + 0.005*"protection" + 0.005*"24" + 0.004*"13"']</t>
+    <t>['0.021*"’" + 0.007*"need" + 0.007*"practice" + 0.007*"always" + 0.006*"Liverpool" + 0.006*"quality" + 0.006*"needs" + 0.005*"24" + 0.005*"13" + 0.004*"met"', '0.018*"’" + 0.009*"needs" + 0.006*"Liverpool" + 0.006*"need" + 0.006*"always" + 0.005*"protection" + 0.005*"quality" + 0.005*"practice" + 0.005*"timely" + 0.004*"PAs"', '0.018*"’" + 0.007*"practice" + 0.006*"always" + 0.006*"needs" + 0.005*"need" + 0.005*"quality" + 0.004*"protection" + 0.004*"met" + 0.004*"Liverpool" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -1828,7 +1828,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"good" + 0.005*"10" + 0.005*"ensure" + 0.005*"carers" + 0.005*"progress" + 0.004*"information"', '0.015*"’" + 0.006*"needs" + 0.005*"plans" + 0.004*"Barking" + 0.004*"practice" + 0.004*"21" + 0.004*"well" + 0.004*"good" + 0.004*"carers" + 0.004*"progress"', '0.023*"’" + 0.009*"needs" + 0.007*"good" + 0.006*"carers" + 0.006*"practice" + 0.006*"plans" + 0.005*"well" + 0.005*"information" + 0.005*"London" + 0.005*"progress"']</t>
+    <t>['0.018*"’" + 0.008*"needs" + 0.006*"practice" + 0.006*"well" + 0.005*"carers" + 0.004*"Barking" + 0.004*"planning" + 0.004*"London" + 0.004*"2023" + 0.004*"good"', '0.029*"’" + 0.009*"needs" + 0.007*"good" + 0.007*"plans" + 0.006*"carers" + 0.005*"progress" + 0.005*"information" + 0.005*"well" + 0.005*"Dagenham" + 0.004*"10"', '0.015*"’" + 0.006*"needs" + 0.006*"plans" + 0.005*"good" + 0.005*"well" + 0.004*"practice" + 0.004*"progress" + 0.004*"information" + 0.004*"10" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -1864,7 +1864,7 @@
     <t>0.2188</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"need" + 0.009*"well" + 0.008*"needs" + 0.008*"good" + 0.007*"plans" + 0.006*"ensure" + 0.006*"clear" + 0.005*"progress" + 0.005*"appropriate"', '0.010*"’" + 0.008*"good" + 0.007*"well" + 0.007*"needs" + 0.005*"progress" + 0.005*"need" + 0.005*"plans" + 0.004*"clear" + 0.004*"ensure" + 0.004*"risk"', '0.013*"’" + 0.012*"needs" + 0.011*"good" + 0.009*"well" + 0.008*"progress" + 0.007*"need" + 0.006*"ensure" + 0.006*"clear" + 0.005*"risk" + 0.005*"quality"']</t>
+    <t>['0.012*"’" + 0.010*"needs" + 0.010*"well" + 0.009*"need" + 0.009*"good" + 0.007*"clear" + 0.006*"progress" + 0.006*"plans" + 0.006*"ensure" + 0.005*"risk"', '0.012*"’" + 0.010*"good" + 0.009*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"need" + 0.006*"progress" + 0.006*"ensure" + 0.005*"quality" + 0.005*"risks"', '0.018*"’" + 0.009*"good" + 0.009*"needs" + 0.007*"well" + 0.007*"need" + 0.006*"progress" + 0.006*"effective" + 0.005*"ensure" + 0.005*"plans" + 0.005*"clear"']</t>
   </si>
   <si>
     <t>303</t>
@@ -1882,7 +1882,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.006*"well" + 0.006*"effective" + 0.006*"need" + 0.005*"needs" + 0.005*"Bexley" + 0.005*"6" + 0.004*"February" + 0.004*"plans" + 0.004*"10"', '0.020*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"effective" + 0.005*"Bexley" + 0.005*"need" + 0.004*"10" + 0.004*"make" + 0.004*"oversight"', '0.018*"’" + 0.007*"needs" + 0.005*"need" + 0.005*"Bexley" + 0.005*"plans" + 0.005*"effective" + 0.004*"well" + 0.004*"10" + 0.004*"including" + 0.004*"oversight"']</t>
+    <t>['0.022*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"effective" + 0.006*"need" + 0.005*"plans" + 0.005*"10" + 0.005*"make" + 0.005*"including" + 0.005*"6"', '0.018*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"Bexley" + 0.004*"need" + 0.004*"10" + 0.004*"6" + 0.004*"including" + 0.004*"plans"', '0.018*"’" + 0.006*"Bexley" + 0.006*"well" + 0.006*"need" + 0.006*"plans" + 0.006*"needs" + 0.004*"practice" + 0.004*"effective" + 0.004*"oversight" + 0.004*"education"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -1909,7 +1909,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.009*"well" + 0.008*"leaders" + 0.007*"plans" + 0.006*"progress" + 0.006*"number" + 0.006*"good" + 0.006*"practice" + 0.005*"senior" + 0.005*"quality"', '0.011*"’" + 0.007*"well" + 0.006*"good" + 0.005*"Brent" + 0.005*"progress" + 0.005*"plans" + 0.005*"leaders" + 0.005*"needs" + 0.004*"practice" + 0.004*"quality"', '0.013*"’" + 0.009*"well" + 0.007*"leaders" + 0.007*"plans" + 0.007*"progress" + 0.006*"quality" + 0.006*"Brent" + 0.006*"number" + 0.005*"good" + 0.005*"However"']</t>
+    <t>['0.016*"’" + 0.009*"well" + 0.008*"good" + 0.007*"leaders" + 0.006*"number" + 0.006*"progress" + 0.006*"Brent" + 0.005*"practice" + 0.005*"senior" + 0.005*"needs"', '0.014*"’" + 0.007*"well" + 0.007*"leaders" + 0.007*"progress" + 0.006*"plans" + 0.006*"quality" + 0.005*"number" + 0.005*"practice" + 0.005*"Brent" + 0.005*"However"', '0.021*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"leaders" + 0.006*"progress" + 0.006*"quality" + 0.006*"senior" + 0.005*"timely" + 0.005*"Brent" + 0.005*"information"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -1942,7 +1942,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"needs" + 0.007*"Bromley" + 0.006*"well" + 0.005*"leaders" + 0.004*"practice" + 0.004*"plans" + 0.004*"2023" + 0.004*"13" + 0.004*"November"', '0.020*"’" + 0.009*"Bromley" + 0.006*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"health" + 0.005*"practice" + 0.005*"leaders" + 0.005*"education" + 0.005*"17"', '0.020*"’" + 0.010*"Bromley" + 0.008*"well" + 0.007*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.005*"practice" + 0.005*"education" + 0.004*"health" + 0.004*"progress"']</t>
+    <t>['0.022*"’" + 0.009*"Bromley" + 0.008*"needs" + 0.007*"plans" + 0.007*"well" + 0.006*"leaders" + 0.005*"practice" + 0.005*"YPAs" + 0.004*"17" + 0.004*"helping"', '0.017*"’" + 0.011*"Bromley" + 0.006*"well" + 0.006*"needs" + 0.004*"education" + 0.004*"progress" + 0.004*"leaders" + 0.004*"health" + 0.004*"receive" + 0.004*"practice"', '0.019*"’" + 0.008*"Bromley" + 0.007*"well" + 0.006*"needs" + 0.005*"health" + 0.005*"practice" + 0.005*"education" + 0.005*"plans" + 0.004*"leaders" + 0.004*"17"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -1972,7 +1972,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"practice" + 0.006*"leaders" + 0.005*"Camden" + 0.004*"response" + 0.004*"29" + 0.004*"2022" + 0.004*"April" + 0.004*"well" + 0.004*"protection"', '0.012*"’" + 0.008*"Camden" + 0.006*"well" + 0.006*"practice" + 0.006*"protection" + 0.006*"leaders" + 0.005*"appropriate" + 0.005*"needs" + 0.005*"meetings" + 0.004*"response"', '0.010*"’" + 0.007*"leaders" + 0.007*"Camden" + 0.006*"needs" + 0.005*"practice" + 0.005*"well" + 0.005*"25" + 0.004*"response" + 0.004*"protection" + 0.004*"2022"']</t>
+    <t>['0.012*"’" + 0.008*"Camden" + 0.006*"practice" + 0.006*"leaders" + 0.006*"needs" + 0.005*"protection" + 0.005*"29" + 0.005*"25" + 0.005*"well" + 0.005*"appropriate"', '0.010*"’" + 0.007*"Camden" + 0.006*"leaders" + 0.006*"practice" + 0.005*"needs" + 0.005*"well" + 0.005*"response" + 0.004*"protection" + 0.003*"progress" + 0.003*"25"', '0.010*"’" + 0.007*"leaders" + 0.006*"well" + 0.006*"Camden" + 0.006*"practice" + 0.005*"protection" + 0.005*"response" + 0.004*"appropriate" + 0.004*"progress" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -1999,7 +1999,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"well" + 0.006*"need" + 0.006*"needs" + 0.006*"Senior" + 0.005*"good" + 0.005*"quality" + 0.005*"Croydon" + 0.005*"improved" + 0.005*"education"', '0.012*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"quality" + 0.005*"Croydon" + 0.005*"ensure" + 0.005*"However" + 0.004*"need" + 0.004*"arrangements" + 0.004*"risk"', '0.013*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"Croydon" + 0.006*"Senior" + 0.006*"effective" + 0.005*"ensure" + 0.005*"plans" + 0.005*"health" + 0.005*"good"']</t>
+    <t>['0.012*"’" + 0.007*"well" + 0.007*"needs" + 0.007*"need" + 0.006*"Croydon" + 0.006*"Senior" + 0.005*"good" + 0.005*"effective" + 0.005*"quality" + 0.005*"However"', '0.012*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"Croydon" + 0.006*"ensure" + 0.006*"quality" + 0.005*"plans" + 0.005*"Senior" + 0.005*"health" + 0.005*"good"', '0.011*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"quality" + 0.005*"need" + 0.005*"health" + 0.005*"Senior" + 0.005*"good" + 0.005*"risk" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2032,7 +2032,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"quality" + 0.007*"needs" + 0.006*"progress" + 0.005*"plans" + 0.005*"experiences" + 0.005*"family" + 0.004*"Ealing" + 0.004*"appropriately" + 0.004*"well"', '0.011*"’" + 0.011*"quality" + 0.008*"needs" + 0.007*"good" + 0.005*"plans" + 0.005*"risk" + 0.005*"progress" + 0.005*"well" + 0.004*"experiences" + 0.004*"provide"', '0.010*"quality" + 0.010*"’" + 0.007*"good" + 0.006*"needs" + 0.005*"management" + 0.004*"risk" + 0.004*"plans" + 0.004*"progress" + 0.004*"Ealing" + 0.004*"well"']</t>
+    <t>['0.009*"’" + 0.007*"quality" + 0.006*"needs" + 0.006*"good" + 0.005*"plans" + 0.005*"risk" + 0.004*"Ealing" + 0.004*"progress" + 0.004*"experiences" + 0.004*"need"', '0.009*"’" + 0.008*"quality" + 0.007*"needs" + 0.006*"good" + 0.005*"risk" + 0.005*"plans" + 0.005*"management" + 0.004*"progress" + 0.004*"experiences" + 0.004*"improve"', '0.013*"’" + 0.012*"quality" + 0.007*"needs" + 0.007*"good" + 0.006*"progress" + 0.005*"well" + 0.005*"plans" + 0.004*"oversight" + 0.004*"appropriately" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>308</t>
@@ -2059,7 +2059,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"practice" + 0.007*"good" + 0.006*"leaders" + 0.006*"clear" + 0.006*"ensure" + 0.006*"effective" + 0.006*"needs" + 0.005*"appropriate" + 0.005*"timely"', '0.014*"’" + 0.010*"needs" + 0.008*"ensure" + 0.007*"practice" + 0.007*"good" + 0.007*"Enfield" + 0.006*"effective" + 0.006*"quality" + 0.006*"timely" + 0.006*"progress"', '0.015*"’" + 0.009*"needs" + 0.009*"ensure" + 0.008*"practice" + 0.008*"good" + 0.007*"clear" + 0.007*"effective" + 0.007*"quality" + 0.006*"Enfield" + 0.006*"improve"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.008*"ensure" + 0.007*"practice" + 0.007*"clear" + 0.006*"leaders" + 0.006*"effective" + 0.006*"Enfield" + 0.006*"timely" + 0.006*"good"', '0.014*"’" + 0.009*"good" + 0.009*"needs" + 0.008*"practice" + 0.008*"ensure" + 0.007*"effective" + 0.007*"quality" + 0.007*"Enfield" + 0.006*"clear" + 0.006*"timely"', '0.010*"’" + 0.008*"needs" + 0.006*"practice" + 0.006*"Enfield" + 0.006*"ensure" + 0.006*"clear" + 0.005*"good" + 0.005*"effective" + 0.005*"leaders" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2089,7 +2089,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.010*"well" + 0.010*"’" + 0.008*"good" + 0.008*"needs" + 0.008*"plans" + 0.006*"ensure" + 0.005*"range" + 0.005*"risk" + 0.005*"need" + 0.005*"progress"', '0.013*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"good" + 0.006*"need" + 0.006*"range" + 0.005*"effective" + 0.005*"ensure" + 0.005*"progress"', '0.013*"’" + 0.008*"good" + 0.008*"well" + 0.007*"plans" + 0.006*"need" + 0.006*"needs" + 0.005*"progress" + 0.005*"range" + 0.005*"quality" + 0.005*"information"']</t>
+    <t>['0.014*"’" + 0.012*"well" + 0.009*"good" + 0.008*"plans" + 0.007*"needs" + 0.006*"range" + 0.006*"timely" + 0.006*"risk" + 0.005*"consistently" + 0.005*"quality"', '0.011*"’" + 0.008*"plans" + 0.007*"well" + 0.007*"needs" + 0.007*"need" + 0.006*"good" + 0.006*"range" + 0.005*"progress" + 0.005*"ensure" + 0.005*"information"', '0.010*"’" + 0.008*"good" + 0.008*"needs" + 0.008*"well" + 0.006*"plans" + 0.006*"need" + 0.006*"ensure" + 0.005*"range" + 0.005*"risk" + 0.004*"risks"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2125,7 +2125,7 @@
     <t>0.1417</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"practice" + 0.007*"effective" + 0.006*"plans" + 0.006*"including" + 0.006*"needs" + 0.006*"planning" + 0.005*"leaders" + 0.005*"number" + 0.005*"quality"', '0.012*"practice" + 0.011*"’" + 0.008*"number" + 0.007*"planning" + 0.006*"within" + 0.006*"small" + 0.006*"making" + 0.006*"quality" + 0.006*"However" + 0.005*"effective"', '0.012*"’" + 0.007*"practice" + 0.006*"needs" + 0.005*"planning" + 0.005*"number" + 0.005*"plans" + 0.005*"including" + 0.004*"within" + 0.004*"quality" + 0.004*"effective"']</t>
+    <t>['0.009*"practice" + 0.009*"’" + 0.005*"number" + 0.005*"plans" + 0.005*"within" + 0.005*"quality" + 0.005*"including" + 0.005*"effective" + 0.005*"making" + 0.005*"needs"', '0.014*"’" + 0.009*"practice" + 0.007*"planning" + 0.007*"plans" + 0.006*"number" + 0.006*"However" + 0.006*"effective" + 0.005*"leaders" + 0.005*"within" + 0.005*"small"', '0.015*"’" + 0.011*"practice" + 0.007*"needs" + 0.007*"number" + 0.006*"effective" + 0.006*"planning" + 0.006*"quality" + 0.006*"within" + 0.005*"including" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2155,7 +2155,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"effective" + 0.007*"well" + 0.006*"appropriate" + 0.006*"needs" + 0.005*"leaders" + 0.005*"plans" + 0.005*"good" + 0.005*"arrangements" + 0.005*"timely"', '0.011*"’" + 0.007*"effective" + 0.007*"well" + 0.007*"needs" + 0.005*"appropriate" + 0.005*"good" + 0.005*"need" + 0.005*"risk" + 0.004*"arrangements" + 0.004*"experiences"', '0.014*"’" + 0.011*"needs" + 0.008*"well" + 0.008*"effective" + 0.007*"good" + 0.007*"ensure" + 0.006*"appropriate" + 0.006*"arrangements" + 0.005*"improve" + 0.005*"health"']</t>
+    <t>['0.011*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"effective" + 0.007*"good" + 0.006*"appropriate" + 0.005*"ensure" + 0.005*"education" + 0.005*"leaders" + 0.005*"quality"', '0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"effective" + 0.005*"arrangements" + 0.005*"leaders" + 0.005*"good" + 0.005*"family" + 0.005*"timely" + 0.005*"appropriate"', '0.013*"’" + 0.010*"effective" + 0.008*"needs" + 0.007*"appropriate" + 0.006*"well" + 0.006*"arrangements" + 0.006*"ensure" + 0.006*"good" + 0.005*"need" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2176,7 +2176,7 @@
     <t>13/02/2023</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"needs" + 0.007*"Haringey" + 0.006*"plans" + 0.004*"supported" + 0.004*"progress" + 0.004*"need" + 0.004*"well" + 0.004*"risk" + 0.004*"good"', '0.013*"’" + 0.008*"needs" + 0.008*"Haringey" + 0.008*"plans" + 0.005*"need" + 0.005*"24" + 0.005*"good" + 0.005*"progress" + 0.005*"well" + 0.004*"impact"', '0.019*"’" + 0.009*"Haringey" + 0.008*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"good" + 0.005*"need" + 0.005*"education" + 0.005*"risk" + 0.005*"progress"']</t>
+    <t>['0.014*"’" + 0.007*"plans" + 0.006*"Haringey" + 0.005*"need" + 0.005*"needs" + 0.004*"well" + 0.004*"supported" + 0.004*"education" + 0.004*"good" + 0.004*"24"', '0.015*"’" + 0.008*"Haringey" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.004*"risk" + 0.004*"24"', '0.017*"’" + 0.010*"Haringey" + 0.010*"needs" + 0.007*"plans" + 0.006*"good" + 0.006*"well" + 0.005*"progress" + 0.005*"need" + 0.005*"risk" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2206,7 +2206,7 @@
     <t>0.2023</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"well" + 0.010*"good" + 0.008*"needs" + 0.005*"practice" + 0.005*"experiences" + 0.005*"impact" + 0.005*"need" + 0.004*"early" + 0.004*"protection"', '0.012*"good" + 0.011*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"impact" + 0.006*"practice" + 0.006*"plans" + 0.005*"protection" + 0.005*"need" + 0.005*"early"', '0.010*"’" + 0.009*"good" + 0.008*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"impact" + 0.005*"protection" + 0.005*"need" + 0.004*"experiences" + 0.004*"school"']</t>
+    <t>['0.015*"’" + 0.012*"good" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"need" + 0.006*"early" + 0.005*"impact" + 0.005*"plans" + 0.005*"protection"', '0.010*"good" + 0.009*"needs" + 0.008*"well" + 0.008*"’" + 0.006*"protection" + 0.005*"experiences" + 0.005*"plans" + 0.005*"need" + 0.005*"practice" + 0.004*"Harrow"', '0.011*"’" + 0.008*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"impact" + 0.005*"plans" + 0.004*"planning" + 0.004*"protection" + 0.004*"school" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2230,7 +2230,7 @@
     <t>16/02/24</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"quality" + 0.009*"Havering" + 0.005*"oversight" + 0.005*"plans" + 0.004*"22" + 0.004*"effective" + 0.004*"supported" + 0.004*"December" + 0.004*"needs"', '0.010*"Havering" + 0.010*"’" + 0.008*"plans" + 0.006*"quality" + 0.005*"oversight" + 0.005*"effective" + 0.004*"11" + 0.004*"needs" + 0.004*"many" + 0.004*"22"', '0.023*"’" + 0.013*"Havering" + 0.009*"quality" + 0.008*"plans" + 0.006*"effective" + 0.005*"needs" + 0.005*"oversight" + 0.005*"11" + 0.005*"practice" + 0.004*"2023"']</t>
+    <t>['0.019*"’" + 0.010*"Havering" + 0.009*"quality" + 0.007*"plans" + 0.005*"oversight" + 0.004*"supported" + 0.004*"22" + 0.004*"effective" + 0.004*"December" + 0.004*"needs"', '0.018*"’" + 0.011*"Havering" + 0.010*"quality" + 0.007*"plans" + 0.006*"effective" + 0.006*"oversight" + 0.006*"needs" + 0.005*"11" + 0.004*"practice" + 0.004*"many"', '0.015*"’" + 0.013*"Havering" + 0.007*"plans" + 0.006*"quality" + 0.005*"effective" + 0.005*"oversight" + 0.004*"2023" + 0.004*"practice" + 0.004*"22" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>312</t>
@@ -2263,7 +2263,7 @@
     <t>0.1861</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Hillingdon" + 0.007*"plans" + 0.005*"6" + 0.005*"2" + 0.005*"leaders" + 0.005*"team" + 0.004*"improve"', '0.018*"’" + 0.011*"needs" + 0.009*"plans" + 0.008*"Hillingdon" + 0.007*"well" + 0.005*"team" + 0.004*"need" + 0.004*"October" + 0.004*"2" + 0.004*"senior"', '0.016*"’" + 0.008*"needs" + 0.008*"Hillingdon" + 0.008*"well" + 0.007*"plans" + 0.006*"need" + 0.004*"team" + 0.004*"2023" + 0.004*"experiences" + 0.004*"6"']</t>
+    <t>['0.011*"’" + 0.007*"needs" + 0.007*"Hillingdon" + 0.007*"well" + 0.006*"plans" + 0.004*"team" + 0.004*"need" + 0.004*"experiences" + 0.004*"health" + 0.004*"leaders"', '0.023*"’" + 0.011*"needs" + 0.008*"plans" + 0.007*"well" + 0.005*"Hillingdon" + 0.005*"need" + 0.005*"team" + 0.004*"2" + 0.004*"6" + 0.004*"family"', '0.017*"’" + 0.010*"Hillingdon" + 0.009*"needs" + 0.009*"plans" + 0.008*"well" + 0.005*"2" + 0.005*"team" + 0.005*"6" + 0.004*"PAs" + 0.004*"senior"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2293,7 +2293,7 @@
     <t>0.1948</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.010*"well" + 0.007*"effective" + 0.006*"Hounslow" + 0.005*"strong" + 0.005*"plans" + 0.005*"October" + 0.004*"timely" + 0.004*"20"', '0.017*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"effective" + 0.007*"timely" + 0.005*"Hounslow" + 0.005*"experiences" + 0.005*"plans" + 0.004*"oversight" + 0.004*"progress"', '0.023*"’" + 0.013*"needs" + 0.011*"well" + 0.009*"Hounslow" + 0.008*"effective" + 0.007*"timely" + 0.006*"plans" + 0.005*"education" + 0.005*"16" + 0.004*"training"']</t>
+    <t>['0.022*"’" + 0.012*"needs" + 0.011*"well" + 0.009*"Hounslow" + 0.008*"effective" + 0.007*"timely" + 0.006*"plans" + 0.005*"progress" + 0.005*"oversight" + 0.005*"experiences"', '0.019*"’" + 0.011*"needs" + 0.009*"well" + 0.007*"effective" + 0.006*"Hounslow" + 0.006*"timely" + 0.005*"plans" + 0.005*"strong" + 0.005*"16" + 0.004*"October"', '0.016*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"effective" + 0.004*"Hounslow" + 0.004*"timely" + 0.004*"education" + 0.004*"strong" + 0.004*"appropriate" + 0.004*"training"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2323,7 +2323,7 @@
     <t>0.1842</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"effective" + 0.005*"good" + 0.005*"highly" + 0.004*"leaders" + 0.004*"practice" + 0.004*"quality"', '0.013*"’" + 0.012*"needs" + 0.009*"well" + 0.007*"quality" + 0.007*"plans" + 0.006*"highly" + 0.006*"good" + 0.006*"risk" + 0.005*"Islington" + 0.005*"effective"', '0.013*"’" + 0.012*"needs" + 0.011*"well" + 0.007*"plans" + 0.006*"good" + 0.006*"highly" + 0.006*"leaders" + 0.005*"effective" + 0.005*"Islington" + 0.005*"early"']</t>
+    <t>['0.011*"needs" + 0.011*"’" + 0.009*"well" + 0.006*"highly" + 0.006*"good" + 0.005*"leaders" + 0.005*"plans" + 0.005*"effective" + 0.005*"practice" + 0.004*"quality"', '0.012*"’" + 0.010*"needs" + 0.010*"well" + 0.007*"quality" + 0.007*"plans" + 0.006*"good" + 0.006*"highly" + 0.006*"effective" + 0.005*"Islington" + 0.005*"risk"', '0.015*"’" + 0.012*"needs" + 0.011*"well" + 0.007*"plans" + 0.005*"good" + 0.005*"leaders" + 0.005*"quality" + 0.005*"Islington" + 0.005*"highly" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2353,7 +2353,7 @@
     <t>16/12/22</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"need" + 0.006*"good" + 0.005*"Lambeth" + 0.005*"leaders" + 0.005*"24" + 0.005*"progress"', '0.018*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"good" + 0.007*"Lambeth" + 0.007*"well" + 0.006*"progress" + 0.005*"Leaders" + 0.005*"supported" + 0.005*"carers"', '0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"need" + 0.006*"good" + 0.006*"impact" + 0.005*"Lambeth" + 0.005*"leaders" + 0.005*"progress"']</t>
+    <t>['0.012*"’" + 0.008*"plans" + 0.007*"needs" + 0.007*"well" + 0.007*"Lambeth" + 0.006*"good" + 0.006*"leaders" + 0.005*"need" + 0.005*"progress" + 0.004*"carers"', '0.016*"’" + 0.009*"plans" + 0.008*"needs" + 0.008*"well" + 0.006*"good" + 0.005*"progress" + 0.005*"Lambeth" + 0.005*"number" + 0.005*"need" + 0.005*"4"', '0.016*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"good" + 0.007*"Lambeth" + 0.006*"impact" + 0.006*"need" + 0.006*"progress" + 0.005*"plans" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2383,7 +2383,7 @@
     <t>0.1851</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"Lewisham" + 0.005*"good" + 0.004*"4" + 0.004*"family" + 0.004*"December" + 0.004*"15"', '0.020*"’" + 0.010*"well" + 0.008*"effective" + 0.007*"needs" + 0.007*"Lewisham" + 0.006*"plans" + 0.005*"progress" + 0.005*"response" + 0.004*"4" + 0.004*"arrangements"', '0.012*"’" + 0.010*"plans" + 0.008*"well" + 0.008*"needs" + 0.005*"progress" + 0.005*"effective" + 0.005*"leaders" + 0.005*"good" + 0.005*"Lewisham" + 0.005*"4"']</t>
+    <t>['0.010*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"Lewisham" + 0.005*"plans" + 0.005*"progress" + 0.005*"good" + 0.004*"4" + 0.004*"appropriate"', '0.013*"’" + 0.009*"well" + 0.006*"needs" + 0.006*"effective" + 0.005*"plans" + 0.005*"leaders" + 0.005*"Lewisham" + 0.004*"ensure" + 0.004*"arrangements" + 0.004*"progress"', '0.023*"’" + 0.009*"well" + 0.008*"plans" + 0.008*"needs" + 0.006*"Lewisham" + 0.006*"effective" + 0.005*"progress" + 0.005*"need" + 0.005*"4" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2404,7 +2404,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"well" + 0.006*"needs" + 0.005*"Merton" + 0.005*"education" + 0.004*"progress" + 0.004*"across" + 0.004*"family" + 0.004*"2022" + 0.004*"plans"', '0.016*"’" + 0.007*"well" + 0.006*"Merton" + 0.005*"needs" + 0.005*"ensure" + 0.005*"plans" + 0.005*"4" + 0.005*"progress" + 0.004*"family" + 0.004*"health"', '0.012*"’" + 0.008*"Merton" + 0.008*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"good" + 0.004*"family" + 0.004*"risk" + 0.004*"leaders" + 0.004*"helping"']</t>
+    <t>['0.009*"’" + 0.007*"Merton" + 0.005*"needs" + 0.005*"well" + 0.005*"progress" + 0.004*"plans" + 0.004*"family" + 0.004*"4" + 0.004*"helping" + 0.004*"early"', '0.017*"’" + 0.010*"well" + 0.006*"needs" + 0.006*"Merton" + 0.005*"plans" + 0.005*"good" + 0.005*"family" + 0.005*"health" + 0.004*"28" + 0.004*"helping"', '0.019*"’" + 0.008*"well" + 0.006*"Merton" + 0.005*"needs" + 0.005*"progress" + 0.004*"risk" + 0.004*"ensure" + 0.004*"leaders" + 0.004*"plans" + 0.004*"February"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2422,7 +2422,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"Newham" + 0.007*"needs" + 0.007*"need" + 0.006*"plans" + 0.005*"effective" + 0.005*"progress" + 0.005*"Leaders" + 0.004*"good" + 0.004*"practice"', '0.015*"’" + 0.007*"Newham" + 0.007*"needs" + 0.006*"progress" + 0.005*"good" + 0.005*"plans" + 0.005*"2022" + 0.005*"practice" + 0.005*"18" + 0.004*"need"', '0.021*"’" + 0.009*"needs" + 0.008*"practice" + 0.007*"effective" + 0.007*"plans" + 0.007*"progress" + 0.006*"need" + 0.005*"Newham" + 0.005*"risks" + 0.005*"good"']</t>
+    <t>['0.019*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"progress" + 0.006*"need" + 0.005*"practice" + 0.005*"Newham" + 0.005*"effective" + 0.005*"good" + 0.004*"well"', '0.021*"’" + 0.009*"needs" + 0.008*"Newham" + 0.007*"plans" + 0.007*"practice" + 0.007*"progress" + 0.006*"effective" + 0.006*"good" + 0.006*"need" + 0.005*"Leaders"', '0.015*"’" + 0.007*"Newham" + 0.006*"needs" + 0.005*"need" + 0.005*"practice" + 0.005*"progress" + 0.005*"effective" + 0.005*"18" + 0.004*"planning" + 0.004*"risks"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2449,7 +2449,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"needs" + 0.005*"ensure" + 0.005*"practice" + 0.005*"progress" + 0.005*"need" + 0.005*"risk" + 0.005*"Redbridge" + 0.004*"good" + 0.004*"well"', '0.008*"well" + 0.007*"practice" + 0.007*"’" + 0.007*"strong" + 0.006*"need" + 0.006*"effective" + 0.006*"needs" + 0.005*"Redbridge" + 0.005*"risk" + 0.004*"provided"', '0.007*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"effective" + 0.006*"well" + 0.006*"including" + 0.006*"need" + 0.005*"Redbridge" + 0.005*"risk" + 0.005*"team"']</t>
+    <t>['0.007*"well" + 0.007*"’" + 0.006*"practice" + 0.006*"strong" + 0.006*"needs" + 0.006*"need" + 0.006*"effective" + 0.006*"Redbridge" + 0.005*"team" + 0.005*"risk"', '0.010*"’" + 0.006*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"effective" + 0.005*"need" + 0.005*"including" + 0.005*"risk" + 0.005*"Redbridge" + 0.004*"ensure"', '0.008*"practice" + 0.006*"needs" + 0.006*"’" + 0.005*"need" + 0.005*"Redbridge" + 0.005*"well" + 0.005*"progress" + 0.004*"strong" + 0.004*"ensure" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2473,7 +2473,7 @@
     <t>0.2056</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"well" + 0.007*"Richmond" + 0.005*"needs" + 0.005*"good" + 0.004*"ensure" + 0.004*"need" + 0.004*"team" + 0.004*"supported" + 0.004*"February"', '0.016*"’" + 0.012*"well" + 0.008*"Richmond" + 0.007*"needs" + 0.006*"supported" + 0.006*"team" + 0.006*"need" + 0.006*"good" + 0.005*"4" + 0.005*"additional"', '0.017*"’" + 0.011*"well" + 0.009*"needs" + 0.008*"Richmond" + 0.006*"supported" + 0.006*"need" + 0.006*"team" + 0.005*"good" + 0.005*"upon" + 0.004*"2022"']</t>
+    <t>['0.017*"’" + 0.010*"well" + 0.008*"Richmond" + 0.007*"needs" + 0.005*"team" + 0.005*"supported" + 0.005*"good" + 0.005*"additional" + 0.005*"strong" + 0.005*"January"', '0.008*"’" + 0.007*"well" + 0.007*"Richmond" + 0.006*"needs" + 0.004*"team" + 0.004*"supported" + 0.004*"need" + 0.004*"good" + 0.004*"4" + 0.003*"additional"', '0.018*"’" + 0.013*"well" + 0.009*"Richmond" + 0.008*"needs" + 0.007*"supported" + 0.007*"need" + 0.006*"good" + 0.006*"team" + 0.005*"ensure" + 0.005*"Thames"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2500,7 +2500,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"Southwark" + 0.006*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"good" + 0.005*"progress" + 0.005*"receive" + 0.005*"Leaders" + 0.005*"need"', '0.020*"’" + 0.010*"Southwark" + 0.010*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"need" + 0.006*"Leaders" + 0.006*"effective" + 0.006*"progress" + 0.006*"plans"', '0.017*"’" + 0.011*"good" + 0.010*"Southwark" + 0.007*"needs" + 0.006*"progress" + 0.006*"well" + 0.005*"strong" + 0.005*"leaders" + 0.005*"focus" + 0.005*"26"']</t>
+    <t>['0.020*"’" + 0.010*"Southwark" + 0.008*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"Leaders" + 0.006*"need" + 0.006*"effective" + 0.005*"progress" + 0.005*"ensure"', '0.019*"’" + 0.011*"Southwark" + 0.009*"good" + 0.008*"well" + 0.008*"needs" + 0.007*"progress" + 0.006*"plans" + 0.005*"leaders" + 0.005*"strong" + 0.005*"need"', '0.014*"’" + 0.007*"good" + 0.006*"Southwark" + 0.005*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"progress" + 0.004*"strong" + 0.004*"receive" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2527,7 +2527,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"progress" + 0.006*"well" + 0.005*"Sutton" + 0.005*"needs" + 0.005*"good" + 0.005*"6" + 0.004*"effective" + 0.004*"receive" + 0.004*"home"', '0.019*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"Sutton" + 0.005*"receive" + 0.005*"effective" + 0.005*"10" + 0.005*"6" + 0.005*"good" + 0.005*"supported"', '0.016*"’" + 0.006*"well" + 0.006*"Sutton" + 0.005*"progress" + 0.005*"needs" + 0.005*"effective" + 0.005*"receive" + 0.004*"good" + 0.004*"protection" + 0.004*"leaders"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.006*"Sutton" + 0.006*"needs" + 0.005*"receive" + 0.005*"protection" + 0.005*"progress" + 0.005*"effective" + 0.005*"good" + 0.005*"10"', '0.015*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"Sutton" + 0.004*"good" + 0.004*"progress" + 0.004*"planning" + 0.004*"need" + 0.004*"10" + 0.004*"2021"', '0.015*"’" + 0.005*"progress" + 0.005*"Sutton" + 0.005*"effective" + 0.005*"6" + 0.005*"needs" + 0.005*"good" + 0.005*"well" + 0.005*"receive" + 0.004*"home"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2554,7 +2554,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"effective" + 0.007*"good" + 0.006*"plans" + 0.005*"need" + 0.005*"early" + 0.005*"progress" + 0.005*"practice" + 0.005*"carers" + 0.004*"‘"', '0.015*"’" + 0.006*"plans" + 0.006*"‘" + 0.006*"practice" + 0.006*"well" + 0.005*"good" + 0.005*"early" + 0.005*"progress" + 0.005*"needs" + 0.005*"effective"', '0.016*"’" + 0.008*"good" + 0.007*"well" + 0.006*"effective" + 0.006*"‘" + 0.006*"plans" + 0.006*"including" + 0.005*"risk" + 0.005*"practice" + 0.005*"need"']</t>
+    <t>['0.013*"’" + 0.006*"‘" + 0.006*"plans" + 0.006*"good" + 0.006*"need" + 0.006*"effective" + 0.005*"well" + 0.005*"including" + 0.005*"early" + 0.004*"progress"', '0.018*"’" + 0.008*"good" + 0.007*"plans" + 0.007*"effective" + 0.006*"practice" + 0.006*"well" + 0.005*"progress" + 0.005*"‘" + 0.005*"needs" + 0.004*"early"', '0.013*"’" + 0.006*"good" + 0.006*"well" + 0.005*"need" + 0.005*"effective" + 0.005*"‘" + 0.005*"early" + 0.005*"plans" + 0.005*"carers" + 0.005*"including"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2584,7 +2584,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.013*"well" + 0.010*"needs" + 0.008*"good" + 0.007*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"risk" + 0.005*"timely" + 0.004*"progress"', '0.015*"’" + 0.011*"well" + 0.009*"good" + 0.008*"needs" + 0.007*"effective" + 0.007*"need" + 0.005*"plans" + 0.005*"timely" + 0.005*"risk" + 0.004*"information"', '0.012*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"good" + 0.005*"need" + 0.005*"plans" + 0.004*"timely" + 0.004*"clear" + 0.004*"progress"']</t>
+    <t>['0.012*"’" + 0.011*"well" + 0.010*"effective" + 0.009*"needs" + 0.006*"good" + 0.005*"need" + 0.005*"information" + 0.004*"plans" + 0.004*"timely" + 0.004*"protection"', '0.014*"well" + 0.014*"’" + 0.009*"good" + 0.008*"needs" + 0.006*"need" + 0.006*"plans" + 0.006*"effective" + 0.005*"timely" + 0.005*"risk" + 0.004*"clear"', '0.016*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"good" + 0.006*"need" + 0.006*"effective" + 0.005*"risk" + 0.005*"plans" + 0.004*"timely" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2608,7 +2608,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.007*"’" + 0.006*"well" + 0.004*"receive" + 0.004*"good" + 0.004*"Senior" + 0.004*"effective" + 0.004*"7" + 0.004*"timely" + 0.004*"practice" + 0.003*"supported"', '0.011*"’" + 0.006*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"quality" + 0.005*"7" + 0.004*"18" + 0.004*"ensure" + 0.004*"Wandsworth" + 0.004*"protection"', '0.014*"’" + 0.007*"progress" + 0.007*"well" + 0.006*"protection" + 0.006*"needs" + 0.006*"Wandsworth" + 0.006*"Senior" + 0.006*"effective" + 0.006*"supported" + 0.006*"ensure"']</t>
+    <t>['0.010*"’" + 0.008*"well" + 0.006*"progress" + 0.005*"ensure" + 0.005*"protection" + 0.005*"7" + 0.005*"supported" + 0.005*"Senior" + 0.005*"effective" + 0.005*"quality"', '0.011*"’" + 0.005*"needs" + 0.005*"well" + 0.005*"protection" + 0.005*"Senior" + 0.004*"clear" + 0.004*"practice" + 0.004*"quality" + 0.004*"effective" + 0.004*"ensure"', '0.014*"’" + 0.007*"progress" + 0.006*"needs" + 0.006*"well" + 0.006*"Wandsworth" + 0.006*"practice" + 0.005*"team" + 0.005*"Senior" + 0.005*"7" + 0.005*"receive"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2629,7 +2629,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"highly" + 0.005*"practice" + 0.004*"many" + 0.004*"family" + 0.004*"direct" + 0.003*"plans" + 0.003*"skilled"', '0.014*"’" + 0.009*"practice" + 0.007*"needs" + 0.007*"highly" + 0.005*"well" + 0.004*"across" + 0.004*"many" + 0.004*"family" + 0.004*"number" + 0.004*"Westminster"', '0.011*"’" + 0.005*"practice" + 0.004*"needs" + 0.004*"highly" + 0.004*"well" + 0.003*"protection" + 0.003*"many" + 0.003*"across" + 0.003*"informed" + 0.003*"direct"']</t>
+    <t>['0.014*"’" + 0.006*"practice" + 0.006*"highly" + 0.005*"well" + 0.005*"needs" + 0.004*"across" + 0.004*"many" + 0.004*"family" + 0.003*"quality" + 0.003*"high"', '0.009*"’" + 0.007*"practice" + 0.005*"needs" + 0.005*"highly" + 0.004*"across" + 0.004*"well" + 0.003*"many" + 0.003*"family" + 0.003*"direct" + 0.003*"plans"', '0.014*"’" + 0.007*"needs" + 0.006*"practice" + 0.006*"highly" + 0.006*"well" + 0.004*"many" + 0.004*"plans" + 0.003*"protection" + 0.003*"shared" + 0.003*"high"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2659,7 +2659,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.007*"need" + 0.007*"plans" + 0.006*"effective" + 0.006*"Luton" + 0.006*"needs" + 0.005*"progress" + 0.005*"Leaders" + 0.005*"impact" + 0.005*"good"', '0.009*"’" + 0.005*"need" + 0.005*"needs" + 0.004*"Luton" + 0.004*"progress" + 0.004*"plans" + 0.004*"impact" + 0.004*"good" + 0.003*"quality" + 0.003*"leaders"', '0.015*"’" + 0.007*"needs" + 0.007*"need" + 0.006*"ensure" + 0.006*"plans" + 0.005*"Luton" + 0.005*"good" + 0.005*"effective" + 0.005*"well" + 0.005*"quality"']</t>
+    <t>['0.014*"’" + 0.007*"needs" + 0.006*"need" + 0.005*"impact" + 0.005*"plans" + 0.004*"effective" + 0.004*"quality" + 0.004*"good" + 0.004*"ensure" + 0.004*"11"', '0.018*"’" + 0.007*"need" + 0.007*"needs" + 0.007*"plans" + 0.006*"Luton" + 0.006*"good" + 0.005*"effective" + 0.005*"progress" + 0.005*"well" + 0.005*"ensure"', '0.019*"’" + 0.006*"Luton" + 0.006*"effective" + 0.005*"plans" + 0.005*"need" + 0.005*"progress" + 0.005*"quality" + 0.005*"good" + 0.004*"2022" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2683,7 +2683,7 @@
     <t>19/05/22</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"Manchester" + 0.010*"needs" + 0.006*"always" + 0.006*"well" + 0.006*"However" + 0.005*"plans" + 0.005*"progress" + 0.005*"protection" + 0.005*"education"', '0.018*"’" + 0.009*"needs" + 0.009*"Manchester" + 0.006*"always" + 0.005*"supported" + 0.005*"well" + 0.005*"education" + 0.005*"effective" + 0.005*"protection" + 0.005*"plans"', '0.025*"’" + 0.011*"Manchester" + 0.009*"needs" + 0.008*"well" + 0.008*"supported" + 0.007*"always" + 0.006*"plans" + 0.005*"effective" + 0.005*"family" + 0.005*"protection"']</t>
+    <t>['0.020*"’" + 0.011*"Manchester" + 0.009*"needs" + 0.006*"supported" + 0.006*"well" + 0.005*"effective" + 0.005*"always" + 0.005*"family" + 0.005*"education" + 0.005*"plans"', '0.012*"’" + 0.007*"Manchester" + 0.007*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"always" + 0.005*"1" + 0.005*"supported" + 0.005*"family" + 0.005*"21"', '0.027*"’" + 0.012*"Manchester" + 0.011*"needs" + 0.008*"always" + 0.008*"well" + 0.007*"supported" + 0.006*"protection" + 0.006*"plans" + 0.005*"education" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -2710,7 +2710,7 @@
     <t>11/09/23</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"quality" + 0.008*"Medway" + 0.007*"practice" + 0.007*"well" + 0.007*"needs" + 0.006*"oversight" + 0.005*"Senior" + 0.005*"good" + 0.005*"leaders"', '0.016*"’" + 0.011*"Medway" + 0.009*"practice" + 0.009*"well" + 0.007*"leaders" + 0.007*"quality" + 0.007*"impact" + 0.007*"oversight" + 0.006*"needs" + 0.006*"progress"', '0.016*"’" + 0.008*"Medway" + 0.007*"quality" + 0.007*"practice" + 0.006*"well" + 0.006*"leaders" + 0.006*"risk" + 0.005*"needs" + 0.005*"experiences" + 0.005*"17"']</t>
+    <t>['0.017*"’" + 0.010*"Medway" + 0.008*"practice" + 0.007*"quality" + 0.006*"well" + 0.006*"good" + 0.006*"needs" + 0.006*"risk" + 0.005*"oversight" + 0.005*"leaders"', '0.009*"’" + 0.008*"quality" + 0.007*"Medway" + 0.006*"practice" + 0.006*"leaders" + 0.005*"well" + 0.005*"2023" + 0.004*"needs" + 0.004*"impact" + 0.004*"28"', '0.019*"’" + 0.010*"well" + 0.010*"Medway" + 0.009*"practice" + 0.008*"quality" + 0.007*"oversight" + 0.007*"needs" + 0.007*"leaders" + 0.007*"experiences" + 0.006*"impact"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -2731,7 +2731,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"effective" + 0.007*"plans" + 0.006*"Middlesbrough" + 0.006*"practice" + 0.006*"needs" + 0.005*"well" + 0.005*"good" + 0.005*"place" + 0.005*"progress"', '0.015*"’" + 0.007*"Middlesbrough" + 0.007*"well" + 0.007*"plans" + 0.006*"effective" + 0.005*"needs" + 0.005*"13" + 0.005*"progress" + 0.005*"March" + 0.005*"place"', '0.013*"’" + 0.007*"needs" + 0.007*"plans" + 0.007*"effective" + 0.006*"well" + 0.006*"Middlesbrough" + 0.006*"practice" + 0.006*"progress" + 0.005*"impact" + 0.005*"13"']</t>
+    <t>['0.014*"’" + 0.007*"effective" + 0.006*"Middlesbrough" + 0.006*"plans" + 0.006*"needs" + 0.005*"well" + 0.005*"place" + 0.005*"progress" + 0.005*"practice" + 0.005*"means"', '0.011*"’" + 0.008*"plans" + 0.007*"effective" + 0.006*"well" + 0.005*"Middlesbrough" + 0.005*"progress" + 0.005*"13" + 0.005*"good" + 0.004*"place" + 0.004*"practice"', '0.014*"’" + 0.008*"needs" + 0.008*"Middlesbrough" + 0.007*"well" + 0.007*"plans" + 0.007*"practice" + 0.006*"effective" + 0.005*"24" + 0.005*"progress" + 0.005*"2023"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -2755,7 +2755,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"Milton" + 0.006*"well" + 0.006*"Keynes" + 0.005*"need" + 0.005*"plans" + 0.005*"practice" + 0.005*"October" + 0.005*"quality" + 0.005*"5"', '0.010*"’" + 0.005*"team" + 0.005*"well" + 0.004*"practice" + 0.004*"Milton" + 0.004*"plans" + 0.004*"Keynes" + 0.004*"25" + 0.003*"need" + 0.003*"5"', '0.017*"’" + 0.008*"Keynes" + 0.006*"need" + 0.005*"Milton" + 0.005*"leaders" + 0.005*"good" + 0.005*"well" + 0.005*"impact" + 0.004*"25" + 0.004*"effective"']</t>
+    <t>['0.018*"’" + 0.007*"well" + 0.006*"Milton" + 0.005*"leaders" + 0.005*"need" + 0.005*"good" + 0.005*"Keynes" + 0.005*"October" + 0.005*"plans" + 0.005*"5"', '0.010*"’" + 0.007*"Milton" + 0.005*"Keynes" + 0.005*"practice" + 0.005*"well" + 0.005*"impact" + 0.004*"plans" + 0.004*"leaders" + 0.004*"5" + 0.004*"November"', '0.016*"’" + 0.007*"Keynes" + 0.007*"need" + 0.005*"Milton" + 0.005*"well" + 0.005*"25" + 0.005*"good" + 0.005*"practice" + 0.004*"October" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -2779,7 +2779,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.013*"plans" + 0.009*"good" + 0.008*"Newcastle" + 0.008*"needs" + 0.007*"protection" + 0.006*"progress" + 0.006*"well" + 0.006*"ensure" + 0.006*"response"', '0.012*"’" + 0.007*"plans" + 0.007*"needs" + 0.007*"well" + 0.005*"protection" + 0.005*"Newcastle" + 0.005*"making" + 0.005*"10" + 0.005*"management" + 0.005*"ensure"', '0.014*"’" + 0.009*"plans" + 0.007*"needs" + 0.007*"protection" + 0.006*"well" + 0.006*"Newcastle" + 0.006*"good" + 0.006*"progress" + 0.006*"management" + 0.006*"making"']</t>
+    <t>['0.018*"’" + 0.012*"plans" + 0.008*"Newcastle" + 0.007*"good" + 0.007*"well" + 0.007*"needs" + 0.006*"protection" + 0.006*"need" + 0.005*"ensure" + 0.005*"progress"', '0.012*"’" + 0.007*"plans" + 0.006*"protection" + 0.006*"good" + 0.005*"needs" + 0.005*"management" + 0.005*"ensure" + 0.005*"Newcastle" + 0.005*"progress" + 0.005*"need"', '0.016*"’" + 0.010*"plans" + 0.009*"needs" + 0.007*"protection" + 0.007*"Newcastle" + 0.007*"well" + 0.007*"making" + 0.007*"progress" + 0.006*"good" + 0.006*"response"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -2800,7 +2800,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.007*"Norfolk" + 0.006*"carers" + 0.006*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"leaders" + 0.005*"supported" + 0.005*"family"', '0.016*"’" + 0.008*"well" + 0.006*"Norfolk" + 0.006*"practice" + 0.006*"carers" + 0.006*"supported" + 0.005*"18" + 0.005*"effective" + 0.004*"plans" + 0.004*"needs"', '0.017*"’" + 0.010*"Norfolk" + 0.007*"well" + 0.006*"needs" + 0.006*"carers" + 0.005*"supported" + 0.005*"practice" + 0.005*"range" + 0.005*"progress" + 0.005*"including"']</t>
+    <t>['0.020*"’" + 0.009*"Norfolk" + 0.008*"well" + 0.006*"carers" + 0.006*"practice" + 0.005*"supported" + 0.005*"18" + 0.005*"leaders" + 0.005*"needs" + 0.004*"plans"', '0.015*"’" + 0.007*"well" + 0.007*"Norfolk" + 0.007*"practice" + 0.006*"carers" + 0.006*"needs" + 0.006*"supported" + 0.005*"plans" + 0.004*"7" + 0.004*"progress"', '0.016*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"Norfolk" + 0.005*"range" + 0.005*"carers" + 0.005*"progress" + 0.004*"including" + 0.004*"information" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -2830,7 +2830,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"needs" + 0.007*"practice" + 0.007*"risk" + 0.007*"planning" + 0.005*"leaders" + 0.005*"many" + 0.005*"East" + 0.004*"experiences" + 0.004*"plans"', '0.015*"’" + 0.008*"practice" + 0.008*"leaders" + 0.007*"risk" + 0.006*"needs" + 0.006*"planning" + 0.005*"2021" + 0.005*"need" + 0.005*"quality" + 0.005*"Lincolnshire"', '0.015*"’" + 0.007*"practice" + 0.006*"leaders" + 0.006*"planning" + 0.006*"need" + 0.005*"risk" + 0.005*"needs" + 0.005*"senior" + 0.005*"East" + 0.005*"many"']</t>
+    <t>['0.013*"’" + 0.009*"practice" + 0.008*"risk" + 0.007*"planning" + 0.006*"needs" + 0.006*"leaders" + 0.006*"need" + 0.005*"2021" + 0.005*"many" + 0.005*"plans"', '0.012*"’" + 0.005*"leaders" + 0.005*"practice" + 0.005*"risk" + 0.005*"need" + 0.005*"needs" + 0.004*"planning" + 0.004*"October" + 0.004*"oversight" + 0.004*"action"', '0.016*"’" + 0.008*"practice" + 0.007*"leaders" + 0.006*"planning" + 0.006*"needs" + 0.006*"risk" + 0.005*"East" + 0.005*"North" + 0.005*"harm" + 0.005*"many"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -2857,7 +2857,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"‘" + 0.006*"approach" + 0.006*"North" + 0.005*"well" + 0.005*"10" + 0.005*"leaders" + 0.005*"family" + 0.005*"need" + 0.005*"Lincolnshire"', '0.020*"’" + 0.007*"‘" + 0.007*"family" + 0.006*"Lincolnshire" + 0.005*"well" + 0.005*"need" + 0.005*"North" + 0.005*"10" + 0.005*"approach" + 0.004*"14"', '0.021*"’" + 0.006*"‘" + 0.006*"leaders" + 0.006*"family" + 0.005*"Lincolnshire" + 0.005*"2022" + 0.005*"North" + 0.005*"council" + 0.005*"October" + 0.004*"protection"']</t>
+    <t>['0.025*"’" + 0.008*"‘" + 0.007*"family" + 0.006*"North" + 0.006*"well" + 0.005*"team" + 0.005*"Lincolnshire" + 0.005*"14" + 0.005*"approach" + 0.005*"need"', '0.019*"’" + 0.007*"‘" + 0.006*"Lincolnshire" + 0.006*"leaders" + 0.006*"family" + 0.005*"approach" + 0.005*"10" + 0.005*"North" + 0.005*"well" + 0.005*"need"', '0.015*"’" + 0.006*"‘" + 0.005*"Lincolnshire" + 0.005*"10" + 0.005*"approach" + 0.004*"family" + 0.004*"North" + 0.004*"need" + 0.004*"leaders" + 0.004*"well"']</t>
   </si>
   <si>
     <t>940</t>
@@ -2887,7 +2887,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"Northamptonshire" + 0.006*"well" + 0.006*"North" + 0.005*"impact" + 0.004*"quality" + 0.004*"Leaders" + 0.004*"14" + 0.004*"plans" + 0.004*"experiences"', '0.019*"’" + 0.008*"North" + 0.007*"well" + 0.007*"Northamptonshire" + 0.006*"quality" + 0.006*"needs" + 0.005*"NCT" + 0.005*"Leaders" + 0.005*"3" + 0.005*"need"', '0.015*"’" + 0.011*"Northamptonshire" + 0.006*"practice" + 0.006*"North" + 0.006*"quality" + 0.005*"well" + 0.005*"needs" + 0.005*"2022" + 0.005*"e" + 0.004*"impact"']</t>
+    <t>['0.016*"’" + 0.009*"Northamptonshire" + 0.007*"North" + 0.007*"well" + 0.007*"quality" + 0.005*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"impact" + 0.005*"3"', '0.015*"’" + 0.006*"Northamptonshire" + 0.006*"well" + 0.005*"North" + 0.005*"quality" + 0.005*"impact" + 0.004*"e" + 0.004*"practice" + 0.004*"NCT" + 0.004*"2022"', '0.019*"’" + 0.008*"Northamptonshire" + 0.006*"North" + 0.006*"well" + 0.005*"experiences" + 0.005*"Leaders" + 0.005*"quality" + 0.005*"NCT" + 0.005*"14" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -2911,7 +2911,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"quality" + 0.005*"needs" + 0.004*"number" + 0.004*"North" + 0.004*"progress" + 0.004*"Somerset" + 0.004*"always" + 0.004*"information" + 0.004*"March"', '0.016*"’" + 0.008*"North" + 0.007*"quality" + 0.007*"needs" + 0.005*"Somerset" + 0.005*"risk" + 0.005*"number" + 0.005*"always" + 0.005*"well" + 0.005*"progress"', '0.020*"’" + 0.008*"quality" + 0.007*"always" + 0.007*"needs" + 0.007*"practice" + 0.006*"Somerset" + 0.006*"need" + 0.006*"number" + 0.006*"experienced" + 0.006*"plans"']</t>
+    <t>['0.009*"’" + 0.006*"quality" + 0.006*"Somerset" + 0.005*"need" + 0.005*"practice" + 0.005*"North" + 0.005*"risk" + 0.004*"needs" + 0.004*"number" + 0.004*"experienced"', '0.021*"’" + 0.009*"quality" + 0.007*"needs" + 0.007*"always" + 0.006*"North" + 0.006*"practice" + 0.006*"progress" + 0.006*"number" + 0.005*"Somerset" + 0.005*"risk"', '0.016*"’" + 0.008*"needs" + 0.006*"always" + 0.006*"quality" + 0.006*"well" + 0.006*"North" + 0.006*"Somerset" + 0.005*"number" + 0.005*"need" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -2935,7 +2935,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.005*"well" + 0.005*"needs" + 0.004*"need" + 0.004*"leaders" + 0.004*"family" + 0.004*"early" + 0.004*"make" + 0.004*"foster" + 0.004*"quality"', '0.016*"’" + 0.007*"well" + 0.006*"leaders" + 0.005*"quality" + 0.005*"need" + 0.004*"make" + 0.004*"impact" + 0.004*"early" + 0.004*"clear" + 0.004*"experiences"', '0.015*"’" + 0.007*"well" + 0.006*"leaders" + 0.006*"make" + 0.005*"need" + 0.005*"needs" + 0.004*"impact" + 0.004*"quality" + 0.004*"progress" + 0.004*"understand"']</t>
+    <t>['0.015*"’" + 0.005*"need" + 0.005*"well" + 0.004*"leaders" + 0.004*"needs" + 0.004*"make" + 0.004*"foster" + 0.004*"quality" + 0.004*"family" + 0.003*"experiences"', '0.020*"’" + 0.007*"well" + 0.005*"make" + 0.005*"need" + 0.005*"clear" + 0.004*"progress" + 0.004*"quality" + 0.004*"leaders" + 0.004*"protection" + 0.004*"needs"', '0.013*"’" + 0.007*"leaders" + 0.006*"well" + 0.005*"quality" + 0.005*"need" + 0.005*"impact" + 0.005*"needs" + 0.004*"early" + 0.004*"make" + 0.004*"family"']</t>
   </si>
   <si>
     <t>815</t>
@@ -2959,7 +2959,7 @@
     <t>18/08/23</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"well" + 0.007*"Yorkshire" + 0.007*"needs" + 0.007*"North" + 0.006*"family" + 0.005*"practice" + 0.005*"‘" + 0.005*"3" + 0.005*"need"', '0.022*"’" + 0.007*"practice" + 0.006*"Yorkshire" + 0.006*"family" + 0.006*"well" + 0.005*"needs" + 0.005*"North" + 0.005*"7" + 0.005*"3" + 0.004*"supported"', '0.018*"’" + 0.010*"well" + 0.007*"North" + 0.006*"practice" + 0.005*"‘" + 0.005*"Yorkshire" + 0.005*"family" + 0.004*"7" + 0.004*"needs" + 0.004*"need"']</t>
+    <t>['0.024*"’" + 0.008*"well" + 0.006*"family" + 0.006*"practice" + 0.006*"needs" + 0.005*"Yorkshire" + 0.005*"‘" + 0.004*"North" + 0.004*"need" + 0.004*"make"', '0.014*"’" + 0.009*"well" + 0.007*"North" + 0.006*"practice" + 0.006*"Yorkshire" + 0.005*"‘" + 0.005*"needs" + 0.005*"family" + 0.005*"7" + 0.004*"carers"', '0.022*"’" + 0.007*"North" + 0.007*"Yorkshire" + 0.007*"well" + 0.006*"practice" + 0.006*"family" + 0.006*"needs" + 0.005*"3" + 0.005*"supported" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -2983,7 +2983,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.011*"well" + 0.010*"needs" + 0.007*"good" + 0.005*"experiences" + 0.005*"need" + 0.005*"leaders" + 0.004*"impact" + 0.004*"supported" + 0.004*"quality"', '0.017*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"need" + 0.006*"good" + 0.005*"quality" + 0.005*"education" + 0.004*"impact" + 0.004*"practice" + 0.004*"experiences"', '0.022*"’" + 0.011*"needs" + 0.010*"well" + 0.009*"good" + 0.007*"need" + 0.007*"practice" + 0.006*"experiences" + 0.006*"impact" + 0.005*"education" + 0.005*"quality"']</t>
+    <t>['0.013*"’" + 0.007*"well" + 0.007*"good" + 0.007*"needs" + 0.005*"education" + 0.005*"practice" + 0.004*"leaders" + 0.004*"need" + 0.004*"quality" + 0.004*"impact"', '0.026*"’" + 0.011*"needs" + 0.010*"well" + 0.008*"good" + 0.007*"need" + 0.006*"impact" + 0.006*"experiences" + 0.006*"practice" + 0.005*"education" + 0.005*"quality"', '0.023*"’" + 0.011*"needs" + 0.009*"well" + 0.007*"need" + 0.006*"good" + 0.006*"experiences" + 0.005*"quality" + 0.005*"practice" + 0.004*"leaders" + 0.004*"always"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3010,7 +3010,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"Nottingham" + 0.006*"needs" + 0.005*"plans" + 0.004*"However" + 0.004*"11" + 0.004*"City" + 0.004*"2022" + 0.004*"effective" + 0.004*"oversight"', '0.013*"’" + 0.009*"needs" + 0.005*"impact" + 0.005*"Nottingham" + 0.005*"11" + 0.005*"oversight" + 0.005*"effective" + 0.004*"plans" + 0.004*"risk" + 0.004*"significant"', '0.016*"’" + 0.008*"needs" + 0.007*"effective" + 0.006*"plans" + 0.006*"Nottingham" + 0.005*"City" + 0.005*"practice" + 0.005*"impact" + 0.005*"risk" + 0.005*"oversight"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.006*"Nottingham" + 0.005*"effective" + 0.005*"plans" + 0.005*"impact" + 0.005*"2022" + 0.004*"However" + 0.004*"protection" + 0.004*"oversight"', '0.015*"’" + 0.008*"needs" + 0.006*"Nottingham" + 0.005*"effective" + 0.005*"impact" + 0.005*"City" + 0.005*"practice" + 0.005*"plans" + 0.004*"oversight" + 0.004*"However"', '0.014*"’" + 0.008*"needs" + 0.006*"plans" + 0.006*"11" + 0.005*"effective" + 0.005*"Nottingham" + 0.005*"risk" + 0.005*"oversight" + 0.004*"City" + 0.004*"consistently"']</t>
   </si>
   <si>
     <t>891</t>
@@ -3028,7 +3028,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"receive" + 0.005*"quality" + 0.005*"ensure" + 0.005*"e" + 0.005*"effective" + 0.004*"plans"', '0.014*"’" + 0.009*"well" + 0.007*"practice" + 0.005*"needs" + 0.005*"progress" + 0.005*"plans" + 0.004*"receive" + 0.004*"made" + 0.004*"carers" + 0.004*"e"', '0.012*"’" + 0.008*"well" + 0.008*"practice" + 0.007*"needs" + 0.006*"receive" + 0.006*"ensure" + 0.006*"plans" + 0.006*"areas" + 0.005*"made" + 0.005*"progress"']</t>
+    <t>['0.014*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"well" + 0.006*"receive" + 0.005*"made" + 0.005*"ensure" + 0.005*"plans" + 0.005*"areas" + 0.005*"carers"', '0.012*"’" + 0.009*"well" + 0.009*"practice" + 0.006*"progress" + 0.006*"needs" + 0.006*"plans" + 0.005*"quality" + 0.005*"ensure" + 0.005*"e" + 0.005*"areas"', '0.009*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"receive" + 0.005*"needs" + 0.005*"ensure" + 0.004*"effective" + 0.004*"quality" + 0.004*"e" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3058,7 +3058,7 @@
     <t>04/03/19</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"good" + 0.008*"effective" + 0.008*"practice" + 0.007*"needs" + 0.005*"progress" + 0.005*"planning" + 0.005*"quality" + 0.005*"well" + 0.004*"plans"', '0.010*"’" + 0.008*"needs" + 0.008*"practice" + 0.007*"effective" + 0.007*"plans" + 0.007*"good" + 0.006*"progress" + 0.006*"quality" + 0.006*"planning" + 0.005*"information"', '0.011*"good" + 0.010*"’" + 0.010*"needs" + 0.010*"practice" + 0.008*"well" + 0.008*"effective" + 0.007*"quality" + 0.007*"progress" + 0.007*"planning" + 0.006*"impact"']</t>
+    <t>['0.009*"needs" + 0.009*"’" + 0.009*"effective" + 0.008*"practice" + 0.008*"good" + 0.006*"planning" + 0.006*"progress" + 0.006*"quality" + 0.005*"plans" + 0.004*"team"', '0.012*"’" + 0.009*"good" + 0.008*"effective" + 0.008*"well" + 0.007*"practice" + 0.007*"quality" + 0.006*"needs" + 0.006*"progress" + 0.005*"plans" + 0.005*"information"', '0.010*"needs" + 0.010*"’" + 0.010*"practice" + 0.010*"good" + 0.007*"effective" + 0.007*"plans" + 0.007*"progress" + 0.007*"well" + 0.007*"planning" + 0.006*"quality"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3088,7 +3088,7 @@
     <t>0.1848</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"needs" + 0.005*"number" + 0.005*"good" + 0.005*"protection" + 0.004*"response" + 0.004*"early" + 0.004*"plans" + 0.004*"including" + 0.003*"quality"', '0.013*"’" + 0.010*"needs" + 0.007*"good" + 0.006*"number" + 0.005*"early" + 0.005*"education" + 0.004*"plans" + 0.004*"Oxfordshire" + 0.004*"effective" + 0.004*"protection"', '0.016*"’" + 0.010*"needs" + 0.006*"number" + 0.006*"good" + 0.005*"early" + 0.005*"response" + 0.005*"plans" + 0.005*"protection" + 0.005*"quality" + 0.005*"effective"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.006*"good" + 0.006*"number" + 0.005*"protection" + 0.005*"early" + 0.005*"Oxfordshire" + 0.005*"plans" + 0.005*"effective" + 0.005*"response"', '0.010*"needs" + 0.009*"’" + 0.007*"good" + 0.006*"number" + 0.005*"early" + 0.004*"response" + 0.004*"education" + 0.004*"practice" + 0.004*"protection" + 0.004*"small"', '0.014*"’" + 0.009*"needs" + 0.006*"good" + 0.006*"number" + 0.005*"response" + 0.005*"plans" + 0.005*"early" + 0.004*"quality" + 0.004*"education" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3115,7 +3115,7 @@
     <t>30/01/24</t>
   </si>
   <si>
-    <t>['0.015*"needs" + 0.013*"’" + 0.007*"well" + 0.007*"Peterborough" + 0.006*"8" + 0.006*"progress" + 0.006*"need" + 0.005*"supported" + 0.005*"27" + 0.005*"2023"', '0.012*"needs" + 0.012*"’" + 0.007*"need" + 0.006*"2023" + 0.006*"supported" + 0.005*"Peterborough" + 0.005*"well" + 0.005*"progress" + 0.005*"27" + 0.004*"receive"', '0.018*"’" + 0.013*"needs" + 0.008*"Peterborough" + 0.008*"need" + 0.007*"2023" + 0.006*"progress" + 0.006*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"November"']</t>
+    <t>['0.018*"’" + 0.014*"needs" + 0.006*"need" + 0.006*"well" + 0.006*"2023" + 0.005*"27" + 0.005*"Peterborough" + 0.005*"progress" + 0.005*"plans" + 0.005*"8"', '0.014*"’" + 0.012*"needs" + 0.008*"Peterborough" + 0.007*"need" + 0.007*"2023" + 0.007*"well" + 0.006*"progress" + 0.006*"8" + 0.006*"supported" + 0.005*"plans"', '0.014*"needs" + 0.011*"’" + 0.007*"Peterborough" + 0.007*"need" + 0.006*"progress" + 0.006*"2023" + 0.005*"receive" + 0.005*"well" + 0.005*"good" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>879</t>
@@ -3142,7 +3142,7 @@
     <t>0.1594</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"However" + 0.009*"good" + 0.008*"quality" + 0.008*"well" + 0.007*"needs" + 0.006*"leaders" + 0.006*"number" + 0.006*"result" + 0.006*"practice"', '0.014*"’" + 0.010*"well" + 0.010*"good" + 0.009*"However" + 0.009*"needs" + 0.008*"quality" + 0.008*"timely" + 0.006*"effective" + 0.006*"progress" + 0.006*"result"', '0.012*"’" + 0.008*"However" + 0.008*"good" + 0.008*"well" + 0.007*"needs" + 0.007*"progress" + 0.007*"quality" + 0.006*"plans" + 0.005*"timely" + 0.005*"protection"']</t>
+    <t>['0.018*"’" + 0.009*"However" + 0.009*"good" + 0.009*"well" + 0.008*"needs" + 0.008*"quality" + 0.006*"plans" + 0.006*"progress" + 0.005*"timely" + 0.005*"leaders"', '0.012*"’" + 0.008*"quality" + 0.008*"needs" + 0.008*"well" + 0.008*"However" + 0.007*"progress" + 0.006*"good" + 0.006*"timely" + 0.005*"effective" + 0.005*"plans"', '0.013*"’" + 0.011*"good" + 0.009*"well" + 0.009*"However" + 0.008*"quality" + 0.007*"needs" + 0.007*"result" + 0.006*"timely" + 0.006*"progress" + 0.006*"effective"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3172,7 +3172,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"well" + 0.008*"care-experienced" + 0.007*"Portsmouth" + 0.007*"needs" + 0.006*"plans" + 0.006*"family" + 0.005*"health" + 0.005*"need" + 0.004*"risk"', '0.011*"’" + 0.008*"care-experienced" + 0.005*"well" + 0.005*"needs" + 0.005*"family" + 0.005*"Portsmouth" + 0.004*"plans" + 0.004*"health" + 0.004*"2023" + 0.004*"practice"', '0.022*"’" + 0.008*"needs" + 0.008*"care-experienced" + 0.007*"Portsmouth" + 0.007*"well" + 0.005*"health" + 0.005*"leaders" + 0.005*"family" + 0.005*"receive" + 0.005*"15"']</t>
+    <t>['0.018*"’" + 0.009*"care-experienced" + 0.009*"well" + 0.007*"Portsmouth" + 0.007*"needs" + 0.006*"plans" + 0.006*"family" + 0.005*"practice" + 0.005*"19" + 0.005*"health"', '0.019*"’" + 0.008*"care-experienced" + 0.007*"needs" + 0.007*"Portsmouth" + 0.006*"well" + 0.006*"health" + 0.005*"progress" + 0.005*"leaders" + 0.005*"family" + 0.005*"receive"', '0.010*"’" + 0.005*"well" + 0.005*"Portsmouth" + 0.005*"care-experienced" + 0.005*"needs" + 0.004*"need" + 0.004*"family" + 0.004*"plans" + 0.004*"health" + 0.004*"offer"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3205,7 +3205,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"effective" + 0.006*"quality" + 0.005*"number" + 0.005*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"good" + 0.004*"However" + 0.004*"leaders"', '0.018*"’" + 0.008*"number" + 0.008*"well" + 0.007*"plans" + 0.007*"quality" + 0.006*"good" + 0.006*"practice" + 0.006*"need" + 0.005*"timely" + 0.005*"carers"', '0.014*"’" + 0.007*"quality" + 0.006*"number" + 0.006*"well" + 0.005*"need" + 0.005*"plans" + 0.005*"good" + 0.005*"However" + 0.005*"always" + 0.004*"foster"']</t>
+    <t>['0.011*"’" + 0.007*"quality" + 0.007*"plans" + 0.006*"number" + 0.005*"well" + 0.005*"effective" + 0.005*"always" + 0.004*"need" + 0.004*"good" + 0.004*"timely"', '0.019*"’" + 0.008*"number" + 0.007*"well" + 0.007*"quality" + 0.007*"good" + 0.006*"plans" + 0.006*"need" + 0.005*"timely" + 0.005*"effective" + 0.005*"carers"', '0.016*"’" + 0.007*"number" + 0.006*"well" + 0.006*"quality" + 0.005*"effective" + 0.005*"need" + 0.005*"plans" + 0.005*"good" + 0.005*"practice" + 0.005*"Reading"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3226,7 +3226,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.006*"plans" + 0.006*"consistently" + 0.006*"needs" + 0.006*"practice" + 0.005*"However" + 0.005*"Cleveland" + 0.005*"20" + 0.005*"leaders" + 0.005*"Redcar"', '0.013*"’" + 0.006*"leaders" + 0.006*"However" + 0.005*"needs" + 0.005*"consistently" + 0.005*"plans" + 0.005*"2022" + 0.005*"risk" + 0.004*"carers" + 0.004*"20"', '0.019*"’" + 0.007*"leaders" + 0.006*"2022" + 0.005*"However" + 0.005*"needs" + 0.005*"Redcar" + 0.005*"plans" + 0.005*"20" + 0.005*"carers" + 0.005*"consistently"']</t>
+    <t>['0.021*"’" + 0.007*"However" + 0.007*"needs" + 0.006*"plans" + 0.006*"risk" + 0.006*"consistently" + 0.006*"leaders" + 0.005*"20" + 0.005*"Cleveland" + 0.005*"practice"', '0.015*"’" + 0.006*"leaders" + 0.005*"carers" + 0.005*"plans" + 0.005*"2022" + 0.005*"However" + 0.005*"practice" + 0.004*"consistently" + 0.004*"Redcar" + 0.004*"ensure"', '0.014*"’" + 0.007*"leaders" + 0.005*"consistently" + 0.005*"needs" + 0.005*"plans" + 0.005*"2022" + 0.005*"practice" + 0.004*"carers" + 0.004*"However" + 0.004*"20"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3253,7 +3253,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"practice" + 0.006*"needs" + 0.006*"experienced" + 0.005*"3" + 0.005*"consistently" + 0.005*"response" + 0.004*"good" + 0.004*"plans" + 0.004*"quality"', '0.022*"’" + 0.012*"experienced" + 0.009*"practice" + 0.009*"needs" + 0.008*"plans" + 0.007*"response" + 0.006*"consistently" + 0.006*"quality" + 0.006*"Rochdale" + 0.005*"good"', '0.021*"’" + 0.009*"experienced" + 0.007*"needs" + 0.005*"practice" + 0.005*"good" + 0.005*"well" + 0.005*"quality" + 0.005*"response" + 0.005*"consistently" + 0.004*"Rochdale"']</t>
+    <t>['0.024*"’" + 0.011*"experienced" + 0.010*"needs" + 0.009*"practice" + 0.007*"response" + 0.007*"plans" + 0.006*"good" + 0.005*"progress" + 0.005*"quality" + 0.005*"3"', '0.020*"’" + 0.010*"experienced" + 0.008*"practice" + 0.007*"needs" + 0.006*"consistently" + 0.005*"plans" + 0.005*"quality" + 0.005*"Rochdale" + 0.004*"good" + 0.004*"3"', '0.013*"’" + 0.007*"experienced" + 0.006*"practice" + 0.006*"consistently" + 0.005*"response" + 0.005*"plans" + 0.005*"quality" + 0.004*"Rochdale" + 0.004*"needs" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3277,7 +3277,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"Rotherham" + 0.007*"needs" + 0.006*"well" + 0.005*"ensure" + 0.005*"plans" + 0.005*"However" + 0.005*"Council" + 0.004*"2022" + 0.004*"Borough"', '0.015*"’" + 0.009*"Rotherham" + 0.007*"needs" + 0.005*"well" + 0.005*"good" + 0.005*"However" + 0.004*"Council" + 0.004*"1" + 0.004*"protection" + 0.004*"clear"', '0.012*"’" + 0.009*"Rotherham" + 0.006*"good" + 0.005*"Council" + 0.005*"well" + 0.005*"needs" + 0.004*"ensure" + 0.004*"Metropolitan" + 0.004*"plans" + 0.004*"1"']</t>
+    <t>['0.013*"’" + 0.010*"Rotherham" + 0.006*"needs" + 0.005*"good" + 0.005*"well" + 0.005*"27" + 0.004*"plans" + 0.004*"1" + 0.004*"Council" + 0.004*"Borough"', '0.015*"’" + 0.007*"Rotherham" + 0.006*"needs" + 0.005*"well" + 0.005*"However" + 0.004*"good" + 0.004*"plans" + 0.004*"Metropolitan" + 0.004*"27" + 0.004*"ensure"', '0.017*"’" + 0.009*"Rotherham" + 0.007*"needs" + 0.006*"Council" + 0.006*"ensure" + 0.005*"well" + 0.005*"good" + 0.005*"However" + 0.004*"July" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3301,7 +3301,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.017*"well" + 0.010*"practice" + 0.008*"’" + 0.007*"highly" + 0.005*"strong" + 0.005*"effective" + 0.005*"leaders" + 0.004*"professionals" + 0.004*"within" + 0.004*"need"', '0.012*"’" + 0.011*"well" + 0.011*"practice" + 0.008*"highly" + 0.007*"strong" + 0.006*"leaders" + 0.005*"needs" + 0.005*"effective" + 0.005*"range" + 0.005*"high"', '0.013*"’" + 0.013*"well" + 0.011*"practice" + 0.007*"needs" + 0.006*"highly" + 0.006*"strong" + 0.005*"effective" + 0.005*"high" + 0.004*"professionals" + 0.004*"leaders"']</t>
+    <t>['0.011*"well" + 0.010*"’" + 0.009*"practice" + 0.007*"highly" + 0.006*"needs" + 0.006*"effective" + 0.006*"strong" + 0.004*"effectively" + 0.004*"professionals" + 0.004*"high"', '0.015*"well" + 0.014*"’" + 0.010*"practice" + 0.008*"highly" + 0.006*"leaders" + 0.006*"effective" + 0.006*"strong" + 0.005*"needs" + 0.005*"professionals" + 0.005*"high"', '0.013*"well" + 0.012*"practice" + 0.010*"’" + 0.007*"strong" + 0.006*"highly" + 0.005*"needs" + 0.005*"leaders" + 0.005*"high" + 0.004*"effectively" + 0.004*"excellent"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3328,7 +3328,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"well" + 0.008*"plans" + 0.005*"needs" + 0.004*"good" + 0.004*"clear" + 0.004*"effective" + 0.004*"parents" + 0.003*"progress" + 0.003*"need"', '0.015*"’" + 0.009*"plans" + 0.008*"well" + 0.008*"needs" + 0.006*"good" + 0.005*"risk" + 0.005*"practice" + 0.005*"clear" + 0.005*"need" + 0.004*"supported"', '0.013*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"plans" + 0.005*"effective" + 0.005*"good" + 0.005*"appropriate" + 0.004*"need" + 0.004*"practice" + 0.004*"progress"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"need" + 0.005*"good" + 0.005*"clear" + 0.004*"supported" + 0.004*"risk"', '0.011*"’" + 0.010*"plans" + 0.009*"well" + 0.009*"needs" + 0.004*"clear" + 0.004*"effective" + 0.004*"good" + 0.004*"range" + 0.004*"parents" + 0.004*"supported"', '0.016*"’" + 0.008*"well" + 0.007*"plans" + 0.006*"needs" + 0.006*"good" + 0.006*"effective" + 0.004*"risk" + 0.004*"Kingston" + 0.004*"progress" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3355,7 +3355,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"quality" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"use" + 0.004*"information" + 0.004*"health" + 0.004*"timely" + 0.004*"always"', '0.008*"’" + 0.005*"well" + 0.004*"plans" + 0.004*"effective" + 0.004*"needs" + 0.004*"information" + 0.003*"case" + 0.003*"health" + 0.003*"quality" + 0.003*"benefit"', '0.014*"’" + 0.005*"needs" + 0.005*"well" + 0.004*"benefit" + 0.004*"plans" + 0.004*"use" + 0.004*"However" + 0.004*"effective" + 0.004*"quality" + 0.004*"management"']</t>
+    <t>['0.009*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"quality" + 0.005*"plans" + 0.004*"information" + 0.004*"effective" + 0.004*"timely" + 0.004*"use" + 0.004*"health"', '0.014*"’" + 0.005*"well" + 0.004*"quality" + 0.004*"needs" + 0.004*"benefit" + 0.004*"plans" + 0.004*"use" + 0.004*"information" + 0.004*"However" + 0.003*"‘"', '0.012*"’" + 0.005*"well" + 0.005*"plans" + 0.004*"quality" + 0.004*"always" + 0.004*"benefit" + 0.004*"effective" + 0.004*"actions" + 0.003*"needs" + 0.003*"management"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3376,7 +3376,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.012*"well" + 0.009*"needs" + 0.007*"good" + 0.007*"team" + 0.007*"plans" + 0.007*"need" + 0.006*"practice" + 0.006*"enough" + 0.006*"effective"', '0.010*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"good" + 0.007*"need" + 0.005*"effective" + 0.005*"plans" + 0.005*"ensure" + 0.005*"team" + 0.005*"protection"', '0.013*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"good" + 0.007*"team" + 0.007*"practice" + 0.006*"need" + 0.006*"ensure" + 0.005*"protection" + 0.005*"sufficiently"']</t>
+    <t>['0.015*"’" + 0.012*"needs" + 0.011*"well" + 0.007*"good" + 0.007*"practice" + 0.007*"need" + 0.007*"effective" + 0.006*"enough" + 0.006*"plans" + 0.006*"ensure"', '0.009*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"team" + 0.006*"need" + 0.006*"good" + 0.005*"practice" + 0.005*"protection" + 0.005*"enough" + 0.005*"effective"', '0.013*"’" + 0.009*"well" + 0.008*"team" + 0.008*"good" + 0.006*"needs" + 0.006*"ensure" + 0.006*"protection" + 0.005*"plans" + 0.005*"need" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3400,7 +3400,7 @@
     <t>0.2045</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"well" + 0.008*"Salford" + 0.007*"plans" + 0.007*"effective" + 0.007*"needs" + 0.006*"practice" + 0.005*"planning" + 0.005*"Council" + 0.005*"6"', '0.010*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"planning" + 0.005*"leaders" + 0.004*"experiences" + 0.004*"practice" + 0.004*"progress"', '0.014*"’" + 0.008*"plans" + 0.008*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"Salford" + 0.005*"leaders" + 0.005*"planning" + 0.004*"progress" + 0.004*"practice"']</t>
+    <t>['0.012*"’" + 0.007*"effective" + 0.006*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"practice" + 0.005*"Salford" + 0.005*"appropriate" + 0.004*"6" + 0.004*"10"', '0.015*"’" + 0.008*"needs" + 0.008*"well" + 0.008*"plans" + 0.008*"effective" + 0.005*"planning" + 0.005*"Salford" + 0.005*"leaders" + 0.005*"2023" + 0.005*"experiences"', '0.014*"’" + 0.009*"plans" + 0.007*"needs" + 0.007*"Salford" + 0.007*"well" + 0.006*"leaders" + 0.005*"10" + 0.005*"planning" + 0.005*"practice" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3421,7 +3421,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"Sandwell" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"quality" + 0.005*"20" + 0.005*"Trust" + 0.005*"education" + 0.005*"9"', '0.012*"’" + 0.009*"needs" + 0.008*"well" + 0.006*"plans" + 0.006*"quality" + 0.006*"Sandwell" + 0.005*"Trust" + 0.005*"number" + 0.004*"education" + 0.004*"progress"', '0.011*"’" + 0.010*"needs" + 0.007*"plans" + 0.007*"Sandwell" + 0.006*"well" + 0.005*"quality" + 0.005*"effective" + 0.004*"9" + 0.004*"number" + 0.004*"20"']</t>
+    <t>['0.013*"’" + 0.007*"Sandwell" + 0.007*"well" + 0.007*"quality" + 0.007*"needs" + 0.007*"plans" + 0.005*"9" + 0.005*"progress" + 0.005*"many" + 0.004*"number"', '0.016*"’" + 0.009*"needs" + 0.008*"Sandwell" + 0.008*"plans" + 0.007*"well" + 0.005*"quality" + 0.005*"Trust" + 0.005*"9" + 0.005*"effective" + 0.005*"changes"', '0.013*"’" + 0.007*"needs" + 0.005*"well" + 0.005*"Sandwell" + 0.005*"Trust" + 0.005*"plans" + 0.004*"20" + 0.004*"education" + 0.004*"many" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3442,7 +3442,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.006*"practice" + 0.006*"◼" + 0.005*"protection" + 0.005*"March" + 0.005*"including" + 0.005*"oversight" + 0.005*"always" + 0.005*"Sefton"', '0.011*"’" + 0.008*"needs" + 0.006*"oversight" + 0.005*"practice" + 0.005*"◼" + 0.005*"many" + 0.004*"lack" + 0.004*"March" + 0.004*"protection" + 0.004*"including"', '0.018*"’" + 0.009*"needs" + 0.006*"practice" + 0.005*"4" + 0.005*"lack" + 0.005*"oversight" + 0.005*"management" + 0.005*"including" + 0.005*"many" + 0.005*"timely"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.006*"practice" + 0.005*"need" + 0.005*"oversight" + 0.005*"◼" + 0.005*"21" + 0.005*"March" + 0.005*"management" + 0.004*"many"', '0.020*"’" + 0.009*"needs" + 0.006*"practice" + 0.005*"including" + 0.005*"protection" + 0.005*"◼" + 0.005*"many" + 0.005*"lack" + 0.005*"plans" + 0.004*"always"', '0.014*"’" + 0.010*"needs" + 0.007*"oversight" + 0.006*"practice" + 0.006*"lack" + 0.005*"Sefton" + 0.005*"4" + 0.005*"including" + 0.005*"management" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3472,7 +3472,7 @@
     <t>0.2097</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.006*"well" + 0.005*"leaders" + 0.005*"quality" + 0.004*"receive" + 0.004*"health" + 0.004*"experiences" + 0.004*"practice"', '0.014*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.007*"practice" + 0.006*"well" + 0.005*"good" + 0.005*"leaders" + 0.005*"health" + 0.004*"plans" + 0.004*"quality"', '0.022*"’" + 0.013*"Sheffield" + 0.010*"needs" + 0.007*"well" + 0.006*"health" + 0.006*"leaders" + 0.006*"practice" + 0.005*"11" + 0.005*"22" + 0.004*"mental"']</t>
+    <t>['0.012*"’" + 0.011*"Sheffield" + 0.007*"well" + 0.006*"needs" + 0.005*"leaders" + 0.005*"adviser" + 0.004*"practice" + 0.004*"mental" + 0.004*"health" + 0.004*"quality"', '0.020*"’" + 0.010*"Sheffield" + 0.009*"needs" + 0.006*"health" + 0.006*"practice" + 0.005*"leaders" + 0.005*"well" + 0.004*"experiences" + 0.004*"good" + 0.004*"effective"', '0.025*"’" + 0.011*"Sheffield" + 0.009*"needs" + 0.008*"well" + 0.006*"practice" + 0.006*"leaders" + 0.005*"health" + 0.005*"quality" + 0.005*"plans" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3499,7 +3499,7 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"needs" + 0.007*"Shropshire" + 0.007*"well" + 0.006*"plans" + 0.006*"2022" + 0.006*"progress" + 0.005*"7" + 0.005*"training" + 0.005*"leaders"', '0.015*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Shropshire" + 0.005*"progress" + 0.005*"making" + 0.005*"make" + 0.005*"plans" + 0.005*"February" + 0.004*"7"', '0.018*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Shropshire" + 0.006*"progress" + 0.005*"making" + 0.005*"practice" + 0.005*"2022" + 0.004*"plans" + 0.004*"effective"']</t>
+    <t>['0.021*"’" + 0.008*"Shropshire" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"2022" + 0.006*"progress" + 0.005*"7" + 0.005*"making" + 0.005*"effectively"', '0.010*"’" + 0.007*"needs" + 0.005*"well" + 0.005*"Shropshire" + 0.005*"making" + 0.004*"practice" + 0.004*"training" + 0.004*"2022" + 0.004*"progress" + 0.004*"leaders"', '0.016*"’" + 0.010*"needs" + 0.007*"well" + 0.006*"Shropshire" + 0.006*"progress" + 0.004*"plans" + 0.004*"making" + 0.004*"7" + 0.004*"leaders" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3520,7 +3520,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"plans" + 0.006*"Slough" + 0.005*"needs" + 0.005*"23" + 0.005*"practice" + 0.004*"leaders" + 0.004*"However" + 0.004*"need" + 0.004*"impact"', '0.014*"’" + 0.008*"Slough" + 0.007*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"supported" + 0.005*"need" + 0.005*"impact" + 0.005*"leaders" + 0.005*"practice"', '0.017*"’" + 0.009*"Slough" + 0.007*"needs" + 0.007*"quality" + 0.007*"practice" + 0.006*"3" + 0.005*"plans" + 0.005*"senior" + 0.005*"However" + 0.005*"impact"']</t>
+    <t>['0.012*"’" + 0.007*"needs" + 0.007*"Slough" + 0.006*"plans" + 0.006*"practice" + 0.005*"quality" + 0.005*"3" + 0.005*"leaders" + 0.005*"need" + 0.004*"23"', '0.021*"’" + 0.008*"Slough" + 0.007*"quality" + 0.006*"plans" + 0.005*"practice" + 0.005*"impact" + 0.005*"supported" + 0.005*"need" + 0.005*"3" + 0.005*"leaders"', '0.013*"’" + 0.009*"Slough" + 0.007*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"quality" + 0.004*"supported" + 0.004*"impact" + 0.004*"leaders" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3541,7 +3541,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"lack" + 0.007*"2022" + 0.006*"Solihull" + 0.005*"risk" + 0.005*"need" + 0.004*"quality" + 0.004*"experiences" + 0.004*"effective" + 0.004*"practice"', '0.017*"’" + 0.010*"lack" + 0.008*"2022" + 0.007*"need" + 0.007*"risk" + 0.007*"quality" + 0.006*"effective" + 0.006*"significant" + 0.005*"Solihull" + 0.005*"practice"', '0.017*"’" + 0.012*"lack" + 0.010*"2022" + 0.007*"Solihull" + 0.006*"need" + 0.005*"risk" + 0.005*"practice" + 0.005*"significant" + 0.005*"means" + 0.005*"quality"']</t>
+    <t>['0.012*"’" + 0.010*"lack" + 0.008*"2022" + 0.006*"practice" + 0.006*"need" + 0.006*"Solihull" + 0.006*"risk" + 0.005*"experiences" + 0.005*"quality" + 0.005*"significant"', '0.020*"’" + 0.010*"lack" + 0.009*"2022" + 0.006*"Solihull" + 0.006*"need" + 0.005*"means" + 0.005*"risk" + 0.005*"effective" + 0.005*"delay" + 0.005*"quality"', '0.013*"’" + 0.012*"lack" + 0.008*"2022" + 0.007*"need" + 0.006*"quality" + 0.006*"risk" + 0.006*"Solihull" + 0.005*"effective" + 0.004*"experiences" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3562,7 +3562,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"Somerset" + 0.006*"leaders" + 0.006*"number" + 0.006*"plans" + 0.005*"regularly" + 0.005*"progress" + 0.005*"good"', '0.016*"’" + 0.009*"well" + 0.006*"needs" + 0.006*"Somerset" + 0.005*"supported" + 0.005*"including" + 0.005*"leaders" + 0.005*"good" + 0.005*"need" + 0.005*"plans"', '0.018*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"Somerset" + 0.007*"plans" + 0.007*"good" + 0.005*"including" + 0.005*"practice" + 0.005*"supported" + 0.005*"positive"']</t>
+    <t>['0.014*"’" + 0.007*"plans" + 0.007*"well" + 0.007*"needs" + 0.006*"Somerset" + 0.005*"good" + 0.005*"number" + 0.005*"supported" + 0.005*"regularly" + 0.004*"practice"', '0.021*"’" + 0.009*"needs" + 0.008*"well" + 0.006*"Somerset" + 0.006*"good" + 0.005*"need" + 0.005*"leaders" + 0.005*"number" + 0.005*"progress" + 0.005*"plans"', '0.015*"’" + 0.011*"well" + 0.009*"needs" + 0.007*"Somerset" + 0.006*"plans" + 0.006*"supported" + 0.006*"good" + 0.006*"leaders" + 0.005*"including" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3583,7 +3583,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.009*"well" + 0.008*"plans" + 0.007*"leaders" + 0.007*"’" + 0.007*"quality" + 0.006*"good" + 0.005*"progress" + 0.005*"needs" + 0.004*"timeliness" + 0.004*"always"', '0.012*"well" + 0.012*"’" + 0.011*"quality" + 0.010*"leaders" + 0.008*"good" + 0.007*"plans" + 0.007*"timely" + 0.006*"needs" + 0.006*"practice" + 0.005*"progress"', '0.012*"quality" + 0.010*"well" + 0.007*"plans" + 0.006*"leaders" + 0.006*"’" + 0.006*"timely" + 0.006*"good" + 0.005*"progress" + 0.005*"needs" + 0.005*"always"']</t>
+    <t>['0.010*"quality" + 0.009*"well" + 0.007*"plans" + 0.006*"’" + 0.006*"needs" + 0.006*"good" + 0.006*"leaders" + 0.005*"timely" + 0.004*"impact" + 0.004*"progress"', '0.012*"quality" + 0.011*"well" + 0.010*"leaders" + 0.010*"’" + 0.008*"plans" + 0.007*"good" + 0.007*"timely" + 0.006*"progress" + 0.006*"needs" + 0.006*"◼"', '0.011*"well" + 0.009*"’" + 0.008*"quality" + 0.007*"leaders" + 0.007*"plans" + 0.007*"good" + 0.005*"timeliness" + 0.005*"progress" + 0.005*"timely" + 0.005*"needs"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -3613,7 +3613,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.027*"’" + 0.010*"needs" + 0.008*"Tyneside" + 0.008*"South" + 0.006*"oversight" + 0.005*"December" + 0.005*"9" + 0.005*"15" + 0.005*"5" + 0.005*"management"', '0.023*"’" + 0.008*"needs" + 0.007*"South" + 0.006*"Tyneside" + 0.006*"effective" + 0.005*"management" + 0.005*"However" + 0.005*"oversight" + 0.005*"risk" + 0.004*"2023"', '0.022*"’" + 0.008*"needs" + 0.007*"Tyneside" + 0.007*"South" + 0.005*"carers" + 0.005*"practice" + 0.005*"5" + 0.005*"9" + 0.004*"protection" + 0.004*"risk"']</t>
+    <t>['0.023*"’" + 0.008*"needs" + 0.008*"Tyneside" + 0.007*"South" + 0.006*"However" + 0.006*"carers" + 0.005*"oversight" + 0.005*"December" + 0.005*"practice" + 0.005*"5"', '0.029*"’" + 0.010*"needs" + 0.008*"Tyneside" + 0.007*"South" + 0.006*"effective" + 0.006*"9" + 0.005*"management" + 0.005*"oversight" + 0.005*"progress" + 0.005*"14"', '0.019*"’" + 0.008*"needs" + 0.007*"South" + 0.006*"Tyneside" + 0.005*"oversight" + 0.005*"February" + 0.005*"carers" + 0.004*"5" + 0.004*"effective" + 0.004*"well"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -3640,7 +3640,7 @@
     <t>28/07/23</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"plans" + 0.006*"Southampton" + 0.005*"experiences" + 0.005*"well" + 0.005*"16" + 0.005*"improve" + 0.004*"including" + 0.004*"timely" + 0.004*"5"', '0.018*"’" + 0.007*"plans" + 0.005*"progress" + 0.005*"Southampton" + 0.005*"including" + 0.005*"improve" + 0.005*"5" + 0.004*"needs" + 0.004*"effective" + 0.004*"June"', '0.017*"’" + 0.006*"Southampton" + 0.005*"progress" + 0.005*"plans" + 0.005*"needs" + 0.004*"improve" + 0.004*"timely" + 0.004*"5" + 0.004*"2023" + 0.004*"experiences"']</t>
+    <t>['0.016*"’" + 0.006*"progress" + 0.006*"Southampton" + 0.005*"plans" + 0.005*"16" + 0.005*"needs" + 0.005*"provide" + 0.005*"experiences" + 0.004*"including" + 0.004*"well"', '0.011*"’" + 0.008*"plans" + 0.005*"5" + 0.005*"improve" + 0.005*"Southampton" + 0.004*"well" + 0.004*"needs" + 0.004*"June" + 0.004*"provided" + 0.003*"2023"', '0.020*"’" + 0.006*"Southampton" + 0.005*"including" + 0.005*"improve" + 0.005*"timely" + 0.004*"plans" + 0.004*"leaders" + 0.004*"5" + 0.004*"experiences" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -3673,7 +3673,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"leaders" + 0.005*"practice" + 0.005*"effective" + 0.005*"planning" + 0.005*"carers" + 0.005*"within" + 0.005*"quality" + 0.004*"number" + 0.004*"Southend"', '0.015*"’" + 0.008*"planning" + 0.007*"quality" + 0.007*"practice" + 0.006*"protection" + 0.006*"number" + 0.006*"always" + 0.006*"needs" + 0.005*"good" + 0.005*"leaders"', '0.011*"’" + 0.009*"planning" + 0.008*"practice" + 0.007*"quality" + 0.007*"leaders" + 0.005*"plans" + 0.005*"need" + 0.005*"within" + 0.005*"protection" + 0.005*"needs"']</t>
+    <t>['0.009*"’" + 0.007*"practice" + 0.005*"number" + 0.005*"carers" + 0.005*"planning" + 0.005*"protection" + 0.004*"good" + 0.004*"effective" + 0.004*"within" + 0.004*"quality"', '0.013*"’" + 0.011*"planning" + 0.007*"quality" + 0.007*"practice" + 0.006*"protection" + 0.006*"leaders" + 0.006*"always" + 0.005*"need" + 0.005*"good" + 0.005*"effective"', '0.016*"’" + 0.008*"quality" + 0.007*"leaders" + 0.007*"practice" + 0.006*"planning" + 0.006*"within" + 0.005*"risk" + 0.005*"number" + 0.005*"carers" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -3691,7 +3691,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.008*"St" + 0.006*"Helens" + 0.005*"good" + 0.005*"well" + 0.005*"10" + 0.005*"progress" + 0.005*"21" + 0.005*"need"', '0.015*"’" + 0.009*"Helens" + 0.008*"St" + 0.007*"well" + 0.006*"progress" + 0.006*"receive" + 0.006*"risk" + 0.006*"need" + 0.005*"needs" + 0.005*"10"', '0.016*"’" + 0.008*"Helens" + 0.007*"St" + 0.007*"needs" + 0.006*"well" + 0.006*"21" + 0.006*"progress" + 0.005*"receive" + 0.005*"need" + 0.005*"good"']</t>
+    <t>['0.019*"’" + 0.008*"needs" + 0.007*"Helens" + 0.007*"St" + 0.006*"well" + 0.006*"progress" + 0.006*"need" + 0.006*"good" + 0.005*"receive" + 0.005*"risk"', '0.013*"’" + 0.010*"St" + 0.008*"Helens" + 0.007*"well" + 0.006*"needs" + 0.006*"10" + 0.006*"progress" + 0.005*"receive" + 0.005*"need" + 0.005*"21"', '0.015*"’" + 0.007*"Helens" + 0.006*"needs" + 0.006*"10" + 0.006*"progress" + 0.005*"St" + 0.005*"21" + 0.005*"well" + 0.005*"good" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -3712,7 +3712,7 @@
     <t>0.1688</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.013*"needs" + 0.007*"quality" + 0.007*"oversight" + 0.006*"practice" + 0.006*"ensure" + 0.006*"progress" + 0.006*"health" + 0.005*"Staffordshire" + 0.005*"plans"', '0.017*"’" + 0.011*"needs" + 0.006*"Staffordshire" + 0.006*"progress" + 0.006*"plans" + 0.006*"practice" + 0.006*"health" + 0.005*"quality" + 0.005*"oversight" + 0.005*"ensure"', '0.008*"needs" + 0.008*"’" + 0.004*"health" + 0.004*"2023" + 0.004*"quality" + 0.003*"ensure" + 0.003*"oversight" + 0.003*"practice" + 0.003*"Staffordshire" + 0.003*"progress"']</t>
+    <t>['0.009*"’" + 0.007*"needs" + 0.005*"quality" + 0.005*"Staffordshire" + 0.004*"progress" + 0.004*"oversight" + 0.004*"health" + 0.004*"practice" + 0.003*"risk" + 0.003*"plans"', '0.013*"’" + 0.008*"needs" + 0.006*"quality" + 0.006*"Staffordshire" + 0.005*"oversight" + 0.005*"practice" + 0.005*"health" + 0.004*"risk" + 0.004*"progress" + 0.004*"ensure"', '0.022*"’" + 0.015*"needs" + 0.007*"progress" + 0.007*"ensure" + 0.007*"practice" + 0.006*"oversight" + 0.006*"health" + 0.006*"plans" + 0.006*"quality" + 0.005*"6"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -3736,7 +3736,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"well" + 0.006*"strong" + 0.006*"Stockport" + 0.006*"plans" + 0.005*"practice" + 0.005*"needs" + 0.005*"leaders" + 0.005*"28" + 0.005*"need"', '0.010*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Stockport" + 0.005*"needs" + 0.004*"risk" + 0.004*"strong" + 0.004*"good" + 0.004*"1" + 0.004*"plans"', '0.009*"’" + 0.009*"practice" + 0.008*"Stockport" + 0.008*"well" + 0.007*"needs" + 0.005*"strong" + 0.005*"risk" + 0.005*"plans" + 0.005*"ensure" + 0.005*"quality"']</t>
+    <t>['0.009*"’" + 0.006*"well" + 0.005*"Stockport" + 0.005*"practice" + 0.004*"needs" + 0.004*"ensure" + 0.004*"strong" + 0.004*"March" + 0.003*"range" + 0.003*"quality"', '0.010*"’" + 0.008*"practice" + 0.008*"well" + 0.007*"Stockport" + 0.006*"risk" + 0.006*"needs" + 0.006*"plans" + 0.005*"leaders" + 0.004*"team" + 0.004*"strong"', '0.012*"’" + 0.009*"well" + 0.007*"practice" + 0.007*"Stockport" + 0.007*"needs" + 0.007*"strong" + 0.006*"plans" + 0.005*"risk" + 0.005*"ensure" + 0.005*"28"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -3769,7 +3769,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"leaders" + 0.008*"plans" + 0.007*"needs" + 0.007*"quality" + 0.007*"on-Tees" + 0.006*"good" + 0.006*"well" + 0.004*"6" + 0.004*"17"', '0.022*"’" + 0.010*"plans" + 0.008*"leaders" + 0.007*"Stockton" + 0.006*"well" + 0.006*"quality" + 0.005*"on-Tees" + 0.005*"senior" + 0.005*"good" + 0.005*"needs"', '0.014*"’" + 0.010*"leaders" + 0.007*"well" + 0.007*"needs" + 0.006*"Stockton" + 0.006*"plans" + 0.005*"on-Tees" + 0.005*"good" + 0.005*"senior" + 0.004*"carers"']</t>
+    <t>['0.021*"’" + 0.010*"leaders" + 0.010*"plans" + 0.008*"on-Tees" + 0.007*"well" + 0.007*"Stockton" + 0.006*"needs" + 0.006*"good" + 0.006*"senior" + 0.005*"quality"', '0.017*"’" + 0.008*"plans" + 0.007*"leaders" + 0.007*"quality" + 0.007*"well" + 0.006*"needs" + 0.005*"good" + 0.005*"Stockton" + 0.005*"on-Tees" + 0.005*"6"', '0.019*"’" + 0.007*"leaders" + 0.007*"plans" + 0.006*"needs" + 0.005*"quality" + 0.005*"well" + 0.005*"Stockton" + 0.005*"good" + 0.004*"senior" + 0.004*"17"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -3790,7 +3790,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"needs" + 0.008*"plans" + 0.008*"Stoke" + 0.007*"well" + 0.007*"on-Trent" + 0.006*"ensure" + 0.006*"However" + 0.006*"protection" + 0.005*"14"', '0.020*"’" + 0.007*"needs" + 0.007*"Stoke" + 0.007*"However" + 0.006*"on-Trent" + 0.006*"well" + 0.006*"ensure" + 0.006*"plans" + 0.006*"quality" + 0.005*"progress"', '0.014*"’" + 0.009*"needs" + 0.007*"However" + 0.007*"well" + 0.006*"on-Trent" + 0.006*"protection" + 0.005*"Stoke" + 0.005*"plans" + 0.005*"progress" + 0.005*"leaders"']</t>
+    <t>['0.018*"’" + 0.008*"on-Trent" + 0.007*"Stoke" + 0.007*"needs" + 0.006*"However" + 0.006*"well" + 0.006*"progress" + 0.005*"ensure" + 0.005*"3" + 0.005*"plans"', '0.012*"’" + 0.007*"protection" + 0.007*"on-Trent" + 0.007*"plans" + 0.007*"needs" + 0.006*"Stoke" + 0.006*"well" + 0.006*"ensure" + 0.005*"However" + 0.005*"practice"', '0.019*"’" + 0.010*"needs" + 0.008*"However" + 0.008*"well" + 0.007*"plans" + 0.007*"Stoke" + 0.006*"quality" + 0.006*"on-Trent" + 0.005*"protection" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -3817,7 +3817,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"well" + 0.005*"leaders" + 0.005*"effective" + 0.004*"progress" + 0.004*"good" + 0.004*"high" + 0.004*"practice" + 0.004*"carers" + 0.003*"impact"', '0.009*"’" + 0.006*"progress" + 0.005*"well" + 0.005*"ensure" + 0.004*"effective" + 0.004*"leaders" + 0.004*"high" + 0.004*"need" + 0.004*"practice" + 0.004*"good"', '0.016*"’" + 0.007*"progress" + 0.006*"well" + 0.005*"good" + 0.005*"effective" + 0.005*"ensure" + 0.004*"needs" + 0.004*"leaders" + 0.004*"practice" + 0.004*"carers"']</t>
+    <t>['0.014*"’" + 0.008*"well" + 0.006*"progress" + 0.005*"effective" + 0.004*"good" + 0.004*"needs" + 0.004*"leaders" + 0.004*"ensure" + 0.004*"carers" + 0.004*"protection"', '0.014*"’" + 0.006*"progress" + 0.005*"well" + 0.004*"leaders" + 0.004*"effective" + 0.004*"good" + 0.004*"ensure" + 0.004*"Suffolk" + 0.004*"supported" + 0.004*"need"', '0.011*"’" + 0.006*"progress" + 0.006*"effective" + 0.005*"good" + 0.005*"leaders" + 0.005*"practice" + 0.005*"well" + 0.005*"ensure" + 0.004*"experiences" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -3847,7 +3847,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"quality" + 0.007*"well" + 0.007*"needs" + 0.006*"Sunderland" + 0.005*"highly" + 0.005*"high" + 0.005*"council" + 0.004*"practice" + 0.004*"protection"', '0.015*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"parents" + 0.005*"quality" + 0.005*"experienced" + 0.005*"TfC" + 0.004*"good" + 0.004*"practice" + 0.004*"protection"', '0.016*"’" + 0.007*"well" + 0.007*"quality" + 0.006*"Sunderland" + 0.006*"experienced" + 0.005*"needs" + 0.005*"training" + 0.005*"practice" + 0.004*"protection" + 0.004*"good"']</t>
+    <t>['0.020*"’" + 0.007*"well" + 0.007*"quality" + 0.007*"needs" + 0.006*"Sunderland" + 0.005*"highly" + 0.005*"practice" + 0.005*"good" + 0.005*"experienced" + 0.004*"council"', '0.017*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"Sunderland" + 0.006*"quality" + 0.006*"experienced" + 0.005*"protection" + 0.005*"training" + 0.005*"TfC" + 0.005*"parents"', '0.009*"’" + 0.006*"quality" + 0.006*"well" + 0.004*"Sunderland" + 0.004*"needs" + 0.004*"council" + 0.004*"experienced" + 0.004*"cared" + 0.004*"practice" + 0.003*"TfC"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -3874,7 +3874,7 @@
     <t>0.1782</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"practice" + 0.006*"progress" + 0.006*"plans" + 0.006*"quality" + 0.006*"carers" + 0.005*"effective" + 0.005*"good"', '0.012*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"practice" + 0.007*"progress" + 0.005*"quality" + 0.005*"17" + 0.005*"However" + 0.005*"good" + 0.005*"effective"', '0.013*"’" + 0.011*"needs" + 0.009*"well" + 0.006*"progress" + 0.006*"practice" + 0.005*"Surrey" + 0.005*"plans" + 0.004*"17" + 0.004*"carers" + 0.004*"However"']</t>
+    <t>['0.014*"’" + 0.012*"needs" + 0.010*"well" + 0.008*"practice" + 0.008*"progress" + 0.005*"carers" + 0.005*"effective" + 0.005*"plans" + 0.005*"good" + 0.005*"quality"', '0.014*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"practice" + 0.006*"progress" + 0.006*"plans" + 0.006*"quality" + 0.006*"effective" + 0.005*"17" + 0.005*"good"', '0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"practice" + 0.005*"However" + 0.005*"17" + 0.005*"good" + 0.004*"progress" + 0.004*"plans" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -3895,7 +3895,7 @@
     <t>0.1489</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.011*"needs" + 0.007*"Swindon" + 0.006*"always" + 0.006*"need" + 0.006*"well" + 0.005*"plans" + 0.005*"Council" + 0.005*"many" + 0.005*"health"', '0.026*"’" + 0.012*"needs" + 0.010*"need" + 0.009*"well" + 0.008*"Swindon" + 0.008*"plans" + 0.006*"impact" + 0.006*"always" + 0.005*"health" + 0.005*"home"', '0.021*"’" + 0.015*"needs" + 0.011*"Swindon" + 0.009*"well" + 0.008*"need" + 0.007*"always" + 0.006*"effective" + 0.006*"lack" + 0.006*"plans" + 0.005*"impact"']</t>
+    <t>['0.015*"’" + 0.008*"need" + 0.007*"needs" + 0.007*"well" + 0.006*"Swindon" + 0.005*"plans" + 0.005*"many" + 0.004*"impact" + 0.004*"always" + 0.004*"home"', '0.025*"’" + 0.012*"needs" + 0.009*"need" + 0.008*"well" + 0.008*"Swindon" + 0.008*"always" + 0.007*"plans" + 0.006*"effective" + 0.006*"health" + 0.005*"education"', '0.023*"’" + 0.017*"needs" + 0.011*"Swindon" + 0.008*"well" + 0.008*"need" + 0.007*"plans" + 0.006*"impact" + 0.006*"always" + 0.005*"effective" + 0.005*"17"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -3919,7 +3919,7 @@
     <t>0.1495</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"needs" + 0.008*"impact" + 0.007*"risk" + 0.006*"quality" + 0.005*"practice" + 0.005*"experienced" + 0.005*"response" + 0.005*"effective" + 0.005*"understand"', '0.013*"’" + 0.007*"needs" + 0.005*"practice" + 0.005*"experienced" + 0.005*"quality" + 0.005*"risk" + 0.005*"progress" + 0.004*"impact" + 0.004*"4" + 0.004*"2023"', '0.016*"’" + 0.009*"needs" + 0.006*"Tameside" + 0.006*"response" + 0.006*"experiences" + 0.005*"4" + 0.005*"2023" + 0.005*"experienced" + 0.005*"risk" + 0.005*"quality"']</t>
+    <t>['0.021*"’" + 0.009*"needs" + 0.006*"quality" + 0.006*"risk" + 0.006*"4" + 0.006*"2023" + 0.005*"impact" + 0.005*"understand" + 0.005*"experienced" + 0.005*"response"', '0.010*"’" + 0.007*"needs" + 0.006*"practice" + 0.006*"impact" + 0.005*"experienced" + 0.005*"2023" + 0.005*"response" + 0.005*"risk" + 0.004*"quality" + 0.004*"Tameside"', '0.016*"’" + 0.010*"needs" + 0.007*"risk" + 0.007*"impact" + 0.005*"4" + 0.005*"experienced" + 0.005*"Tameside" + 0.005*"quality" + 0.005*"practice" + 0.005*"experiences"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -3940,7 +3940,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"well" + 0.008*"effective" + 0.006*"needs" + 0.006*"plans" + 0.005*"strong" + 0.005*"need" + 0.005*"practice" + 0.005*"ensure" + 0.005*"benefit"', '0.014*"’" + 0.012*"well" + 0.007*"needs" + 0.006*"effective" + 0.005*"need" + 0.005*"practice" + 0.005*"planning" + 0.005*"strong" + 0.005*"highly" + 0.005*"ensure"', '0.016*"’" + 0.011*"well" + 0.009*"needs" + 0.006*"plans" + 0.005*"effective" + 0.005*"improve" + 0.005*"strong" + 0.005*"ensure" + 0.005*"need" + 0.004*"leaders"']</t>
+    <t>['0.019*"’" + 0.012*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"need" + 0.006*"practice" + 0.005*"strong" + 0.005*"planning" + 0.005*"ensure" + 0.005*"improve"', '0.013*"’" + 0.009*"well" + 0.008*"effective" + 0.006*"needs" + 0.006*"plans" + 0.004*"strong" + 0.004*"ensure" + 0.004*"planning" + 0.004*"understand" + 0.004*"supported"', '0.015*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"effective" + 0.006*"strong" + 0.005*"benefit" + 0.005*"ensure" + 0.005*"carers" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -3961,7 +3961,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"well" + 0.007*"carers" + 0.005*"need" + 0.004*"leaders" + 0.004*"practice" + 0.004*"needs" + 0.004*"Thurrock" + 0.004*"vulnerable" + 0.004*"effective"', '0.015*"’" + 0.008*"well" + 0.005*"need" + 0.005*"carers" + 0.005*"ensure" + 0.004*"practice" + 0.004*"effective" + 0.004*"needs" + 0.004*"Thurrock" + 0.003*"protect"', '0.014*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"carers" + 0.004*"impact" + 0.004*"ensure" + 0.004*"need" + 0.004*"protection" + 0.004*"protect" + 0.003*"Thurrock"']</t>
+    <t>['0.016*"’" + 0.009*"well" + 0.006*"need" + 0.005*"carers" + 0.005*"leaders" + 0.004*"needs" + 0.004*"effective" + 0.004*"ensure" + 0.004*"protection" + 0.004*"Thurrock"', '0.010*"’" + 0.007*"well" + 0.005*"carers" + 0.005*"practice" + 0.004*"need" + 0.004*"ensure" + 0.004*"impact" + 0.004*"needs" + 0.004*"Thurrock" + 0.003*"protection"', '0.013*"’" + 0.008*"well" + 0.006*"carers" + 0.005*"needs" + 0.004*"need" + 0.004*"practice" + 0.004*"ensure" + 0.003*"Thurrock" + 0.003*"effective" + 0.003*"good"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -3982,7 +3982,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"Torbay" + 0.005*"good" + 0.005*"progress" + 0.005*"effective" + 0.004*"agencies" + 0.004*"2022" + 0.004*"timely"', '0.020*"’" + 0.009*"well" + 0.009*"Torbay" + 0.006*"good" + 0.006*"needs" + 0.006*"plans" + 0.004*"supported" + 0.004*"effective" + 0.004*"team" + 0.004*"21"', '0.016*"’" + 0.009*"well" + 0.007*"Torbay" + 0.006*"good" + 0.006*"needs" + 0.005*"effective" + 0.005*"team" + 0.005*"1" + 0.005*"21" + 0.005*"timely"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.006*"Torbay" + 0.006*"needs" + 0.005*"good" + 0.005*"effective" + 0.004*"progress" + 0.004*"March" + 0.004*"timely" + 0.004*"1"', '0.018*"’" + 0.009*"Torbay" + 0.008*"well" + 0.006*"needs" + 0.006*"good" + 0.005*"timely" + 0.005*"effective" + 0.005*"team" + 0.005*"21" + 0.004*"ensure"', '0.014*"’" + 0.010*"well" + 0.007*"Torbay" + 0.007*"good" + 0.005*"needs" + 0.005*"2022" + 0.004*"effective" + 0.004*"progress" + 0.004*"21" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -4003,7 +4003,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.007*"Trafford" + 0.006*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.005*"practice" + 0.005*"impact" + 0.005*"placed" + 0.005*"quality"', '0.009*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"Trafford" + 0.005*"worker" + 0.005*"well" + 0.004*"leaders" + 0.004*"November" + 0.004*"quality" + 0.004*"team"', '0.018*"’" + 0.012*"needs" + 0.009*"Trafford" + 0.009*"quality" + 0.008*"plans" + 0.007*"well" + 0.006*"practice" + 0.006*"leaders" + 0.005*"ensure" + 0.005*"team"']</t>
+    <t>['0.017*"’" + 0.011*"needs" + 0.009*"Trafford" + 0.008*"plans" + 0.007*"well" + 0.006*"leaders" + 0.006*"quality" + 0.005*"practice" + 0.005*"team" + 0.005*"placed"', '0.016*"’" + 0.006*"Trafford" + 0.006*"needs" + 0.006*"quality" + 0.005*"plans" + 0.005*"leaders" + 0.005*"well" + 0.005*"ensure" + 0.005*"21" + 0.004*"practice"', '0.016*"’" + 0.009*"needs" + 0.009*"well" + 0.008*"quality" + 0.007*"plans" + 0.007*"Trafford" + 0.006*"impact" + 0.006*"practice" + 0.005*"team" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -4021,7 +4021,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50172854</t>
   </si>
   <si>
-    <t>['0.028*"’" + 0.008*"leaders" + 0.007*"needs" + 0.007*"well" + 0.005*"Walsall" + 0.005*"information" + 0.005*"good" + 0.005*"oversight" + 0.004*"15" + 0.004*"2021"', '0.018*"’" + 0.007*"leaders" + 0.005*"4" + 0.005*"Walsall" + 0.005*"needs" + 0.004*"well" + 0.004*"information" + 0.004*"risk" + 0.004*"Senior" + 0.004*"plans"', '0.011*"’" + 0.006*"needs" + 0.006*"leaders" + 0.005*"Walsall" + 0.004*"Senior" + 0.004*"information" + 0.004*"4" + 0.004*"well" + 0.004*"oversight" + 0.003*"risks"']</t>
+    <t>['0.012*"’" + 0.006*"leaders" + 0.005*"Walsall" + 0.005*"well" + 0.005*"needs" + 0.005*"4" + 0.004*"good" + 0.004*"Senior" + 0.004*"oversight" + 0.004*"practice"', '0.024*"’" + 0.008*"leaders" + 0.006*"needs" + 0.006*"Walsall" + 0.005*"well" + 0.005*"oversight" + 0.005*"Senior" + 0.004*"4" + 0.004*"information" + 0.004*"good"', '0.025*"’" + 0.007*"leaders" + 0.007*"needs" + 0.006*"well" + 0.005*"information" + 0.005*"Walsall" + 0.005*"4" + 0.004*"Senior" + 0.004*"oversight" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4048,7 +4048,7 @@
     <t>19/08/19</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"practice" + 0.006*"well" + 0.005*"Senior" + 0.004*"number" + 0.004*"progress" + 0.004*"information" + 0.004*"plans" + 0.004*"senior" + 0.004*"need"', '0.016*"’" + 0.007*"well" + 0.005*"practice" + 0.005*"plans" + 0.004*"number" + 0.004*"good" + 0.004*"Senior" + 0.004*"parents" + 0.004*"home" + 0.004*"need"', '0.013*"’" + 0.006*"well" + 0.006*"practice" + 0.004*"progress" + 0.004*"plans" + 0.004*"information" + 0.004*"number" + 0.004*"carers" + 0.004*"home" + 0.004*"need"']</t>
+    <t>['0.015*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"number" + 0.004*"carers" + 0.004*"plans" + 0.004*"information" + 0.004*"Senior" + 0.004*"parents" + 0.003*"progress"', '0.015*"’" + 0.006*"well" + 0.006*"practice" + 0.005*"Senior" + 0.005*"plans" + 0.004*"good" + 0.004*"progress" + 0.004*"provided" + 0.004*"number" + 0.004*"need"', '0.011*"’" + 0.007*"practice" + 0.006*"well" + 0.005*"home" + 0.004*"progress" + 0.004*"need" + 0.004*"plans" + 0.004*"number" + 0.004*"Senior" + 0.004*"information"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4075,7 +4075,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"good" + 0.005*"Warwickshire" + 0.005*"carers" + 0.004*"effective" + 0.004*"information"', '0.011*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"needs" + 0.006*"Warwickshire" + 0.005*"3" + 0.004*"Senior" + 0.004*"progress" + 0.004*"supported" + 0.004*"clear"', '0.014*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"Warwickshire" + 0.006*"plans" + 0.005*"carers" + 0.005*"practice" + 0.005*"good" + 0.005*"benefit" + 0.005*"22"']</t>
+    <t>['0.013*"’" + 0.007*"well" + 0.007*"plans" + 0.006*"needs" + 0.005*"3" + 0.005*"Warwickshire" + 0.005*"good" + 0.004*"clear" + 0.004*"effective" + 0.004*"Senior"', '0.009*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"Warwickshire" + 0.005*"plans" + 0.005*"good" + 0.005*"practice" + 0.004*"carers" + 0.004*"effective" + 0.004*"November"', '0.013*"’" + 0.007*"needs" + 0.007*"Warwickshire" + 0.006*"plans" + 0.006*"practice" + 0.006*"well" + 0.005*"carers" + 0.005*"progress" + 0.005*"22" + 0.004*"clear"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4102,7 +4102,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"West" + 0.007*"well" + 0.006*"Berkshire" + 0.005*"need" + 0.004*"early" + 0.004*"March" + 0.004*"needs" + 0.004*"agency" + 0.004*"14"', '0.012*"’" + 0.006*"Berkshire" + 0.005*"West" + 0.005*"well" + 0.004*"needs" + 0.004*"plans" + 0.004*"progress" + 0.003*"agency" + 0.003*"working" + 0.003*"14"', '0.013*"’" + 0.007*"Berkshire" + 0.005*"well" + 0.005*"West" + 0.004*"plans" + 0.004*"18" + 0.004*"working" + 0.004*"needs" + 0.003*"14" + 0.003*"ensure"']</t>
+    <t>['0.016*"’" + 0.007*"Berkshire" + 0.006*"well" + 0.006*"West" + 0.005*"need" + 0.004*"needs" + 0.004*"agency" + 0.004*"18" + 0.004*"14" + 0.004*"early"', '0.012*"’" + 0.006*"West" + 0.005*"Berkshire" + 0.005*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"ensure" + 0.004*"March" + 0.004*"practice" + 0.004*"2022"', '0.015*"’" + 0.007*"West" + 0.006*"well" + 0.006*"Berkshire" + 0.004*"working" + 0.004*"plans" + 0.004*"early" + 0.004*"family" + 0.004*"need" + 0.004*"14"']</t>
   </si>
   <si>
     <t>941</t>
@@ -4120,7 +4120,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"Northamptonshire" + 0.007*"West" + 0.006*"quality" + 0.006*"well" + 0.005*"needs" + 0.005*"NCT" + 0.004*"experiences" + 0.004*"practice" + 0.004*"plans"', '0.017*"’" + 0.009*"Northamptonshire" + 0.007*"West" + 0.006*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"14" + 0.005*"quality" + 0.005*"NCT" + 0.005*"experiences"', '0.016*"’" + 0.008*"quality" + 0.008*"Northamptonshire" + 0.006*"well" + 0.005*"West" + 0.005*"practice" + 0.005*"impact" + 0.004*"plans" + 0.004*"needs" + 0.004*"3"']</t>
+    <t>['0.021*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.007*"West" + 0.006*"well" + 0.006*"NCT" + 0.005*"needs" + 0.005*"practice" + 0.005*"experiences" + 0.005*"3"', '0.016*"’" + 0.008*"Northamptonshire" + 0.007*"West" + 0.006*"quality" + 0.006*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"impact" + 0.005*"plans" + 0.004*"14"', '0.013*"’" + 0.006*"Northamptonshire" + 0.006*"well" + 0.005*"quality" + 0.004*"West" + 0.004*"3" + 0.004*"practice" + 0.004*"NCT" + 0.004*"home" + 0.004*"14"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4141,7 +4141,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"plans" + 0.005*"well" + 0.004*"Sussex" + 0.004*"24" + 0.004*"needs" + 0.004*"practice" + 0.004*"actively" + 0.004*"quality" + 0.004*"2023"', '0.016*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"West" + 0.006*"plans" + 0.006*"Sussex" + 0.005*"13" + 0.005*"health" + 0.004*"quality" + 0.004*"supported"', '0.014*"’" + 0.006*"plans" + 0.006*"well" + 0.005*"needs" + 0.005*"number" + 0.004*"clear" + 0.004*"quality" + 0.004*"West" + 0.004*"13" + 0.004*"practice"']</t>
+    <t>['0.017*"’" + 0.006*"needs" + 0.005*"West" + 0.005*"well" + 0.005*"number" + 0.005*"13" + 0.005*"supported" + 0.005*"plans" + 0.004*"24" + 0.004*"practice"', '0.014*"’" + 0.008*"plans" + 0.007*"well" + 0.007*"needs" + 0.006*"Sussex" + 0.006*"quality" + 0.005*"West" + 0.005*"13" + 0.005*"practice" + 0.004*"health"', '0.008*"’" + 0.005*"well" + 0.004*"plans" + 0.004*"13" + 0.004*"number" + 0.004*"good" + 0.004*"clear" + 0.004*"West" + 0.003*"Sussex" + 0.003*"health"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4159,7 +4159,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50187563</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"May" + 0.007*"needs" + 0.006*"practice" + 0.005*"appropriate" + 0.005*"Wigan" + 0.005*"plans" + 0.005*"20" + 0.005*"quality" + 0.005*"leaders"', '0.010*"’" + 0.008*"plans" + 0.007*"quality" + 0.007*"May" + 0.006*"practice" + 0.006*"appropriate" + 0.006*"needs" + 0.005*"timely" + 0.005*"Wigan" + 0.005*"well"', '0.013*"’" + 0.007*"May" + 0.007*"Wigan" + 0.007*"practice" + 0.006*"plans" + 0.006*"leaders" + 0.005*"9" + 0.005*"needs" + 0.005*"focused" + 0.005*"quality"']</t>
+    <t>['0.008*"’" + 0.007*"Wigan" + 0.007*"May" + 0.006*"practice" + 0.005*"plans" + 0.005*"quality" + 0.005*"appropriate" + 0.004*"needs" + 0.004*"focused" + 0.004*"due"', '0.014*"’" + 0.008*"May" + 0.007*"needs" + 0.007*"quality" + 0.006*"plans" + 0.006*"practice" + 0.005*"appropriate" + 0.004*"20" + 0.004*"Wigan" + 0.004*"leaders"', '0.014*"’" + 0.007*"plans" + 0.007*"practice" + 0.007*"May" + 0.006*"Wigan" + 0.006*"leaders" + 0.006*"needs" + 0.005*"appropriate" + 0.005*"timely" + 0.005*"9"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4189,7 +4189,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"progress" + 0.005*"parents" + 0.005*"Wiltshire" + 0.005*"need" + 0.005*"family" + 0.005*"risk" + 0.005*"including"', '0.018*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"quality" + 0.006*"need" + 0.006*"supported" + 0.006*"risk" + 0.006*"plans" + 0.006*"including" + 0.006*"Wiltshire"', '0.014*"’" + 0.013*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"Wiltshire" + 0.006*"including" + 0.005*"parents" + 0.005*"plans" + 0.005*"risk" + 0.005*"progress"']</t>
+    <t>['0.017*"’" + 0.012*"well" + 0.008*"needs" + 0.007*"need" + 0.007*"progress" + 0.006*"risk" + 0.006*"including" + 0.006*"plans" + 0.006*"Wiltshire" + 0.006*"supported"', '0.013*"’" + 0.013*"well" + 0.007*"Wiltshire" + 0.007*"needs" + 0.006*"parents" + 0.006*"need" + 0.005*"plans" + 0.005*"ensure" + 0.005*"progress" + 0.005*"risk"', '0.015*"’" + 0.008*"well" + 0.007*"needs" + 0.005*"quality" + 0.005*"need" + 0.005*"parents" + 0.005*"2023" + 0.005*"supported" + 0.005*"29" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4219,7 +4219,7 @@
     <t>0.1655</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.009*"needs" + 0.007*"ensure" + 0.006*"good" + 0.006*"well" + 0.006*"Wirral" + 0.006*"plans" + 0.006*"29" + 0.005*"practice" + 0.005*"number"', '0.010*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"Wirral" + 0.006*"ensure" + 0.006*"practice" + 0.006*"appropriate" + 0.006*"response" + 0.005*"29" + 0.005*"18"', '0.013*"’" + 0.011*"needs" + 0.009*"Wirral" + 0.008*"ensure" + 0.006*"practice" + 0.006*"plans" + 0.006*"well" + 0.005*"small" + 0.005*"number" + 0.005*"good"']</t>
+    <t>['0.014*"’" + 0.013*"needs" + 0.008*"ensure" + 0.007*"plans" + 0.007*"Wirral" + 0.006*"practice" + 0.006*"well" + 0.006*"good" + 0.006*"number" + 0.005*"response"', '0.009*"’" + 0.008*"Wirral" + 0.007*"ensure" + 0.006*"practice" + 0.006*"needs" + 0.006*"plans" + 0.005*"well" + 0.005*"number" + 0.004*"response" + 0.004*"29"', '0.008*"’" + 0.006*"needs" + 0.006*"ensure" + 0.006*"plans" + 0.006*"practice" + 0.006*"Wirral" + 0.005*"risk" + 0.005*"September" + 0.005*"small" + 0.004*"29"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4240,7 +4240,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.007*"plans" + 0.006*"progress" + 0.005*"effective" + 0.005*"needs" + 0.004*"17" + 0.004*"experiences" + 0.004*"provided" + 0.004*"appropriate" + 0.004*"well"', '0.016*"’" + 0.007*"effective" + 0.006*"plans" + 0.006*"needs" + 0.006*"progress" + 0.006*"well" + 0.005*"17" + 0.005*"parents" + 0.005*"appropriate" + 0.004*"6"', '0.012*"’" + 0.007*"effective" + 0.007*"plans" + 0.006*"needs" + 0.006*"provided" + 0.005*"experiences" + 0.005*"well" + 0.005*"impact" + 0.005*"quality" + 0.005*"ensure"']</t>
+    <t>['0.011*"’" + 0.006*"effective" + 0.006*"plans" + 0.006*"needs" + 0.005*"progress" + 0.005*"Wokingham" + 0.005*"well" + 0.005*"good" + 0.005*"provided" + 0.005*"6"', '0.015*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"well" + 0.006*"progress" + 0.006*"effective" + 0.005*"17" + 0.005*"Council" + 0.005*"parents" + 0.004*"provided"', '0.011*"’" + 0.006*"plans" + 0.006*"effective" + 0.005*"progress" + 0.005*"provided" + 0.005*"experiences" + 0.005*"needs" + 0.005*"17" + 0.005*"oversight" + 0.005*"clear"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4261,7 +4261,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"needs" + 0.005*"effective" + 0.004*"Wolverhampton" + 0.004*"education" + 0.004*"well" + 0.004*"supported" + 0.004*"strong" + 0.004*"leaders" + 0.004*"risks"', '0.015*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"effective" + 0.005*"risks" + 0.005*"Wolverhampton" + 0.005*"practice" + 0.005*"supported" + 0.005*"leaders" + 0.005*"receive"', '0.015*"’" + 0.008*"needs" + 0.007*"Wolverhampton" + 0.006*"effective" + 0.005*"risks" + 0.005*"risk" + 0.005*"receive" + 0.005*"quality" + 0.005*"City" + 0.005*"leaders"']</t>
+    <t>['0.011*"’" + 0.007*"needs" + 0.006*"risks" + 0.005*"effective" + 0.005*"Wolverhampton" + 0.005*"receive" + 0.005*"supported" + 0.004*"education" + 0.004*"quality" + 0.004*"strong"', '0.011*"’" + 0.005*"needs" + 0.004*"Wolverhampton" + 0.004*"effective" + 0.004*"quality" + 0.004*"receive" + 0.004*"risks" + 0.003*"plans" + 0.003*"strong" + 0.003*"well"', '0.017*"’" + 0.009*"needs" + 0.006*"effective" + 0.006*"Wolverhampton" + 0.006*"plans" + 0.006*"leaders" + 0.005*"quality" + 0.005*"practice" + 0.005*"risk" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4288,7 +4288,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"well" + 0.006*"plans" + 0.006*"Worcestershire" + 0.006*"progress" + 0.005*"needs" + 0.005*"May" + 0.005*"leaders" + 0.005*"26" + 0.004*"Senior"', '0.020*"’" + 0.008*"Worcestershire" + 0.008*"needs" + 0.008*"leaders" + 0.008*"plans" + 0.005*"appropriate" + 0.005*"ensure" + 0.005*"well" + 0.005*"progress" + 0.005*"living"', '0.018*"’" + 0.011*"well" + 0.009*"plans" + 0.008*"progress" + 0.008*"needs" + 0.007*"leaders" + 0.007*"ensure" + 0.006*"Worcestershire" + 0.006*"appropriate" + 0.005*"making"']</t>
+    <t>['0.019*"’" + 0.010*"well" + 0.008*"Worcestershire" + 0.008*"needs" + 0.008*"plans" + 0.007*"leaders" + 0.007*"progress" + 0.007*"ensure" + 0.006*"appropriate" + 0.005*"receive"', '0.020*"’" + 0.008*"plans" + 0.007*"needs" + 0.006*"leaders" + 0.006*"well" + 0.006*"progress" + 0.006*"Worcestershire" + 0.005*"appropriate" + 0.005*"making" + 0.005*"improve"', '0.017*"’" + 0.008*"well" + 0.007*"plans" + 0.007*"progress" + 0.006*"needs" + 0.006*"Worcestershire" + 0.005*"leaders" + 0.005*"ensure" + 0.004*"PAs" + 0.004*"15"']</t>
   </si>
   <si>
     <t>urn</t>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -67,7 +67,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"leaders" + 0.008*"needs" + 0.007*"within" + 0.006*"Barnsley" + 0.006*"practice" + 0.005*"senior" + 0.005*"understand" + 0.005*"response" + 0.005*"15"', '0.025*"’" + 0.009*"needs" + 0.008*"leaders" + 0.006*"within" + 0.006*"practice" + 0.006*"Barnsley" + 0.005*"plans" + 0.004*"11" + 0.004*"2023" + 0.004*"senior"', '0.012*"’" + 0.006*"needs" + 0.005*"Barnsley" + 0.004*"within" + 0.004*"practice" + 0.004*"leaders" + 0.003*"plans" + 0.003*"understand" + 0.003*"quality" + 0.003*"experiences"']</t>
+    <t>['0.023*"’" + 0.009*"needs" + 0.007*"within" + 0.007*"leaders" + 0.007*"practice" + 0.006*"Barnsley" + 0.005*"experiences" + 0.005*"plans" + 0.005*"response" + 0.005*"11"', '0.016*"’" + 0.008*"needs" + 0.007*"leaders" + 0.006*"within" + 0.005*"Barnsley" + 0.005*"plans" + 0.004*"September" + 0.004*"2023" + 0.004*"response" + 0.004*"11"', '0.016*"’" + 0.008*"leaders" + 0.006*"needs" + 0.005*"practice" + 0.005*"Barnsley" + 0.005*"within" + 0.004*"plans" + 0.004*"need" + 0.004*"senior" + 0.004*"15"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -109,7 +109,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"needs" + 0.005*"plans" + 0.005*"effective" + 0.004*"Somerset" + 0.004*"2022" + 0.004*"February" + 0.004*"North"', '0.019*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.005*"impact" + 0.005*"receive" + 0.005*"4" + 0.005*"effective" + 0.005*"Bath"', '0.014*"’" + 0.009*"well" + 0.006*"needs" + 0.005*"North" + 0.005*"leaders" + 0.004*"plans" + 0.004*"East" + 0.004*"impact" + 0.004*"practice" + 0.004*"28"']</t>
+    <t>['0.019*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"practice" + 0.006*"leaders" + 0.006*"4" + 0.005*"plans" + 0.005*"North" + 0.005*"effective" + 0.005*"impact"', '0.016*"’" + 0.009*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"practice" + 0.004*"East" + 0.004*"receive" + 0.004*"2022" + 0.004*"28" + 0.004*"Bath"', '0.017*"’" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"practice" + 0.004*"impact" + 0.004*"effective" + 0.004*"East" + 0.004*"clear" + 0.004*"February"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -154,7 +154,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.006*"needs" + 0.005*"ensure" + 0.005*"well" + 0.005*"Bedford" + 0.004*"good" + 0.004*"education" + 0.004*"plans" + 0.004*"15" + 0.004*"information"', '0.017*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"ensure" + 0.006*"supported" + 0.006*"well" + 0.006*"family" + 0.006*"good" + 0.005*"Borough" + 0.005*"relationships"', '0.021*"’" + 0.007*"needs" + 0.006*"ensure" + 0.006*"well" + 0.006*"Bedford" + 0.005*"progress" + 0.004*"need" + 0.004*"education" + 0.004*"supported" + 0.004*"plans"']</t>
+    <t>['0.025*"’" + 0.007*"ensure" + 0.007*"well" + 0.006*"needs" + 0.006*"Bedford" + 0.005*"good" + 0.005*"plans" + 0.005*"26" + 0.005*"progress" + 0.004*"supported"', '0.011*"’" + 0.006*"needs" + 0.005*"ensure" + 0.004*"Borough" + 0.004*"family" + 0.004*"education" + 0.004*"good" + 0.004*"plans" + 0.004*"2021" + 0.004*"supported"', '0.018*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"supported" + 0.006*"Bedford" + 0.005*"progress" + 0.005*"ensure" + 0.005*"good" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -196,7 +196,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"needs" + 0.007*"effective" + 0.007*"Birmingham" + 0.006*"well" + 0.006*"progress" + 0.006*"plans" + 0.005*"3" + 0.005*"trust" + 0.005*"20"', '0.018*"’" + 0.009*"needs" + 0.006*"well" + 0.006*"effective" + 0.005*"plans" + 0.004*"risk" + 0.004*"progress" + 0.004*"response" + 0.004*"trust" + 0.004*"2023"', '0.014*"’" + 0.010*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"effective" + 0.006*"appropriate" + 0.006*"trust" + 0.006*"Birmingham" + 0.005*"progress" + 0.005*"3"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.006*"well" + 0.006*"Birmingham" + 0.006*"effective" + 0.005*"plans" + 0.005*"trust" + 0.005*"appropriate" + 0.005*"leaders" + 0.004*"20"', '0.018*"’" + 0.011*"needs" + 0.008*"effective" + 0.007*"well" + 0.007*"plans" + 0.006*"3" + 0.006*"progress" + 0.006*"Birmingham" + 0.006*"trust" + 0.005*"appropriate"', '0.015*"’" + 0.009*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"progress" + 0.005*"Birmingham" + 0.005*"effective" + 0.005*"trust" + 0.005*"risk" + 0.004*"appropriate"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -235,7 +235,7 @@
     <t>0.1834</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"needs" + 0.008*"Darwen" + 0.007*"Blackburn" + 0.007*"quality" + 0.007*"practice" + 0.006*"impact" + 0.006*"well" + 0.005*"planning" + 0.005*"result"', '0.017*"’" + 0.007*"quality" + 0.007*"needs" + 0.007*"practice" + 0.006*"Darwen" + 0.006*"Blackburn" + 0.006*"well" + 0.005*"impact" + 0.005*"4" + 0.005*"need"', '0.010*"’" + 0.008*"practice" + 0.006*"needs" + 0.006*"well" + 0.006*"Blackburn" + 0.006*"quality" + 0.006*"impact" + 0.004*"receive" + 0.004*"planning" + 0.004*"result"']</t>
+    <t>['0.012*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"quality" + 0.006*"Darwen" + 0.006*"impact" + 0.005*"Blackburn" + 0.005*"result" + 0.005*"well" + 0.004*"means"', '0.017*"’" + 0.007*"practice" + 0.007*"needs" + 0.007*"quality" + 0.007*"Blackburn" + 0.006*"Darwen" + 0.006*"planning" + 0.006*"impact" + 0.005*"need" + 0.005*"well"', '0.012*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"quality" + 0.007*"practice" + 0.007*"Blackburn" + 0.006*"Darwen" + 0.006*"impact" + 0.005*"effective" + 0.005*"result"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -274,7 +274,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"well" + 0.009*"Blackpool" + 0.009*"needs" + 0.006*"quality" + 0.005*"16" + 0.005*"progress" + 0.005*"supported" + 0.005*"good" + 0.005*"practice"', '0.017*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"Blackpool" + 0.005*"effective" + 0.005*"experiences" + 0.005*"plans" + 0.005*"need" + 0.005*"practice" + 0.004*"16"', '0.016*"’" + 0.013*"needs" + 0.007*"well" + 0.006*"effective" + 0.006*"Blackpool" + 0.005*"practice" + 0.005*"plans" + 0.005*"including" + 0.005*"understand" + 0.005*"carers"']</t>
+    <t>['0.020*"’" + 0.010*"needs" + 0.009*"well" + 0.006*"Blackpool" + 0.005*"16" + 0.005*"effective" + 0.005*"carers" + 0.005*"practice" + 0.005*"quality" + 0.004*"experiences"', '0.016*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"Blackpool" + 0.006*"effective" + 0.006*"plans" + 0.005*"practice" + 0.005*"2022" + 0.005*"supported" + 0.005*"quality"', '0.013*"’" + 0.012*"needs" + 0.009*"well" + 0.008*"Blackpool" + 0.005*"effective" + 0.005*"practice" + 0.005*"plans" + 0.005*"16" + 0.005*"progress" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>80432</t>
@@ -301,7 +301,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"supported" + 0.006*"planning" + 0.006*"Bolton" + 0.005*"good" + 0.005*"appropriate" + 0.005*"effective"', '0.017*"’" + 0.010*"Bolton" + 0.009*"needs" + 0.009*"well" + 0.009*"plans" + 0.006*"need" + 0.005*"strong" + 0.005*"supported" + 0.005*"timely" + 0.005*"2023"', '0.020*"’" + 0.011*"needs" + 0.008*"Bolton" + 0.006*"well" + 0.006*"plans" + 0.005*"11" + 0.005*"need" + 0.005*"effective" + 0.005*"strong" + 0.005*"response"']</t>
+    <t>['0.022*"’" + 0.010*"Bolton" + 0.010*"needs" + 0.008*"well" + 0.008*"plans" + 0.007*"supported" + 0.006*"planning" + 0.006*"need" + 0.005*"strong" + 0.005*"15"', '0.018*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"Bolton" + 0.005*"good" + 0.005*"11" + 0.005*"response" + 0.005*"need" + 0.005*"effective"', '0.014*"’" + 0.008*"needs" + 0.007*"Bolton" + 0.006*"plans" + 0.006*"well" + 0.004*"11" + 0.004*"planning" + 0.004*"need" + 0.004*"15" + 0.004*"strong"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -334,7 +334,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"practice" + 0.006*"quality" + 0.005*"17" + 0.005*"progress" + 0.005*"6" + 0.005*"Christchurch" + 0.004*"However" + 0.004*"risk" + 0.004*"Poole"', '0.019*"’" + 0.007*"practice" + 0.006*"quality" + 0.005*"Christchurch" + 0.005*"time" + 0.005*"progress" + 0.004*"6" + 0.004*"Poole" + 0.004*"well" + 0.004*"However"', '0.017*"’" + 0.006*"quality" + 0.006*"Bournemouth" + 0.005*"risk" + 0.005*"progress" + 0.005*"impact" + 0.005*"number" + 0.004*"Poole" + 0.004*"time" + 0.004*"practice"']</t>
+    <t>['0.022*"’" + 0.006*"practice" + 0.006*"quality" + 0.006*"6" + 0.005*"progress" + 0.005*"risk" + 0.005*"time" + 0.005*"Bournemouth" + 0.005*"However" + 0.005*"December"', '0.016*"’" + 0.006*"quality" + 0.005*"progress" + 0.005*"Poole" + 0.005*"impact" + 0.005*"practice" + 0.005*"well" + 0.004*"Christchurch" + 0.004*"17" + 0.004*"time"', '0.012*"’" + 0.005*"practice" + 0.004*"quality" + 0.004*"progress" + 0.004*"17" + 0.004*"Bournemouth" + 0.004*"Christchurch" + 0.004*"positive" + 0.003*"risk" + 0.003*"Poole"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -376,7 +376,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"Bracknell" + 0.007*"effective" + 0.006*"risk" + 0.006*"needs" + 0.006*"quality" + 0.006*"good" + 0.006*"well" + 0.005*"plans" + 0.005*"Forest"', '0.014*"’" + 0.007*"needs" + 0.006*"Bracknell" + 0.006*"good" + 0.005*"quality" + 0.005*"Forest" + 0.005*"impact" + 0.005*"risk" + 0.005*"progress" + 0.005*"need"', '0.019*"’" + 0.009*"Forest" + 0.007*"risk" + 0.006*"quality" + 0.006*"needs" + 0.006*"provided" + 0.006*"good" + 0.006*"well" + 0.006*"Bracknell" + 0.005*"progress"']</t>
+    <t>['0.017*"’" + 0.006*"Forest" + 0.006*"risk" + 0.006*"quality" + 0.006*"good" + 0.006*"Bracknell" + 0.005*"effective" + 0.004*"needs" + 0.004*"impact" + 0.004*"need"', '0.017*"’" + 0.008*"needs" + 0.008*"Bracknell" + 0.008*"Forest" + 0.007*"well" + 0.007*"effective" + 0.006*"risk" + 0.006*"provided" + 0.006*"progress" + 0.006*"good"', '0.014*"’" + 0.006*"needs" + 0.006*"risk" + 0.006*"quality" + 0.005*"Bracknell" + 0.005*"good" + 0.005*"Forest" + 0.005*"impact" + 0.005*"positive" + 0.005*"provided"']</t>
   </si>
   <si>
     <t>80438</t>
@@ -412,7 +412,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"needs" + 0.009*"good" + 0.007*"leaders" + 0.006*"recording" + 0.006*"need" + 0.006*"well" + 0.006*"plans" + 0.005*"However" + 0.005*"Brighton"', '0.014*"’" + 0.008*"good" + 0.007*"needs" + 0.006*"well" + 0.006*"recording" + 0.005*"leaders" + 0.005*"plans" + 0.004*"range" + 0.004*"including" + 0.004*"number"', '0.013*"’" + 0.008*"needs" + 0.007*"good" + 0.005*"recording" + 0.005*"timely" + 0.005*"well" + 0.004*"leaders" + 0.004*"ensure" + 0.004*"including" + 0.004*"However"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.009*"good" + 0.006*"recording" + 0.006*"well" + 0.006*"leaders" + 0.005*"plans" + 0.005*"supported" + 0.005*"need" + 0.005*"However"', '0.014*"’" + 0.008*"needs" + 0.007*"good" + 0.005*"recording" + 0.005*"plans" + 0.005*"Brighton" + 0.005*"need" + 0.005*"leaders" + 0.005*"well" + 0.005*"always"', '0.010*"’" + 0.009*"good" + 0.008*"needs" + 0.006*"leaders" + 0.006*"well" + 0.005*"recording" + 0.005*"quality" + 0.004*"Senior" + 0.004*"arrangements" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -445,7 +445,7 @@
     <t>0.1875</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"well" + 0.008*"good" + 0.008*"Bristol" + 0.006*"needs" + 0.005*"health" + 0.005*"receive" + 0.005*"progress" + 0.005*"plans" + 0.005*"always"', '0.015*"’" + 0.008*"needs" + 0.007*"Bristol" + 0.007*"good" + 0.006*"well" + 0.005*"progress" + 0.005*"health" + 0.005*"receive" + 0.004*"need" + 0.004*"plans"', '0.021*"’" + 0.010*"well" + 0.008*"needs" + 0.008*"good" + 0.007*"Bristol" + 0.006*"leaders" + 0.006*"16" + 0.005*"need" + 0.005*"progress" + 0.005*"health"']</t>
+    <t>['0.019*"’" + 0.009*"well" + 0.008*"good" + 0.007*"Bristol" + 0.007*"needs" + 0.006*"leaders" + 0.005*"progress" + 0.005*"health" + 0.005*"plans" + 0.005*"ensure"', '0.021*"’" + 0.009*"well" + 0.008*"Bristol" + 0.008*"good" + 0.008*"needs" + 0.006*"need" + 0.006*"health" + 0.005*"progress" + 0.005*"16" + 0.005*"risk"', '0.016*"’" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.006*"Bristol" + 0.005*"plans" + 0.005*"always" + 0.004*"receive" + 0.004*"leaders" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -475,7 +475,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.005*"plans" + 0.005*"number" + 0.005*"Buckinghamshire" + 0.005*"17" + 0.004*"practice" + 0.004*"many" + 0.004*"December" + 0.004*"well" + 0.003*"2021"', '0.014*"’" + 0.004*"plans" + 0.004*"number" + 0.004*"6" + 0.004*"practice" + 0.004*"17" + 0.004*"December" + 0.004*"protection" + 0.004*"Buckinghamshire" + 0.003*"teams"', '0.012*"’" + 0.005*"plans" + 0.005*"Buckinghamshire" + 0.005*"number" + 0.005*"17" + 0.005*"protection" + 0.004*"many" + 0.004*"2021" + 0.004*"6" + 0.004*"well"']</t>
+    <t>['0.016*"’" + 0.006*"17" + 0.005*"plans" + 0.005*"Buckinghamshire" + 0.004*"December" + 0.004*"number" + 0.004*"2021" + 0.004*"practice" + 0.004*"small" + 0.004*"needs"', '0.012*"’" + 0.005*"Buckinghamshire" + 0.005*"plans" + 0.004*"many" + 0.004*"number" + 0.004*"6" + 0.004*"practice" + 0.003*"17" + 0.003*"December" + 0.003*"family"', '0.012*"’" + 0.006*"number" + 0.005*"protection" + 0.005*"6" + 0.005*"plans" + 0.004*"well" + 0.004*"17" + 0.004*"2021" + 0.004*"teams" + 0.003*"Buckinghamshire"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -511,7 +511,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.006*"protection" + 0.005*"needs" + 0.004*"team" + 0.004*"impact" + 0.004*"new" + 0.004*"2021" + 0.004*"practice" + 0.004*"However" + 0.004*"quality"', '0.008*"’" + 0.007*"protection" + 0.006*"impact" + 0.006*"needs" + 0.006*"team" + 0.005*"2021" + 0.005*"risk" + 0.005*"quality" + 0.005*"October" + 0.005*"practice"', '0.015*"’" + 0.008*"2021" + 0.007*"needs" + 0.007*"practice" + 0.006*"team" + 0.006*"protection" + 0.006*"need" + 0.005*"Bury" + 0.005*"risk" + 0.005*"quality"']</t>
+    <t>['0.010*"’" + 0.005*"2021" + 0.005*"protection" + 0.005*"practice" + 0.004*"Bury" + 0.004*"needs" + 0.004*"risk" + 0.004*"response" + 0.004*"need" + 0.004*"new"', '0.012*"’" + 0.007*"2021" + 0.007*"protection" + 0.007*"needs" + 0.006*"team" + 0.005*"need" + 0.005*"impact" + 0.005*"practice" + 0.005*"delay" + 0.004*"Bury"', '0.011*"’" + 0.007*"needs" + 0.007*"practice" + 0.006*"protection" + 0.006*"team" + 0.006*"quality" + 0.006*"2021" + 0.006*"impact" + 0.005*"risk" + 0.005*"Bury"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -541,7 +541,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"well" + 0.005*"practice" + 0.005*"good" + 0.005*"protection" + 0.005*"Calderdale" + 0.005*"effective" + 0.005*"need" + 0.004*"leaders" + 0.004*"education"', '0.014*"’" + 0.006*"well" + 0.005*"Calderdale" + 0.005*"practice" + 0.005*"effective" + 0.005*"good" + 0.004*"‘" + 0.004*"protection" + 0.004*"carers" + 0.004*"inform"', '0.018*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"good" + 0.005*"Calderdale" + 0.004*"carers" + 0.004*"risk" + 0.004*"‘" + 0.004*"education" + 0.004*"protection"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"good" + 0.005*"Calderdale" + 0.005*"‘" + 0.005*"protection" + 0.004*"effective" + 0.004*"carers" + 0.004*"need"', '0.013*"’" + 0.005*"Calderdale" + 0.005*"well" + 0.005*"good" + 0.005*"practice" + 0.005*"effective" + 0.004*"protection" + 0.004*"inform" + 0.004*"‘" + 0.004*"need"', '0.010*"’" + 0.008*"well" + 0.005*"Calderdale" + 0.005*"practice" + 0.004*"good" + 0.004*"leaders" + 0.004*"education" + 0.004*"effective" + 0.004*"carers" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -577,7 +577,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.013*"well" + 0.011*"good" + 0.009*"need" + 0.008*"needs" + 0.008*"impact" + 0.008*"teams" + 0.007*"plans" + 0.006*"quality" + 0.006*"effective"', '0.012*"’" + 0.007*"impact" + 0.007*"well" + 0.007*"good" + 0.006*"needs" + 0.005*"quality" + 0.005*"However" + 0.005*"plans" + 0.005*"effective" + 0.005*"need"', '0.017*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"good" + 0.007*"teams" + 0.006*"progress" + 0.006*"plans" + 0.006*"need" + 0.006*"However" + 0.005*"quality"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.009*"good" + 0.009*"need" + 0.008*"needs" + 0.007*"impact" + 0.007*"teams" + 0.006*"However" + 0.006*"quality" + 0.006*"plans"', '0.013*"’" + 0.008*"well" + 0.007*"good" + 0.007*"need" + 0.006*"impact" + 0.006*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"effective" + 0.005*"progress"', '0.015*"’" + 0.010*"well" + 0.009*"good" + 0.009*"needs" + 0.008*"teams" + 0.008*"plans" + 0.007*"impact" + 0.006*"need" + 0.006*"quality" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -607,7 +607,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.008*"well" + 0.006*"good" + 0.006*"need" + 0.006*"progress" + 0.006*"plans" + 0.006*"Bedfordshire" + 0.006*"Central" + 0.005*"carers"', '0.017*"’" + 0.011*"well" + 0.007*"carers" + 0.006*"plans" + 0.006*"needs" + 0.006*"need" + 0.006*"effective" + 0.005*"good" + 0.005*"progress" + 0.005*"17"', '0.017*"’" + 0.008*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"good" + 0.006*"carers" + 0.004*"progress" + 0.004*"information" + 0.004*"plans" + 0.004*"Bedfordshire"']</t>
+    <t>['0.019*"’" + 0.009*"well" + 0.007*"carers" + 0.006*"need" + 0.006*"plans" + 0.005*"needs" + 0.005*"Central" + 0.005*"number" + 0.005*"progress" + 0.004*"effective"', '0.017*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"good" + 0.007*"need" + 0.006*"progress" + 0.006*"plans" + 0.006*"carers" + 0.005*"Bedfordshire" + 0.005*"Central"', '0.011*"’" + 0.009*"well" + 0.007*"needs" + 0.005*"need" + 0.005*"carers" + 0.005*"good" + 0.004*"plans" + 0.004*"progress" + 0.004*"effective" + 0.004*"Bedfordshire"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -643,7 +643,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.008*"good" + 0.008*"well" + 0.006*"supported" + 0.006*"ensure" + 0.006*"risk" + 0.006*"practice" + 0.005*"plans" + 0.005*"carers"', '0.015*"’" + 0.007*"well" + 0.007*"good" + 0.007*"plans" + 0.007*"practice" + 0.006*"needs" + 0.005*"always" + 0.005*"However" + 0.004*"need" + 0.004*"ensure"', '0.011*"’" + 0.008*"well" + 0.007*"plans" + 0.007*"need" + 0.007*"needs" + 0.007*"good" + 0.006*"practice" + 0.006*"effective" + 0.006*"always" + 0.006*"supported"']</t>
+    <t>['0.011*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"However" + 0.005*"supported" + 0.005*"needs" + 0.005*"always" + 0.005*"good" + 0.005*"practice" + 0.005*"ensure"', '0.016*"’" + 0.009*"well" + 0.008*"good" + 0.007*"practice" + 0.007*"plans" + 0.007*"needs" + 0.006*"always" + 0.006*"need" + 0.006*"timely" + 0.005*"carers"', '0.012*"’" + 0.009*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"plans" + 0.006*"practice" + 0.006*"need" + 0.005*"supported" + 0.005*"risk" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -679,7 +679,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"effectively" + 0.004*"always" + 0.004*"practice" + 0.004*"information" + 0.004*"effective" + 0.004*"learning" + 0.004*"good"', '0.025*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"practice" + 0.005*"effective" + 0.005*"plans" + 0.005*"impact" + 0.005*"order" + 0.004*"learning" + 0.004*"effectively"', '0.019*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"timely" + 0.004*"impact" + 0.004*"practice" + 0.004*"always" + 0.004*"order" + 0.004*"However" + 0.004*"use"']</t>
+    <t>['0.019*"’" + 0.009*"needs" + 0.006*"well" + 0.004*"always" + 0.004*"impact" + 0.004*"information" + 0.004*"timely" + 0.004*"leaders" + 0.004*"plans" + 0.004*"need"', '0.029*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"order" + 0.004*"effectively" + 0.004*"always" + 0.004*"effective" + 0.004*"receive" + 0.004*"plans"', '0.015*"’" + 0.008*"well" + 0.007*"needs" + 0.004*"practice" + 0.004*"impact" + 0.004*"plans" + 0.004*"effective" + 0.004*"risk" + 0.004*"effectively" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -715,7 +715,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"plans" + 0.006*"2" + 0.005*"need" + 0.005*"needs" + 0.005*"2022" + 0.005*"However" + 0.005*"Bradford" + 0.004*"risk" + 0.004*"quality"', '0.021*"’" + 0.005*"Bradford" + 0.005*"Council" + 0.005*"plans" + 0.005*"needs" + 0.004*"November" + 0.004*"impact" + 0.004*"quality" + 0.004*"◼" + 0.004*"2"', '0.023*"’" + 0.006*"plans" + 0.005*"practice" + 0.005*"impact" + 0.004*"needs" + 0.004*"risk" + 0.004*"Bradford" + 0.004*"City" + 0.004*"21" + 0.004*"Borough"']</t>
+    <t>['0.022*"’" + 0.008*"plans" + 0.006*"Bradford" + 0.005*"2" + 0.005*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"risk" + 0.005*"need" + 0.005*"Borough"', '0.023*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"2022" + 0.004*"21" + 0.004*"need" + 0.004*"2" + 0.004*"impact" + 0.004*"City" + 0.004*"leaders"', '0.013*"’" + 0.005*"plans" + 0.004*"risk" + 0.004*"worker" + 0.004*"Council" + 0.004*"lack" + 0.004*"2022" + 0.003*"quality" + 0.003*"Metropolitan" + 0.003*"timely"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -748,7 +748,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.013*"well" + 0.011*"needs" + 0.010*"’" + 0.009*"ensure" + 0.008*"effective" + 0.006*"clear" + 0.005*"progress" + 0.005*"good" + 0.005*"plans" + 0.005*"supported"', '0.011*"’" + 0.009*"needs" + 0.008*"ensure" + 0.007*"well" + 0.005*"progress" + 0.005*"effective" + 0.005*"clear" + 0.004*"good" + 0.004*"plans" + 0.004*"practice"', '0.014*"’" + 0.013*"needs" + 0.009*"well" + 0.008*"ensure" + 0.007*"clear" + 0.006*"progress" + 0.006*"effective" + 0.006*"plans" + 0.006*"good" + 0.005*"individual"']</t>
+    <t>['0.015*"’" + 0.013*"needs" + 0.010*"well" + 0.010*"ensure" + 0.009*"effective" + 0.006*"plans" + 0.005*"practice" + 0.005*"supported" + 0.005*"clear" + 0.005*"individual"', '0.011*"needs" + 0.009*"’" + 0.006*"well" + 0.006*"ensure" + 0.005*"clear" + 0.005*"progress" + 0.005*"effective" + 0.005*"within" + 0.005*"good" + 0.004*"plans"', '0.012*"well" + 0.011*"’" + 0.010*"needs" + 0.009*"ensure" + 0.008*"clear" + 0.007*"progress" + 0.006*"good" + 0.005*"plans" + 0.005*"effective" + 0.005*"clearly"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -784,7 +784,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"Wakefield" + 0.009*"quality" + 0.009*"well" + 0.008*"leaders" + 0.007*"good" + 0.007*"effective" + 0.007*"November" + 0.006*"plans" + 0.006*"19"', '0.014*"’" + 0.008*"Wakefield" + 0.007*"November" + 0.006*"effective" + 0.006*"quality" + 0.006*"good" + 0.006*"plans" + 0.006*"leaders" + 0.006*"practice" + 0.005*"receive"', '0.015*"’" + 0.008*"well" + 0.007*"leaders" + 0.007*"November" + 0.006*"quality" + 0.006*"Wakefield" + 0.005*"progress" + 0.005*"good" + 0.005*"effective" + 0.005*"plans"']</t>
+    <t>['0.016*"’" + 0.008*"leaders" + 0.008*"Wakefield" + 0.007*"well" + 0.007*"November" + 0.006*"quality" + 0.005*"plans" + 0.005*"effective" + 0.005*"practice" + 0.005*"good"', '0.016*"’" + 0.008*"November" + 0.008*"Wakefield" + 0.008*"well" + 0.007*"leaders" + 0.007*"quality" + 0.007*"effective" + 0.006*"good" + 0.006*"plans" + 0.005*"needs"', '0.018*"’" + 0.009*"quality" + 0.008*"good" + 0.008*"well" + 0.007*"Wakefield" + 0.007*"effective" + 0.007*"practice" + 0.006*"leaders" + 0.006*"November" + 0.006*"progress"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -814,7 +814,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"quality" + 0.007*"needs" + 0.006*"March" + 0.006*"York" + 0.006*"effective" + 0.005*"education" + 0.005*"However" + 0.005*"plans" + 0.005*"ensure"', '0.016*"’" + 0.008*"March" + 0.007*"effective" + 0.006*"needs" + 0.005*"However" + 0.005*"supported" + 0.005*"plans" + 0.005*"good" + 0.005*"quality" + 0.005*"training"', '0.013*"’" + 0.009*"needs" + 0.007*"March" + 0.006*"quality" + 0.006*"ensure" + 0.005*"effective" + 0.005*"York" + 0.005*"However" + 0.005*"practice" + 0.005*"well"']</t>
+    <t>['0.015*"’" + 0.007*"March" + 0.007*"needs" + 0.006*"quality" + 0.006*"need" + 0.005*"effective" + 0.005*"good" + 0.005*"supported" + 0.005*"experiences" + 0.004*"plans"', '0.014*"’" + 0.006*"However" + 0.005*"effective" + 0.005*"plans" + 0.005*"quality" + 0.005*"March" + 0.005*"needs" + 0.004*"effectively" + 0.004*"small" + 0.004*"ensure"', '0.016*"’" + 0.009*"needs" + 0.008*"quality" + 0.008*"March" + 0.006*"York" + 0.006*"effective" + 0.006*"ensure" + 0.006*"well" + 0.006*"7" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -850,7 +850,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.017*"well" + 0.013*"’" + 0.010*"effective" + 0.010*"quality" + 0.007*"leaders" + 0.007*"arrangements" + 0.006*"plans" + 0.006*"good" + 0.006*"timely" + 0.006*"highly"', '0.013*"well" + 0.011*"’" + 0.011*"quality" + 0.010*"leaders" + 0.009*"effective" + 0.006*"plans" + 0.006*"good" + 0.005*"timely" + 0.005*"Senior" + 0.005*"accommodation"', '0.013*"well" + 0.012*"’" + 0.008*"quality" + 0.007*"leaders" + 0.007*"effective" + 0.005*"timely" + 0.005*"good" + 0.005*"ensure" + 0.004*"plans" + 0.004*"arrangements"']</t>
+    <t>['0.015*"well" + 0.013*"’" + 0.010*"quality" + 0.009*"leaders" + 0.008*"effective" + 0.006*"timely" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"good" + 0.005*"Senior"', '0.013*"well" + 0.011*"’" + 0.010*"quality" + 0.008*"effective" + 0.007*"good" + 0.006*"plans" + 0.006*"leaders" + 0.005*"timely" + 0.005*"arrangements" + 0.005*"highly"', '0.016*"well" + 0.012*"’" + 0.010*"leaders" + 0.010*"effective" + 0.008*"quality" + 0.006*"plans" + 0.006*"arrangements" + 0.005*"good" + 0.005*"highly" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -880,7 +880,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.015*"Isles" + 0.014*"Scilly" + 0.010*"information" + 0.009*"need" + 0.009*"practice" + 0.008*"needs" + 0.007*"place" + 0.006*"protection" + 0.006*"13"', '0.017*"’" + 0.010*"Scilly" + 0.009*"Isles" + 0.009*"practice" + 0.007*"needs" + 0.007*"protection" + 0.007*"information" + 0.007*"need" + 0.006*"place" + 0.006*"quality"', '0.018*"’" + 0.010*"Isles" + 0.010*"Scilly" + 0.009*"information" + 0.008*"need" + 0.007*"practice" + 0.007*"protection" + 0.007*"quality" + 0.006*"11" + 0.005*"risks"']</t>
+    <t>['0.022*"’" + 0.012*"Isles" + 0.011*"information" + 0.011*"Scilly" + 0.008*"practice" + 0.007*"need" + 0.007*"protection" + 0.006*"13" + 0.006*"needs" + 0.006*"ensure"', '0.023*"’" + 0.013*"Scilly" + 0.012*"Isles" + 0.010*"practice" + 0.008*"need" + 0.008*"needs" + 0.007*"place" + 0.007*"protection" + 0.006*"risks" + 0.006*"11"', '0.016*"’" + 0.012*"Isles" + 0.012*"Scilly" + 0.011*"information" + 0.009*"need" + 0.007*"quality" + 0.006*"practice" + 0.006*"protection" + 0.006*"needs" + 0.005*"place"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -916,7 +916,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.006*"Coventry" + 0.005*"supported" + 0.005*"plans" + 0.005*"needs" + 0.005*"family" + 0.004*"strong" + 0.004*"need" + 0.003*"PAs"', '0.020*"’" + 0.008*"plans" + 0.008*"Coventry" + 0.007*"well" + 0.007*"strong" + 0.007*"needs" + 0.006*"supported" + 0.006*"family" + 0.005*"need" + 0.004*"understand"', '0.022*"’" + 0.009*"Coventry" + 0.009*"needs" + 0.009*"well" + 0.008*"supported" + 0.006*"family" + 0.005*"need" + 0.005*"20" + 0.005*"plans" + 0.005*"strong"']</t>
+    <t>['0.019*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"supported" + 0.007*"Coventry" + 0.006*"family" + 0.005*"need" + 0.005*"plans" + 0.005*"PAs" + 0.005*"2022"', '0.020*"’" + 0.009*"Coventry" + 0.008*"needs" + 0.007*"well" + 0.007*"plans" + 0.007*"supported" + 0.006*"strong" + 0.006*"family" + 0.005*"need" + 0.004*"1"', '0.019*"’" + 0.009*"Coventry" + 0.008*"well" + 0.006*"family" + 0.005*"plans" + 0.005*"strong" + 0.005*"supported" + 0.005*"needs" + 0.005*"need" + 0.004*"1"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -952,7 +952,7 @@
     <t>0.1983</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"well" + 0.007*"practice" + 0.006*"October" + 0.006*"leaders" + 0.006*"needs" + 0.005*"Darlington" + 0.005*"10" + 0.004*"family" + 0.004*"21"', '0.017*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"practice" + 0.006*"quality" + 0.006*"leaders" + 0.006*"Darlington" + 0.005*"October" + 0.004*"effective" + 0.004*"supported"', '0.018*"’" + 0.008*"October" + 0.008*"leaders" + 0.007*"needs" + 0.006*"well" + 0.006*"Darlington" + 0.006*"effective" + 0.005*"quality" + 0.005*"education" + 0.005*"supported"']</t>
+    <t>['0.025*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"October" + 0.007*"Darlington" + 0.007*"practice" + 0.007*"leaders" + 0.006*"effective" + 0.005*"supported" + 0.004*"plans"', '0.009*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"October" + 0.005*"quality" + 0.004*"leaders" + 0.004*"family" + 0.004*"10" + 0.004*"practice" + 0.004*"supported"', '0.016*"’" + 0.009*"well" + 0.007*"leaders" + 0.006*"October" + 0.006*"practice" + 0.006*"Darlington" + 0.005*"needs" + 0.005*"quality" + 0.005*"protection" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -991,7 +991,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.011*"needs" + 0.007*"plans" + 0.007*"receive" + 0.006*"appropriate" + 0.006*"quality" + 0.006*"Derby" + 0.005*"good" + 0.005*"well" + 0.005*"progress"', '0.024*"’" + 0.010*"Derby" + 0.009*"needs" + 0.007*"receive" + 0.006*"progress" + 0.006*"well" + 0.006*"quality" + 0.006*"need" + 0.006*"leaders" + 0.005*"good"', '0.017*"’" + 0.009*"needs" + 0.007*"quality" + 0.006*"Derby" + 0.005*"leaders" + 0.005*"need" + 0.005*"plans" + 0.005*"progress" + 0.005*"good" + 0.005*"appropriate"']</t>
+    <t>['0.019*"’" + 0.011*"needs" + 0.008*"receive" + 0.007*"Derby" + 0.007*"quality" + 0.006*"well" + 0.006*"appropriate" + 0.006*"progress" + 0.005*"plans" + 0.005*"leaders"', '0.021*"’" + 0.008*"needs" + 0.007*"Derby" + 0.005*"quality" + 0.005*"appropriate" + 0.005*"good" + 0.005*"plans" + 0.005*"progress" + 0.005*"receive" + 0.005*"need"', '0.023*"’" + 0.009*"needs" + 0.007*"Derby" + 0.007*"quality" + 0.006*"plans" + 0.006*"need" + 0.005*"progress" + 0.005*"leaders" + 0.005*"receive" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80460</t>
@@ -1021,7 +1021,7 @@
     <t>0.1913</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.005*"Derbyshire" + 0.005*"number" + 0.005*"plans" + 0.005*"positive" + 0.005*"health" + 0.004*"leaders" + 0.004*"10" + 0.004*"effective"', '0.012*"’" + 0.009*"well" + 0.007*"Derbyshire" + 0.005*"plans" + 0.005*"effective" + 0.005*"education" + 0.005*"need" + 0.004*"needs" + 0.004*"positive" + 0.004*"November"', '0.016*"’" + 0.008*"Derbyshire" + 0.007*"well" + 0.005*"needs" + 0.005*"good" + 0.005*"plans" + 0.005*"positive" + 0.005*"10" + 0.004*"30" + 0.004*"leaders"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.008*"Derbyshire" + 0.006*"plans" + 0.005*"effective" + 0.005*"need" + 0.004*"leaders" + 0.004*"30" + 0.004*"10" + 0.004*"practice"', '0.016*"’" + 0.008*"well" + 0.006*"Derbyshire" + 0.005*"positive" + 0.005*"needs" + 0.005*"10" + 0.005*"health" + 0.005*"education" + 0.005*"plans" + 0.005*"good"', '0.011*"’" + 0.005*"well" + 0.005*"Derbyshire" + 0.004*"health" + 0.004*"plans" + 0.004*"need" + 0.004*"needs" + 0.004*"leaders" + 0.004*"positive" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1051,7 +1051,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.007*"’" + 0.006*"leaders" + 0.005*"well" + 0.004*"risk" + 0.004*"areas" + 0.004*"early" + 0.003*"Devon" + 0.003*"time" + 0.003*"progress" + 0.003*"practice"', '0.011*"’" + 0.006*"progress" + 0.006*"well" + 0.006*"risk" + 0.005*"health" + 0.005*"leaders" + 0.004*"case" + 0.004*"protection" + 0.004*"practice" + 0.004*"needs"', '0.008*"’" + 0.006*"well" + 0.005*"health" + 0.004*"plans" + 0.004*"Devon" + 0.004*"quality" + 0.004*"time" + 0.004*"risks" + 0.004*"risk" + 0.004*"areas"']</t>
+    <t>['0.008*"’" + 0.005*"progress" + 0.005*"health" + 0.005*"risk" + 0.004*"leaders" + 0.004*"well" + 0.004*"quality" + 0.004*"need" + 0.004*"protection" + 0.004*"practice"', '0.012*"’" + 0.008*"well" + 0.005*"risk" + 0.005*"health" + 0.004*"leaders" + 0.004*"protection" + 0.004*"Devon" + 0.004*"need" + 0.004*"living" + 0.004*"case"', '0.007*"’" + 0.005*"leaders" + 0.005*"well" + 0.005*"progress" + 0.004*"health" + 0.004*"areas" + 0.004*"case" + 0.004*"needs" + 0.004*"risk" + 0.004*"risks"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1087,7 +1087,7 @@
     <t>0.1841</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.007*"well" + 0.006*"leaders" + 0.006*"many" + 0.006*"Doncaster" + 0.005*"quality" + 0.005*"records" + 0.005*"14" + 0.005*"information" + 0.005*"plans"', '0.018*"’" + 0.006*"well" + 0.006*"Doncaster" + 0.005*"progress" + 0.005*"leaders" + 0.005*"oversight" + 0.005*"records" + 0.004*"plans" + 0.004*"means" + 0.004*"information"', '0.015*"’" + 0.006*"Doncaster" + 0.006*"well" + 0.005*"arrangements" + 0.005*"records" + 0.004*"protection" + 0.004*"oversight" + 0.004*"experiences" + 0.004*"Trust" + 0.004*"many"']</t>
+    <t>['0.020*"’" + 0.006*"Doncaster" + 0.006*"well" + 0.004*"experiences" + 0.004*"arrangements" + 0.004*"protection" + 0.004*"many" + 0.004*"progress" + 0.004*"records" + 0.004*"February"', '0.021*"’" + 0.006*"well" + 0.005*"leaders" + 0.005*"plans" + 0.005*"quality" + 0.005*"oversight" + 0.005*"Doncaster" + 0.005*"many" + 0.005*"progress" + 0.005*"arrangements"', '0.019*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.005*"records" + 0.005*"progress" + 0.005*"many" + 0.005*"information" + 0.005*"leaders" + 0.005*"14" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>2532283</t>
@@ -1117,7 +1117,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"Dorset" + 0.006*"well" + 0.006*"good" + 0.005*"needs" + 0.004*"including" + 0.004*"arrangements" + 0.004*"quality" + 0.004*"Senior" + 0.004*"leaders"', '0.013*"’" + 0.010*"Dorset" + 0.007*"good" + 0.006*"well" + 0.005*"needs" + 0.005*"protection" + 0.004*"change" + 0.004*"arrangements" + 0.004*"impact" + 0.004*"leaders"', '0.013*"’" + 0.005*"Dorset" + 0.005*"well" + 0.005*"good" + 0.005*"arrangements" + 0.004*"27" + 0.004*"8" + 0.004*"supported" + 0.004*"2021" + 0.004*"home"']</t>
+    <t>['0.010*"’" + 0.008*"Dorset" + 0.006*"well" + 0.006*"good" + 0.004*"quality" + 0.004*"leaders" + 0.004*"needs" + 0.004*"arrangements" + 0.004*"8" + 0.004*"2021"', '0.017*"’" + 0.008*"Dorset" + 0.006*"good" + 0.005*"need" + 0.005*"27" + 0.004*"well" + 0.004*"needs" + 0.004*"arrangements" + 0.004*"8" + 0.004*"2021"', '0.012*"’" + 0.007*"good" + 0.006*"Dorset" + 0.006*"well" + 0.004*"arrangements" + 0.004*"needs" + 0.004*"October" + 0.004*"quality" + 0.004*"including" + 0.004*"home"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1144,7 +1144,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.011*"needs" + 0.007*"Dudley" + 0.006*"arrangements" + 0.005*"well" + 0.005*"access" + 0.005*"oversight" + 0.005*"ensure" + 0.005*"always" + 0.005*"However"', '0.015*"’" + 0.008*"needs" + 0.007*"Dudley" + 0.006*"plans" + 0.005*"arrangements" + 0.005*"always" + 0.005*"well" + 0.004*"experiences" + 0.004*"31" + 0.004*"However"', '0.019*"’" + 0.014*"needs" + 0.009*"Dudley" + 0.006*"well" + 0.005*"always" + 0.005*"plans" + 0.005*"ensure" + 0.005*"oversight" + 0.005*"quality" + 0.005*"31"']</t>
+    <t>['0.015*"’" + 0.008*"needs" + 0.007*"Dudley" + 0.005*"arrangements" + 0.005*"well" + 0.005*"always" + 0.004*"quality" + 0.004*"ensure" + 0.004*"leaders" + 0.004*"November"', '0.012*"’" + 0.011*"needs" + 0.006*"Dudley" + 0.005*"well" + 0.005*"plans" + 0.005*"enough" + 0.004*"management" + 0.004*"October" + 0.004*"quality" + 0.004*"oversight"', '0.018*"’" + 0.013*"needs" + 0.010*"Dudley" + 0.006*"always" + 0.006*"plans" + 0.006*"well" + 0.005*"arrangements" + 0.005*"oversight" + 0.005*"ensure" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1180,7 +1180,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.010*"needs" + 0.007*"May" + 0.007*"Durham" + 0.007*"plans" + 0.005*"well" + 0.005*"practice" + 0.005*"ensure" + 0.004*"protection" + 0.004*"leaders"', '0.015*"’" + 0.011*"needs" + 0.008*"well" + 0.008*"May" + 0.007*"Durham" + 0.007*"plans" + 0.006*"ensure" + 0.005*"practice" + 0.005*"risks" + 0.005*"family"', '0.015*"’" + 0.011*"needs" + 0.007*"Durham" + 0.006*"ensure" + 0.006*"May" + 0.006*"well" + 0.005*"plans" + 0.005*"practice" + 0.005*"progress" + 0.005*"making"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"Durham" + 0.007*"May" + 0.006*"practice" + 0.005*"plans" + 0.005*"ensure" + 0.005*"risks" + 0.005*"leaders"', '0.014*"’" + 0.010*"needs" + 0.006*"plans" + 0.006*"ensure" + 0.006*"Durham" + 0.006*"May" + 0.006*"well" + 0.004*"20" + 0.004*"need" + 0.004*"appropriate"', '0.014*"’" + 0.012*"needs" + 0.008*"May" + 0.007*"plans" + 0.007*"Durham" + 0.006*"well" + 0.006*"ensure" + 0.005*"practice" + 0.005*"risks" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1216,7 +1216,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.011*"needs" + 0.009*"well" + 0.009*"plans" + 0.007*"Riding" + 0.006*"progress" + 0.006*"East" + 0.005*"10" + 0.005*"place" + 0.005*"education"', '0.019*"’" + 0.009*"plans" + 0.008*"needs" + 0.008*"well" + 0.007*"progress" + 0.007*"Riding" + 0.006*"East" + 0.005*"good" + 0.005*"30" + 0.005*"partners"', '0.012*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"plans" + 0.007*"progress" + 0.006*"East" + 0.005*"10" + 0.005*"February" + 0.005*"Riding" + 0.004*"information"']</t>
+    <t>['0.016*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"progress" + 0.005*"partners" + 0.005*"10" + 0.005*"education" + 0.005*"good" + 0.005*"Riding"', '0.019*"’" + 0.011*"plans" + 0.010*"needs" + 0.010*"well" + 0.008*"progress" + 0.007*"East" + 0.007*"Riding" + 0.005*"February" + 0.005*"January" + 0.005*"10"', '0.012*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"Riding" + 0.006*"East" + 0.006*"well" + 0.006*"progress" + 0.004*"information" + 0.004*"effective" + 0.004*"partners"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1246,7 +1246,7 @@
     <t>0.1738</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"East" + 0.007*"including" + 0.006*"plans" + 0.006*"Sussex" + 0.005*"progress" + 0.005*"relationships" + 0.005*"11"', '0.019*"’" + 0.009*"well" + 0.009*"plans" + 0.007*"needs" + 0.006*"Sussex" + 0.006*"East" + 0.006*"progress" + 0.006*"impact" + 0.006*"including" + 0.005*"education"', '0.015*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"needs" + 0.006*"progress" + 0.005*"East" + 0.005*"Sussex" + 0.005*"experiences" + 0.005*"effective" + 0.005*"impact"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"East" + 0.007*"needs" + 0.006*"including" + 0.006*"progress" + 0.005*"Sussex" + 0.005*"11" + 0.004*"provide"', '0.011*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"including" + 0.006*"Sussex" + 0.006*"East" + 0.005*"impact" + 0.005*"experiences" + 0.005*"progress"', '0.020*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"progress" + 0.007*"plans" + 0.006*"Sussex" + 0.006*"East" + 0.005*"impact" + 0.005*"relationships" + 0.005*"11"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1282,7 +1282,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.007*"well" + 0.006*"progress" + 0.006*"needs" + 0.006*"family" + 0.006*"parents" + 0.005*"plans" + 0.005*"practice" + 0.005*"risk" + 0.005*"leaders"', '0.017*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"progress" + 0.007*"plans" + 0.006*"Essex" + 0.005*"family" + 0.005*"understand" + 0.005*"advisers" + 0.005*"risk"', '0.012*"’" + 0.006*"well" + 0.006*"progress" + 0.005*"plans" + 0.005*"needs" + 0.005*"helped" + 0.005*"need" + 0.004*"experiences" + 0.004*"new" + 0.004*"parents"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"family" + 0.006*"progress" + 0.005*"plans" + 0.005*"leaders" + 0.005*"practice" + 0.005*"need" + 0.004*"advisers"', '0.018*"’" + 0.007*"well" + 0.007*"needs" + 0.007*"progress" + 0.006*"plans" + 0.006*"experiences" + 0.006*"understand" + 0.005*"helped" + 0.005*"Essex" + 0.004*"advisers"', '0.017*"’" + 0.007*"progress" + 0.006*"plans" + 0.006*"risk" + 0.006*"well" + 0.005*"needs" + 0.005*"Essex" + 0.005*"family" + 0.005*"supported" + 0.005*"new"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1318,7 +1318,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"effective" + 0.007*"good" + 0.006*"practice" + 0.006*"well" + 0.006*"quality" + 0.005*"timely" + 0.005*"needs" + 0.005*"early" + 0.005*"plans"', '0.014*"’" + 0.009*"effective" + 0.007*"quality" + 0.007*"needs" + 0.006*"good" + 0.006*"well" + 0.006*"practice" + 0.005*"improve" + 0.005*"timely" + 0.005*"home"', '0.012*"’" + 0.007*"practice" + 0.007*"effective" + 0.007*"good" + 0.006*"quality" + 0.006*"timely" + 0.005*"needs" + 0.005*"need" + 0.004*"improve" + 0.004*"team"']</t>
+    <t>['0.013*"’" + 0.009*"good" + 0.008*"effective" + 0.007*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"timely" + 0.005*"early" + 0.005*"improve" + 0.005*"need"', '0.015*"’" + 0.010*"effective" + 0.008*"quality" + 0.006*"practice" + 0.006*"needs" + 0.005*"good" + 0.005*"timely" + 0.005*"well" + 0.005*"progress" + 0.004*"plans"', '0.012*"’" + 0.007*"effective" + 0.006*"quality" + 0.006*"practice" + 0.006*"good" + 0.006*"needs" + 0.005*"well" + 0.005*"timely" + 0.004*"protection" + 0.004*"return"']</t>
   </si>
   <si>
     <t>80470</t>
@@ -1351,7 +1351,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"February" + 0.007*"2022" + 0.005*"progress" + 0.005*"well" + 0.005*"family" + 0.005*"timely" + 0.005*"leaders"', '0.014*"’" + 0.008*"needs" + 0.008*"2022" + 0.005*"well" + 0.005*"progress" + 0.005*"February" + 0.005*"plans" + 0.005*"Gloucestershire" + 0.005*"family" + 0.004*"experienced"', '0.018*"’" + 0.009*"needs" + 0.008*"February" + 0.006*"Gloucestershire" + 0.006*"plans" + 0.006*"2022" + 0.006*"well" + 0.005*"18" + 0.005*"good" + 0.005*"appropriate"']</t>
+    <t>['0.015*"’" + 0.011*"needs" + 0.006*"plans" + 0.006*"February" + 0.005*"Gloucestershire" + 0.005*"2022" + 0.005*"experienced" + 0.005*"family" + 0.004*"effective" + 0.004*"18"', '0.018*"’" + 0.007*"February" + 0.007*"plans" + 0.007*"needs" + 0.006*"well" + 0.005*"7" + 0.005*"2022" + 0.005*"18" + 0.005*"appropriate" + 0.005*"protection"', '0.019*"’" + 0.009*"2022" + 0.008*"needs" + 0.007*"February" + 0.006*"well" + 0.006*"plans" + 0.006*"progress" + 0.005*"experienced" + 0.005*"good" + 0.005*"Gloucestershire"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1378,7 +1378,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.010*"practice" + 0.010*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"planning" + 0.006*"risk" + 0.006*"need" + 0.006*"plans" + 0.005*"always" + 0.005*"good"', '0.013*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"risk" + 0.006*"effective" + 0.006*"practice" + 0.006*"always" + 0.006*"plans" + 0.006*"need"', '0.012*"’" + 0.012*"well" + 0.009*"plans" + 0.008*"needs" + 0.008*"practice" + 0.007*"need" + 0.006*"risk" + 0.006*"good" + 0.006*"quality" + 0.006*"effective"']</t>
+    <t>['0.013*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"practice" + 0.006*"needs" + 0.006*"need" + 0.006*"good" + 0.005*"always" + 0.005*"planning" + 0.005*"effective"', '0.011*"’" + 0.008*"needs" + 0.008*"practice" + 0.008*"well" + 0.008*"risk" + 0.007*"plans" + 0.006*"good" + 0.006*"need" + 0.005*"effective" + 0.005*"always"', '0.012*"well" + 0.012*"’" + 0.009*"needs" + 0.008*"practice" + 0.007*"plans" + 0.007*"planning" + 0.007*"need" + 0.006*"risk" + 0.006*"quality" + 0.006*"good"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1405,7 +1405,7 @@
     <t>0.187</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"needs" + 0.005*"well" + 0.005*"plans" + 0.004*"quality" + 0.004*"leaders" + 0.004*"highly" + 0.004*"oversight" + 0.003*"health" + 0.003*"decisions"', '0.016*"’" + 0.008*"needs" + 0.007*"plans" + 0.005*"quality" + 0.005*"leaders" + 0.005*"health" + 0.004*"well" + 0.004*"Hampshire" + 0.004*"strong" + 0.004*"highly"', '0.024*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"needs" + 0.005*"home" + 0.005*"strong" + 0.005*"quality" + 0.004*"improve" + 0.004*"progress" + 0.004*"leaders"']</t>
+    <t>['0.022*"’" + 0.009*"needs" + 0.006*"plans" + 0.005*"well" + 0.005*"quality" + 0.005*"leaders" + 0.004*"home" + 0.004*"strong" + 0.004*"improve" + 0.004*"highly"', '0.016*"’" + 0.007*"needs" + 0.005*"plans" + 0.005*"well" + 0.004*"strong" + 0.004*"quality" + 0.004*"leaders" + 0.004*"home" + 0.004*"carers" + 0.004*"need"', '0.015*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.004*"quality" + 0.004*"‘" + 0.003*"strong" + 0.003*"highly" + 0.003*"leaders" + 0.003*"oversight"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1438,7 +1438,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.008*"quality" + 0.006*"strong" + 0.005*"good" + 0.005*"progress" + 0.005*"education" + 0.004*"early" + 0.004*"plans" + 0.004*"‘"', '0.011*"’" + 0.007*"well" + 0.005*"good" + 0.004*"strong" + 0.004*"quality" + 0.003*"team" + 0.003*"practice" + 0.003*"early" + 0.003*"impact" + 0.003*"timely"', '0.017*"’" + 0.010*"well" + 0.007*"quality" + 0.006*"strong" + 0.005*"practice" + 0.005*"plans" + 0.005*"good" + 0.005*"Senior" + 0.005*"impact" + 0.004*"progress"']</t>
+    <t>['0.019*"’" + 0.007*"well" + 0.006*"quality" + 0.006*"strong" + 0.006*"good" + 0.005*"need" + 0.005*"early" + 0.004*"needs" + 0.004*"education" + 0.004*"plans"', '0.011*"well" + 0.011*"’" + 0.009*"quality" + 0.006*"plans" + 0.005*"progress" + 0.004*"strong" + 0.004*"good" + 0.004*"needs" + 0.004*"impact" + 0.004*"practice"', '0.017*"’" + 0.008*"well" + 0.006*"strong" + 0.005*"quality" + 0.005*"good" + 0.005*"education" + 0.004*"impact" + 0.004*"progress" + 0.004*"practice" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>80474</t>
@@ -1468,7 +1468,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"practice" + 0.005*"18" + 0.005*"lack" + 0.005*"plans" + 0.005*"Herefordshire" + 0.005*"many" + 0.005*"progress" + 0.004*"impact" + 0.004*"oversight"', '0.017*"’" + 0.006*"Herefordshire" + 0.005*"lack" + 0.005*"impact" + 0.005*"many" + 0.005*"practice" + 0.004*"needs" + 0.004*"ensure" + 0.004*"risk" + 0.004*"need"', '0.017*"’" + 0.006*"needs" + 0.005*"practice" + 0.005*"Herefordshire" + 0.004*"lack" + 0.004*"impact" + 0.004*"plans" + 0.004*"quality" + 0.004*"2022" + 0.004*"carers"']</t>
+    <t>['0.021*"’" + 0.006*"Herefordshire" + 0.006*"practice" + 0.006*"impact" + 0.005*"lack" + 0.004*"many" + 0.004*"progress" + 0.004*"needs" + 0.004*"agency" + 0.004*"18"', '0.015*"’" + 0.005*"needs" + 0.005*"impact" + 0.004*"lack" + 0.004*"Herefordshire" + 0.004*"practice" + 0.004*"oversight" + 0.004*"quality" + 0.004*"many" + 0.004*"plans"', '0.015*"’" + 0.006*"practice" + 0.005*"lack" + 0.005*"Herefordshire" + 0.005*"needs" + 0.005*"plans" + 0.005*"many" + 0.005*"carers" + 0.005*"need" + 0.004*"18"']</t>
   </si>
   <si>
     <t>80475</t>
@@ -1498,7 +1498,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.007*"Hertfordshire" + 0.006*"needs" + 0.006*"receive" + 0.005*"well" + 0.005*"leaders" + 0.005*"27" + 0.004*"risk" + 0.004*"training" + 0.004*"‘"', '0.020*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"Hertfordshire" + 0.005*"27" + 0.005*"receive" + 0.004*"plans" + 0.004*"2023" + 0.004*"need" + 0.004*"across"', '0.027*"’" + 0.008*"well" + 0.007*"Hertfordshire" + 0.006*"needs" + 0.005*"plans" + 0.004*"receive" + 0.004*"January" + 0.004*"2023" + 0.004*"23" + 0.004*"positive"']</t>
+    <t>['0.024*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Hertfordshire" + 0.005*"plans" + 0.005*"risk" + 0.005*"receive" + 0.005*"23" + 0.005*"2023" + 0.004*"need"', '0.022*"’" + 0.007*"Hertfordshire" + 0.007*"well" + 0.005*"receive" + 0.005*"needs" + 0.005*"positive" + 0.004*"27" + 0.004*"January" + 0.004*"working" + 0.004*"family"', '0.022*"’" + 0.006*"Hertfordshire" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"receive" + 0.004*"leaders" + 0.004*"2023" + 0.004*"Leaders" + 0.004*"January"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1525,7 +1525,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"leaders" + 0.006*"well" + 0.006*"Wight" + 0.006*"Senior" + 0.005*"3" + 0.005*"October" + 0.005*"Isle" + 0.005*"progress" + 0.005*"supported"', '0.020*"’" + 0.009*"leaders" + 0.006*"needs" + 0.006*"well" + 0.006*"progress" + 0.005*"time" + 0.005*"protection" + 0.005*"plans" + 0.005*"3" + 0.005*"Wight"', '0.018*"’" + 0.006*"leaders" + 0.006*"needs" + 0.006*"supported" + 0.006*"good" + 0.005*"plans" + 0.005*"Isle" + 0.005*"PAs" + 0.005*"practice" + 0.005*"30"']</t>
+    <t>['0.023*"’" + 0.007*"leaders" + 0.005*"needs" + 0.005*"plans" + 0.005*"progress" + 0.005*"practice" + 0.005*"good" + 0.005*"protection" + 0.005*"supported" + 0.005*"PAs"', '0.017*"’" + 0.011*"leaders" + 0.007*"well" + 0.006*"supported" + 0.006*"needs" + 0.006*"3" + 0.005*"Wight" + 0.005*"plans" + 0.005*"PAs" + 0.005*"progress"', '0.012*"’" + 0.006*"leaders" + 0.005*"needs" + 0.005*"Isle" + 0.005*"Senior" + 0.005*"Wight" + 0.005*"well" + 0.004*"30" + 0.004*"practice" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1546,7 +1546,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"Kent" + 0.007*"needs" + 0.006*"supported" + 0.005*"well" + 0.005*"County" + 0.005*"practice" + 0.005*"progress" + 0.005*"leaders" + 0.004*"impact"', '0.014*"’" + 0.009*"Kent" + 0.007*"well" + 0.007*"needs" + 0.006*"Council" + 0.005*"supported" + 0.004*"practice" + 0.004*"2022" + 0.004*"plans" + 0.004*"ensure"', '0.018*"’" + 0.012*"Kent" + 0.008*"needs" + 0.007*"Council" + 0.006*"well" + 0.006*"supported" + 0.006*"County" + 0.005*"progress" + 0.004*"leaders" + 0.004*"9"']</t>
+    <t>['0.013*"’" + 0.010*"Kent" + 0.006*"needs" + 0.006*"Council" + 0.005*"County" + 0.005*"practice" + 0.004*"leaders" + 0.004*"well" + 0.004*"ensure" + 0.004*"2022"', '0.020*"’" + 0.010*"Kent" + 0.008*"needs" + 0.007*"well" + 0.006*"supported" + 0.006*"County" + 0.005*"Council" + 0.005*"practice" + 0.004*"progress" + 0.004*"impact"', '0.019*"’" + 0.010*"Kent" + 0.007*"needs" + 0.006*"supported" + 0.006*"Council" + 0.006*"well" + 0.005*"progress" + 0.005*"9" + 0.004*"leaders" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1573,7 +1573,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"number" + 0.007*"planning" + 0.006*"practice" + 0.006*"need" + 0.006*"well" + 0.006*"Hull" + 0.005*"management" + 0.005*"protection" + 0.005*"November"', '0.015*"’" + 0.006*"number" + 0.006*"risks" + 0.006*"well" + 0.005*"agency" + 0.005*"planning" + 0.005*"Hull" + 0.004*"progress" + 0.004*"practice" + 0.004*"management"', '0.019*"’" + 0.008*"protection" + 0.007*"planning" + 0.007*"number" + 0.006*"practice" + 0.006*"need" + 0.006*"oversight" + 0.006*"small" + 0.006*"well" + 0.006*"Hull"']</t>
+    <t>['0.018*"’" + 0.009*"number" + 0.006*"well" + 0.006*"practice" + 0.006*"protection" + 0.005*"planning" + 0.005*"25" + 0.005*"small" + 0.005*"risks" + 0.005*"good"', '0.016*"’" + 0.007*"planning" + 0.007*"Hull" + 0.007*"well" + 0.007*"number" + 0.006*"need" + 0.006*"practice" + 0.006*"protection" + 0.006*"impact" + 0.006*"progress"', '0.012*"’" + 0.006*"planning" + 0.006*"protection" + 0.006*"management" + 0.005*"need" + 0.005*"practice" + 0.005*"number" + 0.005*"teams" + 0.005*"November" + 0.005*"Hull"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1603,7 +1603,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"practice" + 0.007*"quality" + 0.006*"good" + 0.006*"Senior" + 0.005*"permanence" + 0.005*"well" + 0.005*"plans" + 0.005*"protection" + 0.004*"needs"', '0.010*"’" + 0.006*"permanence" + 0.006*"protection" + 0.005*"good" + 0.005*"needs" + 0.005*"training" + 0.005*"quality" + 0.005*"well" + 0.005*"senior" + 0.005*"Senior"', '0.013*"’" + 0.007*"quality" + 0.006*"practice" + 0.006*"good" + 0.005*"training" + 0.005*"plans" + 0.005*"senior" + 0.005*"well" + 0.005*"needs" + 0.004*"effective"']</t>
+    <t>['0.013*"’" + 0.007*"good" + 0.006*"quality" + 0.006*"practice" + 0.006*"permanence" + 0.006*"well" + 0.005*"senior" + 0.005*"protection" + 0.005*"plans" + 0.005*"need"', '0.012*"’" + 0.006*"practice" + 0.006*"quality" + 0.006*"plans" + 0.006*"Senior" + 0.005*"good" + 0.005*"needs" + 0.005*"well" + 0.005*"permanence" + 0.005*"training"', '0.010*"’" + 0.007*"quality" + 0.006*"practice" + 0.006*"training" + 0.005*"good" + 0.004*"permanence" + 0.004*"needs" + 0.004*"well" + 0.004*"protection" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1642,7 +1642,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"progress" + 0.007*"plans" + 0.007*"needs" + 0.006*"quality" + 0.006*"need" + 0.005*"good" + 0.005*"abuse" + 0.005*"Knowsley" + 0.005*"impact"', '0.012*"’" + 0.008*"progress" + 0.007*"quality" + 0.007*"plans" + 0.007*"2021" + 0.006*"needs" + 0.006*"Knowsley" + 0.005*"22" + 0.005*"experiences" + 0.005*"abuse"', '0.016*"’" + 0.008*"progress" + 0.007*"Knowsley" + 0.007*"needs" + 0.007*"quality" + 0.007*"plans" + 0.005*"2021" + 0.005*"good" + 0.005*"need" + 0.005*"experiences"']</t>
+    <t>['0.014*"’" + 0.009*"progress" + 0.008*"quality" + 0.007*"needs" + 0.007*"plans" + 0.005*"experiences" + 0.005*"2021" + 0.005*"need" + 0.005*"October" + 0.005*"Knowsley"', '0.011*"’" + 0.009*"progress" + 0.006*"2021" + 0.006*"needs" + 0.006*"Knowsley" + 0.006*"quality" + 0.006*"plans" + 0.005*"22" + 0.005*"good" + 0.005*"risk"', '0.018*"’" + 0.008*"plans" + 0.008*"needs" + 0.007*"progress" + 0.007*"Knowsley" + 0.006*"quality" + 0.005*"need" + 0.005*"abuse" + 0.005*"good" + 0.005*"2021"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1672,7 +1672,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"need" + 0.009*"well" + 0.008*"needs" + 0.006*"Lancashire" + 0.005*"plans" + 0.005*"positive" + 0.005*"supported" + 0.005*"practice" + 0.005*"progress"', '0.017*"’" + 0.008*"well" + 0.008*"Lancashire" + 0.007*"needs" + 0.005*"28" + 0.005*"plans" + 0.005*"parents" + 0.005*"health" + 0.005*"positive" + 0.005*"good"', '0.019*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"need" + 0.006*"practice" + 0.006*"supported" + 0.006*"information" + 0.005*"live" + 0.005*"plans" + 0.005*"Lancashire"']</t>
+    <t>['0.018*"’" + 0.010*"needs" + 0.008*"need" + 0.007*"well" + 0.006*"supported" + 0.006*"Lancashire" + 0.006*"live" + 0.005*"good" + 0.005*"progress" + 0.005*"health"', '0.009*"’" + 0.009*"well" + 0.006*"need" + 0.006*"Lancashire" + 0.005*"plans" + 0.005*"needs" + 0.005*"supported" + 0.004*"practice" + 0.004*"live" + 0.004*"number"', '0.019*"’" + 0.011*"well" + 0.007*"need" + 0.007*"Lancashire" + 0.006*"needs" + 0.006*"positive" + 0.006*"plans" + 0.006*"practice" + 0.005*"parents" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>80481</t>
@@ -1699,7 +1699,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"Leeds" + 0.006*"needs" + 0.006*"well" + 0.005*"protection" + 0.005*"plans" + 0.005*"making" + 0.005*"ensure" + 0.004*"benefit" + 0.004*"2022"', '0.014*"’" + 0.009*"Leeds" + 0.009*"needs" + 0.007*"risk" + 0.006*"well" + 0.005*"practice" + 0.005*"4" + 0.005*"supported" + 0.004*"leaders" + 0.004*"21"', '0.012*"’" + 0.005*"well" + 0.005*"Leeds" + 0.005*"needs" + 0.004*"ensure" + 0.004*"protection" + 0.004*"risk" + 0.004*"March" + 0.004*"practice" + 0.003*"supported"']</t>
+    <t>['0.016*"’" + 0.007*"Leeds" + 0.007*"needs" + 0.007*"well" + 0.005*"practice" + 0.005*"risk" + 0.004*"plans" + 0.004*"ensure" + 0.004*"benefit" + 0.004*"making"', '0.015*"’" + 0.007*"Leeds" + 0.006*"needs" + 0.005*"well" + 0.005*"practice" + 0.004*"protection" + 0.004*"making" + 0.004*"plans" + 0.004*"risk" + 0.004*"ensure"', '0.017*"’" + 0.007*"needs" + 0.007*"Leeds" + 0.006*"risk" + 0.006*"4" + 0.005*"well" + 0.005*"supported" + 0.005*"protection" + 0.004*"ensure" + 0.004*"February"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1732,7 +1732,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"well" + 0.007*"2021" + 0.006*"20" + 0.006*"needs" + 0.005*"Leicester" + 0.005*"number" + 0.005*"ensure" + 0.004*"Council" + 0.004*"1"', '0.023*"’" + 0.011*"well" + 0.010*"Leicester" + 0.010*"2021" + 0.008*"good" + 0.008*"needs" + 0.006*"ensure" + 0.006*"number" + 0.006*"1" + 0.005*"September"', '0.015*"’" + 0.007*"2021" + 0.005*"Leicester" + 0.005*"needs" + 0.005*"well" + 0.005*"20" + 0.005*"ensure" + 0.004*"including" + 0.004*"good" + 0.004*"progress"']</t>
+    <t>['0.017*"’" + 0.007*"well" + 0.007*"good" + 0.006*"2021" + 0.006*"Leicester" + 0.006*"needs" + 0.006*"ensure" + 0.005*"number" + 0.005*"circumstances" + 0.005*"1"', '0.016*"’" + 0.010*"well" + 0.008*"2021" + 0.008*"Leicester" + 0.006*"needs" + 0.005*"number" + 0.005*"City" + 0.005*"including" + 0.004*"October" + 0.004*"September"', '0.024*"’" + 0.010*"2021" + 0.009*"well" + 0.009*"Leicester" + 0.007*"needs" + 0.007*"ensure" + 0.006*"good" + 0.006*"20" + 0.006*"1" + 0.005*"number"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1765,7 +1765,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"well" + 0.008*"effective" + 0.007*"good" + 0.006*"needs" + 0.006*"quality" + 0.006*"practice" + 0.005*"risk" + 0.005*"need" + 0.004*"impact"', '0.010*"’" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.006*"effective" + 0.006*"practice" + 0.006*"quality" + 0.006*"education" + 0.005*"impact" + 0.004*"leaders"', '0.014*"’" + 0.007*"good" + 0.007*"needs" + 0.006*"quality" + 0.006*"well" + 0.005*"need" + 0.005*"risk" + 0.005*"impact" + 0.004*"education" + 0.004*"effective"']</t>
+    <t>['0.010*"’" + 0.006*"needs" + 0.005*"good" + 0.005*"effective" + 0.005*"well" + 0.005*"practice" + 0.005*"education" + 0.004*"quality" + 0.004*"impact" + 0.004*"risk"', '0.012*"’" + 0.010*"well" + 0.009*"good" + 0.007*"effective" + 0.006*"needs" + 0.006*"quality" + 0.006*"practice" + 0.006*"need" + 0.005*"impact" + 0.005*"risk"', '0.011*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"good" + 0.007*"quality" + 0.006*"effective" + 0.005*"impact" + 0.005*"practice" + 0.005*"education" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1795,7 +1795,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.008*"Lincolnshire" + 0.007*"needs" + 0.007*"well" + 0.005*"plans" + 0.005*"24" + 0.005*"progress" + 0.005*"family" + 0.004*"education" + 0.004*"effective"', '0.021*"’" + 0.006*"needs" + 0.006*"Lincolnshire" + 0.005*"well" + 0.005*"family" + 0.005*"number" + 0.004*"progress" + 0.004*"24" + 0.004*"plans" + 0.004*"April"', '0.017*"’" + 0.008*"Lincolnshire" + 0.007*"needs" + 0.005*"well" + 0.005*"plans" + 0.004*"progress" + 0.004*"2023" + 0.004*"need" + 0.004*"working" + 0.004*"28"']</t>
+    <t>['0.027*"’" + 0.008*"Lincolnshire" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"progress" + 0.005*"24" + 0.005*"April" + 0.004*"family" + 0.004*"number"', '0.020*"’" + 0.007*"Lincolnshire" + 0.006*"needs" + 0.005*"28" + 0.004*"well" + 0.004*"plans" + 0.004*"effective" + 0.004*"team" + 0.004*"need" + 0.004*"family"', '0.013*"’" + 0.006*"Lincolnshire" + 0.005*"needs" + 0.005*"well" + 0.004*"family" + 0.004*"progress" + 0.004*"plans" + 0.004*"‘" + 0.003*"education" + 0.003*"need"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1825,7 +1825,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"needs" + 0.008*"practice" + 0.007*"always" + 0.007*"need" + 0.006*"Liverpool" + 0.006*"quality" + 0.005*"24" + 0.005*"protection" + 0.005*"senior"', '0.026*"’" + 0.006*"need" + 0.005*"always" + 0.005*"practice" + 0.005*"quality" + 0.005*"Liverpool" + 0.005*"PAs" + 0.005*"timely" + 0.005*"needs" + 0.005*"24"', '0.017*"’" + 0.008*"needs" + 0.006*"Liverpool" + 0.006*"need" + 0.006*"always" + 0.005*"quality" + 0.005*"practice" + 0.005*"protection" + 0.005*"2023" + 0.004*"including"']</t>
+    <t>['0.020*"’" + 0.008*"always" + 0.007*"Liverpool" + 0.006*"needs" + 0.006*"practice" + 0.005*"24" + 0.005*"quality" + 0.005*"need" + 0.005*"timely" + 0.004*"protection"', '0.023*"’" + 0.008*"needs" + 0.008*"need" + 0.007*"practice" + 0.006*"quality" + 0.006*"always" + 0.005*"Liverpool" + 0.005*"protection" + 0.005*"PAs" + 0.005*"harm"', '0.011*"’" + 0.006*"needs" + 0.006*"practice" + 0.005*"always" + 0.005*"Liverpool" + 0.005*"need" + 0.004*"protection" + 0.004*"13" + 0.004*"quality" + 0.004*"PAs"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -1858,7 +1858,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.009*"needs" + 0.006*"carers" + 0.006*"good" + 0.006*"plans" + 0.006*"well" + 0.005*"information" + 0.005*"progress" + 0.004*"10" + 0.004*"planning"', '0.017*"’" + 0.007*"needs" + 0.006*"practice" + 0.005*"plans" + 0.005*"good" + 0.005*"London" + 0.004*"well" + 0.004*"timely" + 0.004*"leaders" + 0.004*"carers"', '0.024*"’" + 0.007*"needs" + 0.005*"plans" + 0.005*"good" + 0.005*"Dagenham" + 0.005*"practice" + 0.005*"well" + 0.005*"progress" + 0.005*"carers" + 0.004*"information"']</t>
+    <t>['0.028*"’" + 0.008*"needs" + 0.006*"good" + 0.006*"plans" + 0.006*"well" + 0.005*"progress" + 0.005*"carers" + 0.005*"information" + 0.005*"e" + 0.005*"ensure"', '0.019*"’" + 0.009*"needs" + 0.005*"plans" + 0.005*"good" + 0.005*"Dagenham" + 0.005*"practice" + 0.004*"carers" + 0.004*"well" + 0.004*"London" + 0.004*"ensure"', '0.015*"’" + 0.007*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"carers" + 0.005*"good" + 0.004*"well" + 0.004*"planning" + 0.004*"21" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -1894,7 +1894,7 @@
     <t>0.2188</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"good" + 0.008*"needs" + 0.007*"plans" + 0.007*"well" + 0.007*"need" + 0.007*"progress" + 0.006*"ensure" + 0.005*"clear" + 0.005*"quality"', '0.012*"needs" + 0.012*"’" + 0.011*"good" + 0.008*"well" + 0.008*"need" + 0.006*"clear" + 0.006*"progress" + 0.005*"ensure" + 0.005*"appropriate" + 0.005*"quality"', '0.015*"’" + 0.010*"well" + 0.008*"needs" + 0.008*"need" + 0.007*"good" + 0.006*"risk" + 0.006*"progress" + 0.006*"plans" + 0.006*"clear" + 0.005*"ensure"']</t>
+    <t>['0.014*"’" + 0.012*"needs" + 0.010*"good" + 0.008*"well" + 0.007*"plans" + 0.006*"need" + 0.006*"ensure" + 0.006*"clear" + 0.006*"progress" + 0.006*"risk"', '0.009*"’" + 0.008*"needs" + 0.008*"good" + 0.008*"need" + 0.006*"well" + 0.005*"clear" + 0.005*"plans" + 0.005*"progress" + 0.005*"quality" + 0.004*"effective"', '0.017*"’" + 0.010*"well" + 0.009*"good" + 0.008*"need" + 0.008*"progress" + 0.007*"needs" + 0.006*"ensure" + 0.005*"clear" + 0.005*"plans" + 0.005*"carers"']</t>
   </si>
   <si>
     <t>80488</t>
@@ -1915,7 +1915,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.006*"needs" + 0.006*"well" + 0.006*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"Bexley" + 0.005*"practice" + 0.005*"make" + 0.004*"progress"', '0.020*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"effective" + 0.006*"plans" + 0.005*"need" + 0.005*"Bexley" + 0.005*"10" + 0.004*"including" + 0.004*"6"', '0.019*"’" + 0.006*"Bexley" + 0.005*"well" + 0.005*"need" + 0.005*"needs" + 0.004*"10" + 0.004*"progress" + 0.004*"effective" + 0.004*"including" + 0.004*"plans"']</t>
+    <t>['0.022*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"Bexley" + 0.005*"need" + 0.005*"including" + 0.005*"effective" + 0.005*"practice" + 0.004*"10"', '0.018*"’" + 0.006*"effective" + 0.006*"need" + 0.006*"well" + 0.006*"needs" + 0.005*"Bexley" + 0.004*"clear" + 0.004*"progress" + 0.004*"10" + 0.004*"6"', '0.017*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"plans" + 0.005*"make" + 0.004*"need" + 0.004*"10" + 0.004*"Bexley" + 0.004*"6"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -1942,7 +1942,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.011*"well" + 0.008*"leaders" + 0.008*"progress" + 0.008*"plans" + 0.006*"quality" + 0.006*"practice" + 0.005*"senior" + 0.005*"good" + 0.005*"However"', '0.013*"’" + 0.006*"well" + 0.006*"good" + 0.006*"Brent" + 0.006*"number" + 0.005*"information" + 0.005*"progress" + 0.005*"timely" + 0.005*"quality" + 0.005*"senior"', '0.013*"’" + 0.007*"leaders" + 0.007*"well" + 0.006*"good" + 0.006*"plans" + 0.006*"number" + 0.006*"Brent" + 0.005*"needs" + 0.005*"family" + 0.005*"senior"']</t>
+    <t>['0.019*"’" + 0.007*"leaders" + 0.007*"good" + 0.007*"well" + 0.006*"progress" + 0.006*"Brent" + 0.005*"plans" + 0.005*"quality" + 0.005*"practice" + 0.005*"number"', '0.012*"’" + 0.007*"well" + 0.006*"plans" + 0.005*"senior" + 0.005*"Brent" + 0.005*"quality" + 0.005*"information" + 0.005*"progress" + 0.005*"practice" + 0.004*"needs"', '0.019*"’" + 0.011*"well" + 0.009*"leaders" + 0.007*"plans" + 0.007*"progress" + 0.006*"number" + 0.005*"good" + 0.005*"timely" + 0.005*"quality" + 0.005*"senior"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -1975,7 +1975,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"Bromley" + 0.006*"well" + 0.006*"needs" + 0.005*"leaders" + 0.005*"education" + 0.005*"plans" + 0.005*"practice" + 0.004*"receive" + 0.004*"health"', '0.015*"’" + 0.008*"Bromley" + 0.007*"needs" + 0.006*"well" + 0.005*"leaders" + 0.005*"health" + 0.004*"plans" + 0.004*"YPAs" + 0.004*"relationships" + 0.004*"education"', '0.025*"’" + 0.009*"Bromley" + 0.008*"well" + 0.007*"needs" + 0.007*"plans" + 0.006*"practice" + 0.005*"leaders" + 0.005*"strong" + 0.005*"health" + 0.004*"progress"']</t>
+    <t>['0.012*"’" + 0.007*"well" + 0.006*"Bromley" + 0.005*"needs" + 0.005*"plans" + 0.005*"health" + 0.004*"education" + 0.004*"leaders" + 0.004*"experiences" + 0.004*"helping"', '0.025*"’" + 0.011*"Bromley" + 0.008*"needs" + 0.007*"well" + 0.007*"practice" + 0.006*"leaders" + 0.006*"plans" + 0.005*"health" + 0.005*"education" + 0.005*"progress"', '0.017*"’" + 0.008*"Bromley" + 0.005*"needs" + 0.005*"well" + 0.004*"plans" + 0.004*"13" + 0.004*"17" + 0.003*"leaders" + 0.003*"education" + 0.003*"practice"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -2005,7 +2005,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"Camden" + 0.007*"leaders" + 0.007*"practice" + 0.005*"25" + 0.005*"needs" + 0.005*"well" + 0.004*"response" + 0.004*"29" + 0.004*"protection"', '0.012*"’" + 0.008*"Camden" + 0.006*"well" + 0.005*"protection" + 0.005*"practice" + 0.005*"leaders" + 0.005*"response" + 0.005*"appropriate" + 0.004*"29" + 0.004*"needs"', '0.011*"’" + 0.006*"leaders" + 0.005*"Camden" + 0.005*"needs" + 0.005*"well" + 0.005*"practice" + 0.005*"protection" + 0.004*"meetings" + 0.004*"response" + 0.004*"April"']</t>
+    <t>['0.008*"’" + 0.007*"Camden" + 0.005*"needs" + 0.005*"well" + 0.005*"practice" + 0.004*"response" + 0.004*"protection" + 0.004*"25" + 0.004*"leaders" + 0.004*"appropriate"', '0.014*"’" + 0.008*"leaders" + 0.007*"Camden" + 0.006*"practice" + 0.005*"29" + 0.005*"appropriate" + 0.005*"response" + 0.005*"needs" + 0.005*"well" + 0.005*"protection"', '0.009*"’" + 0.006*"practice" + 0.006*"Camden" + 0.006*"leaders" + 0.005*"protection" + 0.005*"well" + 0.004*"2022" + 0.004*"25" + 0.004*"progress" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -2032,7 +2032,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"needs" + 0.008*"well" + 0.006*"quality" + 0.006*"Croydon" + 0.006*"ensure" + 0.006*"good" + 0.005*"risk" + 0.005*"improved" + 0.005*"plans"', '0.010*"’" + 0.006*"Croydon" + 0.006*"need" + 0.005*"well" + 0.005*"good" + 0.005*"quality" + 0.004*"effective" + 0.004*"needs" + 0.004*"Senior" + 0.004*"improved"', '0.008*"’" + 0.007*"well" + 0.006*"Senior" + 0.006*"needs" + 0.006*"need" + 0.005*"health" + 0.005*"Croydon" + 0.005*"quality" + 0.005*"ensure" + 0.005*"effective"']</t>
+    <t>['0.009*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"Senior" + 0.005*"need" + 0.005*"Croydon" + 0.005*"plans" + 0.004*"risk" + 0.004*"health" + 0.004*"effective"', '0.014*"’" + 0.009*"needs" + 0.006*"Croydon" + 0.006*"quality" + 0.006*"well" + 0.006*"Senior" + 0.005*"good" + 0.005*"However" + 0.005*"need" + 0.005*"education"', '0.010*"’" + 0.007*"well" + 0.007*"ensure" + 0.006*"needs" + 0.006*"need" + 0.005*"good" + 0.005*"Croydon" + 0.005*"quality" + 0.005*"plans" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2065,7 +2065,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"quality" + 0.009*"needs" + 0.007*"good" + 0.006*"progress" + 0.005*"risk" + 0.005*"plans" + 0.005*"Ealing" + 0.004*"experiences" + 0.004*"management"', '0.010*"quality" + 0.008*"’" + 0.006*"good" + 0.005*"needs" + 0.005*"plans" + 0.005*"well" + 0.004*"family" + 0.004*"risk" + 0.004*"provide" + 0.004*"experiences"', '0.009*"quality" + 0.009*"’" + 0.006*"needs" + 0.005*"good" + 0.005*"plans" + 0.005*"progress" + 0.005*"oversight" + 0.004*"experiences" + 0.004*"Senior" + 0.004*"fully"']</t>
+    <t>['0.009*"quality" + 0.008*"’" + 0.007*"needs" + 0.006*"good" + 0.005*"risk" + 0.005*"well" + 0.005*"progress" + 0.004*"fully" + 0.004*"plans" + 0.004*"Ealing"', '0.014*"’" + 0.011*"quality" + 0.008*"needs" + 0.006*"good" + 0.006*"plans" + 0.005*"appropriately" + 0.005*"risk" + 0.005*"leaders" + 0.004*"oversight" + 0.004*"experiences"', '0.010*"’" + 0.009*"quality" + 0.007*"good" + 0.006*"progress" + 0.006*"needs" + 0.005*"experiences" + 0.005*"Ealing" + 0.005*"plans" + 0.005*"well" + 0.005*"management"']</t>
   </si>
   <si>
     <t>80494</t>
@@ -2095,7 +2095,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"needs" + 0.007*"practice" + 0.006*"Enfield" + 0.005*"effective" + 0.005*"quality" + 0.005*"good" + 0.005*"appropriate" + 0.005*"timely" + 0.004*"leaders"', '0.015*"’" + 0.009*"ensure" + 0.009*"needs" + 0.008*"good" + 0.008*"effective" + 0.008*"practice" + 0.007*"timely" + 0.007*"clear" + 0.007*"quality" + 0.006*"Enfield"', '0.012*"’" + 0.008*"ensure" + 0.007*"needs" + 0.007*"practice" + 0.007*"good" + 0.007*"clear" + 0.006*"Enfield" + 0.006*"leaders" + 0.005*"quality" + 0.005*"effective"']</t>
+    <t>['0.012*"’" + 0.009*"needs" + 0.008*"ensure" + 0.008*"good" + 0.006*"clear" + 0.006*"practice" + 0.006*"effective" + 0.006*"Enfield" + 0.006*"timely" + 0.005*"leaders"', '0.017*"’" + 0.009*"needs" + 0.008*"practice" + 0.008*"effective" + 0.007*"good" + 0.007*"clear" + 0.007*"ensure" + 0.006*"Enfield" + 0.006*"quality" + 0.006*"timely"', '0.012*"’" + 0.008*"practice" + 0.007*"needs" + 0.007*"ensure" + 0.006*"quality" + 0.006*"Enfield" + 0.006*"good" + 0.005*"progress" + 0.005*"effective" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2125,7 +2125,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"plans" + 0.008*"good" + 0.006*"need" + 0.006*"range" + 0.006*"progress" + 0.005*"quality" + 0.005*"ensure"', '0.011*"’" + 0.011*"well" + 0.009*"good" + 0.009*"plans" + 0.008*"needs" + 0.007*"need" + 0.006*"range" + 0.006*"consistently" + 0.005*"information" + 0.005*"progress"', '0.009*"’" + 0.007*"well" + 0.006*"good" + 0.005*"needs" + 0.005*"need" + 0.004*"ensure" + 0.004*"range" + 0.004*"plans" + 0.004*"risk" + 0.003*"quality"']</t>
+    <t>['0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"good" + 0.006*"ensure" + 0.006*"need" + 0.005*"range" + 0.005*"risks" + 0.005*"risk"', '0.012*"well" + 0.010*"’" + 0.008*"good" + 0.006*"needs" + 0.006*"plans" + 0.006*"need" + 0.005*"effective" + 0.005*"progress" + 0.005*"range" + 0.005*"risk"', '0.014*"’" + 0.009*"plans" + 0.009*"good" + 0.008*"well" + 0.008*"needs" + 0.007*"range" + 0.007*"need" + 0.006*"progress" + 0.005*"quality" + 0.005*"Senior"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2161,7 +2161,7 @@
     <t>0.1417</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.012*"practice" + 0.007*"planning" + 0.007*"number" + 0.006*"effective" + 0.006*"within" + 0.006*"quality" + 0.006*"needs" + 0.006*"including" + 0.005*"However"', '0.008*"’" + 0.006*"practice" + 0.006*"number" + 0.005*"effective" + 0.005*"plans" + 0.005*"planning" + 0.004*"quality" + 0.004*"within" + 0.004*"However" + 0.004*"improve"', '0.016*"’" + 0.009*"practice" + 0.007*"leaders" + 0.006*"small" + 0.006*"number" + 0.006*"plans" + 0.006*"needs" + 0.006*"planning" + 0.006*"including" + 0.005*"within"']</t>
+    <t>['0.014*"’" + 0.009*"practice" + 0.007*"planning" + 0.006*"within" + 0.006*"number" + 0.006*"leaders" + 0.006*"plans" + 0.005*"protection" + 0.005*"However" + 0.005*"small"', '0.010*"practice" + 0.010*"’" + 0.007*"effective" + 0.006*"planning" + 0.005*"number" + 0.005*"making" + 0.005*"needs" + 0.005*"plans" + 0.004*"leaders" + 0.004*"within"', '0.014*"’" + 0.010*"practice" + 0.007*"number" + 0.007*"including" + 0.006*"needs" + 0.006*"small" + 0.006*"quality" + 0.006*"need" + 0.006*"plans" + 0.006*"within"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2191,7 +2191,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"effective" + 0.008*"well" + 0.007*"needs" + 0.006*"risk" + 0.006*"ensure" + 0.005*"appropriate" + 0.005*"arrangements" + 0.004*"improve" + 0.004*"However"', '0.014*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"effective" + 0.007*"good" + 0.006*"appropriate" + 0.006*"timely" + 0.006*"education" + 0.005*"improve" + 0.005*"need"', '0.010*"’" + 0.009*"needs" + 0.007*"effective" + 0.007*"appropriate" + 0.006*"good" + 0.006*"well" + 0.006*"arrangements" + 0.005*"leaders" + 0.005*"ensure" + 0.005*"plans"']</t>
+    <t>['0.016*"’" + 0.010*"effective" + 0.008*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"ensure" + 0.005*"shared" + 0.005*"education" + 0.005*"risk" + 0.005*"leaders"', '0.009*"’" + 0.008*"needs" + 0.008*"appropriate" + 0.008*"well" + 0.006*"effective" + 0.005*"good" + 0.005*"shared" + 0.005*"timely" + 0.005*"health" + 0.005*"arrangements"', '0.009*"’" + 0.008*"needs" + 0.007*"effective" + 0.007*"arrangements" + 0.006*"well" + 0.006*"good" + 0.005*"appropriate" + 0.005*"ensure" + 0.005*"leaders" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2212,7 +2212,7 @@
     <t>13/02/2023</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"Haringey" + 0.007*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"good" + 0.006*"progress" + 0.005*"leaders" + 0.005*"supported" + 0.005*"24"', '0.015*"’" + 0.009*"Haringey" + 0.008*"needs" + 0.007*"plans" + 0.005*"need" + 0.005*"good" + 0.005*"education" + 0.005*"well" + 0.004*"impact" + 0.004*"progress"', '0.017*"’" + 0.007*"needs" + 0.007*"Haringey" + 0.006*"plans" + 0.005*"need" + 0.005*"well" + 0.004*"risk" + 0.004*"progress" + 0.004*"good" + 0.004*"timely"']</t>
+    <t>['0.019*"’" + 0.010*"Haringey" + 0.008*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"good" + 0.005*"need" + 0.005*"progress" + 0.005*"education" + 0.005*"practice"', '0.011*"’" + 0.007*"plans" + 0.006*"Haringey" + 0.005*"need" + 0.005*"well" + 0.005*"impact" + 0.005*"needs" + 0.004*"progress" + 0.004*"risk" + 0.004*"education"', '0.014*"’" + 0.009*"needs" + 0.008*"Haringey" + 0.005*"good" + 0.005*"well" + 0.005*"plans" + 0.005*"progress" + 0.005*"need" + 0.004*"risk" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2242,7 +2242,7 @@
     <t>0.2023</t>
   </si>
   <si>
-    <t>['0.010*"good" + 0.010*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"impact" + 0.004*"practice" + 0.004*"school" + 0.004*"need" + 0.004*"experiences"', '0.014*"’" + 0.012*"good" + 0.009*"well" + 0.009*"needs" + 0.007*"protection" + 0.006*"need" + 0.005*"practice" + 0.005*"plans" + 0.005*"experiences" + 0.005*"impact"', '0.011*"’" + 0.010*"good" + 0.009*"well" + 0.007*"needs" + 0.006*"impact" + 0.005*"early" + 0.005*"plans" + 0.005*"practice" + 0.005*"Harrow" + 0.004*"protection"']</t>
+    <t>['0.012*"’" + 0.009*"well" + 0.008*"good" + 0.006*"needs" + 0.006*"plans" + 0.005*"early" + 0.005*"impact" + 0.005*"protection" + 0.004*"need" + 0.004*"experiences"', '0.013*"’" + 0.010*"good" + 0.009*"needs" + 0.008*"well" + 0.007*"practice" + 0.006*"need" + 0.006*"impact" + 0.005*"protection" + 0.005*"plans" + 0.005*"early"', '0.012*"good" + 0.009*"’" + 0.008*"well" + 0.008*"needs" + 0.005*"impact" + 0.005*"school" + 0.005*"protection" + 0.005*"plans" + 0.005*"experiences" + 0.005*"Harrow"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2266,7 +2266,7 @@
     <t>16/02/24</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.008*"Havering" + 0.007*"quality" + 0.006*"plans" + 0.004*"oversight" + 0.004*"effective" + 0.003*"practice" + 0.003*"supported" + 0.003*"22" + 0.003*"needs"', '0.024*"’" + 0.013*"Havering" + 0.008*"quality" + 0.007*"plans" + 0.007*"oversight" + 0.006*"needs" + 0.005*"effective" + 0.004*"practice" + 0.004*"well" + 0.004*"11"', '0.015*"’" + 0.011*"Havering" + 0.010*"quality" + 0.007*"plans" + 0.006*"effective" + 0.005*"11" + 0.004*"2023" + 0.004*"22" + 0.004*"December" + 0.004*"oversight"']</t>
+    <t>['0.016*"’" + 0.012*"Havering" + 0.007*"quality" + 0.007*"plans" + 0.005*"practice" + 0.004*"effective" + 0.004*"needs" + 0.004*"oversight" + 0.004*"many" + 0.004*"2023"', '0.012*"’" + 0.009*"Havering" + 0.008*"quality" + 0.008*"plans" + 0.005*"11" + 0.005*"oversight" + 0.004*"effective" + 0.004*"practice" + 0.004*"needs" + 0.004*"22"', '0.022*"’" + 0.012*"Havering" + 0.010*"quality" + 0.006*"plans" + 0.006*"oversight" + 0.006*"effective" + 0.005*"needs" + 0.005*"22" + 0.005*"11" + 0.004*"December"']</t>
   </si>
   <si>
     <t>80501</t>
@@ -2302,7 +2302,7 @@
     <t>0.1861</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"needs" + 0.008*"Hillingdon" + 0.007*"plans" + 0.005*"well" + 0.004*"experiences" + 0.004*"2" + 0.004*"need" + 0.004*"team" + 0.003*"supported"', '0.017*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"Hillingdon" + 0.007*"plans" + 0.005*"team" + 0.004*"6" + 0.004*"carers" + 0.004*"October" + 0.004*"2"', '0.022*"’" + 0.009*"needs" + 0.009*"plans" + 0.007*"well" + 0.007*"Hillingdon" + 0.005*"team" + 0.005*"need" + 0.005*"leaders" + 0.005*"6" + 0.004*"2023"']</t>
+    <t>['0.021*"’" + 0.010*"needs" + 0.009*"Hillingdon" + 0.008*"plans" + 0.008*"well" + 0.006*"team" + 0.005*"need" + 0.005*"leaders" + 0.004*"2" + 0.004*"2023"', '0.015*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"Hillingdon" + 0.004*"6" + 0.004*"need" + 0.004*"2" + 0.004*"leaders" + 0.004*"senior"', '0.016*"’" + 0.008*"needs" + 0.007*"Hillingdon" + 0.007*"well" + 0.006*"plans" + 0.004*"team" + 0.004*"carers" + 0.004*"PAs" + 0.004*"family" + 0.004*"6"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2332,7 +2332,7 @@
     <t>0.1948</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"well" + 0.006*"needs" + 0.006*"Hounslow" + 0.005*"effective" + 0.005*"plans" + 0.004*"timely" + 0.004*"oversight" + 0.004*"progress" + 0.004*"20"', '0.017*"’" + 0.012*"needs" + 0.008*"well" + 0.007*"effective" + 0.007*"timely" + 0.007*"Hounslow" + 0.005*"plans" + 0.005*"20" + 0.004*"strong" + 0.004*"education"', '0.025*"’" + 0.012*"needs" + 0.011*"well" + 0.008*"effective" + 0.008*"Hounslow" + 0.006*"timely" + 0.006*"plans" + 0.005*"16" + 0.005*"experiences" + 0.005*"strong"']</t>
+    <t>['0.023*"’" + 0.015*"needs" + 0.009*"well" + 0.007*"Hounslow" + 0.007*"effective" + 0.006*"plans" + 0.006*"timely" + 0.005*"strong" + 0.005*"education" + 0.005*"20"', '0.021*"’" + 0.013*"well" + 0.008*"effective" + 0.008*"needs" + 0.007*"Hounslow" + 0.007*"timely" + 0.005*"oversight" + 0.005*"experiences" + 0.005*"16" + 0.005*"plans"', '0.012*"’" + 0.009*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"plans" + 0.005*"Hounslow" + 0.004*"timely" + 0.004*"20" + 0.004*"progress" + 0.004*"16"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2359,7 +2359,7 @@
     <t>0.209</t>
   </si>
   <si>
-    <t>['0.013*"needs" + 0.012*"well" + 0.012*"’" + 0.007*"highly" + 0.006*"plans" + 0.006*"effective" + 0.005*"quality" + 0.005*"Islington" + 0.005*"leaders" + 0.005*"meet"', '0.011*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"good" + 0.006*"plans" + 0.005*"highly" + 0.005*"quality" + 0.005*"leaders" + 0.005*"school" + 0.005*"effective"', '0.014*"’" + 0.012*"needs" + 0.011*"well" + 0.007*"plans" + 0.006*"good" + 0.006*"quality" + 0.005*"leaders" + 0.005*"highly" + 0.005*"Islington" + 0.005*"effective"']</t>
+    <t>['0.013*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"plans" + 0.007*"quality" + 0.006*"highly" + 0.006*"good" + 0.005*"effective" + 0.005*"Islington" + 0.005*"practice"', '0.013*"’" + 0.012*"needs" + 0.010*"well" + 0.007*"plans" + 0.007*"highly" + 0.006*"leaders" + 0.006*"good" + 0.005*"effective" + 0.005*"quality" + 0.005*"risk"', '0.011*"’" + 0.010*"needs" + 0.010*"well" + 0.006*"good" + 0.005*"plans" + 0.005*"Islington" + 0.004*"highly" + 0.004*"leaders" + 0.004*"quality" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2389,7 +2389,7 @@
     <t>16/12/22</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"Lambeth" + 0.007*"plans" + 0.007*"good" + 0.006*"impact" + 0.006*"need" + 0.006*"leaders" + 0.005*"progress"', '0.013*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"need" + 0.005*"well" + 0.005*"Lambeth" + 0.005*"good" + 0.005*"impact" + 0.004*"leaders" + 0.004*"information"', '0.014*"’" + 0.010*"well" + 0.008*"needs" + 0.008*"plans" + 0.008*"good" + 0.007*"progress" + 0.006*"4" + 0.005*"Lambeth" + 0.005*"impact" + 0.005*"leaders"']</t>
+    <t>['0.015*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"Lambeth" + 0.007*"needs" + 0.006*"good" + 0.006*"4" + 0.005*"need" + 0.005*"leaders" + 0.005*"progress"', '0.015*"’" + 0.011*"needs" + 0.008*"well" + 0.008*"good" + 0.006*"plans" + 0.006*"need" + 0.006*"impact" + 0.006*"progress" + 0.006*"Lambeth" + 0.005*"24"', '0.014*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"good" + 0.005*"Lambeth" + 0.005*"progress" + 0.005*"need" + 0.005*"leaders" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2419,7 +2419,7 @@
     <t>0.1851</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"plans" + 0.007*"effective" + 0.007*"Lewisham" + 0.006*"progress" + 0.006*"4" + 0.005*"receive" + 0.005*"good"', '0.013*"’" + 0.008*"well" + 0.006*"effective" + 0.006*"needs" + 0.005*"Lewisham" + 0.005*"plans" + 0.004*"2023" + 0.004*"progress" + 0.004*"practice" + 0.003*"need"', '0.009*"’" + 0.008*"well" + 0.006*"plans" + 0.005*"good" + 0.005*"needs" + 0.005*"arrangements" + 0.004*"Lewisham" + 0.004*"15" + 0.004*"effective" + 0.004*"practice"']</t>
+    <t>['0.014*"’" + 0.007*"well" + 0.007*"plans" + 0.006*"needs" + 0.005*"effective" + 0.005*"Lewisham" + 0.005*"progress" + 0.004*"good" + 0.004*"4" + 0.004*"leaders"', '0.017*"’" + 0.007*"needs" + 0.007*"Lewisham" + 0.006*"effective" + 0.005*"progress" + 0.005*"15" + 0.005*"well" + 0.005*"plans" + 0.004*"receive" + 0.004*"ensure"', '0.020*"’" + 0.011*"well" + 0.008*"plans" + 0.008*"needs" + 0.007*"effective" + 0.006*"4" + 0.006*"Lewisham" + 0.006*"need" + 0.005*"good" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2440,7 +2440,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.005*"well" + 0.005*"Merton" + 0.005*"needs" + 0.005*"progress" + 0.004*"family" + 0.004*"practice" + 0.004*"4" + 0.004*"education" + 0.004*"impact"', '0.016*"’" + 0.010*"well" + 0.008*"Merton" + 0.006*"needs" + 0.005*"plans" + 0.005*"progress" + 0.005*"ensure" + 0.004*"family" + 0.004*"health" + 0.004*"effective"', '0.016*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"Merton" + 0.005*"plans" + 0.005*"4" + 0.004*"family" + 0.004*"good" + 0.004*"28" + 0.004*"across"']</t>
+    <t>['0.020*"’" + 0.007*"well" + 0.007*"Merton" + 0.006*"plans" + 0.006*"needs" + 0.005*"risk" + 0.005*"good" + 0.004*"ensure" + 0.004*"access" + 0.004*"across"', '0.011*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"Merton" + 0.004*"progress" + 0.004*"helping" + 0.004*"education" + 0.004*"information" + 0.004*"Leaders" + 0.004*"2022"', '0.014*"’" + 0.009*"well" + 0.007*"Merton" + 0.006*"needs" + 0.005*"family" + 0.005*"progress" + 0.005*"4" + 0.004*"leaders" + 0.004*"Leaders" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2458,7 +2458,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.008*"Newham" + 0.008*"needs" + 0.007*"need" + 0.007*"practice" + 0.006*"progress" + 0.006*"plans" + 0.006*"good" + 0.005*"effective" + 0.005*"ensure"', '0.015*"’" + 0.007*"effective" + 0.007*"needs" + 0.006*"plans" + 0.006*"Newham" + 0.006*"progress" + 0.006*"practice" + 0.005*"need" + 0.004*"planning" + 0.004*"risks"', '0.019*"’" + 0.008*"needs" + 0.006*"Newham" + 0.005*"practice" + 0.005*"progress" + 0.005*"need" + 0.005*"effective" + 0.005*"plans" + 0.005*"good" + 0.004*"Leaders"']</t>
+    <t>['0.019*"’" + 0.007*"Newham" + 0.007*"needs" + 0.006*"need" + 0.006*"effective" + 0.005*"plans" + 0.005*"progress" + 0.005*"practice" + 0.005*"good" + 0.005*"18"', '0.013*"’" + 0.006*"Newham" + 0.006*"progress" + 0.005*"plans" + 0.005*"needs" + 0.005*"practice" + 0.005*"effective" + 0.005*"need" + 0.004*"good" + 0.004*"risks"', '0.023*"’" + 0.010*"needs" + 0.007*"practice" + 0.007*"Newham" + 0.007*"plans" + 0.006*"progress" + 0.006*"effective" + 0.006*"need" + 0.005*"good" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2485,7 +2485,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"effective" + 0.005*"Redbridge" + 0.004*"need" + 0.004*"risk" + 0.004*"progress" + 0.004*"ensure" + 0.004*"needs"', '0.007*"’" + 0.006*"needs" + 0.006*"need" + 0.006*"practice" + 0.005*"strong" + 0.005*"Redbridge" + 0.005*"including" + 0.005*"well" + 0.005*"risk" + 0.005*"team"', '0.008*"practice" + 0.008*"well" + 0.007*"’" + 0.007*"needs" + 0.006*"need" + 0.006*"strong" + 0.005*"effective" + 0.005*"Redbridge" + 0.005*"risk" + 0.005*"ensure"']</t>
+    <t>['0.007*"’" + 0.005*"practice" + 0.005*"well" + 0.005*"need" + 0.005*"needs" + 0.004*"Redbridge" + 0.004*"risk" + 0.004*"team" + 0.004*"effective" + 0.004*"ensure"', '0.007*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"need" + 0.006*"risk" + 0.006*"practice" + 0.006*"effective" + 0.005*"good" + 0.005*"Redbridge" + 0.005*"including"', '0.008*"’" + 0.008*"practice" + 0.007*"strong" + 0.006*"well" + 0.006*"needs" + 0.005*"effective" + 0.005*"Redbridge" + 0.005*"need" + 0.004*"including" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2509,7 +2509,7 @@
     <t>0.2056</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.013*"well" + 0.009*"needs" + 0.007*"Richmond" + 0.007*"supported" + 0.006*"team" + 0.006*"good" + 0.005*"need" + 0.005*"additional" + 0.005*"31"', '0.012*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"Richmond" + 0.005*"good" + 0.005*"need" + 0.005*"team" + 0.005*"supported" + 0.005*"additional" + 0.004*"strong"', '0.016*"’" + 0.011*"Richmond" + 0.010*"well" + 0.006*"supported" + 0.006*"need" + 0.005*"needs" + 0.005*"ensure" + 0.005*"good" + 0.005*"team" + 0.004*"strong"']</t>
+    <t>['0.015*"’" + 0.012*"well" + 0.008*"needs" + 0.008*"supported" + 0.007*"Richmond" + 0.006*"team" + 0.005*"need" + 0.005*"strong" + 0.005*"4" + 0.005*"2022"', '0.015*"’" + 0.008*"well" + 0.007*"Richmond" + 0.006*"good" + 0.005*"needs" + 0.005*"need" + 0.005*"supported" + 0.005*"team" + 0.004*"strong" + 0.004*"January"', '0.016*"’" + 0.012*"well" + 0.010*"Richmond" + 0.008*"needs" + 0.006*"good" + 0.006*"need" + 0.005*"team" + 0.005*"Thames" + 0.005*"additional" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2536,7 +2536,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"well" + 0.007*"Southwark" + 0.007*"progress" + 0.007*"needs" + 0.006*"good" + 0.006*"Leaders" + 0.006*"plans" + 0.005*"strong" + 0.005*"focus"', '0.011*"’" + 0.010*"Southwark" + 0.007*"needs" + 0.007*"well" + 0.006*"good" + 0.005*"need" + 0.005*"Leaders" + 0.005*"strong" + 0.005*"effective" + 0.005*"plans"', '0.023*"’" + 0.011*"good" + 0.011*"Southwark" + 0.007*"needs" + 0.007*"well" + 0.006*"need" + 0.006*"progress" + 0.006*"effective" + 0.005*"leaders" + 0.005*"plans"']</t>
+    <t>['0.016*"’" + 0.010*"good" + 0.010*"Southwark" + 0.008*"well" + 0.006*"progress" + 0.006*"needs" + 0.006*"plans" + 0.005*"Leaders" + 0.005*"need" + 0.005*"receive"', '0.021*"’" + 0.011*"Southwark" + 0.009*"needs" + 0.007*"well" + 0.007*"good" + 0.006*"progress" + 0.006*"plans" + 0.006*"strong" + 0.005*"need" + 0.005*"effective"', '0.015*"’" + 0.007*"well" + 0.007*"good" + 0.006*"Southwark" + 0.006*"needs" + 0.005*"need" + 0.005*"ensure" + 0.005*"progress" + 0.005*"Leaders" + 0.005*"receive"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2563,7 +2563,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"Sutton" + 0.005*"effective" + 0.004*"progress" + 0.004*"10" + 0.004*"home" + 0.004*"leaders" + 0.004*"supported"', '0.023*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Sutton" + 0.006*"receive" + 0.005*"good" + 0.005*"progress" + 0.005*"effective" + 0.004*"‘" + 0.004*"leaders"', '0.013*"’" + 0.006*"well" + 0.005*"6" + 0.005*"progress" + 0.005*"good" + 0.004*"need" + 0.004*"Sutton" + 0.004*"effective" + 0.004*"supported" + 0.004*"December"']</t>
+    <t>['0.019*"’" + 0.006*"well" + 0.006*"progress" + 0.005*"needs" + 0.005*"Sutton" + 0.005*"receive" + 0.005*"good" + 0.004*"home" + 0.004*"6" + 0.004*"understand"', '0.017*"’" + 0.007*"well" + 0.007*"Sutton" + 0.007*"needs" + 0.005*"effective" + 0.005*"good" + 0.005*"receive" + 0.005*"need" + 0.005*"leaders" + 0.005*"6"', '0.014*"’" + 0.007*"well" + 0.005*"progress" + 0.005*"needs" + 0.005*"Sutton" + 0.005*"effective" + 0.005*"‘" + 0.004*"6" + 0.004*"good" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2590,7 +2590,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"good" + 0.006*"plans" + 0.006*"effective" + 0.006*"‘" + 0.005*"well" + 0.005*"need" + 0.005*"practice" + 0.005*"carers" + 0.005*"progress"', '0.014*"’" + 0.007*"effective" + 0.006*"good" + 0.006*"practice" + 0.006*"‘" + 0.005*"plans" + 0.005*"early" + 0.005*"need" + 0.005*"progress" + 0.005*"well"', '0.015*"’" + 0.007*"plans" + 0.006*"well" + 0.005*"including" + 0.005*"‘" + 0.005*"effective" + 0.005*"practice" + 0.005*"need" + 0.004*"risk" + 0.004*"early"']</t>
+    <t>['0.016*"’" + 0.006*"good" + 0.006*"well" + 0.006*"effective" + 0.005*"plans" + 0.005*"‘" + 0.005*"practice" + 0.005*"including" + 0.005*"risk" + 0.004*"need"', '0.011*"’" + 0.006*"plans" + 0.006*"good" + 0.006*"effective" + 0.005*"‘" + 0.005*"early" + 0.005*"practice" + 0.004*"need" + 0.004*"well" + 0.004*"risk"', '0.017*"’" + 0.007*"good" + 0.007*"plans" + 0.007*"effective" + 0.006*"‘" + 0.006*"progress" + 0.006*"well" + 0.006*"practice" + 0.006*"need" + 0.006*"needs"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2620,7 +2620,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.013*"well" + 0.012*"’" + 0.011*"needs" + 0.008*"good" + 0.008*"effective" + 0.006*"need" + 0.005*"plans" + 0.005*"timely" + 0.004*"information" + 0.004*"risk"', '0.016*"’" + 0.013*"well" + 0.009*"good" + 0.009*"needs" + 0.008*"effective" + 0.006*"plans" + 0.006*"need" + 0.005*"timely" + 0.005*"risk" + 0.004*"quality"', '0.015*"’" + 0.008*"well" + 0.006*"good" + 0.006*"needs" + 0.005*"need" + 0.005*"effective" + 0.004*"protection" + 0.004*"plans" + 0.004*"timely" + 0.004*"progress"']</t>
+    <t>['0.016*"’" + 0.013*"well" + 0.010*"good" + 0.008*"needs" + 0.006*"effective" + 0.006*"need" + 0.005*"timely" + 0.005*"plans" + 0.005*"risk" + 0.004*"progress"', '0.013*"’" + 0.011*"well" + 0.008*"needs" + 0.008*"good" + 0.006*"plans" + 0.006*"effective" + 0.005*"need" + 0.005*"risk" + 0.004*"clear" + 0.004*"protection"', '0.013*"’" + 0.011*"well" + 0.009*"needs" + 0.009*"effective" + 0.007*"need" + 0.007*"good" + 0.004*"plans" + 0.004*"timely" + 0.004*"appropriately" + 0.004*"actions"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2644,7 +2644,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"needs" + 0.005*"protection" + 0.005*"Wandsworth" + 0.005*"supported" + 0.005*"well" + 0.005*"Senior" + 0.005*"effective" + 0.004*"timely" + 0.004*"practice"', '0.012*"’" + 0.007*"well" + 0.006*"progress" + 0.005*"Senior" + 0.005*"practice" + 0.005*"quality" + 0.005*"protection" + 0.005*"ensure" + 0.005*"Wandsworth" + 0.004*"7"', '0.012*"’" + 0.007*"well" + 0.006*"progress" + 0.005*"effective" + 0.005*"needs" + 0.005*"receive" + 0.005*"7" + 0.005*"practice" + 0.005*"Wandsworth" + 0.005*"protection"']</t>
+    <t>['0.013*"’" + 0.008*"well" + 0.006*"progress" + 0.006*"needs" + 0.005*"ensure" + 0.005*"practice" + 0.005*"Wandsworth" + 0.005*"Senior" + 0.004*"supported" + 0.004*"protection"', '0.012*"’" + 0.006*"protection" + 0.006*"progress" + 0.005*"quality" + 0.005*"practice" + 0.005*"needs" + 0.005*"well" + 0.005*"Wandsworth" + 0.005*"supported" + 0.005*"timely"', '0.010*"’" + 0.006*"7" + 0.005*"Senior" + 0.005*"well" + 0.005*"effective" + 0.005*"Wandsworth" + 0.005*"team" + 0.005*"quality" + 0.004*"needs" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2665,7 +2665,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"practice" + 0.006*"needs" + 0.005*"highly" + 0.005*"well" + 0.004*"across" + 0.004*"many" + 0.004*"family" + 0.003*"Westminster" + 0.003*"interventions"', '0.009*"’" + 0.007*"highly" + 0.006*"practice" + 0.005*"needs" + 0.005*"well" + 0.004*"family" + 0.004*"many" + 0.004*"shared" + 0.003*"high" + 0.003*"direct"', '0.013*"’" + 0.007*"needs" + 0.005*"well" + 0.005*"practice" + 0.005*"highly" + 0.004*"plans" + 0.004*"across" + 0.004*"many" + 0.003*"protection" + 0.003*"skilled"']</t>
+    <t>['0.010*"’" + 0.005*"practice" + 0.005*"needs" + 0.004*"well" + 0.004*"across" + 0.004*"highly" + 0.004*"many" + 0.003*"direct" + 0.003*"protection" + 0.003*"family"', '0.014*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"practice" + 0.006*"highly" + 0.004*"many" + 0.004*"family" + 0.004*"plans" + 0.004*"high" + 0.003*"across"', '0.013*"’" + 0.008*"practice" + 0.006*"highly" + 0.006*"needs" + 0.004*"well" + 0.004*"across" + 0.003*"many" + 0.003*"skilled" + 0.003*"family" + 0.003*"number"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2695,7 +2695,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"need" + 0.006*"needs" + 0.006*"effective" + 0.006*"plans" + 0.006*"Luton" + 0.005*"ensure" + 0.005*"impact" + 0.005*"quality" + 0.005*"progress"', '0.015*"’" + 0.006*"Luton" + 0.006*"good" + 0.006*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"needs" + 0.005*"progress" + 0.005*"impact" + 0.005*"ensure"', '0.017*"’" + 0.007*"needs" + 0.006*"plans" + 0.005*"need" + 0.005*"progress" + 0.005*"quality" + 0.005*"good" + 0.005*"Luton" + 0.004*"impact" + 0.004*"11"']</t>
+    <t>['0.020*"’" + 0.006*"effective" + 0.006*"need" + 0.006*"plans" + 0.006*"Luton" + 0.006*"needs" + 0.005*"quality" + 0.005*"impact" + 0.005*"well" + 0.005*"receive"', '0.014*"’" + 0.006*"plans" + 0.006*"Luton" + 0.005*"needs" + 0.005*"need" + 0.005*"impact" + 0.005*"good" + 0.004*"22" + 0.004*"well" + 0.004*"progress"', '0.017*"’" + 0.007*"need" + 0.007*"needs" + 0.006*"progress" + 0.006*"good" + 0.006*"effective" + 0.005*"plans" + 0.005*"ensure" + 0.005*"11" + 0.005*"Luton"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2719,7 +2719,7 @@
     <t>19/05/22</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.013*"Manchester" + 0.011*"needs" + 0.007*"supported" + 0.007*"well" + 0.007*"always" + 0.005*"plans" + 0.005*"protection" + 0.005*"family" + 0.005*"quality"', '0.024*"’" + 0.010*"Manchester" + 0.008*"needs" + 0.007*"always" + 0.007*"well" + 0.007*"supported" + 0.006*"effective" + 0.006*"plans" + 0.006*"education" + 0.005*"protection"', '0.014*"’" + 0.008*"needs" + 0.007*"Manchester" + 0.006*"well" + 0.005*"disabled" + 0.005*"always" + 0.005*"supported" + 0.004*"effective" + 0.004*"plans" + 0.004*"family"']</t>
+    <t>['0.018*"’" + 0.010*"Manchester" + 0.009*"needs" + 0.006*"well" + 0.006*"always" + 0.005*"education" + 0.005*"effective" + 0.005*"supported" + 0.005*"family" + 0.005*"protection"', '0.020*"’" + 0.011*"needs" + 0.008*"Manchester" + 0.007*"supported" + 0.006*"protection" + 0.006*"well" + 0.006*"always" + 0.005*"plans" + 0.005*"However" + 0.005*"effective"', '0.023*"’" + 0.013*"Manchester" + 0.008*"well" + 0.007*"needs" + 0.007*"always" + 0.007*"supported" + 0.006*"plans" + 0.006*"disabled" + 0.006*"education" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -2746,7 +2746,7 @@
     <t>11/09/23</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"Medway" + 0.009*"quality" + 0.007*"well" + 0.007*"practice" + 0.007*"needs" + 0.006*"oversight" + 0.006*"impact" + 0.006*"progress" + 0.005*"leaders"', '0.012*"’" + 0.009*"Medway" + 0.007*"practice" + 0.007*"well" + 0.006*"quality" + 0.006*"needs" + 0.006*"experiences" + 0.005*"leaders" + 0.005*"clear" + 0.005*"impact"', '0.018*"’" + 0.010*"practice" + 0.009*"well" + 0.008*"Medway" + 0.007*"leaders" + 0.007*"quality" + 0.007*"oversight" + 0.006*"needs" + 0.006*"impact" + 0.005*"risk"']</t>
+    <t>['0.019*"’" + 0.012*"Medway" + 0.010*"well" + 0.008*"quality" + 0.008*"practice" + 0.007*"needs" + 0.007*"leaders" + 0.006*"oversight" + 0.006*"good" + 0.005*"experiences"', '0.012*"’" + 0.009*"practice" + 0.008*"quality" + 0.007*"Medway" + 0.007*"needs" + 0.006*"well" + 0.005*"experiences" + 0.005*"impact" + 0.005*"leaders" + 0.005*"oversight"', '0.016*"’" + 0.007*"Medway" + 0.007*"practice" + 0.006*"leaders" + 0.006*"impact" + 0.006*"quality" + 0.006*"oversight" + 0.006*"well" + 0.005*"clear" + 0.005*"improve"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -2767,7 +2767,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"effective" + 0.008*"Middlesbrough" + 0.008*"plans" + 0.007*"needs" + 0.006*"well" + 0.006*"practice" + 0.006*"24" + 0.005*"progress" + 0.005*"place"', '0.012*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"effective" + 0.005*"Middlesbrough" + 0.005*"needs" + 0.005*"place" + 0.005*"practice" + 0.004*"progress" + 0.004*"means"', '0.010*"’" + 0.006*"effective" + 0.006*"Middlesbrough" + 0.006*"needs" + 0.006*"well" + 0.006*"progress" + 0.006*"plans" + 0.004*"practice" + 0.004*"means" + 0.004*"2023"']</t>
+    <t>['0.017*"’" + 0.007*"plans" + 0.007*"effective" + 0.007*"Middlesbrough" + 0.005*"progress" + 0.005*"needs" + 0.005*"24" + 0.005*"practice" + 0.005*"place" + 0.005*"supported"', '0.013*"’" + 0.009*"well" + 0.007*"plans" + 0.007*"effective" + 0.007*"Middlesbrough" + 0.007*"needs" + 0.006*"progress" + 0.005*"means" + 0.005*"practice" + 0.005*"13"', '0.009*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"effective" + 0.006*"Middlesbrough" + 0.006*"well" + 0.005*"plans" + 0.004*"place" + 0.004*"progress" + 0.004*"March"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -2791,7 +2791,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"need" + 0.006*"well" + 0.005*"Keynes" + 0.005*"leaders" + 0.005*"practice" + 0.004*"Milton" + 0.004*"plans" + 0.004*"October" + 0.004*"education"', '0.012*"’" + 0.006*"Milton" + 0.005*"well" + 0.005*"leaders" + 0.005*"25" + 0.004*"Keynes" + 0.004*"5" + 0.004*"family" + 0.004*"good" + 0.004*"practice"', '0.018*"’" + 0.007*"Keynes" + 0.007*"Milton" + 0.005*"well" + 0.005*"need" + 0.005*"plans" + 0.005*"good" + 0.005*"practice" + 0.005*"25" + 0.005*"carers"']</t>
+    <t>['0.013*"’" + 0.006*"Keynes" + 0.006*"Milton" + 0.006*"well" + 0.005*"plans" + 0.005*"25" + 0.005*"need" + 0.005*"practice" + 0.005*"leaders" + 0.004*"October"', '0.016*"’" + 0.005*"practice" + 0.005*"well" + 0.005*"need" + 0.005*"Keynes" + 0.005*"good" + 0.005*"plans" + 0.005*"needs" + 0.004*"leaders" + 0.004*"Milton"', '0.015*"’" + 0.007*"Milton" + 0.006*"Keynes" + 0.006*"need" + 0.006*"well" + 0.005*"also" + 0.005*"team" + 0.004*"5" + 0.004*"leaders" + 0.004*"25"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -2815,7 +2815,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.010*"plans" + 0.008*"good" + 0.007*"Newcastle" + 0.006*"needs" + 0.006*"ensure" + 0.006*"well" + 0.006*"protection" + 0.005*"response" + 0.005*"management"', '0.015*"’" + 0.008*"plans" + 0.006*"needs" + 0.006*"protection" + 0.006*"Newcastle" + 0.006*"response" + 0.005*"well" + 0.005*"making" + 0.005*"progress" + 0.005*"2021"', '0.019*"’" + 0.011*"plans" + 0.009*"needs" + 0.008*"Newcastle" + 0.007*"protection" + 0.007*"good" + 0.007*"well" + 0.007*"progress" + 0.006*"need" + 0.006*"making"']</t>
+    <t>['0.018*"’" + 0.011*"plans" + 0.010*"needs" + 0.008*"good" + 0.007*"protection" + 0.006*"well" + 0.006*"Newcastle" + 0.006*"ensure" + 0.006*"need" + 0.006*"29"', '0.010*"’" + 0.009*"plans" + 0.007*"well" + 0.006*"needs" + 0.006*"Newcastle" + 0.005*"protection" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.005*"making"', '0.017*"’" + 0.010*"plans" + 0.009*"Newcastle" + 0.007*"protection" + 0.006*"good" + 0.006*"needs" + 0.006*"progress" + 0.006*"response" + 0.006*"well" + 0.006*"ensure"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -2836,7 +2836,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"well" + 0.006*"Norfolk" + 0.006*"needs" + 0.006*"practice" + 0.005*"carers" + 0.005*"range" + 0.005*"supported" + 0.005*"information" + 0.005*"progress"', '0.013*"’" + 0.008*"Norfolk" + 0.006*"well" + 0.006*"carers" + 0.005*"practice" + 0.004*"supported" + 0.004*"leaders" + 0.004*"plans" + 0.004*"needs" + 0.004*"range"', '0.017*"’" + 0.010*"well" + 0.009*"Norfolk" + 0.007*"needs" + 0.007*"carers" + 0.006*"supported" + 0.006*"practice" + 0.005*"including" + 0.005*"plans" + 0.005*"leaders"']</t>
+    <t>['0.022*"’" + 0.009*"Norfolk" + 0.008*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"carers" + 0.005*"supported" + 0.005*"information" + 0.005*"18" + 0.005*"range"', '0.012*"’" + 0.007*"carers" + 0.007*"Norfolk" + 0.007*"well" + 0.005*"needs" + 0.005*"supported" + 0.005*"practice" + 0.004*"plans" + 0.004*"range" + 0.004*"effective"', '0.013*"’" + 0.009*"well" + 0.007*"Norfolk" + 0.005*"carers" + 0.005*"supported" + 0.005*"practice" + 0.005*"including" + 0.005*"needs" + 0.005*"plans" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -2866,7 +2866,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"risk" + 0.006*"planning" + 0.006*"leaders" + 0.005*"October" + 0.005*"North" + 0.005*"plans" + 0.005*"East"', '0.018*"’" + 0.007*"practice" + 0.007*"leaders" + 0.007*"planning" + 0.006*"quality" + 0.006*"need" + 0.006*"risk" + 0.005*"needs" + 0.005*"Lincolnshire" + 0.005*"plans"', '0.010*"’" + 0.008*"risk" + 0.008*"practice" + 0.006*"leaders" + 0.006*"needs" + 0.005*"many" + 0.005*"planning" + 0.005*"need" + 0.004*"senior" + 0.004*"Lincolnshire"']</t>
+    <t>['0.015*"’" + 0.009*"practice" + 0.008*"planning" + 0.007*"needs" + 0.007*"risk" + 0.006*"North" + 0.006*"2021" + 0.006*"leaders" + 0.005*"need" + 0.005*"delay"', '0.013*"’" + 0.008*"leaders" + 0.008*"practice" + 0.007*"risk" + 0.005*"needs" + 0.005*"many" + 0.005*"need" + 0.005*"October" + 0.005*"plans" + 0.005*"quality"', '0.014*"’" + 0.007*"risk" + 0.006*"needs" + 0.006*"practice" + 0.005*"planning" + 0.005*"October" + 0.005*"leaders" + 0.005*"need" + 0.005*"East" + 0.005*"Lincolnshire"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -2893,7 +2893,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.005*"Lincolnshire" + 0.005*"‘" + 0.005*"family" + 0.005*"need" + 0.005*"North" + 0.005*"leaders" + 0.004*"10" + 0.004*"approach" + 0.004*"council"', '0.016*"’" + 0.006*"family" + 0.005*"‘" + 0.005*"10" + 0.005*"leaders" + 0.005*"well" + 0.004*"need" + 0.004*"protection" + 0.004*"Lincolnshire" + 0.004*"approach"', '0.023*"’" + 0.009*"‘" + 0.006*"North" + 0.006*"family" + 0.006*"approach" + 0.006*"Lincolnshire" + 0.006*"well" + 0.006*"14" + 0.005*"leaders" + 0.005*"needs"']</t>
+    <t>['0.023*"’" + 0.009*"‘" + 0.007*"family" + 0.006*"Lincolnshire" + 0.006*"North" + 0.005*"well" + 0.005*"council" + 0.005*"leaders" + 0.005*"protection" + 0.005*"approach"', '0.020*"’" + 0.006*"need" + 0.006*"‘" + 0.006*"approach" + 0.006*"family" + 0.005*"leaders" + 0.005*"Lincolnshire" + 0.005*"10" + 0.005*"14" + 0.005*"well"', '0.015*"’" + 0.006*"‘" + 0.005*"North" + 0.004*"leaders" + 0.004*"well" + 0.004*"family" + 0.004*"10" + 0.004*"Lincolnshire" + 0.004*"need" + 0.004*"approach"']</t>
   </si>
   <si>
     <t>2637539</t>
@@ -2926,7 +2926,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.010*"Northamptonshire" + 0.007*"well" + 0.006*"quality" + 0.006*"North" + 0.006*"practice" + 0.006*"impact" + 0.005*"NCT" + 0.005*"experiences" + 0.005*"need"', '0.013*"’" + 0.008*"North" + 0.007*"Northamptonshire" + 0.005*"quality" + 0.005*"well" + 0.005*"Leaders" + 0.005*"needs" + 0.004*"14" + 0.004*"NCT" + 0.004*"3"', '0.009*"’" + 0.005*"North" + 0.005*"well" + 0.004*"Northamptonshire" + 0.004*"3" + 0.004*"plans" + 0.004*"quality" + 0.004*"need" + 0.004*"Leaders" + 0.004*"needs"']</t>
+    <t>['0.014*"’" + 0.007*"Northamptonshire" + 0.007*"well" + 0.005*"quality" + 0.005*"plans" + 0.005*"practice" + 0.005*"North" + 0.005*"impact" + 0.005*"Leaders" + 0.004*"experiences"', '0.016*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.006*"North" + 0.005*"well" + 0.005*"practice" + 0.005*"needs" + 0.005*"NCT" + 0.005*"2022" + 0.005*"Leaders"', '0.020*"’" + 0.008*"Northamptonshire" + 0.008*"North" + 0.006*"well" + 0.005*"needs" + 0.005*"NCT" + 0.005*"impact" + 0.005*"e" + 0.004*"practice" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -2950,7 +2950,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.006*"quality" + 0.006*"North" + 0.006*"number" + 0.006*"always" + 0.005*"Somerset" + 0.005*"practice" + 0.005*"well" + 0.004*"impact"', '0.019*"’" + 0.008*"quality" + 0.007*"needs" + 0.006*"always" + 0.006*"Somerset" + 0.006*"practice" + 0.006*"risk" + 0.005*"experienced" + 0.005*"number" + 0.005*"North"', '0.015*"’" + 0.007*"quality" + 0.006*"needs" + 0.006*"progress" + 0.006*"North" + 0.006*"need" + 0.005*"always" + 0.005*"practice" + 0.005*"Somerset" + 0.005*"risk"']</t>
+    <t>['0.015*"’" + 0.007*"quality" + 0.006*"needs" + 0.006*"always" + 0.005*"practice" + 0.005*"progress" + 0.005*"risk" + 0.005*"need" + 0.005*"effective" + 0.005*"North"', '0.019*"’" + 0.008*"needs" + 0.008*"quality" + 0.007*"always" + 0.007*"North" + 0.006*"practice" + 0.006*"Somerset" + 0.006*"number" + 0.006*"need" + 0.005*"risk"', '0.014*"’" + 0.007*"number" + 0.006*"quality" + 0.006*"Somerset" + 0.005*"progress" + 0.005*"experienced" + 0.005*"North" + 0.005*"needs" + 0.004*"always" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -2974,7 +2974,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"well" + 0.005*"make" + 0.005*"need" + 0.005*"quality" + 0.004*"impact" + 0.004*"leaders" + 0.004*"needs" + 0.004*"experiences" + 0.004*"early"', '0.016*"’" + 0.007*"well" + 0.007*"leaders" + 0.005*"needs" + 0.005*"need" + 0.005*"quality" + 0.004*"early" + 0.004*"impact" + 0.004*"clear" + 0.004*"protection"', '0.011*"’" + 0.005*"well" + 0.005*"need" + 0.005*"leaders" + 0.005*"make" + 0.004*"quality" + 0.003*"impact" + 0.003*"needs" + 0.003*"understand" + 0.003*"clear"']</t>
+    <t>['0.017*"’" + 0.007*"well" + 0.005*"need" + 0.004*"needs" + 0.004*"leaders" + 0.004*"impact" + 0.004*"make" + 0.004*"early" + 0.004*"quality" + 0.003*"protection"', '0.011*"’" + 0.005*"need" + 0.004*"well" + 0.004*"leaders" + 0.004*"early" + 0.004*"clear" + 0.004*"quality" + 0.004*"understand" + 0.003*"impact" + 0.003*"family"', '0.018*"’" + 0.007*"well" + 0.007*"leaders" + 0.006*"make" + 0.006*"quality" + 0.005*"need" + 0.005*"needs" + 0.004*"impact" + 0.004*"progress" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80530</t>
@@ -3001,7 +3001,7 @@
     <t>18/08/23</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.006*"North" + 0.005*"needs" + 0.005*"Yorkshire" + 0.004*"‘" + 0.004*"family" + 0.004*"practice" + 0.004*"education" + 0.004*"effective"', '0.024*"’" + 0.008*"well" + 0.007*"North" + 0.007*"practice" + 0.006*"needs" + 0.006*"Yorkshire" + 0.005*"family" + 0.005*"3" + 0.005*"supported" + 0.005*"2023"', '0.019*"’" + 0.008*"well" + 0.007*"Yorkshire" + 0.007*"practice" + 0.006*"family" + 0.006*"North" + 0.005*"‘" + 0.005*"needs" + 0.005*"7" + 0.004*"need"']</t>
+    <t>['0.019*"’" + 0.007*"well" + 0.006*"Yorkshire" + 0.006*"needs" + 0.005*"practice" + 0.005*"family" + 0.005*"North" + 0.004*"2023" + 0.004*"need" + 0.004*"supported"', '0.016*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"North" + 0.005*"practice" + 0.004*"‘" + 0.004*"family" + 0.004*"Yorkshire" + 0.004*"make" + 0.003*"supported"', '0.024*"’" + 0.010*"well" + 0.008*"North" + 0.007*"practice" + 0.007*"Yorkshire" + 0.007*"family" + 0.005*"‘" + 0.005*"3" + 0.005*"needs" + 0.005*"7"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -3025,7 +3025,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"good" + 0.007*"need" + 0.006*"impact" + 0.005*"always" + 0.005*"practice" + 0.005*"leaders" + 0.005*"experiences"', '0.022*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"good" + 0.006*"need" + 0.005*"practice" + 0.005*"experiences" + 0.005*"impact" + 0.005*"education" + 0.004*"quality"', '0.020*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"good" + 0.007*"experiences" + 0.006*"need" + 0.005*"quality" + 0.005*"education" + 0.004*"practice" + 0.004*"impact"']</t>
+    <t>['0.025*"’" + 0.011*"needs" + 0.009*"well" + 0.007*"need" + 0.007*"good" + 0.006*"impact" + 0.006*"experiences" + 0.005*"education" + 0.005*"practice" + 0.005*"leaders"', '0.022*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"good" + 0.006*"practice" + 0.005*"quality" + 0.005*"experiences" + 0.005*"need" + 0.004*"education" + 0.004*"impact"', '0.019*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"good" + 0.006*"need" + 0.006*"experiences" + 0.005*"impact" + 0.004*"quality" + 0.004*"strong" + 0.004*"education"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3052,7 +3052,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"needs" + 0.006*"plans" + 0.006*"Nottingham" + 0.005*"impact" + 0.005*"effective" + 0.005*"City" + 0.005*"risk" + 0.005*"protection" + 0.005*"11"', '0.015*"’" + 0.007*"needs" + 0.004*"effective" + 0.004*"practice" + 0.004*"plans" + 0.004*"impact" + 0.004*"risk" + 0.004*"need" + 0.004*"oversight" + 0.004*"2022"', '0.012*"’" + 0.009*"needs" + 0.007*"Nottingham" + 0.006*"effective" + 0.005*"plans" + 0.005*"11" + 0.005*"oversight" + 0.005*"impact" + 0.005*"2022" + 0.005*"City"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.006*"effective" + 0.006*"plans" + 0.005*"Nottingham" + 0.005*"impact" + 0.005*"practice" + 0.005*"City" + 0.005*"protection" + 0.005*"risk"', '0.012*"’" + 0.008*"needs" + 0.006*"effective" + 0.006*"Nottingham" + 0.005*"oversight" + 0.005*"plans" + 0.005*"City" + 0.005*"impact" + 0.004*"11" + 0.004*"However"', '0.012*"’" + 0.007*"needs" + 0.006*"Nottingham" + 0.005*"plans" + 0.004*"significant" + 0.004*"11" + 0.004*"impact" + 0.004*"risk" + 0.004*"practice" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80534</t>
@@ -3073,7 +3073,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"well" + 0.008*"practice" + 0.006*"needs" + 0.005*"carers" + 0.005*"ensure" + 0.005*"made" + 0.005*"areas" + 0.005*"quality" + 0.005*"e"', '0.013*"’" + 0.008*"practice" + 0.007*"well" + 0.007*"receive" + 0.006*"plans" + 0.006*"needs" + 0.005*"ensure" + 0.005*"made" + 0.005*"quality" + 0.004*"meetings"', '0.012*"’" + 0.007*"well" + 0.007*"practice" + 0.005*"progress" + 0.005*"needs" + 0.004*"plans" + 0.004*"ensure" + 0.004*"receive" + 0.004*"quality" + 0.004*"Nottinghamshire"']</t>
+    <t>['0.012*"’" + 0.009*"practice" + 0.008*"well" + 0.007*"ensure" + 0.007*"needs" + 0.006*"plans" + 0.006*"progress" + 0.005*"made" + 0.005*"receive" + 0.005*"quality"', '0.015*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"receive" + 0.005*"carers" + 0.005*"quality" + 0.005*"good" + 0.004*"areas" + 0.004*"plans"', '0.009*"’" + 0.007*"practice" + 0.007*"well" + 0.005*"areas" + 0.005*"meetings" + 0.005*"quality" + 0.005*"plans" + 0.005*"e" + 0.004*"made" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3103,7 +3103,7 @@
     <t>04/03/19</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"needs" + 0.008*"good" + 0.008*"practice" + 0.007*"quality" + 0.006*"plans" + 0.006*"effective" + 0.006*"well" + 0.005*"progress" + 0.005*"planning"', '0.012*"’" + 0.011*"practice" + 0.009*"needs" + 0.009*"effective" + 0.008*"good" + 0.008*"planning" + 0.007*"quality" + 0.007*"progress" + 0.006*"well" + 0.005*"information"', '0.011*"good" + 0.010*"’" + 0.009*"needs" + 0.008*"effective" + 0.007*"well" + 0.007*"practice" + 0.006*"plans" + 0.006*"progress" + 0.006*"months" + 0.005*"many"']</t>
+    <t>['0.010*"good" + 0.010*"’" + 0.009*"practice" + 0.008*"needs" + 0.007*"effective" + 0.007*"planning" + 0.006*"quality" + 0.006*"well" + 0.006*"plans" + 0.006*"progress"', '0.012*"’" + 0.010*"practice" + 0.010*"needs" + 0.009*"good" + 0.009*"effective" + 0.007*"well" + 0.007*"quality" + 0.007*"progress" + 0.007*"plans" + 0.006*"planning"', '0.010*"’" + 0.008*"needs" + 0.008*"good" + 0.007*"effective" + 0.006*"practice" + 0.006*"progress" + 0.005*"planning" + 0.005*"quality" + 0.005*"well" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3133,7 +3133,7 @@
     <t>0.1848</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"needs" + 0.006*"good" + 0.005*"response" + 0.005*"plans" + 0.005*"number" + 0.005*"protection" + 0.005*"effective" + 0.004*"early" + 0.004*"education"', '0.011*"’" + 0.009*"needs" + 0.005*"number" + 0.005*"good" + 0.005*"early" + 0.005*"plans" + 0.004*"quality" + 0.004*"education" + 0.004*"response" + 0.004*"protection"', '0.014*"’" + 0.011*"needs" + 0.007*"good" + 0.007*"number" + 0.006*"early" + 0.005*"protection" + 0.005*"effective" + 0.004*"response" + 0.004*"Oxfordshire" + 0.004*"quality"']</t>
+    <t>['0.012*"’" + 0.008*"needs" + 0.005*"good" + 0.005*"early" + 0.005*"including" + 0.005*"number" + 0.004*"education" + 0.004*"plans" + 0.004*"protection" + 0.004*"effective"', '0.013*"’" + 0.008*"needs" + 0.006*"good" + 0.005*"effective" + 0.005*"early" + 0.005*"number" + 0.005*"Oxfordshire" + 0.004*"response" + 0.004*"quality" + 0.004*"education"', '0.014*"’" + 0.011*"needs" + 0.007*"number" + 0.007*"good" + 0.006*"plans" + 0.006*"protection" + 0.005*"response" + 0.005*"early" + 0.004*"quality" + 0.004*"Oxfordshire"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3160,7 +3160,7 @@
     <t>30/01/24</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.012*"needs" + 0.006*"2023" + 0.006*"need" + 0.005*"progress" + 0.005*"supported" + 0.005*"8" + 0.004*"Peterborough" + 0.004*"well" + 0.004*"quality"', '0.016*"’" + 0.014*"needs" + 0.008*"Peterborough" + 0.008*"need" + 0.007*"well" + 0.007*"progress" + 0.006*"2023" + 0.005*"8" + 0.005*"lack" + 0.005*"good"', '0.014*"’" + 0.013*"needs" + 0.008*"Peterborough" + 0.007*"need" + 0.007*"2023" + 0.006*"27" + 0.006*"plans" + 0.006*"well" + 0.006*"receive" + 0.005*"supported"']</t>
+    <t>['0.012*"’" + 0.012*"needs" + 0.007*"progress" + 0.006*"need" + 0.006*"2023" + 0.005*"supported" + 0.005*"well" + 0.005*"Peterborough" + 0.005*"appropriate" + 0.005*"8"', '0.018*"’" + 0.016*"needs" + 0.009*"Peterborough" + 0.008*"need" + 0.007*"well" + 0.007*"2023" + 0.006*"progress" + 0.006*"plans" + 0.006*"27" + 0.005*"good"', '0.011*"needs" + 0.010*"’" + 0.006*"Peterborough" + 0.006*"need" + 0.006*"8" + 0.005*"well" + 0.005*"2023" + 0.005*"progress" + 0.004*"plans" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80538</t>
@@ -3187,7 +3187,7 @@
     <t>15/03/24</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"Plymouth" + 0.005*"plans" + 0.005*"practice" + 0.005*"education" + 0.005*"appropriate" + 0.005*"City" + 0.005*"effective"', '0.010*"’" + 0.005*"Plymouth" + 0.005*"2" + 0.005*"needs" + 0.005*"well" + 0.004*"February" + 0.004*"risks" + 0.004*"practice" + 0.004*"2024" + 0.004*"education"', '0.011*"’" + 0.009*"needs" + 0.007*"Plymouth" + 0.006*"well" + 0.006*"practice" + 0.005*"22" + 0.005*"timely" + 0.004*"2024" + 0.004*"appropriate" + 0.004*"risk"']</t>
+    <t>['0.012*"’" + 0.007*"Plymouth" + 0.007*"well" + 0.007*"needs" + 0.005*"education" + 0.005*"22" + 0.004*"January" + 0.004*"practice" + 0.004*"plans" + 0.004*"February"', '0.012*"’" + 0.009*"needs" + 0.007*"Plymouth" + 0.006*"well" + 0.005*"always" + 0.005*"practice" + 0.005*"appropriate" + 0.005*"City" + 0.005*"timely" + 0.005*"2024"', '0.015*"’" + 0.009*"needs" + 0.008*"well" + 0.006*"practice" + 0.006*"Plymouth" + 0.005*"2" + 0.005*"plans" + 0.005*"education" + 0.004*"22" + 0.004*"February"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3217,7 +3217,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"care-experienced" + 0.007*"Portsmouth" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"health" + 0.005*"family" + 0.005*"need" + 0.004*"progress"', '0.017*"’" + 0.009*"care-experienced" + 0.008*"needs" + 0.008*"well" + 0.007*"Portsmouth" + 0.006*"family" + 0.005*"health" + 0.005*"practice" + 0.005*"plans" + 0.004*"receive"', '0.013*"’" + 0.007*"well" + 0.006*"care-experienced" + 0.006*"Portsmouth" + 0.006*"needs" + 0.005*"leaders" + 0.005*"family" + 0.005*"plans" + 0.004*"risk" + 0.004*"health"']</t>
+    <t>['0.016*"’" + 0.007*"care-experienced" + 0.006*"needs" + 0.006*"well" + 0.006*"Portsmouth" + 0.005*"health" + 0.004*"family" + 0.004*"leaders" + 0.004*"plans" + 0.004*"progress"', '0.015*"’" + 0.008*"care-experienced" + 0.008*"needs" + 0.007*"well" + 0.006*"Portsmouth" + 0.006*"family" + 0.005*"plans" + 0.005*"practice" + 0.005*"health" + 0.004*"need"', '0.020*"’" + 0.008*"care-experienced" + 0.007*"well" + 0.007*"Portsmouth" + 0.006*"plans" + 0.006*"health" + 0.006*"family" + 0.005*"needs" + 0.005*"leaders" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3250,7 +3250,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"number" + 0.006*"good" + 0.006*"quality" + 0.005*"well" + 0.005*"effective" + 0.005*"need" + 0.004*"timely" + 0.004*"plans" + 0.004*"arrangements"', '0.012*"’" + 0.006*"number" + 0.006*"plans" + 0.005*"quality" + 0.005*"well" + 0.004*"effective" + 0.004*"However" + 0.004*"carers" + 0.004*"need" + 0.004*"practice"', '0.018*"’" + 0.008*"quality" + 0.008*"well" + 0.007*"plans" + 0.006*"number" + 0.006*"good" + 0.006*"need" + 0.005*"effective" + 0.005*"needs" + 0.005*"always"']</t>
+    <t>['0.017*"’" + 0.009*"number" + 0.008*"quality" + 0.006*"plans" + 0.006*"well" + 0.006*"effective" + 0.006*"good" + 0.006*"need" + 0.005*"timely" + 0.005*"However"', '0.015*"’" + 0.006*"well" + 0.006*"plans" + 0.006*"good" + 0.005*"number" + 0.005*"quality" + 0.005*"effective" + 0.004*"need" + 0.004*"practice" + 0.004*"ensure"', '0.015*"’" + 0.006*"well" + 0.006*"plans" + 0.005*"quality" + 0.005*"need" + 0.005*"number" + 0.005*"However" + 0.005*"good" + 0.005*"carers" + 0.004*"always"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3271,7 +3271,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"leaders" + 0.006*"needs" + 0.005*"Redcar" + 0.005*"consistently" + 0.005*"practice" + 0.005*"plans" + 0.005*"20" + 0.005*"response" + 0.005*"However"', '0.013*"’" + 0.006*"plans" + 0.006*"needs" + 0.005*"leaders" + 0.005*"However" + 0.005*"consistently" + 0.004*"carers" + 0.004*"20" + 0.004*"response" + 0.004*"ensure"', '0.022*"’" + 0.006*"However" + 0.006*"leaders" + 0.006*"consistently" + 0.006*"2022" + 0.006*"plans" + 0.005*"practice" + 0.005*"carers" + 0.005*"risk" + 0.005*"Cleveland"']</t>
+    <t>['0.015*"’" + 0.006*"leaders" + 0.006*"consistently" + 0.006*"needs" + 0.005*"However" + 0.005*"Cleveland" + 0.005*"plans" + 0.005*"2022" + 0.005*"Redcar" + 0.005*"practice"', '0.016*"’" + 0.007*"plans" + 0.006*"leaders" + 0.006*"20" + 0.006*"needs" + 0.006*"However" + 0.005*"risk" + 0.005*"consistently" + 0.005*"July" + 0.004*"2022"', '0.021*"’" + 0.006*"practice" + 0.006*"However" + 0.006*"leaders" + 0.005*"needs" + 0.005*"plans" + 0.005*"2022" + 0.005*"consistently" + 0.004*"carers" + 0.004*"Cleveland"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3298,7 +3298,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.010*"experienced" + 0.009*"practice" + 0.008*"needs" + 0.007*"plans" + 0.006*"response" + 0.006*"consistently" + 0.006*"Rochdale" + 0.005*"quality" + 0.005*"3"', '0.020*"’" + 0.009*"experienced" + 0.006*"practice" + 0.006*"needs" + 0.005*"good" + 0.005*"consistently" + 0.005*"3" + 0.005*"quality" + 0.005*"response" + 0.005*"well"', '0.014*"’" + 0.009*"experienced" + 0.008*"needs" + 0.007*"practice" + 0.006*"response" + 0.006*"plans" + 0.005*"good" + 0.005*"progress" + 0.005*"quality" + 0.004*"well"']</t>
+    <t>['0.026*"’" + 0.012*"experienced" + 0.007*"practice" + 0.007*"needs" + 0.007*"plans" + 0.006*"response" + 0.006*"quality" + 0.006*"consistently" + 0.005*"good" + 0.005*"23"', '0.016*"’" + 0.010*"needs" + 0.009*"practice" + 0.008*"experienced" + 0.006*"good" + 0.006*"response" + 0.006*"plans" + 0.005*"consistently" + 0.005*"Rochdale" + 0.005*"quality"', '0.017*"’" + 0.007*"experienced" + 0.007*"practice" + 0.005*"response" + 0.005*"Rochdale" + 0.004*"consistently" + 0.004*"plans" + 0.004*"needs" + 0.004*"need" + 0.004*"3"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3322,7 +3322,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"Rotherham" + 0.007*"needs" + 0.006*"well" + 0.006*"Council" + 0.005*"good" + 0.005*"plans" + 0.005*"ensure" + 0.004*"1" + 0.004*"Borough"', '0.016*"’" + 0.008*"Rotherham" + 0.006*"needs" + 0.005*"well" + 0.005*"good" + 0.005*"clear" + 0.004*"ensure" + 0.004*"June" + 0.004*"However" + 0.004*"27"', '0.015*"’" + 0.009*"Rotherham" + 0.005*"needs" + 0.005*"However" + 0.005*"plans" + 0.005*"well" + 0.005*"ensure" + 0.004*"good" + 0.004*"Metropolitan" + 0.004*"Council"']</t>
+    <t>['0.016*"’" + 0.008*"Rotherham" + 0.006*"well" + 0.005*"ensure" + 0.005*"Council" + 0.005*"needs" + 0.005*"Borough" + 0.005*"plans" + 0.004*"good" + 0.004*"protection"', '0.012*"’" + 0.010*"Rotherham" + 0.008*"needs" + 0.005*"However" + 0.005*"well" + 0.004*"good" + 0.004*"27" + 0.004*"June" + 0.004*"clear" + 0.004*"Metropolitan"', '0.017*"’" + 0.007*"Rotherham" + 0.006*"needs" + 0.006*"good" + 0.005*"plans" + 0.005*"Council" + 0.005*"well" + 0.005*"ensure" + 0.004*"However" + 0.004*"Metropolitan"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3346,7 +3346,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.011*"well" + 0.011*"practice" + 0.008*"highly" + 0.007*"needs" + 0.006*"strong" + 0.005*"leaders" + 0.004*"excellent" + 0.004*"ensure" + 0.004*"progress"', '0.015*"well" + 0.010*"’" + 0.010*"practice" + 0.007*"highly" + 0.006*"strong" + 0.006*"effective" + 0.005*"leaders" + 0.005*"needs" + 0.004*"need" + 0.004*"high"', '0.014*"well" + 0.012*"’" + 0.011*"practice" + 0.007*"strong" + 0.007*"highly" + 0.006*"effective" + 0.005*"needs" + 0.005*"leaders" + 0.005*"improve" + 0.005*"high"']</t>
+    <t>['0.014*"well" + 0.012*"’" + 0.010*"practice" + 0.006*"strong" + 0.005*"leaders" + 0.005*"needs" + 0.005*"highly" + 0.004*"effective" + 0.004*"range" + 0.004*"high"', '0.012*"’" + 0.010*"well" + 0.009*"practice" + 0.009*"highly" + 0.007*"effective" + 0.006*"strong" + 0.005*"needs" + 0.004*"leaders" + 0.004*"improve" + 0.004*"high"', '0.016*"well" + 0.012*"practice" + 0.011*"’" + 0.008*"highly" + 0.007*"strong" + 0.006*"needs" + 0.005*"high" + 0.005*"leaders" + 0.005*"need" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3373,7 +3373,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.010*"well" + 0.009*"plans" + 0.006*"needs" + 0.005*"need" + 0.005*"good" + 0.004*"parents" + 0.004*"practice" + 0.004*"supported" + 0.004*"risk"', '0.014*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"plans" + 0.005*"effective" + 0.005*"good" + 0.005*"clear" + 0.004*"practice" + 0.004*"need" + 0.004*"Kingston"', '0.015*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"good" + 0.004*"range" + 0.004*"effective" + 0.004*"risk" + 0.004*"practice" + 0.004*"focus"']</t>
+    <t>['0.013*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"needs" + 0.005*"clear" + 0.004*"supported" + 0.004*"good" + 0.004*"effective" + 0.004*"appropriate" + 0.004*"parents"', '0.012*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"plans" + 0.005*"practice" + 0.004*"effective" + 0.004*"need" + 0.004*"supported" + 0.004*"range" + 0.004*"good"', '0.015*"’" + 0.009*"well" + 0.009*"plans" + 0.008*"needs" + 0.006*"good" + 0.005*"need" + 0.005*"effective" + 0.005*"practice" + 0.005*"parents" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3400,7 +3400,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.005*"plans" + 0.004*"well" + 0.004*"quality" + 0.004*"always" + 0.004*"benefit" + 0.003*"need" + 0.003*"effective" + 0.003*"needs" + 0.003*"health"', '0.009*"’" + 0.005*"well" + 0.005*"quality" + 0.005*"benefit" + 0.005*"needs" + 0.004*"effective" + 0.004*"plans" + 0.004*"use" + 0.004*"always" + 0.004*"However"', '0.014*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"quality" + 0.005*"management" + 0.004*"information" + 0.004*"plans" + 0.004*"use" + 0.004*"actions" + 0.004*"health"']</t>
+    <t>['0.014*"’" + 0.005*"quality" + 0.004*"needs" + 0.004*"use" + 0.004*"plans" + 0.004*"well" + 0.004*"always" + 0.004*"management" + 0.004*"effective" + 0.004*"information"', '0.008*"’" + 0.006*"well" + 0.005*"quality" + 0.005*"needs" + 0.004*"benefit" + 0.004*"information" + 0.004*"health" + 0.004*"plans" + 0.003*"effective" + 0.003*"informed"', '0.012*"’" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"benefit" + 0.004*"quality" + 0.004*"effective" + 0.004*"information" + 0.004*"good" + 0.004*"use"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3421,7 +3421,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"good" + 0.007*"team" + 0.006*"plans" + 0.006*"effective" + 0.006*"protection" + 0.006*"need" + 0.006*"enough"', '0.007*"well" + 0.007*"’" + 0.006*"good" + 0.006*"need" + 0.005*"needs" + 0.004*"team" + 0.004*"ensure" + 0.004*"protection" + 0.004*"quality" + 0.004*"plans"', '0.013*"’" + 0.012*"well" + 0.011*"needs" + 0.008*"practice" + 0.007*"good" + 0.007*"team" + 0.007*"need" + 0.006*"enough" + 0.006*"effective" + 0.006*"protection"']</t>
+    <t>['0.012*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"need" + 0.007*"team" + 0.006*"practice" + 0.006*"enough" + 0.006*"ensure" + 0.006*"plans"', '0.012*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"good" + 0.006*"team" + 0.006*"practice" + 0.005*"effective" + 0.005*"plans" + 0.005*"enough" + 0.004*"protection"', '0.014*"’" + 0.010*"well" + 0.010*"needs" + 0.007*"need" + 0.007*"good" + 0.007*"protection" + 0.006*"team" + 0.006*"ensure" + 0.006*"practice" + 0.006*"effective"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3445,7 +3445,7 @@
     <t>0.2045</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"effective" + 0.005*"Salford" + 0.005*"10" + 0.004*"progress" + 0.004*"planning" + 0.004*"leaders"', '0.015*"’" + 0.009*"plans" + 0.008*"needs" + 0.008*"effective" + 0.007*"well" + 0.006*"planning" + 0.006*"Salford" + 0.006*"practice" + 0.005*"experiences" + 0.005*"leaders"', '0.011*"’" + 0.006*"Salford" + 0.006*"well" + 0.006*"plans" + 0.005*"needs" + 0.005*"practice" + 0.005*"effective" + 0.005*"6" + 0.004*"experiences" + 0.004*"quality"']</t>
+    <t>['0.014*"’" + 0.008*"plans" + 0.007*"needs" + 0.005*"well" + 0.005*"quality" + 0.005*"effective" + 0.005*"practice" + 0.005*"Salford" + 0.005*"2023" + 0.004*"6"', '0.014*"’" + 0.008*"plans" + 0.008*"well" + 0.007*"Salford" + 0.007*"effective" + 0.007*"needs" + 0.006*"planning" + 0.005*"leaders" + 0.005*"appropriate" + 0.005*"practice"', '0.013*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"effective" + 0.007*"plans" + 0.005*"planning" + 0.004*"Salford" + 0.004*"leaders" + 0.004*"experiences" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3466,7 +3466,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"plans" + 0.008*"Sandwell" + 0.007*"needs" + 0.006*"well" + 0.006*"quality" + 0.005*"number" + 0.005*"changes" + 0.005*"20" + 0.004*"9"', '0.017*"’" + 0.010*"needs" + 0.008*"Sandwell" + 0.007*"well" + 0.006*"quality" + 0.006*"Trust" + 0.005*"plans" + 0.005*"education" + 0.005*"progress" + 0.005*"20"', '0.011*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"well" + 0.005*"Sandwell" + 0.004*"quality" + 0.004*"number" + 0.004*"changes" + 0.004*"9" + 0.004*"effective"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"well" + 0.007*"Sandwell" + 0.007*"quality" + 0.005*"20" + 0.005*"number" + 0.005*"9" + 0.005*"Trust"', '0.017*"’" + 0.008*"Sandwell" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"Trust" + 0.005*"education" + 0.005*"quality" + 0.004*"number" + 0.004*"effective"', '0.012*"’" + 0.007*"needs" + 0.007*"plans" + 0.007*"Sandwell" + 0.006*"well" + 0.005*"quality" + 0.005*"progress" + 0.004*"education" + 0.004*"9" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3487,7 +3487,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.011*"needs" + 0.007*"practice" + 0.006*"oversight" + 0.005*"including" + 0.005*"Sefton" + 0.005*"◼" + 0.005*"timely" + 0.005*"lack" + 0.005*"management"', '0.015*"’" + 0.009*"needs" + 0.005*"practice" + 0.005*"many" + 0.005*"protection" + 0.005*"oversight" + 0.005*"lack" + 0.005*"management" + 0.005*"Sefton" + 0.005*"including"', '0.012*"’" + 0.007*"needs" + 0.006*"practice" + 0.006*"oversight" + 0.005*"lack" + 0.005*"March" + 0.005*"protection" + 0.005*"including" + 0.005*"◼" + 0.005*"need"']</t>
+    <t>['0.012*"’" + 0.006*"oversight" + 0.006*"lack" + 0.005*"management" + 0.005*"needs" + 0.005*"practice" + 0.005*"4" + 0.005*"Sefton" + 0.004*"including" + 0.004*"l"', '0.020*"’" + 0.011*"needs" + 0.007*"practice" + 0.005*"oversight" + 0.005*"including" + 0.005*"Sefton" + 0.005*"◼" + 0.005*"plans" + 0.004*"21" + 0.004*"many"', '0.015*"’" + 0.011*"needs" + 0.006*"protection" + 0.005*"practice" + 0.005*"oversight" + 0.005*"many" + 0.005*"lack" + 0.005*"management" + 0.005*"including" + 0.005*"◼"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3517,7 +3517,7 @@
     <t>0.2097</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"Sheffield" + 0.006*"needs" + 0.006*"practice" + 0.005*"leaders" + 0.005*"health" + 0.004*"22" + 0.004*"mental" + 0.003*"11" + 0.003*"quality"', '0.018*"’" + 0.010*"Sheffield" + 0.007*"needs" + 0.006*"well" + 0.006*"practice" + 0.005*"adviser" + 0.005*"health" + 0.005*"ensure" + 0.004*"leaders" + 0.004*"plans"', '0.026*"’" + 0.013*"Sheffield" + 0.010*"needs" + 0.009*"well" + 0.006*"leaders" + 0.006*"health" + 0.005*"practice" + 0.005*"quality" + 0.005*"good" + 0.005*"mental"']</t>
+    <t>['0.021*"’" + 0.013*"Sheffield" + 0.008*"needs" + 0.007*"well" + 0.005*"health" + 0.005*"plans" + 0.005*"practice" + 0.005*"effective" + 0.004*"quality" + 0.004*"leaders"', '0.018*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.007*"well" + 0.006*"leaders" + 0.005*"adviser" + 0.005*"practice" + 0.005*"experiences" + 0.004*"health" + 0.004*"receive"', '0.022*"’" + 0.010*"Sheffield" + 0.010*"needs" + 0.007*"practice" + 0.006*"well" + 0.006*"health" + 0.006*"leaders" + 0.005*"quality" + 0.005*"good" + 0.004*"22"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3544,7 +3544,7 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"needs" + 0.007*"Shropshire" + 0.007*"well" + 0.006*"progress" + 0.006*"7" + 0.005*"making" + 0.005*"plans" + 0.004*"make" + 0.004*"training"', '0.014*"’" + 0.009*"needs" + 0.007*"Shropshire" + 0.006*"progress" + 0.006*"well" + 0.005*"plans" + 0.005*"leaders" + 0.005*"arrangements" + 0.005*"2022" + 0.004*"training"', '0.020*"’" + 0.009*"needs" + 0.007*"well" + 0.007*"Shropshire" + 0.006*"2022" + 0.006*"plans" + 0.006*"11" + 0.005*"practice" + 0.005*"making" + 0.005*"progress"']</t>
+    <t>['0.018*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"Shropshire" + 0.005*"progress" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"making" + 0.005*"effective" + 0.005*"leaders"', '0.017*"’" + 0.007*"needs" + 0.006*"Shropshire" + 0.005*"well" + 0.004*"2022" + 0.004*"practice" + 0.004*"February" + 0.004*"progress" + 0.004*"plans" + 0.004*"making"', '0.016*"’" + 0.007*"Shropshire" + 0.007*"progress" + 0.007*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"2022" + 0.006*"making" + 0.005*"7" + 0.005*"training"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3565,7 +3565,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"Slough" + 0.007*"needs" + 0.007*"plans" + 0.007*"practice" + 0.007*"quality" + 0.005*"However" + 0.005*"impact" + 0.005*"leaders" + 0.005*"planning"', '0.013*"’" + 0.007*"Slough" + 0.006*"plans" + 0.005*"practice" + 0.004*"needs" + 0.004*"February" + 0.004*"quality" + 0.004*"3" + 0.004*"impact" + 0.004*"progress"', '0.013*"’" + 0.008*"Slough" + 0.006*"quality" + 0.005*"needs" + 0.005*"3" + 0.005*"plans" + 0.005*"leaders" + 0.004*"supported" + 0.004*"PAs" + 0.004*"progress"']</t>
+    <t>['0.016*"’" + 0.011*"Slough" + 0.006*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"practice" + 0.005*"need" + 0.005*"3" + 0.004*"23" + 0.004*"January"', '0.014*"’" + 0.007*"Slough" + 0.006*"leaders" + 0.005*"plans" + 0.005*"needs" + 0.004*"practice" + 0.004*"23" + 0.004*"quality" + 0.004*"However" + 0.004*"supported"', '0.016*"’" + 0.007*"needs" + 0.007*"quality" + 0.007*"plans" + 0.006*"practice" + 0.006*"Slough" + 0.006*"impact" + 0.005*"3" + 0.005*"supported" + 0.005*"February"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3586,7 +3586,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.012*"lack" + 0.010*"2022" + 0.007*"Solihull" + 0.006*"need" + 0.006*"quality" + 0.006*"risk" + 0.006*"effective" + 0.005*"means" + 0.005*"practice"', '0.012*"’" + 0.008*"2022" + 0.007*"lack" + 0.007*"need" + 0.005*"Solihull" + 0.005*"practice" + 0.004*"risk" + 0.004*"experiences" + 0.004*"partners" + 0.004*"plans"', '0.015*"’" + 0.011*"lack" + 0.007*"2022" + 0.007*"risk" + 0.006*"experiences" + 0.006*"Solihull" + 0.006*"quality" + 0.006*"practice" + 0.005*"significant" + 0.005*"timely"']</t>
+    <t>['0.017*"’" + 0.012*"lack" + 0.008*"2022" + 0.006*"Solihull" + 0.006*"effective" + 0.006*"need" + 0.006*"significant" + 0.006*"quality" + 0.005*"means" + 0.005*"risk"', '0.018*"’" + 0.012*"lack" + 0.008*"2022" + 0.007*"risk" + 0.007*"need" + 0.006*"Solihull" + 0.006*"experiences" + 0.005*"quality" + 0.005*"delay" + 0.005*"practice"', '0.011*"’" + 0.008*"2022" + 0.007*"lack" + 0.006*"practice" + 0.005*"Solihull" + 0.005*"need" + 0.005*"quality" + 0.005*"significant" + 0.004*"experiences" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3607,7 +3607,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"plans" + 0.006*"good" + 0.005*"supported" + 0.005*"need" + 0.005*"including" + 0.004*"number"', '0.021*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"Somerset" + 0.007*"good" + 0.006*"plans" + 0.006*"leaders" + 0.006*"progress" + 0.005*"need" + 0.005*"positive"', '0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"plans" + 0.006*"supported" + 0.006*"Somerset" + 0.005*"practice" + 0.005*"number" + 0.005*"understand" + 0.005*"including"']</t>
+    <t>['0.020*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"Somerset" + 0.007*"good" + 0.007*"plans" + 0.006*"practice" + 0.006*"leaders" + 0.005*"including" + 0.005*"number"', '0.014*"’" + 0.009*"well" + 0.009*"needs" + 0.006*"Somerset" + 0.005*"supported" + 0.005*"good" + 0.005*"need" + 0.005*"plans" + 0.005*"family" + 0.005*"health"', '0.016*"’" + 0.009*"well" + 0.006*"supported" + 0.006*"needs" + 0.006*"plans" + 0.005*"leaders" + 0.005*"including" + 0.005*"progress" + 0.005*"Somerset" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3628,7 +3628,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.010*"quality" + 0.010*"well" + 0.009*"leaders" + 0.008*"plans" + 0.008*"’" + 0.006*"timely" + 0.006*"needs" + 0.005*"progress" + 0.005*"good" + 0.005*"South"', '0.013*"well" + 0.010*"quality" + 0.009*"’" + 0.009*"leaders" + 0.008*"good" + 0.008*"plans" + 0.006*"needs" + 0.006*"timely" + 0.005*"always" + 0.005*"range"', '0.010*"quality" + 0.009*"’" + 0.009*"well" + 0.007*"leaders" + 0.007*"good" + 0.006*"plans" + 0.006*"progress" + 0.006*"timely" + 0.005*"practice" + 0.005*"needs"']</t>
+    <t>['0.008*"plans" + 0.007*"well" + 0.007*"’" + 0.007*"leaders" + 0.007*"quality" + 0.007*"good" + 0.005*"timely" + 0.005*"progress" + 0.005*"timeliness" + 0.004*"needs"', '0.012*"well" + 0.012*"quality" + 0.009*"’" + 0.008*"leaders" + 0.008*"plans" + 0.007*"good" + 0.006*"timely" + 0.005*"range" + 0.005*"progress" + 0.005*"◼"', '0.012*"well" + 0.011*"quality" + 0.010*"’" + 0.009*"leaders" + 0.007*"needs" + 0.007*"plans" + 0.006*"timely" + 0.006*"good" + 0.006*"progress" + 0.005*"Senior"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -3658,7 +3658,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.008*"needs" + 0.008*"Tyneside" + 0.007*"South" + 0.006*"However" + 0.005*"5" + 0.005*"effective" + 0.005*"practice" + 0.005*"carers" + 0.005*"oversight"', '0.018*"’" + 0.008*"needs" + 0.006*"Tyneside" + 0.006*"South" + 0.004*"well" + 0.004*"living" + 0.004*"parents" + 0.004*"9" + 0.004*"5" + 0.004*"oversight"', '0.026*"’" + 0.011*"needs" + 0.008*"South" + 0.008*"Tyneside" + 0.006*"oversight" + 0.005*"management" + 0.005*"carers" + 0.005*"effective" + 0.005*"2022" + 0.004*"9"']</t>
+    <t>['0.023*"’" + 0.008*"needs" + 0.008*"South" + 0.005*"However" + 0.005*"management" + 0.005*"Tyneside" + 0.005*"2023" + 0.005*"practice" + 0.004*"oversight" + 0.004*"5"', '0.025*"’" + 0.011*"needs" + 0.009*"Tyneside" + 0.007*"South" + 0.006*"carers" + 0.006*"effective" + 0.006*"oversight" + 0.005*"2022" + 0.005*"15" + 0.005*"However"', '0.024*"’" + 0.007*"needs" + 0.007*"South" + 0.007*"Tyneside" + 0.005*"9" + 0.005*"oversight" + 0.005*"carers" + 0.005*"risk" + 0.005*"protection" + 0.005*"5"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -3685,7 +3685,7 @@
     <t>28/07/23</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.006*"plans" + 0.006*"Southampton" + 0.005*"including" + 0.005*"progress" + 0.005*"improve" + 0.005*"16" + 0.005*"good" + 0.004*"provide" + 0.004*"5"', '0.015*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"Southampton" + 0.005*"timely" + 0.005*"experiences" + 0.004*"improve" + 0.004*"well" + 0.004*"including" + 0.004*"5"', '0.011*"’" + 0.006*"Southampton" + 0.005*"progress" + 0.005*"plans" + 0.005*"5" + 0.004*"improve" + 0.004*"June" + 0.004*"needs" + 0.004*"experiences" + 0.004*"leaders"']</t>
+    <t>['0.011*"’" + 0.006*"Southampton" + 0.005*"plans" + 0.004*"well" + 0.004*"progress" + 0.004*"provide" + 0.004*"timely" + 0.003*"improve" + 0.003*"5" + 0.003*"needs"', '0.016*"’" + 0.006*"including" + 0.005*"Southampton" + 0.005*"plans" + 0.005*"progress" + 0.005*"5" + 0.004*"16" + 0.004*"experiences" + 0.004*"needs" + 0.004*"2023"', '0.019*"’" + 0.007*"plans" + 0.006*"improve" + 0.005*"Southampton" + 0.005*"needs" + 0.005*"progress" + 0.005*"5" + 0.004*"experiences" + 0.004*"June" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -3718,7 +3718,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.007*"practice" + 0.006*"quality" + 0.006*"planning" + 0.005*"always" + 0.005*"needs" + 0.005*"leaders" + 0.005*"risk" + 0.005*"number" + 0.005*"protection"', '0.018*"’" + 0.008*"planning" + 0.008*"quality" + 0.007*"practice" + 0.006*"leaders" + 0.005*"protection" + 0.005*"risk" + 0.005*"good" + 0.005*"plans" + 0.005*"needs"', '0.013*"’" + 0.009*"planning" + 0.007*"leaders" + 0.006*"practice" + 0.006*"number" + 0.006*"within" + 0.006*"effective" + 0.006*"protection" + 0.006*"need" + 0.005*"carers"']</t>
+    <t>['0.008*"’" + 0.008*"planning" + 0.007*"practice" + 0.006*"quality" + 0.006*"leaders" + 0.005*"progress" + 0.005*"needs" + 0.005*"risk" + 0.005*"effective" + 0.005*"number"', '0.013*"’" + 0.008*"planning" + 0.006*"practice" + 0.006*"leaders" + 0.006*"always" + 0.005*"carers" + 0.005*"good" + 0.005*"effective" + 0.005*"protection" + 0.005*"Southend"', '0.017*"’" + 0.008*"quality" + 0.008*"planning" + 0.008*"practice" + 0.007*"number" + 0.006*"protection" + 0.006*"leaders" + 0.005*"within" + 0.005*"carers" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -3736,7 +3736,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"needs" + 0.009*"St" + 0.009*"Helens" + 0.008*"well" + 0.007*"need" + 0.006*"21" + 0.006*"receive" + 0.006*"good" + 0.006*"progress"', '0.012*"’" + 0.008*"Helens" + 0.007*"St" + 0.006*"progress" + 0.005*"10" + 0.005*"good" + 0.005*"needs" + 0.005*"well" + 0.004*"PAs" + 0.004*"plans"', '0.014*"’" + 0.006*"St" + 0.006*"progress" + 0.005*"well" + 0.005*"Helens" + 0.005*"10" + 0.005*"risk" + 0.004*"needs" + 0.004*"receive" + 0.004*"good"']</t>
+    <t>['0.019*"’" + 0.008*"Helens" + 0.008*"needs" + 0.007*"St" + 0.006*"progress" + 0.006*"good" + 0.006*"well" + 0.005*"receive" + 0.005*"risk" + 0.005*"need"', '0.016*"’" + 0.008*"St" + 0.007*"Helens" + 0.007*"needs" + 0.006*"well" + 0.006*"progress" + 0.006*"effective" + 0.005*"need" + 0.005*"risk" + 0.005*"21"', '0.011*"’" + 0.008*"St" + 0.007*"well" + 0.007*"Helens" + 0.006*"needs" + 0.006*"21" + 0.006*"progress" + 0.006*"10" + 0.006*"receive" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -3757,7 +3757,7 @@
     <t>0.1688</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.013*"needs" + 0.007*"oversight" + 0.006*"ensure" + 0.006*"Staffordshire" + 0.006*"quality" + 0.006*"practice" + 0.006*"progress" + 0.005*"health" + 0.005*"6"', '0.017*"’" + 0.008*"needs" + 0.007*"quality" + 0.006*"practice" + 0.006*"Staffordshire" + 0.005*"progress" + 0.005*"health" + 0.004*"oversight" + 0.004*"impact" + 0.004*"ensure"', '0.014*"’" + 0.012*"needs" + 0.005*"progress" + 0.005*"plans" + 0.005*"oversight" + 0.005*"ensure" + 0.005*"health" + 0.005*"practice" + 0.004*"quality" + 0.004*"risk"']</t>
+    <t>['0.019*"’" + 0.010*"needs" + 0.006*"progress" + 0.006*"quality" + 0.006*"practice" + 0.006*"ensure" + 0.005*"plans" + 0.005*"oversight" + 0.005*"Staffordshire" + 0.005*"health"', '0.013*"’" + 0.012*"needs" + 0.006*"quality" + 0.006*"health" + 0.006*"Staffordshire" + 0.005*"practice" + 0.005*"progress" + 0.005*"good" + 0.004*"oversight" + 0.004*"well"', '0.019*"’" + 0.012*"needs" + 0.007*"oversight" + 0.006*"ensure" + 0.005*"Staffordshire" + 0.005*"quality" + 0.005*"health" + 0.005*"practice" + 0.005*"progress" + 0.005*"10"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -3781,7 +3781,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"well" + 0.007*"Stockport" + 0.007*"practice" + 0.007*"strong" + 0.006*"needs" + 0.006*"plans" + 0.005*"range" + 0.005*"2022" + 0.005*"risk"', '0.012*"’" + 0.008*"well" + 0.008*"practice" + 0.006*"Stockport" + 0.006*"needs" + 0.005*"28" + 0.005*"ensure" + 0.005*"plans" + 0.005*"quality" + 0.005*"risk"', '0.009*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"Stockport" + 0.005*"risk" + 0.005*"ensure" + 0.004*"strong" + 0.004*"plans" + 0.004*"leaders"']</t>
+    <t>['0.013*"’" + 0.009*"well" + 0.009*"practice" + 0.007*"plans" + 0.007*"Stockport" + 0.006*"needs" + 0.006*"risk" + 0.005*"28" + 0.005*"need" + 0.005*"strong"', '0.011*"’" + 0.007*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"Stockport" + 0.005*"strong" + 0.005*"range" + 0.004*"risk" + 0.004*"ensure" + 0.004*"leaders"', '0.009*"’" + 0.008*"well" + 0.006*"Stockport" + 0.006*"strong" + 0.006*"practice" + 0.005*"needs" + 0.005*"quality" + 0.005*"ensure" + 0.004*"1" + 0.004*"28"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -3814,7 +3814,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.010*"leaders" + 0.007*"needs" + 0.006*"well" + 0.006*"Stockton" + 0.006*"quality" + 0.006*"on-Tees" + 0.005*"plans" + 0.005*"good" + 0.005*"17"', '0.019*"’" + 0.010*"plans" + 0.008*"well" + 0.007*"leaders" + 0.007*"quality" + 0.006*"Stockton" + 0.006*"needs" + 0.006*"good" + 0.006*"on-Tees" + 0.005*"senior"', '0.017*"’" + 0.009*"plans" + 0.009*"leaders" + 0.006*"on-Tees" + 0.005*"needs" + 0.005*"good" + 0.005*"Stockton" + 0.005*"well" + 0.005*"senior" + 0.005*"quality"']</t>
+    <t>['0.023*"’" + 0.010*"plans" + 0.009*"leaders" + 0.008*"needs" + 0.007*"quality" + 0.007*"Stockton" + 0.007*"on-Tees" + 0.006*"well" + 0.006*"senior" + 0.005*"good"', '0.017*"’" + 0.009*"leaders" + 0.008*"well" + 0.007*"plans" + 0.006*"good" + 0.005*"needs" + 0.005*"quality" + 0.005*"on-Tees" + 0.005*"Stockton" + 0.005*"senior"', '0.016*"’" + 0.008*"leaders" + 0.006*"well" + 0.005*"good" + 0.005*"on-Tees" + 0.005*"plans" + 0.005*"Stockton" + 0.004*"6" + 0.004*"needs" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -3835,7 +3835,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.008*"on-Trent" + 0.007*"well" + 0.007*"plans" + 0.006*"Stoke" + 0.006*"ensure" + 0.006*"protection" + 0.006*"However" + 0.005*"number"', '0.020*"’" + 0.010*"needs" + 0.008*"However" + 0.007*"Stoke" + 0.007*"well" + 0.006*"on-Trent" + 0.006*"progress" + 0.006*"plans" + 0.006*"leaders" + 0.005*"ensure"', '0.015*"’" + 0.007*"plans" + 0.007*"Stoke" + 0.006*"needs" + 0.006*"on-Trent" + 0.006*"well" + 0.005*"protection" + 0.005*"However" + 0.005*"quality" + 0.005*"3"']</t>
+    <t>['0.015*"’" + 0.007*"on-Trent" + 0.006*"Stoke" + 0.006*"protection" + 0.006*"well" + 0.006*"needs" + 0.005*"However" + 0.005*"timely" + 0.005*"ensure" + 0.005*"plans"', '0.013*"’" + 0.008*"needs" + 0.007*"on-Trent" + 0.007*"well" + 0.007*"progress" + 0.007*"plans" + 0.006*"However" + 0.006*"Stoke" + 0.005*"protection" + 0.005*"3"', '0.022*"’" + 0.010*"needs" + 0.008*"Stoke" + 0.007*"plans" + 0.007*"However" + 0.007*"well" + 0.007*"ensure" + 0.006*"on-Trent" + 0.005*"quality" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -3862,7 +3862,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"progress" + 0.006*"well" + 0.006*"good" + 0.005*"ensure" + 0.005*"leaders" + 0.005*"effective" + 0.004*"needs" + 0.004*"practice" + 0.004*"Suffolk"', '0.014*"’" + 0.007*"progress" + 0.007*"well" + 0.005*"effective" + 0.005*"leaders" + 0.005*"practice" + 0.004*"ensure" + 0.004*"needs" + 0.004*"carers" + 0.004*"good"', '0.010*"’" + 0.006*"well" + 0.005*"effective" + 0.004*"good" + 0.004*"leaders" + 0.004*"progress" + 0.003*"ensure" + 0.003*"Suffolk" + 0.003*"practice" + 0.003*"high"']</t>
+    <t>['0.013*"’" + 0.006*"effective" + 0.006*"leaders" + 0.005*"good" + 0.005*"ensure" + 0.005*"progress" + 0.005*"well" + 0.004*"needs" + 0.004*"practice" + 0.004*"high"', '0.008*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"carers" + 0.004*"good" + 0.004*"Suffolk" + 0.004*"leaders" + 0.004*"effective" + 0.003*"needs" + 0.003*"practice"', '0.017*"’" + 0.008*"progress" + 0.007*"well" + 0.005*"effective" + 0.005*"ensure" + 0.004*"practice" + 0.004*"leaders" + 0.004*"good" + 0.004*"need" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -3892,7 +3892,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.007*"quality" + 0.007*"needs" + 0.005*"training" + 0.005*"robust" + 0.005*"experienced" + 0.004*"good" + 0.004*"parents" + 0.004*"council"', '0.020*"’" + 0.008*"Sunderland" + 0.007*"well" + 0.007*"needs" + 0.006*"quality" + 0.005*"practice" + 0.005*"protection" + 0.005*"highly" + 0.005*"parents" + 0.005*"experienced"', '0.011*"’" + 0.006*"well" + 0.005*"council" + 0.005*"quality" + 0.005*"experienced" + 0.005*"needs" + 0.005*"TfC" + 0.004*"training" + 0.004*"Sunderland" + 0.004*"protection"']</t>
+    <t>['0.012*"’" + 0.006*"experienced" + 0.006*"quality" + 0.006*"well" + 0.006*"needs" + 0.005*"Sunderland" + 0.004*"parents" + 0.004*"protection" + 0.004*"practice" + 0.004*"good"', '0.012*"’" + 0.007*"needs" + 0.006*"quality" + 0.006*"Sunderland" + 0.006*"well" + 0.004*"parents" + 0.004*"highly" + 0.004*"TfC" + 0.004*"protection" + 0.004*"good"', '0.021*"’" + 0.009*"well" + 0.007*"quality" + 0.006*"Sunderland" + 0.006*"needs" + 0.005*"practice" + 0.005*"result" + 0.005*"TfC" + 0.005*"council" + 0.005*"training"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -3919,7 +3919,7 @@
     <t>0.1782</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"well" + 0.009*"needs" + 0.006*"effective" + 0.005*"progress" + 0.005*"practice" + 0.005*"quality" + 0.005*"receive" + 0.005*"carers" + 0.005*"plans"', '0.012*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"practice" + 0.006*"progress" + 0.006*"17" + 0.005*"However" + 0.005*"plans" + 0.005*"Surrey" + 0.004*"quality"', '0.013*"’" + 0.010*"needs" + 0.010*"well" + 0.008*"practice" + 0.008*"progress" + 0.006*"plans" + 0.006*"good" + 0.005*"carers" + 0.005*"quality" + 0.005*"However"']</t>
+    <t>['0.011*"’" + 0.011*"needs" + 0.007*"well" + 0.006*"progress" + 0.006*"practice" + 0.005*"quality" + 0.005*"effective" + 0.005*"17" + 0.005*"plans" + 0.004*"carers"', '0.010*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"practice" + 0.006*"effective" + 0.005*"quality" + 0.005*"good" + 0.005*"progress" + 0.004*"17" + 0.004*"Surrey"', '0.018*"’" + 0.012*"well" + 0.009*"needs" + 0.007*"progress" + 0.007*"practice" + 0.006*"plans" + 0.006*"However" + 0.005*"carers" + 0.005*"good" + 0.005*"17"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -3940,7 +3940,7 @@
     <t>0.1489</t>
   </si>
   <si>
-    <t>['0.027*"’" + 0.016*"needs" + 0.009*"need" + 0.009*"Swindon" + 0.008*"well" + 0.008*"plans" + 0.006*"always" + 0.006*"health" + 0.006*"17" + 0.005*"Council"', '0.017*"’" + 0.009*"needs" + 0.008*"Swindon" + 0.008*"well" + 0.007*"need" + 0.006*"lack" + 0.006*"plans" + 0.005*"effective" + 0.005*"always" + 0.005*"Borough"', '0.019*"’" + 0.011*"needs" + 0.009*"Swindon" + 0.008*"well" + 0.008*"always" + 0.007*"need" + 0.006*"home" + 0.006*"impact" + 0.005*"plans" + 0.005*"health"']</t>
+    <t>['0.019*"’" + 0.011*"needs" + 0.011*"Swindon" + 0.008*"need" + 0.008*"well" + 0.006*"always" + 0.006*"plans" + 0.006*"many" + 0.006*"Council" + 0.005*"effective"', '0.018*"’" + 0.012*"needs" + 0.007*"need" + 0.007*"Swindon" + 0.007*"well" + 0.006*"plans" + 0.006*"always" + 0.006*"17" + 0.005*"Council" + 0.005*"health"', '0.028*"’" + 0.015*"needs" + 0.009*"need" + 0.009*"well" + 0.008*"Swindon" + 0.007*"plans" + 0.007*"always" + 0.006*"impact" + 0.006*"effective" + 0.005*"lack"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -3964,7 +3964,7 @@
     <t>0.1495</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.008*"quality" + 0.007*"risk" + 0.007*"impact" + 0.006*"Tameside" + 0.006*"practice" + 0.005*"response" + 0.005*"◼" + 0.005*"4"', '0.016*"’" + 0.008*"needs" + 0.006*"experienced" + 0.006*"risk" + 0.005*"2023" + 0.005*"4" + 0.005*"experiences" + 0.005*"practice" + 0.005*"protection" + 0.004*"progress"', '0.013*"’" + 0.007*"needs" + 0.006*"impact" + 0.005*"experienced" + 0.005*"practice" + 0.004*"effective" + 0.004*"15" + 0.004*"2023" + 0.004*"response" + 0.004*"4"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.006*"impact" + 0.006*"response" + 0.005*"15" + 0.005*"practice" + 0.005*"risk" + 0.005*"2023" + 0.005*"understand" + 0.004*"4"', '0.022*"’" + 0.008*"needs" + 0.007*"experienced" + 0.006*"risk" + 0.006*"impact" + 0.006*"quality" + 0.005*"4" + 0.005*"practice" + 0.005*"plans" + 0.005*"2023"', '0.010*"’" + 0.010*"needs" + 0.006*"risk" + 0.005*"quality" + 0.005*"impact" + 0.005*"planning" + 0.005*"practice" + 0.005*"Tameside" + 0.004*"inspectors" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -3985,7 +3985,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.011*"well" + 0.008*"needs" + 0.006*"effective" + 0.006*"plans" + 0.006*"need" + 0.005*"ensure" + 0.004*"practice" + 0.004*"strong" + 0.004*"planning"', '0.018*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"strong" + 0.007*"effective" + 0.006*"leaders" + 0.006*"planning" + 0.005*"practice" + 0.005*"improve" + 0.005*"plans"', '0.013*"’" + 0.012*"well" + 0.007*"effective" + 0.006*"need" + 0.006*"needs" + 0.005*"practice" + 0.005*"plans" + 0.004*"ensure" + 0.004*"clear" + 0.004*"improve"']</t>
+    <t>['0.012*"’" + 0.009*"well" + 0.006*"effective" + 0.006*"plans" + 0.005*"practice" + 0.005*"need" + 0.004*"leaders" + 0.004*"needs" + 0.004*"strong" + 0.003*"planning"', '0.010*"’" + 0.009*"well" + 0.006*"needs" + 0.006*"strong" + 0.005*"practice" + 0.005*"plans" + 0.005*"effective" + 0.005*"need" + 0.004*"family" + 0.004*"planning"', '0.021*"’" + 0.013*"well" + 0.010*"needs" + 0.008*"effective" + 0.006*"ensure" + 0.005*"need" + 0.005*"improve" + 0.005*"plans" + 0.005*"strong" + 0.005*"planning"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -4006,7 +4006,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.005*"carers" + 0.005*"need" + 0.004*"Thurrock" + 0.004*"leaders" + 0.003*"practice" + 0.003*"quality" + 0.003*"ensure" + 0.003*"protection"', '0.015*"’" + 0.008*"well" + 0.006*"carers" + 0.005*"ensure" + 0.004*"needs" + 0.004*"practice" + 0.004*"impact" + 0.004*"need" + 0.004*"Thurrock" + 0.003*"leaders"', '0.013*"’" + 0.009*"well" + 0.006*"carers" + 0.006*"need" + 0.005*"needs" + 0.004*"effective" + 0.004*"protection" + 0.004*"practice" + 0.004*"vulnerable" + 0.004*"ensure"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.006*"carers" + 0.005*"ensure" + 0.004*"need" + 0.004*"leaders" + 0.004*"needs" + 0.004*"Thurrock" + 0.003*"good" + 0.003*"protection"', '0.013*"’" + 0.009*"well" + 0.006*"carers" + 0.005*"need" + 0.005*"practice" + 0.004*"effective" + 0.004*"needs" + 0.004*"protection" + 0.004*"Thurrock" + 0.004*"leaders"', '0.012*"’" + 0.006*"well" + 0.005*"need" + 0.005*"carers" + 0.005*"needs" + 0.004*"practice" + 0.004*"ensure" + 0.004*"effective" + 0.004*"understand" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -4027,7 +4027,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"well" + 0.009*"Torbay" + 0.006*"good" + 0.005*"progress" + 0.005*"needs" + 0.005*"team" + 0.005*"21" + 0.005*"effective" + 0.005*"April"', '0.012*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"effective" + 0.006*"Torbay" + 0.005*"good" + 0.004*"timely" + 0.004*"1" + 0.004*"21" + 0.004*"team"', '0.017*"’" + 0.009*"well" + 0.007*"Torbay" + 0.006*"good" + 0.006*"needs" + 0.005*"timely" + 0.004*"effective" + 0.004*"agencies" + 0.004*"relevant" + 0.004*"2022"']</t>
+    <t>['0.016*"’" + 0.011*"well" + 0.009*"Torbay" + 0.006*"needs" + 0.005*"21" + 0.005*"good" + 0.005*"progress" + 0.004*"effective" + 0.004*"team" + 0.004*"ensure"', '0.016*"’" + 0.010*"well" + 0.007*"Torbay" + 0.006*"needs" + 0.006*"good" + 0.005*"effective" + 0.005*"progress" + 0.005*"plans" + 0.004*"2022" + 0.004*"agencies"', '0.018*"’" + 0.007*"good" + 0.006*"Torbay" + 0.006*"well" + 0.005*"timely" + 0.005*"effective" + 0.005*"needs" + 0.004*"1" + 0.004*"team" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -4048,7 +4048,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"quality" + 0.007*"Trafford" + 0.007*"plans" + 0.006*"leaders" + 0.006*"placed" + 0.006*"team" + 0.005*"impact"', '0.018*"’" + 0.008*"Trafford" + 0.008*"needs" + 0.007*"plans" + 0.005*"leaders" + 0.005*"practice" + 0.005*"quality" + 0.004*"placed" + 0.004*"family" + 0.004*"2022"', '0.019*"’" + 0.008*"Trafford" + 0.007*"plans" + 0.007*"needs" + 0.007*"well" + 0.006*"practice" + 0.005*"quality" + 0.005*"leaders" + 0.005*"impact" + 0.004*"2"']</t>
+    <t>['0.013*"’" + 0.010*"Trafford" + 0.008*"quality" + 0.008*"needs" + 0.006*"well" + 0.005*"2" + 0.005*"impact" + 0.005*"practice" + 0.005*"worker" + 0.005*"team"', '0.017*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"Trafford" + 0.007*"well" + 0.006*"leaders" + 0.006*"practice" + 0.005*"placed" + 0.004*"progress" + 0.004*"quality"', '0.019*"’" + 0.012*"needs" + 0.008*"plans" + 0.008*"well" + 0.007*"quality" + 0.007*"Trafford" + 0.006*"leaders" + 0.006*"team" + 0.005*"practice" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -4066,7 +4066,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50172854</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.007*"leaders" + 0.007*"Walsall" + 0.006*"well" + 0.006*"needs" + 0.005*"October" + 0.005*"information" + 0.004*"good" + 0.004*"4" + 0.004*"Senior"', '0.021*"’" + 0.007*"needs" + 0.006*"leaders" + 0.005*"information" + 0.005*"well" + 0.004*"2021" + 0.004*"4" + 0.004*"Walsall" + 0.004*"Senior" + 0.004*"positive"', '0.020*"’" + 0.008*"leaders" + 0.006*"needs" + 0.006*"well" + 0.005*"oversight" + 0.005*"4" + 0.005*"Walsall" + 0.004*"Senior" + 0.004*"information" + 0.004*"good"']</t>
+    <t>['0.021*"’" + 0.008*"leaders" + 0.007*"needs" + 0.006*"well" + 0.004*"4" + 0.004*"practice" + 0.004*"Walsall" + 0.004*"15" + 0.004*"plans" + 0.004*"positive"', '0.023*"’" + 0.008*"leaders" + 0.007*"Walsall" + 0.006*"well" + 0.006*"needs" + 0.005*"information" + 0.005*"good" + 0.005*"oversight" + 0.005*"4" + 0.004*"Senior"', '0.019*"’" + 0.006*"needs" + 0.006*"leaders" + 0.005*"information" + 0.005*"Walsall" + 0.005*"4" + 0.005*"Senior" + 0.005*"well" + 0.004*"15" + 0.004*"oversight"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4093,7 +4093,7 @@
     <t>19/08/19</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"practice" + 0.005*"Senior" + 0.005*"plans" + 0.005*"well" + 0.004*"need" + 0.004*"progress" + 0.004*"carers" + 0.004*"good" + 0.004*"number"', '0.015*"’" + 0.009*"well" + 0.007*"practice" + 0.005*"number" + 0.004*"Senior" + 0.004*"progress" + 0.004*"needs" + 0.004*"information" + 0.004*"home" + 0.004*"plans"', '0.010*"’" + 0.005*"practice" + 0.005*"well" + 0.004*"home" + 0.004*"plans" + 0.003*"number" + 0.003*"progress" + 0.003*"carers" + 0.003*"meetings" + 0.003*"need"']</t>
+    <t>['0.012*"’" + 0.006*"practice" + 0.006*"well" + 0.004*"needs" + 0.004*"number" + 0.004*"provided" + 0.004*"plans" + 0.003*"placed" + 0.003*"information" + 0.003*"home"', '0.012*"’" + 0.006*"well" + 0.005*"practice" + 0.004*"plans" + 0.004*"information" + 0.004*"progress" + 0.004*"carers" + 0.003*"home" + 0.003*"parents" + 0.003*"needs"', '0.016*"’" + 0.007*"practice" + 0.007*"well" + 0.006*"Senior" + 0.005*"number" + 0.005*"plans" + 0.005*"progress" + 0.004*"need" + 0.004*"carers" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4120,7 +4120,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"plans" + 0.007*"well" + 0.006*"needs" + 0.006*"Warwickshire" + 0.005*"good" + 0.005*"carers" + 0.005*"progress" + 0.004*"practice" + 0.004*"3"', '0.010*"’" + 0.006*"well" + 0.006*"Warwickshire" + 0.005*"needs" + 0.005*"practice" + 0.005*"carers" + 0.004*"effective" + 0.004*"plans" + 0.004*"good" + 0.004*"progress"', '0.012*"’" + 0.007*"needs" + 0.007*"plans" + 0.006*"well" + 0.005*"Warwickshire" + 0.005*"information" + 0.005*"practice" + 0.005*"supported" + 0.004*"3" + 0.004*"22"']</t>
+    <t>['0.010*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"plans" + 0.005*"clear" + 0.005*"information" + 0.005*"Warwickshire" + 0.004*"3" + 0.004*"supported" + 0.004*"Senior"', '0.011*"’" + 0.006*"needs" + 0.006*"practice" + 0.005*"plans" + 0.005*"Warwickshire" + 0.005*"well" + 0.005*"progress" + 0.004*"carers" + 0.004*"education" + 0.004*"good"', '0.014*"’" + 0.007*"plans" + 0.007*"Warwickshire" + 0.007*"well" + 0.006*"needs" + 0.005*"good" + 0.005*"carers" + 0.005*"effective" + 0.004*"practice" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4147,7 +4147,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"West" + 0.005*"Berkshire" + 0.004*"well" + 0.004*"2022" + 0.003*"working" + 0.003*"need" + 0.003*"progress" + 0.003*"14" + 0.003*"practice"', '0.014*"’" + 0.007*"Berkshire" + 0.007*"West" + 0.007*"well" + 0.005*"plans" + 0.005*"need" + 0.004*"education" + 0.004*"early" + 0.004*"agency" + 0.004*"needs"', '0.018*"’" + 0.006*"West" + 0.006*"well" + 0.006*"Berkshire" + 0.004*"needs" + 0.004*"practice" + 0.004*"March" + 0.004*"14" + 0.004*"plans" + 0.004*"need"']</t>
+    <t>['0.018*"’" + 0.007*"West" + 0.007*"well" + 0.007*"Berkshire" + 0.005*"need" + 0.004*"plans" + 0.004*"needs" + 0.004*"agency" + 0.004*"practice" + 0.004*"14"', '0.013*"’" + 0.005*"well" + 0.005*"West" + 0.005*"Berkshire" + 0.004*"needs" + 0.004*"plans" + 0.004*"education" + 0.004*"early" + 0.003*"working" + 0.003*"experiences"', '0.010*"’" + 0.007*"Berkshire" + 0.006*"West" + 0.005*"well" + 0.004*"18" + 0.004*"2022" + 0.004*"14" + 0.004*"need" + 0.003*"information" + 0.003*"working"']</t>
   </si>
   <si>
     <t>2637548</t>
@@ -4168,7 +4168,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"Northamptonshire" + 0.009*"West" + 0.006*"well" + 0.006*"quality" + 0.005*"needs" + 0.005*"3" + 0.005*"NCT" + 0.005*"14" + 0.004*"practice"', '0.016*"’" + 0.007*"Northamptonshire" + 0.006*"quality" + 0.006*"well" + 0.005*"practice" + 0.005*"West" + 0.005*"impact" + 0.005*"plans" + 0.005*"need" + 0.005*"needs"', '0.014*"’" + 0.007*"quality" + 0.007*"Northamptonshire" + 0.006*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"West" + 0.004*"NCT" + 0.004*"3" + 0.004*"Leaders"']</t>
+    <t>['0.022*"’" + 0.009*"Northamptonshire" + 0.008*"West" + 0.007*"quality" + 0.007*"well" + 0.005*"plans" + 0.005*"14" + 0.005*"impact" + 0.005*"October" + 0.005*"practice"', '0.010*"’" + 0.006*"Northamptonshire" + 0.004*"West" + 0.004*"well" + 0.004*"quality" + 0.004*"needs" + 0.004*"NCT" + 0.004*"Leaders" + 0.003*"However" + 0.003*"experiences"', '0.015*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.007*"practice" + 0.007*"well" + 0.006*"West" + 0.006*"needs" + 0.005*"NCT" + 0.005*"3" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4189,7 +4189,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"West" + 0.005*"13" + 0.005*"Sussex" + 0.005*"health" + 0.005*"24" + 0.004*"quality"', '0.016*"’" + 0.007*"plans" + 0.006*"well" + 0.005*"number" + 0.005*"practice" + 0.005*"West" + 0.005*"Sussex" + 0.005*"13" + 0.004*"needs" + 0.004*"quality"', '0.012*"’" + 0.005*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"Sussex" + 0.005*"West" + 0.004*"quality" + 0.004*"13" + 0.004*"supported" + 0.004*"actively"']</t>
+    <t>['0.016*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"West" + 0.005*"13" + 0.005*"plans" + 0.005*"practice" + 0.004*"number" + 0.004*"quality" + 0.004*"Sussex"', '0.009*"’" + 0.008*"plans" + 0.005*"well" + 0.005*"Sussex" + 0.005*"needs" + 0.005*"practice" + 0.005*"health" + 0.004*"quality" + 0.004*"24" + 0.004*"2023"', '0.016*"’" + 0.006*"well" + 0.006*"plans" + 0.005*"needs" + 0.005*"West" + 0.005*"Sussex" + 0.005*"number" + 0.004*"supported" + 0.004*"13" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4207,7 +4207,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50187563</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"needs" + 0.006*"Wigan" + 0.006*"leaders" + 0.006*"May" + 0.006*"practice" + 0.006*"plans" + 0.005*"appropriate" + 0.005*"20" + 0.004*"2022"', '0.012*"’" + 0.008*"May" + 0.007*"plans" + 0.007*"practice" + 0.006*"needs" + 0.006*"quality" + 0.005*"appropriate" + 0.005*"timely" + 0.005*"9" + 0.005*"Wigan"', '0.014*"’" + 0.007*"May" + 0.007*"Wigan" + 0.006*"plans" + 0.006*"quality" + 0.006*"practice" + 0.005*"appropriate" + 0.005*"needs" + 0.005*"9" + 0.004*"leaders"']</t>
+    <t>['0.011*"’" + 0.008*"May" + 0.008*"practice" + 0.006*"needs" + 0.006*"plans" + 0.005*"quality" + 0.005*"leaders" + 0.005*"9" + 0.005*"20" + 0.005*"Wigan"', '0.013*"’" + 0.007*"plans" + 0.007*"May" + 0.006*"Wigan" + 0.006*"practice" + 0.006*"quality" + 0.005*"appropriate" + 0.005*"needs" + 0.005*"9" + 0.005*"leaders"', '0.013*"’" + 0.007*"May" + 0.007*"Wigan" + 0.006*"appropriate" + 0.006*"plans" + 0.006*"needs" + 0.006*"quality" + 0.005*"practice" + 0.004*"timely" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4237,7 +4237,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"risk" + 0.006*"need" + 0.006*"progress" + 0.006*"ensure" + 0.006*"parents" + 0.005*"Wiltshire" + 0.005*"quality"', '0.017*"’" + 0.012*"well" + 0.008*"needs" + 0.007*"Wiltshire" + 0.006*"progress" + 0.006*"plans" + 0.006*"parents" + 0.006*"need" + 0.005*"supported" + 0.005*"including"', '0.013*"’" + 0.012*"well" + 0.007*"need" + 0.006*"needs" + 0.006*"including" + 0.006*"risk" + 0.005*"supported" + 0.005*"Wiltshire" + 0.005*"parents" + 0.005*"plans"']</t>
+    <t>['0.018*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"risk" + 0.006*"progress" + 0.006*"need" + 0.006*"including" + 0.005*"Wiltshire" + 0.005*"quality" + 0.005*"practice"', '0.015*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"need" + 0.007*"Wiltshire" + 0.007*"ensure" + 0.006*"plans" + 0.006*"parents" + 0.006*"progress" + 0.006*"including"', '0.014*"well" + 0.014*"’" + 0.007*"needs" + 0.006*"supported" + 0.006*"parents" + 0.005*"25" + 0.005*"need" + 0.005*"progress" + 0.005*"including" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4267,7 +4267,7 @@
     <t>0.1655</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"needs" + 0.007*"Wirral" + 0.007*"practice" + 0.007*"ensure" + 0.007*"plans" + 0.006*"number" + 0.005*"18" + 0.005*"response" + 0.005*"29"', '0.011*"’" + 0.009*"ensure" + 0.008*"needs" + 0.008*"Wirral" + 0.007*"plans" + 0.006*"practice" + 0.005*"small" + 0.005*"well" + 0.005*"number" + 0.005*"response"', '0.010*"needs" + 0.008*"’" + 0.006*"Wirral" + 0.006*"well" + 0.006*"plans" + 0.005*"ensure" + 0.005*"good" + 0.004*"effective" + 0.004*"September" + 0.004*"small"']</t>
+    <t>['0.010*"’" + 0.009*"needs" + 0.007*"ensure" + 0.007*"plans" + 0.006*"Wirral" + 0.006*"practice" + 0.006*"well" + 0.005*"good" + 0.005*"number" + 0.004*"September"', '0.010*"’" + 0.009*"needs" + 0.007*"Wirral" + 0.007*"ensure" + 0.006*"plans" + 0.006*"number" + 0.006*"practice" + 0.006*"small" + 0.005*"well" + 0.005*"response"', '0.012*"’" + 0.010*"needs" + 0.008*"Wirral" + 0.007*"ensure" + 0.006*"plans" + 0.006*"practice" + 0.006*"18" + 0.005*"2023" + 0.005*"29" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4288,7 +4288,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"plans" + 0.006*"progress" + 0.006*"provided" + 0.005*"effective" + 0.005*"needs" + 0.005*"6" + 0.005*"protection" + 0.005*"17" + 0.005*"parents"', '0.013*"’" + 0.008*"plans" + 0.007*"effective" + 0.006*"progress" + 0.006*"needs" + 0.006*"well" + 0.005*"17" + 0.005*"ensure" + 0.005*"experiences" + 0.005*"provided"', '0.013*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"good" + 0.005*"plans" + 0.004*"experiences" + 0.004*"provided" + 0.004*"impact" + 0.004*"March"']</t>
+    <t>['0.014*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"effective" + 0.005*"well" + 0.005*"progress" + 0.005*"provided" + 0.005*"17" + 0.004*"good" + 0.004*"Wokingham"', '0.014*"’" + 0.008*"plans" + 0.006*"effective" + 0.006*"progress" + 0.006*"well" + 0.005*"needs" + 0.005*"experiences" + 0.005*"impact" + 0.005*"quality" + 0.005*"provided"', '0.009*"’" + 0.006*"effective" + 0.006*"needs" + 0.006*"progress" + 0.006*"plans" + 0.005*"17" + 0.005*"provided" + 0.005*"protection" + 0.005*"well" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4309,7 +4309,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"needs" + 0.006*"effective" + 0.005*"plans" + 0.005*"risks" + 0.005*"practice" + 0.004*"leaders" + 0.004*"quality" + 0.004*"Wolverhampton" + 0.004*"risk"', '0.016*"’" + 0.008*"needs" + 0.006*"Wolverhampton" + 0.006*"receive" + 0.006*"effective" + 0.005*"strong" + 0.005*"well" + 0.005*"quality" + 0.005*"risk" + 0.005*"leaders"', '0.013*"’" + 0.007*"needs" + 0.005*"effective" + 0.005*"Wolverhampton" + 0.005*"risks" + 0.004*"plans" + 0.004*"leaders" + 0.004*"quality" + 0.004*"supported" + 0.004*"receive"']</t>
+    <t>['0.012*"’" + 0.007*"needs" + 0.007*"effective" + 0.006*"Wolverhampton" + 0.005*"risks" + 0.005*"receive" + 0.005*"supported" + 0.005*"quality" + 0.004*"plans" + 0.004*"education"', '0.014*"’" + 0.005*"needs" + 0.005*"plans" + 0.004*"quality" + 0.004*"practice" + 0.004*"leaders" + 0.004*"education" + 0.004*"strong" + 0.004*"Wolverhampton" + 0.004*"receive"', '0.016*"’" + 0.009*"needs" + 0.006*"effective" + 0.006*"Wolverhampton" + 0.005*"risks" + 0.005*"leaders" + 0.005*"strong" + 0.005*"plans" + 0.005*"receive" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4336,7 +4336,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.009*"plans" + 0.009*"needs" + 0.008*"progress" + 0.007*"Worcestershire" + 0.006*"leaders" + 0.006*"well" + 0.006*"appropriate" + 0.006*"ensure" + 0.005*"experiences"', '0.021*"’" + 0.011*"well" + 0.008*"plans" + 0.008*"Worcestershire" + 0.007*"leaders" + 0.007*"needs" + 0.006*"ensure" + 0.006*"progress" + 0.005*"appropriate" + 0.005*"2023"', '0.015*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"leaders" + 0.006*"progress" + 0.005*"Worcestershire" + 0.005*"plans" + 0.005*"ensure" + 0.004*"appropriate" + 0.004*"education"']</t>
+    <t>['0.016*"’" + 0.007*"well" + 0.007*"plans" + 0.007*"needs" + 0.006*"progress" + 0.006*"Worcestershire" + 0.006*"leaders" + 0.005*"appropriate" + 0.005*"ensure" + 0.004*"living"', '0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"Worcestershire" + 0.006*"progress" + 0.006*"plans" + 0.005*"ensure" + 0.005*"PAs" + 0.005*"improve" + 0.004*"receive"', '0.025*"’" + 0.009*"plans" + 0.009*"well" + 0.008*"leaders" + 0.007*"needs" + 0.007*"Worcestershire" + 0.007*"progress" + 0.007*"ensure" + 0.006*"appropriate" + 0.005*"Senior"']</t>
   </si>
   <si>
     <t>urn</t>
@@ -4384,10 +4384,10 @@
     <t>help_and_protection_grade</t>
   </si>
   <si>
+    <t>in_care_grade</t>
+  </si>
+  <si>
     <t>care_leavers_grade</t>
-  </si>
-  <si>
-    <t>in_care_grade</t>
   </si>
   <si>
     <t>sentiment_score</t>
@@ -4956,10 +4956,10 @@
         <v>6</v>
       </c>
       <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
         <v>28</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
       </c>
       <c r="R3" t="s">
         <v>29</v>
@@ -5025,10 +5025,10 @@
         <v>6</v>
       </c>
       <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
         <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>6</v>
       </c>
       <c r="R4" t="s">
         <v>43</v>
@@ -5163,10 +5163,10 @@
         <v>12</v>
       </c>
       <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
         <v>28</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>12</v>
       </c>
       <c r="R6" t="s">
         <v>71</v>
@@ -5232,10 +5232,10 @@
         <v>12</v>
       </c>
       <c r="P7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>6</v>
       </c>
       <c r="R7" t="s">
         <v>83</v>
@@ -5370,10 +5370,10 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="s">
         <v>28</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>12</v>
       </c>
       <c r="R9" t="s">
         <v>105</v>
@@ -5439,10 +5439,10 @@
         <v>113</v>
       </c>
       <c r="P10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="s">
         <v>28</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>6</v>
       </c>
       <c r="R10" t="s">
         <v>118</v>
@@ -5508,10 +5508,10 @@
         <v>12</v>
       </c>
       <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
         <v>28</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>6</v>
       </c>
       <c r="R11" t="s">
         <v>130</v>
@@ -5646,10 +5646,10 @@
         <v>12</v>
       </c>
       <c r="P13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" t="s">
         <v>28</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>12</v>
       </c>
       <c r="R13" t="s">
         <v>150</v>
@@ -5715,10 +5715,10 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
         <v>28</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>12</v>
       </c>
       <c r="R14" t="s">
         <v>163</v>
@@ -5784,10 +5784,10 @@
         <v>12</v>
       </c>
       <c r="P15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15" t="s">
         <v>28</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>113</v>
       </c>
       <c r="R15" t="s">
         <v>174</v>
@@ -5853,10 +5853,10 @@
         <v>12</v>
       </c>
       <c r="P16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="s">
         <v>28</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>12</v>
       </c>
       <c r="R16" t="s">
         <v>185</v>
@@ -5922,10 +5922,10 @@
         <v>6</v>
       </c>
       <c r="P17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="s">
         <v>28</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>6</v>
       </c>
       <c r="R17" t="s">
         <v>196</v>
@@ -5991,10 +5991,10 @@
         <v>12</v>
       </c>
       <c r="P18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="s">
         <v>28</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>12</v>
       </c>
       <c r="R18" t="s">
         <v>207</v>
@@ -6060,10 +6060,10 @@
         <v>6</v>
       </c>
       <c r="P19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="s">
         <v>28</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>6</v>
       </c>
       <c r="R19" t="s">
         <v>219</v>
@@ -6129,10 +6129,10 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" t="s">
         <v>28</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>101</v>
       </c>
       <c r="R20" t="s">
         <v>231</v>
@@ -6198,10 +6198,10 @@
         <v>6</v>
       </c>
       <c r="P21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" t="s">
         <v>28</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>113</v>
       </c>
       <c r="R21" t="s">
         <v>243</v>
@@ -6267,10 +6267,10 @@
         <v>6</v>
       </c>
       <c r="P22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="s">
         <v>28</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>6</v>
       </c>
       <c r="R22" t="s">
         <v>254</v>
@@ -6336,10 +6336,10 @@
         <v>12</v>
       </c>
       <c r="P23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" t="s">
         <v>28</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>12</v>
       </c>
       <c r="R23" t="s">
         <v>265</v>
@@ -6405,10 +6405,10 @@
         <v>6</v>
       </c>
       <c r="P24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24" t="s">
         <v>28</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>113</v>
       </c>
       <c r="R24" t="s">
         <v>276</v>
@@ -6543,10 +6543,10 @@
         <v>6</v>
       </c>
       <c r="P26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" t="s">
         <v>28</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>6</v>
       </c>
       <c r="R26" t="s">
         <v>298</v>
@@ -6612,10 +6612,10 @@
         <v>6</v>
       </c>
       <c r="P27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27" t="s">
         <v>28</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>113</v>
       </c>
       <c r="R27" t="s">
         <v>311</v>
@@ -6681,10 +6681,10 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="s">
         <v>28</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>6</v>
       </c>
       <c r="R28" t="s">
         <v>323</v>
@@ -6819,10 +6819,10 @@
         <v>12</v>
       </c>
       <c r="P30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" t="s">
         <v>28</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>101</v>
       </c>
       <c r="R30" t="s">
         <v>344</v>
@@ -6888,10 +6888,10 @@
         <v>12</v>
       </c>
       <c r="P31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" t="s">
         <v>28</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>12</v>
       </c>
       <c r="R31" t="s">
         <v>355</v>
@@ -6957,10 +6957,10 @@
         <v>6</v>
       </c>
       <c r="P32" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" t="s">
         <v>28</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>6</v>
       </c>
       <c r="R32" t="s">
         <v>366</v>
@@ -7026,10 +7026,10 @@
         <v>12</v>
       </c>
       <c r="P33" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" t="s">
         <v>28</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>12</v>
       </c>
       <c r="R33" t="s">
         <v>130</v>
@@ -7095,10 +7095,10 @@
         <v>6</v>
       </c>
       <c r="P34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" t="s">
         <v>28</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>6</v>
       </c>
       <c r="R34" t="s">
         <v>386</v>
@@ -7164,10 +7164,10 @@
         <v>6</v>
       </c>
       <c r="P35" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R35" t="s">
         <v>398</v>
@@ -7233,10 +7233,10 @@
         <v>6</v>
       </c>
       <c r="P36" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="Q36" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="R36" t="s">
         <v>409</v>
@@ -7371,10 +7371,10 @@
         <v>6</v>
       </c>
       <c r="P38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="s">
         <v>28</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>6</v>
       </c>
       <c r="R38" t="s">
         <v>432</v>
@@ -7440,10 +7440,10 @@
         <v>12</v>
       </c>
       <c r="P39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" t="s">
         <v>28</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>12</v>
       </c>
       <c r="R39" t="s">
         <v>444</v>
@@ -7509,10 +7509,10 @@
         <v>12</v>
       </c>
       <c r="P40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" t="s">
         <v>28</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>12</v>
       </c>
       <c r="R40" t="s">
         <v>453</v>
@@ -7578,10 +7578,10 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" t="s">
         <v>28</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>113</v>
       </c>
       <c r="R41" t="s">
         <v>461</v>
@@ -7647,10 +7647,10 @@
         <v>6</v>
       </c>
       <c r="P42" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q42" t="s">
         <v>28</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>113</v>
       </c>
       <c r="R42" t="s">
         <v>473</v>
@@ -7716,10 +7716,10 @@
         <v>101</v>
       </c>
       <c r="P43" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q43" t="s">
         <v>28</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>101</v>
       </c>
       <c r="R43" t="s">
         <v>483</v>
@@ -7785,10 +7785,10 @@
         <v>6</v>
       </c>
       <c r="P44" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="Q44" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="R44" t="s">
         <v>492</v>
@@ -7923,10 +7923,10 @@
         <v>6</v>
       </c>
       <c r="P46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q46" t="s">
         <v>28</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>113</v>
       </c>
       <c r="R46" t="s">
         <v>509</v>
@@ -7992,10 +7992,10 @@
         <v>12</v>
       </c>
       <c r="P47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" t="s">
         <v>28</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>6</v>
       </c>
       <c r="R47" t="s">
         <v>518</v>
@@ -8061,10 +8061,10 @@
         <v>12</v>
       </c>
       <c r="P48" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" t="s">
         <v>28</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>12</v>
       </c>
       <c r="R48" t="s">
         <v>528</v>
@@ -8130,10 +8130,10 @@
         <v>12</v>
       </c>
       <c r="P49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" t="s">
         <v>28</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>12</v>
       </c>
       <c r="R49" t="s">
         <v>539</v>
@@ -8199,10 +8199,10 @@
         <v>6</v>
       </c>
       <c r="P50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" t="s">
         <v>28</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>6</v>
       </c>
       <c r="R50" t="s">
         <v>551</v>
@@ -8268,10 +8268,10 @@
         <v>6</v>
       </c>
       <c r="P51" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q51" t="s">
         <v>28</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>113</v>
       </c>
       <c r="R51" t="s">
         <v>560</v>
@@ -8337,10 +8337,10 @@
         <v>6</v>
       </c>
       <c r="P52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q52" t="s">
         <v>28</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>6</v>
       </c>
       <c r="R52" t="s">
         <v>571</v>
@@ -8406,10 +8406,10 @@
         <v>12</v>
       </c>
       <c r="P53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q53" t="s">
         <v>28</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>6</v>
       </c>
       <c r="R53" t="s">
         <v>582</v>
@@ -8475,10 +8475,10 @@
         <v>113</v>
       </c>
       <c r="P54" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="Q54" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="R54" t="s">
         <v>592</v>
@@ -8544,10 +8544,10 @@
         <v>101</v>
       </c>
       <c r="P55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q55" t="s">
         <v>101</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>12</v>
       </c>
       <c r="R55" t="s">
         <v>602</v>
@@ -8613,10 +8613,10 @@
         <v>12</v>
       </c>
       <c r="P56" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q56" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R56" t="s">
         <v>613</v>
@@ -8682,10 +8682,10 @@
         <v>6</v>
       </c>
       <c r="P57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" t="s">
         <v>28</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>6</v>
       </c>
       <c r="R57" t="s">
         <v>624</v>
@@ -8751,10 +8751,10 @@
         <v>6</v>
       </c>
       <c r="P58" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q58" t="s">
         <v>113</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>6</v>
       </c>
       <c r="R58" t="s">
         <v>131</v>
@@ -8958,10 +8958,10 @@
         <v>6</v>
       </c>
       <c r="P61" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q61" t="s">
         <v>28</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>113</v>
       </c>
       <c r="R61" t="s">
         <v>662</v>
@@ -9027,10 +9027,10 @@
         <v>6</v>
       </c>
       <c r="P62" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q62" t="s">
         <v>28</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>12</v>
       </c>
       <c r="R62" t="s">
         <v>386</v>
@@ -9096,10 +9096,10 @@
         <v>12</v>
       </c>
       <c r="P63" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q63" t="s">
         <v>28</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>12</v>
       </c>
       <c r="R63" t="s">
         <v>682</v>
@@ -9165,10 +9165,10 @@
         <v>6</v>
       </c>
       <c r="P64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q64" t="s">
         <v>28</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>6</v>
       </c>
       <c r="R64" t="s">
         <v>692</v>
@@ -9234,10 +9234,10 @@
         <v>6</v>
       </c>
       <c r="P65" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q65" t="s">
         <v>28</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>6</v>
       </c>
       <c r="R65" t="s">
         <v>702</v>
@@ -9303,10 +9303,10 @@
         <v>12</v>
       </c>
       <c r="P66" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q66" t="s">
         <v>28</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>6</v>
       </c>
       <c r="R66" t="s">
         <v>713</v>
@@ -9372,10 +9372,10 @@
         <v>6</v>
       </c>
       <c r="P67" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q67" t="s">
         <v>28</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>6</v>
       </c>
       <c r="R67" t="s">
         <v>724</v>
@@ -9441,10 +9441,10 @@
         <v>6</v>
       </c>
       <c r="P68" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q68" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R68" t="s">
         <v>652</v>
@@ -9510,10 +9510,10 @@
         <v>6</v>
       </c>
       <c r="P69" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q69" t="s">
         <v>28</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>6</v>
       </c>
       <c r="R69" t="s">
         <v>740</v>
@@ -9579,10 +9579,10 @@
         <v>101</v>
       </c>
       <c r="P70" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="Q70" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="R70" t="s">
         <v>150</v>
@@ -9648,10 +9648,10 @@
         <v>6</v>
       </c>
       <c r="P71" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="Q71" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="R71" t="s">
         <v>760</v>
@@ -9786,10 +9786,10 @@
         <v>113</v>
       </c>
       <c r="P73" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q73" t="s">
         <v>28</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>6</v>
       </c>
       <c r="R73" t="s">
         <v>780</v>
@@ -9855,10 +9855,10 @@
         <v>12</v>
       </c>
       <c r="P74" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q74" t="s">
         <v>28</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>12</v>
       </c>
       <c r="R74" t="s">
         <v>208</v>
@@ -9993,10 +9993,10 @@
         <v>6</v>
       </c>
       <c r="P76" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q76" t="s">
         <v>28</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>113</v>
       </c>
       <c r="R76" t="s">
         <v>807</v>
@@ -10062,10 +10062,10 @@
         <v>6</v>
       </c>
       <c r="P77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" t="s">
         <v>28</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>6</v>
       </c>
       <c r="R77" t="s">
         <v>761</v>
@@ -10131,10 +10131,10 @@
         <v>113</v>
       </c>
       <c r="P78" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q78" t="s">
         <v>28</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>6</v>
       </c>
       <c r="R78" t="s">
         <v>821</v>
@@ -10200,10 +10200,10 @@
         <v>6</v>
       </c>
       <c r="P79" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q79" t="s">
         <v>28</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>6</v>
       </c>
       <c r="R79" t="s">
         <v>830</v>
@@ -10269,10 +10269,10 @@
         <v>6</v>
       </c>
       <c r="P80" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q80" t="s">
         <v>28</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>6</v>
       </c>
       <c r="R80" t="s">
         <v>43</v>
@@ -10338,10 +10338,10 @@
         <v>6</v>
       </c>
       <c r="P81" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q81" t="s">
         <v>28</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>6</v>
       </c>
       <c r="R81" t="s">
         <v>848</v>
@@ -10407,10 +10407,10 @@
         <v>6</v>
       </c>
       <c r="P82" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q82" t="s">
         <v>28</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>6</v>
       </c>
       <c r="R82" t="s">
         <v>509</v>
@@ -10476,10 +10476,10 @@
         <v>6</v>
       </c>
       <c r="P83" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q83" t="s">
         <v>28</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>6</v>
       </c>
       <c r="R83" t="s">
         <v>867</v>
@@ -10545,10 +10545,10 @@
         <v>6</v>
       </c>
       <c r="P84" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q84" t="s">
         <v>28</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>6</v>
       </c>
       <c r="R84" t="s">
         <v>830</v>
@@ -10614,10 +10614,10 @@
         <v>113</v>
       </c>
       <c r="P85" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q85" t="s">
         <v>28</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>113</v>
       </c>
       <c r="R85" t="s">
         <v>882</v>
@@ -10683,10 +10683,10 @@
         <v>12</v>
       </c>
       <c r="P86" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q86" t="s">
         <v>28</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>12</v>
       </c>
       <c r="R86" t="s">
         <v>892</v>
@@ -10752,10 +10752,10 @@
         <v>12</v>
       </c>
       <c r="P87" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q87" t="s">
         <v>28</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>6</v>
       </c>
       <c r="R87" t="s">
         <v>220</v>
@@ -10959,10 +10959,10 @@
         <v>12</v>
       </c>
       <c r="P90" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q90" t="s">
         <v>28</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>12</v>
       </c>
       <c r="R90" t="s">
         <v>924</v>
@@ -11028,10 +11028,10 @@
         <v>6</v>
       </c>
       <c r="P91" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q91" t="s">
         <v>28</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>6</v>
       </c>
       <c r="R91" t="s">
         <v>932</v>
@@ -11097,10 +11097,10 @@
         <v>6</v>
       </c>
       <c r="P92" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q92" t="s">
         <v>28</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>6</v>
       </c>
       <c r="R92" t="s">
         <v>939</v>
@@ -11166,10 +11166,10 @@
         <v>101</v>
       </c>
       <c r="P93" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q93" t="s">
         <v>28</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>101</v>
       </c>
       <c r="R93" t="s">
         <v>949</v>
@@ -11235,10 +11235,10 @@
         <v>113</v>
       </c>
       <c r="P94" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q94" t="s">
         <v>28</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>113</v>
       </c>
       <c r="R94" t="s">
         <v>958</v>
@@ -11304,10 +11304,10 @@
         <v>12</v>
       </c>
       <c r="P95" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q95" t="s">
         <v>28</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>12</v>
       </c>
       <c r="R95" t="s">
         <v>967</v>
@@ -11373,10 +11373,10 @@
         <v>12</v>
       </c>
       <c r="P96" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q96" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R96" t="s">
         <v>977</v>
@@ -11442,10 +11442,10 @@
         <v>113</v>
       </c>
       <c r="P97" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q97" t="s">
         <v>28</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>6</v>
       </c>
       <c r="R97" t="s">
         <v>985</v>
@@ -11580,10 +11580,10 @@
         <v>6</v>
       </c>
       <c r="P99" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q99" t="s">
         <v>28</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>6</v>
       </c>
       <c r="R99" t="s">
         <v>1002</v>
@@ -11643,10 +11643,10 @@
         <v>101</v>
       </c>
       <c r="P100" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q100" t="s">
         <v>101</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>12</v>
       </c>
       <c r="R100" t="s">
         <v>1010</v>
@@ -11712,10 +11712,10 @@
         <v>12</v>
       </c>
       <c r="P101" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q101" t="s">
         <v>28</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>6</v>
       </c>
       <c r="R101" t="s">
         <v>652</v>
@@ -11781,10 +11781,10 @@
         <v>12</v>
       </c>
       <c r="P102" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q102" t="s">
         <v>28</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>12</v>
       </c>
       <c r="R102" t="s">
         <v>219</v>
@@ -11850,10 +11850,10 @@
         <v>12</v>
       </c>
       <c r="P103" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q103" t="s">
         <v>28</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>12</v>
       </c>
       <c r="R103" t="s">
         <v>1038</v>
@@ -11919,10 +11919,10 @@
         <v>12</v>
       </c>
       <c r="P104" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q104" t="s">
         <v>101</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>12</v>
       </c>
       <c r="R104" t="s">
         <v>13</v>
@@ -12057,10 +12057,10 @@
         <v>113</v>
       </c>
       <c r="P106" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q106" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R106" t="s">
         <v>1066</v>
@@ -12126,10 +12126,10 @@
         <v>12</v>
       </c>
       <c r="P107" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q107" t="s">
         <v>28</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>12</v>
       </c>
       <c r="R107" t="s">
         <v>1077</v>
@@ -12327,10 +12327,10 @@
         <v>6</v>
       </c>
       <c r="P110" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q110" t="s">
         <v>28</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>6</v>
       </c>
       <c r="R110" t="s">
         <v>1101</v>
@@ -12396,10 +12396,10 @@
         <v>113</v>
       </c>
       <c r="P111" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q111" t="s">
         <v>28</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>113</v>
       </c>
       <c r="R111" t="s">
         <v>1109</v>
@@ -12465,10 +12465,10 @@
         <v>6</v>
       </c>
       <c r="P112" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q112" t="s">
         <v>28</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>113</v>
       </c>
       <c r="R112" t="s">
         <v>1118</v>
@@ -12534,10 +12534,10 @@
         <v>6</v>
       </c>
       <c r="P113" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q113" t="s">
         <v>28</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>12</v>
       </c>
       <c r="R113" t="s">
         <v>780</v>
@@ -12603,10 +12603,10 @@
         <v>12</v>
       </c>
       <c r="P114" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q114" t="s">
         <v>28</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>12</v>
       </c>
       <c r="R114" t="s">
         <v>1134</v>
@@ -12672,10 +12672,10 @@
         <v>6</v>
       </c>
       <c r="P115" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q115" t="s">
         <v>113</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>6</v>
       </c>
       <c r="R115" t="s">
         <v>1142</v>
@@ -12741,10 +12741,10 @@
         <v>12</v>
       </c>
       <c r="P116" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q116" t="s">
         <v>28</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>12</v>
       </c>
       <c r="R116" t="s">
         <v>1149</v>
@@ -12810,10 +12810,10 @@
         <v>101</v>
       </c>
       <c r="P117" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q117" t="s">
         <v>28</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>101</v>
       </c>
       <c r="R117" t="s">
         <v>1156</v>
@@ -12879,10 +12879,10 @@
         <v>6</v>
       </c>
       <c r="P118" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="Q118" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="R118" t="s">
         <v>1166</v>
@@ -12948,10 +12948,10 @@
         <v>12</v>
       </c>
       <c r="P119" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q119" t="s">
         <v>28</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>6</v>
       </c>
       <c r="R119" t="s">
         <v>1175</v>
@@ -13086,10 +13086,10 @@
         <v>101</v>
       </c>
       <c r="P121" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q121" t="s">
         <v>28</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>101</v>
       </c>
       <c r="R121" t="s">
         <v>1189</v>
@@ -13155,10 +13155,10 @@
         <v>6</v>
       </c>
       <c r="P122" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q122" t="s">
         <v>28</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>6</v>
       </c>
       <c r="R122" t="s">
         <v>1196</v>
@@ -13224,10 +13224,10 @@
         <v>12</v>
       </c>
       <c r="P123" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q123" t="s">
         <v>28</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>12</v>
       </c>
       <c r="R123" t="s">
         <v>1203</v>
@@ -13293,10 +13293,10 @@
         <v>12</v>
       </c>
       <c r="P124" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q124" t="s">
         <v>28</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>101</v>
       </c>
       <c r="R124" t="s">
         <v>1212</v>
@@ -13431,10 +13431,10 @@
         <v>1232</v>
       </c>
       <c r="P126" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q126" t="s">
         <v>28</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>12</v>
       </c>
       <c r="R126" t="s">
         <v>1233</v>
@@ -13500,10 +13500,10 @@
         <v>6</v>
       </c>
       <c r="P127" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q127" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R127" t="s">
         <v>311</v>
@@ -13569,10 +13569,10 @@
         <v>12</v>
       </c>
       <c r="P128" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q128" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R128" t="s">
         <v>1246</v>
@@ -13638,10 +13638,10 @@
         <v>6</v>
       </c>
       <c r="P129" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q129" t="s">
         <v>28</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>6</v>
       </c>
       <c r="R129" t="s">
         <v>185</v>
@@ -13776,10 +13776,10 @@
         <v>12</v>
       </c>
       <c r="P131" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q131" t="s">
         <v>28</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>6</v>
       </c>
       <c r="R131" t="s">
         <v>1272</v>
@@ -13845,10 +13845,10 @@
         <v>113</v>
       </c>
       <c r="P132" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q132" t="s">
         <v>28</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>6</v>
       </c>
       <c r="R132" t="s">
         <v>44</v>
@@ -13914,10 +13914,10 @@
         <v>6</v>
       </c>
       <c r="P133" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q133" t="s">
         <v>28</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>113</v>
       </c>
       <c r="R133" t="s">
         <v>1291</v>
@@ -13983,10 +13983,10 @@
         <v>12</v>
       </c>
       <c r="P134" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q134" t="s">
         <v>28</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>12</v>
       </c>
       <c r="R134" t="s">
         <v>1300</v>
@@ -14052,10 +14052,10 @@
         <v>101</v>
       </c>
       <c r="P135" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="Q135" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="R135" t="s">
         <v>1307</v>
@@ -14121,10 +14121,10 @@
         <v>101</v>
       </c>
       <c r="P136" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="Q136" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="R136" t="s">
         <v>1315</v>
@@ -14190,10 +14190,10 @@
         <v>6</v>
       </c>
       <c r="P137" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q137" t="s">
         <v>28</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>113</v>
       </c>
       <c r="R137" t="s">
         <v>1322</v>
@@ -14259,10 +14259,10 @@
         <v>6</v>
       </c>
       <c r="P138" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q138" t="s">
         <v>28</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>6</v>
       </c>
       <c r="R138" t="s">
         <v>1329</v>
@@ -14328,10 +14328,10 @@
         <v>6</v>
       </c>
       <c r="P139" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q139" t="s">
         <v>28</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>6</v>
       </c>
       <c r="R139" t="s">
         <v>1336</v>
@@ -14397,10 +14397,10 @@
         <v>12</v>
       </c>
       <c r="P140" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q140" t="s">
         <v>28</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>12</v>
       </c>
       <c r="R140" t="s">
         <v>1343</v>
@@ -14466,10 +14466,10 @@
         <v>12</v>
       </c>
       <c r="P141" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q141" t="s">
         <v>28</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>6</v>
       </c>
       <c r="R141" t="s">
         <v>94</v>
@@ -14535,10 +14535,10 @@
         <v>6</v>
       </c>
       <c r="P142" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q142" t="s">
         <v>28</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>6</v>
       </c>
       <c r="R142" t="s">
         <v>151</v>
@@ -14604,10 +14604,10 @@
         <v>6</v>
       </c>
       <c r="P143" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q143" t="s">
         <v>28</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>6</v>
       </c>
       <c r="R143" t="s">
         <v>1367</v>
@@ -14673,10 +14673,10 @@
         <v>6</v>
       </c>
       <c r="P144" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q144" t="s">
         <v>28</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>6</v>
       </c>
       <c r="R144" t="s">
         <v>1376</v>
@@ -14742,10 +14742,10 @@
         <v>12</v>
       </c>
       <c r="P145" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q145" t="s">
         <v>28</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>12</v>
       </c>
       <c r="R145" t="s">
         <v>1383</v>
@@ -14811,10 +14811,10 @@
         <v>12</v>
       </c>
       <c r="P146" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q146" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R146" t="s">
         <v>1390</v>
@@ -14880,10 +14880,10 @@
         <v>12</v>
       </c>
       <c r="P147" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q147" t="s">
         <v>28</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>12</v>
       </c>
       <c r="R147" t="s">
         <v>164</v>
@@ -15087,10 +15087,10 @@
         <v>12</v>
       </c>
       <c r="P150" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q150" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R150" t="s">
         <v>1423</v>
@@ -15156,10 +15156,10 @@
         <v>6</v>
       </c>
       <c r="P151" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q151" t="s">
         <v>28</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>6</v>
       </c>
       <c r="R151" t="s">
         <v>1430</v>
@@ -15225,10 +15225,10 @@
         <v>6</v>
       </c>
       <c r="P152" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q152" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R152" t="s">
         <v>1439</v>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -67,7 +67,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.009*"needs" + 0.007*"within" + 0.007*"leaders" + 0.007*"practice" + 0.006*"Barnsley" + 0.005*"experiences" + 0.005*"plans" + 0.005*"response" + 0.005*"11"', '0.016*"’" + 0.008*"needs" + 0.007*"leaders" + 0.006*"within" + 0.005*"Barnsley" + 0.005*"plans" + 0.004*"September" + 0.004*"2023" + 0.004*"response" + 0.004*"11"', '0.016*"’" + 0.008*"leaders" + 0.006*"needs" + 0.005*"practice" + 0.005*"Barnsley" + 0.005*"within" + 0.004*"plans" + 0.004*"need" + 0.004*"senior" + 0.004*"15"']</t>
+    <t>['0.019*"’" + 0.008*"leaders" + 0.008*"within" + 0.007*"needs" + 0.006*"Barnsley" + 0.005*"plans" + 0.005*"practice" + 0.004*"response" + 0.004*"September" + 0.004*"senior"', '0.012*"’" + 0.007*"needs" + 0.007*"leaders" + 0.006*"Barnsley" + 0.006*"practice" + 0.005*"within" + 0.004*"understand" + 0.004*"senior" + 0.004*"Senior" + 0.004*"progress"', '0.024*"’" + 0.009*"needs" + 0.007*"leaders" + 0.006*"practice" + 0.006*"within" + 0.005*"Barnsley" + 0.005*"15" + 0.005*"11" + 0.004*"response" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -109,7 +109,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"practice" + 0.006*"leaders" + 0.006*"4" + 0.005*"plans" + 0.005*"North" + 0.005*"effective" + 0.005*"impact"', '0.016*"’" + 0.009*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"practice" + 0.004*"East" + 0.004*"receive" + 0.004*"2022" + 0.004*"28" + 0.004*"Bath"', '0.017*"’" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"practice" + 0.004*"impact" + 0.004*"effective" + 0.004*"East" + 0.004*"clear" + 0.004*"February"']</t>
+    <t>['0.014*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"leaders" + 0.004*"4" + 0.004*"impact" + 0.004*"East" + 0.004*"protection" + 0.004*"effective"', '0.018*"’" + 0.011*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"leaders" + 0.005*"clear" + 0.005*"Bath" + 0.005*"receive" + 0.005*"plans" + 0.005*"28"', '0.021*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"needs" + 0.005*"plans" + 0.005*"North" + 0.005*"effective" + 0.005*"Somerset" + 0.004*"impact" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -154,7 +154,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.007*"ensure" + 0.007*"well" + 0.006*"needs" + 0.006*"Bedford" + 0.005*"good" + 0.005*"plans" + 0.005*"26" + 0.005*"progress" + 0.004*"supported"', '0.011*"’" + 0.006*"needs" + 0.005*"ensure" + 0.004*"Borough" + 0.004*"family" + 0.004*"education" + 0.004*"good" + 0.004*"plans" + 0.004*"2021" + 0.004*"supported"', '0.018*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"supported" + 0.006*"Bedford" + 0.005*"progress" + 0.005*"ensure" + 0.005*"good" + 0.005*"education"']</t>
+    <t>['0.019*"’" + 0.008*"needs" + 0.007*"ensure" + 0.007*"well" + 0.005*"supported" + 0.005*"plans" + 0.005*"Borough" + 0.005*"Bedford" + 0.005*"good" + 0.004*"progress"', '0.023*"’" + 0.007*"ensure" + 0.006*"needs" + 0.005*"Bedford" + 0.005*"supported" + 0.005*"well" + 0.005*"progress" + 0.005*"plans" + 0.005*"family" + 0.005*"Borough"', '0.013*"’" + 0.006*"good" + 0.006*"needs" + 0.006*"plans" + 0.005*"Bedford" + 0.004*"well" + 0.004*"progress" + 0.004*"education" + 0.004*"family" + 0.004*"15"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -196,7 +196,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"needs" + 0.006*"well" + 0.006*"Birmingham" + 0.006*"effective" + 0.005*"plans" + 0.005*"trust" + 0.005*"appropriate" + 0.005*"leaders" + 0.004*"20"', '0.018*"’" + 0.011*"needs" + 0.008*"effective" + 0.007*"well" + 0.007*"plans" + 0.006*"3" + 0.006*"progress" + 0.006*"Birmingham" + 0.006*"trust" + 0.005*"appropriate"', '0.015*"’" + 0.009*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"progress" + 0.005*"Birmingham" + 0.005*"effective" + 0.005*"trust" + 0.005*"risk" + 0.004*"appropriate"']</t>
+    <t>['0.009*"’" + 0.007*"well" + 0.007*"needs" + 0.004*"progress" + 0.004*"effective" + 0.004*"plans" + 0.004*"Birmingham" + 0.004*"trust" + 0.004*"appropriate" + 0.004*"leaders"', '0.016*"’" + 0.010*"needs" + 0.007*"effective" + 0.006*"plans" + 0.006*"progress" + 0.006*"Birmingham" + 0.006*"trust" + 0.005*"timely" + 0.005*"well" + 0.005*"3"', '0.018*"’" + 0.011*"needs" + 0.007*"well" + 0.007*"effective" + 0.006*"plans" + 0.006*"Birmingham" + 0.005*"trust" + 0.005*"3" + 0.005*"appropriate" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -235,7 +235,7 @@
     <t>0.1834</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"quality" + 0.006*"Darwen" + 0.006*"impact" + 0.005*"Blackburn" + 0.005*"result" + 0.005*"well" + 0.004*"means"', '0.017*"’" + 0.007*"practice" + 0.007*"needs" + 0.007*"quality" + 0.007*"Blackburn" + 0.006*"Darwen" + 0.006*"planning" + 0.006*"impact" + 0.005*"need" + 0.005*"well"', '0.012*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"quality" + 0.007*"practice" + 0.007*"Blackburn" + 0.006*"Darwen" + 0.006*"impact" + 0.005*"effective" + 0.005*"result"']</t>
+    <t>['0.015*"’" + 0.008*"needs" + 0.007*"quality" + 0.006*"practice" + 0.006*"Darwen" + 0.006*"Blackburn" + 0.005*"result" + 0.005*"impact" + 0.005*"well" + 0.005*"need"', '0.015*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"practice" + 0.007*"Blackburn" + 0.007*"Darwen" + 0.007*"impact" + 0.006*"quality" + 0.005*"effective" + 0.005*"planning"', '0.011*"’" + 0.008*"practice" + 0.007*"quality" + 0.007*"Blackburn" + 0.006*"needs" + 0.006*"impact" + 0.005*"Darwen" + 0.005*"well" + 0.005*"means" + 0.004*"planning"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -274,7 +274,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"needs" + 0.009*"well" + 0.006*"Blackpool" + 0.005*"16" + 0.005*"effective" + 0.005*"carers" + 0.005*"practice" + 0.005*"quality" + 0.004*"experiences"', '0.016*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"Blackpool" + 0.006*"effective" + 0.006*"plans" + 0.005*"practice" + 0.005*"2022" + 0.005*"supported" + 0.005*"quality"', '0.013*"’" + 0.012*"needs" + 0.009*"well" + 0.008*"Blackpool" + 0.005*"effective" + 0.005*"practice" + 0.005*"plans" + 0.005*"16" + 0.005*"progress" + 0.005*"supported"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"Blackpool" + 0.006*"effective" + 0.006*"plans" + 0.005*"16" + 0.005*"practice" + 0.004*"experiences" + 0.004*"supported"', '0.014*"’" + 0.011*"needs" + 0.009*"well" + 0.007*"Blackpool" + 0.006*"16" + 0.005*"supported" + 0.005*"practice" + 0.005*"progress" + 0.005*"carers" + 0.005*"quality"', '0.020*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"Blackpool" + 0.006*"effective" + 0.005*"experiences" + 0.005*"plans" + 0.005*"quality" + 0.004*"practice" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80432</t>
@@ -301,7 +301,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.010*"Bolton" + 0.010*"needs" + 0.008*"well" + 0.008*"plans" + 0.007*"supported" + 0.006*"planning" + 0.006*"need" + 0.005*"strong" + 0.005*"15"', '0.018*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"Bolton" + 0.005*"good" + 0.005*"11" + 0.005*"response" + 0.005*"need" + 0.005*"effective"', '0.014*"’" + 0.008*"needs" + 0.007*"Bolton" + 0.006*"plans" + 0.006*"well" + 0.004*"11" + 0.004*"planning" + 0.004*"need" + 0.004*"15" + 0.004*"strong"']</t>
+    <t>['0.021*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"Bolton" + 0.008*"plans" + 0.006*"supported" + 0.006*"11" + 0.005*"need" + 0.005*"strong" + 0.005*"experiences"', '0.015*"’" + 0.009*"needs" + 0.007*"plans" + 0.007*"Bolton" + 0.005*"well" + 0.004*"timely" + 0.004*"need" + 0.004*"supported" + 0.004*"planning" + 0.004*"strong"', '0.019*"’" + 0.010*"needs" + 0.009*"well" + 0.009*"Bolton" + 0.007*"plans" + 0.006*"planning" + 0.006*"effective" + 0.005*"supported" + 0.005*"need" + 0.005*"15"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -334,7 +334,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.006*"practice" + 0.006*"quality" + 0.006*"6" + 0.005*"progress" + 0.005*"risk" + 0.005*"time" + 0.005*"Bournemouth" + 0.005*"However" + 0.005*"December"', '0.016*"’" + 0.006*"quality" + 0.005*"progress" + 0.005*"Poole" + 0.005*"impact" + 0.005*"practice" + 0.005*"well" + 0.004*"Christchurch" + 0.004*"17" + 0.004*"time"', '0.012*"’" + 0.005*"practice" + 0.004*"quality" + 0.004*"progress" + 0.004*"17" + 0.004*"Bournemouth" + 0.004*"Christchurch" + 0.004*"positive" + 0.003*"risk" + 0.003*"Poole"']</t>
+    <t>['0.011*"’" + 0.006*"quality" + 0.005*"progress" + 0.005*"Bournemouth" + 0.005*"practice" + 0.005*"time" + 0.005*"However" + 0.004*"risk" + 0.004*"Poole" + 0.004*"Christchurch"', '0.025*"’" + 0.007*"quality" + 0.006*"practice" + 0.005*"17" + 0.005*"impact" + 0.005*"6" + 0.004*"Bournemouth" + 0.004*"risk" + 0.004*"well" + 0.004*"right"', '0.016*"’" + 0.006*"progress" + 0.006*"practice" + 0.005*"quality" + 0.005*"Christchurch" + 0.005*"2021" + 0.005*"time" + 0.005*"Poole" + 0.004*"many" + 0.004*"6"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -376,7 +376,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"Forest" + 0.006*"risk" + 0.006*"quality" + 0.006*"good" + 0.006*"Bracknell" + 0.005*"effective" + 0.004*"needs" + 0.004*"impact" + 0.004*"need"', '0.017*"’" + 0.008*"needs" + 0.008*"Bracknell" + 0.008*"Forest" + 0.007*"well" + 0.007*"effective" + 0.006*"risk" + 0.006*"provided" + 0.006*"progress" + 0.006*"good"', '0.014*"’" + 0.006*"needs" + 0.006*"risk" + 0.006*"quality" + 0.005*"Bracknell" + 0.005*"good" + 0.005*"Forest" + 0.005*"impact" + 0.005*"positive" + 0.005*"provided"']</t>
+    <t>['0.014*"’" + 0.006*"risk" + 0.006*"Bracknell" + 0.005*"Forest" + 0.005*"well" + 0.005*"needs" + 0.005*"good" + 0.005*"provided" + 0.005*"quality" + 0.005*"progress"', '0.014*"’" + 0.008*"Bracknell" + 0.007*"effective" + 0.007*"good" + 0.007*"quality" + 0.006*"Forest" + 0.006*"risk" + 0.006*"needs" + 0.006*"leaders" + 0.005*"plans"', '0.020*"’" + 0.008*"needs" + 0.008*"Forest" + 0.006*"progress" + 0.006*"risk" + 0.006*"quality" + 0.006*"Bracknell" + 0.006*"good" + 0.006*"effective" + 0.006*"provided"']</t>
   </si>
   <si>
     <t>80438</t>
@@ -412,7 +412,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"needs" + 0.009*"good" + 0.006*"recording" + 0.006*"well" + 0.006*"leaders" + 0.005*"plans" + 0.005*"supported" + 0.005*"need" + 0.005*"However"', '0.014*"’" + 0.008*"needs" + 0.007*"good" + 0.005*"recording" + 0.005*"plans" + 0.005*"Brighton" + 0.005*"need" + 0.005*"leaders" + 0.005*"well" + 0.005*"always"', '0.010*"’" + 0.009*"good" + 0.008*"needs" + 0.006*"leaders" + 0.006*"well" + 0.005*"recording" + 0.005*"quality" + 0.004*"Senior" + 0.004*"arrangements" + 0.004*"need"']</t>
+    <t>['0.014*"’" + 0.012*"needs" + 0.011*"good" + 0.006*"recording" + 0.006*"well" + 0.005*"need" + 0.005*"Hove" + 0.005*"leaders" + 0.005*"plans" + 0.005*"However"', '0.013*"’" + 0.007*"needs" + 0.006*"good" + 0.006*"leaders" + 0.005*"recording" + 0.005*"need" + 0.005*"well" + 0.004*"supported" + 0.004*"plans" + 0.004*"Brighton"', '0.014*"’" + 0.008*"needs" + 0.007*"good" + 0.006*"recording" + 0.006*"leaders" + 0.006*"well" + 0.005*"plans" + 0.004*"arrangements" + 0.004*"effectively" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -445,7 +445,7 @@
     <t>0.1875</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"well" + 0.008*"good" + 0.007*"Bristol" + 0.007*"needs" + 0.006*"leaders" + 0.005*"progress" + 0.005*"health" + 0.005*"plans" + 0.005*"ensure"', '0.021*"’" + 0.009*"well" + 0.008*"Bristol" + 0.008*"good" + 0.008*"needs" + 0.006*"need" + 0.006*"health" + 0.005*"progress" + 0.005*"16" + 0.005*"risk"', '0.016*"’" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.006*"Bristol" + 0.005*"plans" + 0.005*"always" + 0.004*"receive" + 0.004*"leaders" + 0.004*"progress"']</t>
+    <t>['0.016*"’" + 0.010*"well" + 0.007*"Bristol" + 0.007*"good" + 0.006*"needs" + 0.006*"plans" + 0.005*"progress" + 0.005*"27" + 0.005*"leaders" + 0.005*"health"', '0.022*"’" + 0.008*"Bristol" + 0.008*"well" + 0.006*"good" + 0.006*"needs" + 0.005*"progress" + 0.005*"need" + 0.005*"always" + 0.005*"risk" + 0.005*"health"', '0.019*"’" + 0.010*"good" + 0.010*"needs" + 0.008*"well" + 0.007*"Bristol" + 0.006*"health" + 0.005*"2023" + 0.005*"January" + 0.005*"16" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -475,7 +475,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.006*"17" + 0.005*"plans" + 0.005*"Buckinghamshire" + 0.004*"December" + 0.004*"number" + 0.004*"2021" + 0.004*"practice" + 0.004*"small" + 0.004*"needs"', '0.012*"’" + 0.005*"Buckinghamshire" + 0.005*"plans" + 0.004*"many" + 0.004*"number" + 0.004*"6" + 0.004*"practice" + 0.003*"17" + 0.003*"December" + 0.003*"family"', '0.012*"’" + 0.006*"number" + 0.005*"protection" + 0.005*"6" + 0.005*"plans" + 0.004*"well" + 0.004*"17" + 0.004*"2021" + 0.004*"teams" + 0.003*"Buckinghamshire"']</t>
+    <t>['0.010*"’" + 0.006*"plans" + 0.005*"Buckinghamshire" + 0.005*"number" + 0.004*"many" + 0.004*"6" + 0.004*"17" + 0.004*"practice" + 0.004*"needs" + 0.004*"protection"', '0.019*"’" + 0.005*"number" + 0.005*"17" + 0.005*"plans" + 0.004*"protection" + 0.004*"Buckinghamshire" + 0.004*"6" + 0.004*"many" + 0.004*"December" + 0.003*"practice"', '0.010*"’" + 0.004*"17" + 0.004*"number" + 0.004*"2021" + 0.004*"plans" + 0.004*"Buckinghamshire" + 0.004*"well" + 0.003*"6" + 0.003*"protection" + 0.003*"many"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -511,7 +511,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.005*"2021" + 0.005*"protection" + 0.005*"practice" + 0.004*"Bury" + 0.004*"needs" + 0.004*"risk" + 0.004*"response" + 0.004*"need" + 0.004*"new"', '0.012*"’" + 0.007*"2021" + 0.007*"protection" + 0.007*"needs" + 0.006*"team" + 0.005*"need" + 0.005*"impact" + 0.005*"practice" + 0.005*"delay" + 0.004*"Bury"', '0.011*"’" + 0.007*"needs" + 0.007*"practice" + 0.006*"protection" + 0.006*"team" + 0.006*"quality" + 0.006*"2021" + 0.006*"impact" + 0.005*"risk" + 0.005*"Bury"']</t>
+    <t>['0.010*"’" + 0.006*"2021" + 0.006*"needs" + 0.005*"protection" + 0.005*"practice" + 0.005*"team" + 0.005*"need" + 0.005*"new" + 0.005*"quality" + 0.004*"Bury"', '0.012*"’" + 0.008*"protection" + 0.006*"needs" + 0.006*"team" + 0.006*"practice" + 0.006*"risk" + 0.006*"need" + 0.005*"impact" + 0.005*"quality" + 0.005*"October"', '0.011*"’" + 0.008*"2021" + 0.007*"needs" + 0.006*"protection" + 0.005*"practice" + 0.005*"team" + 0.005*"impact" + 0.005*"November" + 0.005*"response" + 0.004*"Bury"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -541,7 +541,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"good" + 0.005*"Calderdale" + 0.005*"‘" + 0.005*"protection" + 0.004*"effective" + 0.004*"carers" + 0.004*"need"', '0.013*"’" + 0.005*"Calderdale" + 0.005*"well" + 0.005*"good" + 0.005*"practice" + 0.005*"effective" + 0.004*"protection" + 0.004*"inform" + 0.004*"‘" + 0.004*"need"', '0.010*"’" + 0.008*"well" + 0.005*"Calderdale" + 0.005*"practice" + 0.004*"good" + 0.004*"leaders" + 0.004*"education" + 0.004*"effective" + 0.004*"carers" + 0.004*"protection"']</t>
+    <t>['0.011*"’" + 0.006*"well" + 0.005*"protection" + 0.005*"Calderdale" + 0.004*"effective" + 0.004*"education" + 0.004*"inform" + 0.004*"good" + 0.003*"risk" + 0.003*"need"', '0.016*"’" + 0.007*"well" + 0.006*"good" + 0.006*"practice" + 0.005*"protection" + 0.005*"Calderdale" + 0.005*"‘" + 0.004*"effective" + 0.004*"needs" + 0.004*"carers"', '0.016*"’" + 0.009*"well" + 0.006*"practice" + 0.006*"Calderdale" + 0.005*"good" + 0.005*"effective" + 0.005*"education" + 0.004*"carers" + 0.004*"‘" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -577,7 +577,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"well" + 0.009*"good" + 0.009*"need" + 0.008*"needs" + 0.007*"impact" + 0.007*"teams" + 0.006*"However" + 0.006*"quality" + 0.006*"plans"', '0.013*"’" + 0.008*"well" + 0.007*"good" + 0.007*"need" + 0.006*"impact" + 0.006*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"effective" + 0.005*"progress"', '0.015*"’" + 0.010*"well" + 0.009*"good" + 0.009*"needs" + 0.008*"teams" + 0.008*"plans" + 0.007*"impact" + 0.006*"need" + 0.006*"quality" + 0.005*"However"']</t>
+    <t>['0.016*"’" + 0.009*"need" + 0.008*"needs" + 0.008*"good" + 0.007*"plans" + 0.007*"teams" + 0.007*"impact" + 0.007*"well" + 0.006*"quality" + 0.006*"effective"', '0.013*"’" + 0.009*"well" + 0.009*"good" + 0.006*"impact" + 0.006*"need" + 0.006*"quality" + 0.006*"needs" + 0.005*"However" + 0.005*"teams" + 0.005*"effective"', '0.013*"’" + 0.013*"well" + 0.009*"good" + 0.008*"needs" + 0.008*"teams" + 0.007*"impact" + 0.007*"plans" + 0.006*"need" + 0.006*"However" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -607,7 +607,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"well" + 0.007*"carers" + 0.006*"need" + 0.006*"plans" + 0.005*"needs" + 0.005*"Central" + 0.005*"number" + 0.005*"progress" + 0.004*"effective"', '0.017*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"good" + 0.007*"need" + 0.006*"progress" + 0.006*"plans" + 0.006*"carers" + 0.005*"Bedfordshire" + 0.005*"Central"', '0.011*"’" + 0.009*"well" + 0.007*"needs" + 0.005*"need" + 0.005*"carers" + 0.005*"good" + 0.004*"plans" + 0.004*"progress" + 0.004*"effective" + 0.004*"Bedfordshire"']</t>
+    <t>['0.016*"’" + 0.008*"well" + 0.006*"need" + 0.006*"plans" + 0.006*"needs" + 0.006*"progress" + 0.006*"carers" + 0.005*"Bedfordshire" + 0.005*"good" + 0.004*"number"', '0.018*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"carers" + 0.007*"need" + 0.006*"good" + 0.006*"Central" + 0.005*"plans" + 0.005*"progress" + 0.005*"Bedfordshire"', '0.013*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.005*"need" + 0.005*"effective" + 0.005*"plans" + 0.005*"progress" + 0.005*"carers" + 0.004*"Leaders"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -643,7 +643,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"However" + 0.005*"supported" + 0.005*"needs" + 0.005*"always" + 0.005*"good" + 0.005*"practice" + 0.005*"ensure"', '0.016*"’" + 0.009*"well" + 0.008*"good" + 0.007*"practice" + 0.007*"plans" + 0.007*"needs" + 0.006*"always" + 0.006*"need" + 0.006*"timely" + 0.005*"carers"', '0.012*"’" + 0.009*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"plans" + 0.006*"practice" + 0.006*"need" + 0.005*"supported" + 0.005*"risk" + 0.005*"effective"']</t>
+    <t>['0.014*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"good" + 0.006*"practice" + 0.006*"plans" + 0.006*"need" + 0.005*"always" + 0.005*"However" + 0.005*"effective"', '0.013*"’" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.007*"practice" + 0.006*"plans" + 0.006*"always" + 0.006*"supported" + 0.005*"need" + 0.005*"ensure"', '0.012*"’" + 0.008*"well" + 0.007*"good" + 0.007*"plans" + 0.007*"needs" + 0.006*"supported" + 0.006*"risk" + 0.006*"practice" + 0.005*"effective" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -679,7 +679,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"needs" + 0.006*"well" + 0.004*"always" + 0.004*"impact" + 0.004*"information" + 0.004*"timely" + 0.004*"leaders" + 0.004*"plans" + 0.004*"need"', '0.029*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"order" + 0.004*"effectively" + 0.004*"always" + 0.004*"effective" + 0.004*"receive" + 0.004*"plans"', '0.015*"’" + 0.008*"well" + 0.007*"needs" + 0.004*"practice" + 0.004*"impact" + 0.004*"plans" + 0.004*"effective" + 0.004*"risk" + 0.004*"effectively" + 0.004*"timely"']</t>
+    <t>['0.026*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"impact" + 0.005*"receive" + 0.004*"plans" + 0.004*"effective" + 0.004*"order" + 0.004*"intervention" + 0.004*"practice"', '0.021*"’" + 0.007*"needs" + 0.007*"well" + 0.005*"practice" + 0.005*"effectively" + 0.004*"early" + 0.004*"effective" + 0.004*"information" + 0.004*"order" + 0.004*"always"', '0.016*"’" + 0.007*"needs" + 0.007*"well" + 0.005*"timely" + 0.005*"practice" + 0.004*"learning" + 0.004*"always" + 0.004*"use" + 0.004*"order" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -715,7 +715,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.008*"plans" + 0.006*"Bradford" + 0.005*"2" + 0.005*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"risk" + 0.005*"need" + 0.005*"Borough"', '0.023*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"2022" + 0.004*"21" + 0.004*"need" + 0.004*"2" + 0.004*"impact" + 0.004*"City" + 0.004*"leaders"', '0.013*"’" + 0.005*"plans" + 0.004*"risk" + 0.004*"worker" + 0.004*"Council" + 0.004*"lack" + 0.004*"2022" + 0.003*"quality" + 0.003*"Metropolitan" + 0.003*"timely"']</t>
+    <t>['0.018*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"impact" + 0.004*"risk" + 0.004*"quality" + 0.004*"Metropolitan" + 0.004*"Council" + 0.004*"21" + 0.004*"2022"', '0.019*"’" + 0.007*"plans" + 0.005*"Bradford" + 0.005*"◼" + 0.005*"2" + 0.005*"Council" + 0.004*"November" + 0.004*"impact" + 0.004*"Borough" + 0.004*"practice"', '0.023*"’" + 0.007*"plans" + 0.005*"2" + 0.005*"need" + 0.005*"worker" + 0.005*"Bradford" + 0.005*"needs" + 0.005*"risk" + 0.004*"quality" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -748,7 +748,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.013*"needs" + 0.010*"well" + 0.010*"ensure" + 0.009*"effective" + 0.006*"plans" + 0.005*"practice" + 0.005*"supported" + 0.005*"clear" + 0.005*"individual"', '0.011*"needs" + 0.009*"’" + 0.006*"well" + 0.006*"ensure" + 0.005*"clear" + 0.005*"progress" + 0.005*"effective" + 0.005*"within" + 0.005*"good" + 0.004*"plans"', '0.012*"well" + 0.011*"’" + 0.010*"needs" + 0.009*"ensure" + 0.008*"clear" + 0.007*"progress" + 0.006*"good" + 0.005*"plans" + 0.005*"effective" + 0.005*"clearly"']</t>
+    <t>['0.012*"’" + 0.012*"needs" + 0.009*"well" + 0.007*"ensure" + 0.006*"good" + 0.006*"progress" + 0.006*"effective" + 0.005*"clear" + 0.005*"individual" + 0.005*"within"', '0.011*"’" + 0.011*"needs" + 0.011*"ensure" + 0.009*"well" + 0.007*"effective" + 0.005*"plans" + 0.005*"clear" + 0.005*"progress" + 0.005*"supported" + 0.005*"practice"', '0.012*"well" + 0.012*"’" + 0.011*"needs" + 0.008*"clear" + 0.008*"ensure" + 0.007*"effective" + 0.006*"plans" + 0.006*"progress" + 0.005*"good" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -784,7 +784,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"leaders" + 0.008*"Wakefield" + 0.007*"well" + 0.007*"November" + 0.006*"quality" + 0.005*"plans" + 0.005*"effective" + 0.005*"practice" + 0.005*"good"', '0.016*"’" + 0.008*"November" + 0.008*"Wakefield" + 0.008*"well" + 0.007*"leaders" + 0.007*"quality" + 0.007*"effective" + 0.006*"good" + 0.006*"plans" + 0.005*"needs"', '0.018*"’" + 0.009*"quality" + 0.008*"good" + 0.008*"well" + 0.007*"Wakefield" + 0.007*"effective" + 0.007*"practice" + 0.006*"leaders" + 0.006*"November" + 0.006*"progress"']</t>
+    <t>['0.018*"’" + 0.009*"leaders" + 0.009*"quality" + 0.008*"Wakefield" + 0.008*"well" + 0.007*"November" + 0.007*"effective" + 0.007*"good" + 0.006*"progress" + 0.005*"needs"', '0.015*"’" + 0.008*"November" + 0.008*"Wakefield" + 0.007*"well" + 0.006*"leaders" + 0.006*"good" + 0.006*"practice" + 0.006*"effective" + 0.005*"19" + 0.005*"quality"', '0.017*"’" + 0.008*"quality" + 0.008*"well" + 0.008*"Wakefield" + 0.007*"plans" + 0.006*"effective" + 0.006*"good" + 0.006*"November" + 0.005*"leaders" + 0.005*"19"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -814,7 +814,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"March" + 0.007*"needs" + 0.006*"quality" + 0.006*"need" + 0.005*"effective" + 0.005*"good" + 0.005*"supported" + 0.005*"experiences" + 0.004*"plans"', '0.014*"’" + 0.006*"However" + 0.005*"effective" + 0.005*"plans" + 0.005*"quality" + 0.005*"March" + 0.005*"needs" + 0.004*"effectively" + 0.004*"small" + 0.004*"ensure"', '0.016*"’" + 0.009*"needs" + 0.008*"quality" + 0.008*"March" + 0.006*"York" + 0.006*"effective" + 0.006*"ensure" + 0.006*"well" + 0.006*"7" + 0.005*"However"']</t>
+    <t>['0.018*"’" + 0.007*"quality" + 0.007*"March" + 0.006*"ensure" + 0.006*"needs" + 0.005*"However" + 0.005*"effective" + 0.005*"well" + 0.005*"education" + 0.005*"training"', '0.012*"’" + 0.008*"needs" + 0.007*"March" + 0.006*"York" + 0.005*"plans" + 0.005*"practice" + 0.005*"However" + 0.005*"well" + 0.005*"need" + 0.005*"quality"', '0.015*"’" + 0.008*"quality" + 0.008*"needs" + 0.007*"effective" + 0.006*"March" + 0.005*"ensure" + 0.005*"York" + 0.005*"appropriate" + 0.005*"However" + 0.005*"training"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -850,7 +850,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.015*"well" + 0.013*"’" + 0.010*"quality" + 0.009*"leaders" + 0.008*"effective" + 0.006*"timely" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"good" + 0.005*"Senior"', '0.013*"well" + 0.011*"’" + 0.010*"quality" + 0.008*"effective" + 0.007*"good" + 0.006*"plans" + 0.006*"leaders" + 0.005*"timely" + 0.005*"arrangements" + 0.005*"highly"', '0.016*"well" + 0.012*"’" + 0.010*"leaders" + 0.010*"effective" + 0.008*"quality" + 0.006*"plans" + 0.006*"arrangements" + 0.005*"good" + 0.005*"highly" + 0.005*"timely"']</t>
+    <t>['0.012*"well" + 0.009*"’" + 0.008*"effective" + 0.007*"quality" + 0.006*"plans" + 0.006*"leaders" + 0.006*"good" + 0.005*"arrangements" + 0.004*"highly" + 0.004*"ensure"', '0.015*"well" + 0.013*"’" + 0.011*"quality" + 0.010*"leaders" + 0.009*"effective" + 0.006*"plans" + 0.006*"timely" + 0.006*"good" + 0.006*"arrangements" + 0.005*"highly"', '0.015*"well" + 0.013*"’" + 0.009*"quality" + 0.009*"effective" + 0.008*"leaders" + 0.006*"timely" + 0.006*"arrangements" + 0.005*"good" + 0.004*"Senior" + 0.004*"highly"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -880,7 +880,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.012*"Isles" + 0.011*"information" + 0.011*"Scilly" + 0.008*"practice" + 0.007*"need" + 0.007*"protection" + 0.006*"13" + 0.006*"needs" + 0.006*"ensure"', '0.023*"’" + 0.013*"Scilly" + 0.012*"Isles" + 0.010*"practice" + 0.008*"need" + 0.008*"needs" + 0.007*"place" + 0.007*"protection" + 0.006*"risks" + 0.006*"11"', '0.016*"’" + 0.012*"Isles" + 0.012*"Scilly" + 0.011*"information" + 0.009*"need" + 0.007*"quality" + 0.006*"practice" + 0.006*"protection" + 0.006*"needs" + 0.005*"place"']</t>
+    <t>['0.026*"’" + 0.015*"Scilly" + 0.014*"Isles" + 0.010*"information" + 0.009*"protection" + 0.008*"need" + 0.007*"practice" + 0.007*"needs" + 0.007*"risks" + 0.007*"quality"', '0.014*"’" + 0.010*"Scilly" + 0.009*"Isles" + 0.008*"information" + 0.008*"practice" + 0.007*"need" + 0.006*"13" + 0.006*"needs" + 0.005*"lack" + 0.005*"quality"', '0.017*"’" + 0.011*"Isles" + 0.010*"practice" + 0.009*"Scilly" + 0.008*"need" + 0.007*"information" + 0.006*"needs" + 0.006*"place" + 0.005*"protection" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -916,7 +916,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"supported" + 0.007*"Coventry" + 0.006*"family" + 0.005*"need" + 0.005*"plans" + 0.005*"PAs" + 0.005*"2022"', '0.020*"’" + 0.009*"Coventry" + 0.008*"needs" + 0.007*"well" + 0.007*"plans" + 0.007*"supported" + 0.006*"strong" + 0.006*"family" + 0.005*"need" + 0.004*"1"', '0.019*"’" + 0.009*"Coventry" + 0.008*"well" + 0.006*"family" + 0.005*"plans" + 0.005*"strong" + 0.005*"supported" + 0.005*"needs" + 0.005*"need" + 0.004*"1"']</t>
+    <t>['0.023*"’" + 0.008*"Coventry" + 0.006*"well" + 0.006*"supported" + 0.006*"needs" + 0.005*"strong" + 0.005*"training" + 0.005*"family" + 0.005*"plans" + 0.004*"clear"', '0.014*"’" + 0.008*"Coventry" + 0.008*"supported" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"family" + 0.005*"receive" + 0.004*"need" + 0.004*"strong"', '0.020*"’" + 0.010*"well" + 0.008*"needs" + 0.008*"Coventry" + 0.007*"plans" + 0.006*"supported" + 0.006*"strong" + 0.006*"need" + 0.006*"family" + 0.005*"2022"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -952,7 +952,7 @@
     <t>0.1983</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"October" + 0.007*"Darlington" + 0.007*"practice" + 0.007*"leaders" + 0.006*"effective" + 0.005*"supported" + 0.004*"plans"', '0.009*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"October" + 0.005*"quality" + 0.004*"leaders" + 0.004*"family" + 0.004*"10" + 0.004*"practice" + 0.004*"supported"', '0.016*"’" + 0.009*"well" + 0.007*"leaders" + 0.006*"October" + 0.006*"practice" + 0.006*"Darlington" + 0.005*"needs" + 0.005*"quality" + 0.005*"protection" + 0.005*"need"']</t>
+    <t>['0.013*"’" + 0.010*"well" + 0.007*"leaders" + 0.007*"practice" + 0.006*"needs" + 0.005*"October" + 0.005*"Darlington" + 0.005*"need" + 0.005*"effective" + 0.004*"quality"', '0.023*"’" + 0.008*"needs" + 0.007*"leaders" + 0.006*"well" + 0.006*"October" + 0.006*"Darlington" + 0.006*"practice" + 0.005*"supported" + 0.005*"quality" + 0.004*"effective"', '0.018*"’" + 0.008*"well" + 0.008*"October" + 0.006*"Darlington" + 0.006*"practice" + 0.006*"needs" + 0.006*"leaders" + 0.005*"effective" + 0.005*"quality" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -991,7 +991,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.011*"needs" + 0.008*"receive" + 0.007*"Derby" + 0.007*"quality" + 0.006*"well" + 0.006*"appropriate" + 0.006*"progress" + 0.005*"plans" + 0.005*"leaders"', '0.021*"’" + 0.008*"needs" + 0.007*"Derby" + 0.005*"quality" + 0.005*"appropriate" + 0.005*"good" + 0.005*"plans" + 0.005*"progress" + 0.005*"receive" + 0.005*"need"', '0.023*"’" + 0.009*"needs" + 0.007*"Derby" + 0.007*"quality" + 0.006*"plans" + 0.006*"need" + 0.005*"progress" + 0.005*"leaders" + 0.005*"receive" + 0.005*"well"']</t>
+    <t>['0.018*"’" + 0.012*"needs" + 0.007*"quality" + 0.007*"Derby" + 0.006*"leaders" + 0.006*"receive" + 0.006*"plans" + 0.006*"progress" + 0.005*"good" + 0.005*"appropriate"', '0.025*"’" + 0.008*"needs" + 0.007*"receive" + 0.006*"Derby" + 0.006*"progress" + 0.006*"plans" + 0.005*"quality" + 0.005*"need" + 0.005*"good" + 0.005*"well"', '0.020*"’" + 0.009*"needs" + 0.008*"Derby" + 0.006*"quality" + 0.006*"well" + 0.005*"appropriate" + 0.005*"receive" + 0.005*"progress" + 0.005*"leaders" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80460</t>
@@ -1021,7 +1021,7 @@
     <t>0.1913</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"well" + 0.008*"Derbyshire" + 0.006*"plans" + 0.005*"effective" + 0.005*"need" + 0.004*"leaders" + 0.004*"30" + 0.004*"10" + 0.004*"practice"', '0.016*"’" + 0.008*"well" + 0.006*"Derbyshire" + 0.005*"positive" + 0.005*"needs" + 0.005*"10" + 0.005*"health" + 0.005*"education" + 0.005*"plans" + 0.005*"good"', '0.011*"’" + 0.005*"well" + 0.005*"Derbyshire" + 0.004*"health" + 0.004*"plans" + 0.004*"need" + 0.004*"needs" + 0.004*"leaders" + 0.004*"positive" + 0.004*"carers"']</t>
+    <t>['0.015*"’" + 0.009*"well" + 0.005*"Derbyshire" + 0.005*"positive" + 0.005*"plans" + 0.005*"practice" + 0.005*"10" + 0.005*"leaders" + 0.005*"education" + 0.004*"effective"', '0.013*"’" + 0.007*"well" + 0.007*"Derbyshire" + 0.006*"plans" + 0.005*"health" + 0.005*"good" + 0.005*"positive" + 0.005*"effective" + 0.004*"need" + 0.004*"10"', '0.014*"’" + 0.007*"Derbyshire" + 0.007*"well" + 0.005*"needs" + 0.005*"education" + 0.005*"2023" + 0.004*"30" + 0.004*"health" + 0.004*"leaders" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1051,7 +1051,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.005*"progress" + 0.005*"health" + 0.005*"risk" + 0.004*"leaders" + 0.004*"well" + 0.004*"quality" + 0.004*"need" + 0.004*"protection" + 0.004*"practice"', '0.012*"’" + 0.008*"well" + 0.005*"risk" + 0.005*"health" + 0.004*"leaders" + 0.004*"protection" + 0.004*"Devon" + 0.004*"need" + 0.004*"living" + 0.004*"case"', '0.007*"’" + 0.005*"leaders" + 0.005*"well" + 0.005*"progress" + 0.004*"health" + 0.004*"areas" + 0.004*"case" + 0.004*"needs" + 0.004*"risk" + 0.004*"risks"']</t>
+    <t>['0.010*"’" + 0.007*"well" + 0.006*"health" + 0.005*"leaders" + 0.005*"risk" + 0.005*"Devon" + 0.004*"progress" + 0.004*"practice" + 0.004*"areas" + 0.004*"needs"', '0.010*"’" + 0.006*"well" + 0.006*"risk" + 0.005*"time" + 0.004*"case" + 0.004*"progress" + 0.004*"risks" + 0.004*"protection" + 0.004*"plans" + 0.004*"leaders"', '0.008*"’" + 0.005*"health" + 0.005*"leaders" + 0.004*"well" + 0.004*"progress" + 0.004*"quality" + 0.004*"plans" + 0.004*"key" + 0.004*"case" + 0.003*"living"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1087,7 +1087,7 @@
     <t>0.1841</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.006*"Doncaster" + 0.006*"well" + 0.004*"experiences" + 0.004*"arrangements" + 0.004*"protection" + 0.004*"many" + 0.004*"progress" + 0.004*"records" + 0.004*"February"', '0.021*"’" + 0.006*"well" + 0.005*"leaders" + 0.005*"plans" + 0.005*"quality" + 0.005*"oversight" + 0.005*"Doncaster" + 0.005*"many" + 0.005*"progress" + 0.005*"arrangements"', '0.019*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.005*"records" + 0.005*"progress" + 0.005*"many" + 0.005*"information" + 0.005*"leaders" + 0.005*"14" + 0.005*"effective"']</t>
+    <t>['0.014*"’" + 0.005*"Doncaster" + 0.005*"many" + 0.004*"leaders" + 0.004*"records" + 0.004*"well" + 0.004*"progress" + 0.004*"information" + 0.004*"oversight" + 0.003*"quality"', '0.020*"’" + 0.006*"well" + 0.006*"Doncaster" + 0.006*"records" + 0.006*"many" + 0.005*"progress" + 0.005*"quality" + 0.005*"arrangements" + 0.005*"information" + 0.005*"Trust"', '0.023*"’" + 0.008*"well" + 0.006*"Doncaster" + 0.005*"leaders" + 0.005*"plans" + 0.005*"protection" + 0.005*"effective" + 0.005*"oversight" + 0.004*"14" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>2532283</t>
@@ -1117,7 +1117,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"Dorset" + 0.006*"well" + 0.006*"good" + 0.004*"quality" + 0.004*"leaders" + 0.004*"needs" + 0.004*"arrangements" + 0.004*"8" + 0.004*"2021"', '0.017*"’" + 0.008*"Dorset" + 0.006*"good" + 0.005*"need" + 0.005*"27" + 0.004*"well" + 0.004*"needs" + 0.004*"arrangements" + 0.004*"8" + 0.004*"2021"', '0.012*"’" + 0.007*"good" + 0.006*"Dorset" + 0.006*"well" + 0.004*"arrangements" + 0.004*"needs" + 0.004*"October" + 0.004*"quality" + 0.004*"including" + 0.004*"home"']</t>
+    <t>['0.014*"’" + 0.007*"good" + 0.005*"Dorset" + 0.005*"needs" + 0.005*"well" + 0.004*"impact" + 0.004*"2021" + 0.004*"quality" + 0.004*"change" + 0.004*"need"', '0.013*"’" + 0.009*"Dorset" + 0.007*"well" + 0.006*"good" + 0.005*"arrangements" + 0.004*"leaders" + 0.004*"including" + 0.004*"October" + 0.004*"supported" + 0.004*"quality"', '0.014*"’" + 0.009*"Dorset" + 0.005*"well" + 0.005*"arrangements" + 0.005*"good" + 0.005*"needs" + 0.004*"8" + 0.004*"need" + 0.004*"protection" + 0.004*"change"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1144,7 +1144,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"needs" + 0.007*"Dudley" + 0.005*"arrangements" + 0.005*"well" + 0.005*"always" + 0.004*"quality" + 0.004*"ensure" + 0.004*"leaders" + 0.004*"November"', '0.012*"’" + 0.011*"needs" + 0.006*"Dudley" + 0.005*"well" + 0.005*"plans" + 0.005*"enough" + 0.004*"management" + 0.004*"October" + 0.004*"quality" + 0.004*"oversight"', '0.018*"’" + 0.013*"needs" + 0.010*"Dudley" + 0.006*"always" + 0.006*"plans" + 0.006*"well" + 0.005*"arrangements" + 0.005*"oversight" + 0.005*"ensure" + 0.005*"However"']</t>
+    <t>['0.017*"’" + 0.011*"needs" + 0.007*"Dudley" + 0.006*"well" + 0.005*"plans" + 0.005*"quality" + 0.004*"practice" + 0.004*"always" + 0.004*"management" + 0.004*"11"', '0.015*"’" + 0.010*"needs" + 0.008*"Dudley" + 0.006*"arrangements" + 0.005*"ensure" + 0.005*"plans" + 0.005*"always" + 0.005*"oversight" + 0.005*"October" + 0.004*"However"', '0.013*"’" + 0.013*"needs" + 0.009*"Dudley" + 0.006*"well" + 0.005*"always" + 0.005*"arrangements" + 0.004*"plans" + 0.004*"oversight" + 0.004*"However" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1180,7 +1180,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"Durham" + 0.007*"May" + 0.006*"practice" + 0.005*"plans" + 0.005*"ensure" + 0.005*"risks" + 0.005*"leaders"', '0.014*"’" + 0.010*"needs" + 0.006*"plans" + 0.006*"ensure" + 0.006*"Durham" + 0.006*"May" + 0.006*"well" + 0.004*"20" + 0.004*"need" + 0.004*"appropriate"', '0.014*"’" + 0.012*"needs" + 0.008*"May" + 0.007*"plans" + 0.007*"Durham" + 0.006*"well" + 0.006*"ensure" + 0.005*"practice" + 0.005*"risks" + 0.005*"progress"']</t>
+    <t>['0.011*"needs" + 0.011*"’" + 0.007*"May" + 0.006*"plans" + 0.005*"Durham" + 0.005*"practice" + 0.005*"risks" + 0.004*"supported" + 0.004*"well" + 0.004*"ensure"', '0.013*"’" + 0.010*"needs" + 0.007*"May" + 0.006*"ensure" + 0.006*"plans" + 0.006*"well" + 0.005*"Durham" + 0.004*"risks" + 0.004*"practice" + 0.004*"family"', '0.018*"’" + 0.010*"needs" + 0.009*"Durham" + 0.008*"well" + 0.007*"plans" + 0.007*"May" + 0.006*"ensure" + 0.006*"practice" + 0.005*"20" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1216,7 +1216,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"progress" + 0.005*"partners" + 0.005*"10" + 0.005*"education" + 0.005*"good" + 0.005*"Riding"', '0.019*"’" + 0.011*"plans" + 0.010*"needs" + 0.010*"well" + 0.008*"progress" + 0.007*"East" + 0.007*"Riding" + 0.005*"February" + 0.005*"January" + 0.005*"10"', '0.012*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"Riding" + 0.006*"East" + 0.006*"well" + 0.006*"progress" + 0.004*"information" + 0.004*"effective" + 0.004*"partners"']</t>
+    <t>['0.012*"’" + 0.007*"plans" + 0.007*"well" + 0.006*"East" + 0.006*"progress" + 0.005*"Riding" + 0.005*"needs" + 0.005*"10" + 0.004*"family" + 0.004*"information"', '0.017*"’" + 0.011*"needs" + 0.009*"plans" + 0.009*"well" + 0.007*"progress" + 0.006*"Riding" + 0.006*"East" + 0.005*"partners" + 0.005*"30" + 0.005*"10"', '0.018*"’" + 0.009*"needs" + 0.008*"plans" + 0.008*"well" + 0.007*"progress" + 0.007*"Riding" + 0.006*"East" + 0.005*"education" + 0.005*"good" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1246,7 +1246,7 @@
     <t>0.1738</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"East" + 0.007*"needs" + 0.006*"including" + 0.006*"progress" + 0.005*"Sussex" + 0.005*"11" + 0.004*"provide"', '0.011*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"including" + 0.006*"Sussex" + 0.006*"East" + 0.005*"impact" + 0.005*"experiences" + 0.005*"progress"', '0.020*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"progress" + 0.007*"plans" + 0.006*"Sussex" + 0.006*"East" + 0.005*"impact" + 0.005*"relationships" + 0.005*"11"']</t>
+    <t>['0.017*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"well" + 0.007*"East" + 0.006*"Sussex" + 0.006*"impact" + 0.005*"progress" + 0.005*"provide" + 0.005*"including"', '0.015*"’" + 0.009*"well" + 0.006*"plans" + 0.006*"progress" + 0.006*"including" + 0.005*"East" + 0.005*"needs" + 0.005*"effective" + 0.005*"experiences" + 0.005*"Sussex"', '0.016*"’" + 0.012*"well" + 0.009*"needs" + 0.008*"plans" + 0.007*"progress" + 0.007*"Sussex" + 0.006*"East" + 0.006*"11" + 0.006*"including" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1282,7 +1282,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"family" + 0.006*"progress" + 0.005*"plans" + 0.005*"leaders" + 0.005*"practice" + 0.005*"need" + 0.004*"advisers"', '0.018*"’" + 0.007*"well" + 0.007*"needs" + 0.007*"progress" + 0.006*"plans" + 0.006*"experiences" + 0.006*"understand" + 0.005*"helped" + 0.005*"Essex" + 0.004*"advisers"', '0.017*"’" + 0.007*"progress" + 0.006*"plans" + 0.006*"risk" + 0.006*"well" + 0.005*"needs" + 0.005*"Essex" + 0.005*"family" + 0.005*"supported" + 0.005*"new"']</t>
+    <t>['0.016*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"family" + 0.005*"experiences" + 0.005*"progress" + 0.005*"practice" + 0.005*"understand" + 0.005*"plans" + 0.005*"quality"', '0.022*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"progress" + 0.006*"plans" + 0.006*"leaders" + 0.005*"risk" + 0.005*"Essex" + 0.005*"new" + 0.005*"need"', '0.013*"’" + 0.007*"progress" + 0.006*"plans" + 0.005*"well" + 0.005*"family" + 0.005*"Essex" + 0.004*"‘" + 0.004*"new" + 0.004*"needs" + 0.004*"advisers"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1318,7 +1318,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"good" + 0.008*"effective" + 0.007*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"timely" + 0.005*"early" + 0.005*"improve" + 0.005*"need"', '0.015*"’" + 0.010*"effective" + 0.008*"quality" + 0.006*"practice" + 0.006*"needs" + 0.005*"good" + 0.005*"timely" + 0.005*"well" + 0.005*"progress" + 0.004*"plans"', '0.012*"’" + 0.007*"effective" + 0.006*"quality" + 0.006*"practice" + 0.006*"good" + 0.006*"needs" + 0.005*"well" + 0.005*"timely" + 0.004*"protection" + 0.004*"return"']</t>
+    <t>['0.010*"’" + 0.008*"effective" + 0.006*"good" + 0.006*"well" + 0.005*"quality" + 0.005*"early" + 0.005*"needs" + 0.005*"practice" + 0.005*"improve" + 0.004*"timely"', '0.016*"’" + 0.008*"practice" + 0.008*"effective" + 0.007*"needs" + 0.007*"good" + 0.006*"well" + 0.006*"quality" + 0.005*"need" + 0.005*"plans" + 0.005*"focus"', '0.014*"’" + 0.009*"effective" + 0.007*"quality" + 0.007*"good" + 0.006*"timely" + 0.005*"practice" + 0.005*"needs" + 0.004*"progress" + 0.004*"well" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80470</t>
@@ -1351,7 +1351,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"needs" + 0.006*"plans" + 0.006*"February" + 0.005*"Gloucestershire" + 0.005*"2022" + 0.005*"experienced" + 0.005*"family" + 0.004*"effective" + 0.004*"18"', '0.018*"’" + 0.007*"February" + 0.007*"plans" + 0.007*"needs" + 0.006*"well" + 0.005*"7" + 0.005*"2022" + 0.005*"18" + 0.005*"appropriate" + 0.005*"protection"', '0.019*"’" + 0.009*"2022" + 0.008*"needs" + 0.007*"February" + 0.006*"well" + 0.006*"plans" + 0.006*"progress" + 0.005*"experienced" + 0.005*"good" + 0.005*"Gloucestershire"']</t>
+    <t>['0.010*"’" + 0.007*"needs" + 0.006*"2022" + 0.006*"plans" + 0.005*"experienced" + 0.005*"February" + 0.004*"progress" + 0.004*"good" + 0.004*"Gloucestershire" + 0.004*"well"', '0.017*"’" + 0.009*"needs" + 0.007*"February" + 0.006*"plans" + 0.006*"2022" + 0.006*"well" + 0.005*"progress" + 0.005*"7" + 0.005*"experienced" + 0.005*"family"', '0.022*"’" + 0.008*"needs" + 0.007*"February" + 0.007*"2022" + 0.007*"plans" + 0.006*"Gloucestershire" + 0.005*"well" + 0.005*"18" + 0.005*"protection" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1378,7 +1378,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"practice" + 0.006*"needs" + 0.006*"need" + 0.006*"good" + 0.005*"always" + 0.005*"planning" + 0.005*"effective"', '0.011*"’" + 0.008*"needs" + 0.008*"practice" + 0.008*"well" + 0.008*"risk" + 0.007*"plans" + 0.006*"good" + 0.006*"need" + 0.005*"effective" + 0.005*"always"', '0.012*"well" + 0.012*"’" + 0.009*"needs" + 0.008*"practice" + 0.007*"plans" + 0.007*"planning" + 0.007*"need" + 0.006*"risk" + 0.006*"quality" + 0.006*"good"']</t>
+    <t>['0.013*"’" + 0.009*"well" + 0.009*"needs" + 0.009*"plans" + 0.008*"practice" + 0.006*"need" + 0.006*"planning" + 0.006*"good" + 0.006*"effective" + 0.006*"risk"', '0.010*"’" + 0.008*"practice" + 0.008*"well" + 0.008*"risk" + 0.007*"needs" + 0.005*"oversight" + 0.005*"always" + 0.005*"cases" + 0.005*"plans" + 0.005*"planning"', '0.012*"’" + 0.012*"well" + 0.008*"needs" + 0.008*"practice" + 0.008*"need" + 0.007*"plans" + 0.007*"good" + 0.007*"always" + 0.006*"planning" + 0.006*"quality"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1405,7 +1405,7 @@
     <t>0.187</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.009*"needs" + 0.006*"plans" + 0.005*"well" + 0.005*"quality" + 0.005*"leaders" + 0.004*"home" + 0.004*"strong" + 0.004*"improve" + 0.004*"highly"', '0.016*"’" + 0.007*"needs" + 0.005*"plans" + 0.005*"well" + 0.004*"strong" + 0.004*"quality" + 0.004*"leaders" + 0.004*"home" + 0.004*"carers" + 0.004*"need"', '0.015*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.004*"quality" + 0.004*"‘" + 0.003*"strong" + 0.003*"highly" + 0.003*"leaders" + 0.003*"oversight"']</t>
+    <t>['0.019*"’" + 0.008*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"leaders" + 0.004*"strong" + 0.004*"home" + 0.004*"carers" + 0.004*"quality" + 0.004*"need"', '0.022*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"well" + 0.006*"quality" + 0.005*"strong" + 0.005*"highly" + 0.005*"Hampshire" + 0.004*"progress" + 0.004*"‘"', '0.012*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.004*"leaders" + 0.004*"home" + 0.004*"quality" + 0.003*"improve" + 0.003*"leadership" + 0.003*"health"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1438,7 +1438,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"well" + 0.006*"quality" + 0.006*"strong" + 0.006*"good" + 0.005*"need" + 0.005*"early" + 0.004*"needs" + 0.004*"education" + 0.004*"plans"', '0.011*"well" + 0.011*"’" + 0.009*"quality" + 0.006*"plans" + 0.005*"progress" + 0.004*"strong" + 0.004*"good" + 0.004*"needs" + 0.004*"impact" + 0.004*"practice"', '0.017*"’" + 0.008*"well" + 0.006*"strong" + 0.005*"quality" + 0.005*"good" + 0.005*"education" + 0.004*"impact" + 0.004*"progress" + 0.004*"practice" + 0.004*"timely"']</t>
+    <t>['0.012*"’" + 0.006*"quality" + 0.006*"well" + 0.005*"progress" + 0.004*"good" + 0.004*"strong" + 0.004*"impact" + 0.004*"early" + 0.004*"health" + 0.004*"plans"', '0.017*"’" + 0.012*"well" + 0.008*"quality" + 0.006*"strong" + 0.005*"good" + 0.005*"plans" + 0.005*"progress" + 0.004*"education" + 0.004*"need" + 0.004*"early"', '0.017*"’" + 0.008*"well" + 0.005*"strong" + 0.005*"practice" + 0.005*"quality" + 0.004*"needs" + 0.004*"good" + 0.004*"plans" + 0.004*"‘" + 0.004*"improve"']</t>
   </si>
   <si>
     <t>80474</t>
@@ -1468,7 +1468,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.006*"Herefordshire" + 0.006*"practice" + 0.006*"impact" + 0.005*"lack" + 0.004*"many" + 0.004*"progress" + 0.004*"needs" + 0.004*"agency" + 0.004*"18"', '0.015*"’" + 0.005*"needs" + 0.005*"impact" + 0.004*"lack" + 0.004*"Herefordshire" + 0.004*"practice" + 0.004*"oversight" + 0.004*"quality" + 0.004*"many" + 0.004*"plans"', '0.015*"’" + 0.006*"practice" + 0.005*"lack" + 0.005*"Herefordshire" + 0.005*"needs" + 0.005*"plans" + 0.005*"many" + 0.005*"carers" + 0.005*"need" + 0.004*"18"']</t>
+    <t>['0.011*"’" + 0.006*"lack" + 0.006*"many" + 0.005*"Herefordshire" + 0.005*"practice" + 0.004*"progress" + 0.004*"quality" + 0.004*"needs" + 0.004*"18" + 0.004*"plans"', '0.023*"’" + 0.006*"practice" + 0.005*"Herefordshire" + 0.004*"needs" + 0.004*"impact" + 0.004*"2022" + 0.004*"oversight" + 0.004*"lack" + 0.004*"plans" + 0.004*"agency"', '0.016*"’" + 0.006*"impact" + 0.006*"needs" + 0.005*"Herefordshire" + 0.005*"lack" + 0.005*"many" + 0.005*"practice" + 0.004*"plans" + 0.004*"carers" + 0.004*"July"']</t>
   </si>
   <si>
     <t>80475</t>
@@ -1498,7 +1498,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Hertfordshire" + 0.005*"plans" + 0.005*"risk" + 0.005*"receive" + 0.005*"23" + 0.005*"2023" + 0.004*"need"', '0.022*"’" + 0.007*"Hertfordshire" + 0.007*"well" + 0.005*"receive" + 0.005*"needs" + 0.005*"positive" + 0.004*"27" + 0.004*"January" + 0.004*"working" + 0.004*"family"', '0.022*"’" + 0.006*"Hertfordshire" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"receive" + 0.004*"leaders" + 0.004*"2023" + 0.004*"Leaders" + 0.004*"January"']</t>
+    <t>['0.025*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.005*"receive" + 0.005*"Hertfordshire" + 0.004*"positive" + 0.004*"working" + 0.004*"need" + 0.004*"leaders"', '0.024*"’" + 0.008*"Hertfordshire" + 0.006*"needs" + 0.005*"well" + 0.005*"receive" + 0.004*"positive" + 0.004*"2023" + 0.004*"effective" + 0.004*"‘" + 0.004*"23"', '0.019*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"Hertfordshire" + 0.005*"27" + 0.004*"risk" + 0.004*"family" + 0.004*"receive" + 0.004*"23" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1525,7 +1525,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.007*"leaders" + 0.005*"needs" + 0.005*"plans" + 0.005*"progress" + 0.005*"practice" + 0.005*"good" + 0.005*"protection" + 0.005*"supported" + 0.005*"PAs"', '0.017*"’" + 0.011*"leaders" + 0.007*"well" + 0.006*"supported" + 0.006*"needs" + 0.006*"3" + 0.005*"Wight" + 0.005*"plans" + 0.005*"PAs" + 0.005*"progress"', '0.012*"’" + 0.006*"leaders" + 0.005*"needs" + 0.005*"Isle" + 0.005*"Senior" + 0.005*"Wight" + 0.005*"well" + 0.004*"30" + 0.004*"practice" + 0.004*"2023"']</t>
+    <t>['0.016*"’" + 0.007*"leaders" + 0.005*"needs" + 0.005*"supported" + 0.005*"well" + 0.005*"Senior" + 0.005*"plans" + 0.004*"protection" + 0.004*"Wight" + 0.004*"improve"', '0.015*"’" + 0.008*"leaders" + 0.006*"needs" + 0.005*"practice" + 0.005*"Isle" + 0.005*"2023" + 0.005*"well" + 0.005*"3" + 0.005*"information" + 0.005*"progress"', '0.020*"’" + 0.009*"leaders" + 0.006*"well" + 0.006*"progress" + 0.006*"Wight" + 0.006*"plans" + 0.006*"3" + 0.005*"30" + 0.005*"supported" + 0.005*"Isle"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1546,7 +1546,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"Kent" + 0.006*"needs" + 0.006*"Council" + 0.005*"County" + 0.005*"practice" + 0.004*"leaders" + 0.004*"well" + 0.004*"ensure" + 0.004*"2022"', '0.020*"’" + 0.010*"Kent" + 0.008*"needs" + 0.007*"well" + 0.006*"supported" + 0.006*"County" + 0.005*"Council" + 0.005*"practice" + 0.004*"progress" + 0.004*"impact"', '0.019*"’" + 0.010*"Kent" + 0.007*"needs" + 0.006*"supported" + 0.006*"Council" + 0.006*"well" + 0.005*"progress" + 0.005*"9" + 0.004*"leaders" + 0.004*"plans"']</t>
+    <t>['0.019*"’" + 0.012*"Kent" + 0.007*"Council" + 0.006*"supported" + 0.005*"needs" + 0.005*"County" + 0.005*"well" + 0.004*"practice" + 0.004*"need" + 0.004*"20"', '0.018*"’" + 0.010*"Kent" + 0.008*"needs" + 0.006*"well" + 0.006*"supported" + 0.005*"Council" + 0.005*"practice" + 0.005*"impact" + 0.005*"County" + 0.004*"leaders"', '0.016*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"Kent" + 0.006*"progress" + 0.005*"County" + 0.005*"Council" + 0.005*"supported" + 0.005*"leaders" + 0.004*"provide"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1573,7 +1573,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"number" + 0.006*"well" + 0.006*"practice" + 0.006*"protection" + 0.005*"planning" + 0.005*"25" + 0.005*"small" + 0.005*"risks" + 0.005*"good"', '0.016*"’" + 0.007*"planning" + 0.007*"Hull" + 0.007*"well" + 0.007*"number" + 0.006*"need" + 0.006*"practice" + 0.006*"protection" + 0.006*"impact" + 0.006*"progress"', '0.012*"’" + 0.006*"planning" + 0.006*"protection" + 0.006*"management" + 0.005*"need" + 0.005*"practice" + 0.005*"number" + 0.005*"teams" + 0.005*"November" + 0.005*"Hull"']</t>
+    <t>['0.015*"’" + 0.007*"planning" + 0.007*"number" + 0.007*"practice" + 0.006*"well" + 0.006*"protection" + 0.006*"need" + 0.006*"risks" + 0.006*"oversight" + 0.006*"Hull"', '0.017*"’" + 0.007*"number" + 0.006*"planning" + 0.006*"teams" + 0.005*"practice" + 0.005*"protection" + 0.005*"well" + 0.005*"needs" + 0.005*"risks" + 0.005*"Hull"', '0.015*"’" + 0.007*"number" + 0.006*"planning" + 0.006*"Hull" + 0.006*"small" + 0.006*"well" + 0.006*"protection" + 0.006*"need" + 0.005*"management" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1603,7 +1603,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"good" + 0.006*"quality" + 0.006*"practice" + 0.006*"permanence" + 0.006*"well" + 0.005*"senior" + 0.005*"protection" + 0.005*"plans" + 0.005*"need"', '0.012*"’" + 0.006*"practice" + 0.006*"quality" + 0.006*"plans" + 0.006*"Senior" + 0.005*"good" + 0.005*"needs" + 0.005*"well" + 0.005*"permanence" + 0.005*"training"', '0.010*"’" + 0.007*"quality" + 0.006*"practice" + 0.006*"training" + 0.005*"good" + 0.004*"permanence" + 0.004*"needs" + 0.004*"well" + 0.004*"protection" + 0.004*"plans"']</t>
+    <t>['0.012*"’" + 0.007*"quality" + 0.007*"practice" + 0.006*"good" + 0.005*"well" + 0.005*"permanence" + 0.005*"needs" + 0.005*"Senior" + 0.005*"training" + 0.005*"need"', '0.012*"’" + 0.007*"quality" + 0.006*"practice" + 0.005*"good" + 0.005*"protection" + 0.005*"needs" + 0.005*"senior" + 0.005*"plans" + 0.005*"response" + 0.005*"well"', '0.010*"’" + 0.006*"plans" + 0.005*"good" + 0.005*"permanence" + 0.005*"practice" + 0.005*"training" + 0.005*"well" + 0.005*"Senior" + 0.004*"quality" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1642,7 +1642,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"progress" + 0.008*"quality" + 0.007*"needs" + 0.007*"plans" + 0.005*"experiences" + 0.005*"2021" + 0.005*"need" + 0.005*"October" + 0.005*"Knowsley"', '0.011*"’" + 0.009*"progress" + 0.006*"2021" + 0.006*"needs" + 0.006*"Knowsley" + 0.006*"quality" + 0.006*"plans" + 0.005*"22" + 0.005*"good" + 0.005*"risk"', '0.018*"’" + 0.008*"plans" + 0.008*"needs" + 0.007*"progress" + 0.007*"Knowsley" + 0.006*"quality" + 0.005*"need" + 0.005*"abuse" + 0.005*"good" + 0.005*"2021"']</t>
+    <t>['0.015*"’" + 0.009*"progress" + 0.007*"quality" + 0.007*"plans" + 0.006*"Knowsley" + 0.006*"2021" + 0.005*"good" + 0.005*"abuse" + 0.005*"need" + 0.005*"needs"', '0.017*"’" + 0.009*"progress" + 0.008*"plans" + 0.008*"needs" + 0.007*"Knowsley" + 0.006*"quality" + 0.005*"2021" + 0.005*"22" + 0.005*"education" + 0.005*"leaders"', '0.008*"’" + 0.008*"needs" + 0.007*"quality" + 0.006*"progress" + 0.006*"plans" + 0.005*"2021" + 0.005*"impact" + 0.005*"need" + 0.005*"11" + 0.005*"Knowsley"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1672,7 +1672,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.008*"need" + 0.007*"well" + 0.006*"supported" + 0.006*"Lancashire" + 0.006*"live" + 0.005*"good" + 0.005*"progress" + 0.005*"health"', '0.009*"’" + 0.009*"well" + 0.006*"need" + 0.006*"Lancashire" + 0.005*"plans" + 0.005*"needs" + 0.005*"supported" + 0.004*"practice" + 0.004*"live" + 0.004*"number"', '0.019*"’" + 0.011*"well" + 0.007*"need" + 0.007*"Lancashire" + 0.006*"needs" + 0.006*"positive" + 0.006*"plans" + 0.006*"practice" + 0.005*"parents" + 0.005*"supported"']</t>
+    <t>['0.010*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"need" + 0.006*"Lancashire" + 0.005*"plans" + 0.005*"practice" + 0.005*"number" + 0.004*"homes" + 0.004*"positive"', '0.013*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"Lancashire" + 0.006*"supported" + 0.005*"need" + 0.005*"health" + 0.005*"information" + 0.005*"progress" + 0.005*"9"', '0.023*"’" + 0.009*"well" + 0.008*"need" + 0.008*"needs" + 0.006*"Lancashire" + 0.006*"plans" + 0.006*"supported" + 0.005*"live" + 0.005*"practice" + 0.005*"positive"']</t>
   </si>
   <si>
     <t>80481</t>
@@ -1699,7 +1699,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"Leeds" + 0.007*"needs" + 0.007*"well" + 0.005*"practice" + 0.005*"risk" + 0.004*"plans" + 0.004*"ensure" + 0.004*"benefit" + 0.004*"making"', '0.015*"’" + 0.007*"Leeds" + 0.006*"needs" + 0.005*"well" + 0.005*"practice" + 0.004*"protection" + 0.004*"making" + 0.004*"plans" + 0.004*"risk" + 0.004*"ensure"', '0.017*"’" + 0.007*"needs" + 0.007*"Leeds" + 0.006*"risk" + 0.006*"4" + 0.005*"well" + 0.005*"supported" + 0.005*"protection" + 0.004*"ensure" + 0.004*"February"']</t>
+    <t>['0.013*"’" + 0.009*"Leeds" + 0.007*"needs" + 0.005*"well" + 0.005*"risk" + 0.005*"ensure" + 0.005*"strong" + 0.005*"plans" + 0.004*"4" + 0.004*"practice"', '0.020*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"Leeds" + 0.005*"risk" + 0.005*"practice" + 0.005*"plans" + 0.005*"protection" + 0.005*"4" + 0.005*"making"', '0.015*"’" + 0.008*"Leeds" + 0.007*"needs" + 0.006*"well" + 0.005*"risk" + 0.004*"practice" + 0.004*"supported" + 0.004*"protection" + 0.004*"21" + 0.004*"March"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1732,7 +1732,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"well" + 0.007*"good" + 0.006*"2021" + 0.006*"Leicester" + 0.006*"needs" + 0.006*"ensure" + 0.005*"number" + 0.005*"circumstances" + 0.005*"1"', '0.016*"’" + 0.010*"well" + 0.008*"2021" + 0.008*"Leicester" + 0.006*"needs" + 0.005*"number" + 0.005*"City" + 0.005*"including" + 0.004*"October" + 0.004*"September"', '0.024*"’" + 0.010*"2021" + 0.009*"well" + 0.009*"Leicester" + 0.007*"needs" + 0.007*"ensure" + 0.006*"good" + 0.006*"20" + 0.006*"1" + 0.005*"number"']</t>
+    <t>['0.022*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"Leicester" + 0.007*"2021" + 0.006*"ensure" + 0.006*"good" + 0.005*"1" + 0.005*"20" + 0.005*"number"', '0.019*"’" + 0.010*"2021" + 0.008*"well" + 0.007*"Leicester" + 0.006*"needs" + 0.006*"good" + 0.006*"ensure" + 0.005*"number" + 0.005*"20" + 0.005*"including"', '0.018*"’" + 0.009*"well" + 0.008*"2021" + 0.008*"Leicester" + 0.006*"good" + 0.005*"number" + 0.005*"ensure" + 0.005*"Council" + 0.005*"quality" + 0.004*"1"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1765,7 +1765,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"needs" + 0.005*"good" + 0.005*"effective" + 0.005*"well" + 0.005*"practice" + 0.005*"education" + 0.004*"quality" + 0.004*"impact" + 0.004*"risk"', '0.012*"’" + 0.010*"well" + 0.009*"good" + 0.007*"effective" + 0.006*"needs" + 0.006*"quality" + 0.006*"practice" + 0.006*"need" + 0.005*"impact" + 0.005*"risk"', '0.011*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"good" + 0.007*"quality" + 0.006*"effective" + 0.005*"impact" + 0.005*"practice" + 0.005*"education" + 0.005*"leaders"']</t>
+    <t>['0.010*"’" + 0.007*"needs" + 0.007*"good" + 0.007*"well" + 0.006*"effective" + 0.005*"practice" + 0.005*"impact" + 0.004*"risk" + 0.004*"quality" + 0.004*"education"', '0.012*"’" + 0.007*"well" + 0.007*"effective" + 0.007*"quality" + 0.007*"good" + 0.006*"needs" + 0.005*"practice" + 0.005*"need" + 0.004*"leaders" + 0.004*"education"', '0.011*"’" + 0.009*"well" + 0.009*"good" + 0.007*"needs" + 0.006*"effective" + 0.006*"quality" + 0.006*"practice" + 0.005*"impact" + 0.005*"education" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1795,7 +1795,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.027*"’" + 0.008*"Lincolnshire" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"progress" + 0.005*"24" + 0.005*"April" + 0.004*"family" + 0.004*"number"', '0.020*"’" + 0.007*"Lincolnshire" + 0.006*"needs" + 0.005*"28" + 0.004*"well" + 0.004*"plans" + 0.004*"effective" + 0.004*"team" + 0.004*"need" + 0.004*"family"', '0.013*"’" + 0.006*"Lincolnshire" + 0.005*"needs" + 0.005*"well" + 0.004*"family" + 0.004*"progress" + 0.004*"plans" + 0.004*"‘" + 0.003*"education" + 0.003*"need"']</t>
+    <t>['0.019*"’" + 0.008*"Lincolnshire" + 0.007*"needs" + 0.005*"plans" + 0.004*"progress" + 0.004*"family" + 0.004*"well" + 0.004*"2023" + 0.004*"24" + 0.004*"provide"', '0.019*"’" + 0.007*"Lincolnshire" + 0.007*"needs" + 0.006*"well" + 0.004*"plans" + 0.004*"progress" + 0.004*"need" + 0.004*"family" + 0.004*"number" + 0.004*"working"', '0.026*"’" + 0.007*"needs" + 0.007*"Lincolnshire" + 0.006*"well" + 0.005*"plans" + 0.005*"progress" + 0.005*"effective" + 0.004*"family" + 0.004*"28" + 0.004*"24"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1825,7 +1825,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"always" + 0.007*"Liverpool" + 0.006*"needs" + 0.006*"practice" + 0.005*"24" + 0.005*"quality" + 0.005*"need" + 0.005*"timely" + 0.004*"protection"', '0.023*"’" + 0.008*"needs" + 0.008*"need" + 0.007*"practice" + 0.006*"quality" + 0.006*"always" + 0.005*"Liverpool" + 0.005*"protection" + 0.005*"PAs" + 0.005*"harm"', '0.011*"’" + 0.006*"needs" + 0.006*"practice" + 0.005*"always" + 0.005*"Liverpool" + 0.005*"need" + 0.004*"protection" + 0.004*"13" + 0.004*"quality" + 0.004*"PAs"']</t>
+    <t>['0.016*"’" + 0.006*"need" + 0.006*"practice" + 0.006*"quality" + 0.005*"Liverpool" + 0.005*"needs" + 0.005*"always" + 0.005*"response" + 0.004*"harm" + 0.004*"plans"', '0.016*"’" + 0.007*"Liverpool" + 0.007*"always" + 0.006*"need" + 0.005*"quality" + 0.005*"needs" + 0.005*"practice" + 0.005*"24" + 0.004*"education" + 0.004*"timely"', '0.023*"’" + 0.009*"needs" + 0.008*"practice" + 0.007*"need" + 0.007*"always" + 0.006*"protection" + 0.005*"quality" + 0.005*"Liverpool" + 0.005*"timely" + 0.005*"PAs"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -1858,7 +1858,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.028*"’" + 0.008*"needs" + 0.006*"good" + 0.006*"plans" + 0.006*"well" + 0.005*"progress" + 0.005*"carers" + 0.005*"information" + 0.005*"e" + 0.005*"ensure"', '0.019*"’" + 0.009*"needs" + 0.005*"plans" + 0.005*"good" + 0.005*"Dagenham" + 0.005*"practice" + 0.004*"carers" + 0.004*"well" + 0.004*"London" + 0.004*"ensure"', '0.015*"’" + 0.007*"needs" + 0.005*"practice" + 0.005*"plans" + 0.005*"carers" + 0.005*"good" + 0.004*"well" + 0.004*"planning" + 0.004*"21" + 0.004*"progress"']</t>
+    <t>['0.027*"’" + 0.009*"needs" + 0.007*"good" + 0.007*"plans" + 0.006*"well" + 0.006*"practice" + 0.006*"carers" + 0.005*"progress" + 0.005*"information" + 0.005*"London"', '0.021*"’" + 0.008*"needs" + 0.005*"good" + 0.005*"carers" + 0.005*"well" + 0.004*"plans" + 0.004*"practice" + 0.004*"information" + 0.004*"progress" + 0.004*"Dagenham"', '0.013*"’" + 0.005*"plans" + 0.004*"carers" + 0.004*"21" + 0.004*"well" + 0.004*"ensure" + 0.004*"needs" + 0.004*"e" + 0.003*"Barking" + 0.003*"information"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -1894,7 +1894,7 @@
     <t>0.2188</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.012*"needs" + 0.010*"good" + 0.008*"well" + 0.007*"plans" + 0.006*"need" + 0.006*"ensure" + 0.006*"clear" + 0.006*"progress" + 0.006*"risk"', '0.009*"’" + 0.008*"needs" + 0.008*"good" + 0.008*"need" + 0.006*"well" + 0.005*"clear" + 0.005*"plans" + 0.005*"progress" + 0.005*"quality" + 0.004*"effective"', '0.017*"’" + 0.010*"well" + 0.009*"good" + 0.008*"need" + 0.008*"progress" + 0.007*"needs" + 0.006*"ensure" + 0.005*"clear" + 0.005*"plans" + 0.005*"carers"']</t>
+    <t>['0.015*"’" + 0.009*"well" + 0.009*"good" + 0.009*"need" + 0.008*"needs" + 0.006*"plans" + 0.006*"quality" + 0.006*"progress" + 0.005*"risk" + 0.005*"ensure"', '0.014*"’" + 0.011*"needs" + 0.010*"well" + 0.010*"good" + 0.008*"need" + 0.007*"progress" + 0.006*"clear" + 0.006*"ensure" + 0.006*"appropriate" + 0.005*"effective"', '0.013*"’" + 0.009*"good" + 0.008*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"progress" + 0.005*"ensure" + 0.005*"need" + 0.005*"clear" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>80488</t>
@@ -1915,7 +1915,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"Bexley" + 0.005*"need" + 0.005*"including" + 0.005*"effective" + 0.005*"practice" + 0.004*"10"', '0.018*"’" + 0.006*"effective" + 0.006*"need" + 0.006*"well" + 0.006*"needs" + 0.005*"Bexley" + 0.004*"clear" + 0.004*"progress" + 0.004*"10" + 0.004*"6"', '0.017*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"effective" + 0.005*"plans" + 0.005*"make" + 0.004*"need" + 0.004*"10" + 0.004*"Bexley" + 0.004*"6"']</t>
+    <t>['0.016*"’" + 0.006*"Bexley" + 0.006*"needs" + 0.005*"well" + 0.005*"need" + 0.004*"effective" + 0.004*"including" + 0.004*"plans" + 0.004*"education" + 0.004*"oversight"', '0.022*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"effective" + 0.006*"plans" + 0.005*"Bexley" + 0.005*"6" + 0.005*"10" + 0.005*"need" + 0.004*"practice"', '0.018*"’" + 0.007*"need" + 0.007*"well" + 0.006*"needs" + 0.005*"effective" + 0.005*"plans" + 0.005*"make" + 0.004*"Bexley" + 0.004*"10" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -1942,7 +1942,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"leaders" + 0.007*"good" + 0.007*"well" + 0.006*"progress" + 0.006*"Brent" + 0.005*"plans" + 0.005*"quality" + 0.005*"practice" + 0.005*"number"', '0.012*"’" + 0.007*"well" + 0.006*"plans" + 0.005*"senior" + 0.005*"Brent" + 0.005*"quality" + 0.005*"information" + 0.005*"progress" + 0.005*"practice" + 0.004*"needs"', '0.019*"’" + 0.011*"well" + 0.009*"leaders" + 0.007*"plans" + 0.007*"progress" + 0.006*"number" + 0.005*"good" + 0.005*"timely" + 0.005*"quality" + 0.005*"senior"']</t>
+    <t>['0.013*"’" + 0.009*"well" + 0.006*"leaders" + 0.005*"However" + 0.005*"number" + 0.005*"progress" + 0.005*"good" + 0.005*"Brent" + 0.005*"plans" + 0.004*"senior"', '0.011*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"leaders" + 0.005*"quality" + 0.005*"Brent" + 0.005*"progress" + 0.004*"number" + 0.004*"range" + 0.004*"good"', '0.022*"’" + 0.009*"well" + 0.008*"leaders" + 0.008*"plans" + 0.007*"progress" + 0.007*"good" + 0.006*"quality" + 0.006*"practice" + 0.006*"Brent" + 0.006*"senior"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -1975,7 +1975,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"well" + 0.006*"Bromley" + 0.005*"needs" + 0.005*"plans" + 0.005*"health" + 0.004*"education" + 0.004*"leaders" + 0.004*"experiences" + 0.004*"helping"', '0.025*"’" + 0.011*"Bromley" + 0.008*"needs" + 0.007*"well" + 0.007*"practice" + 0.006*"leaders" + 0.006*"plans" + 0.005*"health" + 0.005*"education" + 0.005*"progress"', '0.017*"’" + 0.008*"Bromley" + 0.005*"needs" + 0.005*"well" + 0.004*"plans" + 0.004*"13" + 0.004*"17" + 0.003*"leaders" + 0.003*"education" + 0.003*"practice"']</t>
+    <t>['0.025*"’" + 0.009*"Bromley" + 0.008*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"leaders" + 0.005*"health" + 0.004*"practice" + 0.004*"November" + 0.004*"YPAs"', '0.012*"’" + 0.009*"Bromley" + 0.009*"well" + 0.007*"needs" + 0.005*"practice" + 0.005*"education" + 0.005*"leaders" + 0.004*"plans" + 0.004*"17" + 0.004*"strong"', '0.020*"’" + 0.008*"Bromley" + 0.006*"leaders" + 0.006*"plans" + 0.006*"well" + 0.005*"needs" + 0.005*"practice" + 0.005*"education" + 0.005*"health" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -2005,7 +2005,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.007*"Camden" + 0.005*"needs" + 0.005*"well" + 0.005*"practice" + 0.004*"response" + 0.004*"protection" + 0.004*"25" + 0.004*"leaders" + 0.004*"appropriate"', '0.014*"’" + 0.008*"leaders" + 0.007*"Camden" + 0.006*"practice" + 0.005*"29" + 0.005*"appropriate" + 0.005*"response" + 0.005*"needs" + 0.005*"well" + 0.005*"protection"', '0.009*"’" + 0.006*"practice" + 0.006*"Camden" + 0.006*"leaders" + 0.005*"protection" + 0.005*"well" + 0.004*"2022" + 0.004*"25" + 0.004*"progress" + 0.004*"needs"']</t>
+    <t>['0.011*"’" + 0.008*"leaders" + 0.006*"Camden" + 0.005*"practice" + 0.005*"protection" + 0.005*"needs" + 0.004*"well" + 0.004*"response" + 0.004*"29" + 0.004*"2022"', '0.010*"’" + 0.007*"practice" + 0.006*"well" + 0.006*"Camden" + 0.005*"leaders" + 0.005*"protection" + 0.005*"appropriate" + 0.005*"response" + 0.005*"needs" + 0.004*"25"', '0.011*"’" + 0.009*"Camden" + 0.006*"leaders" + 0.006*"practice" + 0.005*"needs" + 0.005*"well" + 0.005*"protection" + 0.005*"response" + 0.005*"25" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -2032,7 +2032,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"Senior" + 0.005*"need" + 0.005*"Croydon" + 0.005*"plans" + 0.004*"risk" + 0.004*"health" + 0.004*"effective"', '0.014*"’" + 0.009*"needs" + 0.006*"Croydon" + 0.006*"quality" + 0.006*"well" + 0.006*"Senior" + 0.005*"good" + 0.005*"However" + 0.005*"need" + 0.005*"education"', '0.010*"’" + 0.007*"well" + 0.007*"ensure" + 0.006*"needs" + 0.006*"need" + 0.005*"good" + 0.005*"Croydon" + 0.005*"quality" + 0.005*"plans" + 0.005*"effective"']</t>
+    <t>['0.011*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"need" + 0.006*"Croydon" + 0.006*"quality" + 0.005*"good" + 0.005*"ensure" + 0.005*"experiences" + 0.005*"plans"', '0.009*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"Senior" + 0.005*"effective" + 0.005*"quality" + 0.005*"ensure" + 0.005*"plans" + 0.005*"Croydon" + 0.005*"need"', '0.014*"’" + 0.008*"well" + 0.008*"needs" + 0.005*"good" + 0.005*"Croydon" + 0.005*"Senior" + 0.005*"ensure" + 0.005*"arrangements" + 0.005*"health" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2065,7 +2065,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.009*"quality" + 0.008*"’" + 0.007*"needs" + 0.006*"good" + 0.005*"risk" + 0.005*"well" + 0.005*"progress" + 0.004*"fully" + 0.004*"plans" + 0.004*"Ealing"', '0.014*"’" + 0.011*"quality" + 0.008*"needs" + 0.006*"good" + 0.006*"plans" + 0.005*"appropriately" + 0.005*"risk" + 0.005*"leaders" + 0.004*"oversight" + 0.004*"experiences"', '0.010*"’" + 0.009*"quality" + 0.007*"good" + 0.006*"progress" + 0.006*"needs" + 0.005*"experiences" + 0.005*"Ealing" + 0.005*"plans" + 0.005*"well" + 0.005*"management"']</t>
+    <t>['0.009*"quality" + 0.009*"’" + 0.006*"needs" + 0.005*"progress" + 0.005*"good" + 0.005*"plans" + 0.004*"well" + 0.004*"risk" + 0.004*"oversight" + 0.004*"leaders"', '0.011*"’" + 0.010*"quality" + 0.008*"good" + 0.008*"needs" + 0.006*"risk" + 0.005*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"improve" + 0.005*"family"', '0.013*"’" + 0.010*"quality" + 0.006*"needs" + 0.005*"progress" + 0.005*"management" + 0.005*"good" + 0.005*"plans" + 0.005*"experiences" + 0.004*"Ealing" + 0.004*"oversight"']</t>
   </si>
   <si>
     <t>80494</t>
@@ -2095,7 +2095,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"needs" + 0.008*"ensure" + 0.008*"good" + 0.006*"clear" + 0.006*"practice" + 0.006*"effective" + 0.006*"Enfield" + 0.006*"timely" + 0.005*"leaders"', '0.017*"’" + 0.009*"needs" + 0.008*"practice" + 0.008*"effective" + 0.007*"good" + 0.007*"clear" + 0.007*"ensure" + 0.006*"Enfield" + 0.006*"quality" + 0.006*"timely"', '0.012*"’" + 0.008*"practice" + 0.007*"needs" + 0.007*"ensure" + 0.006*"quality" + 0.006*"Enfield" + 0.006*"good" + 0.005*"progress" + 0.005*"effective" + 0.005*"plans"']</t>
+    <t>['0.013*"’" + 0.009*"good" + 0.008*"needs" + 0.007*"practice" + 0.007*"effective" + 0.007*"clear" + 0.007*"ensure" + 0.006*"quality" + 0.006*"leaders" + 0.006*"Enfield"', '0.013*"’" + 0.009*"needs" + 0.008*"ensure" + 0.007*"practice" + 0.007*"Enfield" + 0.007*"quality" + 0.006*"effective" + 0.006*"improve" + 0.005*"good" + 0.005*"clear"', '0.014*"’" + 0.008*"practice" + 0.008*"needs" + 0.008*"ensure" + 0.007*"good" + 0.006*"clear" + 0.006*"Enfield" + 0.006*"effective" + 0.006*"timely" + 0.006*"need"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2125,7 +2125,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"good" + 0.006*"ensure" + 0.006*"need" + 0.005*"range" + 0.005*"risks" + 0.005*"risk"', '0.012*"well" + 0.010*"’" + 0.008*"good" + 0.006*"needs" + 0.006*"plans" + 0.006*"need" + 0.005*"effective" + 0.005*"progress" + 0.005*"range" + 0.005*"risk"', '0.014*"’" + 0.009*"plans" + 0.009*"good" + 0.008*"well" + 0.008*"needs" + 0.007*"range" + 0.007*"need" + 0.006*"progress" + 0.005*"quality" + 0.005*"Senior"']</t>
+    <t>['0.013*"’" + 0.008*"well" + 0.007*"plans" + 0.006*"good" + 0.006*"needs" + 0.006*"need" + 0.005*"range" + 0.005*"progress" + 0.005*"information" + 0.005*"quality"', '0.012*"well" + 0.012*"’" + 0.009*"good" + 0.007*"needs" + 0.007*"plans" + 0.006*"need" + 0.006*"consistently" + 0.005*"range" + 0.005*"effective" + 0.005*"ensure"', '0.011*"’" + 0.008*"plans" + 0.008*"needs" + 0.008*"well" + 0.007*"good" + 0.006*"range" + 0.006*"risks" + 0.006*"need" + 0.006*"risk" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2161,7 +2161,7 @@
     <t>0.1417</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"practice" + 0.007*"planning" + 0.006*"within" + 0.006*"number" + 0.006*"leaders" + 0.006*"plans" + 0.005*"protection" + 0.005*"However" + 0.005*"small"', '0.010*"practice" + 0.010*"’" + 0.007*"effective" + 0.006*"planning" + 0.005*"number" + 0.005*"making" + 0.005*"needs" + 0.005*"plans" + 0.004*"leaders" + 0.004*"within"', '0.014*"’" + 0.010*"practice" + 0.007*"number" + 0.007*"including" + 0.006*"needs" + 0.006*"small" + 0.006*"quality" + 0.006*"need" + 0.006*"plans" + 0.006*"within"']</t>
+    <t>['0.015*"’" + 0.012*"practice" + 0.007*"planning" + 0.007*"within" + 0.006*"number" + 0.006*"including" + 0.006*"quality" + 0.006*"effective" + 0.006*"need" + 0.005*"leaders"', '0.013*"’" + 0.008*"practice" + 0.007*"needs" + 0.006*"effective" + 0.006*"number" + 0.006*"making" + 0.005*"plans" + 0.005*"within" + 0.005*"protection" + 0.005*"progress"', '0.011*"’" + 0.009*"practice" + 0.006*"number" + 0.006*"small" + 0.006*"plans" + 0.006*"planning" + 0.005*"However" + 0.005*"carers" + 0.005*"needs" + 0.005*"oversight"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2191,7 +2191,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"effective" + 0.008*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"ensure" + 0.005*"shared" + 0.005*"education" + 0.005*"risk" + 0.005*"leaders"', '0.009*"’" + 0.008*"needs" + 0.008*"appropriate" + 0.008*"well" + 0.006*"effective" + 0.005*"good" + 0.005*"shared" + 0.005*"timely" + 0.005*"health" + 0.005*"arrangements"', '0.009*"’" + 0.008*"needs" + 0.007*"effective" + 0.007*"arrangements" + 0.006*"well" + 0.006*"good" + 0.005*"appropriate" + 0.005*"ensure" + 0.005*"leaders" + 0.005*"need"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.008*"effective" + 0.008*"well" + 0.007*"arrangements" + 0.006*"ensure" + 0.006*"good" + 0.006*"appropriate" + 0.005*"timely" + 0.005*"However"', '0.011*"’" + 0.007*"appropriate" + 0.007*"needs" + 0.007*"well" + 0.006*"effective" + 0.006*"good" + 0.006*"leaders" + 0.005*"health" + 0.005*"quality" + 0.005*"need"', '0.011*"’" + 0.009*"effective" + 0.008*"needs" + 0.008*"well" + 0.006*"good" + 0.005*"shared" + 0.005*"ensure" + 0.005*"appropriate" + 0.005*"risk" + 0.005*"improve"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2212,7 +2212,7 @@
     <t>13/02/2023</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"Haringey" + 0.008*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"good" + 0.005*"need" + 0.005*"progress" + 0.005*"education" + 0.005*"practice"', '0.011*"’" + 0.007*"plans" + 0.006*"Haringey" + 0.005*"need" + 0.005*"well" + 0.005*"impact" + 0.005*"needs" + 0.004*"progress" + 0.004*"risk" + 0.004*"education"', '0.014*"’" + 0.009*"needs" + 0.008*"Haringey" + 0.005*"good" + 0.005*"well" + 0.005*"plans" + 0.005*"progress" + 0.005*"need" + 0.004*"risk" + 0.004*"2023"']</t>
+    <t>['0.015*"’" + 0.008*"Haringey" + 0.008*"needs" + 0.008*"well" + 0.006*"plans" + 0.006*"progress" + 0.006*"need" + 0.005*"good" + 0.005*"education" + 0.005*"risk"', '0.017*"’" + 0.008*"Haringey" + 0.008*"plans" + 0.007*"needs" + 0.007*"good" + 0.004*"well" + 0.004*"risk" + 0.004*"impact" + 0.004*"24" + 0.004*"need"', '0.014*"’" + 0.009*"Haringey" + 0.008*"needs" + 0.006*"plans" + 0.005*"need" + 0.005*"progress" + 0.005*"well" + 0.004*"impact" + 0.004*"timely" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2242,7 +2242,7 @@
     <t>0.2023</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"well" + 0.008*"good" + 0.006*"needs" + 0.006*"plans" + 0.005*"early" + 0.005*"impact" + 0.005*"protection" + 0.004*"need" + 0.004*"experiences"', '0.013*"’" + 0.010*"good" + 0.009*"needs" + 0.008*"well" + 0.007*"practice" + 0.006*"need" + 0.006*"impact" + 0.005*"protection" + 0.005*"plans" + 0.005*"early"', '0.012*"good" + 0.009*"’" + 0.008*"well" + 0.008*"needs" + 0.005*"impact" + 0.005*"school" + 0.005*"protection" + 0.005*"plans" + 0.005*"experiences" + 0.005*"Harrow"']</t>
+    <t>['0.010*"good" + 0.009*"needs" + 0.008*"’" + 0.008*"well" + 0.005*"practice" + 0.005*"need" + 0.005*"plans" + 0.004*"protection" + 0.004*"team" + 0.004*"impact"', '0.013*"’" + 0.010*"good" + 0.009*"well" + 0.008*"needs" + 0.007*"impact" + 0.006*"plans" + 0.005*"early" + 0.005*"experiences" + 0.005*"school" + 0.004*"practice"', '0.012*"’" + 0.011*"good" + 0.008*"well" + 0.008*"needs" + 0.006*"protection" + 0.006*"need" + 0.006*"plans" + 0.005*"practice" + 0.005*"early" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2266,7 +2266,7 @@
     <t>16/02/24</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.012*"Havering" + 0.007*"quality" + 0.007*"plans" + 0.005*"practice" + 0.004*"effective" + 0.004*"needs" + 0.004*"oversight" + 0.004*"many" + 0.004*"2023"', '0.012*"’" + 0.009*"Havering" + 0.008*"quality" + 0.008*"plans" + 0.005*"11" + 0.005*"oversight" + 0.004*"effective" + 0.004*"practice" + 0.004*"needs" + 0.004*"22"', '0.022*"’" + 0.012*"Havering" + 0.010*"quality" + 0.006*"plans" + 0.006*"oversight" + 0.006*"effective" + 0.005*"needs" + 0.005*"22" + 0.005*"11" + 0.004*"December"']</t>
+    <t>['0.019*"’" + 0.014*"Havering" + 0.011*"quality" + 0.009*"plans" + 0.006*"effective" + 0.006*"oversight" + 0.006*"needs" + 0.006*"11" + 0.005*"well" + 0.004*"22"', '0.019*"’" + 0.009*"Havering" + 0.006*"quality" + 0.005*"plans" + 0.005*"oversight" + 0.004*"practice" + 0.004*"effective" + 0.004*"supported" + 0.004*"2023" + 0.004*"needs"', '0.012*"’" + 0.009*"Havering" + 0.006*"quality" + 0.005*"plans" + 0.004*"many" + 0.004*"effective" + 0.004*"22" + 0.003*"protection" + 0.003*"needs" + 0.003*"11"']</t>
   </si>
   <si>
     <t>80501</t>
@@ -2302,7 +2302,7 @@
     <t>0.1861</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.010*"needs" + 0.009*"Hillingdon" + 0.008*"plans" + 0.008*"well" + 0.006*"team" + 0.005*"need" + 0.005*"leaders" + 0.004*"2" + 0.004*"2023"', '0.015*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"Hillingdon" + 0.004*"6" + 0.004*"need" + 0.004*"2" + 0.004*"leaders" + 0.004*"senior"', '0.016*"’" + 0.008*"needs" + 0.007*"Hillingdon" + 0.007*"well" + 0.006*"plans" + 0.004*"team" + 0.004*"carers" + 0.004*"PAs" + 0.004*"family" + 0.004*"6"']</t>
+    <t>['0.021*"’" + 0.010*"needs" + 0.010*"plans" + 0.009*"Hillingdon" + 0.008*"well" + 0.005*"team" + 0.005*"2" + 0.005*"need" + 0.004*"leaders" + 0.004*"6"', '0.019*"’" + 0.008*"needs" + 0.008*"Hillingdon" + 0.006*"well" + 0.006*"plans" + 0.004*"6" + 0.004*"need" + 0.004*"appropriate" + 0.004*"team" + 0.004*"2"', '0.010*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"Hillingdon" + 0.005*"team" + 0.004*"need" + 0.004*"supported" + 0.004*"leaders" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2332,7 +2332,7 @@
     <t>0.1948</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.015*"needs" + 0.009*"well" + 0.007*"Hounslow" + 0.007*"effective" + 0.006*"plans" + 0.006*"timely" + 0.005*"strong" + 0.005*"education" + 0.005*"20"', '0.021*"’" + 0.013*"well" + 0.008*"effective" + 0.008*"needs" + 0.007*"Hounslow" + 0.007*"timely" + 0.005*"oversight" + 0.005*"experiences" + 0.005*"16" + 0.005*"plans"', '0.012*"’" + 0.009*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"plans" + 0.005*"Hounslow" + 0.004*"timely" + 0.004*"20" + 0.004*"progress" + 0.004*"16"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.010*"well" + 0.008*"Hounslow" + 0.007*"effective" + 0.007*"timely" + 0.005*"strong" + 0.005*"education" + 0.005*"plans" + 0.004*"training"', '0.017*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"effective" + 0.006*"timely" + 0.006*"Hounslow" + 0.005*"experiences" + 0.004*"plans" + 0.004*"progress" + 0.004*"training"', '0.025*"’" + 0.012*"needs" + 0.010*"well" + 0.007*"effective" + 0.007*"Hounslow" + 0.007*"plans" + 0.005*"timely" + 0.005*"16" + 0.005*"oversight" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2359,7 +2359,7 @@
     <t>0.209</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"plans" + 0.007*"quality" + 0.006*"highly" + 0.006*"good" + 0.005*"effective" + 0.005*"Islington" + 0.005*"practice"', '0.013*"’" + 0.012*"needs" + 0.010*"well" + 0.007*"plans" + 0.007*"highly" + 0.006*"leaders" + 0.006*"good" + 0.005*"effective" + 0.005*"quality" + 0.005*"risk"', '0.011*"’" + 0.010*"needs" + 0.010*"well" + 0.006*"good" + 0.005*"plans" + 0.005*"Islington" + 0.004*"highly" + 0.004*"leaders" + 0.004*"quality" + 0.004*"effective"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"plans" + 0.007*"good" + 0.006*"quality" + 0.006*"highly" + 0.006*"practice" + 0.006*"effective" + 0.005*"Islington"', '0.013*"’" + 0.012*"well" + 0.011*"needs" + 0.006*"highly" + 0.006*"leaders" + 0.006*"quality" + 0.006*"good" + 0.005*"effective" + 0.005*"Islington" + 0.005*"plans"', '0.009*"needs" + 0.009*"’" + 0.008*"well" + 0.006*"plans" + 0.005*"highly" + 0.005*"risk" + 0.004*"leaders" + 0.004*"quality" + 0.004*"Islington" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2389,7 +2389,7 @@
     <t>16/12/22</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"Lambeth" + 0.007*"needs" + 0.006*"good" + 0.006*"4" + 0.005*"need" + 0.005*"leaders" + 0.005*"progress"', '0.015*"’" + 0.011*"needs" + 0.008*"well" + 0.008*"good" + 0.006*"plans" + 0.006*"need" + 0.006*"impact" + 0.006*"progress" + 0.006*"Lambeth" + 0.005*"24"', '0.014*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"good" + 0.005*"Lambeth" + 0.005*"progress" + 0.005*"need" + 0.005*"leaders" + 0.005*"arrangements"']</t>
+    <t>['0.011*"’" + 0.010*"needs" + 0.007*"plans" + 0.006*"well" + 0.006*"progress" + 0.006*"impact" + 0.006*"good" + 0.006*"need" + 0.005*"Lambeth" + 0.005*"4"', '0.017*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"Lambeth" + 0.006*"plans" + 0.006*"impact" + 0.005*"progress" + 0.005*"need" + 0.005*"carers"', '0.017*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"plans" + 0.007*"Lambeth" + 0.007*"good" + 0.006*"need" + 0.006*"24" + 0.005*"progress" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2419,7 +2419,7 @@
     <t>0.1851</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.007*"plans" + 0.006*"needs" + 0.005*"effective" + 0.005*"Lewisham" + 0.005*"progress" + 0.004*"good" + 0.004*"4" + 0.004*"leaders"', '0.017*"’" + 0.007*"needs" + 0.007*"Lewisham" + 0.006*"effective" + 0.005*"progress" + 0.005*"15" + 0.005*"well" + 0.005*"plans" + 0.004*"receive" + 0.004*"ensure"', '0.020*"’" + 0.011*"well" + 0.008*"plans" + 0.008*"needs" + 0.007*"effective" + 0.006*"4" + 0.006*"Lewisham" + 0.006*"need" + 0.005*"good" + 0.005*"arrangements"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.007*"plans" + 0.007*"well" + 0.006*"effective" + 0.006*"4" + 0.006*"Lewisham" + 0.005*"arrangements" + 0.005*"need" + 0.005*"15"', '0.012*"’" + 0.007*"well" + 0.006*"Lewisham" + 0.006*"needs" + 0.006*"plans" + 0.005*"effective" + 0.004*"progress" + 0.004*"ensure" + 0.004*"health" + 0.004*"receive"', '0.022*"’" + 0.010*"well" + 0.007*"plans" + 0.006*"progress" + 0.006*"good" + 0.006*"effective" + 0.006*"Lewisham" + 0.005*"needs" + 0.005*"2023" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2440,7 +2440,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"well" + 0.007*"Merton" + 0.006*"plans" + 0.006*"needs" + 0.005*"risk" + 0.005*"good" + 0.004*"ensure" + 0.004*"access" + 0.004*"across"', '0.011*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"Merton" + 0.004*"progress" + 0.004*"helping" + 0.004*"education" + 0.004*"information" + 0.004*"Leaders" + 0.004*"2022"', '0.014*"’" + 0.009*"well" + 0.007*"Merton" + 0.006*"needs" + 0.005*"family" + 0.005*"progress" + 0.005*"4" + 0.004*"leaders" + 0.004*"Leaders" + 0.004*"plans"']</t>
+    <t>['0.018*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Merton" + 0.005*"4" + 0.004*"plans" + 0.004*"ensure" + 0.004*"2022" + 0.004*"risk" + 0.004*"information"', '0.016*"’" + 0.009*"well" + 0.006*"Merton" + 0.005*"progress" + 0.005*"plans" + 0.005*"good" + 0.005*"family" + 0.005*"needs" + 0.004*"across" + 0.004*"health"', '0.010*"’" + 0.006*"Merton" + 0.006*"well" + 0.005*"needs" + 0.004*"plans" + 0.004*"leaders" + 0.004*"ensure" + 0.004*"family" + 0.004*"practice" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2458,7 +2458,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"Newham" + 0.007*"needs" + 0.006*"need" + 0.006*"effective" + 0.005*"plans" + 0.005*"progress" + 0.005*"practice" + 0.005*"good" + 0.005*"18"', '0.013*"’" + 0.006*"Newham" + 0.006*"progress" + 0.005*"plans" + 0.005*"needs" + 0.005*"practice" + 0.005*"effective" + 0.005*"need" + 0.004*"good" + 0.004*"risks"', '0.023*"’" + 0.010*"needs" + 0.007*"practice" + 0.007*"Newham" + 0.007*"plans" + 0.006*"progress" + 0.006*"effective" + 0.006*"need" + 0.005*"good" + 0.005*"ensure"']</t>
+    <t>['0.022*"’" + 0.009*"needs" + 0.007*"Newham" + 0.006*"effective" + 0.006*"practice" + 0.006*"need" + 0.006*"progress" + 0.005*"Leaders" + 0.005*"plans" + 0.005*"good"', '0.017*"’" + 0.008*"plans" + 0.007*"practice" + 0.007*"progress" + 0.007*"Newham" + 0.007*"needs" + 0.006*"need" + 0.006*"effective" + 0.005*"good" + 0.004*"2022"', '0.016*"’" + 0.007*"needs" + 0.006*"Newham" + 0.005*"plans" + 0.005*"progress" + 0.005*"good" + 0.004*"practice" + 0.004*"need" + 0.004*"effective" + 0.004*"18"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2485,7 +2485,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.007*"’" + 0.005*"practice" + 0.005*"well" + 0.005*"need" + 0.005*"needs" + 0.004*"Redbridge" + 0.004*"risk" + 0.004*"team" + 0.004*"effective" + 0.004*"ensure"', '0.007*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"need" + 0.006*"risk" + 0.006*"practice" + 0.006*"effective" + 0.005*"good" + 0.005*"Redbridge" + 0.005*"including"', '0.008*"’" + 0.008*"practice" + 0.007*"strong" + 0.006*"well" + 0.006*"needs" + 0.005*"effective" + 0.005*"Redbridge" + 0.005*"need" + 0.004*"including" + 0.004*"ensure"']</t>
+    <t>['0.009*"practice" + 0.007*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"need" + 0.005*"Redbridge" + 0.005*"effective" + 0.005*"strong" + 0.005*"including" + 0.004*"team"', '0.006*"’" + 0.005*"need" + 0.005*"strong" + 0.005*"risk" + 0.005*"well" + 0.005*"needs" + 0.005*"practice" + 0.005*"Redbridge" + 0.005*"team" + 0.004*"effective"', '0.009*"’" + 0.006*"needs" + 0.006*"practice" + 0.006*"well" + 0.006*"effective" + 0.005*"need" + 0.005*"strong" + 0.005*"ensure" + 0.005*"Redbridge" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2509,7 +2509,7 @@
     <t>0.2056</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.012*"well" + 0.008*"needs" + 0.008*"supported" + 0.007*"Richmond" + 0.006*"team" + 0.005*"need" + 0.005*"strong" + 0.005*"4" + 0.005*"2022"', '0.015*"’" + 0.008*"well" + 0.007*"Richmond" + 0.006*"good" + 0.005*"needs" + 0.005*"need" + 0.005*"supported" + 0.005*"team" + 0.004*"strong" + 0.004*"January"', '0.016*"’" + 0.012*"well" + 0.010*"Richmond" + 0.008*"needs" + 0.006*"good" + 0.006*"need" + 0.005*"team" + 0.005*"Thames" + 0.005*"additional" + 0.004*"supported"']</t>
+    <t>['0.019*"’" + 0.009*"well" + 0.008*"Richmond" + 0.008*"needs" + 0.007*"supported" + 0.006*"need" + 0.006*"team" + 0.006*"good" + 0.005*"additional" + 0.005*"4"', '0.012*"’" + 0.012*"well" + 0.008*"Richmond" + 0.006*"needs" + 0.005*"supported" + 0.005*"need" + 0.005*"team" + 0.005*"additional" + 0.004*"31" + 0.004*"ensure"', '0.014*"’" + 0.012*"well" + 0.007*"Richmond" + 0.007*"needs" + 0.006*"good" + 0.005*"team" + 0.005*"supported" + 0.005*"need" + 0.004*"January" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2536,7 +2536,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"good" + 0.010*"Southwark" + 0.008*"well" + 0.006*"progress" + 0.006*"needs" + 0.006*"plans" + 0.005*"Leaders" + 0.005*"need" + 0.005*"receive"', '0.021*"’" + 0.011*"Southwark" + 0.009*"needs" + 0.007*"well" + 0.007*"good" + 0.006*"progress" + 0.006*"plans" + 0.006*"strong" + 0.005*"need" + 0.005*"effective"', '0.015*"’" + 0.007*"well" + 0.007*"good" + 0.006*"Southwark" + 0.006*"needs" + 0.005*"need" + 0.005*"ensure" + 0.005*"progress" + 0.005*"Leaders" + 0.005*"receive"']</t>
+    <t>['0.021*"’" + 0.009*"good" + 0.009*"Southwark" + 0.008*"well" + 0.007*"needs" + 0.006*"strong" + 0.006*"plans" + 0.005*"Leaders" + 0.005*"receive" + 0.005*"effective"', '0.016*"’" + 0.008*"well" + 0.008*"Southwark" + 0.007*"needs" + 0.006*"progress" + 0.006*"need" + 0.005*"good" + 0.005*"Leaders" + 0.005*"leaders" + 0.005*"plans"', '0.016*"’" + 0.011*"Southwark" + 0.009*"good" + 0.007*"progress" + 0.007*"needs" + 0.006*"well" + 0.006*"effective" + 0.006*"need" + 0.005*"plans" + 0.004*"improve"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2563,7 +2563,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.006*"well" + 0.006*"progress" + 0.005*"needs" + 0.005*"Sutton" + 0.005*"receive" + 0.005*"good" + 0.004*"home" + 0.004*"6" + 0.004*"understand"', '0.017*"’" + 0.007*"well" + 0.007*"Sutton" + 0.007*"needs" + 0.005*"effective" + 0.005*"good" + 0.005*"receive" + 0.005*"need" + 0.005*"leaders" + 0.005*"6"', '0.014*"’" + 0.007*"well" + 0.005*"progress" + 0.005*"needs" + 0.005*"Sutton" + 0.005*"effective" + 0.005*"‘" + 0.004*"6" + 0.004*"good" + 0.004*"supported"']</t>
+    <t>['0.016*"’" + 0.007*"well" + 0.005*"Sutton" + 0.005*"needs" + 0.005*"effective" + 0.005*"6" + 0.005*"supported" + 0.005*"progress" + 0.004*"good" + 0.004*"understand"', '0.016*"’" + 0.007*"Sutton" + 0.007*"needs" + 0.006*"well" + 0.006*"progress" + 0.005*"receive" + 0.005*"good" + 0.005*"effective" + 0.005*"10" + 0.004*"6"', '0.018*"’" + 0.007*"well" + 0.005*"receive" + 0.005*"needs" + 0.004*"Sutton" + 0.004*"leaders" + 0.004*"effective" + 0.004*"good" + 0.004*"‘" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2590,7 +2590,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.006*"good" + 0.006*"well" + 0.006*"effective" + 0.005*"plans" + 0.005*"‘" + 0.005*"practice" + 0.005*"including" + 0.005*"risk" + 0.004*"need"', '0.011*"’" + 0.006*"plans" + 0.006*"good" + 0.006*"effective" + 0.005*"‘" + 0.005*"early" + 0.005*"practice" + 0.004*"need" + 0.004*"well" + 0.004*"risk"', '0.017*"’" + 0.007*"good" + 0.007*"plans" + 0.007*"effective" + 0.006*"‘" + 0.006*"progress" + 0.006*"well" + 0.006*"practice" + 0.006*"need" + 0.006*"needs"']</t>
+    <t>['0.016*"’" + 0.008*"good" + 0.006*"plans" + 0.006*"practice" + 0.005*"progress" + 0.005*"needs" + 0.005*"early" + 0.005*"well" + 0.005*"risk" + 0.005*"need"', '0.017*"’" + 0.006*"effective" + 0.005*"well" + 0.005*"good" + 0.005*"plans" + 0.005*"early" + 0.004*"practice" + 0.004*"need" + 0.004*"including" + 0.004*"carers"', '0.012*"’" + 0.008*"‘" + 0.007*"effective" + 0.007*"plans" + 0.006*"good" + 0.006*"well" + 0.006*"need" + 0.005*"practice" + 0.005*"progress" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2620,7 +2620,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.013*"well" + 0.010*"good" + 0.008*"needs" + 0.006*"effective" + 0.006*"need" + 0.005*"timely" + 0.005*"plans" + 0.005*"risk" + 0.004*"progress"', '0.013*"’" + 0.011*"well" + 0.008*"needs" + 0.008*"good" + 0.006*"plans" + 0.006*"effective" + 0.005*"need" + 0.005*"risk" + 0.004*"clear" + 0.004*"protection"', '0.013*"’" + 0.011*"well" + 0.009*"needs" + 0.009*"effective" + 0.007*"need" + 0.007*"good" + 0.004*"plans" + 0.004*"timely" + 0.004*"appropriately" + 0.004*"actions"']</t>
+    <t>['0.017*"’" + 0.014*"well" + 0.010*"needs" + 0.010*"good" + 0.008*"effective" + 0.007*"need" + 0.007*"plans" + 0.005*"timely" + 0.005*"practice" + 0.005*"information"', '0.013*"well" + 0.010*"’" + 0.007*"effective" + 0.006*"needs" + 0.005*"need" + 0.005*"good" + 0.004*"appropriately" + 0.004*"protection" + 0.004*"risk" + 0.004*"timely"', '0.014*"’" + 0.008*"needs" + 0.008*"good" + 0.006*"well" + 0.006*"effective" + 0.005*"plans" + 0.004*"need" + 0.004*"timely" + 0.004*"risk" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2644,7 +2644,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"well" + 0.006*"progress" + 0.006*"needs" + 0.005*"ensure" + 0.005*"practice" + 0.005*"Wandsworth" + 0.005*"Senior" + 0.004*"supported" + 0.004*"protection"', '0.012*"’" + 0.006*"protection" + 0.006*"progress" + 0.005*"quality" + 0.005*"practice" + 0.005*"needs" + 0.005*"well" + 0.005*"Wandsworth" + 0.005*"supported" + 0.005*"timely"', '0.010*"’" + 0.006*"7" + 0.005*"Senior" + 0.005*"well" + 0.005*"effective" + 0.005*"Wandsworth" + 0.005*"team" + 0.005*"quality" + 0.004*"needs" + 0.004*"protection"']</t>
+    <t>['0.010*"’" + 0.006*"Wandsworth" + 0.006*"progress" + 0.006*"well" + 0.005*"needs" + 0.005*"improve" + 0.005*"protection" + 0.005*"supported" + 0.005*"ing" + 0.005*"7"', '0.013*"’" + 0.008*"well" + 0.006*"Senior" + 0.006*"practice" + 0.006*"protection" + 0.005*"7" + 0.005*"ensure" + 0.005*"progress" + 0.005*"Wandsworth" + 0.005*"effective"', '0.011*"’" + 0.006*"needs" + 0.005*"quality" + 0.005*"well" + 0.005*"practice" + 0.005*"progress" + 0.005*"effective" + 0.005*"team" + 0.004*"supported" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2665,7 +2665,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.005*"practice" + 0.005*"needs" + 0.004*"well" + 0.004*"across" + 0.004*"highly" + 0.004*"many" + 0.003*"direct" + 0.003*"protection" + 0.003*"family"', '0.014*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"practice" + 0.006*"highly" + 0.004*"many" + 0.004*"family" + 0.004*"plans" + 0.004*"high" + 0.003*"across"', '0.013*"’" + 0.008*"practice" + 0.006*"highly" + 0.006*"needs" + 0.004*"well" + 0.004*"across" + 0.003*"many" + 0.003*"skilled" + 0.003*"family" + 0.003*"number"']</t>
+    <t>['0.013*"’" + 0.007*"practice" + 0.006*"highly" + 0.006*"needs" + 0.005*"well" + 0.004*"many" + 0.003*"Westminster" + 0.003*"skilled" + 0.003*"number" + 0.003*"family"', '0.013*"’" + 0.007*"practice" + 0.006*"needs" + 0.005*"well" + 0.005*"highly" + 0.004*"family" + 0.004*"many" + 0.004*"across" + 0.003*"plans" + 0.003*"high"', '0.012*"’" + 0.006*"highly" + 0.006*"practice" + 0.006*"needs" + 0.004*"well" + 0.004*"across" + 0.004*"protection" + 0.003*"direct" + 0.003*"many" + 0.003*"skilled"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2695,7 +2695,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.006*"effective" + 0.006*"need" + 0.006*"plans" + 0.006*"Luton" + 0.006*"needs" + 0.005*"quality" + 0.005*"impact" + 0.005*"well" + 0.005*"receive"', '0.014*"’" + 0.006*"plans" + 0.006*"Luton" + 0.005*"needs" + 0.005*"need" + 0.005*"impact" + 0.005*"good" + 0.004*"22" + 0.004*"well" + 0.004*"progress"', '0.017*"’" + 0.007*"need" + 0.007*"needs" + 0.006*"progress" + 0.006*"good" + 0.006*"effective" + 0.005*"plans" + 0.005*"ensure" + 0.005*"11" + 0.005*"Luton"']</t>
+    <t>['0.013*"’" + 0.005*"need" + 0.005*"plans" + 0.005*"well" + 0.005*"needs" + 0.005*"Luton" + 0.004*"effective" + 0.004*"ensure" + 0.004*"impact" + 0.004*"quality"', '0.022*"’" + 0.007*"need" + 0.007*"plans" + 0.006*"needs" + 0.006*"good" + 0.005*"Luton" + 0.005*"effective" + 0.005*"quality" + 0.005*"Leaders" + 0.005*"receive"', '0.014*"’" + 0.007*"needs" + 0.006*"impact" + 0.006*"Luton" + 0.006*"need" + 0.006*"effective" + 0.006*"progress" + 0.005*"plans" + 0.005*"good" + 0.005*"22"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2719,7 +2719,7 @@
     <t>19/05/22</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"Manchester" + 0.009*"needs" + 0.006*"well" + 0.006*"always" + 0.005*"education" + 0.005*"effective" + 0.005*"supported" + 0.005*"family" + 0.005*"protection"', '0.020*"’" + 0.011*"needs" + 0.008*"Manchester" + 0.007*"supported" + 0.006*"protection" + 0.006*"well" + 0.006*"always" + 0.005*"plans" + 0.005*"However" + 0.005*"effective"', '0.023*"’" + 0.013*"Manchester" + 0.008*"well" + 0.007*"needs" + 0.007*"always" + 0.007*"supported" + 0.006*"plans" + 0.006*"disabled" + 0.006*"education" + 0.005*"quality"']</t>
+    <t>['0.025*"’" + 0.012*"Manchester" + 0.009*"needs" + 0.007*"well" + 0.007*"always" + 0.007*"supported" + 0.007*"plans" + 0.006*"effective" + 0.006*"protection" + 0.005*"education"', '0.021*"’" + 0.010*"Manchester" + 0.009*"needs" + 0.008*"well" + 0.007*"supported" + 0.005*"disabled" + 0.005*"education" + 0.005*"always" + 0.005*"family" + 0.005*"plans"', '0.013*"’" + 0.009*"needs" + 0.007*"Manchester" + 0.007*"always" + 0.005*"supported" + 0.005*"well" + 0.005*"21" + 0.005*"means" + 0.004*"effective" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -2746,7 +2746,7 @@
     <t>11/09/23</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.012*"Medway" + 0.010*"well" + 0.008*"quality" + 0.008*"practice" + 0.007*"needs" + 0.007*"leaders" + 0.006*"oversight" + 0.006*"good" + 0.005*"experiences"', '0.012*"’" + 0.009*"practice" + 0.008*"quality" + 0.007*"Medway" + 0.007*"needs" + 0.006*"well" + 0.005*"experiences" + 0.005*"impact" + 0.005*"leaders" + 0.005*"oversight"', '0.016*"’" + 0.007*"Medway" + 0.007*"practice" + 0.006*"leaders" + 0.006*"impact" + 0.006*"quality" + 0.006*"oversight" + 0.006*"well" + 0.005*"clear" + 0.005*"improve"']</t>
+    <t>['0.014*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"Medway" + 0.006*"oversight" + 0.006*"practice" + 0.005*"experiences" + 0.005*"leaders" + 0.005*"good" + 0.005*"17"', '0.011*"’" + 0.008*"Medway" + 0.007*"practice" + 0.006*"quality" + 0.005*"needs" + 0.005*"well" + 0.005*"leaders" + 0.005*"impact" + 0.005*"progress" + 0.004*"risk"', '0.019*"’" + 0.011*"Medway" + 0.009*"practice" + 0.009*"quality" + 0.009*"well" + 0.008*"needs" + 0.007*"leaders" + 0.007*"oversight" + 0.006*"impact" + 0.006*"experiences"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -2767,7 +2767,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"plans" + 0.007*"effective" + 0.007*"Middlesbrough" + 0.005*"progress" + 0.005*"needs" + 0.005*"24" + 0.005*"practice" + 0.005*"place" + 0.005*"supported"', '0.013*"’" + 0.009*"well" + 0.007*"plans" + 0.007*"effective" + 0.007*"Middlesbrough" + 0.007*"needs" + 0.006*"progress" + 0.005*"means" + 0.005*"practice" + 0.005*"13"', '0.009*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"effective" + 0.006*"Middlesbrough" + 0.006*"well" + 0.005*"plans" + 0.004*"place" + 0.004*"progress" + 0.004*"March"']</t>
+    <t>['0.014*"’" + 0.008*"effective" + 0.008*"plans" + 0.008*"Middlesbrough" + 0.007*"well" + 0.007*"needs" + 0.006*"24" + 0.005*"practice" + 0.005*"13" + 0.005*"progress"', '0.010*"’" + 0.006*"Middlesbrough" + 0.006*"effective" + 0.005*"well" + 0.005*"needs" + 0.005*"progress" + 0.005*"plans" + 0.004*"good" + 0.004*"practice" + 0.004*"means"', '0.015*"’" + 0.006*"plans" + 0.006*"practice" + 0.006*"well" + 0.006*"effective" + 0.005*"needs" + 0.005*"progress" + 0.005*"Middlesbrough" + 0.005*"place" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -2791,7 +2791,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"Keynes" + 0.006*"Milton" + 0.006*"well" + 0.005*"plans" + 0.005*"25" + 0.005*"need" + 0.005*"practice" + 0.005*"leaders" + 0.004*"October"', '0.016*"’" + 0.005*"practice" + 0.005*"well" + 0.005*"need" + 0.005*"Keynes" + 0.005*"good" + 0.005*"plans" + 0.005*"needs" + 0.004*"leaders" + 0.004*"Milton"', '0.015*"’" + 0.007*"Milton" + 0.006*"Keynes" + 0.006*"need" + 0.006*"well" + 0.005*"also" + 0.005*"team" + 0.004*"5" + 0.004*"leaders" + 0.004*"25"']</t>
+    <t>['0.015*"’" + 0.007*"Milton" + 0.006*"well" + 0.006*"Keynes" + 0.005*"practice" + 0.005*"need" + 0.005*"family" + 0.004*"plans" + 0.004*"education" + 0.004*"quality"', '0.015*"’" + 0.006*"Keynes" + 0.006*"25" + 0.005*"well" + 0.005*"Milton" + 0.005*"good" + 0.005*"needs" + 0.005*"5" + 0.004*"need" + 0.004*"leaders"', '0.014*"’" + 0.006*"need" + 0.006*"Milton" + 0.006*"well" + 0.005*"Keynes" + 0.005*"leaders" + 0.005*"good" + 0.005*"impact" + 0.004*"practice" + 0.004*"October"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -2815,7 +2815,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.011*"plans" + 0.010*"needs" + 0.008*"good" + 0.007*"protection" + 0.006*"well" + 0.006*"Newcastle" + 0.006*"ensure" + 0.006*"need" + 0.006*"29"', '0.010*"’" + 0.009*"plans" + 0.007*"well" + 0.006*"needs" + 0.006*"Newcastle" + 0.005*"protection" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.005*"making"', '0.017*"’" + 0.010*"plans" + 0.009*"Newcastle" + 0.007*"protection" + 0.006*"good" + 0.006*"needs" + 0.006*"progress" + 0.006*"response" + 0.006*"well" + 0.006*"ensure"']</t>
+    <t>['0.020*"’" + 0.013*"plans" + 0.008*"well" + 0.007*"protection" + 0.007*"needs" + 0.007*"progress" + 0.007*"ensure" + 0.007*"Newcastle" + 0.007*"good" + 0.006*"planning"', '0.013*"’" + 0.009*"needs" + 0.008*"plans" + 0.008*"Newcastle" + 0.006*"protection" + 0.006*"good" + 0.006*"well" + 0.005*"response" + 0.005*"progress" + 0.005*"need"', '0.013*"’" + 0.009*"plans" + 0.007*"good" + 0.007*"needs" + 0.007*"Newcastle" + 0.006*"protection" + 0.006*"management" + 0.006*"making" + 0.005*"well" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -2836,7 +2836,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.009*"Norfolk" + 0.008*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"carers" + 0.005*"supported" + 0.005*"information" + 0.005*"18" + 0.005*"range"', '0.012*"’" + 0.007*"carers" + 0.007*"Norfolk" + 0.007*"well" + 0.005*"needs" + 0.005*"supported" + 0.005*"practice" + 0.004*"plans" + 0.004*"range" + 0.004*"effective"', '0.013*"’" + 0.009*"well" + 0.007*"Norfolk" + 0.005*"carers" + 0.005*"supported" + 0.005*"practice" + 0.005*"including" + 0.005*"needs" + 0.005*"plans" + 0.004*"effective"']</t>
+    <t>['0.011*"’" + 0.007*"well" + 0.007*"Norfolk" + 0.006*"carers" + 0.006*"needs" + 0.004*"practice" + 0.004*"range" + 0.004*"plans" + 0.004*"including" + 0.004*"progress"', '0.016*"’" + 0.008*"Norfolk" + 0.007*"well" + 0.006*"practice" + 0.006*"carers" + 0.005*"supported" + 0.005*"needs" + 0.005*"leaders" + 0.004*"plans" + 0.004*"including"', '0.020*"’" + 0.009*"well" + 0.008*"Norfolk" + 0.006*"carers" + 0.006*"needs" + 0.006*"supported" + 0.005*"practice" + 0.005*"information" + 0.005*"7" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -2866,7 +2866,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"practice" + 0.008*"planning" + 0.007*"needs" + 0.007*"risk" + 0.006*"North" + 0.006*"2021" + 0.006*"leaders" + 0.005*"need" + 0.005*"delay"', '0.013*"’" + 0.008*"leaders" + 0.008*"practice" + 0.007*"risk" + 0.005*"needs" + 0.005*"many" + 0.005*"need" + 0.005*"October" + 0.005*"plans" + 0.005*"quality"', '0.014*"’" + 0.007*"risk" + 0.006*"needs" + 0.006*"practice" + 0.005*"planning" + 0.005*"October" + 0.005*"leaders" + 0.005*"need" + 0.005*"East" + 0.005*"Lincolnshire"']</t>
+    <t>['0.014*"’" + 0.007*"practice" + 0.007*"planning" + 0.007*"risk" + 0.007*"leaders" + 0.005*"Lincolnshire" + 0.005*"need" + 0.005*"quality" + 0.005*"needs" + 0.004*"senior"', '0.015*"’" + 0.008*"practice" + 0.008*"needs" + 0.008*"leaders" + 0.007*"risk" + 0.006*"planning" + 0.005*"2021" + 0.005*"plans" + 0.005*"many" + 0.005*"North"', '0.012*"’" + 0.007*"practice" + 0.006*"need" + 0.005*"risk" + 0.005*"East" + 0.005*"many" + 0.005*"needs" + 0.004*"planning" + 0.004*"October" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -2893,7 +2893,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.009*"‘" + 0.007*"family" + 0.006*"Lincolnshire" + 0.006*"North" + 0.005*"well" + 0.005*"council" + 0.005*"leaders" + 0.005*"protection" + 0.005*"approach"', '0.020*"’" + 0.006*"need" + 0.006*"‘" + 0.006*"approach" + 0.006*"family" + 0.005*"leaders" + 0.005*"Lincolnshire" + 0.005*"10" + 0.005*"14" + 0.005*"well"', '0.015*"’" + 0.006*"‘" + 0.005*"North" + 0.004*"leaders" + 0.004*"well" + 0.004*"family" + 0.004*"10" + 0.004*"Lincolnshire" + 0.004*"need" + 0.004*"approach"']</t>
+    <t>['0.030*"’" + 0.007*"‘" + 0.006*"North" + 0.006*"family" + 0.006*"10" + 0.005*"Lincolnshire" + 0.005*"approach" + 0.005*"well" + 0.005*"leaders" + 0.005*"protection"', '0.012*"’" + 0.007*"‘" + 0.005*"family" + 0.005*"well" + 0.005*"North" + 0.005*"leaders" + 0.005*"approach" + 0.004*"need" + 0.004*"council" + 0.004*"Lincolnshire"', '0.014*"’" + 0.007*"‘" + 0.006*"Lincolnshire" + 0.006*"family" + 0.005*"leaders" + 0.005*"need" + 0.005*"approach" + 0.005*"well" + 0.005*"14" + 0.004*"10"']</t>
   </si>
   <si>
     <t>2637539</t>
@@ -2926,7 +2926,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"Northamptonshire" + 0.007*"well" + 0.005*"quality" + 0.005*"plans" + 0.005*"practice" + 0.005*"North" + 0.005*"impact" + 0.005*"Leaders" + 0.004*"experiences"', '0.016*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.006*"North" + 0.005*"well" + 0.005*"practice" + 0.005*"needs" + 0.005*"NCT" + 0.005*"2022" + 0.005*"Leaders"', '0.020*"’" + 0.008*"Northamptonshire" + 0.008*"North" + 0.006*"well" + 0.005*"needs" + 0.005*"NCT" + 0.005*"impact" + 0.005*"e" + 0.004*"practice" + 0.004*"need"']</t>
+    <t>['0.017*"’" + 0.006*"Northamptonshire" + 0.006*"North" + 0.006*"quality" + 0.005*"needs" + 0.005*"practice" + 0.005*"NCT" + 0.005*"well" + 0.005*"Leaders" + 0.005*"need"', '0.019*"’" + 0.009*"Northamptonshire" + 0.007*"North" + 0.007*"well" + 0.005*"quality" + 0.005*"Leaders" + 0.005*"plans" + 0.005*"3" + 0.005*"need" + 0.004*"14"', '0.014*"’" + 0.008*"Northamptonshire" + 0.007*"well" + 0.006*"North" + 0.005*"quality" + 0.005*"practice" + 0.005*"NCT" + 0.005*"impact" + 0.004*"October" + 0.004*"e"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -2950,7 +2950,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"quality" + 0.006*"needs" + 0.006*"always" + 0.005*"practice" + 0.005*"progress" + 0.005*"risk" + 0.005*"need" + 0.005*"effective" + 0.005*"North"', '0.019*"’" + 0.008*"needs" + 0.008*"quality" + 0.007*"always" + 0.007*"North" + 0.006*"practice" + 0.006*"Somerset" + 0.006*"number" + 0.006*"need" + 0.005*"risk"', '0.014*"’" + 0.007*"number" + 0.006*"quality" + 0.006*"Somerset" + 0.005*"progress" + 0.005*"experienced" + 0.005*"North" + 0.005*"needs" + 0.004*"always" + 0.004*"plans"']</t>
+    <t>['0.019*"’" + 0.007*"quality" + 0.006*"North" + 0.006*"practice" + 0.006*"needs" + 0.006*"always" + 0.005*"Somerset" + 0.005*"effective" + 0.005*"need" + 0.005*"oversight"', '0.017*"’" + 0.007*"needs" + 0.006*"always" + 0.006*"quality" + 0.005*"number" + 0.005*"practice" + 0.005*"progress" + 0.005*"North" + 0.005*"Somerset" + 0.004*"13"', '0.013*"’" + 0.009*"quality" + 0.007*"needs" + 0.007*"number" + 0.007*"Somerset" + 0.006*"always" + 0.006*"risk" + 0.005*"North" + 0.005*"plans" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -2974,7 +2974,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"well" + 0.005*"need" + 0.004*"needs" + 0.004*"leaders" + 0.004*"impact" + 0.004*"make" + 0.004*"early" + 0.004*"quality" + 0.003*"protection"', '0.011*"’" + 0.005*"need" + 0.004*"well" + 0.004*"leaders" + 0.004*"early" + 0.004*"clear" + 0.004*"quality" + 0.004*"understand" + 0.003*"impact" + 0.003*"family"', '0.018*"’" + 0.007*"well" + 0.007*"leaders" + 0.006*"make" + 0.006*"quality" + 0.005*"need" + 0.005*"needs" + 0.004*"impact" + 0.004*"progress" + 0.004*"good"']</t>
+    <t>['0.016*"’" + 0.005*"well" + 0.005*"leaders" + 0.005*"impact" + 0.005*"quality" + 0.004*"need" + 0.004*"make" + 0.004*"needs" + 0.003*"working" + 0.003*"clear"', '0.014*"’" + 0.008*"well" + 0.006*"leaders" + 0.006*"need" + 0.006*"make" + 0.005*"needs" + 0.005*"quality" + 0.004*"progress" + 0.004*"understand" + 0.004*"impact"', '0.017*"’" + 0.006*"well" + 0.005*"need" + 0.005*"leaders" + 0.004*"early" + 0.004*"make" + 0.004*"quality" + 0.004*"needs" + 0.004*"progress" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80530</t>
@@ -3001,7 +3001,7 @@
     <t>18/08/23</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"well" + 0.006*"Yorkshire" + 0.006*"needs" + 0.005*"practice" + 0.005*"family" + 0.005*"North" + 0.004*"2023" + 0.004*"need" + 0.004*"supported"', '0.016*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"North" + 0.005*"practice" + 0.004*"‘" + 0.004*"family" + 0.004*"Yorkshire" + 0.004*"make" + 0.003*"supported"', '0.024*"’" + 0.010*"well" + 0.008*"North" + 0.007*"practice" + 0.007*"Yorkshire" + 0.007*"family" + 0.005*"‘" + 0.005*"3" + 0.005*"needs" + 0.005*"7"']</t>
+    <t>['0.019*"’" + 0.007*"Yorkshire" + 0.006*"needs" + 0.006*"well" + 0.006*"practice" + 0.005*"family" + 0.005*"3" + 0.005*"North" + 0.005*"‘" + 0.004*"7"', '0.024*"’" + 0.009*"well" + 0.006*"family" + 0.006*"North" + 0.005*"Yorkshire" + 0.005*"‘" + 0.005*"needs" + 0.005*"practice" + 0.004*"supported" + 0.004*"make"', '0.018*"’" + 0.009*"well" + 0.008*"North" + 0.007*"practice" + 0.006*"Yorkshire" + 0.005*"family" + 0.005*"needs" + 0.005*"ensure" + 0.004*"3" + 0.004*"‘"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -3025,7 +3025,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.011*"needs" + 0.009*"well" + 0.007*"need" + 0.007*"good" + 0.006*"impact" + 0.006*"experiences" + 0.005*"education" + 0.005*"practice" + 0.005*"leaders"', '0.022*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"good" + 0.006*"practice" + 0.005*"quality" + 0.005*"experiences" + 0.005*"need" + 0.004*"education" + 0.004*"impact"', '0.019*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"good" + 0.006*"need" + 0.006*"experiences" + 0.005*"impact" + 0.004*"quality" + 0.004*"strong" + 0.004*"education"']</t>
+    <t>['0.023*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"good" + 0.006*"need" + 0.004*"training" + 0.004*"impact" + 0.004*"quality" + 0.004*"leaders" + 0.004*"practice"', '0.021*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"good" + 0.006*"need" + 0.006*"experiences" + 0.006*"education" + 0.005*"practice" + 0.005*"quality" + 0.004*"always"', '0.022*"’" + 0.011*"needs" + 0.011*"well" + 0.008*"good" + 0.006*"impact" + 0.006*"need" + 0.006*"experiences" + 0.006*"practice" + 0.005*"quality" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3052,7 +3052,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.006*"effective" + 0.006*"plans" + 0.005*"Nottingham" + 0.005*"impact" + 0.005*"practice" + 0.005*"City" + 0.005*"protection" + 0.005*"risk"', '0.012*"’" + 0.008*"needs" + 0.006*"effective" + 0.006*"Nottingham" + 0.005*"oversight" + 0.005*"plans" + 0.005*"City" + 0.005*"impact" + 0.004*"11" + 0.004*"However"', '0.012*"’" + 0.007*"needs" + 0.006*"Nottingham" + 0.005*"plans" + 0.004*"significant" + 0.004*"11" + 0.004*"impact" + 0.004*"risk" + 0.004*"practice" + 0.004*"good"']</t>
+    <t>['0.012*"’" + 0.008*"needs" + 0.006*"effective" + 0.006*"11" + 0.005*"plans" + 0.005*"Nottingham" + 0.005*"oversight" + 0.005*"City" + 0.005*"impact" + 0.004*"practice"', '0.014*"’" + 0.008*"needs" + 0.006*"Nottingham" + 0.005*"plans" + 0.005*"impact" + 0.005*"However" + 0.005*"effective" + 0.005*"City" + 0.005*"protection" + 0.005*"oversight"', '0.015*"’" + 0.008*"needs" + 0.006*"Nottingham" + 0.005*"effective" + 0.005*"plans" + 0.005*"impact" + 0.004*"July" + 0.004*"risk" + 0.004*"2022" + 0.004*"oversight"']</t>
   </si>
   <si>
     <t>80534</t>
@@ -3073,7 +3073,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"practice" + 0.008*"well" + 0.007*"ensure" + 0.007*"needs" + 0.006*"plans" + 0.006*"progress" + 0.005*"made" + 0.005*"receive" + 0.005*"quality"', '0.015*"’" + 0.008*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"receive" + 0.005*"carers" + 0.005*"quality" + 0.005*"good" + 0.004*"areas" + 0.004*"plans"', '0.009*"’" + 0.007*"practice" + 0.007*"well" + 0.005*"areas" + 0.005*"meetings" + 0.005*"quality" + 0.005*"plans" + 0.005*"e" + 0.004*"made" + 0.004*"progress"']</t>
+    <t>['0.014*"’" + 0.009*"practice" + 0.007*"well" + 0.006*"plans" + 0.006*"progress" + 0.005*"needs" + 0.005*"made" + 0.005*"receive" + 0.005*"quality" + 0.005*"placements"', '0.010*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"ensure" + 0.006*"needs" + 0.005*"quality" + 0.005*"carers" + 0.004*"receive" + 0.004*"areas" + 0.004*"e"', '0.013*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"receive" + 0.005*"made" + 0.005*"plans" + 0.005*"e" + 0.005*"progress" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3103,7 +3103,7 @@
     <t>04/03/19</t>
   </si>
   <si>
-    <t>['0.010*"good" + 0.010*"’" + 0.009*"practice" + 0.008*"needs" + 0.007*"effective" + 0.007*"planning" + 0.006*"quality" + 0.006*"well" + 0.006*"plans" + 0.006*"progress"', '0.012*"’" + 0.010*"practice" + 0.010*"needs" + 0.009*"good" + 0.009*"effective" + 0.007*"well" + 0.007*"quality" + 0.007*"progress" + 0.007*"plans" + 0.006*"planning"', '0.010*"’" + 0.008*"needs" + 0.008*"good" + 0.007*"effective" + 0.006*"practice" + 0.006*"progress" + 0.005*"planning" + 0.005*"quality" + 0.005*"well" + 0.005*"impact"']</t>
+    <t>['0.010*"’" + 0.008*"practice" + 0.008*"needs" + 0.007*"good" + 0.007*"effective" + 0.006*"plans" + 0.006*"well" + 0.005*"quality" + 0.005*"progress" + 0.005*"impact"', '0.012*"’" + 0.011*"needs" + 0.009*"practice" + 0.009*"effective" + 0.008*"good" + 0.007*"well" + 0.006*"quality" + 0.006*"plans" + 0.006*"planning" + 0.006*"progress"', '0.011*"good" + 0.010*"’" + 0.008*"practice" + 0.008*"needs" + 0.008*"effective" + 0.007*"progress" + 0.007*"planning" + 0.007*"quality" + 0.005*"risk" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3133,7 +3133,7 @@
     <t>0.1848</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"needs" + 0.005*"good" + 0.005*"early" + 0.005*"including" + 0.005*"number" + 0.004*"education" + 0.004*"plans" + 0.004*"protection" + 0.004*"effective"', '0.013*"’" + 0.008*"needs" + 0.006*"good" + 0.005*"effective" + 0.005*"early" + 0.005*"number" + 0.005*"Oxfordshire" + 0.004*"response" + 0.004*"quality" + 0.004*"education"', '0.014*"’" + 0.011*"needs" + 0.007*"number" + 0.007*"good" + 0.006*"plans" + 0.006*"protection" + 0.005*"response" + 0.005*"early" + 0.004*"quality" + 0.004*"Oxfordshire"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.008*"good" + 0.007*"number" + 0.006*"plans" + 0.005*"protection" + 0.005*"effective" + 0.005*"response" + 0.005*"early" + 0.004*"quality"', '0.013*"’" + 0.009*"needs" + 0.005*"early" + 0.005*"good" + 0.005*"response" + 0.005*"education" + 0.005*"number" + 0.004*"quality" + 0.004*"plans" + 0.004*"protection"', '0.009*"needs" + 0.008*"’" + 0.006*"good" + 0.006*"number" + 0.005*"early" + 0.005*"Oxfordshire" + 0.004*"protection" + 0.004*"response" + 0.004*"live" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3160,7 +3160,7 @@
     <t>30/01/24</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.012*"needs" + 0.007*"progress" + 0.006*"need" + 0.006*"2023" + 0.005*"supported" + 0.005*"well" + 0.005*"Peterborough" + 0.005*"appropriate" + 0.005*"8"', '0.018*"’" + 0.016*"needs" + 0.009*"Peterborough" + 0.008*"need" + 0.007*"well" + 0.007*"2023" + 0.006*"progress" + 0.006*"plans" + 0.006*"27" + 0.005*"good"', '0.011*"needs" + 0.010*"’" + 0.006*"Peterborough" + 0.006*"need" + 0.006*"8" + 0.005*"well" + 0.005*"2023" + 0.005*"progress" + 0.004*"plans" + 0.004*"good"']</t>
+    <t>['0.013*"’" + 0.013*"needs" + 0.007*"Peterborough" + 0.006*"need" + 0.006*"2023" + 0.006*"well" + 0.006*"progress" + 0.006*"supported" + 0.005*"receive" + 0.005*"plans"', '0.014*"’" + 0.013*"needs" + 0.008*"need" + 0.007*"Peterborough" + 0.007*"2023" + 0.007*"well" + 0.006*"progress" + 0.006*"8" + 0.005*"plans" + 0.005*"good"', '0.016*"’" + 0.013*"needs" + 0.007*"Peterborough" + 0.007*"need" + 0.006*"progress" + 0.006*"well" + 0.006*"2023" + 0.006*"supported" + 0.005*"8" + 0.005*"27"']</t>
   </si>
   <si>
     <t>80538</t>
@@ -3187,7 +3187,7 @@
     <t>15/03/24</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"Plymouth" + 0.007*"well" + 0.007*"needs" + 0.005*"education" + 0.005*"22" + 0.004*"January" + 0.004*"practice" + 0.004*"plans" + 0.004*"February"', '0.012*"’" + 0.009*"needs" + 0.007*"Plymouth" + 0.006*"well" + 0.005*"always" + 0.005*"practice" + 0.005*"appropriate" + 0.005*"City" + 0.005*"timely" + 0.005*"2024"', '0.015*"’" + 0.009*"needs" + 0.008*"well" + 0.006*"practice" + 0.006*"Plymouth" + 0.005*"2" + 0.005*"plans" + 0.005*"education" + 0.004*"22" + 0.004*"February"']</t>
+    <t>['0.010*"’" + 0.007*"needs" + 0.005*"well" + 0.005*"Plymouth" + 0.005*"practice" + 0.004*"quality" + 0.004*"February" + 0.004*"2" + 0.004*"appropriate" + 0.004*"education"', '0.013*"’" + 0.009*"Plymouth" + 0.008*"needs" + 0.008*"well" + 0.006*"practice" + 0.005*"2" + 0.005*"good" + 0.005*"Council" + 0.004*"benefit" + 0.004*"22"', '0.014*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"appropriate" + 0.005*"Plymouth" + 0.005*"January" + 0.005*"practice" + 0.005*"education" + 0.005*"22"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3217,7 +3217,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"care-experienced" + 0.006*"needs" + 0.006*"well" + 0.006*"Portsmouth" + 0.005*"health" + 0.004*"family" + 0.004*"leaders" + 0.004*"plans" + 0.004*"progress"', '0.015*"’" + 0.008*"care-experienced" + 0.008*"needs" + 0.007*"well" + 0.006*"Portsmouth" + 0.006*"family" + 0.005*"plans" + 0.005*"practice" + 0.005*"health" + 0.004*"need"', '0.020*"’" + 0.008*"care-experienced" + 0.007*"well" + 0.007*"Portsmouth" + 0.006*"plans" + 0.006*"health" + 0.006*"family" + 0.005*"needs" + 0.005*"leaders" + 0.005*"practice"']</t>
+    <t>['0.020*"’" + 0.008*"Portsmouth" + 0.007*"care-experienced" + 0.007*"well" + 0.006*"needs" + 0.005*"family" + 0.005*"health" + 0.005*"practice" + 0.005*"plans" + 0.005*"progress"', '0.017*"’" + 0.008*"care-experienced" + 0.008*"needs" + 0.008*"Portsmouth" + 0.007*"well" + 0.005*"health" + 0.005*"plans" + 0.005*"family" + 0.005*"leaders" + 0.004*"need"', '0.014*"’" + 0.008*"care-experienced" + 0.008*"well" + 0.006*"family" + 0.005*"needs" + 0.005*"plans" + 0.005*"health" + 0.004*"progress" + 0.004*"Portsmouth" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3250,7 +3250,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"number" + 0.008*"quality" + 0.006*"plans" + 0.006*"well" + 0.006*"effective" + 0.006*"good" + 0.006*"need" + 0.005*"timely" + 0.005*"However"', '0.015*"’" + 0.006*"well" + 0.006*"plans" + 0.006*"good" + 0.005*"number" + 0.005*"quality" + 0.005*"effective" + 0.004*"need" + 0.004*"practice" + 0.004*"ensure"', '0.015*"’" + 0.006*"well" + 0.006*"plans" + 0.005*"quality" + 0.005*"need" + 0.005*"number" + 0.005*"However" + 0.005*"good" + 0.005*"carers" + 0.004*"always"']</t>
+    <t>['0.016*"’" + 0.007*"well" + 0.006*"number" + 0.006*"plans" + 0.006*"quality" + 0.005*"always" + 0.005*"good" + 0.005*"However" + 0.005*"effective" + 0.004*"needs"', '0.013*"’" + 0.009*"quality" + 0.008*"number" + 0.006*"effective" + 0.005*"well" + 0.005*"plans" + 0.005*"timely" + 0.005*"need" + 0.004*"always" + 0.004*"carers"', '0.018*"’" + 0.007*"plans" + 0.007*"good" + 0.006*"number" + 0.006*"well" + 0.006*"need" + 0.005*"quality" + 0.005*"practice" + 0.005*"arrangements" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3271,7 +3271,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"leaders" + 0.006*"consistently" + 0.006*"needs" + 0.005*"However" + 0.005*"Cleveland" + 0.005*"plans" + 0.005*"2022" + 0.005*"Redcar" + 0.005*"practice"', '0.016*"’" + 0.007*"plans" + 0.006*"leaders" + 0.006*"20" + 0.006*"needs" + 0.006*"However" + 0.005*"risk" + 0.005*"consistently" + 0.005*"July" + 0.004*"2022"', '0.021*"’" + 0.006*"practice" + 0.006*"However" + 0.006*"leaders" + 0.005*"needs" + 0.005*"plans" + 0.005*"2022" + 0.005*"consistently" + 0.004*"carers" + 0.004*"Cleveland"']</t>
+    <t>['0.017*"’" + 0.006*"leaders" + 0.006*"plans" + 0.005*"consistently" + 0.005*"needs" + 0.005*"However" + 0.005*"July" + 0.005*"20" + 0.004*"carers" + 0.004*"2022"', '0.018*"’" + 0.006*"leaders" + 0.006*"However" + 0.006*"practice" + 0.006*"plans" + 0.006*"needs" + 0.005*"2022" + 0.005*"Cleveland" + 0.004*"risk" + 0.004*"consistently"', '0.017*"’" + 0.006*"leaders" + 0.006*"consistently" + 0.006*"needs" + 0.006*"However" + 0.006*"20" + 0.005*"plans" + 0.005*"Redcar" + 0.005*"Cleveland" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3298,7 +3298,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.012*"experienced" + 0.007*"practice" + 0.007*"needs" + 0.007*"plans" + 0.006*"response" + 0.006*"quality" + 0.006*"consistently" + 0.005*"good" + 0.005*"23"', '0.016*"’" + 0.010*"needs" + 0.009*"practice" + 0.008*"experienced" + 0.006*"good" + 0.006*"response" + 0.006*"plans" + 0.005*"consistently" + 0.005*"Rochdale" + 0.005*"quality"', '0.017*"’" + 0.007*"experienced" + 0.007*"practice" + 0.005*"response" + 0.005*"Rochdale" + 0.004*"consistently" + 0.004*"plans" + 0.004*"needs" + 0.004*"need" + 0.004*"3"']</t>
+    <t>['0.019*"’" + 0.011*"experienced" + 0.006*"practice" + 0.006*"needs" + 0.006*"response" + 0.006*"plans" + 0.005*"quality" + 0.005*"consistently" + 0.005*"3" + 0.004*"Rochdale"', '0.019*"’" + 0.009*"needs" + 0.008*"experienced" + 0.007*"practice" + 0.006*"plans" + 0.005*"consistently" + 0.005*"Rochdale" + 0.005*"well" + 0.005*"quality" + 0.004*"response"', '0.023*"’" + 0.010*"experienced" + 0.010*"practice" + 0.008*"needs" + 0.007*"response" + 0.006*"good" + 0.006*"plans" + 0.006*"consistently" + 0.005*"quality" + 0.005*"Rochdale"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3322,7 +3322,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"Rotherham" + 0.006*"well" + 0.005*"ensure" + 0.005*"Council" + 0.005*"needs" + 0.005*"Borough" + 0.005*"plans" + 0.004*"good" + 0.004*"protection"', '0.012*"’" + 0.010*"Rotherham" + 0.008*"needs" + 0.005*"However" + 0.005*"well" + 0.004*"good" + 0.004*"27" + 0.004*"June" + 0.004*"clear" + 0.004*"Metropolitan"', '0.017*"’" + 0.007*"Rotherham" + 0.006*"needs" + 0.006*"good" + 0.005*"plans" + 0.005*"Council" + 0.005*"well" + 0.005*"ensure" + 0.004*"However" + 0.004*"Metropolitan"']</t>
+    <t>['0.008*"’" + 0.007*"Rotherham" + 0.004*"1" + 0.004*"good" + 0.004*"ensure" + 0.004*"needs" + 0.004*"well" + 0.004*"protection" + 0.004*"June" + 0.003*"clear"', '0.016*"’" + 0.009*"Rotherham" + 0.006*"needs" + 0.006*"well" + 0.006*"good" + 0.005*"plans" + 0.005*"ensure" + 0.005*"Council" + 0.005*"However" + 0.005*"27"', '0.018*"’" + 0.009*"Rotherham" + 0.008*"needs" + 0.006*"Council" + 0.005*"well" + 0.005*"However" + 0.004*"Borough" + 0.004*"clear" + 0.004*"good" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3346,7 +3346,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.014*"well" + 0.012*"’" + 0.010*"practice" + 0.006*"strong" + 0.005*"leaders" + 0.005*"needs" + 0.005*"highly" + 0.004*"effective" + 0.004*"range" + 0.004*"high"', '0.012*"’" + 0.010*"well" + 0.009*"practice" + 0.009*"highly" + 0.007*"effective" + 0.006*"strong" + 0.005*"needs" + 0.004*"leaders" + 0.004*"improve" + 0.004*"high"', '0.016*"well" + 0.012*"practice" + 0.011*"’" + 0.008*"highly" + 0.007*"strong" + 0.006*"needs" + 0.005*"high" + 0.005*"leaders" + 0.005*"need" + 0.005*"effective"']</t>
+    <t>['0.014*"well" + 0.011*"’" + 0.009*"practice" + 0.006*"highly" + 0.006*"strong" + 0.005*"needs" + 0.005*"effective" + 0.004*"leaders" + 0.004*"progress" + 0.004*"high"', '0.014*"well" + 0.012*"’" + 0.011*"practice" + 0.008*"highly" + 0.007*"needs" + 0.006*"effective" + 0.006*"strong" + 0.005*"timely" + 0.005*"high" + 0.004*"leaders"', '0.013*"well" + 0.012*"practice" + 0.011*"’" + 0.007*"strong" + 0.007*"highly" + 0.006*"leaders" + 0.005*"effective" + 0.005*"professionals" + 0.004*"high" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3373,7 +3373,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"needs" + 0.005*"clear" + 0.004*"supported" + 0.004*"good" + 0.004*"effective" + 0.004*"appropriate" + 0.004*"parents"', '0.012*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"plans" + 0.005*"practice" + 0.004*"effective" + 0.004*"need" + 0.004*"supported" + 0.004*"range" + 0.004*"good"', '0.015*"’" + 0.009*"well" + 0.009*"plans" + 0.008*"needs" + 0.006*"good" + 0.005*"need" + 0.005*"effective" + 0.005*"practice" + 0.005*"parents" + 0.005*"risk"']</t>
+    <t>['0.013*"’" + 0.008*"plans" + 0.008*"needs" + 0.007*"well" + 0.005*"supported" + 0.005*"need" + 0.005*"good" + 0.004*"clear" + 0.004*"effective" + 0.004*"risk"', '0.014*"’" + 0.011*"well" + 0.007*"plans" + 0.007*"needs" + 0.006*"good" + 0.005*"effective" + 0.005*"clear" + 0.004*"appropriate" + 0.004*"need" + 0.004*"parents"', '0.012*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"needs" + 0.005*"good" + 0.005*"practice" + 0.004*"range" + 0.004*"effective" + 0.004*"progress" + 0.004*"Kingston"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3400,7 +3400,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.005*"quality" + 0.004*"needs" + 0.004*"use" + 0.004*"plans" + 0.004*"well" + 0.004*"always" + 0.004*"management" + 0.004*"effective" + 0.004*"information"', '0.008*"’" + 0.006*"well" + 0.005*"quality" + 0.005*"needs" + 0.004*"benefit" + 0.004*"information" + 0.004*"health" + 0.004*"plans" + 0.003*"effective" + 0.003*"informed"', '0.012*"’" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"benefit" + 0.004*"quality" + 0.004*"effective" + 0.004*"information" + 0.004*"good" + 0.004*"use"']</t>
+    <t>['0.008*"’" + 0.004*"information" + 0.004*"needs" + 0.004*"health" + 0.004*"quality" + 0.003*"family" + 0.003*"well" + 0.003*"However" + 0.003*"benefit" + 0.003*"always"', '0.013*"’" + 0.007*"well" + 0.005*"plans" + 0.005*"quality" + 0.005*"needs" + 0.004*"information" + 0.004*"actions" + 0.004*"use" + 0.004*"effective" + 0.004*"health"', '0.012*"’" + 0.005*"well" + 0.005*"needs" + 0.005*"quality" + 0.005*"benefit" + 0.004*"plans" + 0.004*"effective" + 0.004*"always" + 0.004*"use" + 0.004*"case"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3421,7 +3421,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"need" + 0.007*"team" + 0.006*"practice" + 0.006*"enough" + 0.006*"ensure" + 0.006*"plans"', '0.012*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"good" + 0.006*"team" + 0.006*"practice" + 0.005*"effective" + 0.005*"plans" + 0.005*"enough" + 0.004*"protection"', '0.014*"’" + 0.010*"well" + 0.010*"needs" + 0.007*"need" + 0.007*"good" + 0.007*"protection" + 0.006*"team" + 0.006*"ensure" + 0.006*"practice" + 0.006*"effective"']</t>
+    <t>['0.012*"’" + 0.010*"well" + 0.010*"needs" + 0.007*"practice" + 0.007*"good" + 0.006*"team" + 0.006*"effective" + 0.006*"enough" + 0.005*"protection" + 0.005*"ensure"', '0.014*"’" + 0.009*"needs" + 0.008*"good" + 0.008*"well" + 0.007*"need" + 0.006*"practice" + 0.005*"team" + 0.005*"plans" + 0.005*"sufficiently" + 0.005*"protection"', '0.012*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"team" + 0.007*"need" + 0.007*"good" + 0.006*"plans" + 0.006*"enough" + 0.006*"ensure" + 0.005*"protection"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3445,7 +3445,7 @@
     <t>0.2045</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"plans" + 0.007*"needs" + 0.005*"well" + 0.005*"quality" + 0.005*"effective" + 0.005*"practice" + 0.005*"Salford" + 0.005*"2023" + 0.004*"6"', '0.014*"’" + 0.008*"plans" + 0.008*"well" + 0.007*"Salford" + 0.007*"effective" + 0.007*"needs" + 0.006*"planning" + 0.005*"leaders" + 0.005*"appropriate" + 0.005*"practice"', '0.013*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"effective" + 0.007*"plans" + 0.005*"planning" + 0.004*"Salford" + 0.004*"leaders" + 0.004*"experiences" + 0.004*"practice"']</t>
+    <t>['0.019*"’" + 0.009*"plans" + 0.008*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"Salford" + 0.006*"planning" + 0.006*"practice" + 0.005*"experiences" + 0.005*"6"', '0.009*"’" + 0.007*"needs" + 0.007*"plans" + 0.006*"well" + 0.005*"planning" + 0.005*"effective" + 0.005*"Salford" + 0.004*"practice" + 0.004*"appropriate" + 0.004*"progress"', '0.011*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"well" + 0.006*"Salford" + 0.006*"effective" + 0.005*"leaders" + 0.005*"2023" + 0.005*"10" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3466,7 +3466,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"well" + 0.007*"Sandwell" + 0.007*"quality" + 0.005*"20" + 0.005*"number" + 0.005*"9" + 0.005*"Trust"', '0.017*"’" + 0.008*"Sandwell" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"Trust" + 0.005*"education" + 0.005*"quality" + 0.004*"number" + 0.004*"effective"', '0.012*"’" + 0.007*"needs" + 0.007*"plans" + 0.007*"Sandwell" + 0.006*"well" + 0.005*"quality" + 0.005*"progress" + 0.004*"education" + 0.004*"9" + 0.004*"effective"']</t>
+    <t>['0.013*"’" + 0.006*"Sandwell" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"quality" + 0.004*"effective" + 0.004*"9" + 0.004*"changes" + 0.004*"progress"', '0.015*"’" + 0.010*"needs" + 0.009*"plans" + 0.008*"Sandwell" + 0.007*"well" + 0.006*"quality" + 0.005*"Trust" + 0.005*"20" + 0.005*"May" + 0.004*"progress"', '0.014*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Sandwell" + 0.006*"plans" + 0.006*"quality" + 0.005*"9" + 0.005*"Trust" + 0.005*"effective" + 0.005*"changes"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3487,7 +3487,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"oversight" + 0.006*"lack" + 0.005*"management" + 0.005*"needs" + 0.005*"practice" + 0.005*"4" + 0.005*"Sefton" + 0.004*"including" + 0.004*"l"', '0.020*"’" + 0.011*"needs" + 0.007*"practice" + 0.005*"oversight" + 0.005*"including" + 0.005*"Sefton" + 0.005*"◼" + 0.005*"plans" + 0.004*"21" + 0.004*"many"', '0.015*"’" + 0.011*"needs" + 0.006*"protection" + 0.005*"practice" + 0.005*"oversight" + 0.005*"many" + 0.005*"lack" + 0.005*"management" + 0.005*"including" + 0.005*"◼"']</t>
+    <t>['0.019*"’" + 0.010*"needs" + 0.007*"practice" + 0.006*"including" + 0.006*"Sefton" + 0.005*"protection" + 0.005*"oversight" + 0.005*"many" + 0.005*"management" + 0.005*"lack"', '0.016*"’" + 0.010*"needs" + 0.006*"oversight" + 0.006*"always" + 0.005*"timely" + 0.005*"March" + 0.005*"identified" + 0.005*"lack" + 0.005*"plans" + 0.004*"many"', '0.010*"’" + 0.008*"needs" + 0.006*"practice" + 0.005*"◼" + 0.005*"lack" + 0.005*"oversight" + 0.005*"protection" + 0.004*"management" + 0.004*"February" + 0.004*"always"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3517,7 +3517,7 @@
     <t>0.2097</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.013*"Sheffield" + 0.008*"needs" + 0.007*"well" + 0.005*"health" + 0.005*"plans" + 0.005*"practice" + 0.005*"effective" + 0.004*"quality" + 0.004*"leaders"', '0.018*"’" + 0.010*"Sheffield" + 0.008*"needs" + 0.007*"well" + 0.006*"leaders" + 0.005*"adviser" + 0.005*"practice" + 0.005*"experiences" + 0.004*"health" + 0.004*"receive"', '0.022*"’" + 0.010*"Sheffield" + 0.010*"needs" + 0.007*"practice" + 0.006*"well" + 0.006*"health" + 0.006*"leaders" + 0.005*"quality" + 0.005*"good" + 0.004*"22"']</t>
+    <t>['0.019*"’" + 0.008*"Sheffield" + 0.007*"needs" + 0.005*"health" + 0.004*"leaders" + 0.004*"experiences" + 0.004*"quality" + 0.004*"personal" + 0.004*"good" + 0.004*"practice"', '0.023*"’" + 0.014*"Sheffield" + 0.011*"needs" + 0.009*"well" + 0.007*"practice" + 0.007*"leaders" + 0.006*"health" + 0.005*"good" + 0.005*"adviser" + 0.005*"quality"', '0.017*"’" + 0.008*"Sheffield" + 0.006*"needs" + 0.005*"well" + 0.005*"practice" + 0.005*"leaders" + 0.005*"plans" + 0.005*"11" + 0.004*"quality" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3544,7 +3544,7 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"Shropshire" + 0.005*"progress" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"making" + 0.005*"effective" + 0.005*"leaders"', '0.017*"’" + 0.007*"needs" + 0.006*"Shropshire" + 0.005*"well" + 0.004*"2022" + 0.004*"practice" + 0.004*"February" + 0.004*"progress" + 0.004*"plans" + 0.004*"making"', '0.016*"’" + 0.007*"Shropshire" + 0.007*"progress" + 0.007*"needs" + 0.007*"well" + 0.007*"plans" + 0.006*"2022" + 0.006*"making" + 0.005*"7" + 0.005*"training"']</t>
+    <t>['0.018*"’" + 0.008*"needs" + 0.007*"progress" + 0.007*"well" + 0.006*"Shropshire" + 0.006*"2022" + 0.005*"training" + 0.005*"plans" + 0.004*"7" + 0.004*"effective"', '0.017*"’" + 0.008*"needs" + 0.008*"Shropshire" + 0.007*"well" + 0.006*"plans" + 0.005*"progress" + 0.005*"making" + 0.005*"leaders" + 0.004*"11" + 0.004*"practice"', '0.016*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"making" + 0.006*"Shropshire" + 0.005*"7" + 0.005*"plans" + 0.005*"2022" + 0.004*"progress" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3565,7 +3565,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.011*"Slough" + 0.006*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"practice" + 0.005*"need" + 0.005*"3" + 0.004*"23" + 0.004*"January"', '0.014*"’" + 0.007*"Slough" + 0.006*"leaders" + 0.005*"plans" + 0.005*"needs" + 0.004*"practice" + 0.004*"23" + 0.004*"quality" + 0.004*"However" + 0.004*"supported"', '0.016*"’" + 0.007*"needs" + 0.007*"quality" + 0.007*"plans" + 0.006*"practice" + 0.006*"Slough" + 0.006*"impact" + 0.005*"3" + 0.005*"supported" + 0.005*"February"']</t>
+    <t>['0.017*"’" + 0.009*"Slough" + 0.007*"practice" + 0.007*"plans" + 0.006*"quality" + 0.006*"needs" + 0.005*"3" + 0.005*"supported" + 0.005*"senior" + 0.005*"need"', '0.013*"’" + 0.008*"Slough" + 0.007*"needs" + 0.006*"quality" + 0.005*"plans" + 0.005*"impact" + 0.005*"practice" + 0.004*"supported" + 0.004*"However" + 0.004*"leaders"', '0.015*"’" + 0.006*"plans" + 0.006*"Slough" + 0.005*"leaders" + 0.005*"needs" + 0.005*"quality" + 0.005*"impact" + 0.005*"practice" + 0.005*"3" + 0.004*"23"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3586,7 +3586,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.012*"lack" + 0.008*"2022" + 0.006*"Solihull" + 0.006*"effective" + 0.006*"need" + 0.006*"significant" + 0.006*"quality" + 0.005*"means" + 0.005*"risk"', '0.018*"’" + 0.012*"lack" + 0.008*"2022" + 0.007*"risk" + 0.007*"need" + 0.006*"Solihull" + 0.006*"experiences" + 0.005*"quality" + 0.005*"delay" + 0.005*"practice"', '0.011*"’" + 0.008*"2022" + 0.007*"lack" + 0.006*"practice" + 0.005*"Solihull" + 0.005*"need" + 0.005*"quality" + 0.005*"significant" + 0.004*"experiences" + 0.004*"risk"']</t>
+    <t>['0.014*"’" + 0.010*"lack" + 0.008*"2022" + 0.007*"need" + 0.007*"risk" + 0.006*"Solihull" + 0.006*"practice" + 0.006*"effective" + 0.005*"significant" + 0.005*"11"', '0.018*"’" + 0.011*"lack" + 0.009*"2022" + 0.007*"quality" + 0.006*"Solihull" + 0.005*"experiences" + 0.005*"need" + 0.005*"significant" + 0.005*"timely" + 0.005*"risk"', '0.012*"’" + 0.009*"lack" + 0.008*"2022" + 0.006*"Solihull" + 0.005*"need" + 0.005*"risk" + 0.005*"means" + 0.005*"experiences" + 0.004*"practice" + 0.004*"quality"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3607,7 +3607,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"Somerset" + 0.007*"good" + 0.007*"plans" + 0.006*"practice" + 0.006*"leaders" + 0.005*"including" + 0.005*"number"', '0.014*"’" + 0.009*"well" + 0.009*"needs" + 0.006*"Somerset" + 0.005*"supported" + 0.005*"good" + 0.005*"need" + 0.005*"plans" + 0.005*"family" + 0.005*"health"', '0.016*"’" + 0.009*"well" + 0.006*"supported" + 0.006*"needs" + 0.006*"plans" + 0.005*"leaders" + 0.005*"including" + 0.005*"progress" + 0.005*"Somerset" + 0.005*"effective"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"Somerset" + 0.006*"including" + 0.006*"plans" + 0.005*"practice" + 0.005*"good" + 0.005*"health" + 0.005*"leaders"', '0.015*"’" + 0.007*"well" + 0.007*"Somerset" + 0.007*"needs" + 0.005*"good" + 0.005*"plans" + 0.005*"understand" + 0.005*"number" + 0.005*"practice" + 0.005*"need"', '0.019*"’" + 0.011*"well" + 0.009*"needs" + 0.007*"plans" + 0.006*"Somerset" + 0.006*"progress" + 0.006*"good" + 0.006*"supported" + 0.006*"leaders" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3628,7 +3628,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.008*"plans" + 0.007*"well" + 0.007*"’" + 0.007*"leaders" + 0.007*"quality" + 0.007*"good" + 0.005*"timely" + 0.005*"progress" + 0.005*"timeliness" + 0.004*"needs"', '0.012*"well" + 0.012*"quality" + 0.009*"’" + 0.008*"leaders" + 0.008*"plans" + 0.007*"good" + 0.006*"timely" + 0.005*"range" + 0.005*"progress" + 0.005*"◼"', '0.012*"well" + 0.011*"quality" + 0.010*"’" + 0.009*"leaders" + 0.007*"needs" + 0.007*"plans" + 0.006*"timely" + 0.006*"good" + 0.006*"progress" + 0.005*"Senior"']</t>
+    <t>['0.012*"well" + 0.011*"quality" + 0.009*"’" + 0.009*"plans" + 0.009*"leaders" + 0.008*"good" + 0.007*"needs" + 0.006*"timely" + 0.005*"Senior" + 0.005*"progress"', '0.008*"leaders" + 0.008*"quality" + 0.008*"well" + 0.007*"’" + 0.006*"plans" + 0.006*"progress" + 0.006*"good" + 0.005*"timely" + 0.005*"◼" + 0.005*"timeliness"', '0.012*"well" + 0.011*"quality" + 0.009*"’" + 0.007*"leaders" + 0.007*"plans" + 0.007*"good" + 0.006*"timely" + 0.005*"needs" + 0.004*"progress" + 0.004*"always"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -3658,7 +3658,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.008*"needs" + 0.008*"South" + 0.005*"However" + 0.005*"management" + 0.005*"Tyneside" + 0.005*"2023" + 0.005*"practice" + 0.004*"oversight" + 0.004*"5"', '0.025*"’" + 0.011*"needs" + 0.009*"Tyneside" + 0.007*"South" + 0.006*"carers" + 0.006*"effective" + 0.006*"oversight" + 0.005*"2022" + 0.005*"15" + 0.005*"However"', '0.024*"’" + 0.007*"needs" + 0.007*"South" + 0.007*"Tyneside" + 0.005*"9" + 0.005*"oversight" + 0.005*"carers" + 0.005*"risk" + 0.005*"protection" + 0.005*"5"']</t>
+    <t>['0.024*"’" + 0.008*"South" + 0.008*"needs" + 0.007*"Tyneside" + 0.005*"management" + 0.005*"2023" + 0.005*"carers" + 0.005*"December" + 0.005*"oversight" + 0.004*"effective"', '0.024*"’" + 0.011*"needs" + 0.009*"Tyneside" + 0.006*"South" + 0.006*"However" + 0.005*"practice" + 0.005*"oversight" + 0.005*"5" + 0.005*"9" + 0.005*"2022"', '0.023*"’" + 0.007*"South" + 0.007*"needs" + 0.006*"Tyneside" + 0.006*"effective" + 0.005*"carers" + 0.005*"oversight" + 0.005*"management" + 0.005*"progress" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -3685,7 +3685,7 @@
     <t>28/07/23</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"Southampton" + 0.005*"plans" + 0.004*"well" + 0.004*"progress" + 0.004*"provide" + 0.004*"timely" + 0.003*"improve" + 0.003*"5" + 0.003*"needs"', '0.016*"’" + 0.006*"including" + 0.005*"Southampton" + 0.005*"plans" + 0.005*"progress" + 0.005*"5" + 0.004*"16" + 0.004*"experiences" + 0.004*"needs" + 0.004*"2023"', '0.019*"’" + 0.007*"plans" + 0.006*"improve" + 0.005*"Southampton" + 0.005*"needs" + 0.005*"progress" + 0.005*"5" + 0.004*"experiences" + 0.004*"June" + 0.004*"good"']</t>
+    <t>['0.016*"’" + 0.006*"Southampton" + 0.005*"including" + 0.005*"plans" + 0.005*"well" + 0.004*"needs" + 0.004*"16" + 0.004*"progress" + 0.004*"5" + 0.004*"provided"', '0.019*"’" + 0.007*"plans" + 0.006*"improve" + 0.006*"Southampton" + 0.005*"progress" + 0.005*"5" + 0.005*"needs" + 0.004*"good" + 0.004*"experiences" + 0.004*"16"', '0.011*"’" + 0.006*"plans" + 0.004*"Southampton" + 0.004*"improve" + 0.004*"including" + 0.004*"progress" + 0.004*"experiences" + 0.004*"timely" + 0.004*"2023" + 0.003*"June"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -3718,7 +3718,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.008*"planning" + 0.007*"practice" + 0.006*"quality" + 0.006*"leaders" + 0.005*"progress" + 0.005*"needs" + 0.005*"risk" + 0.005*"effective" + 0.005*"number"', '0.013*"’" + 0.008*"planning" + 0.006*"practice" + 0.006*"leaders" + 0.006*"always" + 0.005*"carers" + 0.005*"good" + 0.005*"effective" + 0.005*"protection" + 0.005*"Southend"', '0.017*"’" + 0.008*"quality" + 0.008*"planning" + 0.008*"practice" + 0.007*"number" + 0.006*"protection" + 0.006*"leaders" + 0.005*"within" + 0.005*"carers" + 0.005*"need"']</t>
+    <t>['0.012*"’" + 0.007*"practice" + 0.006*"planning" + 0.006*"quality" + 0.005*"number" + 0.005*"effective" + 0.005*"plans" + 0.004*"However" + 0.004*"within" + 0.004*"leaders"', '0.013*"’" + 0.008*"planning" + 0.008*"practice" + 0.007*"quality" + 0.007*"leaders" + 0.006*"protection" + 0.006*"number" + 0.005*"well" + 0.005*"within" + 0.005*"effective"', '0.014*"’" + 0.009*"planning" + 0.007*"quality" + 0.006*"leaders" + 0.006*"practice" + 0.006*"always" + 0.006*"risk" + 0.006*"carers" + 0.005*"good" + 0.005*"Southend"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -3736,7 +3736,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"Helens" + 0.008*"needs" + 0.007*"St" + 0.006*"progress" + 0.006*"good" + 0.006*"well" + 0.005*"receive" + 0.005*"risk" + 0.005*"need"', '0.016*"’" + 0.008*"St" + 0.007*"Helens" + 0.007*"needs" + 0.006*"well" + 0.006*"progress" + 0.006*"effective" + 0.005*"need" + 0.005*"risk" + 0.005*"21"', '0.011*"’" + 0.008*"St" + 0.007*"well" + 0.007*"Helens" + 0.006*"needs" + 0.006*"21" + 0.006*"progress" + 0.006*"10" + 0.006*"receive" + 0.005*"good"']</t>
+    <t>['0.014*"’" + 0.008*"needs" + 0.007*"progress" + 0.007*"Helens" + 0.007*"St" + 0.007*"well" + 0.006*"need" + 0.006*"good" + 0.005*"receive" + 0.005*"10"', '0.014*"’" + 0.008*"needs" + 0.008*"St" + 0.007*"well" + 0.007*"Helens" + 0.006*"21" + 0.006*"risk" + 0.005*"good" + 0.005*"receive" + 0.005*"July"', '0.018*"’" + 0.009*"Helens" + 0.007*"St" + 0.006*"10" + 0.006*"well" + 0.006*"effective" + 0.005*"receive" + 0.005*"progress" + 0.005*"needs" + 0.005*"21"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -3757,7 +3757,7 @@
     <t>0.1688</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"needs" + 0.006*"progress" + 0.006*"quality" + 0.006*"practice" + 0.006*"ensure" + 0.005*"plans" + 0.005*"oversight" + 0.005*"Staffordshire" + 0.005*"health"', '0.013*"’" + 0.012*"needs" + 0.006*"quality" + 0.006*"health" + 0.006*"Staffordshire" + 0.005*"practice" + 0.005*"progress" + 0.005*"good" + 0.004*"oversight" + 0.004*"well"', '0.019*"’" + 0.012*"needs" + 0.007*"oversight" + 0.006*"ensure" + 0.005*"Staffordshire" + 0.005*"quality" + 0.005*"health" + 0.005*"practice" + 0.005*"progress" + 0.005*"10"']</t>
+    <t>['0.015*"’" + 0.013*"needs" + 0.008*"practice" + 0.007*"oversight" + 0.006*"health" + 0.006*"ensure" + 0.006*"quality" + 0.004*"Staffordshire" + 0.004*"6" + 0.004*"progress"', '0.021*"’" + 0.012*"needs" + 0.007*"progress" + 0.007*"Staffordshire" + 0.007*"quality" + 0.006*"plans" + 0.005*"oversight" + 0.005*"10" + 0.005*"ensure" + 0.004*"Council"', '0.012*"’" + 0.009*"needs" + 0.006*"health" + 0.005*"progress" + 0.005*"quality" + 0.005*"practice" + 0.005*"ensure" + 0.004*"oversight" + 0.004*"Staffordshire" + 0.004*"6"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -3781,7 +3781,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.009*"practice" + 0.007*"plans" + 0.007*"Stockport" + 0.006*"needs" + 0.006*"risk" + 0.005*"28" + 0.005*"need" + 0.005*"strong"', '0.011*"’" + 0.007*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"Stockport" + 0.005*"strong" + 0.005*"range" + 0.004*"risk" + 0.004*"ensure" + 0.004*"leaders"', '0.009*"’" + 0.008*"well" + 0.006*"Stockport" + 0.006*"strong" + 0.006*"practice" + 0.005*"needs" + 0.005*"quality" + 0.005*"ensure" + 0.004*"1" + 0.004*"28"']</t>
+    <t>['0.013*"’" + 0.008*"practice" + 0.007*"strong" + 0.006*"Stockport" + 0.006*"needs" + 0.006*"well" + 0.005*"risk" + 0.005*"1" + 0.005*"28" + 0.004*"ensure"', '0.011*"well" + 0.011*"’" + 0.008*"practice" + 0.007*"Stockport" + 0.007*"needs" + 0.006*"plans" + 0.005*"ensure" + 0.005*"risk" + 0.005*"April" + 0.004*"quality"', '0.008*"’" + 0.006*"Stockport" + 0.006*"well" + 0.005*"plans" + 0.005*"practice" + 0.004*"needs" + 0.004*"response" + 0.004*"strong" + 0.004*"management" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -3814,7 +3814,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.010*"plans" + 0.009*"leaders" + 0.008*"needs" + 0.007*"quality" + 0.007*"Stockton" + 0.007*"on-Tees" + 0.006*"well" + 0.006*"senior" + 0.005*"good"', '0.017*"’" + 0.009*"leaders" + 0.008*"well" + 0.007*"plans" + 0.006*"good" + 0.005*"needs" + 0.005*"quality" + 0.005*"on-Tees" + 0.005*"Stockton" + 0.005*"senior"', '0.016*"’" + 0.008*"leaders" + 0.006*"well" + 0.005*"good" + 0.005*"on-Tees" + 0.005*"plans" + 0.005*"Stockton" + 0.004*"6" + 0.004*"needs" + 0.004*"experiences"']</t>
+    <t>['0.019*"’" + 0.010*"leaders" + 0.007*"plans" + 0.007*"needs" + 0.007*"on-Tees" + 0.006*"well" + 0.005*"senior" + 0.005*"good" + 0.005*"Stockton" + 0.005*"17"', '0.019*"’" + 0.009*"leaders" + 0.008*"plans" + 0.007*"well" + 0.007*"Stockton" + 0.007*"quality" + 0.006*"needs" + 0.006*"good" + 0.005*"17" + 0.005*"senior"', '0.019*"’" + 0.009*"plans" + 0.006*"leaders" + 0.006*"quality" + 0.006*"needs" + 0.006*"on-Tees" + 0.006*"well" + 0.006*"Stockton" + 0.006*"good" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -3835,7 +3835,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"on-Trent" + 0.006*"Stoke" + 0.006*"protection" + 0.006*"well" + 0.006*"needs" + 0.005*"However" + 0.005*"timely" + 0.005*"ensure" + 0.005*"plans"', '0.013*"’" + 0.008*"needs" + 0.007*"on-Trent" + 0.007*"well" + 0.007*"progress" + 0.007*"plans" + 0.006*"However" + 0.006*"Stoke" + 0.005*"protection" + 0.005*"3"', '0.022*"’" + 0.010*"needs" + 0.008*"Stoke" + 0.007*"plans" + 0.007*"However" + 0.007*"well" + 0.007*"ensure" + 0.006*"on-Trent" + 0.005*"quality" + 0.005*"protection"']</t>
+    <t>['0.021*"’" + 0.009*"needs" + 0.008*"on-Trent" + 0.008*"However" + 0.007*"Stoke" + 0.007*"plans" + 0.007*"protection" + 0.007*"well" + 0.007*"ensure" + 0.005*"progress"', '0.014*"’" + 0.008*"needs" + 0.008*"well" + 0.006*"plans" + 0.006*"Stoke" + 0.006*"quality" + 0.005*"on-Trent" + 0.005*"However" + 0.005*"3" + 0.005*"effectively"', '0.015*"’" + 0.007*"needs" + 0.006*"Stoke" + 0.006*"well" + 0.005*"plans" + 0.005*"ensure" + 0.005*"on-Trent" + 0.005*"3" + 0.005*"However" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -3862,7 +3862,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"effective" + 0.006*"leaders" + 0.005*"good" + 0.005*"ensure" + 0.005*"progress" + 0.005*"well" + 0.004*"needs" + 0.004*"practice" + 0.004*"high"', '0.008*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"carers" + 0.004*"good" + 0.004*"Suffolk" + 0.004*"leaders" + 0.004*"effective" + 0.003*"needs" + 0.003*"practice"', '0.017*"’" + 0.008*"progress" + 0.007*"well" + 0.005*"effective" + 0.005*"ensure" + 0.004*"practice" + 0.004*"leaders" + 0.004*"good" + 0.004*"need" + 0.004*"experiences"']</t>
+    <t>['0.012*"’" + 0.005*"well" + 0.004*"progress" + 0.004*"effective" + 0.004*"leaders" + 0.004*"practice" + 0.003*"good" + 0.003*"needs" + 0.003*"Suffolk" + 0.003*"ensure"', '0.017*"’" + 0.007*"well" + 0.006*"progress" + 0.005*"effective" + 0.005*"ensure" + 0.005*"good" + 0.005*"leaders" + 0.004*"practice" + 0.004*"needs" + 0.004*"effectively"', '0.011*"’" + 0.007*"progress" + 0.007*"well" + 0.005*"effective" + 0.005*"good" + 0.005*"leaders" + 0.004*"ensure" + 0.004*"high" + 0.004*"practice" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -3892,7 +3892,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"experienced" + 0.006*"quality" + 0.006*"well" + 0.006*"needs" + 0.005*"Sunderland" + 0.004*"parents" + 0.004*"protection" + 0.004*"practice" + 0.004*"good"', '0.012*"’" + 0.007*"needs" + 0.006*"quality" + 0.006*"Sunderland" + 0.006*"well" + 0.004*"parents" + 0.004*"highly" + 0.004*"TfC" + 0.004*"protection" + 0.004*"good"', '0.021*"’" + 0.009*"well" + 0.007*"quality" + 0.006*"Sunderland" + 0.006*"needs" + 0.005*"practice" + 0.005*"result" + 0.005*"TfC" + 0.005*"council" + 0.005*"training"']</t>
+    <t>['0.015*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"quality" + 0.005*"Sunderland" + 0.005*"experienced" + 0.004*"highly" + 0.004*"TfC" + 0.004*"training" + 0.004*"cared"', '0.017*"’" + 0.008*"quality" + 0.008*"well" + 0.006*"needs" + 0.006*"Sunderland" + 0.005*"practice" + 0.005*"protection" + 0.005*"TfC" + 0.005*"experienced" + 0.005*"result"', '0.016*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"Sunderland" + 0.005*"quality" + 0.005*"council" + 0.005*"robust" + 0.005*"training" + 0.004*"parents" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -3919,7 +3919,7 @@
     <t>0.1782</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.011*"needs" + 0.007*"well" + 0.006*"progress" + 0.006*"practice" + 0.005*"quality" + 0.005*"effective" + 0.005*"17" + 0.005*"plans" + 0.004*"carers"', '0.010*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"practice" + 0.006*"effective" + 0.005*"quality" + 0.005*"good" + 0.005*"progress" + 0.004*"17" + 0.004*"Surrey"', '0.018*"’" + 0.012*"well" + 0.009*"needs" + 0.007*"progress" + 0.007*"practice" + 0.006*"plans" + 0.006*"However" + 0.005*"carers" + 0.005*"good" + 0.005*"17"']</t>
+    <t>['0.012*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"good" + 0.005*"effective" + 0.004*"progress" + 0.004*"However" + 0.004*"quality" + 0.004*"plans"', '0.015*"’" + 0.012*"well" + 0.010*"needs" + 0.008*"practice" + 0.007*"progress" + 0.006*"plans" + 0.006*"17" + 0.006*"quality" + 0.005*"carers" + 0.005*"effective"', '0.012*"’" + 0.012*"needs" + 0.008*"well" + 0.007*"practice" + 0.006*"progress" + 0.006*"carers" + 0.005*"good" + 0.005*"effective" + 0.005*"plans" + 0.005*"Surrey"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -3940,7 +3940,7 @@
     <t>0.1489</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.011*"needs" + 0.011*"Swindon" + 0.008*"need" + 0.008*"well" + 0.006*"always" + 0.006*"plans" + 0.006*"many" + 0.006*"Council" + 0.005*"effective"', '0.018*"’" + 0.012*"needs" + 0.007*"need" + 0.007*"Swindon" + 0.007*"well" + 0.006*"plans" + 0.006*"always" + 0.006*"17" + 0.005*"Council" + 0.005*"health"', '0.028*"’" + 0.015*"needs" + 0.009*"need" + 0.009*"well" + 0.008*"Swindon" + 0.007*"plans" + 0.007*"always" + 0.006*"impact" + 0.006*"effective" + 0.005*"lack"']</t>
+    <t>['0.022*"’" + 0.013*"needs" + 0.010*"well" + 0.009*"Swindon" + 0.009*"need" + 0.008*"always" + 0.006*"plans" + 0.006*"effective" + 0.005*"health" + 0.005*"risk"', '0.022*"’" + 0.016*"needs" + 0.008*"Swindon" + 0.008*"well" + 0.007*"plans" + 0.007*"need" + 0.006*"lack" + 0.006*"impact" + 0.006*"always" + 0.005*"education"', '0.022*"’" + 0.009*"needs" + 0.009*"Swindon" + 0.008*"need" + 0.006*"always" + 0.006*"impact" + 0.006*"Council" + 0.005*"well" + 0.005*"plans" + 0.005*"home"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -3964,7 +3964,7 @@
     <t>0.1495</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"needs" + 0.006*"impact" + 0.006*"response" + 0.005*"15" + 0.005*"practice" + 0.005*"risk" + 0.005*"2023" + 0.005*"understand" + 0.004*"4"', '0.022*"’" + 0.008*"needs" + 0.007*"experienced" + 0.006*"risk" + 0.006*"impact" + 0.006*"quality" + 0.005*"4" + 0.005*"practice" + 0.005*"plans" + 0.005*"2023"', '0.010*"’" + 0.010*"needs" + 0.006*"risk" + 0.005*"quality" + 0.005*"impact" + 0.005*"planning" + 0.005*"practice" + 0.005*"Tameside" + 0.004*"inspectors" + 0.004*"2023"']</t>
+    <t>['0.016*"’" + 0.007*"impact" + 0.006*"practice" + 0.006*"experienced" + 0.005*"risk" + 0.005*"4" + 0.005*"needs" + 0.005*"Tameside" + 0.005*"understand" + 0.005*"response"', '0.016*"’" + 0.010*"needs" + 0.006*"risk" + 0.005*"experiences" + 0.005*"response" + 0.005*"quality" + 0.005*"progress" + 0.005*"effective" + 0.005*"4" + 0.005*"2023"', '0.017*"’" + 0.011*"needs" + 0.007*"impact" + 0.007*"risk" + 0.006*"quality" + 0.005*"experienced" + 0.005*"2023" + 0.005*"practice" + 0.005*"response" + 0.005*"4"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -3985,7 +3985,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"well" + 0.006*"effective" + 0.006*"plans" + 0.005*"practice" + 0.005*"need" + 0.004*"leaders" + 0.004*"needs" + 0.004*"strong" + 0.003*"planning"', '0.010*"’" + 0.009*"well" + 0.006*"needs" + 0.006*"strong" + 0.005*"practice" + 0.005*"plans" + 0.005*"effective" + 0.005*"need" + 0.004*"family" + 0.004*"planning"', '0.021*"’" + 0.013*"well" + 0.010*"needs" + 0.008*"effective" + 0.006*"ensure" + 0.005*"need" + 0.005*"improve" + 0.005*"plans" + 0.005*"strong" + 0.005*"planning"']</t>
+    <t>['0.019*"’" + 0.014*"well" + 0.008*"needs" + 0.007*"effective" + 0.006*"need" + 0.005*"practice" + 0.005*"plans" + 0.005*"planning" + 0.005*"ensure" + 0.005*"highly"', '0.014*"’" + 0.009*"well" + 0.007*"effective" + 0.006*"needs" + 0.006*"plans" + 0.006*"strong" + 0.005*"practice" + 0.005*"supported" + 0.005*"ensure" + 0.004*"leaders"', '0.014*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"effective" + 0.005*"plans" + 0.005*"need" + 0.005*"strong" + 0.005*"ensure" + 0.004*"planning" + 0.004*"benefit"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -4006,7 +4006,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"well" + 0.006*"carers" + 0.005*"ensure" + 0.004*"need" + 0.004*"leaders" + 0.004*"needs" + 0.004*"Thurrock" + 0.003*"good" + 0.003*"protection"', '0.013*"’" + 0.009*"well" + 0.006*"carers" + 0.005*"need" + 0.005*"practice" + 0.004*"effective" + 0.004*"needs" + 0.004*"protection" + 0.004*"Thurrock" + 0.004*"leaders"', '0.012*"’" + 0.006*"well" + 0.005*"need" + 0.005*"carers" + 0.005*"needs" + 0.004*"practice" + 0.004*"ensure" + 0.004*"effective" + 0.004*"understand" + 0.004*"impact"']</t>
+    <t>['0.013*"’" + 0.007*"well" + 0.005*"need" + 0.005*"carers" + 0.005*"needs" + 0.004*"ensure" + 0.004*"practice" + 0.004*"leaders" + 0.004*"effective" + 0.004*"vulnerable"', '0.015*"’" + 0.011*"well" + 0.006*"carers" + 0.005*"need" + 0.005*"practice" + 0.004*"ensure" + 0.004*"Thurrock" + 0.004*"needs" + 0.004*"effective" + 0.004*"protection"', '0.010*"’" + 0.006*"well" + 0.004*"carers" + 0.004*"need" + 0.004*"needs" + 0.003*"leaders" + 0.003*"impact" + 0.003*"effective" + 0.003*"protect" + 0.003*"protection"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -4027,7 +4027,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.011*"well" + 0.009*"Torbay" + 0.006*"needs" + 0.005*"21" + 0.005*"good" + 0.005*"progress" + 0.004*"effective" + 0.004*"team" + 0.004*"ensure"', '0.016*"’" + 0.010*"well" + 0.007*"Torbay" + 0.006*"needs" + 0.006*"good" + 0.005*"effective" + 0.005*"progress" + 0.005*"plans" + 0.004*"2022" + 0.004*"agencies"', '0.018*"’" + 0.007*"good" + 0.006*"Torbay" + 0.006*"well" + 0.005*"timely" + 0.005*"effective" + 0.005*"needs" + 0.004*"1" + 0.004*"team" + 0.004*"2022"']</t>
+    <t>['0.017*"’" + 0.007*"Torbay" + 0.007*"well" + 0.006*"needs" + 0.006*"good" + 0.005*"21" + 0.005*"effective" + 0.004*"team" + 0.004*"plans" + 0.004*"ensure"', '0.014*"’" + 0.011*"well" + 0.008*"Torbay" + 0.006*"good" + 0.005*"effective" + 0.005*"timely" + 0.004*"21" + 0.004*"needs" + 0.004*"team" + 0.004*"agencies"', '0.019*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"Torbay" + 0.006*"good" + 0.005*"effective" + 0.004*"progress" + 0.004*"1" + 0.004*"April" + 0.004*"timely"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -4048,7 +4048,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.010*"Trafford" + 0.008*"quality" + 0.008*"needs" + 0.006*"well" + 0.005*"2" + 0.005*"impact" + 0.005*"practice" + 0.005*"worker" + 0.005*"team"', '0.017*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"Trafford" + 0.007*"well" + 0.006*"leaders" + 0.006*"practice" + 0.005*"placed" + 0.004*"progress" + 0.004*"quality"', '0.019*"’" + 0.012*"needs" + 0.008*"plans" + 0.008*"well" + 0.007*"quality" + 0.007*"Trafford" + 0.006*"leaders" + 0.006*"team" + 0.005*"practice" + 0.005*"impact"']</t>
+    <t>['0.022*"’" + 0.011*"needs" + 0.009*"Trafford" + 0.007*"plans" + 0.007*"leaders" + 0.007*"well" + 0.006*"placed" + 0.005*"practice" + 0.005*"quality" + 0.005*"impact"', '0.010*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"quality" + 0.006*"Trafford" + 0.006*"plans" + 0.004*"placed" + 0.004*"ensure" + 0.004*"practice" + 0.004*"Senior"', '0.012*"’" + 0.009*"needs" + 0.008*"quality" + 0.007*"well" + 0.007*"Trafford" + 0.007*"plans" + 0.006*"practice" + 0.005*"leaders" + 0.005*"team" + 0.004*"21"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -4066,7 +4066,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50172854</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"leaders" + 0.007*"needs" + 0.006*"well" + 0.004*"4" + 0.004*"practice" + 0.004*"Walsall" + 0.004*"15" + 0.004*"plans" + 0.004*"positive"', '0.023*"’" + 0.008*"leaders" + 0.007*"Walsall" + 0.006*"well" + 0.006*"needs" + 0.005*"information" + 0.005*"good" + 0.005*"oversight" + 0.005*"4" + 0.004*"Senior"', '0.019*"’" + 0.006*"needs" + 0.006*"leaders" + 0.005*"information" + 0.005*"Walsall" + 0.005*"4" + 0.005*"Senior" + 0.005*"well" + 0.004*"15" + 0.004*"oversight"']</t>
+    <t>['0.017*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"leaders" + 0.006*"Walsall" + 0.005*"4" + 0.004*"good" + 0.004*"oversight" + 0.004*"Senior" + 0.004*"practice"', '0.021*"’" + 0.006*"needs" + 0.006*"leaders" + 0.006*"Walsall" + 0.005*"well" + 0.005*"information" + 0.004*"positive" + 0.004*"Senior" + 0.004*"oversight" + 0.004*"receive"', '0.024*"’" + 0.009*"leaders" + 0.006*"needs" + 0.005*"well" + 0.005*"4" + 0.005*"information" + 0.005*"Walsall" + 0.004*"Senior" + 0.004*"oversight" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4093,7 +4093,7 @@
     <t>19/08/19</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"practice" + 0.006*"well" + 0.004*"needs" + 0.004*"number" + 0.004*"provided" + 0.004*"plans" + 0.003*"placed" + 0.003*"information" + 0.003*"home"', '0.012*"’" + 0.006*"well" + 0.005*"practice" + 0.004*"plans" + 0.004*"information" + 0.004*"progress" + 0.004*"carers" + 0.003*"home" + 0.003*"parents" + 0.003*"needs"', '0.016*"’" + 0.007*"practice" + 0.007*"well" + 0.006*"Senior" + 0.005*"number" + 0.005*"plans" + 0.005*"progress" + 0.004*"need" + 0.004*"carers" + 0.004*"good"']</t>
+    <t>['0.013*"’" + 0.007*"practice" + 0.006*"well" + 0.004*"number" + 0.004*"home" + 0.004*"plans" + 0.004*"needs" + 0.004*"Senior" + 0.004*"carers" + 0.004*"good"', '0.014*"’" + 0.006*"well" + 0.005*"practice" + 0.004*"plans" + 0.004*"number" + 0.004*"progress" + 0.004*"Senior" + 0.004*"need" + 0.004*"good" + 0.004*"information"', '0.015*"’" + 0.007*"well" + 0.007*"practice" + 0.005*"Senior" + 0.005*"progress" + 0.004*"plans" + 0.004*"information" + 0.004*"number" + 0.004*"need" + 0.004*"home"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4120,7 +4120,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"plans" + 0.005*"clear" + 0.005*"information" + 0.005*"Warwickshire" + 0.004*"3" + 0.004*"supported" + 0.004*"Senior"', '0.011*"’" + 0.006*"needs" + 0.006*"practice" + 0.005*"plans" + 0.005*"Warwickshire" + 0.005*"well" + 0.005*"progress" + 0.004*"carers" + 0.004*"education" + 0.004*"good"', '0.014*"’" + 0.007*"plans" + 0.007*"Warwickshire" + 0.007*"well" + 0.006*"needs" + 0.005*"good" + 0.005*"carers" + 0.005*"effective" + 0.004*"practice" + 0.004*"quality"']</t>
+    <t>['0.015*"’" + 0.008*"needs" + 0.007*"Warwickshire" + 0.006*"well" + 0.006*"plans" + 0.006*"practice" + 0.005*"good" + 0.005*"clear" + 0.004*"22" + 0.004*"effective"', '0.008*"’" + 0.007*"well" + 0.005*"plans" + 0.005*"carers" + 0.005*"needs" + 0.005*"3" + 0.004*"22" + 0.004*"practice" + 0.004*"Warwickshire" + 0.004*"Senior"', '0.011*"’" + 0.007*"plans" + 0.006*"Warwickshire" + 0.006*"needs" + 0.005*"progress" + 0.005*"well" + 0.005*"supported" + 0.005*"carers" + 0.005*"3" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4147,7 +4147,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"West" + 0.007*"well" + 0.007*"Berkshire" + 0.005*"need" + 0.004*"plans" + 0.004*"needs" + 0.004*"agency" + 0.004*"practice" + 0.004*"14"', '0.013*"’" + 0.005*"well" + 0.005*"West" + 0.005*"Berkshire" + 0.004*"needs" + 0.004*"plans" + 0.004*"education" + 0.004*"early" + 0.003*"working" + 0.003*"experiences"', '0.010*"’" + 0.007*"Berkshire" + 0.006*"West" + 0.005*"well" + 0.004*"18" + 0.004*"2022" + 0.004*"14" + 0.004*"need" + 0.003*"information" + 0.003*"working"']</t>
+    <t>['0.015*"’" + 0.006*"West" + 0.006*"well" + 0.005*"Berkshire" + 0.004*"working" + 0.004*"need" + 0.004*"needs" + 0.004*"agency" + 0.004*"plans" + 0.004*"practice"', '0.011*"’" + 0.006*"Berkshire" + 0.006*"West" + 0.005*"well" + 0.004*"2022" + 0.004*"need" + 0.004*"plans" + 0.004*"early" + 0.004*"education" + 0.004*"March"', '0.016*"’" + 0.007*"West" + 0.007*"well" + 0.007*"Berkshire" + 0.005*"18" + 0.004*"needs" + 0.004*"14" + 0.004*"early" + 0.004*"working" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>2637548</t>
@@ -4168,7 +4168,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.009*"Northamptonshire" + 0.008*"West" + 0.007*"quality" + 0.007*"well" + 0.005*"plans" + 0.005*"14" + 0.005*"impact" + 0.005*"October" + 0.005*"practice"', '0.010*"’" + 0.006*"Northamptonshire" + 0.004*"West" + 0.004*"well" + 0.004*"quality" + 0.004*"needs" + 0.004*"NCT" + 0.004*"Leaders" + 0.003*"However" + 0.003*"experiences"', '0.015*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.007*"practice" + 0.007*"well" + 0.006*"West" + 0.006*"needs" + 0.005*"NCT" + 0.005*"3" + 0.004*"impact"']</t>
+    <t>['0.018*"’" + 0.009*"Northamptonshire" + 0.008*"quality" + 0.007*"well" + 0.007*"practice" + 0.006*"West" + 0.005*"experiences" + 0.005*"NCT" + 0.005*"plans" + 0.005*"2022"', '0.015*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.006*"West" + 0.005*"14" + 0.004*"needs" + 0.004*"3" + 0.004*"well" + 0.004*"NCT" + 0.004*"However"', '0.018*"’" + 0.007*"West" + 0.007*"Northamptonshire" + 0.006*"well" + 0.005*"Leaders" + 0.005*"needs" + 0.005*"impact" + 0.005*"quality" + 0.005*"practice" + 0.004*"NCT"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4189,7 +4189,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"West" + 0.005*"13" + 0.005*"plans" + 0.005*"practice" + 0.004*"number" + 0.004*"quality" + 0.004*"Sussex"', '0.009*"’" + 0.008*"plans" + 0.005*"well" + 0.005*"Sussex" + 0.005*"needs" + 0.005*"practice" + 0.005*"health" + 0.004*"quality" + 0.004*"24" + 0.004*"2023"', '0.016*"’" + 0.006*"well" + 0.006*"plans" + 0.005*"needs" + 0.005*"West" + 0.005*"Sussex" + 0.005*"number" + 0.004*"supported" + 0.004*"13" + 0.004*"quality"']</t>
+    <t>['0.017*"’" + 0.007*"well" + 0.006*"plans" + 0.005*"quality" + 0.005*"needs" + 0.005*"West" + 0.005*"health" + 0.004*"supported" + 0.004*"number" + 0.004*"13"', '0.012*"’" + 0.006*"needs" + 0.006*"Sussex" + 0.006*"plans" + 0.005*"well" + 0.005*"13" + 0.005*"supported" + 0.004*"number" + 0.004*"education" + 0.004*"health"', '0.012*"’" + 0.007*"West" + 0.006*"plans" + 0.006*"well" + 0.006*"needs" + 0.005*"Sussex" + 0.004*"number" + 0.004*"practice" + 0.004*"13" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4207,7 +4207,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50187563</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.008*"May" + 0.008*"practice" + 0.006*"needs" + 0.006*"plans" + 0.005*"quality" + 0.005*"leaders" + 0.005*"9" + 0.005*"20" + 0.005*"Wigan"', '0.013*"’" + 0.007*"plans" + 0.007*"May" + 0.006*"Wigan" + 0.006*"practice" + 0.006*"quality" + 0.005*"appropriate" + 0.005*"needs" + 0.005*"9" + 0.005*"leaders"', '0.013*"’" + 0.007*"May" + 0.007*"Wigan" + 0.006*"appropriate" + 0.006*"plans" + 0.006*"needs" + 0.006*"quality" + 0.005*"practice" + 0.004*"timely" + 0.004*"leaders"']</t>
+    <t>['0.011*"’" + 0.008*"May" + 0.008*"plans" + 0.007*"practice" + 0.006*"quality" + 0.005*"timely" + 0.005*"appropriate" + 0.005*"leaders" + 0.005*"Wigan" + 0.005*"2022"', '0.015*"’" + 0.007*"May" + 0.006*"plans" + 0.006*"practice" + 0.006*"needs" + 0.006*"appropriate" + 0.006*"Wigan" + 0.006*"quality" + 0.004*"leaders" + 0.004*"oversight"', '0.011*"’" + 0.007*"needs" + 0.007*"Wigan" + 0.007*"May" + 0.006*"practice" + 0.005*"9" + 0.005*"plans" + 0.005*"quality" + 0.005*"leaders" + 0.004*"appropriate"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4237,7 +4237,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"risk" + 0.006*"progress" + 0.006*"need" + 0.006*"including" + 0.005*"Wiltshire" + 0.005*"quality" + 0.005*"practice"', '0.015*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"need" + 0.007*"Wiltshire" + 0.007*"ensure" + 0.006*"plans" + 0.006*"parents" + 0.006*"progress" + 0.006*"including"', '0.014*"well" + 0.014*"’" + 0.007*"needs" + 0.006*"supported" + 0.006*"parents" + 0.005*"25" + 0.005*"need" + 0.005*"progress" + 0.005*"including" + 0.005*"plans"']</t>
+    <t>['0.011*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"leaders" + 0.004*"ensure" + 0.004*"progress" + 0.004*"including" + 0.004*"quality" + 0.004*"positive"', '0.018*"’" + 0.013*"well" + 0.008*"needs" + 0.008*"need" + 0.007*"progress" + 0.007*"Wiltshire" + 0.007*"parents" + 0.007*"including" + 0.006*"supported" + 0.006*"quality"', '0.013*"’" + 0.011*"well" + 0.006*"needs" + 0.006*"risk" + 0.005*"need" + 0.005*"Wiltshire" + 0.005*"plans" + 0.005*"supported" + 0.005*"make" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4267,7 +4267,7 @@
     <t>0.1655</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"needs" + 0.007*"ensure" + 0.007*"plans" + 0.006*"Wirral" + 0.006*"practice" + 0.006*"well" + 0.005*"good" + 0.005*"number" + 0.004*"September"', '0.010*"’" + 0.009*"needs" + 0.007*"Wirral" + 0.007*"ensure" + 0.006*"plans" + 0.006*"number" + 0.006*"practice" + 0.006*"small" + 0.005*"well" + 0.005*"response"', '0.012*"’" + 0.010*"needs" + 0.008*"Wirral" + 0.007*"ensure" + 0.006*"plans" + 0.006*"practice" + 0.006*"18" + 0.005*"2023" + 0.005*"29" + 0.005*"risk"']</t>
+    <t>['0.011*"’" + 0.008*"needs" + 0.006*"Wirral" + 0.006*"plans" + 0.006*"ensure" + 0.006*"practice" + 0.006*"response" + 0.006*"good" + 0.005*"number" + 0.005*"18"', '0.011*"’" + 0.010*"ensure" + 0.010*"needs" + 0.007*"Wirral" + 0.006*"plans" + 0.006*"practice" + 0.005*"well" + 0.005*"18" + 0.004*"risk" + 0.004*"response"', '0.011*"’" + 0.010*"needs" + 0.008*"Wirral" + 0.007*"plans" + 0.006*"practice" + 0.006*"well" + 0.006*"small" + 0.006*"ensure" + 0.005*"29" + 0.005*"number"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4288,7 +4288,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"effective" + 0.005*"well" + 0.005*"progress" + 0.005*"provided" + 0.005*"17" + 0.004*"good" + 0.004*"Wokingham"', '0.014*"’" + 0.008*"plans" + 0.006*"effective" + 0.006*"progress" + 0.006*"well" + 0.005*"needs" + 0.005*"experiences" + 0.005*"impact" + 0.005*"quality" + 0.005*"provided"', '0.009*"’" + 0.006*"effective" + 0.006*"needs" + 0.006*"progress" + 0.006*"plans" + 0.005*"17" + 0.005*"provided" + 0.005*"protection" + 0.005*"well" + 0.004*"experiences"']</t>
+    <t>['0.008*"plans" + 0.007*"’" + 0.006*"needs" + 0.006*"effective" + 0.005*"quality" + 0.005*"progress" + 0.005*"experiences" + 0.004*"parents" + 0.004*"appropriate" + 0.004*"well"', '0.013*"’" + 0.006*"plans" + 0.005*"effective" + 0.005*"well" + 0.005*"6" + 0.005*"needs" + 0.005*"progress" + 0.004*"experiences" + 0.004*"Wokingham" + 0.004*"Borough"', '0.016*"’" + 0.007*"effective" + 0.006*"plans" + 0.006*"progress" + 0.006*"provided" + 0.006*"needs" + 0.006*"17" + 0.006*"well" + 0.005*"parents" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4309,7 +4309,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"needs" + 0.007*"effective" + 0.006*"Wolverhampton" + 0.005*"risks" + 0.005*"receive" + 0.005*"supported" + 0.005*"quality" + 0.004*"plans" + 0.004*"education"', '0.014*"’" + 0.005*"needs" + 0.005*"plans" + 0.004*"quality" + 0.004*"practice" + 0.004*"leaders" + 0.004*"education" + 0.004*"strong" + 0.004*"Wolverhampton" + 0.004*"receive"', '0.016*"’" + 0.009*"needs" + 0.006*"effective" + 0.006*"Wolverhampton" + 0.005*"risks" + 0.005*"leaders" + 0.005*"strong" + 0.005*"plans" + 0.005*"receive" + 0.005*"risk"']</t>
+    <t>['0.012*"’" + 0.006*"needs" + 0.005*"plans" + 0.004*"Wolverhampton" + 0.004*"receive" + 0.004*"leaders" + 0.004*"effective" + 0.004*"risks" + 0.004*"practice" + 0.004*"28"', '0.015*"’" + 0.009*"needs" + 0.006*"effective" + 0.006*"Wolverhampton" + 0.005*"strong" + 0.005*"quality" + 0.005*"leaders" + 0.005*"risks" + 0.005*"risk" + 0.005*"plans"', '0.015*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"Wolverhampton" + 0.005*"risks" + 0.005*"quality" + 0.005*"receive" + 0.005*"supported" + 0.005*"plans" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4336,7 +4336,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"well" + 0.007*"plans" + 0.007*"needs" + 0.006*"progress" + 0.006*"Worcestershire" + 0.006*"leaders" + 0.005*"appropriate" + 0.005*"ensure" + 0.004*"living"', '0.012*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"Worcestershire" + 0.006*"progress" + 0.006*"plans" + 0.005*"ensure" + 0.005*"PAs" + 0.005*"improve" + 0.004*"receive"', '0.025*"’" + 0.009*"plans" + 0.009*"well" + 0.008*"leaders" + 0.007*"needs" + 0.007*"Worcestershire" + 0.007*"progress" + 0.007*"ensure" + 0.006*"appropriate" + 0.005*"Senior"']</t>
+    <t>['0.017*"’" + 0.007*"plans" + 0.007*"Worcestershire" + 0.007*"leaders" + 0.006*"needs" + 0.006*"well" + 0.006*"progress" + 0.005*"appropriate" + 0.005*"ensure" + 0.005*"Senior"', '0.015*"’" + 0.008*"plans" + 0.008*"well" + 0.007*"progress" + 0.007*"needs" + 0.006*"Worcestershire" + 0.006*"leaders" + 0.006*"ensure" + 0.005*"appropriate" + 0.004*"Senior"', '0.023*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"plans" + 0.007*"Worcestershire" + 0.007*"leaders" + 0.007*"progress" + 0.006*"ensure" + 0.006*"appropriate" + 0.005*"PAs"']</t>
   </si>
   <si>
     <t>urn</t>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -70,7 +70,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.008*"needs" + 0.007*"leaders" + 0.007*"within" + 0.007*"practice" + 0.006*"Barnsley" + 0.005*"plans" + 0.005*"senior" + 0.005*"11" + 0.004*"progress"', '0.014*"’" + 0.008*"needs" + 0.007*"leaders" + 0.005*"Barnsley" + 0.005*"within" + 0.005*"response" + 0.005*"practice" + 0.004*"plans" + 0.004*"experiences" + 0.004*"2023"', '0.017*"’" + 0.007*"needs" + 0.007*"leaders" + 0.006*"Barnsley" + 0.006*"within" + 0.005*"practice" + 0.004*"2023" + 0.004*"response" + 0.004*"good" + 0.004*"11"']</t>
+    <t>['0.019*"’" + 0.010*"needs" + 0.007*"Barnsley" + 0.006*"within" + 0.006*"leaders" + 0.005*"practice" + 0.005*"understand" + 0.004*"senior" + 0.004*"plans" + 0.004*"progress"', '0.019*"’" + 0.010*"leaders" + 0.007*"practice" + 0.007*"needs" + 0.006*"within" + 0.005*"Barnsley" + 0.005*"family" + 0.004*"15" + 0.004*"response" + 0.004*"senior"', '0.019*"’" + 0.007*"needs" + 0.006*"within" + 0.005*"leaders" + 0.005*"plans" + 0.005*"Barnsley" + 0.004*"partners" + 0.004*"practice" + 0.004*"11" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -115,7 +115,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"well" + 0.006*"practice" + 0.006*"plans" + 0.005*"effective" + 0.005*"needs" + 0.005*"East" + 0.005*"North" + 0.005*"leaders" + 0.004*"4"', '0.021*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"plans" + 0.005*"Bath" + 0.005*"leaders" + 0.005*"Somerset" + 0.005*"4" + 0.005*"effective"', '0.016*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"leaders" + 0.005*"28" + 0.004*"clear" + 0.004*"receive" + 0.004*"Somerset" + 0.004*"protection" + 0.004*"March"']</t>
+    <t>['0.018*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"impact" + 0.004*"leaders" + 0.004*"North" + 0.004*"clear" + 0.004*"Bath" + 0.004*"2022"', '0.018*"’" + 0.007*"well" + 0.006*"leaders" + 0.006*"practice" + 0.005*"plans" + 0.005*"effective" + 0.005*"Bath" + 0.005*"impact" + 0.004*"Somerset" + 0.004*"needs"', '0.017*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"practice" + 0.005*"East" + 0.005*"plans" + 0.005*"4" + 0.005*"28" + 0.005*"receive" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -163,7 +163,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.007*"well" + 0.007*"ensure" + 0.006*"needs" + 0.006*"good" + 0.006*"supported" + 0.005*"Bedford" + 0.005*"family" + 0.005*"Borough" + 0.005*"progress"', '0.016*"’" + 0.007*"ensure" + 0.006*"needs" + 0.005*"plans" + 0.005*"progress" + 0.005*"Bedford" + 0.004*"relationships" + 0.004*"education" + 0.004*"need" + 0.004*"well"', '0.017*"’" + 0.007*"needs" + 0.006*"plans" + 0.005*"well" + 0.005*"Bedford" + 0.005*"good" + 0.005*"ensure" + 0.004*"supported" + 0.004*"need" + 0.004*"15"']</t>
+    <t>['0.018*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"ensure" + 0.006*"supported" + 0.006*"plans" + 0.005*"good" + 0.005*"Bedford" + 0.005*"education" + 0.005*"26"', '0.011*"’" + 0.008*"ensure" + 0.005*"well" + 0.004*"Bedford" + 0.004*"supported" + 0.004*"needs" + 0.004*"plans" + 0.004*"family" + 0.004*"good" + 0.004*"15"', '0.025*"’" + 0.007*"needs" + 0.006*"progress" + 0.005*"Bedford" + 0.005*"Borough" + 0.005*"plans" + 0.005*"made" + 0.005*"well" + 0.005*"ensure" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -208,7 +208,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.007*"Birmingham" + 0.007*"well" + 0.006*"plans" + 0.005*"trust" + 0.005*"3" + 0.005*"effective" + 0.005*"leaders" + 0.005*"risk"', '0.016*"’" + 0.011*"needs" + 0.008*"effective" + 0.007*"progress" + 0.006*"well" + 0.006*"plans" + 0.006*"trust" + 0.005*"appropriate" + 0.005*"timely" + 0.004*"risk"', '0.010*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"plans" + 0.005*"Birmingham" + 0.004*"trust" + 0.004*"progress" + 0.004*"practice" + 0.004*"3"']</t>
+    <t>['0.018*"’" + 0.011*"needs" + 0.008*"well" + 0.006*"effective" + 0.006*"plans" + 0.005*"trust" + 0.005*"Birmingham" + 0.005*"progress" + 0.005*"2023" + 0.004*"timely"', '0.013*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"effective" + 0.005*"Birmingham" + 0.005*"trust" + 0.005*"plans" + 0.005*"3" + 0.005*"March" + 0.005*"appropriate"', '0.015*"’" + 0.009*"needs" + 0.007*"effective" + 0.007*"plans" + 0.006*"progress" + 0.006*"Birmingham" + 0.006*"risk" + 0.006*"appropriate" + 0.005*"trust" + 0.005*"3"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -250,7 +250,7 @@
     <t>0.1834</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"practice" + 0.007*"Blackburn" + 0.007*"Darwen" + 0.007*"needs" + 0.006*"quality" + 0.006*"impact" + 0.005*"well" + 0.005*"4" + 0.005*"February"', '0.009*"’" + 0.006*"Blackburn" + 0.006*"Darwen" + 0.006*"quality" + 0.006*"practice" + 0.005*"needs" + 0.005*"planning" + 0.005*"well" + 0.004*"effective" + 0.004*"impact"', '0.017*"’" + 0.009*"needs" + 0.008*"quality" + 0.007*"practice" + 0.007*"impact" + 0.007*"well" + 0.005*"Blackburn" + 0.005*"means" + 0.005*"result" + 0.005*"leaders"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"quality" + 0.007*"Blackburn" + 0.007*"practice" + 0.007*"impact" + 0.007*"Darwen" + 0.005*"planning" + 0.005*"effective"', '0.014*"’" + 0.007*"needs" + 0.007*"practice" + 0.007*"Darwen" + 0.007*"Blackburn" + 0.006*"quality" + 0.006*"well" + 0.005*"4" + 0.005*"plans" + 0.004*"means"', '0.010*"’" + 0.007*"practice" + 0.007*"impact" + 0.007*"needs" + 0.006*"quality" + 0.005*"Blackburn" + 0.005*"planning" + 0.004*"Darwen" + 0.004*"means" + 0.004*"February"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -292,7 +292,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"well" + 0.009*"Blackpool" + 0.008*"needs" + 0.006*"plans" + 0.006*"effective" + 0.005*"supported" + 0.005*"progress" + 0.005*"quality" + 0.005*"16"', '0.014*"’" + 0.010*"needs" + 0.007*"well" + 0.006*"Blackpool" + 0.006*"plans" + 0.005*"effective" + 0.005*"practice" + 0.004*"team" + 0.004*"supported" + 0.004*"need"', '0.018*"’" + 0.013*"needs" + 0.010*"well" + 0.007*"Blackpool" + 0.006*"effective" + 0.005*"16" + 0.005*"practice" + 0.005*"good" + 0.005*"understand" + 0.005*"5"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"Blackpool" + 0.006*"effective" + 0.005*"16" + 0.005*"5" + 0.005*"experiences" + 0.005*"supported" + 0.005*"plans"', '0.017*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"Blackpool" + 0.005*"effective" + 0.005*"practice" + 0.005*"plans" + 0.005*"quality" + 0.004*"experiences" + 0.004*"need"', '0.017*"’" + 0.012*"needs" + 0.009*"well" + 0.009*"Blackpool" + 0.005*"effective" + 0.005*"practice" + 0.005*"progress" + 0.005*"supported" + 0.005*"quality" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80432</t>
@@ -322,7 +322,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"plans" + 0.007*"Bolton" + 0.006*"effective" + 0.005*"11" + 0.005*"15" + 0.005*"response" + 0.005*"September"', '0.018*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"Bolton" + 0.008*"plans" + 0.006*"strong" + 0.006*"supported" + 0.006*"planning" + 0.005*"response" + 0.005*"timely"', '0.020*"’" + 0.009*"Bolton" + 0.008*"needs" + 0.007*"well" + 0.006*"plans" + 0.006*"need" + 0.006*"supported" + 0.005*"11" + 0.005*"experiences" + 0.005*"planning"']</t>
+    <t>['0.020*"’" + 0.012*"needs" + 0.008*"well" + 0.008*"Bolton" + 0.007*"plans" + 0.006*"supported" + 0.005*"appropriate" + 0.005*"11" + 0.005*"need" + 0.004*"15"', '0.017*"’" + 0.009*"well" + 0.009*"Bolton" + 0.008*"plans" + 0.006*"needs" + 0.006*"planning" + 0.005*"effective" + 0.005*"September" + 0.005*"timely" + 0.005*"supported"', '0.020*"’" + 0.009*"needs" + 0.008*"plans" + 0.006*"Bolton" + 0.006*"well" + 0.005*"strong" + 0.005*"need" + 0.005*"effective" + 0.005*"supported" + 0.005*"2023"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -358,7 +358,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"quality" + 0.005*"17" + 0.004*"well" + 0.004*"impact" + 0.004*"practice" + 0.004*"progress" + 0.004*"However" + 0.004*"6" + 0.004*"Poole"', '0.023*"’" + 0.007*"practice" + 0.006*"quality" + 0.005*"progress" + 0.005*"impact" + 0.005*"Christchurch" + 0.005*"Bournemouth" + 0.004*"risk" + 0.004*"2021" + 0.004*"right"', '0.016*"’" + 0.006*"quality" + 0.005*"progress" + 0.005*"time" + 0.005*"practice" + 0.005*"Christchurch" + 0.005*"Poole" + 0.005*"6" + 0.004*"risk" + 0.004*"Bournemouth"']</t>
+    <t>['0.017*"’" + 0.006*"quality" + 0.006*"progress" + 0.006*"time" + 0.005*"Poole" + 0.005*"practice" + 0.005*"Christchurch" + 0.005*"However" + 0.004*"impact" + 0.004*"risk"', '0.012*"’" + 0.006*"quality" + 0.005*"practice" + 0.005*"6" + 0.005*"progress" + 0.005*"risk" + 0.004*"impact" + 0.004*"Bournemouth" + 0.004*"17" + 0.004*"number"', '0.023*"’" + 0.007*"practice" + 0.005*"quality" + 0.005*"Bournemouth" + 0.005*"17" + 0.004*"well" + 0.004*"Christchurch" + 0.004*"positive" + 0.004*"progress" + 0.004*"Poole"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -403,7 +403,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"risk" + 0.007*"Bracknell" + 0.007*"needs" + 0.007*"Forest" + 0.006*"need" + 0.005*"plans" + 0.005*"quality" + 0.005*"provided" + 0.005*"progress"', '0.014*"’" + 0.006*"needs" + 0.006*"provided" + 0.006*"risk" + 0.005*"impact" + 0.005*"Bracknell" + 0.005*"Forest" + 0.005*"good" + 0.005*"quality" + 0.005*"effective"', '0.018*"’" + 0.008*"Forest" + 0.007*"good" + 0.007*"Bracknell" + 0.007*"quality" + 0.007*"needs" + 0.006*"effective" + 0.006*"progress" + 0.006*"well" + 0.005*"plans"']</t>
+    <t>['0.016*"’" + 0.008*"Forest" + 0.007*"good" + 0.007*"needs" + 0.007*"Bracknell" + 0.007*"provided" + 0.007*"quality" + 0.006*"risk" + 0.006*"effective" + 0.006*"progress"', '0.012*"’" + 0.007*"Bracknell" + 0.007*"risk" + 0.006*"well" + 0.006*"needs" + 0.005*"good" + 0.005*"quality" + 0.005*"plans" + 0.005*"Forest" + 0.005*"progress"', '0.020*"’" + 0.007*"needs" + 0.006*"Forest" + 0.006*"risk" + 0.006*"effective" + 0.006*"Bracknell" + 0.006*"plans" + 0.006*"well" + 0.005*"need" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80438</t>
@@ -442,7 +442,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"needs" + 0.008*"good" + 0.006*"well" + 0.005*"However" + 0.005*"response" + 0.005*"leaders" + 0.005*"recording" + 0.004*"Senior" + 0.004*"timely"', '0.014*"’" + 0.010*"needs" + 0.008*"good" + 0.006*"recording" + 0.005*"leaders" + 0.005*"plans" + 0.005*"well" + 0.005*"However" + 0.005*"ensure" + 0.005*"Hove"', '0.013*"’" + 0.009*"good" + 0.009*"needs" + 0.007*"recording" + 0.006*"leaders" + 0.006*"need" + 0.006*"well" + 0.005*"plans" + 0.004*"arrangements" + 0.004*"effective"']</t>
+    <t>['0.014*"’" + 0.008*"good" + 0.008*"needs" + 0.007*"recording" + 0.006*"leaders" + 0.005*"well" + 0.005*"improve" + 0.005*"need" + 0.005*"However" + 0.005*"timely"', '0.013*"’" + 0.011*"needs" + 0.009*"good" + 0.006*"leaders" + 0.006*"well" + 0.005*"plans" + 0.005*"need" + 0.004*"recording" + 0.004*"timely" + 0.004*"quality"', '0.014*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"recording" + 0.005*"well" + 0.005*"need" + 0.004*"Brighton" + 0.004*"leaders" + 0.004*"Hove" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -478,7 +478,7 @@
     <t>0.1875</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.006*"Bristol" + 0.005*"needs" + 0.005*"good" + 0.004*"16" + 0.004*"progress" + 0.004*"leaders" + 0.004*"27" + 0.004*"health"', '0.018*"’" + 0.008*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"Bristol" + 0.006*"health" + 0.005*"receive" + 0.005*"leaders" + 0.005*"need" + 0.004*"understand"', '0.024*"’" + 0.011*"well" + 0.009*"good" + 0.009*"Bristol" + 0.008*"needs" + 0.006*"progress" + 0.005*"plans" + 0.005*"health" + 0.005*"need" + 0.005*"arrangements"']</t>
+    <t>['0.021*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"Bristol" + 0.006*"good" + 0.005*"plans" + 0.005*"receive" + 0.005*"16" + 0.005*"need" + 0.005*"progress"', '0.014*"’" + 0.009*"well" + 0.008*"good" + 0.007*"needs" + 0.007*"Bristol" + 0.006*"health" + 0.005*"progress" + 0.004*"need" + 0.004*"living" + 0.004*"information"', '0.021*"’" + 0.009*"good" + 0.008*"well" + 0.007*"Bristol" + 0.007*"needs" + 0.005*"progress" + 0.005*"leaders" + 0.005*"health" + 0.005*"plans" + 0.005*"always"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -511,7 +511,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.005*"Buckinghamshire" + 0.005*"number" + 0.004*"plans" + 0.004*"2021" + 0.004*"protection" + 0.004*"progress" + 0.004*"practice" + 0.003*"6" + 0.003*"needs"', '0.012*"’" + 0.005*"17" + 0.005*"plans" + 0.004*"number" + 0.004*"many" + 0.004*"6" + 0.004*"protection" + 0.004*"December" + 0.003*"practice" + 0.003*"well"', '0.016*"’" + 0.006*"plans" + 0.005*"Buckinghamshire" + 0.005*"December" + 0.005*"number" + 0.005*"17" + 0.004*"6" + 0.004*"many" + 0.004*"teams" + 0.004*"protection"']</t>
+    <t>['0.015*"’" + 0.005*"number" + 0.005*"plans" + 0.005*"17" + 0.005*"many" + 0.005*"Buckinghamshire" + 0.004*"practice" + 0.004*"6" + 0.004*"needs" + 0.004*"well"', '0.012*"’" + 0.004*"Buckinghamshire" + 0.004*"plans" + 0.004*"17" + 0.004*"protection" + 0.004*"many" + 0.004*"6" + 0.003*"practice" + 0.003*"number" + 0.003*"progress"', '0.012*"’" + 0.006*"plans" + 0.005*"number" + 0.005*"2021" + 0.004*"Buckinghamshire" + 0.004*"protection" + 0.004*"17" + 0.004*"December" + 0.004*"6" + 0.003*"progress"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -550,7 +550,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"protection" + 0.006*"needs" + 0.006*"practice" + 0.006*"2021" + 0.005*"quality" + 0.005*"impact" + 0.005*"October" + 0.005*"Bury" + 0.005*"risk"', '0.010*"’" + 0.007*"needs" + 0.006*"team" + 0.006*"2021" + 0.005*"need" + 0.005*"practice" + 0.005*"risk" + 0.005*"protection" + 0.004*"lack" + 0.004*"Bury"', '0.010*"’" + 0.008*"2021" + 0.007*"protection" + 0.006*"needs" + 0.006*"team" + 0.006*"impact" + 0.006*"practice" + 0.005*"need" + 0.005*"Bury" + 0.004*"quality"']</t>
+    <t>['0.012*"’" + 0.006*"protection" + 0.006*"quality" + 0.006*"needs" + 0.006*"2021" + 0.005*"need" + 0.005*"impact" + 0.005*"Bury" + 0.005*"new" + 0.004*"timely"', '0.010*"’" + 0.008*"2021" + 0.007*"practice" + 0.006*"protection" + 0.006*"needs" + 0.006*"risk" + 0.005*"team" + 0.005*"impact" + 0.005*"delay" + 0.005*"October"', '0.012*"’" + 0.007*"team" + 0.007*"needs" + 0.006*"protection" + 0.005*"2021" + 0.005*"need" + 0.005*"impact" + 0.005*"practice" + 0.005*"Bury" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -583,7 +583,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"well" + 0.005*"effective" + 0.005*"practice" + 0.004*"‘" + 0.004*"Calderdale" + 0.004*"good" + 0.004*"leaders" + 0.004*"carers" + 0.004*"education"', '0.018*"’" + 0.007*"well" + 0.006*"good" + 0.005*"practice" + 0.005*"protection" + 0.005*"Calderdale" + 0.004*"education" + 0.004*"need" + 0.004*"carers" + 0.004*"effective"', '0.013*"’" + 0.008*"well" + 0.006*"Calderdale" + 0.006*"practice" + 0.005*"good" + 0.005*"protection" + 0.004*"‘" + 0.004*"effective" + 0.004*"needs" + 0.004*"risk"']</t>
+    <t>['0.008*"’" + 0.005*"well" + 0.005*"practice" + 0.004*"good" + 0.004*"protection" + 0.004*"education" + 0.003*"effective" + 0.003*"training" + 0.003*"Calderdale" + 0.003*"‘"', '0.015*"’" + 0.006*"well" + 0.006*"Calderdale" + 0.006*"practice" + 0.005*"good" + 0.004*"protection" + 0.004*"needs" + 0.004*"leaders" + 0.004*"carers" + 0.004*"Senior"', '0.018*"’" + 0.009*"well" + 0.006*"good" + 0.005*"effective" + 0.005*"Calderdale" + 0.005*"practice" + 0.005*"inform" + 0.005*"‘" + 0.004*"protection" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -622,7 +622,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.011*"well" + 0.010*"needs" + 0.009*"good" + 0.008*"teams" + 0.007*"need" + 0.006*"plans" + 0.006*"quality" + 0.006*"However" + 0.006*"impact"', '0.015*"’" + 0.009*"well" + 0.008*"good" + 0.007*"plans" + 0.006*"impact" + 0.006*"need" + 0.006*"effective" + 0.006*"teams" + 0.005*"quality" + 0.005*"needs"', '0.012*"’" + 0.008*"impact" + 0.008*"well" + 0.008*"good" + 0.008*"need" + 0.007*"needs" + 0.006*"teams" + 0.006*"plans" + 0.006*"quality" + 0.006*"However"']</t>
+    <t>['0.014*"’" + 0.011*"well" + 0.008*"needs" + 0.008*"good" + 0.008*"plans" + 0.007*"teams" + 0.007*"impact" + 0.007*"need" + 0.006*"quality" + 0.005*"However"', '0.015*"’" + 0.010*"good" + 0.009*"well" + 0.009*"need" + 0.007*"impact" + 0.007*"plans" + 0.007*"needs" + 0.006*"teams" + 0.006*"effective" + 0.006*"quality"', '0.014*"’" + 0.008*"well" + 0.008*"good" + 0.007*"needs" + 0.007*"teams" + 0.006*"impact" + 0.006*"need" + 0.006*"quality" + 0.005*"However" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -655,7 +655,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"well" + 0.008*"need" + 0.007*"carers" + 0.007*"plans" + 0.006*"good" + 0.006*"needs" + 0.005*"Central" + 0.005*"effective" + 0.005*"progress"', '0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.006*"progress" + 0.005*"need" + 0.005*"good" + 0.005*"carers" + 0.005*"Central" + 0.004*"plans" + 0.004*"Bedfordshire"', '0.015*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"good" + 0.005*"carers" + 0.005*"plans" + 0.005*"need" + 0.005*"progress" + 0.004*"Bedfordshire" + 0.004*"number"']</t>
+    <t>['0.013*"’" + 0.008*"well" + 0.007*"need" + 0.007*"carers" + 0.006*"good" + 0.006*"plans" + 0.005*"needs" + 0.005*"Central" + 0.005*"progress" + 0.004*"effective"', '0.017*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"effective" + 0.005*"plans" + 0.005*"need" + 0.005*"carers" + 0.005*"Central" + 0.005*"Bedfordshire"', '0.018*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"need" + 0.007*"progress" + 0.006*"carers" + 0.006*"plans" + 0.005*"Bedfordshire" + 0.005*"Leaders" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -694,7 +694,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"practice" + 0.008*"well" + 0.007*"good" + 0.006*"plans" + 0.006*"However" + 0.006*"needs" + 0.006*"ensure" + 0.006*"supported" + 0.005*"need"', '0.018*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"plans" + 0.006*"good" + 0.006*"need" + 0.006*"ensure" + 0.006*"always" + 0.006*"progress" + 0.006*"carers"', '0.011*"’" + 0.008*"good" + 0.007*"well" + 0.007*"needs" + 0.006*"always" + 0.006*"However" + 0.005*"effective" + 0.005*"supported" + 0.005*"plans" + 0.005*"practice"']</t>
+    <t>['0.013*"’" + 0.007*"plans" + 0.007*"always" + 0.007*"good" + 0.007*"needs" + 0.006*"well" + 0.005*"need" + 0.005*"supported" + 0.005*"cases" + 0.005*"progress"', '0.014*"’" + 0.010*"well" + 0.009*"good" + 0.007*"needs" + 0.007*"practice" + 0.006*"risk" + 0.006*"supported" + 0.005*"ensure" + 0.005*"plans" + 0.005*"need"', '0.012*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"practice" + 0.006*"However" + 0.006*"need" + 0.006*"good" + 0.005*"supported" + 0.005*"carers"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -733,7 +733,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"practice" + 0.004*"effectively" + 0.004*"always" + 0.004*"information" + 0.004*"plans" + 0.004*"order" + 0.004*"effective"', '0.026*"’" + 0.008*"well" + 0.008*"needs" + 0.005*"practice" + 0.005*"effectively" + 0.005*"impact" + 0.005*"timely" + 0.004*"always" + 0.004*"order" + 0.004*"intervention"', '0.014*"’" + 0.007*"well" + 0.006*"needs" + 0.004*"effective" + 0.004*"practice" + 0.004*"order" + 0.004*"learning" + 0.004*"receive" + 0.004*"plans" + 0.004*"impact"']</t>
+    <t>['0.021*"’" + 0.007*"needs" + 0.007*"well" + 0.005*"practice" + 0.004*"plans" + 0.004*"effectively" + 0.004*"impact" + 0.004*"information" + 0.004*"risk" + 0.004*"always"', '0.027*"’" + 0.008*"well" + 0.008*"needs" + 0.005*"effective" + 0.005*"always" + 0.005*"learning" + 0.005*"order" + 0.005*"impact" + 0.004*"practice" + 0.004*"progress"', '0.011*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"needs" + 0.004*"plans" + 0.004*"order" + 0.004*"small" + 0.004*"receive" + 0.004*"effectively" + 0.003*"intervention"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -772,7 +772,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.008*"plans" + 0.005*"needs" + 0.005*"2" + 0.005*"◼" + 0.005*"practice" + 0.004*"impact" + 0.004*"21" + 0.004*"December" + 0.004*"Metropolitan"', '0.020*"’" + 0.006*"Bradford" + 0.005*"plans" + 0.005*"needs" + 0.005*"2" + 0.005*"risk" + 0.005*"changes" + 0.005*"2022" + 0.005*"November" + 0.004*"senior"', '0.019*"’" + 0.007*"plans" + 0.005*"need" + 0.005*"Council" + 0.005*"quality" + 0.004*"Bradford" + 0.004*"needs" + 0.004*"risk" + 0.004*"lack" + 0.004*"impact"']</t>
+    <t>['0.021*"’" + 0.006*"plans" + 0.005*"Bradford" + 0.005*"needs" + 0.005*"2" + 0.005*"impact" + 0.005*"practice" + 0.005*"need" + 0.004*"21" + 0.004*"lack"', '0.020*"’" + 0.006*"plans" + 0.004*"◼" + 0.004*"2" + 0.004*"impact" + 0.004*"changes" + 0.004*"21" + 0.004*"needs" + 0.004*"progress" + 0.004*"Bradford"', '0.020*"’" + 0.008*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"Bradford" + 0.005*"risk" + 0.005*"senior" + 0.004*"2022" + 0.004*"Metropolitan" + 0.004*"2"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -808,7 +808,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.013*"needs" + 0.013*"’" + 0.010*"ensure" + 0.009*"well" + 0.006*"effective" + 0.006*"clear" + 0.006*"good" + 0.006*"plans" + 0.006*"progress" + 0.005*"individual"', '0.014*"’" + 0.011*"well" + 0.010*"needs" + 0.007*"ensure" + 0.007*"effective" + 0.006*"progress" + 0.006*"clear" + 0.005*"plans" + 0.005*"experiences" + 0.005*"good"', '0.010*"needs" + 0.010*"well" + 0.008*"ensure" + 0.007*"’" + 0.006*"clear" + 0.006*"effective" + 0.005*"progress" + 0.005*"within" + 0.004*"supported" + 0.004*"good"']</t>
+    <t>['0.010*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"ensure" + 0.005*"clear" + 0.004*"individual" + 0.004*"clearly" + 0.004*"effective" + 0.004*"progress" + 0.004*"within"', '0.013*"’" + 0.012*"needs" + 0.010*"well" + 0.007*"good" + 0.007*"effective" + 0.007*"ensure" + 0.006*"individual" + 0.006*"within" + 0.005*"plans" + 0.005*"clear"', '0.013*"needs" + 0.012*"’" + 0.011*"well" + 0.010*"ensure" + 0.008*"clear" + 0.008*"progress" + 0.007*"effective" + 0.007*"plans" + 0.005*"supported" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -847,7 +847,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.007*"effective" + 0.006*"19" + 0.006*"quality" + 0.006*"leaders" + 0.006*"Wakefield" + 0.006*"good" + 0.006*"November" + 0.005*"plans"', '0.012*"’" + 0.008*"Wakefield" + 0.007*"well" + 0.006*"quality" + 0.006*"plans" + 0.006*"November" + 0.006*"leaders" + 0.006*"good" + 0.006*"needs" + 0.005*"effective"', '0.018*"’" + 0.009*"quality" + 0.009*"November" + 0.008*"Wakefield" + 0.008*"leaders" + 0.007*"good" + 0.007*"well" + 0.007*"effective" + 0.006*"plans" + 0.006*"practice"']</t>
+    <t>['0.014*"’" + 0.009*"leaders" + 0.009*"quality" + 0.008*"well" + 0.008*"Wakefield" + 0.006*"effective" + 0.006*"good" + 0.006*"November" + 0.005*"receive" + 0.005*"needs"', '0.015*"’" + 0.007*"Wakefield" + 0.006*"effective" + 0.006*"leaders" + 0.006*"November" + 0.005*"receive" + 0.005*"progress" + 0.005*"good" + 0.005*"plans" + 0.005*"practice"', '0.020*"’" + 0.009*"November" + 0.009*"well" + 0.008*"quality" + 0.008*"Wakefield" + 0.007*"good" + 0.007*"effective" + 0.007*"plans" + 0.006*"leaders" + 0.006*"progress"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -880,7 +880,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"March" + 0.008*"needs" + 0.007*"effective" + 0.005*"However" + 0.005*"quality" + 0.005*"well" + 0.005*"need" + 0.005*"York" + 0.005*"good"', '0.012*"’" + 0.008*"quality" + 0.007*"needs" + 0.007*"March" + 0.006*"ensure" + 0.006*"effective" + 0.005*"plans" + 0.005*"York" + 0.005*"However" + 0.004*"7"', '0.014*"’" + 0.007*"needs" + 0.007*"quality" + 0.006*"March" + 0.006*"York" + 0.005*"practice" + 0.005*"However" + 0.005*"effective" + 0.005*"training" + 0.005*"ensure"']</t>
+    <t>['0.010*"’" + 0.006*"needs" + 0.006*"effective" + 0.006*"York" + 0.006*"March" + 0.005*"well" + 0.005*"ensure" + 0.005*"practice" + 0.005*"However" + 0.005*"appropriate"', '0.018*"’" + 0.008*"needs" + 0.008*"quality" + 0.008*"March" + 0.006*"effective" + 0.005*"plans" + 0.005*"supported" + 0.005*"However" + 0.005*"York" + 0.005*"training"', '0.016*"’" + 0.007*"March" + 0.007*"needs" + 0.006*"quality" + 0.006*"ensure" + 0.006*"effective" + 0.005*"However" + 0.005*"good" + 0.005*"need" + 0.004*"7"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -919,7 +919,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.017*"well" + 0.011*"’" + 0.009*"effective" + 0.009*"leaders" + 0.007*"quality" + 0.006*"plans" + 0.006*"arrangements" + 0.005*"timely" + 0.005*"good" + 0.005*"Senior"', '0.013*"well" + 0.011*"’" + 0.010*"leaders" + 0.010*"quality" + 0.008*"effective" + 0.006*"good" + 0.005*"timely" + 0.005*"plans" + 0.005*"Senior" + 0.005*"arrangements"', '0.015*"’" + 0.013*"well" + 0.011*"quality" + 0.009*"effective" + 0.007*"plans" + 0.006*"good" + 0.006*"leaders" + 0.006*"arrangements" + 0.006*"timely" + 0.005*"highly"']</t>
+    <t>['0.013*"well" + 0.012*"’" + 0.010*"leaders" + 0.008*"quality" + 0.007*"effective" + 0.006*"arrangements" + 0.006*"plans" + 0.006*"timely" + 0.005*"high" + 0.005*"good"', '0.013*"well" + 0.010*"’" + 0.009*"quality" + 0.009*"effective" + 0.008*"leaders" + 0.007*"good" + 0.006*"plans" + 0.005*"arrangements" + 0.005*"timely" + 0.005*"needs"', '0.017*"well" + 0.013*"’" + 0.011*"quality" + 0.010*"effective" + 0.007*"leaders" + 0.006*"plans" + 0.005*"highly" + 0.005*"timely" + 0.005*"good" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -952,7 +952,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.014*"Scilly" + 0.010*"Isles" + 0.008*"need" + 0.007*"protection" + 0.007*"information" + 0.007*"risks" + 0.006*"practice" + 0.006*"quality" + 0.005*"needs"', '0.025*"’" + 0.014*"Isles" + 0.013*"Scilly" + 0.010*"information" + 0.010*"practice" + 0.009*"need" + 0.007*"needs" + 0.007*"protection" + 0.007*"place" + 0.006*"quality"', '0.016*"’" + 0.010*"Isles" + 0.008*"information" + 0.008*"practice" + 0.007*"Scilly" + 0.007*"needs" + 0.006*"need" + 0.005*"13" + 0.005*"protection" + 0.005*"quality"']</t>
+    <t>['0.022*"’" + 0.014*"Isles" + 0.013*"Scilly" + 0.009*"practice" + 0.008*"information" + 0.007*"needs" + 0.007*"need" + 0.006*"protection" + 0.006*"place" + 0.005*"quality"', '0.020*"’" + 0.010*"Isles" + 0.010*"information" + 0.009*"Scilly" + 0.007*"protection" + 0.007*"practice" + 0.006*"need" + 0.006*"needs" + 0.006*"quality" + 0.005*"place"', '0.020*"’" + 0.013*"Scilly" + 0.012*"Isles" + 0.010*"need" + 0.009*"information" + 0.009*"practice" + 0.007*"risks" + 0.007*"protection" + 0.006*"quality" + 0.006*"needs"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -991,7 +991,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.009*"well" + 0.007*"supported" + 0.007*"needs" + 0.007*"Coventry" + 0.006*"strong" + 0.006*"plans" + 0.005*"20" + 0.005*"July" + 0.005*"need"', '0.015*"’" + 0.009*"Coventry" + 0.008*"needs" + 0.007*"well" + 0.006*"supported" + 0.006*"family" + 0.006*"need" + 0.005*"strong" + 0.005*"1" + 0.005*"plans"', '0.020*"’" + 0.008*"Coventry" + 0.008*"well" + 0.007*"plans" + 0.006*"needs" + 0.006*"supported" + 0.006*"family" + 0.005*"strong" + 0.005*"2022" + 0.004*"need"']</t>
+    <t>['0.023*"’" + 0.009*"supported" + 0.009*"well" + 0.008*"needs" + 0.007*"Coventry" + 0.006*"family" + 0.006*"plans" + 0.005*"need" + 0.005*"PAs" + 0.005*"1"', '0.021*"’" + 0.009*"Coventry" + 0.008*"well" + 0.008*"needs" + 0.006*"strong" + 0.006*"plans" + 0.005*"supported" + 0.005*"family" + 0.004*"However" + 0.004*"need"', '0.012*"’" + 0.008*"Coventry" + 0.006*"well" + 0.006*"needs" + 0.006*"family" + 0.006*"plans" + 0.005*"strong" + 0.005*"need" + 0.005*"supported" + 0.005*"understand"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -1030,7 +1030,7 @@
     <t>0.1983</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"leaders" + 0.008*"needs" + 0.007*"October" + 0.006*"practice" + 0.006*"well" + 0.005*"Darlington" + 0.005*"effective" + 0.004*"understand" + 0.004*"supported"', '0.021*"’" + 0.010*"well" + 0.007*"October" + 0.007*"Darlington" + 0.006*"leaders" + 0.006*"needs" + 0.006*"practice" + 0.005*"effective" + 0.005*"quality" + 0.005*"10"', '0.012*"’" + 0.006*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"quality" + 0.005*"October" + 0.005*"Darlington" + 0.004*"leaders" + 0.004*"supported" + 0.004*"education"']</t>
+    <t>['0.020*"’" + 0.008*"needs" + 0.008*"October" + 0.007*"well" + 0.006*"leaders" + 0.006*"practice" + 0.006*"quality" + 0.006*"Darlington" + 0.005*"supported" + 0.005*"education"', '0.016*"’" + 0.009*"well" + 0.008*"October" + 0.007*"Darlington" + 0.007*"leaders" + 0.005*"practice" + 0.005*"needs" + 0.005*"effective" + 0.005*"10" + 0.004*"family"', '0.019*"’" + 0.008*"well" + 0.007*"leaders" + 0.007*"practice" + 0.006*"needs" + 0.005*"effective" + 0.005*"supported" + 0.005*"understand" + 0.004*"October" + 0.004*"Darlington"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -1072,7 +1072,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.011*"needs" + 0.007*"Derby" + 0.006*"good" + 0.006*"receive" + 0.006*"well" + 0.006*"quality" + 0.006*"plans" + 0.006*"leaders" + 0.006*"appropriate"', '0.022*"’" + 0.009*"Derby" + 0.009*"needs" + 0.007*"quality" + 0.006*"receive" + 0.006*"progress" + 0.005*"plans" + 0.005*"25" + 0.005*"well" + 0.005*"good"', '0.017*"’" + 0.008*"needs" + 0.006*"quality" + 0.005*"need" + 0.005*"Derby" + 0.005*"leaders" + 0.005*"appropriate" + 0.005*"receive" + 0.005*"plans" + 0.005*"progress"']</t>
+    <t>['0.024*"’" + 0.009*"Derby" + 0.009*"needs" + 0.008*"quality" + 0.007*"well" + 0.006*"progress" + 0.006*"receive" + 0.006*"good" + 0.006*"plans" + 0.006*"need"', '0.018*"’" + 0.013*"needs" + 0.006*"appropriate" + 0.006*"receive" + 0.006*"need" + 0.006*"Derby" + 0.006*"quality" + 0.005*"leaders" + 0.005*"plans" + 0.005*"carers"', '0.019*"’" + 0.006*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.006*"progress" + 0.005*"Derby" + 0.005*"receive" + 0.005*"quality" + 0.005*"25" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80460</t>
@@ -1105,7 +1105,7 @@
     <t>0.1913</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.006*"well" + 0.006*"Derbyshire" + 0.005*"health" + 0.005*"plans" + 0.005*"good" + 0.004*"leaders" + 0.004*"need" + 0.004*"practice" + 0.004*"10"', '0.015*"’" + 0.009*"well" + 0.008*"Derbyshire" + 0.005*"plans" + 0.005*"positive" + 0.005*"needs" + 0.005*"November" + 0.005*"leaders" + 0.004*"good" + 0.004*"effective"', '0.014*"’" + 0.008*"well" + 0.005*"Derbyshire" + 0.005*"number" + 0.005*"health" + 0.005*"education" + 0.005*"10" + 0.005*"plans" + 0.005*"2023" + 0.004*"needs"']</t>
+    <t>['0.012*"’" + 0.007*"Derbyshire" + 0.006*"well" + 0.005*"leaders" + 0.005*"effective" + 0.005*"health" + 0.005*"10" + 0.005*"positive" + 0.004*"needs" + 0.004*"number"', '0.016*"’" + 0.009*"well" + 0.006*"Derbyshire" + 0.006*"positive" + 0.005*"plans" + 0.004*"need" + 0.004*"needs" + 0.004*"education" + 0.004*"30" + 0.004*"2023"', '0.014*"’" + 0.008*"well" + 0.006*"Derbyshire" + 0.005*"plans" + 0.005*"good" + 0.005*"education" + 0.005*"needs" + 0.004*"number" + 0.004*"10" + 0.004*"30"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1138,7 +1138,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"risk" + 0.006*"well" + 0.005*"leaders" + 0.005*"health" + 0.004*"protection" + 0.004*"progress" + 0.004*"risks" + 0.004*"practice" + 0.004*"case"', '0.009*"’" + 0.007*"well" + 0.005*"health" + 0.005*"progress" + 0.004*"risk" + 0.004*"areas" + 0.004*"Devon" + 0.004*"leaders" + 0.004*"plans" + 0.003*"case"', '0.008*"’" + 0.005*"well" + 0.004*"leaders" + 0.004*"health" + 0.004*"progress" + 0.004*"time" + 0.004*"practice" + 0.004*"case" + 0.004*"living" + 0.003*"quality"']</t>
+    <t>['0.010*"’" + 0.006*"health" + 0.006*"risk" + 0.005*"well" + 0.005*"progress" + 0.005*"leaders" + 0.004*"need" + 0.004*"protection" + 0.004*"plans" + 0.004*"quality"', '0.009*"’" + 0.007*"well" + 0.005*"health" + 0.004*"case" + 0.004*"leaders" + 0.004*"Devon" + 0.004*"progress" + 0.004*"risks" + 0.004*"protection" + 0.004*"living"', '0.009*"’" + 0.005*"well" + 0.005*"leaders" + 0.004*"risk" + 0.004*"Devon" + 0.004*"case" + 0.004*"plans" + 0.004*"progress" + 0.004*"time" + 0.004*"areas"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1177,7 +1177,7 @@
     <t>0.1841</t>
   </si>
   <si>
-    <t>['0.026*"’" + 0.008*"well" + 0.007*"Doncaster" + 0.006*"plans" + 0.005*"progress" + 0.005*"records" + 0.005*"experiences" + 0.005*"information" + 0.005*"many" + 0.004*"14"', '0.013*"’" + 0.006*"well" + 0.006*"Doncaster" + 0.005*"leaders" + 0.005*"many" + 0.005*"receive" + 0.005*"arrangements" + 0.004*"quality" + 0.004*"oversight" + 0.004*"progress"', '0.017*"’" + 0.005*"records" + 0.005*"leaders" + 0.005*"many" + 0.005*"information" + 0.005*"quality" + 0.005*"Doncaster" + 0.005*"progress" + 0.004*"well" + 0.004*"25"']</t>
+    <t>['0.021*"’" + 0.007*"Doncaster" + 0.005*"well" + 0.005*"plans" + 0.005*"leaders" + 0.005*"progress" + 0.005*"information" + 0.004*"arrangements" + 0.004*"2022" + 0.004*"quality"', '0.014*"’" + 0.006*"leaders" + 0.005*"well" + 0.005*"Doncaster" + 0.005*"oversight" + 0.004*"many" + 0.004*"quality" + 0.004*"progress" + 0.004*"protection" + 0.004*"information"', '0.024*"’" + 0.008*"well" + 0.006*"records" + 0.006*"many" + 0.005*"Doncaster" + 0.005*"progress" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"quality" + 0.004*"14"']</t>
   </si>
   <si>
     <t>2532283</t>
@@ -1210,7 +1210,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"Dorset" + 0.005*"good" + 0.004*"2021" + 0.004*"well" + 0.004*"8" + 0.004*"arrangements" + 0.004*"including" + 0.003*"need" + 0.003*"October"', '0.013*"’" + 0.007*"Dorset" + 0.006*"well" + 0.006*"good" + 0.005*"arrangements" + 0.004*"needs" + 0.004*"change" + 0.004*"including" + 0.004*"leaders" + 0.004*"need"', '0.015*"’" + 0.009*"Dorset" + 0.007*"good" + 0.006*"well" + 0.005*"needs" + 0.005*"27" + 0.005*"arrangements" + 0.004*"8" + 0.004*"impact" + 0.004*"change"']</t>
+    <t>['0.013*"’" + 0.009*"Dorset" + 0.007*"well" + 0.005*"good" + 0.005*"8" + 0.005*"impact" + 0.004*"including" + 0.004*"change" + 0.004*"October" + 0.004*"supported"', '0.017*"’" + 0.007*"Dorset" + 0.006*"good" + 0.006*"arrangements" + 0.006*"needs" + 0.006*"well" + 0.004*"2021" + 0.004*"need" + 0.004*"leaders" + 0.004*"quality"', '0.010*"’" + 0.007*"Dorset" + 0.006*"good" + 0.005*"well" + 0.004*"27" + 0.004*"change" + 0.004*"needs" + 0.004*"8" + 0.004*"need" + 0.003*"September"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1240,7 +1240,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.008*"Dudley" + 0.006*"well" + 0.005*"However" + 0.004*"always" + 0.004*"management" + 0.004*"oversight" + 0.004*"quality" + 0.004*"arrangements"', '0.014*"’" + 0.013*"needs" + 0.008*"Dudley" + 0.007*"plans" + 0.006*"ensure" + 0.005*"always" + 0.005*"arrangements" + 0.005*"well" + 0.005*"enough" + 0.004*"November"', '0.017*"’" + 0.010*"needs" + 0.008*"Dudley" + 0.006*"arrangements" + 0.005*"always" + 0.005*"well" + 0.005*"oversight" + 0.005*"quality" + 0.004*"timely" + 0.004*"31"']</t>
+    <t>['0.014*"’" + 0.009*"needs" + 0.007*"Dudley" + 0.005*"always" + 0.005*"However" + 0.005*"arrangements" + 0.004*"oversight" + 0.004*"timely" + 0.004*"11" + 0.004*"31"', '0.015*"’" + 0.013*"needs" + 0.008*"Dudley" + 0.006*"well" + 0.006*"arrangements" + 0.005*"quality" + 0.005*"plans" + 0.005*"oversight" + 0.005*"always" + 0.004*"October"', '0.016*"’" + 0.010*"needs" + 0.009*"Dudley" + 0.006*"plans" + 0.006*"well" + 0.006*"ensure" + 0.005*"always" + 0.005*"experiences" + 0.004*"arrangements" + 0.004*"management"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1279,7 +1279,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.011*"needs" + 0.008*"Durham" + 0.007*"well" + 0.006*"plans" + 0.005*"ensure" + 0.005*"May" + 0.005*"practice" + 0.004*"protection" + 0.004*"oversight"', '0.013*"needs" + 0.013*"’" + 0.009*"May" + 0.007*"plans" + 0.006*"well" + 0.006*"practice" + 0.006*"Durham" + 0.006*"ensure" + 0.005*"20" + 0.005*"leaders"', '0.014*"’" + 0.008*"needs" + 0.007*"May" + 0.007*"well" + 0.007*"Durham" + 0.006*"ensure" + 0.006*"plans" + 0.005*"identified" + 0.005*"risks" + 0.005*"practice"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.007*"May" + 0.007*"well" + 0.007*"practice" + 0.006*"ensure" + 0.006*"plans" + 0.005*"Durham" + 0.005*"leaders" + 0.005*"effective"', '0.015*"’" + 0.010*"needs" + 0.008*"Durham" + 0.008*"well" + 0.007*"plans" + 0.007*"May" + 0.006*"ensure" + 0.005*"family" + 0.005*"meetings" + 0.004*"risks"', '0.014*"’" + 0.010*"needs" + 0.007*"Durham" + 0.007*"May" + 0.006*"plans" + 0.005*"well" + 0.005*"practice" + 0.005*"ensure" + 0.004*"leaders" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1318,7 +1318,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.009*"needs" + 0.009*"plans" + 0.007*"well" + 0.007*"progress" + 0.006*"Riding" + 0.005*"East" + 0.004*"quality" + 0.004*"practice" + 0.004*"training"', '0.019*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"East" + 0.007*"plans" + 0.007*"progress" + 0.006*"Riding" + 0.005*"place" + 0.005*"education" + 0.005*"partners"', '0.018*"’" + 0.009*"plans" + 0.009*"well" + 0.008*"needs" + 0.007*"progress" + 0.006*"Riding" + 0.005*"10" + 0.005*"East" + 0.005*"information" + 0.005*"good"']</t>
+    <t>['0.017*"’" + 0.011*"well" + 0.009*"plans" + 0.009*"needs" + 0.007*"East" + 0.007*"Riding" + 0.006*"10" + 0.006*"progress" + 0.005*"good" + 0.005*"education"', '0.015*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"East" + 0.006*"well" + 0.006*"Riding" + 0.006*"progress" + 0.005*"10" + 0.005*"good" + 0.005*"information"', '0.016*"’" + 0.010*"needs" + 0.009*"progress" + 0.008*"plans" + 0.006*"well" + 0.005*"Riding" + 0.005*"partners" + 0.005*"30" + 0.005*"2023" + 0.004*"education"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1351,7 +1351,7 @@
     <t>0.1738</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"including" + 0.007*"progress" + 0.006*"plans" + 0.006*"East" + 0.005*"experiences" + 0.005*"11" + 0.005*"impact"', '0.009*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"progress" + 0.004*"East" + 0.004*"provide" + 0.004*"effective" + 0.004*"experiences" + 0.003*"education"', '0.017*"’" + 0.011*"well" + 0.010*"plans" + 0.008*"Sussex" + 0.008*"needs" + 0.008*"East" + 0.006*"progress" + 0.006*"impact" + 0.006*"including" + 0.006*"relationships"']</t>
+    <t>['0.020*"’" + 0.008*"well" + 0.007*"Sussex" + 0.007*"plans" + 0.007*"needs" + 0.007*"East" + 0.006*"progress" + 0.005*"impact" + 0.005*"experiences" + 0.005*"including"', '0.015*"’" + 0.012*"well" + 0.009*"plans" + 0.008*"needs" + 0.008*"East" + 0.007*"including" + 0.006*"progress" + 0.005*"Sussex" + 0.005*"impact" + 0.005*"effective"', '0.012*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"progress" + 0.005*"Sussex" + 0.005*"provide" + 0.004*"11" + 0.004*"impact" + 0.004*"including"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1390,7 +1390,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"well" + 0.005*"progress" + 0.005*"needs" + 0.005*"Essex" + 0.005*"plans" + 0.005*"helped" + 0.005*"leaders" + 0.005*"need" + 0.004*"understand"', '0.018*"’" + 0.007*"well" + 0.006*"progress" + 0.006*"plans" + 0.006*"needs" + 0.006*"family" + 0.006*"new" + 0.005*"Essex" + 0.005*"experiences" + 0.005*"understand"', '0.019*"’" + 0.007*"progress" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"risk" + 0.005*"family" + 0.005*"leaders" + 0.005*"parents" + 0.005*"experiences"']</t>
+    <t>['0.017*"’" + 0.008*"progress" + 0.008*"plans" + 0.007*"needs" + 0.006*"well" + 0.005*"family" + 0.005*"advisers" + 0.005*"need" + 0.005*"quality" + 0.005*"Essex"', '0.014*"’" + 0.007*"well" + 0.006*"progress" + 0.005*"Essex" + 0.005*"family" + 0.005*"experiences" + 0.005*"understand" + 0.005*"leaders" + 0.005*"needs" + 0.005*"practice"', '0.022*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"progress" + 0.005*"parents" + 0.005*"risk" + 0.005*"supported" + 0.005*"new" + 0.005*"‘"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1429,7 +1429,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"effective" + 0.007*"quality" + 0.007*"good" + 0.007*"practice" + 0.006*"well" + 0.006*"home" + 0.005*"timely" + 0.005*"needs" + 0.005*"plans"', '0.010*"’" + 0.007*"effective" + 0.005*"progress" + 0.005*"good" + 0.005*"quality" + 0.005*"timely" + 0.005*"well" + 0.005*"focus" + 0.004*"practice" + 0.004*"needs"', '0.012*"’" + 0.008*"effective" + 0.007*"needs" + 0.007*"practice" + 0.007*"good" + 0.005*"quality" + 0.005*"improve" + 0.005*"well" + 0.005*"timely" + 0.005*"need"']</t>
+    <t>['0.013*"’" + 0.007*"good" + 0.007*"effective" + 0.006*"quality" + 0.005*"timely" + 0.005*"improve" + 0.004*"practice" + 0.004*"need" + 0.004*"well" + 0.004*"progress"', '0.009*"’" + 0.006*"effective" + 0.005*"quality" + 0.005*"practice" + 0.004*"progress" + 0.004*"good" + 0.003*"needs" + 0.003*"improve" + 0.003*"home" + 0.003*"timely"', '0.016*"’" + 0.010*"effective" + 0.008*"practice" + 0.008*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"quality" + 0.006*"timely" + 0.005*"early" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80470</t>
@@ -1465,7 +1465,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.009*"needs" + 0.008*"2022" + 0.007*"February" + 0.007*"well" + 0.006*"plans" + 0.006*"Gloucestershire" + 0.005*"appropriate" + 0.005*"protection" + 0.005*"need"', '0.014*"’" + 0.007*"February" + 0.007*"needs" + 0.006*"2022" + 0.005*"progress" + 0.005*"plans" + 0.005*"timely" + 0.004*"18" + 0.004*"well" + 0.004*"7"', '0.017*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"2022" + 0.006*"February" + 0.005*"experienced" + 0.005*"family" + 0.005*"well" + 0.005*"18" + 0.005*"progress"']</t>
+    <t>['0.009*"’" + 0.006*"2022" + 0.006*"needs" + 0.004*"well" + 0.004*"February" + 0.004*"experienced" + 0.004*"progress" + 0.003*"plans" + 0.003*"appropriate" + 0.003*"need"', '0.021*"’" + 0.009*"needs" + 0.008*"2022" + 0.008*"plans" + 0.007*"February" + 0.006*"Gloucestershire" + 0.006*"well" + 0.005*"18" + 0.005*"leaders" + 0.005*"family"', '0.017*"’" + 0.009*"needs" + 0.007*"February" + 0.007*"plans" + 0.006*"2022" + 0.006*"experienced" + 0.006*"progress" + 0.005*"well" + 0.005*"appropriate" + 0.005*"Gloucestershire"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1495,7 +1495,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.010*"well" + 0.008*"need" + 0.008*"needs" + 0.007*"plans" + 0.007*"good" + 0.006*"cases" + 0.006*"risk" + 0.006*"effective" + 0.006*"practice"', '0.012*"’" + 0.010*"well" + 0.009*"practice" + 0.008*"needs" + 0.007*"risk" + 0.006*"plans" + 0.006*"need" + 0.006*"planning" + 0.006*"always" + 0.006*"good"', '0.012*"’" + 0.010*"well" + 0.008*"practice" + 0.008*"needs" + 0.008*"plans" + 0.007*"planning" + 0.006*"effective" + 0.006*"quality" + 0.005*"risk" + 0.005*"good"']</t>
+    <t>['0.011*"’" + 0.010*"well" + 0.009*"plans" + 0.008*"needs" + 0.008*"practice" + 0.007*"need" + 0.007*"quality" + 0.006*"good" + 0.006*"risk" + 0.006*"receive"', '0.013*"’" + 0.012*"well" + 0.008*"practice" + 0.008*"needs" + 0.007*"plans" + 0.007*"risk" + 0.007*"good" + 0.007*"need" + 0.006*"planning" + 0.006*"cases"', '0.012*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"practice" + 0.006*"planning" + 0.006*"risk" + 0.006*"effective" + 0.005*"plans" + 0.005*"need" + 0.005*"always"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1522,7 +1522,7 @@
     <t>0.1893</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"needs" + 0.005*"plans" + 0.005*"well" + 0.004*"strong" + 0.004*"decisions" + 0.004*"leaders" + 0.004*"home" + 0.004*"improve" + 0.003*"quality"', '0.018*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"well" + 0.005*"quality" + 0.005*"strong" + 0.004*"leaders" + 0.004*"highly" + 0.004*"Hampshire" + 0.004*"improve"', '0.022*"’" + 0.009*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"quality" + 0.005*"home" + 0.004*"leaders" + 0.004*"health" + 0.004*"Hampshire" + 0.004*"carers"']</t>
+    <t>['0.015*"’" + 0.008*"needs" + 0.005*"well" + 0.005*"quality" + 0.004*"plans" + 0.004*"strong" + 0.004*"improve" + 0.004*"home" + 0.004*"leaders" + 0.004*"health"', '0.015*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"improve" + 0.004*"leaders" + 0.004*"home" + 0.004*"strong" + 0.004*"progress" + 0.004*"quality"', '0.023*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"well" + 0.005*"quality" + 0.004*"leaders" + 0.004*"strong" + 0.004*"highly" + 0.004*"Hampshire" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1558,7 +1558,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"well" + 0.007*"strong" + 0.006*"quality" + 0.004*"need" + 0.004*"needs" + 0.004*"good" + 0.004*"impact" + 0.004*"timely" + 0.004*"‘"', '0.015*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"good" + 0.005*"plans" + 0.005*"education" + 0.005*"strong" + 0.004*"progress" + 0.004*"practice" + 0.004*"experiences"', '0.016*"’" + 0.007*"well" + 0.007*"quality" + 0.005*"progress" + 0.005*"early" + 0.004*"strong" + 0.004*"good" + 0.004*"practice" + 0.004*"plans" + 0.004*"health"']</t>
+    <t>['0.012*"’" + 0.008*"quality" + 0.007*"well" + 0.005*"strong" + 0.005*"impact" + 0.004*"progress" + 0.004*"plans" + 0.004*"need" + 0.004*"good" + 0.004*"improve"', '0.019*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"good" + 0.005*"strong" + 0.005*"practice" + 0.004*"health" + 0.004*"progress" + 0.004*"Senior" + 0.004*"early"', '0.015*"’" + 0.011*"well" + 0.006*"strong" + 0.005*"quality" + 0.004*"good" + 0.004*"plans" + 0.004*"impact" + 0.004*"education" + 0.004*"practice" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80474</t>
@@ -1591,7 +1591,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"practice" + 0.007*"Herefordshire" + 0.006*"lack" + 0.005*"impact" + 0.005*"needs" + 0.005*"18" + 0.005*"many" + 0.004*"carers" + 0.004*"risk"', '0.015*"’" + 0.005*"practice" + 0.005*"Herefordshire" + 0.004*"2022" + 0.004*"plans" + 0.004*"needs" + 0.004*"progress" + 0.004*"July" + 0.004*"need" + 0.004*"lack"', '0.016*"’" + 0.005*"impact" + 0.005*"lack" + 0.005*"many" + 0.005*"plans" + 0.005*"needs" + 0.004*"carers" + 0.004*"progress" + 0.004*"Herefordshire" + 0.004*"29"']</t>
+    <t>['0.013*"’" + 0.007*"practice" + 0.005*"many" + 0.005*"lack" + 0.004*"impact" + 0.004*"Herefordshire" + 0.004*"carers" + 0.004*"plans" + 0.004*"2022" + 0.004*"July"', '0.016*"’" + 0.006*"Herefordshire" + 0.005*"needs" + 0.005*"many" + 0.005*"lack" + 0.004*"progress" + 0.004*"practice" + 0.004*"18" + 0.004*"impact" + 0.004*"quality"', '0.020*"’" + 0.006*"needs" + 0.006*"Herefordshire" + 0.005*"lack" + 0.005*"practice" + 0.005*"impact" + 0.005*"plans" + 0.004*"carers" + 0.004*"progress" + 0.004*"agency"']</t>
   </si>
   <si>
     <t>80475</t>
@@ -1624,7 +1624,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.006*"needs" + 0.006*"receive" + 0.006*"well" + 0.005*"Hertfordshire" + 0.005*"education" + 0.004*"need" + 0.004*"27" + 0.004*"23" + 0.004*"January"', '0.022*"’" + 0.007*"Hertfordshire" + 0.006*"well" + 0.006*"needs" + 0.004*"Leaders" + 0.004*"plans" + 0.004*"receive" + 0.004*"23" + 0.004*"positive" + 0.004*"2023"', '0.027*"’" + 0.007*"well" + 0.007*"Hertfordshire" + 0.006*"needs" + 0.005*"plans" + 0.005*"2023" + 0.004*"receive" + 0.004*"leaders" + 0.004*"effective" + 0.004*"risk"']</t>
+    <t>['0.029*"’" + 0.008*"well" + 0.007*"Hertfordshire" + 0.007*"needs" + 0.005*"plans" + 0.005*"receive" + 0.005*"need" + 0.004*"positive" + 0.004*"risk" + 0.004*"23"', '0.015*"’" + 0.006*"Hertfordshire" + 0.005*"needs" + 0.005*"2023" + 0.005*"well" + 0.005*"receive" + 0.004*"27" + 0.004*"risk" + 0.004*"plans" + 0.004*"leaders"', '0.020*"’" + 0.005*"needs" + 0.005*"well" + 0.005*"Hertfordshire" + 0.005*"receive" + 0.004*"effective" + 0.004*"Leaders" + 0.003*"training" + 0.003*"leaders" + 0.003*"progress"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1654,7 +1654,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"leaders" + 0.006*"3" + 0.006*"well" + 0.006*"Senior" + 0.005*"needs" + 0.005*"practice" + 0.005*"good" + 0.005*"improve" + 0.005*"Isle"', '0.019*"’" + 0.007*"leaders" + 0.006*"needs" + 0.006*"Wight" + 0.006*"progress" + 0.006*"Isle" + 0.005*"well" + 0.005*"plans" + 0.005*"supported" + 0.005*"PAs"', '0.018*"’" + 0.008*"leaders" + 0.005*"plans" + 0.005*"supported" + 0.005*"well" + 0.005*"Senior" + 0.005*"30" + 0.004*"improve" + 0.004*"PAs" + 0.004*"needs"']</t>
+    <t>['0.019*"’" + 0.008*"leaders" + 0.006*"needs" + 0.005*"well" + 0.005*"improve" + 0.005*"progress" + 0.005*"Isle" + 0.005*"supported" + 0.005*"experiences" + 0.005*"plans"', '0.015*"’" + 0.007*"needs" + 0.007*"leaders" + 0.005*"well" + 0.005*"Wight" + 0.005*"time" + 0.005*"supported" + 0.005*"plans" + 0.005*"30" + 0.005*"Senior"', '0.018*"’" + 0.010*"leaders" + 0.006*"3" + 0.006*"well" + 0.005*"PAs" + 0.005*"Wight" + 0.005*"Isle" + 0.005*"good" + 0.005*"Senior" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1678,7 +1678,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"Kent" + 0.008*"needs" + 0.007*"supported" + 0.006*"well" + 0.006*"Council" + 0.005*"practice" + 0.005*"County" + 0.004*"leaders" + 0.004*"2022"', '0.013*"’" + 0.011*"Kent" + 0.006*"Council" + 0.006*"well" + 0.005*"progress" + 0.005*"needs" + 0.004*"County" + 0.004*"9" + 0.004*"practice" + 0.004*"supported"', '0.017*"’" + 0.011*"Kent" + 0.009*"needs" + 0.006*"County" + 0.006*"well" + 0.006*"Council" + 0.005*"supported" + 0.005*"progress" + 0.004*"including" + 0.004*"leaders"']</t>
+    <t>['0.017*"’" + 0.013*"Kent" + 0.007*"needs" + 0.006*"well" + 0.006*"supported" + 0.005*"County" + 0.005*"Council" + 0.005*"practice" + 0.004*"progress" + 0.004*"2022"', '0.023*"’" + 0.009*"Kent" + 0.009*"needs" + 0.007*"Council" + 0.007*"well" + 0.006*"supported" + 0.005*"County" + 0.005*"progress" + 0.004*"including" + 0.004*"leaders"', '0.012*"’" + 0.007*"Kent" + 0.005*"needs" + 0.005*"Council" + 0.004*"progress" + 0.004*"supported" + 0.004*"County" + 0.004*"well" + 0.003*"family" + 0.003*"practice"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1708,7 +1708,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"number" + 0.006*"oversight" + 0.006*"protection" + 0.006*"planning" + 0.006*"need" + 0.006*"risks" + 0.006*"agency"', '0.013*"’" + 0.007*"planning" + 0.006*"Hull" + 0.006*"number" + 0.005*"risks" + 0.005*"need" + 0.005*"practice" + 0.005*"management" + 0.005*"progress" + 0.005*"protection"', '0.017*"’" + 0.008*"number" + 0.007*"planning" + 0.006*"protection" + 0.006*"needs" + 0.005*"small" + 0.005*"practice" + 0.005*"need" + 0.005*"management" + 0.005*"well"']</t>
+    <t>['0.021*"’" + 0.009*"number" + 0.006*"Hull" + 0.006*"risks" + 0.006*"need" + 0.006*"practice" + 0.006*"planning" + 0.005*"well" + 0.005*"protection" + 0.005*"impact"', '0.011*"’" + 0.009*"planning" + 0.007*"practice" + 0.006*"protection" + 0.006*"well" + 0.005*"need" + 0.005*"needs" + 0.005*"November" + 0.005*"small" + 0.005*"teams"', '0.013*"’" + 0.006*"well" + 0.006*"protection" + 0.006*"number" + 0.006*"Hull" + 0.005*"management" + 0.005*"planning" + 0.005*"agency" + 0.005*"practice" + 0.005*"oversight"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1741,7 +1741,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"good" + 0.007*"practice" + 0.006*"quality" + 0.006*"needs" + 0.005*"Senior" + 0.005*"well" + 0.005*"protection" + 0.005*"permanence" + 0.005*"plans"', '0.011*"’" + 0.007*"practice" + 0.007*"quality" + 0.005*"training" + 0.005*"senior" + 0.005*"well" + 0.005*"permanence" + 0.005*"good" + 0.005*"plans" + 0.005*"needs"', '0.010*"’" + 0.006*"quality" + 0.006*"plans" + 0.005*"permanence" + 0.005*"good" + 0.005*"Senior" + 0.005*"well" + 0.004*"protection" + 0.004*"training" + 0.004*"risk"']</t>
+    <t>['0.009*"’" + 0.006*"good" + 0.006*"quality" + 0.006*"practice" + 0.005*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"senior" + 0.004*"permanence" + 0.004*"training"', '0.015*"’" + 0.008*"practice" + 0.007*"quality" + 0.006*"good" + 0.006*"permanence" + 0.005*"Senior" + 0.005*"training" + 0.005*"plans" + 0.005*"protection" + 0.005*"need"', '0.009*"’" + 0.006*"quality" + 0.005*"well" + 0.005*"protection" + 0.005*"plans" + 0.005*"good" + 0.004*"needs" + 0.004*"Senior" + 0.004*"training" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1783,7 +1783,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"Knowsley" + 0.005*"2021" + 0.005*"progress" + 0.005*"quality" + 0.005*"experiences" + 0.005*"education" + 0.004*"good"', '0.018*"’" + 0.009*"quality" + 0.009*"progress" + 0.007*"need" + 0.006*"plans" + 0.006*"needs" + 0.005*"2021" + 0.005*"Knowsley" + 0.005*"11" + 0.005*"good"', '0.013*"’" + 0.009*"progress" + 0.008*"needs" + 0.007*"plans" + 0.007*"Knowsley" + 0.006*"2021" + 0.005*"quality" + 0.005*"experiences" + 0.005*"abuse" + 0.005*"consistently"']</t>
+    <t>['0.009*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"quality" + 0.005*"progress" + 0.005*"Knowsley" + 0.004*"2021" + 0.004*"experiences" + 0.004*"need" + 0.004*"risk"', '0.018*"’" + 0.010*"progress" + 0.009*"needs" + 0.008*"quality" + 0.006*"plans" + 0.006*"Knowsley" + 0.006*"2021" + 0.006*"experiences" + 0.006*"11" + 0.005*"22"', '0.013*"’" + 0.008*"plans" + 0.008*"progress" + 0.006*"Knowsley" + 0.006*"2021" + 0.006*"good" + 0.005*"quality" + 0.005*"needs" + 0.005*"need" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1816,7 +1816,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.011*"well" + 0.007*"need" + 0.006*"Lancashire" + 0.006*"needs" + 0.006*"plans" + 0.006*"positive" + 0.006*"supported" + 0.005*"progress" + 0.005*"live"', '0.015*"’" + 0.009*"needs" + 0.008*"need" + 0.008*"well" + 0.007*"Lancashire" + 0.006*"practice" + 0.006*"health" + 0.005*"information" + 0.005*"number" + 0.005*"plans"', '0.008*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"need" + 0.005*"supported" + 0.005*"positive" + 0.005*"Lancashire" + 0.004*"health" + 0.004*"live" + 0.004*"9"']</t>
+    <t>['0.013*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"need" + 0.006*"plans" + 0.006*"Lancashire" + 0.005*"progress" + 0.005*"supported" + 0.005*"positive" + 0.005*"live"', '0.016*"’" + 0.008*"well" + 0.008*"need" + 0.007*"Lancashire" + 0.007*"needs" + 0.006*"supported" + 0.006*"practice" + 0.005*"live" + 0.005*"health" + 0.005*"28"', '0.022*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"need" + 0.005*"Lancashire" + 0.005*"positive" + 0.005*"9" + 0.005*"practice" + 0.004*"health" + 0.004*"parents"']</t>
   </si>
   <si>
     <t>80481</t>
@@ -1846,7 +1846,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"risk" + 0.005*"Leeds" + 0.005*"well" + 0.005*"needs" + 0.004*"21" + 0.004*"4" + 0.004*"practice" + 0.004*"education" + 0.004*"benefit"', '0.013*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"Leeds" + 0.004*"plans" + 0.004*"including" + 0.004*"risk" + 0.004*"practice" + 0.004*"protection" + 0.004*"2022"', '0.019*"’" + 0.009*"Leeds" + 0.009*"needs" + 0.005*"well" + 0.005*"risk" + 0.005*"plans" + 0.005*"practice" + 0.005*"ensure" + 0.005*"supported" + 0.005*"protection"']</t>
+    <t>['0.017*"’" + 0.007*"needs" + 0.007*"Leeds" + 0.006*"well" + 0.005*"practice" + 0.005*"protection" + 0.004*"ensure" + 0.004*"supported" + 0.004*"2022" + 0.004*"risk"', '0.017*"’" + 0.009*"Leeds" + 0.006*"risk" + 0.006*"well" + 0.006*"needs" + 0.005*"4" + 0.005*"plans" + 0.005*"practice" + 0.005*"February" + 0.004*"ensure"', '0.013*"’" + 0.008*"needs" + 0.006*"Leeds" + 0.005*"well" + 0.005*"risk" + 0.004*"plans" + 0.004*"information" + 0.004*"21" + 0.004*"ensure" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1882,7 +1882,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.011*"well" + 0.010*"2021" + 0.009*"Leicester" + 0.007*"good" + 0.007*"needs" + 0.006*"number" + 0.006*"ensure" + 0.005*"including" + 0.005*"September"', '0.019*"’" + 0.008*"2021" + 0.007*"needs" + 0.007*"Leicester" + 0.007*"well" + 0.006*"ensure" + 0.005*"good" + 0.005*"number" + 0.005*"1" + 0.004*"including"', '0.015*"’" + 0.007*"2021" + 0.007*"well" + 0.006*"20" + 0.006*"needs" + 0.005*"Leicester" + 0.005*"ensure" + 0.005*"1" + 0.005*"good" + 0.005*"City"']</t>
+    <t>['0.009*"’" + 0.008*"well" + 0.007*"Leicester" + 0.007*"2021" + 0.005*"needs" + 0.005*"1" + 0.005*"Council" + 0.004*"including" + 0.004*"ensure" + 0.004*"progress"', '0.026*"’" + 0.010*"2021" + 0.009*"Leicester" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.006*"20" + 0.006*"number" + 0.005*"ensure" + 0.005*"including"', '0.020*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"2021" + 0.007*"ensure" + 0.007*"Leicester" + 0.006*"good" + 0.006*"number" + 0.005*"improve" + 0.005*"1"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1918,7 +1918,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"effective" + 0.007*"good" + 0.007*"well" + 0.006*"quality" + 0.005*"needs" + 0.005*"education" + 0.005*"practice" + 0.005*"need" + 0.004*"leaders"', '0.012*"’" + 0.009*"well" + 0.007*"good" + 0.007*"needs" + 0.005*"effective" + 0.005*"quality" + 0.005*"need" + 0.005*"practice" + 0.004*"impact" + 0.004*"leaders"', '0.010*"’" + 0.008*"good" + 0.007*"needs" + 0.007*"well" + 0.007*"effective" + 0.006*"quality" + 0.006*"impact" + 0.006*"practice" + 0.005*"risk" + 0.004*"education"']</t>
+    <t>['0.013*"’" + 0.009*"well" + 0.007*"good" + 0.006*"needs" + 0.006*"effective" + 0.005*"quality" + 0.005*"practice" + 0.004*"risk" + 0.004*"impact" + 0.004*"protection"', '0.009*"good" + 0.009*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"effective" + 0.006*"quality" + 0.006*"practice" + 0.005*"risk" + 0.005*"need" + 0.004*"impact"', '0.012*"’" + 0.007*"effective" + 0.007*"well" + 0.006*"good" + 0.006*"quality" + 0.006*"needs" + 0.006*"practice" + 0.006*"impact" + 0.005*"education" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1951,7 +1951,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"needs" + 0.005*"Lincolnshire" + 0.005*"24" + 0.004*"family" + 0.004*"plans" + 0.004*"progress" + 0.004*"well" + 0.003*"28" + 0.003*"offer"', '0.023*"’" + 0.007*"Lincolnshire" + 0.007*"needs" + 0.006*"well" + 0.005*"progress" + 0.005*"2023" + 0.004*"24" + 0.004*"plans" + 0.004*"provide" + 0.004*"April"', '0.024*"’" + 0.009*"Lincolnshire" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.005*"need" + 0.005*"progress" + 0.004*"family" + 0.004*"28" + 0.004*"number"']</t>
+    <t>['0.015*"’" + 0.007*"Lincolnshire" + 0.005*"well" + 0.005*"plans" + 0.004*"needs" + 0.004*"progress" + 0.004*"working" + 0.004*"2023" + 0.004*"education" + 0.003*"offer"', '0.026*"’" + 0.009*"needs" + 0.009*"Lincolnshire" + 0.006*"well" + 0.006*"progress" + 0.005*"24" + 0.005*"family" + 0.005*"plans" + 0.005*"28" + 0.004*"April"', '0.020*"’" + 0.006*"needs" + 0.006*"Lincolnshire" + 0.006*"well" + 0.004*"plans" + 0.004*"family" + 0.004*"2023" + 0.004*"need" + 0.004*"24" + 0.004*"working"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1984,7 +1984,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"needs" + 0.007*"need" + 0.006*"practice" + 0.006*"Liverpool" + 0.005*"protection" + 0.005*"24" + 0.005*"always" + 0.005*"harm" + 0.005*"quality"', '0.019*"’" + 0.008*"always" + 0.007*"practice" + 0.007*"needs" + 0.006*"quality" + 0.006*"need" + 0.006*"Liverpool" + 0.005*"response" + 0.005*"13" + 0.005*"protection"', '0.019*"’" + 0.007*"needs" + 0.007*"practice" + 0.006*"always" + 0.006*"Liverpool" + 0.005*"quality" + 0.005*"need" + 0.004*"met" + 0.004*"timely" + 0.004*"protection"']</t>
+    <t>['0.021*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"need" + 0.006*"quality" + 0.005*"always" + 0.005*"24" + 0.005*"Liverpool" + 0.005*"protection" + 0.004*"PAs"', '0.019*"’" + 0.008*"Liverpool" + 0.006*"quality" + 0.006*"need" + 0.005*"needs" + 0.005*"always" + 0.004*"practice" + 0.004*"protection" + 0.004*"2023" + 0.004*"13"', '0.018*"’" + 0.009*"needs" + 0.008*"always" + 0.008*"practice" + 0.007*"need" + 0.005*"timely" + 0.005*"quality" + 0.005*"Liverpool" + 0.005*"protection" + 0.004*"13"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -2020,7 +2020,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.006*"needs" + 0.005*"plans" + 0.005*"information" + 0.005*"planning" + 0.005*"well" + 0.004*"good" + 0.004*"Dagenham" + 0.004*"practice" + 0.004*"progress"', '0.020*"’" + 0.007*"carers" + 0.006*"needs" + 0.006*"progress" + 0.006*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"practice" + 0.004*"ensure" + 0.004*"10"', '0.027*"’" + 0.010*"needs" + 0.006*"good" + 0.006*"plans" + 0.005*"information" + 0.005*"practice" + 0.005*"well" + 0.005*"London" + 0.005*"carers" + 0.005*"e"']</t>
+    <t>['0.017*"’" + 0.008*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"good" + 0.004*"Barking" + 0.004*"carers" + 0.004*"10" + 0.004*"London" + 0.004*"well"', '0.028*"’" + 0.009*"needs" + 0.007*"good" + 0.006*"plans" + 0.006*"carers" + 0.005*"progress" + 0.005*"information" + 0.005*"planning" + 0.005*"practice" + 0.005*"10"', '0.018*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"Dagenham" + 0.005*"practice" + 0.005*"carers" + 0.004*"good" + 0.004*"progress" + 0.004*"plans" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -2059,7 +2059,7 @@
     <t>0.2188</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.011*"needs" + 0.011*"good" + 0.008*"well" + 0.007*"plans" + 0.007*"need" + 0.006*"progress" + 0.006*"ensure" + 0.006*"appropriate" + 0.006*"risk"', '0.014*"’" + 0.010*"well" + 0.009*"need" + 0.008*"good" + 0.006*"progress" + 0.006*"quality" + 0.006*"needs" + 0.005*"ensure" + 0.005*"effective" + 0.005*"plans"', '0.012*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"good" + 0.007*"need" + 0.006*"clear" + 0.005*"progress" + 0.005*"plans" + 0.005*"carers" + 0.004*"ensure"']</t>
+    <t>['0.012*"’" + 0.009*"good" + 0.009*"well" + 0.009*"needs" + 0.007*"ensure" + 0.007*"need" + 0.006*"progress" + 0.006*"plans" + 0.005*"effective" + 0.005*"quality"', '0.014*"’" + 0.011*"needs" + 0.010*"good" + 0.008*"well" + 0.007*"need" + 0.007*"progress" + 0.006*"clear" + 0.006*"plans" + 0.005*"timely" + 0.005*"risk"', '0.016*"’" + 0.008*"need" + 0.008*"well" + 0.008*"needs" + 0.008*"good" + 0.006*"plans" + 0.006*"progress" + 0.005*"risks" + 0.005*"clear" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>80488</t>
@@ -2083,7 +2083,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.005*"need" + 0.005*"effective" + 0.005*"Bexley" + 0.004*"2023" + 0.004*"10" + 0.004*"including"', '0.021*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"need" + 0.005*"well" + 0.005*"plans" + 0.005*"Bexley" + 0.004*"clear" + 0.004*"practice" + 0.004*"including"', '0.021*"’" + 0.006*"well" + 0.005*"Bexley" + 0.005*"needs" + 0.005*"6" + 0.005*"10" + 0.005*"effective" + 0.005*"need" + 0.005*"clear" + 0.005*"make"']</t>
+    <t>['0.022*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"need" + 0.005*"plans" + 0.005*"Bexley" + 0.005*"10" + 0.005*"effective" + 0.005*"practice" + 0.005*"make"', '0.018*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"Bexley" + 0.005*"plans" + 0.005*"need" + 0.004*"effective" + 0.004*"progress" + 0.004*"February" + 0.004*"education"', '0.018*"’" + 0.007*"effective" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"Bexley" + 0.005*"need" + 0.004*"2023" + 0.004*"10" + 0.004*"oversight"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -2113,7 +2113,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"well" + 0.008*"leaders" + 0.006*"number" + 0.005*"quality" + 0.005*"plans" + 0.005*"good" + 0.005*"Brent" + 0.005*"progress" + 0.005*"practice"', '0.023*"’" + 0.008*"plans" + 0.007*"well" + 0.007*"progress" + 0.007*"leaders" + 0.006*"number" + 0.006*"Brent" + 0.006*"good" + 0.006*"quality" + 0.005*"needs"', '0.014*"’" + 0.008*"well" + 0.006*"progress" + 0.006*"plans" + 0.006*"leaders" + 0.006*"good" + 0.006*"needs" + 0.005*"senior" + 0.005*"practice" + 0.005*"small"']</t>
+    <t>['0.020*"’" + 0.008*"well" + 0.007*"plans" + 0.006*"progress" + 0.006*"leaders" + 0.006*"number" + 0.006*"good" + 0.005*"Brent" + 0.005*"information" + 0.005*"quality"', '0.019*"’" + 0.009*"well" + 0.008*"leaders" + 0.006*"plans" + 0.006*"number" + 0.006*"progress" + 0.005*"senior" + 0.005*"good" + 0.005*"However" + 0.005*"practice"', '0.013*"’" + 0.009*"well" + 0.008*"leaders" + 0.006*"progress" + 0.006*"Brent" + 0.006*"quality" + 0.006*"good" + 0.006*"plans" + 0.006*"practice" + 0.005*"small"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -2149,7 +2149,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.005*"well" + 0.005*"Bromley" + 0.004*"plans" + 0.004*"health" + 0.004*"practice" + 0.004*"education" + 0.004*"needs" + 0.003*"leaders" + 0.003*"2023"', '0.018*"’" + 0.008*"Bromley" + 0.008*"well" + 0.006*"needs" + 0.005*"education" + 0.005*"plans" + 0.004*"experiences" + 0.004*"17" + 0.004*"leaders" + 0.004*"health"', '0.024*"’" + 0.012*"Bromley" + 0.008*"needs" + 0.007*"well" + 0.006*"leaders" + 0.006*"practice" + 0.006*"plans" + 0.005*"health" + 0.005*"YPAs" + 0.005*"progress"']</t>
+    <t>['0.021*"’" + 0.010*"Bromley" + 0.007*"well" + 0.007*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.005*"health" + 0.005*"practice" + 0.004*"helping" + 0.004*"education"', '0.020*"’" + 0.011*"Bromley" + 0.007*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"leaders" + 0.005*"education" + 0.005*"progress" + 0.005*"17" + 0.005*"health"', '0.016*"’" + 0.006*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"Bromley" + 0.004*"practice" + 0.004*"13" + 0.004*"education" + 0.003*"progress" + 0.003*"experiences"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -2182,7 +2182,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"Camden" + 0.006*"leaders" + 0.006*"well" + 0.005*"practice" + 0.005*"protection" + 0.005*"response" + 0.005*"appropriate" + 0.004*"progress" + 0.004*"29"', '0.008*"’" + 0.005*"needs" + 0.005*"leaders" + 0.005*"Camden" + 0.004*"practice" + 0.004*"well" + 0.004*"progress" + 0.004*"protection" + 0.003*"appropriate" + 0.003*"25"', '0.009*"’" + 0.008*"practice" + 0.007*"leaders" + 0.006*"Camden" + 0.005*"needs" + 0.005*"well" + 0.005*"protection" + 0.005*"response" + 0.005*"April" + 0.004*"29"']</t>
+    <t>['0.010*"’" + 0.007*"Camden" + 0.007*"practice" + 0.006*"leaders" + 0.005*"well" + 0.004*"needs" + 0.004*"25" + 0.004*"meetings" + 0.004*"protection" + 0.004*"29"', '0.013*"’" + 0.008*"Camden" + 0.008*"leaders" + 0.006*"practice" + 0.006*"protection" + 0.006*"needs" + 0.005*"well" + 0.005*"response" + 0.005*"appropriate" + 0.004*"29"', '0.008*"’" + 0.006*"Camden" + 0.005*"well" + 0.005*"practice" + 0.004*"25" + 0.004*"protection" + 0.004*"leaders" + 0.004*"response" + 0.004*"needs" + 0.004*"appropriate"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -2212,7 +2212,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"well" + 0.006*"Croydon" + 0.006*"need" + 0.006*"Senior" + 0.006*"needs" + 0.005*"ensure" + 0.005*"good" + 0.005*"quality" + 0.005*"health"', '0.016*"’" + 0.008*"needs" + 0.006*"plans" + 0.006*"well" + 0.006*"health" + 0.005*"improved" + 0.005*"ensure" + 0.005*"quality" + 0.005*"Croydon" + 0.005*"Senior"', '0.008*"well" + 0.007*"’" + 0.007*"needs" + 0.006*"quality" + 0.006*"need" + 0.005*"Croydon" + 0.005*"good" + 0.005*"Senior" + 0.005*"effective" + 0.004*"However"']</t>
+    <t>['0.010*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"quality" + 0.006*"Senior" + 0.005*"need" + 0.005*"Croydon" + 0.005*"health" + 0.005*"ensure" + 0.005*"education"', '0.012*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"Croydon" + 0.006*"need" + 0.006*"Senior" + 0.005*"effective" + 0.005*"good" + 0.005*"quality" + 0.004*"risk"', '0.013*"’" + 0.007*"needs" + 0.006*"ensure" + 0.006*"Croydon" + 0.005*"well" + 0.005*"good" + 0.005*"plans" + 0.005*"quality" + 0.005*"effective" + 0.005*"health"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2248,7 +2248,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.010*"quality" + 0.008*"’" + 0.006*"needs" + 0.006*"good" + 0.005*"risk" + 0.005*"plans" + 0.005*"need" + 0.004*"Ealing" + 0.004*"progress" + 0.004*"experiences"', '0.011*"’" + 0.008*"quality" + 0.007*"good" + 0.006*"needs" + 0.005*"progress" + 0.005*"risk" + 0.005*"plans" + 0.004*"experiences" + 0.004*"fully" + 0.004*"family"', '0.013*"’" + 0.010*"quality" + 0.008*"needs" + 0.006*"good" + 0.005*"well" + 0.005*"progress" + 0.005*"plans" + 0.004*"provide" + 0.004*"always" + 0.004*"leaders"']</t>
+    <t>['0.012*"’" + 0.010*"quality" + 0.007*"plans" + 0.006*"needs" + 0.005*"good" + 0.005*"progress" + 0.005*"experiences" + 0.005*"risk" + 0.005*"management" + 0.004*"well"', '0.010*"’" + 0.009*"quality" + 0.009*"needs" + 0.007*"good" + 0.005*"progress" + 0.005*"plans" + 0.005*"risk" + 0.005*"Ealing" + 0.004*"protection" + 0.004*"experiences"', '0.009*"’" + 0.009*"quality" + 0.006*"good" + 0.006*"needs" + 0.005*"progress" + 0.005*"well" + 0.005*"appropriately" + 0.004*"risk" + 0.004*"family" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80494</t>
@@ -2281,7 +2281,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"needs" + 0.009*"ensure" + 0.008*"good" + 0.007*"quality" + 0.006*"Enfield" + 0.006*"effective" + 0.006*"practice" + 0.006*"clear" + 0.006*"leaders"', '0.013*"’" + 0.009*"good" + 0.007*"practice" + 0.006*"needs" + 0.006*"clear" + 0.006*"quality" + 0.005*"ensure" + 0.005*"timely" + 0.005*"effective" + 0.005*"well"', '0.013*"’" + 0.009*"practice" + 0.009*"needs" + 0.008*"effective" + 0.008*"ensure" + 0.007*"Enfield" + 0.007*"clear" + 0.006*"timely" + 0.006*"leaders" + 0.006*"need"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.009*"practice" + 0.007*"clear" + 0.007*"ensure" + 0.007*"effective" + 0.007*"good" + 0.006*"leaders" + 0.006*"Enfield" + 0.006*"timely"', '0.012*"’" + 0.008*"ensure" + 0.008*"needs" + 0.008*"good" + 0.007*"practice" + 0.006*"effective" + 0.006*"need" + 0.006*"leaders" + 0.006*"range" + 0.006*"quality"', '0.011*"’" + 0.008*"needs" + 0.008*"Enfield" + 0.007*"ensure" + 0.007*"good" + 0.007*"effective" + 0.006*"practice" + 0.006*"clear" + 0.006*"quality" + 0.006*"progress"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2314,7 +2314,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.011*"well" + 0.007*"needs" + 0.007*"good" + 0.006*"plans" + 0.006*"ensure" + 0.005*"range" + 0.005*"effective" + 0.004*"Senior" + 0.004*"risk"', '0.013*"’" + 0.010*"well" + 0.009*"good" + 0.009*"plans" + 0.008*"need" + 0.007*"needs" + 0.007*"range" + 0.006*"quality" + 0.005*"risk" + 0.005*"ensure"', '0.010*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"plans" + 0.006*"progress" + 0.005*"need" + 0.004*"range" + 0.004*"timely" + 0.004*"consistently"']</t>
+    <t>['0.012*"’" + 0.010*"well" + 0.010*"good" + 0.007*"needs" + 0.007*"plans" + 0.005*"ensure" + 0.005*"need" + 0.005*"effective" + 0.005*"range" + 0.005*"information"', '0.012*"’" + 0.010*"well" + 0.008*"plans" + 0.008*"good" + 0.008*"needs" + 0.007*"need" + 0.006*"range" + 0.005*"progress" + 0.005*"quality" + 0.005*"consistently"', '0.011*"’" + 0.008*"well" + 0.007*"plans" + 0.007*"needs" + 0.006*"range" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.005*"ensure" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2353,7 +2353,7 @@
     <t>0.1417</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"practice" + 0.006*"effective" + 0.006*"planning" + 0.006*"including" + 0.006*"number" + 0.005*"plans" + 0.005*"However" + 0.005*"within" + 0.005*"small"', '0.013*"’" + 0.009*"practice" + 0.007*"number" + 0.006*"needs" + 0.006*"effective" + 0.006*"need" + 0.006*"leaders" + 0.006*"plans" + 0.006*"within" + 0.005*"including"', '0.013*"’" + 0.011*"practice" + 0.007*"quality" + 0.006*"planning" + 0.006*"number" + 0.006*"needs" + 0.005*"within" + 0.005*"plans" + 0.005*"making" + 0.005*"effective"']</t>
+    <t>['0.010*"’" + 0.008*"practice" + 0.006*"number" + 0.006*"planning" + 0.006*"plans" + 0.006*"quality" + 0.005*"However" + 0.005*"making" + 0.005*"including" + 0.004*"well"', '0.016*"’" + 0.012*"practice" + 0.007*"effective" + 0.007*"number" + 0.007*"within" + 0.006*"planning" + 0.006*"plans" + 0.006*"needs" + 0.006*"need" + 0.005*"leaders"', '0.012*"’" + 0.008*"practice" + 0.006*"small" + 0.006*"needs" + 0.006*"including" + 0.006*"protection" + 0.005*"planning" + 0.005*"number" + 0.005*"However" + 0.005*"within"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2386,7 +2386,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.010*"needs" + 0.010*"well" + 0.008*"effective" + 0.006*"appropriate" + 0.006*"leaders" + 0.006*"arrangements" + 0.006*"good" + 0.005*"quality" + 0.005*"education"', '0.012*"’" + 0.008*"effective" + 0.006*"appropriate" + 0.006*"well" + 0.006*"good" + 0.006*"needs" + 0.005*"ensure" + 0.005*"However" + 0.005*"improve" + 0.005*"timely"', '0.013*"’" + 0.008*"effective" + 0.008*"needs" + 0.006*"good" + 0.006*"well" + 0.005*"ensure" + 0.005*"appropriate" + 0.005*"arrangements" + 0.005*"education" + 0.004*"health"']</t>
+    <t>['0.011*"’" + 0.010*"effective" + 0.008*"well" + 0.007*"needs" + 0.005*"arrangements" + 0.005*"good" + 0.005*"plans" + 0.005*"appropriate" + 0.005*"quality" + 0.005*"ensure"', '0.012*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"effective" + 0.007*"appropriate" + 0.007*"good" + 0.006*"ensure" + 0.006*"leaders" + 0.005*"shared" + 0.005*"arrangements"', '0.013*"’" + 0.008*"needs" + 0.007*"effective" + 0.006*"appropriate" + 0.006*"well" + 0.006*"good" + 0.005*"arrangements" + 0.005*"risk" + 0.005*"improve" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2410,7 +2410,7 @@
     <t>13/02/2023</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"Haringey" + 0.008*"needs" + 0.007*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"progress" + 0.004*"impact" + 0.004*"need" + 0.004*"2023"', '0.014*"’" + 0.008*"Haringey" + 0.007*"plans" + 0.007*"needs" + 0.005*"progress" + 0.005*"good" + 0.005*"well" + 0.005*"need" + 0.005*"risk" + 0.004*"24"', '0.016*"’" + 0.009*"Haringey" + 0.008*"needs" + 0.007*"plans" + 0.006*"well" + 0.006*"need" + 0.005*"good" + 0.004*"February" + 0.004*"education" + 0.004*"supported"']</t>
+    <t>['0.015*"’" + 0.008*"Haringey" + 0.007*"plans" + 0.006*"needs" + 0.005*"well" + 0.004*"need" + 0.004*"impact" + 0.004*"team" + 0.004*"risk" + 0.004*"good"', '0.015*"’" + 0.010*"Haringey" + 0.007*"needs" + 0.006*"good" + 0.006*"plans" + 0.005*"well" + 0.005*"progress" + 0.004*"need" + 0.004*"training" + 0.004*"supported"', '0.017*"’" + 0.009*"needs" + 0.007*"plans" + 0.007*"Haringey" + 0.007*"well" + 0.006*"need" + 0.005*"good" + 0.005*"progress" + 0.005*"24" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2443,7 +2443,7 @@
     <t>0.2023</t>
   </si>
   <si>
-    <t>['0.013*"good" + 0.013*"’" + 0.009*"well" + 0.009*"needs" + 0.006*"plans" + 0.006*"impact" + 0.005*"experiences" + 0.005*"practice" + 0.005*"school" + 0.005*"early"', '0.012*"’" + 0.011*"good" + 0.008*"well" + 0.007*"needs" + 0.006*"protection" + 0.006*"practice" + 0.005*"impact" + 0.005*"plans" + 0.005*"need" + 0.005*"early"', '0.009*"’" + 0.007*"needs" + 0.007*"well" + 0.005*"good" + 0.005*"need" + 0.004*"impact" + 0.004*"protection" + 0.004*"plans" + 0.004*"team" + 0.004*"experiences"']</t>
+    <t>['0.012*"’" + 0.009*"well" + 0.008*"good" + 0.008*"needs" + 0.006*"impact" + 0.006*"plans" + 0.006*"early" + 0.005*"Harrow" + 0.005*"practice" + 0.005*"protection"', '0.013*"’" + 0.013*"good" + 0.009*"well" + 0.008*"needs" + 0.006*"protection" + 0.006*"need" + 0.006*"practice" + 0.005*"plans" + 0.005*"experiences" + 0.005*"impact"', '0.009*"’" + 0.009*"good" + 0.006*"needs" + 0.006*"well" + 0.005*"plans" + 0.004*"experiences" + 0.004*"impact" + 0.004*"need" + 0.004*"practice" + 0.004*"team"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2470,7 +2470,7 @@
     <t>16/02/24</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.014*"Havering" + 0.009*"quality" + 0.007*"plans" + 0.005*"effective" + 0.005*"oversight" + 0.004*"needs" + 0.004*"22" + 0.004*"11" + 0.004*"many"', '0.015*"’" + 0.009*"Havering" + 0.008*"quality" + 0.007*"plans" + 0.005*"effective" + 0.005*"needs" + 0.005*"oversight" + 0.004*"11" + 0.004*"practice" + 0.004*"leaders"', '0.014*"’" + 0.010*"Havering" + 0.007*"quality" + 0.006*"plans" + 0.006*"oversight" + 0.005*"effective" + 0.005*"11" + 0.004*"22" + 0.004*"needs" + 0.004*"well"']</t>
+    <t>['0.014*"’" + 0.010*"Havering" + 0.010*"quality" + 0.008*"plans" + 0.005*"effective" + 0.004*"11" + 0.004*"22" + 0.004*"well" + 0.004*"2023" + 0.004*"needs"', '0.023*"’" + 0.013*"Havering" + 0.009*"quality" + 0.007*"plans" + 0.007*"oversight" + 0.006*"effective" + 0.005*"needs" + 0.004*"practice" + 0.004*"11" + 0.004*"22"', '0.012*"’" + 0.008*"Havering" + 0.006*"plans" + 0.005*"quality" + 0.004*"effective" + 0.004*"oversight" + 0.004*"needs" + 0.004*"well" + 0.004*"practice" + 0.004*"December"']</t>
   </si>
   <si>
     <t>80501</t>
@@ -2509,7 +2509,7 @@
     <t>0.1861</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.005*"Hillingdon" + 0.004*"well" + 0.004*"plans" + 0.004*"team" + 0.003*"needs" + 0.003*"need" + 0.003*"detailed" + 0.003*"October" + 0.003*"improve"', '0.023*"’" + 0.012*"needs" + 0.009*"plans" + 0.008*"Hillingdon" + 0.008*"well" + 0.005*"leaders" + 0.005*"need" + 0.005*"team" + 0.005*"2" + 0.004*"timely"', '0.015*"’" + 0.009*"Hillingdon" + 0.009*"well" + 0.009*"needs" + 0.008*"plans" + 0.005*"team" + 0.005*"6" + 0.004*"experiences" + 0.004*"PAs" + 0.004*"family"']</t>
+    <t>['0.013*"’" + 0.008*"Hillingdon" + 0.008*"plans" + 0.008*"needs" + 0.007*"well" + 0.005*"need" + 0.004*"2" + 0.004*"experiences" + 0.004*"PAs" + 0.004*"team"', '0.019*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"Hillingdon" + 0.007*"well" + 0.005*"team" + 0.005*"2" + 0.005*"need" + 0.004*"leaders" + 0.004*"understand"', '0.020*"’" + 0.011*"needs" + 0.008*"well" + 0.008*"plans" + 0.007*"Hillingdon" + 0.005*"6" + 0.005*"team" + 0.005*"October" + 0.004*"improve" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2542,7 +2542,7 @@
     <t>0.1948</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"effective" + 0.007*"Hounslow" + 0.005*"timely" + 0.005*"plans" + 0.005*"education" + 0.004*"experiences" + 0.004*"oversight"', '0.021*"’" + 0.012*"needs" + 0.011*"well" + 0.008*"Hounslow" + 0.007*"effective" + 0.006*"timely" + 0.006*"plans" + 0.005*"oversight" + 0.004*"strong" + 0.004*"progress"', '0.019*"’" + 0.010*"well" + 0.010*"needs" + 0.007*"effective" + 0.006*"timely" + 0.006*"Hounslow" + 0.006*"plans" + 0.005*"16" + 0.005*"strong" + 0.005*"leaders"']</t>
+    <t>['0.020*"’" + 0.012*"needs" + 0.008*"well" + 0.007*"effective" + 0.006*"Hounslow" + 0.005*"plans" + 0.004*"training" + 0.004*"experiences" + 0.004*"education" + 0.004*"oversight"', '0.025*"’" + 0.011*"well" + 0.011*"needs" + 0.008*"Hounslow" + 0.008*"timely" + 0.007*"effective" + 0.006*"plans" + 0.005*"strong" + 0.005*"20" + 0.005*"progress"', '0.012*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"effective" + 0.006*"Hounslow" + 0.006*"timely" + 0.005*"oversight" + 0.005*"plans" + 0.005*"16" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2572,7 +2572,7 @@
     <t>0.209</t>
   </si>
   <si>
-    <t>['0.012*"needs" + 0.012*"’" + 0.011*"well" + 0.006*"good" + 0.006*"highly" + 0.006*"leaders" + 0.006*"plans" + 0.006*"quality" + 0.005*"effective" + 0.005*"Islington"', '0.014*"’" + 0.011*"well" + 0.010*"needs" + 0.007*"plans" + 0.007*"good" + 0.006*"highly" + 0.006*"effective" + 0.006*"practice" + 0.005*"quality" + 0.005*"risk"', '0.011*"’" + 0.009*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"quality" + 0.005*"leaders" + 0.005*"highly" + 0.005*"Islington" + 0.004*"practice" + 0.004*"good"']</t>
+    <t>['0.014*"’" + 0.013*"needs" + 0.013*"well" + 0.007*"plans" + 0.007*"highly" + 0.006*"leaders" + 0.005*"quality" + 0.005*"effective" + 0.005*"good" + 0.005*"practice"', '0.013*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"good" + 0.007*"plans" + 0.006*"quality" + 0.006*"Islington" + 0.006*"effective" + 0.005*"highly" + 0.005*"risk"', '0.009*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"leaders" + 0.004*"highly" + 0.004*"good" + 0.003*"Islington" + 0.003*"effective" + 0.003*"quality"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2605,7 +2605,7 @@
     <t>16/12/22</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"plans" + 0.008*"well" + 0.007*"need" + 0.007*"needs" + 0.007*"good" + 0.006*"4" + 0.006*"leaders" + 0.006*"progress" + 0.005*"November"', '0.013*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"good" + 0.006*"Lambeth" + 0.006*"impact" + 0.005*"plans" + 0.005*"progress" + 0.005*"need" + 0.004*"supported"', '0.016*"’" + 0.012*"needs" + 0.008*"well" + 0.008*"Lambeth" + 0.008*"plans" + 0.007*"good" + 0.006*"progress" + 0.006*"number" + 0.005*"carers" + 0.005*"impact"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.010*"plans" + 0.009*"well" + 0.007*"good" + 0.006*"Lambeth" + 0.006*"need" + 0.006*"leaders" + 0.006*"impact" + 0.005*"progress"', '0.014*"’" + 0.008*"Lambeth" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"good" + 0.005*"arrangements" + 0.005*"need" + 0.005*"impact" + 0.005*"October"', '0.014*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"good" + 0.007*"progress" + 0.006*"need" + 0.005*"carers" + 0.005*"Lambeth" + 0.005*"impact" + 0.005*"4"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2641,7 +2641,7 @@
     <t>0.1803</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"needs" + 0.008*"well" + 0.007*"plans" + 0.007*"effective" + 0.006*"Lewisham" + 0.006*"good" + 0.006*"4" + 0.005*"leaders" + 0.005*"progress"', '0.014*"’" + 0.008*"well" + 0.007*"plans" + 0.005*"effective" + 0.005*"needs" + 0.004*"4" + 0.004*"supported" + 0.004*"need" + 0.004*"arrangements" + 0.004*"progress"', '0.017*"’" + 0.009*"well" + 0.007*"Lewisham" + 0.006*"needs" + 0.006*"progress" + 0.005*"effective" + 0.005*"plans" + 0.004*"good" + 0.004*"need" + 0.004*"benefit"']</t>
+    <t>['0.014*"’" + 0.007*"well" + 0.006*"effective" + 0.006*"needs" + 0.005*"plans" + 0.004*"Lewisham" + 0.004*"good" + 0.004*"progress" + 0.004*"4" + 0.004*"family"', '0.015*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"leaders" + 0.005*"progress" + 0.005*"effective" + 0.005*"receive" + 0.004*"good"', '0.020*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"plans" + 0.007*"Lewisham" + 0.007*"effective" + 0.006*"4" + 0.006*"arrangements" + 0.005*"progress" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2665,7 +2665,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"well" + 0.006*"Merton" + 0.005*"needs" + 0.005*"family" + 0.005*"helping" + 0.004*"health" + 0.004*"good" + 0.004*"plans" + 0.004*"4"', '0.018*"’" + 0.007*"well" + 0.007*"Merton" + 0.005*"plans" + 0.005*"needs" + 0.004*"ensure" + 0.004*"information" + 0.004*"access" + 0.004*"good" + 0.004*"including"', '0.013*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"Merton" + 0.005*"progress" + 0.005*"early" + 0.005*"family" + 0.004*"ensure" + 0.004*"4" + 0.004*"plans"']</t>
+    <t>['0.009*"’" + 0.007*"well" + 0.007*"Merton" + 0.004*"needs" + 0.004*"good" + 0.004*"ensure" + 0.004*"helping" + 0.004*"early" + 0.004*"February" + 0.004*"health"', '0.016*"’" + 0.009*"well" + 0.007*"Merton" + 0.006*"needs" + 0.005*"progress" + 0.005*"plans" + 0.005*"access" + 0.005*"4" + 0.004*"family" + 0.004*"good"', '0.020*"’" + 0.008*"well" + 0.007*"needs" + 0.005*"plans" + 0.005*"family" + 0.005*"Merton" + 0.005*"leaders" + 0.004*"information" + 0.004*"progress" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2686,7 +2686,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"needs" + 0.006*"plans" + 0.005*"Newham" + 0.005*"practice" + 0.005*"progress" + 0.005*"effective" + 0.005*"need" + 0.004*"good" + 0.004*"risks"', '0.019*"’" + 0.009*"needs" + 0.008*"Newham" + 0.007*"progress" + 0.007*"plans" + 0.006*"effective" + 0.006*"need" + 0.006*"practice" + 0.005*"well" + 0.005*"18"', '0.023*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"good" + 0.006*"need" + 0.006*"Newham" + 0.005*"effective" + 0.005*"plans" + 0.005*"progress" + 0.004*"ensure"']</t>
+    <t>['0.013*"’" + 0.008*"Newham" + 0.007*"needs" + 0.007*"plans" + 0.006*"progress" + 0.006*"need" + 0.005*"practice" + 0.005*"effective" + 0.005*"early" + 0.004*"good"', '0.022*"’" + 0.008*"needs" + 0.007*"practice" + 0.006*"Newham" + 0.006*"progress" + 0.006*"plans" + 0.005*"effective" + 0.005*"need" + 0.005*"Leaders" + 0.005*"good"', '0.020*"’" + 0.008*"needs" + 0.006*"progress" + 0.006*"effective" + 0.006*"Newham" + 0.006*"need" + 0.006*"plans" + 0.006*"practice" + 0.006*"good" + 0.004*"Leaders"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2716,7 +2716,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.008*"needs" + 0.007*"’" + 0.006*"effective" + 0.006*"well" + 0.006*"including" + 0.006*"practice" + 0.005*"risk" + 0.005*"Redbridge" + 0.005*"need" + 0.005*"strong"', '0.010*"’" + 0.008*"practice" + 0.007*"well" + 0.007*"need" + 0.006*"needs" + 0.005*"strong" + 0.005*"Redbridge" + 0.005*"effective" + 0.005*"receive" + 0.005*"ensure"', '0.006*"practice" + 0.005*"well" + 0.005*"strong" + 0.005*"ensure" + 0.004*"risk" + 0.004*"need" + 0.004*"progress" + 0.004*"including" + 0.004*"’" + 0.004*"Redbridge"']</t>
+    <t>['0.009*"’" + 0.007*"practice" + 0.007*"strong" + 0.006*"well" + 0.006*"needs" + 0.006*"need" + 0.005*"progress" + 0.005*"Redbridge" + 0.005*"ensure" + 0.005*"effective"', '0.008*"practice" + 0.007*"need" + 0.007*"’" + 0.006*"well" + 0.006*"effective" + 0.005*"needs" + 0.005*"risk" + 0.005*"Redbridge" + 0.005*"good" + 0.004*"including"', '0.006*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"practice" + 0.005*"including" + 0.005*"team" + 0.005*"Redbridge" + 0.005*"risk" + 0.005*"effective" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2743,7 +2743,7 @@
     <t>0.2056</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"Richmond" + 0.005*"need" + 0.004*"strong" + 0.004*"supported" + 0.004*"additional" + 0.004*"team" + 0.004*"4"', '0.014*"’" + 0.011*"well" + 0.008*"Richmond" + 0.006*"needs" + 0.006*"supported" + 0.006*"good" + 0.005*"team" + 0.005*"need" + 0.005*"ensure" + 0.004*"additional"', '0.019*"’" + 0.012*"well" + 0.009*"Richmond" + 0.008*"needs" + 0.007*"supported" + 0.006*"team" + 0.006*"good" + 0.006*"need" + 0.005*"ensure" + 0.005*"31"']</t>
+    <t>['0.010*"’" + 0.007*"well" + 0.005*"Richmond" + 0.005*"need" + 0.005*"needs" + 0.005*"supported" + 0.004*"team" + 0.004*"good" + 0.004*"strong" + 0.004*"January"', '0.019*"’" + 0.013*"well" + 0.009*"Richmond" + 0.009*"needs" + 0.007*"supported" + 0.006*"team" + 0.006*"good" + 0.006*"need" + 0.006*"additional" + 0.005*"4"', '0.015*"’" + 0.010*"well" + 0.008*"Richmond" + 0.007*"needs" + 0.005*"need" + 0.005*"good" + 0.005*"team" + 0.004*"range" + 0.004*"supported" + 0.004*"4"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2773,7 +2773,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"Southwark" + 0.008*"well" + 0.008*"good" + 0.007*"needs" + 0.006*"need" + 0.006*"Leaders" + 0.006*"progress" + 0.005*"strong" + 0.005*"leaders"', '0.020*"’" + 0.011*"Southwark" + 0.008*"needs" + 0.008*"good" + 0.008*"well" + 0.006*"plans" + 0.006*"progress" + 0.006*"effective" + 0.005*"receive" + 0.005*"Leaders"', '0.017*"’" + 0.008*"Southwark" + 0.007*"good" + 0.006*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"receive" + 0.005*"need" + 0.005*"strong" + 0.005*"progress"']</t>
+    <t>['0.016*"’" + 0.010*"Southwark" + 0.008*"well" + 0.007*"needs" + 0.007*"good" + 0.006*"progress" + 0.006*"plans" + 0.006*"strong" + 0.005*"need" + 0.005*"leaders"', '0.012*"’" + 0.008*"good" + 0.007*"Southwark" + 0.006*"needs" + 0.006*"need" + 0.005*"well" + 0.005*"ensure" + 0.005*"effective" + 0.005*"Leaders" + 0.005*"plans"', '0.023*"’" + 0.010*"Southwark" + 0.008*"good" + 0.008*"well" + 0.008*"needs" + 0.006*"progress" + 0.005*"plans" + 0.005*"Leaders" + 0.005*"effective" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2803,7 +2803,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"Sutton" + 0.005*"6" + 0.005*"good" + 0.005*"receive" + 0.005*"progress" + 0.005*"supported" + 0.004*"leaders"', '0.017*"’" + 0.007*"well" + 0.006*"Sutton" + 0.005*"progress" + 0.005*"good" + 0.005*"effective" + 0.005*"needs" + 0.005*"receive" + 0.005*"10" + 0.004*"home"', '0.014*"’" + 0.006*"well" + 0.005*"Sutton" + 0.005*"needs" + 0.005*"progress" + 0.005*"effective" + 0.004*"receive" + 0.004*"need" + 0.004*"supported" + 0.004*"leaders"']</t>
+    <t>['0.019*"’" + 0.010*"well" + 0.007*"progress" + 0.007*"Sutton" + 0.005*"needs" + 0.005*"good" + 0.004*"6" + 0.004*"receive" + 0.004*"effective" + 0.004*"supported"', '0.017*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"receive" + 0.005*"effective" + 0.005*"Sutton" + 0.005*"10" + 0.005*"good" + 0.005*"6" + 0.005*"progress"', '0.013*"’" + 0.005*"Sutton" + 0.004*"effective" + 0.004*"well" + 0.004*"receive" + 0.003*"2021" + 0.003*"good" + 0.003*"home" + 0.003*"December" + 0.003*"6"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2833,7 +2833,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.006*"‘" + 0.006*"good" + 0.006*"effective" + 0.005*"plans" + 0.005*"needs" + 0.005*"well" + 0.005*"early" + 0.004*"need" + 0.004*"risk"', '0.013*"’" + 0.007*"good" + 0.006*"plans" + 0.006*"practice" + 0.006*"well" + 0.006*"effective" + 0.005*"‘" + 0.005*"need" + 0.005*"including" + 0.005*"progress"', '0.017*"’" + 0.007*"good" + 0.007*"effective" + 0.007*"plans" + 0.006*"well" + 0.005*"practice" + 0.005*"progress" + 0.005*"need" + 0.005*"‘" + 0.005*"including"']</t>
+    <t>['0.017*"’" + 0.008*"good" + 0.007*"plans" + 0.006*"‘" + 0.006*"early" + 0.006*"practice" + 0.006*"effective" + 0.005*"including" + 0.005*"risk" + 0.005*"well"', '0.015*"’" + 0.007*"well" + 0.007*"effective" + 0.007*"good" + 0.005*"needs" + 0.005*"plans" + 0.005*"need" + 0.005*"progress" + 0.005*"practice" + 0.004*"early"', '0.011*"’" + 0.006*"plans" + 0.006*"‘" + 0.005*"effective" + 0.005*"good" + 0.005*"practice" + 0.005*"need" + 0.005*"carers" + 0.005*"progress" + 0.004*"including"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2866,7 +2866,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"well" + 0.009*"good" + 0.009*"needs" + 0.007*"effective" + 0.006*"need" + 0.006*"timely" + 0.005*"plans" + 0.004*"risk" + 0.004*"information"', '0.013*"’" + 0.012*"well" + 0.009*"needs" + 0.008*"good" + 0.007*"effective" + 0.006*"plans" + 0.005*"need" + 0.004*"risk" + 0.004*"protection" + 0.004*"progress"', '0.017*"’" + 0.014*"well" + 0.008*"needs" + 0.008*"effective" + 0.007*"good" + 0.006*"need" + 0.005*"plans" + 0.004*"risk" + 0.004*"ensure" + 0.004*"receive"']</t>
+    <t>['0.015*"’" + 0.015*"well" + 0.008*"good" + 0.008*"needs" + 0.008*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"timely" + 0.004*"risk" + 0.004*"clear"', '0.015*"’" + 0.012*"well" + 0.009*"needs" + 0.009*"good" + 0.007*"effective" + 0.005*"need" + 0.005*"timely" + 0.005*"risk" + 0.005*"plans" + 0.004*"education"', '0.013*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"good" + 0.006*"effective" + 0.006*"need" + 0.005*"plans" + 0.004*"protection" + 0.004*"information" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2893,7 +2893,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.005*"needs" + 0.005*"well" + 0.005*"Senior" + 0.004*"good" + 0.004*"supported" + 0.004*"protection" + 0.004*"practice" + 0.004*"progress" + 0.004*"18"', '0.011*"’" + 0.008*"well" + 0.006*"protection" + 0.006*"practice" + 0.005*"progress" + 0.005*"needs" + 0.005*"effective" + 0.005*"supported" + 0.005*"improve" + 0.005*"Wandsworth"', '0.014*"’" + 0.006*"Wandsworth" + 0.006*"ensure" + 0.006*"progress" + 0.006*"well" + 0.006*"Senior" + 0.005*"quality" + 0.005*"needs" + 0.005*"7" + 0.005*"receive"']</t>
+    <t>['0.011*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"quality" + 0.005*"7" + 0.005*"practice" + 0.005*"ensure" + 0.005*"supported" + 0.005*"Senior" + 0.005*"Wandsworth"', '0.010*"’" + 0.006*"protection" + 0.005*"progress" + 0.005*"quality" + 0.005*"effective" + 0.005*"18" + 0.005*"needs" + 0.005*"well" + 0.005*"Senior" + 0.004*"team"', '0.013*"’" + 0.008*"well" + 0.006*"progress" + 0.006*"Wandsworth" + 0.005*"needs" + 0.005*"Senior" + 0.005*"protection" + 0.005*"practice" + 0.005*"supported" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2917,7 +2917,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"highly" + 0.005*"well" + 0.004*"across" + 0.004*"family" + 0.004*"skilled" + 0.003*"many" + 0.003*"direct"', '0.012*"’" + 0.007*"practice" + 0.006*"highly" + 0.006*"needs" + 0.006*"well" + 0.004*"many" + 0.004*"across" + 0.004*"plans" + 0.003*"informed" + 0.003*"family"', '0.011*"’" + 0.006*"practice" + 0.006*"needs" + 0.005*"highly" + 0.004*"well" + 0.004*"protection" + 0.003*"high" + 0.003*"many" + 0.003*"direct" + 0.003*"across"']</t>
+    <t>['0.013*"’" + 0.007*"needs" + 0.006*"practice" + 0.006*"well" + 0.005*"highly" + 0.005*"many" + 0.004*"across" + 0.004*"family" + 0.004*"shared" + 0.003*"high"', '0.014*"’" + 0.006*"practice" + 0.006*"highly" + 0.004*"well" + 0.004*"needs" + 0.004*"high" + 0.003*"skilled" + 0.003*"across" + 0.003*"plans" + 0.003*"many"', '0.012*"’" + 0.008*"practice" + 0.006*"needs" + 0.006*"highly" + 0.004*"well" + 0.004*"family" + 0.004*"direct" + 0.003*"across" + 0.003*"many" + 0.003*"skilled"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2950,7 +2950,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"need" + 0.005*"good" + 0.005*"Luton" + 0.005*"quality" + 0.005*"effective" + 0.005*"plans" + 0.005*"impact" + 0.005*"progress" + 0.004*"ensure"', '0.015*"’" + 0.007*"plans" + 0.006*"effective" + 0.006*"need" + 0.006*"needs" + 0.006*"Luton" + 0.005*"well" + 0.004*"ensure" + 0.004*"11" + 0.004*"quality"', '0.019*"’" + 0.008*"needs" + 0.006*"need" + 0.006*"plans" + 0.006*"Luton" + 0.005*"good" + 0.005*"progress" + 0.005*"impact" + 0.005*"effective" + 0.005*"ensure"']</t>
+    <t>['0.019*"’" + 0.007*"need" + 0.007*"effective" + 0.006*"good" + 0.006*"needs" + 0.006*"Luton" + 0.005*"plans" + 0.005*"quality" + 0.005*"impact" + 0.005*"progress"', '0.016*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"need" + 0.006*"impact" + 0.006*"ensure" + 0.005*"progress" + 0.005*"Luton" + 0.005*"effective" + 0.005*"receive"', '0.016*"’" + 0.006*"good" + 0.006*"Luton" + 0.006*"needs" + 0.006*"need" + 0.005*"plans" + 0.005*"progress" + 0.004*"11" + 0.004*"effective" + 0.004*"receive"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2977,7 +2977,7 @@
     <t>19/05/22</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"Manchester" + 0.007*"needs" + 0.006*"always" + 0.005*"supported" + 0.005*"progress" + 0.005*"well" + 0.005*"plans" + 0.005*"21" + 0.005*"education"', '0.024*"’" + 0.012*"Manchester" + 0.010*"needs" + 0.009*"well" + 0.007*"supported" + 0.006*"plans" + 0.006*"always" + 0.006*"effective" + 0.006*"quality" + 0.005*"family"', '0.019*"’" + 0.011*"Manchester" + 0.009*"needs" + 0.008*"always" + 0.006*"supported" + 0.006*"protection" + 0.006*"well" + 0.005*"education" + 0.005*"plans" + 0.005*"family"']</t>
+    <t>['0.017*"’" + 0.010*"needs" + 0.008*"Manchester" + 0.006*"well" + 0.005*"protection" + 0.005*"supported" + 0.005*"always" + 0.005*"effective" + 0.005*"2022" + 0.005*"planning"', '0.024*"’" + 0.011*"Manchester" + 0.007*"supported" + 0.007*"needs" + 0.007*"well" + 0.005*"protection" + 0.005*"early" + 0.005*"effective" + 0.005*"family" + 0.005*"April"', '0.021*"’" + 0.012*"Manchester" + 0.011*"needs" + 0.009*"always" + 0.007*"well" + 0.007*"supported" + 0.006*"education" + 0.006*"plans" + 0.005*"quality" + 0.005*"disabled"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -3007,7 +3007,7 @@
     <t>11/09/23</t>
   </si>
   <si>
-    <t>['0.008*"quality" + 0.007*"’" + 0.007*"Medway" + 0.006*"well" + 0.006*"practice" + 0.005*"oversight" + 0.005*"clear" + 0.004*"leaders" + 0.004*"Senior" + 0.004*"impact"', '0.021*"’" + 0.012*"Medway" + 0.009*"practice" + 0.009*"well" + 0.008*"needs" + 0.007*"quality" + 0.007*"leaders" + 0.006*"oversight" + 0.006*"impact" + 0.006*"experiences"', '0.013*"’" + 0.008*"quality" + 0.007*"practice" + 0.007*"well" + 0.006*"Medway" + 0.006*"leaders" + 0.006*"impact" + 0.006*"experiences" + 0.005*"good" + 0.005*"progress"']</t>
+    <t>['0.014*"’" + 0.009*"Medway" + 0.009*"practice" + 0.009*"quality" + 0.008*"well" + 0.007*"needs" + 0.007*"leaders" + 0.006*"risk" + 0.005*"oversight" + 0.005*"experiences"', '0.017*"’" + 0.010*"Medway" + 0.008*"practice" + 0.007*"quality" + 0.007*"oversight" + 0.007*"well" + 0.007*"needs" + 0.007*"impact" + 0.006*"leaders" + 0.005*"improve"', '0.016*"’" + 0.008*"Medway" + 0.007*"well" + 0.007*"practice" + 0.006*"quality" + 0.006*"experiences" + 0.005*"leaders" + 0.005*"clear" + 0.005*"good" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -3031,7 +3031,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"effective" + 0.007*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"Middlesbrough" + 0.006*"practice" + 0.005*"progress" + 0.005*"24" + 0.005*"place"', '0.011*"’" + 0.009*"plans" + 0.008*"Middlesbrough" + 0.007*"effective" + 0.006*"practice" + 0.006*"progress" + 0.006*"well" + 0.006*"needs" + 0.004*"March" + 0.004*"place"', '0.014*"’" + 0.007*"effective" + 0.006*"Middlesbrough" + 0.005*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"supported" + 0.005*"means" + 0.004*"24" + 0.004*"good"']</t>
+    <t>['0.018*"’" + 0.008*"effective" + 0.007*"plans" + 0.007*"Middlesbrough" + 0.007*"well" + 0.006*"progress" + 0.006*"needs" + 0.006*"practice" + 0.005*"24" + 0.005*"March"', '0.011*"’" + 0.007*"plans" + 0.006*"Middlesbrough" + 0.006*"needs" + 0.005*"well" + 0.005*"effective" + 0.004*"practice" + 0.004*"good" + 0.004*"place" + 0.004*"planning"', '0.011*"’" + 0.007*"effective" + 0.007*"Middlesbrough" + 0.007*"plans" + 0.007*"needs" + 0.006*"well" + 0.006*"practice" + 0.005*"place" + 0.005*"13" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -3058,7 +3058,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"Keynes" + 0.006*"well" + 0.006*"need" + 0.006*"Milton" + 0.006*"plans" + 0.005*"leaders" + 0.005*"good" + 0.005*"team" + 0.005*"education"', '0.009*"’" + 0.004*"leaders" + 0.004*"good" + 0.004*"Milton" + 0.004*"family" + 0.004*"well" + 0.004*"practice" + 0.003*"Keynes" + 0.003*"need" + 0.003*"25"', '0.016*"’" + 0.007*"Milton" + 0.006*"well" + 0.005*"Keynes" + 0.005*"practice" + 0.005*"need" + 0.005*"25" + 0.005*"impact" + 0.005*"2021" + 0.005*"needs"']</t>
+    <t>['0.014*"’" + 0.007*"Milton" + 0.005*"25" + 0.005*"Keynes" + 0.005*"need" + 0.005*"well" + 0.005*"team" + 0.005*"good" + 0.005*"also" + 0.004*"October"', '0.017*"’" + 0.007*"Keynes" + 0.005*"well" + 0.005*"practice" + 0.005*"Milton" + 0.005*"plans" + 0.005*"need" + 0.005*"2021" + 0.004*"needs" + 0.004*"5"', '0.014*"’" + 0.007*"well" + 0.006*"need" + 0.006*"leaders" + 0.006*"Milton" + 0.005*"Keynes" + 0.005*"practice" + 0.004*"good" + 0.004*"effective" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -3085,7 +3085,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"plans" + 0.007*"needs" + 0.006*"protection" + 0.006*"good" + 0.005*"management" + 0.005*"making" + 0.004*"response" + 0.004*"2021" + 0.004*"progress"', '0.018*"’" + 0.010*"plans" + 0.006*"Newcastle" + 0.006*"well" + 0.006*"protection" + 0.006*"ensure" + 0.006*"needs" + 0.005*"response" + 0.005*"good" + 0.005*"progress"', '0.018*"’" + 0.011*"plans" + 0.009*"needs" + 0.009*"Newcastle" + 0.008*"good" + 0.008*"well" + 0.007*"protection" + 0.007*"progress" + 0.006*"making" + 0.006*"ensure"']</t>
+    <t>['0.015*"’" + 0.011*"plans" + 0.007*"Newcastle" + 0.007*"good" + 0.006*"need" + 0.006*"protection" + 0.006*"well" + 0.006*"making" + 0.005*"progress" + 0.005*"needs"', '0.013*"’" + 0.008*"plans" + 0.008*"needs" + 0.007*"Newcastle" + 0.006*"protection" + 0.006*"good" + 0.006*"planning" + 0.006*"well" + 0.005*"progress" + 0.005*"response"', '0.018*"’" + 0.011*"plans" + 0.009*"needs" + 0.007*"protection" + 0.007*"well" + 0.007*"good" + 0.006*"Newcastle" + 0.006*"progress" + 0.006*"making" + 0.006*"ensure"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -3109,7 +3109,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"Norfolk" + 0.007*"well" + 0.006*"carers" + 0.005*"supported" + 0.005*"needs" + 0.005*"practice" + 0.005*"including" + 0.005*"18" + 0.005*"plans"', '0.017*"’" + 0.008*"Norfolk" + 0.008*"well" + 0.006*"practice" + 0.006*"needs" + 0.006*"carers" + 0.005*"supported" + 0.005*"leaders" + 0.005*"plans" + 0.005*"range"', '0.018*"’" + 0.010*"well" + 0.008*"Norfolk" + 0.006*"carers" + 0.005*"needs" + 0.005*"supported" + 0.005*"progress" + 0.004*"practice" + 0.004*"effective" + 0.004*"family"']</t>
+    <t>['0.017*"’" + 0.010*"Norfolk" + 0.006*"carers" + 0.006*"well" + 0.006*"supported" + 0.005*"needs" + 0.005*"practice" + 0.005*"including" + 0.004*"18" + 0.004*"plans"', '0.014*"’" + 0.010*"well" + 0.007*"Norfolk" + 0.007*"needs" + 0.006*"practice" + 0.006*"carers" + 0.005*"range" + 0.005*"supported" + 0.005*"plans" + 0.005*"progress"', '0.020*"’" + 0.007*"well" + 0.006*"Norfolk" + 0.006*"carers" + 0.005*"practice" + 0.005*"leaders" + 0.005*"needs" + 0.005*"effective" + 0.005*"supported" + 0.004*"18"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -3142,7 +3142,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"practice" + 0.006*"risk" + 0.005*"plans" + 0.005*"need" + 0.005*"planning" + 0.005*"needs" + 0.005*"oversight" + 0.004*"senior" + 0.004*"leaders"', '0.017*"’" + 0.009*"practice" + 0.008*"risk" + 0.008*"needs" + 0.008*"planning" + 0.007*"leaders" + 0.006*"quality" + 0.006*"North" + 0.006*"need" + 0.005*"Lincolnshire"', '0.013*"’" + 0.007*"leaders" + 0.005*"practice" + 0.005*"risk" + 0.005*"planning" + 0.005*"needs" + 0.004*"East" + 0.004*"receive" + 0.004*"many" + 0.004*"2021"']</t>
+    <t>['0.015*"’" + 0.008*"practice" + 0.007*"risk" + 0.006*"planning" + 0.006*"need" + 0.006*"quality" + 0.006*"leaders" + 0.005*"many" + 0.005*"October" + 0.005*"senior"', '0.012*"’" + 0.007*"leaders" + 0.007*"practice" + 0.007*"needs" + 0.006*"planning" + 0.006*"risk" + 0.005*"Lincolnshire" + 0.005*"need" + 0.005*"plans" + 0.005*"Council"', '0.015*"’" + 0.008*"practice" + 0.007*"needs" + 0.007*"risk" + 0.006*"planning" + 0.006*"leaders" + 0.005*"East" + 0.004*"oversight" + 0.004*"many" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -3172,7 +3172,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"‘" + 0.006*"family" + 0.006*"Lincolnshire" + 0.006*"well" + 0.005*"approach" + 0.005*"10" + 0.005*"need" + 0.005*"leaders" + 0.005*"team"', '0.023*"’" + 0.007*"‘" + 0.006*"family" + 0.006*"North" + 0.005*"leaders" + 0.005*"need" + 0.005*"Lincolnshire" + 0.005*"10" + 0.005*"well" + 0.005*"approach"', '0.017*"’" + 0.006*"‘" + 0.005*"North" + 0.005*"family" + 0.005*"Lincolnshire" + 0.005*"leaders" + 0.005*"approach" + 0.004*"protection" + 0.004*"well" + 0.004*"2022"']</t>
+    <t>['0.024*"’" + 0.007*"‘" + 0.006*"well" + 0.006*"North" + 0.005*"family" + 0.005*"leaders" + 0.005*"team" + 0.005*"protection" + 0.005*"10" + 0.005*"approach"', '0.019*"’" + 0.007*"‘" + 0.007*"family" + 0.006*"Lincolnshire" + 0.006*"approach" + 0.006*"North" + 0.005*"need" + 0.005*"10" + 0.005*"leaders" + 0.004*"well"', '0.016*"’" + 0.008*"‘" + 0.005*"family" + 0.005*"Lincolnshire" + 0.005*"leaders" + 0.004*"need" + 0.004*"well" + 0.004*"October" + 0.004*"10" + 0.004*"North"']</t>
   </si>
   <si>
     <t>2637539</t>
@@ -3208,7 +3208,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"Northamptonshire" + 0.007*"well" + 0.007*"North" + 0.005*"NCT" + 0.005*"Leaders" + 0.005*"plans" + 0.005*"protection" + 0.004*"3" + 0.004*"practice"', '0.018*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.006*"North" + 0.006*"well" + 0.005*"practice" + 0.005*"impact" + 0.005*"3" + 0.005*"2022" + 0.005*"needs"', '0.018*"’" + 0.009*"Northamptonshire" + 0.006*"well" + 0.006*"North" + 0.006*"quality" + 0.005*"Leaders" + 0.005*"practice" + 0.005*"needs" + 0.005*"impact" + 0.005*"NCT"']</t>
+    <t>['0.019*"’" + 0.007*"Northamptonshire" + 0.005*"needs" + 0.005*"quality" + 0.005*"well" + 0.005*"North" + 0.005*"practice" + 0.005*"3" + 0.004*"NCT" + 0.004*"Leaders"', '0.016*"’" + 0.007*"Northamptonshire" + 0.007*"North" + 0.007*"well" + 0.005*"Leaders" + 0.005*"NCT" + 0.005*"impact" + 0.004*"practice" + 0.004*"need" + 0.004*"experiences"', '0.015*"’" + 0.009*"Northamptonshire" + 0.007*"quality" + 0.007*"North" + 0.007*"well" + 0.005*"practice" + 0.005*"need" + 0.005*"impact" + 0.005*"3" + 0.005*"personal"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -3235,7 +3235,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"quality" + 0.006*"needs" + 0.006*"number" + 0.005*"well" + 0.005*"always" + 0.005*"Somerset" + 0.005*"plans" + 0.005*"need" + 0.005*"North"', '0.016*"’" + 0.007*"needs" + 0.007*"quality" + 0.006*"practice" + 0.006*"North" + 0.006*"always" + 0.006*"Somerset" + 0.005*"need" + 0.005*"number" + 0.005*"oversight"', '0.017*"’" + 0.008*"quality" + 0.007*"risk" + 0.006*"needs" + 0.006*"always" + 0.006*"experienced" + 0.006*"North" + 0.006*"Somerset" + 0.006*"progress" + 0.005*"number"']</t>
+    <t>['0.017*"’" + 0.006*"needs" + 0.005*"practice" + 0.005*"progress" + 0.005*"quality" + 0.005*"plans" + 0.005*"North" + 0.005*"always" + 0.004*"number" + 0.004*"need"', '0.018*"’" + 0.009*"quality" + 0.008*"Somerset" + 0.007*"needs" + 0.007*"North" + 0.006*"always" + 0.006*"practice" + 0.006*"number" + 0.006*"experienced" + 0.006*"risk"', '0.015*"’" + 0.007*"quality" + 0.007*"needs" + 0.006*"always" + 0.006*"number" + 0.006*"progress" + 0.005*"need" + 0.005*"risk" + 0.005*"North" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -3262,7 +3262,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.006*"well" + 0.005*"leaders" + 0.004*"need" + 0.004*"needs" + 0.004*"make" + 0.004*"quality" + 0.004*"protection" + 0.003*"understand" + 0.003*"working"', '0.012*"’" + 0.005*"well" + 0.005*"needs" + 0.005*"impact" + 0.004*"quality" + 0.004*"leaders" + 0.004*"need" + 0.004*"foster" + 0.004*"clear" + 0.004*"make"', '0.016*"’" + 0.007*"well" + 0.006*"need" + 0.006*"leaders" + 0.006*"make" + 0.005*"quality" + 0.005*"impact" + 0.004*"early" + 0.004*"protection" + 0.004*"progress"']</t>
+    <t>['0.012*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"leaders" + 0.005*"need" + 0.005*"quality" + 0.004*"make" + 0.004*"early" + 0.004*"progress" + 0.004*"impact"', '0.012*"’" + 0.005*"well" + 0.005*"leaders" + 0.005*"make" + 0.005*"need" + 0.005*"quality" + 0.004*"impact" + 0.004*"early" + 0.004*"needs" + 0.004*"foster"', '0.022*"’" + 0.007*"well" + 0.005*"leaders" + 0.005*"need" + 0.004*"make" + 0.004*"quality" + 0.004*"impact" + 0.004*"progress" + 0.004*"family" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80530</t>
@@ -3292,7 +3292,7 @@
     <t>18/08/23</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"well" + 0.005*"Yorkshire" + 0.005*"family" + 0.005*"practice" + 0.005*"North" + 0.005*"2023" + 0.004*"‘" + 0.004*"needs" + 0.004*"ensure"', '0.025*"’" + 0.009*"well" + 0.008*"North" + 0.006*"Yorkshire" + 0.006*"‘" + 0.006*"practice" + 0.006*"needs" + 0.006*"family" + 0.005*"7" + 0.005*"July"', '0.017*"’" + 0.007*"well" + 0.007*"practice" + 0.006*"Yorkshire" + 0.006*"needs" + 0.006*"North" + 0.006*"family" + 0.004*"supported" + 0.004*"3" + 0.004*"planning"']</t>
+    <t>['0.021*"’" + 0.010*"well" + 0.008*"Yorkshire" + 0.007*"practice" + 0.006*"North" + 0.006*"7" + 0.005*"family" + 0.005*"needs" + 0.005*"3" + 0.005*"‘"', '0.024*"’" + 0.007*"North" + 0.007*"well" + 0.007*"practice" + 0.006*"family" + 0.006*"needs" + 0.005*"‘" + 0.004*"Yorkshire" + 0.004*"3" + 0.004*"effective"', '0.014*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"North" + 0.005*"Yorkshire" + 0.005*"family" + 0.004*"practice" + 0.004*"‘" + 0.004*"supported" + 0.003*"July"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -3319,7 +3319,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.012*"needs" + 0.010*"well" + 0.009*"good" + 0.006*"experiences" + 0.006*"need" + 0.006*"education" + 0.006*"impact" + 0.005*"quality" + 0.005*"practice"', '0.022*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"need" + 0.005*"quality" + 0.005*"impact" + 0.005*"practice" + 0.005*"experiences" + 0.004*"leaders"', '0.020*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"need" + 0.006*"good" + 0.006*"practice" + 0.005*"experiences" + 0.004*"impact" + 0.004*"education" + 0.004*"leaders"']</t>
+    <t>['0.021*"’" + 0.011*"well" + 0.011*"needs" + 0.007*"experiences" + 0.006*"good" + 0.006*"need" + 0.006*"impact" + 0.004*"education" + 0.004*"quality" + 0.004*"leaders"', '0.022*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"practice" + 0.006*"good" + 0.006*"need" + 0.005*"experiences" + 0.005*"quality" + 0.005*"education" + 0.005*"impact"', '0.022*"’" + 0.010*"needs" + 0.009*"good" + 0.009*"well" + 0.007*"need" + 0.006*"always" + 0.005*"impact" + 0.005*"practice" + 0.005*"quality" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3349,7 +3349,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.006*"Nottingham" + 0.006*"plans" + 0.005*"impact" + 0.005*"oversight" + 0.005*"effective" + 0.005*"However" + 0.005*"City" + 0.005*"11"', '0.017*"’" + 0.007*"needs" + 0.005*"effective" + 0.005*"11" + 0.005*"plans" + 0.005*"Nottingham" + 0.004*"practice" + 0.004*"impact" + 0.004*"City" + 0.004*"However"', '0.011*"’" + 0.008*"needs" + 0.006*"effective" + 0.006*"Nottingham" + 0.005*"plans" + 0.005*"2022" + 0.005*"oversight" + 0.005*"risk" + 0.004*"practice" + 0.004*"impact"']</t>
+    <t>['0.015*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"Nottingham" + 0.005*"oversight" + 0.005*"effective" + 0.005*"11" + 0.005*"impact" + 0.005*"2022" + 0.005*"risk"', '0.012*"’" + 0.008*"needs" + 0.005*"effective" + 0.005*"Nottingham" + 0.005*"July" + 0.004*"plans" + 0.004*"11" + 0.004*"consistently" + 0.004*"2022" + 0.004*"protection"', '0.014*"’" + 0.008*"needs" + 0.005*"Nottingham" + 0.005*"effective" + 0.005*"However" + 0.005*"impact" + 0.004*"City" + 0.004*"practice" + 0.004*"risk" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80534</t>
@@ -3373,7 +3373,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"well" + 0.009*"practice" + 0.006*"receive" + 0.006*"needs" + 0.006*"made" + 0.006*"areas" + 0.005*"ensure" + 0.005*"quality" + 0.005*"carers"', '0.009*"’" + 0.006*"practice" + 0.005*"ensure" + 0.005*"well" + 0.004*"needs" + 0.004*"quality" + 0.004*"receive" + 0.004*"made" + 0.004*"progress" + 0.004*"e"', '0.011*"’" + 0.007*"practice" + 0.006*"plans" + 0.006*"needs" + 0.006*"well" + 0.005*"progress" + 0.005*"e" + 0.004*"receive" + 0.004*"good" + 0.004*"ensure"']</t>
+    <t>['0.010*"’" + 0.008*"well" + 0.008*"practice" + 0.007*"receive" + 0.006*"needs" + 0.006*"ensure" + 0.005*"made" + 0.005*"carers" + 0.005*"quality" + 0.005*"progress"', '0.015*"’" + 0.009*"well" + 0.008*"practice" + 0.006*"needs" + 0.005*"plans" + 0.005*"made" + 0.005*"progress" + 0.005*"e" + 0.005*"areas" + 0.005*"ensure"', '0.010*"’" + 0.007*"practice" + 0.006*"needs" + 0.005*"quality" + 0.005*"well" + 0.005*"plans" + 0.004*"ensure" + 0.004*"receive" + 0.004*"placements" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3406,7 +3406,7 @@
     <t>04/03/19</t>
   </si>
   <si>
-    <t>['0.008*"needs" + 0.008*"good" + 0.008*"’" + 0.007*"effective" + 0.006*"quality" + 0.006*"practice" + 0.005*"planning" + 0.005*"progress" + 0.005*"well" + 0.005*"impact"', '0.011*"’" + 0.010*"practice" + 0.010*"good" + 0.008*"effective" + 0.008*"needs" + 0.007*"progress" + 0.007*"quality" + 0.006*"plans" + 0.006*"well" + 0.006*"planning"', '0.013*"’" + 0.010*"needs" + 0.009*"good" + 0.009*"practice" + 0.008*"effective" + 0.007*"well" + 0.007*"planning" + 0.006*"risk" + 0.006*"plans" + 0.006*"quality"']</t>
+    <t>['0.011*"’" + 0.009*"needs" + 0.009*"good" + 0.008*"practice" + 0.007*"well" + 0.007*"quality" + 0.006*"planning" + 0.006*"effective" + 0.006*"progress" + 0.006*"plans"', '0.010*"’" + 0.010*"good" + 0.010*"practice" + 0.009*"needs" + 0.007*"effective" + 0.007*"plans" + 0.006*"progress" + 0.006*"well" + 0.006*"planning" + 0.005*"risk"', '0.011*"’" + 0.010*"effective" + 0.008*"needs" + 0.008*"good" + 0.008*"practice" + 0.007*"quality" + 0.006*"progress" + 0.005*"well" + 0.005*"planning" + 0.005*"information"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3439,7 +3439,7 @@
     <t>0.1755</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.010*"needs" + 0.007*"well" + 0.007*"Oxfordshire" + 0.006*"good" + 0.006*"receive" + 0.005*"risk" + 0.005*"supported" + 0.005*"12" + 0.005*"practice"', '0.015*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"risk" + 0.005*"supported" + 0.005*"Oxfordshire" + 0.005*"good" + 0.005*"education" + 0.004*"quality" + 0.004*"progress"', '0.020*"’" + 0.011*"needs" + 0.008*"Oxfordshire" + 0.006*"well" + 0.006*"risk" + 0.005*"quality" + 0.005*"supported" + 0.005*"12" + 0.005*"good" + 0.005*"practice"']</t>
+    <t>['0.018*"’" + 0.010*"needs" + 0.007*"Oxfordshire" + 0.006*"supported" + 0.006*"well" + 0.006*"good" + 0.005*"risk" + 0.005*"arrangements" + 0.005*"quality" + 0.005*"practice"', '0.025*"’" + 0.008*"needs" + 0.008*"Oxfordshire" + 0.007*"risk" + 0.006*"good" + 0.005*"well" + 0.005*"supported" + 0.005*"12" + 0.005*"receive" + 0.005*"education"', '0.014*"’" + 0.012*"needs" + 0.008*"well" + 0.006*"Oxfordshire" + 0.005*"risk" + 0.005*"leaders" + 0.005*"progress" + 0.005*"access" + 0.004*"good" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3469,7 +3469,7 @@
     <t>30/01/24</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.013*"needs" + 0.007*"need" + 0.007*"well" + 0.006*"progress" + 0.006*"2023" + 0.005*"8" + 0.005*"Peterborough" + 0.005*"good" + 0.005*"receive"', '0.015*"needs" + 0.012*"’" + 0.008*"Peterborough" + 0.007*"2023" + 0.007*"need" + 0.006*"well" + 0.006*"plans" + 0.006*"27" + 0.005*"supported" + 0.005*"8"', '0.015*"’" + 0.012*"needs" + 0.007*"Peterborough" + 0.007*"progress" + 0.006*"need" + 0.005*"well" + 0.005*"education" + 0.005*"good" + 0.005*"2023" + 0.005*"lack"']</t>
+    <t>['0.010*"needs" + 0.009*"’" + 0.008*"Peterborough" + 0.006*"need" + 0.006*"2023" + 0.005*"well" + 0.005*"plans" + 0.005*"8" + 0.004*"education" + 0.004*"quality"', '0.014*"’" + 0.013*"needs" + 0.007*"well" + 0.006*"Peterborough" + 0.006*"2023" + 0.005*"good" + 0.005*"need" + 0.005*"supported" + 0.005*"November" + 0.004*"December"', '0.018*"’" + 0.015*"needs" + 0.008*"need" + 0.008*"progress" + 0.007*"Peterborough" + 0.006*"2023" + 0.006*"well" + 0.006*"supported" + 0.006*"8" + 0.006*"plans"']</t>
   </si>
   <si>
     <t>80538</t>
@@ -3499,7 +3499,7 @@
     <t>15/03/24</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"Plymouth" + 0.007*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"education" + 0.005*"plans" + 0.005*"City" + 0.005*"good" + 0.005*"appropriate"', '0.007*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"Plymouth" + 0.004*"practice" + 0.004*"benefit" + 0.004*"risks" + 0.004*"22" + 0.004*"timely" + 0.003*"leaders"', '0.015*"’" + 0.011*"needs" + 0.008*"well" + 0.006*"Plymouth" + 0.005*"2" + 0.005*"practice" + 0.005*"appropriate" + 0.005*"plans" + 0.005*"Council" + 0.005*"2024"']</t>
+    <t>['0.012*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Plymouth" + 0.006*"practice" + 0.005*"appropriate" + 0.005*"benefit" + 0.005*"City" + 0.005*"January" + 0.004*"2"', '0.013*"’" + 0.010*"needs" + 0.007*"well" + 0.006*"Plymouth" + 0.005*"education" + 0.005*"practice" + 0.004*"22" + 0.004*"always" + 0.004*"effective" + 0.004*"plans"', '0.014*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"Plymouth" + 0.005*"plans" + 0.005*"2" + 0.005*"timely" + 0.004*"risks" + 0.004*"practice" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3532,7 +3532,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"Portsmouth" + 0.007*"care-experienced" + 0.006*"well" + 0.006*"needs" + 0.005*"family" + 0.005*"health" + 0.005*"risk" + 0.004*"need" + 0.004*"19"', '0.021*"’" + 0.009*"care-experienced" + 0.008*"well" + 0.008*"needs" + 0.007*"Portsmouth" + 0.006*"plans" + 0.005*"family" + 0.005*"15" + 0.005*"progress" + 0.005*"health"', '0.015*"’" + 0.007*"well" + 0.007*"care-experienced" + 0.006*"health" + 0.006*"needs" + 0.006*"family" + 0.005*"Portsmouth" + 0.005*"leaders" + 0.005*"practice" + 0.004*"2023"']</t>
+    <t>['0.010*"’" + 0.007*"Portsmouth" + 0.007*"well" + 0.007*"care-experienced" + 0.005*"needs" + 0.005*"plans" + 0.005*"leaders" + 0.005*"family" + 0.004*"risk" + 0.004*"19"', '0.017*"’" + 0.008*"care-experienced" + 0.007*"well" + 0.007*"needs" + 0.006*"family" + 0.006*"Portsmouth" + 0.006*"plans" + 0.006*"health" + 0.004*"15" + 0.004*"carers"', '0.022*"’" + 0.008*"care-experienced" + 0.007*"well" + 0.007*"needs" + 0.006*"Portsmouth" + 0.005*"health" + 0.005*"practice" + 0.005*"foster" + 0.005*"need" + 0.005*"family"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3568,7 +3568,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"well" + 0.006*"number" + 0.006*"effective" + 0.006*"good" + 0.006*"plans" + 0.005*"quality" + 0.005*"carers" + 0.005*"need" + 0.004*"needs"', '0.017*"’" + 0.007*"plans" + 0.006*"number" + 0.006*"quality" + 0.005*"timely" + 0.005*"good" + 0.005*"need" + 0.005*"effective" + 0.004*"well" + 0.004*"needs"', '0.015*"’" + 0.009*"quality" + 0.008*"number" + 0.007*"well" + 0.006*"need" + 0.006*"plans" + 0.006*"practice" + 0.005*"good" + 0.005*"However" + 0.005*"ensure"']</t>
+    <t>['0.018*"’" + 0.007*"number" + 0.007*"well" + 0.005*"quality" + 0.005*"good" + 0.005*"need" + 0.005*"practice" + 0.005*"needs" + 0.005*"plans" + 0.004*"ensure"', '0.010*"’" + 0.007*"quality" + 0.006*"plans" + 0.006*"good" + 0.006*"number" + 0.006*"effective" + 0.005*"well" + 0.005*"need" + 0.005*"practice" + 0.005*"carers"', '0.018*"’" + 0.008*"number" + 0.007*"plans" + 0.007*"quality" + 0.007*"well" + 0.006*"effective" + 0.006*"good" + 0.005*"However" + 0.005*"need" + 0.005*"timely"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3592,7 +3592,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.005*"However" + 0.005*"practice" + 0.005*"Redcar" + 0.005*"leaders" + 0.005*"needs" + 0.005*"risk" + 0.004*"carers" + 0.004*"20" + 0.004*"plans"', '0.017*"’" + 0.006*"However" + 0.006*"leaders" + 0.006*"2022" + 0.006*"plans" + 0.005*"consistently" + 0.005*"needs" + 0.005*"Redcar" + 0.004*"1" + 0.004*"timely"', '0.022*"’" + 0.007*"leaders" + 0.006*"needs" + 0.006*"plans" + 0.006*"consistently" + 0.005*"20" + 0.005*"However" + 0.005*"carers" + 0.005*"Cleveland" + 0.005*"practice"']</t>
+    <t>['0.017*"’" + 0.007*"leaders" + 0.006*"However" + 0.006*"consistently" + 0.006*"risk" + 0.006*"plans" + 0.006*"Cleveland" + 0.005*"2022" + 0.005*"practice" + 0.005*"20"', '0.015*"’" + 0.006*"plans" + 0.006*"leaders" + 0.006*"needs" + 0.005*"However" + 0.005*"carers" + 0.005*"2022" + 0.004*"20" + 0.004*"practice" + 0.004*"timely"', '0.020*"’" + 0.007*"needs" + 0.006*"consistently" + 0.005*"However" + 0.005*"20" + 0.005*"Redcar" + 0.005*"leaders" + 0.005*"practice" + 0.004*"plans" + 0.004*"July"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3622,7 +3622,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.028*"’" + 0.010*"experienced" + 0.008*"needs" + 0.006*"practice" + 0.006*"plans" + 0.006*"consistently" + 0.005*"good" + 0.005*"response" + 0.005*"Rochdale" + 0.005*"January"', '0.019*"’" + 0.011*"experienced" + 0.011*"practice" + 0.008*"needs" + 0.007*"response" + 0.007*"quality" + 0.006*"plans" + 0.006*"consistently" + 0.005*"3" + 0.005*"good"', '0.011*"’" + 0.006*"practice" + 0.005*"needs" + 0.005*"experienced" + 0.005*"response" + 0.005*"plans" + 0.005*"quality" + 0.005*"well" + 0.004*"good" + 0.004*"3"']</t>
+    <t>['0.020*"’" + 0.008*"needs" + 0.008*"practice" + 0.007*"plans" + 0.007*"experienced" + 0.006*"response" + 0.004*"consistently" + 0.004*"3" + 0.004*"good" + 0.004*"February"', '0.017*"’" + 0.007*"experienced" + 0.007*"response" + 0.006*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"plans" + 0.005*"consistently" + 0.005*"3" + 0.005*"well"', '0.022*"’" + 0.012*"experienced" + 0.009*"practice" + 0.008*"needs" + 0.006*"consistently" + 0.006*"good" + 0.006*"Rochdale" + 0.006*"quality" + 0.005*"plans" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3649,7 +3649,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"Rotherham" + 0.007*"needs" + 0.006*"well" + 0.006*"good" + 0.006*"plans" + 0.006*"ensure" + 0.005*"27" + 0.005*"Council" + 0.004*"However"', '0.015*"’" + 0.009*"Rotherham" + 0.007*"needs" + 0.005*"well" + 0.005*"Borough" + 0.005*"Council" + 0.005*"However" + 0.005*"good" + 0.004*"family" + 0.004*"Metropolitan"', '0.012*"’" + 0.008*"Rotherham" + 0.004*"needs" + 0.004*"ensure" + 0.004*"1" + 0.004*"June" + 0.004*"Council" + 0.004*"good" + 0.004*"However" + 0.003*"protection"']</t>
+    <t>['0.014*"’" + 0.009*"Rotherham" + 0.006*"needs" + 0.005*"good" + 0.005*"plans" + 0.005*"Council" + 0.005*"ensure" + 0.004*"However" + 0.004*"Metropolitan" + 0.004*"well"', '0.014*"’" + 0.008*"Rotherham" + 0.006*"needs" + 0.005*"ensure" + 0.004*"well" + 0.004*"Council" + 0.004*"protection" + 0.004*"good" + 0.004*"clear" + 0.004*"plans"', '0.017*"’" + 0.009*"Rotherham" + 0.007*"well" + 0.007*"needs" + 0.005*"good" + 0.005*"However" + 0.004*"Council" + 0.004*"27" + 0.004*"ensure" + 0.004*"clear"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3676,7 +3676,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.012*"practice" + 0.011*"well" + 0.008*"highly" + 0.007*"’" + 0.006*"strong" + 0.006*"needs" + 0.005*"leaders" + 0.004*"need" + 0.004*"effective" + 0.004*"excellent"', '0.015*"’" + 0.013*"well" + 0.009*"practice" + 0.007*"strong" + 0.007*"highly" + 0.006*"effective" + 0.006*"needs" + 0.005*"leaders" + 0.005*"high" + 0.004*"progress"', '0.016*"well" + 0.011*"’" + 0.010*"practice" + 0.007*"highly" + 0.005*"strong" + 0.005*"effective" + 0.005*"needs" + 0.005*"leaders" + 0.005*"professionals" + 0.004*"high"']</t>
+    <t>['0.012*"well" + 0.008*"’" + 0.007*"highly" + 0.006*"strong" + 0.006*"practice" + 0.004*"high" + 0.004*"leaders" + 0.004*"needs" + 0.004*"effective" + 0.004*"range"', '0.015*"well" + 0.014*"practice" + 0.014*"’" + 0.008*"highly" + 0.006*"strong" + 0.006*"needs" + 0.006*"leaders" + 0.005*"effective" + 0.005*"professionals" + 0.004*"improve"', '0.013*"well" + 0.011*"’" + 0.009*"practice" + 0.007*"highly" + 0.006*"strong" + 0.006*"effective" + 0.006*"needs" + 0.005*"high" + 0.005*"progress" + 0.004*"range"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3706,7 +3706,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"needs" + 0.009*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"parents" + 0.005*"need" + 0.004*"supported" + 0.004*"effective" + 0.004*"range"', '0.013*"’" + 0.009*"plans" + 0.009*"well" + 0.005*"needs" + 0.005*"effective" + 0.004*"clear" + 0.004*"good" + 0.004*"practice" + 0.004*"range" + 0.004*"Kingston"', '0.013*"’" + 0.011*"well" + 0.006*"plans" + 0.006*"needs" + 0.006*"good" + 0.005*"practice" + 0.005*"clear" + 0.004*"need" + 0.004*"risk" + 0.004*"effective"']</t>
+    <t>['0.014*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"good" + 0.005*"clear" + 0.005*"effective" + 0.005*"supported" + 0.005*"need" + 0.005*"risk"', '0.013*"’" + 0.010*"well" + 0.007*"plans" + 0.006*"needs" + 0.004*"parents" + 0.004*"focus" + 0.004*"need" + 0.004*"good" + 0.004*"effective" + 0.004*"range"', '0.013*"’" + 0.010*"plans" + 0.008*"well" + 0.006*"needs" + 0.005*"good" + 0.004*"practice" + 0.004*"effective" + 0.004*"Kingston" + 0.004*"need" + 0.004*"clear"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3736,7 +3736,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"quality" + 0.005*"well" + 0.005*"needs" + 0.005*"effective" + 0.004*"information" + 0.004*"However" + 0.004*"benefit" + 0.004*"always" + 0.004*"plans"', '0.011*"’" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"health" + 0.004*"use" + 0.004*"benefit" + 0.004*"information" + 0.004*"early" + 0.004*"actions"', '0.011*"’" + 0.005*"well" + 0.005*"quality" + 0.004*"plans" + 0.004*"needs" + 0.004*"actions" + 0.004*"need" + 0.003*"good" + 0.003*"use" + 0.003*"effective"']</t>
+    <t>['0.007*"’" + 0.005*"quality" + 0.004*"well" + 0.004*"plans" + 0.004*"information" + 0.004*"needs" + 0.004*"effective" + 0.003*"early" + 0.003*"need" + 0.003*"actions"', '0.010*"’" + 0.006*"well" + 0.005*"needs" + 0.004*"plans" + 0.004*"quality" + 0.004*"early" + 0.004*"management" + 0.003*"good" + 0.003*"use" + 0.003*"actions"', '0.016*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"benefit" + 0.005*"quality" + 0.005*"plans" + 0.005*"information" + 0.004*"use" + 0.004*"effective" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3760,7 +3760,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"good" + 0.005*"ensure" + 0.005*"practice" + 0.005*"team" + 0.005*"need" + 0.004*"plans" + 0.004*"effective"', '0.015*"’" + 0.012*"needs" + 0.011*"well" + 0.008*"good" + 0.007*"team" + 0.007*"effective" + 0.007*"enough" + 0.006*"need" + 0.006*"protection" + 0.006*"ensure"', '0.011*"’" + 0.010*"well" + 0.008*"need" + 0.008*"needs" + 0.007*"practice" + 0.007*"good" + 0.006*"team" + 0.006*"plans" + 0.005*"protection" + 0.005*"ensure"']</t>
+    <t>['0.016*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"need" + 0.006*"team" + 0.006*"protection" + 0.006*"practice" + 0.006*"good" + 0.006*"plans" + 0.006*"ensure"', '0.008*"well" + 0.007*"’" + 0.007*"good" + 0.006*"needs" + 0.005*"need" + 0.005*"practice" + 0.005*"plans" + 0.004*"effective" + 0.004*"However" + 0.004*"ensure"', '0.012*"’" + 0.012*"well" + 0.011*"needs" + 0.009*"good" + 0.008*"team" + 0.006*"practice" + 0.006*"enough" + 0.006*"effective" + 0.006*"ensure" + 0.006*"need"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3787,7 +3787,7 @@
     <t>0.2045</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"plans" + 0.006*"well" + 0.006*"needs" + 0.006*"Salford" + 0.005*"10" + 0.005*"practice" + 0.005*"effective" + 0.005*"6" + 0.004*"planning"', '0.015*"’" + 0.009*"needs" + 0.008*"plans" + 0.008*"well" + 0.008*"effective" + 0.006*"Salford" + 0.005*"leaders" + 0.005*"progress" + 0.005*"practice" + 0.005*"appropriate"', '0.012*"’" + 0.006*"plans" + 0.006*"well" + 0.006*"needs" + 0.006*"effective" + 0.006*"Salford" + 0.005*"planning" + 0.005*"practice" + 0.005*"quality" + 0.004*"leaders"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.007*"Salford" + 0.006*"effective" + 0.006*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"planning" + 0.005*"leaders" + 0.005*"6"', '0.013*"’" + 0.009*"plans" + 0.008*"well" + 0.005*"needs" + 0.005*"effective" + 0.005*"planning" + 0.005*"Salford" + 0.005*"strong" + 0.005*"10" + 0.005*"City"', '0.011*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"well" + 0.007*"effective" + 0.006*"practice" + 0.006*"Salford" + 0.005*"experiences" + 0.005*"quality" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3811,7 +3811,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.008*"needs" + 0.007*"’" + 0.006*"Sandwell" + 0.005*"plans" + 0.005*"education" + 0.005*"quality" + 0.005*"well" + 0.004*"progress" + 0.004*"changes" + 0.004*"Trust"', '0.019*"’" + 0.009*"Sandwell" + 0.008*"plans" + 0.008*"needs" + 0.008*"well" + 0.006*"quality" + 0.006*"Trust" + 0.005*"9" + 0.005*"effective" + 0.005*"20"', '0.012*"’" + 0.008*"needs" + 0.006*"plans" + 0.006*"Sandwell" + 0.006*"well" + 0.005*"quality" + 0.004*"number" + 0.004*"education" + 0.004*"progress" + 0.004*"2022"']</t>
+    <t>['0.017*"’" + 0.008*"plans" + 0.007*"well" + 0.007*"needs" + 0.007*"quality" + 0.007*"Sandwell" + 0.005*"Trust" + 0.004*"progress" + 0.004*"20" + 0.004*"supported"', '0.011*"’" + 0.007*"needs" + 0.006*"Sandwell" + 0.006*"plans" + 0.005*"education" + 0.005*"well" + 0.005*"number" + 0.004*"quality" + 0.004*"training" + 0.004*"20"', '0.014*"’" + 0.009*"needs" + 0.008*"Sandwell" + 0.007*"well" + 0.006*"plans" + 0.006*"9" + 0.005*"effective" + 0.005*"changes" + 0.005*"Trust" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3835,7 +3835,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"needs" + 0.006*"practice" + 0.006*"including" + 0.005*"lack" + 0.005*"protection" + 0.005*"oversight" + 0.005*"March" + 0.005*"l" + 0.004*"◼"', '0.018*"’" + 0.011*"needs" + 0.006*"oversight" + 0.006*"practice" + 0.006*"management" + 0.006*"◼" + 0.005*"many" + 0.005*"timely" + 0.005*"plans" + 0.005*"4"', '0.011*"’" + 0.007*"needs" + 0.005*"practice" + 0.005*"oversight" + 0.005*"protection" + 0.004*"always" + 0.004*"March" + 0.004*"including" + 0.004*"education" + 0.003*"identified"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.006*"practice" + 0.005*"including" + 0.005*"21" + 0.005*"protection" + 0.005*"◼" + 0.005*"lack" + 0.004*"timely" + 0.004*"plans"', '0.015*"’" + 0.010*"needs" + 0.006*"practice" + 0.005*"protection" + 0.005*"many" + 0.005*"◼" + 0.004*"oversight" + 0.004*"Sefton" + 0.004*"response" + 0.004*"2022"', '0.019*"’" + 0.009*"needs" + 0.007*"oversight" + 0.006*"practice" + 0.005*"need" + 0.005*"lack" + 0.005*"management" + 0.005*"including" + 0.005*"always" + 0.005*"many"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3868,7 +3868,7 @@
     <t>0.2097</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.011*"Sheffield" + 0.011*"needs" + 0.008*"well" + 0.007*"leaders" + 0.006*"practice" + 0.005*"health" + 0.005*"adviser" + 0.005*"plans" + 0.005*"good"', '0.013*"’" + 0.009*"Sheffield" + 0.006*"needs" + 0.005*"11" + 0.004*"well" + 0.004*"practice" + 0.004*"health" + 0.004*"leaders" + 0.004*"good" + 0.003*"2023"', '0.022*"’" + 0.012*"Sheffield" + 0.006*"needs" + 0.006*"well" + 0.006*"health" + 0.005*"practice" + 0.005*"quality" + 0.005*"experiences" + 0.004*"leaders" + 0.004*"effective"']</t>
+    <t>['0.018*"’" + 0.013*"Sheffield" + 0.010*"needs" + 0.008*"well" + 0.005*"health" + 0.005*"practice" + 0.005*"leaders" + 0.005*"22" + 0.004*"effective" + 0.004*"ensure"', '0.023*"’" + 0.010*"Sheffield" + 0.007*"needs" + 0.005*"well" + 0.005*"leaders" + 0.005*"practice" + 0.005*"adviser" + 0.004*"plans" + 0.004*"health" + 0.004*"ensure"', '0.020*"’" + 0.010*"Sheffield" + 0.009*"needs" + 0.007*"well" + 0.006*"leaders" + 0.006*"practice" + 0.006*"quality" + 0.006*"health" + 0.005*"good" + 0.005*"mental"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3898,7 +3898,7 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.006*"Shropshire" + 0.006*"well" + 0.006*"2022" + 0.006*"progress" + 0.005*"needs" + 0.005*"plans" + 0.005*"making" + 0.005*"11" + 0.005*"leaders"', '0.018*"’" + 0.010*"needs" + 0.008*"well" + 0.008*"Shropshire" + 0.006*"plans" + 0.006*"progress" + 0.006*"making" + 0.006*"7" + 0.005*"practice" + 0.005*"2022"', '0.017*"’" + 0.009*"needs" + 0.006*"Shropshire" + 0.005*"well" + 0.004*"progress" + 0.004*"effective" + 0.004*"7" + 0.004*"2022" + 0.004*"arrangements" + 0.004*"February"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.007*"Shropshire" + 0.007*"well" + 0.005*"making" + 0.005*"plans" + 0.005*"progress" + 0.004*"2022" + 0.004*"training" + 0.004*"need"', '0.016*"’" + 0.006*"progress" + 0.006*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"Shropshire" + 0.005*"7" + 0.005*"leaders" + 0.005*"2022" + 0.005*"making"', '0.019*"’" + 0.009*"needs" + 0.007*"Shropshire" + 0.007*"well" + 0.006*"progress" + 0.005*"2022" + 0.005*"7" + 0.005*"training" + 0.005*"practice" + 0.005*"11"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3922,7 +3922,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.007*"Slough" + 0.006*"quality" + 0.006*"practice" + 0.006*"plans" + 0.005*"However" + 0.004*"leaders" + 0.004*"senior" + 0.004*"impact"', '0.018*"’" + 0.010*"Slough" + 0.007*"plans" + 0.007*"quality" + 0.006*"3" + 0.006*"supported" + 0.005*"needs" + 0.005*"leaders" + 0.005*"impact" + 0.005*"practice"', '0.012*"’" + 0.006*"practice" + 0.006*"needs" + 0.005*"plans" + 0.005*"Slough" + 0.004*"need" + 0.004*"impact" + 0.004*"progress" + 0.004*"leaders" + 0.004*"quality"']</t>
+    <t>['0.012*"’" + 0.008*"Slough" + 0.007*"plans" + 0.006*"quality" + 0.006*"practice" + 0.005*"senior" + 0.005*"need" + 0.004*"3" + 0.004*"needs" + 0.004*"impact"', '0.019*"’" + 0.008*"Slough" + 0.007*"needs" + 0.006*"quality" + 0.006*"plans" + 0.005*"supported" + 0.005*"3" + 0.005*"impact" + 0.005*"practice" + 0.005*"leaders"', '0.015*"’" + 0.008*"Slough" + 0.007*"needs" + 0.006*"practice" + 0.006*"quality" + 0.006*"plans" + 0.005*"leaders" + 0.005*"impact" + 0.005*"23" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3946,7 +3946,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"lack" + 0.009*"2022" + 0.006*"need" + 0.006*"practice" + 0.006*"Solihull" + 0.005*"progress" + 0.005*"risk" + 0.005*"effective" + 0.005*"significant"', '0.009*"’" + 0.007*"lack" + 0.006*"2022" + 0.005*"Solihull" + 0.004*"quality" + 0.004*"leaders" + 0.004*"means" + 0.004*"partners" + 0.004*"experiences" + 0.003*"progress"', '0.018*"’" + 0.012*"lack" + 0.009*"2022" + 0.007*"risk" + 0.007*"need" + 0.007*"Solihull" + 0.007*"quality" + 0.006*"experiences" + 0.005*"significant" + 0.005*"effective"']</t>
+    <t>['0.017*"’" + 0.013*"lack" + 0.010*"2022" + 0.006*"need" + 0.006*"risk" + 0.005*"Solihull" + 0.005*"significant" + 0.005*"experiences" + 0.005*"practice" + 0.005*"quality"', '0.012*"’" + 0.009*"lack" + 0.006*"need" + 0.006*"Solihull" + 0.005*"risk" + 0.005*"2022" + 0.005*"practice" + 0.005*"quality" + 0.005*"significant" + 0.004*"effective"', '0.016*"’" + 0.009*"lack" + 0.009*"2022" + 0.007*"Solihull" + 0.007*"need" + 0.006*"quality" + 0.006*"risk" + 0.005*"practice" + 0.005*"experiences" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3970,7 +3970,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"plans" + 0.007*"Somerset" + 0.006*"good" + 0.006*"including" + 0.005*"supported" + 0.005*"practice" + 0.005*"regularly"', '0.015*"’" + 0.008*"well" + 0.008*"Somerset" + 0.007*"needs" + 0.006*"need" + 0.006*"plans" + 0.005*"good" + 0.005*"leaders" + 0.005*"number" + 0.005*"progress"', '0.018*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"supported" + 0.006*"Somerset" + 0.005*"good" + 0.005*"progress" + 0.005*"leaders" + 0.005*"number" + 0.005*"plans"']</t>
+    <t>['0.011*"’" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"plans" + 0.005*"well" + 0.005*"good" + 0.004*"family" + 0.004*"number" + 0.004*"progress" + 0.004*"including"', '0.016*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"Somerset" + 0.006*"plans" + 0.005*"progress" + 0.005*"supported" + 0.005*"including" + 0.005*"number" + 0.005*"18"', '0.020*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"good" + 0.006*"Somerset" + 0.006*"plans" + 0.006*"leaders" + 0.006*"supported" + 0.006*"need" + 0.006*"practice"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3994,7 +3994,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.013*"quality" + 0.010*"well" + 0.008*"plans" + 0.008*"leaders" + 0.007*"’" + 0.006*"good" + 0.005*"needs" + 0.005*"timely" + 0.005*"practice" + 0.005*"impact"', '0.011*"well" + 0.011*"’" + 0.010*"quality" + 0.009*"leaders" + 0.007*"good" + 0.007*"plans" + 0.006*"progress" + 0.005*"needs" + 0.005*"timely" + 0.005*"early"', '0.012*"well" + 0.008*"’" + 0.008*"leaders" + 0.008*"quality" + 0.008*"plans" + 0.007*"timely" + 0.007*"good" + 0.006*"needs" + 0.005*"progress" + 0.005*"Gloucestershire"']</t>
+    <t>['0.013*"well" + 0.011*"’" + 0.010*"quality" + 0.009*"plans" + 0.008*"leaders" + 0.007*"timely" + 0.007*"good" + 0.006*"needs" + 0.006*"always" + 0.005*"progress"', '0.009*"well" + 0.009*"leaders" + 0.008*"quality" + 0.008*"’" + 0.007*"good" + 0.006*"plans" + 0.006*"needs" + 0.005*"progress" + 0.005*"timely" + 0.004*"Senior"', '0.012*"quality" + 0.008*"well" + 0.007*"leaders" + 0.007*"’" + 0.006*"good" + 0.006*"plans" + 0.005*"practice" + 0.005*"progress" + 0.005*"timely" + 0.004*"Senior"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -4027,7 +4027,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.012*"needs" + 0.008*"Tyneside" + 0.008*"South" + 0.006*"oversight" + 0.005*"2022" + 0.005*"practice" + 0.005*"15" + 0.005*"leaders" + 0.005*"However"', '0.016*"’" + 0.008*"needs" + 0.007*"South" + 0.006*"carers" + 0.005*"Tyneside" + 0.005*"However" + 0.005*"5" + 0.005*"management" + 0.004*"14" + 0.004*"9"', '0.029*"’" + 0.007*"Tyneside" + 0.007*"South" + 0.006*"needs" + 0.005*"management" + 0.005*"effective" + 0.005*"December" + 0.005*"oversight" + 0.004*"progress" + 0.004*"plans"']</t>
+    <t>['0.030*"’" + 0.009*"needs" + 0.008*"South" + 0.008*"Tyneside" + 0.006*"However" + 0.006*"oversight" + 0.005*"carers" + 0.005*"9" + 0.005*"5" + 0.005*"effective"', '0.022*"’" + 0.011*"needs" + 0.007*"Tyneside" + 0.007*"South" + 0.006*"management" + 0.005*"December" + 0.005*"effective" + 0.005*"14" + 0.005*"However" + 0.005*"oversight"', '0.016*"’" + 0.007*"needs" + 0.006*"South" + 0.006*"Tyneside" + 0.005*"oversight" + 0.004*"carers" + 0.004*"9" + 0.004*"management" + 0.004*"practice" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -4057,7 +4057,7 @@
     <t>28/07/23</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"plans" + 0.005*"Southampton" + 0.005*"16" + 0.005*"5" + 0.005*"progress" + 0.005*"provide" + 0.005*"improve" + 0.004*"including" + 0.004*"good"', '0.014*"’" + 0.006*"Southampton" + 0.005*"plans" + 0.005*"5" + 0.005*"needs" + 0.005*"experiences" + 0.004*"improve" + 0.004*"including" + 0.004*"progress" + 0.004*"2023"', '0.016*"’" + 0.005*"Southampton" + 0.005*"plans" + 0.005*"June" + 0.005*"progress" + 0.005*"improve" + 0.004*"including" + 0.004*"needs" + 0.004*"2023" + 0.004*"experiences"']</t>
+    <t>['0.012*"’" + 0.006*"plans" + 0.005*"improve" + 0.005*"progress" + 0.005*"Southampton" + 0.004*"including" + 0.004*"needs" + 0.004*"5" + 0.004*"16" + 0.004*"well"', '0.016*"’" + 0.006*"plans" + 0.005*"Southampton" + 0.005*"improve" + 0.005*"experiences" + 0.004*"progress" + 0.004*"well" + 0.004*"5" + 0.004*"including" + 0.004*"timely"', '0.020*"’" + 0.006*"Southampton" + 0.006*"plans" + 0.005*"provide" + 0.005*"16" + 0.005*"needs" + 0.005*"5" + 0.004*"including" + 0.004*"progress" + 0.004*"June"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -4093,7 +4093,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"planning" + 0.007*"practice" + 0.007*"number" + 0.007*"protection" + 0.006*"quality" + 0.006*"leaders" + 0.005*"always" + 0.005*"However" + 0.005*"need"', '0.013*"’" + 0.008*"planning" + 0.006*"leaders" + 0.006*"protection" + 0.005*"always" + 0.005*"practice" + 0.005*"quality" + 0.004*"needs" + 0.004*"within" + 0.004*"Southend"', '0.011*"’" + 0.008*"quality" + 0.008*"practice" + 0.008*"planning" + 0.006*"effective" + 0.006*"leaders" + 0.006*"good" + 0.006*"within" + 0.005*"risk" + 0.005*"well"']</t>
+    <t>['0.015*"’" + 0.010*"planning" + 0.009*"practice" + 0.007*"leaders" + 0.007*"protection" + 0.006*"quality" + 0.005*"effective" + 0.005*"number" + 0.005*"within" + 0.005*"good"', '0.012*"’" + 0.006*"always" + 0.006*"quality" + 0.005*"number" + 0.005*"practice" + 0.005*"planning" + 0.005*"need" + 0.005*"effective" + 0.005*"leaders" + 0.004*"carers"', '0.012*"’" + 0.008*"quality" + 0.008*"planning" + 0.006*"within" + 0.005*"practice" + 0.005*"number" + 0.005*"leaders" + 0.005*"plans" + 0.005*"carers" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -4114,7 +4114,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.009*"St" + 0.008*"Helens" + 0.007*"needs" + 0.006*"well" + 0.006*"progress" + 0.006*"need" + 0.006*"21" + 0.006*"receive" + 0.005*"effective"', '0.012*"’" + 0.008*"Helens" + 0.006*"needs" + 0.006*"well" + 0.006*"St" + 0.006*"risk" + 0.005*"progress" + 0.005*"good" + 0.005*"21" + 0.005*"2023"', '0.015*"’" + 0.007*"St" + 0.007*"needs" + 0.006*"well" + 0.006*"Helens" + 0.006*"10" + 0.006*"progress" + 0.006*"good" + 0.005*"risk" + 0.005*"receive"']</t>
+    <t>['0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Helens" + 0.007*"21" + 0.006*"good" + 0.006*"St" + 0.006*"progress" + 0.006*"10" + 0.005*"receive"', '0.020*"’" + 0.008*"Helens" + 0.007*"needs" + 0.007*"St" + 0.006*"well" + 0.006*"progress" + 0.005*"10" + 0.005*"need" + 0.005*"risk" + 0.005*"receive"', '0.014*"’" + 0.010*"St" + 0.008*"Helens" + 0.007*"needs" + 0.006*"progress" + 0.005*"need" + 0.005*"good" + 0.005*"receive" + 0.005*"well" + 0.005*"21"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -4138,7 +4138,7 @@
     <t>0.1688</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.013*"needs" + 0.006*"practice" + 0.006*"Staffordshire" + 0.006*"oversight" + 0.005*"progress" + 0.005*"health" + 0.005*"ensure" + 0.005*"quality" + 0.004*"good"', '0.018*"’" + 0.012*"needs" + 0.007*"quality" + 0.006*"practice" + 0.006*"progress" + 0.006*"oversight" + 0.006*"ensure" + 0.005*"plans" + 0.005*"health" + 0.005*"Staffordshire"', '0.015*"’" + 0.010*"needs" + 0.006*"quality" + 0.006*"progress" + 0.005*"ensure" + 0.005*"oversight" + 0.005*"health" + 0.005*"Staffordshire" + 0.005*"well" + 0.004*"plans"']</t>
+    <t>['0.011*"’" + 0.009*"needs" + 0.007*"quality" + 0.006*"Staffordshire" + 0.006*"practice" + 0.005*"progress" + 0.005*"health" + 0.005*"oversight" + 0.005*"well" + 0.004*"plans"', '0.020*"’" + 0.014*"needs" + 0.007*"ensure" + 0.006*"practice" + 0.006*"progress" + 0.006*"health" + 0.006*"oversight" + 0.005*"quality" + 0.005*"Staffordshire" + 0.005*"10"', '0.019*"’" + 0.010*"needs" + 0.006*"oversight" + 0.006*"quality" + 0.006*"plans" + 0.005*"Staffordshire" + 0.005*"progress" + 0.005*"health" + 0.005*"ensure" + 0.005*"6"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -4165,7 +4165,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"well" + 0.007*"practice" + 0.007*"Stockport" + 0.007*"needs" + 0.006*"plans" + 0.005*"strong" + 0.005*"need" + 0.005*"quality" + 0.005*"ensure"', '0.012*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Stockport" + 0.006*"needs" + 0.006*"strong" + 0.005*"1" + 0.005*"risk" + 0.004*"ensure" + 0.004*"range"', '0.009*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Stockport" + 0.006*"plans" + 0.005*"risk" + 0.005*"strong" + 0.005*"28" + 0.004*"leaders" + 0.004*"needs"']</t>
+    <t>['0.011*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"Stockport" + 0.006*"plans" + 0.005*"strong" + 0.005*"ensure" + 0.005*"risk" + 0.004*"1"', '0.010*"’" + 0.007*"well" + 0.006*"practice" + 0.006*"Stockport" + 0.006*"strong" + 0.005*"needs" + 0.005*"plans" + 0.005*"quality" + 0.005*"28" + 0.004*"risk"', '0.012*"’" + 0.008*"well" + 0.008*"practice" + 0.007*"Stockport" + 0.006*"needs" + 0.005*"risk" + 0.005*"strong" + 0.005*"quality" + 0.005*"plans" + 0.004*"April"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -4201,7 +4201,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"plans" + 0.007*"leaders" + 0.007*"needs" + 0.007*"Stockton" + 0.006*"quality" + 0.006*"on-Tees" + 0.006*"well" + 0.005*"good" + 0.005*"6"', '0.018*"’" + 0.009*"leaders" + 0.008*"plans" + 0.007*"well" + 0.007*"quality" + 0.007*"needs" + 0.006*"on-Tees" + 0.006*"Stockton" + 0.006*"senior" + 0.005*"good"', '0.019*"’" + 0.010*"leaders" + 0.007*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"needs" + 0.005*"on-Tees" + 0.004*"17" + 0.004*"Stockton" + 0.004*"senior"']</t>
+    <t>['0.019*"’" + 0.008*"plans" + 0.007*"leaders" + 0.007*"Stockton" + 0.006*"well" + 0.006*"needs" + 0.006*"on-Tees" + 0.005*"good" + 0.005*"quality" + 0.005*"senior"', '0.015*"’" + 0.009*"leaders" + 0.008*"plans" + 0.007*"quality" + 0.007*"good" + 0.006*"needs" + 0.006*"well" + 0.005*"on-Tees" + 0.005*"Stockton" + 0.004*"receive"', '0.024*"’" + 0.010*"leaders" + 0.008*"plans" + 0.006*"needs" + 0.006*"well" + 0.006*"on-Tees" + 0.006*"Stockton" + 0.006*"senior" + 0.005*"quality" + 0.005*"6"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -4225,7 +4225,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"needs" + 0.009*"on-Trent" + 0.008*"well" + 0.008*"Stoke" + 0.007*"plans" + 0.006*"ensure" + 0.006*"However" + 0.005*"quality" + 0.005*"protection"', '0.015*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"However" + 0.005*"3" + 0.005*"plans" + 0.005*"Stoke" + 0.005*"effectively" + 0.005*"protection" + 0.005*"quality"', '0.013*"’" + 0.009*"needs" + 0.008*"However" + 0.007*"Stoke" + 0.006*"protection" + 0.006*"plans" + 0.006*"on-Trent" + 0.006*"ensure" + 0.005*"well" + 0.005*"progress"']</t>
+    <t>['0.020*"’" + 0.008*"needs" + 0.007*"on-Trent" + 0.007*"plans" + 0.007*"ensure" + 0.007*"well" + 0.006*"Stoke" + 0.006*"However" + 0.005*"protection" + 0.005*"progress"', '0.016*"’" + 0.007*"needs" + 0.007*"Stoke" + 0.006*"However" + 0.006*"plans" + 0.006*"well" + 0.006*"on-Trent" + 0.005*"protection" + 0.005*"number" + 0.005*"quality"', '0.015*"’" + 0.010*"needs" + 0.007*"well" + 0.007*"Stoke" + 0.007*"However" + 0.007*"on-Trent" + 0.006*"protection" + 0.006*"plans" + 0.006*"ensure" + 0.006*"quality"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -4255,7 +4255,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"progress" + 0.007*"well" + 0.004*"effective" + 0.004*"good" + 0.004*"practice" + 0.004*"ensure" + 0.004*"needs" + 0.004*"leaders" + 0.004*"early"', '0.013*"’" + 0.007*"well" + 0.006*"progress" + 0.006*"effective" + 0.005*"ensure" + 0.005*"leaders" + 0.004*"good" + 0.004*"practice" + 0.004*"need" + 0.004*"carers"', '0.015*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"leaders" + 0.005*"good" + 0.005*"effective" + 0.004*"needs" + 0.004*"ensure" + 0.004*"Suffolk" + 0.004*"high"']</t>
+    <t>['0.015*"’" + 0.007*"well" + 0.006*"progress" + 0.006*"effective" + 0.005*"ensure" + 0.005*"good" + 0.005*"leaders" + 0.005*"need" + 0.004*"practice" + 0.004*"Suffolk"', '0.009*"’" + 0.006*"progress" + 0.006*"well" + 0.005*"leaders" + 0.005*"effective" + 0.005*"good" + 0.004*"high" + 0.004*"ensure" + 0.004*"Suffolk" + 0.004*"needs"', '0.015*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"needs" + 0.004*"good" + 0.004*"carers" + 0.004*"leaders" + 0.004*"practice" + 0.004*"effective" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -4288,7 +4288,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"quality" + 0.005*"Sunderland" + 0.005*"council" + 0.005*"practice" + 0.005*"training" + 0.004*"good" + 0.004*"robust"', '0.018*"’" + 0.007*"quality" + 0.007*"well" + 0.006*"Sunderland" + 0.006*"needs" + 0.005*"experienced" + 0.005*"protection" + 0.005*"practice" + 0.005*"need" + 0.004*"TfC"', '0.013*"’" + 0.006*"quality" + 0.006*"well" + 0.006*"needs" + 0.006*"experienced" + 0.006*"Sunderland" + 0.005*"training" + 0.005*"result" + 0.005*"TfC" + 0.005*"protection"']</t>
+    <t>['0.020*"’" + 0.007*"needs" + 0.007*"quality" + 0.007*"well" + 0.006*"Sunderland" + 0.005*"practice" + 0.005*"TfC" + 0.005*"good" + 0.005*"experienced" + 0.005*"council"', '0.011*"’" + 0.007*"well" + 0.007*"quality" + 0.006*"needs" + 0.005*"experienced" + 0.005*"Sunderland" + 0.004*"council" + 0.004*"risk" + 0.004*"result" + 0.004*"good"', '0.016*"’" + 0.007*"well" + 0.006*"quality" + 0.006*"Sunderland" + 0.005*"needs" + 0.005*"parents" + 0.004*"experienced" + 0.004*"practice" + 0.004*"protection" + 0.004*"robust"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -4318,7 +4318,7 @@
     <t>0.1782</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.010*"well" + 0.010*"needs" + 0.007*"practice" + 0.006*"good" + 0.005*"plans" + 0.005*"effective" + 0.005*"progress" + 0.005*"Surrey" + 0.005*"17"', '0.010*"needs" + 0.008*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"progress" + 0.004*"28" + 0.004*"carers" + 0.004*"plans" + 0.004*"However" + 0.004*"ensure"', '0.018*"’" + 0.011*"well" + 0.009*"needs" + 0.008*"progress" + 0.008*"practice" + 0.006*"effective" + 0.006*"carers" + 0.006*"plans" + 0.006*"quality" + 0.005*"17"']</t>
+    <t>['0.015*"’" + 0.011*"needs" + 0.008*"well" + 0.006*"progress" + 0.006*"good" + 0.005*"practice" + 0.005*"17" + 0.005*"quality" + 0.004*"number" + 0.004*"However"', '0.013*"’" + 0.011*"well" + 0.009*"practice" + 0.009*"needs" + 0.006*"progress" + 0.006*"carers" + 0.006*"plans" + 0.006*"effective" + 0.005*"However" + 0.005*"ensure"', '0.012*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"progress" + 0.006*"practice" + 0.005*"plans" + 0.005*"quality" + 0.005*"17" + 0.004*"effective" + 0.004*"Surrey"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -4342,7 +4342,7 @@
     <t>0.1489</t>
   </si>
   <si>
-    <t>['0.009*"needs" + 0.008*"’" + 0.007*"Swindon" + 0.006*"need" + 0.005*"well" + 0.005*"always" + 0.004*"effective" + 0.004*"Council" + 0.004*"health" + 0.004*"plans"', '0.016*"’" + 0.010*"needs" + 0.009*"Swindon" + 0.007*"need" + 0.007*"plans" + 0.006*"well" + 0.006*"effective" + 0.006*"However" + 0.005*"always" + 0.005*"July"', '0.031*"’" + 0.016*"needs" + 0.010*"well" + 0.010*"Swindon" + 0.010*"need" + 0.007*"always" + 0.007*"plans" + 0.006*"impact" + 0.006*"home" + 0.005*"health"']</t>
+    <t>['0.024*"’" + 0.013*"needs" + 0.011*"Swindon" + 0.010*"need" + 0.007*"well" + 0.007*"plans" + 0.006*"impact" + 0.006*"always" + 0.006*"health" + 0.005*"many"', '0.021*"’" + 0.013*"needs" + 0.008*"well" + 0.008*"Swindon" + 0.007*"need" + 0.007*"plans" + 0.006*"always" + 0.006*"effective" + 0.005*"education" + 0.005*"17"', '0.019*"’" + 0.013*"needs" + 0.008*"well" + 0.007*"need" + 0.007*"always" + 0.006*"Swindon" + 0.005*"plans" + 0.005*"health" + 0.005*"28" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -4369,7 +4369,7 @@
     <t>0.1495</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"needs" + 0.006*"practice" + 0.006*"impact" + 0.006*"quality" + 0.005*"2023" + 0.005*"risk" + 0.005*"4" + 0.005*"experienced" + 0.005*"experiences"', '0.018*"’" + 0.010*"needs" + 0.008*"impact" + 0.007*"risk" + 0.006*"experienced" + 0.005*"15" + 0.005*"effective" + 0.005*"progress" + 0.005*"experiences" + 0.005*"response"', '0.013*"’" + 0.008*"needs" + 0.006*"quality" + 0.006*"risk" + 0.005*"Tameside" + 0.005*"plans" + 0.005*"4" + 0.004*"response" + 0.004*"experienced" + 0.004*"2023"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.006*"risk" + 0.006*"impact" + 0.006*"response" + 0.005*"experienced" + 0.005*"quality" + 0.005*"practice" + 0.005*"15" + 0.005*"experiences"', '0.017*"’" + 0.009*"needs" + 0.007*"risk" + 0.007*"quality" + 0.006*"impact" + 0.006*"experienced" + 0.005*"2023" + 0.005*"4" + 0.005*"practice" + 0.005*"plans"', '0.015*"’" + 0.009*"needs" + 0.005*"impact" + 0.005*"practice" + 0.005*"4" + 0.005*"2023" + 0.005*"effective" + 0.005*"Tameside" + 0.004*"planning" + 0.004*"many"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -4393,7 +4393,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"effective" + 0.005*"plans" + 0.005*"need" + 0.005*"strong" + 0.005*"practice" + 0.004*"effectively" + 0.004*"improve"', '0.018*"’" + 0.013*"well" + 0.008*"needs" + 0.008*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"leaders" + 0.005*"ensure" + 0.005*"practice" + 0.005*"strong"', '0.017*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"effective" + 0.006*"planning" + 0.005*"strong" + 0.005*"ensure" + 0.005*"plans" + 0.005*"clear" + 0.005*"practice"']</t>
+    <t>['0.017*"’" + 0.011*"well" + 0.009*"needs" + 0.006*"effective" + 0.006*"practice" + 0.005*"carers" + 0.005*"leaders" + 0.005*"plans" + 0.005*"need" + 0.004*"clear"', '0.017*"’" + 0.011*"well" + 0.007*"needs" + 0.007*"effective" + 0.006*"need" + 0.006*"strong" + 0.005*"plans" + 0.005*"practice" + 0.004*"highly" + 0.004*"ensure"', '0.014*"’" + 0.011*"well" + 0.008*"effective" + 0.007*"ensure" + 0.006*"needs" + 0.006*"plans" + 0.005*"strong" + 0.005*"planning" + 0.005*"improve" + 0.005*"clear"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -4417,7 +4417,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"well" + 0.006*"carers" + 0.005*"need" + 0.005*"needs" + 0.004*"practice" + 0.004*"Thurrock" + 0.004*"effective" + 0.004*"leaders" + 0.004*"ensure"', '0.011*"’" + 0.007*"well" + 0.005*"carers" + 0.004*"need" + 0.004*"needs" + 0.004*"good" + 0.004*"leaders" + 0.004*"Thurrock" + 0.003*"protection" + 0.003*"practice"', '0.011*"’" + 0.008*"well" + 0.005*"carers" + 0.005*"ensure" + 0.005*"need" + 0.004*"impact" + 0.004*"practice" + 0.004*"needs" + 0.004*"effective" + 0.004*"parents"']</t>
+    <t>['0.014*"’" + 0.007*"well" + 0.006*"need" + 0.006*"carers" + 0.004*"needs" + 0.004*"leaders" + 0.004*"effective" + 0.004*"protection" + 0.004*"ensure" + 0.004*"practice"', '0.012*"’" + 0.009*"well" + 0.005*"carers" + 0.004*"ensure" + 0.004*"need" + 0.004*"needs" + 0.004*"Thurrock" + 0.004*"practice" + 0.004*"protection" + 0.004*"effective"', '0.012*"’" + 0.008*"well" + 0.005*"carers" + 0.004*"practice" + 0.004*"needs" + 0.004*"leaders" + 0.004*"need" + 0.004*"ensure" + 0.004*"impact" + 0.003*"effective"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -4441,7 +4441,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.007*"Torbay" + 0.006*"effective" + 0.005*"needs" + 0.005*"good" + 0.004*"plans" + 0.004*"education" + 0.004*"21" + 0.004*"agencies"', '0.021*"’" + 0.010*"well" + 0.008*"Torbay" + 0.006*"good" + 0.006*"needs" + 0.005*"team" + 0.005*"effective" + 0.004*"21" + 0.004*"2022" + 0.004*"progress"', '0.017*"’" + 0.009*"well" + 0.008*"Torbay" + 0.006*"needs" + 0.006*"good" + 0.005*"timely" + 0.005*"progress" + 0.004*"1" + 0.004*"education" + 0.004*"21"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.006*"Torbay" + 0.006*"good" + 0.005*"team" + 0.005*"needs" + 0.005*"agencies" + 0.005*"2022" + 0.005*"effective" + 0.004*"timely"', '0.016*"’" + 0.007*"well" + 0.006*"Torbay" + 0.005*"good" + 0.005*"needs" + 0.005*"1" + 0.004*"timely" + 0.004*"effective" + 0.004*"21" + 0.004*"progress"', '0.014*"’" + 0.012*"well" + 0.010*"Torbay" + 0.007*"needs" + 0.006*"good" + 0.005*"effective" + 0.004*"progress" + 0.004*"21" + 0.004*"1" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -4465,7 +4465,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"Trafford" + 0.006*"well" + 0.006*"leaders" + 0.006*"practice" + 0.005*"quality" + 0.005*"2" + 0.005*"21"', '0.016*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"plans" + 0.006*"leaders" + 0.005*"Trafford" + 0.005*"quality" + 0.005*"appropriate" + 0.004*"placed" + 0.004*"ensure"', '0.019*"’" + 0.011*"needs" + 0.010*"Trafford" + 0.008*"quality" + 0.007*"well" + 0.007*"plans" + 0.006*"team" + 0.005*"impact" + 0.005*"practice" + 0.005*"ensure"']</t>
+    <t>['0.012*"’" + 0.011*"needs" + 0.007*"Trafford" + 0.007*"well" + 0.006*"plans" + 0.005*"quality" + 0.004*"team" + 0.004*"practice" + 0.004*"placed" + 0.004*"2"', '0.021*"’" + 0.010*"needs" + 0.009*"Trafford" + 0.008*"well" + 0.007*"quality" + 0.007*"plans" + 0.007*"leaders" + 0.007*"practice" + 0.005*"placed" + 0.005*"ensure"', '0.010*"’" + 0.007*"plans" + 0.006*"needs" + 0.005*"Trafford" + 0.005*"well" + 0.005*"quality" + 0.005*"leaders" + 0.004*"impact" + 0.004*"21" + 0.004*"team"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -4486,7 +4486,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50172854</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.008*"leaders" + 0.007*"needs" + 0.005*"well" + 0.005*"Walsall" + 0.004*"oversight" + 0.004*"information" + 0.004*"good" + 0.004*"15" + 0.004*"4"', '0.020*"’" + 0.008*"needs" + 0.007*"leaders" + 0.006*"well" + 0.005*"oversight" + 0.005*"information" + 0.005*"Walsall" + 0.005*"4" + 0.004*"practice" + 0.004*"positive"', '0.018*"’" + 0.007*"leaders" + 0.006*"Walsall" + 0.005*"well" + 0.005*"Senior" + 0.005*"4" + 0.004*"needs" + 0.004*"2021" + 0.004*"information" + 0.004*"good"']</t>
+    <t>['0.018*"’" + 0.006*"needs" + 0.006*"leaders" + 0.005*"Walsall" + 0.004*"Senior" + 0.004*"well" + 0.004*"4" + 0.004*"15" + 0.004*"2021" + 0.004*"information"', '0.026*"’" + 0.008*"leaders" + 0.006*"well" + 0.006*"Walsall" + 0.006*"needs" + 0.005*"oversight" + 0.005*"4" + 0.005*"information" + 0.004*"carers" + 0.004*"good"', '0.017*"’" + 0.007*"leaders" + 0.007*"needs" + 0.005*"well" + 0.005*"information" + 0.005*"good" + 0.004*"Walsall" + 0.004*"risks" + 0.004*"Senior" + 0.004*"2021"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4516,7 +4516,7 @@
     <t>19/08/19</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.005*"practice" + 0.005*"plans" + 0.005*"well" + 0.004*"Senior" + 0.004*"carers" + 0.004*"number" + 0.004*"progress" + 0.004*"good" + 0.004*"need"', '0.017*"’" + 0.007*"practice" + 0.007*"well" + 0.005*"Senior" + 0.004*"number" + 0.004*"home" + 0.004*"placed" + 0.004*"plans" + 0.004*"senior" + 0.004*"information"', '0.010*"’" + 0.007*"well" + 0.007*"practice" + 0.005*"progress" + 0.004*"number" + 0.004*"carers" + 0.004*"small" + 0.004*"plans" + 0.004*"information" + 0.003*"good"']</t>
+    <t>['0.018*"’" + 0.008*"well" + 0.006*"practice" + 0.004*"plans" + 0.004*"number" + 0.004*"need" + 0.004*"Senior" + 0.004*"home" + 0.003*"progress" + 0.003*"receive"', '0.013*"’" + 0.007*"practice" + 0.006*"well" + 0.005*"number" + 0.005*"progress" + 0.005*"Senior" + 0.004*"good" + 0.004*"plans" + 0.004*"need" + 0.004*"carers"', '0.011*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"Senior" + 0.004*"information" + 0.004*"good" + 0.004*"carers" + 0.004*"plans" + 0.004*"home" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4546,7 +4546,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"needs" + 0.007*"Warwickshire" + 0.007*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"carers" + 0.005*"December" + 0.004*"information" + 0.004*"progress"', '0.008*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"carers" + 0.005*"Warwickshire" + 0.005*"clear" + 0.005*"good" + 0.005*"practice" + 0.004*"Senior"', '0.012*"’" + 0.007*"plans" + 0.005*"well" + 0.005*"good" + 0.005*"3" + 0.005*"needs" + 0.004*"Warwickshire" + 0.004*"practice" + 0.004*"effective" + 0.004*"2021"']</t>
+    <t>['0.012*"’" + 0.007*"plans" + 0.006*"needs" + 0.005*"well" + 0.005*"Warwickshire" + 0.004*"effective" + 0.004*"quality" + 0.004*"good" + 0.004*"practice" + 0.004*"progress"', '0.011*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"Warwickshire" + 0.005*"clear" + 0.005*"carers" + 0.004*"information" + 0.004*"3"', '0.013*"’" + 0.007*"well" + 0.007*"Warwickshire" + 0.006*"needs" + 0.006*"good" + 0.005*"plans" + 0.005*"practice" + 0.005*"3" + 0.004*"Senior" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4576,7 +4576,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"West" + 0.005*"Berkshire" + 0.005*"well" + 0.004*"needs" + 0.004*"plans" + 0.003*"early" + 0.003*"working" + 0.003*"home" + 0.003*"effective"', '0.019*"’" + 0.006*"Berkshire" + 0.006*"well" + 0.006*"West" + 0.005*"agency" + 0.004*"need" + 0.004*"14" + 0.004*"plans" + 0.004*"needs" + 0.004*"March"', '0.012*"’" + 0.007*"West" + 0.007*"Berkshire" + 0.006*"well" + 0.005*"need" + 0.004*"early" + 0.004*"working" + 0.004*"18" + 0.004*"needs" + 0.004*"practice"']</t>
+    <t>['0.011*"’" + 0.007*"well" + 0.005*"Berkshire" + 0.004*"West" + 0.004*"working" + 0.004*"needs" + 0.004*"need" + 0.004*"plans" + 0.004*"early" + 0.003*"2022"', '0.017*"’" + 0.009*"West" + 0.007*"Berkshire" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"agency" + 0.004*"14" + 0.004*"18" + 0.004*"working"', '0.014*"’" + 0.005*"Berkshire" + 0.005*"West" + 0.004*"need" + 0.004*"well" + 0.004*"early" + 0.004*"agency" + 0.004*"practice" + 0.004*"information" + 0.004*"14"']</t>
   </si>
   <si>
     <t>2637548</t>
@@ -4600,7 +4600,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"Northamptonshire" + 0.007*"well" + 0.005*"West" + 0.005*"practice" + 0.005*"quality" + 0.005*"3" + 0.005*"place" + 0.005*"experiences" + 0.004*"NCT"', '0.021*"’" + 0.009*"quality" + 0.008*"Northamptonshire" + 0.007*"West" + 0.006*"well" + 0.005*"NCT" + 0.005*"needs" + 0.005*"14" + 0.004*"need" + 0.004*"3"', '0.015*"’" + 0.007*"West" + 0.006*"Northamptonshire" + 0.006*"practice" + 0.006*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"quality" + 0.005*"NCT" + 0.004*"impact"']</t>
+    <t>['0.012*"’" + 0.007*"Northamptonshire" + 0.007*"well" + 0.006*"West" + 0.005*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"plans" + 0.004*"3" + 0.004*"need"', '0.020*"’" + 0.008*"Northamptonshire" + 0.008*"quality" + 0.006*"West" + 0.005*"well" + 0.005*"NCT" + 0.005*"practice" + 0.005*"October" + 0.005*"14" + 0.004*"needs"', '0.018*"’" + 0.008*"Northamptonshire" + 0.007*"West" + 0.006*"well" + 0.006*"quality" + 0.006*"practice" + 0.005*"NCT" + 0.005*"plans" + 0.005*"needs" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4624,7 +4624,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"plans" + 0.008*"well" + 0.005*"needs" + 0.005*"13" + 0.005*"24" + 0.005*"Sussex" + 0.005*"March" + 0.005*"quality" + 0.004*"supported"', '0.014*"’" + 0.006*"West" + 0.006*"needs" + 0.006*"number" + 0.005*"Sussex" + 0.005*"well" + 0.005*"health" + 0.005*"13" + 0.004*"quality" + 0.004*"practice"', '0.013*"’" + 0.006*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"supported" + 0.005*"Sussex" + 0.005*"health" + 0.004*"quality" + 0.004*"West" + 0.004*"13"']</t>
+    <t>['0.010*"’" + 0.005*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"13" + 0.004*"number" + 0.004*"24" + 0.004*"practice" + 0.004*"supported" + 0.004*"West"', '0.015*"’" + 0.008*"plans" + 0.006*"well" + 0.006*"West" + 0.005*"Sussex" + 0.005*"13" + 0.005*"number" + 0.005*"needs" + 0.005*"clear" + 0.005*"practice"', '0.015*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"Sussex" + 0.005*"quality" + 0.005*"plans" + 0.005*"West" + 0.004*"24" + 0.004*"supported" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4645,7 +4645,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50187563</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"May" + 0.006*"needs" + 0.006*"quality" + 0.005*"practice" + 0.005*"appropriate" + 0.005*"plans" + 0.004*"9" + 0.004*"leaders" + 0.004*"Wigan"', '0.014*"’" + 0.008*"plans" + 0.007*"May" + 0.006*"practice" + 0.006*"needs" + 0.006*"appropriate" + 0.005*"quality" + 0.005*"Wigan" + 0.005*"timely" + 0.005*"2022"', '0.012*"’" + 0.008*"Wigan" + 0.007*"May" + 0.007*"practice" + 0.006*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"leaders" + 0.005*"appropriate" + 0.004*"20"']</t>
+    <t>['0.011*"’" + 0.007*"practice" + 0.007*"Wigan" + 0.006*"leaders" + 0.006*"quality" + 0.006*"needs" + 0.005*"plans" + 0.005*"May" + 0.005*"appropriate" + 0.004*"well"', '0.010*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"May" + 0.006*"quality" + 0.005*"practice" + 0.005*"appropriate" + 0.005*"Wigan" + 0.005*"9" + 0.004*"timely"', '0.015*"’" + 0.010*"May" + 0.007*"practice" + 0.006*"plans" + 0.006*"appropriate" + 0.006*"Wigan" + 0.006*"needs" + 0.005*"quality" + 0.005*"timely" + 0.005*"2022"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4678,7 +4678,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.013*"well" + 0.009*"needs" + 0.007*"need" + 0.007*"Wiltshire" + 0.006*"risk" + 0.006*"ensure" + 0.006*"progress" + 0.006*"plans" + 0.006*"parents"', '0.014*"’" + 0.010*"well" + 0.006*"needs" + 0.006*"risk" + 0.006*"including" + 0.006*"supported" + 0.006*"parents" + 0.006*"quality" + 0.006*"need" + 0.005*"progress"', '0.015*"’" + 0.009*"well" + 0.006*"need" + 0.006*"progress" + 0.005*"needs" + 0.005*"including" + 0.005*"Wiltshire" + 0.005*"supported" + 0.004*"timely" + 0.004*"September"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.007*"risk" + 0.007*"progress" + 0.006*"need" + 0.006*"ensure" + 0.006*"Wiltshire" + 0.006*"plans" + 0.005*"including" + 0.005*"parents"', '0.013*"’" + 0.011*"well" + 0.006*"need" + 0.006*"supported" + 0.006*"including" + 0.006*"needs" + 0.005*"plans" + 0.005*"risk" + 0.005*"family" + 0.005*"parents"', '0.016*"’" + 0.013*"well" + 0.010*"needs" + 0.006*"Wiltshire" + 0.006*"need" + 0.006*"parents" + 0.006*"progress" + 0.005*"including" + 0.005*"supported" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4711,7 +4711,7 @@
     <t>0.1655</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"needs" + 0.006*"Wirral" + 0.005*"plans" + 0.005*"number" + 0.004*"ensure" + 0.004*"appropriate" + 0.004*"18" + 0.004*"29" + 0.004*"small"', '0.011*"’" + 0.008*"plans" + 0.008*"needs" + 0.007*"Wirral" + 0.006*"ensure" + 0.005*"well" + 0.005*"good" + 0.005*"number" + 0.005*"29" + 0.005*"practice"', '0.011*"needs" + 0.011*"’" + 0.009*"ensure" + 0.008*"Wirral" + 0.008*"practice" + 0.006*"well" + 0.006*"plans" + 0.006*"18" + 0.006*"response" + 0.005*"small"']</t>
+    <t>['0.010*"’" + 0.007*"needs" + 0.006*"Wirral" + 0.006*"ensure" + 0.006*"practice" + 0.005*"plans" + 0.005*"number" + 0.005*"18" + 0.004*"well" + 0.004*"small"', '0.009*"’" + 0.009*"needs" + 0.007*"Wirral" + 0.007*"plans" + 0.007*"ensure" + 0.006*"appropriate" + 0.006*"practice" + 0.005*"29" + 0.005*"18" + 0.005*"September"', '0.013*"’" + 0.011*"needs" + 0.008*"ensure" + 0.008*"Wirral" + 0.007*"plans" + 0.007*"well" + 0.006*"practice" + 0.006*"number" + 0.006*"response" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4735,7 +4735,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"plans" + 0.006*"needs" + 0.005*"effective" + 0.005*"progress" + 0.004*"impact" + 0.004*"provided" + 0.004*"March" + 0.004*"Borough" + 0.004*"well"', '0.009*"’" + 0.007*"effective" + 0.006*"plans" + 0.006*"needs" + 0.005*"well" + 0.005*"progress" + 0.005*"provided" + 0.004*"Wokingham" + 0.004*"protection" + 0.004*"quality"', '0.016*"’" + 0.006*"plans" + 0.006*"17" + 0.006*"effective" + 0.006*"progress" + 0.006*"well" + 0.006*"needs" + 0.006*"experiences" + 0.005*"provided" + 0.005*"appropriate"']</t>
+    <t>['0.006*"’" + 0.005*"plans" + 0.005*"needs" + 0.004*"progress" + 0.004*"well" + 0.004*"impact" + 0.004*"appropriate" + 0.004*"17" + 0.004*"provided" + 0.004*"effective"', '0.013*"’" + 0.007*"effective" + 0.007*"plans" + 0.006*"needs" + 0.006*"progress" + 0.005*"17" + 0.005*"parents" + 0.005*"experiences" + 0.005*"protection" + 0.005*"quality"', '0.016*"’" + 0.007*"plans" + 0.007*"provided" + 0.006*"effective" + 0.006*"well" + 0.006*"needs" + 0.006*"Wokingham" + 0.006*"progress" + 0.005*"6" + 0.005*"experiences"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4759,7 +4759,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"Wolverhampton" + 0.005*"plans" + 0.005*"receive" + 0.005*"education" + 0.005*"quality" + 0.004*"practice" + 0.004*"strong"', '0.013*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"Wolverhampton" + 0.005*"supported" + 0.005*"quality" + 0.005*"strong" + 0.004*"plans" + 0.004*"risk" + 0.004*"risks"', '0.014*"’" + 0.009*"needs" + 0.006*"risks" + 0.005*"leaders" + 0.005*"plans" + 0.005*"well" + 0.005*"receive" + 0.005*"practice" + 0.005*"Wolverhampton" + 0.005*"effective"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.006*"effective" + 0.006*"risks" + 0.006*"plans" + 0.006*"quality" + 0.005*"receive" + 0.005*"1" + 0.005*"leaders" + 0.005*"Wolverhampton"', '0.015*"’" + 0.007*"needs" + 0.006*"Wolverhampton" + 0.006*"effective" + 0.005*"strong" + 0.005*"education" + 0.004*"practice" + 0.004*"plans" + 0.004*"supported" + 0.004*"risk"', '0.011*"’" + 0.006*"needs" + 0.005*"Wolverhampton" + 0.005*"effective" + 0.004*"receive" + 0.004*"risks" + 0.004*"plans" + 0.004*"well" + 0.004*"leaders" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4789,7 +4789,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"progress" + 0.007*"plans" + 0.007*"ensure" + 0.007*"leaders" + 0.006*"appropriate" + 0.006*"Worcestershire" + 0.004*"making"', '0.023*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Worcestershire" + 0.006*"plans" + 0.006*"progress" + 0.005*"leaders" + 0.005*"living" + 0.005*"appropriate" + 0.005*"ensure"', '0.017*"’" + 0.009*"plans" + 0.008*"well" + 0.008*"Worcestershire" + 0.008*"leaders" + 0.007*"needs" + 0.006*"progress" + 0.005*"ensure" + 0.005*"26" + 0.005*"experiences"']</t>
+    <t>['0.017*"’" + 0.008*"well" + 0.007*"plans" + 0.007*"leaders" + 0.007*"needs" + 0.006*"progress" + 0.005*"ensure" + 0.005*"Worcestershire" + 0.005*"improve" + 0.005*"appropriate"', '0.023*"’" + 0.009*"Worcestershire" + 0.008*"plans" + 0.007*"well" + 0.007*"needs" + 0.007*"ensure" + 0.007*"progress" + 0.006*"appropriate" + 0.006*"leaders" + 0.005*"experiences"', '0.015*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"plans" + 0.007*"leaders" + 0.007*"progress" + 0.006*"Worcestershire" + 0.005*"appropriate" + 0.004*"ensure" + 0.004*"improve"']</t>
   </si>
   <si>
     <t>urn</t>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -70,7 +70,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"needs" + 0.007*"Barnsley" + 0.006*"within" + 0.006*"leaders" + 0.005*"practice" + 0.005*"understand" + 0.004*"senior" + 0.004*"plans" + 0.004*"progress"', '0.019*"’" + 0.010*"leaders" + 0.007*"practice" + 0.007*"needs" + 0.006*"within" + 0.005*"Barnsley" + 0.005*"family" + 0.004*"15" + 0.004*"response" + 0.004*"senior"', '0.019*"’" + 0.007*"needs" + 0.006*"within" + 0.005*"leaders" + 0.005*"plans" + 0.005*"Barnsley" + 0.004*"partners" + 0.004*"practice" + 0.004*"11" + 0.004*"2023"']</t>
+    <t>['0.017*"’" + 0.006*"needs" + 0.006*"Barnsley" + 0.006*"leaders" + 0.005*"senior" + 0.005*"practice" + 0.004*"response" + 0.004*"11" + 0.004*"need" + 0.003*"within"', '0.022*"’" + 0.009*"leaders" + 0.008*"needs" + 0.008*"within" + 0.006*"practice" + 0.006*"Barnsley" + 0.006*"plans" + 0.005*"15" + 0.004*"11" + 0.004*"2023"', '0.017*"’" + 0.010*"needs" + 0.006*"within" + 0.006*"leaders" + 0.006*"practice" + 0.005*"Barnsley" + 0.005*"understand" + 0.004*"response" + 0.004*"progress" + 0.004*"11"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -115,7 +115,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"impact" + 0.004*"leaders" + 0.004*"North" + 0.004*"clear" + 0.004*"Bath" + 0.004*"2022"', '0.018*"’" + 0.007*"well" + 0.006*"leaders" + 0.006*"practice" + 0.005*"plans" + 0.005*"effective" + 0.005*"Bath" + 0.005*"impact" + 0.004*"Somerset" + 0.004*"needs"', '0.017*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"practice" + 0.005*"East" + 0.005*"plans" + 0.005*"4" + 0.005*"28" + 0.005*"receive" + 0.004*"effective"']</t>
+    <t>['0.022*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"plans" + 0.005*"East" + 0.005*"North" + 0.005*"leaders" + 0.005*"receive" + 0.005*"impact"', '0.016*"’" + 0.009*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"clear" + 0.005*"effective" + 0.005*"leaders" + 0.005*"plans" + 0.004*"Somerset" + 0.004*"Bath"', '0.012*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"practice" + 0.004*"plans" + 0.004*"leaders" + 0.004*"Bath" + 0.004*"protection" + 0.004*"effective" + 0.004*"impact"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -163,7 +163,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"ensure" + 0.006*"supported" + 0.006*"plans" + 0.005*"good" + 0.005*"Bedford" + 0.005*"education" + 0.005*"26"', '0.011*"’" + 0.008*"ensure" + 0.005*"well" + 0.004*"Bedford" + 0.004*"supported" + 0.004*"needs" + 0.004*"plans" + 0.004*"family" + 0.004*"good" + 0.004*"15"', '0.025*"’" + 0.007*"needs" + 0.006*"progress" + 0.005*"Bedford" + 0.005*"Borough" + 0.005*"plans" + 0.005*"made" + 0.005*"well" + 0.005*"ensure" + 0.005*"good"']</t>
+    <t>['0.014*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"Bedford" + 0.005*"supported" + 0.005*"ensure" + 0.005*"progress" + 0.005*"good" + 0.004*"family" + 0.004*"plans"', '0.018*"’" + 0.007*"ensure" + 0.006*"well" + 0.005*"needs" + 0.005*"Bedford" + 0.005*"plans" + 0.005*"family" + 0.005*"education" + 0.004*"made" + 0.004*"supported"', '0.023*"’" + 0.008*"needs" + 0.006*"ensure" + 0.006*"plans" + 0.005*"good" + 0.005*"progress" + 0.005*"well" + 0.005*"supported" + 0.005*"Bedford" + 0.005*"Borough"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -208,7 +208,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.011*"needs" + 0.008*"well" + 0.006*"effective" + 0.006*"plans" + 0.005*"trust" + 0.005*"Birmingham" + 0.005*"progress" + 0.005*"2023" + 0.004*"timely"', '0.013*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"effective" + 0.005*"Birmingham" + 0.005*"trust" + 0.005*"plans" + 0.005*"3" + 0.005*"March" + 0.005*"appropriate"', '0.015*"’" + 0.009*"needs" + 0.007*"effective" + 0.007*"plans" + 0.006*"progress" + 0.006*"Birmingham" + 0.006*"risk" + 0.006*"appropriate" + 0.005*"trust" + 0.005*"3"']</t>
+    <t>['0.012*"’" + 0.011*"needs" + 0.007*"plans" + 0.006*"well" + 0.005*"timely" + 0.005*"leaders" + 0.005*"risk" + 0.005*"effective" + 0.005*"20" + 0.005*"3"', '0.017*"’" + 0.009*"needs" + 0.008*"Birmingham" + 0.007*"well" + 0.007*"effective" + 0.006*"progress" + 0.006*"trust" + 0.005*"plans" + 0.005*"3" + 0.005*"response"', '0.018*"’" + 0.009*"needs" + 0.007*"effective" + 0.006*"well" + 0.006*"plans" + 0.005*"trust" + 0.005*"appropriate" + 0.005*"progress" + 0.005*"risk" + 0.005*"March"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -250,7 +250,7 @@
     <t>0.1834</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"quality" + 0.007*"Blackburn" + 0.007*"practice" + 0.007*"impact" + 0.007*"Darwen" + 0.005*"planning" + 0.005*"effective"', '0.014*"’" + 0.007*"needs" + 0.007*"practice" + 0.007*"Darwen" + 0.007*"Blackburn" + 0.006*"quality" + 0.006*"well" + 0.005*"4" + 0.005*"plans" + 0.004*"means"', '0.010*"’" + 0.007*"practice" + 0.007*"impact" + 0.007*"needs" + 0.006*"quality" + 0.005*"Blackburn" + 0.005*"planning" + 0.004*"Darwen" + 0.004*"means" + 0.004*"February"']</t>
+    <t>['0.013*"’" + 0.008*"needs" + 0.007*"practice" + 0.007*"Darwen" + 0.007*"quality" + 0.007*"well" + 0.006*"Blackburn" + 0.005*"planning" + 0.005*"impact" + 0.005*"leaders"', '0.016*"’" + 0.008*"practice" + 0.007*"Blackburn" + 0.007*"needs" + 0.007*"quality" + 0.006*"impact" + 0.006*"well" + 0.006*"Darwen" + 0.005*"planning" + 0.005*"means"', '0.013*"’" + 0.007*"quality" + 0.006*"needs" + 0.006*"Darwen" + 0.006*"impact" + 0.006*"Blackburn" + 0.006*"practice" + 0.005*"well" + 0.005*"plans" + 0.005*"result"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -292,7 +292,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"Blackpool" + 0.006*"effective" + 0.005*"16" + 0.005*"5" + 0.005*"experiences" + 0.005*"supported" + 0.005*"plans"', '0.017*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"Blackpool" + 0.005*"effective" + 0.005*"practice" + 0.005*"plans" + 0.005*"quality" + 0.004*"experiences" + 0.004*"need"', '0.017*"’" + 0.012*"needs" + 0.009*"well" + 0.009*"Blackpool" + 0.005*"effective" + 0.005*"practice" + 0.005*"progress" + 0.005*"supported" + 0.005*"quality" + 0.005*"plans"']</t>
+    <t>['0.014*"’" + 0.010*"needs" + 0.009*"well" + 0.006*"Blackpool" + 0.005*"quality" + 0.005*"16" + 0.005*"progress" + 0.005*"carers" + 0.004*"plans" + 0.004*"5"', '0.015*"’" + 0.012*"well" + 0.010*"needs" + 0.008*"Blackpool" + 0.006*"effective" + 0.005*"practice" + 0.005*"supported" + 0.005*"need" + 0.005*"quality" + 0.005*"good"', '0.020*"’" + 0.011*"needs" + 0.007*"Blackpool" + 0.007*"well" + 0.007*"effective" + 0.006*"plans" + 0.005*"experiences" + 0.005*"progress" + 0.005*"practice" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>80432</t>
@@ -322,7 +322,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.012*"needs" + 0.008*"well" + 0.008*"Bolton" + 0.007*"plans" + 0.006*"supported" + 0.005*"appropriate" + 0.005*"11" + 0.005*"need" + 0.004*"15"', '0.017*"’" + 0.009*"well" + 0.009*"Bolton" + 0.008*"plans" + 0.006*"needs" + 0.006*"planning" + 0.005*"effective" + 0.005*"September" + 0.005*"timely" + 0.005*"supported"', '0.020*"’" + 0.009*"needs" + 0.008*"plans" + 0.006*"Bolton" + 0.006*"well" + 0.005*"strong" + 0.005*"need" + 0.005*"effective" + 0.005*"supported" + 0.005*"2023"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.007*"Bolton" + 0.007*"well" + 0.007*"plans" + 0.006*"11" + 0.006*"supported" + 0.005*"need" + 0.005*"planning" + 0.005*"September"', '0.022*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"Bolton" + 0.007*"plans" + 0.005*"need" + 0.005*"response" + 0.005*"supported" + 0.005*"planning" + 0.004*"2023"', '0.019*"’" + 0.010*"needs" + 0.009*"Bolton" + 0.009*"well" + 0.008*"plans" + 0.006*"supported" + 0.005*"timely" + 0.005*"planning" + 0.005*"effective" + 0.005*"strong"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -358,7 +358,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"quality" + 0.006*"progress" + 0.006*"time" + 0.005*"Poole" + 0.005*"practice" + 0.005*"Christchurch" + 0.005*"However" + 0.004*"impact" + 0.004*"risk"', '0.012*"’" + 0.006*"quality" + 0.005*"practice" + 0.005*"6" + 0.005*"progress" + 0.005*"risk" + 0.004*"impact" + 0.004*"Bournemouth" + 0.004*"17" + 0.004*"number"', '0.023*"’" + 0.007*"practice" + 0.005*"quality" + 0.005*"Bournemouth" + 0.005*"17" + 0.004*"well" + 0.004*"Christchurch" + 0.004*"positive" + 0.004*"progress" + 0.004*"Poole"']</t>
+    <t>['0.013*"’" + 0.005*"impact" + 0.005*"quality" + 0.004*"Christchurch" + 0.004*"17" + 0.004*"time" + 0.004*"progress" + 0.003*"risk" + 0.003*"2021" + 0.003*"6"', '0.018*"’" + 0.005*"practice" + 0.005*"progress" + 0.005*"quality" + 0.005*"Poole" + 0.005*"time" + 0.005*"However" + 0.004*"Bournemouth" + 0.004*"risk" + 0.004*"17"', '0.021*"’" + 0.008*"quality" + 0.007*"practice" + 0.006*"progress" + 0.005*"Christchurch" + 0.005*"6" + 0.005*"Bournemouth" + 0.005*"impact" + 0.005*"risk" + 0.005*"Poole"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -403,7 +403,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"Forest" + 0.007*"good" + 0.007*"needs" + 0.007*"Bracknell" + 0.007*"provided" + 0.007*"quality" + 0.006*"risk" + 0.006*"effective" + 0.006*"progress"', '0.012*"’" + 0.007*"Bracknell" + 0.007*"risk" + 0.006*"well" + 0.006*"needs" + 0.005*"good" + 0.005*"quality" + 0.005*"plans" + 0.005*"Forest" + 0.005*"progress"', '0.020*"’" + 0.007*"needs" + 0.006*"Forest" + 0.006*"risk" + 0.006*"effective" + 0.006*"Bracknell" + 0.006*"plans" + 0.006*"well" + 0.005*"need" + 0.005*"quality"']</t>
+    <t>['0.015*"’" + 0.007*"needs" + 0.007*"good" + 0.007*"Forest" + 0.007*"Bracknell" + 0.006*"effective" + 0.006*"risk" + 0.005*"progress" + 0.005*"need" + 0.005*"impact"', '0.016*"’" + 0.007*"risk" + 0.007*"Forest" + 0.006*"well" + 0.006*"needs" + 0.006*"provided" + 0.006*"plans" + 0.005*"quality" + 0.005*"good" + 0.005*"Bracknell"', '0.018*"’" + 0.008*"Bracknell" + 0.007*"quality" + 0.007*"needs" + 0.006*"Forest" + 0.006*"good" + 0.006*"progress" + 0.005*"risk" + 0.005*"provided" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80438</t>
@@ -442,7 +442,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"good" + 0.008*"needs" + 0.007*"recording" + 0.006*"leaders" + 0.005*"well" + 0.005*"improve" + 0.005*"need" + 0.005*"However" + 0.005*"timely"', '0.013*"’" + 0.011*"needs" + 0.009*"good" + 0.006*"leaders" + 0.006*"well" + 0.005*"plans" + 0.005*"need" + 0.004*"recording" + 0.004*"timely" + 0.004*"quality"', '0.014*"’" + 0.008*"good" + 0.008*"needs" + 0.006*"recording" + 0.005*"well" + 0.005*"need" + 0.004*"Brighton" + 0.004*"leaders" + 0.004*"Hove" + 0.004*"plans"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.008*"good" + 0.006*"well" + 0.006*"need" + 0.005*"recording" + 0.005*"quality" + 0.004*"plans" + 0.004*"effective" + 0.004*"leaders"', '0.014*"’" + 0.008*"needs" + 0.008*"good" + 0.007*"leaders" + 0.006*"well" + 0.005*"recording" + 0.004*"improve" + 0.004*"timely" + 0.004*"plans" + 0.004*"need"', '0.013*"’" + 0.009*"good" + 0.008*"needs" + 0.007*"recording" + 0.005*"leaders" + 0.005*"However" + 0.005*"plans" + 0.005*"Hove" + 0.005*"arrangements" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -478,7 +478,7 @@
     <t>0.1875</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"Bristol" + 0.006*"good" + 0.005*"plans" + 0.005*"receive" + 0.005*"16" + 0.005*"need" + 0.005*"progress"', '0.014*"’" + 0.009*"well" + 0.008*"good" + 0.007*"needs" + 0.007*"Bristol" + 0.006*"health" + 0.005*"progress" + 0.004*"need" + 0.004*"living" + 0.004*"information"', '0.021*"’" + 0.009*"good" + 0.008*"well" + 0.007*"Bristol" + 0.007*"needs" + 0.005*"progress" + 0.005*"leaders" + 0.005*"health" + 0.005*"plans" + 0.005*"always"']</t>
+    <t>['0.020*"’" + 0.009*"needs" + 0.008*"Bristol" + 0.008*"well" + 0.007*"good" + 0.004*"receive" + 0.004*"leaders" + 0.004*"risk" + 0.004*"health" + 0.004*"progress"', '0.020*"’" + 0.009*"good" + 0.009*"well" + 0.008*"Bristol" + 0.006*"needs" + 0.005*"progress" + 0.005*"plans" + 0.005*"health" + 0.005*"leaders" + 0.005*"always"', '0.018*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"good" + 0.006*"Bristol" + 0.006*"health" + 0.005*"progress" + 0.005*"need" + 0.005*"plans" + 0.005*"27"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -511,7 +511,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.005*"number" + 0.005*"plans" + 0.005*"17" + 0.005*"many" + 0.005*"Buckinghamshire" + 0.004*"practice" + 0.004*"6" + 0.004*"needs" + 0.004*"well"', '0.012*"’" + 0.004*"Buckinghamshire" + 0.004*"plans" + 0.004*"17" + 0.004*"protection" + 0.004*"many" + 0.004*"6" + 0.003*"practice" + 0.003*"number" + 0.003*"progress"', '0.012*"’" + 0.006*"plans" + 0.005*"number" + 0.005*"2021" + 0.004*"Buckinghamshire" + 0.004*"protection" + 0.004*"17" + 0.004*"December" + 0.004*"6" + 0.003*"progress"']</t>
+    <t>['0.010*"’" + 0.005*"number" + 0.005*"17" + 0.004*"6" + 0.004*"protection" + 0.004*"Buckinghamshire" + 0.004*"well" + 0.003*"plans" + 0.003*"practice" + 0.003*"many"', '0.012*"’" + 0.006*"plans" + 0.005*"17" + 0.004*"Buckinghamshire" + 0.004*"number" + 0.004*"2021" + 0.004*"many" + 0.004*"protection" + 0.004*"December" + 0.003*"impact"', '0.017*"’" + 0.005*"plans" + 0.005*"number" + 0.005*"Buckinghamshire" + 0.004*"6" + 0.004*"practice" + 0.004*"many" + 0.004*"December" + 0.004*"2021" + 0.004*"17"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -550,7 +550,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"protection" + 0.006*"quality" + 0.006*"needs" + 0.006*"2021" + 0.005*"need" + 0.005*"impact" + 0.005*"Bury" + 0.005*"new" + 0.004*"timely"', '0.010*"’" + 0.008*"2021" + 0.007*"practice" + 0.006*"protection" + 0.006*"needs" + 0.006*"risk" + 0.005*"team" + 0.005*"impact" + 0.005*"delay" + 0.005*"October"', '0.012*"’" + 0.007*"team" + 0.007*"needs" + 0.006*"protection" + 0.005*"2021" + 0.005*"need" + 0.005*"impact" + 0.005*"practice" + 0.005*"Bury" + 0.004*"risk"']</t>
+    <t>['0.010*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"team" + 0.006*"protection" + 0.006*"2021" + 0.005*"impact" + 0.005*"delay" + 0.005*"Bury" + 0.005*"new"', '0.012*"’" + 0.006*"2021" + 0.005*"needs" + 0.005*"protection" + 0.005*"risk" + 0.005*"quality" + 0.005*"need" + 0.004*"team" + 0.004*"practice" + 0.004*"Bury"', '0.012*"’" + 0.008*"protection" + 0.007*"2021" + 0.007*"needs" + 0.006*"need" + 0.005*"team" + 0.005*"impact" + 0.005*"risk" + 0.005*"quality" + 0.005*"Bury"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -583,7 +583,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.005*"well" + 0.005*"practice" + 0.004*"good" + 0.004*"protection" + 0.004*"education" + 0.003*"effective" + 0.003*"training" + 0.003*"Calderdale" + 0.003*"‘"', '0.015*"’" + 0.006*"well" + 0.006*"Calderdale" + 0.006*"practice" + 0.005*"good" + 0.004*"protection" + 0.004*"needs" + 0.004*"leaders" + 0.004*"carers" + 0.004*"Senior"', '0.018*"’" + 0.009*"well" + 0.006*"good" + 0.005*"effective" + 0.005*"Calderdale" + 0.005*"practice" + 0.005*"inform" + 0.005*"‘" + 0.004*"protection" + 0.004*"need"']</t>
+    <t>['0.016*"’" + 0.009*"well" + 0.006*"practice" + 0.006*"good" + 0.005*"Calderdale" + 0.005*"effective" + 0.005*"protection" + 0.005*"need" + 0.004*"‘" + 0.004*"carers"', '0.015*"’" + 0.006*"well" + 0.005*"Calderdale" + 0.005*"inform" + 0.005*"protection" + 0.004*"good" + 0.004*"practice" + 0.004*"‘" + 0.004*"risk" + 0.004*"leaders"', '0.012*"’" + 0.007*"well" + 0.005*"practice" + 0.005*"Calderdale" + 0.005*"good" + 0.005*"education" + 0.004*"needs" + 0.004*"effective" + 0.004*"risk" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -622,7 +622,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"well" + 0.008*"needs" + 0.008*"good" + 0.008*"plans" + 0.007*"teams" + 0.007*"impact" + 0.007*"need" + 0.006*"quality" + 0.005*"However"', '0.015*"’" + 0.010*"good" + 0.009*"well" + 0.009*"need" + 0.007*"impact" + 0.007*"plans" + 0.007*"needs" + 0.006*"teams" + 0.006*"effective" + 0.006*"quality"', '0.014*"’" + 0.008*"well" + 0.008*"good" + 0.007*"needs" + 0.007*"teams" + 0.006*"impact" + 0.006*"need" + 0.006*"quality" + 0.005*"However" + 0.005*"plans"']</t>
+    <t>['0.015*"’" + 0.009*"well" + 0.008*"good" + 0.008*"plans" + 0.007*"needs" + 0.006*"However" + 0.006*"need" + 0.006*"teams" + 0.006*"impact" + 0.005*"effective"', '0.013*"’" + 0.011*"well" + 0.009*"good" + 0.008*"impact" + 0.008*"need" + 0.007*"needs" + 0.007*"teams" + 0.006*"effective" + 0.006*"progress" + 0.005*"plans"', '0.014*"’" + 0.009*"good" + 0.009*"well" + 0.007*"needs" + 0.007*"teams" + 0.007*"quality" + 0.007*"need" + 0.006*"impact" + 0.006*"plans" + 0.006*"However"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -655,7 +655,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"well" + 0.007*"need" + 0.007*"carers" + 0.006*"good" + 0.006*"plans" + 0.005*"needs" + 0.005*"Central" + 0.005*"progress" + 0.004*"effective"', '0.017*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"effective" + 0.005*"plans" + 0.005*"need" + 0.005*"carers" + 0.005*"Central" + 0.005*"Bedfordshire"', '0.018*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"need" + 0.007*"progress" + 0.006*"carers" + 0.006*"plans" + 0.005*"Bedfordshire" + 0.005*"Leaders" + 0.004*"good"']</t>
+    <t>['0.013*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"need" + 0.005*"carers" + 0.005*"progress" + 0.005*"Bedfordshire" + 0.005*"plans" + 0.005*"effective" + 0.005*"good"', '0.018*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"good" + 0.006*"carers" + 0.006*"need" + 0.006*"plans" + 0.005*"Central" + 0.005*"progress" + 0.005*"information"', '0.017*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"need" + 0.006*"plans" + 0.006*"good" + 0.006*"carers" + 0.005*"progress" + 0.004*"Bedfordshire" + 0.004*"Leaders"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -694,7 +694,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"plans" + 0.007*"always" + 0.007*"good" + 0.007*"needs" + 0.006*"well" + 0.005*"need" + 0.005*"supported" + 0.005*"cases" + 0.005*"progress"', '0.014*"’" + 0.010*"well" + 0.009*"good" + 0.007*"needs" + 0.007*"practice" + 0.006*"risk" + 0.006*"supported" + 0.005*"ensure" + 0.005*"plans" + 0.005*"need"', '0.012*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"practice" + 0.006*"However" + 0.006*"need" + 0.006*"good" + 0.005*"supported" + 0.005*"carers"']</t>
+    <t>['0.016*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"plans" + 0.006*"good" + 0.006*"need" + 0.005*"always" + 0.005*"ensure" + 0.005*"However" + 0.005*"supported"', '0.011*"’" + 0.008*"good" + 0.008*"well" + 0.007*"practice" + 0.007*"needs" + 0.007*"plans" + 0.006*"ensure" + 0.005*"effective" + 0.005*"need" + 0.005*"carers"', '0.013*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"good" + 0.007*"practice" + 0.006*"supported" + 0.006*"always" + 0.006*"plans" + 0.005*"However" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -733,7 +733,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.007*"needs" + 0.007*"well" + 0.005*"practice" + 0.004*"plans" + 0.004*"effectively" + 0.004*"impact" + 0.004*"information" + 0.004*"risk" + 0.004*"always"', '0.027*"’" + 0.008*"well" + 0.008*"needs" + 0.005*"effective" + 0.005*"always" + 0.005*"learning" + 0.005*"order" + 0.005*"impact" + 0.004*"practice" + 0.004*"progress"', '0.011*"’" + 0.006*"well" + 0.005*"practice" + 0.005*"needs" + 0.004*"plans" + 0.004*"order" + 0.004*"small" + 0.004*"receive" + 0.004*"effectively" + 0.003*"intervention"']</t>
+    <t>['0.022*"’" + 0.008*"well" + 0.006*"practice" + 0.005*"needs" + 0.004*"plans" + 0.004*"impact" + 0.004*"always" + 0.004*"However" + 0.004*"effective" + 0.004*"learning"', '0.024*"’" + 0.007*"needs" + 0.006*"well" + 0.004*"practice" + 0.004*"effective" + 0.004*"impact" + 0.004*"information" + 0.004*"always" + 0.004*"timely" + 0.004*"learning"', '0.018*"’" + 0.008*"needs" + 0.008*"well" + 0.005*"effectively" + 0.005*"order" + 0.005*"plans" + 0.004*"receive" + 0.004*"timely" + 0.004*"effective" + 0.004*"early"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -772,7 +772,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.006*"plans" + 0.005*"Bradford" + 0.005*"needs" + 0.005*"2" + 0.005*"impact" + 0.005*"practice" + 0.005*"need" + 0.004*"21" + 0.004*"lack"', '0.020*"’" + 0.006*"plans" + 0.004*"◼" + 0.004*"2" + 0.004*"impact" + 0.004*"changes" + 0.004*"21" + 0.004*"needs" + 0.004*"progress" + 0.004*"Bradford"', '0.020*"’" + 0.008*"plans" + 0.006*"quality" + 0.005*"needs" + 0.005*"Bradford" + 0.005*"risk" + 0.005*"senior" + 0.004*"2022" + 0.004*"Metropolitan" + 0.004*"2"']</t>
+    <t>['0.020*"’" + 0.007*"plans" + 0.006*"needs" + 0.005*"impact" + 0.005*"2" + 0.005*"risk" + 0.005*"Bradford" + 0.005*"December" + 0.005*"21" + 0.004*"quality"', '0.025*"’" + 0.007*"plans" + 0.006*"Bradford" + 0.005*"need" + 0.005*"2" + 0.005*"2022" + 0.005*"Council" + 0.004*"lack" + 0.004*"◼" + 0.004*"quality"', '0.015*"’" + 0.006*"plans" + 0.004*"quality" + 0.004*"However" + 0.004*"practice" + 0.004*"risk" + 0.004*"November" + 0.004*"needs" + 0.004*"worker" + 0.004*"Metropolitan"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -808,7 +808,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"ensure" + 0.005*"clear" + 0.004*"individual" + 0.004*"clearly" + 0.004*"effective" + 0.004*"progress" + 0.004*"within"', '0.013*"’" + 0.012*"needs" + 0.010*"well" + 0.007*"good" + 0.007*"effective" + 0.007*"ensure" + 0.006*"individual" + 0.006*"within" + 0.005*"plans" + 0.005*"clear"', '0.013*"needs" + 0.012*"’" + 0.011*"well" + 0.010*"ensure" + 0.008*"clear" + 0.008*"progress" + 0.007*"effective" + 0.007*"plans" + 0.005*"supported" + 0.005*"practice"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.010*"ensure" + 0.009*"needs" + 0.006*"plans" + 0.006*"clear" + 0.006*"good" + 0.006*"effective" + 0.005*"progress" + 0.005*"individual"', '0.010*"’" + 0.008*"needs" + 0.008*"well" + 0.008*"effective" + 0.007*"ensure" + 0.007*"progress" + 0.005*"clear" + 0.005*"good" + 0.005*"supported" + 0.004*"plans"', '0.016*"needs" + 0.011*"well" + 0.011*"’" + 0.008*"ensure" + 0.007*"clear" + 0.006*"effective" + 0.005*"practice" + 0.005*"good" + 0.005*"plans" + 0.005*"within"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -847,7 +847,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"leaders" + 0.009*"quality" + 0.008*"well" + 0.008*"Wakefield" + 0.006*"effective" + 0.006*"good" + 0.006*"November" + 0.005*"receive" + 0.005*"needs"', '0.015*"’" + 0.007*"Wakefield" + 0.006*"effective" + 0.006*"leaders" + 0.006*"November" + 0.005*"receive" + 0.005*"progress" + 0.005*"good" + 0.005*"plans" + 0.005*"practice"', '0.020*"’" + 0.009*"November" + 0.009*"well" + 0.008*"quality" + 0.008*"Wakefield" + 0.007*"good" + 0.007*"effective" + 0.007*"plans" + 0.006*"leaders" + 0.006*"progress"']</t>
+    <t>['0.019*"’" + 0.009*"Wakefield" + 0.009*"well" + 0.008*"leaders" + 0.008*"November" + 0.007*"quality" + 0.007*"effective" + 0.007*"plans" + 0.006*"practice" + 0.006*"good"', '0.012*"’" + 0.007*"Wakefield" + 0.006*"November" + 0.006*"well" + 0.006*"quality" + 0.005*"effective" + 0.005*"leaders" + 0.005*"good" + 0.004*"plans" + 0.004*"2021"', '0.017*"’" + 0.009*"quality" + 0.008*"good" + 0.007*"leaders" + 0.007*"Wakefield" + 0.007*"well" + 0.007*"November" + 0.006*"effective" + 0.006*"needs" + 0.006*"progress"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -880,7 +880,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"needs" + 0.006*"effective" + 0.006*"York" + 0.006*"March" + 0.005*"well" + 0.005*"ensure" + 0.005*"practice" + 0.005*"However" + 0.005*"appropriate"', '0.018*"’" + 0.008*"needs" + 0.008*"quality" + 0.008*"March" + 0.006*"effective" + 0.005*"plans" + 0.005*"supported" + 0.005*"However" + 0.005*"York" + 0.005*"training"', '0.016*"’" + 0.007*"March" + 0.007*"needs" + 0.006*"quality" + 0.006*"ensure" + 0.006*"effective" + 0.005*"However" + 0.005*"good" + 0.005*"need" + 0.004*"7"']</t>
+    <t>['0.015*"’" + 0.007*"needs" + 0.007*"quality" + 0.006*"ensure" + 0.006*"March" + 0.006*"effective" + 0.005*"well" + 0.005*"7" + 0.005*"plans" + 0.005*"supported"', '0.013*"’" + 0.008*"March" + 0.006*"needs" + 0.006*"quality" + 0.005*"effective" + 0.005*"However" + 0.005*"York" + 0.005*"appropriate" + 0.005*"plans" + 0.004*"good"', '0.016*"’" + 0.008*"needs" + 0.006*"March" + 0.006*"quality" + 0.006*"effective" + 0.006*"York" + 0.006*"However" + 0.006*"practice" + 0.005*"well" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -919,7 +919,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.013*"well" + 0.012*"’" + 0.010*"leaders" + 0.008*"quality" + 0.007*"effective" + 0.006*"arrangements" + 0.006*"plans" + 0.006*"timely" + 0.005*"high" + 0.005*"good"', '0.013*"well" + 0.010*"’" + 0.009*"quality" + 0.009*"effective" + 0.008*"leaders" + 0.007*"good" + 0.006*"plans" + 0.005*"arrangements" + 0.005*"timely" + 0.005*"needs"', '0.017*"well" + 0.013*"’" + 0.011*"quality" + 0.010*"effective" + 0.007*"leaders" + 0.006*"plans" + 0.005*"highly" + 0.005*"timely" + 0.005*"good" + 0.005*"arrangements"']</t>
+    <t>['0.014*"’" + 0.011*"well" + 0.010*"effective" + 0.008*"leaders" + 0.008*"quality" + 0.006*"timely" + 0.006*"plans" + 0.006*"arrangements" + 0.006*"good" + 0.005*"ensure"', '0.012*"’" + 0.010*"well" + 0.010*"effective" + 0.009*"quality" + 0.008*"leaders" + 0.006*"good" + 0.005*"plans" + 0.005*"arrangements" + 0.005*"highly" + 0.005*"Senior"', '0.022*"well" + 0.012*"quality" + 0.010*"’" + 0.008*"leaders" + 0.006*"effective" + 0.006*"plans" + 0.006*"timely" + 0.006*"good" + 0.005*"arrangements" + 0.005*"highly"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -952,7 +952,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.014*"Isles" + 0.013*"Scilly" + 0.009*"practice" + 0.008*"information" + 0.007*"needs" + 0.007*"need" + 0.006*"protection" + 0.006*"place" + 0.005*"quality"', '0.020*"’" + 0.010*"Isles" + 0.010*"information" + 0.009*"Scilly" + 0.007*"protection" + 0.007*"practice" + 0.006*"need" + 0.006*"needs" + 0.006*"quality" + 0.005*"place"', '0.020*"’" + 0.013*"Scilly" + 0.012*"Isles" + 0.010*"need" + 0.009*"information" + 0.009*"practice" + 0.007*"risks" + 0.007*"protection" + 0.006*"quality" + 0.006*"needs"']</t>
+    <t>['0.025*"’" + 0.016*"Isles" + 0.015*"Scilly" + 0.009*"needs" + 0.009*"practice" + 0.009*"information" + 0.009*"need" + 0.007*"protection" + 0.007*"risks" + 0.006*"quality"', '0.012*"’" + 0.009*"Scilly" + 0.009*"need" + 0.008*"information" + 0.008*"practice" + 0.008*"Isles" + 0.007*"protection" + 0.006*"place" + 0.006*"quality" + 0.005*"lack"', '0.022*"’" + 0.010*"Isles" + 0.009*"Scilly" + 0.009*"information" + 0.008*"place" + 0.008*"practice" + 0.006*"need" + 0.005*"protection" + 0.005*"quality" + 0.005*"13"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -991,7 +991,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.009*"supported" + 0.009*"well" + 0.008*"needs" + 0.007*"Coventry" + 0.006*"family" + 0.006*"plans" + 0.005*"need" + 0.005*"PAs" + 0.005*"1"', '0.021*"’" + 0.009*"Coventry" + 0.008*"well" + 0.008*"needs" + 0.006*"strong" + 0.006*"plans" + 0.005*"supported" + 0.005*"family" + 0.004*"However" + 0.004*"need"', '0.012*"’" + 0.008*"Coventry" + 0.006*"well" + 0.006*"needs" + 0.006*"family" + 0.006*"plans" + 0.005*"strong" + 0.005*"need" + 0.005*"supported" + 0.005*"understand"']</t>
+    <t>['0.023*"’" + 0.008*"well" + 0.008*"Coventry" + 0.008*"needs" + 0.006*"family" + 0.006*"strong" + 0.006*"plans" + 0.005*"supported" + 0.005*"June" + 0.004*"2022"', '0.012*"’" + 0.008*"supported" + 0.008*"well" + 0.007*"Coventry" + 0.006*"needs" + 0.005*"need" + 0.005*"strong" + 0.005*"family" + 0.004*"plans" + 0.004*"training"', '0.021*"’" + 0.008*"Coventry" + 0.008*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"supported" + 0.006*"need" + 0.006*"family" + 0.005*"strong" + 0.005*"1"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -1030,7 +1030,7 @@
     <t>0.1983</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"needs" + 0.008*"October" + 0.007*"well" + 0.006*"leaders" + 0.006*"practice" + 0.006*"quality" + 0.006*"Darlington" + 0.005*"supported" + 0.005*"education"', '0.016*"’" + 0.009*"well" + 0.008*"October" + 0.007*"Darlington" + 0.007*"leaders" + 0.005*"practice" + 0.005*"needs" + 0.005*"effective" + 0.005*"10" + 0.004*"family"', '0.019*"’" + 0.008*"well" + 0.007*"leaders" + 0.007*"practice" + 0.006*"needs" + 0.005*"effective" + 0.005*"supported" + 0.005*"understand" + 0.004*"October" + 0.004*"Darlington"']</t>
+    <t>['0.017*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"leaders" + 0.006*"quality" + 0.006*"October" + 0.005*"supported" + 0.005*"Darlington" + 0.004*"effective"', '0.017*"’" + 0.008*"well" + 0.008*"October" + 0.007*"needs" + 0.006*"leaders" + 0.006*"Darlington" + 0.006*"practice" + 0.005*"effective" + 0.005*"10" + 0.004*"21"', '0.021*"’" + 0.008*"leaders" + 0.007*"well" + 0.006*"practice" + 0.006*"Darlington" + 0.006*"October" + 0.006*"needs" + 0.005*"effective" + 0.004*"quality" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -1072,7 +1072,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.009*"Derby" + 0.009*"needs" + 0.008*"quality" + 0.007*"well" + 0.006*"progress" + 0.006*"receive" + 0.006*"good" + 0.006*"plans" + 0.006*"need"', '0.018*"’" + 0.013*"needs" + 0.006*"appropriate" + 0.006*"receive" + 0.006*"need" + 0.006*"Derby" + 0.006*"quality" + 0.005*"leaders" + 0.005*"plans" + 0.005*"carers"', '0.019*"’" + 0.006*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.006*"progress" + 0.005*"Derby" + 0.005*"receive" + 0.005*"quality" + 0.005*"25" + 0.004*"good"']</t>
+    <t>['0.014*"’" + 0.007*"Derby" + 0.006*"receive" + 0.006*"needs" + 0.006*"quality" + 0.005*"plans" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.004*"appropriate"', '0.022*"’" + 0.011*"needs" + 0.007*"Derby" + 0.007*"quality" + 0.006*"need" + 0.006*"receive" + 0.006*"good" + 0.005*"well" + 0.005*"appropriate" + 0.005*"plans"', '0.024*"’" + 0.010*"needs" + 0.007*"Derby" + 0.006*"leaders" + 0.006*"quality" + 0.006*"receive" + 0.006*"views" + 0.006*"progress" + 0.006*"well" + 0.006*"plans"']</t>
   </si>
   <si>
     <t>80460</t>
@@ -1105,7 +1105,7 @@
     <t>0.1913</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"Derbyshire" + 0.006*"well" + 0.005*"leaders" + 0.005*"effective" + 0.005*"health" + 0.005*"10" + 0.005*"positive" + 0.004*"needs" + 0.004*"number"', '0.016*"’" + 0.009*"well" + 0.006*"Derbyshire" + 0.006*"positive" + 0.005*"plans" + 0.004*"need" + 0.004*"needs" + 0.004*"education" + 0.004*"30" + 0.004*"2023"', '0.014*"’" + 0.008*"well" + 0.006*"Derbyshire" + 0.005*"plans" + 0.005*"good" + 0.005*"education" + 0.005*"needs" + 0.004*"number" + 0.004*"10" + 0.004*"30"']</t>
+    <t>['0.017*"’" + 0.008*"well" + 0.008*"Derbyshire" + 0.006*"need" + 0.005*"education" + 0.005*"good" + 0.005*"10" + 0.005*"plans" + 0.005*"effective" + 0.005*"leaders"', '0.012*"’" + 0.007*"well" + 0.005*"education" + 0.005*"positive" + 0.004*"plans" + 0.004*"health" + 0.004*"Derbyshire" + 0.004*"needs" + 0.004*"effective" + 0.004*"good"', '0.012*"’" + 0.008*"well" + 0.007*"Derbyshire" + 0.005*"plans" + 0.005*"needs" + 0.005*"health" + 0.005*"October" + 0.004*"positive" + 0.004*"leaders" + 0.004*"10"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1138,7 +1138,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"health" + 0.006*"risk" + 0.005*"well" + 0.005*"progress" + 0.005*"leaders" + 0.004*"need" + 0.004*"protection" + 0.004*"plans" + 0.004*"quality"', '0.009*"’" + 0.007*"well" + 0.005*"health" + 0.004*"case" + 0.004*"leaders" + 0.004*"Devon" + 0.004*"progress" + 0.004*"risks" + 0.004*"protection" + 0.004*"living"', '0.009*"’" + 0.005*"well" + 0.005*"leaders" + 0.004*"risk" + 0.004*"Devon" + 0.004*"case" + 0.004*"plans" + 0.004*"progress" + 0.004*"time" + 0.004*"areas"']</t>
+    <t>['0.011*"’" + 0.007*"well" + 0.006*"health" + 0.005*"risk" + 0.005*"leaders" + 0.005*"case" + 0.004*"progress" + 0.004*"protection" + 0.004*"time" + 0.004*"Devon"', '0.009*"’" + 0.005*"well" + 0.005*"leaders" + 0.004*"health" + 0.004*"protection" + 0.004*"living" + 0.004*"progress" + 0.004*"risk" + 0.004*"including" + 0.004*"plans"', '0.007*"’" + 0.004*"well" + 0.004*"progress" + 0.004*"Devon" + 0.004*"risk" + 0.004*"leaders" + 0.004*"areas" + 0.004*"risks" + 0.004*"need" + 0.003*"health"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1177,7 +1177,7 @@
     <t>0.1841</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.007*"Doncaster" + 0.005*"well" + 0.005*"plans" + 0.005*"leaders" + 0.005*"progress" + 0.005*"information" + 0.004*"arrangements" + 0.004*"2022" + 0.004*"quality"', '0.014*"’" + 0.006*"leaders" + 0.005*"well" + 0.005*"Doncaster" + 0.005*"oversight" + 0.004*"many" + 0.004*"quality" + 0.004*"progress" + 0.004*"protection" + 0.004*"information"', '0.024*"’" + 0.008*"well" + 0.006*"records" + 0.006*"many" + 0.005*"Doncaster" + 0.005*"progress" + 0.005*"arrangements" + 0.005*"plans" + 0.005*"quality" + 0.004*"14"']</t>
+    <t>['0.011*"’" + 0.005*"Doncaster" + 0.005*"well" + 0.004*"leaders" + 0.004*"many" + 0.004*"Trust" + 0.004*"quality" + 0.004*"25" + 0.004*"progress" + 0.004*"experiences"', '0.023*"’" + 0.008*"well" + 0.007*"Doncaster" + 0.006*"many" + 0.005*"records" + 0.005*"plans" + 0.005*"leaders" + 0.005*"progress" + 0.005*"effective" + 0.005*"oversight"', '0.022*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"leaders" + 0.005*"records" + 0.005*"Doncaster" + 0.005*"arrangements" + 0.005*"quality" + 0.004*"information" + 0.004*"oversight"']</t>
   </si>
   <si>
     <t>2532283</t>
@@ -1210,7 +1210,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"Dorset" + 0.007*"well" + 0.005*"good" + 0.005*"8" + 0.005*"impact" + 0.004*"including" + 0.004*"change" + 0.004*"October" + 0.004*"supported"', '0.017*"’" + 0.007*"Dorset" + 0.006*"good" + 0.006*"arrangements" + 0.006*"needs" + 0.006*"well" + 0.004*"2021" + 0.004*"need" + 0.004*"leaders" + 0.004*"quality"', '0.010*"’" + 0.007*"Dorset" + 0.006*"good" + 0.005*"well" + 0.004*"27" + 0.004*"change" + 0.004*"needs" + 0.004*"8" + 0.004*"need" + 0.003*"September"']</t>
+    <t>['0.008*"’" + 0.007*"Dorset" + 0.005*"good" + 0.004*"well" + 0.003*"arrangements" + 0.003*"leaders" + 0.003*"needs" + 0.003*"September" + 0.003*"supported" + 0.003*"27"', '0.014*"’" + 0.008*"Dorset" + 0.006*"good" + 0.005*"well" + 0.005*"arrangements" + 0.004*"pandemic" + 0.004*"needs" + 0.004*"including" + 0.004*"8" + 0.004*"leaders"', '0.016*"’" + 0.008*"Dorset" + 0.007*"well" + 0.006*"good" + 0.005*"needs" + 0.005*"impact" + 0.005*"8" + 0.005*"change" + 0.005*"2021" + 0.004*"arrangements"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1240,7 +1240,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.007*"Dudley" + 0.005*"always" + 0.005*"However" + 0.005*"arrangements" + 0.004*"oversight" + 0.004*"timely" + 0.004*"11" + 0.004*"31"', '0.015*"’" + 0.013*"needs" + 0.008*"Dudley" + 0.006*"well" + 0.006*"arrangements" + 0.005*"quality" + 0.005*"plans" + 0.005*"oversight" + 0.005*"always" + 0.004*"October"', '0.016*"’" + 0.010*"needs" + 0.009*"Dudley" + 0.006*"plans" + 0.006*"well" + 0.006*"ensure" + 0.005*"always" + 0.005*"experiences" + 0.004*"arrangements" + 0.004*"management"']</t>
+    <t>['0.018*"’" + 0.012*"needs" + 0.009*"Dudley" + 0.006*"well" + 0.006*"arrangements" + 0.006*"always" + 0.005*"plans" + 0.005*"oversight" + 0.005*"practice" + 0.004*"enough"', '0.014*"’" + 0.010*"needs" + 0.007*"Dudley" + 0.005*"plans" + 0.005*"always" + 0.005*"well" + 0.004*"quality" + 0.004*"ensure" + 0.004*"11" + 0.004*"experiences"', '0.013*"’" + 0.011*"needs" + 0.007*"Dudley" + 0.005*"arrangements" + 0.005*"well" + 0.005*"ensure" + 0.005*"plans" + 0.005*"31" + 0.005*"However" + 0.005*"always"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1279,7 +1279,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"needs" + 0.007*"May" + 0.007*"well" + 0.007*"practice" + 0.006*"ensure" + 0.006*"plans" + 0.005*"Durham" + 0.005*"leaders" + 0.005*"effective"', '0.015*"’" + 0.010*"needs" + 0.008*"Durham" + 0.008*"well" + 0.007*"plans" + 0.007*"May" + 0.006*"ensure" + 0.005*"family" + 0.005*"meetings" + 0.004*"risks"', '0.014*"’" + 0.010*"needs" + 0.007*"Durham" + 0.007*"May" + 0.006*"plans" + 0.005*"well" + 0.005*"practice" + 0.005*"ensure" + 0.004*"leaders" + 0.004*"family"']</t>
+    <t>['0.014*"’" + 0.012*"needs" + 0.008*"May" + 0.007*"Durham" + 0.007*"plans" + 0.006*"practice" + 0.006*"well" + 0.005*"ensure" + 0.005*"family" + 0.004*"carers"', '0.012*"’" + 0.010*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"ensure" + 0.005*"May" + 0.005*"practice" + 0.005*"10" + 0.005*"number" + 0.004*"Durham"', '0.017*"’" + 0.009*"needs" + 0.009*"Durham" + 0.008*"well" + 0.007*"May" + 0.006*"ensure" + 0.006*"plans" + 0.005*"risks" + 0.005*"leaders" + 0.005*"robust"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1318,7 +1318,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.011*"well" + 0.009*"plans" + 0.009*"needs" + 0.007*"East" + 0.007*"Riding" + 0.006*"10" + 0.006*"progress" + 0.005*"good" + 0.005*"education"', '0.015*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"East" + 0.006*"well" + 0.006*"Riding" + 0.006*"progress" + 0.005*"10" + 0.005*"good" + 0.005*"information"', '0.016*"’" + 0.010*"needs" + 0.009*"progress" + 0.008*"plans" + 0.006*"well" + 0.005*"Riding" + 0.005*"partners" + 0.005*"30" + 0.005*"2023" + 0.004*"education"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.009*"plans" + 0.007*"well" + 0.007*"Riding" + 0.007*"progress" + 0.006*"East" + 0.005*"2023" + 0.005*"good" + 0.004*"practice"', '0.017*"’" + 0.011*"well" + 0.010*"needs" + 0.009*"plans" + 0.008*"progress" + 0.008*"East" + 0.006*"Riding" + 0.006*"10" + 0.005*"30" + 0.005*"place"', '0.013*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"progress" + 0.005*"well" + 0.005*"Riding" + 0.004*"East" + 0.004*"quality" + 0.004*"education" + 0.004*"10"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1351,7 +1351,7 @@
     <t>0.1738</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"well" + 0.007*"Sussex" + 0.007*"plans" + 0.007*"needs" + 0.007*"East" + 0.006*"progress" + 0.005*"impact" + 0.005*"experiences" + 0.005*"including"', '0.015*"’" + 0.012*"well" + 0.009*"plans" + 0.008*"needs" + 0.008*"East" + 0.007*"including" + 0.006*"progress" + 0.005*"Sussex" + 0.005*"impact" + 0.005*"effective"', '0.012*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"progress" + 0.005*"Sussex" + 0.005*"provide" + 0.004*"11" + 0.004*"impact" + 0.004*"including"']</t>
+    <t>['0.015*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"East" + 0.005*"progress" + 0.005*"impact" + 0.005*"effective" + 0.005*"Sussex" + 0.005*"experiences"', '0.020*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"plans" + 0.007*"East" + 0.006*"progress" + 0.006*"Sussex" + 0.006*"11" + 0.005*"including" + 0.005*"provide"', '0.013*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"Sussex" + 0.007*"progress" + 0.006*"needs" + 0.006*"including" + 0.006*"East" + 0.006*"impact" + 0.005*"relationships"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1390,7 +1390,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"progress" + 0.008*"plans" + 0.007*"needs" + 0.006*"well" + 0.005*"family" + 0.005*"advisers" + 0.005*"need" + 0.005*"quality" + 0.005*"Essex"', '0.014*"’" + 0.007*"well" + 0.006*"progress" + 0.005*"Essex" + 0.005*"family" + 0.005*"experiences" + 0.005*"understand" + 0.005*"leaders" + 0.005*"needs" + 0.005*"practice"', '0.022*"’" + 0.008*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"progress" + 0.005*"parents" + 0.005*"risk" + 0.005*"supported" + 0.005*"new" + 0.005*"‘"']</t>
+    <t>['0.013*"’" + 0.008*"well" + 0.007*"progress" + 0.006*"needs" + 0.006*"plans" + 0.005*"family" + 0.005*"risk" + 0.005*"understand" + 0.005*"Essex" + 0.004*"‘"', '0.019*"’" + 0.006*"well" + 0.006*"plans" + 0.006*"needs" + 0.005*"family" + 0.005*"progress" + 0.005*"helped" + 0.004*"risk" + 0.004*"30" + 0.004*"need"', '0.021*"’" + 0.007*"progress" + 0.006*"needs" + 0.006*"well" + 0.005*"experiences" + 0.005*"Essex" + 0.005*"plans" + 0.005*"supported" + 0.005*"parents" + 0.005*"understand"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1429,7 +1429,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"good" + 0.007*"effective" + 0.006*"quality" + 0.005*"timely" + 0.005*"improve" + 0.004*"practice" + 0.004*"need" + 0.004*"well" + 0.004*"progress"', '0.009*"’" + 0.006*"effective" + 0.005*"quality" + 0.005*"practice" + 0.004*"progress" + 0.004*"good" + 0.003*"needs" + 0.003*"improve" + 0.003*"home" + 0.003*"timely"', '0.016*"’" + 0.010*"effective" + 0.008*"practice" + 0.008*"needs" + 0.008*"good" + 0.007*"well" + 0.006*"quality" + 0.006*"timely" + 0.005*"early" + 0.005*"need"']</t>
+    <t>['0.016*"’" + 0.007*"effective" + 0.006*"quality" + 0.006*"good" + 0.005*"timely" + 0.005*"well" + 0.005*"practice" + 0.004*"need" + 0.004*"progress" + 0.004*"needs"', '0.012*"’" + 0.010*"effective" + 0.007*"practice" + 0.007*"quality" + 0.006*"good" + 0.006*"needs" + 0.006*"well" + 0.005*"need" + 0.005*"home" + 0.004*"timely"', '0.013*"’" + 0.008*"effective" + 0.008*"good" + 0.007*"needs" + 0.006*"practice" + 0.006*"timely" + 0.006*"well" + 0.005*"improve" + 0.005*"quality" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80470</t>
@@ -1465,7 +1465,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.006*"2022" + 0.006*"needs" + 0.004*"well" + 0.004*"February" + 0.004*"experienced" + 0.004*"progress" + 0.003*"plans" + 0.003*"appropriate" + 0.003*"need"', '0.021*"’" + 0.009*"needs" + 0.008*"2022" + 0.008*"plans" + 0.007*"February" + 0.006*"Gloucestershire" + 0.006*"well" + 0.005*"18" + 0.005*"leaders" + 0.005*"family"', '0.017*"’" + 0.009*"needs" + 0.007*"February" + 0.007*"plans" + 0.006*"2022" + 0.006*"experienced" + 0.006*"progress" + 0.005*"well" + 0.005*"appropriate" + 0.005*"Gloucestershire"']</t>
+    <t>['0.019*"’" + 0.010*"needs" + 0.007*"plans" + 0.007*"February" + 0.006*"2022" + 0.006*"well" + 0.005*"appropriate" + 0.005*"18" + 0.005*"protection" + 0.004*"good"', '0.019*"’" + 0.008*"2022" + 0.007*"needs" + 0.007*"plans" + 0.007*"February" + 0.006*"progress" + 0.006*"well" + 0.005*"Gloucestershire" + 0.005*"protection" + 0.005*"timely"', '0.013*"’" + 0.008*"needs" + 0.006*"February" + 0.006*"2022" + 0.006*"experienced" + 0.005*"plans" + 0.005*"good" + 0.005*"progress" + 0.005*"leaders" + 0.005*"Gloucestershire"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1495,7 +1495,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.010*"well" + 0.009*"plans" + 0.008*"needs" + 0.008*"practice" + 0.007*"need" + 0.007*"quality" + 0.006*"good" + 0.006*"risk" + 0.006*"receive"', '0.013*"’" + 0.012*"well" + 0.008*"practice" + 0.008*"needs" + 0.007*"plans" + 0.007*"risk" + 0.007*"good" + 0.007*"need" + 0.006*"planning" + 0.006*"cases"', '0.012*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"practice" + 0.006*"planning" + 0.006*"risk" + 0.006*"effective" + 0.005*"plans" + 0.005*"need" + 0.005*"always"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.009*"practice" + 0.008*"risk" + 0.007*"need" + 0.007*"plans" + 0.007*"needs" + 0.006*"planning" + 0.006*"always" + 0.005*"However"', '0.012*"’" + 0.011*"well" + 0.007*"needs" + 0.007*"plans" + 0.007*"practice" + 0.007*"planning" + 0.007*"good" + 0.006*"risk" + 0.006*"need" + 0.006*"quality"', '0.010*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"practice" + 0.007*"plans" + 0.007*"good" + 0.006*"effective" + 0.006*"quality" + 0.006*"need" + 0.006*"always"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1522,7 +1522,7 @@
     <t>0.1893</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"needs" + 0.005*"well" + 0.005*"quality" + 0.004*"plans" + 0.004*"strong" + 0.004*"improve" + 0.004*"home" + 0.004*"leaders" + 0.004*"health"', '0.015*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"improve" + 0.004*"leaders" + 0.004*"home" + 0.004*"strong" + 0.004*"progress" + 0.004*"quality"', '0.023*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"well" + 0.005*"quality" + 0.004*"leaders" + 0.004*"strong" + 0.004*"highly" + 0.004*"Hampshire" + 0.004*"carers"']</t>
+    <t>['0.014*"’" + 0.007*"needs" + 0.006*"plans" + 0.005*"quality" + 0.005*"strong" + 0.005*"well" + 0.004*"leaders" + 0.004*"home" + 0.004*"health" + 0.004*"Hampshire"', '0.023*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"plans" + 0.004*"quality" + 0.004*"highly" + 0.004*"Hampshire" + 0.004*"leaders" + 0.004*"carers" + 0.003*"home"', '0.018*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"strong" + 0.005*"leaders" + 0.005*"plans" + 0.005*"improve" + 0.004*"home" + 0.004*"decisions" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1558,7 +1558,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"quality" + 0.007*"well" + 0.005*"strong" + 0.005*"impact" + 0.004*"progress" + 0.004*"plans" + 0.004*"need" + 0.004*"good" + 0.004*"improve"', '0.019*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"good" + 0.005*"strong" + 0.005*"practice" + 0.004*"health" + 0.004*"progress" + 0.004*"Senior" + 0.004*"early"', '0.015*"’" + 0.011*"well" + 0.006*"strong" + 0.005*"quality" + 0.004*"good" + 0.004*"plans" + 0.004*"impact" + 0.004*"education" + 0.004*"practice" + 0.004*"progress"']</t>
+    <t>['0.015*"’" + 0.010*"well" + 0.006*"quality" + 0.005*"strong" + 0.005*"plans" + 0.005*"progress" + 0.004*"practice" + 0.004*"needs" + 0.004*"good" + 0.004*"timely"', '0.020*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"good" + 0.005*"plans" + 0.005*"strong" + 0.005*"progress" + 0.004*"early" + 0.004*"need" + 0.004*"education"', '0.012*"’" + 0.008*"well" + 0.006*"strong" + 0.006*"quality" + 0.005*"good" + 0.004*"impact" + 0.004*"needs" + 0.004*"timely" + 0.004*"practice" + 0.003*"health"']</t>
   </si>
   <si>
     <t>80474</t>
@@ -1591,7 +1591,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"practice" + 0.005*"many" + 0.005*"lack" + 0.004*"impact" + 0.004*"Herefordshire" + 0.004*"carers" + 0.004*"plans" + 0.004*"2022" + 0.004*"July"', '0.016*"’" + 0.006*"Herefordshire" + 0.005*"needs" + 0.005*"many" + 0.005*"lack" + 0.004*"progress" + 0.004*"practice" + 0.004*"18" + 0.004*"impact" + 0.004*"quality"', '0.020*"’" + 0.006*"needs" + 0.006*"Herefordshire" + 0.005*"lack" + 0.005*"practice" + 0.005*"impact" + 0.005*"plans" + 0.004*"carers" + 0.004*"progress" + 0.004*"agency"']</t>
+    <t>['0.022*"’" + 0.007*"practice" + 0.006*"needs" + 0.005*"lack" + 0.005*"Herefordshire" + 0.005*"impact" + 0.004*"agency" + 0.004*"18" + 0.004*"progress" + 0.004*"plans"', '0.011*"’" + 0.006*"Herefordshire" + 0.005*"many" + 0.005*"quality" + 0.005*"lack" + 0.004*"practice" + 0.004*"impact" + 0.004*"oversight" + 0.004*"agency" + 0.004*"ensure"', '0.016*"’" + 0.005*"impact" + 0.005*"Herefordshire" + 0.005*"lack" + 0.005*"practice" + 0.005*"many" + 0.004*"plans" + 0.004*"18" + 0.004*"across" + 0.004*"management"']</t>
   </si>
   <si>
     <t>80475</t>
@@ -1624,7 +1624,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.029*"’" + 0.008*"well" + 0.007*"Hertfordshire" + 0.007*"needs" + 0.005*"plans" + 0.005*"receive" + 0.005*"need" + 0.004*"positive" + 0.004*"risk" + 0.004*"23"', '0.015*"’" + 0.006*"Hertfordshire" + 0.005*"needs" + 0.005*"2023" + 0.005*"well" + 0.005*"receive" + 0.004*"27" + 0.004*"risk" + 0.004*"plans" + 0.004*"leaders"', '0.020*"’" + 0.005*"needs" + 0.005*"well" + 0.005*"Hertfordshire" + 0.005*"receive" + 0.004*"effective" + 0.004*"Leaders" + 0.003*"training" + 0.003*"leaders" + 0.003*"progress"']</t>
+    <t>['0.025*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"Hertfordshire" + 0.006*"plans" + 0.005*"need" + 0.005*"receive" + 0.004*"risk" + 0.004*"‘" + 0.004*"23"', '0.019*"’" + 0.006*"Hertfordshire" + 0.005*"well" + 0.005*"needs" + 0.004*"receive" + 0.004*"plans" + 0.004*"effective" + 0.004*"risk" + 0.004*"January" + 0.004*"positive"', '0.024*"’" + 0.008*"Hertfordshire" + 0.006*"needs" + 0.006*"receive" + 0.006*"well" + 0.004*"leaders" + 0.004*"2023" + 0.004*"family" + 0.004*"27" + 0.004*"23"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1654,7 +1654,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"leaders" + 0.006*"needs" + 0.005*"well" + 0.005*"improve" + 0.005*"progress" + 0.005*"Isle" + 0.005*"supported" + 0.005*"experiences" + 0.005*"plans"', '0.015*"’" + 0.007*"needs" + 0.007*"leaders" + 0.005*"well" + 0.005*"Wight" + 0.005*"time" + 0.005*"supported" + 0.005*"plans" + 0.005*"30" + 0.005*"Senior"', '0.018*"’" + 0.010*"leaders" + 0.006*"3" + 0.006*"well" + 0.005*"PAs" + 0.005*"Wight" + 0.005*"Isle" + 0.005*"good" + 0.005*"Senior" + 0.005*"plans"']</t>
+    <t>['0.014*"’" + 0.006*"leaders" + 0.005*"plans" + 0.005*"30" + 0.005*"well" + 0.005*"protection" + 0.005*"practice" + 0.004*"supported" + 0.004*"Senior" + 0.004*"November"', '0.015*"’" + 0.010*"leaders" + 0.006*"needs" + 0.005*"3" + 0.005*"November" + 0.005*"plans" + 0.005*"progress" + 0.005*"practice" + 0.005*"improve" + 0.005*"Senior"', '0.022*"’" + 0.009*"leaders" + 0.007*"well" + 0.006*"needs" + 0.006*"progress" + 0.006*"Isle" + 0.006*"Wight" + 0.005*"PAs" + 0.005*"good" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1678,7 +1678,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.013*"Kent" + 0.007*"needs" + 0.006*"well" + 0.006*"supported" + 0.005*"County" + 0.005*"Council" + 0.005*"practice" + 0.004*"progress" + 0.004*"2022"', '0.023*"’" + 0.009*"Kent" + 0.009*"needs" + 0.007*"Council" + 0.007*"well" + 0.006*"supported" + 0.005*"County" + 0.005*"progress" + 0.004*"including" + 0.004*"leaders"', '0.012*"’" + 0.007*"Kent" + 0.005*"needs" + 0.005*"Council" + 0.004*"progress" + 0.004*"supported" + 0.004*"County" + 0.004*"well" + 0.003*"family" + 0.003*"practice"']</t>
+    <t>['0.008*"’" + 0.007*"Kent" + 0.005*"Council" + 0.004*"needs" + 0.004*"supported" + 0.004*"practice" + 0.003*"progress" + 0.003*"impact" + 0.003*"well" + 0.003*"arrangements"', '0.021*"’" + 0.012*"Kent" + 0.009*"needs" + 0.007*"supported" + 0.006*"well" + 0.006*"progress" + 0.005*"Council" + 0.005*"County" + 0.005*"including" + 0.004*"practice"', '0.020*"’" + 0.009*"Kent" + 0.007*"well" + 0.007*"needs" + 0.007*"Council" + 0.006*"County" + 0.005*"supported" + 0.005*"practice" + 0.004*"plans" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1708,7 +1708,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"number" + 0.006*"Hull" + 0.006*"risks" + 0.006*"need" + 0.006*"practice" + 0.006*"planning" + 0.005*"well" + 0.005*"protection" + 0.005*"impact"', '0.011*"’" + 0.009*"planning" + 0.007*"practice" + 0.006*"protection" + 0.006*"well" + 0.005*"need" + 0.005*"needs" + 0.005*"November" + 0.005*"small" + 0.005*"teams"', '0.013*"’" + 0.006*"well" + 0.006*"protection" + 0.006*"number" + 0.006*"Hull" + 0.005*"management" + 0.005*"planning" + 0.005*"agency" + 0.005*"practice" + 0.005*"oversight"']</t>
+    <t>['0.014*"’" + 0.007*"need" + 0.007*"practice" + 0.006*"protection" + 0.006*"Hull" + 0.006*"planning" + 0.006*"number" + 0.006*"well" + 0.006*"impact" + 0.006*"risks"', '0.014*"’" + 0.006*"number" + 0.006*"planning" + 0.006*"oversight" + 0.006*"protection" + 0.005*"agency" + 0.005*"Hull" + 0.005*"well" + 0.005*"14" + 0.005*"management"', '0.019*"’" + 0.008*"number" + 0.007*"planning" + 0.006*"well" + 0.006*"management" + 0.006*"practice" + 0.005*"protection" + 0.005*"small" + 0.005*"risks" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1741,7 +1741,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.006*"good" + 0.006*"quality" + 0.006*"practice" + 0.005*"well" + 0.005*"needs" + 0.005*"plans" + 0.004*"senior" + 0.004*"permanence" + 0.004*"training"', '0.015*"’" + 0.008*"practice" + 0.007*"quality" + 0.006*"good" + 0.006*"permanence" + 0.005*"Senior" + 0.005*"training" + 0.005*"plans" + 0.005*"protection" + 0.005*"need"', '0.009*"’" + 0.006*"quality" + 0.005*"well" + 0.005*"protection" + 0.005*"plans" + 0.005*"good" + 0.004*"needs" + 0.004*"Senior" + 0.004*"training" + 0.004*"practice"']</t>
+    <t>['0.010*"’" + 0.006*"practice" + 0.006*"quality" + 0.006*"needs" + 0.005*"good" + 0.005*"well" + 0.005*"protection" + 0.005*"training" + 0.004*"senior" + 0.004*"risk"', '0.014*"’" + 0.007*"quality" + 0.007*"good" + 0.007*"practice" + 0.006*"permanence" + 0.006*"plans" + 0.006*"Senior" + 0.005*"well" + 0.005*"senior" + 0.005*"training"', '0.010*"’" + 0.006*"quality" + 0.005*"good" + 0.005*"practice" + 0.005*"need" + 0.004*"well" + 0.004*"protection" + 0.004*"plans" + 0.004*"training" + 0.004*"team"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1783,7 +1783,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"quality" + 0.005*"progress" + 0.005*"Knowsley" + 0.004*"2021" + 0.004*"experiences" + 0.004*"need" + 0.004*"risk"', '0.018*"’" + 0.010*"progress" + 0.009*"needs" + 0.008*"quality" + 0.006*"plans" + 0.006*"Knowsley" + 0.006*"2021" + 0.006*"experiences" + 0.006*"11" + 0.005*"22"', '0.013*"’" + 0.008*"plans" + 0.008*"progress" + 0.006*"Knowsley" + 0.006*"2021" + 0.006*"good" + 0.005*"quality" + 0.005*"needs" + 0.005*"need" + 0.004*"impact"']</t>
+    <t>['0.014*"’" + 0.008*"progress" + 0.008*"plans" + 0.007*"needs" + 0.006*"quality" + 0.006*"2021" + 0.006*"good" + 0.006*"Knowsley" + 0.005*"abuse" + 0.005*"need"', '0.011*"’" + 0.008*"progress" + 0.007*"plans" + 0.006*"needs" + 0.006*"Knowsley" + 0.005*"11" + 0.005*"quality" + 0.005*"impact" + 0.005*"2021" + 0.005*"experiences"', '0.017*"’" + 0.008*"progress" + 0.008*"quality" + 0.008*"needs" + 0.006*"plans" + 0.006*"Knowsley" + 0.006*"22" + 0.006*"2021" + 0.005*"experiences" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1816,7 +1816,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"need" + 0.006*"plans" + 0.006*"Lancashire" + 0.005*"progress" + 0.005*"supported" + 0.005*"positive" + 0.005*"live"', '0.016*"’" + 0.008*"well" + 0.008*"need" + 0.007*"Lancashire" + 0.007*"needs" + 0.006*"supported" + 0.006*"practice" + 0.005*"live" + 0.005*"health" + 0.005*"28"', '0.022*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"need" + 0.005*"Lancashire" + 0.005*"positive" + 0.005*"9" + 0.005*"practice" + 0.004*"health" + 0.004*"parents"']</t>
+    <t>['0.013*"’" + 0.009*"well" + 0.007*"need" + 0.006*"Lancashire" + 0.006*"health" + 0.005*"needs" + 0.005*"28" + 0.005*"supported" + 0.005*"live" + 0.004*"homes"', '0.018*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"need" + 0.006*"Lancashire" + 0.006*"plans" + 0.006*"practice" + 0.006*"positive" + 0.005*"live" + 0.005*"number"', '0.016*"’" + 0.009*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"supported" + 0.005*"homes" + 0.005*"Lancashire" + 0.005*"plans" + 0.005*"practice" + 0.005*"positive"']</t>
   </si>
   <si>
     <t>80481</t>
@@ -1846,7 +1846,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"needs" + 0.007*"Leeds" + 0.006*"well" + 0.005*"practice" + 0.005*"protection" + 0.004*"ensure" + 0.004*"supported" + 0.004*"2022" + 0.004*"risk"', '0.017*"’" + 0.009*"Leeds" + 0.006*"risk" + 0.006*"well" + 0.006*"needs" + 0.005*"4" + 0.005*"plans" + 0.005*"practice" + 0.005*"February" + 0.004*"ensure"', '0.013*"’" + 0.008*"needs" + 0.006*"Leeds" + 0.005*"well" + 0.005*"risk" + 0.004*"plans" + 0.004*"information" + 0.004*"21" + 0.004*"ensure" + 0.004*"supported"']</t>
+    <t>['0.017*"’" + 0.008*"needs" + 0.007*"Leeds" + 0.006*"well" + 0.005*"risk" + 0.005*"4" + 0.005*"practice" + 0.004*"ensure" + 0.004*"plans" + 0.004*"March"', '0.011*"’" + 0.006*"Leeds" + 0.005*"ensure" + 0.004*"needs" + 0.004*"risk" + 0.004*"protection" + 0.004*"well" + 0.004*"February" + 0.004*"21" + 0.003*"practice"', '0.018*"’" + 0.008*"Leeds" + 0.007*"needs" + 0.006*"well" + 0.006*"risk" + 0.005*"supported" + 0.005*"protection" + 0.005*"plans" + 0.005*"practice" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1882,7 +1882,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"well" + 0.007*"Leicester" + 0.007*"2021" + 0.005*"needs" + 0.005*"1" + 0.005*"Council" + 0.004*"including" + 0.004*"ensure" + 0.004*"progress"', '0.026*"’" + 0.010*"2021" + 0.009*"Leicester" + 0.008*"well" + 0.007*"good" + 0.007*"needs" + 0.006*"20" + 0.006*"number" + 0.005*"ensure" + 0.005*"including"', '0.020*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"2021" + 0.007*"ensure" + 0.007*"Leicester" + 0.006*"good" + 0.006*"number" + 0.005*"improve" + 0.005*"1"']</t>
+    <t>['0.021*"’" + 0.010*"well" + 0.008*"2021" + 0.007*"Leicester" + 0.007*"needs" + 0.006*"good" + 0.006*"20" + 0.005*"Council" + 0.005*"ensure" + 0.005*"including"', '0.022*"’" + 0.008*"well" + 0.008*"Leicester" + 0.008*"2021" + 0.007*"needs" + 0.006*"ensure" + 0.006*"1" + 0.005*"good" + 0.005*"improve" + 0.005*"including"', '0.016*"’" + 0.009*"2021" + 0.008*"well" + 0.008*"Leicester" + 0.007*"number" + 0.006*"good" + 0.006*"needs" + 0.006*"ensure" + 0.005*"1" + 0.005*"high"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1918,7 +1918,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.007*"good" + 0.006*"needs" + 0.006*"effective" + 0.005*"quality" + 0.005*"practice" + 0.004*"risk" + 0.004*"impact" + 0.004*"protection"', '0.009*"good" + 0.009*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"effective" + 0.006*"quality" + 0.006*"practice" + 0.005*"risk" + 0.005*"need" + 0.004*"impact"', '0.012*"’" + 0.007*"effective" + 0.007*"well" + 0.006*"good" + 0.006*"quality" + 0.006*"needs" + 0.006*"practice" + 0.006*"impact" + 0.005*"education" + 0.005*"need"']</t>
+    <t>['0.009*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"good" + 0.006*"effective" + 0.006*"quality" + 0.005*"practice" + 0.005*"education" + 0.004*"impact" + 0.004*"leaders"', '0.012*"’" + 0.009*"well" + 0.008*"good" + 0.007*"effective" + 0.006*"needs" + 0.006*"quality" + 0.005*"impact" + 0.005*"need" + 0.005*"risk" + 0.005*"practice"', '0.012*"’" + 0.008*"good" + 0.007*"needs" + 0.006*"well" + 0.006*"practice" + 0.006*"quality" + 0.006*"effective" + 0.005*"education" + 0.005*"need" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1951,7 +1951,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"Lincolnshire" + 0.005*"well" + 0.005*"plans" + 0.004*"needs" + 0.004*"progress" + 0.004*"working" + 0.004*"2023" + 0.004*"education" + 0.003*"offer"', '0.026*"’" + 0.009*"needs" + 0.009*"Lincolnshire" + 0.006*"well" + 0.006*"progress" + 0.005*"24" + 0.005*"family" + 0.005*"plans" + 0.005*"28" + 0.004*"April"', '0.020*"’" + 0.006*"needs" + 0.006*"Lincolnshire" + 0.006*"well" + 0.004*"plans" + 0.004*"family" + 0.004*"2023" + 0.004*"need" + 0.004*"24" + 0.004*"working"']</t>
+    <t>['0.020*"’" + 0.008*"Lincolnshire" + 0.007*"needs" + 0.006*"well" + 0.004*"family" + 0.004*"plans" + 0.004*"28" + 0.004*"24" + 0.004*"April" + 0.004*"education"', '0.024*"’" + 0.008*"Lincolnshire" + 0.006*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"family" + 0.004*"progress" + 0.004*"24" + 0.004*"2023" + 0.004*"working"', '0.020*"’" + 0.007*"needs" + 0.006*"Lincolnshire" + 0.006*"progress" + 0.005*"well" + 0.005*"plans" + 0.004*"need" + 0.004*"family" + 0.004*"24" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1984,7 +1984,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"need" + 0.006*"quality" + 0.005*"always" + 0.005*"24" + 0.005*"Liverpool" + 0.005*"protection" + 0.004*"PAs"', '0.019*"’" + 0.008*"Liverpool" + 0.006*"quality" + 0.006*"need" + 0.005*"needs" + 0.005*"always" + 0.004*"practice" + 0.004*"protection" + 0.004*"2023" + 0.004*"13"', '0.018*"’" + 0.009*"needs" + 0.008*"always" + 0.008*"practice" + 0.007*"need" + 0.005*"timely" + 0.005*"quality" + 0.005*"Liverpool" + 0.005*"protection" + 0.004*"13"']</t>
+    <t>['0.020*"’" + 0.008*"needs" + 0.007*"practice" + 0.007*"always" + 0.006*"need" + 0.005*"Liverpool" + 0.005*"quality" + 0.004*"met" + 0.004*"13" + 0.004*"timely"', '0.020*"’" + 0.007*"need" + 0.007*"practice" + 0.007*"Liverpool" + 0.007*"protection" + 0.006*"needs" + 0.006*"always" + 0.006*"quality" + 0.005*"harm" + 0.004*"13"', '0.016*"’" + 0.008*"needs" + 0.006*"always" + 0.006*"quality" + 0.005*"practice" + 0.005*"met" + 0.005*"need" + 0.005*"Liverpool" + 0.004*"senior" + 0.004*"24"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -2020,7 +2020,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"good" + 0.004*"Barking" + 0.004*"carers" + 0.004*"10" + 0.004*"London" + 0.004*"well"', '0.028*"’" + 0.009*"needs" + 0.007*"good" + 0.006*"plans" + 0.006*"carers" + 0.005*"progress" + 0.005*"information" + 0.005*"planning" + 0.005*"practice" + 0.005*"10"', '0.018*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"Dagenham" + 0.005*"practice" + 0.005*"carers" + 0.004*"good" + 0.004*"progress" + 0.004*"plans" + 0.004*"ensure"']</t>
+    <t>['0.021*"’" + 0.008*"needs" + 0.006*"plans" + 0.005*"good" + 0.005*"information" + 0.005*"carers" + 0.005*"progress" + 0.004*"practice" + 0.004*"well" + 0.004*"10"', '0.020*"’" + 0.006*"needs" + 0.006*"good" + 0.005*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"information" + 0.005*"carers" + 0.005*"practice" + 0.004*"planning"', '0.025*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"good" + 0.005*"carers" + 0.005*"well" + 0.005*"practice" + 0.005*"e" + 0.005*"ensure" + 0.005*"21"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -2059,7 +2059,7 @@
     <t>0.2188</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"good" + 0.009*"well" + 0.009*"needs" + 0.007*"ensure" + 0.007*"need" + 0.006*"progress" + 0.006*"plans" + 0.005*"effective" + 0.005*"quality"', '0.014*"’" + 0.011*"needs" + 0.010*"good" + 0.008*"well" + 0.007*"need" + 0.007*"progress" + 0.006*"clear" + 0.006*"plans" + 0.005*"timely" + 0.005*"risk"', '0.016*"’" + 0.008*"need" + 0.008*"well" + 0.008*"needs" + 0.008*"good" + 0.006*"plans" + 0.006*"progress" + 0.005*"risks" + 0.005*"clear" + 0.005*"supported"']</t>
+    <t>['0.015*"’" + 0.012*"good" + 0.011*"needs" + 0.008*"well" + 0.008*"progress" + 0.008*"need" + 0.007*"plans" + 0.007*"ensure" + 0.006*"clear" + 0.005*"effective"', '0.016*"’" + 0.010*"well" + 0.009*"needs" + 0.009*"need" + 0.007*"good" + 0.006*"risk" + 0.006*"clear" + 0.005*"carers" + 0.005*"ensure" + 0.005*"quality"', '0.008*"’" + 0.007*"well" + 0.007*"good" + 0.006*"needs" + 0.005*"need" + 0.005*"plans" + 0.005*"progress" + 0.004*"quality" + 0.004*"appropriate" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80488</t>
@@ -2083,7 +2083,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"need" + 0.005*"plans" + 0.005*"Bexley" + 0.005*"10" + 0.005*"effective" + 0.005*"practice" + 0.005*"make"', '0.018*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"Bexley" + 0.005*"plans" + 0.005*"need" + 0.004*"effective" + 0.004*"progress" + 0.004*"February" + 0.004*"education"', '0.018*"’" + 0.007*"effective" + 0.006*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"Bexley" + 0.005*"need" + 0.004*"2023" + 0.004*"10" + 0.004*"oversight"']</t>
+    <t>['0.014*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"10" + 0.005*"clear" + 0.005*"plans" + 0.005*"Bexley" + 0.004*"effective" + 0.004*"need" + 0.004*"make"', '0.016*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"Bexley" + 0.005*"plans" + 0.004*"need" + 0.004*"including" + 0.004*"helps" + 0.004*"level"', '0.026*"’" + 0.007*"need" + 0.006*"well" + 0.006*"needs" + 0.006*"effective" + 0.005*"plans" + 0.005*"Bexley" + 0.005*"progress" + 0.005*"practice" + 0.004*"6"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -2113,7 +2113,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"well" + 0.007*"plans" + 0.006*"progress" + 0.006*"leaders" + 0.006*"number" + 0.006*"good" + 0.005*"Brent" + 0.005*"information" + 0.005*"quality"', '0.019*"’" + 0.009*"well" + 0.008*"leaders" + 0.006*"plans" + 0.006*"number" + 0.006*"progress" + 0.005*"senior" + 0.005*"good" + 0.005*"However" + 0.005*"practice"', '0.013*"’" + 0.009*"well" + 0.008*"leaders" + 0.006*"progress" + 0.006*"Brent" + 0.006*"quality" + 0.006*"good" + 0.006*"plans" + 0.006*"practice" + 0.005*"small"']</t>
+    <t>['0.021*"’" + 0.009*"well" + 0.008*"leaders" + 0.008*"plans" + 0.007*"progress" + 0.006*"good" + 0.006*"Brent" + 0.006*"number" + 0.005*"small" + 0.005*"timely"', '0.017*"’" + 0.008*"well" + 0.007*"leaders" + 0.006*"quality" + 0.006*"senior" + 0.006*"progress" + 0.005*"good" + 0.005*"Brent" + 0.005*"number" + 0.005*"plans"', '0.011*"’" + 0.008*"well" + 0.006*"plans" + 0.006*"leaders" + 0.005*"progress" + 0.005*"number" + 0.005*"practice" + 0.005*"needs" + 0.005*"good" + 0.005*"range"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -2149,7 +2149,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.010*"Bromley" + 0.007*"well" + 0.007*"needs" + 0.006*"plans" + 0.006*"leaders" + 0.005*"health" + 0.005*"practice" + 0.004*"helping" + 0.004*"education"', '0.020*"’" + 0.011*"Bromley" + 0.007*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"leaders" + 0.005*"education" + 0.005*"progress" + 0.005*"17" + 0.005*"health"', '0.016*"’" + 0.006*"needs" + 0.005*"plans" + 0.005*"well" + 0.005*"Bromley" + 0.004*"practice" + 0.004*"13" + 0.004*"education" + 0.003*"progress" + 0.003*"experiences"']</t>
+    <t>['0.019*"’" + 0.009*"Bromley" + 0.007*"well" + 0.007*"plans" + 0.006*"needs" + 0.006*"practice" + 0.005*"leaders" + 0.005*"education" + 0.005*"progress" + 0.004*"health"', '0.018*"’" + 0.008*"Bromley" + 0.007*"needs" + 0.006*"well" + 0.005*"leaders" + 0.005*"plans" + 0.004*"practice" + 0.004*"health" + 0.004*"strong" + 0.004*"access"', '0.022*"’" + 0.010*"Bromley" + 0.007*"needs" + 0.007*"well" + 0.005*"leaders" + 0.005*"education" + 0.005*"plans" + 0.005*"practice" + 0.004*"health" + 0.004*"YPAs"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -2182,7 +2182,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"Camden" + 0.007*"practice" + 0.006*"leaders" + 0.005*"well" + 0.004*"needs" + 0.004*"25" + 0.004*"meetings" + 0.004*"protection" + 0.004*"29"', '0.013*"’" + 0.008*"Camden" + 0.008*"leaders" + 0.006*"practice" + 0.006*"protection" + 0.006*"needs" + 0.005*"well" + 0.005*"response" + 0.005*"appropriate" + 0.004*"29"', '0.008*"’" + 0.006*"Camden" + 0.005*"well" + 0.005*"practice" + 0.004*"25" + 0.004*"protection" + 0.004*"leaders" + 0.004*"response" + 0.004*"needs" + 0.004*"appropriate"']</t>
+    <t>['0.011*"’" + 0.007*"practice" + 0.007*"Camden" + 0.007*"leaders" + 0.006*"protection" + 0.006*"well" + 0.006*"appropriate" + 0.005*"needs" + 0.005*"25" + 0.004*"meetings"', '0.011*"’" + 0.007*"Camden" + 0.006*"leaders" + 0.006*"practice" + 0.005*"response" + 0.005*"well" + 0.005*"health" + 0.005*"29" + 0.005*"needs" + 0.004*"protection"', '0.009*"’" + 0.007*"Camden" + 0.005*"leaders" + 0.005*"well" + 0.005*"needs" + 0.004*"progress" + 0.004*"29" + 0.003*"25" + 0.003*"April" + 0.003*"practice"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -2212,7 +2212,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"quality" + 0.006*"Senior" + 0.005*"need" + 0.005*"Croydon" + 0.005*"health" + 0.005*"ensure" + 0.005*"education"', '0.012*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"Croydon" + 0.006*"need" + 0.006*"Senior" + 0.005*"effective" + 0.005*"good" + 0.005*"quality" + 0.004*"risk"', '0.013*"’" + 0.007*"needs" + 0.006*"ensure" + 0.006*"Croydon" + 0.005*"well" + 0.005*"good" + 0.005*"plans" + 0.005*"quality" + 0.005*"effective" + 0.005*"health"']</t>
+    <t>['0.009*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"Croydon" + 0.005*"good" + 0.005*"risk" + 0.005*"quality" + 0.005*"ensure" + 0.005*"plans" + 0.004*"need"', '0.013*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"quality" + 0.006*"Senior" + 0.006*"need" + 0.006*"effective" + 0.006*"Croydon" + 0.005*"plans" + 0.005*"ensure"', '0.012*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"ensure" + 0.005*"good" + 0.005*"Senior" + 0.005*"health" + 0.005*"improved" + 0.005*"Croydon" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2248,7 +2248,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.010*"quality" + 0.007*"plans" + 0.006*"needs" + 0.005*"good" + 0.005*"progress" + 0.005*"experiences" + 0.005*"risk" + 0.005*"management" + 0.004*"well"', '0.010*"’" + 0.009*"quality" + 0.009*"needs" + 0.007*"good" + 0.005*"progress" + 0.005*"plans" + 0.005*"risk" + 0.005*"Ealing" + 0.004*"protection" + 0.004*"experiences"', '0.009*"’" + 0.009*"quality" + 0.006*"good" + 0.006*"needs" + 0.005*"progress" + 0.005*"well" + 0.005*"appropriately" + 0.004*"risk" + 0.004*"family" + 0.004*"experiences"']</t>
+    <t>['0.008*"’" + 0.007*"quality" + 0.007*"needs" + 0.005*"good" + 0.005*"Ealing" + 0.004*"progress" + 0.004*"experiences" + 0.004*"risk" + 0.004*"plans" + 0.004*"protection"', '0.012*"’" + 0.008*"quality" + 0.007*"good" + 0.006*"needs" + 0.005*"plans" + 0.005*"risk" + 0.005*"progress" + 0.005*"well" + 0.004*"oversight" + 0.004*"leaders"', '0.012*"quality" + 0.012*"’" + 0.007*"needs" + 0.007*"good" + 0.005*"plans" + 0.005*"progress" + 0.005*"risk" + 0.005*"experiences" + 0.005*"Ealing" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80494</t>
@@ -2281,7 +2281,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"needs" + 0.009*"practice" + 0.007*"clear" + 0.007*"ensure" + 0.007*"effective" + 0.007*"good" + 0.006*"leaders" + 0.006*"Enfield" + 0.006*"timely"', '0.012*"’" + 0.008*"ensure" + 0.008*"needs" + 0.008*"good" + 0.007*"practice" + 0.006*"effective" + 0.006*"need" + 0.006*"leaders" + 0.006*"range" + 0.006*"quality"', '0.011*"’" + 0.008*"needs" + 0.008*"Enfield" + 0.007*"ensure" + 0.007*"good" + 0.007*"effective" + 0.006*"practice" + 0.006*"clear" + 0.006*"quality" + 0.006*"progress"']</t>
+    <t>['0.015*"’" + 0.009*"practice" + 0.009*"needs" + 0.008*"good" + 0.007*"effective" + 0.007*"quality" + 0.006*"leaders" + 0.006*"clear" + 0.006*"improve" + 0.006*"Enfield"', '0.011*"’" + 0.009*"ensure" + 0.008*"good" + 0.008*"needs" + 0.007*"timely" + 0.007*"effective" + 0.006*"clear" + 0.006*"Enfield" + 0.006*"practice" + 0.006*"leaders"', '0.015*"’" + 0.009*"needs" + 0.008*"ensure" + 0.007*"practice" + 0.006*"Enfield" + 0.006*"clear" + 0.006*"good" + 0.006*"quality" + 0.006*"timely" + 0.006*"appropriate"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2314,7 +2314,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.010*"well" + 0.010*"good" + 0.007*"needs" + 0.007*"plans" + 0.005*"ensure" + 0.005*"need" + 0.005*"effective" + 0.005*"range" + 0.005*"information"', '0.012*"’" + 0.010*"well" + 0.008*"plans" + 0.008*"good" + 0.008*"needs" + 0.007*"need" + 0.006*"range" + 0.005*"progress" + 0.005*"quality" + 0.005*"consistently"', '0.011*"’" + 0.008*"well" + 0.007*"plans" + 0.007*"needs" + 0.006*"range" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.005*"ensure" + 0.005*"risk"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.009*"needs" + 0.009*"good" + 0.007*"plans" + 0.006*"need" + 0.006*"range" + 0.005*"risks" + 0.005*"ensure" + 0.005*"quality"', '0.012*"’" + 0.010*"well" + 0.009*"plans" + 0.008*"good" + 0.007*"needs" + 0.006*"range" + 0.006*"need" + 0.006*"progress" + 0.006*"ensure" + 0.005*"risk"', '0.009*"’" + 0.008*"well" + 0.006*"need" + 0.006*"plans" + 0.006*"good" + 0.005*"needs" + 0.005*"range" + 0.004*"timely" + 0.004*"progress" + 0.004*"information"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2353,7 +2353,7 @@
     <t>0.1417</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"practice" + 0.006*"number" + 0.006*"planning" + 0.006*"plans" + 0.006*"quality" + 0.005*"However" + 0.005*"making" + 0.005*"including" + 0.004*"well"', '0.016*"’" + 0.012*"practice" + 0.007*"effective" + 0.007*"number" + 0.007*"within" + 0.006*"planning" + 0.006*"plans" + 0.006*"needs" + 0.006*"need" + 0.005*"leaders"', '0.012*"’" + 0.008*"practice" + 0.006*"small" + 0.006*"needs" + 0.006*"including" + 0.006*"protection" + 0.005*"planning" + 0.005*"number" + 0.005*"However" + 0.005*"within"']</t>
+    <t>['0.009*"’" + 0.009*"practice" + 0.007*"planning" + 0.006*"number" + 0.005*"within" + 0.005*"needs" + 0.005*"small" + 0.005*"progress" + 0.005*"However" + 0.005*"leaders"', '0.016*"’" + 0.011*"practice" + 0.007*"number" + 0.007*"effective" + 0.007*"needs" + 0.006*"planning" + 0.006*"plans" + 0.006*"including" + 0.006*"within" + 0.005*"making"', '0.013*"’" + 0.009*"practice" + 0.006*"effective" + 0.006*"quality" + 0.006*"plans" + 0.005*"number" + 0.005*"within" + 0.005*"including" + 0.005*"carers" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2386,7 +2386,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.010*"effective" + 0.008*"well" + 0.007*"needs" + 0.005*"arrangements" + 0.005*"good" + 0.005*"plans" + 0.005*"appropriate" + 0.005*"quality" + 0.005*"ensure"', '0.012*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"effective" + 0.007*"appropriate" + 0.007*"good" + 0.006*"ensure" + 0.006*"leaders" + 0.005*"shared" + 0.005*"arrangements"', '0.013*"’" + 0.008*"needs" + 0.007*"effective" + 0.006*"appropriate" + 0.006*"well" + 0.006*"good" + 0.005*"arrangements" + 0.005*"risk" + 0.005*"improve" + 0.005*"education"']</t>
+    <t>['0.012*"’" + 0.009*"needs" + 0.006*"appropriate" + 0.006*"good" + 0.006*"effective" + 0.006*"well" + 0.005*"arrangements" + 0.005*"ensure" + 0.005*"improve" + 0.004*"shared"', '0.013*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"effective" + 0.006*"leaders" + 0.005*"arrangements" + 0.005*"good" + 0.005*"ensure" + 0.005*"However" + 0.004*"appropriate"', '0.011*"’" + 0.011*"effective" + 0.009*"needs" + 0.008*"well" + 0.007*"appropriate" + 0.007*"good" + 0.006*"ensure" + 0.006*"education" + 0.005*"arrangements" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2410,7 +2410,7 @@
     <t>13/02/2023</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"Haringey" + 0.007*"plans" + 0.006*"needs" + 0.005*"well" + 0.004*"need" + 0.004*"impact" + 0.004*"team" + 0.004*"risk" + 0.004*"good"', '0.015*"’" + 0.010*"Haringey" + 0.007*"needs" + 0.006*"good" + 0.006*"plans" + 0.005*"well" + 0.005*"progress" + 0.004*"need" + 0.004*"training" + 0.004*"supported"', '0.017*"’" + 0.009*"needs" + 0.007*"plans" + 0.007*"Haringey" + 0.007*"well" + 0.006*"need" + 0.005*"good" + 0.005*"progress" + 0.005*"24" + 0.005*"education"']</t>
+    <t>['0.015*"’" + 0.007*"needs" + 0.006*"Haringey" + 0.006*"plans" + 0.005*"need" + 0.005*"24" + 0.004*"impact" + 0.004*"well" + 0.004*"good" + 0.004*"education"', '0.016*"’" + 0.010*"Haringey" + 0.007*"good" + 0.006*"needs" + 0.006*"plans" + 0.006*"well" + 0.006*"progress" + 0.006*"need" + 0.005*"education" + 0.004*"leaders"', '0.015*"’" + 0.009*"needs" + 0.008*"Haringey" + 0.008*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"carers" + 0.004*"supported" + 0.004*"risk" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2443,7 +2443,7 @@
     <t>0.2023</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"well" + 0.008*"good" + 0.008*"needs" + 0.006*"impact" + 0.006*"plans" + 0.006*"early" + 0.005*"Harrow" + 0.005*"practice" + 0.005*"protection"', '0.013*"’" + 0.013*"good" + 0.009*"well" + 0.008*"needs" + 0.006*"protection" + 0.006*"need" + 0.006*"practice" + 0.005*"plans" + 0.005*"experiences" + 0.005*"impact"', '0.009*"’" + 0.009*"good" + 0.006*"needs" + 0.006*"well" + 0.005*"plans" + 0.004*"experiences" + 0.004*"impact" + 0.004*"need" + 0.004*"practice" + 0.004*"team"']</t>
+    <t>['0.009*"good" + 0.008*"well" + 0.008*"’" + 0.006*"needs" + 0.005*"impact" + 0.004*"protection" + 0.004*"practice" + 0.004*"school" + 0.004*"quality" + 0.004*"early"', '0.012*"’" + 0.011*"good" + 0.009*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"need" + 0.005*"practice" + 0.005*"protection" + 0.005*"early" + 0.005*"impact"', '0.013*"’" + 0.011*"good" + 0.009*"needs" + 0.008*"well" + 0.006*"impact" + 0.006*"experiences" + 0.005*"protection" + 0.005*"plans" + 0.005*"practice" + 0.005*"early"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2470,7 +2470,7 @@
     <t>16/02/24</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"Havering" + 0.010*"quality" + 0.008*"plans" + 0.005*"effective" + 0.004*"11" + 0.004*"22" + 0.004*"well" + 0.004*"2023" + 0.004*"needs"', '0.023*"’" + 0.013*"Havering" + 0.009*"quality" + 0.007*"plans" + 0.007*"oversight" + 0.006*"effective" + 0.005*"needs" + 0.004*"practice" + 0.004*"11" + 0.004*"22"', '0.012*"’" + 0.008*"Havering" + 0.006*"plans" + 0.005*"quality" + 0.004*"effective" + 0.004*"oversight" + 0.004*"needs" + 0.004*"well" + 0.004*"practice" + 0.004*"December"']</t>
+    <t>['0.013*"’" + 0.011*"Havering" + 0.008*"quality" + 0.006*"effective" + 0.005*"plans" + 0.004*"needs" + 0.004*"22" + 0.004*"well" + 0.004*"11" + 0.004*"practice"', '0.018*"’" + 0.011*"Havering" + 0.009*"quality" + 0.008*"plans" + 0.007*"oversight" + 0.006*"effective" + 0.005*"22" + 0.004*"practice" + 0.004*"December" + 0.004*"needs"', '0.021*"’" + 0.012*"Havering" + 0.009*"quality" + 0.007*"plans" + 0.005*"needs" + 0.005*"11" + 0.004*"many" + 0.004*"effective" + 0.004*"oversight" + 0.004*"well"']</t>
   </si>
   <si>
     <t>80501</t>
@@ -2509,7 +2509,7 @@
     <t>0.1861</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"Hillingdon" + 0.008*"plans" + 0.008*"needs" + 0.007*"well" + 0.005*"need" + 0.004*"2" + 0.004*"experiences" + 0.004*"PAs" + 0.004*"team"', '0.019*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"Hillingdon" + 0.007*"well" + 0.005*"team" + 0.005*"2" + 0.005*"need" + 0.004*"leaders" + 0.004*"understand"', '0.020*"’" + 0.011*"needs" + 0.008*"well" + 0.008*"plans" + 0.007*"Hillingdon" + 0.005*"6" + 0.005*"team" + 0.005*"October" + 0.004*"improve" + 0.004*"carers"']</t>
+    <t>['0.017*"’" + 0.009*"needs" + 0.009*"plans" + 0.007*"well" + 0.007*"Hillingdon" + 0.004*"need" + 0.004*"2" + 0.004*"6" + 0.004*"leaders" + 0.004*"good"', '0.012*"’" + 0.010*"needs" + 0.007*"plans" + 0.006*"Hillingdon" + 0.005*"well" + 0.004*"team" + 0.004*"need" + 0.004*"carers" + 0.004*"understand" + 0.004*"6"', '0.022*"’" + 0.009*"Hillingdon" + 0.009*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"team" + 0.005*"need" + 0.005*"2" + 0.005*"6" + 0.004*"2023"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2542,7 +2542,7 @@
     <t>0.1948</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.012*"needs" + 0.008*"well" + 0.007*"effective" + 0.006*"Hounslow" + 0.005*"plans" + 0.004*"training" + 0.004*"experiences" + 0.004*"education" + 0.004*"oversight"', '0.025*"’" + 0.011*"well" + 0.011*"needs" + 0.008*"Hounslow" + 0.008*"timely" + 0.007*"effective" + 0.006*"plans" + 0.005*"strong" + 0.005*"20" + 0.005*"progress"', '0.012*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"effective" + 0.006*"Hounslow" + 0.006*"timely" + 0.005*"oversight" + 0.005*"plans" + 0.005*"16" + 0.004*"2023"']</t>
+    <t>['0.014*"’" + 0.010*"needs" + 0.010*"well" + 0.007*"effective" + 0.006*"Hounslow" + 0.005*"timely" + 0.005*"plans" + 0.004*"oversight" + 0.004*"training" + 0.004*"progress"', '0.024*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"effective" + 0.006*"Hounslow" + 0.006*"plans" + 0.005*"education" + 0.005*"16" + 0.005*"timely" + 0.005*"strong"', '0.020*"’" + 0.012*"needs" + 0.011*"well" + 0.008*"Hounslow" + 0.008*"effective" + 0.008*"timely" + 0.005*"plans" + 0.005*"progress" + 0.005*"2023" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2572,7 +2572,7 @@
     <t>0.209</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.013*"needs" + 0.013*"well" + 0.007*"plans" + 0.007*"highly" + 0.006*"leaders" + 0.005*"quality" + 0.005*"effective" + 0.005*"good" + 0.005*"practice"', '0.013*"’" + 0.011*"needs" + 0.009*"well" + 0.008*"good" + 0.007*"plans" + 0.006*"quality" + 0.006*"Islington" + 0.006*"effective" + 0.005*"highly" + 0.005*"risk"', '0.009*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.005*"leaders" + 0.004*"highly" + 0.004*"good" + 0.003*"Islington" + 0.003*"effective" + 0.003*"quality"']</t>
+    <t>['0.017*"’" + 0.011*"well" + 0.011*"needs" + 0.007*"plans" + 0.007*"highly" + 0.006*"good" + 0.006*"quality" + 0.006*"leaders" + 0.005*"practice" + 0.005*"Islington"', '0.013*"needs" + 0.009*"well" + 0.009*"’" + 0.006*"plans" + 0.005*"effective" + 0.005*"good" + 0.005*"highly" + 0.005*"leaders" + 0.005*"quality" + 0.004*"risk"', '0.010*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"plans" + 0.005*"Islington" + 0.005*"highly" + 0.005*"good" + 0.005*"effective" + 0.005*"quality" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2605,7 +2605,7 @@
     <t>16/12/22</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"needs" + 0.010*"plans" + 0.009*"well" + 0.007*"good" + 0.006*"Lambeth" + 0.006*"need" + 0.006*"leaders" + 0.006*"impact" + 0.005*"progress"', '0.014*"’" + 0.008*"Lambeth" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"good" + 0.005*"arrangements" + 0.005*"need" + 0.005*"impact" + 0.005*"October"', '0.014*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"good" + 0.007*"progress" + 0.006*"need" + 0.005*"carers" + 0.005*"Lambeth" + 0.005*"impact" + 0.005*"4"']</t>
+    <t>['0.012*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Lambeth" + 0.006*"plans" + 0.006*"good" + 0.005*"impact" + 0.005*"leaders" + 0.005*"progress" + 0.004*"arrangements"', '0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.006*"need" + 0.006*"good" + 0.006*"impact" + 0.005*"24" + 0.005*"Leaders" + 0.005*"number" + 0.005*"plans"', '0.017*"’" + 0.010*"needs" + 0.009*"plans" + 0.008*"well" + 0.007*"good" + 0.007*"Lambeth" + 0.007*"progress" + 0.006*"need" + 0.006*"leaders" + 0.005*"4"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2641,7 +2641,7 @@
     <t>0.1803</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.006*"effective" + 0.006*"needs" + 0.005*"plans" + 0.004*"Lewisham" + 0.004*"good" + 0.004*"progress" + 0.004*"4" + 0.004*"family"', '0.015*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"plans" + 0.005*"practice" + 0.005*"leaders" + 0.005*"progress" + 0.005*"effective" + 0.005*"receive" + 0.004*"good"', '0.020*"’" + 0.009*"well" + 0.008*"needs" + 0.008*"plans" + 0.007*"Lewisham" + 0.007*"effective" + 0.006*"4" + 0.006*"arrangements" + 0.005*"progress" + 0.005*"good"']</t>
+    <t>['0.017*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"effective" + 0.005*"good" + 0.005*"plans" + 0.004*"Lewisham" + 0.004*"progress" + 0.004*"need" + 0.004*"benefit"', '0.012*"’" + 0.009*"well" + 0.008*"plans" + 0.008*"needs" + 0.006*"Lewisham" + 0.006*"effective" + 0.005*"progress" + 0.005*"good" + 0.005*"4" + 0.005*"arrangements"', '0.021*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"plans" + 0.007*"effective" + 0.006*"Lewisham" + 0.005*"progress" + 0.005*"leaders" + 0.005*"4" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2665,7 +2665,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.007*"well" + 0.007*"Merton" + 0.004*"needs" + 0.004*"good" + 0.004*"ensure" + 0.004*"helping" + 0.004*"early" + 0.004*"February" + 0.004*"health"', '0.016*"’" + 0.009*"well" + 0.007*"Merton" + 0.006*"needs" + 0.005*"progress" + 0.005*"plans" + 0.005*"access" + 0.005*"4" + 0.004*"family" + 0.004*"good"', '0.020*"’" + 0.008*"well" + 0.007*"needs" + 0.005*"plans" + 0.005*"family" + 0.005*"Merton" + 0.005*"leaders" + 0.004*"information" + 0.004*"progress" + 0.004*"impact"']</t>
+    <t>['0.016*"’" + 0.008*"Merton" + 0.008*"well" + 0.005*"needs" + 0.005*"family" + 0.005*"progress" + 0.005*"helping" + 0.004*"4" + 0.004*"2022" + 0.004*"practice"', '0.009*"’" + 0.005*"well" + 0.004*"needs" + 0.004*"Merton" + 0.004*"plans" + 0.004*"progress" + 0.004*"health" + 0.003*"risk" + 0.003*"family" + 0.003*"early"', '0.018*"’" + 0.009*"well" + 0.006*"needs" + 0.006*"Merton" + 0.006*"plans" + 0.005*"ensure" + 0.005*"good" + 0.004*"28" + 0.004*"information" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2686,7 +2686,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"Newham" + 0.007*"needs" + 0.007*"plans" + 0.006*"progress" + 0.006*"need" + 0.005*"practice" + 0.005*"effective" + 0.005*"early" + 0.004*"good"', '0.022*"’" + 0.008*"needs" + 0.007*"practice" + 0.006*"Newham" + 0.006*"progress" + 0.006*"plans" + 0.005*"effective" + 0.005*"need" + 0.005*"Leaders" + 0.005*"good"', '0.020*"’" + 0.008*"needs" + 0.006*"progress" + 0.006*"effective" + 0.006*"Newham" + 0.006*"need" + 0.006*"plans" + 0.006*"practice" + 0.006*"good" + 0.004*"Leaders"']</t>
+    <t>['0.019*"’" + 0.008*"needs" + 0.007*"Newham" + 0.007*"need" + 0.006*"progress" + 0.006*"practice" + 0.005*"plans" + 0.005*"good" + 0.005*"effective" + 0.005*"receive"', '0.013*"’" + 0.007*"needs" + 0.007*"Newham" + 0.006*"plans" + 0.005*"need" + 0.005*"progress" + 0.004*"good" + 0.004*"effective" + 0.004*"practice" + 0.004*"Leaders"', '0.022*"’" + 0.008*"needs" + 0.007*"effective" + 0.007*"practice" + 0.006*"plans" + 0.006*"progress" + 0.006*"Newham" + 0.005*"need" + 0.005*"good" + 0.005*"18"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2716,7 +2716,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.007*"practice" + 0.007*"strong" + 0.006*"well" + 0.006*"needs" + 0.006*"need" + 0.005*"progress" + 0.005*"Redbridge" + 0.005*"ensure" + 0.005*"effective"', '0.008*"practice" + 0.007*"need" + 0.007*"’" + 0.006*"well" + 0.006*"effective" + 0.005*"needs" + 0.005*"risk" + 0.005*"Redbridge" + 0.005*"good" + 0.004*"including"', '0.006*"’" + 0.006*"needs" + 0.006*"well" + 0.005*"practice" + 0.005*"including" + 0.005*"team" + 0.005*"Redbridge" + 0.005*"risk" + 0.005*"effective" + 0.004*"plans"']</t>
+    <t>['0.007*"’" + 0.007*"practice" + 0.006*"need" + 0.006*"well" + 0.006*"needs" + 0.005*"Redbridge" + 0.005*"good" + 0.005*"effective" + 0.005*"risk" + 0.005*"team"', '0.007*"practice" + 0.007*"’" + 0.006*"effective" + 0.006*"well" + 0.006*"need" + 0.005*"needs" + 0.005*"risk" + 0.005*"Redbridge" + 0.005*"team" + 0.005*"strong"', '0.008*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"strong" + 0.006*"practice" + 0.005*"progress" + 0.005*"ensure" + 0.005*"including" + 0.005*"Redbridge" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2743,7 +2743,7 @@
     <t>0.2056</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"well" + 0.005*"Richmond" + 0.005*"need" + 0.005*"needs" + 0.005*"supported" + 0.004*"team" + 0.004*"good" + 0.004*"strong" + 0.004*"January"', '0.019*"’" + 0.013*"well" + 0.009*"Richmond" + 0.009*"needs" + 0.007*"supported" + 0.006*"team" + 0.006*"good" + 0.006*"need" + 0.006*"additional" + 0.005*"4"', '0.015*"’" + 0.010*"well" + 0.008*"Richmond" + 0.007*"needs" + 0.005*"need" + 0.005*"good" + 0.005*"team" + 0.004*"range" + 0.004*"supported" + 0.004*"4"']</t>
+    <t>['0.020*"’" + 0.011*"well" + 0.008*"needs" + 0.008*"Richmond" + 0.007*"supported" + 0.006*"need" + 0.006*"good" + 0.006*"team" + 0.005*"upon" + 0.005*"strong"', '0.012*"well" + 0.009*"’" + 0.009*"Richmond" + 0.006*"needs" + 0.005*"team" + 0.005*"need" + 0.005*"supported" + 0.005*"good" + 0.004*"ensure" + 0.004*"4"', '0.013*"’" + 0.010*"well" + 0.007*"Richmond" + 0.006*"needs" + 0.005*"team" + 0.005*"good" + 0.005*"supported" + 0.004*"January" + 0.004*"need" + 0.004*"additional"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2773,7 +2773,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.010*"Southwark" + 0.008*"well" + 0.007*"needs" + 0.007*"good" + 0.006*"progress" + 0.006*"plans" + 0.006*"strong" + 0.005*"need" + 0.005*"leaders"', '0.012*"’" + 0.008*"good" + 0.007*"Southwark" + 0.006*"needs" + 0.006*"need" + 0.005*"well" + 0.005*"ensure" + 0.005*"effective" + 0.005*"Leaders" + 0.005*"plans"', '0.023*"’" + 0.010*"Southwark" + 0.008*"good" + 0.008*"well" + 0.008*"needs" + 0.006*"progress" + 0.005*"plans" + 0.005*"Leaders" + 0.005*"effective" + 0.005*"need"']</t>
+    <t>['0.018*"’" + 0.011*"needs" + 0.009*"good" + 0.009*"Southwark" + 0.008*"well" + 0.007*"plans" + 0.006*"strong" + 0.006*"Leaders" + 0.006*"leaders" + 0.005*"progress"', '0.022*"’" + 0.011*"Southwark" + 0.007*"progress" + 0.007*"good" + 0.007*"need" + 0.007*"well" + 0.005*"Leaders" + 0.005*"effective" + 0.005*"strong" + 0.005*"ensure"', '0.013*"’" + 0.007*"well" + 0.007*"Southwark" + 0.006*"good" + 0.006*"effective" + 0.005*"receive" + 0.005*"plans" + 0.005*"needs" + 0.005*"leaders" + 0.004*"30"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2803,7 +2803,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"well" + 0.007*"progress" + 0.007*"Sutton" + 0.005*"needs" + 0.005*"good" + 0.004*"6" + 0.004*"receive" + 0.004*"effective" + 0.004*"supported"', '0.017*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"receive" + 0.005*"effective" + 0.005*"Sutton" + 0.005*"10" + 0.005*"good" + 0.005*"6" + 0.005*"progress"', '0.013*"’" + 0.005*"Sutton" + 0.004*"effective" + 0.004*"well" + 0.004*"receive" + 0.003*"2021" + 0.003*"good" + 0.003*"home" + 0.003*"December" + 0.003*"6"']</t>
+    <t>['0.012*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"Sutton" + 0.004*"receive" + 0.004*"good" + 0.004*"December" + 0.004*"need" + 0.004*"6" + 0.004*"effective"', '0.019*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"good" + 0.005*"Sutton" + 0.005*"effective" + 0.005*"need" + 0.005*"leaders" + 0.004*"progress" + 0.004*"receive"', '0.018*"’" + 0.007*"Sutton" + 0.007*"progress" + 0.006*"well" + 0.005*"effective" + 0.005*"receive" + 0.005*"6" + 0.005*"needs" + 0.005*"10" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2833,7 +2833,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"good" + 0.007*"plans" + 0.006*"‘" + 0.006*"early" + 0.006*"practice" + 0.006*"effective" + 0.005*"including" + 0.005*"risk" + 0.005*"well"', '0.015*"’" + 0.007*"well" + 0.007*"effective" + 0.007*"good" + 0.005*"needs" + 0.005*"plans" + 0.005*"need" + 0.005*"progress" + 0.005*"practice" + 0.004*"early"', '0.011*"’" + 0.006*"plans" + 0.006*"‘" + 0.005*"effective" + 0.005*"good" + 0.005*"practice" + 0.005*"need" + 0.005*"carers" + 0.005*"progress" + 0.004*"including"']</t>
+    <t>['0.017*"’" + 0.007*"good" + 0.006*"need" + 0.006*"needs" + 0.006*"‘" + 0.005*"including" + 0.005*"effective" + 0.005*"well" + 0.005*"plans" + 0.005*"practice"', '0.014*"’" + 0.008*"plans" + 0.007*"effective" + 0.007*"good" + 0.006*"well" + 0.005*"‘" + 0.005*"early" + 0.005*"need" + 0.005*"progress" + 0.004*"practice"', '0.014*"’" + 0.007*"good" + 0.007*"practice" + 0.006*"effective" + 0.006*"‘" + 0.005*"plans" + 0.005*"carers" + 0.005*"well" + 0.005*"early" + 0.005*"progress"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2866,7 +2866,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.015*"well" + 0.008*"good" + 0.008*"needs" + 0.008*"effective" + 0.006*"need" + 0.006*"plans" + 0.005*"timely" + 0.004*"risk" + 0.004*"clear"', '0.015*"’" + 0.012*"well" + 0.009*"needs" + 0.009*"good" + 0.007*"effective" + 0.005*"need" + 0.005*"timely" + 0.005*"risk" + 0.005*"plans" + 0.004*"education"', '0.013*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"good" + 0.006*"effective" + 0.006*"need" + 0.005*"plans" + 0.004*"protection" + 0.004*"information" + 0.004*"health"']</t>
+    <t>['0.016*"’" + 0.011*"well" + 0.007*"needs" + 0.007*"effective" + 0.007*"good" + 0.007*"need" + 0.006*"plans" + 0.004*"information" + 0.004*"receive" + 0.004*"risk"', '0.013*"’" + 0.010*"well" + 0.007*"needs" + 0.006*"good" + 0.005*"effective" + 0.005*"need" + 0.004*"risk" + 0.004*"plans" + 0.004*"actions" + 0.004*"timely"', '0.014*"’" + 0.013*"well" + 0.011*"needs" + 0.010*"good" + 0.008*"effective" + 0.006*"timely" + 0.006*"plans" + 0.006*"need" + 0.005*"risk" + 0.004*"protection"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2893,7 +2893,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"quality" + 0.005*"7" + 0.005*"practice" + 0.005*"ensure" + 0.005*"supported" + 0.005*"Senior" + 0.005*"Wandsworth"', '0.010*"’" + 0.006*"protection" + 0.005*"progress" + 0.005*"quality" + 0.005*"effective" + 0.005*"18" + 0.005*"needs" + 0.005*"well" + 0.005*"Senior" + 0.004*"team"', '0.013*"’" + 0.008*"well" + 0.006*"progress" + 0.006*"Wandsworth" + 0.005*"needs" + 0.005*"Senior" + 0.005*"protection" + 0.005*"practice" + 0.005*"supported" + 0.005*"ensure"']</t>
+    <t>['0.011*"’" + 0.005*"well" + 0.005*"protection" + 0.005*"progress" + 0.005*"Wandsworth" + 0.005*"7" + 0.004*"good" + 0.004*"Senior" + 0.004*"practice" + 0.004*"alongside"', '0.013*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"progress" + 0.006*"protection" + 0.006*"practice" + 0.005*"Senior" + 0.005*"ing" + 0.005*"supported" + 0.005*"7"', '0.011*"’" + 0.006*"Wandsworth" + 0.005*"well" + 0.005*"needs" + 0.005*"effective" + 0.005*"quality" + 0.005*"ensure" + 0.005*"Senior" + 0.005*"practice" + 0.004*"18"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2917,7 +2917,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.007*"needs" + 0.006*"practice" + 0.006*"well" + 0.005*"highly" + 0.005*"many" + 0.004*"across" + 0.004*"family" + 0.004*"shared" + 0.003*"high"', '0.014*"’" + 0.006*"practice" + 0.006*"highly" + 0.004*"well" + 0.004*"needs" + 0.004*"high" + 0.003*"skilled" + 0.003*"across" + 0.003*"plans" + 0.003*"many"', '0.012*"’" + 0.008*"practice" + 0.006*"needs" + 0.006*"highly" + 0.004*"well" + 0.004*"family" + 0.004*"direct" + 0.003*"across" + 0.003*"many" + 0.003*"skilled"']</t>
+    <t>['0.012*"’" + 0.006*"practice" + 0.005*"highly" + 0.004*"well" + 0.004*"across" + 0.004*"needs" + 0.004*"family" + 0.003*"high" + 0.003*"many" + 0.003*"shared"', '0.016*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"highly" + 0.006*"well" + 0.004*"many" + 0.004*"skilled" + 0.003*"across" + 0.003*"plans" + 0.003*"high"', '0.010*"’" + 0.007*"needs" + 0.007*"practice" + 0.005*"highly" + 0.005*"well" + 0.004*"family" + 0.004*"across" + 0.004*"many" + 0.004*"direct" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2950,7 +2950,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"need" + 0.007*"effective" + 0.006*"good" + 0.006*"needs" + 0.006*"Luton" + 0.005*"plans" + 0.005*"quality" + 0.005*"impact" + 0.005*"progress"', '0.016*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"need" + 0.006*"impact" + 0.006*"ensure" + 0.005*"progress" + 0.005*"Luton" + 0.005*"effective" + 0.005*"receive"', '0.016*"’" + 0.006*"good" + 0.006*"Luton" + 0.006*"needs" + 0.006*"need" + 0.005*"plans" + 0.005*"progress" + 0.004*"11" + 0.004*"effective" + 0.004*"receive"']</t>
+    <t>['0.012*"’" + 0.005*"needs" + 0.004*"plans" + 0.004*"need" + 0.004*"Luton" + 0.004*"impact" + 0.003*"receive" + 0.003*"22" + 0.003*"good" + 0.003*"July"', '0.016*"’" + 0.008*"needs" + 0.007*"need" + 0.006*"Luton" + 0.006*"plans" + 0.006*"good" + 0.006*"progress" + 0.005*"effective" + 0.005*"Leaders" + 0.005*"impact"', '0.021*"’" + 0.006*"need" + 0.006*"effective" + 0.006*"plans" + 0.006*"ensure" + 0.005*"Luton" + 0.005*"good" + 0.005*"needs" + 0.005*"impact" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2977,7 +2977,7 @@
     <t>19/05/22</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"needs" + 0.008*"Manchester" + 0.006*"well" + 0.005*"protection" + 0.005*"supported" + 0.005*"always" + 0.005*"effective" + 0.005*"2022" + 0.005*"planning"', '0.024*"’" + 0.011*"Manchester" + 0.007*"supported" + 0.007*"needs" + 0.007*"well" + 0.005*"protection" + 0.005*"early" + 0.005*"effective" + 0.005*"family" + 0.005*"April"', '0.021*"’" + 0.012*"Manchester" + 0.011*"needs" + 0.009*"always" + 0.007*"well" + 0.007*"supported" + 0.006*"education" + 0.006*"plans" + 0.005*"quality" + 0.005*"disabled"']</t>
+    <t>['0.020*"’" + 0.012*"needs" + 0.011*"Manchester" + 0.007*"always" + 0.007*"well" + 0.006*"supported" + 0.006*"education" + 0.006*"quality" + 0.005*"plans" + 0.005*"effective"', '0.025*"’" + 0.009*"Manchester" + 0.008*"needs" + 0.007*"always" + 0.007*"well" + 0.007*"supported" + 0.006*"protection" + 0.006*"disabled" + 0.006*"plans" + 0.005*"effective"', '0.015*"’" + 0.011*"Manchester" + 0.008*"needs" + 0.006*"supported" + 0.006*"well" + 0.005*"plans" + 0.004*"April" + 0.004*"education" + 0.004*"1" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80522</t>
@@ -3007,7 +3007,7 @@
     <t>11/09/23</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"Medway" + 0.009*"practice" + 0.009*"quality" + 0.008*"well" + 0.007*"needs" + 0.007*"leaders" + 0.006*"risk" + 0.005*"oversight" + 0.005*"experiences"', '0.017*"’" + 0.010*"Medway" + 0.008*"practice" + 0.007*"quality" + 0.007*"oversight" + 0.007*"well" + 0.007*"needs" + 0.007*"impact" + 0.006*"leaders" + 0.005*"improve"', '0.016*"’" + 0.008*"Medway" + 0.007*"well" + 0.007*"practice" + 0.006*"quality" + 0.006*"experiences" + 0.005*"leaders" + 0.005*"clear" + 0.005*"good" + 0.005*"impact"']</t>
+    <t>['0.015*"’" + 0.009*"Medway" + 0.009*"practice" + 0.007*"well" + 0.007*"leaders" + 0.007*"quality" + 0.007*"needs" + 0.006*"oversight" + 0.006*"experiences" + 0.005*"impact"', '0.014*"’" + 0.009*"Medway" + 0.008*"well" + 0.007*"quality" + 0.007*"practice" + 0.006*"oversight" + 0.006*"good" + 0.006*"needs" + 0.005*"17" + 0.005*"risk"', '0.018*"’" + 0.009*"Medway" + 0.008*"quality" + 0.008*"practice" + 0.008*"well" + 0.007*"leaders" + 0.006*"impact" + 0.006*"needs" + 0.005*"progress" + 0.005*"28"']</t>
   </si>
   <si>
     <t>80523</t>
@@ -3031,7 +3031,7 @@
     <t>0.1551</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"effective" + 0.007*"plans" + 0.007*"Middlesbrough" + 0.007*"well" + 0.006*"progress" + 0.006*"needs" + 0.006*"practice" + 0.005*"24" + 0.005*"March"', '0.011*"’" + 0.007*"plans" + 0.006*"Middlesbrough" + 0.006*"needs" + 0.005*"well" + 0.005*"effective" + 0.004*"practice" + 0.004*"good" + 0.004*"place" + 0.004*"planning"', '0.011*"’" + 0.007*"effective" + 0.007*"Middlesbrough" + 0.007*"plans" + 0.007*"needs" + 0.006*"well" + 0.006*"practice" + 0.005*"place" + 0.005*"13" + 0.005*"progress"']</t>
+    <t>['0.011*"’" + 0.007*"effective" + 0.007*"plans" + 0.006*"needs" + 0.006*"Middlesbrough" + 0.005*"practice" + 0.005*"place" + 0.005*"well" + 0.005*"progress" + 0.005*"24"', '0.017*"’" + 0.008*"Middlesbrough" + 0.008*"plans" + 0.007*"effective" + 0.007*"needs" + 0.006*"well" + 0.006*"progress" + 0.005*"practice" + 0.005*"good" + 0.005*"means"', '0.011*"’" + 0.007*"well" + 0.006*"effective" + 0.005*"Middlesbrough" + 0.005*"needs" + 0.005*"plans" + 0.005*"practice" + 0.005*"progress" + 0.004*"senior" + 0.004*"good"']</t>
   </si>
   <si>
     <t>80524</t>
@@ -3058,7 +3058,7 @@
     <t>0.1723</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"Milton" + 0.005*"25" + 0.005*"Keynes" + 0.005*"need" + 0.005*"well" + 0.005*"team" + 0.005*"good" + 0.005*"also" + 0.004*"October"', '0.017*"’" + 0.007*"Keynes" + 0.005*"well" + 0.005*"practice" + 0.005*"Milton" + 0.005*"plans" + 0.005*"need" + 0.005*"2021" + 0.004*"needs" + 0.004*"5"', '0.014*"’" + 0.007*"well" + 0.006*"need" + 0.006*"leaders" + 0.006*"Milton" + 0.005*"Keynes" + 0.005*"practice" + 0.004*"good" + 0.004*"effective" + 0.004*"impact"']</t>
+    <t>['0.011*"’" + 0.007*"Keynes" + 0.005*"Milton" + 0.005*"practice" + 0.005*"team" + 0.004*"plans" + 0.004*"need" + 0.004*"well" + 0.004*"needs" + 0.004*"25"', '0.017*"’" + 0.007*"Milton" + 0.006*"well" + 0.006*"Keynes" + 0.005*"need" + 0.005*"good" + 0.005*"leaders" + 0.005*"practice" + 0.005*"education" + 0.005*"October"', '0.015*"’" + 0.006*"well" + 0.006*"need" + 0.005*"25" + 0.005*"Keynes" + 0.005*"Milton" + 0.005*"practice" + 0.004*"good" + 0.004*"leaders" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80525</t>
@@ -3085,7 +3085,7 @@
     <t>0.1678</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"plans" + 0.007*"Newcastle" + 0.007*"good" + 0.006*"need" + 0.006*"protection" + 0.006*"well" + 0.006*"making" + 0.005*"progress" + 0.005*"needs"', '0.013*"’" + 0.008*"plans" + 0.008*"needs" + 0.007*"Newcastle" + 0.006*"protection" + 0.006*"good" + 0.006*"planning" + 0.006*"well" + 0.005*"progress" + 0.005*"response"', '0.018*"’" + 0.011*"plans" + 0.009*"needs" + 0.007*"protection" + 0.007*"well" + 0.007*"good" + 0.006*"Newcastle" + 0.006*"progress" + 0.006*"making" + 0.006*"ensure"']</t>
+    <t>['0.012*"’" + 0.009*"plans" + 0.008*"needs" + 0.006*"well" + 0.006*"Newcastle" + 0.005*"progress" + 0.005*"management" + 0.005*"good" + 0.005*"need" + 0.005*"ensure"', '0.015*"’" + 0.010*"plans" + 0.008*"good" + 0.007*"Newcastle" + 0.007*"protection" + 0.006*"progress" + 0.006*"needs" + 0.006*"making" + 0.005*"well" + 0.005*"December"', '0.019*"’" + 0.011*"plans" + 0.008*"needs" + 0.008*"protection" + 0.007*"Newcastle" + 0.007*"good" + 0.007*"well" + 0.006*"ensure" + 0.006*"response" + 0.006*"10"']</t>
   </si>
   <si>
     <t>80418</t>
@@ -3109,7 +3109,7 @@
     <t>0.1799</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.010*"Norfolk" + 0.006*"carers" + 0.006*"well" + 0.006*"supported" + 0.005*"needs" + 0.005*"practice" + 0.005*"including" + 0.004*"18" + 0.004*"plans"', '0.014*"’" + 0.010*"well" + 0.007*"Norfolk" + 0.007*"needs" + 0.006*"practice" + 0.006*"carers" + 0.005*"range" + 0.005*"supported" + 0.005*"plans" + 0.005*"progress"', '0.020*"’" + 0.007*"well" + 0.006*"Norfolk" + 0.006*"carers" + 0.005*"practice" + 0.005*"leaders" + 0.005*"needs" + 0.005*"effective" + 0.005*"supported" + 0.004*"18"']</t>
+    <t>['0.021*"’" + 0.009*"Norfolk" + 0.009*"well" + 0.007*"carers" + 0.007*"practice" + 0.006*"needs" + 0.006*"supported" + 0.005*"plans" + 0.005*"information" + 0.004*"range"', '0.013*"’" + 0.008*"Norfolk" + 0.008*"well" + 0.006*"carers" + 0.006*"supported" + 0.005*"needs" + 0.005*"18" + 0.005*"plans" + 0.005*"practice" + 0.005*"including"', '0.013*"’" + 0.007*"well" + 0.005*"needs" + 0.005*"Norfolk" + 0.004*"including" + 0.004*"leaders" + 0.004*"18" + 0.004*"carers" + 0.004*"practice" + 0.004*"supported"']</t>
   </si>
   <si>
     <t>80526</t>
@@ -3142,7 +3142,7 @@
     <t>0.0968</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"practice" + 0.007*"risk" + 0.006*"planning" + 0.006*"need" + 0.006*"quality" + 0.006*"leaders" + 0.005*"many" + 0.005*"October" + 0.005*"senior"', '0.012*"’" + 0.007*"leaders" + 0.007*"practice" + 0.007*"needs" + 0.006*"planning" + 0.006*"risk" + 0.005*"Lincolnshire" + 0.005*"need" + 0.005*"plans" + 0.005*"Council"', '0.015*"’" + 0.008*"practice" + 0.007*"needs" + 0.007*"risk" + 0.006*"planning" + 0.006*"leaders" + 0.005*"East" + 0.004*"oversight" + 0.004*"many" + 0.004*"experiences"']</t>
+    <t>['0.018*"’" + 0.008*"practice" + 0.007*"leaders" + 0.006*"needs" + 0.006*"risk" + 0.005*"2021" + 0.005*"need" + 0.005*"East" + 0.005*"planning" + 0.005*"Lincolnshire"', '0.013*"’" + 0.009*"practice" + 0.008*"risk" + 0.007*"needs" + 0.006*"leaders" + 0.006*"planning" + 0.006*"many" + 0.005*"October" + 0.005*"quality" + 0.005*"plans"', '0.011*"’" + 0.007*"planning" + 0.006*"risk" + 0.006*"leaders" + 0.006*"practice" + 0.005*"need" + 0.005*"needs" + 0.005*"many" + 0.004*"experiences" + 0.004*"harm"']</t>
   </si>
   <si>
     <t>80527</t>
@@ -3172,7 +3172,7 @@
     <t>0.2145</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.007*"‘" + 0.006*"well" + 0.006*"North" + 0.005*"family" + 0.005*"leaders" + 0.005*"team" + 0.005*"protection" + 0.005*"10" + 0.005*"approach"', '0.019*"’" + 0.007*"‘" + 0.007*"family" + 0.006*"Lincolnshire" + 0.006*"approach" + 0.006*"North" + 0.005*"need" + 0.005*"10" + 0.005*"leaders" + 0.004*"well"', '0.016*"’" + 0.008*"‘" + 0.005*"family" + 0.005*"Lincolnshire" + 0.005*"leaders" + 0.004*"need" + 0.004*"well" + 0.004*"October" + 0.004*"10" + 0.004*"North"']</t>
+    <t>['0.019*"’" + 0.007*"‘" + 0.006*"leaders" + 0.006*"North" + 0.006*"Lincolnshire" + 0.005*"family" + 0.005*"approach" + 0.005*"10" + 0.005*"need" + 0.005*"team"', '0.021*"’" + 0.007*"‘" + 0.006*"family" + 0.005*"well" + 0.004*"North" + 0.004*"council" + 0.004*"14" + 0.004*"need" + 0.004*"protection" + 0.004*"approach"', '0.021*"’" + 0.007*"‘" + 0.006*"Lincolnshire" + 0.006*"well" + 0.006*"family" + 0.006*"approach" + 0.005*"North" + 0.005*"leaders" + 0.005*"10" + 0.005*"need"']</t>
   </si>
   <si>
     <t>2637539</t>
@@ -3208,7 +3208,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.007*"Northamptonshire" + 0.005*"needs" + 0.005*"quality" + 0.005*"well" + 0.005*"North" + 0.005*"practice" + 0.005*"3" + 0.004*"NCT" + 0.004*"Leaders"', '0.016*"’" + 0.007*"Northamptonshire" + 0.007*"North" + 0.007*"well" + 0.005*"Leaders" + 0.005*"NCT" + 0.005*"impact" + 0.004*"practice" + 0.004*"need" + 0.004*"experiences"', '0.015*"’" + 0.009*"Northamptonshire" + 0.007*"quality" + 0.007*"North" + 0.007*"well" + 0.005*"practice" + 0.005*"need" + 0.005*"impact" + 0.005*"3" + 0.005*"personal"']</t>
+    <t>['0.018*"’" + 0.010*"Northamptonshire" + 0.008*"well" + 0.007*"North" + 0.006*"quality" + 0.005*"practice" + 0.005*"impact" + 0.005*"Leaders" + 0.005*"needs" + 0.005*"need"', '0.018*"’" + 0.007*"North" + 0.006*"Northamptonshire" + 0.006*"quality" + 0.005*"needs" + 0.005*"need" + 0.005*"experiences" + 0.005*"practice" + 0.005*"2022" + 0.004*"Leaders"', '0.014*"’" + 0.006*"Northamptonshire" + 0.006*"well" + 0.005*"quality" + 0.005*"North" + 0.005*"NCT" + 0.005*"practice" + 0.005*"impact" + 0.004*"3" + 0.004*"e"']</t>
   </si>
   <si>
     <t>80528</t>
@@ -3235,7 +3235,7 @@
     <t>0.1836</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"needs" + 0.005*"practice" + 0.005*"progress" + 0.005*"quality" + 0.005*"plans" + 0.005*"North" + 0.005*"always" + 0.004*"number" + 0.004*"need"', '0.018*"’" + 0.009*"quality" + 0.008*"Somerset" + 0.007*"needs" + 0.007*"North" + 0.006*"always" + 0.006*"practice" + 0.006*"number" + 0.006*"experienced" + 0.006*"risk"', '0.015*"’" + 0.007*"quality" + 0.007*"needs" + 0.006*"always" + 0.006*"number" + 0.006*"progress" + 0.005*"need" + 0.005*"risk" + 0.005*"North" + 0.005*"impact"']</t>
+    <t>['0.013*"’" + 0.007*"quality" + 0.007*"needs" + 0.007*"North" + 0.006*"always" + 0.005*"number" + 0.005*"practice" + 0.005*"risk" + 0.005*"need" + 0.004*"well"', '0.021*"’" + 0.008*"quality" + 0.007*"Somerset" + 0.007*"always" + 0.007*"practice" + 0.006*"needs" + 0.005*"progress" + 0.005*"risk" + 0.005*"number" + 0.005*"need"', '0.015*"’" + 0.008*"needs" + 0.006*"quality" + 0.006*"number" + 0.005*"North" + 0.005*"Somerset" + 0.005*"progress" + 0.005*"experienced" + 0.005*"well" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80529</t>
@@ -3262,7 +3262,7 @@
     <t>0.1847</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"leaders" + 0.005*"need" + 0.005*"quality" + 0.004*"make" + 0.004*"early" + 0.004*"progress" + 0.004*"impact"', '0.012*"’" + 0.005*"well" + 0.005*"leaders" + 0.005*"make" + 0.005*"need" + 0.005*"quality" + 0.004*"impact" + 0.004*"early" + 0.004*"needs" + 0.004*"foster"', '0.022*"’" + 0.007*"well" + 0.005*"leaders" + 0.005*"need" + 0.004*"make" + 0.004*"quality" + 0.004*"impact" + 0.004*"progress" + 0.004*"family" + 0.004*"carers"']</t>
+    <t>['0.015*"’" + 0.006*"well" + 0.005*"need" + 0.005*"impact" + 0.005*"make" + 0.005*"leaders" + 0.004*"early" + 0.003*"progress" + 0.003*"clear" + 0.003*"needs"', '0.017*"’" + 0.006*"well" + 0.006*"leaders" + 0.005*"need" + 0.005*"quality" + 0.004*"protection" + 0.004*"needs" + 0.004*"make" + 0.004*"family" + 0.004*"clear"', '0.015*"’" + 0.006*"well" + 0.005*"leaders" + 0.005*"quality" + 0.005*"make" + 0.005*"needs" + 0.005*"need" + 0.004*"progress" + 0.004*"impact" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80530</t>
@@ -3292,7 +3292,7 @@
     <t>18/08/23</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.010*"well" + 0.008*"Yorkshire" + 0.007*"practice" + 0.006*"North" + 0.006*"7" + 0.005*"family" + 0.005*"needs" + 0.005*"3" + 0.005*"‘"', '0.024*"’" + 0.007*"North" + 0.007*"well" + 0.007*"practice" + 0.006*"family" + 0.006*"needs" + 0.005*"‘" + 0.004*"Yorkshire" + 0.004*"3" + 0.004*"effective"', '0.014*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"North" + 0.005*"Yorkshire" + 0.005*"family" + 0.004*"practice" + 0.004*"‘" + 0.004*"supported" + 0.003*"July"']</t>
+    <t>['0.022*"’" + 0.009*"well" + 0.007*"North" + 0.006*"Yorkshire" + 0.006*"‘" + 0.005*"practice" + 0.005*"family" + 0.005*"needs" + 0.004*"3" + 0.004*"supported"', '0.014*"’" + 0.008*"well" + 0.006*"Yorkshire" + 0.006*"practice" + 0.005*"North" + 0.005*"‘" + 0.005*"needs" + 0.005*"family" + 0.004*"3" + 0.004*"effective"', '0.024*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"family" + 0.006*"North" + 0.006*"Yorkshire" + 0.005*"supported" + 0.005*"7" + 0.004*"3"']</t>
   </si>
   <si>
     <t>80532</t>
@@ -3319,7 +3319,7 @@
     <t>0.2204</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.011*"well" + 0.011*"needs" + 0.007*"experiences" + 0.006*"good" + 0.006*"need" + 0.006*"impact" + 0.004*"education" + 0.004*"quality" + 0.004*"leaders"', '0.022*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"practice" + 0.006*"good" + 0.006*"need" + 0.005*"experiences" + 0.005*"quality" + 0.005*"education" + 0.005*"impact"', '0.022*"’" + 0.010*"needs" + 0.009*"good" + 0.009*"well" + 0.007*"need" + 0.006*"always" + 0.005*"impact" + 0.005*"practice" + 0.005*"quality" + 0.005*"education"']</t>
+    <t>['0.025*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"good" + 0.007*"need" + 0.006*"practice" + 0.005*"experiences" + 0.005*"impact" + 0.004*"quality" + 0.004*"leaders"', '0.019*"’" + 0.009*"needs" + 0.009*"well" + 0.006*"experiences" + 0.006*"education" + 0.006*"good" + 0.005*"leaders" + 0.005*"quality" + 0.004*"need" + 0.004*"always"', '0.022*"’" + 0.012*"needs" + 0.010*"well" + 0.008*"good" + 0.007*"need" + 0.006*"impact" + 0.006*"practice" + 0.005*"experiences" + 0.005*"quality" + 0.004*"plans"']</t>
   </si>
   <si>
     <t>80533</t>
@@ -3349,7 +3349,7 @@
     <t>0.1774</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.008*"needs" + 0.007*"plans" + 0.006*"Nottingham" + 0.005*"oversight" + 0.005*"effective" + 0.005*"11" + 0.005*"impact" + 0.005*"2022" + 0.005*"risk"', '0.012*"’" + 0.008*"needs" + 0.005*"effective" + 0.005*"Nottingham" + 0.005*"July" + 0.004*"plans" + 0.004*"11" + 0.004*"consistently" + 0.004*"2022" + 0.004*"protection"', '0.014*"’" + 0.008*"needs" + 0.005*"Nottingham" + 0.005*"effective" + 0.005*"However" + 0.005*"impact" + 0.004*"City" + 0.004*"practice" + 0.004*"risk" + 0.004*"plans"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.005*"effective" + 0.005*"Nottingham" + 0.005*"City" + 0.005*"plans" + 0.005*"oversight" + 0.004*"risk" + 0.004*"However" + 0.004*"11"', '0.011*"’" + 0.008*"needs" + 0.006*"effective" + 0.006*"plans" + 0.006*"Nottingham" + 0.005*"However" + 0.004*"11" + 0.004*"City" + 0.004*"impact" + 0.004*"protection"', '0.014*"’" + 0.007*"needs" + 0.006*"impact" + 0.006*"Nottingham" + 0.005*"plans" + 0.005*"11" + 0.005*"oversight" + 0.005*"effective" + 0.004*"risk" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80534</t>
@@ -3373,7 +3373,7 @@
     <t>07/10/2019</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.008*"well" + 0.008*"practice" + 0.007*"receive" + 0.006*"needs" + 0.006*"ensure" + 0.005*"made" + 0.005*"carers" + 0.005*"quality" + 0.005*"progress"', '0.015*"’" + 0.009*"well" + 0.008*"practice" + 0.006*"needs" + 0.005*"plans" + 0.005*"made" + 0.005*"progress" + 0.005*"e" + 0.005*"areas" + 0.005*"ensure"', '0.010*"’" + 0.007*"practice" + 0.006*"needs" + 0.005*"quality" + 0.005*"well" + 0.005*"plans" + 0.004*"ensure" + 0.004*"receive" + 0.004*"placements" + 0.004*"progress"']</t>
+    <t>['0.012*"’" + 0.008*"practice" + 0.008*"well" + 0.005*"receive" + 0.005*"made" + 0.005*"ensure" + 0.005*"plans" + 0.005*"good" + 0.005*"progress" + 0.005*"needs"', '0.014*"’" + 0.009*"practice" + 0.008*"well" + 0.007*"needs" + 0.006*"receive" + 0.006*"ensure" + 0.005*"areas" + 0.005*"quality" + 0.005*"e" + 0.005*"progress"', '0.009*"’" + 0.007*"well" + 0.006*"practice" + 0.005*"needs" + 0.005*"plans" + 0.004*"carers" + 0.004*"receive" + 0.004*"made" + 0.004*"progress" + 0.004*"ensure"']</t>
   </si>
   <si>
     <t>80535</t>
@@ -3406,7 +3406,7 @@
     <t>04/03/19</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"needs" + 0.009*"good" + 0.008*"practice" + 0.007*"well" + 0.007*"quality" + 0.006*"planning" + 0.006*"effective" + 0.006*"progress" + 0.006*"plans"', '0.010*"’" + 0.010*"good" + 0.010*"practice" + 0.009*"needs" + 0.007*"effective" + 0.007*"plans" + 0.006*"progress" + 0.006*"well" + 0.006*"planning" + 0.005*"risk"', '0.011*"’" + 0.010*"effective" + 0.008*"needs" + 0.008*"good" + 0.008*"practice" + 0.007*"quality" + 0.006*"progress" + 0.005*"well" + 0.005*"planning" + 0.005*"information"']</t>
+    <t>['0.010*"practice" + 0.010*"good" + 0.010*"needs" + 0.008*"’" + 0.007*"quality" + 0.007*"well" + 0.006*"effective" + 0.006*"progress" + 0.006*"planning" + 0.005*"plans"', '0.011*"’" + 0.011*"good" + 0.008*"needs" + 0.008*"effective" + 0.007*"practice" + 0.007*"progress" + 0.006*"planning" + 0.006*"well" + 0.006*"plans" + 0.006*"information"', '0.013*"’" + 0.009*"needs" + 0.009*"effective" + 0.009*"practice" + 0.007*"good" + 0.007*"quality" + 0.006*"progress" + 0.006*"plans" + 0.006*"planning" + 0.006*"well"']</t>
   </si>
   <si>
     <t>80536</t>
@@ -3439,7 +3439,7 @@
     <t>0.1755</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.010*"needs" + 0.007*"Oxfordshire" + 0.006*"supported" + 0.006*"well" + 0.006*"good" + 0.005*"risk" + 0.005*"arrangements" + 0.005*"quality" + 0.005*"practice"', '0.025*"’" + 0.008*"needs" + 0.008*"Oxfordshire" + 0.007*"risk" + 0.006*"good" + 0.005*"well" + 0.005*"supported" + 0.005*"12" + 0.005*"receive" + 0.005*"education"', '0.014*"’" + 0.012*"needs" + 0.008*"well" + 0.006*"Oxfordshire" + 0.005*"risk" + 0.005*"leaders" + 0.005*"progress" + 0.005*"access" + 0.004*"good" + 0.004*"supported"']</t>
+    <t>['0.017*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"Oxfordshire" + 0.005*"risk" + 0.005*"quality" + 0.005*"good" + 0.005*"12" + 0.005*"February" + 0.004*"leaders"', '0.020*"’" + 0.014*"needs" + 0.008*"Oxfordshire" + 0.007*"well" + 0.006*"supported" + 0.006*"risk" + 0.006*"practice" + 0.005*"receive" + 0.005*"progress" + 0.005*"quality"', '0.021*"’" + 0.007*"Oxfordshire" + 0.007*"needs" + 0.007*"good" + 0.006*"risk" + 0.006*"supported" + 0.005*"well" + 0.005*"23" + 0.005*"progress" + 0.005*"12"']</t>
   </si>
   <si>
     <t>80537</t>
@@ -3469,7 +3469,7 @@
     <t>30/01/24</t>
   </si>
   <si>
-    <t>['0.010*"needs" + 0.009*"’" + 0.008*"Peterborough" + 0.006*"need" + 0.006*"2023" + 0.005*"well" + 0.005*"plans" + 0.005*"8" + 0.004*"education" + 0.004*"quality"', '0.014*"’" + 0.013*"needs" + 0.007*"well" + 0.006*"Peterborough" + 0.006*"2023" + 0.005*"good" + 0.005*"need" + 0.005*"supported" + 0.005*"November" + 0.004*"December"', '0.018*"’" + 0.015*"needs" + 0.008*"need" + 0.008*"progress" + 0.007*"Peterborough" + 0.006*"2023" + 0.006*"well" + 0.006*"supported" + 0.006*"8" + 0.006*"plans"']</t>
+    <t>['0.011*"needs" + 0.010*"’" + 0.008*"Peterborough" + 0.005*"well" + 0.005*"progress" + 0.005*"plans" + 0.005*"receive" + 0.005*"need" + 0.004*"good" + 0.004*"2023"', '0.012*"’" + 0.010*"needs" + 0.008*"need" + 0.006*"2023" + 0.006*"progress" + 0.005*"plans" + 0.005*"8" + 0.005*"27" + 0.005*"Peterborough" + 0.005*"well"', '0.019*"’" + 0.016*"needs" + 0.007*"need" + 0.007*"Peterborough" + 0.007*"well" + 0.007*"2023" + 0.006*"supported" + 0.006*"progress" + 0.006*"8" + 0.005*"November"']</t>
   </si>
   <si>
     <t>80538</t>
@@ -3499,7 +3499,7 @@
     <t>15/03/24</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"Plymouth" + 0.006*"practice" + 0.005*"appropriate" + 0.005*"benefit" + 0.005*"City" + 0.005*"January" + 0.004*"2"', '0.013*"’" + 0.010*"needs" + 0.007*"well" + 0.006*"Plymouth" + 0.005*"education" + 0.005*"practice" + 0.004*"22" + 0.004*"always" + 0.004*"effective" + 0.004*"plans"', '0.014*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"Plymouth" + 0.005*"plans" + 0.005*"2" + 0.005*"timely" + 0.004*"risks" + 0.004*"practice" + 0.004*"health"']</t>
+    <t>['0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Plymouth" + 0.006*"practice" + 0.005*"22" + 0.005*"good" + 0.005*"education" + 0.005*"timely" + 0.005*"benefit"', '0.016*"’" + 0.009*"needs" + 0.008*"Plymouth" + 0.006*"well" + 0.005*"appropriate" + 0.005*"education" + 0.005*"plans" + 0.004*"2" + 0.004*"January" + 0.004*"practice"', '0.012*"’" + 0.008*"needs" + 0.007*"well" + 0.005*"Plymouth" + 0.005*"appropriate" + 0.005*"plans" + 0.005*"ensure" + 0.005*"practice" + 0.004*"Council" + 0.004*"22"']</t>
   </si>
   <si>
     <t>80539</t>
@@ -3532,7 +3532,7 @@
     <t>0.1859</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"Portsmouth" + 0.007*"well" + 0.007*"care-experienced" + 0.005*"needs" + 0.005*"plans" + 0.005*"leaders" + 0.005*"family" + 0.004*"risk" + 0.004*"19"', '0.017*"’" + 0.008*"care-experienced" + 0.007*"well" + 0.007*"needs" + 0.006*"family" + 0.006*"Portsmouth" + 0.006*"plans" + 0.006*"health" + 0.004*"15" + 0.004*"carers"', '0.022*"’" + 0.008*"care-experienced" + 0.007*"well" + 0.007*"needs" + 0.006*"Portsmouth" + 0.005*"health" + 0.005*"practice" + 0.005*"foster" + 0.005*"need" + 0.005*"family"']</t>
+    <t>['0.021*"’" + 0.008*"well" + 0.007*"care-experienced" + 0.007*"Portsmouth" + 0.007*"needs" + 0.006*"plans" + 0.006*"family" + 0.005*"leaders" + 0.005*"practice" + 0.005*"health"', '0.013*"’" + 0.007*"well" + 0.006*"Portsmouth" + 0.006*"care-experienced" + 0.006*"needs" + 0.005*"family" + 0.005*"progress" + 0.005*"health" + 0.005*"plans" + 0.004*"foster"', '0.015*"’" + 0.010*"care-experienced" + 0.006*"needs" + 0.006*"well" + 0.006*"Portsmouth" + 0.006*"health" + 0.005*"family" + 0.004*"practice" + 0.004*"2023" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80540</t>
@@ -3568,7 +3568,7 @@
     <t>0.1741</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.007*"number" + 0.007*"well" + 0.005*"quality" + 0.005*"good" + 0.005*"need" + 0.005*"practice" + 0.005*"needs" + 0.005*"plans" + 0.004*"ensure"', '0.010*"’" + 0.007*"quality" + 0.006*"plans" + 0.006*"good" + 0.006*"number" + 0.006*"effective" + 0.005*"well" + 0.005*"need" + 0.005*"practice" + 0.005*"carers"', '0.018*"’" + 0.008*"number" + 0.007*"plans" + 0.007*"quality" + 0.007*"well" + 0.006*"effective" + 0.006*"good" + 0.005*"However" + 0.005*"need" + 0.005*"timely"']</t>
+    <t>['0.020*"’" + 0.007*"well" + 0.007*"number" + 0.007*"quality" + 0.006*"need" + 0.006*"plans" + 0.006*"effective" + 0.006*"good" + 0.005*"timely" + 0.005*"practice"', '0.010*"’" + 0.008*"quality" + 0.006*"well" + 0.005*"number" + 0.005*"good" + 0.005*"However" + 0.005*"plans" + 0.004*"effective" + 0.004*"need" + 0.004*"timely"', '0.015*"’" + 0.008*"number" + 0.007*"plans" + 0.005*"quality" + 0.005*"good" + 0.005*"well" + 0.005*"always" + 0.005*"effective" + 0.005*"carers" + 0.005*"needs"']</t>
   </si>
   <si>
     <t>80541</t>
@@ -3592,7 +3592,7 @@
     <t>22/09/22</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"leaders" + 0.006*"However" + 0.006*"consistently" + 0.006*"risk" + 0.006*"plans" + 0.006*"Cleveland" + 0.005*"2022" + 0.005*"practice" + 0.005*"20"', '0.015*"’" + 0.006*"plans" + 0.006*"leaders" + 0.006*"needs" + 0.005*"However" + 0.005*"carers" + 0.005*"2022" + 0.004*"20" + 0.004*"practice" + 0.004*"timely"', '0.020*"’" + 0.007*"needs" + 0.006*"consistently" + 0.005*"However" + 0.005*"20" + 0.005*"Redcar" + 0.005*"leaders" + 0.005*"practice" + 0.004*"plans" + 0.004*"July"']</t>
+    <t>['0.015*"’" + 0.006*"leaders" + 0.006*"plans" + 0.006*"However" + 0.005*"Cleveland" + 0.005*"2022" + 0.005*"risk" + 0.005*"20" + 0.005*"needs" + 0.005*"response"', '0.014*"’" + 0.006*"consistently" + 0.005*"needs" + 0.005*"However" + 0.005*"plans" + 0.005*"leaders" + 0.005*"practice" + 0.005*"1" + 0.004*"risk" + 0.004*"20"', '0.022*"’" + 0.007*"leaders" + 0.006*"needs" + 0.006*"carers" + 0.006*"However" + 0.006*"plans" + 0.006*"consistently" + 0.005*"practice" + 0.005*"2022" + 0.005*"Redcar"']</t>
   </si>
   <si>
     <t>80542</t>
@@ -3622,7 +3622,7 @@
     <t>0.1837</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"needs" + 0.008*"practice" + 0.007*"plans" + 0.007*"experienced" + 0.006*"response" + 0.004*"consistently" + 0.004*"3" + 0.004*"good" + 0.004*"February"', '0.017*"’" + 0.007*"experienced" + 0.007*"response" + 0.006*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"plans" + 0.005*"consistently" + 0.005*"3" + 0.005*"well"', '0.022*"’" + 0.012*"experienced" + 0.009*"practice" + 0.008*"needs" + 0.006*"consistently" + 0.006*"good" + 0.006*"Rochdale" + 0.006*"quality" + 0.005*"plans" + 0.005*"well"']</t>
+    <t>['0.016*"’" + 0.013*"experienced" + 0.007*"needs" + 0.006*"practice" + 0.006*"plans" + 0.005*"consistently" + 0.005*"good" + 0.005*"well" + 0.005*"quality" + 0.005*"progress"', '0.015*"’" + 0.009*"needs" + 0.008*"experienced" + 0.008*"practice" + 0.007*"response" + 0.006*"plans" + 0.005*"consistently" + 0.005*"good" + 0.005*"Rochdale" + 0.005*"3"', '0.027*"’" + 0.009*"practice" + 0.008*"experienced" + 0.007*"needs" + 0.006*"response" + 0.006*"quality" + 0.005*"plans" + 0.005*"consistently" + 0.005*"23" + 0.005*"Rochdale"']</t>
   </si>
   <si>
     <t>80543</t>
@@ -3649,7 +3649,7 @@
     <t>0.1845</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"Rotherham" + 0.006*"needs" + 0.005*"good" + 0.005*"plans" + 0.005*"Council" + 0.005*"ensure" + 0.004*"However" + 0.004*"Metropolitan" + 0.004*"well"', '0.014*"’" + 0.008*"Rotherham" + 0.006*"needs" + 0.005*"ensure" + 0.004*"well" + 0.004*"Council" + 0.004*"protection" + 0.004*"good" + 0.004*"clear" + 0.004*"plans"', '0.017*"’" + 0.009*"Rotherham" + 0.007*"well" + 0.007*"needs" + 0.005*"good" + 0.005*"However" + 0.004*"Council" + 0.004*"27" + 0.004*"ensure" + 0.004*"clear"']</t>
+    <t>['0.014*"’" + 0.006*"needs" + 0.006*"Rotherham" + 0.006*"well" + 0.005*"ensure" + 0.004*"receive" + 0.004*"good" + 0.004*"plans" + 0.004*"27" + 0.004*"However"', '0.019*"’" + 0.011*"Rotherham" + 0.007*"needs" + 0.006*"Council" + 0.006*"well" + 0.005*"However" + 0.005*"ensure" + 0.005*"good" + 0.004*"plans" + 0.004*"2022"', '0.010*"’" + 0.008*"Rotherham" + 0.006*"good" + 0.005*"needs" + 0.004*"plans" + 0.004*"However" + 0.004*"ensure" + 0.004*"1" + 0.004*"progress" + 0.004*"well"']</t>
   </si>
   <si>
     <t>80544</t>
@@ -3676,7 +3676,7 @@
     <t>0.222</t>
   </si>
   <si>
-    <t>['0.012*"well" + 0.008*"’" + 0.007*"highly" + 0.006*"strong" + 0.006*"practice" + 0.004*"high" + 0.004*"leaders" + 0.004*"needs" + 0.004*"effective" + 0.004*"range"', '0.015*"well" + 0.014*"practice" + 0.014*"’" + 0.008*"highly" + 0.006*"strong" + 0.006*"needs" + 0.006*"leaders" + 0.005*"effective" + 0.005*"professionals" + 0.004*"improve"', '0.013*"well" + 0.011*"’" + 0.009*"practice" + 0.007*"highly" + 0.006*"strong" + 0.006*"effective" + 0.006*"needs" + 0.005*"high" + 0.005*"progress" + 0.004*"range"']</t>
+    <t>['0.012*"well" + 0.011*"practice" + 0.010*"’" + 0.007*"highly" + 0.006*"strong" + 0.005*"leaders" + 0.005*"needs" + 0.004*"professionals" + 0.004*"effective" + 0.004*"high"', '0.012*"well" + 0.010*"practice" + 0.009*"’" + 0.007*"highly" + 0.005*"needs" + 0.005*"strong" + 0.004*"effective" + 0.004*"range" + 0.003*"professionals" + 0.003*"excellent"', '0.016*"well" + 0.014*"’" + 0.011*"practice" + 0.007*"highly" + 0.007*"strong" + 0.006*"effective" + 0.006*"needs" + 0.005*"leaders" + 0.005*"progress" + 0.005*"high"']</t>
   </si>
   <si>
     <t>80545</t>
@@ -3706,7 +3706,7 @@
     <t>0.2108</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"good" + 0.005*"clear" + 0.005*"effective" + 0.005*"supported" + 0.005*"need" + 0.005*"risk"', '0.013*"’" + 0.010*"well" + 0.007*"plans" + 0.006*"needs" + 0.004*"parents" + 0.004*"focus" + 0.004*"need" + 0.004*"good" + 0.004*"effective" + 0.004*"range"', '0.013*"’" + 0.010*"plans" + 0.008*"well" + 0.006*"needs" + 0.005*"good" + 0.004*"practice" + 0.004*"effective" + 0.004*"Kingston" + 0.004*"need" + 0.004*"clear"']</t>
+    <t>['0.014*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"well" + 0.006*"good" + 0.005*"need" + 0.004*"practice" + 0.004*"information" + 0.004*"clear" + 0.004*"supported"', '0.012*"’" + 0.009*"well" + 0.008*"plans" + 0.007*"needs" + 0.004*"effective" + 0.004*"good" + 0.004*"practice" + 0.004*"clear" + 0.004*"need" + 0.004*"supported"', '0.014*"’" + 0.010*"well" + 0.009*"plans" + 0.007*"needs" + 0.005*"parents" + 0.005*"effective" + 0.005*"good" + 0.004*"clear" + 0.004*"need" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80546</t>
@@ -3736,7 +3736,7 @@
     <t>24/02/20</t>
   </si>
   <si>
-    <t>['0.007*"’" + 0.005*"quality" + 0.004*"well" + 0.004*"plans" + 0.004*"information" + 0.004*"needs" + 0.004*"effective" + 0.003*"early" + 0.003*"need" + 0.003*"actions"', '0.010*"’" + 0.006*"well" + 0.005*"needs" + 0.004*"plans" + 0.004*"quality" + 0.004*"early" + 0.004*"management" + 0.003*"good" + 0.003*"use" + 0.003*"actions"', '0.016*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"benefit" + 0.005*"quality" + 0.005*"plans" + 0.005*"information" + 0.004*"use" + 0.004*"effective" + 0.004*"health"']</t>
+    <t>['0.014*"’" + 0.005*"plans" + 0.005*"well" + 0.004*"always" + 0.004*"needs" + 0.004*"quality" + 0.004*"case" + 0.004*"actions" + 0.004*"use" + 0.004*"benefit"', '0.011*"’" + 0.005*"well" + 0.005*"quality" + 0.005*"needs" + 0.005*"use" + 0.004*"information" + 0.004*"effective" + 0.004*"benefit" + 0.004*"health" + 0.004*"need"', '0.010*"’" + 0.006*"well" + 0.005*"quality" + 0.005*"needs" + 0.005*"plans" + 0.004*"effective" + 0.004*"information" + 0.004*"good" + 0.004*"However" + 0.004*"benefit"']</t>
   </si>
   <si>
     <t>80547</t>
@@ -3760,7 +3760,7 @@
     <t>0.1818</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"well" + 0.009*"needs" + 0.008*"need" + 0.006*"team" + 0.006*"protection" + 0.006*"practice" + 0.006*"good" + 0.006*"plans" + 0.006*"ensure"', '0.008*"well" + 0.007*"’" + 0.007*"good" + 0.006*"needs" + 0.005*"need" + 0.005*"practice" + 0.005*"plans" + 0.004*"effective" + 0.004*"However" + 0.004*"ensure"', '0.012*"’" + 0.012*"well" + 0.011*"needs" + 0.009*"good" + 0.008*"team" + 0.006*"practice" + 0.006*"enough" + 0.006*"effective" + 0.006*"ensure" + 0.006*"need"']</t>
+    <t>['0.012*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"good" + 0.006*"practice" + 0.006*"effective" + 0.005*"protection" + 0.005*"need" + 0.005*"team" + 0.005*"ensure"', '0.011*"needs" + 0.011*"well" + 0.009*"’" + 0.008*"team" + 0.007*"good" + 0.006*"ensure" + 0.006*"need" + 0.006*"practice" + 0.005*"enough" + 0.005*"plans"', '0.015*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"need" + 0.008*"good" + 0.007*"practice" + 0.006*"plans" + 0.006*"team" + 0.006*"effective" + 0.006*"enough"']</t>
   </si>
   <si>
     <t>80548</t>
@@ -3787,7 +3787,7 @@
     <t>0.2045</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.007*"Salford" + 0.006*"effective" + 0.006*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"planning" + 0.005*"leaders" + 0.005*"6"', '0.013*"’" + 0.009*"plans" + 0.008*"well" + 0.005*"needs" + 0.005*"effective" + 0.005*"planning" + 0.005*"Salford" + 0.005*"strong" + 0.005*"10" + 0.005*"City"', '0.011*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"well" + 0.007*"effective" + 0.006*"practice" + 0.006*"Salford" + 0.005*"experiences" + 0.005*"quality" + 0.004*"progress"']</t>
+    <t>['0.014*"’" + 0.008*"effective" + 0.008*"plans" + 0.008*"needs" + 0.007*"well" + 0.007*"Salford" + 0.005*"6" + 0.005*"leaders" + 0.005*"practice" + 0.005*"quality"', '0.013*"’" + 0.008*"well" + 0.007*"plans" + 0.007*"needs" + 0.006*"effective" + 0.005*"practice" + 0.005*"Salford" + 0.005*"planning" + 0.005*"10" + 0.004*"progress"', '0.012*"’" + 0.008*"plans" + 0.007*"needs" + 0.005*"well" + 0.005*"planning" + 0.005*"effective" + 0.005*"leaders" + 0.005*"Salford" + 0.004*"progress" + 0.004*"experiences"']</t>
   </si>
   <si>
     <t>80549</t>
@@ -3811,7 +3811,7 @@
     <t>0.1681</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"plans" + 0.007*"well" + 0.007*"needs" + 0.007*"quality" + 0.007*"Sandwell" + 0.005*"Trust" + 0.004*"progress" + 0.004*"20" + 0.004*"supported"', '0.011*"’" + 0.007*"needs" + 0.006*"Sandwell" + 0.006*"plans" + 0.005*"education" + 0.005*"well" + 0.005*"number" + 0.004*"quality" + 0.004*"training" + 0.004*"20"', '0.014*"’" + 0.009*"needs" + 0.008*"Sandwell" + 0.007*"well" + 0.006*"plans" + 0.006*"9" + 0.005*"effective" + 0.005*"changes" + 0.005*"Trust" + 0.005*"quality"']</t>
+    <t>['0.015*"’" + 0.009*"needs" + 0.008*"plans" + 0.007*"Sandwell" + 0.007*"well" + 0.005*"quality" + 0.005*"number" + 0.005*"changes" + 0.005*"progress" + 0.005*"20"', '0.014*"’" + 0.006*"Sandwell" + 0.006*"plans" + 0.005*"needs" + 0.005*"well" + 0.005*"Trust" + 0.005*"9" + 0.004*"training" + 0.004*"20" + 0.004*"education"', '0.014*"’" + 0.008*"needs" + 0.008*"Sandwell" + 0.007*"well" + 0.007*"quality" + 0.007*"plans" + 0.005*"Trust" + 0.005*"education" + 0.004*"progress" + 0.004*"many"']</t>
   </si>
   <si>
     <t>80550</t>
@@ -3835,7 +3835,7 @@
     <t>0.1106</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"needs" + 0.006*"practice" + 0.005*"including" + 0.005*"21" + 0.005*"protection" + 0.005*"◼" + 0.005*"lack" + 0.004*"timely" + 0.004*"plans"', '0.015*"’" + 0.010*"needs" + 0.006*"practice" + 0.005*"protection" + 0.005*"many" + 0.005*"◼" + 0.004*"oversight" + 0.004*"Sefton" + 0.004*"response" + 0.004*"2022"', '0.019*"’" + 0.009*"needs" + 0.007*"oversight" + 0.006*"practice" + 0.005*"need" + 0.005*"lack" + 0.005*"management" + 0.005*"including" + 0.005*"always" + 0.005*"many"']</t>
+    <t>['0.019*"’" + 0.011*"needs" + 0.006*"including" + 0.006*"practice" + 0.006*"lack" + 0.005*"oversight" + 0.005*"protection" + 0.005*"many" + 0.005*"◼" + 0.005*"timely"', '0.013*"’" + 0.010*"needs" + 0.006*"practice" + 0.006*"oversight" + 0.005*"always" + 0.005*"protection" + 0.005*"lack" + 0.004*"timely" + 0.004*"management" + 0.004*"4"', '0.013*"’" + 0.007*"needs" + 0.006*"practice" + 0.005*"oversight" + 0.004*"plans" + 0.004*"management" + 0.004*"many" + 0.004*"21" + 0.004*"◼" + 0.004*"response"']</t>
   </si>
   <si>
     <t>80551</t>
@@ -3868,7 +3868,7 @@
     <t>0.2097</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.013*"Sheffield" + 0.010*"needs" + 0.008*"well" + 0.005*"health" + 0.005*"practice" + 0.005*"leaders" + 0.005*"22" + 0.004*"effective" + 0.004*"ensure"', '0.023*"’" + 0.010*"Sheffield" + 0.007*"needs" + 0.005*"well" + 0.005*"leaders" + 0.005*"practice" + 0.005*"adviser" + 0.004*"plans" + 0.004*"health" + 0.004*"ensure"', '0.020*"’" + 0.010*"Sheffield" + 0.009*"needs" + 0.007*"well" + 0.006*"leaders" + 0.006*"practice" + 0.006*"quality" + 0.006*"health" + 0.005*"good" + 0.005*"mental"']</t>
+    <t>['0.016*"’" + 0.009*"Sheffield" + 0.009*"needs" + 0.006*"well" + 0.005*"practice" + 0.004*"experiences" + 0.004*"leaders" + 0.004*"health" + 0.004*"plans" + 0.004*"good"', '0.017*"’" + 0.012*"Sheffield" + 0.007*"leaders" + 0.006*"needs" + 0.005*"health" + 0.005*"well" + 0.005*"11" + 0.005*"practice" + 0.004*"quality" + 0.004*"September"', '0.025*"’" + 0.011*"Sheffield" + 0.010*"needs" + 0.008*"well" + 0.006*"practice" + 0.006*"health" + 0.005*"leaders" + 0.005*"ensure" + 0.005*"quality" + 0.005*"experiences"']</t>
   </si>
   <si>
     <t>80552</t>
@@ -3898,7 +3898,7 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.007*"Shropshire" + 0.007*"well" + 0.005*"making" + 0.005*"plans" + 0.005*"progress" + 0.004*"2022" + 0.004*"training" + 0.004*"need"', '0.016*"’" + 0.006*"progress" + 0.006*"well" + 0.006*"needs" + 0.006*"plans" + 0.006*"Shropshire" + 0.005*"7" + 0.005*"leaders" + 0.005*"2022" + 0.005*"making"', '0.019*"’" + 0.009*"needs" + 0.007*"Shropshire" + 0.007*"well" + 0.006*"progress" + 0.005*"2022" + 0.005*"7" + 0.005*"training" + 0.005*"practice" + 0.005*"11"']</t>
+    <t>['0.015*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"Shropshire" + 0.006*"plans" + 0.005*"effective" + 0.005*"progress" + 0.005*"11" + 0.004*"7" + 0.004*"2022"', '0.022*"’" + 0.010*"needs" + 0.007*"Shropshire" + 0.006*"progress" + 0.006*"well" + 0.006*"2022" + 0.006*"making" + 0.005*"plans" + 0.005*"7" + 0.005*"leaders"', '0.013*"’" + 0.007*"well" + 0.006*"needs" + 0.006*"progress" + 0.005*"Shropshire" + 0.004*"making" + 0.004*"plans" + 0.004*"2022" + 0.004*"7" + 0.004*"February"']</t>
   </si>
   <si>
     <t>80553</t>
@@ -3922,7 +3922,7 @@
     <t>0.1618</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"Slough" + 0.007*"plans" + 0.006*"quality" + 0.006*"practice" + 0.005*"senior" + 0.005*"need" + 0.004*"3" + 0.004*"needs" + 0.004*"impact"', '0.019*"’" + 0.008*"Slough" + 0.007*"needs" + 0.006*"quality" + 0.006*"plans" + 0.005*"supported" + 0.005*"3" + 0.005*"impact" + 0.005*"practice" + 0.005*"leaders"', '0.015*"’" + 0.008*"Slough" + 0.007*"needs" + 0.006*"practice" + 0.006*"quality" + 0.006*"plans" + 0.005*"leaders" + 0.005*"impact" + 0.005*"23" + 0.005*"However"']</t>
+    <t>['0.011*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"Slough" + 0.005*"3" + 0.004*"quality" + 0.004*"impact" + 0.004*"senior" + 0.004*"supported" + 0.004*"need"', '0.013*"’" + 0.007*"Slough" + 0.006*"plans" + 0.006*"practice" + 0.006*"quality" + 0.005*"However" + 0.005*"needs" + 0.005*"need" + 0.005*"supported" + 0.005*"leaders"', '0.021*"’" + 0.009*"Slough" + 0.007*"quality" + 0.006*"practice" + 0.006*"needs" + 0.006*"3" + 0.006*"plans" + 0.005*"impact" + 0.005*"leaders" + 0.005*"PAs"']</t>
   </si>
   <si>
     <t>80554</t>
@@ -3946,7 +3946,7 @@
     <t>0.1175</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.013*"lack" + 0.010*"2022" + 0.006*"need" + 0.006*"risk" + 0.005*"Solihull" + 0.005*"significant" + 0.005*"experiences" + 0.005*"practice" + 0.005*"quality"', '0.012*"’" + 0.009*"lack" + 0.006*"need" + 0.006*"Solihull" + 0.005*"risk" + 0.005*"2022" + 0.005*"practice" + 0.005*"quality" + 0.005*"significant" + 0.004*"effective"', '0.016*"’" + 0.009*"lack" + 0.009*"2022" + 0.007*"Solihull" + 0.007*"need" + 0.006*"quality" + 0.006*"risk" + 0.005*"practice" + 0.005*"experiences" + 0.005*"effective"']</t>
+    <t>['0.013*"’" + 0.013*"lack" + 0.007*"2022" + 0.006*"risk" + 0.006*"need" + 0.006*"Solihull" + 0.005*"quality" + 0.005*"means" + 0.005*"significant" + 0.005*"oversight"', '0.013*"’" + 0.010*"lack" + 0.007*"2022" + 0.006*"Solihull" + 0.006*"need" + 0.005*"experiences" + 0.005*"quality" + 0.005*"risk" + 0.005*"significant" + 0.005*"practice"', '0.018*"’" + 0.010*"2022" + 0.009*"lack" + 0.006*"Solihull" + 0.006*"need" + 0.006*"practice" + 0.006*"risk" + 0.006*"quality" + 0.005*"experiences" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80555</t>
@@ -3970,7 +3970,7 @@
     <t>0.198</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"needs" + 0.006*"Somerset" + 0.006*"plans" + 0.005*"well" + 0.005*"good" + 0.004*"family" + 0.004*"number" + 0.004*"progress" + 0.004*"including"', '0.016*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"Somerset" + 0.006*"plans" + 0.005*"progress" + 0.005*"supported" + 0.005*"including" + 0.005*"number" + 0.005*"18"', '0.020*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"good" + 0.006*"Somerset" + 0.006*"plans" + 0.006*"leaders" + 0.006*"supported" + 0.006*"need" + 0.006*"practice"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.009*"needs" + 0.007*"plans" + 0.007*"Somerset" + 0.006*"good" + 0.006*"leaders" + 0.006*"supported" + 0.005*"number" + 0.005*"progress"', '0.020*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"Somerset" + 0.006*"good" + 0.006*"plans" + 0.005*"practice" + 0.005*"supported" + 0.005*"family" + 0.005*"positive"', '0.012*"’" + 0.006*"needs" + 0.006*"well" + 0.006*"including" + 0.005*"Somerset" + 0.005*"leaders" + 0.005*"need" + 0.005*"understand" + 0.004*"progress" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80556</t>
@@ -3994,7 +3994,7 @@
     <t>0.1515</t>
   </si>
   <si>
-    <t>['0.013*"well" + 0.011*"’" + 0.010*"quality" + 0.009*"plans" + 0.008*"leaders" + 0.007*"timely" + 0.007*"good" + 0.006*"needs" + 0.006*"always" + 0.005*"progress"', '0.009*"well" + 0.009*"leaders" + 0.008*"quality" + 0.008*"’" + 0.007*"good" + 0.006*"plans" + 0.006*"needs" + 0.005*"progress" + 0.005*"timely" + 0.004*"Senior"', '0.012*"quality" + 0.008*"well" + 0.007*"leaders" + 0.007*"’" + 0.006*"good" + 0.006*"plans" + 0.005*"practice" + 0.005*"progress" + 0.005*"timely" + 0.004*"Senior"']</t>
+    <t>['0.013*"well" + 0.012*"quality" + 0.010*"leaders" + 0.007*"good" + 0.006*"timely" + 0.006*"’" + 0.006*"needs" + 0.006*"plans" + 0.006*"practice" + 0.005*"timeliness"', '0.011*"’" + 0.010*"plans" + 0.008*"quality" + 0.008*"leaders" + 0.007*"progress" + 0.007*"well" + 0.007*"good" + 0.006*"timely" + 0.005*"needs" + 0.005*"always"', '0.011*"well" + 0.011*"quality" + 0.009*"’" + 0.007*"plans" + 0.006*"leaders" + 0.006*"good" + 0.005*"needs" + 0.004*"timely" + 0.004*"always" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80557</t>
@@ -4027,7 +4027,7 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>['0.030*"’" + 0.009*"needs" + 0.008*"South" + 0.008*"Tyneside" + 0.006*"However" + 0.006*"oversight" + 0.005*"carers" + 0.005*"9" + 0.005*"5" + 0.005*"effective"', '0.022*"’" + 0.011*"needs" + 0.007*"Tyneside" + 0.007*"South" + 0.006*"management" + 0.005*"December" + 0.005*"effective" + 0.005*"14" + 0.005*"However" + 0.005*"oversight"', '0.016*"’" + 0.007*"needs" + 0.006*"South" + 0.006*"Tyneside" + 0.005*"oversight" + 0.004*"carers" + 0.004*"9" + 0.004*"management" + 0.004*"practice" + 0.004*"effective"']</t>
+    <t>['0.023*"’" + 0.009*"needs" + 0.007*"South" + 0.007*"Tyneside" + 0.005*"oversight" + 0.005*"5" + 0.005*"carers" + 0.004*"management" + 0.004*"2023" + 0.004*"9"', '0.024*"’" + 0.009*"needs" + 0.008*"Tyneside" + 0.008*"South" + 0.005*"effective" + 0.005*"oversight" + 0.005*"9" + 0.005*"2022" + 0.005*"practice" + 0.005*"carers"', '0.025*"’" + 0.009*"needs" + 0.007*"South" + 0.006*"Tyneside" + 0.006*"However" + 0.006*"management" + 0.005*"carers" + 0.005*"effective" + 0.004*"progress" + 0.004*"5"']</t>
   </si>
   <si>
     <t>80558</t>
@@ -4057,7 +4057,7 @@
     <t>28/07/23</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"plans" + 0.005*"improve" + 0.005*"progress" + 0.005*"Southampton" + 0.004*"including" + 0.004*"needs" + 0.004*"5" + 0.004*"16" + 0.004*"well"', '0.016*"’" + 0.006*"plans" + 0.005*"Southampton" + 0.005*"improve" + 0.005*"experiences" + 0.004*"progress" + 0.004*"well" + 0.004*"5" + 0.004*"including" + 0.004*"timely"', '0.020*"’" + 0.006*"Southampton" + 0.006*"plans" + 0.005*"provide" + 0.005*"16" + 0.005*"needs" + 0.005*"5" + 0.004*"including" + 0.004*"progress" + 0.004*"June"']</t>
+    <t>['0.014*"’" + 0.006*"Southampton" + 0.006*"plans" + 0.005*"improve" + 0.005*"needs" + 0.005*"5" + 0.004*"timely" + 0.004*"including" + 0.004*"experiences" + 0.004*"progress"', '0.020*"’" + 0.006*"plans" + 0.006*"Southampton" + 0.005*"progress" + 0.005*"improve" + 0.005*"needs" + 0.004*"make" + 0.004*"5" + 0.004*"experiences" + 0.004*"provide"', '0.012*"’" + 0.005*"plans" + 0.005*"including" + 0.004*"16" + 0.004*"progress" + 0.004*"Southampton" + 0.004*"5" + 0.004*"well" + 0.004*"good" + 0.003*"improve"']</t>
   </si>
   <si>
     <t>80559</t>
@@ -4093,7 +4093,7 @@
     <t>0.1484</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"planning" + 0.009*"practice" + 0.007*"leaders" + 0.007*"protection" + 0.006*"quality" + 0.005*"effective" + 0.005*"number" + 0.005*"within" + 0.005*"good"', '0.012*"’" + 0.006*"always" + 0.006*"quality" + 0.005*"number" + 0.005*"practice" + 0.005*"planning" + 0.005*"need" + 0.005*"effective" + 0.005*"leaders" + 0.004*"carers"', '0.012*"’" + 0.008*"quality" + 0.008*"planning" + 0.006*"within" + 0.005*"practice" + 0.005*"number" + 0.005*"leaders" + 0.005*"plans" + 0.005*"carers" + 0.004*"need"']</t>
+    <t>['0.008*"’" + 0.007*"practice" + 0.006*"quality" + 0.006*"leaders" + 0.006*"within" + 0.006*"planning" + 0.005*"number" + 0.005*"protection" + 0.004*"However" + 0.004*"good"', '0.014*"’" + 0.008*"practice" + 0.007*"planning" + 0.007*"quality" + 0.006*"protection" + 0.006*"leaders" + 0.005*"plans" + 0.005*"always" + 0.005*"needs" + 0.005*"effective"', '0.016*"’" + 0.010*"planning" + 0.006*"quality" + 0.006*"leaders" + 0.006*"number" + 0.006*"practice" + 0.006*"always" + 0.005*"within" + 0.005*"effective" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80560</t>
@@ -4114,7 +4114,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50227184</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Helens" + 0.007*"21" + 0.006*"good" + 0.006*"St" + 0.006*"progress" + 0.006*"10" + 0.005*"receive"', '0.020*"’" + 0.008*"Helens" + 0.007*"needs" + 0.007*"St" + 0.006*"well" + 0.006*"progress" + 0.005*"10" + 0.005*"need" + 0.005*"risk" + 0.005*"receive"', '0.014*"’" + 0.010*"St" + 0.008*"Helens" + 0.007*"needs" + 0.006*"progress" + 0.005*"need" + 0.005*"good" + 0.005*"receive" + 0.005*"well" + 0.005*"21"']</t>
+    <t>['0.021*"’" + 0.008*"Helens" + 0.008*"well" + 0.007*"St" + 0.006*"progress" + 0.006*"needs" + 0.005*"risk" + 0.005*"need" + 0.005*"10" + 0.005*"21"', '0.015*"’" + 0.010*"St" + 0.008*"needs" + 0.008*"Helens" + 0.006*"progress" + 0.006*"well" + 0.006*"21" + 0.006*"need" + 0.006*"receive" + 0.006*"good"', '0.011*"’" + 0.006*"Helens" + 0.006*"needs" + 0.006*"10" + 0.005*"receive" + 0.005*"good" + 0.005*"well" + 0.005*"progress" + 0.005*"St" + 0.004*"21"']</t>
   </si>
   <si>
     <t>80561</t>
@@ -4138,7 +4138,7 @@
     <t>0.1688</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"needs" + 0.007*"quality" + 0.006*"Staffordshire" + 0.006*"practice" + 0.005*"progress" + 0.005*"health" + 0.005*"oversight" + 0.005*"well" + 0.004*"plans"', '0.020*"’" + 0.014*"needs" + 0.007*"ensure" + 0.006*"practice" + 0.006*"progress" + 0.006*"health" + 0.006*"oversight" + 0.005*"quality" + 0.005*"Staffordshire" + 0.005*"10"', '0.019*"’" + 0.010*"needs" + 0.006*"oversight" + 0.006*"quality" + 0.006*"plans" + 0.005*"Staffordshire" + 0.005*"progress" + 0.005*"health" + 0.005*"ensure" + 0.005*"6"']</t>
+    <t>['0.019*"’" + 0.013*"needs" + 0.006*"progress" + 0.006*"quality" + 0.006*"practice" + 0.006*"oversight" + 0.005*"ensure" + 0.005*"plans" + 0.005*"health" + 0.005*"6"', '0.018*"’" + 0.013*"needs" + 0.007*"quality" + 0.007*"Staffordshire" + 0.006*"health" + 0.006*"ensure" + 0.006*"practice" + 0.006*"oversight" + 0.005*"progress" + 0.005*"10"', '0.013*"’" + 0.006*"needs" + 0.006*"progress" + 0.005*"Staffordshire" + 0.005*"oversight" + 0.004*"quality" + 0.004*"health" + 0.004*"plans" + 0.004*"practice" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80562</t>
@@ -4165,7 +4165,7 @@
     <t>18/05/22</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.009*"well" + 0.007*"practice" + 0.006*"needs" + 0.006*"Stockport" + 0.006*"plans" + 0.005*"strong" + 0.005*"ensure" + 0.005*"risk" + 0.004*"1"', '0.010*"’" + 0.007*"well" + 0.006*"practice" + 0.006*"Stockport" + 0.006*"strong" + 0.005*"needs" + 0.005*"plans" + 0.005*"quality" + 0.005*"28" + 0.004*"risk"', '0.012*"’" + 0.008*"well" + 0.008*"practice" + 0.007*"Stockport" + 0.006*"needs" + 0.005*"risk" + 0.005*"strong" + 0.005*"quality" + 0.005*"plans" + 0.004*"April"']</t>
+    <t>['0.011*"’" + 0.008*"practice" + 0.007*"well" + 0.006*"Stockport" + 0.006*"strong" + 0.006*"needs" + 0.005*"plans" + 0.005*"risk" + 0.005*"28" + 0.004*"ensure"', '0.011*"’" + 0.009*"well" + 0.007*"Stockport" + 0.006*"practice" + 0.006*"needs" + 0.005*"plans" + 0.005*"leaders" + 0.005*"risk" + 0.005*"quality" + 0.005*"strong"', '0.011*"’" + 0.008*"well" + 0.007*"practice" + 0.006*"Stockport" + 0.006*"needs" + 0.005*"strong" + 0.005*"ensure" + 0.005*"risk" + 0.004*"plans" + 0.004*"range"']</t>
   </si>
   <si>
     <t>80563</t>
@@ -4201,7 +4201,7 @@
     <t>0.1633</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"plans" + 0.007*"leaders" + 0.007*"Stockton" + 0.006*"well" + 0.006*"needs" + 0.006*"on-Tees" + 0.005*"good" + 0.005*"quality" + 0.005*"senior"', '0.015*"’" + 0.009*"leaders" + 0.008*"plans" + 0.007*"quality" + 0.007*"good" + 0.006*"needs" + 0.006*"well" + 0.005*"on-Tees" + 0.005*"Stockton" + 0.004*"receive"', '0.024*"’" + 0.010*"leaders" + 0.008*"plans" + 0.006*"needs" + 0.006*"well" + 0.006*"on-Tees" + 0.006*"Stockton" + 0.006*"senior" + 0.005*"quality" + 0.005*"6"']</t>
+    <t>['0.020*"’" + 0.009*"leaders" + 0.008*"plans" + 0.007*"needs" + 0.006*"well" + 0.006*"Stockton" + 0.006*"quality" + 0.005*"senior" + 0.005*"6" + 0.005*"good"', '0.015*"’" + 0.007*"well" + 0.007*"plans" + 0.007*"leaders" + 0.006*"good" + 0.006*"quality" + 0.006*"Stockton" + 0.006*"on-Tees" + 0.005*"needs" + 0.004*"17"', '0.022*"’" + 0.010*"plans" + 0.009*"leaders" + 0.007*"needs" + 0.007*"on-Tees" + 0.006*"well" + 0.006*"quality" + 0.005*"good" + 0.005*"senior" + 0.005*"Stockton"']</t>
   </si>
   <si>
     <t>80564</t>
@@ -4225,7 +4225,7 @@
     <t>0.172</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"needs" + 0.007*"on-Trent" + 0.007*"plans" + 0.007*"ensure" + 0.007*"well" + 0.006*"Stoke" + 0.006*"However" + 0.005*"protection" + 0.005*"progress"', '0.016*"’" + 0.007*"needs" + 0.007*"Stoke" + 0.006*"However" + 0.006*"plans" + 0.006*"well" + 0.006*"on-Trent" + 0.005*"protection" + 0.005*"number" + 0.005*"quality"', '0.015*"’" + 0.010*"needs" + 0.007*"well" + 0.007*"Stoke" + 0.007*"However" + 0.007*"on-Trent" + 0.006*"protection" + 0.006*"plans" + 0.006*"ensure" + 0.006*"quality"']</t>
+    <t>['0.016*"’" + 0.006*"ensure" + 0.006*"well" + 0.006*"needs" + 0.006*"protection" + 0.006*"However" + 0.005*"on-Trent" + 0.005*"need" + 0.005*"plans" + 0.005*"Stoke"', '0.016*"’" + 0.010*"needs" + 0.008*"Stoke" + 0.007*"on-Trent" + 0.006*"well" + 0.006*"However" + 0.006*"quality" + 0.005*"progress" + 0.005*"plans" + 0.005*"ensure"', '0.019*"’" + 0.008*"plans" + 0.008*"needs" + 0.008*"well" + 0.007*"on-Trent" + 0.007*"Stoke" + 0.007*"However" + 0.006*"protection" + 0.005*"3" + 0.005*"ensure"']</t>
   </si>
   <si>
     <t>80565</t>
@@ -4255,7 +4255,7 @@
     <t>21/05/19</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"well" + 0.006*"progress" + 0.006*"effective" + 0.005*"ensure" + 0.005*"good" + 0.005*"leaders" + 0.005*"need" + 0.004*"practice" + 0.004*"Suffolk"', '0.009*"’" + 0.006*"progress" + 0.006*"well" + 0.005*"leaders" + 0.005*"effective" + 0.005*"good" + 0.004*"high" + 0.004*"ensure" + 0.004*"Suffolk" + 0.004*"needs"', '0.015*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"needs" + 0.004*"good" + 0.004*"carers" + 0.004*"leaders" + 0.004*"practice" + 0.004*"effective" + 0.004*"ensure"']</t>
+    <t>['0.015*"’" + 0.008*"well" + 0.006*"progress" + 0.006*"effective" + 0.005*"leaders" + 0.004*"ensure" + 0.004*"practice" + 0.004*"need" + 0.004*"carers" + 0.004*"needs"', '0.014*"’" + 0.006*"well" + 0.005*"good" + 0.005*"progress" + 0.004*"effective" + 0.004*"ensure" + 0.004*"needs" + 0.004*"practice" + 0.004*"leaders" + 0.004*"need"', '0.011*"’" + 0.008*"progress" + 0.005*"well" + 0.005*"good" + 0.005*"effective" + 0.005*"leaders" + 0.004*"ensure" + 0.004*"high" + 0.004*"new" + 0.004*"practice"']</t>
   </si>
   <si>
     <t>80566</t>
@@ -4288,7 +4288,7 @@
     <t>0.2141</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"needs" + 0.007*"quality" + 0.007*"well" + 0.006*"Sunderland" + 0.005*"practice" + 0.005*"TfC" + 0.005*"good" + 0.005*"experienced" + 0.005*"council"', '0.011*"’" + 0.007*"well" + 0.007*"quality" + 0.006*"needs" + 0.005*"experienced" + 0.005*"Sunderland" + 0.004*"council" + 0.004*"risk" + 0.004*"result" + 0.004*"good"', '0.016*"’" + 0.007*"well" + 0.006*"quality" + 0.006*"Sunderland" + 0.005*"needs" + 0.005*"parents" + 0.004*"experienced" + 0.004*"practice" + 0.004*"protection" + 0.004*"robust"']</t>
+    <t>['0.016*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"good" + 0.006*"quality" + 0.006*"Sunderland" + 0.005*"experienced" + 0.005*"practice" + 0.004*"training" + 0.004*"high"', '0.016*"’" + 0.008*"quality" + 0.007*"well" + 0.005*"needs" + 0.005*"experienced" + 0.005*"Sunderland" + 0.005*"robust" + 0.005*"council" + 0.004*"parents" + 0.004*"TfC"', '0.016*"’" + 0.008*"well" + 0.006*"Sunderland" + 0.006*"needs" + 0.006*"quality" + 0.005*"protection" + 0.005*"practice" + 0.005*"need" + 0.004*"experienced" + 0.004*"parents"']</t>
   </si>
   <si>
     <t>80567</t>
@@ -4318,7 +4318,7 @@
     <t>0.1782</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"needs" + 0.008*"well" + 0.006*"progress" + 0.006*"good" + 0.005*"practice" + 0.005*"17" + 0.005*"quality" + 0.004*"number" + 0.004*"However"', '0.013*"’" + 0.011*"well" + 0.009*"practice" + 0.009*"needs" + 0.006*"progress" + 0.006*"carers" + 0.006*"plans" + 0.006*"effective" + 0.005*"However" + 0.005*"ensure"', '0.012*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"progress" + 0.006*"practice" + 0.005*"plans" + 0.005*"quality" + 0.005*"17" + 0.004*"effective" + 0.004*"Surrey"']</t>
+    <t>['0.016*"’" + 0.008*"needs" + 0.008*"well" + 0.008*"practice" + 0.008*"progress" + 0.006*"plans" + 0.005*"carers" + 0.005*"effective" + 0.005*"good" + 0.005*"Surrey"', '0.013*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"practice" + 0.006*"progress" + 0.006*"quality" + 0.005*"good" + 0.005*"effective" + 0.005*"17" + 0.005*"However"', '0.011*"’" + 0.010*"well" + 0.010*"needs" + 0.006*"practice" + 0.005*"carers" + 0.005*"progress" + 0.005*"17" + 0.005*"plans" + 0.005*"However" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80568</t>
@@ -4342,7 +4342,7 @@
     <t>0.1489</t>
   </si>
   <si>
-    <t>['0.024*"’" + 0.013*"needs" + 0.011*"Swindon" + 0.010*"need" + 0.007*"well" + 0.007*"plans" + 0.006*"impact" + 0.006*"always" + 0.006*"health" + 0.005*"many"', '0.021*"’" + 0.013*"needs" + 0.008*"well" + 0.008*"Swindon" + 0.007*"need" + 0.007*"plans" + 0.006*"always" + 0.006*"effective" + 0.005*"education" + 0.005*"17"', '0.019*"’" + 0.013*"needs" + 0.008*"well" + 0.007*"need" + 0.007*"always" + 0.006*"Swindon" + 0.005*"plans" + 0.005*"health" + 0.005*"28" + 0.005*"impact"']</t>
+    <t>['0.023*"’" + 0.014*"needs" + 0.011*"Swindon" + 0.010*"need" + 0.009*"well" + 0.007*"plans" + 0.006*"Council" + 0.006*"health" + 0.006*"home" + 0.006*"impact"', '0.024*"’" + 0.014*"needs" + 0.009*"well" + 0.008*"need" + 0.008*"always" + 0.006*"plans" + 0.006*"Swindon" + 0.005*"many" + 0.005*"effective" + 0.005*"Borough"', '0.017*"’" + 0.010*"needs" + 0.009*"Swindon" + 0.006*"well" + 0.006*"always" + 0.006*"need" + 0.005*"impact" + 0.005*"plans" + 0.005*"effective" + 0.004*"17"']</t>
   </si>
   <si>
     <t>80569</t>
@@ -4369,7 +4369,7 @@
     <t>0.1495</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.006*"risk" + 0.006*"impact" + 0.006*"response" + 0.005*"experienced" + 0.005*"quality" + 0.005*"practice" + 0.005*"15" + 0.005*"experiences"', '0.017*"’" + 0.009*"needs" + 0.007*"risk" + 0.007*"quality" + 0.006*"impact" + 0.006*"experienced" + 0.005*"2023" + 0.005*"4" + 0.005*"practice" + 0.005*"plans"', '0.015*"’" + 0.009*"needs" + 0.005*"impact" + 0.005*"practice" + 0.005*"4" + 0.005*"2023" + 0.005*"effective" + 0.005*"Tameside" + 0.004*"planning" + 0.004*"many"']</t>
+    <t>['0.013*"’" + 0.007*"needs" + 0.006*"experiences" + 0.005*"risk" + 0.005*"practice" + 0.005*"Tameside" + 0.005*"impact" + 0.005*"protection" + 0.005*"15" + 0.004*"response"', '0.017*"’" + 0.009*"needs" + 0.008*"quality" + 0.005*"experienced" + 0.005*"response" + 0.005*"2023" + 0.005*"impact" + 0.005*"understand" + 0.005*"risk" + 0.005*"protection"', '0.018*"’" + 0.009*"needs" + 0.007*"impact" + 0.007*"risk" + 0.006*"experienced" + 0.006*"4" + 0.005*"practice" + 0.005*"planning" + 0.005*"Tameside" + 0.005*"15"']</t>
   </si>
   <si>
     <t>80570</t>
@@ -4393,7 +4393,7 @@
     <t>0.2186</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.011*"well" + 0.009*"needs" + 0.006*"effective" + 0.006*"practice" + 0.005*"carers" + 0.005*"leaders" + 0.005*"plans" + 0.005*"need" + 0.004*"clear"', '0.017*"’" + 0.011*"well" + 0.007*"needs" + 0.007*"effective" + 0.006*"need" + 0.006*"strong" + 0.005*"plans" + 0.005*"practice" + 0.004*"highly" + 0.004*"ensure"', '0.014*"’" + 0.011*"well" + 0.008*"effective" + 0.007*"ensure" + 0.006*"needs" + 0.006*"plans" + 0.005*"strong" + 0.005*"planning" + 0.005*"improve" + 0.005*"clear"']</t>
+    <t>['0.016*"’" + 0.011*"well" + 0.007*"effective" + 0.006*"need" + 0.006*"strong" + 0.006*"needs" + 0.005*"planning" + 0.005*"practice" + 0.004*"ensure" + 0.004*"benefit"', '0.011*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"ensure" + 0.006*"effective" + 0.005*"plans" + 0.005*"leaders" + 0.005*"practice" + 0.004*"planning" + 0.004*"strong"', '0.020*"’" + 0.013*"well" + 0.008*"needs" + 0.007*"effective" + 0.007*"plans" + 0.006*"improve" + 0.005*"practice" + 0.005*"need" + 0.004*"timely" + 0.004*"strong"']</t>
   </si>
   <si>
     <t>80571</t>
@@ -4417,7 +4417,7 @@
     <t>0.164</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"well" + 0.006*"need" + 0.006*"carers" + 0.004*"needs" + 0.004*"leaders" + 0.004*"effective" + 0.004*"protection" + 0.004*"ensure" + 0.004*"practice"', '0.012*"’" + 0.009*"well" + 0.005*"carers" + 0.004*"ensure" + 0.004*"need" + 0.004*"needs" + 0.004*"Thurrock" + 0.004*"practice" + 0.004*"protection" + 0.004*"effective"', '0.012*"’" + 0.008*"well" + 0.005*"carers" + 0.004*"practice" + 0.004*"needs" + 0.004*"leaders" + 0.004*"need" + 0.004*"ensure" + 0.004*"impact" + 0.003*"effective"']</t>
+    <t>['0.014*"’" + 0.006*"well" + 0.006*"carers" + 0.005*"need" + 0.004*"effective" + 0.004*"leaders" + 0.004*"needs" + 0.004*"vulnerable" + 0.004*"Thurrock" + 0.003*"impact"', '0.008*"’" + 0.006*"well" + 0.004*"carers" + 0.004*"practice" + 0.004*"need" + 0.003*"needs" + 0.003*"ensure" + 0.003*"parents" + 0.003*"protection" + 0.003*"good"', '0.015*"’" + 0.011*"well" + 0.006*"carers" + 0.006*"need" + 0.005*"needs" + 0.005*"ensure" + 0.004*"practice" + 0.004*"leaders" + 0.004*"Thurrock" + 0.004*"effective"']</t>
   </si>
   <si>
     <t>80572</t>
@@ -4441,7 +4441,7 @@
     <t>0.2197</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"well" + 0.006*"Torbay" + 0.006*"good" + 0.005*"team" + 0.005*"needs" + 0.005*"agencies" + 0.005*"2022" + 0.005*"effective" + 0.004*"timely"', '0.016*"’" + 0.007*"well" + 0.006*"Torbay" + 0.005*"good" + 0.005*"needs" + 0.005*"1" + 0.004*"timely" + 0.004*"effective" + 0.004*"21" + 0.004*"progress"', '0.014*"’" + 0.012*"well" + 0.010*"Torbay" + 0.007*"needs" + 0.006*"good" + 0.005*"effective" + 0.004*"progress" + 0.004*"21" + 0.004*"1" + 0.004*"ensure"']</t>
+    <t>['0.021*"’" + 0.010*"well" + 0.009*"Torbay" + 0.006*"needs" + 0.006*"good" + 0.005*"21" + 0.005*"effective" + 0.004*"2022" + 0.004*"April" + 0.004*"team"', '0.015*"’" + 0.009*"well" + 0.007*"good" + 0.007*"needs" + 0.007*"Torbay" + 0.005*"effective" + 0.004*"agencies" + 0.004*"timely" + 0.004*"1" + 0.004*"ensure"', '0.010*"’" + 0.007*"well" + 0.005*"Torbay" + 0.004*"good" + 0.004*"April" + 0.004*"effective" + 0.004*"progress" + 0.004*"needs" + 0.004*"timely" + 0.004*"agencies"']</t>
   </si>
   <si>
     <t>80573</t>
@@ -4465,7 +4465,7 @@
     <t>0.1589</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.011*"needs" + 0.007*"Trafford" + 0.007*"well" + 0.006*"plans" + 0.005*"quality" + 0.004*"team" + 0.004*"practice" + 0.004*"placed" + 0.004*"2"', '0.021*"’" + 0.010*"needs" + 0.009*"Trafford" + 0.008*"well" + 0.007*"quality" + 0.007*"plans" + 0.007*"leaders" + 0.007*"practice" + 0.005*"placed" + 0.005*"ensure"', '0.010*"’" + 0.007*"plans" + 0.006*"needs" + 0.005*"Trafford" + 0.005*"well" + 0.005*"quality" + 0.005*"leaders" + 0.004*"impact" + 0.004*"21" + 0.004*"team"']</t>
+    <t>['0.020*"’" + 0.010*"needs" + 0.009*"Trafford" + 0.008*"well" + 0.007*"plans" + 0.007*"quality" + 0.006*"leaders" + 0.006*"ensure" + 0.005*"2" + 0.005*"impact"', '0.011*"’" + 0.008*"needs" + 0.007*"Trafford" + 0.006*"plans" + 0.005*"leaders" + 0.005*"practice" + 0.005*"well" + 0.005*"placed" + 0.004*"quality" + 0.004*"21"', '0.016*"’" + 0.009*"needs" + 0.007*"plans" + 0.006*"well" + 0.006*"quality" + 0.006*"Trafford" + 0.006*"practice" + 0.006*"team" + 0.005*"placed" + 0.005*"leaders"']</t>
   </si>
   <si>
     <t>80574</t>
@@ -4486,7 +4486,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50172854</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.006*"needs" + 0.006*"leaders" + 0.005*"Walsall" + 0.004*"Senior" + 0.004*"well" + 0.004*"4" + 0.004*"15" + 0.004*"2021" + 0.004*"information"', '0.026*"’" + 0.008*"leaders" + 0.006*"well" + 0.006*"Walsall" + 0.006*"needs" + 0.005*"oversight" + 0.005*"4" + 0.005*"information" + 0.004*"carers" + 0.004*"good"', '0.017*"’" + 0.007*"leaders" + 0.007*"needs" + 0.005*"well" + 0.005*"information" + 0.005*"good" + 0.004*"Walsall" + 0.004*"risks" + 0.004*"Senior" + 0.004*"2021"']</t>
+    <t>['0.019*"’" + 0.007*"Walsall" + 0.005*"needs" + 0.005*"leaders" + 0.004*"4" + 0.004*"well" + 0.004*"positive" + 0.004*"plans" + 0.004*"appropriately" + 0.004*"good"', '0.024*"’" + 0.008*"leaders" + 0.007*"needs" + 0.006*"well" + 0.005*"oversight" + 0.005*"information" + 0.004*"progress" + 0.004*"need" + 0.004*"positive" + 0.004*"October"', '0.020*"’" + 0.008*"leaders" + 0.006*"needs" + 0.006*"well" + 0.006*"Walsall" + 0.006*"Senior" + 0.006*"4" + 0.005*"information" + 0.005*"good" + 0.005*"2021"']</t>
   </si>
   <si>
     <t>80575</t>
@@ -4516,7 +4516,7 @@
     <t>19/08/19</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.008*"well" + 0.006*"practice" + 0.004*"plans" + 0.004*"number" + 0.004*"need" + 0.004*"Senior" + 0.004*"home" + 0.003*"progress" + 0.003*"receive"', '0.013*"’" + 0.007*"practice" + 0.006*"well" + 0.005*"number" + 0.005*"progress" + 0.005*"Senior" + 0.004*"good" + 0.004*"plans" + 0.004*"need" + 0.004*"carers"', '0.011*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"Senior" + 0.004*"information" + 0.004*"good" + 0.004*"carers" + 0.004*"plans" + 0.004*"home" + 0.004*"progress"']</t>
+    <t>['0.013*"’" + 0.007*"well" + 0.007*"practice" + 0.005*"Senior" + 0.005*"number" + 0.004*"need" + 0.004*"plans" + 0.004*"carers" + 0.004*"home" + 0.004*"good"', '0.016*"’" + 0.006*"well" + 0.006*"practice" + 0.004*"plans" + 0.004*"good" + 0.004*"home" + 0.004*"Senior" + 0.004*"progress" + 0.003*"parents" + 0.003*"number"', '0.013*"’" + 0.006*"practice" + 0.005*"well" + 0.005*"progress" + 0.005*"plans" + 0.004*"number" + 0.004*"small" + 0.004*"information" + 0.004*"carers" + 0.004*"provided"']</t>
   </si>
   <si>
     <t>80576</t>
@@ -4546,7 +4546,7 @@
     <t>0.185</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"plans" + 0.006*"needs" + 0.005*"well" + 0.005*"Warwickshire" + 0.004*"effective" + 0.004*"quality" + 0.004*"good" + 0.004*"practice" + 0.004*"progress"', '0.011*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"Warwickshire" + 0.005*"clear" + 0.005*"carers" + 0.004*"information" + 0.004*"3"', '0.013*"’" + 0.007*"well" + 0.007*"Warwickshire" + 0.006*"needs" + 0.006*"good" + 0.005*"plans" + 0.005*"practice" + 0.005*"3" + 0.004*"Senior" + 0.004*"carers"']</t>
+    <t>['0.013*"’" + 0.006*"well" + 0.006*"plans" + 0.005*"needs" + 0.005*"Warwickshire" + 0.005*"practice" + 0.005*"carers" + 0.005*"clear" + 0.005*"progress" + 0.005*"quality"', '0.011*"’" + 0.007*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"Warwickshire" + 0.005*"supported" + 0.005*"carers" + 0.004*"effective" + 0.004*"information" + 0.004*"good"', '0.010*"’" + 0.007*"well" + 0.007*"needs" + 0.006*"Warwickshire" + 0.006*"plans" + 0.005*"practice" + 0.005*"good" + 0.004*"3" + 0.004*"Senior" + 0.004*"clear"']</t>
   </si>
   <si>
     <t>80577</t>
@@ -4576,7 +4576,7 @@
     <t>0.1667</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.005*"Berkshire" + 0.004*"West" + 0.004*"working" + 0.004*"needs" + 0.004*"need" + 0.004*"plans" + 0.004*"early" + 0.003*"2022"', '0.017*"’" + 0.009*"West" + 0.007*"Berkshire" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.004*"agency" + 0.004*"14" + 0.004*"18" + 0.004*"working"', '0.014*"’" + 0.005*"Berkshire" + 0.005*"West" + 0.004*"need" + 0.004*"well" + 0.004*"early" + 0.004*"agency" + 0.004*"practice" + 0.004*"information" + 0.004*"14"']</t>
+    <t>['0.013*"’" + 0.006*"West" + 0.006*"well" + 0.005*"Berkshire" + 0.005*"18" + 0.004*"need" + 0.004*"14" + 0.004*"March" + 0.004*"needs" + 0.004*"working"', '0.016*"’" + 0.007*"West" + 0.007*"well" + 0.006*"Berkshire" + 0.004*"plans" + 0.004*"agency" + 0.004*"progress" + 0.004*"need" + 0.003*"needs" + 0.003*"2022"', '0.014*"’" + 0.007*"Berkshire" + 0.006*"West" + 0.005*"well" + 0.005*"early" + 0.005*"needs" + 0.004*"plans" + 0.004*"working" + 0.004*"need" + 0.004*"March"']</t>
   </si>
   <si>
     <t>2637548</t>
@@ -4600,7 +4600,7 @@
     <t>0.1588</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"Northamptonshire" + 0.007*"well" + 0.006*"West" + 0.005*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"plans" + 0.004*"3" + 0.004*"need"', '0.020*"’" + 0.008*"Northamptonshire" + 0.008*"quality" + 0.006*"West" + 0.005*"well" + 0.005*"NCT" + 0.005*"practice" + 0.005*"October" + 0.005*"14" + 0.004*"needs"', '0.018*"’" + 0.008*"Northamptonshire" + 0.007*"West" + 0.006*"well" + 0.006*"quality" + 0.006*"practice" + 0.005*"NCT" + 0.005*"plans" + 0.005*"needs" + 0.004*"impact"']</t>
+    <t>['0.016*"’" + 0.008*"Northamptonshire" + 0.007*"quality" + 0.006*"well" + 0.005*"West" + 0.005*"needs" + 0.005*"NCT" + 0.005*"practice" + 0.004*"experiences" + 0.004*"plans"', '0.018*"’" + 0.008*"Northamptonshire" + 0.007*"West" + 0.007*"quality" + 0.006*"well" + 0.005*"impact" + 0.005*"practice" + 0.005*"NCT" + 0.004*"needs" + 0.004*"3"', '0.017*"’" + 0.008*"Northamptonshire" + 0.007*"West" + 0.006*"well" + 0.006*"practice" + 0.005*"quality" + 0.005*"needs" + 0.004*"need" + 0.004*"plans" + 0.004*"NCT"']</t>
   </si>
   <si>
     <t>80578</t>
@@ -4624,7 +4624,7 @@
     <t>0.1513</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.005*"well" + 0.005*"needs" + 0.005*"plans" + 0.005*"13" + 0.004*"number" + 0.004*"24" + 0.004*"practice" + 0.004*"supported" + 0.004*"West"', '0.015*"’" + 0.008*"plans" + 0.006*"well" + 0.006*"West" + 0.005*"Sussex" + 0.005*"13" + 0.005*"number" + 0.005*"needs" + 0.005*"clear" + 0.005*"practice"', '0.015*"’" + 0.007*"needs" + 0.006*"well" + 0.005*"Sussex" + 0.005*"quality" + 0.005*"plans" + 0.005*"West" + 0.004*"24" + 0.004*"supported" + 0.004*"health"']</t>
+    <t>['0.011*"’" + 0.006*"plans" + 0.005*"needs" + 0.005*"13" + 0.004*"well" + 0.004*"March" + 0.004*"West" + 0.004*"health" + 0.004*"number" + 0.004*"Sussex"', '0.017*"’" + 0.007*"well" + 0.006*"plans" + 0.006*"needs" + 0.005*"Sussex" + 0.004*"number" + 0.004*"supported" + 0.004*"quality" + 0.004*"13" + 0.004*"March"', '0.013*"’" + 0.007*"well" + 0.006*"West" + 0.006*"plans" + 0.005*"Sussex" + 0.005*"needs" + 0.005*"quality" + 0.005*"practice" + 0.005*"number" + 0.005*"13"']</t>
   </si>
   <si>
     <t>80579</t>
@@ -4645,7 +4645,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50187563</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"practice" + 0.007*"Wigan" + 0.006*"leaders" + 0.006*"quality" + 0.006*"needs" + 0.005*"plans" + 0.005*"May" + 0.005*"appropriate" + 0.004*"well"', '0.010*"’" + 0.007*"plans" + 0.006*"needs" + 0.006*"May" + 0.006*"quality" + 0.005*"practice" + 0.005*"appropriate" + 0.005*"Wigan" + 0.005*"9" + 0.004*"timely"', '0.015*"’" + 0.010*"May" + 0.007*"practice" + 0.006*"plans" + 0.006*"appropriate" + 0.006*"Wigan" + 0.006*"needs" + 0.005*"quality" + 0.005*"timely" + 0.005*"2022"']</t>
+    <t>['0.013*"’" + 0.008*"May" + 0.007*"practice" + 0.006*"needs" + 0.006*"appropriate" + 0.006*"plans" + 0.006*"Wigan" + 0.005*"quality" + 0.005*"leaders" + 0.005*"increased"', '0.013*"’" + 0.007*"May" + 0.007*"plans" + 0.007*"quality" + 0.007*"practice" + 0.006*"Wigan" + 0.006*"needs" + 0.005*"leaders" + 0.005*"timely" + 0.005*"appropriate"', '0.010*"’" + 0.006*"May" + 0.005*"plans" + 0.005*"Wigan" + 0.004*"practice" + 0.004*"needs" + 0.004*"quality" + 0.004*"9" + 0.004*"leaders" + 0.003*"management"']</t>
   </si>
   <si>
     <t>80580</t>
@@ -4678,7 +4678,7 @@
     <t>0.1708</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"well" + 0.007*"risk" + 0.007*"progress" + 0.006*"need" + 0.006*"ensure" + 0.006*"Wiltshire" + 0.006*"plans" + 0.005*"including" + 0.005*"parents"', '0.013*"’" + 0.011*"well" + 0.006*"need" + 0.006*"supported" + 0.006*"including" + 0.006*"needs" + 0.005*"plans" + 0.005*"risk" + 0.005*"family" + 0.005*"parents"', '0.016*"’" + 0.013*"well" + 0.010*"needs" + 0.006*"Wiltshire" + 0.006*"need" + 0.006*"parents" + 0.006*"progress" + 0.005*"including" + 0.005*"supported" + 0.005*"quality"']</t>
+    <t>['0.016*"’" + 0.011*"well" + 0.009*"needs" + 0.007*"quality" + 0.006*"progress" + 0.006*"plans" + 0.005*"need" + 0.005*"including" + 0.005*"ensure" + 0.004*"supported"', '0.014*"’" + 0.011*"well" + 0.008*"need" + 0.007*"parents" + 0.007*"risk" + 0.007*"Wiltshire" + 0.007*"supported" + 0.006*"needs" + 0.006*"progress" + 0.006*"including"', '0.016*"’" + 0.011*"well" + 0.006*"needs" + 0.006*"Wiltshire" + 0.005*"need" + 0.005*"including" + 0.005*"progress" + 0.004*"parents" + 0.004*"ensure" + 0.004*"new"']</t>
   </si>
   <si>
     <t>80581</t>
@@ -4711,7 +4711,7 @@
     <t>0.1655</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"needs" + 0.006*"Wirral" + 0.006*"ensure" + 0.006*"practice" + 0.005*"plans" + 0.005*"number" + 0.005*"18" + 0.004*"well" + 0.004*"small"', '0.009*"’" + 0.009*"needs" + 0.007*"Wirral" + 0.007*"plans" + 0.007*"ensure" + 0.006*"appropriate" + 0.006*"practice" + 0.005*"29" + 0.005*"18" + 0.005*"September"', '0.013*"’" + 0.011*"needs" + 0.008*"ensure" + 0.008*"Wirral" + 0.007*"plans" + 0.007*"well" + 0.006*"practice" + 0.006*"number" + 0.006*"response" + 0.005*"good"']</t>
+    <t>['0.012*"’" + 0.009*"needs" + 0.008*"ensure" + 0.007*"well" + 0.007*"Wirral" + 0.006*"practice" + 0.006*"plans" + 0.006*"number" + 0.005*"response" + 0.005*"18"', '0.008*"’" + 0.008*"needs" + 0.006*"Wirral" + 0.005*"ensure" + 0.005*"plans" + 0.005*"practice" + 0.005*"good" + 0.004*"small" + 0.004*"2023" + 0.004*"appropriate"', '0.011*"’" + 0.010*"needs" + 0.009*"Wirral" + 0.008*"ensure" + 0.007*"plans" + 0.006*"practice" + 0.006*"number" + 0.005*"18" + 0.005*"appropriate" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80582</t>
@@ -4735,7 +4735,7 @@
     <t>0.1777</t>
   </si>
   <si>
-    <t>['0.006*"’" + 0.005*"plans" + 0.005*"needs" + 0.004*"progress" + 0.004*"well" + 0.004*"impact" + 0.004*"appropriate" + 0.004*"17" + 0.004*"provided" + 0.004*"effective"', '0.013*"’" + 0.007*"effective" + 0.007*"plans" + 0.006*"needs" + 0.006*"progress" + 0.005*"17" + 0.005*"parents" + 0.005*"experiences" + 0.005*"protection" + 0.005*"quality"', '0.016*"’" + 0.007*"plans" + 0.007*"provided" + 0.006*"effective" + 0.006*"well" + 0.006*"needs" + 0.006*"Wokingham" + 0.006*"progress" + 0.005*"6" + 0.005*"experiences"']</t>
+    <t>['0.013*"’" + 0.005*"effective" + 0.005*"17" + 0.005*"needs" + 0.005*"quality" + 0.005*"plans" + 0.004*"Wokingham" + 0.004*"well" + 0.004*"March" + 0.004*"good"', '0.011*"’" + 0.008*"plans" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"progress" + 0.005*"appropriate" + 0.005*"6" + 0.005*"experiences" + 0.005*"provided"', '0.014*"’" + 0.007*"plans" + 0.007*"progress" + 0.007*"effective" + 0.006*"provided" + 0.006*"impact" + 0.005*"well" + 0.005*"experiences" + 0.005*"needs" + 0.005*"17"']</t>
   </si>
   <si>
     <t>80583</t>
@@ -4759,7 +4759,7 @@
     <t>0.1898</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"needs" + 0.006*"effective" + 0.006*"risks" + 0.006*"plans" + 0.006*"quality" + 0.005*"receive" + 0.005*"1" + 0.005*"leaders" + 0.005*"Wolverhampton"', '0.015*"’" + 0.007*"needs" + 0.006*"Wolverhampton" + 0.006*"effective" + 0.005*"strong" + 0.005*"education" + 0.004*"practice" + 0.004*"plans" + 0.004*"supported" + 0.004*"risk"', '0.011*"’" + 0.006*"needs" + 0.005*"Wolverhampton" + 0.005*"effective" + 0.004*"receive" + 0.004*"risks" + 0.004*"plans" + 0.004*"well" + 0.004*"leaders" + 0.004*"supported"']</t>
+    <t>['0.013*"’" + 0.007*"needs" + 0.005*"risks" + 0.005*"Wolverhampton" + 0.005*"practice" + 0.005*"supported" + 0.005*"strong" + 0.004*"education" + 0.004*"well" + 0.004*"plans"', '0.016*"’" + 0.008*"needs" + 0.006*"effective" + 0.005*"risks" + 0.005*"City" + 0.005*"quality" + 0.005*"practice" + 0.005*"plans" + 0.005*"28" + 0.004*"risk"', '0.013*"’" + 0.008*"Wolverhampton" + 0.007*"needs" + 0.007*"effective" + 0.006*"leaders" + 0.005*"plans" + 0.005*"receive" + 0.005*"quality" + 0.005*"risk" + 0.004*"well"']</t>
   </si>
   <si>
     <t>80584</t>
@@ -4789,7 +4789,7 @@
     <t>0.1925</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.007*"plans" + 0.007*"leaders" + 0.007*"needs" + 0.006*"progress" + 0.005*"ensure" + 0.005*"Worcestershire" + 0.005*"improve" + 0.005*"appropriate"', '0.023*"’" + 0.009*"Worcestershire" + 0.008*"plans" + 0.007*"well" + 0.007*"needs" + 0.007*"ensure" + 0.007*"progress" + 0.006*"appropriate" + 0.006*"leaders" + 0.005*"experiences"', '0.015*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"plans" + 0.007*"leaders" + 0.007*"progress" + 0.006*"Worcestershire" + 0.005*"appropriate" + 0.004*"ensure" + 0.004*"improve"']</t>
+    <t>['0.011*"’" + 0.007*"plans" + 0.005*"needs" + 0.005*"well" + 0.005*"ensure" + 0.005*"Worcestershire" + 0.005*"appropriate" + 0.005*"15" + 0.005*"leaders" + 0.004*"experiences"', '0.019*"’" + 0.010*"well" + 0.009*"needs" + 0.008*"Worcestershire" + 0.007*"plans" + 0.007*"leaders" + 0.007*"progress" + 0.006*"appropriate" + 0.006*"ensure" + 0.005*"making"', '0.023*"’" + 0.009*"plans" + 0.008*"well" + 0.008*"progress" + 0.007*"needs" + 0.007*"leaders" + 0.006*"Worcestershire" + 0.006*"ensure" + 0.005*"living" + 0.005*"appropriate"']</t>
   </si>
   <si>
     <t>urn</t>

--- a/ofsted_childrens_services_overview.xlsx
+++ b/ofsted_childrens_services_overview.xlsx
@@ -70,7 +70,7 @@
     <t>Sentiment neutral</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.006*"needs" + 0.006*"Barnsley" + 0.006*"leaders" + 0.005*"senior" + 0.005*"practice" + 0.004*"response" + 0.004*"11" + 0.004*"need" + 0.003*"within"', '0.022*"’" + 0.009*"leaders" + 0.008*"needs" + 0.008*"within" + 0.006*"practice" + 0.006*"Barnsley" + 0.006*"plans" + 0.005*"15" + 0.004*"11" + 0.004*"2023"', '0.017*"’" + 0.010*"needs" + 0.006*"within" + 0.006*"leaders" + 0.006*"practice" + 0.005*"Barnsley" + 0.005*"understand" + 0.004*"response" + 0.004*"progress" + 0.004*"11"']</t>
+    <t>['0.014*"’" + 0.007*"leaders" + 0.006*"needs" + 0.006*"within" + 0.005*"practice" + 0.005*"Barnsley" + 0.004*"plans" + 0.004*"2023" + 0.004*"senior" + 0.004*"experiences"', '0.023*"’" + 0.008*"leaders" + 0.008*"needs" + 0.007*"within" + 0.006*"Barnsley" + 0.006*"response" + 0.005*"plans" + 0.005*"practice" + 0.005*"11" + 0.004*"15"', '0.019*"’" + 0.009*"needs" + 0.007*"practice" + 0.006*"leaders" + 0.005*"within" + 0.005*"Barnsley" + 0.004*"senior" + 0.004*"11" + 0.004*"15" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80427</t>
@@ -115,7 +115,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"plans" + 0.005*"East" + 0.005*"North" + 0.005*"leaders" + 0.005*"receive" + 0.005*"impact"', '0.016*"’" + 0.009*"well" + 0.006*"needs" + 0.005*"practice" + 0.005*"clear" + 0.005*"effective" + 0.005*"leaders" + 0.005*"plans" + 0.004*"Somerset" + 0.004*"Bath"', '0.012*"’" + 0.006*"well" + 0.005*"needs" + 0.005*"practice" + 0.004*"plans" + 0.004*"leaders" + 0.004*"Bath" + 0.004*"protection" + 0.004*"effective" + 0.004*"impact"']</t>
+    <t>['0.013*"’" + 0.006*"well" + 0.004*"effective" + 0.004*"plans" + 0.004*"leaders" + 0.004*"receive" + 0.004*"needs" + 0.004*"protection" + 0.003*"East" + 0.003*"clear"', '0.020*"’" + 0.010*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"plans" + 0.005*"leaders" + 0.005*"effective" + 0.005*"impact" + 0.005*"February" + 0.005*"Bath"', '0.018*"’" + 0.009*"well" + 0.007*"needs" + 0.006*"practice" + 0.005*"Somerset" + 0.005*"leaders" + 0.005*"East" + 0.004*"4" + 0.004*"plans" + 0.004*"carers"']</t>
   </si>
   <si>
     <t>80428</t>
@@ -163,7 +163,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"Bedford" + 0.005*"supported" + 0.005*"ensure" + 0.005*"progress" + 0.005*"good" + 0.004*"family" + 0.004*"plans"', '0.018*"’" + 0.007*"ensure" + 0.006*"well" + 0.005*"needs" + 0.005*"Bedford" + 0.005*"plans" + 0.005*"family" + 0.005*"education" + 0.004*"made" + 0.004*"supported"', '0.023*"’" + 0.008*"needs" + 0.006*"ensure" + 0.006*"plans" + 0.005*"good" + 0.005*"progress" + 0.005*"well" + 0.005*"supported" + 0.005*"Bedford" + 0.005*"Borough"']</t>
+    <t>['0.018*"’" + 0.006*"ensure" + 0.006*"well" + 0.005*"needs" + 0.005*"supported" + 0.005*"good" + 0.005*"plans" + 0.005*"Bedford" + 0.004*"receive" + 0.004*"Borough"', '0.017*"’" + 0.007*"needs" + 0.005*"Bedford" + 0.005*"plans" + 0.005*"15" + 0.005*"good" + 0.005*"supported" + 0.005*"26" + 0.004*"ensure" + 0.004*"well"', '0.021*"’" + 0.008*"needs" + 0.007*"ensure" + 0.006*"well" + 0.006*"progress" + 0.005*"Bedford" + 0.005*"family" + 0.005*"plans" + 0.005*"education" + 0.005*"supported"']</t>
   </si>
   <si>
     <t>80429</t>
@@ -208,7 +208,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.011*"needs" + 0.007*"plans" + 0.006*"well" + 0.005*"timely" + 0.005*"leaders" + 0.005*"risk" + 0.005*"effective" + 0.005*"20" + 0.005*"3"', '0.017*"’" + 0.009*"needs" + 0.008*"Birmingham" + 0.007*"well" + 0.007*"effective" + 0.006*"progress" + 0.006*"trust" + 0.005*"plans" + 0.005*"3" + 0.005*"response"', '0.018*"’" + 0.009*"needs" + 0.007*"effective" + 0.006*"well" + 0.006*"plans" + 0.005*"trust" + 0.005*"appropriate" + 0.005*"progress" + 0.005*"risk" + 0.005*"March"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.007*"effective" + 0.006*"well" + 0.005*"progress" + 0.005*"trust" + 0.005*"plans" + 0.005*"risk" + 0.005*"Birmingham" + 0.004*"timely"', '0.019*"’" + 0.010*"needs" + 0.007*"effective" + 0.006*"progress" + 0.006*"well" + 0.006*"Birmingham" + 0.005*"2023" + 0.005*"20" + 0.005*"plans" + 0.005*"3"', '0.014*"’" + 0.010*"needs" + 0.008*"plans" + 0.007*"well" + 0.006*"appropriate" + 0.006*"trust" + 0.006*"Birmingham" + 0.005*"3" + 0.005*"effective" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80430</t>
@@ -250,7 +250,7 @@
     <t>0.1834</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"needs" + 0.007*"practice" + 0.007*"Darwen" + 0.007*"quality" + 0.007*"well" + 0.006*"Blackburn" + 0.005*"planning" + 0.005*"impact" + 0.005*"leaders"', '0.016*"’" + 0.008*"practice" + 0.007*"Blackburn" + 0.007*"needs" + 0.007*"quality" + 0.006*"impact" + 0.006*"well" + 0.006*"Darwen" + 0.005*"planning" + 0.005*"means"', '0.013*"’" + 0.007*"quality" + 0.006*"needs" + 0.006*"Darwen" + 0.006*"impact" + 0.006*"Blackburn" + 0.006*"practice" + 0.005*"well" + 0.005*"plans" + 0.005*"result"']</t>
+    <t>['0.016*"’" + 0.007*"Blackburn" + 0.007*"impact" + 0.007*"needs" + 0.006*"practice" + 0.006*"well" + 0.005*"Darwen" + 0.005*"experiences" + 0.005*"quality" + 0.005*"February"', '0.014*"’" + 0.008*"needs" + 0.008*"quality" + 0.007*"Darwen" + 0.007*"practice" + 0.006*"well" + 0.006*"Blackburn" + 0.006*"result" + 0.006*"impact" + 0.006*"means"', '0.010*"’" + 0.008*"practice" + 0.007*"quality" + 0.006*"Blackburn" + 0.006*"needs" + 0.006*"Darwen" + 0.006*"progress" + 0.005*"well" + 0.005*"plans" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80431</t>
@@ -292,7 +292,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"needs" + 0.009*"well" + 0.006*"Blackpool" + 0.005*"quality" + 0.005*"16" + 0.005*"progress" + 0.005*"carers" + 0.004*"plans" + 0.004*"5"', '0.015*"’" + 0.012*"well" + 0.010*"needs" + 0.008*"Blackpool" + 0.006*"effective" + 0.005*"practice" + 0.005*"supported" + 0.005*"need" + 0.005*"quality" + 0.005*"good"', '0.020*"’" + 0.011*"needs" + 0.007*"Blackpool" + 0.007*"well" + 0.007*"effective" + 0.006*"plans" + 0.005*"experiences" + 0.005*"progress" + 0.005*"practice" + 0.005*"supported"']</t>
+    <t>['0.014*"’" + 0.009*"needs" + 0.008*"well" + 0.008*"Blackpool" + 0.005*"plans" + 0.005*"effective" + 0.005*"quality" + 0.004*"supported" + 0.004*"team" + 0.004*"16"', '0.015*"’" + 0.010*"needs" + 0.007*"well" + 0.006*"Blackpool" + 0.006*"progress" + 0.005*"plans" + 0.005*"experiences" + 0.005*"5" + 0.005*"16" + 0.005*"supported"', '0.020*"’" + 0.011*"needs" + 0.011*"well" + 0.008*"Blackpool" + 0.007*"effective" + 0.006*"practice" + 0.005*"good" + 0.005*"16" + 0.005*"supported" + 0.005*"December"']</t>
   </si>
   <si>
     <t>80432</t>
@@ -322,7 +322,7 @@
     <t>0.1829</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"needs" + 0.007*"Bolton" + 0.007*"well" + 0.007*"plans" + 0.006*"11" + 0.006*"supported" + 0.005*"need" + 0.005*"planning" + 0.005*"September"', '0.022*"’" + 0.009*"needs" + 0.008*"well" + 0.007*"Bolton" + 0.007*"plans" + 0.005*"need" + 0.005*"response" + 0.005*"supported" + 0.005*"planning" + 0.004*"2023"', '0.019*"’" + 0.010*"needs" + 0.009*"Bolton" + 0.009*"well" + 0.008*"plans" + 0.006*"supported" + 0.005*"timely" + 0.005*"planning" + 0.005*"effective" + 0.005*"strong"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.009*"Bolton" + 0.007*"needs" + 0.007*"plans" + 0.005*"supported" + 0.005*"response" + 0.005*"strong" + 0.005*"need" + 0.005*"2023"', '0.017*"’" + 0.010*"needs" + 0.007*"plans" + 0.007*"well" + 0.007*"Bolton" + 0.005*"timely" + 0.005*"11" + 0.005*"good" + 0.005*"need" + 0.005*"supported"', '0.022*"’" + 0.011*"needs" + 0.008*"Bolton" + 0.008*"well" + 0.007*"plans" + 0.006*"supported" + 0.006*"planning" + 0.005*"need" + 0.005*"11" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>2532287</t>
@@ -358,7 +358,7 @@
     <t>0.153</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.005*"impact" + 0.005*"quality" + 0.004*"Christchurch" + 0.004*"17" + 0.004*"time" + 0.004*"progress" + 0.003*"risk" + 0.003*"2021" + 0.003*"6"', '0.018*"’" + 0.005*"practice" + 0.005*"progress" + 0.005*"quality" + 0.005*"Poole" + 0.005*"time" + 0.005*"However" + 0.004*"Bournemouth" + 0.004*"risk" + 0.004*"17"', '0.021*"’" + 0.008*"quality" + 0.007*"practice" + 0.006*"progress" + 0.005*"Christchurch" + 0.005*"6" + 0.005*"Bournemouth" + 0.005*"impact" + 0.005*"risk" + 0.005*"Poole"']</t>
+    <t>['0.021*"’" + 0.007*"practice" + 0.006*"quality" + 0.006*"progress" + 0.005*"impact" + 0.005*"Bournemouth" + 0.005*"risk" + 0.005*"Christchurch" + 0.005*"Poole" + 0.005*"time"', '0.010*"’" + 0.006*"quality" + 0.005*"6" + 0.004*"right" + 0.004*"Poole" + 0.004*"progress" + 0.004*"practice" + 0.004*"However" + 0.003*"many" + 0.003*"Bournemouth"', '0.019*"’" + 0.006*"quality" + 0.005*"practice" + 0.005*"17" + 0.005*"Christchurch" + 0.005*"progress" + 0.004*"time" + 0.004*"well" + 0.004*"risk" + 0.004*"However"']</t>
   </si>
   <si>
     <t>80436</t>
@@ -403,7 +403,7 @@
     <t>0.2035</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.007*"good" + 0.007*"Forest" + 0.007*"Bracknell" + 0.006*"effective" + 0.006*"risk" + 0.005*"progress" + 0.005*"need" + 0.005*"impact"', '0.016*"’" + 0.007*"risk" + 0.007*"Forest" + 0.006*"well" + 0.006*"needs" + 0.006*"provided" + 0.006*"plans" + 0.005*"quality" + 0.005*"good" + 0.005*"Bracknell"', '0.018*"’" + 0.008*"Bracknell" + 0.007*"quality" + 0.007*"needs" + 0.006*"Forest" + 0.006*"good" + 0.006*"progress" + 0.005*"risk" + 0.005*"provided" + 0.005*"need"']</t>
+    <t>['0.016*"’" + 0.008*"Forest" + 0.008*"needs" + 0.007*"risk" + 0.007*"quality" + 0.006*"good" + 0.006*"provided" + 0.006*"well" + 0.006*"carers" + 0.006*"progress"', '0.017*"’" + 0.007*"Bracknell" + 0.006*"good" + 0.006*"Forest" + 0.006*"effective" + 0.006*"needs" + 0.006*"progress" + 0.006*"risk" + 0.005*"quality" + 0.005*"well"', '0.016*"’" + 0.008*"Bracknell" + 0.006*"risk" + 0.006*"needs" + 0.006*"effective" + 0.006*"plans" + 0.005*"positive" + 0.005*"quality" + 0.005*"Forest" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80438</t>
@@ -442,7 +442,7 @@
     <t>0.1906</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"needs" + 0.008*"good" + 0.006*"well" + 0.006*"need" + 0.005*"recording" + 0.005*"quality" + 0.004*"plans" + 0.004*"effective" + 0.004*"leaders"', '0.014*"’" + 0.008*"needs" + 0.008*"good" + 0.007*"leaders" + 0.006*"well" + 0.005*"recording" + 0.004*"improve" + 0.004*"timely" + 0.004*"plans" + 0.004*"need"', '0.013*"’" + 0.009*"good" + 0.008*"needs" + 0.007*"recording" + 0.005*"leaders" + 0.005*"However" + 0.005*"plans" + 0.005*"Hove" + 0.005*"arrangements" + 0.005*"quality"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.009*"good" + 0.006*"leaders" + 0.006*"need" + 0.005*"supported" + 0.005*"plans" + 0.005*"well" + 0.005*"However" + 0.005*"improve"', '0.013*"’" + 0.009*"needs" + 0.007*"recording" + 0.006*"good" + 0.006*"well" + 0.005*"leaders" + 0.005*"plans" + 0.004*"Senior" + 0.004*"arrangements" + 0.004*"Brighton"', '0.014*"’" + 0.010*"good" + 0.006*"needs" + 0.006*"recording" + 0.005*"well" + 0.005*"leaders" + 0.004*"response" + 0.004*"effectively" + 0.004*"quality" + 0.004*"arrangements"']</t>
   </si>
   <si>
     <t>80441</t>
@@ -478,7 +478,7 @@
     <t>0.1875</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.009*"needs" + 0.008*"Bristol" + 0.008*"well" + 0.007*"good" + 0.004*"receive" + 0.004*"leaders" + 0.004*"risk" + 0.004*"health" + 0.004*"progress"', '0.020*"’" + 0.009*"good" + 0.009*"well" + 0.008*"Bristol" + 0.006*"needs" + 0.005*"progress" + 0.005*"plans" + 0.005*"health" + 0.005*"leaders" + 0.005*"always"', '0.018*"’" + 0.009*"well" + 0.008*"needs" + 0.006*"good" + 0.006*"Bristol" + 0.006*"health" + 0.005*"progress" + 0.005*"need" + 0.005*"plans" + 0.005*"27"']</t>
+    <t>['0.023*"’" + 0.010*"well" + 0.008*"Bristol" + 0.007*"good" + 0.006*"needs" + 0.006*"health" + 0.006*"plans" + 0.005*"ensure" + 0.005*"progress" + 0.005*"need"', '0.018*"’" + 0.008*"good" + 0.008*"needs" + 0.007*"Bristol" + 0.006*"well" + 0.005*"need" + 0.005*"leaders" + 0.005*"always" + 0.005*"risk" + 0.005*"progress"', '0.017*"’" + 0.010*"well" + 0.008*"good" + 0.008*"needs" + 0.008*"Bristol" + 0.006*"progress" + 0.005*"health" + 0.004*"living" + 0.004*"receive" + 0.004*"16"']</t>
   </si>
   <si>
     <t>80442</t>
@@ -511,7 +511,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.005*"number" + 0.005*"17" + 0.004*"6" + 0.004*"protection" + 0.004*"Buckinghamshire" + 0.004*"well" + 0.003*"plans" + 0.003*"practice" + 0.003*"many"', '0.012*"’" + 0.006*"plans" + 0.005*"17" + 0.004*"Buckinghamshire" + 0.004*"number" + 0.004*"2021" + 0.004*"many" + 0.004*"protection" + 0.004*"December" + 0.003*"impact"', '0.017*"’" + 0.005*"plans" + 0.005*"number" + 0.005*"Buckinghamshire" + 0.004*"6" + 0.004*"practice" + 0.004*"many" + 0.004*"December" + 0.004*"2021" + 0.004*"17"']</t>
+    <t>['0.014*"’" + 0.005*"number" + 0.005*"plans" + 0.005*"Buckinghamshire" + 0.004*"teams" + 0.004*"protection" + 0.004*"practice" + 0.004*"small" + 0.004*"17" + 0.004*"many"', '0.011*"’" + 0.006*"plans" + 0.005*"number" + 0.004*"17" + 0.004*"Buckinghamshire" + 0.004*"6" + 0.004*"protection" + 0.004*"2021" + 0.004*"December" + 0.004*"many"', '0.015*"’" + 0.005*"17" + 0.004*"December" + 0.004*"many" + 0.004*"Buckinghamshire" + 0.004*"2021" + 0.004*"plans" + 0.004*"6" + 0.004*"practice" + 0.004*"number"']</t>
   </si>
   <si>
     <t>80443</t>
@@ -550,7 +550,7 @@
     <t>0.1441</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"team" + 0.006*"protection" + 0.006*"2021" + 0.005*"impact" + 0.005*"delay" + 0.005*"Bury" + 0.005*"new"', '0.012*"’" + 0.006*"2021" + 0.005*"needs" + 0.005*"protection" + 0.005*"risk" + 0.005*"quality" + 0.005*"need" + 0.004*"team" + 0.004*"practice" + 0.004*"Bury"', '0.012*"’" + 0.008*"protection" + 0.007*"2021" + 0.007*"needs" + 0.006*"need" + 0.005*"team" + 0.005*"impact" + 0.005*"risk" + 0.005*"quality" + 0.005*"Bury"']</t>
+    <t>['0.011*"’" + 0.007*"team" + 0.007*"protection" + 0.007*"2021" + 0.007*"needs" + 0.005*"need" + 0.005*"5" + 0.005*"quality" + 0.005*"lack" + 0.004*"practice"', '0.011*"’" + 0.008*"needs" + 0.005*"team" + 0.005*"2021" + 0.005*"new" + 0.005*"practice" + 0.005*"quality" + 0.005*"Bury" + 0.005*"risk" + 0.005*"need"', '0.011*"’" + 0.008*"protection" + 0.007*"practice" + 0.007*"2021" + 0.006*"impact" + 0.005*"risk" + 0.005*"needs" + 0.005*"Bury" + 0.005*"need" + 0.004*"October"']</t>
   </si>
   <si>
     <t>80444</t>
@@ -583,7 +583,7 @@
     <t>0.1954</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.009*"well" + 0.006*"practice" + 0.006*"good" + 0.005*"Calderdale" + 0.005*"effective" + 0.005*"protection" + 0.005*"need" + 0.004*"‘" + 0.004*"carers"', '0.015*"’" + 0.006*"well" + 0.005*"Calderdale" + 0.005*"inform" + 0.005*"protection" + 0.004*"good" + 0.004*"practice" + 0.004*"‘" + 0.004*"risk" + 0.004*"leaders"', '0.012*"’" + 0.007*"well" + 0.005*"practice" + 0.005*"Calderdale" + 0.005*"good" + 0.005*"education" + 0.004*"needs" + 0.004*"effective" + 0.004*"risk" + 0.004*"need"']</t>
+    <t>['0.012*"’" + 0.006*"well" + 0.006*"Calderdale" + 0.006*"protection" + 0.006*"effective" + 0.005*"practice" + 0.005*"leaders" + 0.004*"carers" + 0.004*"‘" + 0.004*"education"', '0.019*"’" + 0.009*"well" + 0.006*"good" + 0.006*"Calderdale" + 0.005*"practice" + 0.004*"need" + 0.004*"‘" + 0.004*"effective" + 0.004*"risk" + 0.004*"inform"', '0.013*"’" + 0.007*"well" + 0.006*"practice" + 0.006*"good" + 0.004*"protection" + 0.004*"need" + 0.004*"Calderdale" + 0.004*"‘" + 0.004*"education" + 0.003*"risk"']</t>
   </si>
   <si>
     <t>80445</t>
@@ -622,7 +622,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"well" + 0.008*"good" + 0.008*"plans" + 0.007*"needs" + 0.006*"However" + 0.006*"need" + 0.006*"teams" + 0.006*"impact" + 0.005*"effective"', '0.013*"’" + 0.011*"well" + 0.009*"good" + 0.008*"impact" + 0.008*"need" + 0.007*"needs" + 0.007*"teams" + 0.006*"effective" + 0.006*"progress" + 0.005*"plans"', '0.014*"’" + 0.009*"good" + 0.009*"well" + 0.007*"needs" + 0.007*"teams" + 0.007*"quality" + 0.007*"need" + 0.006*"impact" + 0.006*"plans" + 0.006*"However"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.009*"good" + 0.008*"needs" + 0.008*"need" + 0.008*"impact" + 0.007*"teams" + 0.006*"progress" + 0.006*"plans" + 0.005*"quality"', '0.013*"’" + 0.010*"well" + 0.010*"good" + 0.008*"needs" + 0.008*"impact" + 0.007*"plans" + 0.007*"teams" + 0.007*"need" + 0.007*"quality" + 0.006*"However"', '0.012*"’" + 0.008*"well" + 0.007*"need" + 0.006*"needs" + 0.006*"good" + 0.006*"effective" + 0.006*"teams" + 0.005*"plans" + 0.005*"However" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80446</t>
@@ -655,7 +655,7 @@
     <t>0.196</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.011*"well" + 0.007*"needs" + 0.006*"need" + 0.005*"carers" + 0.005*"progress" + 0.005*"Bedfordshire" + 0.005*"plans" + 0.005*"effective" + 0.005*"good"', '0.018*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"good" + 0.006*"carers" + 0.006*"need" + 0.006*"plans" + 0.005*"Central" + 0.005*"progress" + 0.005*"information"', '0.017*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"need" + 0.006*"plans" + 0.006*"good" + 0.006*"carers" + 0.005*"progress" + 0.004*"Bedfordshire" + 0.004*"Leaders"']</t>
+    <t>['0.016*"’" + 0.009*"well" + 0.007*"needs" + 0.007*"good" + 0.007*"need" + 0.006*"plans" + 0.006*"Central" + 0.005*"progress" + 0.005*"practice" + 0.004*"Bedfordshire"', '0.014*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"need" + 0.006*"carers" + 0.006*"progress" + 0.006*"plans" + 0.005*"good" + 0.005*"education" + 0.005*"Bedfordshire"', '0.018*"’" + 0.010*"well" + 0.007*"needs" + 0.007*"carers" + 0.006*"good" + 0.005*"need" + 0.005*"plans" + 0.005*"progress" + 0.005*"Bedfordshire" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80447</t>
@@ -694,7 +694,7 @@
     <t>0.1718</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"plans" + 0.006*"good" + 0.006*"need" + 0.005*"always" + 0.005*"ensure" + 0.005*"However" + 0.005*"supported"', '0.011*"’" + 0.008*"good" + 0.008*"well" + 0.007*"practice" + 0.007*"needs" + 0.007*"plans" + 0.006*"ensure" + 0.005*"effective" + 0.005*"need" + 0.005*"carers"', '0.013*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"good" + 0.007*"practice" + 0.006*"supported" + 0.006*"always" + 0.006*"plans" + 0.005*"However" + 0.005*"need"']</t>
+    <t>['0.014*"’" + 0.006*"well" + 0.006*"plans" + 0.006*"needs" + 0.006*"good" + 0.006*"practice" + 0.005*"need" + 0.004*"timely" + 0.004*"carers" + 0.004*"progress"', '0.015*"’" + 0.008*"good" + 0.007*"well" + 0.007*"needs" + 0.006*"always" + 0.006*"need" + 0.006*"practice" + 0.006*"supported" + 0.006*"risk" + 0.006*"plans"', '0.011*"’" + 0.010*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"good" + 0.006*"However" + 0.006*"practice" + 0.006*"ensure" + 0.006*"supported" + 0.005*"always"']</t>
   </si>
   <si>
     <t>80448</t>
@@ -733,7 +733,7 @@
     <t>0.1831</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.008*"well" + 0.006*"practice" + 0.005*"needs" + 0.004*"plans" + 0.004*"impact" + 0.004*"always" + 0.004*"However" + 0.004*"effective" + 0.004*"learning"', '0.024*"’" + 0.007*"needs" + 0.006*"well" + 0.004*"practice" + 0.004*"effective" + 0.004*"impact" + 0.004*"information" + 0.004*"always" + 0.004*"timely" + 0.004*"learning"', '0.018*"’" + 0.008*"needs" + 0.008*"well" + 0.005*"effectively" + 0.005*"order" + 0.005*"plans" + 0.004*"receive" + 0.004*"timely" + 0.004*"effective" + 0.004*"early"']</t>
+    <t>['0.018*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"impact" + 0.004*"effectively" + 0.004*"timely" + 0.004*"good" + 0.004*"plans" + 0.004*"practice" + 0.004*"always"', '0.026*"’" + 0.008*"needs" + 0.007*"well" + 0.006*"practice" + 0.005*"effective" + 0.005*"learning" + 0.005*"plans" + 0.004*"receive" + 0.004*"order" + 0.004*"impact"', '0.018*"’" + 0.007*"well" + 0.006*"needs" + 0.004*"timely" + 0.004*"always" + 0.004*"effectively" + 0.004*"practice" + 0.004*"order" + 0.004*"strong" + 0.003*"intervention"']</t>
   </si>
   <si>
     <t>80449</t>
@@ -772,7 +772,7 @@
     <t>0.1327</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.007*"plans" + 0.006*"needs" + 0.005*"impact" + 0.005*"2" + 0.005*"risk" + 0.005*"Bradford" + 0.005*"December" + 0.005*"21" + 0.004*"quality"', '0.025*"’" + 0.007*"plans" + 0.006*"Bradford" + 0.005*"need" + 0.005*"2" + 0.005*"2022" + 0.005*"Council" + 0.004*"lack" + 0.004*"◼" + 0.004*"quality"', '0.015*"’" + 0.006*"plans" + 0.004*"quality" + 0.004*"However" + 0.004*"practice" + 0.004*"risk" + 0.004*"November" + 0.004*"needs" + 0.004*"worker" + 0.004*"Metropolitan"']</t>
+    <t>['0.021*"’" + 0.007*"plans" + 0.005*"Bradford" + 0.005*"2" + 0.005*"quality" + 0.005*"Council" + 0.004*"2022" + 0.004*"City" + 0.004*"progress" + 0.004*"need"', '0.019*"’" + 0.007*"plans" + 0.005*"needs" + 0.005*"21" + 0.005*"2" + 0.004*"lack" + 0.004*"need" + 0.004*"risk" + 0.004*"Bradford" + 0.004*"senior"', '0.021*"’" + 0.006*"plans" + 0.005*"impact" + 0.005*"needs" + 0.005*"risk" + 0.005*"◼" + 0.005*"Bradford" + 0.005*"practice" + 0.004*"2022" + 0.004*"Borough"']</t>
   </si>
   <si>
     <t>80450</t>
@@ -808,7 +808,7 @@
     <t>0.2065</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"well" + 0.010*"ensure" + 0.009*"needs" + 0.006*"plans" + 0.006*"clear" + 0.006*"good" + 0.006*"effective" + 0.005*"progress" + 0.005*"individual"', '0.010*"’" + 0.008*"needs" + 0.008*"well" + 0.008*"effective" + 0.007*"ensure" + 0.007*"progress" + 0.005*"clear" + 0.005*"good" + 0.005*"supported" + 0.004*"plans"', '0.016*"needs" + 0.011*"well" + 0.011*"’" + 0.008*"ensure" + 0.007*"clear" + 0.006*"effective" + 0.005*"practice" + 0.005*"good" + 0.005*"plans" + 0.005*"within"']</t>
+    <t>['0.011*"’" + 0.010*"needs" + 0.010*"well" + 0.009*"ensure" + 0.007*"plans" + 0.007*"progress" + 0.007*"clear" + 0.006*"effective" + 0.006*"supported" + 0.005*"within"', '0.014*"needs" + 0.011*"’" + 0.010*"well" + 0.008*"ensure" + 0.008*"effective" + 0.007*"clear" + 0.005*"individual" + 0.005*"practice" + 0.005*"good" + 0.004*"supported"', '0.013*"’" + 0.011*"needs" + 0.010*"well" + 0.008*"ensure" + 0.006*"effective" + 0.006*"good" + 0.006*"progress" + 0.005*"clearly" + 0.005*"plans" + 0.005*"clear"']</t>
   </si>
   <si>
     <t>80451</t>
@@ -847,7 +847,7 @@
     <t>0.1674</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"Wakefield" + 0.009*"well" + 0.008*"leaders" + 0.008*"November" + 0.007*"quality" + 0.007*"effective" + 0.007*"plans" + 0.006*"practice" + 0.006*"good"', '0.012*"’" + 0.007*"Wakefield" + 0.006*"November" + 0.006*"well" + 0.006*"quality" + 0.005*"effective" + 0.005*"leaders" + 0.005*"good" + 0.004*"plans" + 0.004*"2021"', '0.017*"’" + 0.009*"quality" + 0.008*"good" + 0.007*"leaders" + 0.007*"Wakefield" + 0.007*"well" + 0.007*"November" + 0.006*"effective" + 0.006*"needs" + 0.006*"progress"']</t>
+    <t>['0.014*"’" + 0.008*"well" + 0.007*"leaders" + 0.007*"quality" + 0.007*"November" + 0.007*"Wakefield" + 0.006*"effective" + 0.006*"good" + 0.006*"plans" + 0.005*"needs"', '0.021*"’" + 0.009*"quality" + 0.008*"Wakefield" + 0.008*"well" + 0.007*"leaders" + 0.007*"good" + 0.007*"progress" + 0.006*"effective" + 0.006*"plans" + 0.006*"November"', '0.013*"’" + 0.008*"November" + 0.007*"Wakefield" + 0.006*"effective" + 0.006*"well" + 0.006*"leaders" + 0.005*"good" + 0.005*"plans" + 0.005*"practice" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80453</t>
@@ -880,7 +880,7 @@
     <t>0.1621</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.007*"quality" + 0.006*"ensure" + 0.006*"March" + 0.006*"effective" + 0.005*"well" + 0.005*"7" + 0.005*"plans" + 0.005*"supported"', '0.013*"’" + 0.008*"March" + 0.006*"needs" + 0.006*"quality" + 0.005*"effective" + 0.005*"However" + 0.005*"York" + 0.005*"appropriate" + 0.005*"plans" + 0.004*"good"', '0.016*"’" + 0.008*"needs" + 0.006*"March" + 0.006*"quality" + 0.006*"effective" + 0.006*"York" + 0.006*"However" + 0.006*"practice" + 0.005*"well" + 0.005*"ensure"']</t>
+    <t>['0.015*"’" + 0.009*"needs" + 0.008*"quality" + 0.008*"However" + 0.006*"effective" + 0.006*"March" + 0.005*"well" + 0.005*"York" + 0.005*"18" + 0.005*"training"', '0.012*"’" + 0.006*"March" + 0.006*"quality" + 0.006*"needs" + 0.006*"York" + 0.005*"well" + 0.005*"effective" + 0.005*"ensure" + 0.005*"plans" + 0.005*"supported"', '0.017*"’" + 0.008*"March" + 0.006*"needs" + 0.006*"effective" + 0.005*"good" + 0.005*"ensure" + 0.005*"quality" + 0.005*"education" + 0.005*"York" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80454</t>
@@ -919,7 +919,7 @@
     <t>0.1994</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.011*"well" + 0.010*"effective" + 0.008*"leaders" + 0.008*"quality" + 0.006*"timely" + 0.006*"plans" + 0.006*"arrangements" + 0.006*"good" + 0.005*"ensure"', '0.012*"’" + 0.010*"well" + 0.010*"effective" + 0.009*"quality" + 0.008*"leaders" + 0.006*"good" + 0.005*"plans" + 0.005*"arrangements" + 0.005*"highly" + 0.005*"Senior"', '0.022*"well" + 0.012*"quality" + 0.010*"’" + 0.008*"leaders" + 0.006*"effective" + 0.006*"plans" + 0.006*"timely" + 0.006*"good" + 0.005*"arrangements" + 0.005*"highly"']</t>
+    <t>['0.016*"’" + 0.015*"well" + 0.011*"quality" + 0.009*"effective" + 0.009*"leaders" + 0.006*"highly" + 0.006*"arrangements" + 0.006*"good" + 0.005*"ensure" + 0.004*"plans"', '0.009*"well" + 0.007*"’" + 0.006*"leaders" + 0.006*"effective" + 0.005*"quality" + 0.005*"arrangements" + 0.004*"good" + 0.004*"high" + 0.004*"timely" + 0.004*"plans"', '0.017*"well" + 0.011*"’" + 0.010*"quality" + 0.009*"effective" + 0.009*"leaders" + 0.008*"plans" + 0.007*"timely" + 0.006*"good" + 0.005*"Senior" + 0.005*"arrangements"']</t>
   </si>
   <si>
     <t>80455</t>
@@ -952,7 +952,7 @@
     <t>0.104</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.016*"Isles" + 0.015*"Scilly" + 0.009*"needs" + 0.009*"practice" + 0.009*"information" + 0.009*"need" + 0.007*"protection" + 0.007*"risks" + 0.006*"quality"', '0.012*"’" + 0.009*"Scilly" + 0.009*"need" + 0.008*"information" + 0.008*"practice" + 0.008*"Isles" + 0.007*"protection" + 0.006*"place" + 0.006*"quality" + 0.005*"lack"', '0.022*"’" + 0.010*"Isles" + 0.009*"Scilly" + 0.009*"information" + 0.008*"place" + 0.008*"practice" + 0.006*"need" + 0.005*"protection" + 0.005*"quality" + 0.005*"13"']</t>
+    <t>['0.014*"’" + 0.009*"Isles" + 0.008*"Scilly" + 0.007*"practice" + 0.007*"information" + 0.007*"need" + 0.006*"needs" + 0.005*"protection" + 0.005*"11" + 0.004*"13"', '0.023*"’" + 0.015*"Isles" + 0.015*"Scilly" + 0.010*"information" + 0.010*"practice" + 0.009*"need" + 0.008*"protection" + 0.007*"quality" + 0.007*"needs" + 0.006*"place"', '0.022*"’" + 0.010*"Scilly" + 0.010*"Isles" + 0.009*"information" + 0.007*"practice" + 0.007*"needs" + 0.007*"need" + 0.006*"place" + 0.006*"protection" + 0.005*"11"']</t>
   </si>
   <si>
     <t>80456</t>
@@ -991,7 +991,7 @@
     <t>0.1661</t>
   </si>
   <si>
-    <t>['0.023*"’" + 0.008*"well" + 0.008*"Coventry" + 0.008*"needs" + 0.006*"family" + 0.006*"strong" + 0.006*"plans" + 0.005*"supported" + 0.005*"June" + 0.004*"2022"', '0.012*"’" + 0.008*"supported" + 0.008*"well" + 0.007*"Coventry" + 0.006*"needs" + 0.005*"need" + 0.005*"strong" + 0.005*"family" + 0.004*"plans" + 0.004*"training"', '0.021*"’" + 0.008*"Coventry" + 0.008*"well" + 0.008*"needs" + 0.007*"plans" + 0.007*"supported" + 0.006*"need" + 0.006*"family" + 0.005*"strong" + 0.005*"1"']</t>
+    <t>['0.027*"’" + 0.010*"Coventry" + 0.009*"well" + 0.008*"supported" + 0.008*"needs" + 0.007*"family" + 0.006*"plans" + 0.006*"strong" + 0.005*"need" + 0.005*"1"', '0.012*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Coventry" + 0.006*"plans" + 0.006*"supported" + 0.006*"need" + 0.005*"strong" + 0.004*"20" + 0.004*"receive"', '0.010*"’" + 0.006*"needs" + 0.005*"strong" + 0.005*"family" + 0.005*"well" + 0.005*"plans" + 0.005*"Coventry" + 0.005*"need" + 0.004*"supported" + 0.004*"20"']</t>
   </si>
   <si>
     <t>80458</t>
@@ -1030,7 +1030,7 @@
     <t>0.1983</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"practice" + 0.006*"leaders" + 0.006*"quality" + 0.006*"October" + 0.005*"supported" + 0.005*"Darlington" + 0.004*"effective"', '0.017*"’" + 0.008*"well" + 0.008*"October" + 0.007*"needs" + 0.006*"leaders" + 0.006*"Darlington" + 0.006*"practice" + 0.005*"effective" + 0.005*"10" + 0.004*"21"', '0.021*"’" + 0.008*"leaders" + 0.007*"well" + 0.006*"practice" + 0.006*"Darlington" + 0.006*"October" + 0.006*"needs" + 0.005*"effective" + 0.004*"quality" + 0.004*"family"']</t>
+    <t>['0.011*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"leaders" + 0.006*"effective" + 0.005*"October" + 0.005*"family" + 0.004*"practice" + 0.004*"21" + 0.004*"Darlington"', '0.015*"’" + 0.008*"needs" + 0.006*"October" + 0.005*"well" + 0.005*"leaders" + 0.005*"Darlington" + 0.004*"practice" + 0.004*"understand" + 0.004*"effective" + 0.004*"education"', '0.023*"’" + 0.009*"well" + 0.008*"leaders" + 0.007*"October" + 0.007*"practice" + 0.007*"Darlington" + 0.006*"quality" + 0.006*"needs" + 0.005*"supported" + 0.005*"plans"']</t>
   </si>
   <si>
     <t>80459</t>
@@ -1072,7 +1072,7 @@
     <t>0.1995</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"Derby" + 0.006*"receive" + 0.006*"needs" + 0.006*"quality" + 0.005*"plans" + 0.005*"progress" + 0.005*"good" + 0.005*"need" + 0.004*"appropriate"', '0.022*"’" + 0.011*"needs" + 0.007*"Derby" + 0.007*"quality" + 0.006*"need" + 0.006*"receive" + 0.006*"good" + 0.005*"well" + 0.005*"appropriate" + 0.005*"plans"', '0.024*"’" + 0.010*"needs" + 0.007*"Derby" + 0.006*"leaders" + 0.006*"quality" + 0.006*"receive" + 0.006*"views" + 0.006*"progress" + 0.006*"well" + 0.006*"plans"']</t>
+    <t>['0.014*"’" + 0.008*"needs" + 0.006*"Derby" + 0.006*"quality" + 0.006*"well" + 0.006*"need" + 0.005*"progress" + 0.004*"plans" + 0.004*"receive" + 0.004*"leaders"', '0.025*"’" + 0.011*"needs" + 0.008*"quality" + 0.007*"progress" + 0.006*"Derby" + 0.006*"good" + 0.006*"appropriate" + 0.006*"receive" + 0.006*"plans" + 0.005*"oversight"', '0.022*"’" + 0.008*"Derby" + 0.008*"needs" + 0.008*"receive" + 0.006*"plans" + 0.006*"leaders" + 0.005*"appropriate" + 0.005*"good" + 0.005*"views" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80460</t>
@@ -1105,7 +1105,7 @@
     <t>0.1913</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.008*"Derbyshire" + 0.006*"need" + 0.005*"education" + 0.005*"good" + 0.005*"10" + 0.005*"plans" + 0.005*"effective" + 0.005*"leaders"', '0.012*"’" + 0.007*"well" + 0.005*"education" + 0.005*"positive" + 0.004*"plans" + 0.004*"health" + 0.004*"Derbyshire" + 0.004*"needs" + 0.004*"effective" + 0.004*"good"', '0.012*"’" + 0.008*"well" + 0.007*"Derbyshire" + 0.005*"plans" + 0.005*"needs" + 0.005*"health" + 0.005*"October" + 0.004*"positive" + 0.004*"leaders" + 0.004*"10"']</t>
+    <t>['0.012*"’" + 0.007*"well" + 0.006*"Derbyshire" + 0.004*"plans" + 0.004*"health" + 0.004*"needs" + 0.004*"progress" + 0.004*"10" + 0.004*"positive" + 0.004*"number"', '0.014*"’" + 0.008*"well" + 0.007*"Derbyshire" + 0.006*"positive" + 0.005*"plans" + 0.005*"need" + 0.005*"needs" + 0.004*"10" + 0.004*"education" + 0.004*"health"', '0.016*"’" + 0.008*"well" + 0.006*"Derbyshire" + 0.006*"leaders" + 0.005*"good" + 0.005*"effective" + 0.005*"need" + 0.005*"education" + 0.004*"plans" + 0.004*"needs"']</t>
   </si>
   <si>
     <t>80461</t>
@@ -1138,7 +1138,7 @@
     <t>0.1234</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"well" + 0.006*"health" + 0.005*"risk" + 0.005*"leaders" + 0.005*"case" + 0.004*"progress" + 0.004*"protection" + 0.004*"time" + 0.004*"Devon"', '0.009*"’" + 0.005*"well" + 0.005*"leaders" + 0.004*"health" + 0.004*"protection" + 0.004*"living" + 0.004*"progress" + 0.004*"risk" + 0.004*"including" + 0.004*"plans"', '0.007*"’" + 0.004*"well" + 0.004*"progress" + 0.004*"Devon" + 0.004*"risk" + 0.004*"leaders" + 0.004*"areas" + 0.004*"risks" + 0.004*"need" + 0.003*"health"']</t>
+    <t>['0.010*"’" + 0.006*"well" + 0.005*"health" + 0.005*"leaders" + 0.005*"risk" + 0.004*"Devon" + 0.004*"quality" + 0.004*"progress" + 0.004*"risks" + 0.004*"protection"', '0.009*"’" + 0.006*"leaders" + 0.005*"risk" + 0.005*"health" + 0.005*"well" + 0.005*"protection" + 0.005*"progress" + 0.004*"case" + 0.004*"areas" + 0.004*"plans"', '0.009*"’" + 0.006*"well" + 0.004*"progress" + 0.004*"time" + 0.004*"risk" + 0.004*"including" + 0.004*"Devon" + 0.004*"case" + 0.004*"need" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80462</t>
@@ -1177,7 +1177,7 @@
     <t>0.1841</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.005*"Doncaster" + 0.005*"well" + 0.004*"leaders" + 0.004*"many" + 0.004*"Trust" + 0.004*"quality" + 0.004*"25" + 0.004*"progress" + 0.004*"experiences"', '0.023*"’" + 0.008*"well" + 0.007*"Doncaster" + 0.006*"many" + 0.005*"records" + 0.005*"plans" + 0.005*"leaders" + 0.005*"progress" + 0.005*"effective" + 0.005*"oversight"', '0.022*"’" + 0.006*"well" + 0.005*"progress" + 0.005*"leaders" + 0.005*"records" + 0.005*"Doncaster" + 0.005*"arrangements" + 0.005*"quality" + 0.004*"information" + 0.004*"oversight"']</t>
+    <t>['0.026*"’" + 0.007*"well" + 0.006*"Doncaster" + 0.006*"progress" + 0.006*"records" + 0.005*"many" + 0.005*"plans" + 0.005*"oversight" + 0.004*"leaders" + 0.004*"experiences"', '0.017*"’" + 0.006*"well" + 0.006*"Doncaster" + 0.005*"arrangements" + 0.005*"25" + 0.005*"leaders" + 0.005*"quality" + 0.005*"progress" + 0.005*"information" + 0.004*"plans"', '0.014*"’" + 0.005*"many" + 0.005*"well" + 0.005*"February" + 0.005*"Doncaster" + 0.005*"leaders" + 0.004*"quality" + 0.004*"plans" + 0.004*"information" + 0.004*"records"']</t>
   </si>
   <si>
     <t>2532283</t>
@@ -1210,7 +1210,7 @@
     <t>0.1922</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.007*"Dorset" + 0.005*"good" + 0.004*"well" + 0.003*"arrangements" + 0.003*"leaders" + 0.003*"needs" + 0.003*"September" + 0.003*"supported" + 0.003*"27"', '0.014*"’" + 0.008*"Dorset" + 0.006*"good" + 0.005*"well" + 0.005*"arrangements" + 0.004*"pandemic" + 0.004*"needs" + 0.004*"including" + 0.004*"8" + 0.004*"leaders"', '0.016*"’" + 0.008*"Dorset" + 0.007*"well" + 0.006*"good" + 0.005*"needs" + 0.005*"impact" + 0.005*"8" + 0.005*"change" + 0.005*"2021" + 0.004*"arrangements"']</t>
+    <t>['0.012*"’" + 0.007*"Dorset" + 0.005*"arrangements" + 0.005*"needs" + 0.004*"well" + 0.004*"2021" + 0.004*"quality" + 0.004*"good" + 0.004*"27" + 0.004*"home"', '0.010*"’" + 0.006*"good" + 0.006*"well" + 0.005*"Dorset" + 0.004*"needs" + 0.004*"Senior" + 0.004*"impact" + 0.004*"leaders" + 0.003*"home" + 0.003*"27"', '0.017*"’" + 0.010*"Dorset" + 0.007*"good" + 0.006*"well" + 0.005*"8" + 0.005*"arrangements" + 0.005*"need" + 0.005*"change" + 0.004*"including" + 0.004*"October"']</t>
   </si>
   <si>
     <t>80464</t>
@@ -1240,7 +1240,7 @@
     <t>13/01/23</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.012*"needs" + 0.009*"Dudley" + 0.006*"well" + 0.006*"arrangements" + 0.006*"always" + 0.005*"plans" + 0.005*"oversight" + 0.005*"practice" + 0.004*"enough"', '0.014*"’" + 0.010*"needs" + 0.007*"Dudley" + 0.005*"plans" + 0.005*"always" + 0.005*"well" + 0.004*"quality" + 0.004*"ensure" + 0.004*"11" + 0.004*"experiences"', '0.013*"’" + 0.011*"needs" + 0.007*"Dudley" + 0.005*"arrangements" + 0.005*"well" + 0.005*"ensure" + 0.005*"plans" + 0.005*"31" + 0.005*"However" + 0.005*"always"']</t>
+    <t>['0.015*"’" + 0.007*"Dudley" + 0.007*"needs" + 0.005*"ensure" + 0.004*"arrangements" + 0.004*"plans" + 0.004*"always" + 0.004*"October" + 0.004*"quality" + 0.004*"well"', '0.016*"’" + 0.013*"needs" + 0.008*"Dudley" + 0.006*"well" + 0.006*"always" + 0.005*"plans" + 0.005*"quality" + 0.005*"arrangements" + 0.004*"However" + 0.004*"oversight"', '0.014*"’" + 0.011*"needs" + 0.008*"Dudley" + 0.006*"arrangements" + 0.005*"well" + 0.005*"plans" + 0.005*"oversight" + 0.005*"always" + 0.004*"management" + 0.004*"31"']</t>
   </si>
   <si>
     <t>80465</t>
@@ -1279,7 +1279,7 @@
     <t>0.1734</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.012*"needs" + 0.008*"May" + 0.007*"Durham" + 0.007*"plans" + 0.006*"practice" + 0.006*"well" + 0.005*"ensure" + 0.005*"family" + 0.004*"carers"', '0.012*"’" + 0.010*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"ensure" + 0.005*"May" + 0.005*"practice" + 0.005*"10" + 0.005*"number" + 0.004*"Durham"', '0.017*"’" + 0.009*"needs" + 0.009*"Durham" + 0.008*"well" + 0.007*"May" + 0.006*"ensure" + 0.006*"plans" + 0.005*"risks" + 0.005*"leaders" + 0.005*"robust"']</t>
+    <t>['0.014*"’" + 0.011*"needs" + 0.008*"plans" + 0.008*"Durham" + 0.007*"well" + 0.006*"May" + 0.006*"ensure" + 0.006*"practice" + 0.005*"family" + 0.005*"risks"', '0.016*"’" + 0.012*"needs" + 0.007*"Durham" + 0.007*"ensure" + 0.006*"May" + 0.006*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"number" + 0.004*"supported"', '0.013*"’" + 0.009*"May" + 0.008*"needs" + 0.007*"well" + 0.006*"Durham" + 0.005*"plans" + 0.005*"practice" + 0.004*"number" + 0.004*"ensure" + 0.004*"2022"']</t>
   </si>
   <si>
     <t>80466</t>
@@ -1318,7 +1318,7 @@
     <t>0.1646</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"needs" + 0.009*"plans" + 0.007*"well" + 0.007*"Riding" + 0.007*"progress" + 0.006*"East" + 0.005*"2023" + 0.005*"good" + 0.004*"practice"', '0.017*"’" + 0.011*"well" + 0.010*"needs" + 0.009*"plans" + 0.008*"progress" + 0.008*"East" + 0.006*"Riding" + 0.006*"10" + 0.005*"30" + 0.005*"place"', '0.013*"’" + 0.007*"plans" + 0.007*"needs" + 0.006*"progress" + 0.005*"well" + 0.005*"Riding" + 0.004*"East" + 0.004*"quality" + 0.004*"education" + 0.004*"10"']</t>
+    <t>['0.015*"’" + 0.010*"needs" + 0.010*"well" + 0.007*"plans" + 0.007*"East" + 0.005*"progress" + 0.005*"Riding" + 0.005*"30" + 0.004*"good" + 0.004*"practice"', '0.014*"’" + 0.007*"plans" + 0.006*"needs" + 0.005*"progress" + 0.005*"Riding" + 0.005*"well" + 0.005*"30" + 0.005*"East" + 0.005*"February" + 0.005*"information"', '0.018*"’" + 0.010*"needs" + 0.010*"plans" + 0.009*"progress" + 0.009*"well" + 0.007*"Riding" + 0.006*"East" + 0.005*"10" + 0.005*"partners" + 0.005*"January"']</t>
   </si>
   <si>
     <t>80467</t>
@@ -1351,7 +1351,7 @@
     <t>0.1738</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.011*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"East" + 0.005*"progress" + 0.005*"impact" + 0.005*"effective" + 0.005*"Sussex" + 0.005*"experiences"', '0.020*"’" + 0.008*"needs" + 0.007*"well" + 0.007*"plans" + 0.007*"East" + 0.006*"progress" + 0.006*"Sussex" + 0.006*"11" + 0.005*"including" + 0.005*"provide"', '0.013*"’" + 0.010*"well" + 0.008*"plans" + 0.007*"Sussex" + 0.007*"progress" + 0.006*"needs" + 0.006*"including" + 0.006*"East" + 0.006*"impact" + 0.005*"relationships"']</t>
+    <t>['0.017*"’" + 0.008*"well" + 0.008*"plans" + 0.006*"East" + 0.006*"including" + 0.006*"Sussex" + 0.006*"needs" + 0.006*"progress" + 0.005*"impact" + 0.005*"11"', '0.013*"’" + 0.008*"well" + 0.007*"East" + 0.006*"plans" + 0.006*"needs" + 0.006*"Sussex" + 0.005*"progress" + 0.005*"including" + 0.005*"effective" + 0.005*"11"', '0.018*"’" + 0.011*"well" + 0.010*"needs" + 0.008*"plans" + 0.007*"progress" + 0.006*"East" + 0.006*"Sussex" + 0.006*"impact" + 0.005*"experiences" + 0.005*"including"']</t>
   </si>
   <si>
     <t>80468</t>
@@ -1390,7 +1390,7 @@
     <t>0.1965</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.008*"well" + 0.007*"progress" + 0.006*"needs" + 0.006*"plans" + 0.005*"family" + 0.005*"risk" + 0.005*"understand" + 0.005*"Essex" + 0.004*"‘"', '0.019*"’" + 0.006*"well" + 0.006*"plans" + 0.006*"needs" + 0.005*"family" + 0.005*"progress" + 0.005*"helped" + 0.004*"risk" + 0.004*"30" + 0.004*"need"', '0.021*"’" + 0.007*"progress" + 0.006*"needs" + 0.006*"well" + 0.005*"experiences" + 0.005*"Essex" + 0.005*"plans" + 0.005*"supported" + 0.005*"parents" + 0.005*"understand"']</t>
+    <t>['0.018*"’" + 0.007*"well" + 0.007*"progress" + 0.006*"plans" + 0.005*"understand" + 0.005*"needs" + 0.005*"family" + 0.005*"need" + 0.004*"advisers" + 0.004*"experiences"', '0.019*"’" + 0.006*"well" + 0.005*"plans" + 0.005*"needs" + 0.005*"family" + 0.005*"30" + 0.005*"practice" + 0.005*"Essex" + 0.004*"leaders" + 0.004*"supported"', '0.017*"’" + 0.008*"progress" + 0.007*"needs" + 0.007*"well" + 0.006*"plans" + 0.005*"risk" + 0.005*"Essex" + 0.005*"supported" + 0.005*"experiences" + 0.005*"helped"']</t>
   </si>
   <si>
     <t>80469</t>
@@ -1429,7 +1429,7 @@
     <t>0.1938</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.007*"effective" + 0.006*"quality" + 0.006*"good" + 0.005*"timely" + 0.005*"well" + 0.005*"practice" + 0.004*"need" + 0.004*"progress" + 0.004*"needs"', '0.012*"’" + 0.010*"effective" + 0.007*"practice" + 0.007*"quality" + 0.006*"good" + 0.006*"needs" + 0.006*"well" + 0.005*"need" + 0.005*"home" + 0.004*"timely"', '0.013*"’" + 0.008*"effective" + 0.008*"good" + 0.007*"needs" + 0.006*"practice" + 0.006*"timely" + 0.006*"well" + 0.005*"improve" + 0.005*"quality" + 0.005*"progress"']</t>
+    <t>['0.014*"’" + 0.008*"effective" + 0.007*"practice" + 0.007*"good" + 0.007*"quality" + 0.005*"needs" + 0.005*"early" + 0.005*"plans" + 0.005*"timely" + 0.004*"need"', '0.015*"’" + 0.011*"effective" + 0.007*"good" + 0.006*"needs" + 0.006*"well" + 0.006*"quality" + 0.006*"practice" + 0.005*"timely" + 0.005*"improve" + 0.004*"home"', '0.010*"’" + 0.006*"effective" + 0.006*"good" + 0.006*"practice" + 0.006*"well" + 0.006*"quality" + 0.005*"timely" + 0.005*"needs" + 0.005*"progress" + 0.005*"need"']</t>
   </si>
   <si>
     <t>80470</t>
@@ -1465,7 +1465,7 @@
     <t>0.1977</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.010*"needs" + 0.007*"plans" + 0.007*"February" + 0.006*"2022" + 0.006*"well" + 0.005*"appropriate" + 0.005*"18" + 0.005*"protection" + 0.004*"good"', '0.019*"’" + 0.008*"2022" + 0.007*"needs" + 0.007*"plans" + 0.007*"February" + 0.006*"progress" + 0.006*"well" + 0.005*"Gloucestershire" + 0.005*"protection" + 0.005*"timely"', '0.013*"’" + 0.008*"needs" + 0.006*"February" + 0.006*"2022" + 0.006*"experienced" + 0.005*"plans" + 0.005*"good" + 0.005*"progress" + 0.005*"leaders" + 0.005*"Gloucestershire"']</t>
+    <t>['0.017*"’" + 0.007*"needs" + 0.006*"2022" + 0.006*"well" + 0.005*"progress" + 0.005*"experienced" + 0.005*"February" + 0.005*"plans" + 0.004*"timely" + 0.004*"Gloucestershire"', '0.013*"’" + 0.007*"February" + 0.006*"needs" + 0.005*"2022" + 0.005*"progress" + 0.005*"experienced" + 0.004*"plans" + 0.004*"appropriate" + 0.004*"18" + 0.004*"well"', '0.021*"’" + 0.010*"needs" + 0.009*"plans" + 0.008*"2022" + 0.008*"February" + 0.006*"well" + 0.006*"Gloucestershire" + 0.006*"protection" + 0.005*"need" + 0.005*"appropriate"']</t>
   </si>
   <si>
     <t>80471</t>
@@ -1495,7 +1495,7 @@
     <t>0.1822</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"well" + 0.009*"practice" + 0.008*"risk" + 0.007*"need" + 0.007*"plans" + 0.007*"needs" + 0.006*"planning" + 0.006*"always" + 0.005*"However"', '0.012*"’" + 0.011*"well" + 0.007*"needs" + 0.007*"plans" + 0.007*"practice" + 0.007*"planning" + 0.007*"good" + 0.006*"risk" + 0.006*"need" + 0.006*"quality"', '0.010*"’" + 0.010*"needs" + 0.009*"well" + 0.008*"practice" + 0.007*"plans" + 0.007*"good" + 0.006*"effective" + 0.006*"quality" + 0.006*"need" + 0.006*"always"']</t>
+    <t>['0.009*"’" + 0.007*"plans" + 0.006*"well" + 0.006*"risk" + 0.006*"needs" + 0.005*"practice" + 0.005*"need" + 0.004*"planning" + 0.004*"appropriate" + 0.004*"means"', '0.010*"well" + 0.010*"’" + 0.009*"practice" + 0.009*"needs" + 0.007*"need" + 0.007*"always" + 0.007*"plans" + 0.007*"good" + 0.006*"effective" + 0.006*"planning"', '0.016*"’" + 0.012*"well" + 0.009*"practice" + 0.009*"needs" + 0.007*"plans" + 0.007*"risk" + 0.007*"good" + 0.007*"planning" + 0.006*"quality" + 0.006*"need"']</t>
   </si>
   <si>
     <t>80472</t>
@@ -1522,7 +1522,7 @@
     <t>0.1893</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"needs" + 0.006*"plans" + 0.005*"quality" + 0.005*"strong" + 0.005*"well" + 0.004*"leaders" + 0.004*"home" + 0.004*"health" + 0.004*"Hampshire"', '0.023*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"plans" + 0.004*"quality" + 0.004*"highly" + 0.004*"Hampshire" + 0.004*"leaders" + 0.004*"carers" + 0.003*"home"', '0.018*"’" + 0.008*"needs" + 0.006*"well" + 0.005*"strong" + 0.005*"leaders" + 0.005*"plans" + 0.005*"improve" + 0.004*"home" + 0.004*"decisions" + 0.004*"need"']</t>
+    <t>['0.021*"’" + 0.006*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"home" + 0.005*"strong" + 0.005*"leaders" + 0.004*"Hampshire" + 0.004*"quality" + 0.004*"highly"', '0.016*"’" + 0.007*"needs" + 0.005*"well" + 0.005*"plans" + 0.005*"quality" + 0.004*"improve" + 0.003*"need" + 0.003*"Hampshire" + 0.003*"leaders" + 0.003*"highly"', '0.018*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"well" + 0.005*"quality" + 0.004*"leaders" + 0.004*"strong" + 0.004*"health" + 0.004*"highly" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80473</t>
@@ -1558,7 +1558,7 @@
     <t>0.2081</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.010*"well" + 0.006*"quality" + 0.005*"strong" + 0.005*"plans" + 0.005*"progress" + 0.004*"practice" + 0.004*"needs" + 0.004*"good" + 0.004*"timely"', '0.020*"’" + 0.008*"well" + 0.007*"quality" + 0.006*"good" + 0.005*"plans" + 0.005*"strong" + 0.005*"progress" + 0.004*"early" + 0.004*"need" + 0.004*"education"', '0.012*"’" + 0.008*"well" + 0.006*"strong" + 0.006*"quality" + 0.005*"good" + 0.004*"impact" + 0.004*"needs" + 0.004*"timely" + 0.004*"practice" + 0.003*"health"']</t>
+    <t>['0.017*"’" + 0.009*"well" + 0.007*"quality" + 0.005*"strong" + 0.005*"practice" + 0.004*"early" + 0.004*"plans" + 0.004*"improve" + 0.004*"good" + 0.004*"experiences"', '0.015*"’" + 0.007*"well" + 0.007*"quality" + 0.004*"progress" + 0.004*"impact" + 0.004*"good" + 0.004*"‘" + 0.004*"needs" + 0.004*"strong" + 0.004*"early"', '0.016*"’" + 0.010*"well" + 0.007*"strong" + 0.006*"good" + 0.006*"quality" + 0.005*"plans" + 0.004*"education" + 0.004*"timely" + 0.004*"impact" + 0.004*"need"']</t>
   </si>
   <si>
     <t>80474</t>
@@ -1591,7 +1591,7 @@
     <t>0.1018</t>
   </si>
   <si>
-    <t>['0.022*"’" + 0.007*"practice" + 0.006*"needs" + 0.005*"lack" + 0.005*"Herefordshire" + 0.005*"impact" + 0.004*"agency" + 0.004*"18" + 0.004*"progress" + 0.004*"plans"', '0.011*"’" + 0.006*"Herefordshire" + 0.005*"many" + 0.005*"quality" + 0.005*"lack" + 0.004*"practice" + 0.004*"impact" + 0.004*"oversight" + 0.004*"agency" + 0.004*"ensure"', '0.016*"’" + 0.005*"impact" + 0.005*"Herefordshire" + 0.005*"lack" + 0.005*"practice" + 0.005*"many" + 0.004*"plans" + 0.004*"18" + 0.004*"across" + 0.004*"management"']</t>
+    <t>['0.016*"’" + 0.006*"practice" + 0.005*"Herefordshire" + 0.005*"lack" + 0.004*"management" + 0.004*"progress" + 0.004*"needs" + 0.004*"impact" + 0.004*"carers" + 0.004*"identified"', '0.016*"’" + 0.006*"Herefordshire" + 0.005*"many" + 0.005*"practice" + 0.005*"needs" + 0.004*"lack" + 0.004*"oversight" + 0.004*"plans" + 0.004*"quality" + 0.004*"carers"', '0.020*"’" + 0.006*"impact" + 0.005*"lack" + 0.005*"practice" + 0.005*"Herefordshire" + 0.005*"needs" + 0.005*"many" + 0.005*"2022" + 0.005*"plans" + 0.004*"risk"']</t>
   </si>
   <si>
     <t>80475</t>
@@ -1624,7 +1624,7 @@
     <t>0.1744</t>
   </si>
   <si>
-    <t>['0.025*"’" + 0.008*"well" + 0.007*"needs" + 0.006*"Hertfordshire" + 0.006*"plans" + 0.005*"need" + 0.005*"receive" + 0.004*"risk" + 0.004*"‘" + 0.004*"23"', '0.019*"’" + 0.006*"Hertfordshire" + 0.005*"well" + 0.005*"needs" + 0.004*"receive" + 0.004*"plans" + 0.004*"effective" + 0.004*"risk" + 0.004*"January" + 0.004*"positive"', '0.024*"’" + 0.008*"Hertfordshire" + 0.006*"needs" + 0.006*"receive" + 0.006*"well" + 0.004*"leaders" + 0.004*"2023" + 0.004*"family" + 0.004*"27" + 0.004*"23"']</t>
+    <t>['0.023*"’" + 0.007*"Hertfordshire" + 0.006*"needs" + 0.005*"well" + 0.005*"receive" + 0.005*"risk" + 0.004*"2023" + 0.004*"working" + 0.004*"23" + 0.004*"plans"', '0.025*"’" + 0.007*"well" + 0.007*"Hertfordshire" + 0.005*"needs" + 0.005*"need" + 0.005*"receive" + 0.005*"23" + 0.005*"leaders" + 0.004*"2023" + 0.004*"27"', '0.020*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.005*"receive" + 0.004*"positive" + 0.004*"Hertfordshire" + 0.004*"risk" + 0.004*"effective" + 0.004*"‘"']</t>
   </si>
   <si>
     <t>80419</t>
@@ -1654,7 +1654,7 @@
     <t>0.1908</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"leaders" + 0.005*"plans" + 0.005*"30" + 0.005*"well" + 0.005*"protection" + 0.005*"practice" + 0.004*"supported" + 0.004*"Senior" + 0.004*"November"', '0.015*"’" + 0.010*"leaders" + 0.006*"needs" + 0.005*"3" + 0.005*"November" + 0.005*"plans" + 0.005*"progress" + 0.005*"practice" + 0.005*"improve" + 0.005*"Senior"', '0.022*"’" + 0.009*"leaders" + 0.007*"well" + 0.006*"needs" + 0.006*"progress" + 0.006*"Isle" + 0.006*"Wight" + 0.005*"PAs" + 0.005*"good" + 0.005*"supported"']</t>
+    <t>['0.015*"’" + 0.007*"leaders" + 0.006*"supported" + 0.006*"well" + 0.006*"Wight" + 0.006*"needs" + 0.006*"improve" + 0.005*"progress" + 0.005*"Senior" + 0.005*"good"', '0.017*"’" + 0.008*"leaders" + 0.006*"well" + 0.005*"progress" + 0.005*"plans" + 0.005*"needs" + 0.005*"3" + 0.005*"Isle" + 0.005*"supported" + 0.004*"good"', '0.021*"’" + 0.009*"leaders" + 0.006*"needs" + 0.006*"practice" + 0.005*"3" + 0.005*"Isle" + 0.005*"plans" + 0.005*"Senior" + 0.005*"PAs" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80476</t>
@@ -1678,7 +1678,7 @@
     <t>0.2202</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.007*"Kent" + 0.005*"Council" + 0.004*"needs" + 0.004*"supported" + 0.004*"practice" + 0.003*"progress" + 0.003*"impact" + 0.003*"well" + 0.003*"arrangements"', '0.021*"’" + 0.012*"Kent" + 0.009*"needs" + 0.007*"supported" + 0.006*"well" + 0.006*"progress" + 0.005*"Council" + 0.005*"County" + 0.005*"including" + 0.004*"practice"', '0.020*"’" + 0.009*"Kent" + 0.007*"well" + 0.007*"needs" + 0.007*"Council" + 0.006*"County" + 0.005*"supported" + 0.005*"practice" + 0.004*"plans" + 0.004*"leaders"']</t>
+    <t>['0.016*"’" + 0.011*"Kent" + 0.008*"needs" + 0.007*"well" + 0.006*"Council" + 0.005*"County" + 0.005*"supported" + 0.004*"including" + 0.004*"practice" + 0.004*"2022"', '0.022*"’" + 0.008*"Kent" + 0.007*"needs" + 0.006*"Council" + 0.006*"supported" + 0.006*"well" + 0.005*"progress" + 0.005*"leaders" + 0.005*"County" + 0.004*"ensure"', '0.015*"’" + 0.010*"Kent" + 0.006*"County" + 0.005*"needs" + 0.005*"supported" + 0.005*"practice" + 0.005*"Council" + 0.005*"well" + 0.004*"impact" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80477</t>
@@ -1708,7 +1708,7 @@
     <t>0.1534</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.007*"need" + 0.007*"practice" + 0.006*"protection" + 0.006*"Hull" + 0.006*"planning" + 0.006*"number" + 0.006*"well" + 0.006*"impact" + 0.006*"risks"', '0.014*"’" + 0.006*"number" + 0.006*"planning" + 0.006*"oversight" + 0.006*"protection" + 0.005*"agency" + 0.005*"Hull" + 0.005*"well" + 0.005*"14" + 0.005*"management"', '0.019*"’" + 0.008*"number" + 0.007*"planning" + 0.006*"well" + 0.006*"management" + 0.006*"practice" + 0.005*"protection" + 0.005*"small" + 0.005*"risks" + 0.005*"progress"']</t>
+    <t>['0.018*"’" + 0.008*"planning" + 0.007*"number" + 0.007*"protection" + 0.007*"well" + 0.005*"practice" + 0.005*"Hull" + 0.005*"impact" + 0.005*"oversight" + 0.005*"right"', '0.014*"’" + 0.007*"Hull" + 0.006*"management" + 0.006*"number" + 0.006*"practice" + 0.006*"need" + 0.006*"planning" + 0.005*"well" + 0.005*"teams" + 0.005*"agency"', '0.015*"’" + 0.007*"number" + 0.006*"risks" + 0.006*"need" + 0.006*"practice" + 0.006*"protection" + 0.006*"management" + 0.006*"small" + 0.006*"planning" + 0.005*"well"']</t>
   </si>
   <si>
     <t>80478</t>
@@ -1741,7 +1741,7 @@
     <t>0.1559</t>
   </si>
   <si>
-    <t>['0.010*"’" + 0.006*"practice" + 0.006*"quality" + 0.006*"needs" + 0.005*"good" + 0.005*"well" + 0.005*"protection" + 0.005*"training" + 0.004*"senior" + 0.004*"risk"', '0.014*"’" + 0.007*"quality" + 0.007*"good" + 0.007*"practice" + 0.006*"permanence" + 0.006*"plans" + 0.006*"Senior" + 0.005*"well" + 0.005*"senior" + 0.005*"training"', '0.010*"’" + 0.006*"quality" + 0.005*"good" + 0.005*"practice" + 0.005*"need" + 0.004*"well" + 0.004*"protection" + 0.004*"plans" + 0.004*"training" + 0.004*"team"']</t>
+    <t>['0.014*"’" + 0.006*"practice" + 0.006*"good" + 0.006*"quality" + 0.005*"needs" + 0.005*"Senior" + 0.004*"well" + 0.004*"protection" + 0.004*"response" + 0.004*"plans"', '0.008*"’" + 0.008*"quality" + 0.006*"permanence" + 0.006*"good" + 0.006*"practice" + 0.005*"plans" + 0.005*"protection" + 0.005*"well" + 0.005*"senior" + 0.005*"needs"', '0.012*"’" + 0.006*"practice" + 0.006*"training" + 0.005*"good" + 0.005*"plans" + 0.005*"well" + 0.005*"quality" + 0.005*"senior" + 0.005*"need" + 0.005*"permanence"']</t>
   </si>
   <si>
     <t>80479</t>
@@ -1783,7 +1783,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.008*"progress" + 0.008*"plans" + 0.007*"needs" + 0.006*"quality" + 0.006*"2021" + 0.006*"good" + 0.006*"Knowsley" + 0.005*"abuse" + 0.005*"need"', '0.011*"’" + 0.008*"progress" + 0.007*"plans" + 0.006*"needs" + 0.006*"Knowsley" + 0.005*"11" + 0.005*"quality" + 0.005*"impact" + 0.005*"2021" + 0.005*"experiences"', '0.017*"’" + 0.008*"progress" + 0.008*"quality" + 0.008*"needs" + 0.006*"plans" + 0.006*"Knowsley" + 0.006*"22" + 0.006*"2021" + 0.005*"experiences" + 0.005*"need"']</t>
+    <t>['0.013*"’" + 0.007*"progress" + 0.006*"plans" + 0.006*"quality" + 0.006*"needs" + 0.005*"Knowsley" + 0.005*"22" + 0.004*"need" + 0.004*"experiences" + 0.004*"domestic"', '0.014*"’" + 0.008*"needs" + 0.007*"progress" + 0.007*"Knowsley" + 0.006*"plans" + 0.006*"quality" + 0.006*"2021" + 0.006*"experiences" + 0.005*"good" + 0.005*"need"', '0.015*"’" + 0.010*"progress" + 0.008*"plans" + 0.007*"needs" + 0.007*"quality" + 0.006*"2021" + 0.006*"Knowsley" + 0.005*"good" + 0.005*"11" + 0.005*"place"']</t>
   </si>
   <si>
     <t>80480</t>
@@ -1816,7 +1816,7 @@
     <t>0.1671</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.009*"well" + 0.007*"need" + 0.006*"Lancashire" + 0.006*"health" + 0.005*"needs" + 0.005*"28" + 0.005*"supported" + 0.005*"live" + 0.004*"homes"', '0.018*"’" + 0.009*"needs" + 0.009*"well" + 0.007*"need" + 0.006*"Lancashire" + 0.006*"plans" + 0.006*"practice" + 0.006*"positive" + 0.005*"live" + 0.005*"number"', '0.016*"’" + 0.009*"well" + 0.007*"need" + 0.007*"needs" + 0.006*"supported" + 0.005*"homes" + 0.005*"Lancashire" + 0.005*"plans" + 0.005*"practice" + 0.005*"positive"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.008*"need" + 0.008*"needs" + 0.007*"Lancashire" + 0.005*"number" + 0.005*"plans" + 0.005*"parents" + 0.005*"live" + 0.005*"positive"', '0.023*"’" + 0.008*"well" + 0.008*"needs" + 0.007*"need" + 0.007*"supported" + 0.006*"practice" + 0.006*"plans" + 0.006*"progress" + 0.006*"parents" + 0.005*"positive"', '0.009*"’" + 0.009*"well" + 0.006*"need" + 0.006*"Lancashire" + 0.005*"needs" + 0.005*"plans" + 0.005*"homes" + 0.004*"2022" + 0.004*"28" + 0.004*"progress"']</t>
   </si>
   <si>
     <t>80481</t>
@@ -1846,7 +1846,7 @@
     <t>0.1792</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"needs" + 0.007*"Leeds" + 0.006*"well" + 0.005*"risk" + 0.005*"4" + 0.005*"practice" + 0.004*"ensure" + 0.004*"plans" + 0.004*"March"', '0.011*"’" + 0.006*"Leeds" + 0.005*"ensure" + 0.004*"needs" + 0.004*"risk" + 0.004*"protection" + 0.004*"well" + 0.004*"February" + 0.004*"21" + 0.003*"practice"', '0.018*"’" + 0.008*"Leeds" + 0.007*"needs" + 0.006*"well" + 0.006*"risk" + 0.005*"supported" + 0.005*"protection" + 0.005*"plans" + 0.005*"practice" + 0.004*"2022"']</t>
+    <t>['0.015*"’" + 0.007*"needs" + 0.006*"Leeds" + 0.005*"well" + 0.005*"risk" + 0.005*"protection" + 0.004*"practice" + 0.004*"2022" + 0.004*"risks" + 0.004*"4"', '0.015*"’" + 0.007*"Leeds" + 0.006*"needs" + 0.005*"ensure" + 0.005*"risk" + 0.004*"protection" + 0.004*"practice" + 0.004*"2022" + 0.004*"well" + 0.004*"benefit"', '0.017*"’" + 0.008*"Leeds" + 0.008*"needs" + 0.007*"well" + 0.006*"risk" + 0.005*"4" + 0.005*"plans" + 0.005*"supported" + 0.005*"21" + 0.005*"practice"']</t>
   </si>
   <si>
     <t>80482</t>
@@ -1882,7 +1882,7 @@
     <t>0.2013</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.010*"well" + 0.008*"2021" + 0.007*"Leicester" + 0.007*"needs" + 0.006*"good" + 0.006*"20" + 0.005*"Council" + 0.005*"ensure" + 0.005*"including"', '0.022*"’" + 0.008*"well" + 0.008*"Leicester" + 0.008*"2021" + 0.007*"needs" + 0.006*"ensure" + 0.006*"1" + 0.005*"good" + 0.005*"improve" + 0.005*"including"', '0.016*"’" + 0.009*"2021" + 0.008*"well" + 0.008*"Leicester" + 0.007*"number" + 0.006*"good" + 0.006*"needs" + 0.006*"ensure" + 0.005*"1" + 0.005*"high"']</t>
+    <t>['0.019*"’" + 0.010*"well" + 0.010*"2021" + 0.007*"Leicester" + 0.006*"needs" + 0.006*"ensure" + 0.006*"good" + 0.005*"20" + 0.005*"number" + 0.005*"1"', '0.024*"’" + 0.009*"2021" + 0.009*"Leicester" + 0.008*"well" + 0.007*"needs" + 0.007*"good" + 0.006*"number" + 0.005*"1" + 0.005*"20" + 0.005*"ensure"', '0.015*"’" + 0.008*"well" + 0.006*"Leicester" + 0.006*"needs" + 0.006*"ensure" + 0.005*"2021" + 0.004*"number" + 0.004*"including" + 0.004*"good" + 0.004*"20"']</t>
   </si>
   <si>
     <t>80483</t>
@@ -1918,7 +1918,7 @@
     <t>0.1795</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.007*"needs" + 0.007*"well" + 0.007*"good" + 0.006*"effective" + 0.006*"quality" + 0.005*"practice" + 0.005*"education" + 0.004*"impact" + 0.004*"leaders"', '0.012*"’" + 0.009*"well" + 0.008*"good" + 0.007*"effective" + 0.006*"needs" + 0.006*"quality" + 0.005*"impact" + 0.005*"need" + 0.005*"risk" + 0.005*"practice"', '0.012*"’" + 0.008*"good" + 0.007*"needs" + 0.006*"well" + 0.006*"practice" + 0.006*"quality" + 0.006*"effective" + 0.005*"education" + 0.005*"need" + 0.005*"impact"']</t>
+    <t>['0.012*"’" + 0.010*"good" + 0.009*"well" + 0.008*"needs" + 0.006*"effective" + 0.005*"practice" + 0.005*"education" + 0.005*"impact" + 0.004*"quality" + 0.004*"need"', '0.009*"’" + 0.006*"good" + 0.006*"well" + 0.005*"effective" + 0.005*"need" + 0.005*"quality" + 0.005*"practice" + 0.004*"needs" + 0.004*"risk" + 0.003*"education"', '0.012*"’" + 0.008*"well" + 0.008*"quality" + 0.007*"effective" + 0.007*"needs" + 0.006*"good" + 0.006*"impact" + 0.006*"practice" + 0.005*"leaders" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80484</t>
@@ -1951,7 +1951,7 @@
     <t>0.2164</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"Lincolnshire" + 0.007*"needs" + 0.006*"well" + 0.004*"family" + 0.004*"plans" + 0.004*"28" + 0.004*"24" + 0.004*"April" + 0.004*"education"', '0.024*"’" + 0.008*"Lincolnshire" + 0.006*"needs" + 0.006*"well" + 0.005*"plans" + 0.005*"family" + 0.004*"progress" + 0.004*"24" + 0.004*"2023" + 0.004*"working"', '0.020*"’" + 0.007*"needs" + 0.006*"Lincolnshire" + 0.006*"progress" + 0.005*"well" + 0.005*"plans" + 0.004*"need" + 0.004*"family" + 0.004*"24" + 0.004*"effective"']</t>
+    <t>['0.017*"’" + 0.007*"Lincolnshire" + 0.005*"needs" + 0.005*"family" + 0.005*"plans" + 0.004*"well" + 0.004*"24" + 0.004*"progress" + 0.004*"28" + 0.004*"2023"', '0.027*"’" + 0.008*"Lincolnshire" + 0.008*"needs" + 0.007*"well" + 0.005*"progress" + 0.005*"plans" + 0.005*"need" + 0.004*"April" + 0.004*"family" + 0.004*"working"', '0.017*"’" + 0.006*"needs" + 0.006*"Lincolnshire" + 0.005*"well" + 0.005*"plans" + 0.004*"24" + 0.004*"progress" + 0.004*"education" + 0.004*"28" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80485</t>
@@ -1984,7 +1984,7 @@
     <t>0.1202</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.008*"needs" + 0.007*"practice" + 0.007*"always" + 0.006*"need" + 0.005*"Liverpool" + 0.005*"quality" + 0.004*"met" + 0.004*"13" + 0.004*"timely"', '0.020*"’" + 0.007*"need" + 0.007*"practice" + 0.007*"Liverpool" + 0.007*"protection" + 0.006*"needs" + 0.006*"always" + 0.006*"quality" + 0.005*"harm" + 0.004*"13"', '0.016*"’" + 0.008*"needs" + 0.006*"always" + 0.006*"quality" + 0.005*"practice" + 0.005*"met" + 0.005*"need" + 0.005*"Liverpool" + 0.004*"senior" + 0.004*"24"']</t>
+    <t>['0.025*"’" + 0.008*"always" + 0.007*"needs" + 0.007*"need" + 0.007*"quality" + 0.007*"practice" + 0.006*"Liverpool" + 0.005*"met" + 0.005*"harm" + 0.005*"timely"', '0.015*"’" + 0.007*"practice" + 0.006*"Liverpool" + 0.006*"need" + 0.006*"protection" + 0.005*"needs" + 0.005*"always" + 0.004*"PAs" + 0.004*"24" + 0.004*"quality"', '0.015*"’" + 0.008*"needs" + 0.006*"practice" + 0.006*"Liverpool" + 0.005*"need" + 0.005*"always" + 0.005*"quality" + 0.005*"protection" + 0.005*"24" + 0.004*"13"']</t>
   </si>
   <si>
     <t>80486</t>
@@ -2020,7 +2020,7 @@
     <t>0.2002</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.008*"needs" + 0.006*"plans" + 0.005*"good" + 0.005*"information" + 0.005*"carers" + 0.005*"progress" + 0.004*"practice" + 0.004*"well" + 0.004*"10"', '0.020*"’" + 0.006*"needs" + 0.006*"good" + 0.005*"plans" + 0.005*"well" + 0.005*"progress" + 0.005*"information" + 0.005*"carers" + 0.005*"practice" + 0.004*"planning"', '0.025*"’" + 0.009*"needs" + 0.006*"plans" + 0.006*"good" + 0.005*"carers" + 0.005*"well" + 0.005*"practice" + 0.005*"e" + 0.005*"ensure" + 0.005*"21"']</t>
+    <t>['0.010*"’" + 0.005*"plans" + 0.004*"good" + 0.004*"needs" + 0.004*"practice" + 0.003*"London" + 0.003*"leaders" + 0.003*"planning" + 0.003*"carers" + 0.003*"information"', '0.029*"’" + 0.011*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"good" + 0.006*"carers" + 0.006*"information" + 0.005*"practice" + 0.005*"progress" + 0.005*"e"', '0.017*"’" + 0.005*"good" + 0.005*"needs" + 0.005*"carers" + 0.005*"plans" + 0.004*"practice" + 0.004*"ensure" + 0.004*"Barking" + 0.004*"progress" + 0.004*"well"']</t>
   </si>
   <si>
     <t>80487</t>
@@ -2059,7 +2059,7 @@
     <t>0.2188</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.012*"good" + 0.011*"needs" + 0.008*"well" + 0.008*"progress" + 0.008*"need" + 0.007*"plans" + 0.007*"ensure" + 0.006*"clear" + 0.005*"effective"', '0.016*"’" + 0.010*"well" + 0.009*"needs" + 0.009*"need" + 0.007*"good" + 0.006*"risk" + 0.006*"clear" + 0.005*"carers" + 0.005*"ensure" + 0.005*"quality"', '0.008*"’" + 0.007*"well" + 0.007*"good" + 0.006*"needs" + 0.005*"need" + 0.005*"plans" + 0.005*"progress" + 0.004*"quality" + 0.004*"appropriate" + 0.004*"ensure"']</t>
+    <t>['0.016*"’" + 0.009*"needs" + 0.009*"good" + 0.009*"well" + 0.008*"progress" + 0.007*"need" + 0.006*"risk" + 0.006*"clear" + 0.005*"plans" + 0.005*"ensure"', '0.009*"’" + 0.009*"good" + 0.007*"needs" + 0.006*"well" + 0.006*"plans" + 0.006*"need" + 0.005*"risk" + 0.005*"progress" + 0.005*"ensure" + 0.005*"quality"', '0.016*"’" + 0.011*"needs" + 0.010*"well" + 0.010*"good" + 0.009*"need" + 0.006*"ensure" + 0.006*"clear" + 0.006*"plans" + 0.005*"progress" + 0.005*"effective"']</t>
   </si>
   <si>
     <t>80488</t>
@@ -2083,7 +2083,7 @@
     <t>06/02/2023</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.006*"well" + 0.006*"needs" + 0.005*"10" + 0.005*"clear" + 0.005*"plans" + 0.005*"Bexley" + 0.004*"effective" + 0.004*"need" + 0.004*"make"', '0.016*"’" + 0.007*"needs" + 0.006*"effective" + 0.006*"well" + 0.005*"Bexley" + 0.005*"plans" + 0.004*"need" + 0.004*"including" + 0.004*"helps" + 0.004*"level"', '0.026*"’" + 0.007*"need" + 0.006*"well" + 0.006*"needs" + 0.006*"effective" + 0.005*"plans" + 0.005*"Bexley" + 0.005*"progress" + 0.005*"practice" + 0.004*"6"']</t>
+    <t>['0.022*"’" + 0.007*"well" + 0.007*"plans" + 0.006*"effective" + 0.006*"needs" + 0.006*"need" + 0.005*"Bexley" + 0.005*"practice" + 0.004*"including" + 0.004*"make"', '0.022*"’" + 0.007*"needs" + 0.006*"well" + 0.006*"need" + 0.006*"effective" + 0.005*"Bexley" + 0.005*"10" + 0.004*"2023" + 0.004*"6" + 0.004*"plans"', '0.012*"’" + 0.005*"Bexley" + 0.005*"needs" + 0.005*"well" + 0.004*"oversight" + 0.004*"effective" + 0.004*"need" + 0.004*"10" + 0.004*"February" + 0.004*"make"']</t>
   </si>
   <si>
     <t>80489</t>
@@ -2113,7 +2113,7 @@
     <t>0.1959</t>
   </si>
   <si>
-    <t>['0.021*"’" + 0.009*"well" + 0.008*"leaders" + 0.008*"plans" + 0.007*"progress" + 0.006*"good" + 0.006*"Brent" + 0.006*"number" + 0.005*"small" + 0.005*"timely"', '0.017*"’" + 0.008*"well" + 0.007*"leaders" + 0.006*"quality" + 0.006*"senior" + 0.006*"progress" + 0.005*"good" + 0.005*"Brent" + 0.005*"number" + 0.005*"plans"', '0.011*"’" + 0.008*"well" + 0.006*"plans" + 0.006*"leaders" + 0.005*"progress" + 0.005*"number" + 0.005*"practice" + 0.005*"needs" + 0.005*"good" + 0.005*"range"']</t>
+    <t>['0.019*"’" + 0.009*"well" + 0.008*"leaders" + 0.007*"good" + 0.006*"plans" + 0.006*"progress" + 0.006*"Brent" + 0.006*"needs" + 0.005*"quality" + 0.005*"practice"', '0.018*"’" + 0.009*"well" + 0.007*"plans" + 0.007*"progress" + 0.006*"number" + 0.006*"leaders" + 0.006*"quality" + 0.006*"good" + 0.005*"senior" + 0.005*"practice"', '0.014*"’" + 0.007*"well" + 0.007*"leaders" + 0.006*"senior" + 0.006*"plans" + 0.005*"Brent" + 0.005*"progress" + 0.005*"practice" + 0.005*"number" + 0.005*"However"']</t>
   </si>
   <si>
     <t>80490</t>
@@ -2149,7 +2149,7 @@
     <t>0.1797</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.009*"Bromley" + 0.007*"well" + 0.007*"plans" + 0.006*"needs" + 0.006*"practice" + 0.005*"leaders" + 0.005*"education" + 0.005*"progress" + 0.004*"health"', '0.018*"’" + 0.008*"Bromley" + 0.007*"needs" + 0.006*"well" + 0.005*"leaders" + 0.005*"plans" + 0.004*"practice" + 0.004*"health" + 0.004*"strong" + 0.004*"access"', '0.022*"’" + 0.010*"Bromley" + 0.007*"needs" + 0.007*"well" + 0.005*"leaders" + 0.005*"education" + 0.005*"plans" + 0.005*"practice" + 0.004*"health" + 0.004*"YPAs"']</t>
+    <t>['0.019*"’" + 0.008*"well" + 0.008*"Bromley" + 0.006*"plans" + 0.006*"needs" + 0.005*"practice" + 0.004*"health" + 0.004*"leaders" + 0.004*"progress" + 0.004*"YPAs"', '0.020*"’" + 0.009*"Bromley" + 0.008*"needs" + 0.007*"leaders" + 0.006*"education" + 0.006*"well" + 0.006*"plans" + 0.005*"practice" + 0.005*"health" + 0.005*"17"', '0.020*"’" + 0.010*"Bromley" + 0.007*"well" + 0.006*"needs" + 0.005*"plans" + 0.004*"practice" + 0.004*"leaders" + 0.004*"education" + 0.004*"health" + 0.004*"relationships"']</t>
   </si>
   <si>
     <t>80491</t>
@@ -2182,7 +2182,7 @@
     <t>0.1894</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.007*"practice" + 0.007*"Camden" + 0.007*"leaders" + 0.006*"protection" + 0.006*"well" + 0.006*"appropriate" + 0.005*"needs" + 0.005*"25" + 0.004*"meetings"', '0.011*"’" + 0.007*"Camden" + 0.006*"leaders" + 0.006*"practice" + 0.005*"response" + 0.005*"well" + 0.005*"health" + 0.005*"29" + 0.005*"needs" + 0.004*"protection"', '0.009*"’" + 0.007*"Camden" + 0.005*"leaders" + 0.005*"well" + 0.005*"needs" + 0.004*"progress" + 0.004*"29" + 0.003*"25" + 0.003*"April" + 0.003*"practice"']</t>
+    <t>['0.012*"’" + 0.008*"leaders" + 0.008*"Camden" + 0.007*"practice" + 0.006*"needs" + 0.006*"well" + 0.005*"protection" + 0.005*"response" + 0.004*"25" + 0.004*"appropriate"', '0.009*"’" + 0.007*"Camden" + 0.005*"well" + 0.005*"leaders" + 0.005*"practice" + 0.005*"needs" + 0.004*"25" + 0.004*"protection" + 0.004*"appropriate" + 0.004*"progress"', '0.011*"’" + 0.006*"Camden" + 0.006*"practice" + 0.005*"response" + 0.005*"leaders" + 0.005*"protection" + 0.005*"well" + 0.004*"29" + 0.004*"2022" + 0.004*"appropriate"']</t>
   </si>
   <si>
     <t>80492</t>
@@ -2212,7 +2212,7 @@
     <t>16/03/20</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"Croydon" + 0.005*"good" + 0.005*"risk" + 0.005*"quality" + 0.005*"ensure" + 0.005*"plans" + 0.004*"need"', '0.013*"’" + 0.008*"needs" + 0.006*"well" + 0.006*"quality" + 0.006*"Senior" + 0.006*"need" + 0.006*"effective" + 0.006*"Croydon" + 0.005*"plans" + 0.005*"ensure"', '0.012*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"ensure" + 0.005*"good" + 0.005*"Senior" + 0.005*"health" + 0.005*"improved" + 0.005*"Croydon" + 0.005*"education"']</t>
+    <t>['0.014*"’" + 0.008*"needs" + 0.008*"well" + 0.006*"Senior" + 0.005*"quality" + 0.005*"need" + 0.005*"Croydon" + 0.005*"good" + 0.005*"However" + 0.005*"ensure"', '0.011*"’" + 0.008*"needs" + 0.008*"well" + 0.006*"Croydon" + 0.005*"good" + 0.005*"effective" + 0.005*"quality" + 0.005*"plans" + 0.005*"need" + 0.005*"ensure"', '0.011*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"need" + 0.005*"Croydon" + 0.005*"Senior" + 0.005*"ensure" + 0.005*"risk" + 0.005*"health" + 0.005*"quality"']</t>
   </si>
   <si>
     <t>80493</t>
@@ -2248,7 +2248,7 @@
     <t>0.1711</t>
   </si>
   <si>
-    <t>['0.008*"’" + 0.007*"quality" + 0.007*"needs" + 0.005*"good" + 0.005*"Ealing" + 0.004*"progress" + 0.004*"experiences" + 0.004*"risk" + 0.004*"plans" + 0.004*"protection"', '0.012*"’" + 0.008*"quality" + 0.007*"good" + 0.006*"needs" + 0.005*"plans" + 0.005*"risk" + 0.005*"progress" + 0.005*"well" + 0.004*"oversight" + 0.004*"leaders"', '0.012*"quality" + 0.012*"’" + 0.007*"needs" + 0.007*"good" + 0.005*"plans" + 0.005*"progress" + 0.005*"risk" + 0.005*"experiences" + 0.005*"Ealing" + 0.004*"need"']</t>
+    <t>['0.014*"’" + 0.009*"quality" + 0.006*"needs" + 0.006*"good" + 0.005*"progress" + 0.004*"management" + 0.004*"experiences" + 0.004*"well" + 0.004*"risk" + 0.004*"always"', '0.010*"quality" + 0.009*"’" + 0.008*"needs" + 0.007*"plans" + 0.007*"good" + 0.005*"risk" + 0.005*"experiences" + 0.005*"provide" + 0.004*"well" + 0.004*"family"', '0.010*"quality" + 0.009*"’" + 0.006*"needs" + 0.006*"progress" + 0.006*"good" + 0.005*"Ealing" + 0.005*"risk" + 0.004*"well" + 0.004*"leaders" + 0.004*"family"']</t>
   </si>
   <si>
     <t>80494</t>
@@ -2281,7 +2281,7 @@
     <t>0.2022</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.009*"practice" + 0.009*"needs" + 0.008*"good" + 0.007*"effective" + 0.007*"quality" + 0.006*"leaders" + 0.006*"clear" + 0.006*"improve" + 0.006*"Enfield"', '0.011*"’" + 0.009*"ensure" + 0.008*"good" + 0.008*"needs" + 0.007*"timely" + 0.007*"effective" + 0.006*"clear" + 0.006*"Enfield" + 0.006*"practice" + 0.006*"leaders"', '0.015*"’" + 0.009*"needs" + 0.008*"ensure" + 0.007*"practice" + 0.006*"Enfield" + 0.006*"clear" + 0.006*"good" + 0.006*"quality" + 0.006*"timely" + 0.006*"appropriate"']</t>
+    <t>['0.012*"’" + 0.007*"Enfield" + 0.007*"needs" + 0.007*"quality" + 0.007*"good" + 0.006*"effective" + 0.006*"progress" + 0.006*"ensure" + 0.005*"improve" + 0.005*"clear"', '0.017*"’" + 0.010*"practice" + 0.010*"needs" + 0.009*"ensure" + 0.008*"clear" + 0.008*"good" + 0.007*"effective" + 0.006*"timely" + 0.006*"Enfield" + 0.006*"leaders"', '0.008*"’" + 0.006*"good" + 0.006*"needs" + 0.005*"ensure" + 0.005*"effective" + 0.005*"leaders" + 0.005*"progress" + 0.005*"practice" + 0.004*"timely" + 0.004*"Enfield"']</t>
   </si>
   <si>
     <t>80495</t>
@@ -2314,7 +2314,7 @@
     <t>0.2109</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"well" + 0.009*"needs" + 0.009*"good" + 0.007*"plans" + 0.006*"need" + 0.006*"range" + 0.005*"risks" + 0.005*"ensure" + 0.005*"quality"', '0.012*"’" + 0.010*"well" + 0.009*"plans" + 0.008*"good" + 0.007*"needs" + 0.006*"range" + 0.006*"need" + 0.006*"progress" + 0.006*"ensure" + 0.005*"risk"', '0.009*"’" + 0.008*"well" + 0.006*"need" + 0.006*"plans" + 0.006*"good" + 0.005*"needs" + 0.005*"range" + 0.004*"timely" + 0.004*"progress" + 0.004*"information"']</t>
+    <t>['0.013*"’" + 0.009*"needs" + 0.008*"plans" + 0.008*"good" + 0.007*"well" + 0.006*"need" + 0.006*"range" + 0.005*"ensure" + 0.005*"progress" + 0.004*"timely"', '0.014*"’" + 0.011*"well" + 0.008*"plans" + 0.008*"good" + 0.007*"needs" + 0.007*"range" + 0.007*"need" + 0.006*"risk" + 0.005*"quality" + 0.005*"ensure"', '0.010*"well" + 0.008*"good" + 0.008*"’" + 0.006*"plans" + 0.006*"progress" + 0.005*"need" + 0.005*"needs" + 0.004*"experiences" + 0.004*"risks" + 0.004*"range"']</t>
   </si>
   <si>
     <t>80496</t>
@@ -2353,7 +2353,7 @@
     <t>0.1417</t>
   </si>
   <si>
-    <t>['0.009*"’" + 0.009*"practice" + 0.007*"planning" + 0.006*"number" + 0.005*"within" + 0.005*"needs" + 0.005*"small" + 0.005*"progress" + 0.005*"However" + 0.005*"leaders"', '0.016*"’" + 0.011*"practice" + 0.007*"number" + 0.007*"effective" + 0.007*"needs" + 0.006*"planning" + 0.006*"plans" + 0.006*"including" + 0.006*"within" + 0.005*"making"', '0.013*"’" + 0.009*"practice" + 0.006*"effective" + 0.006*"quality" + 0.006*"plans" + 0.005*"number" + 0.005*"within" + 0.005*"including" + 0.005*"carers" + 0.005*"However"']</t>
+    <t>['0.010*"’" + 0.008*"practice" + 0.006*"effective" + 0.006*"number" + 0.006*"within" + 0.005*"plans" + 0.005*"needs" + 0.005*"quality" + 0.005*"carers" + 0.005*"However"', '0.013*"’" + 0.012*"practice" + 0.007*"number" + 0.007*"planning" + 0.006*"within" + 0.006*"need" + 0.006*"needs" + 0.005*"plans" + 0.005*"including" + 0.005*"effective"', '0.016*"’" + 0.009*"practice" + 0.006*"planning" + 0.006*"However" + 0.006*"small" + 0.006*"effective" + 0.006*"leaders" + 0.005*"quality" + 0.005*"including" + 0.005*"number"']</t>
   </si>
   <si>
     <t>80497</t>
@@ -2386,7 +2386,7 @@
     <t>0.2054</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.009*"needs" + 0.006*"appropriate" + 0.006*"good" + 0.006*"effective" + 0.006*"well" + 0.005*"arrangements" + 0.005*"ensure" + 0.005*"improve" + 0.004*"shared"', '0.013*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"effective" + 0.006*"leaders" + 0.005*"arrangements" + 0.005*"good" + 0.005*"ensure" + 0.005*"However" + 0.004*"appropriate"', '0.011*"’" + 0.011*"effective" + 0.009*"needs" + 0.008*"well" + 0.007*"appropriate" + 0.007*"good" + 0.006*"ensure" + 0.006*"education" + 0.005*"arrangements" + 0.005*"leaders"']</t>
+    <t>['0.008*"well" + 0.008*"’" + 0.008*"needs" + 0.007*"effective" + 0.006*"timely" + 0.005*"leaders" + 0.005*"good" + 0.005*"appropriate" + 0.005*"plans" + 0.005*"ensure"', '0.013*"’" + 0.009*"effective" + 0.008*"needs" + 0.007*"good" + 0.007*"appropriate" + 0.006*"well" + 0.006*"shared" + 0.005*"arrangements" + 0.005*"ensure" + 0.005*"risk"', '0.013*"’" + 0.008*"needs" + 0.008*"well" + 0.007*"effective" + 0.006*"improve" + 0.006*"appropriate" + 0.006*"arrangements" + 0.006*"ensure" + 0.005*"good" + 0.005*"education"']</t>
   </si>
   <si>
     <t>80498</t>
@@ -2410,7 +2410,7 @@
     <t>13/02/2023</t>
   </si>
   <si>
-    <t>['0.015*"’" + 0.007*"needs" + 0.006*"Haringey" + 0.006*"plans" + 0.005*"need" + 0.005*"24" + 0.004*"impact" + 0.004*"well" + 0.004*"good" + 0.004*"education"', '0.016*"’" + 0.010*"Haringey" + 0.007*"good" + 0.006*"needs" + 0.006*"plans" + 0.006*"well" + 0.006*"progress" + 0.006*"need" + 0.005*"education" + 0.004*"leaders"', '0.015*"’" + 0.009*"needs" + 0.008*"Haringey" + 0.008*"plans" + 0.006*"well" + 0.005*"good" + 0.005*"carers" + 0.004*"supported" + 0.004*"risk" + 0.004*"progress"']</t>
+    <t>['0.016*"’" + 0.009*"Haringey" + 0.008*"needs" + 0.007*"plans" + 0.006*"well" + 0.005*"need" + 0.005*"progress" + 0.005*"leaders" + 0.004*"timely" + 0.004*"risk"', '0.013*"’" + 0.008*"plans" + 0.008*"needs" + 0.006*"well" + 0.005*"Haringey" + 0.004*"good" + 0.004*"progress" + 0.004*"risk" + 0.004*"impact" + 0.004*"need"', '0.017*"’" + 0.010*"Haringey" + 0.007*"needs" + 0.007*"good" + 0.005*"need" + 0.005*"education" + 0.005*"well" + 0.005*"plans" + 0.005*"impact" + 0.004*"24"']</t>
   </si>
   <si>
     <t>80499</t>
@@ -2443,7 +2443,7 @@
     <t>0.2023</t>
   </si>
   <si>
-    <t>['0.009*"good" + 0.008*"well" + 0.008*"’" + 0.006*"needs" + 0.005*"impact" + 0.004*"protection" + 0.004*"practice" + 0.004*"school" + 0.004*"quality" + 0.004*"early"', '0.012*"’" + 0.011*"good" + 0.009*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"need" + 0.005*"practice" + 0.005*"protection" + 0.005*"early" + 0.005*"impact"', '0.013*"’" + 0.011*"good" + 0.009*"needs" + 0.008*"well" + 0.006*"impact" + 0.006*"experiences" + 0.005*"protection" + 0.005*"plans" + 0.005*"practice" + 0.005*"early"']</t>
+    <t>['0.012*"’" + 0.011*"good" + 0.009*"needs" + 0.009*"well" + 0.007*"impact" + 0.006*"practice" + 0.006*"plans" + 0.006*"protection" + 0.005*"experiences" + 0.005*"need"', '0.009*"’" + 0.008*"good" + 0.007*"well" + 0.006*"needs" + 0.005*"protection" + 0.005*"school" + 0.004*"early" + 0.004*"impact" + 0.004*"need" + 0.003*"Harrow"', '0.013*"’" + 0.012*"good" + 0.009*"well" + 0.008*"needs" + 0.006*"plans" + 0.005*"need" + 0.004*"experiences" + 0.004*"practice" + 0.004*"impact" + 0.004*"early"']</t>
   </si>
   <si>
     <t>80500</t>
@@ -2470,7 +2470,7 @@
     <t>16/02/24</t>
   </si>
   <si>
-    <t>['0.013*"’" + 0.011*"Havering" + 0.008*"quality" + 0.006*"effective" + 0.005*"plans" + 0.004*"needs" + 0.004*"22" + 0.004*"well" + 0.004*"11" + 0.004*"practice"', '0.018*"’" + 0.011*"Havering" + 0.009*"quality" + 0.008*"plans" + 0.007*"oversight" + 0.006*"effective" + 0.005*"22" + 0.004*"practice" + 0.004*"December" + 0.004*"needs"', '0.021*"’" + 0.012*"Havering" + 0.009*"quality" + 0.007*"plans" + 0.005*"needs" + 0.005*"11" + 0.004*"many" + 0.004*"effective" + 0.004*"oversight" + 0.004*"well"']</t>
+    <t>['0.022*"’" + 0.012*"Havering" + 0.009*"quality" + 0.008*"plans" + 0.006*"effective" + 0.005*"oversight" + 0.005*"22" + 0.005*"needs" + 0.005*"practice" + 0.004*"2023"', '0.013*"’" + 0.009*"Havering" + 0.006*"plans" + 0.006*"quality" + 0.005*"oversight" + 0.004*"areas" + 0.004*"needs" + 0.004*"effective" + 0.004*"11" + 0.004*"practice"', '0.016*"’" + 0.012*"Havering" + 0.010*"quality" + 0.006*"plans" + 0.005*"11" + 0.005*"effective" + 0.005*"oversight" + 0.005*"needs" + 0.004*"many" + 0.004*"December"']</t>
   </si>
   <si>
     <t>80501</t>
@@ -2509,7 +2509,7 @@
     <t>0.1861</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.009*"needs" + 0.009*"plans" + 0.007*"well" + 0.007*"Hillingdon" + 0.004*"need" + 0.004*"2" + 0.004*"6" + 0.004*"leaders" + 0.004*"good"', '0.012*"’" + 0.010*"needs" + 0.007*"plans" + 0.006*"Hillingdon" + 0.005*"well" + 0.004*"team" + 0.004*"need" + 0.004*"carers" + 0.004*"understand" + 0.004*"6"', '0.022*"’" + 0.009*"Hillingdon" + 0.009*"needs" + 0.009*"well" + 0.007*"plans" + 0.006*"team" + 0.005*"need" + 0.005*"2" + 0.005*"6" + 0.004*"2023"']</t>
+    <t>['0.016*"’" + 0.010*"needs" + 0.008*"Hillingdon" + 0.008*"well" + 0.007*"plans" + 0.004*"PAs" + 0.004*"2023" + 0.004*"leaders" + 0.004*"2" + 0.004*"need"', '0.015*"’" + 0.010*"needs" + 0.008*"Hillingdon" + 0.007*"plans" + 0.007*"well" + 0.005*"team" + 0.004*"2" + 0.004*"senior" + 0.003*"detailed" + 0.003*"timely"', '0.021*"’" + 0.009*"plans" + 0.008*"needs" + 0.008*"well" + 0.007*"Hillingdon" + 0.005*"need" + 0.005*"team" + 0.005*"6" + 0.004*"October" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80503</t>
@@ -2542,7 +2542,7 @@
     <t>0.1948</t>
   </si>
   <si>
-    <t>['0.014*"’" + 0.010*"needs" + 0.010*"well" + 0.007*"effective" + 0.006*"Hounslow" + 0.005*"timely" + 0.005*"plans" + 0.004*"oversight" + 0.004*"training" + 0.004*"progress"', '0.024*"’" + 0.010*"needs" + 0.009*"well" + 0.007*"effective" + 0.006*"Hounslow" + 0.006*"plans" + 0.005*"education" + 0.005*"16" + 0.005*"timely" + 0.005*"strong"', '0.020*"’" + 0.012*"needs" + 0.011*"well" + 0.008*"Hounslow" + 0.008*"effective" + 0.008*"timely" + 0.005*"plans" + 0.005*"progress" + 0.005*"2023" + 0.004*"experiences"']</t>
+    <t>['0.022*"’" + 0.011*"needs" + 0.007*"effective" + 0.007*"well" + 0.006*"Hounslow" + 0.005*"plans" + 0.005*"timely" + 0.004*"16" + 0.004*"oversight" + 0.004*"senior"', '0.021*"’" + 0.013*"needs" + 0.011*"well" + 0.008*"effective" + 0.007*"timely" + 0.007*"Hounslow" + 0.006*"experiences" + 0.005*"plans" + 0.005*"strong" + 0.005*"October"', '0.016*"’" + 0.011*"well" + 0.008*"Hounslow" + 0.008*"needs" + 0.007*"effective" + 0.006*"plans" + 0.005*"timely" + 0.005*"training" + 0.004*"oversight" + 0.004*"20"']</t>
   </si>
   <si>
     <t>80505</t>
@@ -2572,7 +2572,7 @@
     <t>0.209</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.011*"well" + 0.011*"needs" + 0.007*"plans" + 0.007*"highly" + 0.006*"good" + 0.006*"quality" + 0.006*"leaders" + 0.005*"practice" + 0.005*"Islington"', '0.013*"needs" + 0.009*"well" + 0.009*"’" + 0.006*"plans" + 0.005*"effective" + 0.005*"good" + 0.005*"highly" + 0.005*"leaders" + 0.005*"quality" + 0.004*"risk"', '0.010*"’" + 0.010*"well" + 0.009*"needs" + 0.007*"plans" + 0.005*"Islington" + 0.005*"highly" + 0.005*"good" + 0.005*"effective" + 0.005*"quality" + 0.005*"risk"']</t>
+    <t>['0.013*"needs" + 0.013*"’" + 0.013*"well" + 0.008*"plans" + 0.007*"highly" + 0.007*"good" + 0.007*"leaders" + 0.006*"effective" + 0.006*"Islington" + 0.005*"practice"', '0.015*"’" + 0.011*"needs" + 0.010*"well" + 0.007*"quality" + 0.005*"plans" + 0.005*"good" + 0.005*"highly" + 0.004*"risk" + 0.004*"effective" + 0.004*"leaders"', '0.007*"’" + 0.005*"needs" + 0.004*"well" + 0.004*"plans" + 0.004*"good" + 0.004*"quality" + 0.003*"early" + 0.003*"highly" + 0.003*"effective" + 0.003*"leaders"']</t>
   </si>
   <si>
     <t>80506</t>
@@ -2605,7 +2605,7 @@
     <t>16/12/22</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"Lambeth" + 0.006*"plans" + 0.006*"good" + 0.005*"impact" + 0.005*"leaders" + 0.005*"progress" + 0.004*"arrangements"', '0.015*"’" + 0.009*"well" + 0.009*"needs" + 0.006*"need" + 0.006*"good" + 0.006*"impact" + 0.005*"24" + 0.005*"Leaders" + 0.005*"number" + 0.005*"plans"', '0.017*"’" + 0.010*"needs" + 0.009*"plans" + 0.008*"well" + 0.007*"good" + 0.007*"Lambeth" + 0.007*"progress" + 0.006*"need" + 0.006*"leaders" + 0.005*"4"']</t>
+    <t>['0.011*"’" + 0.008*"needs" + 0.008*"plans" + 0.007*"good" + 0.006*"Lambeth" + 0.006*"well" + 0.005*"need" + 0.005*"progress" + 0.005*"November" + 0.004*"Leaders"', '0.012*"’" + 0.008*"well" + 0.008*"plans" + 0.007*"needs" + 0.007*"good" + 0.006*"Lambeth" + 0.006*"progress" + 0.006*"carers" + 0.005*"impact" + 0.005*"Leaders"', '0.020*"’" + 0.010*"needs" + 0.010*"well" + 0.006*"Lambeth" + 0.006*"plans" + 0.006*"good" + 0.006*"need" + 0.006*"impact" + 0.006*"leaders" + 0.005*"4"']</t>
   </si>
   <si>
     <t>80508</t>
@@ -2641,7 +2641,7 @@
     <t>0.1803</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"effective" + 0.005*"good" + 0.005*"plans" + 0.004*"Lewisham" + 0.004*"progress" + 0.004*"need" + 0.004*"benefit"', '0.012*"’" + 0.009*"well" + 0.008*"plans" + 0.008*"needs" + 0.006*"Lewisham" + 0.006*"effective" + 0.005*"progress" + 0.005*"good" + 0.005*"4" + 0.005*"arrangements"', '0.021*"’" + 0.008*"well" + 0.007*"needs" + 0.007*"plans" + 0.007*"effective" + 0.006*"Lewisham" + 0.005*"progress" + 0.005*"leaders" + 0.005*"4" + 0.005*"arrangements"']</t>
+    <t>['0.009*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"effective" + 0.006*"plans" + 0.005*"Lewisham" + 0.005*"progress" + 0.004*"supported" + 0.004*"leaders" + 0.004*"need"', '0.017*"’" + 0.007*"well" + 0.007*"effective" + 0.007*"needs" + 0.007*"plans" + 0.006*"Lewisham" + 0.005*"15" + 0.005*"receive" + 0.005*"good" + 0.004*"practice"', '0.023*"’" + 0.009*"well" + 0.008*"needs" + 0.007*"plans" + 0.006*"Lewisham" + 0.006*"progress" + 0.005*"4" + 0.005*"arrangements" + 0.005*"effective" + 0.005*"good"']</t>
   </si>
   <si>
     <t>80510</t>
@@ -2665,7 +2665,7 @@
     <t>0.1982</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.008*"Merton" + 0.008*"well" + 0.005*"needs" + 0.005*"family" + 0.005*"progress" + 0.005*"helping" + 0.004*"4" + 0.004*"2022" + 0.004*"practice"', '0.009*"’" + 0.005*"well" + 0.004*"needs" + 0.004*"Merton" + 0.004*"plans" + 0.004*"progress" + 0.004*"health" + 0.003*"risk" + 0.003*"family" + 0.003*"early"', '0.018*"’" + 0.009*"well" + 0.006*"needs" + 0.006*"Merton" + 0.006*"plans" + 0.005*"ensure" + 0.005*"good" + 0.004*"28" + 0.004*"information" + 0.004*"progress"']</t>
+    <t>['0.018*"’" + 0.009*"well" + 0.008*"Merton" + 0.006*"needs" + 0.005*"plans" + 0.004*"good" + 0.004*"health" + 0.004*"progress" + 0.004*"across" + 0.004*"helping"', '0.014*"’" + 0.006*"well" + 0.006*"needs" + 0.006*"Merton" + 0.005*"family" + 0.005*"progress" + 0.005*"ensure" + 0.005*"4" + 0.004*"plans" + 0.004*"information"', '0.013*"’" + 0.008*"well" + 0.005*"needs" + 0.005*"Merton" + 0.004*"family" + 0.004*"plans" + 0.004*"access" + 0.004*"information" + 0.004*"risk" + 0.004*"leaders"']</t>
   </si>
   <si>
     <t>80511</t>
@@ -2686,7 +2686,7 @@
     <t>https://files.ofsted.gov.uk/v1/file/50192878</t>
   </si>
   <si>
-    <t>['0.019*"’" + 0.008*"needs" + 0.007*"Newham" + 0.007*"need" + 0.006*"progress" + 0.006*"practice" + 0.005*"plans" + 0.005*"good" + 0.005*"effective" + 0.005*"receive"', '0.013*"’" + 0.007*"needs" + 0.007*"Newham" + 0.006*"plans" + 0.005*"need" + 0.005*"progress" + 0.004*"good" + 0.004*"effective" + 0.004*"practice" + 0.004*"Leaders"', '0.022*"’" + 0.008*"needs" + 0.007*"effective" + 0.007*"practice" + 0.006*"plans" + 0.006*"progress" + 0.006*"Newham" + 0.005*"need" + 0.005*"good" + 0.005*"18"']</t>
+    <t>['0.018*"’" + 0.008*"needs" + 0.007*"Newham" + 0.005*"effective" + 0.005*"need" + 0.005*"plans" + 0.005*"practice" + 0.005*"planning" + 0.005*"risks" + 0.004*"good"', '0.018*"’" + 0.010*"needs" + 0.008*"Newham" + 0.007*"practice" + 0.006*"plans" + 0.006*"need" + 0.006*"effective" + 0.005*"progress" + 0.005*"good" + 0.005*"ensure"', '0.020*"’" + 0.008*"progress" + 0.007*"plans" + 0.006*"need" + 0.006*"effective" + 0.006*"needs" + 0.006*"Newham" + 0.006*"good" + 0.005*"practice" + 0.004*"well"']</t>
   </si>
   <si>
     <t>80512</t>
@@ -2716,7 +2716,7 @@
     <t>0.2269</t>
   </si>
   <si>
-    <t>['0.007*"’" + 0.007*"practice" + 0.006*"need" + 0.006*"well" + 0.006*"needs" + 0.005*"Redbridge" + 0.005*"good" + 0.005*"effective" + 0.005*"risk" + 0.005*"team"', '0.007*"practice" + 0.007*"’" + 0.006*"effective" + 0.006*"well" + 0.006*"need" + 0.005*"needs" + 0.005*"risk" + 0.005*"Redbridge" + 0.005*"team" + 0.005*"strong"', '0.008*"’" + 0.007*"needs" + 0.007*"well" + 0.006*"strong" + 0.006*"practice" + 0.005*"progress" + 0.005*"ensure" + 0.005*"including" + 0.005*"Redbridge" + 0.005*"need"']</t>
+    <t>['0.007*"practice" + 0.006*"well" + 0.006*"needs" + 0.006*"’" + 0.005*"Redbridge" + 0.005*"strong" + 0.005*"risk" + 0.005*"need" + 0.005*"including" + 0.004*"protection"', '0.008*"’" + 0.007*"practice" + 0.006*"needs" + 0.005*"strong" + 0.005*"well" + 0.005*"Redbridge" + 0.005*"need" + 0.005*"effective" + 0.005*"risk" + 0.005*"ensure"', '0.008*"’" + 0.007*"need" + 0.007*"practice" + 0.007*"well" + 0.006*"needs" + 0.006*"effective" + 0.005*"including" + 0.005*"team" + 0.005*"progress" + 0.005*"Redbridge"']</t>
   </si>
   <si>
     <t>80513</t>
@@ -2743,7 +2743,7 @@
     <t>0.2056</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.011*"well" + 0.008*"needs" + 0.008*"Richmond" + 0.007*"supported" + 0.006*"need" + 0.006*"good" + 0.006*"team" + 0.005*"upon" + 0.005*"strong"', '0.012*"well" + 0.009*"’" + 0.009*"Richmond" + 0.006*"needs" + 0.005*"team" + 0.005*"need" + 0.005*"supported" + 0.005*"good" + 0.004*"ensure" + 0.004*"4"', '0.013*"’" + 0.010*"well" + 0.007*"Richmond" + 0.006*"needs" + 0.005*"team" + 0.005*"good" + 0.005*"supported" + 0.004*"January" + 0.004*"need" + 0.004*"additional"']</t>
+    <t>['0.018*"’" + 0.013*"well" + 0.010*"needs" + 0.009*"Richmond" + 0.007*"supported" + 0.007*"team" + 0.006*"need" + 0.006*"good" + 0.005*"4" + 0.005*"ensure"', '0.015*"’" + 0.011*"well" + 0.008*"Richmond" + 0.006*"supported" + 0.006*"good" + 0.006*"need" + 0.005*"team" + 0.005*"additional" + 0.005*"31" + 0.005*"upon"', '0.010*"’" + 0.006*"well" + 0.005*"needs" + 0.004*"Richmond" + 0.004*"strong" + 0.004*"need" + 0.003*"good" + 0.003*"January" + 0.003*"31" + 0.003*"team"']</t>
   </si>
   <si>
     <t>80514</t>
@@ -2773,7 +2773,7 @@
     <t>11/11/22</t>
   </si>
   <si>
-    <t>['0.018*"’" + 0.011*"needs" + 0.009*"good" + 0.009*"Southwark" + 0.008*"well" + 0.007*"plans" + 0.006*"strong" + 0.006*"Leaders" + 0.006*"leaders" + 0.005*"progress"', '0.022*"’" + 0.011*"Southwark" + 0.007*"progress" + 0.007*"good" + 0.007*"need" + 0.007*"well" + 0.005*"Leaders" + 0.005*"effective" + 0.005*"strong" + 0.005*"ensure"', '0.013*"’" + 0.007*"well" + 0.007*"Southwark" + 0.006*"good" + 0.006*"effective" + 0.005*"receive" + 0.005*"plans" + 0.005*"needs" + 0.005*"leaders" + 0.004*"30"']</t>
+    <t>['0.014*"’" + 0.010*"good" + 0.007*"needs" + 0.006*"Southwark" + 0.006*"well" + 0.006*"Leaders" + 0.005*"need" + 0.005*"plans" + 0.005*"progress" + 0.005*"leaders"', '0.018*"’" + 0.010*"Southwark" + 0.010*"well" + 0.008*"needs" + 0.007*"good" + 0.007*"plans" + 0.006*"effective" + 0.006*"need" + 0.006*"progress" + 0.005*"strong"', '0.022*"’" + 0.011*"Southwark" + 0.007*"good" + 0.006*"needs" + 0.006*"progress" + 0.006*"well" + 0.005*"strong" + 0.005*"receive" + 0.005*"need" + 0.005*"experiences"']</t>
   </si>
   <si>
     <t>80515</t>
@@ -2803,7 +2803,7 @@
     <t>0.2064</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.007*"well" + 0.007*"needs" + 0.005*"Sutton" + 0.004*"receive" + 0.004*"good" + 0.004*"December" + 0.004*"need" + 0.004*"6" + 0.004*"effective"', '0.019*"’" + 0.007*"well" + 0.006*"needs" + 0.005*"good" + 0.005*"Sutton" + 0.005*"effective" + 0.005*"need" + 0.005*"leaders" + 0.004*"progress" + 0.004*"receive"', '0.018*"’" + 0.007*"Sutton" + 0.007*"progress" + 0.006*"well" + 0.005*"effective" + 0.005*"receive" + 0.005*"6" + 0.005*"needs" + 0.005*"10" + 0.004*"good"']</t>
+    <t>['0.010*"’" + 0.006*"well" + 0.006*"progress" + 0.005*"needs" + 0.004*"receive" + 0.004*"10" + 0.004*"Sutton" + 0.004*"good" + 0.004*"‘" + 0.004*"effective"', '0.018*"’" + 0.008*"well" + 0.006*"good" + 0.005*"Sutton" + 0.004*"December" + 0.004*"effective" + 0.004*"progress" + 0.004*"understand" + 0.004*"protection" + 0.004*"receive"', '0.020*"’" + 0.007*"needs" + 0.007*"Sutton" + 0.006*"well" + 0.005*"effective" + 0.005*"receive" + 0.005*"progress" + 0.005*"6" + 0.005*"need" + 0.005*"10"']</t>
   </si>
   <si>
     <t>80516</t>
@@ -2833,7 +2833,7 @@
     <t>0.2155</t>
   </si>
   <si>
-    <t>['0.017*"’" + 0.007*"good" + 0.006*"need" + 0.006*"needs" + 0.006*"‘" + 0.005*"including" + 0.005*"effective" + 0.005*"well" + 0.005*"plans" + 0.005*"practice"', '0.014*"’" + 0.008*"plans" + 0.007*"effective" + 0.007*"good" + 0.006*"well" + 0.005*"‘" + 0.005*"early" + 0.005*"need" + 0.005*"progress" + 0.004*"practice"', '0.014*"’" + 0.007*"good" + 0.007*"practice" + 0.006*"effective" + 0.006*"‘" + 0.005*"plans" + 0.005*"carers" + 0.005*"well" + 0.005*"early" + 0.005*"progress"']</t>
+    <t>['0.014*"’" + 0.008*"well" + 0.006*"effective" + 0.006*"progress" + 0.006*"plans" + 0.006*"good" + 0.006*"‘" + 0.006*"practice" + 0.005*"including" + 0.005*"early"', '0.011*"’" + 0.007*"plans" + 0.006*"good" + 0.006*"‘" + 0.005*"need" + 0.005*"needs" + 0.005*"effective" + 0.005*"carers" + 0.004*"practice" + 0.004*"well"', '0.018*"’" + 0.008*"good" + 0.007*"effective" + 0.006*"need" + 0.005*"plans" + 0.005*"practice" + 0.005*"‘" + 0.005*"needs" + 0.005*"early" + 0.005*"risk"']</t>
   </si>
   <si>
     <t>80517</t>
@@ -2866,7 +2866,7 @@
     <t>0.2179</t>
   </si>
   <si>
-    <t>['0.016*"’" + 0.011*"well" + 0.007*"needs" + 0.007*"effective" + 0.007*"good" + 0.007*"need" + 0.006*"plans" + 0.004*"information" + 0.004*"receive" + 0.004*"risk"', '0.013*"’" + 0.010*"well" + 0.007*"needs" + 0.006*"good" + 0.005*"effective" + 0.005*"need" + 0.004*"risk" + 0.004*"plans" + 0.004*"actions" + 0.004*"timely"', '0.014*"’" + 0.013*"well" + 0.011*"needs" + 0.010*"good" + 0.008*"effective" + 0.006*"timely" + 0.006*"plans" + 0.006*"need" + 0.005*"risk" + 0.004*"protection"']</t>
+    <t>['0.014*"’" + 0.010*"well" + 0.008*"needs" + 0.006*"effective" + 0.005*"good" + 0.005*"need" + 0.004*"timely" + 0.004*"progress" + 0.004*"protection" + 0.004*"risk"', '0.014*"’" + 0.013*"well" + 0.009*"needs" + 0.008*"good" + 0.007*"effective" + 0.006*"plans" + 0.005*"need" + 0.005*"timely" + 0.005*"risk" + 0.005*"clear"', '0.015*"’" + 0.011*"well" + 0.011*"good" + 0.008*"needs" + 0.007*"effective" + 0.007*"need" + 0.005*"plans" + 0.004*"risk" + 0.004*"timely" + 0.004*"health"']</t>
   </si>
   <si>
     <t>80518</t>
@@ -2893,7 +2893,7 @@
     <t>18/11/2022</t>
   </si>
   <si>
-    <t>['0.011*"’" + 0.005*"well" + 0.005*"protection" + 0.005*"progress" + 0.005*"Wandsworth" + 0.005*"7" + 0.004*"good" + 0.004*"Senior" + 0.004*"practice" + 0.004*"alongside"', '0.013*"’" + 0.008*"well" + 0.006*"needs" + 0.006*"progress" + 0.006*"protection" + 0.006*"practice" + 0.005*"Senior" + 0.005*"ing" + 0.005*"supported" + 0.005*"7"', '0.011*"’" + 0.006*"Wandsworth" + 0.005*"well" + 0.005*"needs" + 0.005*"effective" + 0.005*"quality" + 0.005*"ensure" + 0.005*"Senior" + 0.005*"practice" + 0.004*"18"']</t>
+    <t>['0.012*"’" + 0.007*"well" + 0.006*"protection" + 0.006*"progress" + 0.006*"needs" + 0.006*"ensure" + 0.005*"practice" + 0.005*"good" + 0.005*"ing" + 0.005*"Wandsworth"', '0.013*"’" + 0.006*"well" + 0.005*"7" + 0.005*"practice" + 0.005*"Senior" + 0.005*"Wandsworth" + 0.005*"plans" + 0.005*"needs" + 0.004*"supported" + 0.004*"effective"', '0.010*"’" + 0.006*"well" + 0.006*"quality" + 0.006*"Senior" + 0.005*"18" + 0.005*"good" + 0.005*"supported" + 0.005*"progress" + 0.005*"needs" + 0.005*"Wandsworth"']</t>
   </si>
   <si>
     <t>80519</t>
@@ -2917,7 +2917,7 @@
     <t>0.181</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.006*"practice" + 0.005*"highly" + 0.004*"well" + 0.004*"across" + 0.004*"needs" + 0.004*"family" + 0.003*"high" + 0.003*"many" + 0.003*"shared"', '0.016*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"highly" + 0.006*"well" + 0.004*"many" + 0.004*"skilled" + 0.003*"across" + 0.003*"plans" + 0.003*"high"', '0.010*"’" + 0.007*"needs" + 0.007*"practice" + 0.005*"highly" + 0.005*"well" + 0.004*"family" + 0.004*"across" + 0.004*"many" + 0.004*"direct" + 0.004*"experiences"']</t>
+    <t>['0.013*"’" + 0.007*"practice" + 0.007*"needs" + 0.006*"highly" + 0.005*"well" + 0.004*"family" + 0.004*"across" + 0.004*"high" + 0.004*"plans" + 0.003*"skilled"', '0.014*"’" + 0.005*"practice" + 0.005*"well" + 0.005*"highly" + 0.005*"needs" + 0.004*"across" + 0.004*"many" + 0.003*"high" + 0.003*"quality" + 0.003*"direct"', '0.011*"’" + 0.007*"practice" + 0.006*"needs" + 0.006*"highly" + 0.004*"well" + 0.004*"many" + 0.003*"across" + 0.003*"family" + 0.003*"protection" + 0.003*"plans"']</t>
   </si>
   <si>
     <t>80520</t>
@@ -2950,7 +2950,7 @@
     <t>0.2106</t>
   </si>
   <si>
-    <t>['0.012*"’" + 0.005*"needs" + 0.004*"plans" + 0.004*"need" + 0.004*"Luton" + 0.004*"impact" + 0.003*"receive" + 0.003*"22" + 0.003*"good" + 0.003*"July"', '0.016*"’" + 0.008*"needs" + 0.007*"need" + 0.006*"Luton" + 0.006*"plans" + 0.006*"good" + 0.006*"progress" + 0.005*"effective" + 0.005*"Leaders" + 0.005*"impact"', '0.021*"’" + 0.006*"need" + 0.006*"effective" + 0.006*"plans" + 0.006*"ensure" + 0.005*"Luton" + 0.005*"good" + 0.005*"needs" + 0.005*"impact" + 0.005*"quality"']</t>
+    <t>['0.008*"’" + 0.006*"needs" + 0.005*"need" + 0.004*"Luton" + 0.004*"plans" + 0.004*"well" + 0.004*"good" + 0.004*"impact" + 0.003*"effective" + 0.003*"receive"', '0.018*"’" + 0.007*"need" + 0.006*"plans" + 0.006*"needs" + 0.006*"Luton" + 0.005*"effective" + 0.005*"ensure" + 0.005*"impact" + 0.005*"progress" + 0.004*"well"', '0.020*"’" + 0.006*"need" + 0.006*"good" + 0.006*"needs" + 0.006*"plans" + 0.006*"Luton" + 0.006*"effective" + 0.006*"progress" + 0.005*"quality" + 0.005*"impact"']</t>
   </si>
   <si>
     <t>80521</t>
@@ -2977,7 +2977,7 @@
     <t>19/05/22</t>
   </si>
   <si>
-    <t>['0.020*"’" + 0.012*"needs" + 0.011*"Manchester" + 0.007*"always" + 0.007*"well" + 0.006*"supported" + 0.006*"education" + 0.006*"quality" + 0.